--- a/DaySale_2025-08-08_00-00.xlsx
+++ b/DaySale_2025-08-08_00-00.xlsx
@@ -59,7 +59,7 @@
     <t>80.0000</t>
   </si>
   <si>
-    <t>Friday, 8 August, 2025 2:26 PM</t>
+    <t>Friday, 8 August, 2025 2:41 PM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-08-08_00-00.xlsx
+++ b/DaySale_2025-08-08_00-00.xlsx
@@ -44,22 +44,34 @@
     <t>عدد التعااملات</t>
   </si>
   <si>
+    <t>شفاط ثدي الجو</t>
+  </si>
+  <si>
+    <t>3:0</t>
+  </si>
+  <si>
+    <t>0</t>
+  </si>
+  <si>
+    <t>25.00</t>
+  </si>
+  <si>
+    <t>25.0000</t>
+  </si>
+  <si>
+    <t>1:0</t>
+  </si>
+  <si>
     <t xml:space="preserve">كريم شعر دابر املا </t>
   </si>
   <si>
-    <t>1:0</t>
-  </si>
-  <si>
-    <t>0</t>
-  </si>
-  <si>
     <t>80.00</t>
   </si>
   <si>
     <t>80.0000</t>
   </si>
   <si>
-    <t>Friday, 8 August, 2025 2:41 PM</t>
+    <t>Friday, 8 August, 2025 2:42 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -717,42 +729,75 @@
         <v>15</v>
       </c>
       <c t="s" r="Q7" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="8" ht="24.75" customHeight="1">
-      <c r="P8" s="13">
-        <v>80</v>
-      </c>
-      <c r="Q8" s="13"/>
+      <c r="A8" s="7">
+        <v>2</v>
+      </c>
+      <c r="B8" s="7"/>
+      <c t="s" r="C8" s="8">
+        <v>17</v>
+      </c>
+      <c r="D8" s="8"/>
+      <c r="E8" s="8"/>
+      <c r="F8" s="8"/>
+      <c r="G8" s="8"/>
+      <c t="s" r="H8" s="9">
+        <v>16</v>
+      </c>
+      <c r="I8" s="9"/>
+      <c r="J8" s="9"/>
+      <c r="K8" s="9"/>
+      <c t="s" r="L8" s="10">
+        <v>13</v>
+      </c>
+      <c r="M8" s="10"/>
+      <c t="s" r="N8" s="8">
+        <v>18</v>
+      </c>
+      <c r="O8" s="8"/>
+      <c t="s" r="P8" s="11">
+        <v>19</v>
+      </c>
+      <c t="s" r="Q8" s="12">
+        <v>16</v>
+      </c>
     </row>
-    <row r="9" ht="16.5" customHeight="1">
-      <c t="s" r="A9" s="14">
-        <v>16</v>
-      </c>
-      <c r="B9" s="14"/>
-      <c r="C9" s="14"/>
-      <c r="D9" s="14"/>
-      <c r="E9" s="14"/>
-      <c r="F9" s="14"/>
-      <c t="s" r="G9" s="15">
-        <v>17</v>
-      </c>
-      <c r="H9" s="15"/>
-      <c r="I9" s="15"/>
-      <c r="J9" s="16"/>
-      <c t="s" r="K9" s="17">
-        <v>18</v>
-      </c>
-      <c r="L9" s="17"/>
-      <c r="M9" s="17"/>
-      <c r="N9" s="17"/>
-      <c r="O9" s="17"/>
-      <c r="P9" s="17"/>
-      <c r="Q9" s="17"/>
+    <row r="9" ht="25.5" customHeight="1">
+      <c r="P9" s="13">
+        <v>105</v>
+      </c>
+      <c r="Q9" s="13"/>
+    </row>
+    <row r="10" ht="16.5" customHeight="1">
+      <c t="s" r="A10" s="14">
+        <v>20</v>
+      </c>
+      <c r="B10" s="14"/>
+      <c r="C10" s="14"/>
+      <c r="D10" s="14"/>
+      <c r="E10" s="14"/>
+      <c r="F10" s="14"/>
+      <c t="s" r="G10" s="15">
+        <v>21</v>
+      </c>
+      <c r="H10" s="15"/>
+      <c r="I10" s="15"/>
+      <c r="J10" s="16"/>
+      <c t="s" r="K10" s="17">
+        <v>22</v>
+      </c>
+      <c r="L10" s="17"/>
+      <c r="M10" s="17"/>
+      <c r="N10" s="17"/>
+      <c r="O10" s="17"/>
+      <c r="P10" s="17"/>
+      <c r="Q10" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="17">
+  <mergeCells count="22">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -766,10 +811,15 @@
     <mergeCell ref="H7:K7"/>
     <mergeCell ref="L7:M7"/>
     <mergeCell ref="N7:O7"/>
-    <mergeCell ref="P8:Q8"/>
-    <mergeCell ref="A9:F9"/>
-    <mergeCell ref="G9:I9"/>
-    <mergeCell ref="K9:Q9"/>
+    <mergeCell ref="A8:B8"/>
+    <mergeCell ref="C8:G8"/>
+    <mergeCell ref="H8:K8"/>
+    <mergeCell ref="L8:M8"/>
+    <mergeCell ref="N8:O8"/>
+    <mergeCell ref="P9:Q9"/>
+    <mergeCell ref="A10:F10"/>
+    <mergeCell ref="G10:I10"/>
+    <mergeCell ref="K10:Q10"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-08-08_00-00.xlsx
+++ b/DaySale_2025-08-08_00-00.xlsx
@@ -71,7 +71,7 @@
     <t>80.0000</t>
   </si>
   <si>
-    <t>Friday, 8 August, 2025 2:42 PM</t>
+    <t>Friday, 8 August, 2025 2:43 PM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-08-08_00-00.xlsx
+++ b/DaySale_2025-08-08_00-00.xlsx
@@ -71,7 +71,7 @@
     <t>80.0000</t>
   </si>
   <si>
-    <t>Friday, 8 August, 2025 2:43 PM</t>
+    <t>Friday, 8 August, 2025 2:54 PM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-08-08_00-00.xlsx
+++ b/DaySale_2025-08-08_00-00.xlsx
@@ -42,6 +42,24 @@
   </si>
   <si>
     <t>عدد التعااملات</t>
+  </si>
+  <si>
+    <t>KAPRON 500 MG 20 F.C.TABS.</t>
+  </si>
+  <si>
+    <t>1:1</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>110.00</t>
+  </si>
+  <si>
+    <t>55.0000</t>
+  </si>
+  <si>
+    <t>0:1</t>
   </si>
   <si>
     <t>شفاط ثدي الجو</t>
@@ -745,59 +763,92 @@
       <c r="F8" s="8"/>
       <c r="G8" s="8"/>
       <c t="s" r="H8" s="9">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="I8" s="9"/>
       <c r="J8" s="9"/>
       <c r="K8" s="9"/>
       <c t="s" r="L8" s="10">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="M8" s="10"/>
       <c t="s" r="N8" s="8">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="O8" s="8"/>
       <c t="s" r="P8" s="11">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c t="s" r="Q8" s="12">
-        <v>16</v>
+        <v>22</v>
       </c>
     </row>
     <row r="9" ht="25.5" customHeight="1">
-      <c r="P9" s="13">
-        <v>105</v>
-      </c>
-      <c r="Q9" s="13"/>
+      <c r="A9" s="7">
+        <v>3</v>
+      </c>
+      <c r="B9" s="7"/>
+      <c t="s" r="C9" s="8">
+        <v>23</v>
+      </c>
+      <c r="D9" s="8"/>
+      <c r="E9" s="8"/>
+      <c r="F9" s="8"/>
+      <c r="G9" s="8"/>
+      <c t="s" r="H9" s="9">
+        <v>22</v>
+      </c>
+      <c r="I9" s="9"/>
+      <c r="J9" s="9"/>
+      <c r="K9" s="9"/>
+      <c t="s" r="L9" s="10">
+        <v>19</v>
+      </c>
+      <c r="M9" s="10"/>
+      <c t="s" r="N9" s="8">
+        <v>24</v>
+      </c>
+      <c r="O9" s="8"/>
+      <c t="s" r="P9" s="11">
+        <v>25</v>
+      </c>
+      <c t="s" r="Q9" s="12">
+        <v>22</v>
+      </c>
     </row>
-    <row r="10" ht="16.5" customHeight="1">
-      <c t="s" r="A10" s="14">
-        <v>20</v>
-      </c>
-      <c r="B10" s="14"/>
-      <c r="C10" s="14"/>
-      <c r="D10" s="14"/>
-      <c r="E10" s="14"/>
-      <c r="F10" s="14"/>
-      <c t="s" r="G10" s="15">
-        <v>21</v>
-      </c>
-      <c r="H10" s="15"/>
-      <c r="I10" s="15"/>
-      <c r="J10" s="16"/>
-      <c t="s" r="K10" s="17">
-        <v>22</v>
-      </c>
-      <c r="L10" s="17"/>
-      <c r="M10" s="17"/>
-      <c r="N10" s="17"/>
-      <c r="O10" s="17"/>
-      <c r="P10" s="17"/>
-      <c r="Q10" s="17"/>
+    <row r="10" ht="24.75" customHeight="1">
+      <c r="P10" s="13">
+        <v>160</v>
+      </c>
+      <c r="Q10" s="13"/>
+    </row>
+    <row r="11" ht="16.5" customHeight="1">
+      <c t="s" r="A11" s="14">
+        <v>26</v>
+      </c>
+      <c r="B11" s="14"/>
+      <c r="C11" s="14"/>
+      <c r="D11" s="14"/>
+      <c r="E11" s="14"/>
+      <c r="F11" s="14"/>
+      <c t="s" r="G11" s="15">
+        <v>27</v>
+      </c>
+      <c r="H11" s="15"/>
+      <c r="I11" s="15"/>
+      <c r="J11" s="16"/>
+      <c t="s" r="K11" s="17">
+        <v>28</v>
+      </c>
+      <c r="L11" s="17"/>
+      <c r="M11" s="17"/>
+      <c r="N11" s="17"/>
+      <c r="O11" s="17"/>
+      <c r="P11" s="17"/>
+      <c r="Q11" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="22">
+  <mergeCells count="27">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -816,10 +867,15 @@
     <mergeCell ref="H8:K8"/>
     <mergeCell ref="L8:M8"/>
     <mergeCell ref="N8:O8"/>
-    <mergeCell ref="P9:Q9"/>
-    <mergeCell ref="A10:F10"/>
-    <mergeCell ref="G10:I10"/>
-    <mergeCell ref="K10:Q10"/>
+    <mergeCell ref="A9:B9"/>
+    <mergeCell ref="C9:G9"/>
+    <mergeCell ref="H9:K9"/>
+    <mergeCell ref="L9:M9"/>
+    <mergeCell ref="N9:O9"/>
+    <mergeCell ref="P10:Q10"/>
+    <mergeCell ref="A11:F11"/>
+    <mergeCell ref="G11:I11"/>
+    <mergeCell ref="K11:Q11"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-08-08_00-00.xlsx
+++ b/DaySale_2025-08-08_00-00.xlsx
@@ -89,7 +89,7 @@
     <t>80.0000</t>
   </si>
   <si>
-    <t>Friday, 8 August, 2025 2:54 PM</t>
+    <t>Friday, 8 August, 2025 3:01 PM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-08-08_00-00.xlsx
+++ b/DaySale_2025-08-08_00-00.xlsx
@@ -44,22 +44,76 @@
     <t>عدد التعااملات</t>
   </si>
   <si>
+    <t>ANTI-COX II 15MG/3ML 6 AMP</t>
+  </si>
+  <si>
+    <t>1:6</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>78.00</t>
+  </si>
+  <si>
+    <t>12.4800</t>
+  </si>
+  <si>
+    <t>0:1</t>
+  </si>
+  <si>
+    <t>CONVENTIN XR 600MG 30 TABS.</t>
+  </si>
+  <si>
+    <t>198.00</t>
+  </si>
+  <si>
+    <t>130.6800</t>
+  </si>
+  <si>
+    <t>0:2</t>
+  </si>
+  <si>
     <t>KAPRON 500 MG 20 F.C.TABS.</t>
   </si>
   <si>
     <t>1:1</t>
   </si>
   <si>
-    <t>1</t>
-  </si>
-  <si>
     <t>110.00</t>
   </si>
   <si>
     <t>55.0000</t>
   </si>
   <si>
-    <t>0:1</t>
+    <t>حبايه</t>
+  </si>
+  <si>
+    <t>0:0</t>
+  </si>
+  <si>
+    <t>0</t>
+  </si>
+  <si>
+    <t>3.00</t>
+  </si>
+  <si>
+    <t>6.0000</t>
+  </si>
+  <si>
+    <t>2:0</t>
+  </si>
+  <si>
+    <t>سرنجات 3 سم</t>
+  </si>
+  <si>
+    <t>2.00</t>
+  </si>
+  <si>
+    <t>2.0000</t>
+  </si>
+  <si>
+    <t>1:0</t>
   </si>
   <si>
     <t>شفاط ثدي الجو</t>
@@ -68,18 +122,12 @@
     <t>3:0</t>
   </si>
   <si>
-    <t>0</t>
-  </si>
-  <si>
     <t>25.00</t>
   </si>
   <si>
     <t>25.0000</t>
   </si>
   <si>
-    <t>1:0</t>
-  </si>
-  <si>
     <t xml:space="preserve">كريم شعر دابر املا </t>
   </si>
   <si>
@@ -89,7 +137,7 @@
     <t>80.0000</t>
   </si>
   <si>
-    <t>Friday, 8 August, 2025 3:01 PM</t>
+    <t>Friday, 8 August, 2025 3:43 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -763,24 +811,24 @@
       <c r="F8" s="8"/>
       <c r="G8" s="8"/>
       <c t="s" r="H8" s="9">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="I8" s="9"/>
       <c r="J8" s="9"/>
       <c r="K8" s="9"/>
       <c t="s" r="L8" s="10">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="M8" s="10"/>
       <c t="s" r="N8" s="8">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="O8" s="8"/>
       <c t="s" r="P8" s="11">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c t="s" r="Q8" s="12">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="9" ht="25.5" customHeight="1">
@@ -789,7 +837,7 @@
       </c>
       <c r="B9" s="7"/>
       <c t="s" r="C9" s="8">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="D9" s="8"/>
       <c r="E9" s="8"/>
@@ -802,53 +850,185 @@
       <c r="J9" s="9"/>
       <c r="K9" s="9"/>
       <c t="s" r="L9" s="10">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="M9" s="10"/>
       <c t="s" r="N9" s="8">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="O9" s="8"/>
       <c t="s" r="P9" s="11">
+        <v>24</v>
+      </c>
+      <c t="s" r="Q9" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="10" ht="24.75" customHeight="1">
+      <c r="A10" s="7">
+        <v>4</v>
+      </c>
+      <c r="B10" s="7"/>
+      <c t="s" r="C10" s="8">
         <v>25</v>
       </c>
-      <c t="s" r="Q9" s="12">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="10" ht="24.75" customHeight="1">
-      <c r="P10" s="13">
-        <v>160</v>
-      </c>
-      <c r="Q10" s="13"/>
-    </row>
-    <row r="11" ht="16.5" customHeight="1">
-      <c t="s" r="A11" s="14">
+      <c r="D10" s="8"/>
+      <c r="E10" s="8"/>
+      <c r="F10" s="8"/>
+      <c r="G10" s="8"/>
+      <c t="s" r="H10" s="9">
         <v>26</v>
       </c>
-      <c r="B11" s="14"/>
-      <c r="C11" s="14"/>
-      <c r="D11" s="14"/>
-      <c r="E11" s="14"/>
-      <c r="F11" s="14"/>
-      <c t="s" r="G11" s="15">
+      <c r="I10" s="9"/>
+      <c r="J10" s="9"/>
+      <c r="K10" s="9"/>
+      <c t="s" r="L10" s="10">
         <v>27</v>
       </c>
-      <c r="H11" s="15"/>
-      <c r="I11" s="15"/>
-      <c r="J11" s="16"/>
-      <c t="s" r="K11" s="17">
+      <c r="M10" s="10"/>
+      <c t="s" r="N10" s="8">
         <v>28</v>
       </c>
-      <c r="L11" s="17"/>
-      <c r="M11" s="17"/>
-      <c r="N11" s="17"/>
-      <c r="O11" s="17"/>
-      <c r="P11" s="17"/>
-      <c r="Q11" s="17"/>
+      <c r="O10" s="8"/>
+      <c t="s" r="P10" s="11">
+        <v>29</v>
+      </c>
+      <c t="s" r="Q10" s="12">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="11" ht="25.5" customHeight="1">
+      <c r="A11" s="7">
+        <v>5</v>
+      </c>
+      <c r="B11" s="7"/>
+      <c t="s" r="C11" s="8">
+        <v>31</v>
+      </c>
+      <c r="D11" s="8"/>
+      <c r="E11" s="8"/>
+      <c r="F11" s="8"/>
+      <c r="G11" s="8"/>
+      <c t="s" r="H11" s="9">
+        <v>26</v>
+      </c>
+      <c r="I11" s="9"/>
+      <c r="J11" s="9"/>
+      <c r="K11" s="9"/>
+      <c t="s" r="L11" s="10">
+        <v>27</v>
+      </c>
+      <c r="M11" s="10"/>
+      <c t="s" r="N11" s="8">
+        <v>32</v>
+      </c>
+      <c r="O11" s="8"/>
+      <c t="s" r="P11" s="11">
+        <v>33</v>
+      </c>
+      <c t="s" r="Q11" s="12">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="12" ht="25.5" customHeight="1">
+      <c r="A12" s="7">
+        <v>6</v>
+      </c>
+      <c r="B12" s="7"/>
+      <c t="s" r="C12" s="8">
+        <v>35</v>
+      </c>
+      <c r="D12" s="8"/>
+      <c r="E12" s="8"/>
+      <c r="F12" s="8"/>
+      <c r="G12" s="8"/>
+      <c t="s" r="H12" s="9">
+        <v>36</v>
+      </c>
+      <c r="I12" s="9"/>
+      <c r="J12" s="9"/>
+      <c r="K12" s="9"/>
+      <c t="s" r="L12" s="10">
+        <v>27</v>
+      </c>
+      <c r="M12" s="10"/>
+      <c t="s" r="N12" s="8">
+        <v>37</v>
+      </c>
+      <c r="O12" s="8"/>
+      <c t="s" r="P12" s="11">
+        <v>38</v>
+      </c>
+      <c t="s" r="Q12" s="12">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="13" ht="24.75" customHeight="1">
+      <c r="A13" s="7">
+        <v>7</v>
+      </c>
+      <c r="B13" s="7"/>
+      <c t="s" r="C13" s="8">
+        <v>39</v>
+      </c>
+      <c r="D13" s="8"/>
+      <c r="E13" s="8"/>
+      <c r="F13" s="8"/>
+      <c r="G13" s="8"/>
+      <c t="s" r="H13" s="9">
+        <v>34</v>
+      </c>
+      <c r="I13" s="9"/>
+      <c r="J13" s="9"/>
+      <c r="K13" s="9"/>
+      <c t="s" r="L13" s="10">
+        <v>27</v>
+      </c>
+      <c r="M13" s="10"/>
+      <c t="s" r="N13" s="8">
+        <v>40</v>
+      </c>
+      <c r="O13" s="8"/>
+      <c t="s" r="P13" s="11">
+        <v>41</v>
+      </c>
+      <c t="s" r="Q13" s="12">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="14" ht="25.5" customHeight="1">
+      <c r="P14" s="13">
+        <v>311.16000000000003</v>
+      </c>
+      <c r="Q14" s="13"/>
+    </row>
+    <row r="15" ht="16.5" customHeight="1">
+      <c t="s" r="A15" s="14">
+        <v>42</v>
+      </c>
+      <c r="B15" s="14"/>
+      <c r="C15" s="14"/>
+      <c r="D15" s="14"/>
+      <c r="E15" s="14"/>
+      <c r="F15" s="14"/>
+      <c t="s" r="G15" s="15">
+        <v>43</v>
+      </c>
+      <c r="H15" s="15"/>
+      <c r="I15" s="15"/>
+      <c r="J15" s="16"/>
+      <c t="s" r="K15" s="17">
+        <v>44</v>
+      </c>
+      <c r="L15" s="17"/>
+      <c r="M15" s="17"/>
+      <c r="N15" s="17"/>
+      <c r="O15" s="17"/>
+      <c r="P15" s="17"/>
+      <c r="Q15" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="27">
+  <mergeCells count="47">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -872,10 +1052,30 @@
     <mergeCell ref="H9:K9"/>
     <mergeCell ref="L9:M9"/>
     <mergeCell ref="N9:O9"/>
-    <mergeCell ref="P10:Q10"/>
-    <mergeCell ref="A11:F11"/>
-    <mergeCell ref="G11:I11"/>
-    <mergeCell ref="K11:Q11"/>
+    <mergeCell ref="A10:B10"/>
+    <mergeCell ref="C10:G10"/>
+    <mergeCell ref="H10:K10"/>
+    <mergeCell ref="L10:M10"/>
+    <mergeCell ref="N10:O10"/>
+    <mergeCell ref="A11:B11"/>
+    <mergeCell ref="C11:G11"/>
+    <mergeCell ref="H11:K11"/>
+    <mergeCell ref="L11:M11"/>
+    <mergeCell ref="N11:O11"/>
+    <mergeCell ref="A12:B12"/>
+    <mergeCell ref="C12:G12"/>
+    <mergeCell ref="H12:K12"/>
+    <mergeCell ref="L12:M12"/>
+    <mergeCell ref="N12:O12"/>
+    <mergeCell ref="A13:B13"/>
+    <mergeCell ref="C13:G13"/>
+    <mergeCell ref="H13:K13"/>
+    <mergeCell ref="L13:M13"/>
+    <mergeCell ref="N13:O13"/>
+    <mergeCell ref="P14:Q14"/>
+    <mergeCell ref="A15:F15"/>
+    <mergeCell ref="G15:I15"/>
+    <mergeCell ref="K15:Q15"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-08-08_00-00.xlsx
+++ b/DaySale_2025-08-08_00-00.xlsx
@@ -74,6 +74,18 @@
     <t>0:2</t>
   </si>
   <si>
+    <t>DANSET 8MG/4ML 3 AMP.</t>
+  </si>
+  <si>
+    <t>1:0</t>
+  </si>
+  <si>
+    <t>142.50</t>
+  </si>
+  <si>
+    <t>47.0250</t>
+  </si>
+  <si>
     <t>KAPRON 500 MG 20 F.C.TABS.</t>
   </si>
   <si>
@@ -86,6 +98,30 @@
     <t>55.0000</t>
   </si>
   <si>
+    <t>PANTAZOL 40MG VIAL I.V.</t>
+  </si>
+  <si>
+    <t>3:0</t>
+  </si>
+  <si>
+    <t>62.00</t>
+  </si>
+  <si>
+    <t>62.0000</t>
+  </si>
+  <si>
+    <t>VISCERALGINE 5MG/2ML IM IV 6 AMPOULES</t>
+  </si>
+  <si>
+    <t>0:4</t>
+  </si>
+  <si>
+    <t>90.00</t>
+  </si>
+  <si>
+    <t>14.4000</t>
+  </si>
+  <si>
     <t>حبايه</t>
   </si>
   <si>
@@ -113,21 +149,27 @@
     <t>2.0000</t>
   </si>
   <si>
-    <t>1:0</t>
+    <t>سرنجات 5 سم</t>
   </si>
   <si>
     <t>شفاط ثدي الجو</t>
   </si>
   <si>
-    <t>3:0</t>
-  </si>
-  <si>
     <t>25.00</t>
   </si>
   <si>
     <t>25.0000</t>
   </si>
   <si>
+    <t xml:space="preserve">كالونا </t>
+  </si>
+  <si>
+    <t>15.00</t>
+  </si>
+  <si>
+    <t>15.0000</t>
+  </si>
+  <si>
     <t xml:space="preserve">كريم شعر دابر املا </t>
   </si>
   <si>
@@ -137,7 +179,19 @@
     <t>80.0000</t>
   </si>
   <si>
-    <t>Friday, 8 August, 2025 3:43 PM</t>
+    <t>محلول ملح</t>
+  </si>
+  <si>
+    <t>9:0</t>
+  </si>
+  <si>
+    <t>24.00</t>
+  </si>
+  <si>
+    <t>24.0000</t>
+  </si>
+  <si>
+    <t>Friday, 8 August, 2025 3:44 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -883,18 +937,18 @@
       <c r="J10" s="9"/>
       <c r="K10" s="9"/>
       <c t="s" r="L10" s="10">
-        <v>27</v>
+        <v>13</v>
       </c>
       <c r="M10" s="10"/>
       <c t="s" r="N10" s="8">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="O10" s="8"/>
       <c t="s" r="P10" s="11">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c t="s" r="Q10" s="12">
-        <v>30</v>
+        <v>16</v>
       </c>
     </row>
     <row r="11" ht="25.5" customHeight="1">
@@ -903,31 +957,31 @@
       </c>
       <c r="B11" s="7"/>
       <c t="s" r="C11" s="8">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="D11" s="8"/>
       <c r="E11" s="8"/>
       <c r="F11" s="8"/>
       <c r="G11" s="8"/>
       <c t="s" r="H11" s="9">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="I11" s="9"/>
       <c r="J11" s="9"/>
       <c r="K11" s="9"/>
       <c t="s" r="L11" s="10">
-        <v>27</v>
+        <v>13</v>
       </c>
       <c r="M11" s="10"/>
       <c t="s" r="N11" s="8">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="O11" s="8"/>
       <c t="s" r="P11" s="11">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c t="s" r="Q11" s="12">
-        <v>34</v>
+        <v>22</v>
       </c>
     </row>
     <row r="12" ht="25.5" customHeight="1">
@@ -936,31 +990,31 @@
       </c>
       <c r="B12" s="7"/>
       <c t="s" r="C12" s="8">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="D12" s="8"/>
       <c r="E12" s="8"/>
       <c r="F12" s="8"/>
       <c r="G12" s="8"/>
       <c t="s" r="H12" s="9">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="I12" s="9"/>
       <c r="J12" s="9"/>
       <c r="K12" s="9"/>
       <c t="s" r="L12" s="10">
-        <v>27</v>
+        <v>13</v>
       </c>
       <c r="M12" s="10"/>
       <c t="s" r="N12" s="8">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="O12" s="8"/>
       <c t="s" r="P12" s="11">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c t="s" r="Q12" s="12">
-        <v>34</v>
+        <v>16</v>
       </c>
     </row>
     <row r="13" ht="24.75" customHeight="1">
@@ -969,20 +1023,20 @@
       </c>
       <c r="B13" s="7"/>
       <c t="s" r="C13" s="8">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="D13" s="8"/>
       <c r="E13" s="8"/>
       <c r="F13" s="8"/>
       <c r="G13" s="8"/>
       <c t="s" r="H13" s="9">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="I13" s="9"/>
       <c r="J13" s="9"/>
       <c r="K13" s="9"/>
       <c t="s" r="L13" s="10">
-        <v>27</v>
+        <v>39</v>
       </c>
       <c r="M13" s="10"/>
       <c t="s" r="N13" s="8">
@@ -993,42 +1047,240 @@
         <v>41</v>
       </c>
       <c t="s" r="Q13" s="12">
-        <v>34</v>
+        <v>42</v>
       </c>
     </row>
     <row r="14" ht="25.5" customHeight="1">
-      <c r="P14" s="13">
-        <v>311.16000000000003</v>
-      </c>
-      <c r="Q14" s="13"/>
-    </row>
-    <row r="15" ht="16.5" customHeight="1">
-      <c t="s" r="A15" s="14">
+      <c r="A14" s="7">
+        <v>8</v>
+      </c>
+      <c r="B14" s="7"/>
+      <c t="s" r="C14" s="8">
+        <v>43</v>
+      </c>
+      <c r="D14" s="8"/>
+      <c r="E14" s="8"/>
+      <c r="F14" s="8"/>
+      <c r="G14" s="8"/>
+      <c t="s" r="H14" s="9">
+        <v>38</v>
+      </c>
+      <c r="I14" s="9"/>
+      <c r="J14" s="9"/>
+      <c r="K14" s="9"/>
+      <c t="s" r="L14" s="10">
+        <v>39</v>
+      </c>
+      <c r="M14" s="10"/>
+      <c t="s" r="N14" s="8">
+        <v>44</v>
+      </c>
+      <c r="O14" s="8"/>
+      <c t="s" r="P14" s="11">
+        <v>45</v>
+      </c>
+      <c t="s" r="Q14" s="12">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="15" ht="24.75" customHeight="1">
+      <c r="A15" s="7">
+        <v>9</v>
+      </c>
+      <c r="B15" s="7"/>
+      <c t="s" r="C15" s="8">
+        <v>46</v>
+      </c>
+      <c r="D15" s="8"/>
+      <c r="E15" s="8"/>
+      <c r="F15" s="8"/>
+      <c r="G15" s="8"/>
+      <c t="s" r="H15" s="9">
+        <v>38</v>
+      </c>
+      <c r="I15" s="9"/>
+      <c r="J15" s="9"/>
+      <c r="K15" s="9"/>
+      <c t="s" r="L15" s="10">
+        <v>39</v>
+      </c>
+      <c r="M15" s="10"/>
+      <c t="s" r="N15" s="8">
+        <v>40</v>
+      </c>
+      <c r="O15" s="8"/>
+      <c t="s" r="P15" s="11">
+        <v>41</v>
+      </c>
+      <c t="s" r="Q15" s="12">
         <v>42</v>
       </c>
-      <c r="B15" s="14"/>
-      <c r="C15" s="14"/>
-      <c r="D15" s="14"/>
-      <c r="E15" s="14"/>
-      <c r="F15" s="14"/>
-      <c t="s" r="G15" s="15">
-        <v>43</v>
-      </c>
-      <c r="H15" s="15"/>
-      <c r="I15" s="15"/>
-      <c r="J15" s="16"/>
-      <c t="s" r="K15" s="17">
-        <v>44</v>
-      </c>
-      <c r="L15" s="17"/>
-      <c r="M15" s="17"/>
-      <c r="N15" s="17"/>
-      <c r="O15" s="17"/>
-      <c r="P15" s="17"/>
-      <c r="Q15" s="17"/>
+    </row>
+    <row r="16" ht="25.5" customHeight="1">
+      <c r="A16" s="7">
+        <v>10</v>
+      </c>
+      <c r="B16" s="7"/>
+      <c t="s" r="C16" s="8">
+        <v>47</v>
+      </c>
+      <c r="D16" s="8"/>
+      <c r="E16" s="8"/>
+      <c r="F16" s="8"/>
+      <c r="G16" s="8"/>
+      <c t="s" r="H16" s="9">
+        <v>30</v>
+      </c>
+      <c r="I16" s="9"/>
+      <c r="J16" s="9"/>
+      <c r="K16" s="9"/>
+      <c t="s" r="L16" s="10">
+        <v>39</v>
+      </c>
+      <c r="M16" s="10"/>
+      <c t="s" r="N16" s="8">
+        <v>48</v>
+      </c>
+      <c r="O16" s="8"/>
+      <c t="s" r="P16" s="11">
+        <v>49</v>
+      </c>
+      <c t="s" r="Q16" s="12">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="17" ht="25.5" customHeight="1">
+      <c r="A17" s="7">
+        <v>11</v>
+      </c>
+      <c r="B17" s="7"/>
+      <c t="s" r="C17" s="8">
+        <v>50</v>
+      </c>
+      <c r="D17" s="8"/>
+      <c r="E17" s="8"/>
+      <c r="F17" s="8"/>
+      <c r="G17" s="8"/>
+      <c t="s" r="H17" s="9">
+        <v>38</v>
+      </c>
+      <c r="I17" s="9"/>
+      <c r="J17" s="9"/>
+      <c r="K17" s="9"/>
+      <c t="s" r="L17" s="10">
+        <v>39</v>
+      </c>
+      <c r="M17" s="10"/>
+      <c t="s" r="N17" s="8">
+        <v>51</v>
+      </c>
+      <c r="O17" s="8"/>
+      <c t="s" r="P17" s="11">
+        <v>52</v>
+      </c>
+      <c t="s" r="Q17" s="12">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="18" ht="24.75" customHeight="1">
+      <c r="A18" s="7">
+        <v>12</v>
+      </c>
+      <c r="B18" s="7"/>
+      <c t="s" r="C18" s="8">
+        <v>53</v>
+      </c>
+      <c r="D18" s="8"/>
+      <c r="E18" s="8"/>
+      <c r="F18" s="8"/>
+      <c r="G18" s="8"/>
+      <c t="s" r="H18" s="9">
+        <v>22</v>
+      </c>
+      <c r="I18" s="9"/>
+      <c r="J18" s="9"/>
+      <c r="K18" s="9"/>
+      <c t="s" r="L18" s="10">
+        <v>39</v>
+      </c>
+      <c r="M18" s="10"/>
+      <c t="s" r="N18" s="8">
+        <v>54</v>
+      </c>
+      <c r="O18" s="8"/>
+      <c t="s" r="P18" s="11">
+        <v>55</v>
+      </c>
+      <c t="s" r="Q18" s="12">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="19" ht="25.5" customHeight="1">
+      <c r="A19" s="7">
+        <v>13</v>
+      </c>
+      <c r="B19" s="7"/>
+      <c t="s" r="C19" s="8">
+        <v>56</v>
+      </c>
+      <c r="D19" s="8"/>
+      <c r="E19" s="8"/>
+      <c r="F19" s="8"/>
+      <c r="G19" s="8"/>
+      <c t="s" r="H19" s="9">
+        <v>57</v>
+      </c>
+      <c r="I19" s="9"/>
+      <c r="J19" s="9"/>
+      <c r="K19" s="9"/>
+      <c t="s" r="L19" s="10">
+        <v>39</v>
+      </c>
+      <c r="M19" s="10"/>
+      <c t="s" r="N19" s="8">
+        <v>58</v>
+      </c>
+      <c r="O19" s="8"/>
+      <c t="s" r="P19" s="11">
+        <v>59</v>
+      </c>
+      <c t="s" r="Q19" s="12">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="20" ht="24.75" customHeight="1">
+      <c r="P20" s="13">
+        <v>479.58499999999998</v>
+      </c>
+      <c r="Q20" s="13"/>
+    </row>
+    <row r="21" ht="16.5" customHeight="1">
+      <c t="s" r="A21" s="14">
+        <v>60</v>
+      </c>
+      <c r="B21" s="14"/>
+      <c r="C21" s="14"/>
+      <c r="D21" s="14"/>
+      <c r="E21" s="14"/>
+      <c r="F21" s="14"/>
+      <c t="s" r="G21" s="15">
+        <v>61</v>
+      </c>
+      <c r="H21" s="15"/>
+      <c r="I21" s="15"/>
+      <c r="J21" s="16"/>
+      <c t="s" r="K21" s="17">
+        <v>62</v>
+      </c>
+      <c r="L21" s="17"/>
+      <c r="M21" s="17"/>
+      <c r="N21" s="17"/>
+      <c r="O21" s="17"/>
+      <c r="P21" s="17"/>
+      <c r="Q21" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="47">
+  <mergeCells count="77">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -1072,10 +1324,40 @@
     <mergeCell ref="H13:K13"/>
     <mergeCell ref="L13:M13"/>
     <mergeCell ref="N13:O13"/>
-    <mergeCell ref="P14:Q14"/>
-    <mergeCell ref="A15:F15"/>
-    <mergeCell ref="G15:I15"/>
-    <mergeCell ref="K15:Q15"/>
+    <mergeCell ref="A14:B14"/>
+    <mergeCell ref="C14:G14"/>
+    <mergeCell ref="H14:K14"/>
+    <mergeCell ref="L14:M14"/>
+    <mergeCell ref="N14:O14"/>
+    <mergeCell ref="A15:B15"/>
+    <mergeCell ref="C15:G15"/>
+    <mergeCell ref="H15:K15"/>
+    <mergeCell ref="L15:M15"/>
+    <mergeCell ref="N15:O15"/>
+    <mergeCell ref="A16:B16"/>
+    <mergeCell ref="C16:G16"/>
+    <mergeCell ref="H16:K16"/>
+    <mergeCell ref="L16:M16"/>
+    <mergeCell ref="N16:O16"/>
+    <mergeCell ref="A17:B17"/>
+    <mergeCell ref="C17:G17"/>
+    <mergeCell ref="H17:K17"/>
+    <mergeCell ref="L17:M17"/>
+    <mergeCell ref="N17:O17"/>
+    <mergeCell ref="A18:B18"/>
+    <mergeCell ref="C18:G18"/>
+    <mergeCell ref="H18:K18"/>
+    <mergeCell ref="L18:M18"/>
+    <mergeCell ref="N18:O18"/>
+    <mergeCell ref="A19:B19"/>
+    <mergeCell ref="C19:G19"/>
+    <mergeCell ref="H19:K19"/>
+    <mergeCell ref="L19:M19"/>
+    <mergeCell ref="N19:O19"/>
+    <mergeCell ref="P20:Q20"/>
+    <mergeCell ref="A21:F21"/>
+    <mergeCell ref="G21:I21"/>
+    <mergeCell ref="K21:Q21"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-08-08_00-00.xlsx
+++ b/DaySale_2025-08-08_00-00.xlsx
@@ -191,7 +191,7 @@
     <t>24.0000</t>
   </si>
   <si>
-    <t>Friday, 8 August, 2025 3:44 PM</t>
+    <t>Friday, 8 August, 2025 4:12 PM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-08-08_00-00.xlsx
+++ b/DaySale_2025-08-08_00-00.xlsx
@@ -86,6 +86,15 @@
     <t>47.0250</t>
   </si>
   <si>
+    <t>ETHOXA 250MG/5ML SYRUP 120ML</t>
+  </si>
+  <si>
+    <t>99.00</t>
+  </si>
+  <si>
+    <t>99.0000</t>
+  </si>
+  <si>
     <t>KAPRON 500 MG 20 F.C.TABS.</t>
   </si>
   <si>
@@ -191,7 +200,7 @@
     <t>24.0000</t>
   </si>
   <si>
-    <t>Friday, 8 August, 2025 4:12 PM</t>
+    <t>Friday, 8 August, 2025 4:13 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -931,7 +940,7 @@
       <c r="F10" s="8"/>
       <c r="G10" s="8"/>
       <c t="s" r="H10" s="9">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="I10" s="9"/>
       <c r="J10" s="9"/>
@@ -941,14 +950,14 @@
       </c>
       <c r="M10" s="10"/>
       <c t="s" r="N10" s="8">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="O10" s="8"/>
       <c t="s" r="P10" s="11">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c t="s" r="Q10" s="12">
-        <v>16</v>
+        <v>22</v>
       </c>
     </row>
     <row r="11" ht="25.5" customHeight="1">
@@ -957,14 +966,14 @@
       </c>
       <c r="B11" s="7"/>
       <c t="s" r="C11" s="8">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D11" s="8"/>
       <c r="E11" s="8"/>
       <c r="F11" s="8"/>
       <c r="G11" s="8"/>
       <c t="s" r="H11" s="9">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="I11" s="9"/>
       <c r="J11" s="9"/>
@@ -974,14 +983,14 @@
       </c>
       <c r="M11" s="10"/>
       <c t="s" r="N11" s="8">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="O11" s="8"/>
       <c t="s" r="P11" s="11">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c t="s" r="Q11" s="12">
-        <v>22</v>
+        <v>16</v>
       </c>
     </row>
     <row r="12" ht="25.5" customHeight="1">
@@ -990,14 +999,14 @@
       </c>
       <c r="B12" s="7"/>
       <c t="s" r="C12" s="8">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D12" s="8"/>
       <c r="E12" s="8"/>
       <c r="F12" s="8"/>
       <c r="G12" s="8"/>
       <c t="s" r="H12" s="9">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="I12" s="9"/>
       <c r="J12" s="9"/>
@@ -1007,14 +1016,14 @@
       </c>
       <c r="M12" s="10"/>
       <c t="s" r="N12" s="8">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="O12" s="8"/>
       <c t="s" r="P12" s="11">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c t="s" r="Q12" s="12">
-        <v>16</v>
+        <v>22</v>
       </c>
     </row>
     <row r="13" ht="24.75" customHeight="1">
@@ -1023,31 +1032,31 @@
       </c>
       <c r="B13" s="7"/>
       <c t="s" r="C13" s="8">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D13" s="8"/>
       <c r="E13" s="8"/>
       <c r="F13" s="8"/>
       <c r="G13" s="8"/>
       <c t="s" r="H13" s="9">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="I13" s="9"/>
       <c r="J13" s="9"/>
       <c r="K13" s="9"/>
       <c t="s" r="L13" s="10">
-        <v>39</v>
+        <v>13</v>
       </c>
       <c r="M13" s="10"/>
       <c t="s" r="N13" s="8">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="O13" s="8"/>
       <c t="s" r="P13" s="11">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c t="s" r="Q13" s="12">
-        <v>42</v>
+        <v>16</v>
       </c>
     </row>
     <row r="14" ht="25.5" customHeight="1">
@@ -1056,31 +1065,31 @@
       </c>
       <c r="B14" s="7"/>
       <c t="s" r="C14" s="8">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="D14" s="8"/>
       <c r="E14" s="8"/>
       <c r="F14" s="8"/>
       <c r="G14" s="8"/>
       <c t="s" r="H14" s="9">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="I14" s="9"/>
       <c r="J14" s="9"/>
       <c r="K14" s="9"/>
       <c t="s" r="L14" s="10">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="M14" s="10"/>
       <c t="s" r="N14" s="8">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="O14" s="8"/>
       <c t="s" r="P14" s="11">
+        <v>44</v>
+      </c>
+      <c t="s" r="Q14" s="12">
         <v>45</v>
-      </c>
-      <c t="s" r="Q14" s="12">
-        <v>22</v>
       </c>
     </row>
     <row r="15" ht="24.75" customHeight="1">
@@ -1096,24 +1105,24 @@
       <c r="F15" s="8"/>
       <c r="G15" s="8"/>
       <c t="s" r="H15" s="9">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="I15" s="9"/>
       <c r="J15" s="9"/>
       <c r="K15" s="9"/>
       <c t="s" r="L15" s="10">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="M15" s="10"/>
       <c t="s" r="N15" s="8">
-        <v>40</v>
+        <v>47</v>
       </c>
       <c r="O15" s="8"/>
       <c t="s" r="P15" s="11">
-        <v>41</v>
+        <v>48</v>
       </c>
       <c t="s" r="Q15" s="12">
-        <v>42</v>
+        <v>22</v>
       </c>
     </row>
     <row r="16" ht="25.5" customHeight="1">
@@ -1122,31 +1131,31 @@
       </c>
       <c r="B16" s="7"/>
       <c t="s" r="C16" s="8">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="D16" s="8"/>
       <c r="E16" s="8"/>
       <c r="F16" s="8"/>
       <c r="G16" s="8"/>
       <c t="s" r="H16" s="9">
-        <v>30</v>
+        <v>41</v>
       </c>
       <c r="I16" s="9"/>
       <c r="J16" s="9"/>
       <c r="K16" s="9"/>
       <c t="s" r="L16" s="10">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="M16" s="10"/>
       <c t="s" r="N16" s="8">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="O16" s="8"/>
       <c t="s" r="P16" s="11">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c t="s" r="Q16" s="12">
-        <v>22</v>
+        <v>45</v>
       </c>
     </row>
     <row r="17" ht="25.5" customHeight="1">
@@ -1162,13 +1171,13 @@
       <c r="F17" s="8"/>
       <c r="G17" s="8"/>
       <c t="s" r="H17" s="9">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="I17" s="9"/>
       <c r="J17" s="9"/>
       <c r="K17" s="9"/>
       <c t="s" r="L17" s="10">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="M17" s="10"/>
       <c t="s" r="N17" s="8">
@@ -1195,13 +1204,13 @@
       <c r="F18" s="8"/>
       <c r="G18" s="8"/>
       <c t="s" r="H18" s="9">
-        <v>22</v>
+        <v>41</v>
       </c>
       <c r="I18" s="9"/>
       <c r="J18" s="9"/>
       <c r="K18" s="9"/>
       <c t="s" r="L18" s="10">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="M18" s="10"/>
       <c t="s" r="N18" s="8">
@@ -1228,59 +1237,92 @@
       <c r="F19" s="8"/>
       <c r="G19" s="8"/>
       <c t="s" r="H19" s="9">
-        <v>57</v>
+        <v>22</v>
       </c>
       <c r="I19" s="9"/>
       <c r="J19" s="9"/>
       <c r="K19" s="9"/>
       <c t="s" r="L19" s="10">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="M19" s="10"/>
       <c t="s" r="N19" s="8">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="O19" s="8"/>
       <c t="s" r="P19" s="11">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c t="s" r="Q19" s="12">
         <v>22</v>
       </c>
     </row>
     <row r="20" ht="24.75" customHeight="1">
-      <c r="P20" s="13">
-        <v>479.58499999999998</v>
-      </c>
-      <c r="Q20" s="13"/>
-    </row>
-    <row r="21" ht="16.5" customHeight="1">
-      <c t="s" r="A21" s="14">
+      <c r="A20" s="7">
+        <v>14</v>
+      </c>
+      <c r="B20" s="7"/>
+      <c t="s" r="C20" s="8">
+        <v>59</v>
+      </c>
+      <c r="D20" s="8"/>
+      <c r="E20" s="8"/>
+      <c r="F20" s="8"/>
+      <c r="G20" s="8"/>
+      <c t="s" r="H20" s="9">
         <v>60</v>
       </c>
-      <c r="B21" s="14"/>
-      <c r="C21" s="14"/>
-      <c r="D21" s="14"/>
-      <c r="E21" s="14"/>
-      <c r="F21" s="14"/>
-      <c t="s" r="G21" s="15">
+      <c r="I20" s="9"/>
+      <c r="J20" s="9"/>
+      <c r="K20" s="9"/>
+      <c t="s" r="L20" s="10">
+        <v>42</v>
+      </c>
+      <c r="M20" s="10"/>
+      <c t="s" r="N20" s="8">
         <v>61</v>
       </c>
-      <c r="H21" s="15"/>
-      <c r="I21" s="15"/>
-      <c r="J21" s="16"/>
-      <c t="s" r="K21" s="17">
+      <c r="O20" s="8"/>
+      <c t="s" r="P20" s="11">
         <v>62</v>
       </c>
-      <c r="L21" s="17"/>
-      <c r="M21" s="17"/>
-      <c r="N21" s="17"/>
-      <c r="O21" s="17"/>
-      <c r="P21" s="17"/>
-      <c r="Q21" s="17"/>
+      <c t="s" r="Q20" s="12">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="21" ht="25.5" customHeight="1">
+      <c r="P21" s="13">
+        <v>578.58500000000004</v>
+      </c>
+      <c r="Q21" s="13"/>
+    </row>
+    <row r="22" ht="16.5" customHeight="1">
+      <c t="s" r="A22" s="14">
+        <v>63</v>
+      </c>
+      <c r="B22" s="14"/>
+      <c r="C22" s="14"/>
+      <c r="D22" s="14"/>
+      <c r="E22" s="14"/>
+      <c r="F22" s="14"/>
+      <c t="s" r="G22" s="15">
+        <v>64</v>
+      </c>
+      <c r="H22" s="15"/>
+      <c r="I22" s="15"/>
+      <c r="J22" s="16"/>
+      <c t="s" r="K22" s="17">
+        <v>65</v>
+      </c>
+      <c r="L22" s="17"/>
+      <c r="M22" s="17"/>
+      <c r="N22" s="17"/>
+      <c r="O22" s="17"/>
+      <c r="P22" s="17"/>
+      <c r="Q22" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="77">
+  <mergeCells count="82">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -1354,10 +1396,15 @@
     <mergeCell ref="H19:K19"/>
     <mergeCell ref="L19:M19"/>
     <mergeCell ref="N19:O19"/>
-    <mergeCell ref="P20:Q20"/>
-    <mergeCell ref="A21:F21"/>
-    <mergeCell ref="G21:I21"/>
-    <mergeCell ref="K21:Q21"/>
+    <mergeCell ref="A20:B20"/>
+    <mergeCell ref="C20:G20"/>
+    <mergeCell ref="H20:K20"/>
+    <mergeCell ref="L20:M20"/>
+    <mergeCell ref="N20:O20"/>
+    <mergeCell ref="P21:Q21"/>
+    <mergeCell ref="A22:F22"/>
+    <mergeCell ref="G22:I22"/>
+    <mergeCell ref="K22:Q22"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-08-08_00-00.xlsx
+++ b/DaySale_2025-08-08_00-00.xlsx
@@ -62,6 +62,18 @@
     <t>0:1</t>
   </si>
   <si>
+    <t>COLOVERIN D 135MG 30 TAB</t>
+  </si>
+  <si>
+    <t>1:0</t>
+  </si>
+  <si>
+    <t>105.00</t>
+  </si>
+  <si>
+    <t>34.6500</t>
+  </si>
+  <si>
     <t>CONVENTIN XR 600MG 30 TABS.</t>
   </si>
   <si>
@@ -77,9 +89,6 @@
     <t>DANSET 8MG/4ML 3 AMP.</t>
   </si>
   <si>
-    <t>1:0</t>
-  </si>
-  <si>
     <t>142.50</t>
   </si>
   <si>
@@ -119,6 +128,57 @@
     <t>62.0000</t>
   </si>
   <si>
+    <t>PANTOLOC 40MG 14 TAB</t>
+  </si>
+  <si>
+    <t>102.00</t>
+  </si>
+  <si>
+    <t>51.0000</t>
+  </si>
+  <si>
+    <t>SPASMOFEN 3 AMP. FOR I.M. INJ.</t>
+  </si>
+  <si>
+    <t>1:2</t>
+  </si>
+  <si>
+    <t>39.00</t>
+  </si>
+  <si>
+    <t>39.0000</t>
+  </si>
+  <si>
+    <t>TAMSULIN 0.4MG 28 CAPS</t>
+  </si>
+  <si>
+    <t>124.00</t>
+  </si>
+  <si>
+    <t>URINEX 24 CAPS</t>
+  </si>
+  <si>
+    <t>2:0</t>
+  </si>
+  <si>
+    <t>42.00</t>
+  </si>
+  <si>
+    <t>21.0000</t>
+  </si>
+  <si>
+    <t>UROSOLVINE EFF. GRAN. 12 SACHETS</t>
+  </si>
+  <si>
+    <t>0:0</t>
+  </si>
+  <si>
+    <t>38.00</t>
+  </si>
+  <si>
+    <t>38.0000</t>
+  </si>
+  <si>
     <t>VISCERALGINE 5MG/2ML IM IV 6 AMPOULES</t>
   </si>
   <si>
@@ -134,9 +194,6 @@
     <t>حبايه</t>
   </si>
   <si>
-    <t>0:0</t>
-  </si>
-  <si>
     <t>0</t>
   </si>
   <si>
@@ -146,16 +203,16 @@
     <t>6.0000</t>
   </si>
   <si>
-    <t>2:0</t>
-  </si>
-  <si>
     <t>سرنجات 3 سم</t>
   </si>
   <si>
     <t>2.00</t>
   </si>
   <si>
-    <t>2.0000</t>
+    <t>8.0000</t>
+  </si>
+  <si>
+    <t>4:0</t>
   </si>
   <si>
     <t>سرنجات 5 سم</t>
@@ -200,7 +257,7 @@
     <t>24.0000</t>
   </si>
   <si>
-    <t>Friday, 8 August, 2025 4:13 PM</t>
+    <t>Friday, 8 August, 2025 5:16 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -874,7 +931,7 @@
       <c r="F8" s="8"/>
       <c r="G8" s="8"/>
       <c t="s" r="H8" s="9">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="I8" s="9"/>
       <c r="J8" s="9"/>
@@ -884,14 +941,14 @@
       </c>
       <c r="M8" s="10"/>
       <c t="s" r="N8" s="8">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="O8" s="8"/>
       <c t="s" r="P8" s="11">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c t="s" r="Q8" s="12">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="9" ht="25.5" customHeight="1">
@@ -907,7 +964,7 @@
       <c r="F9" s="8"/>
       <c r="G9" s="8"/>
       <c t="s" r="H9" s="9">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="I9" s="9"/>
       <c r="J9" s="9"/>
@@ -917,14 +974,14 @@
       </c>
       <c r="M9" s="10"/>
       <c t="s" r="N9" s="8">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="O9" s="8"/>
       <c t="s" r="P9" s="11">
+        <v>23</v>
+      </c>
+      <c t="s" r="Q9" s="12">
         <v>24</v>
-      </c>
-      <c t="s" r="Q9" s="12">
-        <v>16</v>
       </c>
     </row>
     <row r="10" ht="24.75" customHeight="1">
@@ -940,7 +997,7 @@
       <c r="F10" s="8"/>
       <c r="G10" s="8"/>
       <c t="s" r="H10" s="9">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="I10" s="9"/>
       <c r="J10" s="9"/>
@@ -957,7 +1014,7 @@
         <v>27</v>
       </c>
       <c t="s" r="Q10" s="12">
-        <v>22</v>
+        <v>16</v>
       </c>
     </row>
     <row r="11" ht="25.5" customHeight="1">
@@ -973,7 +1030,7 @@
       <c r="F11" s="8"/>
       <c r="G11" s="8"/>
       <c t="s" r="H11" s="9">
-        <v>29</v>
+        <v>18</v>
       </c>
       <c r="I11" s="9"/>
       <c r="J11" s="9"/>
@@ -983,14 +1040,14 @@
       </c>
       <c r="M11" s="10"/>
       <c t="s" r="N11" s="8">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="O11" s="8"/>
       <c t="s" r="P11" s="11">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c t="s" r="Q11" s="12">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="12" ht="25.5" customHeight="1">
@@ -999,14 +1056,14 @@
       </c>
       <c r="B12" s="7"/>
       <c t="s" r="C12" s="8">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D12" s="8"/>
       <c r="E12" s="8"/>
       <c r="F12" s="8"/>
       <c r="G12" s="8"/>
       <c t="s" r="H12" s="9">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="I12" s="9"/>
       <c r="J12" s="9"/>
@@ -1016,14 +1073,14 @@
       </c>
       <c r="M12" s="10"/>
       <c t="s" r="N12" s="8">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="O12" s="8"/>
       <c t="s" r="P12" s="11">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c t="s" r="Q12" s="12">
-        <v>22</v>
+        <v>16</v>
       </c>
     </row>
     <row r="13" ht="24.75" customHeight="1">
@@ -1032,14 +1089,14 @@
       </c>
       <c r="B13" s="7"/>
       <c t="s" r="C13" s="8">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D13" s="8"/>
       <c r="E13" s="8"/>
       <c r="F13" s="8"/>
       <c r="G13" s="8"/>
       <c t="s" r="H13" s="9">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="I13" s="9"/>
       <c r="J13" s="9"/>
@@ -1049,14 +1106,14 @@
       </c>
       <c r="M13" s="10"/>
       <c t="s" r="N13" s="8">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="O13" s="8"/>
       <c t="s" r="P13" s="11">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c t="s" r="Q13" s="12">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="14" ht="25.5" customHeight="1">
@@ -1065,31 +1122,31 @@
       </c>
       <c r="B14" s="7"/>
       <c t="s" r="C14" s="8">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D14" s="8"/>
       <c r="E14" s="8"/>
       <c r="F14" s="8"/>
       <c r="G14" s="8"/>
       <c t="s" r="H14" s="9">
-        <v>41</v>
+        <v>18</v>
       </c>
       <c r="I14" s="9"/>
       <c r="J14" s="9"/>
       <c r="K14" s="9"/>
       <c t="s" r="L14" s="10">
-        <v>42</v>
+        <v>13</v>
       </c>
       <c r="M14" s="10"/>
       <c t="s" r="N14" s="8">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="O14" s="8"/>
       <c t="s" r="P14" s="11">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c t="s" r="Q14" s="12">
-        <v>45</v>
+        <v>16</v>
       </c>
     </row>
     <row r="15" ht="24.75" customHeight="1">
@@ -1098,31 +1155,31 @@
       </c>
       <c r="B15" s="7"/>
       <c t="s" r="C15" s="8">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="D15" s="8"/>
       <c r="E15" s="8"/>
       <c r="F15" s="8"/>
       <c r="G15" s="8"/>
       <c t="s" r="H15" s="9">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="I15" s="9"/>
       <c r="J15" s="9"/>
       <c r="K15" s="9"/>
       <c t="s" r="L15" s="10">
-        <v>42</v>
+        <v>13</v>
       </c>
       <c r="M15" s="10"/>
       <c t="s" r="N15" s="8">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="O15" s="8"/>
       <c t="s" r="P15" s="11">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c t="s" r="Q15" s="12">
-        <v>22</v>
+        <v>18</v>
       </c>
     </row>
     <row r="16" ht="25.5" customHeight="1">
@@ -1131,31 +1188,31 @@
       </c>
       <c r="B16" s="7"/>
       <c t="s" r="C16" s="8">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="D16" s="8"/>
       <c r="E16" s="8"/>
       <c r="F16" s="8"/>
       <c r="G16" s="8"/>
       <c t="s" r="H16" s="9">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="I16" s="9"/>
       <c r="J16" s="9"/>
       <c r="K16" s="9"/>
       <c t="s" r="L16" s="10">
-        <v>42</v>
+        <v>13</v>
       </c>
       <c r="M16" s="10"/>
       <c t="s" r="N16" s="8">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="O16" s="8"/>
       <c t="s" r="P16" s="11">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c t="s" r="Q16" s="12">
-        <v>45</v>
+        <v>16</v>
       </c>
     </row>
     <row r="17" ht="25.5" customHeight="1">
@@ -1164,31 +1221,31 @@
       </c>
       <c r="B17" s="7"/>
       <c t="s" r="C17" s="8">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="D17" s="8"/>
       <c r="E17" s="8"/>
       <c r="F17" s="8"/>
       <c r="G17" s="8"/>
       <c t="s" r="H17" s="9">
-        <v>33</v>
+        <v>49</v>
       </c>
       <c r="I17" s="9"/>
       <c r="J17" s="9"/>
       <c r="K17" s="9"/>
       <c t="s" r="L17" s="10">
-        <v>42</v>
+        <v>13</v>
       </c>
       <c r="M17" s="10"/>
       <c t="s" r="N17" s="8">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="O17" s="8"/>
       <c t="s" r="P17" s="11">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c t="s" r="Q17" s="12">
-        <v>22</v>
+        <v>16</v>
       </c>
     </row>
     <row r="18" ht="24.75" customHeight="1">
@@ -1197,20 +1254,20 @@
       </c>
       <c r="B18" s="7"/>
       <c t="s" r="C18" s="8">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D18" s="8"/>
       <c r="E18" s="8"/>
       <c r="F18" s="8"/>
       <c r="G18" s="8"/>
       <c t="s" r="H18" s="9">
-        <v>41</v>
+        <v>53</v>
       </c>
       <c r="I18" s="9"/>
       <c r="J18" s="9"/>
       <c r="K18" s="9"/>
       <c t="s" r="L18" s="10">
-        <v>42</v>
+        <v>13</v>
       </c>
       <c r="M18" s="10"/>
       <c t="s" r="N18" s="8">
@@ -1221,7 +1278,7 @@
         <v>55</v>
       </c>
       <c t="s" r="Q18" s="12">
-        <v>22</v>
+        <v>18</v>
       </c>
     </row>
     <row r="19" ht="25.5" customHeight="1">
@@ -1237,24 +1294,24 @@
       <c r="F19" s="8"/>
       <c r="G19" s="8"/>
       <c t="s" r="H19" s="9">
-        <v>22</v>
+        <v>57</v>
       </c>
       <c r="I19" s="9"/>
       <c r="J19" s="9"/>
       <c r="K19" s="9"/>
       <c t="s" r="L19" s="10">
-        <v>42</v>
+        <v>13</v>
       </c>
       <c r="M19" s="10"/>
       <c t="s" r="N19" s="8">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="O19" s="8"/>
       <c t="s" r="P19" s="11">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c t="s" r="Q19" s="12">
-        <v>22</v>
+        <v>16</v>
       </c>
     </row>
     <row r="20" ht="24.75" customHeight="1">
@@ -1263,66 +1320,264 @@
       </c>
       <c r="B20" s="7"/>
       <c t="s" r="C20" s="8">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="D20" s="8"/>
       <c r="E20" s="8"/>
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
       <c t="s" r="H20" s="9">
-        <v>60</v>
+        <v>53</v>
       </c>
       <c r="I20" s="9"/>
       <c r="J20" s="9"/>
       <c r="K20" s="9"/>
       <c t="s" r="L20" s="10">
-        <v>42</v>
+        <v>61</v>
       </c>
       <c r="M20" s="10"/>
       <c t="s" r="N20" s="8">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="O20" s="8"/>
       <c t="s" r="P20" s="11">
+        <v>63</v>
+      </c>
+      <c t="s" r="Q20" s="12">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="21" ht="25.5" customHeight="1">
+      <c r="A21" s="7">
+        <v>15</v>
+      </c>
+      <c r="B21" s="7"/>
+      <c t="s" r="C21" s="8">
+        <v>64</v>
+      </c>
+      <c r="D21" s="8"/>
+      <c r="E21" s="8"/>
+      <c r="F21" s="8"/>
+      <c r="G21" s="8"/>
+      <c t="s" r="H21" s="9">
+        <v>53</v>
+      </c>
+      <c r="I21" s="9"/>
+      <c r="J21" s="9"/>
+      <c r="K21" s="9"/>
+      <c t="s" r="L21" s="10">
+        <v>61</v>
+      </c>
+      <c r="M21" s="10"/>
+      <c t="s" r="N21" s="8">
+        <v>65</v>
+      </c>
+      <c r="O21" s="8"/>
+      <c t="s" r="P21" s="11">
+        <v>66</v>
+      </c>
+      <c t="s" r="Q21" s="12">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="22" ht="25.5" customHeight="1">
+      <c r="A22" s="7">
+        <v>16</v>
+      </c>
+      <c r="B22" s="7"/>
+      <c t="s" r="C22" s="8">
+        <v>68</v>
+      </c>
+      <c r="D22" s="8"/>
+      <c r="E22" s="8"/>
+      <c r="F22" s="8"/>
+      <c r="G22" s="8"/>
+      <c t="s" r="H22" s="9">
+        <v>53</v>
+      </c>
+      <c r="I22" s="9"/>
+      <c r="J22" s="9"/>
+      <c r="K22" s="9"/>
+      <c t="s" r="L22" s="10">
+        <v>61</v>
+      </c>
+      <c r="M22" s="10"/>
+      <c t="s" r="N22" s="8">
         <v>62</v>
       </c>
-      <c t="s" r="Q20" s="12">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="21" ht="25.5" customHeight="1">
-      <c r="P21" s="13">
-        <v>578.58500000000004</v>
-      </c>
-      <c r="Q21" s="13"/>
-    </row>
-    <row r="22" ht="16.5" customHeight="1">
-      <c t="s" r="A22" s="14">
+      <c r="O22" s="8"/>
+      <c t="s" r="P22" s="11">
         <v>63</v>
       </c>
-      <c r="B22" s="14"/>
-      <c r="C22" s="14"/>
-      <c r="D22" s="14"/>
-      <c r="E22" s="14"/>
-      <c r="F22" s="14"/>
-      <c t="s" r="G22" s="15">
-        <v>64</v>
-      </c>
-      <c r="H22" s="15"/>
-      <c r="I22" s="15"/>
-      <c r="J22" s="16"/>
-      <c t="s" r="K22" s="17">
-        <v>65</v>
-      </c>
-      <c r="L22" s="17"/>
-      <c r="M22" s="17"/>
-      <c r="N22" s="17"/>
-      <c r="O22" s="17"/>
-      <c r="P22" s="17"/>
-      <c r="Q22" s="17"/>
+      <c t="s" r="Q22" s="12">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="23" ht="24.75" customHeight="1">
+      <c r="A23" s="7">
+        <v>17</v>
+      </c>
+      <c r="B23" s="7"/>
+      <c t="s" r="C23" s="8">
+        <v>69</v>
+      </c>
+      <c r="D23" s="8"/>
+      <c r="E23" s="8"/>
+      <c r="F23" s="8"/>
+      <c r="G23" s="8"/>
+      <c t="s" r="H23" s="9">
+        <v>36</v>
+      </c>
+      <c r="I23" s="9"/>
+      <c r="J23" s="9"/>
+      <c r="K23" s="9"/>
+      <c t="s" r="L23" s="10">
+        <v>61</v>
+      </c>
+      <c r="M23" s="10"/>
+      <c t="s" r="N23" s="8">
+        <v>70</v>
+      </c>
+      <c r="O23" s="8"/>
+      <c t="s" r="P23" s="11">
+        <v>71</v>
+      </c>
+      <c t="s" r="Q23" s="12">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="24" ht="25.5" customHeight="1">
+      <c r="A24" s="7">
+        <v>18</v>
+      </c>
+      <c r="B24" s="7"/>
+      <c t="s" r="C24" s="8">
+        <v>72</v>
+      </c>
+      <c r="D24" s="8"/>
+      <c r="E24" s="8"/>
+      <c r="F24" s="8"/>
+      <c r="G24" s="8"/>
+      <c t="s" r="H24" s="9">
+        <v>53</v>
+      </c>
+      <c r="I24" s="9"/>
+      <c r="J24" s="9"/>
+      <c r="K24" s="9"/>
+      <c t="s" r="L24" s="10">
+        <v>61</v>
+      </c>
+      <c r="M24" s="10"/>
+      <c t="s" r="N24" s="8">
+        <v>73</v>
+      </c>
+      <c r="O24" s="8"/>
+      <c t="s" r="P24" s="11">
+        <v>74</v>
+      </c>
+      <c t="s" r="Q24" s="12">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="25" ht="24.75" customHeight="1">
+      <c r="A25" s="7">
+        <v>19</v>
+      </c>
+      <c r="B25" s="7"/>
+      <c t="s" r="C25" s="8">
+        <v>75</v>
+      </c>
+      <c r="D25" s="8"/>
+      <c r="E25" s="8"/>
+      <c r="F25" s="8"/>
+      <c r="G25" s="8"/>
+      <c t="s" r="H25" s="9">
+        <v>18</v>
+      </c>
+      <c r="I25" s="9"/>
+      <c r="J25" s="9"/>
+      <c r="K25" s="9"/>
+      <c t="s" r="L25" s="10">
+        <v>61</v>
+      </c>
+      <c r="M25" s="10"/>
+      <c t="s" r="N25" s="8">
+        <v>76</v>
+      </c>
+      <c r="O25" s="8"/>
+      <c t="s" r="P25" s="11">
+        <v>77</v>
+      </c>
+      <c t="s" r="Q25" s="12">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="26" ht="25.5" customHeight="1">
+      <c r="A26" s="7">
+        <v>20</v>
+      </c>
+      <c r="B26" s="7"/>
+      <c t="s" r="C26" s="8">
+        <v>78</v>
+      </c>
+      <c r="D26" s="8"/>
+      <c r="E26" s="8"/>
+      <c r="F26" s="8"/>
+      <c r="G26" s="8"/>
+      <c t="s" r="H26" s="9">
+        <v>79</v>
+      </c>
+      <c r="I26" s="9"/>
+      <c r="J26" s="9"/>
+      <c r="K26" s="9"/>
+      <c t="s" r="L26" s="10">
+        <v>61</v>
+      </c>
+      <c r="M26" s="10"/>
+      <c t="s" r="N26" s="8">
+        <v>80</v>
+      </c>
+      <c r="O26" s="8"/>
+      <c t="s" r="P26" s="11">
+        <v>81</v>
+      </c>
+      <c t="s" r="Q26" s="12">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="27" ht="25.5" customHeight="1">
+      <c r="P27" s="13">
+        <v>830.23500000000001</v>
+      </c>
+      <c r="Q27" s="13"/>
+    </row>
+    <row r="28" ht="16.5" customHeight="1">
+      <c t="s" r="A28" s="14">
+        <v>82</v>
+      </c>
+      <c r="B28" s="14"/>
+      <c r="C28" s="14"/>
+      <c r="D28" s="14"/>
+      <c r="E28" s="14"/>
+      <c r="F28" s="14"/>
+      <c t="s" r="G28" s="15">
+        <v>83</v>
+      </c>
+      <c r="H28" s="15"/>
+      <c r="I28" s="15"/>
+      <c r="J28" s="16"/>
+      <c t="s" r="K28" s="17">
+        <v>84</v>
+      </c>
+      <c r="L28" s="17"/>
+      <c r="M28" s="17"/>
+      <c r="N28" s="17"/>
+      <c r="O28" s="17"/>
+      <c r="P28" s="17"/>
+      <c r="Q28" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="82">
+  <mergeCells count="112">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -1401,10 +1656,40 @@
     <mergeCell ref="H20:K20"/>
     <mergeCell ref="L20:M20"/>
     <mergeCell ref="N20:O20"/>
-    <mergeCell ref="P21:Q21"/>
-    <mergeCell ref="A22:F22"/>
-    <mergeCell ref="G22:I22"/>
-    <mergeCell ref="K22:Q22"/>
+    <mergeCell ref="A21:B21"/>
+    <mergeCell ref="C21:G21"/>
+    <mergeCell ref="H21:K21"/>
+    <mergeCell ref="L21:M21"/>
+    <mergeCell ref="N21:O21"/>
+    <mergeCell ref="A22:B22"/>
+    <mergeCell ref="C22:G22"/>
+    <mergeCell ref="H22:K22"/>
+    <mergeCell ref="L22:M22"/>
+    <mergeCell ref="N22:O22"/>
+    <mergeCell ref="A23:B23"/>
+    <mergeCell ref="C23:G23"/>
+    <mergeCell ref="H23:K23"/>
+    <mergeCell ref="L23:M23"/>
+    <mergeCell ref="N23:O23"/>
+    <mergeCell ref="A24:B24"/>
+    <mergeCell ref="C24:G24"/>
+    <mergeCell ref="H24:K24"/>
+    <mergeCell ref="L24:M24"/>
+    <mergeCell ref="N24:O24"/>
+    <mergeCell ref="A25:B25"/>
+    <mergeCell ref="C25:G25"/>
+    <mergeCell ref="H25:K25"/>
+    <mergeCell ref="L25:M25"/>
+    <mergeCell ref="N25:O25"/>
+    <mergeCell ref="A26:B26"/>
+    <mergeCell ref="C26:G26"/>
+    <mergeCell ref="H26:K26"/>
+    <mergeCell ref="L26:M26"/>
+    <mergeCell ref="N26:O26"/>
+    <mergeCell ref="P27:Q27"/>
+    <mergeCell ref="A28:F28"/>
+    <mergeCell ref="G28:I28"/>
+    <mergeCell ref="K28:Q28"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-08-08_00-00.xlsx
+++ b/DaySale_2025-08-08_00-00.xlsx
@@ -257,7 +257,7 @@
     <t>24.0000</t>
   </si>
   <si>
-    <t>Friday, 8 August, 2025 5:16 PM</t>
+    <t>Friday, 8 August, 2025 5:19 PM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-08-08_00-00.xlsx
+++ b/DaySale_2025-08-08_00-00.xlsx
@@ -116,6 +116,21 @@
     <t>55.0000</t>
   </si>
   <si>
+    <t>PANADOL EXTRA 48 TAB</t>
+  </si>
+  <si>
+    <t>2:1</t>
+  </si>
+  <si>
+    <t>0</t>
+  </si>
+  <si>
+    <t>108.00</t>
+  </si>
+  <si>
+    <t>27.0000</t>
+  </si>
+  <si>
     <t>PANTAZOL 40MG VIAL I.V.</t>
   </si>
   <si>
@@ -194,9 +209,6 @@
     <t>حبايه</t>
   </si>
   <si>
-    <t>0</t>
-  </si>
-  <si>
     <t>3.00</t>
   </si>
   <si>
@@ -257,7 +269,7 @@
     <t>24.0000</t>
   </si>
   <si>
-    <t>Friday, 8 August, 2025 5:19 PM</t>
+    <t>Friday, 8 August, 2025 5:39 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1102,18 +1114,18 @@
       <c r="J13" s="9"/>
       <c r="K13" s="9"/>
       <c t="s" r="L13" s="10">
-        <v>13</v>
+        <v>37</v>
       </c>
       <c r="M13" s="10"/>
       <c t="s" r="N13" s="8">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="O13" s="8"/>
       <c t="s" r="P13" s="11">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c t="s" r="Q13" s="12">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="14" ht="25.5" customHeight="1">
@@ -1122,14 +1134,14 @@
       </c>
       <c r="B14" s="7"/>
       <c t="s" r="C14" s="8">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D14" s="8"/>
       <c r="E14" s="8"/>
       <c r="F14" s="8"/>
       <c r="G14" s="8"/>
       <c t="s" r="H14" s="9">
-        <v>18</v>
+        <v>41</v>
       </c>
       <c r="I14" s="9"/>
       <c r="J14" s="9"/>
@@ -1139,14 +1151,14 @@
       </c>
       <c r="M14" s="10"/>
       <c t="s" r="N14" s="8">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="O14" s="8"/>
       <c t="s" r="P14" s="11">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c t="s" r="Q14" s="12">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="15" ht="24.75" customHeight="1">
@@ -1155,14 +1167,14 @@
       </c>
       <c r="B15" s="7"/>
       <c t="s" r="C15" s="8">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="D15" s="8"/>
       <c r="E15" s="8"/>
       <c r="F15" s="8"/>
       <c r="G15" s="8"/>
       <c t="s" r="H15" s="9">
-        <v>43</v>
+        <v>18</v>
       </c>
       <c r="I15" s="9"/>
       <c r="J15" s="9"/>
@@ -1172,14 +1184,14 @@
       </c>
       <c r="M15" s="10"/>
       <c t="s" r="N15" s="8">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="O15" s="8"/>
       <c t="s" r="P15" s="11">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c t="s" r="Q15" s="12">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="16" ht="25.5" customHeight="1">
@@ -1188,14 +1200,14 @@
       </c>
       <c r="B16" s="7"/>
       <c t="s" r="C16" s="8">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D16" s="8"/>
       <c r="E16" s="8"/>
       <c r="F16" s="8"/>
       <c r="G16" s="8"/>
       <c t="s" r="H16" s="9">
-        <v>36</v>
+        <v>48</v>
       </c>
       <c r="I16" s="9"/>
       <c r="J16" s="9"/>
@@ -1205,14 +1217,14 @@
       </c>
       <c r="M16" s="10"/>
       <c t="s" r="N16" s="8">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="O16" s="8"/>
       <c t="s" r="P16" s="11">
-        <v>38</v>
+        <v>50</v>
       </c>
       <c t="s" r="Q16" s="12">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="17" ht="25.5" customHeight="1">
@@ -1221,14 +1233,14 @@
       </c>
       <c r="B17" s="7"/>
       <c t="s" r="C17" s="8">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="D17" s="8"/>
       <c r="E17" s="8"/>
       <c r="F17" s="8"/>
       <c r="G17" s="8"/>
       <c t="s" r="H17" s="9">
-        <v>49</v>
+        <v>41</v>
       </c>
       <c r="I17" s="9"/>
       <c r="J17" s="9"/>
@@ -1238,11 +1250,11 @@
       </c>
       <c r="M17" s="10"/>
       <c t="s" r="N17" s="8">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="O17" s="8"/>
       <c t="s" r="P17" s="11">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c t="s" r="Q17" s="12">
         <v>16</v>
@@ -1254,14 +1266,14 @@
       </c>
       <c r="B18" s="7"/>
       <c t="s" r="C18" s="8">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="D18" s="8"/>
       <c r="E18" s="8"/>
       <c r="F18" s="8"/>
       <c r="G18" s="8"/>
       <c t="s" r="H18" s="9">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="I18" s="9"/>
       <c r="J18" s="9"/>
@@ -1271,14 +1283,14 @@
       </c>
       <c r="M18" s="10"/>
       <c t="s" r="N18" s="8">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="O18" s="8"/>
       <c t="s" r="P18" s="11">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c t="s" r="Q18" s="12">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="19" ht="25.5" customHeight="1">
@@ -1287,14 +1299,14 @@
       </c>
       <c r="B19" s="7"/>
       <c t="s" r="C19" s="8">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="D19" s="8"/>
       <c r="E19" s="8"/>
       <c r="F19" s="8"/>
       <c r="G19" s="8"/>
       <c t="s" r="H19" s="9">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="I19" s="9"/>
       <c r="J19" s="9"/>
@@ -1304,14 +1316,14 @@
       </c>
       <c r="M19" s="10"/>
       <c t="s" r="N19" s="8">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="O19" s="8"/>
       <c t="s" r="P19" s="11">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c t="s" r="Q19" s="12">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="20" ht="24.75" customHeight="1">
@@ -1320,31 +1332,31 @@
       </c>
       <c r="B20" s="7"/>
       <c t="s" r="C20" s="8">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="D20" s="8"/>
       <c r="E20" s="8"/>
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
       <c t="s" r="H20" s="9">
-        <v>53</v>
+        <v>62</v>
       </c>
       <c r="I20" s="9"/>
       <c r="J20" s="9"/>
       <c r="K20" s="9"/>
       <c t="s" r="L20" s="10">
-        <v>61</v>
+        <v>13</v>
       </c>
       <c r="M20" s="10"/>
       <c t="s" r="N20" s="8">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="O20" s="8"/>
       <c t="s" r="P20" s="11">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c t="s" r="Q20" s="12">
-        <v>49</v>
+        <v>16</v>
       </c>
     </row>
     <row r="21" ht="25.5" customHeight="1">
@@ -1353,31 +1365,31 @@
       </c>
       <c r="B21" s="7"/>
       <c t="s" r="C21" s="8">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="D21" s="8"/>
       <c r="E21" s="8"/>
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
       <c t="s" r="H21" s="9">
-        <v>53</v>
+        <v>58</v>
       </c>
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
       <c r="K21" s="9"/>
       <c t="s" r="L21" s="10">
-        <v>61</v>
+        <v>37</v>
       </c>
       <c r="M21" s="10"/>
       <c t="s" r="N21" s="8">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="O21" s="8"/>
       <c t="s" r="P21" s="11">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c t="s" r="Q21" s="12">
-        <v>67</v>
+        <v>54</v>
       </c>
     </row>
     <row r="22" ht="25.5" customHeight="1">
@@ -1393,24 +1405,24 @@
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c t="s" r="H22" s="9">
-        <v>53</v>
+        <v>58</v>
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
       <c r="K22" s="9"/>
       <c t="s" r="L22" s="10">
-        <v>61</v>
+        <v>37</v>
       </c>
       <c r="M22" s="10"/>
       <c t="s" r="N22" s="8">
-        <v>62</v>
+        <v>69</v>
       </c>
       <c r="O22" s="8"/>
       <c t="s" r="P22" s="11">
-        <v>63</v>
+        <v>70</v>
       </c>
       <c t="s" r="Q22" s="12">
-        <v>49</v>
+        <v>71</v>
       </c>
     </row>
     <row r="23" ht="24.75" customHeight="1">
@@ -1419,31 +1431,31 @@
       </c>
       <c r="B23" s="7"/>
       <c t="s" r="C23" s="8">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="D23" s="8"/>
       <c r="E23" s="8"/>
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c t="s" r="H23" s="9">
-        <v>36</v>
+        <v>58</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
       <c r="K23" s="9"/>
       <c t="s" r="L23" s="10">
-        <v>61</v>
+        <v>37</v>
       </c>
       <c r="M23" s="10"/>
       <c t="s" r="N23" s="8">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="O23" s="8"/>
       <c t="s" r="P23" s="11">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c t="s" r="Q23" s="12">
-        <v>18</v>
+        <v>54</v>
       </c>
     </row>
     <row r="24" ht="25.5" customHeight="1">
@@ -1452,28 +1464,28 @@
       </c>
       <c r="B24" s="7"/>
       <c t="s" r="C24" s="8">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="D24" s="8"/>
       <c r="E24" s="8"/>
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>53</v>
+        <v>41</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
       <c r="K24" s="9"/>
       <c t="s" r="L24" s="10">
-        <v>61</v>
+        <v>37</v>
       </c>
       <c r="M24" s="10"/>
       <c t="s" r="N24" s="8">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="O24" s="8"/>
       <c t="s" r="P24" s="11">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c t="s" r="Q24" s="12">
         <v>18</v>
@@ -1485,28 +1497,28 @@
       </c>
       <c r="B25" s="7"/>
       <c t="s" r="C25" s="8">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="D25" s="8"/>
       <c r="E25" s="8"/>
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>18</v>
+        <v>58</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
       <c r="K25" s="9"/>
       <c t="s" r="L25" s="10">
-        <v>61</v>
+        <v>37</v>
       </c>
       <c r="M25" s="10"/>
       <c t="s" r="N25" s="8">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="O25" s="8"/>
       <c t="s" r="P25" s="11">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c t="s" r="Q25" s="12">
         <v>18</v>
@@ -1518,20 +1530,20 @@
       </c>
       <c r="B26" s="7"/>
       <c t="s" r="C26" s="8">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="D26" s="8"/>
       <c r="E26" s="8"/>
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>79</v>
+        <v>18</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
       <c r="K26" s="9"/>
       <c t="s" r="L26" s="10">
-        <v>61</v>
+        <v>37</v>
       </c>
       <c r="M26" s="10"/>
       <c t="s" r="N26" s="8">
@@ -1546,38 +1558,71 @@
       </c>
     </row>
     <row r="27" ht="25.5" customHeight="1">
-      <c r="P27" s="13">
-        <v>830.23500000000001</v>
-      </c>
-      <c r="Q27" s="13"/>
-    </row>
-    <row r="28" ht="16.5" customHeight="1">
-      <c t="s" r="A28" s="14">
+      <c r="A27" s="7">
+        <v>21</v>
+      </c>
+      <c r="B27" s="7"/>
+      <c t="s" r="C27" s="8">
         <v>82</v>
       </c>
-      <c r="B28" s="14"/>
-      <c r="C28" s="14"/>
-      <c r="D28" s="14"/>
-      <c r="E28" s="14"/>
-      <c r="F28" s="14"/>
-      <c t="s" r="G28" s="15">
+      <c r="D27" s="8"/>
+      <c r="E27" s="8"/>
+      <c r="F27" s="8"/>
+      <c r="G27" s="8"/>
+      <c t="s" r="H27" s="9">
         <v>83</v>
       </c>
-      <c r="H28" s="15"/>
-      <c r="I28" s="15"/>
-      <c r="J28" s="16"/>
-      <c t="s" r="K28" s="17">
+      <c r="I27" s="9"/>
+      <c r="J27" s="9"/>
+      <c r="K27" s="9"/>
+      <c t="s" r="L27" s="10">
+        <v>37</v>
+      </c>
+      <c r="M27" s="10"/>
+      <c t="s" r="N27" s="8">
         <v>84</v>
       </c>
-      <c r="L28" s="17"/>
-      <c r="M28" s="17"/>
-      <c r="N28" s="17"/>
-      <c r="O28" s="17"/>
-      <c r="P28" s="17"/>
-      <c r="Q28" s="17"/>
+      <c r="O27" s="8"/>
+      <c t="s" r="P27" s="11">
+        <v>85</v>
+      </c>
+      <c t="s" r="Q27" s="12">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="28" ht="24.75" customHeight="1">
+      <c r="P28" s="13">
+        <v>857.23500000000001</v>
+      </c>
+      <c r="Q28" s="13"/>
+    </row>
+    <row r="29" ht="16.5" customHeight="1">
+      <c t="s" r="A29" s="14">
+        <v>86</v>
+      </c>
+      <c r="B29" s="14"/>
+      <c r="C29" s="14"/>
+      <c r="D29" s="14"/>
+      <c r="E29" s="14"/>
+      <c r="F29" s="14"/>
+      <c t="s" r="G29" s="15">
+        <v>87</v>
+      </c>
+      <c r="H29" s="15"/>
+      <c r="I29" s="15"/>
+      <c r="J29" s="16"/>
+      <c t="s" r="K29" s="17">
+        <v>88</v>
+      </c>
+      <c r="L29" s="17"/>
+      <c r="M29" s="17"/>
+      <c r="N29" s="17"/>
+      <c r="O29" s="17"/>
+      <c r="P29" s="17"/>
+      <c r="Q29" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="112">
+  <mergeCells count="117">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -1686,10 +1731,15 @@
     <mergeCell ref="H26:K26"/>
     <mergeCell ref="L26:M26"/>
     <mergeCell ref="N26:O26"/>
-    <mergeCell ref="P27:Q27"/>
-    <mergeCell ref="A28:F28"/>
-    <mergeCell ref="G28:I28"/>
-    <mergeCell ref="K28:Q28"/>
+    <mergeCell ref="A27:B27"/>
+    <mergeCell ref="C27:G27"/>
+    <mergeCell ref="H27:K27"/>
+    <mergeCell ref="L27:M27"/>
+    <mergeCell ref="N27:O27"/>
+    <mergeCell ref="P28:Q28"/>
+    <mergeCell ref="A29:F29"/>
+    <mergeCell ref="G29:I29"/>
+    <mergeCell ref="K29:Q29"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-08-08_00-00.xlsx
+++ b/DaySale_2025-08-08_00-00.xlsx
@@ -269,7 +269,7 @@
     <t>24.0000</t>
   </si>
   <si>
-    <t>Friday, 8 August, 2025 5:39 PM</t>
+    <t>Friday, 8 August, 2025 5:48 PM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-08-08_00-00.xlsx
+++ b/DaySale_2025-08-08_00-00.xlsx
@@ -62,6 +62,18 @@
     <t>0:1</t>
   </si>
   <si>
+    <t>BI-PROFENID 150MG 20 SCORED TABS.</t>
+  </si>
+  <si>
+    <t>3:0</t>
+  </si>
+  <si>
+    <t>54.00</t>
+  </si>
+  <si>
+    <t>27.0000</t>
+  </si>
+  <si>
     <t>COLOVERIN D 135MG 30 TAB</t>
   </si>
   <si>
@@ -95,6 +107,33 @@
     <t>47.0250</t>
   </si>
   <si>
+    <t>DIFLUCAN 50MG 7 CAPS.</t>
+  </si>
+  <si>
+    <t>0:0</t>
+  </si>
+  <si>
+    <t>179.00</t>
+  </si>
+  <si>
+    <t>895.0000</t>
+  </si>
+  <si>
+    <t>5:0</t>
+  </si>
+  <si>
+    <t>ELICA-M CREAM 30 GRAM</t>
+  </si>
+  <si>
+    <t>52.00</t>
+  </si>
+  <si>
+    <t>208.0000</t>
+  </si>
+  <si>
+    <t>4:0</t>
+  </si>
+  <si>
     <t>ETHOXA 250MG/5ML SYRUP 120ML</t>
   </si>
   <si>
@@ -104,12 +143,33 @@
     <t>99.0000</t>
   </si>
   <si>
+    <t>GLIPTUS PLUS 50/1000MG 30 TABLETS</t>
+  </si>
+  <si>
+    <t>1:1</t>
+  </si>
+  <si>
+    <t>192.00</t>
+  </si>
+  <si>
+    <t>63.3600</t>
+  </si>
+  <si>
+    <t>ITRANOX 100MG 15 CAPS.</t>
+  </si>
+  <si>
+    <t>-3:0</t>
+  </si>
+  <si>
+    <t>108.00</t>
+  </si>
+  <si>
+    <t>432.0000</t>
+  </si>
+  <si>
     <t>KAPRON 500 MG 20 F.C.TABS.</t>
   </si>
   <si>
-    <t>1:1</t>
-  </si>
-  <si>
     <t>110.00</t>
   </si>
   <si>
@@ -125,18 +185,9 @@
     <t>0</t>
   </si>
   <si>
-    <t>108.00</t>
-  </si>
-  <si>
-    <t>27.0000</t>
-  </si>
-  <si>
     <t>PANTAZOL 40MG VIAL I.V.</t>
   </si>
   <si>
-    <t>3:0</t>
-  </si>
-  <si>
     <t>62.00</t>
   </si>
   <si>
@@ -185,15 +236,21 @@
     <t>UROSOLVINE EFF. GRAN. 12 SACHETS</t>
   </si>
   <si>
-    <t>0:0</t>
-  </si>
-  <si>
     <t>38.00</t>
   </si>
   <si>
     <t>38.0000</t>
   </si>
   <si>
+    <t>VIOTIC EAR DROPS 10 ML</t>
+  </si>
+  <si>
+    <t>23.00</t>
+  </si>
+  <si>
+    <t>23.0000</t>
+  </si>
+  <si>
     <t>VISCERALGINE 5MG/2ML IM IV 6 AMPOULES</t>
   </si>
   <si>
@@ -224,12 +281,21 @@
     <t>8.0000</t>
   </si>
   <si>
-    <t>4:0</t>
-  </si>
-  <si>
     <t>سرنجات 5 سم</t>
   </si>
   <si>
+    <t>شاش 15 سم</t>
+  </si>
+  <si>
+    <t>17:0</t>
+  </si>
+  <si>
+    <t>12.00</t>
+  </si>
+  <si>
+    <t>12.0000</t>
+  </si>
+  <si>
     <t>شفاط ثدي الجو</t>
   </si>
   <si>
@@ -269,7 +335,7 @@
     <t>24.0000</t>
   </si>
   <si>
-    <t>Friday, 8 August, 2025 5:48 PM</t>
+    <t>Friday, 8 August, 2025 6:10 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -976,7 +1042,7 @@
       <c r="F9" s="8"/>
       <c r="G9" s="8"/>
       <c t="s" r="H9" s="9">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="I9" s="9"/>
       <c r="J9" s="9"/>
@@ -986,14 +1052,14 @@
       </c>
       <c r="M9" s="10"/>
       <c t="s" r="N9" s="8">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="O9" s="8"/>
       <c t="s" r="P9" s="11">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c t="s" r="Q9" s="12">
-        <v>24</v>
+        <v>16</v>
       </c>
     </row>
     <row r="10" ht="24.75" customHeight="1">
@@ -1009,7 +1075,7 @@
       <c r="F10" s="8"/>
       <c r="G10" s="8"/>
       <c t="s" r="H10" s="9">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="I10" s="9"/>
       <c r="J10" s="9"/>
@@ -1026,7 +1092,7 @@
         <v>27</v>
       </c>
       <c t="s" r="Q10" s="12">
-        <v>16</v>
+        <v>28</v>
       </c>
     </row>
     <row r="11" ht="25.5" customHeight="1">
@@ -1035,14 +1101,14 @@
       </c>
       <c r="B11" s="7"/>
       <c t="s" r="C11" s="8">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D11" s="8"/>
       <c r="E11" s="8"/>
       <c r="F11" s="8"/>
       <c r="G11" s="8"/>
       <c t="s" r="H11" s="9">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="I11" s="9"/>
       <c r="J11" s="9"/>
@@ -1052,14 +1118,14 @@
       </c>
       <c r="M11" s="10"/>
       <c t="s" r="N11" s="8">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="O11" s="8"/>
       <c t="s" r="P11" s="11">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c t="s" r="Q11" s="12">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="12" ht="25.5" customHeight="1">
@@ -1068,14 +1134,14 @@
       </c>
       <c r="B12" s="7"/>
       <c t="s" r="C12" s="8">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D12" s="8"/>
       <c r="E12" s="8"/>
       <c r="F12" s="8"/>
       <c r="G12" s="8"/>
       <c t="s" r="H12" s="9">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="I12" s="9"/>
       <c r="J12" s="9"/>
@@ -1085,14 +1151,14 @@
       </c>
       <c r="M12" s="10"/>
       <c t="s" r="N12" s="8">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="O12" s="8"/>
       <c t="s" r="P12" s="11">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c t="s" r="Q12" s="12">
-        <v>16</v>
+        <v>36</v>
       </c>
     </row>
     <row r="13" ht="24.75" customHeight="1">
@@ -1101,20 +1167,20 @@
       </c>
       <c r="B13" s="7"/>
       <c t="s" r="C13" s="8">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="D13" s="8"/>
       <c r="E13" s="8"/>
       <c r="F13" s="8"/>
       <c r="G13" s="8"/>
       <c t="s" r="H13" s="9">
-        <v>36</v>
+        <v>18</v>
       </c>
       <c r="I13" s="9"/>
       <c r="J13" s="9"/>
       <c r="K13" s="9"/>
       <c t="s" r="L13" s="10">
-        <v>37</v>
+        <v>13</v>
       </c>
       <c r="M13" s="10"/>
       <c t="s" r="N13" s="8">
@@ -1125,7 +1191,7 @@
         <v>39</v>
       </c>
       <c t="s" r="Q13" s="12">
-        <v>16</v>
+        <v>40</v>
       </c>
     </row>
     <row r="14" ht="25.5" customHeight="1">
@@ -1134,14 +1200,14 @@
       </c>
       <c r="B14" s="7"/>
       <c t="s" r="C14" s="8">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D14" s="8"/>
       <c r="E14" s="8"/>
       <c r="F14" s="8"/>
       <c r="G14" s="8"/>
       <c t="s" r="H14" s="9">
-        <v>41</v>
+        <v>22</v>
       </c>
       <c r="I14" s="9"/>
       <c r="J14" s="9"/>
@@ -1158,7 +1224,7 @@
         <v>43</v>
       </c>
       <c t="s" r="Q14" s="12">
-        <v>18</v>
+        <v>22</v>
       </c>
     </row>
     <row r="15" ht="24.75" customHeight="1">
@@ -1174,7 +1240,7 @@
       <c r="F15" s="8"/>
       <c r="G15" s="8"/>
       <c t="s" r="H15" s="9">
-        <v>18</v>
+        <v>45</v>
       </c>
       <c r="I15" s="9"/>
       <c r="J15" s="9"/>
@@ -1184,11 +1250,11 @@
       </c>
       <c r="M15" s="10"/>
       <c t="s" r="N15" s="8">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="O15" s="8"/>
       <c t="s" r="P15" s="11">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c t="s" r="Q15" s="12">
         <v>16</v>
@@ -1200,14 +1266,14 @@
       </c>
       <c r="B16" s="7"/>
       <c t="s" r="C16" s="8">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="D16" s="8"/>
       <c r="E16" s="8"/>
       <c r="F16" s="8"/>
       <c r="G16" s="8"/>
       <c t="s" r="H16" s="9">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="I16" s="9"/>
       <c r="J16" s="9"/>
@@ -1217,14 +1283,14 @@
       </c>
       <c r="M16" s="10"/>
       <c t="s" r="N16" s="8">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="O16" s="8"/>
       <c t="s" r="P16" s="11">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c t="s" r="Q16" s="12">
-        <v>18</v>
+        <v>40</v>
       </c>
     </row>
     <row r="17" ht="25.5" customHeight="1">
@@ -1233,14 +1299,14 @@
       </c>
       <c r="B17" s="7"/>
       <c t="s" r="C17" s="8">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="D17" s="8"/>
       <c r="E17" s="8"/>
       <c r="F17" s="8"/>
       <c r="G17" s="8"/>
       <c t="s" r="H17" s="9">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="I17" s="9"/>
       <c r="J17" s="9"/>
@@ -1250,11 +1316,11 @@
       </c>
       <c r="M17" s="10"/>
       <c t="s" r="N17" s="8">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="O17" s="8"/>
       <c t="s" r="P17" s="11">
-        <v>43</v>
+        <v>54</v>
       </c>
       <c t="s" r="Q17" s="12">
         <v>16</v>
@@ -1266,28 +1332,28 @@
       </c>
       <c r="B18" s="7"/>
       <c t="s" r="C18" s="8">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="D18" s="8"/>
       <c r="E18" s="8"/>
       <c r="F18" s="8"/>
       <c r="G18" s="8"/>
       <c t="s" r="H18" s="9">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="I18" s="9"/>
       <c r="J18" s="9"/>
       <c r="K18" s="9"/>
       <c t="s" r="L18" s="10">
-        <v>13</v>
+        <v>57</v>
       </c>
       <c r="M18" s="10"/>
       <c t="s" r="N18" s="8">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="O18" s="8"/>
       <c t="s" r="P18" s="11">
-        <v>56</v>
+        <v>20</v>
       </c>
       <c t="s" r="Q18" s="12">
         <v>16</v>
@@ -1299,14 +1365,14 @@
       </c>
       <c r="B19" s="7"/>
       <c t="s" r="C19" s="8">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="D19" s="8"/>
       <c r="E19" s="8"/>
       <c r="F19" s="8"/>
       <c r="G19" s="8"/>
       <c t="s" r="H19" s="9">
-        <v>58</v>
+        <v>18</v>
       </c>
       <c r="I19" s="9"/>
       <c r="J19" s="9"/>
@@ -1323,7 +1389,7 @@
         <v>60</v>
       </c>
       <c t="s" r="Q19" s="12">
-        <v>18</v>
+        <v>22</v>
       </c>
     </row>
     <row r="20" ht="24.75" customHeight="1">
@@ -1339,7 +1405,7 @@
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
       <c t="s" r="H20" s="9">
-        <v>62</v>
+        <v>22</v>
       </c>
       <c r="I20" s="9"/>
       <c r="J20" s="9"/>
@@ -1349,11 +1415,11 @@
       </c>
       <c r="M20" s="10"/>
       <c t="s" r="N20" s="8">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="O20" s="8"/>
       <c t="s" r="P20" s="11">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c t="s" r="Q20" s="12">
         <v>16</v>
@@ -1365,20 +1431,20 @@
       </c>
       <c r="B21" s="7"/>
       <c t="s" r="C21" s="8">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D21" s="8"/>
       <c r="E21" s="8"/>
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
       <c t="s" r="H21" s="9">
-        <v>58</v>
+        <v>65</v>
       </c>
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
       <c r="K21" s="9"/>
       <c t="s" r="L21" s="10">
-        <v>37</v>
+        <v>13</v>
       </c>
       <c r="M21" s="10"/>
       <c t="s" r="N21" s="8">
@@ -1389,7 +1455,7 @@
         <v>67</v>
       </c>
       <c t="s" r="Q21" s="12">
-        <v>54</v>
+        <v>22</v>
       </c>
     </row>
     <row r="22" ht="25.5" customHeight="1">
@@ -1405,13 +1471,13 @@
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c t="s" r="H22" s="9">
-        <v>58</v>
+        <v>18</v>
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
       <c r="K22" s="9"/>
       <c t="s" r="L22" s="10">
-        <v>37</v>
+        <v>13</v>
       </c>
       <c r="M22" s="10"/>
       <c t="s" r="N22" s="8">
@@ -1419,10 +1485,10 @@
       </c>
       <c r="O22" s="8"/>
       <c t="s" r="P22" s="11">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c t="s" r="Q22" s="12">
-        <v>71</v>
+        <v>16</v>
       </c>
     </row>
     <row r="23" ht="24.75" customHeight="1">
@@ -1431,31 +1497,31 @@
       </c>
       <c r="B23" s="7"/>
       <c t="s" r="C23" s="8">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="D23" s="8"/>
       <c r="E23" s="8"/>
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c t="s" r="H23" s="9">
-        <v>58</v>
+        <v>71</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
       <c r="K23" s="9"/>
       <c t="s" r="L23" s="10">
-        <v>37</v>
+        <v>13</v>
       </c>
       <c r="M23" s="10"/>
       <c t="s" r="N23" s="8">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="O23" s="8"/>
       <c t="s" r="P23" s="11">
-        <v>67</v>
+        <v>73</v>
       </c>
       <c t="s" r="Q23" s="12">
-        <v>54</v>
+        <v>16</v>
       </c>
     </row>
     <row r="24" ht="25.5" customHeight="1">
@@ -1464,31 +1530,31 @@
       </c>
       <c r="B24" s="7"/>
       <c t="s" r="C24" s="8">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="D24" s="8"/>
       <c r="E24" s="8"/>
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>41</v>
+        <v>33</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
       <c r="K24" s="9"/>
       <c t="s" r="L24" s="10">
-        <v>37</v>
+        <v>13</v>
       </c>
       <c r="M24" s="10"/>
       <c t="s" r="N24" s="8">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="O24" s="8"/>
       <c t="s" r="P24" s="11">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c t="s" r="Q24" s="12">
-        <v>18</v>
+        <v>22</v>
       </c>
     </row>
     <row r="25" ht="24.75" customHeight="1">
@@ -1497,31 +1563,31 @@
       </c>
       <c r="B25" s="7"/>
       <c t="s" r="C25" s="8">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="D25" s="8"/>
       <c r="E25" s="8"/>
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>58</v>
+        <v>33</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
       <c r="K25" s="9"/>
       <c t="s" r="L25" s="10">
-        <v>37</v>
+        <v>13</v>
       </c>
       <c r="M25" s="10"/>
       <c t="s" r="N25" s="8">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="O25" s="8"/>
       <c t="s" r="P25" s="11">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c t="s" r="Q25" s="12">
-        <v>18</v>
+        <v>22</v>
       </c>
     </row>
     <row r="26" ht="25.5" customHeight="1">
@@ -1530,31 +1596,31 @@
       </c>
       <c r="B26" s="7"/>
       <c t="s" r="C26" s="8">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="D26" s="8"/>
       <c r="E26" s="8"/>
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>18</v>
+        <v>81</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
       <c r="K26" s="9"/>
       <c t="s" r="L26" s="10">
-        <v>37</v>
+        <v>13</v>
       </c>
       <c r="M26" s="10"/>
       <c t="s" r="N26" s="8">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="O26" s="8"/>
       <c t="s" r="P26" s="11">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c t="s" r="Q26" s="12">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="27" ht="25.5" customHeight="1">
@@ -1563,66 +1629,297 @@
       </c>
       <c r="B27" s="7"/>
       <c t="s" r="C27" s="8">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="D27" s="8"/>
       <c r="E27" s="8"/>
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>83</v>
+        <v>33</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
       <c r="K27" s="9"/>
       <c t="s" r="L27" s="10">
-        <v>37</v>
+        <v>57</v>
       </c>
       <c r="M27" s="10"/>
       <c t="s" r="N27" s="8">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="O27" s="8"/>
       <c t="s" r="P27" s="11">
+        <v>86</v>
+      </c>
+      <c t="s" r="Q27" s="12">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="28" ht="24.75" customHeight="1">
+      <c r="A28" s="7">
+        <v>22</v>
+      </c>
+      <c r="B28" s="7"/>
+      <c t="s" r="C28" s="8">
+        <v>87</v>
+      </c>
+      <c r="D28" s="8"/>
+      <c r="E28" s="8"/>
+      <c r="F28" s="8"/>
+      <c r="G28" s="8"/>
+      <c t="s" r="H28" s="9">
+        <v>33</v>
+      </c>
+      <c r="I28" s="9"/>
+      <c r="J28" s="9"/>
+      <c r="K28" s="9"/>
+      <c t="s" r="L28" s="10">
+        <v>57</v>
+      </c>
+      <c r="M28" s="10"/>
+      <c t="s" r="N28" s="8">
+        <v>88</v>
+      </c>
+      <c r="O28" s="8"/>
+      <c t="s" r="P28" s="11">
+        <v>89</v>
+      </c>
+      <c t="s" r="Q28" s="12">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="29" ht="25.5" customHeight="1">
+      <c r="A29" s="7">
+        <v>23</v>
+      </c>
+      <c r="B29" s="7"/>
+      <c t="s" r="C29" s="8">
+        <v>90</v>
+      </c>
+      <c r="D29" s="8"/>
+      <c r="E29" s="8"/>
+      <c r="F29" s="8"/>
+      <c r="G29" s="8"/>
+      <c t="s" r="H29" s="9">
+        <v>33</v>
+      </c>
+      <c r="I29" s="9"/>
+      <c r="J29" s="9"/>
+      <c r="K29" s="9"/>
+      <c t="s" r="L29" s="10">
+        <v>57</v>
+      </c>
+      <c r="M29" s="10"/>
+      <c t="s" r="N29" s="8">
         <v>85</v>
       </c>
-      <c t="s" r="Q27" s="12">
+      <c r="O29" s="8"/>
+      <c t="s" r="P29" s="11">
+        <v>86</v>
+      </c>
+      <c t="s" r="Q29" s="12">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="30" ht="24.75" customHeight="1">
+      <c r="A30" s="7">
+        <v>24</v>
+      </c>
+      <c r="B30" s="7"/>
+      <c t="s" r="C30" s="8">
+        <v>91</v>
+      </c>
+      <c r="D30" s="8"/>
+      <c r="E30" s="8"/>
+      <c r="F30" s="8"/>
+      <c r="G30" s="8"/>
+      <c t="s" r="H30" s="9">
+        <v>92</v>
+      </c>
+      <c r="I30" s="9"/>
+      <c r="J30" s="9"/>
+      <c r="K30" s="9"/>
+      <c t="s" r="L30" s="10">
+        <v>57</v>
+      </c>
+      <c r="M30" s="10"/>
+      <c t="s" r="N30" s="8">
+        <v>93</v>
+      </c>
+      <c r="O30" s="8"/>
+      <c t="s" r="P30" s="11">
+        <v>94</v>
+      </c>
+      <c t="s" r="Q30" s="12">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="31" ht="25.5" customHeight="1">
+      <c r="A31" s="7">
+        <v>25</v>
+      </c>
+      <c r="B31" s="7"/>
+      <c t="s" r="C31" s="8">
+        <v>95</v>
+      </c>
+      <c r="D31" s="8"/>
+      <c r="E31" s="8"/>
+      <c r="F31" s="8"/>
+      <c r="G31" s="8"/>
+      <c t="s" r="H31" s="9">
         <v>18</v>
       </c>
-    </row>
-    <row r="28" ht="24.75" customHeight="1">
-      <c r="P28" s="13">
-        <v>857.23500000000001</v>
-      </c>
-      <c r="Q28" s="13"/>
-    </row>
-    <row r="29" ht="16.5" customHeight="1">
-      <c t="s" r="A29" s="14">
-        <v>86</v>
-      </c>
-      <c r="B29" s="14"/>
-      <c r="C29" s="14"/>
-      <c r="D29" s="14"/>
-      <c r="E29" s="14"/>
-      <c r="F29" s="14"/>
-      <c t="s" r="G29" s="15">
-        <v>87</v>
-      </c>
-      <c r="H29" s="15"/>
-      <c r="I29" s="15"/>
-      <c r="J29" s="16"/>
-      <c t="s" r="K29" s="17">
-        <v>88</v>
-      </c>
-      <c r="L29" s="17"/>
-      <c r="M29" s="17"/>
-      <c r="N29" s="17"/>
-      <c r="O29" s="17"/>
-      <c r="P29" s="17"/>
-      <c r="Q29" s="17"/>
+      <c r="I31" s="9"/>
+      <c r="J31" s="9"/>
+      <c r="K31" s="9"/>
+      <c t="s" r="L31" s="10">
+        <v>57</v>
+      </c>
+      <c r="M31" s="10"/>
+      <c t="s" r="N31" s="8">
+        <v>96</v>
+      </c>
+      <c r="O31" s="8"/>
+      <c t="s" r="P31" s="11">
+        <v>97</v>
+      </c>
+      <c t="s" r="Q31" s="12">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="32" ht="25.5" customHeight="1">
+      <c r="A32" s="7">
+        <v>26</v>
+      </c>
+      <c r="B32" s="7"/>
+      <c t="s" r="C32" s="8">
+        <v>98</v>
+      </c>
+      <c r="D32" s="8"/>
+      <c r="E32" s="8"/>
+      <c r="F32" s="8"/>
+      <c r="G32" s="8"/>
+      <c t="s" r="H32" s="9">
+        <v>33</v>
+      </c>
+      <c r="I32" s="9"/>
+      <c r="J32" s="9"/>
+      <c r="K32" s="9"/>
+      <c t="s" r="L32" s="10">
+        <v>57</v>
+      </c>
+      <c r="M32" s="10"/>
+      <c t="s" r="N32" s="8">
+        <v>99</v>
+      </c>
+      <c r="O32" s="8"/>
+      <c t="s" r="P32" s="11">
+        <v>100</v>
+      </c>
+      <c t="s" r="Q32" s="12">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="33" ht="24.75" customHeight="1">
+      <c r="A33" s="7">
+        <v>27</v>
+      </c>
+      <c r="B33" s="7"/>
+      <c t="s" r="C33" s="8">
+        <v>101</v>
+      </c>
+      <c r="D33" s="8"/>
+      <c r="E33" s="8"/>
+      <c r="F33" s="8"/>
+      <c r="G33" s="8"/>
+      <c t="s" r="H33" s="9">
+        <v>22</v>
+      </c>
+      <c r="I33" s="9"/>
+      <c r="J33" s="9"/>
+      <c r="K33" s="9"/>
+      <c t="s" r="L33" s="10">
+        <v>57</v>
+      </c>
+      <c r="M33" s="10"/>
+      <c t="s" r="N33" s="8">
+        <v>102</v>
+      </c>
+      <c r="O33" s="8"/>
+      <c t="s" r="P33" s="11">
+        <v>103</v>
+      </c>
+      <c t="s" r="Q33" s="12">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="34" ht="25.5" customHeight="1">
+      <c r="A34" s="7">
+        <v>28</v>
+      </c>
+      <c r="B34" s="7"/>
+      <c t="s" r="C34" s="8">
+        <v>104</v>
+      </c>
+      <c r="D34" s="8"/>
+      <c r="E34" s="8"/>
+      <c r="F34" s="8"/>
+      <c r="G34" s="8"/>
+      <c t="s" r="H34" s="9">
+        <v>105</v>
+      </c>
+      <c r="I34" s="9"/>
+      <c r="J34" s="9"/>
+      <c r="K34" s="9"/>
+      <c t="s" r="L34" s="10">
+        <v>57</v>
+      </c>
+      <c r="M34" s="10"/>
+      <c t="s" r="N34" s="8">
+        <v>106</v>
+      </c>
+      <c r="O34" s="8"/>
+      <c t="s" r="P34" s="11">
+        <v>107</v>
+      </c>
+      <c t="s" r="Q34" s="12">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="35" ht="24.75" customHeight="1">
+      <c r="P35" s="13">
+        <v>2517.5949999999998</v>
+      </c>
+      <c r="Q35" s="13"/>
+    </row>
+    <row r="36" ht="16.5" customHeight="1">
+      <c t="s" r="A36" s="14">
+        <v>108</v>
+      </c>
+      <c r="B36" s="14"/>
+      <c r="C36" s="14"/>
+      <c r="D36" s="14"/>
+      <c r="E36" s="14"/>
+      <c r="F36" s="14"/>
+      <c t="s" r="G36" s="15">
+        <v>109</v>
+      </c>
+      <c r="H36" s="15"/>
+      <c r="I36" s="15"/>
+      <c r="J36" s="16"/>
+      <c t="s" r="K36" s="17">
+        <v>110</v>
+      </c>
+      <c r="L36" s="17"/>
+      <c r="M36" s="17"/>
+      <c r="N36" s="17"/>
+      <c r="O36" s="17"/>
+      <c r="P36" s="17"/>
+      <c r="Q36" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="117">
+  <mergeCells count="152">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -1736,10 +2033,45 @@
     <mergeCell ref="H27:K27"/>
     <mergeCell ref="L27:M27"/>
     <mergeCell ref="N27:O27"/>
-    <mergeCell ref="P28:Q28"/>
-    <mergeCell ref="A29:F29"/>
-    <mergeCell ref="G29:I29"/>
-    <mergeCell ref="K29:Q29"/>
+    <mergeCell ref="A28:B28"/>
+    <mergeCell ref="C28:G28"/>
+    <mergeCell ref="H28:K28"/>
+    <mergeCell ref="L28:M28"/>
+    <mergeCell ref="N28:O28"/>
+    <mergeCell ref="A29:B29"/>
+    <mergeCell ref="C29:G29"/>
+    <mergeCell ref="H29:K29"/>
+    <mergeCell ref="L29:M29"/>
+    <mergeCell ref="N29:O29"/>
+    <mergeCell ref="A30:B30"/>
+    <mergeCell ref="C30:G30"/>
+    <mergeCell ref="H30:K30"/>
+    <mergeCell ref="L30:M30"/>
+    <mergeCell ref="N30:O30"/>
+    <mergeCell ref="A31:B31"/>
+    <mergeCell ref="C31:G31"/>
+    <mergeCell ref="H31:K31"/>
+    <mergeCell ref="L31:M31"/>
+    <mergeCell ref="N31:O31"/>
+    <mergeCell ref="A32:B32"/>
+    <mergeCell ref="C32:G32"/>
+    <mergeCell ref="H32:K32"/>
+    <mergeCell ref="L32:M32"/>
+    <mergeCell ref="N32:O32"/>
+    <mergeCell ref="A33:B33"/>
+    <mergeCell ref="C33:G33"/>
+    <mergeCell ref="H33:K33"/>
+    <mergeCell ref="L33:M33"/>
+    <mergeCell ref="N33:O33"/>
+    <mergeCell ref="A34:B34"/>
+    <mergeCell ref="C34:G34"/>
+    <mergeCell ref="H34:K34"/>
+    <mergeCell ref="L34:M34"/>
+    <mergeCell ref="N34:O34"/>
+    <mergeCell ref="P35:Q35"/>
+    <mergeCell ref="A36:F36"/>
+    <mergeCell ref="G36:I36"/>
+    <mergeCell ref="K36:Q36"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-08-08_00-00.xlsx
+++ b/DaySale_2025-08-08_00-00.xlsx
@@ -335,7 +335,7 @@
     <t>24.0000</t>
   </si>
   <si>
-    <t>Friday, 8 August, 2025 6:10 PM</t>
+    <t>Friday, 8 August, 2025 6:12 PM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-08-08_00-00.xlsx
+++ b/DaySale_2025-08-08_00-00.xlsx
@@ -122,6 +122,15 @@
     <t>5:0</t>
   </si>
   <si>
+    <t>DIOMACTE 1000MG/5ML SUSP. 60 ML</t>
+  </si>
+  <si>
+    <t>22.00</t>
+  </si>
+  <si>
+    <t>22.0000</t>
+  </si>
+  <si>
     <t>ELICA-M CREAM 30 GRAM</t>
   </si>
   <si>
@@ -134,6 +143,18 @@
     <t>4:0</t>
   </si>
   <si>
+    <t>ENTEROGERMINA 2 BILLION/5ML ORAL SUSP. 10 MINI BOTTLES</t>
+  </si>
+  <si>
+    <t>0:4</t>
+  </si>
+  <si>
+    <t>180.00</t>
+  </si>
+  <si>
+    <t>36.0000</t>
+  </si>
+  <si>
     <t>ETHOXA 250MG/5ML SYRUP 120ML</t>
   </si>
   <si>
@@ -254,9 +275,6 @@
     <t>VISCERALGINE 5MG/2ML IM IV 6 AMPOULES</t>
   </si>
   <si>
-    <t>0:4</t>
-  </si>
-  <si>
     <t>90.00</t>
   </si>
   <si>
@@ -335,7 +353,7 @@
     <t>24.0000</t>
   </si>
   <si>
-    <t>Friday, 8 August, 2025 6:12 PM</t>
+    <t>Friday, 8 August, 2025 6:13 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1174,7 +1192,7 @@
       <c r="F13" s="8"/>
       <c r="G13" s="8"/>
       <c t="s" r="H13" s="9">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="I13" s="9"/>
       <c r="J13" s="9"/>
@@ -1191,7 +1209,7 @@
         <v>39</v>
       </c>
       <c t="s" r="Q13" s="12">
-        <v>40</v>
+        <v>22</v>
       </c>
     </row>
     <row r="14" ht="25.5" customHeight="1">
@@ -1200,14 +1218,14 @@
       </c>
       <c r="B14" s="7"/>
       <c t="s" r="C14" s="8">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D14" s="8"/>
       <c r="E14" s="8"/>
       <c r="F14" s="8"/>
       <c r="G14" s="8"/>
       <c t="s" r="H14" s="9">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="I14" s="9"/>
       <c r="J14" s="9"/>
@@ -1217,14 +1235,14 @@
       </c>
       <c r="M14" s="10"/>
       <c t="s" r="N14" s="8">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="O14" s="8"/>
       <c t="s" r="P14" s="11">
+        <v>42</v>
+      </c>
+      <c t="s" r="Q14" s="12">
         <v>43</v>
-      </c>
-      <c t="s" r="Q14" s="12">
-        <v>22</v>
       </c>
     </row>
     <row r="15" ht="24.75" customHeight="1">
@@ -1257,7 +1275,7 @@
         <v>47</v>
       </c>
       <c t="s" r="Q15" s="12">
-        <v>16</v>
+        <v>28</v>
       </c>
     </row>
     <row r="16" ht="25.5" customHeight="1">
@@ -1273,7 +1291,7 @@
       <c r="F16" s="8"/>
       <c r="G16" s="8"/>
       <c t="s" r="H16" s="9">
-        <v>49</v>
+        <v>22</v>
       </c>
       <c r="I16" s="9"/>
       <c r="J16" s="9"/>
@@ -1283,14 +1301,14 @@
       </c>
       <c r="M16" s="10"/>
       <c t="s" r="N16" s="8">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="O16" s="8"/>
       <c t="s" r="P16" s="11">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c t="s" r="Q16" s="12">
-        <v>40</v>
+        <v>22</v>
       </c>
     </row>
     <row r="17" ht="25.5" customHeight="1">
@@ -1299,14 +1317,14 @@
       </c>
       <c r="B17" s="7"/>
       <c t="s" r="C17" s="8">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D17" s="8"/>
       <c r="E17" s="8"/>
       <c r="F17" s="8"/>
       <c r="G17" s="8"/>
       <c t="s" r="H17" s="9">
-        <v>45</v>
+        <v>52</v>
       </c>
       <c r="I17" s="9"/>
       <c r="J17" s="9"/>
@@ -1345,18 +1363,18 @@
       <c r="J18" s="9"/>
       <c r="K18" s="9"/>
       <c t="s" r="L18" s="10">
-        <v>57</v>
+        <v>13</v>
       </c>
       <c r="M18" s="10"/>
       <c t="s" r="N18" s="8">
-        <v>50</v>
+        <v>57</v>
       </c>
       <c r="O18" s="8"/>
       <c t="s" r="P18" s="11">
-        <v>20</v>
+        <v>58</v>
       </c>
       <c t="s" r="Q18" s="12">
-        <v>16</v>
+        <v>43</v>
       </c>
     </row>
     <row r="19" ht="25.5" customHeight="1">
@@ -1365,14 +1383,14 @@
       </c>
       <c r="B19" s="7"/>
       <c t="s" r="C19" s="8">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="D19" s="8"/>
       <c r="E19" s="8"/>
       <c r="F19" s="8"/>
       <c r="G19" s="8"/>
       <c t="s" r="H19" s="9">
-        <v>18</v>
+        <v>52</v>
       </c>
       <c r="I19" s="9"/>
       <c r="J19" s="9"/>
@@ -1382,14 +1400,14 @@
       </c>
       <c r="M19" s="10"/>
       <c t="s" r="N19" s="8">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="O19" s="8"/>
       <c t="s" r="P19" s="11">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c t="s" r="Q19" s="12">
-        <v>22</v>
+        <v>16</v>
       </c>
     </row>
     <row r="20" ht="24.75" customHeight="1">
@@ -1398,28 +1416,28 @@
       </c>
       <c r="B20" s="7"/>
       <c t="s" r="C20" s="8">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="D20" s="8"/>
       <c r="E20" s="8"/>
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
       <c t="s" r="H20" s="9">
-        <v>22</v>
+        <v>63</v>
       </c>
       <c r="I20" s="9"/>
       <c r="J20" s="9"/>
       <c r="K20" s="9"/>
       <c t="s" r="L20" s="10">
-        <v>13</v>
+        <v>64</v>
       </c>
       <c r="M20" s="10"/>
       <c t="s" r="N20" s="8">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="O20" s="8"/>
       <c t="s" r="P20" s="11">
-        <v>63</v>
+        <v>20</v>
       </c>
       <c t="s" r="Q20" s="12">
         <v>16</v>
@@ -1431,14 +1449,14 @@
       </c>
       <c r="B21" s="7"/>
       <c t="s" r="C21" s="8">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="D21" s="8"/>
       <c r="E21" s="8"/>
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
       <c t="s" r="H21" s="9">
-        <v>65</v>
+        <v>18</v>
       </c>
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
@@ -1471,7 +1489,7 @@
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c t="s" r="H22" s="9">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
@@ -1485,7 +1503,7 @@
       </c>
       <c r="O22" s="8"/>
       <c t="s" r="P22" s="11">
-        <v>60</v>
+        <v>70</v>
       </c>
       <c t="s" r="Q22" s="12">
         <v>16</v>
@@ -1497,14 +1515,14 @@
       </c>
       <c r="B23" s="7"/>
       <c t="s" r="C23" s="8">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="D23" s="8"/>
       <c r="E23" s="8"/>
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c t="s" r="H23" s="9">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
@@ -1514,14 +1532,14 @@
       </c>
       <c r="M23" s="10"/>
       <c t="s" r="N23" s="8">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="O23" s="8"/>
       <c t="s" r="P23" s="11">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c t="s" r="Q23" s="12">
-        <v>16</v>
+        <v>22</v>
       </c>
     </row>
     <row r="24" ht="25.5" customHeight="1">
@@ -1530,14 +1548,14 @@
       </c>
       <c r="B24" s="7"/>
       <c t="s" r="C24" s="8">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="D24" s="8"/>
       <c r="E24" s="8"/>
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>33</v>
+        <v>18</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
@@ -1547,14 +1565,14 @@
       </c>
       <c r="M24" s="10"/>
       <c t="s" r="N24" s="8">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="O24" s="8"/>
       <c t="s" r="P24" s="11">
-        <v>76</v>
+        <v>67</v>
       </c>
       <c t="s" r="Q24" s="12">
-        <v>22</v>
+        <v>16</v>
       </c>
     </row>
     <row r="25" ht="24.75" customHeight="1">
@@ -1570,7 +1588,7 @@
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>33</v>
+        <v>78</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
@@ -1580,14 +1598,14 @@
       </c>
       <c r="M25" s="10"/>
       <c t="s" r="N25" s="8">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="O25" s="8"/>
       <c t="s" r="P25" s="11">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c t="s" r="Q25" s="12">
-        <v>22</v>
+        <v>16</v>
       </c>
     </row>
     <row r="26" ht="25.5" customHeight="1">
@@ -1596,14 +1614,14 @@
       </c>
       <c r="B26" s="7"/>
       <c t="s" r="C26" s="8">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="D26" s="8"/>
       <c r="E26" s="8"/>
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>81</v>
+        <v>33</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
@@ -1620,7 +1638,7 @@
         <v>83</v>
       </c>
       <c t="s" r="Q26" s="12">
-        <v>16</v>
+        <v>22</v>
       </c>
     </row>
     <row r="27" ht="25.5" customHeight="1">
@@ -1642,7 +1660,7 @@
       <c r="J27" s="9"/>
       <c r="K27" s="9"/>
       <c t="s" r="L27" s="10">
-        <v>57</v>
+        <v>13</v>
       </c>
       <c r="M27" s="10"/>
       <c t="s" r="N27" s="8">
@@ -1653,7 +1671,7 @@
         <v>86</v>
       </c>
       <c t="s" r="Q27" s="12">
-        <v>71</v>
+        <v>22</v>
       </c>
     </row>
     <row r="28" ht="24.75" customHeight="1">
@@ -1669,13 +1687,13 @@
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>33</v>
+        <v>45</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
       <c r="K28" s="9"/>
       <c t="s" r="L28" s="10">
-        <v>57</v>
+        <v>13</v>
       </c>
       <c r="M28" s="10"/>
       <c t="s" r="N28" s="8">
@@ -1686,7 +1704,7 @@
         <v>89</v>
       </c>
       <c t="s" r="Q28" s="12">
-        <v>40</v>
+        <v>16</v>
       </c>
     </row>
     <row r="29" ht="25.5" customHeight="1">
@@ -1708,18 +1726,18 @@
       <c r="J29" s="9"/>
       <c r="K29" s="9"/>
       <c t="s" r="L29" s="10">
-        <v>57</v>
+        <v>64</v>
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
-        <v>85</v>
+        <v>91</v>
       </c>
       <c r="O29" s="8"/>
       <c t="s" r="P29" s="11">
-        <v>86</v>
+        <v>92</v>
       </c>
       <c t="s" r="Q29" s="12">
-        <v>71</v>
+        <v>78</v>
       </c>
     </row>
     <row r="30" ht="24.75" customHeight="1">
@@ -1728,31 +1746,31 @@
       </c>
       <c r="B30" s="7"/>
       <c t="s" r="C30" s="8">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="D30" s="8"/>
       <c r="E30" s="8"/>
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>92</v>
+        <v>33</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
       <c r="K30" s="9"/>
       <c t="s" r="L30" s="10">
-        <v>57</v>
+        <v>64</v>
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="O30" s="8"/>
       <c t="s" r="P30" s="11">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c t="s" r="Q30" s="12">
-        <v>22</v>
+        <v>43</v>
       </c>
     </row>
     <row r="31" ht="25.5" customHeight="1">
@@ -1761,31 +1779,31 @@
       </c>
       <c r="B31" s="7"/>
       <c t="s" r="C31" s="8">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="D31" s="8"/>
       <c r="E31" s="8"/>
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>18</v>
+        <v>33</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
       <c r="K31" s="9"/>
       <c t="s" r="L31" s="10">
-        <v>57</v>
+        <v>64</v>
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
-        <v>96</v>
+        <v>91</v>
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c t="s" r="Q31" s="12">
-        <v>22</v>
+        <v>78</v>
       </c>
     </row>
     <row r="32" ht="25.5" customHeight="1">
@@ -1794,20 +1812,20 @@
       </c>
       <c r="B32" s="7"/>
       <c t="s" r="C32" s="8">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D32" s="8"/>
       <c r="E32" s="8"/>
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>33</v>
+        <v>98</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
       <c r="K32" s="9"/>
       <c t="s" r="L32" s="10">
-        <v>57</v>
+        <v>64</v>
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
@@ -1834,13 +1852,13 @@
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
       <c r="K33" s="9"/>
       <c t="s" r="L33" s="10">
-        <v>57</v>
+        <v>64</v>
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
@@ -1867,59 +1885,125 @@
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>105</v>
+        <v>33</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
       <c r="K34" s="9"/>
       <c t="s" r="L34" s="10">
-        <v>57</v>
+        <v>64</v>
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c t="s" r="Q34" s="12">
         <v>22</v>
       </c>
     </row>
     <row r="35" ht="24.75" customHeight="1">
-      <c r="P35" s="13">
-        <v>2517.5949999999998</v>
-      </c>
-      <c r="Q35" s="13"/>
-    </row>
-    <row r="36" ht="16.5" customHeight="1">
-      <c t="s" r="A36" s="14">
+      <c r="A35" s="7">
+        <v>29</v>
+      </c>
+      <c r="B35" s="7"/>
+      <c t="s" r="C35" s="8">
+        <v>107</v>
+      </c>
+      <c r="D35" s="8"/>
+      <c r="E35" s="8"/>
+      <c r="F35" s="8"/>
+      <c r="G35" s="8"/>
+      <c t="s" r="H35" s="9">
+        <v>22</v>
+      </c>
+      <c r="I35" s="9"/>
+      <c r="J35" s="9"/>
+      <c r="K35" s="9"/>
+      <c t="s" r="L35" s="10">
+        <v>64</v>
+      </c>
+      <c r="M35" s="10"/>
+      <c t="s" r="N35" s="8">
         <v>108</v>
       </c>
-      <c r="B36" s="14"/>
-      <c r="C36" s="14"/>
-      <c r="D36" s="14"/>
-      <c r="E36" s="14"/>
-      <c r="F36" s="14"/>
-      <c t="s" r="G36" s="15">
+      <c r="O35" s="8"/>
+      <c t="s" r="P35" s="11">
         <v>109</v>
       </c>
-      <c r="H36" s="15"/>
-      <c r="I36" s="15"/>
-      <c r="J36" s="16"/>
-      <c t="s" r="K36" s="17">
+      <c t="s" r="Q35" s="12">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="36" ht="25.5" customHeight="1">
+      <c r="A36" s="7">
+        <v>30</v>
+      </c>
+      <c r="B36" s="7"/>
+      <c t="s" r="C36" s="8">
         <v>110</v>
       </c>
-      <c r="L36" s="17"/>
-      <c r="M36" s="17"/>
-      <c r="N36" s="17"/>
-      <c r="O36" s="17"/>
-      <c r="P36" s="17"/>
-      <c r="Q36" s="17"/>
+      <c r="D36" s="8"/>
+      <c r="E36" s="8"/>
+      <c r="F36" s="8"/>
+      <c r="G36" s="8"/>
+      <c t="s" r="H36" s="9">
+        <v>111</v>
+      </c>
+      <c r="I36" s="9"/>
+      <c r="J36" s="9"/>
+      <c r="K36" s="9"/>
+      <c t="s" r="L36" s="10">
+        <v>64</v>
+      </c>
+      <c r="M36" s="10"/>
+      <c t="s" r="N36" s="8">
+        <v>112</v>
+      </c>
+      <c r="O36" s="8"/>
+      <c t="s" r="P36" s="11">
+        <v>113</v>
+      </c>
+      <c t="s" r="Q36" s="12">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="37" ht="25.5" customHeight="1">
+      <c r="P37" s="13">
+        <v>2575.5949999999998</v>
+      </c>
+      <c r="Q37" s="13"/>
+    </row>
+    <row r="38" ht="16.5" customHeight="1">
+      <c t="s" r="A38" s="14">
+        <v>114</v>
+      </c>
+      <c r="B38" s="14"/>
+      <c r="C38" s="14"/>
+      <c r="D38" s="14"/>
+      <c r="E38" s="14"/>
+      <c r="F38" s="14"/>
+      <c t="s" r="G38" s="15">
+        <v>115</v>
+      </c>
+      <c r="H38" s="15"/>
+      <c r="I38" s="15"/>
+      <c r="J38" s="16"/>
+      <c t="s" r="K38" s="17">
+        <v>116</v>
+      </c>
+      <c r="L38" s="17"/>
+      <c r="M38" s="17"/>
+      <c r="N38" s="17"/>
+      <c r="O38" s="17"/>
+      <c r="P38" s="17"/>
+      <c r="Q38" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="152">
+  <mergeCells count="162">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -2068,10 +2152,20 @@
     <mergeCell ref="H34:K34"/>
     <mergeCell ref="L34:M34"/>
     <mergeCell ref="N34:O34"/>
-    <mergeCell ref="P35:Q35"/>
-    <mergeCell ref="A36:F36"/>
-    <mergeCell ref="G36:I36"/>
-    <mergeCell ref="K36:Q36"/>
+    <mergeCell ref="A35:B35"/>
+    <mergeCell ref="C35:G35"/>
+    <mergeCell ref="H35:K35"/>
+    <mergeCell ref="L35:M35"/>
+    <mergeCell ref="N35:O35"/>
+    <mergeCell ref="A36:B36"/>
+    <mergeCell ref="C36:G36"/>
+    <mergeCell ref="H36:K36"/>
+    <mergeCell ref="L36:M36"/>
+    <mergeCell ref="N36:O36"/>
+    <mergeCell ref="P37:Q37"/>
+    <mergeCell ref="A38:F38"/>
+    <mergeCell ref="G38:I38"/>
+    <mergeCell ref="K38:Q38"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-08-08_00-00.xlsx
+++ b/DaySale_2025-08-08_00-00.xlsx
@@ -353,7 +353,7 @@
     <t>24.0000</t>
   </si>
   <si>
-    <t>Friday, 8 August, 2025 6:13 PM</t>
+    <t>Friday, 8 August, 2025 6:14 PM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-08-08_00-00.xlsx
+++ b/DaySale_2025-08-08_00-00.xlsx
@@ -353,7 +353,7 @@
     <t>24.0000</t>
   </si>
   <si>
-    <t>Friday, 8 August, 2025 6:14 PM</t>
+    <t>Friday, 8 August, 2025 6:15 PM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-08-08_00-00.xlsx
+++ b/DaySale_2025-08-08_00-00.xlsx
@@ -263,6 +263,15 @@
     <t>38.0000</t>
   </si>
   <si>
+    <t>VIDROP 2800 I.U./ML ORAL DROPS 15 ML</t>
+  </si>
+  <si>
+    <t>26.00</t>
+  </si>
+  <si>
+    <t>26.0000</t>
+  </si>
+  <si>
     <t>VIOTIC EAR DROPS 10 ML</t>
   </si>
   <si>
@@ -302,6 +311,15 @@
     <t>سرنجات 5 سم</t>
   </si>
   <si>
+    <t>سويت كوكو</t>
+  </si>
+  <si>
+    <t>30.00</t>
+  </si>
+  <si>
+    <t>30.0000</t>
+  </si>
+  <si>
     <t>شاش 15 سم</t>
   </si>
   <si>
@@ -323,6 +341,18 @@
     <t>25.0000</t>
   </si>
   <si>
+    <t xml:space="preserve">شفرات فينوس حريمي </t>
+  </si>
+  <si>
+    <t>30:0</t>
+  </si>
+  <si>
+    <t>20.00</t>
+  </si>
+  <si>
+    <t>40.0000</t>
+  </si>
+  <si>
     <t xml:space="preserve">كالونا </t>
   </si>
   <si>
@@ -353,7 +383,7 @@
     <t>24.0000</t>
   </si>
   <si>
-    <t>Friday, 8 August, 2025 6:15 PM</t>
+    <t>Friday, 8 August, 2025 6:18 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1654,7 +1684,7 @@
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>33</v>
+        <v>43</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
@@ -1687,7 +1717,7 @@
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>45</v>
+        <v>33</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
@@ -1704,7 +1734,7 @@
         <v>89</v>
       </c>
       <c t="s" r="Q28" s="12">
-        <v>16</v>
+        <v>22</v>
       </c>
     </row>
     <row r="29" ht="25.5" customHeight="1">
@@ -1720,13 +1750,13 @@
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>33</v>
+        <v>45</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
       <c r="K29" s="9"/>
       <c t="s" r="L29" s="10">
-        <v>64</v>
+        <v>13</v>
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
@@ -1737,7 +1767,7 @@
         <v>92</v>
       </c>
       <c t="s" r="Q29" s="12">
-        <v>78</v>
+        <v>16</v>
       </c>
     </row>
     <row r="30" ht="24.75" customHeight="1">
@@ -1770,7 +1800,7 @@
         <v>95</v>
       </c>
       <c t="s" r="Q30" s="12">
-        <v>43</v>
+        <v>78</v>
       </c>
     </row>
     <row r="31" ht="25.5" customHeight="1">
@@ -1796,14 +1826,14 @@
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
-        <v>91</v>
+        <v>97</v>
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
-        <v>92</v>
+        <v>98</v>
       </c>
       <c t="s" r="Q31" s="12">
-        <v>78</v>
+        <v>43</v>
       </c>
     </row>
     <row r="32" ht="25.5" customHeight="1">
@@ -1812,14 +1842,14 @@
       </c>
       <c r="B32" s="7"/>
       <c t="s" r="C32" s="8">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="D32" s="8"/>
       <c r="E32" s="8"/>
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>98</v>
+        <v>33</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
@@ -1829,14 +1859,14 @@
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
-        <v>99</v>
+        <v>94</v>
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c t="s" r="Q32" s="12">
-        <v>22</v>
+        <v>78</v>
       </c>
     </row>
     <row r="33" ht="24.75" customHeight="1">
@@ -1845,14 +1875,14 @@
       </c>
       <c r="B33" s="7"/>
       <c t="s" r="C33" s="8">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="D33" s="8"/>
       <c r="E33" s="8"/>
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>18</v>
+        <v>33</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
@@ -1862,11 +1892,11 @@
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c t="s" r="Q33" s="12">
         <v>22</v>
@@ -1878,14 +1908,14 @@
       </c>
       <c r="B34" s="7"/>
       <c t="s" r="C34" s="8">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D34" s="8"/>
       <c r="E34" s="8"/>
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>33</v>
+        <v>104</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
@@ -1918,7 +1948,7 @@
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
@@ -1968,42 +1998,141 @@
         <v>113</v>
       </c>
       <c t="s" r="Q36" s="12">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="37" ht="25.5" customHeight="1">
+      <c r="A37" s="7">
+        <v>31</v>
+      </c>
+      <c r="B37" s="7"/>
+      <c t="s" r="C37" s="8">
+        <v>114</v>
+      </c>
+      <c r="D37" s="8"/>
+      <c r="E37" s="8"/>
+      <c r="F37" s="8"/>
+      <c r="G37" s="8"/>
+      <c t="s" r="H37" s="9">
+        <v>33</v>
+      </c>
+      <c r="I37" s="9"/>
+      <c r="J37" s="9"/>
+      <c r="K37" s="9"/>
+      <c t="s" r="L37" s="10">
+        <v>64</v>
+      </c>
+      <c r="M37" s="10"/>
+      <c t="s" r="N37" s="8">
+        <v>115</v>
+      </c>
+      <c r="O37" s="8"/>
+      <c t="s" r="P37" s="11">
+        <v>116</v>
+      </c>
+      <c t="s" r="Q37" s="12">
         <v>22</v>
       </c>
     </row>
-    <row r="37" ht="25.5" customHeight="1">
-      <c r="P37" s="13">
-        <v>2575.5949999999998</v>
-      </c>
-      <c r="Q37" s="13"/>
-    </row>
-    <row r="38" ht="16.5" customHeight="1">
-      <c t="s" r="A38" s="14">
-        <v>114</v>
-      </c>
-      <c r="B38" s="14"/>
-      <c r="C38" s="14"/>
-      <c r="D38" s="14"/>
-      <c r="E38" s="14"/>
-      <c r="F38" s="14"/>
-      <c t="s" r="G38" s="15">
-        <v>115</v>
-      </c>
-      <c r="H38" s="15"/>
-      <c r="I38" s="15"/>
-      <c r="J38" s="16"/>
-      <c t="s" r="K38" s="17">
-        <v>116</v>
-      </c>
-      <c r="L38" s="17"/>
-      <c r="M38" s="17"/>
-      <c r="N38" s="17"/>
-      <c r="O38" s="17"/>
-      <c r="P38" s="17"/>
-      <c r="Q38" s="17"/>
+    <row r="38" ht="24.75" customHeight="1">
+      <c r="A38" s="7">
+        <v>32</v>
+      </c>
+      <c r="B38" s="7"/>
+      <c t="s" r="C38" s="8">
+        <v>117</v>
+      </c>
+      <c r="D38" s="8"/>
+      <c r="E38" s="8"/>
+      <c r="F38" s="8"/>
+      <c r="G38" s="8"/>
+      <c t="s" r="H38" s="9">
+        <v>22</v>
+      </c>
+      <c r="I38" s="9"/>
+      <c r="J38" s="9"/>
+      <c r="K38" s="9"/>
+      <c t="s" r="L38" s="10">
+        <v>64</v>
+      </c>
+      <c r="M38" s="10"/>
+      <c t="s" r="N38" s="8">
+        <v>118</v>
+      </c>
+      <c r="O38" s="8"/>
+      <c t="s" r="P38" s="11">
+        <v>119</v>
+      </c>
+      <c t="s" r="Q38" s="12">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="39" ht="25.5" customHeight="1">
+      <c r="A39" s="7">
+        <v>33</v>
+      </c>
+      <c r="B39" s="7"/>
+      <c t="s" r="C39" s="8">
+        <v>120</v>
+      </c>
+      <c r="D39" s="8"/>
+      <c r="E39" s="8"/>
+      <c r="F39" s="8"/>
+      <c r="G39" s="8"/>
+      <c t="s" r="H39" s="9">
+        <v>121</v>
+      </c>
+      <c r="I39" s="9"/>
+      <c r="J39" s="9"/>
+      <c r="K39" s="9"/>
+      <c t="s" r="L39" s="10">
+        <v>64</v>
+      </c>
+      <c r="M39" s="10"/>
+      <c t="s" r="N39" s="8">
+        <v>122</v>
+      </c>
+      <c r="O39" s="8"/>
+      <c t="s" r="P39" s="11">
+        <v>123</v>
+      </c>
+      <c t="s" r="Q39" s="12">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="40" ht="24.75" customHeight="1">
+      <c r="P40" s="13">
+        <v>2671.5949999999998</v>
+      </c>
+      <c r="Q40" s="13"/>
+    </row>
+    <row r="41" ht="16.5" customHeight="1">
+      <c t="s" r="A41" s="14">
+        <v>124</v>
+      </c>
+      <c r="B41" s="14"/>
+      <c r="C41" s="14"/>
+      <c r="D41" s="14"/>
+      <c r="E41" s="14"/>
+      <c r="F41" s="14"/>
+      <c t="s" r="G41" s="15">
+        <v>125</v>
+      </c>
+      <c r="H41" s="15"/>
+      <c r="I41" s="15"/>
+      <c r="J41" s="16"/>
+      <c t="s" r="K41" s="17">
+        <v>126</v>
+      </c>
+      <c r="L41" s="17"/>
+      <c r="M41" s="17"/>
+      <c r="N41" s="17"/>
+      <c r="O41" s="17"/>
+      <c r="P41" s="17"/>
+      <c r="Q41" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="162">
+  <mergeCells count="177">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -2162,10 +2291,25 @@
     <mergeCell ref="H36:K36"/>
     <mergeCell ref="L36:M36"/>
     <mergeCell ref="N36:O36"/>
-    <mergeCell ref="P37:Q37"/>
-    <mergeCell ref="A38:F38"/>
-    <mergeCell ref="G38:I38"/>
-    <mergeCell ref="K38:Q38"/>
+    <mergeCell ref="A37:B37"/>
+    <mergeCell ref="C37:G37"/>
+    <mergeCell ref="H37:K37"/>
+    <mergeCell ref="L37:M37"/>
+    <mergeCell ref="N37:O37"/>
+    <mergeCell ref="A38:B38"/>
+    <mergeCell ref="C38:G38"/>
+    <mergeCell ref="H38:K38"/>
+    <mergeCell ref="L38:M38"/>
+    <mergeCell ref="N38:O38"/>
+    <mergeCell ref="A39:B39"/>
+    <mergeCell ref="C39:G39"/>
+    <mergeCell ref="H39:K39"/>
+    <mergeCell ref="L39:M39"/>
+    <mergeCell ref="N39:O39"/>
+    <mergeCell ref="P40:Q40"/>
+    <mergeCell ref="A41:F41"/>
+    <mergeCell ref="G41:I41"/>
+    <mergeCell ref="K41:Q41"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-08-08_00-00.xlsx
+++ b/DaySale_2025-08-08_00-00.xlsx
@@ -74,12 +74,30 @@
     <t>27.0000</t>
   </si>
   <si>
+    <t>CANDALKAN 8MG 14 TAB</t>
+  </si>
+  <si>
+    <t>0:0</t>
+  </si>
+  <si>
+    <t>48.00</t>
+  </si>
+  <si>
+    <t>48.0000</t>
+  </si>
+  <si>
+    <t>1:0</t>
+  </si>
+  <si>
+    <t>CEPOREX 1GM 8 TABLETS</t>
+  </si>
+  <si>
+    <t>39.0000</t>
+  </si>
+  <si>
     <t>COLOVERIN D 135MG 30 TAB</t>
   </si>
   <si>
-    <t>1:0</t>
-  </si>
-  <si>
     <t>105.00</t>
   </si>
   <si>
@@ -110,9 +128,6 @@
     <t>DIFLUCAN 50MG 7 CAPS.</t>
   </si>
   <si>
-    <t>0:0</t>
-  </si>
-  <si>
     <t>179.00</t>
   </si>
   <si>
@@ -164,6 +179,15 @@
     <t>99.0000</t>
   </si>
   <si>
+    <t>EXTRAUMA DNA FORTE TOPICAL GEL 25 GM</t>
+  </si>
+  <si>
+    <t>41.00</t>
+  </si>
+  <si>
+    <t>41.0000</t>
+  </si>
+  <si>
     <t>GLIPTUS PLUS 50/1000MG 30 TABLETS</t>
   </si>
   <si>
@@ -197,6 +221,15 @@
     <t>55.0000</t>
   </si>
   <si>
+    <t>PANADOL ADVANCE 500 MG 48 TABLETS</t>
+  </si>
+  <si>
+    <t>92.00</t>
+  </si>
+  <si>
+    <t>23.0000</t>
+  </si>
+  <si>
     <t>PANADOL EXTRA 48 TAB</t>
   </si>
   <si>
@@ -233,9 +266,6 @@
     <t>39.00</t>
   </si>
   <si>
-    <t>39.0000</t>
-  </si>
-  <si>
     <t>TAMSULIN 0.4MG 28 CAPS</t>
   </si>
   <si>
@@ -278,9 +308,6 @@
     <t>23.00</t>
   </si>
   <si>
-    <t>23.0000</t>
-  </si>
-  <si>
     <t>VISCERALGINE 5MG/2ML IM IV 6 AMPOULES</t>
   </si>
   <si>
@@ -383,7 +410,7 @@
     <t>24.0000</t>
   </si>
   <si>
-    <t>Friday, 8 August, 2025 6:18 PM</t>
+    <t>Friday, 8 August, 2025 6:38 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1107,7 +1134,7 @@
         <v>24</v>
       </c>
       <c t="s" r="Q9" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="10" ht="24.75" customHeight="1">
@@ -1116,7 +1143,7 @@
       </c>
       <c r="B10" s="7"/>
       <c t="s" r="C10" s="8">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D10" s="8"/>
       <c r="E10" s="8"/>
@@ -1133,14 +1160,14 @@
       </c>
       <c r="M10" s="10"/>
       <c t="s" r="N10" s="8">
-        <v>26</v>
+        <v>14</v>
       </c>
       <c r="O10" s="8"/>
       <c t="s" r="P10" s="11">
         <v>27</v>
       </c>
       <c t="s" r="Q10" s="12">
-        <v>28</v>
+        <v>16</v>
       </c>
     </row>
     <row r="11" ht="25.5" customHeight="1">
@@ -1149,14 +1176,14 @@
       </c>
       <c r="B11" s="7"/>
       <c t="s" r="C11" s="8">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D11" s="8"/>
       <c r="E11" s="8"/>
       <c r="F11" s="8"/>
       <c r="G11" s="8"/>
       <c t="s" r="H11" s="9">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="I11" s="9"/>
       <c r="J11" s="9"/>
@@ -1166,11 +1193,11 @@
       </c>
       <c r="M11" s="10"/>
       <c t="s" r="N11" s="8">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="O11" s="8"/>
       <c t="s" r="P11" s="11">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c t="s" r="Q11" s="12">
         <v>16</v>
@@ -1182,14 +1209,14 @@
       </c>
       <c r="B12" s="7"/>
       <c t="s" r="C12" s="8">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D12" s="8"/>
       <c r="E12" s="8"/>
       <c r="F12" s="8"/>
       <c r="G12" s="8"/>
       <c t="s" r="H12" s="9">
-        <v>33</v>
+        <v>16</v>
       </c>
       <c r="I12" s="9"/>
       <c r="J12" s="9"/>
@@ -1199,14 +1226,14 @@
       </c>
       <c r="M12" s="10"/>
       <c t="s" r="N12" s="8">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="O12" s="8"/>
       <c t="s" r="P12" s="11">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c t="s" r="Q12" s="12">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
     <row r="13" ht="24.75" customHeight="1">
@@ -1215,14 +1242,14 @@
       </c>
       <c r="B13" s="7"/>
       <c t="s" r="C13" s="8">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="D13" s="8"/>
       <c r="E13" s="8"/>
       <c r="F13" s="8"/>
       <c r="G13" s="8"/>
       <c t="s" r="H13" s="9">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="I13" s="9"/>
       <c r="J13" s="9"/>
@@ -1232,14 +1259,14 @@
       </c>
       <c r="M13" s="10"/>
       <c t="s" r="N13" s="8">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="O13" s="8"/>
       <c t="s" r="P13" s="11">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c t="s" r="Q13" s="12">
-        <v>22</v>
+        <v>16</v>
       </c>
     </row>
     <row r="14" ht="25.5" customHeight="1">
@@ -1248,14 +1275,14 @@
       </c>
       <c r="B14" s="7"/>
       <c t="s" r="C14" s="8">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="D14" s="8"/>
       <c r="E14" s="8"/>
       <c r="F14" s="8"/>
       <c r="G14" s="8"/>
       <c t="s" r="H14" s="9">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="I14" s="9"/>
       <c r="J14" s="9"/>
@@ -1265,14 +1292,14 @@
       </c>
       <c r="M14" s="10"/>
       <c t="s" r="N14" s="8">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="O14" s="8"/>
       <c t="s" r="P14" s="11">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c t="s" r="Q14" s="12">
-        <v>43</v>
+        <v>41</v>
       </c>
     </row>
     <row r="15" ht="24.75" customHeight="1">
@@ -1281,14 +1308,14 @@
       </c>
       <c r="B15" s="7"/>
       <c t="s" r="C15" s="8">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="D15" s="8"/>
       <c r="E15" s="8"/>
       <c r="F15" s="8"/>
       <c r="G15" s="8"/>
       <c t="s" r="H15" s="9">
-        <v>45</v>
+        <v>25</v>
       </c>
       <c r="I15" s="9"/>
       <c r="J15" s="9"/>
@@ -1298,14 +1325,14 @@
       </c>
       <c r="M15" s="10"/>
       <c t="s" r="N15" s="8">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="O15" s="8"/>
       <c t="s" r="P15" s="11">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c t="s" r="Q15" s="12">
-        <v>28</v>
+        <v>25</v>
       </c>
     </row>
     <row r="16" ht="25.5" customHeight="1">
@@ -1314,14 +1341,14 @@
       </c>
       <c r="B16" s="7"/>
       <c t="s" r="C16" s="8">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="D16" s="8"/>
       <c r="E16" s="8"/>
       <c r="F16" s="8"/>
       <c r="G16" s="8"/>
       <c t="s" r="H16" s="9">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="I16" s="9"/>
       <c r="J16" s="9"/>
@@ -1331,14 +1358,14 @@
       </c>
       <c r="M16" s="10"/>
       <c t="s" r="N16" s="8">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="O16" s="8"/>
       <c t="s" r="P16" s="11">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c t="s" r="Q16" s="12">
-        <v>22</v>
+        <v>48</v>
       </c>
     </row>
     <row r="17" ht="25.5" customHeight="1">
@@ -1347,14 +1374,14 @@
       </c>
       <c r="B17" s="7"/>
       <c t="s" r="C17" s="8">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="D17" s="8"/>
       <c r="E17" s="8"/>
       <c r="F17" s="8"/>
       <c r="G17" s="8"/>
       <c t="s" r="H17" s="9">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="I17" s="9"/>
       <c r="J17" s="9"/>
@@ -1364,14 +1391,14 @@
       </c>
       <c r="M17" s="10"/>
       <c t="s" r="N17" s="8">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="O17" s="8"/>
       <c t="s" r="P17" s="11">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c t="s" r="Q17" s="12">
-        <v>16</v>
+        <v>34</v>
       </c>
     </row>
     <row r="18" ht="24.75" customHeight="1">
@@ -1380,14 +1407,14 @@
       </c>
       <c r="B18" s="7"/>
       <c t="s" r="C18" s="8">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="D18" s="8"/>
       <c r="E18" s="8"/>
       <c r="F18" s="8"/>
       <c r="G18" s="8"/>
       <c t="s" r="H18" s="9">
-        <v>56</v>
+        <v>25</v>
       </c>
       <c r="I18" s="9"/>
       <c r="J18" s="9"/>
@@ -1397,14 +1424,14 @@
       </c>
       <c r="M18" s="10"/>
       <c t="s" r="N18" s="8">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="O18" s="8"/>
       <c t="s" r="P18" s="11">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c t="s" r="Q18" s="12">
-        <v>43</v>
+        <v>25</v>
       </c>
     </row>
     <row r="19" ht="25.5" customHeight="1">
@@ -1413,14 +1440,14 @@
       </c>
       <c r="B19" s="7"/>
       <c t="s" r="C19" s="8">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="D19" s="8"/>
       <c r="E19" s="8"/>
       <c r="F19" s="8"/>
       <c r="G19" s="8"/>
       <c t="s" r="H19" s="9">
-        <v>52</v>
+        <v>25</v>
       </c>
       <c r="I19" s="9"/>
       <c r="J19" s="9"/>
@@ -1430,14 +1457,14 @@
       </c>
       <c r="M19" s="10"/>
       <c t="s" r="N19" s="8">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="O19" s="8"/>
       <c t="s" r="P19" s="11">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c t="s" r="Q19" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="20" ht="24.75" customHeight="1">
@@ -1446,28 +1473,28 @@
       </c>
       <c r="B20" s="7"/>
       <c t="s" r="C20" s="8">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="D20" s="8"/>
       <c r="E20" s="8"/>
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
       <c t="s" r="H20" s="9">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="I20" s="9"/>
       <c r="J20" s="9"/>
       <c r="K20" s="9"/>
       <c t="s" r="L20" s="10">
-        <v>64</v>
+        <v>13</v>
       </c>
       <c r="M20" s="10"/>
       <c t="s" r="N20" s="8">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="O20" s="8"/>
       <c t="s" r="P20" s="11">
-        <v>20</v>
+        <v>62</v>
       </c>
       <c t="s" r="Q20" s="12">
         <v>16</v>
@@ -1479,14 +1506,14 @@
       </c>
       <c r="B21" s="7"/>
       <c t="s" r="C21" s="8">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="D21" s="8"/>
       <c r="E21" s="8"/>
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
       <c t="s" r="H21" s="9">
-        <v>18</v>
+        <v>64</v>
       </c>
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
@@ -1496,14 +1523,14 @@
       </c>
       <c r="M21" s="10"/>
       <c t="s" r="N21" s="8">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="O21" s="8"/>
       <c t="s" r="P21" s="11">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c t="s" r="Q21" s="12">
-        <v>22</v>
+        <v>48</v>
       </c>
     </row>
     <row r="22" ht="25.5" customHeight="1">
@@ -1512,14 +1539,14 @@
       </c>
       <c r="B22" s="7"/>
       <c t="s" r="C22" s="8">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D22" s="8"/>
       <c r="E22" s="8"/>
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c t="s" r="H22" s="9">
-        <v>22</v>
+        <v>60</v>
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
@@ -1529,11 +1556,11 @@
       </c>
       <c r="M22" s="10"/>
       <c t="s" r="N22" s="8">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="O22" s="8"/>
       <c t="s" r="P22" s="11">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c t="s" r="Q22" s="12">
         <v>16</v>
@@ -1545,14 +1572,14 @@
       </c>
       <c r="B23" s="7"/>
       <c t="s" r="C23" s="8">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D23" s="8"/>
       <c r="E23" s="8"/>
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c t="s" r="H23" s="9">
-        <v>72</v>
+        <v>25</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
@@ -1562,14 +1589,14 @@
       </c>
       <c r="M23" s="10"/>
       <c t="s" r="N23" s="8">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="O23" s="8"/>
       <c t="s" r="P23" s="11">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c t="s" r="Q23" s="12">
-        <v>22</v>
+        <v>16</v>
       </c>
     </row>
     <row r="24" ht="25.5" customHeight="1">
@@ -1578,28 +1605,28 @@
       </c>
       <c r="B24" s="7"/>
       <c t="s" r="C24" s="8">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="D24" s="8"/>
       <c r="E24" s="8"/>
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>18</v>
+        <v>74</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
       <c r="K24" s="9"/>
       <c t="s" r="L24" s="10">
-        <v>13</v>
+        <v>75</v>
       </c>
       <c r="M24" s="10"/>
       <c t="s" r="N24" s="8">
-        <v>76</v>
+        <v>65</v>
       </c>
       <c r="O24" s="8"/>
       <c t="s" r="P24" s="11">
-        <v>67</v>
+        <v>20</v>
       </c>
       <c t="s" r="Q24" s="12">
         <v>16</v>
@@ -1611,14 +1638,14 @@
       </c>
       <c r="B25" s="7"/>
       <c t="s" r="C25" s="8">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D25" s="8"/>
       <c r="E25" s="8"/>
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>78</v>
+        <v>18</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
@@ -1628,14 +1655,14 @@
       </c>
       <c r="M25" s="10"/>
       <c t="s" r="N25" s="8">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="O25" s="8"/>
       <c t="s" r="P25" s="11">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c t="s" r="Q25" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="26" ht="25.5" customHeight="1">
@@ -1644,14 +1671,14 @@
       </c>
       <c r="B26" s="7"/>
       <c t="s" r="C26" s="8">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="D26" s="8"/>
       <c r="E26" s="8"/>
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>33</v>
+        <v>25</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
@@ -1661,14 +1688,14 @@
       </c>
       <c r="M26" s="10"/>
       <c t="s" r="N26" s="8">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="O26" s="8"/>
       <c t="s" r="P26" s="11">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c t="s" r="Q26" s="12">
-        <v>22</v>
+        <v>16</v>
       </c>
     </row>
     <row r="27" ht="25.5" customHeight="1">
@@ -1677,14 +1704,14 @@
       </c>
       <c r="B27" s="7"/>
       <c t="s" r="C27" s="8">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="D27" s="8"/>
       <c r="E27" s="8"/>
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>43</v>
+        <v>83</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
@@ -1694,14 +1721,14 @@
       </c>
       <c r="M27" s="10"/>
       <c t="s" r="N27" s="8">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="O27" s="8"/>
       <c t="s" r="P27" s="11">
-        <v>86</v>
+        <v>27</v>
       </c>
       <c t="s" r="Q27" s="12">
-        <v>22</v>
+        <v>25</v>
       </c>
     </row>
     <row r="28" ht="24.75" customHeight="1">
@@ -1710,14 +1737,14 @@
       </c>
       <c r="B28" s="7"/>
       <c t="s" r="C28" s="8">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="D28" s="8"/>
       <c r="E28" s="8"/>
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>33</v>
+        <v>18</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
@@ -1727,14 +1754,14 @@
       </c>
       <c r="M28" s="10"/>
       <c t="s" r="N28" s="8">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="O28" s="8"/>
       <c t="s" r="P28" s="11">
-        <v>89</v>
+        <v>78</v>
       </c>
       <c t="s" r="Q28" s="12">
-        <v>22</v>
+        <v>16</v>
       </c>
     </row>
     <row r="29" ht="25.5" customHeight="1">
@@ -1743,14 +1770,14 @@
       </c>
       <c r="B29" s="7"/>
       <c t="s" r="C29" s="8">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="D29" s="8"/>
       <c r="E29" s="8"/>
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>45</v>
+        <v>88</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
@@ -1760,11 +1787,11 @@
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="O29" s="8"/>
       <c t="s" r="P29" s="11">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c t="s" r="Q29" s="12">
         <v>16</v>
@@ -1776,31 +1803,31 @@
       </c>
       <c r="B30" s="7"/>
       <c t="s" r="C30" s="8">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="D30" s="8"/>
       <c r="E30" s="8"/>
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>33</v>
+        <v>22</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
       <c r="K30" s="9"/>
       <c t="s" r="L30" s="10">
-        <v>64</v>
+        <v>13</v>
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="O30" s="8"/>
       <c t="s" r="P30" s="11">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c t="s" r="Q30" s="12">
-        <v>78</v>
+        <v>25</v>
       </c>
     </row>
     <row r="31" ht="25.5" customHeight="1">
@@ -1809,31 +1836,31 @@
       </c>
       <c r="B31" s="7"/>
       <c t="s" r="C31" s="8">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="D31" s="8"/>
       <c r="E31" s="8"/>
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>33</v>
+        <v>48</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
       <c r="K31" s="9"/>
       <c t="s" r="L31" s="10">
-        <v>64</v>
+        <v>13</v>
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c t="s" r="Q31" s="12">
-        <v>43</v>
+        <v>25</v>
       </c>
     </row>
     <row r="32" ht="25.5" customHeight="1">
@@ -1842,31 +1869,31 @@
       </c>
       <c r="B32" s="7"/>
       <c t="s" r="C32" s="8">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="D32" s="8"/>
       <c r="E32" s="8"/>
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>33</v>
+        <v>22</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
       <c r="K32" s="9"/>
       <c t="s" r="L32" s="10">
-        <v>64</v>
+        <v>13</v>
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
-        <v>95</v>
+        <v>72</v>
       </c>
       <c t="s" r="Q32" s="12">
-        <v>78</v>
+        <v>25</v>
       </c>
     </row>
     <row r="33" ht="24.75" customHeight="1">
@@ -1875,31 +1902,31 @@
       </c>
       <c r="B33" s="7"/>
       <c t="s" r="C33" s="8">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="D33" s="8"/>
       <c r="E33" s="8"/>
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>33</v>
+        <v>50</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
       <c r="K33" s="9"/>
       <c t="s" r="L33" s="10">
-        <v>64</v>
+        <v>13</v>
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c t="s" r="Q33" s="12">
-        <v>22</v>
+        <v>16</v>
       </c>
     </row>
     <row r="34" ht="25.5" customHeight="1">
@@ -1908,31 +1935,31 @@
       </c>
       <c r="B34" s="7"/>
       <c t="s" r="C34" s="8">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="D34" s="8"/>
       <c r="E34" s="8"/>
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>104</v>
+        <v>22</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
       <c r="K34" s="9"/>
       <c t="s" r="L34" s="10">
-        <v>64</v>
+        <v>75</v>
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c t="s" r="Q34" s="12">
-        <v>22</v>
+        <v>88</v>
       </c>
     </row>
     <row r="35" ht="24.75" customHeight="1">
@@ -1941,31 +1968,31 @@
       </c>
       <c r="B35" s="7"/>
       <c t="s" r="C35" s="8">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="D35" s="8"/>
       <c r="E35" s="8"/>
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
       <c r="K35" s="9"/>
       <c t="s" r="L35" s="10">
-        <v>64</v>
+        <v>75</v>
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c t="s" r="Q35" s="12">
-        <v>22</v>
+        <v>48</v>
       </c>
     </row>
     <row r="36" ht="25.5" customHeight="1">
@@ -1974,31 +2001,31 @@
       </c>
       <c r="B36" s="7"/>
       <c t="s" r="C36" s="8">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="D36" s="8"/>
       <c r="E36" s="8"/>
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>111</v>
+        <v>22</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
       <c r="K36" s="9"/>
       <c t="s" r="L36" s="10">
-        <v>64</v>
+        <v>75</v>
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>112</v>
+        <v>103</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
-        <v>113</v>
+        <v>104</v>
       </c>
       <c t="s" r="Q36" s="12">
-        <v>78</v>
+        <v>88</v>
       </c>
     </row>
     <row r="37" ht="25.5" customHeight="1">
@@ -2007,31 +2034,31 @@
       </c>
       <c r="B37" s="7"/>
       <c t="s" r="C37" s="8">
-        <v>114</v>
+        <v>109</v>
       </c>
       <c r="D37" s="8"/>
       <c r="E37" s="8"/>
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>33</v>
+        <v>22</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
       <c r="K37" s="9"/>
       <c t="s" r="L37" s="10">
-        <v>64</v>
+        <v>75</v>
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>115</v>
+        <v>110</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
-        <v>116</v>
+        <v>111</v>
       </c>
       <c t="s" r="Q37" s="12">
-        <v>22</v>
+        <v>25</v>
       </c>
     </row>
     <row r="38" ht="24.75" customHeight="1">
@@ -2040,31 +2067,31 @@
       </c>
       <c r="B38" s="7"/>
       <c t="s" r="C38" s="8">
-        <v>117</v>
+        <v>112</v>
       </c>
       <c r="D38" s="8"/>
       <c r="E38" s="8"/>
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>22</v>
+        <v>113</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
       <c r="K38" s="9"/>
       <c t="s" r="L38" s="10">
-        <v>64</v>
+        <v>75</v>
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c t="s" r="Q38" s="12">
-        <v>22</v>
+        <v>25</v>
       </c>
     </row>
     <row r="39" ht="25.5" customHeight="1">
@@ -2073,66 +2100,198 @@
       </c>
       <c r="B39" s="7"/>
       <c t="s" r="C39" s="8">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="D39" s="8"/>
       <c r="E39" s="8"/>
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>121</v>
+        <v>18</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
       <c r="K39" s="9"/>
       <c t="s" r="L39" s="10">
-        <v>64</v>
+        <v>75</v>
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>122</v>
+        <v>117</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
+        <v>118</v>
+      </c>
+      <c t="s" r="Q39" s="12">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="40" ht="24.75" customHeight="1">
+      <c r="A40" s="7">
+        <v>34</v>
+      </c>
+      <c r="B40" s="7"/>
+      <c t="s" r="C40" s="8">
+        <v>119</v>
+      </c>
+      <c r="D40" s="8"/>
+      <c r="E40" s="8"/>
+      <c r="F40" s="8"/>
+      <c r="G40" s="8"/>
+      <c t="s" r="H40" s="9">
+        <v>120</v>
+      </c>
+      <c r="I40" s="9"/>
+      <c r="J40" s="9"/>
+      <c r="K40" s="9"/>
+      <c t="s" r="L40" s="10">
+        <v>75</v>
+      </c>
+      <c r="M40" s="10"/>
+      <c t="s" r="N40" s="8">
+        <v>121</v>
+      </c>
+      <c r="O40" s="8"/>
+      <c t="s" r="P40" s="11">
+        <v>122</v>
+      </c>
+      <c t="s" r="Q40" s="12">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="41" ht="25.5" customHeight="1">
+      <c r="A41" s="7">
+        <v>35</v>
+      </c>
+      <c r="B41" s="7"/>
+      <c t="s" r="C41" s="8">
         <v>123</v>
       </c>
-      <c t="s" r="Q39" s="12">
+      <c r="D41" s="8"/>
+      <c r="E41" s="8"/>
+      <c r="F41" s="8"/>
+      <c r="G41" s="8"/>
+      <c t="s" r="H41" s="9">
         <v>22</v>
       </c>
-    </row>
-    <row r="40" ht="24.75" customHeight="1">
-      <c r="P40" s="13">
-        <v>2671.5949999999998</v>
-      </c>
-      <c r="Q40" s="13"/>
-    </row>
-    <row r="41" ht="16.5" customHeight="1">
-      <c t="s" r="A41" s="14">
+      <c r="I41" s="9"/>
+      <c r="J41" s="9"/>
+      <c r="K41" s="9"/>
+      <c t="s" r="L41" s="10">
+        <v>75</v>
+      </c>
+      <c r="M41" s="10"/>
+      <c t="s" r="N41" s="8">
         <v>124</v>
       </c>
-      <c r="B41" s="14"/>
-      <c r="C41" s="14"/>
-      <c r="D41" s="14"/>
-      <c r="E41" s="14"/>
-      <c r="F41" s="14"/>
-      <c t="s" r="G41" s="15">
+      <c r="O41" s="8"/>
+      <c t="s" r="P41" s="11">
         <v>125</v>
       </c>
-      <c r="H41" s="15"/>
-      <c r="I41" s="15"/>
-      <c r="J41" s="16"/>
-      <c t="s" r="K41" s="17">
+      <c t="s" r="Q41" s="12">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="42" ht="25.5" customHeight="1">
+      <c r="A42" s="7">
+        <v>36</v>
+      </c>
+      <c r="B42" s="7"/>
+      <c t="s" r="C42" s="8">
         <v>126</v>
       </c>
-      <c r="L41" s="17"/>
-      <c r="M41" s="17"/>
-      <c r="N41" s="17"/>
-      <c r="O41" s="17"/>
-      <c r="P41" s="17"/>
-      <c r="Q41" s="17"/>
+      <c r="D42" s="8"/>
+      <c r="E42" s="8"/>
+      <c r="F42" s="8"/>
+      <c r="G42" s="8"/>
+      <c t="s" r="H42" s="9">
+        <v>25</v>
+      </c>
+      <c r="I42" s="9"/>
+      <c r="J42" s="9"/>
+      <c r="K42" s="9"/>
+      <c t="s" r="L42" s="10">
+        <v>75</v>
+      </c>
+      <c r="M42" s="10"/>
+      <c t="s" r="N42" s="8">
+        <v>127</v>
+      </c>
+      <c r="O42" s="8"/>
+      <c t="s" r="P42" s="11">
+        <v>128</v>
+      </c>
+      <c t="s" r="Q42" s="12">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="43" ht="24.75" customHeight="1">
+      <c r="A43" s="7">
+        <v>37</v>
+      </c>
+      <c r="B43" s="7"/>
+      <c t="s" r="C43" s="8">
+        <v>129</v>
+      </c>
+      <c r="D43" s="8"/>
+      <c r="E43" s="8"/>
+      <c r="F43" s="8"/>
+      <c r="G43" s="8"/>
+      <c t="s" r="H43" s="9">
+        <v>130</v>
+      </c>
+      <c r="I43" s="9"/>
+      <c r="J43" s="9"/>
+      <c r="K43" s="9"/>
+      <c t="s" r="L43" s="10">
+        <v>75</v>
+      </c>
+      <c r="M43" s="10"/>
+      <c t="s" r="N43" s="8">
+        <v>131</v>
+      </c>
+      <c r="O43" s="8"/>
+      <c t="s" r="P43" s="11">
+        <v>132</v>
+      </c>
+      <c t="s" r="Q43" s="12">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="44" ht="25.5" customHeight="1">
+      <c r="P44" s="13">
+        <v>2822.5949999999998</v>
+      </c>
+      <c r="Q44" s="13"/>
+    </row>
+    <row r="45" ht="16.5" customHeight="1">
+      <c t="s" r="A45" s="14">
+        <v>133</v>
+      </c>
+      <c r="B45" s="14"/>
+      <c r="C45" s="14"/>
+      <c r="D45" s="14"/>
+      <c r="E45" s="14"/>
+      <c r="F45" s="14"/>
+      <c t="s" r="G45" s="15">
+        <v>134</v>
+      </c>
+      <c r="H45" s="15"/>
+      <c r="I45" s="15"/>
+      <c r="J45" s="16"/>
+      <c t="s" r="K45" s="17">
+        <v>135</v>
+      </c>
+      <c r="L45" s="17"/>
+      <c r="M45" s="17"/>
+      <c r="N45" s="17"/>
+      <c r="O45" s="17"/>
+      <c r="P45" s="17"/>
+      <c r="Q45" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="177">
+  <mergeCells count="197">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -2306,10 +2465,30 @@
     <mergeCell ref="H39:K39"/>
     <mergeCell ref="L39:M39"/>
     <mergeCell ref="N39:O39"/>
-    <mergeCell ref="P40:Q40"/>
-    <mergeCell ref="A41:F41"/>
-    <mergeCell ref="G41:I41"/>
-    <mergeCell ref="K41:Q41"/>
+    <mergeCell ref="A40:B40"/>
+    <mergeCell ref="C40:G40"/>
+    <mergeCell ref="H40:K40"/>
+    <mergeCell ref="L40:M40"/>
+    <mergeCell ref="N40:O40"/>
+    <mergeCell ref="A41:B41"/>
+    <mergeCell ref="C41:G41"/>
+    <mergeCell ref="H41:K41"/>
+    <mergeCell ref="L41:M41"/>
+    <mergeCell ref="N41:O41"/>
+    <mergeCell ref="A42:B42"/>
+    <mergeCell ref="C42:G42"/>
+    <mergeCell ref="H42:K42"/>
+    <mergeCell ref="L42:M42"/>
+    <mergeCell ref="N42:O42"/>
+    <mergeCell ref="A43:B43"/>
+    <mergeCell ref="C43:G43"/>
+    <mergeCell ref="H43:K43"/>
+    <mergeCell ref="L43:M43"/>
+    <mergeCell ref="N43:O43"/>
+    <mergeCell ref="P44:Q44"/>
+    <mergeCell ref="A45:F45"/>
+    <mergeCell ref="G45:I45"/>
+    <mergeCell ref="K45:Q45"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-08-08_00-00.xlsx
+++ b/DaySale_2025-08-08_00-00.xlsx
@@ -146,6 +146,15 @@
     <t>22.0000</t>
   </si>
   <si>
+    <t>DOLPHIN 3% TOPICAL GEL 30 GM</t>
+  </si>
+  <si>
+    <t>34.00</t>
+  </si>
+  <si>
+    <t>34.0000</t>
+  </si>
+  <si>
     <t>ELICA-M CREAM 30 GRAM</t>
   </si>
   <si>
@@ -188,6 +197,18 @@
     <t>41.0000</t>
   </si>
   <si>
+    <t>FEBURIC 40 MG 10 F.C. TABLETS</t>
+  </si>
+  <si>
+    <t>2:0</t>
+  </si>
+  <si>
+    <t>38.00</t>
+  </si>
+  <si>
+    <t>38.0000</t>
+  </si>
+  <si>
     <t>GLIPTUS PLUS 50/1000MG 30 TABLETS</t>
   </si>
   <si>
@@ -200,6 +221,15 @@
     <t>63.3600</t>
   </si>
   <si>
+    <t>HEPAMARIN 140MG 30 CAPSULE</t>
+  </si>
+  <si>
+    <t>75.00</t>
+  </si>
+  <si>
+    <t>75.0000</t>
+  </si>
+  <si>
     <t>ITRANOX 100MG 15 CAPS.</t>
   </si>
   <si>
@@ -275,9 +305,6 @@
     <t>URINEX 24 CAPS</t>
   </si>
   <si>
-    <t>2:0</t>
-  </si>
-  <si>
     <t>42.00</t>
   </si>
   <si>
@@ -287,12 +314,6 @@
     <t>UROSOLVINE EFF. GRAN. 12 SACHETS</t>
   </si>
   <si>
-    <t>38.00</t>
-  </si>
-  <si>
-    <t>38.0000</t>
-  </si>
-  <si>
     <t>VIDROP 2800 I.U./ML ORAL DROPS 15 ML</t>
   </si>
   <si>
@@ -410,7 +431,7 @@
     <t>24.0000</t>
   </si>
   <si>
-    <t>Friday, 8 August, 2025 6:38 PM</t>
+    <t>Friday, 8 August, 2025 6:40 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1348,7 +1369,7 @@
       <c r="F16" s="8"/>
       <c r="G16" s="8"/>
       <c t="s" r="H16" s="9">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="I16" s="9"/>
       <c r="J16" s="9"/>
@@ -1365,7 +1386,7 @@
         <v>47</v>
       </c>
       <c t="s" r="Q16" s="12">
-        <v>48</v>
+        <v>25</v>
       </c>
     </row>
     <row r="17" ht="25.5" customHeight="1">
@@ -1374,14 +1395,14 @@
       </c>
       <c r="B17" s="7"/>
       <c t="s" r="C17" s="8">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D17" s="8"/>
       <c r="E17" s="8"/>
       <c r="F17" s="8"/>
       <c r="G17" s="8"/>
       <c t="s" r="H17" s="9">
-        <v>50</v>
+        <v>18</v>
       </c>
       <c r="I17" s="9"/>
       <c r="J17" s="9"/>
@@ -1391,14 +1412,14 @@
       </c>
       <c r="M17" s="10"/>
       <c t="s" r="N17" s="8">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="O17" s="8"/>
       <c t="s" r="P17" s="11">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c t="s" r="Q17" s="12">
-        <v>34</v>
+        <v>51</v>
       </c>
     </row>
     <row r="18" ht="24.75" customHeight="1">
@@ -1407,14 +1428,14 @@
       </c>
       <c r="B18" s="7"/>
       <c t="s" r="C18" s="8">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D18" s="8"/>
       <c r="E18" s="8"/>
       <c r="F18" s="8"/>
       <c r="G18" s="8"/>
       <c t="s" r="H18" s="9">
-        <v>25</v>
+        <v>53</v>
       </c>
       <c r="I18" s="9"/>
       <c r="J18" s="9"/>
@@ -1431,7 +1452,7 @@
         <v>55</v>
       </c>
       <c t="s" r="Q18" s="12">
-        <v>25</v>
+        <v>34</v>
       </c>
     </row>
     <row r="19" ht="25.5" customHeight="1">
@@ -1480,7 +1501,7 @@
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
       <c t="s" r="H20" s="9">
-        <v>60</v>
+        <v>25</v>
       </c>
       <c r="I20" s="9"/>
       <c r="J20" s="9"/>
@@ -1490,14 +1511,14 @@
       </c>
       <c r="M20" s="10"/>
       <c t="s" r="N20" s="8">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="O20" s="8"/>
       <c t="s" r="P20" s="11">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c t="s" r="Q20" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="21" ht="25.5" customHeight="1">
@@ -1506,14 +1527,14 @@
       </c>
       <c r="B21" s="7"/>
       <c t="s" r="C21" s="8">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D21" s="8"/>
       <c r="E21" s="8"/>
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
       <c t="s" r="H21" s="9">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
@@ -1523,14 +1544,14 @@
       </c>
       <c r="M21" s="10"/>
       <c t="s" r="N21" s="8">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="O21" s="8"/>
       <c t="s" r="P21" s="11">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c t="s" r="Q21" s="12">
-        <v>48</v>
+        <v>25</v>
       </c>
     </row>
     <row r="22" ht="25.5" customHeight="1">
@@ -1539,14 +1560,14 @@
       </c>
       <c r="B22" s="7"/>
       <c t="s" r="C22" s="8">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D22" s="8"/>
       <c r="E22" s="8"/>
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c t="s" r="H22" s="9">
-        <v>60</v>
+        <v>67</v>
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
@@ -1579,7 +1600,7 @@
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c t="s" r="H23" s="9">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
@@ -1596,7 +1617,7 @@
         <v>72</v>
       </c>
       <c t="s" r="Q23" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="24" ht="25.5" customHeight="1">
@@ -1618,18 +1639,18 @@
       <c r="J24" s="9"/>
       <c r="K24" s="9"/>
       <c t="s" r="L24" s="10">
-        <v>75</v>
+        <v>13</v>
       </c>
       <c r="M24" s="10"/>
       <c t="s" r="N24" s="8">
-        <v>65</v>
+        <v>75</v>
       </c>
       <c r="O24" s="8"/>
       <c t="s" r="P24" s="11">
-        <v>20</v>
+        <v>76</v>
       </c>
       <c t="s" r="Q24" s="12">
-        <v>16</v>
+        <v>51</v>
       </c>
     </row>
     <row r="25" ht="24.75" customHeight="1">
@@ -1638,14 +1659,14 @@
       </c>
       <c r="B25" s="7"/>
       <c t="s" r="C25" s="8">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="D25" s="8"/>
       <c r="E25" s="8"/>
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>18</v>
+        <v>67</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
@@ -1655,14 +1676,14 @@
       </c>
       <c r="M25" s="10"/>
       <c t="s" r="N25" s="8">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="O25" s="8"/>
       <c t="s" r="P25" s="11">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c t="s" r="Q25" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="26" ht="25.5" customHeight="1">
@@ -1671,7 +1692,7 @@
       </c>
       <c r="B26" s="7"/>
       <c t="s" r="C26" s="8">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="D26" s="8"/>
       <c r="E26" s="8"/>
@@ -1688,11 +1709,11 @@
       </c>
       <c r="M26" s="10"/>
       <c t="s" r="N26" s="8">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="O26" s="8"/>
       <c t="s" r="P26" s="11">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c t="s" r="Q26" s="12">
         <v>16</v>
@@ -1704,31 +1725,31 @@
       </c>
       <c r="B27" s="7"/>
       <c t="s" r="C27" s="8">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="D27" s="8"/>
       <c r="E27" s="8"/>
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
       <c r="K27" s="9"/>
       <c t="s" r="L27" s="10">
-        <v>13</v>
+        <v>85</v>
       </c>
       <c r="M27" s="10"/>
       <c t="s" r="N27" s="8">
-        <v>84</v>
+        <v>75</v>
       </c>
       <c r="O27" s="8"/>
       <c t="s" r="P27" s="11">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c t="s" r="Q27" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="28" ht="24.75" customHeight="1">
@@ -1737,7 +1758,7 @@
       </c>
       <c r="B28" s="7"/>
       <c t="s" r="C28" s="8">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="D28" s="8"/>
       <c r="E28" s="8"/>
@@ -1754,14 +1775,14 @@
       </c>
       <c r="M28" s="10"/>
       <c t="s" r="N28" s="8">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="O28" s="8"/>
       <c t="s" r="P28" s="11">
-        <v>78</v>
+        <v>88</v>
       </c>
       <c t="s" r="Q28" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="29" ht="25.5" customHeight="1">
@@ -1770,14 +1791,14 @@
       </c>
       <c r="B29" s="7"/>
       <c t="s" r="C29" s="8">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="D29" s="8"/>
       <c r="E29" s="8"/>
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>88</v>
+        <v>25</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
@@ -1787,11 +1808,11 @@
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="O29" s="8"/>
       <c t="s" r="P29" s="11">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c t="s" r="Q29" s="12">
         <v>16</v>
@@ -1803,14 +1824,14 @@
       </c>
       <c r="B30" s="7"/>
       <c t="s" r="C30" s="8">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="D30" s="8"/>
       <c r="E30" s="8"/>
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>22</v>
+        <v>93</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
@@ -1820,11 +1841,11 @@
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="O30" s="8"/>
       <c t="s" r="P30" s="11">
-        <v>93</v>
+        <v>27</v>
       </c>
       <c t="s" r="Q30" s="12">
         <v>25</v>
@@ -1836,14 +1857,14 @@
       </c>
       <c r="B31" s="7"/>
       <c t="s" r="C31" s="8">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="D31" s="8"/>
       <c r="E31" s="8"/>
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>48</v>
+        <v>18</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
@@ -1853,14 +1874,14 @@
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
-        <v>96</v>
+        <v>88</v>
       </c>
       <c t="s" r="Q31" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="32" ht="25.5" customHeight="1">
@@ -1876,7 +1897,7 @@
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>22</v>
+        <v>63</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
@@ -1890,10 +1911,10 @@
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
-        <v>72</v>
+        <v>99</v>
       </c>
       <c t="s" r="Q32" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="33" ht="24.75" customHeight="1">
@@ -1902,14 +1923,14 @@
       </c>
       <c r="B33" s="7"/>
       <c t="s" r="C33" s="8">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="D33" s="8"/>
       <c r="E33" s="8"/>
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>50</v>
+        <v>22</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
@@ -1919,14 +1940,14 @@
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
-        <v>100</v>
+        <v>64</v>
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
-        <v>101</v>
+        <v>65</v>
       </c>
       <c t="s" r="Q33" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="34" ht="25.5" customHeight="1">
@@ -1935,31 +1956,31 @@
       </c>
       <c r="B34" s="7"/>
       <c t="s" r="C34" s="8">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D34" s="8"/>
       <c r="E34" s="8"/>
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>22</v>
+        <v>51</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
       <c r="K34" s="9"/>
       <c t="s" r="L34" s="10">
-        <v>75</v>
+        <v>13</v>
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c t="s" r="Q34" s="12">
-        <v>88</v>
+        <v>25</v>
       </c>
     </row>
     <row r="35" ht="24.75" customHeight="1">
@@ -1968,7 +1989,7 @@
       </c>
       <c r="B35" s="7"/>
       <c t="s" r="C35" s="8">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D35" s="8"/>
       <c r="E35" s="8"/>
@@ -1981,18 +2002,18 @@
       <c r="J35" s="9"/>
       <c r="K35" s="9"/>
       <c t="s" r="L35" s="10">
-        <v>75</v>
+        <v>13</v>
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
-        <v>107</v>
+        <v>82</v>
       </c>
       <c t="s" r="Q35" s="12">
-        <v>48</v>
+        <v>25</v>
       </c>
     </row>
     <row r="36" ht="25.5" customHeight="1">
@@ -2001,31 +2022,31 @@
       </c>
       <c r="B36" s="7"/>
       <c t="s" r="C36" s="8">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="D36" s="8"/>
       <c r="E36" s="8"/>
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>22</v>
+        <v>53</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
       <c r="K36" s="9"/>
       <c t="s" r="L36" s="10">
-        <v>75</v>
+        <v>13</v>
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c t="s" r="Q36" s="12">
-        <v>88</v>
+        <v>16</v>
       </c>
     </row>
     <row r="37" ht="25.5" customHeight="1">
@@ -2047,7 +2068,7 @@
       <c r="J37" s="9"/>
       <c r="K37" s="9"/>
       <c t="s" r="L37" s="10">
-        <v>75</v>
+        <v>85</v>
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
@@ -2058,7 +2079,7 @@
         <v>111</v>
       </c>
       <c t="s" r="Q37" s="12">
-        <v>25</v>
+        <v>63</v>
       </c>
     </row>
     <row r="38" ht="24.75" customHeight="1">
@@ -2074,24 +2095,24 @@
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>113</v>
+        <v>22</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
       <c r="K38" s="9"/>
       <c t="s" r="L38" s="10">
-        <v>75</v>
+        <v>85</v>
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c t="s" r="Q38" s="12">
-        <v>25</v>
+        <v>51</v>
       </c>
     </row>
     <row r="39" ht="25.5" customHeight="1">
@@ -2100,31 +2121,31 @@
       </c>
       <c r="B39" s="7"/>
       <c t="s" r="C39" s="8">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="D39" s="8"/>
       <c r="E39" s="8"/>
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
       <c r="K39" s="9"/>
       <c t="s" r="L39" s="10">
-        <v>75</v>
+        <v>85</v>
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>117</v>
+        <v>110</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
-        <v>118</v>
+        <v>111</v>
       </c>
       <c t="s" r="Q39" s="12">
-        <v>25</v>
+        <v>63</v>
       </c>
     </row>
     <row r="40" ht="24.75" customHeight="1">
@@ -2133,31 +2154,31 @@
       </c>
       <c r="B40" s="7"/>
       <c t="s" r="C40" s="8">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="D40" s="8"/>
       <c r="E40" s="8"/>
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>120</v>
+        <v>22</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
       <c r="K40" s="9"/>
       <c t="s" r="L40" s="10">
-        <v>75</v>
+        <v>85</v>
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c t="s" r="Q40" s="12">
-        <v>88</v>
+        <v>25</v>
       </c>
     </row>
     <row r="41" ht="25.5" customHeight="1">
@@ -2166,28 +2187,28 @@
       </c>
       <c r="B41" s="7"/>
       <c t="s" r="C41" s="8">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="D41" s="8"/>
       <c r="E41" s="8"/>
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>22</v>
+        <v>120</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
       <c r="K41" s="9"/>
       <c t="s" r="L41" s="10">
-        <v>75</v>
+        <v>85</v>
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c t="s" r="Q41" s="12">
         <v>25</v>
@@ -2199,28 +2220,28 @@
       </c>
       <c r="B42" s="7"/>
       <c t="s" r="C42" s="8">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="D42" s="8"/>
       <c r="E42" s="8"/>
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
       <c r="K42" s="9"/>
       <c t="s" r="L42" s="10">
-        <v>75</v>
+        <v>85</v>
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c t="s" r="Q42" s="12">
         <v>25</v>
@@ -2232,66 +2253,165 @@
       </c>
       <c r="B43" s="7"/>
       <c t="s" r="C43" s="8">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="D43" s="8"/>
       <c r="E43" s="8"/>
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
       <c r="K43" s="9"/>
       <c t="s" r="L43" s="10">
-        <v>75</v>
+        <v>85</v>
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
+        <v>129</v>
+      </c>
+      <c t="s" r="Q43" s="12">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="44" ht="25.5" customHeight="1">
+      <c r="A44" s="7">
+        <v>38</v>
+      </c>
+      <c r="B44" s="7"/>
+      <c t="s" r="C44" s="8">
+        <v>130</v>
+      </c>
+      <c r="D44" s="8"/>
+      <c r="E44" s="8"/>
+      <c r="F44" s="8"/>
+      <c r="G44" s="8"/>
+      <c t="s" r="H44" s="9">
+        <v>22</v>
+      </c>
+      <c r="I44" s="9"/>
+      <c r="J44" s="9"/>
+      <c r="K44" s="9"/>
+      <c t="s" r="L44" s="10">
+        <v>85</v>
+      </c>
+      <c r="M44" s="10"/>
+      <c t="s" r="N44" s="8">
+        <v>131</v>
+      </c>
+      <c r="O44" s="8"/>
+      <c t="s" r="P44" s="11">
         <v>132</v>
       </c>
-      <c t="s" r="Q43" s="12">
+      <c t="s" r="Q44" s="12">
         <v>25</v>
       </c>
     </row>
-    <row r="44" ht="25.5" customHeight="1">
-      <c r="P44" s="13">
-        <v>2822.5949999999998</v>
-      </c>
-      <c r="Q44" s="13"/>
-    </row>
-    <row r="45" ht="16.5" customHeight="1">
-      <c t="s" r="A45" s="14">
+    <row r="45" ht="24.75" customHeight="1">
+      <c r="A45" s="7">
+        <v>39</v>
+      </c>
+      <c r="B45" s="7"/>
+      <c t="s" r="C45" s="8">
         <v>133</v>
       </c>
-      <c r="B45" s="14"/>
-      <c r="C45" s="14"/>
-      <c r="D45" s="14"/>
-      <c r="E45" s="14"/>
-      <c r="F45" s="14"/>
-      <c t="s" r="G45" s="15">
+      <c r="D45" s="8"/>
+      <c r="E45" s="8"/>
+      <c r="F45" s="8"/>
+      <c r="G45" s="8"/>
+      <c t="s" r="H45" s="9">
+        <v>25</v>
+      </c>
+      <c r="I45" s="9"/>
+      <c r="J45" s="9"/>
+      <c r="K45" s="9"/>
+      <c t="s" r="L45" s="10">
+        <v>85</v>
+      </c>
+      <c r="M45" s="10"/>
+      <c t="s" r="N45" s="8">
         <v>134</v>
       </c>
-      <c r="H45" s="15"/>
-      <c r="I45" s="15"/>
-      <c r="J45" s="16"/>
-      <c t="s" r="K45" s="17">
+      <c r="O45" s="8"/>
+      <c t="s" r="P45" s="11">
         <v>135</v>
       </c>
-      <c r="L45" s="17"/>
-      <c r="M45" s="17"/>
-      <c r="N45" s="17"/>
-      <c r="O45" s="17"/>
-      <c r="P45" s="17"/>
-      <c r="Q45" s="17"/>
+      <c t="s" r="Q45" s="12">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="46" ht="25.5" customHeight="1">
+      <c r="A46" s="7">
+        <v>40</v>
+      </c>
+      <c r="B46" s="7"/>
+      <c t="s" r="C46" s="8">
+        <v>136</v>
+      </c>
+      <c r="D46" s="8"/>
+      <c r="E46" s="8"/>
+      <c r="F46" s="8"/>
+      <c r="G46" s="8"/>
+      <c t="s" r="H46" s="9">
+        <v>137</v>
+      </c>
+      <c r="I46" s="9"/>
+      <c r="J46" s="9"/>
+      <c r="K46" s="9"/>
+      <c t="s" r="L46" s="10">
+        <v>85</v>
+      </c>
+      <c r="M46" s="10"/>
+      <c t="s" r="N46" s="8">
+        <v>138</v>
+      </c>
+      <c r="O46" s="8"/>
+      <c t="s" r="P46" s="11">
+        <v>139</v>
+      </c>
+      <c t="s" r="Q46" s="12">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="47" ht="25.5" customHeight="1">
+      <c r="P47" s="13">
+        <v>2969.5949999999998</v>
+      </c>
+      <c r="Q47" s="13"/>
+    </row>
+    <row r="48" ht="16.5" customHeight="1">
+      <c t="s" r="A48" s="14">
+        <v>140</v>
+      </c>
+      <c r="B48" s="14"/>
+      <c r="C48" s="14"/>
+      <c r="D48" s="14"/>
+      <c r="E48" s="14"/>
+      <c r="F48" s="14"/>
+      <c t="s" r="G48" s="15">
+        <v>141</v>
+      </c>
+      <c r="H48" s="15"/>
+      <c r="I48" s="15"/>
+      <c r="J48" s="16"/>
+      <c t="s" r="K48" s="17">
+        <v>142</v>
+      </c>
+      <c r="L48" s="17"/>
+      <c r="M48" s="17"/>
+      <c r="N48" s="17"/>
+      <c r="O48" s="17"/>
+      <c r="P48" s="17"/>
+      <c r="Q48" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="197">
+  <mergeCells count="212">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -2485,10 +2605,25 @@
     <mergeCell ref="H43:K43"/>
     <mergeCell ref="L43:M43"/>
     <mergeCell ref="N43:O43"/>
-    <mergeCell ref="P44:Q44"/>
-    <mergeCell ref="A45:F45"/>
-    <mergeCell ref="G45:I45"/>
-    <mergeCell ref="K45:Q45"/>
+    <mergeCell ref="A44:B44"/>
+    <mergeCell ref="C44:G44"/>
+    <mergeCell ref="H44:K44"/>
+    <mergeCell ref="L44:M44"/>
+    <mergeCell ref="N44:O44"/>
+    <mergeCell ref="A45:B45"/>
+    <mergeCell ref="C45:G45"/>
+    <mergeCell ref="H45:K45"/>
+    <mergeCell ref="L45:M45"/>
+    <mergeCell ref="N45:O45"/>
+    <mergeCell ref="A46:B46"/>
+    <mergeCell ref="C46:G46"/>
+    <mergeCell ref="H46:K46"/>
+    <mergeCell ref="L46:M46"/>
+    <mergeCell ref="N46:O46"/>
+    <mergeCell ref="P47:Q47"/>
+    <mergeCell ref="A48:F48"/>
+    <mergeCell ref="G48:I48"/>
+    <mergeCell ref="K48:Q48"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-08-08_00-00.xlsx
+++ b/DaySale_2025-08-08_00-00.xlsx
@@ -314,6 +314,9 @@
     <t>UROSOLVINE EFF. GRAN. 12 SACHETS</t>
   </si>
   <si>
+    <t>76.0000</t>
+  </si>
+  <si>
     <t>VIDROP 2800 I.U./ML ORAL DROPS 15 ML</t>
   </si>
   <si>
@@ -431,7 +434,7 @@
     <t>24.0000</t>
   </si>
   <si>
-    <t>Friday, 8 August, 2025 6:40 PM</t>
+    <t>Friday, 8 August, 2025 6:45 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1930,7 +1933,7 @@
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
@@ -1944,10 +1947,10 @@
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
-        <v>65</v>
+        <v>101</v>
       </c>
       <c t="s" r="Q33" s="12">
-        <v>25</v>
+        <v>63</v>
       </c>
     </row>
     <row r="34" ht="25.5" customHeight="1">
@@ -1956,7 +1959,7 @@
       </c>
       <c r="B34" s="7"/>
       <c t="s" r="C34" s="8">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="D34" s="8"/>
       <c r="E34" s="8"/>
@@ -1973,11 +1976,11 @@
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c t="s" r="Q34" s="12">
         <v>25</v>
@@ -1989,7 +1992,7 @@
       </c>
       <c r="B35" s="7"/>
       <c t="s" r="C35" s="8">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="D35" s="8"/>
       <c r="E35" s="8"/>
@@ -2006,7 +2009,7 @@
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
@@ -2022,7 +2025,7 @@
       </c>
       <c r="B36" s="7"/>
       <c t="s" r="C36" s="8">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="D36" s="8"/>
       <c r="E36" s="8"/>
@@ -2039,11 +2042,11 @@
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c t="s" r="Q36" s="12">
         <v>16</v>
@@ -2055,7 +2058,7 @@
       </c>
       <c r="B37" s="7"/>
       <c t="s" r="C37" s="8">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="D37" s="8"/>
       <c r="E37" s="8"/>
@@ -2072,11 +2075,11 @@
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c t="s" r="Q37" s="12">
         <v>63</v>
@@ -2088,7 +2091,7 @@
       </c>
       <c r="B38" s="7"/>
       <c t="s" r="C38" s="8">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="D38" s="8"/>
       <c r="E38" s="8"/>
@@ -2105,11 +2108,11 @@
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c t="s" r="Q38" s="12">
         <v>51</v>
@@ -2121,7 +2124,7 @@
       </c>
       <c r="B39" s="7"/>
       <c t="s" r="C39" s="8">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="D39" s="8"/>
       <c r="E39" s="8"/>
@@ -2138,11 +2141,11 @@
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c t="s" r="Q39" s="12">
         <v>63</v>
@@ -2154,7 +2157,7 @@
       </c>
       <c r="B40" s="7"/>
       <c t="s" r="C40" s="8">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="D40" s="8"/>
       <c r="E40" s="8"/>
@@ -2171,11 +2174,11 @@
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c t="s" r="Q40" s="12">
         <v>25</v>
@@ -2187,14 +2190,14 @@
       </c>
       <c r="B41" s="7"/>
       <c t="s" r="C41" s="8">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="D41" s="8"/>
       <c r="E41" s="8"/>
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
@@ -2204,11 +2207,11 @@
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c t="s" r="Q41" s="12">
         <v>25</v>
@@ -2220,7 +2223,7 @@
       </c>
       <c r="B42" s="7"/>
       <c t="s" r="C42" s="8">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="D42" s="8"/>
       <c r="E42" s="8"/>
@@ -2237,11 +2240,11 @@
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c t="s" r="Q42" s="12">
         <v>25</v>
@@ -2253,14 +2256,14 @@
       </c>
       <c r="B43" s="7"/>
       <c t="s" r="C43" s="8">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="D43" s="8"/>
       <c r="E43" s="8"/>
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
@@ -2270,11 +2273,11 @@
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c t="s" r="Q43" s="12">
         <v>63</v>
@@ -2286,7 +2289,7 @@
       </c>
       <c r="B44" s="7"/>
       <c t="s" r="C44" s="8">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="D44" s="8"/>
       <c r="E44" s="8"/>
@@ -2303,11 +2306,11 @@
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c t="s" r="Q44" s="12">
         <v>25</v>
@@ -2319,7 +2322,7 @@
       </c>
       <c r="B45" s="7"/>
       <c t="s" r="C45" s="8">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="D45" s="8"/>
       <c r="E45" s="8"/>
@@ -2336,11 +2339,11 @@
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c t="s" r="Q45" s="12">
         <v>25</v>
@@ -2352,14 +2355,14 @@
       </c>
       <c r="B46" s="7"/>
       <c t="s" r="C46" s="8">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="D46" s="8"/>
       <c r="E46" s="8"/>
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
@@ -2369,11 +2372,11 @@
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c t="s" r="Q46" s="12">
         <v>25</v>
@@ -2381,13 +2384,13 @@
     </row>
     <row r="47" ht="25.5" customHeight="1">
       <c r="P47" s="13">
-        <v>2969.5949999999998</v>
+        <v>3007.5949999999998</v>
       </c>
       <c r="Q47" s="13"/>
     </row>
     <row r="48" ht="16.5" customHeight="1">
       <c t="s" r="A48" s="14">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="B48" s="14"/>
       <c r="C48" s="14"/>
@@ -2395,13 +2398,13 @@
       <c r="E48" s="14"/>
       <c r="F48" s="14"/>
       <c t="s" r="G48" s="15">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="H48" s="15"/>
       <c r="I48" s="15"/>
       <c r="J48" s="16"/>
       <c t="s" r="K48" s="17">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="L48" s="17"/>
       <c r="M48" s="17"/>

--- a/DaySale_2025-08-08_00-00.xlsx
+++ b/DaySale_2025-08-08_00-00.xlsx
@@ -302,6 +302,9 @@
     <t>124.00</t>
   </si>
   <si>
+    <t>URAID-N EFF. GRANUL. 12 SACHETS</t>
+  </si>
+  <si>
     <t>URINEX 24 CAPS</t>
   </si>
   <si>
@@ -314,9 +317,6 @@
     <t>UROSOLVINE EFF. GRAN. 12 SACHETS</t>
   </si>
   <si>
-    <t>76.0000</t>
-  </si>
-  <si>
     <t>VIDROP 2800 I.U./ML ORAL DROPS 15 ML</t>
   </si>
   <si>
@@ -434,7 +434,7 @@
     <t>24.0000</t>
   </si>
   <si>
-    <t>Friday, 8 August, 2025 6:45 PM</t>
+    <t>Friday, 8 August, 2025 6:46 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1900,7 +1900,7 @@
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>63</v>
+        <v>18</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
@@ -1910,14 +1910,14 @@
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
-        <v>98</v>
+        <v>64</v>
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
-        <v>99</v>
+        <v>65</v>
       </c>
       <c t="s" r="Q32" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="33" ht="24.75" customHeight="1">
@@ -1926,14 +1926,14 @@
       </c>
       <c r="B33" s="7"/>
       <c t="s" r="C33" s="8">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="D33" s="8"/>
       <c r="E33" s="8"/>
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>18</v>
+        <v>63</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
@@ -1943,14 +1943,14 @@
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
-        <v>64</v>
+        <v>99</v>
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c t="s" r="Q33" s="12">
-        <v>63</v>
+        <v>16</v>
       </c>
     </row>
     <row r="34" ht="25.5" customHeight="1">
@@ -1959,14 +1959,14 @@
       </c>
       <c r="B34" s="7"/>
       <c t="s" r="C34" s="8">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D34" s="8"/>
       <c r="E34" s="8"/>
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>51</v>
+        <v>22</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
@@ -1976,11 +1976,11 @@
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
-        <v>103</v>
+        <v>64</v>
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
-        <v>104</v>
+        <v>65</v>
       </c>
       <c t="s" r="Q34" s="12">
         <v>25</v>
@@ -1992,14 +1992,14 @@
       </c>
       <c r="B35" s="7"/>
       <c t="s" r="C35" s="8">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="D35" s="8"/>
       <c r="E35" s="8"/>
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>22</v>
+        <v>51</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
@@ -2009,11 +2009,11 @@
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
-        <v>82</v>
+        <v>104</v>
       </c>
       <c t="s" r="Q35" s="12">
         <v>25</v>
@@ -2025,14 +2025,14 @@
       </c>
       <c r="B36" s="7"/>
       <c t="s" r="C36" s="8">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="D36" s="8"/>
       <c r="E36" s="8"/>
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>53</v>
+        <v>22</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
@@ -2042,14 +2042,14 @@
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
-        <v>109</v>
+        <v>82</v>
       </c>
       <c t="s" r="Q36" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="37" ht="25.5" customHeight="1">
@@ -2058,31 +2058,31 @@
       </c>
       <c r="B37" s="7"/>
       <c t="s" r="C37" s="8">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="D37" s="8"/>
       <c r="E37" s="8"/>
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>22</v>
+        <v>53</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
       <c r="K37" s="9"/>
       <c t="s" r="L37" s="10">
-        <v>85</v>
+        <v>13</v>
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c t="s" r="Q37" s="12">
-        <v>63</v>
+        <v>16</v>
       </c>
     </row>
     <row r="38" ht="24.75" customHeight="1">
@@ -2091,7 +2091,7 @@
       </c>
       <c r="B38" s="7"/>
       <c t="s" r="C38" s="8">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="D38" s="8"/>
       <c r="E38" s="8"/>
@@ -2108,14 +2108,14 @@
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c t="s" r="Q38" s="12">
-        <v>51</v>
+        <v>63</v>
       </c>
     </row>
     <row r="39" ht="25.5" customHeight="1">
@@ -2124,7 +2124,7 @@
       </c>
       <c r="B39" s="7"/>
       <c t="s" r="C39" s="8">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="D39" s="8"/>
       <c r="E39" s="8"/>
@@ -2141,14 +2141,14 @@
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c t="s" r="Q39" s="12">
-        <v>63</v>
+        <v>51</v>
       </c>
     </row>
     <row r="40" ht="24.75" customHeight="1">
@@ -2157,7 +2157,7 @@
       </c>
       <c r="B40" s="7"/>
       <c t="s" r="C40" s="8">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D40" s="8"/>
       <c r="E40" s="8"/>
@@ -2174,14 +2174,14 @@
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>118</v>
+        <v>111</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
-        <v>119</v>
+        <v>112</v>
       </c>
       <c t="s" r="Q40" s="12">
-        <v>25</v>
+        <v>63</v>
       </c>
     </row>
     <row r="41" ht="25.5" customHeight="1">
@@ -2190,14 +2190,14 @@
       </c>
       <c r="B41" s="7"/>
       <c t="s" r="C41" s="8">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="D41" s="8"/>
       <c r="E41" s="8"/>
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>121</v>
+        <v>22</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
@@ -2207,11 +2207,11 @@
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c t="s" r="Q41" s="12">
         <v>25</v>
@@ -2223,14 +2223,14 @@
       </c>
       <c r="B42" s="7"/>
       <c t="s" r="C42" s="8">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="D42" s="8"/>
       <c r="E42" s="8"/>
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>18</v>
+        <v>121</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
@@ -2240,11 +2240,11 @@
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c t="s" r="Q42" s="12">
         <v>25</v>
@@ -2256,14 +2256,14 @@
       </c>
       <c r="B43" s="7"/>
       <c t="s" r="C43" s="8">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="D43" s="8"/>
       <c r="E43" s="8"/>
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>128</v>
+        <v>18</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
@@ -2273,14 +2273,14 @@
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c t="s" r="Q43" s="12">
-        <v>63</v>
+        <v>25</v>
       </c>
     </row>
     <row r="44" ht="25.5" customHeight="1">
@@ -2289,14 +2289,14 @@
       </c>
       <c r="B44" s="7"/>
       <c t="s" r="C44" s="8">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="D44" s="8"/>
       <c r="E44" s="8"/>
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>22</v>
+        <v>128</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
@@ -2306,14 +2306,14 @@
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c t="s" r="Q44" s="12">
-        <v>25</v>
+        <v>63</v>
       </c>
     </row>
     <row r="45" ht="24.75" customHeight="1">
@@ -2322,14 +2322,14 @@
       </c>
       <c r="B45" s="7"/>
       <c t="s" r="C45" s="8">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="D45" s="8"/>
       <c r="E45" s="8"/>
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
@@ -2339,11 +2339,11 @@
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c t="s" r="Q45" s="12">
         <v>25</v>
@@ -2355,14 +2355,14 @@
       </c>
       <c r="B46" s="7"/>
       <c t="s" r="C46" s="8">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="D46" s="8"/>
       <c r="E46" s="8"/>
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>138</v>
+        <v>25</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
@@ -2372,49 +2372,82 @@
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
+        <v>136</v>
+      </c>
+      <c t="s" r="Q46" s="12">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="47" ht="25.5" customHeight="1">
+      <c r="A47" s="7">
+        <v>41</v>
+      </c>
+      <c r="B47" s="7"/>
+      <c t="s" r="C47" s="8">
+        <v>137</v>
+      </c>
+      <c r="D47" s="8"/>
+      <c r="E47" s="8"/>
+      <c r="F47" s="8"/>
+      <c r="G47" s="8"/>
+      <c t="s" r="H47" s="9">
+        <v>138</v>
+      </c>
+      <c r="I47" s="9"/>
+      <c r="J47" s="9"/>
+      <c r="K47" s="9"/>
+      <c t="s" r="L47" s="10">
+        <v>85</v>
+      </c>
+      <c r="M47" s="10"/>
+      <c t="s" r="N47" s="8">
+        <v>139</v>
+      </c>
+      <c r="O47" s="8"/>
+      <c t="s" r="P47" s="11">
         <v>140</v>
       </c>
-      <c t="s" r="Q46" s="12">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="47" ht="25.5" customHeight="1">
-      <c r="P47" s="13">
+      <c t="s" r="Q47" s="12">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="48" ht="24.75" customHeight="1">
+      <c r="P48" s="13">
         <v>3007.5949999999998</v>
       </c>
-      <c r="Q47" s="13"/>
-    </row>
-    <row r="48" ht="16.5" customHeight="1">
-      <c t="s" r="A48" s="14">
+      <c r="Q48" s="13"/>
+    </row>
+    <row r="49" ht="16.5" customHeight="1">
+      <c t="s" r="A49" s="14">
         <v>141</v>
       </c>
-      <c r="B48" s="14"/>
-      <c r="C48" s="14"/>
-      <c r="D48" s="14"/>
-      <c r="E48" s="14"/>
-      <c r="F48" s="14"/>
-      <c t="s" r="G48" s="15">
+      <c r="B49" s="14"/>
+      <c r="C49" s="14"/>
+      <c r="D49" s="14"/>
+      <c r="E49" s="14"/>
+      <c r="F49" s="14"/>
+      <c t="s" r="G49" s="15">
         <v>142</v>
       </c>
-      <c r="H48" s="15"/>
-      <c r="I48" s="15"/>
-      <c r="J48" s="16"/>
-      <c t="s" r="K48" s="17">
+      <c r="H49" s="15"/>
+      <c r="I49" s="15"/>
+      <c r="J49" s="16"/>
+      <c t="s" r="K49" s="17">
         <v>143</v>
       </c>
-      <c r="L48" s="17"/>
-      <c r="M48" s="17"/>
-      <c r="N48" s="17"/>
-      <c r="O48" s="17"/>
-      <c r="P48" s="17"/>
-      <c r="Q48" s="17"/>
+      <c r="L49" s="17"/>
+      <c r="M49" s="17"/>
+      <c r="N49" s="17"/>
+      <c r="O49" s="17"/>
+      <c r="P49" s="17"/>
+      <c r="Q49" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="212">
+  <mergeCells count="217">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -2623,10 +2656,15 @@
     <mergeCell ref="H46:K46"/>
     <mergeCell ref="L46:M46"/>
     <mergeCell ref="N46:O46"/>
-    <mergeCell ref="P47:Q47"/>
-    <mergeCell ref="A48:F48"/>
-    <mergeCell ref="G48:I48"/>
-    <mergeCell ref="K48:Q48"/>
+    <mergeCell ref="A47:B47"/>
+    <mergeCell ref="C47:G47"/>
+    <mergeCell ref="H47:K47"/>
+    <mergeCell ref="L47:M47"/>
+    <mergeCell ref="N47:O47"/>
+    <mergeCell ref="P48:Q48"/>
+    <mergeCell ref="A49:F49"/>
+    <mergeCell ref="G49:I49"/>
+    <mergeCell ref="K49:Q49"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-08-08_00-00.xlsx
+++ b/DaySale_2025-08-08_00-00.xlsx
@@ -62,6 +62,21 @@
     <t>0:1</t>
   </si>
   <si>
+    <t>ANTODINE 40MG 30 F.C. TABLETS</t>
+  </si>
+  <si>
+    <t>1:2</t>
+  </si>
+  <si>
+    <t>93.00</t>
+  </si>
+  <si>
+    <t>61.3800</t>
+  </si>
+  <si>
+    <t>0:2</t>
+  </si>
+  <si>
     <t>BI-PROFENID 150MG 20 SCORED TABS.</t>
   </si>
   <si>
@@ -89,6 +104,18 @@
     <t>1:0</t>
   </si>
   <si>
+    <t>CARNIVITA FORTE 30 F.C. TAB</t>
+  </si>
+  <si>
+    <t>1:1</t>
+  </si>
+  <si>
+    <t>177.00</t>
+  </si>
+  <si>
+    <t>58.4100</t>
+  </si>
+  <si>
     <t>CEPOREX 1GM 8 TABLETS</t>
   </si>
   <si>
@@ -113,9 +140,6 @@
     <t>130.6800</t>
   </si>
   <si>
-    <t>0:2</t>
-  </si>
-  <si>
     <t>DANSET 8MG/4ML 3 AMP.</t>
   </si>
   <si>
@@ -125,6 +149,15 @@
     <t>47.0250</t>
   </si>
   <si>
+    <t>DIAMONRECTA 5 MG 30 F.C. TAB.</t>
+  </si>
+  <si>
+    <t>187.50</t>
+  </si>
+  <si>
+    <t>123.7500</t>
+  </si>
+  <si>
     <t>DIFLUCAN 50MG 7 CAPS.</t>
   </si>
   <si>
@@ -212,9 +245,6 @@
     <t>GLIPTUS PLUS 50/1000MG 30 TABLETS</t>
   </si>
   <si>
-    <t>1:1</t>
-  </si>
-  <si>
     <t>192.00</t>
   </si>
   <si>
@@ -287,12 +317,18 @@
     <t>51.0000</t>
   </si>
   <si>
+    <t>SPASMO-DIGESTIN 30 TABS.</t>
+  </si>
+  <si>
+    <t>3:1</t>
+  </si>
+  <si>
+    <t>51.4800</t>
+  </si>
+  <si>
     <t>SPASMOFEN 3 AMP. FOR I.M. INJ.</t>
   </si>
   <si>
-    <t>1:2</t>
-  </si>
-  <si>
     <t>39.00</t>
   </si>
   <si>
@@ -341,6 +377,15 @@
     <t>14.4000</t>
   </si>
   <si>
+    <t>VITASTRESS 20 F.C. TABS.</t>
+  </si>
+  <si>
+    <t>64.00</t>
+  </si>
+  <si>
+    <t>64.0000</t>
+  </si>
+  <si>
     <t>حبايه</t>
   </si>
   <si>
@@ -434,7 +479,7 @@
     <t>24.0000</t>
   </si>
   <si>
-    <t>Friday, 8 August, 2025 6:46 PM</t>
+    <t>Friday, 8 August, 2025 6:48 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1125,7 +1170,7 @@
         <v>20</v>
       </c>
       <c t="s" r="Q8" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="9" ht="25.5" customHeight="1">
@@ -1134,14 +1179,14 @@
       </c>
       <c r="B9" s="7"/>
       <c t="s" r="C9" s="8">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D9" s="8"/>
       <c r="E9" s="8"/>
       <c r="F9" s="8"/>
       <c r="G9" s="8"/>
       <c t="s" r="H9" s="9">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="I9" s="9"/>
       <c r="J9" s="9"/>
@@ -1151,14 +1196,14 @@
       </c>
       <c r="M9" s="10"/>
       <c t="s" r="N9" s="8">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="O9" s="8"/>
       <c t="s" r="P9" s="11">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c t="s" r="Q9" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="10" ht="24.75" customHeight="1">
@@ -1174,7 +1219,7 @@
       <c r="F10" s="8"/>
       <c r="G10" s="8"/>
       <c t="s" r="H10" s="9">
-        <v>16</v>
+        <v>27</v>
       </c>
       <c r="I10" s="9"/>
       <c r="J10" s="9"/>
@@ -1184,14 +1229,14 @@
       </c>
       <c r="M10" s="10"/>
       <c t="s" r="N10" s="8">
-        <v>14</v>
+        <v>28</v>
       </c>
       <c r="O10" s="8"/>
       <c t="s" r="P10" s="11">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c t="s" r="Q10" s="12">
-        <v>16</v>
+        <v>30</v>
       </c>
     </row>
     <row r="11" ht="25.5" customHeight="1">
@@ -1200,14 +1245,14 @@
       </c>
       <c r="B11" s="7"/>
       <c t="s" r="C11" s="8">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="D11" s="8"/>
       <c r="E11" s="8"/>
       <c r="F11" s="8"/>
       <c r="G11" s="8"/>
       <c t="s" r="H11" s="9">
-        <v>25</v>
+        <v>32</v>
       </c>
       <c r="I11" s="9"/>
       <c r="J11" s="9"/>
@@ -1217,11 +1262,11 @@
       </c>
       <c r="M11" s="10"/>
       <c t="s" r="N11" s="8">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="O11" s="8"/>
       <c t="s" r="P11" s="11">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c t="s" r="Q11" s="12">
         <v>16</v>
@@ -1233,7 +1278,7 @@
       </c>
       <c r="B12" s="7"/>
       <c t="s" r="C12" s="8">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="D12" s="8"/>
       <c r="E12" s="8"/>
@@ -1250,14 +1295,14 @@
       </c>
       <c r="M12" s="10"/>
       <c t="s" r="N12" s="8">
-        <v>32</v>
+        <v>14</v>
       </c>
       <c r="O12" s="8"/>
       <c t="s" r="P12" s="11">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c t="s" r="Q12" s="12">
-        <v>34</v>
+        <v>16</v>
       </c>
     </row>
     <row r="13" ht="24.75" customHeight="1">
@@ -1266,14 +1311,14 @@
       </c>
       <c r="B13" s="7"/>
       <c t="s" r="C13" s="8">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="D13" s="8"/>
       <c r="E13" s="8"/>
       <c r="F13" s="8"/>
       <c r="G13" s="8"/>
       <c t="s" r="H13" s="9">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="I13" s="9"/>
       <c r="J13" s="9"/>
@@ -1283,11 +1328,11 @@
       </c>
       <c r="M13" s="10"/>
       <c t="s" r="N13" s="8">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="O13" s="8"/>
       <c t="s" r="P13" s="11">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c t="s" r="Q13" s="12">
         <v>16</v>
@@ -1299,14 +1344,14 @@
       </c>
       <c r="B14" s="7"/>
       <c t="s" r="C14" s="8">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="D14" s="8"/>
       <c r="E14" s="8"/>
       <c r="F14" s="8"/>
       <c r="G14" s="8"/>
       <c t="s" r="H14" s="9">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="I14" s="9"/>
       <c r="J14" s="9"/>
@@ -1316,14 +1361,14 @@
       </c>
       <c r="M14" s="10"/>
       <c t="s" r="N14" s="8">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="O14" s="8"/>
       <c t="s" r="P14" s="11">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c t="s" r="Q14" s="12">
-        <v>41</v>
+        <v>21</v>
       </c>
     </row>
     <row r="15" ht="24.75" customHeight="1">
@@ -1332,14 +1377,14 @@
       </c>
       <c r="B15" s="7"/>
       <c t="s" r="C15" s="8">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="D15" s="8"/>
       <c r="E15" s="8"/>
       <c r="F15" s="8"/>
       <c r="G15" s="8"/>
       <c t="s" r="H15" s="9">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="I15" s="9"/>
       <c r="J15" s="9"/>
@@ -1349,14 +1394,14 @@
       </c>
       <c r="M15" s="10"/>
       <c t="s" r="N15" s="8">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="O15" s="8"/>
       <c t="s" r="P15" s="11">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c t="s" r="Q15" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="16" ht="25.5" customHeight="1">
@@ -1365,14 +1410,14 @@
       </c>
       <c r="B16" s="7"/>
       <c t="s" r="C16" s="8">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="D16" s="8"/>
       <c r="E16" s="8"/>
       <c r="F16" s="8"/>
       <c r="G16" s="8"/>
       <c t="s" r="H16" s="9">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="I16" s="9"/>
       <c r="J16" s="9"/>
@@ -1382,14 +1427,14 @@
       </c>
       <c r="M16" s="10"/>
       <c t="s" r="N16" s="8">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="O16" s="8"/>
       <c t="s" r="P16" s="11">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c t="s" r="Q16" s="12">
-        <v>25</v>
+        <v>21</v>
       </c>
     </row>
     <row r="17" ht="25.5" customHeight="1">
@@ -1398,14 +1443,14 @@
       </c>
       <c r="B17" s="7"/>
       <c t="s" r="C17" s="8">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="D17" s="8"/>
       <c r="E17" s="8"/>
       <c r="F17" s="8"/>
       <c r="G17" s="8"/>
       <c t="s" r="H17" s="9">
-        <v>18</v>
+        <v>27</v>
       </c>
       <c r="I17" s="9"/>
       <c r="J17" s="9"/>
@@ -1415,14 +1460,14 @@
       </c>
       <c r="M17" s="10"/>
       <c t="s" r="N17" s="8">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="O17" s="8"/>
       <c t="s" r="P17" s="11">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c t="s" r="Q17" s="12">
-        <v>51</v>
+        <v>52</v>
       </c>
     </row>
     <row r="18" ht="24.75" customHeight="1">
@@ -1431,14 +1476,14 @@
       </c>
       <c r="B18" s="7"/>
       <c t="s" r="C18" s="8">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="D18" s="8"/>
       <c r="E18" s="8"/>
       <c r="F18" s="8"/>
       <c r="G18" s="8"/>
       <c t="s" r="H18" s="9">
-        <v>53</v>
+        <v>30</v>
       </c>
       <c r="I18" s="9"/>
       <c r="J18" s="9"/>
@@ -1455,7 +1500,7 @@
         <v>55</v>
       </c>
       <c t="s" r="Q18" s="12">
-        <v>34</v>
+        <v>30</v>
       </c>
     </row>
     <row r="19" ht="25.5" customHeight="1">
@@ -1471,7 +1516,7 @@
       <c r="F19" s="8"/>
       <c r="G19" s="8"/>
       <c t="s" r="H19" s="9">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="I19" s="9"/>
       <c r="J19" s="9"/>
@@ -1488,7 +1533,7 @@
         <v>58</v>
       </c>
       <c t="s" r="Q19" s="12">
-        <v>25</v>
+        <v>30</v>
       </c>
     </row>
     <row r="20" ht="24.75" customHeight="1">
@@ -1504,7 +1549,7 @@
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
       <c t="s" r="H20" s="9">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="I20" s="9"/>
       <c r="J20" s="9"/>
@@ -1521,7 +1566,7 @@
         <v>61</v>
       </c>
       <c t="s" r="Q20" s="12">
-        <v>25</v>
+        <v>62</v>
       </c>
     </row>
     <row r="21" ht="25.5" customHeight="1">
@@ -1530,14 +1575,14 @@
       </c>
       <c r="B21" s="7"/>
       <c t="s" r="C21" s="8">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="D21" s="8"/>
       <c r="E21" s="8"/>
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
       <c t="s" r="H21" s="9">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
@@ -1547,14 +1592,14 @@
       </c>
       <c r="M21" s="10"/>
       <c t="s" r="N21" s="8">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="O21" s="8"/>
       <c t="s" r="P21" s="11">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c t="s" r="Q21" s="12">
-        <v>25</v>
+        <v>21</v>
       </c>
     </row>
     <row r="22" ht="25.5" customHeight="1">
@@ -1563,14 +1608,14 @@
       </c>
       <c r="B22" s="7"/>
       <c t="s" r="C22" s="8">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="D22" s="8"/>
       <c r="E22" s="8"/>
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c t="s" r="H22" s="9">
-        <v>67</v>
+        <v>30</v>
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
@@ -1587,7 +1632,7 @@
         <v>69</v>
       </c>
       <c t="s" r="Q22" s="12">
-        <v>16</v>
+        <v>30</v>
       </c>
     </row>
     <row r="23" ht="24.75" customHeight="1">
@@ -1603,7 +1648,7 @@
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c t="s" r="H23" s="9">
-        <v>22</v>
+        <v>30</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
@@ -1620,7 +1665,7 @@
         <v>72</v>
       </c>
       <c t="s" r="Q23" s="12">
-        <v>25</v>
+        <v>30</v>
       </c>
     </row>
     <row r="24" ht="25.5" customHeight="1">
@@ -1653,7 +1698,7 @@
         <v>76</v>
       </c>
       <c t="s" r="Q24" s="12">
-        <v>51</v>
+        <v>30</v>
       </c>
     </row>
     <row r="25" ht="24.75" customHeight="1">
@@ -1669,7 +1714,7 @@
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>67</v>
+        <v>32</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
@@ -1702,7 +1747,7 @@
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
@@ -1719,7 +1764,7 @@
         <v>82</v>
       </c>
       <c t="s" r="Q26" s="12">
-        <v>16</v>
+        <v>30</v>
       </c>
     </row>
     <row r="27" ht="25.5" customHeight="1">
@@ -1741,18 +1786,18 @@
       <c r="J27" s="9"/>
       <c r="K27" s="9"/>
       <c t="s" r="L27" s="10">
-        <v>85</v>
+        <v>13</v>
       </c>
       <c r="M27" s="10"/>
       <c t="s" r="N27" s="8">
-        <v>75</v>
+        <v>85</v>
       </c>
       <c r="O27" s="8"/>
       <c t="s" r="P27" s="11">
-        <v>20</v>
+        <v>86</v>
       </c>
       <c t="s" r="Q27" s="12">
-        <v>16</v>
+        <v>62</v>
       </c>
     </row>
     <row r="28" ht="24.75" customHeight="1">
@@ -1761,14 +1806,14 @@
       </c>
       <c r="B28" s="7"/>
       <c t="s" r="C28" s="8">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="D28" s="8"/>
       <c r="E28" s="8"/>
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>18</v>
+        <v>32</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
@@ -1778,14 +1823,14 @@
       </c>
       <c r="M28" s="10"/>
       <c t="s" r="N28" s="8">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="O28" s="8"/>
       <c t="s" r="P28" s="11">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c t="s" r="Q28" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="29" ht="25.5" customHeight="1">
@@ -1794,14 +1839,14 @@
       </c>
       <c r="B29" s="7"/>
       <c t="s" r="C29" s="8">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="D29" s="8"/>
       <c r="E29" s="8"/>
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
@@ -1811,11 +1856,11 @@
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="O29" s="8"/>
       <c t="s" r="P29" s="11">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c t="s" r="Q29" s="12">
         <v>16</v>
@@ -1827,31 +1872,31 @@
       </c>
       <c r="B30" s="7"/>
       <c t="s" r="C30" s="8">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="D30" s="8"/>
       <c r="E30" s="8"/>
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
       <c r="K30" s="9"/>
       <c t="s" r="L30" s="10">
-        <v>13</v>
+        <v>95</v>
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
-        <v>94</v>
+        <v>85</v>
       </c>
       <c r="O30" s="8"/>
       <c t="s" r="P30" s="11">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c t="s" r="Q30" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="31" ht="25.5" customHeight="1">
@@ -1860,14 +1905,14 @@
       </c>
       <c r="B31" s="7"/>
       <c t="s" r="C31" s="8">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="D31" s="8"/>
       <c r="E31" s="8"/>
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
@@ -1877,14 +1922,14 @@
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
-        <v>88</v>
+        <v>98</v>
       </c>
       <c t="s" r="Q31" s="12">
-        <v>16</v>
+        <v>30</v>
       </c>
     </row>
     <row r="32" ht="25.5" customHeight="1">
@@ -1893,14 +1938,14 @@
       </c>
       <c r="B32" s="7"/>
       <c t="s" r="C32" s="8">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="D32" s="8"/>
       <c r="E32" s="8"/>
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
@@ -1910,14 +1955,14 @@
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
-        <v>64</v>
+        <v>100</v>
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
-        <v>65</v>
+        <v>101</v>
       </c>
       <c t="s" r="Q32" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="33" ht="24.75" customHeight="1">
@@ -1926,14 +1971,14 @@
       </c>
       <c r="B33" s="7"/>
       <c t="s" r="C33" s="8">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="D33" s="8"/>
       <c r="E33" s="8"/>
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>63</v>
+        <v>103</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
@@ -1943,14 +1988,14 @@
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
-        <v>99</v>
+        <v>14</v>
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c t="s" r="Q33" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="34" ht="25.5" customHeight="1">
@@ -1959,14 +2004,14 @@
       </c>
       <c r="B34" s="7"/>
       <c t="s" r="C34" s="8">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="D34" s="8"/>
       <c r="E34" s="8"/>
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
@@ -1976,14 +2021,14 @@
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
-        <v>64</v>
+        <v>106</v>
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
-        <v>65</v>
+        <v>36</v>
       </c>
       <c t="s" r="Q34" s="12">
-        <v>25</v>
+        <v>30</v>
       </c>
     </row>
     <row r="35" ht="24.75" customHeight="1">
@@ -1992,14 +2037,14 @@
       </c>
       <c r="B35" s="7"/>
       <c t="s" r="C35" s="8">
-        <v>102</v>
+        <v>107</v>
       </c>
       <c r="D35" s="8"/>
       <c r="E35" s="8"/>
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>51</v>
+        <v>23</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
@@ -2009,14 +2054,14 @@
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
-        <v>103</v>
+        <v>108</v>
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
-        <v>104</v>
+        <v>98</v>
       </c>
       <c t="s" r="Q35" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="36" ht="25.5" customHeight="1">
@@ -2025,14 +2070,14 @@
       </c>
       <c r="B36" s="7"/>
       <c t="s" r="C36" s="8">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="D36" s="8"/>
       <c r="E36" s="8"/>
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
@@ -2042,14 +2087,14 @@
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>106</v>
+        <v>75</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c t="s" r="Q36" s="12">
-        <v>25</v>
+        <v>30</v>
       </c>
     </row>
     <row r="37" ht="25.5" customHeight="1">
@@ -2058,14 +2103,14 @@
       </c>
       <c r="B37" s="7"/>
       <c t="s" r="C37" s="8">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="D37" s="8"/>
       <c r="E37" s="8"/>
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>53</v>
+        <v>74</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
@@ -2075,11 +2120,11 @@
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c t="s" r="Q37" s="12">
         <v>16</v>
@@ -2091,31 +2136,31 @@
       </c>
       <c r="B38" s="7"/>
       <c t="s" r="C38" s="8">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="D38" s="8"/>
       <c r="E38" s="8"/>
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
       <c r="K38" s="9"/>
       <c t="s" r="L38" s="10">
-        <v>85</v>
+        <v>13</v>
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>111</v>
+        <v>75</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
-        <v>112</v>
+        <v>76</v>
       </c>
       <c t="s" r="Q38" s="12">
-        <v>63</v>
+        <v>30</v>
       </c>
     </row>
     <row r="39" ht="25.5" customHeight="1">
@@ -2124,31 +2169,31 @@
       </c>
       <c r="B39" s="7"/>
       <c t="s" r="C39" s="8">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="D39" s="8"/>
       <c r="E39" s="8"/>
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>22</v>
+        <v>62</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
       <c r="K39" s="9"/>
       <c t="s" r="L39" s="10">
-        <v>85</v>
+        <v>13</v>
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c t="s" r="Q39" s="12">
-        <v>51</v>
+        <v>30</v>
       </c>
     </row>
     <row r="40" ht="24.75" customHeight="1">
@@ -2157,31 +2202,31 @@
       </c>
       <c r="B40" s="7"/>
       <c t="s" r="C40" s="8">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="D40" s="8"/>
       <c r="E40" s="8"/>
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
       <c r="K40" s="9"/>
       <c t="s" r="L40" s="10">
-        <v>85</v>
+        <v>13</v>
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>111</v>
+        <v>118</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
-        <v>112</v>
+        <v>92</v>
       </c>
       <c t="s" r="Q40" s="12">
-        <v>63</v>
+        <v>30</v>
       </c>
     </row>
     <row r="41" ht="25.5" customHeight="1">
@@ -2190,31 +2235,31 @@
       </c>
       <c r="B41" s="7"/>
       <c t="s" r="C41" s="8">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="D41" s="8"/>
       <c r="E41" s="8"/>
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>22</v>
+        <v>64</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
       <c r="K41" s="9"/>
       <c t="s" r="L41" s="10">
-        <v>85</v>
+        <v>13</v>
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c t="s" r="Q41" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="42" ht="25.5" customHeight="1">
@@ -2223,31 +2268,31 @@
       </c>
       <c r="B42" s="7"/>
       <c t="s" r="C42" s="8">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="D42" s="8"/>
       <c r="E42" s="8"/>
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>121</v>
+        <v>27</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
       <c r="K42" s="9"/>
       <c t="s" r="L42" s="10">
-        <v>85</v>
+        <v>13</v>
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c t="s" r="Q42" s="12">
-        <v>25</v>
+        <v>30</v>
       </c>
     </row>
     <row r="43" ht="24.75" customHeight="1">
@@ -2256,31 +2301,31 @@
       </c>
       <c r="B43" s="7"/>
       <c t="s" r="C43" s="8">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="D43" s="8"/>
       <c r="E43" s="8"/>
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>18</v>
+        <v>27</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
       <c r="K43" s="9"/>
       <c t="s" r="L43" s="10">
-        <v>85</v>
+        <v>95</v>
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c t="s" r="Q43" s="12">
-        <v>25</v>
+        <v>74</v>
       </c>
     </row>
     <row r="44" ht="25.5" customHeight="1">
@@ -2289,20 +2334,20 @@
       </c>
       <c r="B44" s="7"/>
       <c t="s" r="C44" s="8">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="D44" s="8"/>
       <c r="E44" s="8"/>
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>128</v>
+        <v>27</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
       <c r="K44" s="9"/>
       <c t="s" r="L44" s="10">
-        <v>85</v>
+        <v>95</v>
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
@@ -2313,7 +2358,7 @@
         <v>130</v>
       </c>
       <c t="s" r="Q44" s="12">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="45" ht="24.75" customHeight="1">
@@ -2329,24 +2374,24 @@
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
       <c r="K45" s="9"/>
       <c t="s" r="L45" s="10">
-        <v>85</v>
+        <v>95</v>
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>132</v>
+        <v>126</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
-        <v>133</v>
+        <v>127</v>
       </c>
       <c t="s" r="Q45" s="12">
-        <v>25</v>
+        <v>74</v>
       </c>
     </row>
     <row r="46" ht="25.5" customHeight="1">
@@ -2355,31 +2400,31 @@
       </c>
       <c r="B46" s="7"/>
       <c t="s" r="C46" s="8">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="D46" s="8"/>
       <c r="E46" s="8"/>
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
       <c r="K46" s="9"/>
       <c t="s" r="L46" s="10">
-        <v>85</v>
+        <v>95</v>
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c t="s" r="Q46" s="12">
-        <v>25</v>
+        <v>30</v>
       </c>
     </row>
     <row r="47" ht="25.5" customHeight="1">
@@ -2388,66 +2433,231 @@
       </c>
       <c r="B47" s="7"/>
       <c t="s" r="C47" s="8">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="D47" s="8"/>
       <c r="E47" s="8"/>
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
       <c r="K47" s="9"/>
       <c t="s" r="L47" s="10">
-        <v>85</v>
+        <v>95</v>
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
+        <v>138</v>
+      </c>
+      <c t="s" r="Q47" s="12">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="48" ht="24.75" customHeight="1">
+      <c r="A48" s="7">
+        <v>42</v>
+      </c>
+      <c r="B48" s="7"/>
+      <c t="s" r="C48" s="8">
+        <v>139</v>
+      </c>
+      <c r="D48" s="8"/>
+      <c r="E48" s="8"/>
+      <c r="F48" s="8"/>
+      <c r="G48" s="8"/>
+      <c t="s" r="H48" s="9">
+        <v>23</v>
+      </c>
+      <c r="I48" s="9"/>
+      <c r="J48" s="9"/>
+      <c r="K48" s="9"/>
+      <c t="s" r="L48" s="10">
+        <v>95</v>
+      </c>
+      <c r="M48" s="10"/>
+      <c t="s" r="N48" s="8">
         <v>140</v>
       </c>
-      <c t="s" r="Q47" s="12">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="48" ht="24.75" customHeight="1">
-      <c r="P48" s="13">
-        <v>3007.5949999999998</v>
-      </c>
-      <c r="Q48" s="13"/>
-    </row>
-    <row r="49" ht="16.5" customHeight="1">
-      <c t="s" r="A49" s="14">
+      <c r="O48" s="8"/>
+      <c t="s" r="P48" s="11">
         <v>141</v>
       </c>
-      <c r="B49" s="14"/>
-      <c r="C49" s="14"/>
-      <c r="D49" s="14"/>
-      <c r="E49" s="14"/>
-      <c r="F49" s="14"/>
-      <c t="s" r="G49" s="15">
+      <c t="s" r="Q48" s="12">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="49" ht="25.5" customHeight="1">
+      <c r="A49" s="7">
+        <v>43</v>
+      </c>
+      <c r="B49" s="7"/>
+      <c t="s" r="C49" s="8">
         <v>142</v>
       </c>
-      <c r="H49" s="15"/>
-      <c r="I49" s="15"/>
-      <c r="J49" s="16"/>
-      <c t="s" r="K49" s="17">
+      <c r="D49" s="8"/>
+      <c r="E49" s="8"/>
+      <c r="F49" s="8"/>
+      <c r="G49" s="8"/>
+      <c t="s" r="H49" s="9">
         <v>143</v>
       </c>
-      <c r="L49" s="17"/>
-      <c r="M49" s="17"/>
-      <c r="N49" s="17"/>
-      <c r="O49" s="17"/>
-      <c r="P49" s="17"/>
-      <c r="Q49" s="17"/>
+      <c r="I49" s="9"/>
+      <c r="J49" s="9"/>
+      <c r="K49" s="9"/>
+      <c t="s" r="L49" s="10">
+        <v>95</v>
+      </c>
+      <c r="M49" s="10"/>
+      <c t="s" r="N49" s="8">
+        <v>144</v>
+      </c>
+      <c r="O49" s="8"/>
+      <c t="s" r="P49" s="11">
+        <v>145</v>
+      </c>
+      <c t="s" r="Q49" s="12">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="50" ht="24.75" customHeight="1">
+      <c r="A50" s="7">
+        <v>44</v>
+      </c>
+      <c r="B50" s="7"/>
+      <c t="s" r="C50" s="8">
+        <v>146</v>
+      </c>
+      <c r="D50" s="8"/>
+      <c r="E50" s="8"/>
+      <c r="F50" s="8"/>
+      <c r="G50" s="8"/>
+      <c t="s" r="H50" s="9">
+        <v>27</v>
+      </c>
+      <c r="I50" s="9"/>
+      <c r="J50" s="9"/>
+      <c r="K50" s="9"/>
+      <c t="s" r="L50" s="10">
+        <v>95</v>
+      </c>
+      <c r="M50" s="10"/>
+      <c t="s" r="N50" s="8">
+        <v>147</v>
+      </c>
+      <c r="O50" s="8"/>
+      <c t="s" r="P50" s="11">
+        <v>148</v>
+      </c>
+      <c t="s" r="Q50" s="12">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="51" ht="25.5" customHeight="1">
+      <c r="A51" s="7">
+        <v>45</v>
+      </c>
+      <c r="B51" s="7"/>
+      <c t="s" r="C51" s="8">
+        <v>149</v>
+      </c>
+      <c r="D51" s="8"/>
+      <c r="E51" s="8"/>
+      <c r="F51" s="8"/>
+      <c r="G51" s="8"/>
+      <c t="s" r="H51" s="9">
+        <v>30</v>
+      </c>
+      <c r="I51" s="9"/>
+      <c r="J51" s="9"/>
+      <c r="K51" s="9"/>
+      <c t="s" r="L51" s="10">
+        <v>95</v>
+      </c>
+      <c r="M51" s="10"/>
+      <c t="s" r="N51" s="8">
+        <v>150</v>
+      </c>
+      <c r="O51" s="8"/>
+      <c t="s" r="P51" s="11">
+        <v>151</v>
+      </c>
+      <c t="s" r="Q51" s="12">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="52" ht="25.5" customHeight="1">
+      <c r="A52" s="7">
+        <v>46</v>
+      </c>
+      <c r="B52" s="7"/>
+      <c t="s" r="C52" s="8">
+        <v>152</v>
+      </c>
+      <c r="D52" s="8"/>
+      <c r="E52" s="8"/>
+      <c r="F52" s="8"/>
+      <c r="G52" s="8"/>
+      <c t="s" r="H52" s="9">
+        <v>153</v>
+      </c>
+      <c r="I52" s="9"/>
+      <c r="J52" s="9"/>
+      <c r="K52" s="9"/>
+      <c t="s" r="L52" s="10">
+        <v>95</v>
+      </c>
+      <c r="M52" s="10"/>
+      <c t="s" r="N52" s="8">
+        <v>154</v>
+      </c>
+      <c r="O52" s="8"/>
+      <c t="s" r="P52" s="11">
+        <v>155</v>
+      </c>
+      <c t="s" r="Q52" s="12">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="53" ht="24.75" customHeight="1">
+      <c r="P53" s="13">
+        <v>3366.6149999999998</v>
+      </c>
+      <c r="Q53" s="13"/>
+    </row>
+    <row r="54" ht="16.5" customHeight="1">
+      <c t="s" r="A54" s="14">
+        <v>156</v>
+      </c>
+      <c r="B54" s="14"/>
+      <c r="C54" s="14"/>
+      <c r="D54" s="14"/>
+      <c r="E54" s="14"/>
+      <c r="F54" s="14"/>
+      <c t="s" r="G54" s="15">
+        <v>157</v>
+      </c>
+      <c r="H54" s="15"/>
+      <c r="I54" s="15"/>
+      <c r="J54" s="16"/>
+      <c t="s" r="K54" s="17">
+        <v>158</v>
+      </c>
+      <c r="L54" s="17"/>
+      <c r="M54" s="17"/>
+      <c r="N54" s="17"/>
+      <c r="O54" s="17"/>
+      <c r="P54" s="17"/>
+      <c r="Q54" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="217">
+  <mergeCells count="242">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -2661,10 +2871,35 @@
     <mergeCell ref="H47:K47"/>
     <mergeCell ref="L47:M47"/>
     <mergeCell ref="N47:O47"/>
-    <mergeCell ref="P48:Q48"/>
-    <mergeCell ref="A49:F49"/>
-    <mergeCell ref="G49:I49"/>
-    <mergeCell ref="K49:Q49"/>
+    <mergeCell ref="A48:B48"/>
+    <mergeCell ref="C48:G48"/>
+    <mergeCell ref="H48:K48"/>
+    <mergeCell ref="L48:M48"/>
+    <mergeCell ref="N48:O48"/>
+    <mergeCell ref="A49:B49"/>
+    <mergeCell ref="C49:G49"/>
+    <mergeCell ref="H49:K49"/>
+    <mergeCell ref="L49:M49"/>
+    <mergeCell ref="N49:O49"/>
+    <mergeCell ref="A50:B50"/>
+    <mergeCell ref="C50:G50"/>
+    <mergeCell ref="H50:K50"/>
+    <mergeCell ref="L50:M50"/>
+    <mergeCell ref="N50:O50"/>
+    <mergeCell ref="A51:B51"/>
+    <mergeCell ref="C51:G51"/>
+    <mergeCell ref="H51:K51"/>
+    <mergeCell ref="L51:M51"/>
+    <mergeCell ref="N51:O51"/>
+    <mergeCell ref="A52:B52"/>
+    <mergeCell ref="C52:G52"/>
+    <mergeCell ref="H52:K52"/>
+    <mergeCell ref="L52:M52"/>
+    <mergeCell ref="N52:O52"/>
+    <mergeCell ref="P53:Q53"/>
+    <mergeCell ref="A54:F54"/>
+    <mergeCell ref="G54:I54"/>
+    <mergeCell ref="K54:Q54"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-08-08_00-00.xlsx
+++ b/DaySale_2025-08-08_00-00.xlsx
@@ -479,7 +479,7 @@
     <t>24.0000</t>
   </si>
   <si>
-    <t>Friday, 8 August, 2025 6:48 PM</t>
+    <t>Friday, 8 August, 2025 6:49 PM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-08-08_00-00.xlsx
+++ b/DaySale_2025-08-08_00-00.xlsx
@@ -317,6 +317,15 @@
     <t>51.0000</t>
   </si>
   <si>
+    <t>PROSTRIDE 5MG 30 CAPS.</t>
+  </si>
+  <si>
+    <t>183.00</t>
+  </si>
+  <si>
+    <t>60.3900</t>
+  </si>
+  <si>
     <t>SPASMO-DIGESTIN 30 TABS.</t>
   </si>
   <si>
@@ -338,6 +347,9 @@
     <t>124.00</t>
   </si>
   <si>
+    <t>124.0000</t>
+  </si>
+  <si>
     <t>URAID-N EFF. GRANUL. 12 SACHETS</t>
   </si>
   <si>
@@ -347,7 +359,7 @@
     <t>42.00</t>
   </si>
   <si>
-    <t>21.0000</t>
+    <t>42.0000</t>
   </si>
   <si>
     <t>UROSOLVINE EFF. GRAN. 12 SACHETS</t>
@@ -479,7 +491,7 @@
     <t>24.0000</t>
   </si>
   <si>
-    <t>Friday, 8 August, 2025 6:49 PM</t>
+    <t>Friday, 8 August, 2025 6:50 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1978,7 +1990,7 @@
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>103</v>
+        <v>30</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
@@ -1988,14 +2000,14 @@
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
-        <v>14</v>
+        <v>103</v>
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
         <v>104</v>
       </c>
       <c t="s" r="Q33" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="34" ht="25.5" customHeight="1">
@@ -2011,7 +2023,7 @@
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>18</v>
+        <v>106</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
@@ -2021,14 +2033,14 @@
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
-        <v>106</v>
+        <v>14</v>
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
-        <v>36</v>
+        <v>107</v>
       </c>
       <c t="s" r="Q34" s="12">
-        <v>30</v>
+        <v>21</v>
       </c>
     </row>
     <row r="35" ht="24.75" customHeight="1">
@@ -2037,14 +2049,14 @@
       </c>
       <c r="B35" s="7"/>
       <c t="s" r="C35" s="8">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="D35" s="8"/>
       <c r="E35" s="8"/>
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
@@ -2054,14 +2066,14 @@
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
-        <v>98</v>
+        <v>36</v>
       </c>
       <c t="s" r="Q35" s="12">
-        <v>16</v>
+        <v>30</v>
       </c>
     </row>
     <row r="36" ht="25.5" customHeight="1">
@@ -2070,14 +2082,14 @@
       </c>
       <c r="B36" s="7"/>
       <c t="s" r="C36" s="8">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="D36" s="8"/>
       <c r="E36" s="8"/>
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>23</v>
+        <v>94</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
@@ -2087,11 +2099,11 @@
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>75</v>
+        <v>111</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
-        <v>76</v>
+        <v>112</v>
       </c>
       <c t="s" r="Q36" s="12">
         <v>30</v>
@@ -2103,14 +2115,14 @@
       </c>
       <c r="B37" s="7"/>
       <c t="s" r="C37" s="8">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="D37" s="8"/>
       <c r="E37" s="8"/>
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>74</v>
+        <v>23</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
@@ -2120,14 +2132,14 @@
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>111</v>
+        <v>75</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
-        <v>112</v>
+        <v>76</v>
       </c>
       <c t="s" r="Q37" s="12">
-        <v>16</v>
+        <v>30</v>
       </c>
     </row>
     <row r="38" ht="24.75" customHeight="1">
@@ -2136,14 +2148,14 @@
       </c>
       <c r="B38" s="7"/>
       <c t="s" r="C38" s="8">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="D38" s="8"/>
       <c r="E38" s="8"/>
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
@@ -2153,11 +2165,11 @@
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>75</v>
+        <v>115</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
-        <v>76</v>
+        <v>116</v>
       </c>
       <c t="s" r="Q38" s="12">
         <v>30</v>
@@ -2169,14 +2181,14 @@
       </c>
       <c r="B39" s="7"/>
       <c t="s" r="C39" s="8">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="D39" s="8"/>
       <c r="E39" s="8"/>
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>62</v>
+        <v>27</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
@@ -2186,11 +2198,11 @@
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>115</v>
+        <v>75</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
-        <v>116</v>
+        <v>76</v>
       </c>
       <c t="s" r="Q39" s="12">
         <v>30</v>
@@ -2202,14 +2214,14 @@
       </c>
       <c r="B40" s="7"/>
       <c t="s" r="C40" s="8">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="D40" s="8"/>
       <c r="E40" s="8"/>
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>27</v>
+        <v>62</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
@@ -2219,11 +2231,11 @@
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
-        <v>92</v>
+        <v>120</v>
       </c>
       <c t="s" r="Q40" s="12">
         <v>30</v>
@@ -2235,14 +2247,14 @@
       </c>
       <c r="B41" s="7"/>
       <c t="s" r="C41" s="8">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="D41" s="8"/>
       <c r="E41" s="8"/>
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>64</v>
+        <v>27</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
@@ -2252,14 +2264,14 @@
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
-        <v>121</v>
+        <v>92</v>
       </c>
       <c t="s" r="Q41" s="12">
-        <v>16</v>
+        <v>30</v>
       </c>
     </row>
     <row r="42" ht="25.5" customHeight="1">
@@ -2268,14 +2280,14 @@
       </c>
       <c r="B42" s="7"/>
       <c t="s" r="C42" s="8">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="D42" s="8"/>
       <c r="E42" s="8"/>
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>27</v>
+        <v>64</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
@@ -2285,14 +2297,14 @@
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c t="s" r="Q42" s="12">
-        <v>30</v>
+        <v>16</v>
       </c>
     </row>
     <row r="43" ht="24.75" customHeight="1">
@@ -2301,7 +2313,7 @@
       </c>
       <c r="B43" s="7"/>
       <c t="s" r="C43" s="8">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="D43" s="8"/>
       <c r="E43" s="8"/>
@@ -2314,18 +2326,18 @@
       <c r="J43" s="9"/>
       <c r="K43" s="9"/>
       <c t="s" r="L43" s="10">
-        <v>95</v>
+        <v>13</v>
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c t="s" r="Q43" s="12">
-        <v>74</v>
+        <v>30</v>
       </c>
     </row>
     <row r="44" ht="25.5" customHeight="1">
@@ -2334,7 +2346,7 @@
       </c>
       <c r="B44" s="7"/>
       <c t="s" r="C44" s="8">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="D44" s="8"/>
       <c r="E44" s="8"/>
@@ -2351,14 +2363,14 @@
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c t="s" r="Q44" s="12">
-        <v>62</v>
+        <v>74</v>
       </c>
     </row>
     <row r="45" ht="24.75" customHeight="1">
@@ -2367,7 +2379,7 @@
       </c>
       <c r="B45" s="7"/>
       <c t="s" r="C45" s="8">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="D45" s="8"/>
       <c r="E45" s="8"/>
@@ -2384,14 +2396,14 @@
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>126</v>
+        <v>133</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
-        <v>127</v>
+        <v>134</v>
       </c>
       <c t="s" r="Q45" s="12">
-        <v>74</v>
+        <v>62</v>
       </c>
     </row>
     <row r="46" ht="25.5" customHeight="1">
@@ -2400,7 +2412,7 @@
       </c>
       <c r="B46" s="7"/>
       <c t="s" r="C46" s="8">
-        <v>132</v>
+        <v>135</v>
       </c>
       <c r="D46" s="8"/>
       <c r="E46" s="8"/>
@@ -2417,14 +2429,14 @@
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c t="s" r="Q46" s="12">
-        <v>30</v>
+        <v>74</v>
       </c>
     </row>
     <row r="47" ht="25.5" customHeight="1">
@@ -2433,14 +2445,14 @@
       </c>
       <c r="B47" s="7"/>
       <c t="s" r="C47" s="8">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="D47" s="8"/>
       <c r="E47" s="8"/>
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>136</v>
+        <v>27</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
@@ -2473,7 +2485,7 @@
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>23</v>
+        <v>140</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
@@ -2483,11 +2495,11 @@
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c t="s" r="Q48" s="12">
         <v>30</v>
@@ -2499,14 +2511,14 @@
       </c>
       <c r="B49" s="7"/>
       <c t="s" r="C49" s="8">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="D49" s="8"/>
       <c r="E49" s="8"/>
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>143</v>
+        <v>23</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
@@ -2523,7 +2535,7 @@
         <v>145</v>
       </c>
       <c t="s" r="Q49" s="12">
-        <v>74</v>
+        <v>30</v>
       </c>
     </row>
     <row r="50" ht="24.75" customHeight="1">
@@ -2539,7 +2551,7 @@
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>27</v>
+        <v>147</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
@@ -2549,14 +2561,14 @@
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c t="s" r="Q50" s="12">
-        <v>30</v>
+        <v>74</v>
       </c>
     </row>
     <row r="51" ht="25.5" customHeight="1">
@@ -2565,14 +2577,14 @@
       </c>
       <c r="B51" s="7"/>
       <c t="s" r="C51" s="8">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="D51" s="8"/>
       <c r="E51" s="8"/>
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
@@ -2582,11 +2594,11 @@
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c t="s" r="Q51" s="12">
         <v>30</v>
@@ -2598,14 +2610,14 @@
       </c>
       <c r="B52" s="7"/>
       <c t="s" r="C52" s="8">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="D52" s="8"/>
       <c r="E52" s="8"/>
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>153</v>
+        <v>30</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
@@ -2626,38 +2638,71 @@
       </c>
     </row>
     <row r="53" ht="24.75" customHeight="1">
-      <c r="P53" s="13">
-        <v>3366.6149999999998</v>
-      </c>
-      <c r="Q53" s="13"/>
-    </row>
-    <row r="54" ht="16.5" customHeight="1">
-      <c t="s" r="A54" s="14">
+      <c r="A53" s="7">
+        <v>47</v>
+      </c>
+      <c r="B53" s="7"/>
+      <c t="s" r="C53" s="8">
         <v>156</v>
       </c>
-      <c r="B54" s="14"/>
-      <c r="C54" s="14"/>
-      <c r="D54" s="14"/>
-      <c r="E54" s="14"/>
-      <c r="F54" s="14"/>
-      <c t="s" r="G54" s="15">
+      <c r="D53" s="8"/>
+      <c r="E53" s="8"/>
+      <c r="F53" s="8"/>
+      <c r="G53" s="8"/>
+      <c t="s" r="H53" s="9">
         <v>157</v>
       </c>
-      <c r="H54" s="15"/>
-      <c r="I54" s="15"/>
-      <c r="J54" s="16"/>
-      <c t="s" r="K54" s="17">
+      <c r="I53" s="9"/>
+      <c r="J53" s="9"/>
+      <c r="K53" s="9"/>
+      <c t="s" r="L53" s="10">
+        <v>95</v>
+      </c>
+      <c r="M53" s="10"/>
+      <c t="s" r="N53" s="8">
         <v>158</v>
       </c>
-      <c r="L54" s="17"/>
-      <c r="M54" s="17"/>
-      <c r="N54" s="17"/>
-      <c r="O54" s="17"/>
-      <c r="P54" s="17"/>
-      <c r="Q54" s="17"/>
+      <c r="O53" s="8"/>
+      <c t="s" r="P53" s="11">
+        <v>159</v>
+      </c>
+      <c t="s" r="Q53" s="12">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="54" ht="25.5" customHeight="1">
+      <c r="P54" s="13">
+        <v>3510.0050000000001</v>
+      </c>
+      <c r="Q54" s="13"/>
+    </row>
+    <row r="55" ht="16.5" customHeight="1">
+      <c t="s" r="A55" s="14">
+        <v>160</v>
+      </c>
+      <c r="B55" s="14"/>
+      <c r="C55" s="14"/>
+      <c r="D55" s="14"/>
+      <c r="E55" s="14"/>
+      <c r="F55" s="14"/>
+      <c t="s" r="G55" s="15">
+        <v>161</v>
+      </c>
+      <c r="H55" s="15"/>
+      <c r="I55" s="15"/>
+      <c r="J55" s="16"/>
+      <c t="s" r="K55" s="17">
+        <v>162</v>
+      </c>
+      <c r="L55" s="17"/>
+      <c r="M55" s="17"/>
+      <c r="N55" s="17"/>
+      <c r="O55" s="17"/>
+      <c r="P55" s="17"/>
+      <c r="Q55" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="242">
+  <mergeCells count="247">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -2896,10 +2941,15 @@
     <mergeCell ref="H52:K52"/>
     <mergeCell ref="L52:M52"/>
     <mergeCell ref="N52:O52"/>
-    <mergeCell ref="P53:Q53"/>
-    <mergeCell ref="A54:F54"/>
-    <mergeCell ref="G54:I54"/>
-    <mergeCell ref="K54:Q54"/>
+    <mergeCell ref="A53:B53"/>
+    <mergeCell ref="C53:G53"/>
+    <mergeCell ref="H53:K53"/>
+    <mergeCell ref="L53:M53"/>
+    <mergeCell ref="N53:O53"/>
+    <mergeCell ref="P54:Q54"/>
+    <mergeCell ref="A55:F55"/>
+    <mergeCell ref="G55:I55"/>
+    <mergeCell ref="K55:Q55"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-08-08_00-00.xlsx
+++ b/DaySale_2025-08-08_00-00.xlsx
@@ -491,7 +491,7 @@
     <t>24.0000</t>
   </si>
   <si>
-    <t>Friday, 8 August, 2025 6:50 PM</t>
+    <t>Friday, 8 August, 2025 6:52 PM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-08-08_00-00.xlsx
+++ b/DaySale_2025-08-08_00-00.xlsx
@@ -179,6 +179,15 @@
     <t>22.0000</t>
   </si>
   <si>
+    <t>DOGMATIL 50MG 30 CAPS.</t>
+  </si>
+  <si>
+    <t>63.00</t>
+  </si>
+  <si>
+    <t>20.7900</t>
+  </si>
+  <si>
     <t>DOLPHIN 3% TOPICAL GEL 30 GM</t>
   </si>
   <si>
@@ -281,6 +290,12 @@
     <t>55.0000</t>
   </si>
   <si>
+    <t>LIBRAX 30 SUGAR COATED TAB</t>
+  </si>
+  <si>
+    <t>15.8400</t>
+  </si>
+  <si>
     <t>PANADOL ADVANCE 500 MG 48 TABLETS</t>
   </si>
   <si>
@@ -491,7 +506,7 @@
     <t>24.0000</t>
   </si>
   <si>
-    <t>Friday, 8 August, 2025 6:52 PM</t>
+    <t>Friday, 8 August, 2025 7:02 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1528,7 +1543,7 @@
       <c r="F19" s="8"/>
       <c r="G19" s="8"/>
       <c t="s" r="H19" s="9">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="I19" s="9"/>
       <c r="J19" s="9"/>
@@ -1545,7 +1560,7 @@
         <v>58</v>
       </c>
       <c t="s" r="Q19" s="12">
-        <v>30</v>
+        <v>16</v>
       </c>
     </row>
     <row r="20" ht="24.75" customHeight="1">
@@ -1561,7 +1576,7 @@
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
       <c t="s" r="H20" s="9">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="I20" s="9"/>
       <c r="J20" s="9"/>
@@ -1578,7 +1593,7 @@
         <v>61</v>
       </c>
       <c t="s" r="Q20" s="12">
-        <v>62</v>
+        <v>30</v>
       </c>
     </row>
     <row r="21" ht="25.5" customHeight="1">
@@ -1587,14 +1602,14 @@
       </c>
       <c r="B21" s="7"/>
       <c t="s" r="C21" s="8">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D21" s="8"/>
       <c r="E21" s="8"/>
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
       <c t="s" r="H21" s="9">
-        <v>64</v>
+        <v>23</v>
       </c>
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
@@ -1604,14 +1619,14 @@
       </c>
       <c r="M21" s="10"/>
       <c t="s" r="N21" s="8">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="O21" s="8"/>
       <c t="s" r="P21" s="11">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c t="s" r="Q21" s="12">
-        <v>21</v>
+        <v>65</v>
       </c>
     </row>
     <row r="22" ht="25.5" customHeight="1">
@@ -1620,14 +1635,14 @@
       </c>
       <c r="B22" s="7"/>
       <c t="s" r="C22" s="8">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D22" s="8"/>
       <c r="E22" s="8"/>
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c t="s" r="H22" s="9">
-        <v>30</v>
+        <v>67</v>
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
@@ -1644,7 +1659,7 @@
         <v>69</v>
       </c>
       <c t="s" r="Q22" s="12">
-        <v>30</v>
+        <v>21</v>
       </c>
     </row>
     <row r="23" ht="24.75" customHeight="1">
@@ -1693,7 +1708,7 @@
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>74</v>
+        <v>30</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
@@ -1703,11 +1718,11 @@
       </c>
       <c r="M24" s="10"/>
       <c t="s" r="N24" s="8">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="O24" s="8"/>
       <c t="s" r="P24" s="11">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c t="s" r="Q24" s="12">
         <v>30</v>
@@ -1719,14 +1734,14 @@
       </c>
       <c r="B25" s="7"/>
       <c t="s" r="C25" s="8">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D25" s="8"/>
       <c r="E25" s="8"/>
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>32</v>
+        <v>77</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
@@ -1743,7 +1758,7 @@
         <v>79</v>
       </c>
       <c t="s" r="Q25" s="12">
-        <v>16</v>
+        <v>30</v>
       </c>
     </row>
     <row r="26" ht="25.5" customHeight="1">
@@ -1759,7 +1774,7 @@
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
@@ -1776,7 +1791,7 @@
         <v>82</v>
       </c>
       <c t="s" r="Q26" s="12">
-        <v>30</v>
+        <v>16</v>
       </c>
     </row>
     <row r="27" ht="25.5" customHeight="1">
@@ -1792,7 +1807,7 @@
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>84</v>
+        <v>27</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
@@ -1802,14 +1817,14 @@
       </c>
       <c r="M27" s="10"/>
       <c t="s" r="N27" s="8">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="O27" s="8"/>
       <c t="s" r="P27" s="11">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c t="s" r="Q27" s="12">
-        <v>62</v>
+        <v>30</v>
       </c>
     </row>
     <row r="28" ht="24.75" customHeight="1">
@@ -1818,14 +1833,14 @@
       </c>
       <c r="B28" s="7"/>
       <c t="s" r="C28" s="8">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="D28" s="8"/>
       <c r="E28" s="8"/>
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>32</v>
+        <v>87</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
@@ -1842,7 +1857,7 @@
         <v>89</v>
       </c>
       <c t="s" r="Q28" s="12">
-        <v>16</v>
+        <v>65</v>
       </c>
     </row>
     <row r="29" ht="25.5" customHeight="1">
@@ -1858,7 +1873,7 @@
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
@@ -1891,21 +1906,21 @@
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>94</v>
+        <v>65</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
       <c r="K30" s="9"/>
       <c t="s" r="L30" s="10">
-        <v>95</v>
+        <v>13</v>
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
-        <v>85</v>
+        <v>28</v>
       </c>
       <c r="O30" s="8"/>
       <c t="s" r="P30" s="11">
-        <v>25</v>
+        <v>94</v>
       </c>
       <c t="s" r="Q30" s="12">
         <v>16</v>
@@ -1917,14 +1932,14 @@
       </c>
       <c r="B31" s="7"/>
       <c t="s" r="C31" s="8">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D31" s="8"/>
       <c r="E31" s="8"/>
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
@@ -1934,14 +1949,14 @@
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c t="s" r="Q31" s="12">
-        <v>30</v>
+        <v>16</v>
       </c>
     </row>
     <row r="32" ht="25.5" customHeight="1">
@@ -1950,28 +1965,28 @@
       </c>
       <c r="B32" s="7"/>
       <c t="s" r="C32" s="8">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="D32" s="8"/>
       <c r="E32" s="8"/>
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>30</v>
+        <v>99</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
       <c r="K32" s="9"/>
       <c t="s" r="L32" s="10">
-        <v>13</v>
+        <v>100</v>
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
-        <v>100</v>
+        <v>88</v>
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
-        <v>101</v>
+        <v>25</v>
       </c>
       <c t="s" r="Q32" s="12">
         <v>16</v>
@@ -1983,14 +1998,14 @@
       </c>
       <c r="B33" s="7"/>
       <c t="s" r="C33" s="8">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D33" s="8"/>
       <c r="E33" s="8"/>
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
@@ -2000,14 +2015,14 @@
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c t="s" r="Q33" s="12">
-        <v>16</v>
+        <v>30</v>
       </c>
     </row>
     <row r="34" ht="25.5" customHeight="1">
@@ -2016,14 +2031,14 @@
       </c>
       <c r="B34" s="7"/>
       <c t="s" r="C34" s="8">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D34" s="8"/>
       <c r="E34" s="8"/>
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>106</v>
+        <v>30</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
@@ -2033,14 +2048,14 @@
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
-        <v>14</v>
+        <v>105</v>
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c t="s" r="Q34" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="35" ht="24.75" customHeight="1">
@@ -2049,14 +2064,14 @@
       </c>
       <c r="B35" s="7"/>
       <c t="s" r="C35" s="8">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="D35" s="8"/>
       <c r="E35" s="8"/>
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
@@ -2066,14 +2081,14 @@
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
-        <v>36</v>
+        <v>109</v>
       </c>
       <c t="s" r="Q35" s="12">
-        <v>30</v>
+        <v>16</v>
       </c>
     </row>
     <row r="36" ht="25.5" customHeight="1">
@@ -2089,7 +2104,7 @@
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>94</v>
+        <v>111</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
@@ -2099,14 +2114,14 @@
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>111</v>
+        <v>14</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
         <v>112</v>
       </c>
       <c t="s" r="Q36" s="12">
-        <v>30</v>
+        <v>21</v>
       </c>
     </row>
     <row r="37" ht="25.5" customHeight="1">
@@ -2122,7 +2137,7 @@
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
@@ -2132,11 +2147,11 @@
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>75</v>
+        <v>114</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
-        <v>76</v>
+        <v>36</v>
       </c>
       <c t="s" r="Q37" s="12">
         <v>30</v>
@@ -2148,14 +2163,14 @@
       </c>
       <c r="B38" s="7"/>
       <c t="s" r="C38" s="8">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="D38" s="8"/>
       <c r="E38" s="8"/>
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>32</v>
+        <v>99</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
@@ -2165,11 +2180,11 @@
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c t="s" r="Q38" s="12">
         <v>30</v>
@@ -2181,14 +2196,14 @@
       </c>
       <c r="B39" s="7"/>
       <c t="s" r="C39" s="8">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="D39" s="8"/>
       <c r="E39" s="8"/>
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
@@ -2198,11 +2213,11 @@
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c t="s" r="Q39" s="12">
         <v>30</v>
@@ -2214,14 +2229,14 @@
       </c>
       <c r="B40" s="7"/>
       <c t="s" r="C40" s="8">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="D40" s="8"/>
       <c r="E40" s="8"/>
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>62</v>
+        <v>32</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
@@ -2231,11 +2246,11 @@
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c t="s" r="Q40" s="12">
         <v>30</v>
@@ -2247,7 +2262,7 @@
       </c>
       <c r="B41" s="7"/>
       <c t="s" r="C41" s="8">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="D41" s="8"/>
       <c r="E41" s="8"/>
@@ -2264,11 +2279,11 @@
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>122</v>
+        <v>78</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
-        <v>92</v>
+        <v>79</v>
       </c>
       <c t="s" r="Q41" s="12">
         <v>30</v>
@@ -2287,7 +2302,7 @@
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
@@ -2304,7 +2319,7 @@
         <v>125</v>
       </c>
       <c t="s" r="Q42" s="12">
-        <v>16</v>
+        <v>30</v>
       </c>
     </row>
     <row r="43" ht="24.75" customHeight="1">
@@ -2334,7 +2349,7 @@
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
-        <v>128</v>
+        <v>97</v>
       </c>
       <c t="s" r="Q43" s="12">
         <v>30</v>
@@ -2346,31 +2361,31 @@
       </c>
       <c r="B44" s="7"/>
       <c t="s" r="C44" s="8">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="D44" s="8"/>
       <c r="E44" s="8"/>
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>27</v>
+        <v>67</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
       <c r="K44" s="9"/>
       <c t="s" r="L44" s="10">
-        <v>95</v>
+        <v>13</v>
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c t="s" r="Q44" s="12">
-        <v>74</v>
+        <v>16</v>
       </c>
     </row>
     <row r="45" ht="24.75" customHeight="1">
@@ -2379,7 +2394,7 @@
       </c>
       <c r="B45" s="7"/>
       <c t="s" r="C45" s="8">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="D45" s="8"/>
       <c r="E45" s="8"/>
@@ -2392,18 +2407,18 @@
       <c r="J45" s="9"/>
       <c r="K45" s="9"/>
       <c t="s" r="L45" s="10">
-        <v>95</v>
+        <v>13</v>
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c t="s" r="Q45" s="12">
-        <v>62</v>
+        <v>30</v>
       </c>
     </row>
     <row r="46" ht="25.5" customHeight="1">
@@ -2412,7 +2427,7 @@
       </c>
       <c r="B46" s="7"/>
       <c t="s" r="C46" s="8">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="D46" s="8"/>
       <c r="E46" s="8"/>
@@ -2425,18 +2440,18 @@
       <c r="J46" s="9"/>
       <c r="K46" s="9"/>
       <c t="s" r="L46" s="10">
-        <v>95</v>
+        <v>100</v>
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>130</v>
+        <v>135</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
-        <v>131</v>
+        <v>136</v>
       </c>
       <c t="s" r="Q46" s="12">
-        <v>74</v>
+        <v>77</v>
       </c>
     </row>
     <row r="47" ht="25.5" customHeight="1">
@@ -2445,7 +2460,7 @@
       </c>
       <c r="B47" s="7"/>
       <c t="s" r="C47" s="8">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="D47" s="8"/>
       <c r="E47" s="8"/>
@@ -2458,18 +2473,18 @@
       <c r="J47" s="9"/>
       <c r="K47" s="9"/>
       <c t="s" r="L47" s="10">
-        <v>95</v>
+        <v>100</v>
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c t="s" r="Q47" s="12">
-        <v>30</v>
+        <v>65</v>
       </c>
     </row>
     <row r="48" ht="24.75" customHeight="1">
@@ -2478,31 +2493,31 @@
       </c>
       <c r="B48" s="7"/>
       <c t="s" r="C48" s="8">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="D48" s="8"/>
       <c r="E48" s="8"/>
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>140</v>
+        <v>27</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
       <c r="K48" s="9"/>
       <c t="s" r="L48" s="10">
-        <v>95</v>
+        <v>100</v>
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>141</v>
+        <v>135</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
-        <v>142</v>
+        <v>136</v>
       </c>
       <c t="s" r="Q48" s="12">
-        <v>30</v>
+        <v>77</v>
       </c>
     </row>
     <row r="49" ht="25.5" customHeight="1">
@@ -2511,28 +2526,28 @@
       </c>
       <c r="B49" s="7"/>
       <c t="s" r="C49" s="8">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="D49" s="8"/>
       <c r="E49" s="8"/>
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
       <c r="K49" s="9"/>
       <c t="s" r="L49" s="10">
-        <v>95</v>
+        <v>100</v>
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c t="s" r="Q49" s="12">
         <v>30</v>
@@ -2544,31 +2559,31 @@
       </c>
       <c r="B50" s="7"/>
       <c t="s" r="C50" s="8">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="D50" s="8"/>
       <c r="E50" s="8"/>
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
       <c r="K50" s="9"/>
       <c t="s" r="L50" s="10">
-        <v>95</v>
+        <v>100</v>
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c t="s" r="Q50" s="12">
-        <v>74</v>
+        <v>30</v>
       </c>
     </row>
     <row r="51" ht="25.5" customHeight="1">
@@ -2577,28 +2592,28 @@
       </c>
       <c r="B51" s="7"/>
       <c t="s" r="C51" s="8">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="D51" s="8"/>
       <c r="E51" s="8"/>
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
       <c r="K51" s="9"/>
       <c t="s" r="L51" s="10">
-        <v>95</v>
+        <v>100</v>
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c t="s" r="Q51" s="12">
         <v>30</v>
@@ -2610,31 +2625,31 @@
       </c>
       <c r="B52" s="7"/>
       <c t="s" r="C52" s="8">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="D52" s="8"/>
       <c r="E52" s="8"/>
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>30</v>
+        <v>152</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
       <c r="K52" s="9"/>
       <c t="s" r="L52" s="10">
-        <v>95</v>
+        <v>100</v>
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c t="s" r="Q52" s="12">
-        <v>30</v>
+        <v>77</v>
       </c>
     </row>
     <row r="53" ht="24.75" customHeight="1">
@@ -2643,66 +2658,132 @@
       </c>
       <c r="B53" s="7"/>
       <c t="s" r="C53" s="8">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="D53" s="8"/>
       <c r="E53" s="8"/>
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>157</v>
+        <v>27</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
       <c r="K53" s="9"/>
       <c t="s" r="L53" s="10">
-        <v>95</v>
+        <v>100</v>
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
+        <v>157</v>
+      </c>
+      <c t="s" r="Q53" s="12">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="54" ht="25.5" customHeight="1">
+      <c r="A54" s="7">
+        <v>48</v>
+      </c>
+      <c r="B54" s="7"/>
+      <c t="s" r="C54" s="8">
+        <v>158</v>
+      </c>
+      <c r="D54" s="8"/>
+      <c r="E54" s="8"/>
+      <c r="F54" s="8"/>
+      <c r="G54" s="8"/>
+      <c t="s" r="H54" s="9">
+        <v>30</v>
+      </c>
+      <c r="I54" s="9"/>
+      <c r="J54" s="9"/>
+      <c r="K54" s="9"/>
+      <c t="s" r="L54" s="10">
+        <v>100</v>
+      </c>
+      <c r="M54" s="10"/>
+      <c t="s" r="N54" s="8">
         <v>159</v>
       </c>
-      <c t="s" r="Q53" s="12">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="54" ht="25.5" customHeight="1">
-      <c r="P54" s="13">
-        <v>3510.0050000000001</v>
-      </c>
-      <c r="Q54" s="13"/>
-    </row>
-    <row r="55" ht="16.5" customHeight="1">
-      <c t="s" r="A55" s="14">
+      <c r="O54" s="8"/>
+      <c t="s" r="P54" s="11">
         <v>160</v>
       </c>
-      <c r="B55" s="14"/>
-      <c r="C55" s="14"/>
-      <c r="D55" s="14"/>
-      <c r="E55" s="14"/>
-      <c r="F55" s="14"/>
-      <c t="s" r="G55" s="15">
+      <c t="s" r="Q54" s="12">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="55" ht="24.75" customHeight="1">
+      <c r="A55" s="7">
+        <v>49</v>
+      </c>
+      <c r="B55" s="7"/>
+      <c t="s" r="C55" s="8">
         <v>161</v>
       </c>
-      <c r="H55" s="15"/>
-      <c r="I55" s="15"/>
-      <c r="J55" s="16"/>
-      <c t="s" r="K55" s="17">
+      <c r="D55" s="8"/>
+      <c r="E55" s="8"/>
+      <c r="F55" s="8"/>
+      <c r="G55" s="8"/>
+      <c t="s" r="H55" s="9">
         <v>162</v>
       </c>
-      <c r="L55" s="17"/>
-      <c r="M55" s="17"/>
-      <c r="N55" s="17"/>
-      <c r="O55" s="17"/>
-      <c r="P55" s="17"/>
-      <c r="Q55" s="17"/>
+      <c r="I55" s="9"/>
+      <c r="J55" s="9"/>
+      <c r="K55" s="9"/>
+      <c t="s" r="L55" s="10">
+        <v>100</v>
+      </c>
+      <c r="M55" s="10"/>
+      <c t="s" r="N55" s="8">
+        <v>163</v>
+      </c>
+      <c r="O55" s="8"/>
+      <c t="s" r="P55" s="11">
+        <v>164</v>
+      </c>
+      <c t="s" r="Q55" s="12">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="56" ht="25.5" customHeight="1">
+      <c r="P56" s="13">
+        <v>3546.6350000000002</v>
+      </c>
+      <c r="Q56" s="13"/>
+    </row>
+    <row r="57" ht="16.5" customHeight="1">
+      <c t="s" r="A57" s="14">
+        <v>165</v>
+      </c>
+      <c r="B57" s="14"/>
+      <c r="C57" s="14"/>
+      <c r="D57" s="14"/>
+      <c r="E57" s="14"/>
+      <c r="F57" s="14"/>
+      <c t="s" r="G57" s="15">
+        <v>166</v>
+      </c>
+      <c r="H57" s="15"/>
+      <c r="I57" s="15"/>
+      <c r="J57" s="16"/>
+      <c t="s" r="K57" s="17">
+        <v>167</v>
+      </c>
+      <c r="L57" s="17"/>
+      <c r="M57" s="17"/>
+      <c r="N57" s="17"/>
+      <c r="O57" s="17"/>
+      <c r="P57" s="17"/>
+      <c r="Q57" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="247">
+  <mergeCells count="257">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -2946,10 +3027,20 @@
     <mergeCell ref="H53:K53"/>
     <mergeCell ref="L53:M53"/>
     <mergeCell ref="N53:O53"/>
-    <mergeCell ref="P54:Q54"/>
-    <mergeCell ref="A55:F55"/>
-    <mergeCell ref="G55:I55"/>
-    <mergeCell ref="K55:Q55"/>
+    <mergeCell ref="A54:B54"/>
+    <mergeCell ref="C54:G54"/>
+    <mergeCell ref="H54:K54"/>
+    <mergeCell ref="L54:M54"/>
+    <mergeCell ref="N54:O54"/>
+    <mergeCell ref="A55:B55"/>
+    <mergeCell ref="C55:G55"/>
+    <mergeCell ref="H55:K55"/>
+    <mergeCell ref="L55:M55"/>
+    <mergeCell ref="N55:O55"/>
+    <mergeCell ref="P56:Q56"/>
+    <mergeCell ref="A57:F57"/>
+    <mergeCell ref="G57:I57"/>
+    <mergeCell ref="K57:Q57"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-08-08_00-00.xlsx
+++ b/DaySale_2025-08-08_00-00.xlsx
@@ -44,24 +44,36 @@
     <t>عدد التعااملات</t>
   </si>
   <si>
+    <t>ALVERINSPASM 24 S.G.CAPS.</t>
+  </si>
+  <si>
+    <t>1:0</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>74.00</t>
+  </si>
+  <si>
+    <t>37.0000</t>
+  </si>
+  <si>
+    <t>0:1</t>
+  </si>
+  <si>
     <t>ANTI-COX II 15MG/3ML 6 AMP</t>
   </si>
   <si>
     <t>1:6</t>
   </si>
   <si>
-    <t>1</t>
-  </si>
-  <si>
     <t>78.00</t>
   </si>
   <si>
     <t>12.4800</t>
   </si>
   <si>
-    <t>0:1</t>
-  </si>
-  <si>
     <t>ANTODINE 40MG 30 F.C. TABLETS</t>
   </si>
   <si>
@@ -101,9 +113,6 @@
     <t>48.0000</t>
   </si>
   <si>
-    <t>1:0</t>
-  </si>
-  <si>
     <t>CARNIVITA FORTE 30 F.C. TAB</t>
   </si>
   <si>
@@ -329,7 +338,7 @@
     <t>102.00</t>
   </si>
   <si>
-    <t>51.0000</t>
+    <t>102.0000</t>
   </si>
   <si>
     <t>PROSTRIDE 5MG 30 CAPS.</t>
@@ -341,6 +350,18 @@
     <t>60.3900</t>
   </si>
   <si>
+    <t>PURGATON 20MG 30 TAB.</t>
+  </si>
+  <si>
+    <t>5:2</t>
+  </si>
+  <si>
+    <t>45.00</t>
+  </si>
+  <si>
+    <t>45.0000</t>
+  </si>
+  <si>
     <t>SPASMO-DIGESTIN 30 TABS.</t>
   </si>
   <si>
@@ -368,13 +389,16 @@
     <t>URAID-N EFF. GRANUL. 12 SACHETS</t>
   </si>
   <si>
+    <t>76.0000</t>
+  </si>
+  <si>
     <t>URINEX 24 CAPS</t>
   </si>
   <si>
     <t>42.00</t>
   </si>
   <si>
-    <t>42.0000</t>
+    <t>63.0000</t>
   </si>
   <si>
     <t>UROSOLVINE EFF. GRAN. 12 SACHETS</t>
@@ -506,7 +530,7 @@
     <t>24.0000</t>
   </si>
   <si>
-    <t>Friday, 8 August, 2025 7:02 PM</t>
+    <t>Friday, 8 August, 2025 7:04 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1197,7 +1221,7 @@
         <v>20</v>
       </c>
       <c t="s" r="Q8" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="9" ht="25.5" customHeight="1">
@@ -1206,14 +1230,14 @@
       </c>
       <c r="B9" s="7"/>
       <c t="s" r="C9" s="8">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D9" s="8"/>
       <c r="E9" s="8"/>
       <c r="F9" s="8"/>
       <c r="G9" s="8"/>
       <c t="s" r="H9" s="9">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="I9" s="9"/>
       <c r="J9" s="9"/>
@@ -1223,14 +1247,14 @@
       </c>
       <c r="M9" s="10"/>
       <c t="s" r="N9" s="8">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="O9" s="8"/>
       <c t="s" r="P9" s="11">
+        <v>24</v>
+      </c>
+      <c t="s" r="Q9" s="12">
         <v>25</v>
-      </c>
-      <c t="s" r="Q9" s="12">
-        <v>16</v>
       </c>
     </row>
     <row r="10" ht="24.75" customHeight="1">
@@ -1263,7 +1287,7 @@
         <v>29</v>
       </c>
       <c t="s" r="Q10" s="12">
-        <v>30</v>
+        <v>16</v>
       </c>
     </row>
     <row r="11" ht="25.5" customHeight="1">
@@ -1272,14 +1296,14 @@
       </c>
       <c r="B11" s="7"/>
       <c t="s" r="C11" s="8">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D11" s="8"/>
       <c r="E11" s="8"/>
       <c r="F11" s="8"/>
       <c r="G11" s="8"/>
       <c t="s" r="H11" s="9">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="I11" s="9"/>
       <c r="J11" s="9"/>
@@ -1289,14 +1313,14 @@
       </c>
       <c r="M11" s="10"/>
       <c t="s" r="N11" s="8">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="O11" s="8"/>
       <c t="s" r="P11" s="11">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c t="s" r="Q11" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="12" ht="25.5" customHeight="1">
@@ -1305,14 +1329,14 @@
       </c>
       <c r="B12" s="7"/>
       <c t="s" r="C12" s="8">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D12" s="8"/>
       <c r="E12" s="8"/>
       <c r="F12" s="8"/>
       <c r="G12" s="8"/>
       <c t="s" r="H12" s="9">
-        <v>16</v>
+        <v>35</v>
       </c>
       <c r="I12" s="9"/>
       <c r="J12" s="9"/>
@@ -1322,11 +1346,11 @@
       </c>
       <c r="M12" s="10"/>
       <c t="s" r="N12" s="8">
-        <v>14</v>
+        <v>36</v>
       </c>
       <c r="O12" s="8"/>
       <c t="s" r="P12" s="11">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c t="s" r="Q12" s="12">
         <v>16</v>
@@ -1338,14 +1362,14 @@
       </c>
       <c r="B13" s="7"/>
       <c t="s" r="C13" s="8">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D13" s="8"/>
       <c r="E13" s="8"/>
       <c r="F13" s="8"/>
       <c r="G13" s="8"/>
       <c t="s" r="H13" s="9">
-        <v>30</v>
+        <v>16</v>
       </c>
       <c r="I13" s="9"/>
       <c r="J13" s="9"/>
@@ -1355,7 +1379,7 @@
       </c>
       <c r="M13" s="10"/>
       <c t="s" r="N13" s="8">
-        <v>38</v>
+        <v>19</v>
       </c>
       <c r="O13" s="8"/>
       <c t="s" r="P13" s="11">
@@ -1378,7 +1402,7 @@
       <c r="F14" s="8"/>
       <c r="G14" s="8"/>
       <c t="s" r="H14" s="9">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="I14" s="9"/>
       <c r="J14" s="9"/>
@@ -1395,7 +1419,7 @@
         <v>42</v>
       </c>
       <c t="s" r="Q14" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="15" ht="24.75" customHeight="1">
@@ -1411,7 +1435,7 @@
       <c r="F15" s="8"/>
       <c r="G15" s="8"/>
       <c t="s" r="H15" s="9">
-        <v>30</v>
+        <v>16</v>
       </c>
       <c r="I15" s="9"/>
       <c r="J15" s="9"/>
@@ -1428,7 +1452,7 @@
         <v>45</v>
       </c>
       <c t="s" r="Q15" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="16" ht="25.5" customHeight="1">
@@ -1444,7 +1468,7 @@
       <c r="F16" s="8"/>
       <c r="G16" s="8"/>
       <c t="s" r="H16" s="9">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="I16" s="9"/>
       <c r="J16" s="9"/>
@@ -1461,7 +1485,7 @@
         <v>48</v>
       </c>
       <c t="s" r="Q16" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="17" ht="25.5" customHeight="1">
@@ -1477,7 +1501,7 @@
       <c r="F17" s="8"/>
       <c r="G17" s="8"/>
       <c t="s" r="H17" s="9">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="I17" s="9"/>
       <c r="J17" s="9"/>
@@ -1494,7 +1518,7 @@
         <v>51</v>
       </c>
       <c t="s" r="Q17" s="12">
-        <v>52</v>
+        <v>25</v>
       </c>
     </row>
     <row r="18" ht="24.75" customHeight="1">
@@ -1503,14 +1527,14 @@
       </c>
       <c r="B18" s="7"/>
       <c t="s" r="C18" s="8">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D18" s="8"/>
       <c r="E18" s="8"/>
       <c r="F18" s="8"/>
       <c r="G18" s="8"/>
       <c t="s" r="H18" s="9">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="I18" s="9"/>
       <c r="J18" s="9"/>
@@ -1520,14 +1544,14 @@
       </c>
       <c r="M18" s="10"/>
       <c t="s" r="N18" s="8">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="O18" s="8"/>
       <c t="s" r="P18" s="11">
+        <v>54</v>
+      </c>
+      <c t="s" r="Q18" s="12">
         <v>55</v>
-      </c>
-      <c t="s" r="Q18" s="12">
-        <v>30</v>
       </c>
     </row>
     <row r="19" ht="25.5" customHeight="1">
@@ -1543,7 +1567,7 @@
       <c r="F19" s="8"/>
       <c r="G19" s="8"/>
       <c t="s" r="H19" s="9">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="I19" s="9"/>
       <c r="J19" s="9"/>
@@ -1560,7 +1584,7 @@
         <v>58</v>
       </c>
       <c t="s" r="Q19" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="20" ht="24.75" customHeight="1">
@@ -1576,7 +1600,7 @@
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
       <c t="s" r="H20" s="9">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="I20" s="9"/>
       <c r="J20" s="9"/>
@@ -1593,7 +1617,7 @@
         <v>61</v>
       </c>
       <c t="s" r="Q20" s="12">
-        <v>30</v>
+        <v>16</v>
       </c>
     </row>
     <row r="21" ht="25.5" customHeight="1">
@@ -1609,7 +1633,7 @@
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
       <c t="s" r="H21" s="9">
-        <v>23</v>
+        <v>31</v>
       </c>
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
@@ -1626,7 +1650,7 @@
         <v>64</v>
       </c>
       <c t="s" r="Q21" s="12">
-        <v>65</v>
+        <v>12</v>
       </c>
     </row>
     <row r="22" ht="25.5" customHeight="1">
@@ -1635,14 +1659,14 @@
       </c>
       <c r="B22" s="7"/>
       <c t="s" r="C22" s="8">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D22" s="8"/>
       <c r="E22" s="8"/>
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c t="s" r="H22" s="9">
-        <v>67</v>
+        <v>27</v>
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
@@ -1652,14 +1676,14 @@
       </c>
       <c r="M22" s="10"/>
       <c t="s" r="N22" s="8">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="O22" s="8"/>
       <c t="s" r="P22" s="11">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c t="s" r="Q22" s="12">
-        <v>21</v>
+        <v>68</v>
       </c>
     </row>
     <row r="23" ht="24.75" customHeight="1">
@@ -1668,14 +1692,14 @@
       </c>
       <c r="B23" s="7"/>
       <c t="s" r="C23" s="8">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D23" s="8"/>
       <c r="E23" s="8"/>
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c t="s" r="H23" s="9">
-        <v>30</v>
+        <v>70</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
@@ -1692,7 +1716,7 @@
         <v>72</v>
       </c>
       <c t="s" r="Q23" s="12">
-        <v>30</v>
+        <v>25</v>
       </c>
     </row>
     <row r="24" ht="25.5" customHeight="1">
@@ -1708,7 +1732,7 @@
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>30</v>
+        <v>12</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
@@ -1725,7 +1749,7 @@
         <v>75</v>
       </c>
       <c t="s" r="Q24" s="12">
-        <v>30</v>
+        <v>12</v>
       </c>
     </row>
     <row r="25" ht="24.75" customHeight="1">
@@ -1741,7 +1765,7 @@
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>77</v>
+        <v>12</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
@@ -1751,14 +1775,14 @@
       </c>
       <c r="M25" s="10"/>
       <c t="s" r="N25" s="8">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="O25" s="8"/>
       <c t="s" r="P25" s="11">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c t="s" r="Q25" s="12">
-        <v>30</v>
+        <v>12</v>
       </c>
     </row>
     <row r="26" ht="25.5" customHeight="1">
@@ -1767,14 +1791,14 @@
       </c>
       <c r="B26" s="7"/>
       <c t="s" r="C26" s="8">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D26" s="8"/>
       <c r="E26" s="8"/>
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>32</v>
+        <v>80</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
@@ -1791,7 +1815,7 @@
         <v>82</v>
       </c>
       <c t="s" r="Q26" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="27" ht="25.5" customHeight="1">
@@ -1807,7 +1831,7 @@
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>27</v>
+        <v>35</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
@@ -1824,7 +1848,7 @@
         <v>85</v>
       </c>
       <c t="s" r="Q27" s="12">
-        <v>30</v>
+        <v>16</v>
       </c>
     </row>
     <row r="28" ht="24.75" customHeight="1">
@@ -1840,7 +1864,7 @@
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>87</v>
+        <v>31</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
@@ -1850,14 +1874,14 @@
       </c>
       <c r="M28" s="10"/>
       <c t="s" r="N28" s="8">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="O28" s="8"/>
       <c t="s" r="P28" s="11">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c t="s" r="Q28" s="12">
-        <v>65</v>
+        <v>12</v>
       </c>
     </row>
     <row r="29" ht="25.5" customHeight="1">
@@ -1866,14 +1890,14 @@
       </c>
       <c r="B29" s="7"/>
       <c t="s" r="C29" s="8">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D29" s="8"/>
       <c r="E29" s="8"/>
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>32</v>
+        <v>90</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
@@ -1890,7 +1914,7 @@
         <v>92</v>
       </c>
       <c t="s" r="Q29" s="12">
-        <v>16</v>
+        <v>68</v>
       </c>
     </row>
     <row r="30" ht="24.75" customHeight="1">
@@ -1906,7 +1930,7 @@
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>65</v>
+        <v>35</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
@@ -1916,11 +1940,11 @@
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
-        <v>28</v>
+        <v>94</v>
       </c>
       <c r="O30" s="8"/>
       <c t="s" r="P30" s="11">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c t="s" r="Q30" s="12">
         <v>16</v>
@@ -1932,14 +1956,14 @@
       </c>
       <c r="B31" s="7"/>
       <c t="s" r="C31" s="8">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="D31" s="8"/>
       <c r="E31" s="8"/>
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>30</v>
+        <v>68</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
@@ -1949,7 +1973,7 @@
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
-        <v>96</v>
+        <v>32</v>
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
@@ -1972,21 +1996,21 @@
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>99</v>
+        <v>12</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
       <c r="K32" s="9"/>
       <c t="s" r="L32" s="10">
-        <v>100</v>
+        <v>13</v>
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
-        <v>88</v>
+        <v>99</v>
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
-        <v>25</v>
+        <v>100</v>
       </c>
       <c t="s" r="Q32" s="12">
         <v>16</v>
@@ -2005,24 +2029,24 @@
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>23</v>
+        <v>102</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
       <c r="K33" s="9"/>
       <c t="s" r="L33" s="10">
-        <v>13</v>
+        <v>103</v>
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
-        <v>102</v>
+        <v>91</v>
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
-        <v>103</v>
+        <v>29</v>
       </c>
       <c t="s" r="Q33" s="12">
-        <v>30</v>
+        <v>16</v>
       </c>
     </row>
     <row r="34" ht="25.5" customHeight="1">
@@ -2038,7 +2062,7 @@
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
@@ -2055,7 +2079,7 @@
         <v>106</v>
       </c>
       <c t="s" r="Q34" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="35" ht="24.75" customHeight="1">
@@ -2071,7 +2095,7 @@
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>30</v>
+        <v>16</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
@@ -2088,7 +2112,7 @@
         <v>109</v>
       </c>
       <c t="s" r="Q35" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="36" ht="25.5" customHeight="1">
@@ -2104,7 +2128,7 @@
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>111</v>
+        <v>12</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
@@ -2114,14 +2138,14 @@
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>14</v>
+        <v>111</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
         <v>112</v>
       </c>
       <c t="s" r="Q36" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="37" ht="25.5" customHeight="1">
@@ -2137,7 +2161,7 @@
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>18</v>
+        <v>114</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
@@ -2147,14 +2171,14 @@
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
-        <v>36</v>
+        <v>116</v>
       </c>
       <c t="s" r="Q37" s="12">
-        <v>30</v>
+        <v>12</v>
       </c>
     </row>
     <row r="38" ht="24.75" customHeight="1">
@@ -2163,14 +2187,14 @@
       </c>
       <c r="B38" s="7"/>
       <c t="s" r="C38" s="8">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="D38" s="8"/>
       <c r="E38" s="8"/>
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>99</v>
+        <v>118</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
@@ -2180,14 +2204,14 @@
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>116</v>
+        <v>19</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c t="s" r="Q38" s="12">
-        <v>30</v>
+        <v>25</v>
       </c>
     </row>
     <row r="39" ht="25.5" customHeight="1">
@@ -2196,14 +2220,14 @@
       </c>
       <c r="B39" s="7"/>
       <c t="s" r="C39" s="8">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="D39" s="8"/>
       <c r="E39" s="8"/>
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
@@ -2213,14 +2237,14 @@
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>78</v>
+        <v>121</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
-        <v>79</v>
+        <v>39</v>
       </c>
       <c t="s" r="Q39" s="12">
-        <v>30</v>
+        <v>12</v>
       </c>
     </row>
     <row r="40" ht="24.75" customHeight="1">
@@ -2229,14 +2253,14 @@
       </c>
       <c r="B40" s="7"/>
       <c t="s" r="C40" s="8">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="D40" s="8"/>
       <c r="E40" s="8"/>
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>32</v>
+        <v>102</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
@@ -2246,14 +2270,14 @@
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c t="s" r="Q40" s="12">
-        <v>30</v>
+        <v>12</v>
       </c>
     </row>
     <row r="41" ht="25.5" customHeight="1">
@@ -2262,14 +2286,14 @@
       </c>
       <c r="B41" s="7"/>
       <c t="s" r="C41" s="8">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="D41" s="8"/>
       <c r="E41" s="8"/>
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>27</v>
+        <v>80</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
@@ -2279,14 +2303,14 @@
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
-        <v>79</v>
+        <v>126</v>
       </c>
       <c t="s" r="Q41" s="12">
-        <v>30</v>
+        <v>80</v>
       </c>
     </row>
     <row r="42" ht="25.5" customHeight="1">
@@ -2295,14 +2319,14 @@
       </c>
       <c r="B42" s="7"/>
       <c t="s" r="C42" s="8">
-        <v>123</v>
+        <v>127</v>
       </c>
       <c r="D42" s="8"/>
       <c r="E42" s="8"/>
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>65</v>
+        <v>12</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
@@ -2312,14 +2336,14 @@
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>124</v>
+        <v>128</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
-        <v>125</v>
+        <v>129</v>
       </c>
       <c t="s" r="Q42" s="12">
-        <v>30</v>
+        <v>35</v>
       </c>
     </row>
     <row r="43" ht="24.75" customHeight="1">
@@ -2328,14 +2352,14 @@
       </c>
       <c r="B43" s="7"/>
       <c t="s" r="C43" s="8">
-        <v>126</v>
+        <v>130</v>
       </c>
       <c r="D43" s="8"/>
       <c r="E43" s="8"/>
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
@@ -2345,14 +2369,14 @@
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>127</v>
+        <v>81</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
-        <v>97</v>
+        <v>82</v>
       </c>
       <c t="s" r="Q43" s="12">
-        <v>30</v>
+        <v>12</v>
       </c>
     </row>
     <row r="44" ht="25.5" customHeight="1">
@@ -2361,14 +2385,14 @@
       </c>
       <c r="B44" s="7"/>
       <c t="s" r="C44" s="8">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="D44" s="8"/>
       <c r="E44" s="8"/>
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
@@ -2378,14 +2402,14 @@
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c t="s" r="Q44" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="45" ht="24.75" customHeight="1">
@@ -2394,14 +2418,14 @@
       </c>
       <c r="B45" s="7"/>
       <c t="s" r="C45" s="8">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="D45" s="8"/>
       <c r="E45" s="8"/>
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
@@ -2411,14 +2435,14 @@
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>132</v>
+        <v>135</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
-        <v>133</v>
+        <v>100</v>
       </c>
       <c t="s" r="Q45" s="12">
-        <v>30</v>
+        <v>12</v>
       </c>
     </row>
     <row r="46" ht="25.5" customHeight="1">
@@ -2427,31 +2451,31 @@
       </c>
       <c r="B46" s="7"/>
       <c t="s" r="C46" s="8">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="D46" s="8"/>
       <c r="E46" s="8"/>
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>27</v>
+        <v>70</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
       <c r="K46" s="9"/>
       <c t="s" r="L46" s="10">
-        <v>100</v>
+        <v>13</v>
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c t="s" r="Q46" s="12">
-        <v>77</v>
+        <v>16</v>
       </c>
     </row>
     <row r="47" ht="25.5" customHeight="1">
@@ -2460,31 +2484,31 @@
       </c>
       <c r="B47" s="7"/>
       <c t="s" r="C47" s="8">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="D47" s="8"/>
       <c r="E47" s="8"/>
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
       <c r="K47" s="9"/>
       <c t="s" r="L47" s="10">
-        <v>100</v>
+        <v>13</v>
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c t="s" r="Q47" s="12">
-        <v>65</v>
+        <v>12</v>
       </c>
     </row>
     <row r="48" ht="24.75" customHeight="1">
@@ -2493,31 +2517,31 @@
       </c>
       <c r="B48" s="7"/>
       <c t="s" r="C48" s="8">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="D48" s="8"/>
       <c r="E48" s="8"/>
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
       <c r="K48" s="9"/>
       <c t="s" r="L48" s="10">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>135</v>
+        <v>143</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
-        <v>136</v>
+        <v>144</v>
       </c>
       <c t="s" r="Q48" s="12">
-        <v>77</v>
+        <v>80</v>
       </c>
     </row>
     <row r="49" ht="25.5" customHeight="1">
@@ -2526,31 +2550,31 @@
       </c>
       <c r="B49" s="7"/>
       <c t="s" r="C49" s="8">
-        <v>141</v>
+        <v>145</v>
       </c>
       <c r="D49" s="8"/>
       <c r="E49" s="8"/>
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
       <c r="K49" s="9"/>
       <c t="s" r="L49" s="10">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>142</v>
+        <v>146</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
-        <v>143</v>
+        <v>147</v>
       </c>
       <c t="s" r="Q49" s="12">
-        <v>30</v>
+        <v>68</v>
       </c>
     </row>
     <row r="50" ht="24.75" customHeight="1">
@@ -2559,31 +2583,31 @@
       </c>
       <c r="B50" s="7"/>
       <c t="s" r="C50" s="8">
-        <v>144</v>
+        <v>148</v>
       </c>
       <c r="D50" s="8"/>
       <c r="E50" s="8"/>
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>145</v>
+        <v>31</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
       <c r="K50" s="9"/>
       <c t="s" r="L50" s="10">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c t="s" r="Q50" s="12">
-        <v>30</v>
+        <v>80</v>
       </c>
     </row>
     <row r="51" ht="25.5" customHeight="1">
@@ -2592,31 +2616,31 @@
       </c>
       <c r="B51" s="7"/>
       <c t="s" r="C51" s="8">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="D51" s="8"/>
       <c r="E51" s="8"/>
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>23</v>
+        <v>31</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
       <c r="K51" s="9"/>
       <c t="s" r="L51" s="10">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c t="s" r="Q51" s="12">
-        <v>30</v>
+        <v>12</v>
       </c>
     </row>
     <row r="52" ht="25.5" customHeight="1">
@@ -2625,31 +2649,31 @@
       </c>
       <c r="B52" s="7"/>
       <c t="s" r="C52" s="8">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="D52" s="8"/>
       <c r="E52" s="8"/>
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
       <c r="K52" s="9"/>
       <c t="s" r="L52" s="10">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c t="s" r="Q52" s="12">
-        <v>77</v>
+        <v>12</v>
       </c>
     </row>
     <row r="53" ht="24.75" customHeight="1">
@@ -2658,7 +2682,7 @@
       </c>
       <c r="B53" s="7"/>
       <c t="s" r="C53" s="8">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="D53" s="8"/>
       <c r="E53" s="8"/>
@@ -2671,18 +2695,18 @@
       <c r="J53" s="9"/>
       <c r="K53" s="9"/>
       <c t="s" r="L53" s="10">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c t="s" r="Q53" s="12">
-        <v>30</v>
+        <v>12</v>
       </c>
     </row>
     <row r="54" ht="25.5" customHeight="1">
@@ -2691,31 +2715,31 @@
       </c>
       <c r="B54" s="7"/>
       <c t="s" r="C54" s="8">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="D54" s="8"/>
       <c r="E54" s="8"/>
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>30</v>
+        <v>160</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
       <c r="K54" s="9"/>
       <c t="s" r="L54" s="10">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c t="s" r="Q54" s="12">
-        <v>30</v>
+        <v>80</v>
       </c>
     </row>
     <row r="55" ht="24.75" customHeight="1">
@@ -2724,66 +2748,132 @@
       </c>
       <c r="B55" s="7"/>
       <c t="s" r="C55" s="8">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="D55" s="8"/>
       <c r="E55" s="8"/>
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>162</v>
+        <v>31</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
       <c r="K55" s="9"/>
       <c t="s" r="L55" s="10">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c t="s" r="Q55" s="12">
-        <v>30</v>
+        <v>12</v>
       </c>
     </row>
     <row r="56" ht="25.5" customHeight="1">
-      <c r="P56" s="13">
-        <v>3546.6350000000002</v>
-      </c>
-      <c r="Q56" s="13"/>
-    </row>
-    <row r="57" ht="16.5" customHeight="1">
-      <c t="s" r="A57" s="14">
-        <v>165</v>
-      </c>
-      <c r="B57" s="14"/>
-      <c r="C57" s="14"/>
-      <c r="D57" s="14"/>
-      <c r="E57" s="14"/>
-      <c r="F57" s="14"/>
-      <c t="s" r="G57" s="15">
+      <c r="A56" s="7">
+        <v>50</v>
+      </c>
+      <c r="B56" s="7"/>
+      <c t="s" r="C56" s="8">
         <v>166</v>
       </c>
-      <c r="H57" s="15"/>
-      <c r="I57" s="15"/>
-      <c r="J57" s="16"/>
-      <c t="s" r="K57" s="17">
+      <c r="D56" s="8"/>
+      <c r="E56" s="8"/>
+      <c r="F56" s="8"/>
+      <c r="G56" s="8"/>
+      <c t="s" r="H56" s="9">
+        <v>12</v>
+      </c>
+      <c r="I56" s="9"/>
+      <c r="J56" s="9"/>
+      <c r="K56" s="9"/>
+      <c t="s" r="L56" s="10">
+        <v>103</v>
+      </c>
+      <c r="M56" s="10"/>
+      <c t="s" r="N56" s="8">
         <v>167</v>
       </c>
-      <c r="L57" s="17"/>
-      <c r="M57" s="17"/>
-      <c r="N57" s="17"/>
-      <c r="O57" s="17"/>
-      <c r="P57" s="17"/>
-      <c r="Q57" s="17"/>
+      <c r="O56" s="8"/>
+      <c t="s" r="P56" s="11">
+        <v>168</v>
+      </c>
+      <c t="s" r="Q56" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="57" ht="25.5" customHeight="1">
+      <c r="A57" s="7">
+        <v>51</v>
+      </c>
+      <c r="B57" s="7"/>
+      <c t="s" r="C57" s="8">
+        <v>169</v>
+      </c>
+      <c r="D57" s="8"/>
+      <c r="E57" s="8"/>
+      <c r="F57" s="8"/>
+      <c r="G57" s="8"/>
+      <c t="s" r="H57" s="9">
+        <v>170</v>
+      </c>
+      <c r="I57" s="9"/>
+      <c r="J57" s="9"/>
+      <c r="K57" s="9"/>
+      <c t="s" r="L57" s="10">
+        <v>103</v>
+      </c>
+      <c r="M57" s="10"/>
+      <c t="s" r="N57" s="8">
+        <v>171</v>
+      </c>
+      <c r="O57" s="8"/>
+      <c t="s" r="P57" s="11">
+        <v>172</v>
+      </c>
+      <c t="s" r="Q57" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="58" ht="24.75" customHeight="1">
+      <c r="P58" s="13">
+        <v>3738.6350000000002</v>
+      </c>
+      <c r="Q58" s="13"/>
+    </row>
+    <row r="59" ht="16.5" customHeight="1">
+      <c t="s" r="A59" s="14">
+        <v>173</v>
+      </c>
+      <c r="B59" s="14"/>
+      <c r="C59" s="14"/>
+      <c r="D59" s="14"/>
+      <c r="E59" s="14"/>
+      <c r="F59" s="14"/>
+      <c t="s" r="G59" s="15">
+        <v>174</v>
+      </c>
+      <c r="H59" s="15"/>
+      <c r="I59" s="15"/>
+      <c r="J59" s="16"/>
+      <c t="s" r="K59" s="17">
+        <v>175</v>
+      </c>
+      <c r="L59" s="17"/>
+      <c r="M59" s="17"/>
+      <c r="N59" s="17"/>
+      <c r="O59" s="17"/>
+      <c r="P59" s="17"/>
+      <c r="Q59" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="257">
+  <mergeCells count="267">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -3037,10 +3127,20 @@
     <mergeCell ref="H55:K55"/>
     <mergeCell ref="L55:M55"/>
     <mergeCell ref="N55:O55"/>
-    <mergeCell ref="P56:Q56"/>
-    <mergeCell ref="A57:F57"/>
-    <mergeCell ref="G57:I57"/>
-    <mergeCell ref="K57:Q57"/>
+    <mergeCell ref="A56:B56"/>
+    <mergeCell ref="C56:G56"/>
+    <mergeCell ref="H56:K56"/>
+    <mergeCell ref="L56:M56"/>
+    <mergeCell ref="N56:O56"/>
+    <mergeCell ref="A57:B57"/>
+    <mergeCell ref="C57:G57"/>
+    <mergeCell ref="H57:K57"/>
+    <mergeCell ref="L57:M57"/>
+    <mergeCell ref="N57:O57"/>
+    <mergeCell ref="P58:Q58"/>
+    <mergeCell ref="A59:F59"/>
+    <mergeCell ref="G59:I59"/>
+    <mergeCell ref="K59:Q59"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-08-08_00-00.xlsx
+++ b/DaySale_2025-08-08_00-00.xlsx
@@ -197,6 +197,12 @@
     <t>20.7900</t>
   </si>
   <si>
+    <t>DOLIPRANE 1 GM 15 TABS.</t>
+  </si>
+  <si>
+    <t>6:2</t>
+  </si>
+  <si>
     <t>DOLPHIN 3% TOPICAL GEL 30 GM</t>
   </si>
   <si>
@@ -260,6 +266,9 @@
     <t>38.0000</t>
   </si>
   <si>
+    <t>GARAMYCIN 0.1% OINT. 15 GM</t>
+  </si>
+  <si>
     <t>GLIPTUS PLUS 50/1000MG 30 TABLETS</t>
   </si>
   <si>
@@ -446,6 +455,15 @@
     <t>6.0000</t>
   </si>
   <si>
+    <t>ريكسونا حريمي بليه</t>
+  </si>
+  <si>
+    <t>10:0</t>
+  </si>
+  <si>
+    <t>27.00</t>
+  </si>
+  <si>
     <t>سرنجات 3 سم</t>
   </si>
   <si>
@@ -491,13 +509,13 @@
     <t xml:space="preserve">شفرات فينوس حريمي </t>
   </si>
   <si>
-    <t>30:0</t>
+    <t>28:0</t>
   </si>
   <si>
     <t>20.00</t>
   </si>
   <si>
-    <t>40.0000</t>
+    <t>80.0000</t>
   </si>
   <si>
     <t xml:space="preserve">كالونا </t>
@@ -515,9 +533,6 @@
     <t>80.00</t>
   </si>
   <si>
-    <t>80.0000</t>
-  </si>
-  <si>
     <t>محلول ملح</t>
   </si>
   <si>
@@ -530,7 +545,7 @@
     <t>24.0000</t>
   </si>
   <si>
-    <t>Friday, 8 August, 2025 7:04 PM</t>
+    <t>Friday, 8 August, 2025 7:09 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1633,7 +1648,7 @@
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
       <c t="s" r="H21" s="9">
-        <v>31</v>
+        <v>63</v>
       </c>
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
@@ -1643,11 +1658,11 @@
       </c>
       <c r="M21" s="10"/>
       <c t="s" r="N21" s="8">
-        <v>63</v>
+        <v>32</v>
       </c>
       <c r="O21" s="8"/>
       <c t="s" r="P21" s="11">
-        <v>64</v>
+        <v>33</v>
       </c>
       <c t="s" r="Q21" s="12">
         <v>12</v>
@@ -1659,14 +1674,14 @@
       </c>
       <c r="B22" s="7"/>
       <c t="s" r="C22" s="8">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D22" s="8"/>
       <c r="E22" s="8"/>
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c t="s" r="H22" s="9">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
@@ -1676,14 +1691,14 @@
       </c>
       <c r="M22" s="10"/>
       <c t="s" r="N22" s="8">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="O22" s="8"/>
       <c t="s" r="P22" s="11">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c t="s" r="Q22" s="12">
-        <v>68</v>
+        <v>12</v>
       </c>
     </row>
     <row r="23" ht="24.75" customHeight="1">
@@ -1692,14 +1707,14 @@
       </c>
       <c r="B23" s="7"/>
       <c t="s" r="C23" s="8">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="D23" s="8"/>
       <c r="E23" s="8"/>
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c t="s" r="H23" s="9">
-        <v>70</v>
+        <v>27</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
@@ -1709,14 +1724,14 @@
       </c>
       <c r="M23" s="10"/>
       <c t="s" r="N23" s="8">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="O23" s="8"/>
       <c t="s" r="P23" s="11">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c t="s" r="Q23" s="12">
-        <v>25</v>
+        <v>70</v>
       </c>
     </row>
     <row r="24" ht="25.5" customHeight="1">
@@ -1725,14 +1740,14 @@
       </c>
       <c r="B24" s="7"/>
       <c t="s" r="C24" s="8">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="D24" s="8"/>
       <c r="E24" s="8"/>
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>12</v>
+        <v>72</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
@@ -1742,14 +1757,14 @@
       </c>
       <c r="M24" s="10"/>
       <c t="s" r="N24" s="8">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="O24" s="8"/>
       <c t="s" r="P24" s="11">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c t="s" r="Q24" s="12">
-        <v>12</v>
+        <v>25</v>
       </c>
     </row>
     <row r="25" ht="24.75" customHeight="1">
@@ -1758,7 +1773,7 @@
       </c>
       <c r="B25" s="7"/>
       <c t="s" r="C25" s="8">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D25" s="8"/>
       <c r="E25" s="8"/>
@@ -1775,11 +1790,11 @@
       </c>
       <c r="M25" s="10"/>
       <c t="s" r="N25" s="8">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="O25" s="8"/>
       <c t="s" r="P25" s="11">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c t="s" r="Q25" s="12">
         <v>12</v>
@@ -1791,14 +1806,14 @@
       </c>
       <c r="B26" s="7"/>
       <c t="s" r="C26" s="8">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D26" s="8"/>
       <c r="E26" s="8"/>
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>80</v>
+        <v>12</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
@@ -1808,11 +1823,11 @@
       </c>
       <c r="M26" s="10"/>
       <c t="s" r="N26" s="8">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="O26" s="8"/>
       <c t="s" r="P26" s="11">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c t="s" r="Q26" s="12">
         <v>12</v>
@@ -1824,14 +1839,14 @@
       </c>
       <c r="B27" s="7"/>
       <c t="s" r="C27" s="8">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="D27" s="8"/>
       <c r="E27" s="8"/>
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>35</v>
+        <v>82</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
@@ -1841,14 +1856,14 @@
       </c>
       <c r="M27" s="10"/>
       <c t="s" r="N27" s="8">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="O27" s="8"/>
       <c t="s" r="P27" s="11">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c t="s" r="Q27" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="28" ht="24.75" customHeight="1">
@@ -1857,14 +1872,14 @@
       </c>
       <c r="B28" s="7"/>
       <c t="s" r="C28" s="8">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D28" s="8"/>
       <c r="E28" s="8"/>
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>31</v>
+        <v>82</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
@@ -1874,11 +1889,11 @@
       </c>
       <c r="M28" s="10"/>
       <c t="s" r="N28" s="8">
-        <v>87</v>
+        <v>57</v>
       </c>
       <c r="O28" s="8"/>
       <c t="s" r="P28" s="11">
-        <v>88</v>
+        <v>58</v>
       </c>
       <c t="s" r="Q28" s="12">
         <v>12</v>
@@ -1890,14 +1905,14 @@
       </c>
       <c r="B29" s="7"/>
       <c t="s" r="C29" s="8">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="D29" s="8"/>
       <c r="E29" s="8"/>
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>90</v>
+        <v>35</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
@@ -1907,14 +1922,14 @@
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="O29" s="8"/>
       <c t="s" r="P29" s="11">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c t="s" r="Q29" s="12">
-        <v>68</v>
+        <v>16</v>
       </c>
     </row>
     <row r="30" ht="24.75" customHeight="1">
@@ -1923,14 +1938,14 @@
       </c>
       <c r="B30" s="7"/>
       <c t="s" r="C30" s="8">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="D30" s="8"/>
       <c r="E30" s="8"/>
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
@@ -1940,14 +1955,14 @@
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="O30" s="8"/>
       <c t="s" r="P30" s="11">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c t="s" r="Q30" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="31" ht="25.5" customHeight="1">
@@ -1956,14 +1971,14 @@
       </c>
       <c r="B31" s="7"/>
       <c t="s" r="C31" s="8">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="D31" s="8"/>
       <c r="E31" s="8"/>
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>68</v>
+        <v>93</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
@@ -1973,14 +1988,14 @@
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
-        <v>32</v>
+        <v>94</v>
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c t="s" r="Q31" s="12">
-        <v>16</v>
+        <v>70</v>
       </c>
     </row>
     <row r="32" ht="25.5" customHeight="1">
@@ -1989,14 +2004,14 @@
       </c>
       <c r="B32" s="7"/>
       <c t="s" r="C32" s="8">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="D32" s="8"/>
       <c r="E32" s="8"/>
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>12</v>
+        <v>35</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
@@ -2006,11 +2021,11 @@
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c t="s" r="Q32" s="12">
         <v>16</v>
@@ -2022,28 +2037,28 @@
       </c>
       <c r="B33" s="7"/>
       <c t="s" r="C33" s="8">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="D33" s="8"/>
       <c r="E33" s="8"/>
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>102</v>
+        <v>70</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
       <c r="K33" s="9"/>
       <c t="s" r="L33" s="10">
-        <v>103</v>
+        <v>13</v>
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
-        <v>91</v>
+        <v>32</v>
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
-        <v>29</v>
+        <v>100</v>
       </c>
       <c t="s" r="Q33" s="12">
         <v>16</v>
@@ -2055,14 +2070,14 @@
       </c>
       <c r="B34" s="7"/>
       <c t="s" r="C34" s="8">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="D34" s="8"/>
       <c r="E34" s="8"/>
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>27</v>
+        <v>12</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
@@ -2072,14 +2087,14 @@
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c t="s" r="Q34" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="35" ht="24.75" customHeight="1">
@@ -2088,31 +2103,31 @@
       </c>
       <c r="B35" s="7"/>
       <c t="s" r="C35" s="8">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="D35" s="8"/>
       <c r="E35" s="8"/>
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>16</v>
+        <v>105</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
       <c r="K35" s="9"/>
       <c t="s" r="L35" s="10">
-        <v>13</v>
+        <v>106</v>
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
-        <v>108</v>
+        <v>94</v>
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
-        <v>109</v>
+        <v>29</v>
       </c>
       <c t="s" r="Q35" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="36" ht="25.5" customHeight="1">
@@ -2121,14 +2136,14 @@
       </c>
       <c r="B36" s="7"/>
       <c t="s" r="C36" s="8">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="D36" s="8"/>
       <c r="E36" s="8"/>
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>12</v>
+        <v>27</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
@@ -2138,14 +2153,14 @@
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c t="s" r="Q36" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="37" ht="25.5" customHeight="1">
@@ -2154,14 +2169,14 @@
       </c>
       <c r="B37" s="7"/>
       <c t="s" r="C37" s="8">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="D37" s="8"/>
       <c r="E37" s="8"/>
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>114</v>
+        <v>16</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
@@ -2171,11 +2186,11 @@
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c t="s" r="Q37" s="12">
         <v>12</v>
@@ -2187,14 +2202,14 @@
       </c>
       <c r="B38" s="7"/>
       <c t="s" r="C38" s="8">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="D38" s="8"/>
       <c r="E38" s="8"/>
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>118</v>
+        <v>12</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
@@ -2204,14 +2219,14 @@
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>19</v>
+        <v>114</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c t="s" r="Q38" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="39" ht="25.5" customHeight="1">
@@ -2220,14 +2235,14 @@
       </c>
       <c r="B39" s="7"/>
       <c t="s" r="C39" s="8">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="D39" s="8"/>
       <c r="E39" s="8"/>
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>22</v>
+        <v>117</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
@@ -2237,11 +2252,11 @@
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
-        <v>39</v>
+        <v>119</v>
       </c>
       <c t="s" r="Q39" s="12">
         <v>12</v>
@@ -2253,14 +2268,14 @@
       </c>
       <c r="B40" s="7"/>
       <c t="s" r="C40" s="8">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="D40" s="8"/>
       <c r="E40" s="8"/>
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>102</v>
+        <v>121</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
@@ -2270,14 +2285,14 @@
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>123</v>
+        <v>19</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c t="s" r="Q40" s="12">
-        <v>12</v>
+        <v>25</v>
       </c>
     </row>
     <row r="41" ht="25.5" customHeight="1">
@@ -2286,14 +2301,14 @@
       </c>
       <c r="B41" s="7"/>
       <c t="s" r="C41" s="8">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="D41" s="8"/>
       <c r="E41" s="8"/>
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>80</v>
+        <v>22</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
@@ -2303,14 +2318,14 @@
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>81</v>
+        <v>124</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
-        <v>126</v>
+        <v>39</v>
       </c>
       <c t="s" r="Q41" s="12">
-        <v>80</v>
+        <v>12</v>
       </c>
     </row>
     <row r="42" ht="25.5" customHeight="1">
@@ -2319,14 +2334,14 @@
       </c>
       <c r="B42" s="7"/>
       <c t="s" r="C42" s="8">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="D42" s="8"/>
       <c r="E42" s="8"/>
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>12</v>
+        <v>105</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
@@ -2336,14 +2351,14 @@
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c t="s" r="Q42" s="12">
-        <v>35</v>
+        <v>12</v>
       </c>
     </row>
     <row r="43" ht="24.75" customHeight="1">
@@ -2352,14 +2367,14 @@
       </c>
       <c r="B43" s="7"/>
       <c t="s" r="C43" s="8">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="D43" s="8"/>
       <c r="E43" s="8"/>
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>31</v>
+        <v>82</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
@@ -2369,14 +2384,14 @@
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
+        <v>129</v>
+      </c>
+      <c t="s" r="Q43" s="12">
         <v>82</v>
-      </c>
-      <c t="s" r="Q43" s="12">
-        <v>12</v>
       </c>
     </row>
     <row r="44" ht="25.5" customHeight="1">
@@ -2385,14 +2400,14 @@
       </c>
       <c r="B44" s="7"/>
       <c t="s" r="C44" s="8">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="D44" s="8"/>
       <c r="E44" s="8"/>
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>68</v>
+        <v>12</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
@@ -2402,14 +2417,14 @@
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c t="s" r="Q44" s="12">
-        <v>12</v>
+        <v>35</v>
       </c>
     </row>
     <row r="45" ht="24.75" customHeight="1">
@@ -2418,7 +2433,7 @@
       </c>
       <c r="B45" s="7"/>
       <c t="s" r="C45" s="8">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="D45" s="8"/>
       <c r="E45" s="8"/>
@@ -2435,11 +2450,11 @@
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>135</v>
+        <v>83</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
-        <v>100</v>
+        <v>84</v>
       </c>
       <c t="s" r="Q45" s="12">
         <v>12</v>
@@ -2451,7 +2466,7 @@
       </c>
       <c r="B46" s="7"/>
       <c t="s" r="C46" s="8">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="D46" s="8"/>
       <c r="E46" s="8"/>
@@ -2468,14 +2483,14 @@
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c t="s" r="Q46" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="47" ht="25.5" customHeight="1">
@@ -2484,7 +2499,7 @@
       </c>
       <c r="B47" s="7"/>
       <c t="s" r="C47" s="8">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="D47" s="8"/>
       <c r="E47" s="8"/>
@@ -2501,11 +2516,11 @@
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
-        <v>141</v>
+        <v>103</v>
       </c>
       <c t="s" r="Q47" s="12">
         <v>12</v>
@@ -2517,31 +2532,31 @@
       </c>
       <c r="B48" s="7"/>
       <c t="s" r="C48" s="8">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="D48" s="8"/>
       <c r="E48" s="8"/>
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>31</v>
+        <v>72</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
       <c r="K48" s="9"/>
       <c t="s" r="L48" s="10">
-        <v>103</v>
+        <v>13</v>
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c t="s" r="Q48" s="12">
-        <v>80</v>
+        <v>16</v>
       </c>
     </row>
     <row r="49" ht="25.5" customHeight="1">
@@ -2550,7 +2565,7 @@
       </c>
       <c r="B49" s="7"/>
       <c t="s" r="C49" s="8">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="D49" s="8"/>
       <c r="E49" s="8"/>
@@ -2563,18 +2578,18 @@
       <c r="J49" s="9"/>
       <c r="K49" s="9"/>
       <c t="s" r="L49" s="10">
-        <v>103</v>
+        <v>13</v>
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c t="s" r="Q49" s="12">
-        <v>68</v>
+        <v>12</v>
       </c>
     </row>
     <row r="50" ht="24.75" customHeight="1">
@@ -2583,7 +2598,7 @@
       </c>
       <c r="B50" s="7"/>
       <c t="s" r="C50" s="8">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="D50" s="8"/>
       <c r="E50" s="8"/>
@@ -2596,18 +2611,18 @@
       <c r="J50" s="9"/>
       <c r="K50" s="9"/>
       <c t="s" r="L50" s="10">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
-        <v>144</v>
+        <v>147</v>
       </c>
       <c t="s" r="Q50" s="12">
-        <v>80</v>
+        <v>82</v>
       </c>
     </row>
     <row r="51" ht="25.5" customHeight="1">
@@ -2616,20 +2631,20 @@
       </c>
       <c r="B51" s="7"/>
       <c t="s" r="C51" s="8">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="D51" s="8"/>
       <c r="E51" s="8"/>
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>31</v>
+        <v>149</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
       <c r="K51" s="9"/>
       <c t="s" r="L51" s="10">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
@@ -2637,7 +2652,7 @@
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
-        <v>151</v>
+        <v>29</v>
       </c>
       <c t="s" r="Q51" s="12">
         <v>12</v>
@@ -2649,31 +2664,31 @@
       </c>
       <c r="B52" s="7"/>
       <c t="s" r="C52" s="8">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="D52" s="8"/>
       <c r="E52" s="8"/>
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>153</v>
+        <v>31</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
       <c r="K52" s="9"/>
       <c t="s" r="L52" s="10">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c t="s" r="Q52" s="12">
-        <v>12</v>
+        <v>70</v>
       </c>
     </row>
     <row r="53" ht="24.75" customHeight="1">
@@ -2682,31 +2697,31 @@
       </c>
       <c r="B53" s="7"/>
       <c t="s" r="C53" s="8">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="D53" s="8"/>
       <c r="E53" s="8"/>
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
       <c r="K53" s="9"/>
       <c t="s" r="L53" s="10">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
-        <v>157</v>
+        <v>146</v>
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
-        <v>158</v>
+        <v>147</v>
       </c>
       <c t="s" r="Q53" s="12">
-        <v>12</v>
+        <v>82</v>
       </c>
     </row>
     <row r="54" ht="25.5" customHeight="1">
@@ -2715,31 +2730,31 @@
       </c>
       <c r="B54" s="7"/>
       <c t="s" r="C54" s="8">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="D54" s="8"/>
       <c r="E54" s="8"/>
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>160</v>
+        <v>31</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
       <c r="K54" s="9"/>
       <c t="s" r="L54" s="10">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
-        <v>161</v>
+        <v>156</v>
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
-        <v>162</v>
+        <v>157</v>
       </c>
       <c t="s" r="Q54" s="12">
-        <v>80</v>
+        <v>12</v>
       </c>
     </row>
     <row r="55" ht="24.75" customHeight="1">
@@ -2748,28 +2763,28 @@
       </c>
       <c r="B55" s="7"/>
       <c t="s" r="C55" s="8">
-        <v>163</v>
+        <v>158</v>
       </c>
       <c r="D55" s="8"/>
       <c r="E55" s="8"/>
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>31</v>
+        <v>159</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
       <c r="K55" s="9"/>
       <c t="s" r="L55" s="10">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c t="s" r="Q55" s="12">
         <v>12</v>
@@ -2781,28 +2796,28 @@
       </c>
       <c r="B56" s="7"/>
       <c t="s" r="C56" s="8">
-        <v>166</v>
+        <v>162</v>
       </c>
       <c r="D56" s="8"/>
       <c r="E56" s="8"/>
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>12</v>
+        <v>27</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
       <c r="K56" s="9"/>
       <c t="s" r="L56" s="10">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
-        <v>167</v>
+        <v>163</v>
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c t="s" r="Q56" s="12">
         <v>12</v>
@@ -2814,66 +2829,165 @@
       </c>
       <c r="B57" s="7"/>
       <c t="s" r="C57" s="8">
-        <v>169</v>
+        <v>165</v>
       </c>
       <c r="D57" s="8"/>
       <c r="E57" s="8"/>
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>170</v>
+        <v>166</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
       <c r="K57" s="9"/>
       <c t="s" r="L57" s="10">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
+        <v>168</v>
+      </c>
+      <c t="s" r="Q57" s="12">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="58" ht="24.75" customHeight="1">
+      <c r="A58" s="7">
+        <v>52</v>
+      </c>
+      <c r="B58" s="7"/>
+      <c t="s" r="C58" s="8">
+        <v>169</v>
+      </c>
+      <c r="D58" s="8"/>
+      <c r="E58" s="8"/>
+      <c r="F58" s="8"/>
+      <c r="G58" s="8"/>
+      <c t="s" r="H58" s="9">
+        <v>31</v>
+      </c>
+      <c r="I58" s="9"/>
+      <c r="J58" s="9"/>
+      <c r="K58" s="9"/>
+      <c t="s" r="L58" s="10">
+        <v>106</v>
+      </c>
+      <c r="M58" s="10"/>
+      <c t="s" r="N58" s="8">
+        <v>170</v>
+      </c>
+      <c r="O58" s="8"/>
+      <c t="s" r="P58" s="11">
+        <v>171</v>
+      </c>
+      <c t="s" r="Q58" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="59" ht="25.5" customHeight="1">
+      <c r="A59" s="7">
+        <v>53</v>
+      </c>
+      <c r="B59" s="7"/>
+      <c t="s" r="C59" s="8">
         <v>172</v>
       </c>
-      <c t="s" r="Q57" s="12">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="58" ht="24.75" customHeight="1">
-      <c r="P58" s="13">
-        <v>3738.6350000000002</v>
-      </c>
-      <c r="Q58" s="13"/>
-    </row>
-    <row r="59" ht="16.5" customHeight="1">
-      <c t="s" r="A59" s="14">
+      <c r="D59" s="8"/>
+      <c r="E59" s="8"/>
+      <c r="F59" s="8"/>
+      <c r="G59" s="8"/>
+      <c t="s" r="H59" s="9">
+        <v>12</v>
+      </c>
+      <c r="I59" s="9"/>
+      <c r="J59" s="9"/>
+      <c r="K59" s="9"/>
+      <c t="s" r="L59" s="10">
+        <v>106</v>
+      </c>
+      <c r="M59" s="10"/>
+      <c t="s" r="N59" s="8">
         <v>173</v>
       </c>
-      <c r="B59" s="14"/>
-      <c r="C59" s="14"/>
-      <c r="D59" s="14"/>
-      <c r="E59" s="14"/>
-      <c r="F59" s="14"/>
-      <c t="s" r="G59" s="15">
+      <c r="O59" s="8"/>
+      <c t="s" r="P59" s="11">
+        <v>168</v>
+      </c>
+      <c t="s" r="Q59" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="60" ht="24.75" customHeight="1">
+      <c r="A60" s="7">
+        <v>54</v>
+      </c>
+      <c r="B60" s="7"/>
+      <c t="s" r="C60" s="8">
         <v>174</v>
       </c>
-      <c r="H59" s="15"/>
-      <c r="I59" s="15"/>
-      <c r="J59" s="16"/>
-      <c t="s" r="K59" s="17">
+      <c r="D60" s="8"/>
+      <c r="E60" s="8"/>
+      <c r="F60" s="8"/>
+      <c r="G60" s="8"/>
+      <c t="s" r="H60" s="9">
         <v>175</v>
       </c>
-      <c r="L59" s="17"/>
-      <c r="M59" s="17"/>
-      <c r="N59" s="17"/>
-      <c r="O59" s="17"/>
-      <c r="P59" s="17"/>
-      <c r="Q59" s="17"/>
+      <c r="I60" s="9"/>
+      <c r="J60" s="9"/>
+      <c r="K60" s="9"/>
+      <c t="s" r="L60" s="10">
+        <v>106</v>
+      </c>
+      <c r="M60" s="10"/>
+      <c t="s" r="N60" s="8">
+        <v>176</v>
+      </c>
+      <c r="O60" s="8"/>
+      <c t="s" r="P60" s="11">
+        <v>177</v>
+      </c>
+      <c t="s" r="Q60" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="61" ht="25.5" customHeight="1">
+      <c r="P61" s="13">
+        <v>3875.6350000000002</v>
+      </c>
+      <c r="Q61" s="13"/>
+    </row>
+    <row r="62" ht="16.5" customHeight="1">
+      <c t="s" r="A62" s="14">
+        <v>178</v>
+      </c>
+      <c r="B62" s="14"/>
+      <c r="C62" s="14"/>
+      <c r="D62" s="14"/>
+      <c r="E62" s="14"/>
+      <c r="F62" s="14"/>
+      <c t="s" r="G62" s="15">
+        <v>179</v>
+      </c>
+      <c r="H62" s="15"/>
+      <c r="I62" s="15"/>
+      <c r="J62" s="16"/>
+      <c t="s" r="K62" s="17">
+        <v>180</v>
+      </c>
+      <c r="L62" s="17"/>
+      <c r="M62" s="17"/>
+      <c r="N62" s="17"/>
+      <c r="O62" s="17"/>
+      <c r="P62" s="17"/>
+      <c r="Q62" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="267">
+  <mergeCells count="282">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -3137,10 +3251,25 @@
     <mergeCell ref="H57:K57"/>
     <mergeCell ref="L57:M57"/>
     <mergeCell ref="N57:O57"/>
-    <mergeCell ref="P58:Q58"/>
-    <mergeCell ref="A59:F59"/>
-    <mergeCell ref="G59:I59"/>
-    <mergeCell ref="K59:Q59"/>
+    <mergeCell ref="A58:B58"/>
+    <mergeCell ref="C58:G58"/>
+    <mergeCell ref="H58:K58"/>
+    <mergeCell ref="L58:M58"/>
+    <mergeCell ref="N58:O58"/>
+    <mergeCell ref="A59:B59"/>
+    <mergeCell ref="C59:G59"/>
+    <mergeCell ref="H59:K59"/>
+    <mergeCell ref="L59:M59"/>
+    <mergeCell ref="N59:O59"/>
+    <mergeCell ref="A60:B60"/>
+    <mergeCell ref="C60:G60"/>
+    <mergeCell ref="H60:K60"/>
+    <mergeCell ref="L60:M60"/>
+    <mergeCell ref="N60:O60"/>
+    <mergeCell ref="P61:Q61"/>
+    <mergeCell ref="A62:F62"/>
+    <mergeCell ref="G62:I62"/>
+    <mergeCell ref="K62:Q62"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-08-08_00-00.xlsx
+++ b/DaySale_2025-08-08_00-00.xlsx
@@ -125,6 +125,18 @@
     <t>58.4100</t>
   </si>
   <si>
+    <t>CEFOTAX 1GM I.M./I.V. VIAL - EIPICO</t>
+  </si>
+  <si>
+    <t>6:0</t>
+  </si>
+  <si>
+    <t>43.00</t>
+  </si>
+  <si>
+    <t>43.0000</t>
+  </si>
+  <si>
     <t>CEPOREX 1GM 8 TABLETS</t>
   </si>
   <si>
@@ -158,6 +170,18 @@
     <t>47.0250</t>
   </si>
   <si>
+    <t>DECLOPHEN 75MG/3ML 3 AMPOULES</t>
+  </si>
+  <si>
+    <t>5:0</t>
+  </si>
+  <si>
+    <t>36.00</t>
+  </si>
+  <si>
+    <t>23.7600</t>
+  </si>
+  <si>
     <t>DIAMONRECTA 5 MG 30 F.C. TAB.</t>
   </si>
   <si>
@@ -176,9 +200,6 @@
     <t>895.0000</t>
   </si>
   <si>
-    <t>5:0</t>
-  </si>
-  <si>
     <t>DIOMACTE 1000MG/5ML SUSP. 60 ML</t>
   </si>
   <si>
@@ -464,6 +485,15 @@
     <t>27.00</t>
   </si>
   <si>
+    <t>سرنجات 10 سم</t>
+  </si>
+  <si>
+    <t>4.00</t>
+  </si>
+  <si>
+    <t>4.0000</t>
+  </si>
+  <si>
     <t>سرنجات 3 سم</t>
   </si>
   <si>
@@ -545,7 +575,7 @@
     <t>24.0000</t>
   </si>
   <si>
-    <t>Friday, 8 August, 2025 7:09 PM</t>
+    <t>Friday, 8 August, 2025 7:22 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1384,7 +1414,7 @@
       <c r="F13" s="8"/>
       <c r="G13" s="8"/>
       <c t="s" r="H13" s="9">
-        <v>16</v>
+        <v>39</v>
       </c>
       <c r="I13" s="9"/>
       <c r="J13" s="9"/>
@@ -1394,14 +1424,14 @@
       </c>
       <c r="M13" s="10"/>
       <c t="s" r="N13" s="8">
-        <v>19</v>
+        <v>40</v>
       </c>
       <c r="O13" s="8"/>
       <c t="s" r="P13" s="11">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c t="s" r="Q13" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="14" ht="25.5" customHeight="1">
@@ -1410,14 +1440,14 @@
       </c>
       <c r="B14" s="7"/>
       <c t="s" r="C14" s="8">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="D14" s="8"/>
       <c r="E14" s="8"/>
       <c r="F14" s="8"/>
       <c r="G14" s="8"/>
       <c t="s" r="H14" s="9">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="I14" s="9"/>
       <c r="J14" s="9"/>
@@ -1427,11 +1457,11 @@
       </c>
       <c r="M14" s="10"/>
       <c t="s" r="N14" s="8">
-        <v>41</v>
+        <v>19</v>
       </c>
       <c r="O14" s="8"/>
       <c t="s" r="P14" s="11">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c t="s" r="Q14" s="12">
         <v>16</v>
@@ -1443,14 +1473,14 @@
       </c>
       <c r="B15" s="7"/>
       <c t="s" r="C15" s="8">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D15" s="8"/>
       <c r="E15" s="8"/>
       <c r="F15" s="8"/>
       <c r="G15" s="8"/>
       <c t="s" r="H15" s="9">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="I15" s="9"/>
       <c r="J15" s="9"/>
@@ -1460,14 +1490,14 @@
       </c>
       <c r="M15" s="10"/>
       <c t="s" r="N15" s="8">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="O15" s="8"/>
       <c t="s" r="P15" s="11">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c t="s" r="Q15" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="16" ht="25.5" customHeight="1">
@@ -1476,14 +1506,14 @@
       </c>
       <c r="B16" s="7"/>
       <c t="s" r="C16" s="8">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D16" s="8"/>
       <c r="E16" s="8"/>
       <c r="F16" s="8"/>
       <c r="G16" s="8"/>
       <c t="s" r="H16" s="9">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="I16" s="9"/>
       <c r="J16" s="9"/>
@@ -1493,14 +1523,14 @@
       </c>
       <c r="M16" s="10"/>
       <c t="s" r="N16" s="8">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="O16" s="8"/>
       <c t="s" r="P16" s="11">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c t="s" r="Q16" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="17" ht="25.5" customHeight="1">
@@ -1509,14 +1539,14 @@
       </c>
       <c r="B17" s="7"/>
       <c t="s" r="C17" s="8">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="D17" s="8"/>
       <c r="E17" s="8"/>
       <c r="F17" s="8"/>
       <c r="G17" s="8"/>
       <c t="s" r="H17" s="9">
-        <v>25</v>
+        <v>12</v>
       </c>
       <c r="I17" s="9"/>
       <c r="J17" s="9"/>
@@ -1526,14 +1556,14 @@
       </c>
       <c r="M17" s="10"/>
       <c t="s" r="N17" s="8">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="O17" s="8"/>
       <c t="s" r="P17" s="11">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c t="s" r="Q17" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="18" ht="24.75" customHeight="1">
@@ -1542,14 +1572,14 @@
       </c>
       <c r="B18" s="7"/>
       <c t="s" r="C18" s="8">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="D18" s="8"/>
       <c r="E18" s="8"/>
       <c r="F18" s="8"/>
       <c r="G18" s="8"/>
       <c t="s" r="H18" s="9">
-        <v>31</v>
+        <v>54</v>
       </c>
       <c r="I18" s="9"/>
       <c r="J18" s="9"/>
@@ -1559,14 +1589,14 @@
       </c>
       <c r="M18" s="10"/>
       <c t="s" r="N18" s="8">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="O18" s="8"/>
       <c t="s" r="P18" s="11">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c t="s" r="Q18" s="12">
-        <v>55</v>
+        <v>25</v>
       </c>
     </row>
     <row r="19" ht="25.5" customHeight="1">
@@ -1575,14 +1605,14 @@
       </c>
       <c r="B19" s="7"/>
       <c t="s" r="C19" s="8">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="D19" s="8"/>
       <c r="E19" s="8"/>
       <c r="F19" s="8"/>
       <c r="G19" s="8"/>
       <c t="s" r="H19" s="9">
-        <v>12</v>
+        <v>25</v>
       </c>
       <c r="I19" s="9"/>
       <c r="J19" s="9"/>
@@ -1592,14 +1622,14 @@
       </c>
       <c r="M19" s="10"/>
       <c t="s" r="N19" s="8">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="O19" s="8"/>
       <c t="s" r="P19" s="11">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c t="s" r="Q19" s="12">
-        <v>12</v>
+        <v>25</v>
       </c>
     </row>
     <row r="20" ht="24.75" customHeight="1">
@@ -1608,14 +1638,14 @@
       </c>
       <c r="B20" s="7"/>
       <c t="s" r="C20" s="8">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="D20" s="8"/>
       <c r="E20" s="8"/>
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
       <c t="s" r="H20" s="9">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="I20" s="9"/>
       <c r="J20" s="9"/>
@@ -1625,14 +1655,14 @@
       </c>
       <c r="M20" s="10"/>
       <c t="s" r="N20" s="8">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="O20" s="8"/>
       <c t="s" r="P20" s="11">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c t="s" r="Q20" s="12">
-        <v>16</v>
+        <v>54</v>
       </c>
     </row>
     <row r="21" ht="25.5" customHeight="1">
@@ -1641,14 +1671,14 @@
       </c>
       <c r="B21" s="7"/>
       <c t="s" r="C21" s="8">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="D21" s="8"/>
       <c r="E21" s="8"/>
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
       <c t="s" r="H21" s="9">
-        <v>63</v>
+        <v>12</v>
       </c>
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
@@ -1658,11 +1688,11 @@
       </c>
       <c r="M21" s="10"/>
       <c t="s" r="N21" s="8">
-        <v>32</v>
+        <v>64</v>
       </c>
       <c r="O21" s="8"/>
       <c t="s" r="P21" s="11">
-        <v>33</v>
+        <v>65</v>
       </c>
       <c t="s" r="Q21" s="12">
         <v>12</v>
@@ -1674,14 +1704,14 @@
       </c>
       <c r="B22" s="7"/>
       <c t="s" r="C22" s="8">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="D22" s="8"/>
       <c r="E22" s="8"/>
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c t="s" r="H22" s="9">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
@@ -1691,14 +1721,14 @@
       </c>
       <c r="M22" s="10"/>
       <c t="s" r="N22" s="8">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="O22" s="8"/>
       <c t="s" r="P22" s="11">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c t="s" r="Q22" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="23" ht="24.75" customHeight="1">
@@ -1707,14 +1737,14 @@
       </c>
       <c r="B23" s="7"/>
       <c t="s" r="C23" s="8">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="D23" s="8"/>
       <c r="E23" s="8"/>
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c t="s" r="H23" s="9">
-        <v>27</v>
+        <v>70</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
@@ -1724,14 +1754,14 @@
       </c>
       <c r="M23" s="10"/>
       <c t="s" r="N23" s="8">
-        <v>68</v>
+        <v>32</v>
       </c>
       <c r="O23" s="8"/>
       <c t="s" r="P23" s="11">
-        <v>69</v>
+        <v>33</v>
       </c>
       <c t="s" r="Q23" s="12">
-        <v>70</v>
+        <v>12</v>
       </c>
     </row>
     <row r="24" ht="25.5" customHeight="1">
@@ -1747,7 +1777,7 @@
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>72</v>
+        <v>31</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
@@ -1757,14 +1787,14 @@
       </c>
       <c r="M24" s="10"/>
       <c t="s" r="N24" s="8">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="O24" s="8"/>
       <c t="s" r="P24" s="11">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c t="s" r="Q24" s="12">
-        <v>25</v>
+        <v>12</v>
       </c>
     </row>
     <row r="25" ht="24.75" customHeight="1">
@@ -1773,14 +1803,14 @@
       </c>
       <c r="B25" s="7"/>
       <c t="s" r="C25" s="8">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D25" s="8"/>
       <c r="E25" s="8"/>
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>12</v>
+        <v>27</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
@@ -1790,14 +1820,14 @@
       </c>
       <c r="M25" s="10"/>
       <c t="s" r="N25" s="8">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="O25" s="8"/>
       <c t="s" r="P25" s="11">
+        <v>76</v>
+      </c>
+      <c t="s" r="Q25" s="12">
         <v>77</v>
-      </c>
-      <c t="s" r="Q25" s="12">
-        <v>12</v>
       </c>
     </row>
     <row r="26" ht="25.5" customHeight="1">
@@ -1813,7 +1843,7 @@
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>12</v>
+        <v>79</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
@@ -1823,14 +1853,14 @@
       </c>
       <c r="M26" s="10"/>
       <c t="s" r="N26" s="8">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="O26" s="8"/>
       <c t="s" r="P26" s="11">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c t="s" r="Q26" s="12">
-        <v>12</v>
+        <v>25</v>
       </c>
     </row>
     <row r="27" ht="25.5" customHeight="1">
@@ -1839,14 +1869,14 @@
       </c>
       <c r="B27" s="7"/>
       <c t="s" r="C27" s="8">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="D27" s="8"/>
       <c r="E27" s="8"/>
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>82</v>
+        <v>12</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
@@ -1879,7 +1909,7 @@
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>82</v>
+        <v>12</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
@@ -1889,11 +1919,11 @@
       </c>
       <c r="M28" s="10"/>
       <c t="s" r="N28" s="8">
-        <v>57</v>
+        <v>86</v>
       </c>
       <c r="O28" s="8"/>
       <c t="s" r="P28" s="11">
-        <v>58</v>
+        <v>87</v>
       </c>
       <c t="s" r="Q28" s="12">
         <v>12</v>
@@ -1905,14 +1935,14 @@
       </c>
       <c r="B29" s="7"/>
       <c t="s" r="C29" s="8">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="D29" s="8"/>
       <c r="E29" s="8"/>
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>35</v>
+        <v>89</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
@@ -1922,14 +1952,14 @@
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="O29" s="8"/>
       <c t="s" r="P29" s="11">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c t="s" r="Q29" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="30" ht="24.75" customHeight="1">
@@ -1938,14 +1968,14 @@
       </c>
       <c r="B30" s="7"/>
       <c t="s" r="C30" s="8">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="D30" s="8"/>
       <c r="E30" s="8"/>
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>31</v>
+        <v>89</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
@@ -1955,11 +1985,11 @@
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
-        <v>90</v>
+        <v>64</v>
       </c>
       <c r="O30" s="8"/>
       <c t="s" r="P30" s="11">
-        <v>91</v>
+        <v>65</v>
       </c>
       <c t="s" r="Q30" s="12">
         <v>12</v>
@@ -1971,14 +2001,14 @@
       </c>
       <c r="B31" s="7"/>
       <c t="s" r="C31" s="8">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="D31" s="8"/>
       <c r="E31" s="8"/>
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>93</v>
+        <v>35</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
@@ -1995,7 +2025,7 @@
         <v>95</v>
       </c>
       <c t="s" r="Q31" s="12">
-        <v>70</v>
+        <v>16</v>
       </c>
     </row>
     <row r="32" ht="25.5" customHeight="1">
@@ -2011,7 +2041,7 @@
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
@@ -2028,7 +2058,7 @@
         <v>98</v>
       </c>
       <c t="s" r="Q32" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="33" ht="24.75" customHeight="1">
@@ -2044,7 +2074,7 @@
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>70</v>
+        <v>100</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
@@ -2054,14 +2084,14 @@
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
-        <v>32</v>
+        <v>101</v>
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c t="s" r="Q33" s="12">
-        <v>16</v>
+        <v>77</v>
       </c>
     </row>
     <row r="34" ht="25.5" customHeight="1">
@@ -2070,14 +2100,14 @@
       </c>
       <c r="B34" s="7"/>
       <c t="s" r="C34" s="8">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="D34" s="8"/>
       <c r="E34" s="8"/>
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>12</v>
+        <v>35</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
@@ -2087,11 +2117,11 @@
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c t="s" r="Q34" s="12">
         <v>16</v>
@@ -2103,28 +2133,28 @@
       </c>
       <c r="B35" s="7"/>
       <c t="s" r="C35" s="8">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="D35" s="8"/>
       <c r="E35" s="8"/>
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>105</v>
+        <v>77</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
       <c r="K35" s="9"/>
       <c t="s" r="L35" s="10">
-        <v>106</v>
+        <v>13</v>
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
-        <v>94</v>
+        <v>32</v>
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
-        <v>29</v>
+        <v>107</v>
       </c>
       <c t="s" r="Q35" s="12">
         <v>16</v>
@@ -2136,14 +2166,14 @@
       </c>
       <c r="B36" s="7"/>
       <c t="s" r="C36" s="8">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="D36" s="8"/>
       <c r="E36" s="8"/>
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>27</v>
+        <v>12</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
@@ -2153,14 +2183,14 @@
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c t="s" r="Q36" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="37" ht="25.5" customHeight="1">
@@ -2169,31 +2199,31 @@
       </c>
       <c r="B37" s="7"/>
       <c t="s" r="C37" s="8">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="D37" s="8"/>
       <c r="E37" s="8"/>
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>16</v>
+        <v>112</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
       <c r="K37" s="9"/>
       <c t="s" r="L37" s="10">
-        <v>13</v>
+        <v>113</v>
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>111</v>
+        <v>101</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
-        <v>112</v>
+        <v>29</v>
       </c>
       <c t="s" r="Q37" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="38" ht="24.75" customHeight="1">
@@ -2202,14 +2232,14 @@
       </c>
       <c r="B38" s="7"/>
       <c t="s" r="C38" s="8">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="D38" s="8"/>
       <c r="E38" s="8"/>
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>12</v>
+        <v>27</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
@@ -2219,14 +2249,14 @@
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c t="s" r="Q38" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="39" ht="25.5" customHeight="1">
@@ -2235,14 +2265,14 @@
       </c>
       <c r="B39" s="7"/>
       <c t="s" r="C39" s="8">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="D39" s="8"/>
       <c r="E39" s="8"/>
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>117</v>
+        <v>16</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
@@ -2275,7 +2305,7 @@
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>121</v>
+        <v>12</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
@@ -2285,14 +2315,14 @@
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>19</v>
+        <v>121</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
         <v>122</v>
       </c>
       <c t="s" r="Q40" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="41" ht="25.5" customHeight="1">
@@ -2308,7 +2338,7 @@
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>22</v>
+        <v>124</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
@@ -2318,11 +2348,11 @@
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
-        <v>39</v>
+        <v>126</v>
       </c>
       <c t="s" r="Q41" s="12">
         <v>12</v>
@@ -2334,14 +2364,14 @@
       </c>
       <c r="B42" s="7"/>
       <c t="s" r="C42" s="8">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="D42" s="8"/>
       <c r="E42" s="8"/>
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>105</v>
+        <v>128</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
@@ -2351,14 +2381,14 @@
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>126</v>
+        <v>19</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c t="s" r="Q42" s="12">
-        <v>12</v>
+        <v>25</v>
       </c>
     </row>
     <row r="43" ht="24.75" customHeight="1">
@@ -2367,14 +2397,14 @@
       </c>
       <c r="B43" s="7"/>
       <c t="s" r="C43" s="8">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="D43" s="8"/>
       <c r="E43" s="8"/>
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>82</v>
+        <v>22</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
@@ -2384,14 +2414,14 @@
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>83</v>
+        <v>131</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
-        <v>129</v>
+        <v>43</v>
       </c>
       <c t="s" r="Q43" s="12">
-        <v>82</v>
+        <v>12</v>
       </c>
     </row>
     <row r="44" ht="25.5" customHeight="1">
@@ -2400,14 +2430,14 @@
       </c>
       <c r="B44" s="7"/>
       <c t="s" r="C44" s="8">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="D44" s="8"/>
       <c r="E44" s="8"/>
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>12</v>
+        <v>112</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
@@ -2417,14 +2447,14 @@
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c t="s" r="Q44" s="12">
-        <v>35</v>
+        <v>12</v>
       </c>
     </row>
     <row r="45" ht="24.75" customHeight="1">
@@ -2433,14 +2463,14 @@
       </c>
       <c r="B45" s="7"/>
       <c t="s" r="C45" s="8">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="D45" s="8"/>
       <c r="E45" s="8"/>
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>31</v>
+        <v>89</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
@@ -2450,14 +2480,14 @@
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>83</v>
+        <v>90</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
-        <v>84</v>
+        <v>136</v>
       </c>
       <c t="s" r="Q45" s="12">
-        <v>12</v>
+        <v>89</v>
       </c>
     </row>
     <row r="46" ht="25.5" customHeight="1">
@@ -2466,14 +2496,14 @@
       </c>
       <c r="B46" s="7"/>
       <c t="s" r="C46" s="8">
-        <v>134</v>
+        <v>137</v>
       </c>
       <c r="D46" s="8"/>
       <c r="E46" s="8"/>
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>70</v>
+        <v>12</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
@@ -2483,14 +2513,14 @@
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c t="s" r="Q46" s="12">
-        <v>12</v>
+        <v>35</v>
       </c>
     </row>
     <row r="47" ht="25.5" customHeight="1">
@@ -2499,7 +2529,7 @@
       </c>
       <c r="B47" s="7"/>
       <c t="s" r="C47" s="8">
-        <v>137</v>
+        <v>140</v>
       </c>
       <c r="D47" s="8"/>
       <c r="E47" s="8"/>
@@ -2516,11 +2546,11 @@
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>138</v>
+        <v>90</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
-        <v>103</v>
+        <v>91</v>
       </c>
       <c t="s" r="Q47" s="12">
         <v>12</v>
@@ -2532,14 +2562,14 @@
       </c>
       <c r="B48" s="7"/>
       <c t="s" r="C48" s="8">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="D48" s="8"/>
       <c r="E48" s="8"/>
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
@@ -2549,14 +2579,14 @@
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c t="s" r="Q48" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="49" ht="25.5" customHeight="1">
@@ -2565,7 +2595,7 @@
       </c>
       <c r="B49" s="7"/>
       <c t="s" r="C49" s="8">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="D49" s="8"/>
       <c r="E49" s="8"/>
@@ -2582,11 +2612,11 @@
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
-        <v>144</v>
+        <v>110</v>
       </c>
       <c t="s" r="Q49" s="12">
         <v>12</v>
@@ -2598,31 +2628,31 @@
       </c>
       <c r="B50" s="7"/>
       <c t="s" r="C50" s="8">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="D50" s="8"/>
       <c r="E50" s="8"/>
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>31</v>
+        <v>79</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
       <c r="K50" s="9"/>
       <c t="s" r="L50" s="10">
-        <v>106</v>
+        <v>13</v>
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c t="s" r="Q50" s="12">
-        <v>82</v>
+        <v>16</v>
       </c>
     </row>
     <row r="51" ht="25.5" customHeight="1">
@@ -2631,20 +2661,20 @@
       </c>
       <c r="B51" s="7"/>
       <c t="s" r="C51" s="8">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="D51" s="8"/>
       <c r="E51" s="8"/>
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>149</v>
+        <v>31</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
       <c r="K51" s="9"/>
       <c t="s" r="L51" s="10">
-        <v>106</v>
+        <v>13</v>
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
@@ -2652,7 +2682,7 @@
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
-        <v>29</v>
+        <v>151</v>
       </c>
       <c t="s" r="Q51" s="12">
         <v>12</v>
@@ -2664,7 +2694,7 @@
       </c>
       <c r="B52" s="7"/>
       <c t="s" r="C52" s="8">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="D52" s="8"/>
       <c r="E52" s="8"/>
@@ -2677,18 +2707,18 @@
       <c r="J52" s="9"/>
       <c r="K52" s="9"/>
       <c t="s" r="L52" s="10">
-        <v>106</v>
+        <v>113</v>
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c t="s" r="Q52" s="12">
-        <v>70</v>
+        <v>89</v>
       </c>
     </row>
     <row r="53" ht="24.75" customHeight="1">
@@ -2697,31 +2727,31 @@
       </c>
       <c r="B53" s="7"/>
       <c t="s" r="C53" s="8">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="D53" s="8"/>
       <c r="E53" s="8"/>
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>31</v>
+        <v>156</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
       <c r="K53" s="9"/>
       <c t="s" r="L53" s="10">
-        <v>106</v>
+        <v>113</v>
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
-        <v>146</v>
+        <v>157</v>
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
-        <v>147</v>
+        <v>29</v>
       </c>
       <c t="s" r="Q53" s="12">
-        <v>82</v>
+        <v>12</v>
       </c>
     </row>
     <row r="54" ht="25.5" customHeight="1">
@@ -2730,7 +2760,7 @@
       </c>
       <c r="B54" s="7"/>
       <c t="s" r="C54" s="8">
-        <v>155</v>
+        <v>158</v>
       </c>
       <c r="D54" s="8"/>
       <c r="E54" s="8"/>
@@ -2743,15 +2773,15 @@
       <c r="J54" s="9"/>
       <c r="K54" s="9"/>
       <c t="s" r="L54" s="10">
-        <v>106</v>
+        <v>113</v>
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
-        <v>156</v>
+        <v>159</v>
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
-        <v>157</v>
+        <v>160</v>
       </c>
       <c t="s" r="Q54" s="12">
         <v>12</v>
@@ -2763,31 +2793,31 @@
       </c>
       <c r="B55" s="7"/>
       <c t="s" r="C55" s="8">
-        <v>158</v>
+        <v>161</v>
       </c>
       <c r="D55" s="8"/>
       <c r="E55" s="8"/>
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>159</v>
+        <v>31</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
       <c r="K55" s="9"/>
       <c t="s" r="L55" s="10">
-        <v>106</v>
+        <v>113</v>
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c t="s" r="Q55" s="12">
-        <v>12</v>
+        <v>77</v>
       </c>
     </row>
     <row r="56" ht="25.5" customHeight="1">
@@ -2796,31 +2826,31 @@
       </c>
       <c r="B56" s="7"/>
       <c t="s" r="C56" s="8">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="D56" s="8"/>
       <c r="E56" s="8"/>
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
       <c r="K56" s="9"/>
       <c t="s" r="L56" s="10">
-        <v>106</v>
+        <v>113</v>
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
-        <v>163</v>
+        <v>153</v>
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
-        <v>164</v>
+        <v>154</v>
       </c>
       <c t="s" r="Q56" s="12">
-        <v>12</v>
+        <v>89</v>
       </c>
     </row>
     <row r="57" ht="25.5" customHeight="1">
@@ -2836,24 +2866,24 @@
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>166</v>
+        <v>31</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
       <c r="K57" s="9"/>
       <c t="s" r="L57" s="10">
-        <v>106</v>
+        <v>113</v>
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c t="s" r="Q57" s="12">
-        <v>70</v>
+        <v>12</v>
       </c>
     </row>
     <row r="58" ht="24.75" customHeight="1">
@@ -2862,20 +2892,20 @@
       </c>
       <c r="B58" s="7"/>
       <c t="s" r="C58" s="8">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="D58" s="8"/>
       <c r="E58" s="8"/>
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c t="s" r="H58" s="9">
-        <v>31</v>
+        <v>169</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
       <c r="K58" s="9"/>
       <c t="s" r="L58" s="10">
-        <v>106</v>
+        <v>113</v>
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
@@ -2902,13 +2932,13 @@
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c t="s" r="H59" s="9">
-        <v>12</v>
+        <v>27</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
       <c r="K59" s="9"/>
       <c t="s" r="L59" s="10">
-        <v>106</v>
+        <v>113</v>
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
@@ -2916,7 +2946,7 @@
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
-        <v>168</v>
+        <v>174</v>
       </c>
       <c t="s" r="Q59" s="12">
         <v>12</v>
@@ -2928,66 +2958,165 @@
       </c>
       <c r="B60" s="7"/>
       <c t="s" r="C60" s="8">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="D60" s="8"/>
       <c r="E60" s="8"/>
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c t="s" r="H60" s="9">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
       <c r="K60" s="9"/>
       <c t="s" r="L60" s="10">
-        <v>106</v>
+        <v>113</v>
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c t="s" r="Q60" s="12">
-        <v>12</v>
+        <v>77</v>
       </c>
     </row>
     <row r="61" ht="25.5" customHeight="1">
-      <c r="P61" s="13">
-        <v>3875.6350000000002</v>
-      </c>
-      <c r="Q61" s="13"/>
-    </row>
-    <row r="62" ht="16.5" customHeight="1">
-      <c t="s" r="A62" s="14">
+      <c r="A61" s="7">
+        <v>55</v>
+      </c>
+      <c r="B61" s="7"/>
+      <c t="s" r="C61" s="8">
+        <v>179</v>
+      </c>
+      <c r="D61" s="8"/>
+      <c r="E61" s="8"/>
+      <c r="F61" s="8"/>
+      <c r="G61" s="8"/>
+      <c t="s" r="H61" s="9">
+        <v>31</v>
+      </c>
+      <c r="I61" s="9"/>
+      <c r="J61" s="9"/>
+      <c r="K61" s="9"/>
+      <c t="s" r="L61" s="10">
+        <v>113</v>
+      </c>
+      <c r="M61" s="10"/>
+      <c t="s" r="N61" s="8">
+        <v>180</v>
+      </c>
+      <c r="O61" s="8"/>
+      <c t="s" r="P61" s="11">
+        <v>181</v>
+      </c>
+      <c t="s" r="Q61" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="62" ht="25.5" customHeight="1">
+      <c r="A62" s="7">
+        <v>56</v>
+      </c>
+      <c r="B62" s="7"/>
+      <c t="s" r="C62" s="8">
+        <v>182</v>
+      </c>
+      <c r="D62" s="8"/>
+      <c r="E62" s="8"/>
+      <c r="F62" s="8"/>
+      <c r="G62" s="8"/>
+      <c t="s" r="H62" s="9">
+        <v>12</v>
+      </c>
+      <c r="I62" s="9"/>
+      <c r="J62" s="9"/>
+      <c r="K62" s="9"/>
+      <c t="s" r="L62" s="10">
+        <v>113</v>
+      </c>
+      <c r="M62" s="10"/>
+      <c t="s" r="N62" s="8">
+        <v>183</v>
+      </c>
+      <c r="O62" s="8"/>
+      <c t="s" r="P62" s="11">
         <v>178</v>
       </c>
-      <c r="B62" s="14"/>
-      <c r="C62" s="14"/>
-      <c r="D62" s="14"/>
-      <c r="E62" s="14"/>
-      <c r="F62" s="14"/>
-      <c t="s" r="G62" s="15">
-        <v>179</v>
-      </c>
-      <c r="H62" s="15"/>
-      <c r="I62" s="15"/>
-      <c r="J62" s="16"/>
-      <c t="s" r="K62" s="17">
-        <v>180</v>
-      </c>
-      <c r="L62" s="17"/>
-      <c r="M62" s="17"/>
-      <c r="N62" s="17"/>
-      <c r="O62" s="17"/>
-      <c r="P62" s="17"/>
-      <c r="Q62" s="17"/>
+      <c t="s" r="Q62" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="63" ht="24.75" customHeight="1">
+      <c r="A63" s="7">
+        <v>57</v>
+      </c>
+      <c r="B63" s="7"/>
+      <c t="s" r="C63" s="8">
+        <v>184</v>
+      </c>
+      <c r="D63" s="8"/>
+      <c r="E63" s="8"/>
+      <c r="F63" s="8"/>
+      <c r="G63" s="8"/>
+      <c t="s" r="H63" s="9">
+        <v>185</v>
+      </c>
+      <c r="I63" s="9"/>
+      <c r="J63" s="9"/>
+      <c r="K63" s="9"/>
+      <c t="s" r="L63" s="10">
+        <v>113</v>
+      </c>
+      <c r="M63" s="10"/>
+      <c t="s" r="N63" s="8">
+        <v>186</v>
+      </c>
+      <c r="O63" s="8"/>
+      <c t="s" r="P63" s="11">
+        <v>187</v>
+      </c>
+      <c t="s" r="Q63" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="64" ht="25.5" customHeight="1">
+      <c r="P64" s="13">
+        <v>3946.395</v>
+      </c>
+      <c r="Q64" s="13"/>
+    </row>
+    <row r="65" ht="16.5" customHeight="1">
+      <c t="s" r="A65" s="14">
+        <v>188</v>
+      </c>
+      <c r="B65" s="14"/>
+      <c r="C65" s="14"/>
+      <c r="D65" s="14"/>
+      <c r="E65" s="14"/>
+      <c r="F65" s="14"/>
+      <c t="s" r="G65" s="15">
+        <v>189</v>
+      </c>
+      <c r="H65" s="15"/>
+      <c r="I65" s="15"/>
+      <c r="J65" s="16"/>
+      <c t="s" r="K65" s="17">
+        <v>190</v>
+      </c>
+      <c r="L65" s="17"/>
+      <c r="M65" s="17"/>
+      <c r="N65" s="17"/>
+      <c r="O65" s="17"/>
+      <c r="P65" s="17"/>
+      <c r="Q65" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="282">
+  <mergeCells count="297">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -3266,10 +3395,25 @@
     <mergeCell ref="H60:K60"/>
     <mergeCell ref="L60:M60"/>
     <mergeCell ref="N60:O60"/>
-    <mergeCell ref="P61:Q61"/>
-    <mergeCell ref="A62:F62"/>
-    <mergeCell ref="G62:I62"/>
-    <mergeCell ref="K62:Q62"/>
+    <mergeCell ref="A61:B61"/>
+    <mergeCell ref="C61:G61"/>
+    <mergeCell ref="H61:K61"/>
+    <mergeCell ref="L61:M61"/>
+    <mergeCell ref="N61:O61"/>
+    <mergeCell ref="A62:B62"/>
+    <mergeCell ref="C62:G62"/>
+    <mergeCell ref="H62:K62"/>
+    <mergeCell ref="L62:M62"/>
+    <mergeCell ref="N62:O62"/>
+    <mergeCell ref="A63:B63"/>
+    <mergeCell ref="C63:G63"/>
+    <mergeCell ref="H63:K63"/>
+    <mergeCell ref="L63:M63"/>
+    <mergeCell ref="N63:O63"/>
+    <mergeCell ref="P64:Q64"/>
+    <mergeCell ref="A65:F65"/>
+    <mergeCell ref="G65:I65"/>
+    <mergeCell ref="K65:Q65"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-08-08_00-00.xlsx
+++ b/DaySale_2025-08-08_00-00.xlsx
@@ -434,6 +434,12 @@
     <t>UROSOLVINE EFF. GRAN. 12 SACHETS</t>
   </si>
   <si>
+    <t>VETOCETAMOL 24 TAB.</t>
+  </si>
+  <si>
+    <t>18.0000</t>
+  </si>
+  <si>
     <t>VIDROP 2800 I.U./ML ORAL DROPS 15 ML</t>
   </si>
   <si>
@@ -575,7 +581,7 @@
     <t>24.0000</t>
   </si>
   <si>
-    <t>Friday, 8 August, 2025 7:22 PM</t>
+    <t>Friday, 8 August, 2025 7:32 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -2569,7 +2575,7 @@
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>77</v>
+        <v>35</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
@@ -2579,14 +2585,14 @@
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>142</v>
+        <v>55</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c t="s" r="Q48" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="49" ht="25.5" customHeight="1">
@@ -2595,14 +2601,14 @@
       </c>
       <c r="B49" s="7"/>
       <c t="s" r="C49" s="8">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="D49" s="8"/>
       <c r="E49" s="8"/>
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>31</v>
+        <v>77</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
@@ -2612,11 +2618,11 @@
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
-        <v>110</v>
+        <v>145</v>
       </c>
       <c t="s" r="Q49" s="12">
         <v>12</v>
@@ -2635,7 +2641,7 @@
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>79</v>
+        <v>31</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
@@ -2649,10 +2655,10 @@
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
-        <v>148</v>
+        <v>110</v>
       </c>
       <c t="s" r="Q50" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="51" ht="25.5" customHeight="1">
@@ -2661,14 +2667,14 @@
       </c>
       <c r="B51" s="7"/>
       <c t="s" r="C51" s="8">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="D51" s="8"/>
       <c r="E51" s="8"/>
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>31</v>
+        <v>79</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
@@ -2678,14 +2684,14 @@
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c t="s" r="Q51" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="52" ht="25.5" customHeight="1">
@@ -2694,7 +2700,7 @@
       </c>
       <c r="B52" s="7"/>
       <c t="s" r="C52" s="8">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="D52" s="8"/>
       <c r="E52" s="8"/>
@@ -2707,18 +2713,18 @@
       <c r="J52" s="9"/>
       <c r="K52" s="9"/>
       <c t="s" r="L52" s="10">
-        <v>113</v>
+        <v>13</v>
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c t="s" r="Q52" s="12">
-        <v>89</v>
+        <v>12</v>
       </c>
     </row>
     <row r="53" ht="24.75" customHeight="1">
@@ -2727,14 +2733,14 @@
       </c>
       <c r="B53" s="7"/>
       <c t="s" r="C53" s="8">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="D53" s="8"/>
       <c r="E53" s="8"/>
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>156</v>
+        <v>31</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
@@ -2744,14 +2750,14 @@
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
-        <v>29</v>
+        <v>156</v>
       </c>
       <c t="s" r="Q53" s="12">
-        <v>12</v>
+        <v>89</v>
       </c>
     </row>
     <row r="54" ht="25.5" customHeight="1">
@@ -2760,14 +2766,14 @@
       </c>
       <c r="B54" s="7"/>
       <c t="s" r="C54" s="8">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="D54" s="8"/>
       <c r="E54" s="8"/>
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>31</v>
+        <v>158</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
@@ -2781,7 +2787,7 @@
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
-        <v>160</v>
+        <v>29</v>
       </c>
       <c t="s" r="Q54" s="12">
         <v>12</v>
@@ -2793,7 +2799,7 @@
       </c>
       <c r="B55" s="7"/>
       <c t="s" r="C55" s="8">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="D55" s="8"/>
       <c r="E55" s="8"/>
@@ -2810,14 +2816,14 @@
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c t="s" r="Q55" s="12">
-        <v>77</v>
+        <v>12</v>
       </c>
     </row>
     <row r="56" ht="25.5" customHeight="1">
@@ -2826,7 +2832,7 @@
       </c>
       <c r="B56" s="7"/>
       <c t="s" r="C56" s="8">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="D56" s="8"/>
       <c r="E56" s="8"/>
@@ -2843,14 +2849,14 @@
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
-        <v>153</v>
+        <v>164</v>
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
-        <v>154</v>
+        <v>165</v>
       </c>
       <c t="s" r="Q56" s="12">
-        <v>89</v>
+        <v>77</v>
       </c>
     </row>
     <row r="57" ht="25.5" customHeight="1">
@@ -2859,7 +2865,7 @@
       </c>
       <c r="B57" s="7"/>
       <c t="s" r="C57" s="8">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="D57" s="8"/>
       <c r="E57" s="8"/>
@@ -2876,14 +2882,14 @@
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
-        <v>166</v>
+        <v>155</v>
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
-        <v>167</v>
+        <v>156</v>
       </c>
       <c t="s" r="Q57" s="12">
-        <v>12</v>
+        <v>89</v>
       </c>
     </row>
     <row r="58" ht="24.75" customHeight="1">
@@ -2892,14 +2898,14 @@
       </c>
       <c r="B58" s="7"/>
       <c t="s" r="C58" s="8">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="D58" s="8"/>
       <c r="E58" s="8"/>
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c t="s" r="H58" s="9">
-        <v>169</v>
+        <v>31</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
@@ -2909,11 +2915,11 @@
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c t="s" r="Q58" s="12">
         <v>12</v>
@@ -2925,14 +2931,14 @@
       </c>
       <c r="B59" s="7"/>
       <c t="s" r="C59" s="8">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="D59" s="8"/>
       <c r="E59" s="8"/>
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c t="s" r="H59" s="9">
-        <v>27</v>
+        <v>171</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
@@ -2942,11 +2948,11 @@
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c t="s" r="Q59" s="12">
         <v>12</v>
@@ -2958,14 +2964,14 @@
       </c>
       <c r="B60" s="7"/>
       <c t="s" r="C60" s="8">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="D60" s="8"/>
       <c r="E60" s="8"/>
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c t="s" r="H60" s="9">
-        <v>176</v>
+        <v>27</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
@@ -2975,14 +2981,14 @@
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c t="s" r="Q60" s="12">
-        <v>77</v>
+        <v>12</v>
       </c>
     </row>
     <row r="61" ht="25.5" customHeight="1">
@@ -2991,14 +2997,14 @@
       </c>
       <c r="B61" s="7"/>
       <c t="s" r="C61" s="8">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="D61" s="8"/>
       <c r="E61" s="8"/>
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
       <c t="s" r="H61" s="9">
-        <v>31</v>
+        <v>178</v>
       </c>
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
@@ -3008,14 +3014,14 @@
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c t="s" r="Q61" s="12">
-        <v>12</v>
+        <v>77</v>
       </c>
     </row>
     <row r="62" ht="25.5" customHeight="1">
@@ -3024,14 +3030,14 @@
       </c>
       <c r="B62" s="7"/>
       <c t="s" r="C62" s="8">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="D62" s="8"/>
       <c r="E62" s="8"/>
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
       <c t="s" r="H62" s="9">
-        <v>12</v>
+        <v>31</v>
       </c>
       <c r="I62" s="9"/>
       <c r="J62" s="9"/>
@@ -3041,11 +3047,11 @@
       </c>
       <c r="M62" s="10"/>
       <c t="s" r="N62" s="8">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
-        <v>178</v>
+        <v>183</v>
       </c>
       <c t="s" r="Q62" s="12">
         <v>12</v>
@@ -3064,7 +3070,7 @@
       <c r="F63" s="8"/>
       <c r="G63" s="8"/>
       <c t="s" r="H63" s="9">
-        <v>185</v>
+        <v>12</v>
       </c>
       <c r="I63" s="9"/>
       <c r="J63" s="9"/>
@@ -3074,49 +3080,82 @@
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="O63" s="8"/>
       <c t="s" r="P63" s="11">
+        <v>180</v>
+      </c>
+      <c t="s" r="Q63" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="64" ht="25.5" customHeight="1">
+      <c r="A64" s="7">
+        <v>58</v>
+      </c>
+      <c r="B64" s="7"/>
+      <c t="s" r="C64" s="8">
+        <v>186</v>
+      </c>
+      <c r="D64" s="8"/>
+      <c r="E64" s="8"/>
+      <c r="F64" s="8"/>
+      <c r="G64" s="8"/>
+      <c t="s" r="H64" s="9">
         <v>187</v>
       </c>
-      <c t="s" r="Q63" s="12">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="64" ht="25.5" customHeight="1">
-      <c r="P64" s="13">
-        <v>3946.395</v>
-      </c>
-      <c r="Q64" s="13"/>
-    </row>
-    <row r="65" ht="16.5" customHeight="1">
-      <c t="s" r="A65" s="14">
+      <c r="I64" s="9"/>
+      <c r="J64" s="9"/>
+      <c r="K64" s="9"/>
+      <c t="s" r="L64" s="10">
+        <v>113</v>
+      </c>
+      <c r="M64" s="10"/>
+      <c t="s" r="N64" s="8">
         <v>188</v>
       </c>
-      <c r="B65" s="14"/>
-      <c r="C65" s="14"/>
-      <c r="D65" s="14"/>
-      <c r="E65" s="14"/>
-      <c r="F65" s="14"/>
-      <c t="s" r="G65" s="15">
+      <c r="O64" s="8"/>
+      <c t="s" r="P64" s="11">
         <v>189</v>
       </c>
-      <c r="H65" s="15"/>
-      <c r="I65" s="15"/>
-      <c r="J65" s="16"/>
-      <c t="s" r="K65" s="17">
+      <c t="s" r="Q64" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="65" ht="24.75" customHeight="1">
+      <c r="P65" s="13">
+        <v>3964.395</v>
+      </c>
+      <c r="Q65" s="13"/>
+    </row>
+    <row r="66" ht="16.5" customHeight="1">
+      <c t="s" r="A66" s="14">
         <v>190</v>
       </c>
-      <c r="L65" s="17"/>
-      <c r="M65" s="17"/>
-      <c r="N65" s="17"/>
-      <c r="O65" s="17"/>
-      <c r="P65" s="17"/>
-      <c r="Q65" s="17"/>
+      <c r="B66" s="14"/>
+      <c r="C66" s="14"/>
+      <c r="D66" s="14"/>
+      <c r="E66" s="14"/>
+      <c r="F66" s="14"/>
+      <c t="s" r="G66" s="15">
+        <v>191</v>
+      </c>
+      <c r="H66" s="15"/>
+      <c r="I66" s="15"/>
+      <c r="J66" s="16"/>
+      <c t="s" r="K66" s="17">
+        <v>192</v>
+      </c>
+      <c r="L66" s="17"/>
+      <c r="M66" s="17"/>
+      <c r="N66" s="17"/>
+      <c r="O66" s="17"/>
+      <c r="P66" s="17"/>
+      <c r="Q66" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="297">
+  <mergeCells count="302">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -3410,10 +3449,15 @@
     <mergeCell ref="H63:K63"/>
     <mergeCell ref="L63:M63"/>
     <mergeCell ref="N63:O63"/>
-    <mergeCell ref="P64:Q64"/>
-    <mergeCell ref="A65:F65"/>
-    <mergeCell ref="G65:I65"/>
-    <mergeCell ref="K65:Q65"/>
+    <mergeCell ref="A64:B64"/>
+    <mergeCell ref="C64:G64"/>
+    <mergeCell ref="H64:K64"/>
+    <mergeCell ref="L64:M64"/>
+    <mergeCell ref="N64:O64"/>
+    <mergeCell ref="P65:Q65"/>
+    <mergeCell ref="A66:F66"/>
+    <mergeCell ref="G66:I66"/>
+    <mergeCell ref="K66:Q66"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-08-08_00-00.xlsx
+++ b/DaySale_2025-08-08_00-00.xlsx
@@ -113,6 +113,15 @@
     <t>48.0000</t>
   </si>
   <si>
+    <t>CARELYTE 2.4/2.5GM GRANULES 280 MG</t>
+  </si>
+  <si>
+    <t>239.00</t>
+  </si>
+  <si>
+    <t>239.0000</t>
+  </si>
+  <si>
     <t>CARNIVITA FORTE 30 F.C. TAB</t>
   </si>
   <si>
@@ -200,6 +209,15 @@
     <t>895.0000</t>
   </si>
   <si>
+    <t>DIGESTOZYME 20 ENTERIC COATED TABLETS (DIGENORM)</t>
+  </si>
+  <si>
+    <t>62.00</t>
+  </si>
+  <si>
+    <t>31.0000</t>
+  </si>
+  <si>
     <t>DIOMACTE 1000MG/5ML SUSP. 60 ML</t>
   </si>
   <si>
@@ -356,9 +374,6 @@
     <t>PANTAZOL 40MG VIAL I.V.</t>
   </si>
   <si>
-    <t>62.00</t>
-  </si>
-  <si>
     <t>62.0000</t>
   </si>
   <si>
@@ -416,6 +431,12 @@
     <t>124.0000</t>
   </si>
   <si>
+    <t>TRIACTIN 4MG 20 TAB</t>
+  </si>
+  <si>
+    <t>46.00</t>
+  </si>
+  <si>
     <t>URAID-N EFF. GRANUL. 12 SACHETS</t>
   </si>
   <si>
@@ -464,6 +485,12 @@
     <t>14.4000</t>
   </si>
   <si>
+    <t>VITAMOUNT FOR WOMEN 15 S.G. CAPS</t>
+  </si>
+  <si>
+    <t>29.7000</t>
+  </si>
+  <si>
     <t>VITASTRESS 20 F.C. TABS.</t>
   </si>
   <si>
@@ -482,6 +509,15 @@
     <t>6.0000</t>
   </si>
   <si>
+    <t>حلاوة حرير</t>
+  </si>
+  <si>
+    <t>20.00</t>
+  </si>
+  <si>
+    <t>20.0000</t>
+  </si>
+  <si>
     <t>ريكسونا حريمي بليه</t>
   </si>
   <si>
@@ -548,9 +584,6 @@
     <t>28:0</t>
   </si>
   <si>
-    <t>20.00</t>
-  </si>
-  <si>
     <t>80.0000</t>
   </si>
   <si>
@@ -581,7 +614,7 @@
     <t>24.0000</t>
   </si>
   <si>
-    <t>Friday, 8 August, 2025 7:32 PM</t>
+    <t>Friday, 8 August, 2025 7:48 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1387,7 +1420,7 @@
       <c r="F12" s="8"/>
       <c r="G12" s="8"/>
       <c t="s" r="H12" s="9">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="I12" s="9"/>
       <c r="J12" s="9"/>
@@ -1397,14 +1430,14 @@
       </c>
       <c r="M12" s="10"/>
       <c t="s" r="N12" s="8">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="O12" s="8"/>
       <c t="s" r="P12" s="11">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c t="s" r="Q12" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="13" ht="24.75" customHeight="1">
@@ -1413,14 +1446,14 @@
       </c>
       <c r="B13" s="7"/>
       <c t="s" r="C13" s="8">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D13" s="8"/>
       <c r="E13" s="8"/>
       <c r="F13" s="8"/>
       <c r="G13" s="8"/>
       <c t="s" r="H13" s="9">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="I13" s="9"/>
       <c r="J13" s="9"/>
@@ -1430,14 +1463,14 @@
       </c>
       <c r="M13" s="10"/>
       <c t="s" r="N13" s="8">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="O13" s="8"/>
       <c t="s" r="P13" s="11">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c t="s" r="Q13" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="14" ht="25.5" customHeight="1">
@@ -1446,14 +1479,14 @@
       </c>
       <c r="B14" s="7"/>
       <c t="s" r="C14" s="8">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D14" s="8"/>
       <c r="E14" s="8"/>
       <c r="F14" s="8"/>
       <c r="G14" s="8"/>
       <c t="s" r="H14" s="9">
-        <v>16</v>
+        <v>42</v>
       </c>
       <c r="I14" s="9"/>
       <c r="J14" s="9"/>
@@ -1463,14 +1496,14 @@
       </c>
       <c r="M14" s="10"/>
       <c t="s" r="N14" s="8">
-        <v>19</v>
+        <v>43</v>
       </c>
       <c r="O14" s="8"/>
       <c t="s" r="P14" s="11">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c t="s" r="Q14" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="15" ht="24.75" customHeight="1">
@@ -1479,14 +1512,14 @@
       </c>
       <c r="B15" s="7"/>
       <c t="s" r="C15" s="8">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D15" s="8"/>
       <c r="E15" s="8"/>
       <c r="F15" s="8"/>
       <c r="G15" s="8"/>
       <c t="s" r="H15" s="9">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="I15" s="9"/>
       <c r="J15" s="9"/>
@@ -1496,7 +1529,7 @@
       </c>
       <c r="M15" s="10"/>
       <c t="s" r="N15" s="8">
-        <v>45</v>
+        <v>19</v>
       </c>
       <c r="O15" s="8"/>
       <c t="s" r="P15" s="11">
@@ -1519,7 +1552,7 @@
       <c r="F16" s="8"/>
       <c r="G16" s="8"/>
       <c t="s" r="H16" s="9">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="I16" s="9"/>
       <c r="J16" s="9"/>
@@ -1536,7 +1569,7 @@
         <v>49</v>
       </c>
       <c t="s" r="Q16" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="17" ht="25.5" customHeight="1">
@@ -1552,7 +1585,7 @@
       <c r="F17" s="8"/>
       <c r="G17" s="8"/>
       <c t="s" r="H17" s="9">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="I17" s="9"/>
       <c r="J17" s="9"/>
@@ -1569,7 +1602,7 @@
         <v>52</v>
       </c>
       <c t="s" r="Q17" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="18" ht="24.75" customHeight="1">
@@ -1585,7 +1618,7 @@
       <c r="F18" s="8"/>
       <c r="G18" s="8"/>
       <c t="s" r="H18" s="9">
-        <v>54</v>
+        <v>12</v>
       </c>
       <c r="I18" s="9"/>
       <c r="J18" s="9"/>
@@ -1595,14 +1628,14 @@
       </c>
       <c r="M18" s="10"/>
       <c t="s" r="N18" s="8">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="O18" s="8"/>
       <c t="s" r="P18" s="11">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c t="s" r="Q18" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="19" ht="25.5" customHeight="1">
@@ -1611,14 +1644,14 @@
       </c>
       <c r="B19" s="7"/>
       <c t="s" r="C19" s="8">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D19" s="8"/>
       <c r="E19" s="8"/>
       <c r="F19" s="8"/>
       <c r="G19" s="8"/>
       <c t="s" r="H19" s="9">
-        <v>25</v>
+        <v>57</v>
       </c>
       <c r="I19" s="9"/>
       <c r="J19" s="9"/>
@@ -1651,7 +1684,7 @@
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
       <c t="s" r="H20" s="9">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="I20" s="9"/>
       <c r="J20" s="9"/>
@@ -1668,7 +1701,7 @@
         <v>62</v>
       </c>
       <c t="s" r="Q20" s="12">
-        <v>54</v>
+        <v>25</v>
       </c>
     </row>
     <row r="21" ht="25.5" customHeight="1">
@@ -1684,7 +1717,7 @@
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
       <c t="s" r="H21" s="9">
-        <v>12</v>
+        <v>31</v>
       </c>
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
@@ -1701,7 +1734,7 @@
         <v>65</v>
       </c>
       <c t="s" r="Q21" s="12">
-        <v>12</v>
+        <v>57</v>
       </c>
     </row>
     <row r="22" ht="25.5" customHeight="1">
@@ -1717,7 +1750,7 @@
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c t="s" r="H22" s="9">
-        <v>25</v>
+        <v>12</v>
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
@@ -1750,7 +1783,7 @@
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c t="s" r="H23" s="9">
-        <v>70</v>
+        <v>12</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
@@ -1760,11 +1793,11 @@
       </c>
       <c r="M23" s="10"/>
       <c t="s" r="N23" s="8">
-        <v>32</v>
+        <v>70</v>
       </c>
       <c r="O23" s="8"/>
       <c t="s" r="P23" s="11">
-        <v>33</v>
+        <v>71</v>
       </c>
       <c t="s" r="Q23" s="12">
         <v>12</v>
@@ -1776,14 +1809,14 @@
       </c>
       <c r="B24" s="7"/>
       <c t="s" r="C24" s="8">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="D24" s="8"/>
       <c r="E24" s="8"/>
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
@@ -1793,14 +1826,14 @@
       </c>
       <c r="M24" s="10"/>
       <c t="s" r="N24" s="8">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="O24" s="8"/>
       <c t="s" r="P24" s="11">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c t="s" r="Q24" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="25" ht="24.75" customHeight="1">
@@ -1809,14 +1842,14 @@
       </c>
       <c r="B25" s="7"/>
       <c t="s" r="C25" s="8">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="D25" s="8"/>
       <c r="E25" s="8"/>
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>27</v>
+        <v>76</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
@@ -1826,14 +1859,14 @@
       </c>
       <c r="M25" s="10"/>
       <c t="s" r="N25" s="8">
-        <v>75</v>
+        <v>32</v>
       </c>
       <c r="O25" s="8"/>
       <c t="s" r="P25" s="11">
-        <v>76</v>
+        <v>33</v>
       </c>
       <c t="s" r="Q25" s="12">
-        <v>77</v>
+        <v>12</v>
       </c>
     </row>
     <row r="26" ht="25.5" customHeight="1">
@@ -1842,14 +1875,14 @@
       </c>
       <c r="B26" s="7"/>
       <c t="s" r="C26" s="8">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D26" s="8"/>
       <c r="E26" s="8"/>
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>79</v>
+        <v>31</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
@@ -1859,14 +1892,14 @@
       </c>
       <c r="M26" s="10"/>
       <c t="s" r="N26" s="8">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="O26" s="8"/>
       <c t="s" r="P26" s="11">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c t="s" r="Q26" s="12">
-        <v>25</v>
+        <v>12</v>
       </c>
     </row>
     <row r="27" ht="25.5" customHeight="1">
@@ -1875,14 +1908,14 @@
       </c>
       <c r="B27" s="7"/>
       <c t="s" r="C27" s="8">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="D27" s="8"/>
       <c r="E27" s="8"/>
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>12</v>
+        <v>27</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
@@ -1892,14 +1925,14 @@
       </c>
       <c r="M27" s="10"/>
       <c t="s" r="N27" s="8">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="O27" s="8"/>
       <c t="s" r="P27" s="11">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c t="s" r="Q27" s="12">
-        <v>12</v>
+        <v>83</v>
       </c>
     </row>
     <row r="28" ht="24.75" customHeight="1">
@@ -1908,14 +1941,14 @@
       </c>
       <c r="B28" s="7"/>
       <c t="s" r="C28" s="8">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D28" s="8"/>
       <c r="E28" s="8"/>
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>12</v>
+        <v>85</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
@@ -1932,7 +1965,7 @@
         <v>87</v>
       </c>
       <c t="s" r="Q28" s="12">
-        <v>12</v>
+        <v>25</v>
       </c>
     </row>
     <row r="29" ht="25.5" customHeight="1">
@@ -1948,7 +1981,7 @@
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>89</v>
+        <v>12</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
@@ -1958,11 +1991,11 @@
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="O29" s="8"/>
       <c t="s" r="P29" s="11">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c t="s" r="Q29" s="12">
         <v>12</v>
@@ -1974,14 +2007,14 @@
       </c>
       <c r="B30" s="7"/>
       <c t="s" r="C30" s="8">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D30" s="8"/>
       <c r="E30" s="8"/>
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>89</v>
+        <v>12</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
@@ -1991,11 +2024,11 @@
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
-        <v>64</v>
+        <v>92</v>
       </c>
       <c r="O30" s="8"/>
       <c t="s" r="P30" s="11">
-        <v>65</v>
+        <v>93</v>
       </c>
       <c t="s" r="Q30" s="12">
         <v>12</v>
@@ -2007,14 +2040,14 @@
       </c>
       <c r="B31" s="7"/>
       <c t="s" r="C31" s="8">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="D31" s="8"/>
       <c r="E31" s="8"/>
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>35</v>
+        <v>95</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
@@ -2024,14 +2057,14 @@
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c t="s" r="Q31" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="32" ht="25.5" customHeight="1">
@@ -2040,14 +2073,14 @@
       </c>
       <c r="B32" s="7"/>
       <c t="s" r="C32" s="8">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="D32" s="8"/>
       <c r="E32" s="8"/>
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>31</v>
+        <v>95</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
@@ -2057,11 +2090,11 @@
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
-        <v>97</v>
+        <v>70</v>
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
-        <v>98</v>
+        <v>71</v>
       </c>
       <c t="s" r="Q32" s="12">
         <v>12</v>
@@ -2080,7 +2113,7 @@
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>100</v>
+        <v>38</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
@@ -2090,14 +2123,14 @@
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c t="s" r="Q33" s="12">
-        <v>77</v>
+        <v>16</v>
       </c>
     </row>
     <row r="34" ht="25.5" customHeight="1">
@@ -2106,14 +2139,14 @@
       </c>
       <c r="B34" s="7"/>
       <c t="s" r="C34" s="8">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="D34" s="8"/>
       <c r="E34" s="8"/>
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
@@ -2123,14 +2156,14 @@
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c t="s" r="Q34" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="35" ht="24.75" customHeight="1">
@@ -2139,14 +2172,14 @@
       </c>
       <c r="B35" s="7"/>
       <c t="s" r="C35" s="8">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D35" s="8"/>
       <c r="E35" s="8"/>
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>77</v>
+        <v>106</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
@@ -2156,14 +2189,14 @@
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
-        <v>32</v>
+        <v>107</v>
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c t="s" r="Q35" s="12">
-        <v>16</v>
+        <v>83</v>
       </c>
     </row>
     <row r="36" ht="25.5" customHeight="1">
@@ -2172,14 +2205,14 @@
       </c>
       <c r="B36" s="7"/>
       <c t="s" r="C36" s="8">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="D36" s="8"/>
       <c r="E36" s="8"/>
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>12</v>
+        <v>38</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
@@ -2189,11 +2222,11 @@
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c t="s" r="Q36" s="12">
         <v>16</v>
@@ -2205,28 +2238,28 @@
       </c>
       <c r="B37" s="7"/>
       <c t="s" r="C37" s="8">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="D37" s="8"/>
       <c r="E37" s="8"/>
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>112</v>
+        <v>83</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
       <c r="K37" s="9"/>
       <c t="s" r="L37" s="10">
-        <v>113</v>
+        <v>13</v>
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>101</v>
+        <v>32</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
-        <v>29</v>
+        <v>113</v>
       </c>
       <c t="s" r="Q37" s="12">
         <v>16</v>
@@ -2245,7 +2278,7 @@
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>27</v>
+        <v>12</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
@@ -2262,7 +2295,7 @@
         <v>116</v>
       </c>
       <c t="s" r="Q38" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="39" ht="25.5" customHeight="1">
@@ -2278,24 +2311,24 @@
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>16</v>
+        <v>118</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
       <c r="K39" s="9"/>
       <c t="s" r="L39" s="10">
-        <v>13</v>
+        <v>119</v>
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>118</v>
+        <v>107</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
-        <v>119</v>
+        <v>29</v>
       </c>
       <c t="s" r="Q39" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="40" ht="24.75" customHeight="1">
@@ -2311,7 +2344,7 @@
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>12</v>
+        <v>27</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
@@ -2321,14 +2354,14 @@
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>121</v>
+        <v>67</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c t="s" r="Q40" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="41" ht="25.5" customHeight="1">
@@ -2337,14 +2370,14 @@
       </c>
       <c r="B41" s="7"/>
       <c t="s" r="C41" s="8">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="D41" s="8"/>
       <c r="E41" s="8"/>
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>124</v>
+        <v>16</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
@@ -2354,11 +2387,11 @@
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c t="s" r="Q41" s="12">
         <v>12</v>
@@ -2370,14 +2403,14 @@
       </c>
       <c r="B42" s="7"/>
       <c t="s" r="C42" s="8">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="D42" s="8"/>
       <c r="E42" s="8"/>
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>128</v>
+        <v>12</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
@@ -2387,14 +2420,14 @@
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>19</v>
+        <v>126</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c t="s" r="Q42" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="43" ht="24.75" customHeight="1">
@@ -2403,14 +2436,14 @@
       </c>
       <c r="B43" s="7"/>
       <c t="s" r="C43" s="8">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="D43" s="8"/>
       <c r="E43" s="8"/>
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>22</v>
+        <v>129</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
@@ -2420,11 +2453,11 @@
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
-        <v>43</v>
+        <v>131</v>
       </c>
       <c t="s" r="Q43" s="12">
         <v>12</v>
@@ -2443,7 +2476,7 @@
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>112</v>
+        <v>133</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
@@ -2453,14 +2486,14 @@
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>133</v>
+        <v>19</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
         <v>134</v>
       </c>
       <c t="s" r="Q44" s="12">
-        <v>12</v>
+        <v>25</v>
       </c>
     </row>
     <row r="45" ht="24.75" customHeight="1">
@@ -2476,7 +2509,7 @@
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>89</v>
+        <v>22</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
@@ -2486,14 +2519,14 @@
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>90</v>
+        <v>136</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
-        <v>136</v>
+        <v>46</v>
       </c>
       <c t="s" r="Q45" s="12">
-        <v>89</v>
+        <v>12</v>
       </c>
     </row>
     <row r="46" ht="25.5" customHeight="1">
@@ -2509,7 +2542,7 @@
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>12</v>
+        <v>118</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
@@ -2526,7 +2559,7 @@
         <v>139</v>
       </c>
       <c t="s" r="Q46" s="12">
-        <v>35</v>
+        <v>12</v>
       </c>
     </row>
     <row r="47" ht="25.5" customHeight="1">
@@ -2542,7 +2575,7 @@
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>31</v>
+        <v>38</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
@@ -2552,14 +2585,14 @@
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>90</v>
+        <v>141</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
-        <v>91</v>
+        <v>116</v>
       </c>
       <c t="s" r="Q47" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="48" ht="24.75" customHeight="1">
@@ -2568,14 +2601,14 @@
       </c>
       <c r="B48" s="7"/>
       <c t="s" r="C48" s="8">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="D48" s="8"/>
       <c r="E48" s="8"/>
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>35</v>
+        <v>95</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
@@ -2585,14 +2618,14 @@
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>55</v>
+        <v>96</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c t="s" r="Q48" s="12">
-        <v>16</v>
+        <v>95</v>
       </c>
     </row>
     <row r="49" ht="25.5" customHeight="1">
@@ -2601,14 +2634,14 @@
       </c>
       <c r="B49" s="7"/>
       <c t="s" r="C49" s="8">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="D49" s="8"/>
       <c r="E49" s="8"/>
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>77</v>
+        <v>12</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
@@ -2618,14 +2651,14 @@
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c t="s" r="Q49" s="12">
-        <v>12</v>
+        <v>38</v>
       </c>
     </row>
     <row r="50" ht="24.75" customHeight="1">
@@ -2634,7 +2667,7 @@
       </c>
       <c r="B50" s="7"/>
       <c t="s" r="C50" s="8">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="D50" s="8"/>
       <c r="E50" s="8"/>
@@ -2651,11 +2684,11 @@
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>147</v>
+        <v>96</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
-        <v>110</v>
+        <v>97</v>
       </c>
       <c t="s" r="Q50" s="12">
         <v>12</v>
@@ -2674,7 +2707,7 @@
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
@@ -2684,11 +2717,11 @@
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>149</v>
+        <v>58</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c t="s" r="Q51" s="12">
         <v>16</v>
@@ -2700,14 +2733,14 @@
       </c>
       <c r="B52" s="7"/>
       <c t="s" r="C52" s="8">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="D52" s="8"/>
       <c r="E52" s="8"/>
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>31</v>
+        <v>83</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
@@ -2717,11 +2750,11 @@
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c t="s" r="Q52" s="12">
         <v>12</v>
@@ -2733,7 +2766,7 @@
       </c>
       <c r="B53" s="7"/>
       <c t="s" r="C53" s="8">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="D53" s="8"/>
       <c r="E53" s="8"/>
@@ -2746,18 +2779,18 @@
       <c r="J53" s="9"/>
       <c r="K53" s="9"/>
       <c t="s" r="L53" s="10">
-        <v>113</v>
+        <v>13</v>
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
-        <v>156</v>
+        <v>116</v>
       </c>
       <c t="s" r="Q53" s="12">
-        <v>89</v>
+        <v>12</v>
       </c>
     </row>
     <row r="54" ht="25.5" customHeight="1">
@@ -2766,31 +2799,31 @@
       </c>
       <c r="B54" s="7"/>
       <c t="s" r="C54" s="8">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="D54" s="8"/>
       <c r="E54" s="8"/>
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>158</v>
+        <v>85</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
       <c r="K54" s="9"/>
       <c t="s" r="L54" s="10">
-        <v>113</v>
+        <v>13</v>
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
-        <v>29</v>
+        <v>157</v>
       </c>
       <c t="s" r="Q54" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="55" ht="24.75" customHeight="1">
@@ -2799,31 +2832,31 @@
       </c>
       <c r="B55" s="7"/>
       <c t="s" r="C55" s="8">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="D55" s="8"/>
       <c r="E55" s="8"/>
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>31</v>
+        <v>12</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
       <c r="K55" s="9"/>
       <c t="s" r="L55" s="10">
-        <v>113</v>
+        <v>13</v>
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
-        <v>161</v>
+        <v>156</v>
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c t="s" r="Q55" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="56" ht="25.5" customHeight="1">
@@ -2832,7 +2865,7 @@
       </c>
       <c r="B56" s="7"/>
       <c t="s" r="C56" s="8">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="D56" s="8"/>
       <c r="E56" s="8"/>
@@ -2845,18 +2878,18 @@
       <c r="J56" s="9"/>
       <c r="K56" s="9"/>
       <c t="s" r="L56" s="10">
-        <v>113</v>
+        <v>13</v>
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c t="s" r="Q56" s="12">
-        <v>77</v>
+        <v>12</v>
       </c>
     </row>
     <row r="57" ht="25.5" customHeight="1">
@@ -2865,7 +2898,7 @@
       </c>
       <c r="B57" s="7"/>
       <c t="s" r="C57" s="8">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="D57" s="8"/>
       <c r="E57" s="8"/>
@@ -2878,18 +2911,18 @@
       <c r="J57" s="9"/>
       <c r="K57" s="9"/>
       <c t="s" r="L57" s="10">
-        <v>113</v>
+        <v>119</v>
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
-        <v>155</v>
+        <v>164</v>
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
-        <v>156</v>
+        <v>165</v>
       </c>
       <c t="s" r="Q57" s="12">
-        <v>89</v>
+        <v>95</v>
       </c>
     </row>
     <row r="58" ht="24.75" customHeight="1">
@@ -2898,28 +2931,28 @@
       </c>
       <c r="B58" s="7"/>
       <c t="s" r="C58" s="8">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="D58" s="8"/>
       <c r="E58" s="8"/>
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c t="s" r="H58" s="9">
-        <v>31</v>
+        <v>12</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
       <c r="K58" s="9"/>
       <c t="s" r="L58" s="10">
-        <v>113</v>
+        <v>119</v>
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c t="s" r="Q58" s="12">
         <v>12</v>
@@ -2931,28 +2964,28 @@
       </c>
       <c r="B59" s="7"/>
       <c t="s" r="C59" s="8">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="D59" s="8"/>
       <c r="E59" s="8"/>
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c t="s" r="H59" s="9">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
       <c r="K59" s="9"/>
       <c t="s" r="L59" s="10">
-        <v>113</v>
+        <v>119</v>
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
-        <v>173</v>
+        <v>29</v>
       </c>
       <c t="s" r="Q59" s="12">
         <v>12</v>
@@ -2964,28 +2997,28 @@
       </c>
       <c r="B60" s="7"/>
       <c t="s" r="C60" s="8">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="D60" s="8"/>
       <c r="E60" s="8"/>
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c t="s" r="H60" s="9">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
       <c r="K60" s="9"/>
       <c t="s" r="L60" s="10">
-        <v>113</v>
+        <v>119</v>
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c t="s" r="Q60" s="12">
         <v>12</v>
@@ -2997,31 +3030,31 @@
       </c>
       <c r="B61" s="7"/>
       <c t="s" r="C61" s="8">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="D61" s="8"/>
       <c r="E61" s="8"/>
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
       <c t="s" r="H61" s="9">
-        <v>178</v>
+        <v>31</v>
       </c>
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
       <c r="K61" s="9"/>
       <c t="s" r="L61" s="10">
-        <v>113</v>
+        <v>119</v>
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c t="s" r="Q61" s="12">
-        <v>77</v>
+        <v>83</v>
       </c>
     </row>
     <row r="62" ht="25.5" customHeight="1">
@@ -3030,7 +3063,7 @@
       </c>
       <c r="B62" s="7"/>
       <c t="s" r="C62" s="8">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="D62" s="8"/>
       <c r="E62" s="8"/>
@@ -3043,18 +3076,18 @@
       <c r="J62" s="9"/>
       <c r="K62" s="9"/>
       <c t="s" r="L62" s="10">
-        <v>113</v>
+        <v>119</v>
       </c>
       <c r="M62" s="10"/>
       <c t="s" r="N62" s="8">
-        <v>182</v>
+        <v>164</v>
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
-        <v>183</v>
+        <v>165</v>
       </c>
       <c t="s" r="Q62" s="12">
-        <v>12</v>
+        <v>95</v>
       </c>
     </row>
     <row r="63" ht="24.75" customHeight="1">
@@ -3063,28 +3096,28 @@
       </c>
       <c r="B63" s="7"/>
       <c t="s" r="C63" s="8">
-        <v>184</v>
+        <v>179</v>
       </c>
       <c r="D63" s="8"/>
       <c r="E63" s="8"/>
       <c r="F63" s="8"/>
       <c r="G63" s="8"/>
       <c t="s" r="H63" s="9">
-        <v>12</v>
+        <v>31</v>
       </c>
       <c r="I63" s="9"/>
       <c r="J63" s="9"/>
       <c r="K63" s="9"/>
       <c t="s" r="L63" s="10">
-        <v>113</v>
+        <v>119</v>
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
-        <v>185</v>
+        <v>180</v>
       </c>
       <c r="O63" s="8"/>
       <c t="s" r="P63" s="11">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c t="s" r="Q63" s="12">
         <v>12</v>
@@ -3096,66 +3129,231 @@
       </c>
       <c r="B64" s="7"/>
       <c t="s" r="C64" s="8">
-        <v>186</v>
+        <v>182</v>
       </c>
       <c r="D64" s="8"/>
       <c r="E64" s="8"/>
       <c r="F64" s="8"/>
       <c r="G64" s="8"/>
       <c t="s" r="H64" s="9">
-        <v>187</v>
+        <v>183</v>
       </c>
       <c r="I64" s="9"/>
       <c r="J64" s="9"/>
       <c r="K64" s="9"/>
       <c t="s" r="L64" s="10">
-        <v>113</v>
+        <v>119</v>
       </c>
       <c r="M64" s="10"/>
       <c t="s" r="N64" s="8">
-        <v>188</v>
+        <v>184</v>
       </c>
       <c r="O64" s="8"/>
       <c t="s" r="P64" s="11">
+        <v>185</v>
+      </c>
+      <c t="s" r="Q64" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="65" ht="24.75" customHeight="1">
+      <c r="A65" s="7">
+        <v>59</v>
+      </c>
+      <c r="B65" s="7"/>
+      <c t="s" r="C65" s="8">
+        <v>186</v>
+      </c>
+      <c r="D65" s="8"/>
+      <c r="E65" s="8"/>
+      <c r="F65" s="8"/>
+      <c r="G65" s="8"/>
+      <c t="s" r="H65" s="9">
+        <v>27</v>
+      </c>
+      <c r="I65" s="9"/>
+      <c r="J65" s="9"/>
+      <c r="K65" s="9"/>
+      <c t="s" r="L65" s="10">
+        <v>119</v>
+      </c>
+      <c r="M65" s="10"/>
+      <c t="s" r="N65" s="8">
+        <v>187</v>
+      </c>
+      <c r="O65" s="8"/>
+      <c t="s" r="P65" s="11">
+        <v>188</v>
+      </c>
+      <c t="s" r="Q65" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="66" ht="25.5" customHeight="1">
+      <c r="A66" s="7">
+        <v>60</v>
+      </c>
+      <c r="B66" s="7"/>
+      <c t="s" r="C66" s="8">
         <v>189</v>
       </c>
-      <c t="s" r="Q64" s="12">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="65" ht="24.75" customHeight="1">
-      <c r="P65" s="13">
-        <v>3964.395</v>
-      </c>
-      <c r="Q65" s="13"/>
-    </row>
-    <row r="66" ht="16.5" customHeight="1">
-      <c t="s" r="A66" s="14">
+      <c r="D66" s="8"/>
+      <c r="E66" s="8"/>
+      <c r="F66" s="8"/>
+      <c r="G66" s="8"/>
+      <c t="s" r="H66" s="9">
         <v>190</v>
       </c>
-      <c r="B66" s="14"/>
-      <c r="C66" s="14"/>
-      <c r="D66" s="14"/>
-      <c r="E66" s="14"/>
-      <c r="F66" s="14"/>
-      <c t="s" r="G66" s="15">
+      <c r="I66" s="9"/>
+      <c r="J66" s="9"/>
+      <c r="K66" s="9"/>
+      <c t="s" r="L66" s="10">
+        <v>119</v>
+      </c>
+      <c r="M66" s="10"/>
+      <c t="s" r="N66" s="8">
+        <v>167</v>
+      </c>
+      <c r="O66" s="8"/>
+      <c t="s" r="P66" s="11">
         <v>191</v>
       </c>
-      <c r="H66" s="15"/>
-      <c r="I66" s="15"/>
-      <c r="J66" s="16"/>
-      <c t="s" r="K66" s="17">
+      <c t="s" r="Q66" s="12">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="67" ht="25.5" customHeight="1">
+      <c r="A67" s="7">
+        <v>61</v>
+      </c>
+      <c r="B67" s="7"/>
+      <c t="s" r="C67" s="8">
         <v>192</v>
       </c>
-      <c r="L66" s="17"/>
-      <c r="M66" s="17"/>
-      <c r="N66" s="17"/>
-      <c r="O66" s="17"/>
-      <c r="P66" s="17"/>
-      <c r="Q66" s="17"/>
+      <c r="D67" s="8"/>
+      <c r="E67" s="8"/>
+      <c r="F67" s="8"/>
+      <c r="G67" s="8"/>
+      <c t="s" r="H67" s="9">
+        <v>31</v>
+      </c>
+      <c r="I67" s="9"/>
+      <c r="J67" s="9"/>
+      <c r="K67" s="9"/>
+      <c t="s" r="L67" s="10">
+        <v>119</v>
+      </c>
+      <c r="M67" s="10"/>
+      <c t="s" r="N67" s="8">
+        <v>193</v>
+      </c>
+      <c r="O67" s="8"/>
+      <c t="s" r="P67" s="11">
+        <v>194</v>
+      </c>
+      <c t="s" r="Q67" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="68" ht="24.75" customHeight="1">
+      <c r="A68" s="7">
+        <v>62</v>
+      </c>
+      <c r="B68" s="7"/>
+      <c t="s" r="C68" s="8">
+        <v>195</v>
+      </c>
+      <c r="D68" s="8"/>
+      <c r="E68" s="8"/>
+      <c r="F68" s="8"/>
+      <c r="G68" s="8"/>
+      <c t="s" r="H68" s="9">
+        <v>12</v>
+      </c>
+      <c r="I68" s="9"/>
+      <c r="J68" s="9"/>
+      <c r="K68" s="9"/>
+      <c t="s" r="L68" s="10">
+        <v>119</v>
+      </c>
+      <c r="M68" s="10"/>
+      <c t="s" r="N68" s="8">
+        <v>196</v>
+      </c>
+      <c r="O68" s="8"/>
+      <c t="s" r="P68" s="11">
+        <v>191</v>
+      </c>
+      <c t="s" r="Q68" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="69" ht="25.5" customHeight="1">
+      <c r="A69" s="7">
+        <v>63</v>
+      </c>
+      <c r="B69" s="7"/>
+      <c t="s" r="C69" s="8">
+        <v>197</v>
+      </c>
+      <c r="D69" s="8"/>
+      <c r="E69" s="8"/>
+      <c r="F69" s="8"/>
+      <c r="G69" s="8"/>
+      <c t="s" r="H69" s="9">
+        <v>198</v>
+      </c>
+      <c r="I69" s="9"/>
+      <c r="J69" s="9"/>
+      <c r="K69" s="9"/>
+      <c t="s" r="L69" s="10">
+        <v>119</v>
+      </c>
+      <c r="M69" s="10"/>
+      <c t="s" r="N69" s="8">
+        <v>199</v>
+      </c>
+      <c r="O69" s="8"/>
+      <c t="s" r="P69" s="11">
+        <v>200</v>
+      </c>
+      <c t="s" r="Q69" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="70" ht="24.75" customHeight="1">
+      <c r="P70" s="13">
+        <v>4307.0950000000003</v>
+      </c>
+      <c r="Q70" s="13"/>
+    </row>
+    <row r="71" ht="16.5" customHeight="1">
+      <c t="s" r="A71" s="14">
+        <v>201</v>
+      </c>
+      <c r="B71" s="14"/>
+      <c r="C71" s="14"/>
+      <c r="D71" s="14"/>
+      <c r="E71" s="14"/>
+      <c r="F71" s="14"/>
+      <c t="s" r="G71" s="15">
+        <v>202</v>
+      </c>
+      <c r="H71" s="15"/>
+      <c r="I71" s="15"/>
+      <c r="J71" s="16"/>
+      <c t="s" r="K71" s="17">
+        <v>203</v>
+      </c>
+      <c r="L71" s="17"/>
+      <c r="M71" s="17"/>
+      <c r="N71" s="17"/>
+      <c r="O71" s="17"/>
+      <c r="P71" s="17"/>
+      <c r="Q71" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="302">
+  <mergeCells count="327">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -3454,10 +3652,35 @@
     <mergeCell ref="H64:K64"/>
     <mergeCell ref="L64:M64"/>
     <mergeCell ref="N64:O64"/>
-    <mergeCell ref="P65:Q65"/>
-    <mergeCell ref="A66:F66"/>
-    <mergeCell ref="G66:I66"/>
-    <mergeCell ref="K66:Q66"/>
+    <mergeCell ref="A65:B65"/>
+    <mergeCell ref="C65:G65"/>
+    <mergeCell ref="H65:K65"/>
+    <mergeCell ref="L65:M65"/>
+    <mergeCell ref="N65:O65"/>
+    <mergeCell ref="A66:B66"/>
+    <mergeCell ref="C66:G66"/>
+    <mergeCell ref="H66:K66"/>
+    <mergeCell ref="L66:M66"/>
+    <mergeCell ref="N66:O66"/>
+    <mergeCell ref="A67:B67"/>
+    <mergeCell ref="C67:G67"/>
+    <mergeCell ref="H67:K67"/>
+    <mergeCell ref="L67:M67"/>
+    <mergeCell ref="N67:O67"/>
+    <mergeCell ref="A68:B68"/>
+    <mergeCell ref="C68:G68"/>
+    <mergeCell ref="H68:K68"/>
+    <mergeCell ref="L68:M68"/>
+    <mergeCell ref="N68:O68"/>
+    <mergeCell ref="A69:B69"/>
+    <mergeCell ref="C69:G69"/>
+    <mergeCell ref="H69:K69"/>
+    <mergeCell ref="L69:M69"/>
+    <mergeCell ref="N69:O69"/>
+    <mergeCell ref="P70:Q70"/>
+    <mergeCell ref="A71:F71"/>
+    <mergeCell ref="G71:I71"/>
+    <mergeCell ref="K71:Q71"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-08-08_00-00.xlsx
+++ b/DaySale_2025-08-08_00-00.xlsx
@@ -614,7 +614,7 @@
     <t>24.0000</t>
   </si>
   <si>
-    <t>Friday, 8 August, 2025 7:48 PM</t>
+    <t>Friday, 8 August, 2025 7:57 PM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-08-08_00-00.xlsx
+++ b/DaySale_2025-08-08_00-00.xlsx
@@ -581,27 +581,30 @@
     <t xml:space="preserve">شفرات فينوس حريمي </t>
   </si>
   <si>
-    <t>28:0</t>
+    <t>27:0</t>
+  </si>
+  <si>
+    <t>100.0000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">كالونا </t>
+  </si>
+  <si>
+    <t>15.00</t>
+  </si>
+  <si>
+    <t>15.0000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">كريم شعر دابر املا </t>
+  </si>
+  <si>
+    <t>80.00</t>
   </si>
   <si>
     <t>80.0000</t>
   </si>
   <si>
-    <t xml:space="preserve">كالونا </t>
-  </si>
-  <si>
-    <t>15.00</t>
-  </si>
-  <si>
-    <t>15.0000</t>
-  </si>
-  <si>
-    <t xml:space="preserve">كريم شعر دابر املا </t>
-  </si>
-  <si>
-    <t>80.00</t>
-  </si>
-  <si>
     <t>محلول ملح</t>
   </si>
   <si>
@@ -614,7 +617,7 @@
     <t>24.0000</t>
   </si>
   <si>
-    <t>Friday, 8 August, 2025 7:57 PM</t>
+    <t>Friday, 8 August, 2025 8:12 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -3219,7 +3222,7 @@
         <v>191</v>
       </c>
       <c t="s" r="Q66" s="12">
-        <v>83</v>
+        <v>57</v>
       </c>
     </row>
     <row r="67" ht="25.5" customHeight="1">
@@ -3282,7 +3285,7 @@
       </c>
       <c r="O68" s="8"/>
       <c t="s" r="P68" s="11">
-        <v>191</v>
+        <v>197</v>
       </c>
       <c t="s" r="Q68" s="12">
         <v>12</v>
@@ -3294,14 +3297,14 @@
       </c>
       <c r="B69" s="7"/>
       <c t="s" r="C69" s="8">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="D69" s="8"/>
       <c r="E69" s="8"/>
       <c r="F69" s="8"/>
       <c r="G69" s="8"/>
       <c t="s" r="H69" s="9">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="I69" s="9"/>
       <c r="J69" s="9"/>
@@ -3311,11 +3314,11 @@
       </c>
       <c r="M69" s="10"/>
       <c t="s" r="N69" s="8">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="O69" s="8"/>
       <c t="s" r="P69" s="11">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c t="s" r="Q69" s="12">
         <v>12</v>
@@ -3323,13 +3326,13 @@
     </row>
     <row r="70" ht="24.75" customHeight="1">
       <c r="P70" s="13">
-        <v>4307.0950000000003</v>
+        <v>4327.0950000000003</v>
       </c>
       <c r="Q70" s="13"/>
     </row>
     <row r="71" ht="16.5" customHeight="1">
       <c t="s" r="A71" s="14">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="B71" s="14"/>
       <c r="C71" s="14"/>
@@ -3337,13 +3340,13 @@
       <c r="E71" s="14"/>
       <c r="F71" s="14"/>
       <c t="s" r="G71" s="15">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="H71" s="15"/>
       <c r="I71" s="15"/>
       <c r="J71" s="16"/>
       <c t="s" r="K71" s="17">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="L71" s="17"/>
       <c r="M71" s="17"/>

--- a/DaySale_2025-08-08_00-00.xlsx
+++ b/DaySale_2025-08-08_00-00.xlsx
@@ -617,7 +617,7 @@
     <t>24.0000</t>
   </si>
   <si>
-    <t>Friday, 8 August, 2025 8:12 PM</t>
+    <t>Friday, 8 August, 2025 8:21 PM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-08-08_00-00.xlsx
+++ b/DaySale_2025-08-08_00-00.xlsx
@@ -617,7 +617,7 @@
     <t>24.0000</t>
   </si>
   <si>
-    <t>Friday, 8 August, 2025 8:21 PM</t>
+    <t>Friday, 8 August, 2025 8:22 PM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-08-08_00-00.xlsx
+++ b/DaySale_2025-08-08_00-00.xlsx
@@ -347,6 +347,12 @@
     <t>55.0000</t>
   </si>
   <si>
+    <t>KETOPREK 75 MG 20 CAPS.</t>
+  </si>
+  <si>
+    <t>18.0000</t>
+  </si>
+  <si>
     <t>LIBRAX 30 SUGAR COATED TAB</t>
   </si>
   <si>
@@ -386,6 +392,15 @@
     <t>102.0000</t>
   </si>
   <si>
+    <t>PICOLAX 0.75% ORAL DROPS 15 ML</t>
+  </si>
+  <si>
+    <t>24.00</t>
+  </si>
+  <si>
+    <t>24.0000</t>
+  </si>
+  <si>
     <t>PROSTRIDE 5MG 30 CAPS.</t>
   </si>
   <si>
@@ -410,10 +425,10 @@
     <t>SPASMO-DIGESTIN 30 TABS.</t>
   </si>
   <si>
-    <t>3:1</t>
-  </si>
-  <si>
-    <t>51.4800</t>
+    <t>77.2200</t>
+  </si>
+  <si>
+    <t>0:3</t>
   </si>
   <si>
     <t>SPASMOFEN 3 AMP. FOR I.M. INJ.</t>
@@ -458,9 +473,6 @@
     <t>VETOCETAMOL 24 TAB.</t>
   </si>
   <si>
-    <t>18.0000</t>
-  </si>
-  <si>
     <t>VIDROP 2800 I.U./ML ORAL DROPS 15 ML</t>
   </si>
   <si>
@@ -611,13 +623,7 @@
     <t>9:0</t>
   </si>
   <si>
-    <t>24.00</t>
-  </si>
-  <si>
-    <t>24.0000</t>
-  </si>
-  <si>
-    <t>Friday, 8 August, 2025 8:22 PM</t>
+    <t>Friday, 8 August, 2025 8:26 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -2248,7 +2254,7 @@
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>83</v>
+        <v>31</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
@@ -2258,7 +2264,7 @@
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>32</v>
+        <v>58</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
@@ -2281,7 +2287,7 @@
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>12</v>
+        <v>83</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
@@ -2291,11 +2297,11 @@
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>115</v>
+        <v>32</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c t="s" r="Q38" s="12">
         <v>16</v>
@@ -2307,28 +2313,28 @@
       </c>
       <c r="B39" s="7"/>
       <c t="s" r="C39" s="8">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D39" s="8"/>
       <c r="E39" s="8"/>
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>118</v>
+        <v>12</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
       <c r="K39" s="9"/>
       <c t="s" r="L39" s="10">
-        <v>119</v>
+        <v>13</v>
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>107</v>
+        <v>117</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
-        <v>29</v>
+        <v>118</v>
       </c>
       <c t="s" r="Q39" s="12">
         <v>16</v>
@@ -2340,31 +2346,31 @@
       </c>
       <c r="B40" s="7"/>
       <c t="s" r="C40" s="8">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="D40" s="8"/>
       <c r="E40" s="8"/>
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>27</v>
+        <v>120</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
       <c r="K40" s="9"/>
       <c t="s" r="L40" s="10">
-        <v>13</v>
+        <v>121</v>
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>67</v>
+        <v>107</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
-        <v>121</v>
+        <v>29</v>
       </c>
       <c t="s" r="Q40" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="41" ht="25.5" customHeight="1">
@@ -2380,7 +2386,7 @@
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>16</v>
+        <v>27</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
@@ -2390,11 +2396,11 @@
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>123</v>
+        <v>67</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c t="s" r="Q41" s="12">
         <v>12</v>
@@ -2406,14 +2412,14 @@
       </c>
       <c r="B42" s="7"/>
       <c t="s" r="C42" s="8">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="D42" s="8"/>
       <c r="E42" s="8"/>
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
@@ -2423,14 +2429,14 @@
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c t="s" r="Q42" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="43" ht="24.75" customHeight="1">
@@ -2439,14 +2445,14 @@
       </c>
       <c r="B43" s="7"/>
       <c t="s" r="C43" s="8">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="D43" s="8"/>
       <c r="E43" s="8"/>
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>129</v>
+        <v>27</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
@@ -2456,11 +2462,11 @@
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c t="s" r="Q43" s="12">
         <v>12</v>
@@ -2472,14 +2478,14 @@
       </c>
       <c r="B44" s="7"/>
       <c t="s" r="C44" s="8">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="D44" s="8"/>
       <c r="E44" s="8"/>
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>133</v>
+        <v>12</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
@@ -2489,14 +2495,14 @@
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>19</v>
+        <v>131</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c t="s" r="Q44" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="45" ht="24.75" customHeight="1">
@@ -2505,14 +2511,14 @@
       </c>
       <c r="B45" s="7"/>
       <c t="s" r="C45" s="8">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="D45" s="8"/>
       <c r="E45" s="8"/>
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>22</v>
+        <v>134</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
@@ -2522,11 +2528,11 @@
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
-        <v>46</v>
+        <v>136</v>
       </c>
       <c t="s" r="Q45" s="12">
         <v>12</v>
@@ -2545,7 +2551,7 @@
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>118</v>
+        <v>27</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
@@ -2555,14 +2561,14 @@
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>138</v>
+        <v>19</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
+        <v>138</v>
+      </c>
+      <c t="s" r="Q46" s="12">
         <v>139</v>
-      </c>
-      <c t="s" r="Q46" s="12">
-        <v>12</v>
       </c>
     </row>
     <row r="47" ht="25.5" customHeight="1">
@@ -2578,7 +2584,7 @@
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>38</v>
+        <v>22</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
@@ -2592,10 +2598,10 @@
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
-        <v>116</v>
+        <v>46</v>
       </c>
       <c t="s" r="Q47" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="48" ht="24.75" customHeight="1">
@@ -2611,7 +2617,7 @@
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>95</v>
+        <v>120</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
@@ -2621,14 +2627,14 @@
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>96</v>
+        <v>143</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c t="s" r="Q48" s="12">
-        <v>95</v>
+        <v>12</v>
       </c>
     </row>
     <row r="49" ht="25.5" customHeight="1">
@@ -2637,14 +2643,14 @@
       </c>
       <c r="B49" s="7"/>
       <c t="s" r="C49" s="8">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="D49" s="8"/>
       <c r="E49" s="8"/>
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>12</v>
+        <v>38</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
@@ -2654,14 +2660,14 @@
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
-        <v>146</v>
+        <v>118</v>
       </c>
       <c t="s" r="Q49" s="12">
-        <v>38</v>
+        <v>16</v>
       </c>
     </row>
     <row r="50" ht="24.75" customHeight="1">
@@ -2677,7 +2683,7 @@
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>31</v>
+        <v>95</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
@@ -2691,10 +2697,10 @@
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
-        <v>97</v>
+        <v>148</v>
       </c>
       <c t="s" r="Q50" s="12">
-        <v>12</v>
+        <v>95</v>
       </c>
     </row>
     <row r="51" ht="25.5" customHeight="1">
@@ -2703,14 +2709,14 @@
       </c>
       <c r="B51" s="7"/>
       <c t="s" r="C51" s="8">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="D51" s="8"/>
       <c r="E51" s="8"/>
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>38</v>
+        <v>12</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
@@ -2720,14 +2726,14 @@
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>58</v>
+        <v>150</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c t="s" r="Q51" s="12">
-        <v>16</v>
+        <v>38</v>
       </c>
     </row>
     <row r="52" ht="25.5" customHeight="1">
@@ -2736,14 +2742,14 @@
       </c>
       <c r="B52" s="7"/>
       <c t="s" r="C52" s="8">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="D52" s="8"/>
       <c r="E52" s="8"/>
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>83</v>
+        <v>31</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
@@ -2753,11 +2759,11 @@
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>151</v>
+        <v>96</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
-        <v>152</v>
+        <v>97</v>
       </c>
       <c t="s" r="Q52" s="12">
         <v>12</v>
@@ -2776,7 +2782,7 @@
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>31</v>
+        <v>38</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
@@ -2786,14 +2792,14 @@
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
-        <v>154</v>
+        <v>58</v>
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c t="s" r="Q53" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="54" ht="25.5" customHeight="1">
@@ -2802,14 +2808,14 @@
       </c>
       <c r="B54" s="7"/>
       <c t="s" r="C54" s="8">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="D54" s="8"/>
       <c r="E54" s="8"/>
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
@@ -2819,14 +2825,14 @@
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c t="s" r="Q54" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="55" ht="24.75" customHeight="1">
@@ -2835,14 +2841,14 @@
       </c>
       <c r="B55" s="7"/>
       <c t="s" r="C55" s="8">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="D55" s="8"/>
       <c r="E55" s="8"/>
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>12</v>
+        <v>31</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
@@ -2852,14 +2858,14 @@
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
-        <v>159</v>
+        <v>118</v>
       </c>
       <c t="s" r="Q55" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="56" ht="25.5" customHeight="1">
@@ -2868,14 +2874,14 @@
       </c>
       <c r="B56" s="7"/>
       <c t="s" r="C56" s="8">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="D56" s="8"/>
       <c r="E56" s="8"/>
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>31</v>
+        <v>85</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
@@ -2885,14 +2891,14 @@
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c t="s" r="Q56" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="57" ht="25.5" customHeight="1">
@@ -2901,31 +2907,31 @@
       </c>
       <c r="B57" s="7"/>
       <c t="s" r="C57" s="8">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="D57" s="8"/>
       <c r="E57" s="8"/>
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>31</v>
+        <v>12</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
       <c r="K57" s="9"/>
       <c t="s" r="L57" s="10">
-        <v>119</v>
+        <v>13</v>
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c t="s" r="Q57" s="12">
-        <v>95</v>
+        <v>16</v>
       </c>
     </row>
     <row r="58" ht="24.75" customHeight="1">
@@ -2934,28 +2940,28 @@
       </c>
       <c r="B58" s="7"/>
       <c t="s" r="C58" s="8">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="D58" s="8"/>
       <c r="E58" s="8"/>
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c t="s" r="H58" s="9">
-        <v>12</v>
+        <v>31</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
       <c r="K58" s="9"/>
       <c t="s" r="L58" s="10">
-        <v>119</v>
+        <v>13</v>
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c t="s" r="Q58" s="12">
         <v>12</v>
@@ -2967,31 +2973,31 @@
       </c>
       <c r="B59" s="7"/>
       <c t="s" r="C59" s="8">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="D59" s="8"/>
       <c r="E59" s="8"/>
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c t="s" r="H59" s="9">
-        <v>170</v>
+        <v>31</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
       <c r="K59" s="9"/>
       <c t="s" r="L59" s="10">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
-        <v>29</v>
+        <v>169</v>
       </c>
       <c t="s" r="Q59" s="12">
-        <v>12</v>
+        <v>95</v>
       </c>
     </row>
     <row r="60" ht="24.75" customHeight="1">
@@ -3000,28 +3006,28 @@
       </c>
       <c r="B60" s="7"/>
       <c t="s" r="C60" s="8">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="D60" s="8"/>
       <c r="E60" s="8"/>
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c t="s" r="H60" s="9">
-        <v>31</v>
+        <v>12</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
       <c r="K60" s="9"/>
       <c t="s" r="L60" s="10">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c t="s" r="Q60" s="12">
         <v>12</v>
@@ -3033,31 +3039,31 @@
       </c>
       <c r="B61" s="7"/>
       <c t="s" r="C61" s="8">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="D61" s="8"/>
       <c r="E61" s="8"/>
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
       <c t="s" r="H61" s="9">
-        <v>31</v>
+        <v>174</v>
       </c>
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
       <c r="K61" s="9"/>
       <c t="s" r="L61" s="10">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
-        <v>177</v>
+        <v>29</v>
       </c>
       <c t="s" r="Q61" s="12">
-        <v>83</v>
+        <v>12</v>
       </c>
     </row>
     <row r="62" ht="25.5" customHeight="1">
@@ -3066,7 +3072,7 @@
       </c>
       <c r="B62" s="7"/>
       <c t="s" r="C62" s="8">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="D62" s="8"/>
       <c r="E62" s="8"/>
@@ -3079,18 +3085,18 @@
       <c r="J62" s="9"/>
       <c r="K62" s="9"/>
       <c t="s" r="L62" s="10">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="M62" s="10"/>
       <c t="s" r="N62" s="8">
-        <v>164</v>
+        <v>177</v>
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
-        <v>165</v>
+        <v>178</v>
       </c>
       <c t="s" r="Q62" s="12">
-        <v>95</v>
+        <v>12</v>
       </c>
     </row>
     <row r="63" ht="24.75" customHeight="1">
@@ -3112,7 +3118,7 @@
       <c r="J63" s="9"/>
       <c r="K63" s="9"/>
       <c t="s" r="L63" s="10">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
@@ -3123,7 +3129,7 @@
         <v>181</v>
       </c>
       <c t="s" r="Q63" s="12">
-        <v>12</v>
+        <v>83</v>
       </c>
     </row>
     <row r="64" ht="25.5" customHeight="1">
@@ -3139,24 +3145,24 @@
       <c r="F64" s="8"/>
       <c r="G64" s="8"/>
       <c t="s" r="H64" s="9">
-        <v>183</v>
+        <v>31</v>
       </c>
       <c r="I64" s="9"/>
       <c r="J64" s="9"/>
       <c r="K64" s="9"/>
       <c t="s" r="L64" s="10">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="M64" s="10"/>
       <c t="s" r="N64" s="8">
-        <v>184</v>
+        <v>168</v>
       </c>
       <c r="O64" s="8"/>
       <c t="s" r="P64" s="11">
-        <v>185</v>
+        <v>169</v>
       </c>
       <c t="s" r="Q64" s="12">
-        <v>12</v>
+        <v>95</v>
       </c>
     </row>
     <row r="65" ht="24.75" customHeight="1">
@@ -3165,28 +3171,28 @@
       </c>
       <c r="B65" s="7"/>
       <c t="s" r="C65" s="8">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="D65" s="8"/>
       <c r="E65" s="8"/>
       <c r="F65" s="8"/>
       <c r="G65" s="8"/>
       <c t="s" r="H65" s="9">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="I65" s="9"/>
       <c r="J65" s="9"/>
       <c r="K65" s="9"/>
       <c t="s" r="L65" s="10">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="M65" s="10"/>
       <c t="s" r="N65" s="8">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="O65" s="8"/>
       <c t="s" r="P65" s="11">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c t="s" r="Q65" s="12">
         <v>12</v>
@@ -3198,31 +3204,31 @@
       </c>
       <c r="B66" s="7"/>
       <c t="s" r="C66" s="8">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="D66" s="8"/>
       <c r="E66" s="8"/>
       <c r="F66" s="8"/>
       <c r="G66" s="8"/>
       <c t="s" r="H66" s="9">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="I66" s="9"/>
       <c r="J66" s="9"/>
       <c r="K66" s="9"/>
       <c t="s" r="L66" s="10">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="M66" s="10"/>
       <c t="s" r="N66" s="8">
-        <v>167</v>
+        <v>188</v>
       </c>
       <c r="O66" s="8"/>
       <c t="s" r="P66" s="11">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c t="s" r="Q66" s="12">
-        <v>57</v>
+        <v>12</v>
       </c>
     </row>
     <row r="67" ht="25.5" customHeight="1">
@@ -3231,28 +3237,28 @@
       </c>
       <c r="B67" s="7"/>
       <c t="s" r="C67" s="8">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="D67" s="8"/>
       <c r="E67" s="8"/>
       <c r="F67" s="8"/>
       <c r="G67" s="8"/>
       <c t="s" r="H67" s="9">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="I67" s="9"/>
       <c r="J67" s="9"/>
       <c r="K67" s="9"/>
       <c t="s" r="L67" s="10">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="M67" s="10"/>
       <c t="s" r="N67" s="8">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="O67" s="8"/>
       <c t="s" r="P67" s="11">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c t="s" r="Q67" s="12">
         <v>12</v>
@@ -3264,31 +3270,31 @@
       </c>
       <c r="B68" s="7"/>
       <c t="s" r="C68" s="8">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="D68" s="8"/>
       <c r="E68" s="8"/>
       <c r="F68" s="8"/>
       <c r="G68" s="8"/>
       <c t="s" r="H68" s="9">
-        <v>12</v>
+        <v>194</v>
       </c>
       <c r="I68" s="9"/>
       <c r="J68" s="9"/>
       <c r="K68" s="9"/>
       <c t="s" r="L68" s="10">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="M68" s="10"/>
       <c t="s" r="N68" s="8">
-        <v>196</v>
+        <v>171</v>
       </c>
       <c r="O68" s="8"/>
       <c t="s" r="P68" s="11">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c t="s" r="Q68" s="12">
-        <v>12</v>
+        <v>57</v>
       </c>
     </row>
     <row r="69" ht="25.5" customHeight="1">
@@ -3297,66 +3303,132 @@
       </c>
       <c r="B69" s="7"/>
       <c t="s" r="C69" s="8">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="D69" s="8"/>
       <c r="E69" s="8"/>
       <c r="F69" s="8"/>
       <c r="G69" s="8"/>
       <c t="s" r="H69" s="9">
-        <v>199</v>
+        <v>31</v>
       </c>
       <c r="I69" s="9"/>
       <c r="J69" s="9"/>
       <c r="K69" s="9"/>
       <c t="s" r="L69" s="10">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="M69" s="10"/>
       <c t="s" r="N69" s="8">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="O69" s="8"/>
       <c t="s" r="P69" s="11">
+        <v>198</v>
+      </c>
+      <c t="s" r="Q69" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="70" ht="24.75" customHeight="1">
+      <c r="A70" s="7">
+        <v>64</v>
+      </c>
+      <c r="B70" s="7"/>
+      <c t="s" r="C70" s="8">
+        <v>199</v>
+      </c>
+      <c r="D70" s="8"/>
+      <c r="E70" s="8"/>
+      <c r="F70" s="8"/>
+      <c r="G70" s="8"/>
+      <c t="s" r="H70" s="9">
+        <v>12</v>
+      </c>
+      <c r="I70" s="9"/>
+      <c r="J70" s="9"/>
+      <c r="K70" s="9"/>
+      <c t="s" r="L70" s="10">
+        <v>121</v>
+      </c>
+      <c r="M70" s="10"/>
+      <c t="s" r="N70" s="8">
+        <v>200</v>
+      </c>
+      <c r="O70" s="8"/>
+      <c t="s" r="P70" s="11">
         <v>201</v>
       </c>
-      <c t="s" r="Q69" s="12">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="70" ht="24.75" customHeight="1">
-      <c r="P70" s="13">
-        <v>4327.0950000000003</v>
-      </c>
-      <c r="Q70" s="13"/>
-    </row>
-    <row r="71" ht="16.5" customHeight="1">
-      <c t="s" r="A71" s="14">
+      <c t="s" r="Q70" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="71" ht="25.5" customHeight="1">
+      <c r="A71" s="7">
+        <v>65</v>
+      </c>
+      <c r="B71" s="7"/>
+      <c t="s" r="C71" s="8">
         <v>202</v>
       </c>
-      <c r="B71" s="14"/>
-      <c r="C71" s="14"/>
-      <c r="D71" s="14"/>
-      <c r="E71" s="14"/>
-      <c r="F71" s="14"/>
-      <c t="s" r="G71" s="15">
+      <c r="D71" s="8"/>
+      <c r="E71" s="8"/>
+      <c r="F71" s="8"/>
+      <c r="G71" s="8"/>
+      <c t="s" r="H71" s="9">
         <v>203</v>
       </c>
-      <c r="H71" s="15"/>
-      <c r="I71" s="15"/>
-      <c r="J71" s="16"/>
-      <c t="s" r="K71" s="17">
+      <c r="I71" s="9"/>
+      <c r="J71" s="9"/>
+      <c r="K71" s="9"/>
+      <c t="s" r="L71" s="10">
+        <v>121</v>
+      </c>
+      <c r="M71" s="10"/>
+      <c t="s" r="N71" s="8">
+        <v>128</v>
+      </c>
+      <c r="O71" s="8"/>
+      <c t="s" r="P71" s="11">
+        <v>129</v>
+      </c>
+      <c t="s" r="Q71" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="72" ht="25.5" customHeight="1">
+      <c r="P72" s="13">
+        <v>4394.835</v>
+      </c>
+      <c r="Q72" s="13"/>
+    </row>
+    <row r="73" ht="16.5" customHeight="1">
+      <c t="s" r="A73" s="14">
         <v>204</v>
       </c>
-      <c r="L71" s="17"/>
-      <c r="M71" s="17"/>
-      <c r="N71" s="17"/>
-      <c r="O71" s="17"/>
-      <c r="P71" s="17"/>
-      <c r="Q71" s="17"/>
+      <c r="B73" s="14"/>
+      <c r="C73" s="14"/>
+      <c r="D73" s="14"/>
+      <c r="E73" s="14"/>
+      <c r="F73" s="14"/>
+      <c t="s" r="G73" s="15">
+        <v>205</v>
+      </c>
+      <c r="H73" s="15"/>
+      <c r="I73" s="15"/>
+      <c r="J73" s="16"/>
+      <c t="s" r="K73" s="17">
+        <v>206</v>
+      </c>
+      <c r="L73" s="17"/>
+      <c r="M73" s="17"/>
+      <c r="N73" s="17"/>
+      <c r="O73" s="17"/>
+      <c r="P73" s="17"/>
+      <c r="Q73" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="327">
+  <mergeCells count="337">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -3680,10 +3752,20 @@
     <mergeCell ref="H69:K69"/>
     <mergeCell ref="L69:M69"/>
     <mergeCell ref="N69:O69"/>
-    <mergeCell ref="P70:Q70"/>
-    <mergeCell ref="A71:F71"/>
-    <mergeCell ref="G71:I71"/>
-    <mergeCell ref="K71:Q71"/>
+    <mergeCell ref="A70:B70"/>
+    <mergeCell ref="C70:G70"/>
+    <mergeCell ref="H70:K70"/>
+    <mergeCell ref="L70:M70"/>
+    <mergeCell ref="N70:O70"/>
+    <mergeCell ref="A71:B71"/>
+    <mergeCell ref="C71:G71"/>
+    <mergeCell ref="H71:K71"/>
+    <mergeCell ref="L71:M71"/>
+    <mergeCell ref="N71:O71"/>
+    <mergeCell ref="P72:Q72"/>
+    <mergeCell ref="A73:F73"/>
+    <mergeCell ref="G73:I73"/>
+    <mergeCell ref="K73:Q73"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-08-08_00-00.xlsx
+++ b/DaySale_2025-08-08_00-00.xlsx
@@ -623,7 +623,7 @@
     <t>9:0</t>
   </si>
   <si>
-    <t>Friday, 8 August, 2025 8:26 PM</t>
+    <t>Friday, 8 August, 2025 8:27 PM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-08-08_00-00.xlsx
+++ b/DaySale_2025-08-08_00-00.xlsx
@@ -623,7 +623,7 @@
     <t>9:0</t>
   </si>
   <si>
-    <t>Friday, 8 August, 2025 8:27 PM</t>
+    <t>Friday, 8 August, 2025 8:28 PM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-08-08_00-00.xlsx
+++ b/DaySale_2025-08-08_00-00.xlsx
@@ -62,6 +62,18 @@
     <t>0:1</t>
   </si>
   <si>
+    <t>ALZENTAL 20MG/ML SUSP. 20ML</t>
+  </si>
+  <si>
+    <t>2:0</t>
+  </si>
+  <si>
+    <t>21.00</t>
+  </si>
+  <si>
+    <t>42.0000</t>
+  </si>
+  <si>
     <t>ANTI-COX II 15MG/3ML 6 AMP</t>
   </si>
   <si>
@@ -209,6 +221,15 @@
     <t>895.0000</t>
   </si>
   <si>
+    <t>DIGENORM SYRUP 120 ML</t>
+  </si>
+  <si>
+    <t>4:0</t>
+  </si>
+  <si>
+    <t>39.00</t>
+  </si>
+  <si>
     <t>DIGESTOZYME 20 ENTERIC COATED TABLETS (DIGENORM)</t>
   </si>
   <si>
@@ -260,9 +281,6 @@
     <t>208.0000</t>
   </si>
   <si>
-    <t>4:0</t>
-  </si>
-  <si>
     <t>ENTEROGERMINA 2 BILLION/5ML ORAL SUSP. 10 MINI BOTTLES</t>
   </si>
   <si>
@@ -296,9 +314,6 @@
     <t>FEBURIC 40 MG 10 F.C. TABLETS</t>
   </si>
   <si>
-    <t>2:0</t>
-  </si>
-  <si>
     <t>38.00</t>
   </si>
   <si>
@@ -326,6 +341,15 @@
     <t>75.0000</t>
   </si>
   <si>
+    <t>IROSPECT 20 PIECES</t>
+  </si>
+  <si>
+    <t>140.00</t>
+  </si>
+  <si>
+    <t>70.0000</t>
+  </si>
+  <si>
     <t>ITRANOX 100MG 15 CAPS.</t>
   </si>
   <si>
@@ -392,6 +416,12 @@
     <t>102.0000</t>
   </si>
   <si>
+    <t>PANTOPI 40MG 14 TAB</t>
+  </si>
+  <si>
+    <t>96.00</t>
+  </si>
+  <si>
     <t>PICOLAX 0.75% ORAL DROPS 15 ML</t>
   </si>
   <si>
@@ -434,9 +464,6 @@
     <t>SPASMOFEN 3 AMP. FOR I.M. INJ.</t>
   </si>
   <si>
-    <t>39.00</t>
-  </si>
-  <si>
     <t>TAMSULIN 0.4MG 28 CAPS</t>
   </si>
   <si>
@@ -446,12 +473,30 @@
     <t>124.0000</t>
   </si>
   <si>
+    <t>TOPRO 10 SACHETS</t>
+  </si>
+  <si>
+    <t>130.00</t>
+  </si>
+  <si>
+    <t>130.0000</t>
+  </si>
+  <si>
     <t>TRIACTIN 4MG 20 TAB</t>
   </si>
   <si>
     <t>46.00</t>
   </si>
   <si>
+    <t>TRITONE 100MG 30 TAB</t>
+  </si>
+  <si>
+    <t>49.50</t>
+  </si>
+  <si>
+    <t>16.3350</t>
+  </si>
+  <si>
     <t>URAID-N EFF. GRANUL. 12 SACHETS</t>
   </si>
   <si>
@@ -623,7 +668,7 @@
     <t>9:0</t>
   </si>
   <si>
-    <t>Friday, 8 August, 2025 8:28 PM</t>
+    <t>Friday, 8 August, 2025 8:31 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1314,7 +1359,7 @@
         <v>20</v>
       </c>
       <c t="s" r="Q8" s="12">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="9" ht="25.5" customHeight="1">
@@ -1347,7 +1392,7 @@
         <v>24</v>
       </c>
       <c t="s" r="Q9" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="10" ht="24.75" customHeight="1">
@@ -1356,14 +1401,14 @@
       </c>
       <c r="B10" s="7"/>
       <c t="s" r="C10" s="8">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D10" s="8"/>
       <c r="E10" s="8"/>
       <c r="F10" s="8"/>
       <c r="G10" s="8"/>
       <c t="s" r="H10" s="9">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="I10" s="9"/>
       <c r="J10" s="9"/>
@@ -1373,14 +1418,14 @@
       </c>
       <c r="M10" s="10"/>
       <c t="s" r="N10" s="8">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="O10" s="8"/>
       <c t="s" r="P10" s="11">
+        <v>28</v>
+      </c>
+      <c t="s" r="Q10" s="12">
         <v>29</v>
-      </c>
-      <c t="s" r="Q10" s="12">
-        <v>16</v>
       </c>
     </row>
     <row r="11" ht="25.5" customHeight="1">
@@ -1413,7 +1458,7 @@
         <v>33</v>
       </c>
       <c t="s" r="Q11" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="12" ht="25.5" customHeight="1">
@@ -1429,7 +1474,7 @@
       <c r="F12" s="8"/>
       <c r="G12" s="8"/>
       <c t="s" r="H12" s="9">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="I12" s="9"/>
       <c r="J12" s="9"/>
@@ -1439,11 +1484,11 @@
       </c>
       <c r="M12" s="10"/>
       <c t="s" r="N12" s="8">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="O12" s="8"/>
       <c t="s" r="P12" s="11">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c t="s" r="Q12" s="12">
         <v>12</v>
@@ -1455,14 +1500,14 @@
       </c>
       <c r="B13" s="7"/>
       <c t="s" r="C13" s="8">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D13" s="8"/>
       <c r="E13" s="8"/>
       <c r="F13" s="8"/>
       <c r="G13" s="8"/>
       <c t="s" r="H13" s="9">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="I13" s="9"/>
       <c r="J13" s="9"/>
@@ -1479,7 +1524,7 @@
         <v>40</v>
       </c>
       <c t="s" r="Q13" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="14" ht="25.5" customHeight="1">
@@ -1512,7 +1557,7 @@
         <v>44</v>
       </c>
       <c t="s" r="Q14" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="15" ht="24.75" customHeight="1">
@@ -1528,7 +1573,7 @@
       <c r="F15" s="8"/>
       <c r="G15" s="8"/>
       <c t="s" r="H15" s="9">
-        <v>16</v>
+        <v>46</v>
       </c>
       <c r="I15" s="9"/>
       <c r="J15" s="9"/>
@@ -1538,14 +1583,14 @@
       </c>
       <c r="M15" s="10"/>
       <c t="s" r="N15" s="8">
-        <v>19</v>
+        <v>47</v>
       </c>
       <c r="O15" s="8"/>
       <c t="s" r="P15" s="11">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c t="s" r="Q15" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="16" ht="25.5" customHeight="1">
@@ -1554,14 +1599,14 @@
       </c>
       <c r="B16" s="7"/>
       <c t="s" r="C16" s="8">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="D16" s="8"/>
       <c r="E16" s="8"/>
       <c r="F16" s="8"/>
       <c r="G16" s="8"/>
       <c t="s" r="H16" s="9">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="I16" s="9"/>
       <c r="J16" s="9"/>
@@ -1571,11 +1616,11 @@
       </c>
       <c r="M16" s="10"/>
       <c t="s" r="N16" s="8">
-        <v>48</v>
+        <v>23</v>
       </c>
       <c r="O16" s="8"/>
       <c t="s" r="P16" s="11">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c t="s" r="Q16" s="12">
         <v>16</v>
@@ -1587,14 +1632,14 @@
       </c>
       <c r="B17" s="7"/>
       <c t="s" r="C17" s="8">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D17" s="8"/>
       <c r="E17" s="8"/>
       <c r="F17" s="8"/>
       <c r="G17" s="8"/>
       <c t="s" r="H17" s="9">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="I17" s="9"/>
       <c r="J17" s="9"/>
@@ -1604,14 +1649,14 @@
       </c>
       <c r="M17" s="10"/>
       <c t="s" r="N17" s="8">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="O17" s="8"/>
       <c t="s" r="P17" s="11">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c t="s" r="Q17" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="18" ht="24.75" customHeight="1">
@@ -1620,14 +1665,14 @@
       </c>
       <c r="B18" s="7"/>
       <c t="s" r="C18" s="8">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="D18" s="8"/>
       <c r="E18" s="8"/>
       <c r="F18" s="8"/>
       <c r="G18" s="8"/>
       <c t="s" r="H18" s="9">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="I18" s="9"/>
       <c r="J18" s="9"/>
@@ -1637,14 +1682,14 @@
       </c>
       <c r="M18" s="10"/>
       <c t="s" r="N18" s="8">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="O18" s="8"/>
       <c t="s" r="P18" s="11">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c t="s" r="Q18" s="12">
-        <v>16</v>
+        <v>29</v>
       </c>
     </row>
     <row r="19" ht="25.5" customHeight="1">
@@ -1653,14 +1698,14 @@
       </c>
       <c r="B19" s="7"/>
       <c t="s" r="C19" s="8">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="D19" s="8"/>
       <c r="E19" s="8"/>
       <c r="F19" s="8"/>
       <c r="G19" s="8"/>
       <c t="s" r="H19" s="9">
-        <v>57</v>
+        <v>12</v>
       </c>
       <c r="I19" s="9"/>
       <c r="J19" s="9"/>
@@ -1677,7 +1722,7 @@
         <v>59</v>
       </c>
       <c t="s" r="Q19" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="20" ht="24.75" customHeight="1">
@@ -1693,7 +1738,7 @@
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
       <c t="s" r="H20" s="9">
-        <v>25</v>
+        <v>61</v>
       </c>
       <c r="I20" s="9"/>
       <c r="J20" s="9"/>
@@ -1703,14 +1748,14 @@
       </c>
       <c r="M20" s="10"/>
       <c t="s" r="N20" s="8">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="O20" s="8"/>
       <c t="s" r="P20" s="11">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c t="s" r="Q20" s="12">
-        <v>25</v>
+        <v>29</v>
       </c>
     </row>
     <row r="21" ht="25.5" customHeight="1">
@@ -1719,14 +1764,14 @@
       </c>
       <c r="B21" s="7"/>
       <c t="s" r="C21" s="8">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="D21" s="8"/>
       <c r="E21" s="8"/>
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
       <c t="s" r="H21" s="9">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
@@ -1736,14 +1781,14 @@
       </c>
       <c r="M21" s="10"/>
       <c t="s" r="N21" s="8">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="O21" s="8"/>
       <c t="s" r="P21" s="11">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c t="s" r="Q21" s="12">
-        <v>57</v>
+        <v>29</v>
       </c>
     </row>
     <row r="22" ht="25.5" customHeight="1">
@@ -1752,14 +1797,14 @@
       </c>
       <c r="B22" s="7"/>
       <c t="s" r="C22" s="8">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="D22" s="8"/>
       <c r="E22" s="8"/>
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c t="s" r="H22" s="9">
-        <v>12</v>
+        <v>35</v>
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
@@ -1769,14 +1814,14 @@
       </c>
       <c r="M22" s="10"/>
       <c t="s" r="N22" s="8">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="O22" s="8"/>
       <c t="s" r="P22" s="11">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c t="s" r="Q22" s="12">
-        <v>16</v>
+        <v>61</v>
       </c>
     </row>
     <row r="23" ht="24.75" customHeight="1">
@@ -1785,14 +1830,14 @@
       </c>
       <c r="B23" s="7"/>
       <c t="s" r="C23" s="8">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="D23" s="8"/>
       <c r="E23" s="8"/>
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c t="s" r="H23" s="9">
-        <v>12</v>
+        <v>71</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
@@ -1802,11 +1847,11 @@
       </c>
       <c r="M23" s="10"/>
       <c t="s" r="N23" s="8">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="O23" s="8"/>
       <c t="s" r="P23" s="11">
-        <v>71</v>
+        <v>50</v>
       </c>
       <c t="s" r="Q23" s="12">
         <v>12</v>
@@ -1818,14 +1863,14 @@
       </c>
       <c r="B24" s="7"/>
       <c t="s" r="C24" s="8">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="D24" s="8"/>
       <c r="E24" s="8"/>
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>25</v>
+        <v>12</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
@@ -1835,11 +1880,11 @@
       </c>
       <c r="M24" s="10"/>
       <c t="s" r="N24" s="8">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="O24" s="8"/>
       <c t="s" r="P24" s="11">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c t="s" r="Q24" s="12">
         <v>16</v>
@@ -1851,14 +1896,14 @@
       </c>
       <c r="B25" s="7"/>
       <c t="s" r="C25" s="8">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="D25" s="8"/>
       <c r="E25" s="8"/>
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>76</v>
+        <v>12</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
@@ -1868,11 +1913,11 @@
       </c>
       <c r="M25" s="10"/>
       <c t="s" r="N25" s="8">
-        <v>32</v>
+        <v>77</v>
       </c>
       <c r="O25" s="8"/>
       <c t="s" r="P25" s="11">
-        <v>33</v>
+        <v>78</v>
       </c>
       <c t="s" r="Q25" s="12">
         <v>12</v>
@@ -1884,14 +1929,14 @@
       </c>
       <c r="B26" s="7"/>
       <c t="s" r="C26" s="8">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="D26" s="8"/>
       <c r="E26" s="8"/>
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
@@ -1901,14 +1946,14 @@
       </c>
       <c r="M26" s="10"/>
       <c t="s" r="N26" s="8">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="O26" s="8"/>
       <c t="s" r="P26" s="11">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c t="s" r="Q26" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="27" ht="25.5" customHeight="1">
@@ -1917,14 +1962,14 @@
       </c>
       <c r="B27" s="7"/>
       <c t="s" r="C27" s="8">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="D27" s="8"/>
       <c r="E27" s="8"/>
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>27</v>
+        <v>83</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
@@ -1934,14 +1979,14 @@
       </c>
       <c r="M27" s="10"/>
       <c t="s" r="N27" s="8">
-        <v>81</v>
+        <v>36</v>
       </c>
       <c r="O27" s="8"/>
       <c t="s" r="P27" s="11">
-        <v>82</v>
+        <v>37</v>
       </c>
       <c t="s" r="Q27" s="12">
-        <v>83</v>
+        <v>12</v>
       </c>
     </row>
     <row r="28" ht="24.75" customHeight="1">
@@ -1957,7 +2002,7 @@
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>85</v>
+        <v>35</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
@@ -1967,14 +2012,14 @@
       </c>
       <c r="M28" s="10"/>
       <c t="s" r="N28" s="8">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="O28" s="8"/>
       <c t="s" r="P28" s="11">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c t="s" r="Q28" s="12">
-        <v>25</v>
+        <v>12</v>
       </c>
     </row>
     <row r="29" ht="25.5" customHeight="1">
@@ -1983,14 +2028,14 @@
       </c>
       <c r="B29" s="7"/>
       <c t="s" r="C29" s="8">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D29" s="8"/>
       <c r="E29" s="8"/>
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>12</v>
+        <v>31</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
@@ -2000,14 +2045,14 @@
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="O29" s="8"/>
       <c t="s" r="P29" s="11">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c t="s" r="Q29" s="12">
-        <v>12</v>
+        <v>71</v>
       </c>
     </row>
     <row r="30" ht="24.75" customHeight="1">
@@ -2016,14 +2061,14 @@
       </c>
       <c r="B30" s="7"/>
       <c t="s" r="C30" s="8">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D30" s="8"/>
       <c r="E30" s="8"/>
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>12</v>
+        <v>91</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
@@ -2040,7 +2085,7 @@
         <v>93</v>
       </c>
       <c t="s" r="Q30" s="12">
-        <v>12</v>
+        <v>29</v>
       </c>
     </row>
     <row r="31" ht="25.5" customHeight="1">
@@ -2056,7 +2101,7 @@
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>95</v>
+        <v>12</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
@@ -2066,11 +2111,11 @@
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c t="s" r="Q31" s="12">
         <v>12</v>
@@ -2082,14 +2127,14 @@
       </c>
       <c r="B32" s="7"/>
       <c t="s" r="C32" s="8">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D32" s="8"/>
       <c r="E32" s="8"/>
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>95</v>
+        <v>12</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
@@ -2099,11 +2144,11 @@
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
-        <v>70</v>
+        <v>98</v>
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
-        <v>71</v>
+        <v>99</v>
       </c>
       <c t="s" r="Q32" s="12">
         <v>12</v>
@@ -2115,14 +2160,14 @@
       </c>
       <c r="B33" s="7"/>
       <c t="s" r="C33" s="8">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="D33" s="8"/>
       <c r="E33" s="8"/>
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>38</v>
+        <v>18</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
@@ -2132,14 +2177,14 @@
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c t="s" r="Q33" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="34" ht="25.5" customHeight="1">
@@ -2148,14 +2193,14 @@
       </c>
       <c r="B34" s="7"/>
       <c t="s" r="C34" s="8">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="D34" s="8"/>
       <c r="E34" s="8"/>
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>31</v>
+        <v>18</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
@@ -2165,11 +2210,11 @@
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
-        <v>103</v>
+        <v>77</v>
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
-        <v>104</v>
+        <v>78</v>
       </c>
       <c t="s" r="Q34" s="12">
         <v>12</v>
@@ -2181,14 +2226,14 @@
       </c>
       <c r="B35" s="7"/>
       <c t="s" r="C35" s="8">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D35" s="8"/>
       <c r="E35" s="8"/>
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>106</v>
+        <v>42</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
@@ -2198,14 +2243,14 @@
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c t="s" r="Q35" s="12">
-        <v>83</v>
+        <v>16</v>
       </c>
     </row>
     <row r="36" ht="25.5" customHeight="1">
@@ -2214,14 +2259,14 @@
       </c>
       <c r="B36" s="7"/>
       <c t="s" r="C36" s="8">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="D36" s="8"/>
       <c r="E36" s="8"/>
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
@@ -2231,14 +2276,14 @@
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c t="s" r="Q36" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="37" ht="25.5" customHeight="1">
@@ -2247,14 +2292,14 @@
       </c>
       <c r="B37" s="7"/>
       <c t="s" r="C37" s="8">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="D37" s="8"/>
       <c r="E37" s="8"/>
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>31</v>
+        <v>12</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
@@ -2264,11 +2309,11 @@
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>58</v>
+        <v>111</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c t="s" r="Q37" s="12">
         <v>16</v>
@@ -2280,14 +2325,14 @@
       </c>
       <c r="B38" s="7"/>
       <c t="s" r="C38" s="8">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="D38" s="8"/>
       <c r="E38" s="8"/>
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>83</v>
+        <v>114</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
@@ -2297,14 +2342,14 @@
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>32</v>
+        <v>115</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c t="s" r="Q38" s="12">
-        <v>16</v>
+        <v>71</v>
       </c>
     </row>
     <row r="39" ht="25.5" customHeight="1">
@@ -2313,14 +2358,14 @@
       </c>
       <c r="B39" s="7"/>
       <c t="s" r="C39" s="8">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="D39" s="8"/>
       <c r="E39" s="8"/>
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>12</v>
+        <v>42</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
@@ -2330,11 +2375,11 @@
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c t="s" r="Q39" s="12">
         <v>16</v>
@@ -2346,28 +2391,28 @@
       </c>
       <c r="B40" s="7"/>
       <c t="s" r="C40" s="8">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="D40" s="8"/>
       <c r="E40" s="8"/>
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>120</v>
+        <v>35</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
       <c r="K40" s="9"/>
       <c t="s" r="L40" s="10">
-        <v>121</v>
+        <v>13</v>
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>107</v>
+        <v>62</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
-        <v>29</v>
+        <v>121</v>
       </c>
       <c t="s" r="Q40" s="12">
         <v>16</v>
@@ -2386,7 +2431,7 @@
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>27</v>
+        <v>71</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
@@ -2396,14 +2441,14 @@
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>67</v>
+        <v>36</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
         <v>123</v>
       </c>
       <c t="s" r="Q41" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="42" ht="25.5" customHeight="1">
@@ -2419,7 +2464,7 @@
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
@@ -2436,7 +2481,7 @@
         <v>126</v>
       </c>
       <c t="s" r="Q42" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="43" ht="24.75" customHeight="1">
@@ -2452,24 +2497,24 @@
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>27</v>
+        <v>128</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
       <c r="K43" s="9"/>
       <c t="s" r="L43" s="10">
-        <v>13</v>
+        <v>129</v>
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>128</v>
+        <v>115</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
-        <v>129</v>
+        <v>33</v>
       </c>
       <c t="s" r="Q43" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="44" ht="25.5" customHeight="1">
@@ -2485,7 +2530,7 @@
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>12</v>
+        <v>31</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
@@ -2495,14 +2540,14 @@
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>131</v>
+        <v>74</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c t="s" r="Q44" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="45" ht="24.75" customHeight="1">
@@ -2511,14 +2556,14 @@
       </c>
       <c r="B45" s="7"/>
       <c t="s" r="C45" s="8">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="D45" s="8"/>
       <c r="E45" s="8"/>
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>134</v>
+        <v>16</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
@@ -2528,11 +2573,11 @@
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c t="s" r="Q45" s="12">
         <v>12</v>
@@ -2544,14 +2589,14 @@
       </c>
       <c r="B46" s="7"/>
       <c t="s" r="C46" s="8">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="D46" s="8"/>
       <c r="E46" s="8"/>
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>27</v>
+        <v>16</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
@@ -2561,14 +2606,14 @@
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>19</v>
+        <v>136</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
-        <v>138</v>
+        <v>37</v>
       </c>
       <c t="s" r="Q46" s="12">
-        <v>139</v>
+        <v>16</v>
       </c>
     </row>
     <row r="47" ht="25.5" customHeight="1">
@@ -2577,14 +2622,14 @@
       </c>
       <c r="B47" s="7"/>
       <c t="s" r="C47" s="8">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="D47" s="8"/>
       <c r="E47" s="8"/>
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>22</v>
+        <v>31</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
@@ -2594,11 +2639,11 @@
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
-        <v>46</v>
+        <v>139</v>
       </c>
       <c t="s" r="Q47" s="12">
         <v>12</v>
@@ -2610,14 +2655,14 @@
       </c>
       <c r="B48" s="7"/>
       <c t="s" r="C48" s="8">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="D48" s="8"/>
       <c r="E48" s="8"/>
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>120</v>
+        <v>12</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
@@ -2627,14 +2672,14 @@
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c t="s" r="Q48" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="49" ht="25.5" customHeight="1">
@@ -2643,14 +2688,14 @@
       </c>
       <c r="B49" s="7"/>
       <c t="s" r="C49" s="8">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="D49" s="8"/>
       <c r="E49" s="8"/>
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>38</v>
+        <v>144</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
@@ -2660,14 +2705,14 @@
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
-        <v>118</v>
+        <v>146</v>
       </c>
       <c t="s" r="Q49" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="50" ht="24.75" customHeight="1">
@@ -2683,7 +2728,7 @@
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>95</v>
+        <v>31</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
@@ -2693,14 +2738,14 @@
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>96</v>
+        <v>23</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
         <v>148</v>
       </c>
       <c t="s" r="Q50" s="12">
-        <v>95</v>
+        <v>149</v>
       </c>
     </row>
     <row r="51" ht="25.5" customHeight="1">
@@ -2709,14 +2754,14 @@
       </c>
       <c r="B51" s="7"/>
       <c t="s" r="C51" s="8">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="D51" s="8"/>
       <c r="E51" s="8"/>
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>12</v>
+        <v>26</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
@@ -2726,14 +2771,14 @@
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>150</v>
+        <v>72</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
-        <v>151</v>
+        <v>50</v>
       </c>
       <c t="s" r="Q51" s="12">
-        <v>38</v>
+        <v>12</v>
       </c>
     </row>
     <row r="52" ht="25.5" customHeight="1">
@@ -2742,14 +2787,14 @@
       </c>
       <c r="B52" s="7"/>
       <c t="s" r="C52" s="8">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="D52" s="8"/>
       <c r="E52" s="8"/>
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>31</v>
+        <v>128</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
@@ -2759,11 +2804,11 @@
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>96</v>
+        <v>152</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
-        <v>97</v>
+        <v>153</v>
       </c>
       <c t="s" r="Q52" s="12">
         <v>12</v>
@@ -2775,14 +2820,14 @@
       </c>
       <c r="B53" s="7"/>
       <c t="s" r="C53" s="8">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="D53" s="8"/>
       <c r="E53" s="8"/>
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
@@ -2792,14 +2837,14 @@
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
-        <v>58</v>
+        <v>155</v>
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
-        <v>113</v>
+        <v>156</v>
       </c>
       <c t="s" r="Q53" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="54" ht="25.5" customHeight="1">
@@ -2808,14 +2853,14 @@
       </c>
       <c r="B54" s="7"/>
       <c t="s" r="C54" s="8">
-        <v>154</v>
+        <v>157</v>
       </c>
       <c r="D54" s="8"/>
       <c r="E54" s="8"/>
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>83</v>
+        <v>42</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
@@ -2825,14 +2870,14 @@
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
-        <v>155</v>
+        <v>158</v>
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
-        <v>156</v>
+        <v>126</v>
       </c>
       <c t="s" r="Q54" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="55" ht="24.75" customHeight="1">
@@ -2841,14 +2886,14 @@
       </c>
       <c r="B55" s="7"/>
       <c t="s" r="C55" s="8">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="D55" s="8"/>
       <c r="E55" s="8"/>
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>31</v>
+        <v>42</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
@@ -2858,14 +2903,14 @@
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
-        <v>118</v>
+        <v>161</v>
       </c>
       <c t="s" r="Q55" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="56" ht="25.5" customHeight="1">
@@ -2874,14 +2919,14 @@
       </c>
       <c r="B56" s="7"/>
       <c t="s" r="C56" s="8">
-        <v>159</v>
+        <v>162</v>
       </c>
       <c r="D56" s="8"/>
       <c r="E56" s="8"/>
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>85</v>
+        <v>18</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
@@ -2891,14 +2936,14 @@
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
-        <v>160</v>
+        <v>101</v>
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c t="s" r="Q56" s="12">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="57" ht="25.5" customHeight="1">
@@ -2907,7 +2952,7 @@
       </c>
       <c r="B57" s="7"/>
       <c t="s" r="C57" s="8">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="D57" s="8"/>
       <c r="E57" s="8"/>
@@ -2924,14 +2969,14 @@
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
-        <v>160</v>
+        <v>165</v>
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
-        <v>163</v>
+        <v>166</v>
       </c>
       <c t="s" r="Q57" s="12">
-        <v>16</v>
+        <v>42</v>
       </c>
     </row>
     <row r="58" ht="24.75" customHeight="1">
@@ -2940,14 +2985,14 @@
       </c>
       <c r="B58" s="7"/>
       <c t="s" r="C58" s="8">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="D58" s="8"/>
       <c r="E58" s="8"/>
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c t="s" r="H58" s="9">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
@@ -2957,11 +3002,11 @@
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
-        <v>165</v>
+        <v>101</v>
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
-        <v>166</v>
+        <v>102</v>
       </c>
       <c t="s" r="Q58" s="12">
         <v>12</v>
@@ -2973,31 +3018,31 @@
       </c>
       <c r="B59" s="7"/>
       <c t="s" r="C59" s="8">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="D59" s="8"/>
       <c r="E59" s="8"/>
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c t="s" r="H59" s="9">
-        <v>31</v>
+        <v>42</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
       <c r="K59" s="9"/>
       <c t="s" r="L59" s="10">
-        <v>121</v>
+        <v>13</v>
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
-        <v>168</v>
+        <v>62</v>
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
-        <v>169</v>
+        <v>121</v>
       </c>
       <c t="s" r="Q59" s="12">
-        <v>95</v>
+        <v>16</v>
       </c>
     </row>
     <row r="60" ht="24.75" customHeight="1">
@@ -3006,28 +3051,28 @@
       </c>
       <c r="B60" s="7"/>
       <c t="s" r="C60" s="8">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="D60" s="8"/>
       <c r="E60" s="8"/>
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c t="s" r="H60" s="9">
-        <v>12</v>
+        <v>71</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
       <c r="K60" s="9"/>
       <c t="s" r="L60" s="10">
-        <v>121</v>
+        <v>13</v>
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c t="s" r="Q60" s="12">
         <v>12</v>
@@ -3039,28 +3084,28 @@
       </c>
       <c r="B61" s="7"/>
       <c t="s" r="C61" s="8">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="D61" s="8"/>
       <c r="E61" s="8"/>
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
       <c t="s" r="H61" s="9">
-        <v>174</v>
+        <v>35</v>
       </c>
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
       <c r="K61" s="9"/>
       <c t="s" r="L61" s="10">
-        <v>121</v>
+        <v>13</v>
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
-        <v>29</v>
+        <v>126</v>
       </c>
       <c t="s" r="Q61" s="12">
         <v>12</v>
@@ -3072,31 +3117,31 @@
       </c>
       <c r="B62" s="7"/>
       <c t="s" r="C62" s="8">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="D62" s="8"/>
       <c r="E62" s="8"/>
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
       <c t="s" r="H62" s="9">
-        <v>31</v>
+        <v>91</v>
       </c>
       <c r="I62" s="9"/>
       <c r="J62" s="9"/>
       <c r="K62" s="9"/>
       <c t="s" r="L62" s="10">
-        <v>121</v>
+        <v>13</v>
       </c>
       <c r="M62" s="10"/>
       <c t="s" r="N62" s="8">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c t="s" r="Q62" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="63" ht="24.75" customHeight="1">
@@ -3105,31 +3150,31 @@
       </c>
       <c r="B63" s="7"/>
       <c t="s" r="C63" s="8">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="D63" s="8"/>
       <c r="E63" s="8"/>
       <c r="F63" s="8"/>
       <c r="G63" s="8"/>
       <c t="s" r="H63" s="9">
-        <v>31</v>
+        <v>12</v>
       </c>
       <c r="I63" s="9"/>
       <c r="J63" s="9"/>
       <c r="K63" s="9"/>
       <c t="s" r="L63" s="10">
-        <v>121</v>
+        <v>13</v>
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
-        <v>180</v>
+        <v>175</v>
       </c>
       <c r="O63" s="8"/>
       <c t="s" r="P63" s="11">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c t="s" r="Q63" s="12">
-        <v>83</v>
+        <v>16</v>
       </c>
     </row>
     <row r="64" ht="25.5" customHeight="1">
@@ -3138,31 +3183,31 @@
       </c>
       <c r="B64" s="7"/>
       <c t="s" r="C64" s="8">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="D64" s="8"/>
       <c r="E64" s="8"/>
       <c r="F64" s="8"/>
       <c r="G64" s="8"/>
       <c t="s" r="H64" s="9">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="I64" s="9"/>
       <c r="J64" s="9"/>
       <c r="K64" s="9"/>
       <c t="s" r="L64" s="10">
-        <v>121</v>
+        <v>13</v>
       </c>
       <c r="M64" s="10"/>
       <c t="s" r="N64" s="8">
-        <v>168</v>
+        <v>180</v>
       </c>
       <c r="O64" s="8"/>
       <c t="s" r="P64" s="11">
-        <v>169</v>
+        <v>181</v>
       </c>
       <c t="s" r="Q64" s="12">
-        <v>95</v>
+        <v>12</v>
       </c>
     </row>
     <row r="65" ht="24.75" customHeight="1">
@@ -3171,31 +3216,31 @@
       </c>
       <c r="B65" s="7"/>
       <c t="s" r="C65" s="8">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="D65" s="8"/>
       <c r="E65" s="8"/>
       <c r="F65" s="8"/>
       <c r="G65" s="8"/>
       <c t="s" r="H65" s="9">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="I65" s="9"/>
       <c r="J65" s="9"/>
       <c r="K65" s="9"/>
       <c t="s" r="L65" s="10">
-        <v>121</v>
+        <v>129</v>
       </c>
       <c r="M65" s="10"/>
       <c t="s" r="N65" s="8">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="O65" s="8"/>
       <c t="s" r="P65" s="11">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c t="s" r="Q65" s="12">
-        <v>12</v>
+        <v>18</v>
       </c>
     </row>
     <row r="66" ht="25.5" customHeight="1">
@@ -3204,28 +3249,28 @@
       </c>
       <c r="B66" s="7"/>
       <c t="s" r="C66" s="8">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="D66" s="8"/>
       <c r="E66" s="8"/>
       <c r="F66" s="8"/>
       <c r="G66" s="8"/>
       <c t="s" r="H66" s="9">
-        <v>187</v>
+        <v>12</v>
       </c>
       <c r="I66" s="9"/>
       <c r="J66" s="9"/>
       <c r="K66" s="9"/>
       <c t="s" r="L66" s="10">
-        <v>121</v>
+        <v>129</v>
       </c>
       <c r="M66" s="10"/>
       <c t="s" r="N66" s="8">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="O66" s="8"/>
       <c t="s" r="P66" s="11">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c t="s" r="Q66" s="12">
         <v>12</v>
@@ -3237,28 +3282,28 @@
       </c>
       <c r="B67" s="7"/>
       <c t="s" r="C67" s="8">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="D67" s="8"/>
       <c r="E67" s="8"/>
       <c r="F67" s="8"/>
       <c r="G67" s="8"/>
       <c t="s" r="H67" s="9">
-        <v>27</v>
+        <v>189</v>
       </c>
       <c r="I67" s="9"/>
       <c r="J67" s="9"/>
       <c r="K67" s="9"/>
       <c t="s" r="L67" s="10">
-        <v>121</v>
+        <v>129</v>
       </c>
       <c r="M67" s="10"/>
       <c t="s" r="N67" s="8">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="O67" s="8"/>
       <c t="s" r="P67" s="11">
-        <v>192</v>
+        <v>33</v>
       </c>
       <c t="s" r="Q67" s="12">
         <v>12</v>
@@ -3270,31 +3315,31 @@
       </c>
       <c r="B68" s="7"/>
       <c t="s" r="C68" s="8">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="D68" s="8"/>
       <c r="E68" s="8"/>
       <c r="F68" s="8"/>
       <c r="G68" s="8"/>
       <c t="s" r="H68" s="9">
-        <v>194</v>
+        <v>35</v>
       </c>
       <c r="I68" s="9"/>
       <c r="J68" s="9"/>
       <c r="K68" s="9"/>
       <c t="s" r="L68" s="10">
-        <v>121</v>
+        <v>129</v>
       </c>
       <c r="M68" s="10"/>
       <c t="s" r="N68" s="8">
-        <v>171</v>
+        <v>192</v>
       </c>
       <c r="O68" s="8"/>
       <c t="s" r="P68" s="11">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c t="s" r="Q68" s="12">
-        <v>57</v>
+        <v>12</v>
       </c>
     </row>
     <row r="69" ht="25.5" customHeight="1">
@@ -3303,31 +3348,31 @@
       </c>
       <c r="B69" s="7"/>
       <c t="s" r="C69" s="8">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="D69" s="8"/>
       <c r="E69" s="8"/>
       <c r="F69" s="8"/>
       <c r="G69" s="8"/>
       <c t="s" r="H69" s="9">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="I69" s="9"/>
       <c r="J69" s="9"/>
       <c r="K69" s="9"/>
       <c t="s" r="L69" s="10">
-        <v>121</v>
+        <v>129</v>
       </c>
       <c r="M69" s="10"/>
       <c t="s" r="N69" s="8">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="O69" s="8"/>
       <c t="s" r="P69" s="11">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c t="s" r="Q69" s="12">
-        <v>12</v>
+        <v>71</v>
       </c>
     </row>
     <row r="70" ht="24.75" customHeight="1">
@@ -3336,31 +3381,31 @@
       </c>
       <c r="B70" s="7"/>
       <c t="s" r="C70" s="8">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="D70" s="8"/>
       <c r="E70" s="8"/>
       <c r="F70" s="8"/>
       <c r="G70" s="8"/>
       <c t="s" r="H70" s="9">
-        <v>12</v>
+        <v>35</v>
       </c>
       <c r="I70" s="9"/>
       <c r="J70" s="9"/>
       <c r="K70" s="9"/>
       <c t="s" r="L70" s="10">
-        <v>121</v>
+        <v>129</v>
       </c>
       <c r="M70" s="10"/>
       <c t="s" r="N70" s="8">
-        <v>200</v>
+        <v>183</v>
       </c>
       <c r="O70" s="8"/>
       <c t="s" r="P70" s="11">
-        <v>201</v>
+        <v>184</v>
       </c>
       <c t="s" r="Q70" s="12">
-        <v>12</v>
+        <v>18</v>
       </c>
     </row>
     <row r="71" ht="25.5" customHeight="1">
@@ -3369,66 +3414,264 @@
       </c>
       <c r="B71" s="7"/>
       <c t="s" r="C71" s="8">
-        <v>202</v>
+        <v>198</v>
       </c>
       <c r="D71" s="8"/>
       <c r="E71" s="8"/>
       <c r="F71" s="8"/>
       <c r="G71" s="8"/>
       <c t="s" r="H71" s="9">
-        <v>203</v>
+        <v>35</v>
       </c>
       <c r="I71" s="9"/>
       <c r="J71" s="9"/>
       <c r="K71" s="9"/>
       <c t="s" r="L71" s="10">
-        <v>121</v>
+        <v>129</v>
       </c>
       <c r="M71" s="10"/>
       <c t="s" r="N71" s="8">
-        <v>128</v>
+        <v>199</v>
       </c>
       <c r="O71" s="8"/>
       <c t="s" r="P71" s="11">
+        <v>200</v>
+      </c>
+      <c t="s" r="Q71" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="72" ht="25.5" customHeight="1">
+      <c r="A72" s="7">
+        <v>66</v>
+      </c>
+      <c r="B72" s="7"/>
+      <c t="s" r="C72" s="8">
+        <v>201</v>
+      </c>
+      <c r="D72" s="8"/>
+      <c r="E72" s="8"/>
+      <c r="F72" s="8"/>
+      <c r="G72" s="8"/>
+      <c t="s" r="H72" s="9">
+        <v>202</v>
+      </c>
+      <c r="I72" s="9"/>
+      <c r="J72" s="9"/>
+      <c r="K72" s="9"/>
+      <c t="s" r="L72" s="10">
         <v>129</v>
       </c>
-      <c t="s" r="Q71" s="12">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="72" ht="25.5" customHeight="1">
-      <c r="P72" s="13">
-        <v>4394.835</v>
-      </c>
-      <c r="Q72" s="13"/>
-    </row>
-    <row r="73" ht="16.5" customHeight="1">
-      <c t="s" r="A73" s="14">
+      <c r="M72" s="10"/>
+      <c t="s" r="N72" s="8">
+        <v>203</v>
+      </c>
+      <c r="O72" s="8"/>
+      <c t="s" r="P72" s="11">
         <v>204</v>
       </c>
-      <c r="B73" s="14"/>
-      <c r="C73" s="14"/>
-      <c r="D73" s="14"/>
-      <c r="E73" s="14"/>
-      <c r="F73" s="14"/>
-      <c t="s" r="G73" s="15">
+      <c t="s" r="Q72" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="73" ht="24.75" customHeight="1">
+      <c r="A73" s="7">
+        <v>67</v>
+      </c>
+      <c r="B73" s="7"/>
+      <c t="s" r="C73" s="8">
         <v>205</v>
       </c>
-      <c r="H73" s="15"/>
-      <c r="I73" s="15"/>
-      <c r="J73" s="16"/>
-      <c t="s" r="K73" s="17">
+      <c r="D73" s="8"/>
+      <c r="E73" s="8"/>
+      <c r="F73" s="8"/>
+      <c r="G73" s="8"/>
+      <c t="s" r="H73" s="9">
+        <v>31</v>
+      </c>
+      <c r="I73" s="9"/>
+      <c r="J73" s="9"/>
+      <c r="K73" s="9"/>
+      <c t="s" r="L73" s="10">
+        <v>129</v>
+      </c>
+      <c r="M73" s="10"/>
+      <c t="s" r="N73" s="8">
         <v>206</v>
       </c>
-      <c r="L73" s="17"/>
-      <c r="M73" s="17"/>
-      <c r="N73" s="17"/>
-      <c r="O73" s="17"/>
-      <c r="P73" s="17"/>
-      <c r="Q73" s="17"/>
+      <c r="O73" s="8"/>
+      <c t="s" r="P73" s="11">
+        <v>207</v>
+      </c>
+      <c t="s" r="Q73" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="74" ht="25.5" customHeight="1">
+      <c r="A74" s="7">
+        <v>68</v>
+      </c>
+      <c r="B74" s="7"/>
+      <c t="s" r="C74" s="8">
+        <v>208</v>
+      </c>
+      <c r="D74" s="8"/>
+      <c r="E74" s="8"/>
+      <c r="F74" s="8"/>
+      <c r="G74" s="8"/>
+      <c t="s" r="H74" s="9">
+        <v>209</v>
+      </c>
+      <c r="I74" s="9"/>
+      <c r="J74" s="9"/>
+      <c r="K74" s="9"/>
+      <c t="s" r="L74" s="10">
+        <v>129</v>
+      </c>
+      <c r="M74" s="10"/>
+      <c t="s" r="N74" s="8">
+        <v>186</v>
+      </c>
+      <c r="O74" s="8"/>
+      <c t="s" r="P74" s="11">
+        <v>210</v>
+      </c>
+      <c t="s" r="Q74" s="12">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="75" ht="24.75" customHeight="1">
+      <c r="A75" s="7">
+        <v>69</v>
+      </c>
+      <c r="B75" s="7"/>
+      <c t="s" r="C75" s="8">
+        <v>211</v>
+      </c>
+      <c r="D75" s="8"/>
+      <c r="E75" s="8"/>
+      <c r="F75" s="8"/>
+      <c r="G75" s="8"/>
+      <c t="s" r="H75" s="9">
+        <v>35</v>
+      </c>
+      <c r="I75" s="9"/>
+      <c r="J75" s="9"/>
+      <c r="K75" s="9"/>
+      <c t="s" r="L75" s="10">
+        <v>129</v>
+      </c>
+      <c r="M75" s="10"/>
+      <c t="s" r="N75" s="8">
+        <v>212</v>
+      </c>
+      <c r="O75" s="8"/>
+      <c t="s" r="P75" s="11">
+        <v>213</v>
+      </c>
+      <c t="s" r="Q75" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="76" ht="25.5" customHeight="1">
+      <c r="A76" s="7">
+        <v>70</v>
+      </c>
+      <c r="B76" s="7"/>
+      <c t="s" r="C76" s="8">
+        <v>214</v>
+      </c>
+      <c r="D76" s="8"/>
+      <c r="E76" s="8"/>
+      <c r="F76" s="8"/>
+      <c r="G76" s="8"/>
+      <c t="s" r="H76" s="9">
+        <v>12</v>
+      </c>
+      <c r="I76" s="9"/>
+      <c r="J76" s="9"/>
+      <c r="K76" s="9"/>
+      <c t="s" r="L76" s="10">
+        <v>129</v>
+      </c>
+      <c r="M76" s="10"/>
+      <c t="s" r="N76" s="8">
+        <v>215</v>
+      </c>
+      <c r="O76" s="8"/>
+      <c t="s" r="P76" s="11">
+        <v>216</v>
+      </c>
+      <c t="s" r="Q76" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="77" ht="25.5" customHeight="1">
+      <c r="A77" s="7">
+        <v>71</v>
+      </c>
+      <c r="B77" s="7"/>
+      <c t="s" r="C77" s="8">
+        <v>217</v>
+      </c>
+      <c r="D77" s="8"/>
+      <c r="E77" s="8"/>
+      <c r="F77" s="8"/>
+      <c r="G77" s="8"/>
+      <c t="s" r="H77" s="9">
+        <v>218</v>
+      </c>
+      <c r="I77" s="9"/>
+      <c r="J77" s="9"/>
+      <c r="K77" s="9"/>
+      <c t="s" r="L77" s="10">
+        <v>129</v>
+      </c>
+      <c r="M77" s="10"/>
+      <c t="s" r="N77" s="8">
+        <v>138</v>
+      </c>
+      <c r="O77" s="8"/>
+      <c t="s" r="P77" s="11">
+        <v>139</v>
+      </c>
+      <c t="s" r="Q77" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="78" ht="24.75" customHeight="1">
+      <c r="P78" s="13">
+        <v>4740.1700000000001</v>
+      </c>
+      <c r="Q78" s="13"/>
+    </row>
+    <row r="79" ht="16.5" customHeight="1">
+      <c t="s" r="A79" s="14">
+        <v>219</v>
+      </c>
+      <c r="B79" s="14"/>
+      <c r="C79" s="14"/>
+      <c r="D79" s="14"/>
+      <c r="E79" s="14"/>
+      <c r="F79" s="14"/>
+      <c t="s" r="G79" s="15">
+        <v>220</v>
+      </c>
+      <c r="H79" s="15"/>
+      <c r="I79" s="15"/>
+      <c r="J79" s="16"/>
+      <c t="s" r="K79" s="17">
+        <v>221</v>
+      </c>
+      <c r="L79" s="17"/>
+      <c r="M79" s="17"/>
+      <c r="N79" s="17"/>
+      <c r="O79" s="17"/>
+      <c r="P79" s="17"/>
+      <c r="Q79" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="337">
+  <mergeCells count="367">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -3762,10 +4005,40 @@
     <mergeCell ref="H71:K71"/>
     <mergeCell ref="L71:M71"/>
     <mergeCell ref="N71:O71"/>
-    <mergeCell ref="P72:Q72"/>
-    <mergeCell ref="A73:F73"/>
-    <mergeCell ref="G73:I73"/>
-    <mergeCell ref="K73:Q73"/>
+    <mergeCell ref="A72:B72"/>
+    <mergeCell ref="C72:G72"/>
+    <mergeCell ref="H72:K72"/>
+    <mergeCell ref="L72:M72"/>
+    <mergeCell ref="N72:O72"/>
+    <mergeCell ref="A73:B73"/>
+    <mergeCell ref="C73:G73"/>
+    <mergeCell ref="H73:K73"/>
+    <mergeCell ref="L73:M73"/>
+    <mergeCell ref="N73:O73"/>
+    <mergeCell ref="A74:B74"/>
+    <mergeCell ref="C74:G74"/>
+    <mergeCell ref="H74:K74"/>
+    <mergeCell ref="L74:M74"/>
+    <mergeCell ref="N74:O74"/>
+    <mergeCell ref="A75:B75"/>
+    <mergeCell ref="C75:G75"/>
+    <mergeCell ref="H75:K75"/>
+    <mergeCell ref="L75:M75"/>
+    <mergeCell ref="N75:O75"/>
+    <mergeCell ref="A76:B76"/>
+    <mergeCell ref="C76:G76"/>
+    <mergeCell ref="H76:K76"/>
+    <mergeCell ref="L76:M76"/>
+    <mergeCell ref="N76:O76"/>
+    <mergeCell ref="A77:B77"/>
+    <mergeCell ref="C77:G77"/>
+    <mergeCell ref="H77:K77"/>
+    <mergeCell ref="L77:M77"/>
+    <mergeCell ref="N77:O77"/>
+    <mergeCell ref="P78:Q78"/>
+    <mergeCell ref="A79:F79"/>
+    <mergeCell ref="G79:I79"/>
+    <mergeCell ref="K79:Q79"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-08-08_00-00.xlsx
+++ b/DaySale_2025-08-08_00-00.xlsx
@@ -464,6 +464,15 @@
     <t>SPASMOFEN 3 AMP. FOR I.M. INJ.</t>
   </si>
   <si>
+    <t>SPASMOFREE 50MG 20 F.C. TABS.</t>
+  </si>
+  <si>
+    <t>STREPTOQUIN 20 TABLETS</t>
+  </si>
+  <si>
+    <t>46.00</t>
+  </si>
+  <si>
     <t>TAMSULIN 0.4MG 28 CAPS</t>
   </si>
   <si>
@@ -485,9 +494,6 @@
     <t>TRIACTIN 4MG 20 TAB</t>
   </si>
   <si>
-    <t>46.00</t>
-  </si>
-  <si>
     <t>TRITONE 100MG 30 TAB</t>
   </si>
   <si>
@@ -668,7 +674,7 @@
     <t>9:0</t>
   </si>
   <si>
-    <t>Friday, 8 August, 2025 8:31 PM</t>
+    <t>Friday, 8 August, 2025 8:32 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -2794,7 +2800,7 @@
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>128</v>
+        <v>42</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
@@ -2804,14 +2810,14 @@
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>152</v>
+        <v>32</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
-        <v>153</v>
+        <v>33</v>
       </c>
       <c t="s" r="Q52" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="53" ht="24.75" customHeight="1">
@@ -2820,14 +2826,14 @@
       </c>
       <c r="B53" s="7"/>
       <c t="s" r="C53" s="8">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="D53" s="8"/>
       <c r="E53" s="8"/>
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>35</v>
+        <v>128</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
@@ -2837,14 +2843,14 @@
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
-        <v>156</v>
+        <v>126</v>
       </c>
       <c t="s" r="Q53" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="54" ht="25.5" customHeight="1">
@@ -2853,14 +2859,14 @@
       </c>
       <c r="B54" s="7"/>
       <c t="s" r="C54" s="8">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="D54" s="8"/>
       <c r="E54" s="8"/>
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>42</v>
+        <v>128</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
@@ -2870,14 +2876,14 @@
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
-        <v>126</v>
+        <v>156</v>
       </c>
       <c t="s" r="Q54" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="55" ht="24.75" customHeight="1">
@@ -2886,14 +2892,14 @@
       </c>
       <c r="B55" s="7"/>
       <c t="s" r="C55" s="8">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="D55" s="8"/>
       <c r="E55" s="8"/>
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
@@ -2903,14 +2909,14 @@
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c t="s" r="Q55" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="56" ht="25.5" customHeight="1">
@@ -2919,14 +2925,14 @@
       </c>
       <c r="B56" s="7"/>
       <c t="s" r="C56" s="8">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="D56" s="8"/>
       <c r="E56" s="8"/>
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>18</v>
+        <v>42</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
@@ -2936,14 +2942,14 @@
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
-        <v>101</v>
+        <v>153</v>
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
-        <v>163</v>
+        <v>126</v>
       </c>
       <c t="s" r="Q56" s="12">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="57" ht="25.5" customHeight="1">
@@ -2952,14 +2958,14 @@
       </c>
       <c r="B57" s="7"/>
       <c t="s" r="C57" s="8">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="D57" s="8"/>
       <c r="E57" s="8"/>
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>12</v>
+        <v>42</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
@@ -2969,14 +2975,14 @@
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c t="s" r="Q57" s="12">
-        <v>42</v>
+        <v>16</v>
       </c>
     </row>
     <row r="58" ht="24.75" customHeight="1">
@@ -2985,14 +2991,14 @@
       </c>
       <c r="B58" s="7"/>
       <c t="s" r="C58" s="8">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="D58" s="8"/>
       <c r="E58" s="8"/>
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c t="s" r="H58" s="9">
-        <v>35</v>
+        <v>18</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
@@ -3006,10 +3012,10 @@
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
-        <v>102</v>
+        <v>165</v>
       </c>
       <c t="s" r="Q58" s="12">
-        <v>12</v>
+        <v>18</v>
       </c>
     </row>
     <row r="59" ht="25.5" customHeight="1">
@@ -3018,14 +3024,14 @@
       </c>
       <c r="B59" s="7"/>
       <c t="s" r="C59" s="8">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="D59" s="8"/>
       <c r="E59" s="8"/>
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c t="s" r="H59" s="9">
-        <v>42</v>
+        <v>12</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
@@ -3035,14 +3041,14 @@
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
-        <v>62</v>
+        <v>167</v>
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
-        <v>121</v>
+        <v>168</v>
       </c>
       <c t="s" r="Q59" s="12">
-        <v>16</v>
+        <v>42</v>
       </c>
     </row>
     <row r="60" ht="24.75" customHeight="1">
@@ -3058,7 +3064,7 @@
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c t="s" r="H60" s="9">
-        <v>71</v>
+        <v>35</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
@@ -3068,11 +3074,11 @@
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
-        <v>170</v>
+        <v>101</v>
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
-        <v>171</v>
+        <v>102</v>
       </c>
       <c t="s" r="Q60" s="12">
         <v>12</v>
@@ -3084,14 +3090,14 @@
       </c>
       <c r="B61" s="7"/>
       <c t="s" r="C61" s="8">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="D61" s="8"/>
       <c r="E61" s="8"/>
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
       <c t="s" r="H61" s="9">
-        <v>35</v>
+        <v>42</v>
       </c>
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
@@ -3101,14 +3107,14 @@
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
-        <v>173</v>
+        <v>62</v>
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
-        <v>126</v>
+        <v>121</v>
       </c>
       <c t="s" r="Q61" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="62" ht="25.5" customHeight="1">
@@ -3117,14 +3123,14 @@
       </c>
       <c r="B62" s="7"/>
       <c t="s" r="C62" s="8">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="D62" s="8"/>
       <c r="E62" s="8"/>
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
       <c t="s" r="H62" s="9">
-        <v>91</v>
+        <v>71</v>
       </c>
       <c r="I62" s="9"/>
       <c r="J62" s="9"/>
@@ -3134,14 +3140,14 @@
       </c>
       <c r="M62" s="10"/>
       <c t="s" r="N62" s="8">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c t="s" r="Q62" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="63" ht="24.75" customHeight="1">
@@ -3150,14 +3156,14 @@
       </c>
       <c r="B63" s="7"/>
       <c t="s" r="C63" s="8">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="D63" s="8"/>
       <c r="E63" s="8"/>
       <c r="F63" s="8"/>
       <c r="G63" s="8"/>
       <c t="s" r="H63" s="9">
-        <v>12</v>
+        <v>35</v>
       </c>
       <c r="I63" s="9"/>
       <c r="J63" s="9"/>
@@ -3171,10 +3177,10 @@
       </c>
       <c r="O63" s="8"/>
       <c t="s" r="P63" s="11">
-        <v>178</v>
+        <v>126</v>
       </c>
       <c t="s" r="Q63" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="64" ht="25.5" customHeight="1">
@@ -3183,14 +3189,14 @@
       </c>
       <c r="B64" s="7"/>
       <c t="s" r="C64" s="8">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="D64" s="8"/>
       <c r="E64" s="8"/>
       <c r="F64" s="8"/>
       <c r="G64" s="8"/>
       <c t="s" r="H64" s="9">
-        <v>35</v>
+        <v>91</v>
       </c>
       <c r="I64" s="9"/>
       <c r="J64" s="9"/>
@@ -3200,14 +3206,14 @@
       </c>
       <c r="M64" s="10"/>
       <c t="s" r="N64" s="8">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="O64" s="8"/>
       <c t="s" r="P64" s="11">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c t="s" r="Q64" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="65" ht="24.75" customHeight="1">
@@ -3216,31 +3222,31 @@
       </c>
       <c r="B65" s="7"/>
       <c t="s" r="C65" s="8">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="D65" s="8"/>
       <c r="E65" s="8"/>
       <c r="F65" s="8"/>
       <c r="G65" s="8"/>
       <c t="s" r="H65" s="9">
-        <v>35</v>
+        <v>12</v>
       </c>
       <c r="I65" s="9"/>
       <c r="J65" s="9"/>
       <c r="K65" s="9"/>
       <c t="s" r="L65" s="10">
-        <v>129</v>
+        <v>13</v>
       </c>
       <c r="M65" s="10"/>
       <c t="s" r="N65" s="8">
-        <v>183</v>
+        <v>177</v>
       </c>
       <c r="O65" s="8"/>
       <c t="s" r="P65" s="11">
-        <v>184</v>
+        <v>180</v>
       </c>
       <c t="s" r="Q65" s="12">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="66" ht="25.5" customHeight="1">
@@ -3249,28 +3255,28 @@
       </c>
       <c r="B66" s="7"/>
       <c t="s" r="C66" s="8">
-        <v>185</v>
+        <v>181</v>
       </c>
       <c r="D66" s="8"/>
       <c r="E66" s="8"/>
       <c r="F66" s="8"/>
       <c r="G66" s="8"/>
       <c t="s" r="H66" s="9">
-        <v>12</v>
+        <v>35</v>
       </c>
       <c r="I66" s="9"/>
       <c r="J66" s="9"/>
       <c r="K66" s="9"/>
       <c t="s" r="L66" s="10">
-        <v>129</v>
+        <v>13</v>
       </c>
       <c r="M66" s="10"/>
       <c t="s" r="N66" s="8">
-        <v>186</v>
+        <v>182</v>
       </c>
       <c r="O66" s="8"/>
       <c t="s" r="P66" s="11">
-        <v>187</v>
+        <v>183</v>
       </c>
       <c t="s" r="Q66" s="12">
         <v>12</v>
@@ -3282,14 +3288,14 @@
       </c>
       <c r="B67" s="7"/>
       <c t="s" r="C67" s="8">
-        <v>188</v>
+        <v>184</v>
       </c>
       <c r="D67" s="8"/>
       <c r="E67" s="8"/>
       <c r="F67" s="8"/>
       <c r="G67" s="8"/>
       <c t="s" r="H67" s="9">
-        <v>189</v>
+        <v>35</v>
       </c>
       <c r="I67" s="9"/>
       <c r="J67" s="9"/>
@@ -3299,14 +3305,14 @@
       </c>
       <c r="M67" s="10"/>
       <c t="s" r="N67" s="8">
-        <v>190</v>
+        <v>185</v>
       </c>
       <c r="O67" s="8"/>
       <c t="s" r="P67" s="11">
-        <v>33</v>
+        <v>186</v>
       </c>
       <c t="s" r="Q67" s="12">
-        <v>12</v>
+        <v>18</v>
       </c>
     </row>
     <row r="68" ht="24.75" customHeight="1">
@@ -3315,14 +3321,14 @@
       </c>
       <c r="B68" s="7"/>
       <c t="s" r="C68" s="8">
-        <v>191</v>
+        <v>187</v>
       </c>
       <c r="D68" s="8"/>
       <c r="E68" s="8"/>
       <c r="F68" s="8"/>
       <c r="G68" s="8"/>
       <c t="s" r="H68" s="9">
-        <v>35</v>
+        <v>12</v>
       </c>
       <c r="I68" s="9"/>
       <c r="J68" s="9"/>
@@ -3332,11 +3338,11 @@
       </c>
       <c r="M68" s="10"/>
       <c t="s" r="N68" s="8">
-        <v>192</v>
+        <v>188</v>
       </c>
       <c r="O68" s="8"/>
       <c t="s" r="P68" s="11">
-        <v>193</v>
+        <v>189</v>
       </c>
       <c t="s" r="Q68" s="12">
         <v>12</v>
@@ -3348,14 +3354,14 @@
       </c>
       <c r="B69" s="7"/>
       <c t="s" r="C69" s="8">
-        <v>194</v>
+        <v>190</v>
       </c>
       <c r="D69" s="8"/>
       <c r="E69" s="8"/>
       <c r="F69" s="8"/>
       <c r="G69" s="8"/>
       <c t="s" r="H69" s="9">
-        <v>35</v>
+        <v>191</v>
       </c>
       <c r="I69" s="9"/>
       <c r="J69" s="9"/>
@@ -3365,14 +3371,14 @@
       </c>
       <c r="M69" s="10"/>
       <c t="s" r="N69" s="8">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="O69" s="8"/>
       <c t="s" r="P69" s="11">
-        <v>196</v>
+        <v>33</v>
       </c>
       <c t="s" r="Q69" s="12">
-        <v>71</v>
+        <v>12</v>
       </c>
     </row>
     <row r="70" ht="24.75" customHeight="1">
@@ -3381,7 +3387,7 @@
       </c>
       <c r="B70" s="7"/>
       <c t="s" r="C70" s="8">
-        <v>197</v>
+        <v>193</v>
       </c>
       <c r="D70" s="8"/>
       <c r="E70" s="8"/>
@@ -3398,14 +3404,14 @@
       </c>
       <c r="M70" s="10"/>
       <c t="s" r="N70" s="8">
-        <v>183</v>
+        <v>194</v>
       </c>
       <c r="O70" s="8"/>
       <c t="s" r="P70" s="11">
-        <v>184</v>
+        <v>195</v>
       </c>
       <c t="s" r="Q70" s="12">
-        <v>18</v>
+        <v>12</v>
       </c>
     </row>
     <row r="71" ht="25.5" customHeight="1">
@@ -3414,7 +3420,7 @@
       </c>
       <c r="B71" s="7"/>
       <c t="s" r="C71" s="8">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="D71" s="8"/>
       <c r="E71" s="8"/>
@@ -3431,14 +3437,14 @@
       </c>
       <c r="M71" s="10"/>
       <c t="s" r="N71" s="8">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="O71" s="8"/>
       <c t="s" r="P71" s="11">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c t="s" r="Q71" s="12">
-        <v>12</v>
+        <v>71</v>
       </c>
     </row>
     <row r="72" ht="25.5" customHeight="1">
@@ -3447,14 +3453,14 @@
       </c>
       <c r="B72" s="7"/>
       <c t="s" r="C72" s="8">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="D72" s="8"/>
       <c r="E72" s="8"/>
       <c r="F72" s="8"/>
       <c r="G72" s="8"/>
       <c t="s" r="H72" s="9">
-        <v>202</v>
+        <v>35</v>
       </c>
       <c r="I72" s="9"/>
       <c r="J72" s="9"/>
@@ -3464,14 +3470,14 @@
       </c>
       <c r="M72" s="10"/>
       <c t="s" r="N72" s="8">
-        <v>203</v>
+        <v>185</v>
       </c>
       <c r="O72" s="8"/>
       <c t="s" r="P72" s="11">
-        <v>204</v>
+        <v>186</v>
       </c>
       <c t="s" r="Q72" s="12">
-        <v>12</v>
+        <v>18</v>
       </c>
     </row>
     <row r="73" ht="24.75" customHeight="1">
@@ -3480,14 +3486,14 @@
       </c>
       <c r="B73" s="7"/>
       <c t="s" r="C73" s="8">
-        <v>205</v>
+        <v>200</v>
       </c>
       <c r="D73" s="8"/>
       <c r="E73" s="8"/>
       <c r="F73" s="8"/>
       <c r="G73" s="8"/>
       <c t="s" r="H73" s="9">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="I73" s="9"/>
       <c r="J73" s="9"/>
@@ -3497,11 +3503,11 @@
       </c>
       <c r="M73" s="10"/>
       <c t="s" r="N73" s="8">
-        <v>206</v>
+        <v>201</v>
       </c>
       <c r="O73" s="8"/>
       <c t="s" r="P73" s="11">
-        <v>207</v>
+        <v>202</v>
       </c>
       <c t="s" r="Q73" s="12">
         <v>12</v>
@@ -3513,14 +3519,14 @@
       </c>
       <c r="B74" s="7"/>
       <c t="s" r="C74" s="8">
-        <v>208</v>
+        <v>203</v>
       </c>
       <c r="D74" s="8"/>
       <c r="E74" s="8"/>
       <c r="F74" s="8"/>
       <c r="G74" s="8"/>
       <c t="s" r="H74" s="9">
-        <v>209</v>
+        <v>204</v>
       </c>
       <c r="I74" s="9"/>
       <c r="J74" s="9"/>
@@ -3530,14 +3536,14 @@
       </c>
       <c r="M74" s="10"/>
       <c t="s" r="N74" s="8">
-        <v>186</v>
+        <v>205</v>
       </c>
       <c r="O74" s="8"/>
       <c t="s" r="P74" s="11">
-        <v>210</v>
+        <v>206</v>
       </c>
       <c t="s" r="Q74" s="12">
-        <v>61</v>
+        <v>12</v>
       </c>
     </row>
     <row r="75" ht="24.75" customHeight="1">
@@ -3546,14 +3552,14 @@
       </c>
       <c r="B75" s="7"/>
       <c t="s" r="C75" s="8">
-        <v>211</v>
+        <v>207</v>
       </c>
       <c r="D75" s="8"/>
       <c r="E75" s="8"/>
       <c r="F75" s="8"/>
       <c r="G75" s="8"/>
       <c t="s" r="H75" s="9">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="I75" s="9"/>
       <c r="J75" s="9"/>
@@ -3563,11 +3569,11 @@
       </c>
       <c r="M75" s="10"/>
       <c t="s" r="N75" s="8">
-        <v>212</v>
+        <v>208</v>
       </c>
       <c r="O75" s="8"/>
       <c t="s" r="P75" s="11">
-        <v>213</v>
+        <v>209</v>
       </c>
       <c t="s" r="Q75" s="12">
         <v>12</v>
@@ -3579,14 +3585,14 @@
       </c>
       <c r="B76" s="7"/>
       <c t="s" r="C76" s="8">
-        <v>214</v>
+        <v>210</v>
       </c>
       <c r="D76" s="8"/>
       <c r="E76" s="8"/>
       <c r="F76" s="8"/>
       <c r="G76" s="8"/>
       <c t="s" r="H76" s="9">
-        <v>12</v>
+        <v>211</v>
       </c>
       <c r="I76" s="9"/>
       <c r="J76" s="9"/>
@@ -3596,14 +3602,14 @@
       </c>
       <c r="M76" s="10"/>
       <c t="s" r="N76" s="8">
-        <v>215</v>
+        <v>188</v>
       </c>
       <c r="O76" s="8"/>
       <c t="s" r="P76" s="11">
-        <v>216</v>
+        <v>212</v>
       </c>
       <c t="s" r="Q76" s="12">
-        <v>12</v>
+        <v>61</v>
       </c>
     </row>
     <row r="77" ht="25.5" customHeight="1">
@@ -3612,14 +3618,14 @@
       </c>
       <c r="B77" s="7"/>
       <c t="s" r="C77" s="8">
-        <v>217</v>
+        <v>213</v>
       </c>
       <c r="D77" s="8"/>
       <c r="E77" s="8"/>
       <c r="F77" s="8"/>
       <c r="G77" s="8"/>
       <c t="s" r="H77" s="9">
-        <v>218</v>
+        <v>35</v>
       </c>
       <c r="I77" s="9"/>
       <c r="J77" s="9"/>
@@ -3629,49 +3635,115 @@
       </c>
       <c r="M77" s="10"/>
       <c t="s" r="N77" s="8">
-        <v>138</v>
+        <v>214</v>
       </c>
       <c r="O77" s="8"/>
       <c t="s" r="P77" s="11">
+        <v>215</v>
+      </c>
+      <c t="s" r="Q77" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="78" ht="24.75" customHeight="1">
+      <c r="A78" s="7">
+        <v>72</v>
+      </c>
+      <c r="B78" s="7"/>
+      <c t="s" r="C78" s="8">
+        <v>216</v>
+      </c>
+      <c r="D78" s="8"/>
+      <c r="E78" s="8"/>
+      <c r="F78" s="8"/>
+      <c r="G78" s="8"/>
+      <c t="s" r="H78" s="9">
+        <v>12</v>
+      </c>
+      <c r="I78" s="9"/>
+      <c r="J78" s="9"/>
+      <c r="K78" s="9"/>
+      <c t="s" r="L78" s="10">
+        <v>129</v>
+      </c>
+      <c r="M78" s="10"/>
+      <c t="s" r="N78" s="8">
+        <v>217</v>
+      </c>
+      <c r="O78" s="8"/>
+      <c t="s" r="P78" s="11">
+        <v>218</v>
+      </c>
+      <c t="s" r="Q78" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="79" ht="25.5" customHeight="1">
+      <c r="A79" s="7">
+        <v>73</v>
+      </c>
+      <c r="B79" s="7"/>
+      <c t="s" r="C79" s="8">
+        <v>219</v>
+      </c>
+      <c r="D79" s="8"/>
+      <c r="E79" s="8"/>
+      <c r="F79" s="8"/>
+      <c r="G79" s="8"/>
+      <c t="s" r="H79" s="9">
+        <v>220</v>
+      </c>
+      <c r="I79" s="9"/>
+      <c r="J79" s="9"/>
+      <c r="K79" s="9"/>
+      <c t="s" r="L79" s="10">
+        <v>129</v>
+      </c>
+      <c r="M79" s="10"/>
+      <c t="s" r="N79" s="8">
+        <v>138</v>
+      </c>
+      <c r="O79" s="8"/>
+      <c t="s" r="P79" s="11">
         <v>139</v>
       </c>
-      <c t="s" r="Q77" s="12">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="78" ht="24.75" customHeight="1">
-      <c r="P78" s="13">
-        <v>4740.1700000000001</v>
-      </c>
-      <c r="Q78" s="13"/>
-    </row>
-    <row r="79" ht="16.5" customHeight="1">
-      <c t="s" r="A79" s="14">
-        <v>219</v>
-      </c>
-      <c r="B79" s="14"/>
-      <c r="C79" s="14"/>
-      <c r="D79" s="14"/>
-      <c r="E79" s="14"/>
-      <c r="F79" s="14"/>
-      <c t="s" r="G79" s="15">
-        <v>220</v>
-      </c>
-      <c r="H79" s="15"/>
-      <c r="I79" s="15"/>
-      <c r="J79" s="16"/>
-      <c t="s" r="K79" s="17">
+      <c t="s" r="Q79" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="80" ht="24.75" customHeight="1">
+      <c r="P80" s="13">
+        <v>4790.1700000000001</v>
+      </c>
+      <c r="Q80" s="13"/>
+    </row>
+    <row r="81" ht="16.5" customHeight="1">
+      <c t="s" r="A81" s="14">
         <v>221</v>
       </c>
-      <c r="L79" s="17"/>
-      <c r="M79" s="17"/>
-      <c r="N79" s="17"/>
-      <c r="O79" s="17"/>
-      <c r="P79" s="17"/>
-      <c r="Q79" s="17"/>
+      <c r="B81" s="14"/>
+      <c r="C81" s="14"/>
+      <c r="D81" s="14"/>
+      <c r="E81" s="14"/>
+      <c r="F81" s="14"/>
+      <c t="s" r="G81" s="15">
+        <v>222</v>
+      </c>
+      <c r="H81" s="15"/>
+      <c r="I81" s="15"/>
+      <c r="J81" s="16"/>
+      <c t="s" r="K81" s="17">
+        <v>223</v>
+      </c>
+      <c r="L81" s="17"/>
+      <c r="M81" s="17"/>
+      <c r="N81" s="17"/>
+      <c r="O81" s="17"/>
+      <c r="P81" s="17"/>
+      <c r="Q81" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="367">
+  <mergeCells count="377">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -4035,10 +4107,20 @@
     <mergeCell ref="H77:K77"/>
     <mergeCell ref="L77:M77"/>
     <mergeCell ref="N77:O77"/>
-    <mergeCell ref="P78:Q78"/>
-    <mergeCell ref="A79:F79"/>
-    <mergeCell ref="G79:I79"/>
-    <mergeCell ref="K79:Q79"/>
+    <mergeCell ref="A78:B78"/>
+    <mergeCell ref="C78:G78"/>
+    <mergeCell ref="H78:K78"/>
+    <mergeCell ref="L78:M78"/>
+    <mergeCell ref="N78:O78"/>
+    <mergeCell ref="A79:B79"/>
+    <mergeCell ref="C79:G79"/>
+    <mergeCell ref="H79:K79"/>
+    <mergeCell ref="L79:M79"/>
+    <mergeCell ref="N79:O79"/>
+    <mergeCell ref="P80:Q80"/>
+    <mergeCell ref="A81:F81"/>
+    <mergeCell ref="G81:I81"/>
+    <mergeCell ref="K81:Q81"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-08-08_00-00.xlsx
+++ b/DaySale_2025-08-08_00-00.xlsx
@@ -674,7 +674,7 @@
     <t>9:0</t>
   </si>
   <si>
-    <t>Friday, 8 August, 2025 8:32 PM</t>
+    <t>Friday, 8 August, 2025 8:33 PM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-08-08_00-00.xlsx
+++ b/DaySale_2025-08-08_00-00.xlsx
@@ -44,24 +44,36 @@
     <t>عدد التعااملات</t>
   </si>
   <si>
+    <t>ADOLOR 15 MG 3 AMPS.</t>
+  </si>
+  <si>
+    <t>4:1</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>19.50</t>
+  </si>
+  <si>
+    <t>6.4350</t>
+  </si>
+  <si>
+    <t>0:1</t>
+  </si>
+  <si>
     <t>ALVERINSPASM 24 S.G.CAPS.</t>
   </si>
   <si>
     <t>1:0</t>
   </si>
   <si>
-    <t>1</t>
-  </si>
-  <si>
     <t>74.00</t>
   </si>
   <si>
     <t>37.0000</t>
   </si>
   <si>
-    <t>0:1</t>
-  </si>
-  <si>
     <t>ALZENTAL 20MG/ML SUSP. 20ML</t>
   </si>
   <si>
@@ -164,6 +176,18 @@
     <t>39.0000</t>
   </si>
   <si>
+    <t>COLOVATIL 30 F.C. TABS</t>
+  </si>
+  <si>
+    <t>2:2</t>
+  </si>
+  <si>
+    <t>63.00</t>
+  </si>
+  <si>
+    <t>20.7900</t>
+  </si>
+  <si>
     <t>COLOVERIN D 135MG 30 TAB</t>
   </si>
   <si>
@@ -251,12 +275,6 @@
     <t>DOGMATIL 50MG 30 CAPS.</t>
   </si>
   <si>
-    <t>63.00</t>
-  </si>
-  <si>
-    <t>20.7900</t>
-  </si>
-  <si>
     <t>DOLIPRANE 1 GM 15 TABS.</t>
   </si>
   <si>
@@ -440,6 +458,12 @@
     <t>60.3900</t>
   </si>
   <si>
+    <t>PROXIMOL COMPOUND EFF. GRANULES 60 GM</t>
+  </si>
+  <si>
+    <t>52.0000</t>
+  </si>
+  <si>
     <t>PURGATON 20MG 30 TAB.</t>
   </si>
   <si>
@@ -452,6 +476,15 @@
     <t>45.0000</t>
   </si>
   <si>
+    <t>ROWATINEX 45 CAPSULES</t>
+  </si>
+  <si>
+    <t>3:1</t>
+  </si>
+  <si>
+    <t>72.00</t>
+  </si>
+  <si>
     <t>SPASMO-DIGESTIN 30 TABS.</t>
   </si>
   <si>
@@ -605,7 +638,7 @@
     <t>2.00</t>
   </si>
   <si>
-    <t>8.0000</t>
+    <t>10.0000</t>
   </si>
   <si>
     <t>سرنجات 5 سم</t>
@@ -674,7 +707,7 @@
     <t>9:0</t>
   </si>
   <si>
-    <t>Friday, 8 August, 2025 8:33 PM</t>
+    <t>Friday, 8 August, 2025 8:40 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1365,7 +1398,7 @@
         <v>20</v>
       </c>
       <c t="s" r="Q8" s="12">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="9" ht="25.5" customHeight="1">
@@ -1398,7 +1431,7 @@
         <v>24</v>
       </c>
       <c t="s" r="Q9" s="12">
-        <v>16</v>
+        <v>22</v>
       </c>
     </row>
     <row r="10" ht="24.75" customHeight="1">
@@ -1431,7 +1464,7 @@
         <v>28</v>
       </c>
       <c t="s" r="Q10" s="12">
-        <v>29</v>
+        <v>16</v>
       </c>
     </row>
     <row r="11" ht="25.5" customHeight="1">
@@ -1440,14 +1473,14 @@
       </c>
       <c r="B11" s="7"/>
       <c t="s" r="C11" s="8">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D11" s="8"/>
       <c r="E11" s="8"/>
       <c r="F11" s="8"/>
       <c r="G11" s="8"/>
       <c t="s" r="H11" s="9">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="I11" s="9"/>
       <c r="J11" s="9"/>
@@ -1457,14 +1490,14 @@
       </c>
       <c r="M11" s="10"/>
       <c t="s" r="N11" s="8">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="O11" s="8"/>
       <c t="s" r="P11" s="11">
+        <v>32</v>
+      </c>
+      <c t="s" r="Q11" s="12">
         <v>33</v>
-      </c>
-      <c t="s" r="Q11" s="12">
-        <v>16</v>
       </c>
     </row>
     <row r="12" ht="25.5" customHeight="1">
@@ -1497,7 +1530,7 @@
         <v>37</v>
       </c>
       <c t="s" r="Q12" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="13" ht="24.75" customHeight="1">
@@ -1513,7 +1546,7 @@
       <c r="F13" s="8"/>
       <c r="G13" s="8"/>
       <c t="s" r="H13" s="9">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="I13" s="9"/>
       <c r="J13" s="9"/>
@@ -1523,14 +1556,14 @@
       </c>
       <c r="M13" s="10"/>
       <c t="s" r="N13" s="8">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="O13" s="8"/>
       <c t="s" r="P13" s="11">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c t="s" r="Q13" s="12">
-        <v>12</v>
+        <v>18</v>
       </c>
     </row>
     <row r="14" ht="25.5" customHeight="1">
@@ -1539,14 +1572,14 @@
       </c>
       <c r="B14" s="7"/>
       <c t="s" r="C14" s="8">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="D14" s="8"/>
       <c r="E14" s="8"/>
       <c r="F14" s="8"/>
       <c r="G14" s="8"/>
       <c t="s" r="H14" s="9">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="I14" s="9"/>
       <c r="J14" s="9"/>
@@ -1563,7 +1596,7 @@
         <v>44</v>
       </c>
       <c t="s" r="Q14" s="12">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="15" ht="24.75" customHeight="1">
@@ -1596,7 +1629,7 @@
         <v>48</v>
       </c>
       <c t="s" r="Q15" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="16" ht="25.5" customHeight="1">
@@ -1612,7 +1645,7 @@
       <c r="F16" s="8"/>
       <c r="G16" s="8"/>
       <c t="s" r="H16" s="9">
-        <v>16</v>
+        <v>50</v>
       </c>
       <c r="I16" s="9"/>
       <c r="J16" s="9"/>
@@ -1622,14 +1655,14 @@
       </c>
       <c r="M16" s="10"/>
       <c t="s" r="N16" s="8">
-        <v>23</v>
+        <v>51</v>
       </c>
       <c r="O16" s="8"/>
       <c t="s" r="P16" s="11">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c t="s" r="Q16" s="12">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="17" ht="25.5" customHeight="1">
@@ -1638,14 +1671,14 @@
       </c>
       <c r="B17" s="7"/>
       <c t="s" r="C17" s="8">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="D17" s="8"/>
       <c r="E17" s="8"/>
       <c r="F17" s="8"/>
       <c r="G17" s="8"/>
       <c t="s" r="H17" s="9">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="I17" s="9"/>
       <c r="J17" s="9"/>
@@ -1655,11 +1688,11 @@
       </c>
       <c r="M17" s="10"/>
       <c t="s" r="N17" s="8">
-        <v>52</v>
+        <v>27</v>
       </c>
       <c r="O17" s="8"/>
       <c t="s" r="P17" s="11">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c t="s" r="Q17" s="12">
         <v>16</v>
@@ -1671,14 +1704,14 @@
       </c>
       <c r="B18" s="7"/>
       <c t="s" r="C18" s="8">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="D18" s="8"/>
       <c r="E18" s="8"/>
       <c r="F18" s="8"/>
       <c r="G18" s="8"/>
       <c t="s" r="H18" s="9">
-        <v>16</v>
+        <v>56</v>
       </c>
       <c r="I18" s="9"/>
       <c r="J18" s="9"/>
@@ -1688,14 +1721,14 @@
       </c>
       <c r="M18" s="10"/>
       <c t="s" r="N18" s="8">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="O18" s="8"/>
       <c t="s" r="P18" s="11">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c t="s" r="Q18" s="12">
-        <v>29</v>
+        <v>16</v>
       </c>
     </row>
     <row r="19" ht="25.5" customHeight="1">
@@ -1704,14 +1737,14 @@
       </c>
       <c r="B19" s="7"/>
       <c t="s" r="C19" s="8">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="D19" s="8"/>
       <c r="E19" s="8"/>
       <c r="F19" s="8"/>
       <c r="G19" s="8"/>
       <c t="s" r="H19" s="9">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="I19" s="9"/>
       <c r="J19" s="9"/>
@@ -1721,11 +1754,11 @@
       </c>
       <c r="M19" s="10"/>
       <c t="s" r="N19" s="8">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="O19" s="8"/>
       <c t="s" r="P19" s="11">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c t="s" r="Q19" s="12">
         <v>16</v>
@@ -1737,14 +1770,14 @@
       </c>
       <c r="B20" s="7"/>
       <c t="s" r="C20" s="8">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="D20" s="8"/>
       <c r="E20" s="8"/>
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
       <c t="s" r="H20" s="9">
-        <v>61</v>
+        <v>16</v>
       </c>
       <c r="I20" s="9"/>
       <c r="J20" s="9"/>
@@ -1754,14 +1787,14 @@
       </c>
       <c r="M20" s="10"/>
       <c t="s" r="N20" s="8">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="O20" s="8"/>
       <c t="s" r="P20" s="11">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c t="s" r="Q20" s="12">
-        <v>29</v>
+        <v>33</v>
       </c>
     </row>
     <row r="21" ht="25.5" customHeight="1">
@@ -1770,14 +1803,14 @@
       </c>
       <c r="B21" s="7"/>
       <c t="s" r="C21" s="8">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="D21" s="8"/>
       <c r="E21" s="8"/>
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
       <c t="s" r="H21" s="9">
-        <v>29</v>
+        <v>18</v>
       </c>
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
@@ -1787,14 +1820,14 @@
       </c>
       <c r="M21" s="10"/>
       <c t="s" r="N21" s="8">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="O21" s="8"/>
       <c t="s" r="P21" s="11">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c t="s" r="Q21" s="12">
-        <v>29</v>
+        <v>16</v>
       </c>
     </row>
     <row r="22" ht="25.5" customHeight="1">
@@ -1803,14 +1836,14 @@
       </c>
       <c r="B22" s="7"/>
       <c t="s" r="C22" s="8">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="D22" s="8"/>
       <c r="E22" s="8"/>
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c t="s" r="H22" s="9">
-        <v>35</v>
+        <v>69</v>
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
@@ -1820,14 +1853,14 @@
       </c>
       <c r="M22" s="10"/>
       <c t="s" r="N22" s="8">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="O22" s="8"/>
       <c t="s" r="P22" s="11">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c t="s" r="Q22" s="12">
-        <v>61</v>
+        <v>33</v>
       </c>
     </row>
     <row r="23" ht="24.75" customHeight="1">
@@ -1836,14 +1869,14 @@
       </c>
       <c r="B23" s="7"/>
       <c t="s" r="C23" s="8">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="D23" s="8"/>
       <c r="E23" s="8"/>
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c t="s" r="H23" s="9">
-        <v>71</v>
+        <v>33</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
@@ -1853,14 +1886,14 @@
       </c>
       <c r="M23" s="10"/>
       <c t="s" r="N23" s="8">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="O23" s="8"/>
       <c t="s" r="P23" s="11">
-        <v>50</v>
+        <v>74</v>
       </c>
       <c t="s" r="Q23" s="12">
-        <v>12</v>
+        <v>33</v>
       </c>
     </row>
     <row r="24" ht="25.5" customHeight="1">
@@ -1869,14 +1902,14 @@
       </c>
       <c r="B24" s="7"/>
       <c t="s" r="C24" s="8">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="D24" s="8"/>
       <c r="E24" s="8"/>
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>12</v>
+        <v>39</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
@@ -1886,14 +1919,14 @@
       </c>
       <c r="M24" s="10"/>
       <c t="s" r="N24" s="8">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="O24" s="8"/>
       <c t="s" r="P24" s="11">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c t="s" r="Q24" s="12">
-        <v>16</v>
+        <v>69</v>
       </c>
     </row>
     <row r="25" ht="24.75" customHeight="1">
@@ -1902,14 +1935,14 @@
       </c>
       <c r="B25" s="7"/>
       <c t="s" r="C25" s="8">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="D25" s="8"/>
       <c r="E25" s="8"/>
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>12</v>
+        <v>79</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
@@ -1919,14 +1952,14 @@
       </c>
       <c r="M25" s="10"/>
       <c t="s" r="N25" s="8">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="O25" s="8"/>
       <c t="s" r="P25" s="11">
-        <v>78</v>
+        <v>54</v>
       </c>
       <c t="s" r="Q25" s="12">
-        <v>12</v>
+        <v>18</v>
       </c>
     </row>
     <row r="26" ht="25.5" customHeight="1">
@@ -1935,14 +1968,14 @@
       </c>
       <c r="B26" s="7"/>
       <c t="s" r="C26" s="8">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="D26" s="8"/>
       <c r="E26" s="8"/>
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>29</v>
+        <v>18</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
@@ -1952,11 +1985,11 @@
       </c>
       <c r="M26" s="10"/>
       <c t="s" r="N26" s="8">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="O26" s="8"/>
       <c t="s" r="P26" s="11">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c t="s" r="Q26" s="12">
         <v>16</v>
@@ -1968,14 +2001,14 @@
       </c>
       <c r="B27" s="7"/>
       <c t="s" r="C27" s="8">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="D27" s="8"/>
       <c r="E27" s="8"/>
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>83</v>
+        <v>18</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
@@ -1985,14 +2018,14 @@
       </c>
       <c r="M27" s="10"/>
       <c t="s" r="N27" s="8">
-        <v>36</v>
+        <v>85</v>
       </c>
       <c r="O27" s="8"/>
       <c t="s" r="P27" s="11">
-        <v>37</v>
+        <v>86</v>
       </c>
       <c t="s" r="Q27" s="12">
-        <v>12</v>
+        <v>18</v>
       </c>
     </row>
     <row r="28" ht="24.75" customHeight="1">
@@ -2001,14 +2034,14 @@
       </c>
       <c r="B28" s="7"/>
       <c t="s" r="C28" s="8">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="D28" s="8"/>
       <c r="E28" s="8"/>
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
@@ -2018,14 +2051,14 @@
       </c>
       <c r="M28" s="10"/>
       <c t="s" r="N28" s="8">
-        <v>85</v>
+        <v>57</v>
       </c>
       <c r="O28" s="8"/>
       <c t="s" r="P28" s="11">
-        <v>86</v>
+        <v>58</v>
       </c>
       <c t="s" r="Q28" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="29" ht="25.5" customHeight="1">
@@ -2034,14 +2067,14 @@
       </c>
       <c r="B29" s="7"/>
       <c t="s" r="C29" s="8">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="D29" s="8"/>
       <c r="E29" s="8"/>
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>31</v>
+        <v>89</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
@@ -2051,14 +2084,14 @@
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
-        <v>88</v>
+        <v>40</v>
       </c>
       <c r="O29" s="8"/>
       <c t="s" r="P29" s="11">
-        <v>89</v>
+        <v>41</v>
       </c>
       <c t="s" r="Q29" s="12">
-        <v>71</v>
+        <v>18</v>
       </c>
     </row>
     <row r="30" ht="24.75" customHeight="1">
@@ -2074,7 +2107,7 @@
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>91</v>
+        <v>39</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
@@ -2084,14 +2117,14 @@
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="O30" s="8"/>
       <c t="s" r="P30" s="11">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c t="s" r="Q30" s="12">
-        <v>29</v>
+        <v>18</v>
       </c>
     </row>
     <row r="31" ht="25.5" customHeight="1">
@@ -2100,14 +2133,14 @@
       </c>
       <c r="B31" s="7"/>
       <c t="s" r="C31" s="8">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D31" s="8"/>
       <c r="E31" s="8"/>
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>12</v>
+        <v>35</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
@@ -2117,14 +2150,14 @@
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c t="s" r="Q31" s="12">
-        <v>12</v>
+        <v>79</v>
       </c>
     </row>
     <row r="32" ht="25.5" customHeight="1">
@@ -2133,14 +2166,14 @@
       </c>
       <c r="B32" s="7"/>
       <c t="s" r="C32" s="8">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D32" s="8"/>
       <c r="E32" s="8"/>
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>12</v>
+        <v>97</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
@@ -2157,7 +2190,7 @@
         <v>99</v>
       </c>
       <c t="s" r="Q32" s="12">
-        <v>12</v>
+        <v>33</v>
       </c>
     </row>
     <row r="33" ht="24.75" customHeight="1">
@@ -2190,7 +2223,7 @@
         <v>102</v>
       </c>
       <c t="s" r="Q33" s="12">
-        <v>12</v>
+        <v>18</v>
       </c>
     </row>
     <row r="34" ht="25.5" customHeight="1">
@@ -2216,14 +2249,14 @@
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
-        <v>77</v>
+        <v>104</v>
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
-        <v>78</v>
+        <v>105</v>
       </c>
       <c t="s" r="Q34" s="12">
-        <v>12</v>
+        <v>18</v>
       </c>
     </row>
     <row r="35" ht="24.75" customHeight="1">
@@ -2232,14 +2265,14 @@
       </c>
       <c r="B35" s="7"/>
       <c t="s" r="C35" s="8">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="D35" s="8"/>
       <c r="E35" s="8"/>
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>42</v>
+        <v>22</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
@@ -2249,14 +2282,14 @@
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c t="s" r="Q35" s="12">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="36" ht="25.5" customHeight="1">
@@ -2265,14 +2298,14 @@
       </c>
       <c r="B36" s="7"/>
       <c t="s" r="C36" s="8">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="D36" s="8"/>
       <c r="E36" s="8"/>
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>35</v>
+        <v>22</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
@@ -2282,14 +2315,14 @@
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>108</v>
+        <v>85</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
-        <v>109</v>
+        <v>86</v>
       </c>
       <c t="s" r="Q36" s="12">
-        <v>12</v>
+        <v>18</v>
       </c>
     </row>
     <row r="37" ht="25.5" customHeight="1">
@@ -2305,7 +2338,7 @@
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>12</v>
+        <v>46</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
@@ -2338,7 +2371,7 @@
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>114</v>
+        <v>39</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
@@ -2348,14 +2381,14 @@
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c t="s" r="Q38" s="12">
-        <v>71</v>
+        <v>18</v>
       </c>
     </row>
     <row r="39" ht="25.5" customHeight="1">
@@ -2364,14 +2397,14 @@
       </c>
       <c r="B39" s="7"/>
       <c t="s" r="C39" s="8">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D39" s="8"/>
       <c r="E39" s="8"/>
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>42</v>
+        <v>18</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
@@ -2381,11 +2414,11 @@
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c t="s" r="Q39" s="12">
         <v>16</v>
@@ -2397,14 +2430,14 @@
       </c>
       <c r="B40" s="7"/>
       <c t="s" r="C40" s="8">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="D40" s="8"/>
       <c r="E40" s="8"/>
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>35</v>
+        <v>120</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
@@ -2414,14 +2447,14 @@
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>62</v>
+        <v>121</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c t="s" r="Q40" s="12">
-        <v>16</v>
+        <v>79</v>
       </c>
     </row>
     <row r="41" ht="25.5" customHeight="1">
@@ -2430,14 +2463,14 @@
       </c>
       <c r="B41" s="7"/>
       <c t="s" r="C41" s="8">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="D41" s="8"/>
       <c r="E41" s="8"/>
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>71</v>
+        <v>46</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
@@ -2447,11 +2480,11 @@
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>36</v>
+        <v>124</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c t="s" r="Q41" s="12">
         <v>16</v>
@@ -2463,14 +2496,14 @@
       </c>
       <c r="B42" s="7"/>
       <c t="s" r="C42" s="8">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="D42" s="8"/>
       <c r="E42" s="8"/>
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>12</v>
+        <v>39</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
@@ -2480,11 +2513,11 @@
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>125</v>
+        <v>70</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c t="s" r="Q42" s="12">
         <v>16</v>
@@ -2496,28 +2529,28 @@
       </c>
       <c r="B43" s="7"/>
       <c t="s" r="C43" s="8">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="D43" s="8"/>
       <c r="E43" s="8"/>
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>128</v>
+        <v>79</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
       <c r="K43" s="9"/>
       <c t="s" r="L43" s="10">
-        <v>129</v>
+        <v>13</v>
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>115</v>
+        <v>40</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
-        <v>33</v>
+        <v>129</v>
       </c>
       <c t="s" r="Q43" s="12">
         <v>16</v>
@@ -2536,7 +2569,7 @@
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>31</v>
+        <v>18</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
@@ -2546,14 +2579,14 @@
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>74</v>
+        <v>131</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c t="s" r="Q44" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="45" ht="24.75" customHeight="1">
@@ -2562,31 +2595,31 @@
       </c>
       <c r="B45" s="7"/>
       <c t="s" r="C45" s="8">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="D45" s="8"/>
       <c r="E45" s="8"/>
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>16</v>
+        <v>134</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
       <c r="K45" s="9"/>
       <c t="s" r="L45" s="10">
-        <v>13</v>
+        <v>135</v>
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>133</v>
+        <v>121</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
-        <v>134</v>
+        <v>37</v>
       </c>
       <c t="s" r="Q45" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="46" ht="25.5" customHeight="1">
@@ -2595,14 +2628,14 @@
       </c>
       <c r="B46" s="7"/>
       <c t="s" r="C46" s="8">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="D46" s="8"/>
       <c r="E46" s="8"/>
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>16</v>
+        <v>35</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
@@ -2612,14 +2645,14 @@
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>136</v>
+        <v>82</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
-        <v>37</v>
+        <v>137</v>
       </c>
       <c t="s" r="Q46" s="12">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="47" ht="25.5" customHeight="1">
@@ -2628,14 +2661,14 @@
       </c>
       <c r="B47" s="7"/>
       <c t="s" r="C47" s="8">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="D47" s="8"/>
       <c r="E47" s="8"/>
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>31</v>
+        <v>16</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
@@ -2645,14 +2678,14 @@
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c t="s" r="Q47" s="12">
-        <v>12</v>
+        <v>18</v>
       </c>
     </row>
     <row r="48" ht="24.75" customHeight="1">
@@ -2661,14 +2694,14 @@
       </c>
       <c r="B48" s="7"/>
       <c t="s" r="C48" s="8">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="D48" s="8"/>
       <c r="E48" s="8"/>
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
@@ -2678,11 +2711,11 @@
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
-        <v>142</v>
+        <v>41</v>
       </c>
       <c t="s" r="Q48" s="12">
         <v>16</v>
@@ -2701,7 +2734,7 @@
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>144</v>
+        <v>35</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
@@ -2711,14 +2744,14 @@
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c t="s" r="Q49" s="12">
-        <v>12</v>
+        <v>18</v>
       </c>
     </row>
     <row r="50" ht="24.75" customHeight="1">
@@ -2727,14 +2760,14 @@
       </c>
       <c r="B50" s="7"/>
       <c t="s" r="C50" s="8">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="D50" s="8"/>
       <c r="E50" s="8"/>
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>31</v>
+        <v>18</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
@@ -2744,14 +2777,14 @@
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>23</v>
+        <v>147</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
         <v>148</v>
       </c>
       <c t="s" r="Q50" s="12">
-        <v>149</v>
+        <v>16</v>
       </c>
     </row>
     <row r="51" ht="25.5" customHeight="1">
@@ -2760,14 +2793,14 @@
       </c>
       <c r="B51" s="7"/>
       <c t="s" r="C51" s="8">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="D51" s="8"/>
       <c r="E51" s="8"/>
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
@@ -2777,14 +2810,14 @@
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>72</v>
+        <v>94</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
-        <v>50</v>
+        <v>150</v>
       </c>
       <c t="s" r="Q51" s="12">
-        <v>12</v>
+        <v>18</v>
       </c>
     </row>
     <row r="52" ht="25.5" customHeight="1">
@@ -2800,7 +2833,7 @@
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>42</v>
+        <v>152</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
@@ -2810,14 +2843,14 @@
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>32</v>
+        <v>153</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
-        <v>33</v>
+        <v>154</v>
       </c>
       <c t="s" r="Q52" s="12">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="53" ht="24.75" customHeight="1">
@@ -2826,14 +2859,14 @@
       </c>
       <c r="B53" s="7"/>
       <c t="s" r="C53" s="8">
-        <v>152</v>
+        <v>155</v>
       </c>
       <c r="D53" s="8"/>
       <c r="E53" s="8"/>
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>128</v>
+        <v>156</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
@@ -2843,11 +2876,11 @@
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
-        <v>153</v>
+        <v>157</v>
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
-        <v>126</v>
+        <v>71</v>
       </c>
       <c t="s" r="Q53" s="12">
         <v>16</v>
@@ -2859,14 +2892,14 @@
       </c>
       <c r="B54" s="7"/>
       <c t="s" r="C54" s="8">
-        <v>154</v>
+        <v>158</v>
       </c>
       <c r="D54" s="8"/>
       <c r="E54" s="8"/>
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>128</v>
+        <v>35</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
@@ -2876,14 +2909,14 @@
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
-        <v>155</v>
+        <v>27</v>
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
-        <v>156</v>
+        <v>159</v>
       </c>
       <c t="s" r="Q54" s="12">
-        <v>12</v>
+        <v>160</v>
       </c>
     </row>
     <row r="55" ht="24.75" customHeight="1">
@@ -2892,14 +2925,14 @@
       </c>
       <c r="B55" s="7"/>
       <c t="s" r="C55" s="8">
-        <v>157</v>
+        <v>161</v>
       </c>
       <c r="D55" s="8"/>
       <c r="E55" s="8"/>
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
@@ -2909,14 +2942,14 @@
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
-        <v>158</v>
+        <v>80</v>
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
-        <v>159</v>
+        <v>54</v>
       </c>
       <c t="s" r="Q55" s="12">
-        <v>12</v>
+        <v>18</v>
       </c>
     </row>
     <row r="56" ht="25.5" customHeight="1">
@@ -2925,14 +2958,14 @@
       </c>
       <c r="B56" s="7"/>
       <c t="s" r="C56" s="8">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="D56" s="8"/>
       <c r="E56" s="8"/>
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
@@ -2942,11 +2975,11 @@
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
-        <v>153</v>
+        <v>36</v>
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
-        <v>126</v>
+        <v>37</v>
       </c>
       <c t="s" r="Q56" s="12">
         <v>16</v>
@@ -2958,14 +2991,14 @@
       </c>
       <c r="B57" s="7"/>
       <c t="s" r="C57" s="8">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="D57" s="8"/>
       <c r="E57" s="8"/>
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>42</v>
+        <v>134</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
@@ -2975,11 +3008,11 @@
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
-        <v>163</v>
+        <v>132</v>
       </c>
       <c t="s" r="Q57" s="12">
         <v>16</v>
@@ -2991,14 +3024,14 @@
       </c>
       <c r="B58" s="7"/>
       <c t="s" r="C58" s="8">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="D58" s="8"/>
       <c r="E58" s="8"/>
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c t="s" r="H58" s="9">
-        <v>18</v>
+        <v>134</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
@@ -3008,11 +3041,11 @@
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
-        <v>101</v>
+        <v>166</v>
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c t="s" r="Q58" s="12">
         <v>18</v>
@@ -3024,14 +3057,14 @@
       </c>
       <c r="B59" s="7"/>
       <c t="s" r="C59" s="8">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="D59" s="8"/>
       <c r="E59" s="8"/>
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c t="s" r="H59" s="9">
-        <v>12</v>
+        <v>39</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
@@ -3041,14 +3074,14 @@
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c t="s" r="Q59" s="12">
-        <v>42</v>
+        <v>18</v>
       </c>
     </row>
     <row r="60" ht="24.75" customHeight="1">
@@ -3057,14 +3090,14 @@
       </c>
       <c r="B60" s="7"/>
       <c t="s" r="C60" s="8">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="D60" s="8"/>
       <c r="E60" s="8"/>
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c t="s" r="H60" s="9">
-        <v>35</v>
+        <v>46</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
@@ -3074,14 +3107,14 @@
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
-        <v>101</v>
+        <v>164</v>
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
-        <v>102</v>
+        <v>132</v>
       </c>
       <c t="s" r="Q60" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="61" ht="25.5" customHeight="1">
@@ -3090,14 +3123,14 @@
       </c>
       <c r="B61" s="7"/>
       <c t="s" r="C61" s="8">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="D61" s="8"/>
       <c r="E61" s="8"/>
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
       <c t="s" r="H61" s="9">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
@@ -3107,11 +3140,11 @@
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
-        <v>62</v>
+        <v>173</v>
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
-        <v>121</v>
+        <v>174</v>
       </c>
       <c t="s" r="Q61" s="12">
         <v>16</v>
@@ -3123,14 +3156,14 @@
       </c>
       <c r="B62" s="7"/>
       <c t="s" r="C62" s="8">
-        <v>171</v>
+        <v>175</v>
       </c>
       <c r="D62" s="8"/>
       <c r="E62" s="8"/>
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
       <c t="s" r="H62" s="9">
-        <v>71</v>
+        <v>22</v>
       </c>
       <c r="I62" s="9"/>
       <c r="J62" s="9"/>
@@ -3140,14 +3173,14 @@
       </c>
       <c r="M62" s="10"/>
       <c t="s" r="N62" s="8">
-        <v>172</v>
+        <v>107</v>
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
-        <v>173</v>
+        <v>176</v>
       </c>
       <c t="s" r="Q62" s="12">
-        <v>12</v>
+        <v>22</v>
       </c>
     </row>
     <row r="63" ht="24.75" customHeight="1">
@@ -3156,14 +3189,14 @@
       </c>
       <c r="B63" s="7"/>
       <c t="s" r="C63" s="8">
-        <v>174</v>
+        <v>177</v>
       </c>
       <c r="D63" s="8"/>
       <c r="E63" s="8"/>
       <c r="F63" s="8"/>
       <c r="G63" s="8"/>
       <c t="s" r="H63" s="9">
-        <v>35</v>
+        <v>18</v>
       </c>
       <c r="I63" s="9"/>
       <c r="J63" s="9"/>
@@ -3173,14 +3206,14 @@
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
-        <v>175</v>
+        <v>178</v>
       </c>
       <c r="O63" s="8"/>
       <c t="s" r="P63" s="11">
-        <v>126</v>
+        <v>179</v>
       </c>
       <c t="s" r="Q63" s="12">
-        <v>12</v>
+        <v>46</v>
       </c>
     </row>
     <row r="64" ht="25.5" customHeight="1">
@@ -3189,14 +3222,14 @@
       </c>
       <c r="B64" s="7"/>
       <c t="s" r="C64" s="8">
-        <v>176</v>
+        <v>180</v>
       </c>
       <c r="D64" s="8"/>
       <c r="E64" s="8"/>
       <c r="F64" s="8"/>
       <c r="G64" s="8"/>
       <c t="s" r="H64" s="9">
-        <v>91</v>
+        <v>39</v>
       </c>
       <c r="I64" s="9"/>
       <c r="J64" s="9"/>
@@ -3206,14 +3239,14 @@
       </c>
       <c r="M64" s="10"/>
       <c t="s" r="N64" s="8">
-        <v>177</v>
+        <v>107</v>
       </c>
       <c r="O64" s="8"/>
       <c t="s" r="P64" s="11">
-        <v>178</v>
+        <v>108</v>
       </c>
       <c t="s" r="Q64" s="12">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="65" ht="24.75" customHeight="1">
@@ -3222,14 +3255,14 @@
       </c>
       <c r="B65" s="7"/>
       <c t="s" r="C65" s="8">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="D65" s="8"/>
       <c r="E65" s="8"/>
       <c r="F65" s="8"/>
       <c r="G65" s="8"/>
       <c t="s" r="H65" s="9">
-        <v>12</v>
+        <v>46</v>
       </c>
       <c r="I65" s="9"/>
       <c r="J65" s="9"/>
@@ -3239,11 +3272,11 @@
       </c>
       <c r="M65" s="10"/>
       <c t="s" r="N65" s="8">
-        <v>177</v>
+        <v>70</v>
       </c>
       <c r="O65" s="8"/>
       <c t="s" r="P65" s="11">
-        <v>180</v>
+        <v>127</v>
       </c>
       <c t="s" r="Q65" s="12">
         <v>16</v>
@@ -3255,14 +3288,14 @@
       </c>
       <c r="B66" s="7"/>
       <c t="s" r="C66" s="8">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="D66" s="8"/>
       <c r="E66" s="8"/>
       <c r="F66" s="8"/>
       <c r="G66" s="8"/>
       <c t="s" r="H66" s="9">
-        <v>35</v>
+        <v>79</v>
       </c>
       <c r="I66" s="9"/>
       <c r="J66" s="9"/>
@@ -3272,14 +3305,14 @@
       </c>
       <c r="M66" s="10"/>
       <c t="s" r="N66" s="8">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="O66" s="8"/>
       <c t="s" r="P66" s="11">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c t="s" r="Q66" s="12">
-        <v>12</v>
+        <v>18</v>
       </c>
     </row>
     <row r="67" ht="25.5" customHeight="1">
@@ -3288,28 +3321,28 @@
       </c>
       <c r="B67" s="7"/>
       <c t="s" r="C67" s="8">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="D67" s="8"/>
       <c r="E67" s="8"/>
       <c r="F67" s="8"/>
       <c r="G67" s="8"/>
       <c t="s" r="H67" s="9">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="I67" s="9"/>
       <c r="J67" s="9"/>
       <c r="K67" s="9"/>
       <c t="s" r="L67" s="10">
-        <v>129</v>
+        <v>13</v>
       </c>
       <c r="M67" s="10"/>
       <c t="s" r="N67" s="8">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="O67" s="8"/>
       <c t="s" r="P67" s="11">
-        <v>186</v>
+        <v>132</v>
       </c>
       <c t="s" r="Q67" s="12">
         <v>18</v>
@@ -3328,13 +3361,13 @@
       <c r="F68" s="8"/>
       <c r="G68" s="8"/>
       <c t="s" r="H68" s="9">
-        <v>12</v>
+        <v>97</v>
       </c>
       <c r="I68" s="9"/>
       <c r="J68" s="9"/>
       <c r="K68" s="9"/>
       <c t="s" r="L68" s="10">
-        <v>129</v>
+        <v>13</v>
       </c>
       <c r="M68" s="10"/>
       <c t="s" r="N68" s="8">
@@ -3345,7 +3378,7 @@
         <v>189</v>
       </c>
       <c t="s" r="Q68" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="69" ht="25.5" customHeight="1">
@@ -3361,24 +3394,24 @@
       <c r="F69" s="8"/>
       <c r="G69" s="8"/>
       <c t="s" r="H69" s="9">
-        <v>191</v>
+        <v>18</v>
       </c>
       <c r="I69" s="9"/>
       <c r="J69" s="9"/>
       <c r="K69" s="9"/>
       <c t="s" r="L69" s="10">
-        <v>129</v>
+        <v>13</v>
       </c>
       <c r="M69" s="10"/>
       <c t="s" r="N69" s="8">
-        <v>192</v>
+        <v>188</v>
       </c>
       <c r="O69" s="8"/>
       <c t="s" r="P69" s="11">
-        <v>33</v>
+        <v>191</v>
       </c>
       <c t="s" r="Q69" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="70" ht="24.75" customHeight="1">
@@ -3387,31 +3420,31 @@
       </c>
       <c r="B70" s="7"/>
       <c t="s" r="C70" s="8">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="D70" s="8"/>
       <c r="E70" s="8"/>
       <c r="F70" s="8"/>
       <c r="G70" s="8"/>
       <c t="s" r="H70" s="9">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="I70" s="9"/>
       <c r="J70" s="9"/>
       <c r="K70" s="9"/>
       <c t="s" r="L70" s="10">
-        <v>129</v>
+        <v>13</v>
       </c>
       <c r="M70" s="10"/>
       <c t="s" r="N70" s="8">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="O70" s="8"/>
       <c t="s" r="P70" s="11">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c t="s" r="Q70" s="12">
-        <v>12</v>
+        <v>18</v>
       </c>
     </row>
     <row r="71" ht="25.5" customHeight="1">
@@ -3420,31 +3453,31 @@
       </c>
       <c r="B71" s="7"/>
       <c t="s" r="C71" s="8">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="D71" s="8"/>
       <c r="E71" s="8"/>
       <c r="F71" s="8"/>
       <c r="G71" s="8"/>
       <c t="s" r="H71" s="9">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="I71" s="9"/>
       <c r="J71" s="9"/>
       <c r="K71" s="9"/>
       <c t="s" r="L71" s="10">
-        <v>129</v>
+        <v>135</v>
       </c>
       <c r="M71" s="10"/>
       <c t="s" r="N71" s="8">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="O71" s="8"/>
       <c t="s" r="P71" s="11">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c t="s" r="Q71" s="12">
-        <v>71</v>
+        <v>22</v>
       </c>
     </row>
     <row r="72" ht="25.5" customHeight="1">
@@ -3453,28 +3486,28 @@
       </c>
       <c r="B72" s="7"/>
       <c t="s" r="C72" s="8">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="D72" s="8"/>
       <c r="E72" s="8"/>
       <c r="F72" s="8"/>
       <c r="G72" s="8"/>
       <c t="s" r="H72" s="9">
-        <v>35</v>
+        <v>18</v>
       </c>
       <c r="I72" s="9"/>
       <c r="J72" s="9"/>
       <c r="K72" s="9"/>
       <c t="s" r="L72" s="10">
-        <v>129</v>
+        <v>135</v>
       </c>
       <c r="M72" s="10"/>
       <c t="s" r="N72" s="8">
-        <v>185</v>
+        <v>199</v>
       </c>
       <c r="O72" s="8"/>
       <c t="s" r="P72" s="11">
-        <v>186</v>
+        <v>200</v>
       </c>
       <c t="s" r="Q72" s="12">
         <v>18</v>
@@ -3486,31 +3519,31 @@
       </c>
       <c r="B73" s="7"/>
       <c t="s" r="C73" s="8">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="D73" s="8"/>
       <c r="E73" s="8"/>
       <c r="F73" s="8"/>
       <c r="G73" s="8"/>
       <c t="s" r="H73" s="9">
-        <v>35</v>
+        <v>202</v>
       </c>
       <c r="I73" s="9"/>
       <c r="J73" s="9"/>
       <c r="K73" s="9"/>
       <c t="s" r="L73" s="10">
-        <v>129</v>
+        <v>135</v>
       </c>
       <c r="M73" s="10"/>
       <c t="s" r="N73" s="8">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="O73" s="8"/>
       <c t="s" r="P73" s="11">
-        <v>202</v>
+        <v>37</v>
       </c>
       <c t="s" r="Q73" s="12">
-        <v>12</v>
+        <v>18</v>
       </c>
     </row>
     <row r="74" ht="25.5" customHeight="1">
@@ -3519,20 +3552,20 @@
       </c>
       <c r="B74" s="7"/>
       <c t="s" r="C74" s="8">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="D74" s="8"/>
       <c r="E74" s="8"/>
       <c r="F74" s="8"/>
       <c r="G74" s="8"/>
       <c t="s" r="H74" s="9">
-        <v>204</v>
+        <v>39</v>
       </c>
       <c r="I74" s="9"/>
       <c r="J74" s="9"/>
       <c r="K74" s="9"/>
       <c t="s" r="L74" s="10">
-        <v>129</v>
+        <v>135</v>
       </c>
       <c r="M74" s="10"/>
       <c t="s" r="N74" s="8">
@@ -3543,7 +3576,7 @@
         <v>206</v>
       </c>
       <c t="s" r="Q74" s="12">
-        <v>12</v>
+        <v>18</v>
       </c>
     </row>
     <row r="75" ht="24.75" customHeight="1">
@@ -3559,13 +3592,13 @@
       <c r="F75" s="8"/>
       <c r="G75" s="8"/>
       <c t="s" r="H75" s="9">
-        <v>31</v>
+        <v>39</v>
       </c>
       <c r="I75" s="9"/>
       <c r="J75" s="9"/>
       <c r="K75" s="9"/>
       <c t="s" r="L75" s="10">
-        <v>129</v>
+        <v>135</v>
       </c>
       <c r="M75" s="10"/>
       <c t="s" r="N75" s="8">
@@ -3576,7 +3609,7 @@
         <v>209</v>
       </c>
       <c t="s" r="Q75" s="12">
-        <v>12</v>
+        <v>69</v>
       </c>
     </row>
     <row r="76" ht="25.5" customHeight="1">
@@ -3592,24 +3625,24 @@
       <c r="F76" s="8"/>
       <c r="G76" s="8"/>
       <c t="s" r="H76" s="9">
-        <v>211</v>
+        <v>39</v>
       </c>
       <c r="I76" s="9"/>
       <c r="J76" s="9"/>
       <c r="K76" s="9"/>
       <c t="s" r="L76" s="10">
-        <v>129</v>
+        <v>135</v>
       </c>
       <c r="M76" s="10"/>
       <c t="s" r="N76" s="8">
-        <v>188</v>
+        <v>196</v>
       </c>
       <c r="O76" s="8"/>
       <c t="s" r="P76" s="11">
-        <v>212</v>
+        <v>197</v>
       </c>
       <c t="s" r="Q76" s="12">
-        <v>61</v>
+        <v>22</v>
       </c>
     </row>
     <row r="77" ht="25.5" customHeight="1">
@@ -3618,31 +3651,31 @@
       </c>
       <c r="B77" s="7"/>
       <c t="s" r="C77" s="8">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="D77" s="8"/>
       <c r="E77" s="8"/>
       <c r="F77" s="8"/>
       <c r="G77" s="8"/>
       <c t="s" r="H77" s="9">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="I77" s="9"/>
       <c r="J77" s="9"/>
       <c r="K77" s="9"/>
       <c t="s" r="L77" s="10">
-        <v>129</v>
+        <v>135</v>
       </c>
       <c r="M77" s="10"/>
       <c t="s" r="N77" s="8">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="O77" s="8"/>
       <c t="s" r="P77" s="11">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c t="s" r="Q77" s="12">
-        <v>12</v>
+        <v>18</v>
       </c>
     </row>
     <row r="78" ht="24.75" customHeight="1">
@@ -3651,31 +3684,31 @@
       </c>
       <c r="B78" s="7"/>
       <c t="s" r="C78" s="8">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="D78" s="8"/>
       <c r="E78" s="8"/>
       <c r="F78" s="8"/>
       <c r="G78" s="8"/>
       <c t="s" r="H78" s="9">
-        <v>12</v>
+        <v>215</v>
       </c>
       <c r="I78" s="9"/>
       <c r="J78" s="9"/>
       <c r="K78" s="9"/>
       <c t="s" r="L78" s="10">
-        <v>129</v>
+        <v>135</v>
       </c>
       <c r="M78" s="10"/>
       <c t="s" r="N78" s="8">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="O78" s="8"/>
       <c t="s" r="P78" s="11">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c t="s" r="Q78" s="12">
-        <v>12</v>
+        <v>18</v>
       </c>
     </row>
     <row r="79" ht="25.5" customHeight="1">
@@ -3684,66 +3717,198 @@
       </c>
       <c r="B79" s="7"/>
       <c t="s" r="C79" s="8">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="D79" s="8"/>
       <c r="E79" s="8"/>
       <c r="F79" s="8"/>
       <c r="G79" s="8"/>
       <c t="s" r="H79" s="9">
-        <v>220</v>
+        <v>35</v>
       </c>
       <c r="I79" s="9"/>
       <c r="J79" s="9"/>
       <c r="K79" s="9"/>
       <c t="s" r="L79" s="10">
-        <v>129</v>
+        <v>135</v>
       </c>
       <c r="M79" s="10"/>
       <c t="s" r="N79" s="8">
-        <v>138</v>
+        <v>219</v>
       </c>
       <c r="O79" s="8"/>
       <c t="s" r="P79" s="11">
-        <v>139</v>
+        <v>220</v>
       </c>
       <c t="s" r="Q79" s="12">
-        <v>12</v>
+        <v>18</v>
       </c>
     </row>
     <row r="80" ht="24.75" customHeight="1">
-      <c r="P80" s="13">
-        <v>4790.1700000000001</v>
-      </c>
-      <c r="Q80" s="13"/>
-    </row>
-    <row r="81" ht="16.5" customHeight="1">
-      <c t="s" r="A81" s="14">
+      <c r="A80" s="7">
+        <v>74</v>
+      </c>
+      <c r="B80" s="7"/>
+      <c t="s" r="C80" s="8">
         <v>221</v>
       </c>
-      <c r="B81" s="14"/>
-      <c r="C81" s="14"/>
-      <c r="D81" s="14"/>
-      <c r="E81" s="14"/>
-      <c r="F81" s="14"/>
-      <c t="s" r="G81" s="15">
+      <c r="D80" s="8"/>
+      <c r="E80" s="8"/>
+      <c r="F80" s="8"/>
+      <c r="G80" s="8"/>
+      <c t="s" r="H80" s="9">
         <v>222</v>
       </c>
-      <c r="H81" s="15"/>
-      <c r="I81" s="15"/>
-      <c r="J81" s="16"/>
-      <c t="s" r="K81" s="17">
+      <c r="I80" s="9"/>
+      <c r="J80" s="9"/>
+      <c r="K80" s="9"/>
+      <c t="s" r="L80" s="10">
+        <v>135</v>
+      </c>
+      <c r="M80" s="10"/>
+      <c t="s" r="N80" s="8">
+        <v>199</v>
+      </c>
+      <c r="O80" s="8"/>
+      <c t="s" r="P80" s="11">
         <v>223</v>
       </c>
-      <c r="L81" s="17"/>
-      <c r="M81" s="17"/>
-      <c r="N81" s="17"/>
-      <c r="O81" s="17"/>
-      <c r="P81" s="17"/>
-      <c r="Q81" s="17"/>
+      <c t="s" r="Q80" s="12">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="81" ht="25.5" customHeight="1">
+      <c r="A81" s="7">
+        <v>75</v>
+      </c>
+      <c r="B81" s="7"/>
+      <c t="s" r="C81" s="8">
+        <v>224</v>
+      </c>
+      <c r="D81" s="8"/>
+      <c r="E81" s="8"/>
+      <c r="F81" s="8"/>
+      <c r="G81" s="8"/>
+      <c t="s" r="H81" s="9">
+        <v>39</v>
+      </c>
+      <c r="I81" s="9"/>
+      <c r="J81" s="9"/>
+      <c r="K81" s="9"/>
+      <c t="s" r="L81" s="10">
+        <v>135</v>
+      </c>
+      <c r="M81" s="10"/>
+      <c t="s" r="N81" s="8">
+        <v>225</v>
+      </c>
+      <c r="O81" s="8"/>
+      <c t="s" r="P81" s="11">
+        <v>226</v>
+      </c>
+      <c t="s" r="Q81" s="12">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="82" ht="25.5" customHeight="1">
+      <c r="A82" s="7">
+        <v>76</v>
+      </c>
+      <c r="B82" s="7"/>
+      <c t="s" r="C82" s="8">
+        <v>227</v>
+      </c>
+      <c r="D82" s="8"/>
+      <c r="E82" s="8"/>
+      <c r="F82" s="8"/>
+      <c r="G82" s="8"/>
+      <c t="s" r="H82" s="9">
+        <v>18</v>
+      </c>
+      <c r="I82" s="9"/>
+      <c r="J82" s="9"/>
+      <c r="K82" s="9"/>
+      <c t="s" r="L82" s="10">
+        <v>135</v>
+      </c>
+      <c r="M82" s="10"/>
+      <c t="s" r="N82" s="8">
+        <v>228</v>
+      </c>
+      <c r="O82" s="8"/>
+      <c t="s" r="P82" s="11">
+        <v>229</v>
+      </c>
+      <c t="s" r="Q82" s="12">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="83" ht="24.75" customHeight="1">
+      <c r="A83" s="7">
+        <v>77</v>
+      </c>
+      <c r="B83" s="7"/>
+      <c t="s" r="C83" s="8">
+        <v>230</v>
+      </c>
+      <c r="D83" s="8"/>
+      <c r="E83" s="8"/>
+      <c r="F83" s="8"/>
+      <c r="G83" s="8"/>
+      <c t="s" r="H83" s="9">
+        <v>231</v>
+      </c>
+      <c r="I83" s="9"/>
+      <c r="J83" s="9"/>
+      <c r="K83" s="9"/>
+      <c t="s" r="L83" s="10">
+        <v>135</v>
+      </c>
+      <c r="M83" s="10"/>
+      <c t="s" r="N83" s="8">
+        <v>144</v>
+      </c>
+      <c r="O83" s="8"/>
+      <c t="s" r="P83" s="11">
+        <v>145</v>
+      </c>
+      <c t="s" r="Q83" s="12">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="84" ht="25.5" customHeight="1">
+      <c r="P84" s="13">
+        <v>4895.1549999999997</v>
+      </c>
+      <c r="Q84" s="13"/>
+    </row>
+    <row r="85" ht="16.5" customHeight="1">
+      <c t="s" r="A85" s="14">
+        <v>232</v>
+      </c>
+      <c r="B85" s="14"/>
+      <c r="C85" s="14"/>
+      <c r="D85" s="14"/>
+      <c r="E85" s="14"/>
+      <c r="F85" s="14"/>
+      <c t="s" r="G85" s="15">
+        <v>233</v>
+      </c>
+      <c r="H85" s="15"/>
+      <c r="I85" s="15"/>
+      <c r="J85" s="16"/>
+      <c t="s" r="K85" s="17">
+        <v>234</v>
+      </c>
+      <c r="L85" s="17"/>
+      <c r="M85" s="17"/>
+      <c r="N85" s="17"/>
+      <c r="O85" s="17"/>
+      <c r="P85" s="17"/>
+      <c r="Q85" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="377">
+  <mergeCells count="397">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -4117,10 +4282,30 @@
     <mergeCell ref="H79:K79"/>
     <mergeCell ref="L79:M79"/>
     <mergeCell ref="N79:O79"/>
-    <mergeCell ref="P80:Q80"/>
-    <mergeCell ref="A81:F81"/>
-    <mergeCell ref="G81:I81"/>
-    <mergeCell ref="K81:Q81"/>
+    <mergeCell ref="A80:B80"/>
+    <mergeCell ref="C80:G80"/>
+    <mergeCell ref="H80:K80"/>
+    <mergeCell ref="L80:M80"/>
+    <mergeCell ref="N80:O80"/>
+    <mergeCell ref="A81:B81"/>
+    <mergeCell ref="C81:G81"/>
+    <mergeCell ref="H81:K81"/>
+    <mergeCell ref="L81:M81"/>
+    <mergeCell ref="N81:O81"/>
+    <mergeCell ref="A82:B82"/>
+    <mergeCell ref="C82:G82"/>
+    <mergeCell ref="H82:K82"/>
+    <mergeCell ref="L82:M82"/>
+    <mergeCell ref="N82:O82"/>
+    <mergeCell ref="A83:B83"/>
+    <mergeCell ref="C83:G83"/>
+    <mergeCell ref="H83:K83"/>
+    <mergeCell ref="L83:M83"/>
+    <mergeCell ref="N83:O83"/>
+    <mergeCell ref="P84:Q84"/>
+    <mergeCell ref="A85:F85"/>
+    <mergeCell ref="G85:I85"/>
+    <mergeCell ref="K85:Q85"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-08-08_00-00.xlsx
+++ b/DaySale_2025-08-08_00-00.xlsx
@@ -596,6 +596,15 @@
     <t>64.0000</t>
   </si>
   <si>
+    <t xml:space="preserve">جنتيانا </t>
+  </si>
+  <si>
+    <t>15.00</t>
+  </si>
+  <si>
+    <t>15.0000</t>
+  </si>
+  <si>
     <t>حبايه</t>
   </si>
   <si>
@@ -684,12 +693,6 @@
   </si>
   <si>
     <t xml:space="preserve">كالونا </t>
-  </si>
-  <si>
-    <t>15.00</t>
-  </si>
-  <si>
-    <t>15.0000</t>
   </si>
   <si>
     <t xml:space="preserve">كريم شعر دابر املا </t>
@@ -3460,7 +3463,7 @@
       <c r="F71" s="8"/>
       <c r="G71" s="8"/>
       <c t="s" r="H71" s="9">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="I71" s="9"/>
       <c r="J71" s="9"/>
@@ -3477,7 +3480,7 @@
         <v>197</v>
       </c>
       <c t="s" r="Q71" s="12">
-        <v>22</v>
+        <v>18</v>
       </c>
     </row>
     <row r="72" ht="25.5" customHeight="1">
@@ -3493,7 +3496,7 @@
       <c r="F72" s="8"/>
       <c r="G72" s="8"/>
       <c t="s" r="H72" s="9">
-        <v>18</v>
+        <v>39</v>
       </c>
       <c r="I72" s="9"/>
       <c r="J72" s="9"/>
@@ -3510,7 +3513,7 @@
         <v>200</v>
       </c>
       <c t="s" r="Q72" s="12">
-        <v>18</v>
+        <v>22</v>
       </c>
     </row>
     <row r="73" ht="24.75" customHeight="1">
@@ -3526,7 +3529,7 @@
       <c r="F73" s="8"/>
       <c r="G73" s="8"/>
       <c t="s" r="H73" s="9">
-        <v>202</v>
+        <v>18</v>
       </c>
       <c r="I73" s="9"/>
       <c r="J73" s="9"/>
@@ -3536,11 +3539,11 @@
       </c>
       <c r="M73" s="10"/>
       <c t="s" r="N73" s="8">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="O73" s="8"/>
       <c t="s" r="P73" s="11">
-        <v>37</v>
+        <v>203</v>
       </c>
       <c t="s" r="Q73" s="12">
         <v>18</v>
@@ -3559,7 +3562,7 @@
       <c r="F74" s="8"/>
       <c r="G74" s="8"/>
       <c t="s" r="H74" s="9">
-        <v>39</v>
+        <v>205</v>
       </c>
       <c r="I74" s="9"/>
       <c r="J74" s="9"/>
@@ -3569,11 +3572,11 @@
       </c>
       <c r="M74" s="10"/>
       <c t="s" r="N74" s="8">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="O74" s="8"/>
       <c t="s" r="P74" s="11">
-        <v>206</v>
+        <v>37</v>
       </c>
       <c t="s" r="Q74" s="12">
         <v>18</v>
@@ -3609,7 +3612,7 @@
         <v>209</v>
       </c>
       <c t="s" r="Q75" s="12">
-        <v>69</v>
+        <v>18</v>
       </c>
     </row>
     <row r="76" ht="25.5" customHeight="1">
@@ -3635,14 +3638,14 @@
       </c>
       <c r="M76" s="10"/>
       <c t="s" r="N76" s="8">
-        <v>196</v>
+        <v>211</v>
       </c>
       <c r="O76" s="8"/>
       <c t="s" r="P76" s="11">
-        <v>197</v>
+        <v>212</v>
       </c>
       <c t="s" r="Q76" s="12">
-        <v>22</v>
+        <v>69</v>
       </c>
     </row>
     <row r="77" ht="25.5" customHeight="1">
@@ -3651,7 +3654,7 @@
       </c>
       <c r="B77" s="7"/>
       <c t="s" r="C77" s="8">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="D77" s="8"/>
       <c r="E77" s="8"/>
@@ -3668,14 +3671,14 @@
       </c>
       <c r="M77" s="10"/>
       <c t="s" r="N77" s="8">
-        <v>212</v>
+        <v>199</v>
       </c>
       <c r="O77" s="8"/>
       <c t="s" r="P77" s="11">
-        <v>213</v>
+        <v>200</v>
       </c>
       <c t="s" r="Q77" s="12">
-        <v>18</v>
+        <v>22</v>
       </c>
     </row>
     <row r="78" ht="24.75" customHeight="1">
@@ -3691,7 +3694,7 @@
       <c r="F78" s="8"/>
       <c r="G78" s="8"/>
       <c t="s" r="H78" s="9">
-        <v>215</v>
+        <v>39</v>
       </c>
       <c r="I78" s="9"/>
       <c r="J78" s="9"/>
@@ -3701,11 +3704,11 @@
       </c>
       <c r="M78" s="10"/>
       <c t="s" r="N78" s="8">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="O78" s="8"/>
       <c t="s" r="P78" s="11">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c t="s" r="Q78" s="12">
         <v>18</v>
@@ -3717,14 +3720,14 @@
       </c>
       <c r="B79" s="7"/>
       <c t="s" r="C79" s="8">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="D79" s="8"/>
       <c r="E79" s="8"/>
       <c r="F79" s="8"/>
       <c r="G79" s="8"/>
       <c t="s" r="H79" s="9">
-        <v>35</v>
+        <v>218</v>
       </c>
       <c r="I79" s="9"/>
       <c r="J79" s="9"/>
@@ -3757,7 +3760,7 @@
       <c r="F80" s="8"/>
       <c r="G80" s="8"/>
       <c t="s" r="H80" s="9">
-        <v>222</v>
+        <v>35</v>
       </c>
       <c r="I80" s="9"/>
       <c r="J80" s="9"/>
@@ -3767,14 +3770,14 @@
       </c>
       <c r="M80" s="10"/>
       <c t="s" r="N80" s="8">
-        <v>199</v>
+        <v>222</v>
       </c>
       <c r="O80" s="8"/>
       <c t="s" r="P80" s="11">
         <v>223</v>
       </c>
       <c t="s" r="Q80" s="12">
-        <v>69</v>
+        <v>18</v>
       </c>
     </row>
     <row r="81" ht="25.5" customHeight="1">
@@ -3790,7 +3793,7 @@
       <c r="F81" s="8"/>
       <c r="G81" s="8"/>
       <c t="s" r="H81" s="9">
-        <v>39</v>
+        <v>225</v>
       </c>
       <c r="I81" s="9"/>
       <c r="J81" s="9"/>
@@ -3800,14 +3803,14 @@
       </c>
       <c r="M81" s="10"/>
       <c t="s" r="N81" s="8">
-        <v>225</v>
+        <v>202</v>
       </c>
       <c r="O81" s="8"/>
       <c t="s" r="P81" s="11">
         <v>226</v>
       </c>
       <c t="s" r="Q81" s="12">
-        <v>18</v>
+        <v>69</v>
       </c>
     </row>
     <row r="82" ht="25.5" customHeight="1">
@@ -3823,7 +3826,7 @@
       <c r="F82" s="8"/>
       <c r="G82" s="8"/>
       <c t="s" r="H82" s="9">
-        <v>18</v>
+        <v>39</v>
       </c>
       <c r="I82" s="9"/>
       <c r="J82" s="9"/>
@@ -3833,11 +3836,11 @@
       </c>
       <c r="M82" s="10"/>
       <c t="s" r="N82" s="8">
-        <v>228</v>
+        <v>196</v>
       </c>
       <c r="O82" s="8"/>
       <c t="s" r="P82" s="11">
-        <v>229</v>
+        <v>197</v>
       </c>
       <c t="s" r="Q82" s="12">
         <v>18</v>
@@ -3849,14 +3852,14 @@
       </c>
       <c r="B83" s="7"/>
       <c t="s" r="C83" s="8">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="D83" s="8"/>
       <c r="E83" s="8"/>
       <c r="F83" s="8"/>
       <c r="G83" s="8"/>
       <c t="s" r="H83" s="9">
-        <v>231</v>
+        <v>18</v>
       </c>
       <c r="I83" s="9"/>
       <c r="J83" s="9"/>
@@ -3866,49 +3869,82 @@
       </c>
       <c r="M83" s="10"/>
       <c t="s" r="N83" s="8">
-        <v>144</v>
+        <v>229</v>
       </c>
       <c r="O83" s="8"/>
       <c t="s" r="P83" s="11">
+        <v>230</v>
+      </c>
+      <c t="s" r="Q83" s="12">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="84" ht="25.5" customHeight="1">
+      <c r="A84" s="7">
+        <v>78</v>
+      </c>
+      <c r="B84" s="7"/>
+      <c t="s" r="C84" s="8">
+        <v>231</v>
+      </c>
+      <c r="D84" s="8"/>
+      <c r="E84" s="8"/>
+      <c r="F84" s="8"/>
+      <c r="G84" s="8"/>
+      <c t="s" r="H84" s="9">
+        <v>232</v>
+      </c>
+      <c r="I84" s="9"/>
+      <c r="J84" s="9"/>
+      <c r="K84" s="9"/>
+      <c t="s" r="L84" s="10">
+        <v>135</v>
+      </c>
+      <c r="M84" s="10"/>
+      <c t="s" r="N84" s="8">
+        <v>144</v>
+      </c>
+      <c r="O84" s="8"/>
+      <c t="s" r="P84" s="11">
         <v>145</v>
       </c>
-      <c t="s" r="Q83" s="12">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="84" ht="25.5" customHeight="1">
-      <c r="P84" s="13">
-        <v>4895.1549999999997</v>
-      </c>
-      <c r="Q84" s="13"/>
-    </row>
-    <row r="85" ht="16.5" customHeight="1">
-      <c t="s" r="A85" s="14">
-        <v>232</v>
-      </c>
-      <c r="B85" s="14"/>
-      <c r="C85" s="14"/>
-      <c r="D85" s="14"/>
-      <c r="E85" s="14"/>
-      <c r="F85" s="14"/>
-      <c t="s" r="G85" s="15">
+      <c t="s" r="Q84" s="12">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="85" ht="24.75" customHeight="1">
+      <c r="P85" s="13">
+        <v>4910.1549999999997</v>
+      </c>
+      <c r="Q85" s="13"/>
+    </row>
+    <row r="86" ht="16.5" customHeight="1">
+      <c t="s" r="A86" s="14">
         <v>233</v>
       </c>
-      <c r="H85" s="15"/>
-      <c r="I85" s="15"/>
-      <c r="J85" s="16"/>
-      <c t="s" r="K85" s="17">
+      <c r="B86" s="14"/>
+      <c r="C86" s="14"/>
+      <c r="D86" s="14"/>
+      <c r="E86" s="14"/>
+      <c r="F86" s="14"/>
+      <c t="s" r="G86" s="15">
         <v>234</v>
       </c>
-      <c r="L85" s="17"/>
-      <c r="M85" s="17"/>
-      <c r="N85" s="17"/>
-      <c r="O85" s="17"/>
-      <c r="P85" s="17"/>
-      <c r="Q85" s="17"/>
+      <c r="H86" s="15"/>
+      <c r="I86" s="15"/>
+      <c r="J86" s="16"/>
+      <c t="s" r="K86" s="17">
+        <v>235</v>
+      </c>
+      <c r="L86" s="17"/>
+      <c r="M86" s="17"/>
+      <c r="N86" s="17"/>
+      <c r="O86" s="17"/>
+      <c r="P86" s="17"/>
+      <c r="Q86" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="397">
+  <mergeCells count="402">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -4302,10 +4338,15 @@
     <mergeCell ref="H83:K83"/>
     <mergeCell ref="L83:M83"/>
     <mergeCell ref="N83:O83"/>
-    <mergeCell ref="P84:Q84"/>
-    <mergeCell ref="A85:F85"/>
-    <mergeCell ref="G85:I85"/>
-    <mergeCell ref="K85:Q85"/>
+    <mergeCell ref="A84:B84"/>
+    <mergeCell ref="C84:G84"/>
+    <mergeCell ref="H84:K84"/>
+    <mergeCell ref="L84:M84"/>
+    <mergeCell ref="N84:O84"/>
+    <mergeCell ref="P85:Q85"/>
+    <mergeCell ref="A86:F86"/>
+    <mergeCell ref="G86:I86"/>
+    <mergeCell ref="K86:Q86"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-08-08_00-00.xlsx
+++ b/DaySale_2025-08-08_00-00.xlsx
@@ -401,6 +401,21 @@
     <t>15.8400</t>
   </si>
   <si>
+    <t>LOADLESS 5/20MG 30 CAP</t>
+  </si>
+  <si>
+    <t>114.00</t>
+  </si>
+  <si>
+    <t>37.6200</t>
+  </si>
+  <si>
+    <t>MAXOPHAGE XR 1000MG 30 EXT. REL. TABS.</t>
+  </si>
+  <si>
+    <t>72.00</t>
+  </si>
+  <si>
     <t>PANADOL ADVANCE 500 MG 48 TABLETS</t>
   </si>
   <si>
@@ -482,9 +497,6 @@
     <t>3:1</t>
   </si>
   <si>
-    <t>72.00</t>
-  </si>
-  <si>
     <t>SPASMO-DIGESTIN 30 TABS.</t>
   </si>
   <si>
@@ -710,7 +722,10 @@
     <t>9:0</t>
   </si>
   <si>
-    <t>Friday, 8 August, 2025 8:40 PM</t>
+    <t>مناديل بكر فاين</t>
+  </si>
+  <si>
+    <t>Friday, 8 August, 2025 8:43 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -2572,7 +2587,7 @@
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
@@ -2605,21 +2620,21 @@
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>134</v>
+        <v>46</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
       <c r="K45" s="9"/>
       <c t="s" r="L45" s="10">
-        <v>135</v>
+        <v>13</v>
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>121</v>
+        <v>134</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
-        <v>37</v>
+        <v>71</v>
       </c>
       <c t="s" r="Q45" s="12">
         <v>16</v>
@@ -2631,14 +2646,14 @@
       </c>
       <c r="B46" s="7"/>
       <c t="s" r="C46" s="8">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="D46" s="8"/>
       <c r="E46" s="8"/>
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>35</v>
+        <v>18</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
@@ -2648,14 +2663,14 @@
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>82</v>
+        <v>136</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
         <v>137</v>
       </c>
       <c t="s" r="Q46" s="12">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="47" ht="25.5" customHeight="1">
@@ -2671,24 +2686,24 @@
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>16</v>
+        <v>139</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
       <c r="K47" s="9"/>
       <c t="s" r="L47" s="10">
-        <v>13</v>
+        <v>140</v>
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>139</v>
+        <v>121</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
-        <v>140</v>
+        <v>37</v>
       </c>
       <c t="s" r="Q47" s="12">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="48" ht="24.75" customHeight="1">
@@ -2704,7 +2719,7 @@
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>16</v>
+        <v>35</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
@@ -2714,14 +2729,14 @@
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>142</v>
+        <v>82</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
-        <v>41</v>
+        <v>142</v>
       </c>
       <c t="s" r="Q48" s="12">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="49" ht="25.5" customHeight="1">
@@ -2737,7 +2752,7 @@
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>35</v>
+        <v>16</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
@@ -2770,7 +2785,7 @@
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
@@ -2784,7 +2799,7 @@
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
-        <v>148</v>
+        <v>41</v>
       </c>
       <c t="s" r="Q50" s="12">
         <v>16</v>
@@ -2796,14 +2811,14 @@
       </c>
       <c r="B51" s="7"/>
       <c t="s" r="C51" s="8">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="D51" s="8"/>
       <c r="E51" s="8"/>
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>22</v>
+        <v>35</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
@@ -2813,7 +2828,7 @@
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>94</v>
+        <v>149</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
@@ -2836,7 +2851,7 @@
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>152</v>
+        <v>18</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
@@ -2846,14 +2861,14 @@
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c t="s" r="Q52" s="12">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="53" ht="24.75" customHeight="1">
@@ -2862,14 +2877,14 @@
       </c>
       <c r="B53" s="7"/>
       <c t="s" r="C53" s="8">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="D53" s="8"/>
       <c r="E53" s="8"/>
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>156</v>
+        <v>22</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
@@ -2879,14 +2894,14 @@
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
-        <v>157</v>
+        <v>94</v>
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
-        <v>71</v>
+        <v>155</v>
       </c>
       <c t="s" r="Q53" s="12">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="54" ht="25.5" customHeight="1">
@@ -2895,14 +2910,14 @@
       </c>
       <c r="B54" s="7"/>
       <c t="s" r="C54" s="8">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="D54" s="8"/>
       <c r="E54" s="8"/>
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>35</v>
+        <v>157</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
@@ -2912,14 +2927,14 @@
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
-        <v>27</v>
+        <v>158</v>
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
         <v>159</v>
       </c>
       <c t="s" r="Q54" s="12">
-        <v>160</v>
+        <v>18</v>
       </c>
     </row>
     <row r="55" ht="24.75" customHeight="1">
@@ -2928,14 +2943,14 @@
       </c>
       <c r="B55" s="7"/>
       <c t="s" r="C55" s="8">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="D55" s="8"/>
       <c r="E55" s="8"/>
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>30</v>
+        <v>161</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
@@ -2945,14 +2960,14 @@
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
-        <v>80</v>
+        <v>134</v>
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
-        <v>54</v>
+        <v>71</v>
       </c>
       <c t="s" r="Q55" s="12">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="56" ht="25.5" customHeight="1">
@@ -2968,7 +2983,7 @@
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>46</v>
+        <v>35</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
@@ -2978,14 +2993,14 @@
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
-        <v>36</v>
+        <v>27</v>
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
-        <v>37</v>
+        <v>163</v>
       </c>
       <c t="s" r="Q56" s="12">
-        <v>16</v>
+        <v>164</v>
       </c>
     </row>
     <row r="57" ht="25.5" customHeight="1">
@@ -2994,14 +3009,14 @@
       </c>
       <c r="B57" s="7"/>
       <c t="s" r="C57" s="8">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="D57" s="8"/>
       <c r="E57" s="8"/>
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>134</v>
+        <v>30</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
@@ -3011,14 +3026,14 @@
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
-        <v>164</v>
+        <v>80</v>
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
-        <v>132</v>
+        <v>54</v>
       </c>
       <c t="s" r="Q57" s="12">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="58" ht="24.75" customHeight="1">
@@ -3027,14 +3042,14 @@
       </c>
       <c r="B58" s="7"/>
       <c t="s" r="C58" s="8">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="D58" s="8"/>
       <c r="E58" s="8"/>
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c t="s" r="H58" s="9">
-        <v>134</v>
+        <v>46</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
@@ -3044,14 +3059,14 @@
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
-        <v>166</v>
+        <v>36</v>
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
-        <v>167</v>
+        <v>37</v>
       </c>
       <c t="s" r="Q58" s="12">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="59" ht="25.5" customHeight="1">
@@ -3060,14 +3075,14 @@
       </c>
       <c r="B59" s="7"/>
       <c t="s" r="C59" s="8">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="D59" s="8"/>
       <c r="E59" s="8"/>
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c t="s" r="H59" s="9">
-        <v>39</v>
+        <v>139</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
@@ -3077,14 +3092,14 @@
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
-        <v>170</v>
+        <v>137</v>
       </c>
       <c t="s" r="Q59" s="12">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="60" ht="24.75" customHeight="1">
@@ -3093,14 +3108,14 @@
       </c>
       <c r="B60" s="7"/>
       <c t="s" r="C60" s="8">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="D60" s="8"/>
       <c r="E60" s="8"/>
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c t="s" r="H60" s="9">
-        <v>46</v>
+        <v>139</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
@@ -3110,14 +3125,14 @@
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
-        <v>164</v>
+        <v>170</v>
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
-        <v>132</v>
+        <v>171</v>
       </c>
       <c t="s" r="Q60" s="12">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="61" ht="25.5" customHeight="1">
@@ -3133,7 +3148,7 @@
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
       <c t="s" r="H61" s="9">
-        <v>46</v>
+        <v>39</v>
       </c>
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
@@ -3150,7 +3165,7 @@
         <v>174</v>
       </c>
       <c t="s" r="Q61" s="12">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="62" ht="25.5" customHeight="1">
@@ -3166,7 +3181,7 @@
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
       <c t="s" r="H62" s="9">
-        <v>22</v>
+        <v>46</v>
       </c>
       <c r="I62" s="9"/>
       <c r="J62" s="9"/>
@@ -3176,14 +3191,14 @@
       </c>
       <c r="M62" s="10"/>
       <c t="s" r="N62" s="8">
-        <v>107</v>
+        <v>168</v>
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
-        <v>176</v>
+        <v>137</v>
       </c>
       <c t="s" r="Q62" s="12">
-        <v>22</v>
+        <v>16</v>
       </c>
     </row>
     <row r="63" ht="24.75" customHeight="1">
@@ -3192,14 +3207,14 @@
       </c>
       <c r="B63" s="7"/>
       <c t="s" r="C63" s="8">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="D63" s="8"/>
       <c r="E63" s="8"/>
       <c r="F63" s="8"/>
       <c r="G63" s="8"/>
       <c t="s" r="H63" s="9">
-        <v>18</v>
+        <v>46</v>
       </c>
       <c r="I63" s="9"/>
       <c r="J63" s="9"/>
@@ -3209,14 +3224,14 @@
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="O63" s="8"/>
       <c t="s" r="P63" s="11">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c t="s" r="Q63" s="12">
-        <v>46</v>
+        <v>16</v>
       </c>
     </row>
     <row r="64" ht="25.5" customHeight="1">
@@ -3225,14 +3240,14 @@
       </c>
       <c r="B64" s="7"/>
       <c t="s" r="C64" s="8">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="D64" s="8"/>
       <c r="E64" s="8"/>
       <c r="F64" s="8"/>
       <c r="G64" s="8"/>
       <c t="s" r="H64" s="9">
-        <v>39</v>
+        <v>22</v>
       </c>
       <c r="I64" s="9"/>
       <c r="J64" s="9"/>
@@ -3246,10 +3261,10 @@
       </c>
       <c r="O64" s="8"/>
       <c t="s" r="P64" s="11">
-        <v>108</v>
+        <v>180</v>
       </c>
       <c t="s" r="Q64" s="12">
-        <v>18</v>
+        <v>22</v>
       </c>
     </row>
     <row r="65" ht="24.75" customHeight="1">
@@ -3265,7 +3280,7 @@
       <c r="F65" s="8"/>
       <c r="G65" s="8"/>
       <c t="s" r="H65" s="9">
-        <v>46</v>
+        <v>18</v>
       </c>
       <c r="I65" s="9"/>
       <c r="J65" s="9"/>
@@ -3275,14 +3290,14 @@
       </c>
       <c r="M65" s="10"/>
       <c t="s" r="N65" s="8">
-        <v>70</v>
+        <v>182</v>
       </c>
       <c r="O65" s="8"/>
       <c t="s" r="P65" s="11">
-        <v>127</v>
+        <v>183</v>
       </c>
       <c t="s" r="Q65" s="12">
-        <v>16</v>
+        <v>46</v>
       </c>
     </row>
     <row r="66" ht="25.5" customHeight="1">
@@ -3291,14 +3306,14 @@
       </c>
       <c r="B66" s="7"/>
       <c t="s" r="C66" s="8">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="D66" s="8"/>
       <c r="E66" s="8"/>
       <c r="F66" s="8"/>
       <c r="G66" s="8"/>
       <c t="s" r="H66" s="9">
-        <v>79</v>
+        <v>39</v>
       </c>
       <c r="I66" s="9"/>
       <c r="J66" s="9"/>
@@ -3308,11 +3323,11 @@
       </c>
       <c r="M66" s="10"/>
       <c t="s" r="N66" s="8">
-        <v>183</v>
+        <v>107</v>
       </c>
       <c r="O66" s="8"/>
       <c t="s" r="P66" s="11">
-        <v>184</v>
+        <v>108</v>
       </c>
       <c t="s" r="Q66" s="12">
         <v>18</v>
@@ -3331,7 +3346,7 @@
       <c r="F67" s="8"/>
       <c r="G67" s="8"/>
       <c t="s" r="H67" s="9">
-        <v>39</v>
+        <v>46</v>
       </c>
       <c r="I67" s="9"/>
       <c r="J67" s="9"/>
@@ -3341,14 +3356,14 @@
       </c>
       <c r="M67" s="10"/>
       <c t="s" r="N67" s="8">
-        <v>186</v>
+        <v>70</v>
       </c>
       <c r="O67" s="8"/>
       <c t="s" r="P67" s="11">
-        <v>132</v>
+        <v>127</v>
       </c>
       <c t="s" r="Q67" s="12">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="68" ht="24.75" customHeight="1">
@@ -3357,14 +3372,14 @@
       </c>
       <c r="B68" s="7"/>
       <c t="s" r="C68" s="8">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="D68" s="8"/>
       <c r="E68" s="8"/>
       <c r="F68" s="8"/>
       <c r="G68" s="8"/>
       <c t="s" r="H68" s="9">
-        <v>97</v>
+        <v>79</v>
       </c>
       <c r="I68" s="9"/>
       <c r="J68" s="9"/>
@@ -3374,14 +3389,14 @@
       </c>
       <c r="M68" s="10"/>
       <c t="s" r="N68" s="8">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="O68" s="8"/>
       <c t="s" r="P68" s="11">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c t="s" r="Q68" s="12">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="69" ht="25.5" customHeight="1">
@@ -3390,14 +3405,14 @@
       </c>
       <c r="B69" s="7"/>
       <c t="s" r="C69" s="8">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="D69" s="8"/>
       <c r="E69" s="8"/>
       <c r="F69" s="8"/>
       <c r="G69" s="8"/>
       <c t="s" r="H69" s="9">
-        <v>18</v>
+        <v>39</v>
       </c>
       <c r="I69" s="9"/>
       <c r="J69" s="9"/>
@@ -3407,14 +3422,14 @@
       </c>
       <c r="M69" s="10"/>
       <c t="s" r="N69" s="8">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="O69" s="8"/>
       <c t="s" r="P69" s="11">
-        <v>191</v>
+        <v>137</v>
       </c>
       <c t="s" r="Q69" s="12">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="70" ht="24.75" customHeight="1">
@@ -3423,14 +3438,14 @@
       </c>
       <c r="B70" s="7"/>
       <c t="s" r="C70" s="8">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="D70" s="8"/>
       <c r="E70" s="8"/>
       <c r="F70" s="8"/>
       <c r="G70" s="8"/>
       <c t="s" r="H70" s="9">
-        <v>39</v>
+        <v>97</v>
       </c>
       <c r="I70" s="9"/>
       <c r="J70" s="9"/>
@@ -3440,14 +3455,14 @@
       </c>
       <c r="M70" s="10"/>
       <c t="s" r="N70" s="8">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="O70" s="8"/>
       <c t="s" r="P70" s="11">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c t="s" r="Q70" s="12">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="71" ht="25.5" customHeight="1">
@@ -3456,31 +3471,31 @@
       </c>
       <c r="B71" s="7"/>
       <c t="s" r="C71" s="8">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="D71" s="8"/>
       <c r="E71" s="8"/>
       <c r="F71" s="8"/>
       <c r="G71" s="8"/>
       <c t="s" r="H71" s="9">
-        <v>35</v>
+        <v>18</v>
       </c>
       <c r="I71" s="9"/>
       <c r="J71" s="9"/>
       <c r="K71" s="9"/>
       <c t="s" r="L71" s="10">
-        <v>135</v>
+        <v>13</v>
       </c>
       <c r="M71" s="10"/>
       <c t="s" r="N71" s="8">
-        <v>196</v>
+        <v>192</v>
       </c>
       <c r="O71" s="8"/>
       <c t="s" r="P71" s="11">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c t="s" r="Q71" s="12">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="72" ht="25.5" customHeight="1">
@@ -3489,7 +3504,7 @@
       </c>
       <c r="B72" s="7"/>
       <c t="s" r="C72" s="8">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="D72" s="8"/>
       <c r="E72" s="8"/>
@@ -3502,18 +3517,18 @@
       <c r="J72" s="9"/>
       <c r="K72" s="9"/>
       <c t="s" r="L72" s="10">
-        <v>135</v>
+        <v>13</v>
       </c>
       <c r="M72" s="10"/>
       <c t="s" r="N72" s="8">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="O72" s="8"/>
       <c t="s" r="P72" s="11">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c t="s" r="Q72" s="12">
-        <v>22</v>
+        <v>18</v>
       </c>
     </row>
     <row r="73" ht="24.75" customHeight="1">
@@ -3522,28 +3537,28 @@
       </c>
       <c r="B73" s="7"/>
       <c t="s" r="C73" s="8">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="D73" s="8"/>
       <c r="E73" s="8"/>
       <c r="F73" s="8"/>
       <c r="G73" s="8"/>
       <c t="s" r="H73" s="9">
-        <v>18</v>
+        <v>35</v>
       </c>
       <c r="I73" s="9"/>
       <c r="J73" s="9"/>
       <c r="K73" s="9"/>
       <c t="s" r="L73" s="10">
-        <v>135</v>
+        <v>140</v>
       </c>
       <c r="M73" s="10"/>
       <c t="s" r="N73" s="8">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="O73" s="8"/>
       <c t="s" r="P73" s="11">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c t="s" r="Q73" s="12">
         <v>18</v>
@@ -3555,31 +3570,31 @@
       </c>
       <c r="B74" s="7"/>
       <c t="s" r="C74" s="8">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="D74" s="8"/>
       <c r="E74" s="8"/>
       <c r="F74" s="8"/>
       <c r="G74" s="8"/>
       <c t="s" r="H74" s="9">
-        <v>205</v>
+        <v>39</v>
       </c>
       <c r="I74" s="9"/>
       <c r="J74" s="9"/>
       <c r="K74" s="9"/>
       <c t="s" r="L74" s="10">
-        <v>135</v>
+        <v>140</v>
       </c>
       <c r="M74" s="10"/>
       <c t="s" r="N74" s="8">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="O74" s="8"/>
       <c t="s" r="P74" s="11">
-        <v>37</v>
+        <v>204</v>
       </c>
       <c t="s" r="Q74" s="12">
-        <v>18</v>
+        <v>22</v>
       </c>
     </row>
     <row r="75" ht="24.75" customHeight="1">
@@ -3588,28 +3603,28 @@
       </c>
       <c r="B75" s="7"/>
       <c t="s" r="C75" s="8">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="D75" s="8"/>
       <c r="E75" s="8"/>
       <c r="F75" s="8"/>
       <c r="G75" s="8"/>
       <c t="s" r="H75" s="9">
-        <v>39</v>
+        <v>18</v>
       </c>
       <c r="I75" s="9"/>
       <c r="J75" s="9"/>
       <c r="K75" s="9"/>
       <c t="s" r="L75" s="10">
-        <v>135</v>
+        <v>140</v>
       </c>
       <c r="M75" s="10"/>
       <c t="s" r="N75" s="8">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="O75" s="8"/>
       <c t="s" r="P75" s="11">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c t="s" r="Q75" s="12">
         <v>18</v>
@@ -3621,31 +3636,31 @@
       </c>
       <c r="B76" s="7"/>
       <c t="s" r="C76" s="8">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="D76" s="8"/>
       <c r="E76" s="8"/>
       <c r="F76" s="8"/>
       <c r="G76" s="8"/>
       <c t="s" r="H76" s="9">
-        <v>39</v>
+        <v>209</v>
       </c>
       <c r="I76" s="9"/>
       <c r="J76" s="9"/>
       <c r="K76" s="9"/>
       <c t="s" r="L76" s="10">
-        <v>135</v>
+        <v>140</v>
       </c>
       <c r="M76" s="10"/>
       <c t="s" r="N76" s="8">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="O76" s="8"/>
       <c t="s" r="P76" s="11">
-        <v>212</v>
+        <v>37</v>
       </c>
       <c t="s" r="Q76" s="12">
-        <v>69</v>
+        <v>18</v>
       </c>
     </row>
     <row r="77" ht="25.5" customHeight="1">
@@ -3654,7 +3669,7 @@
       </c>
       <c r="B77" s="7"/>
       <c t="s" r="C77" s="8">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="D77" s="8"/>
       <c r="E77" s="8"/>
@@ -3667,18 +3682,18 @@
       <c r="J77" s="9"/>
       <c r="K77" s="9"/>
       <c t="s" r="L77" s="10">
-        <v>135</v>
+        <v>140</v>
       </c>
       <c r="M77" s="10"/>
       <c t="s" r="N77" s="8">
-        <v>199</v>
+        <v>212</v>
       </c>
       <c r="O77" s="8"/>
       <c t="s" r="P77" s="11">
-        <v>200</v>
+        <v>213</v>
       </c>
       <c t="s" r="Q77" s="12">
-        <v>22</v>
+        <v>18</v>
       </c>
     </row>
     <row r="78" ht="24.75" customHeight="1">
@@ -3700,7 +3715,7 @@
       <c r="J78" s="9"/>
       <c r="K78" s="9"/>
       <c t="s" r="L78" s="10">
-        <v>135</v>
+        <v>140</v>
       </c>
       <c r="M78" s="10"/>
       <c t="s" r="N78" s="8">
@@ -3711,7 +3726,7 @@
         <v>216</v>
       </c>
       <c t="s" r="Q78" s="12">
-        <v>18</v>
+        <v>69</v>
       </c>
     </row>
     <row r="79" ht="25.5" customHeight="1">
@@ -3727,24 +3742,24 @@
       <c r="F79" s="8"/>
       <c r="G79" s="8"/>
       <c t="s" r="H79" s="9">
-        <v>218</v>
+        <v>39</v>
       </c>
       <c r="I79" s="9"/>
       <c r="J79" s="9"/>
       <c r="K79" s="9"/>
       <c t="s" r="L79" s="10">
-        <v>135</v>
+        <v>140</v>
       </c>
       <c r="M79" s="10"/>
       <c t="s" r="N79" s="8">
-        <v>219</v>
+        <v>203</v>
       </c>
       <c r="O79" s="8"/>
       <c t="s" r="P79" s="11">
-        <v>220</v>
+        <v>204</v>
       </c>
       <c t="s" r="Q79" s="12">
-        <v>18</v>
+        <v>22</v>
       </c>
     </row>
     <row r="80" ht="24.75" customHeight="1">
@@ -3753,28 +3768,28 @@
       </c>
       <c r="B80" s="7"/>
       <c t="s" r="C80" s="8">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="D80" s="8"/>
       <c r="E80" s="8"/>
       <c r="F80" s="8"/>
       <c r="G80" s="8"/>
       <c t="s" r="H80" s="9">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="I80" s="9"/>
       <c r="J80" s="9"/>
       <c r="K80" s="9"/>
       <c t="s" r="L80" s="10">
-        <v>135</v>
+        <v>140</v>
       </c>
       <c r="M80" s="10"/>
       <c t="s" r="N80" s="8">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="O80" s="8"/>
       <c t="s" r="P80" s="11">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c t="s" r="Q80" s="12">
         <v>18</v>
@@ -3786,31 +3801,31 @@
       </c>
       <c r="B81" s="7"/>
       <c t="s" r="C81" s="8">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="D81" s="8"/>
       <c r="E81" s="8"/>
       <c r="F81" s="8"/>
       <c r="G81" s="8"/>
       <c t="s" r="H81" s="9">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="I81" s="9"/>
       <c r="J81" s="9"/>
       <c r="K81" s="9"/>
       <c t="s" r="L81" s="10">
-        <v>135</v>
+        <v>140</v>
       </c>
       <c r="M81" s="10"/>
       <c t="s" r="N81" s="8">
-        <v>202</v>
+        <v>223</v>
       </c>
       <c r="O81" s="8"/>
       <c t="s" r="P81" s="11">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c t="s" r="Q81" s="12">
-        <v>69</v>
+        <v>18</v>
       </c>
     </row>
     <row r="82" ht="25.5" customHeight="1">
@@ -3819,28 +3834,28 @@
       </c>
       <c r="B82" s="7"/>
       <c t="s" r="C82" s="8">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="D82" s="8"/>
       <c r="E82" s="8"/>
       <c r="F82" s="8"/>
       <c r="G82" s="8"/>
       <c t="s" r="H82" s="9">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="I82" s="9"/>
       <c r="J82" s="9"/>
       <c r="K82" s="9"/>
       <c t="s" r="L82" s="10">
-        <v>135</v>
+        <v>140</v>
       </c>
       <c r="M82" s="10"/>
       <c t="s" r="N82" s="8">
-        <v>196</v>
+        <v>226</v>
       </c>
       <c r="O82" s="8"/>
       <c t="s" r="P82" s="11">
-        <v>197</v>
+        <v>227</v>
       </c>
       <c t="s" r="Q82" s="12">
         <v>18</v>
@@ -3859,24 +3874,24 @@
       <c r="F83" s="8"/>
       <c r="G83" s="8"/>
       <c t="s" r="H83" s="9">
-        <v>18</v>
+        <v>229</v>
       </c>
       <c r="I83" s="9"/>
       <c r="J83" s="9"/>
       <c r="K83" s="9"/>
       <c t="s" r="L83" s="10">
-        <v>135</v>
+        <v>140</v>
       </c>
       <c r="M83" s="10"/>
       <c t="s" r="N83" s="8">
-        <v>229</v>
+        <v>206</v>
       </c>
       <c r="O83" s="8"/>
       <c t="s" r="P83" s="11">
         <v>230</v>
       </c>
       <c t="s" r="Q83" s="12">
-        <v>18</v>
+        <v>69</v>
       </c>
     </row>
     <row r="84" ht="25.5" customHeight="1">
@@ -3892,59 +3907,158 @@
       <c r="F84" s="8"/>
       <c r="G84" s="8"/>
       <c t="s" r="H84" s="9">
-        <v>232</v>
+        <v>39</v>
       </c>
       <c r="I84" s="9"/>
       <c r="J84" s="9"/>
       <c r="K84" s="9"/>
       <c t="s" r="L84" s="10">
-        <v>135</v>
+        <v>140</v>
       </c>
       <c r="M84" s="10"/>
       <c t="s" r="N84" s="8">
-        <v>144</v>
+        <v>200</v>
       </c>
       <c r="O84" s="8"/>
       <c t="s" r="P84" s="11">
-        <v>145</v>
+        <v>201</v>
       </c>
       <c t="s" r="Q84" s="12">
         <v>18</v>
       </c>
     </row>
     <row r="85" ht="24.75" customHeight="1">
-      <c r="P85" s="13">
-        <v>4910.1549999999997</v>
-      </c>
-      <c r="Q85" s="13"/>
-    </row>
-    <row r="86" ht="16.5" customHeight="1">
-      <c t="s" r="A86" s="14">
+      <c r="A85" s="7">
+        <v>79</v>
+      </c>
+      <c r="B85" s="7"/>
+      <c t="s" r="C85" s="8">
+        <v>232</v>
+      </c>
+      <c r="D85" s="8"/>
+      <c r="E85" s="8"/>
+      <c r="F85" s="8"/>
+      <c r="G85" s="8"/>
+      <c t="s" r="H85" s="9">
+        <v>18</v>
+      </c>
+      <c r="I85" s="9"/>
+      <c r="J85" s="9"/>
+      <c r="K85" s="9"/>
+      <c t="s" r="L85" s="10">
+        <v>140</v>
+      </c>
+      <c r="M85" s="10"/>
+      <c t="s" r="N85" s="8">
         <v>233</v>
       </c>
-      <c r="B86" s="14"/>
-      <c r="C86" s="14"/>
-      <c r="D86" s="14"/>
-      <c r="E86" s="14"/>
-      <c r="F86" s="14"/>
-      <c t="s" r="G86" s="15">
+      <c r="O85" s="8"/>
+      <c t="s" r="P85" s="11">
         <v>234</v>
       </c>
-      <c r="H86" s="15"/>
-      <c r="I86" s="15"/>
-      <c r="J86" s="16"/>
-      <c t="s" r="K86" s="17">
+      <c t="s" r="Q85" s="12">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="86" ht="25.5" customHeight="1">
+      <c r="A86" s="7">
+        <v>80</v>
+      </c>
+      <c r="B86" s="7"/>
+      <c t="s" r="C86" s="8">
         <v>235</v>
       </c>
-      <c r="L86" s="17"/>
-      <c r="M86" s="17"/>
-      <c r="N86" s="17"/>
-      <c r="O86" s="17"/>
-      <c r="P86" s="17"/>
-      <c r="Q86" s="17"/>
+      <c r="D86" s="8"/>
+      <c r="E86" s="8"/>
+      <c r="F86" s="8"/>
+      <c r="G86" s="8"/>
+      <c t="s" r="H86" s="9">
+        <v>236</v>
+      </c>
+      <c r="I86" s="9"/>
+      <c r="J86" s="9"/>
+      <c r="K86" s="9"/>
+      <c t="s" r="L86" s="10">
+        <v>140</v>
+      </c>
+      <c r="M86" s="10"/>
+      <c t="s" r="N86" s="8">
+        <v>149</v>
+      </c>
+      <c r="O86" s="8"/>
+      <c t="s" r="P86" s="11">
+        <v>150</v>
+      </c>
+      <c t="s" r="Q86" s="12">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="87" ht="25.5" customHeight="1">
+      <c r="A87" s="7">
+        <v>81</v>
+      </c>
+      <c r="B87" s="7"/>
+      <c t="s" r="C87" s="8">
+        <v>237</v>
+      </c>
+      <c r="D87" s="8"/>
+      <c r="E87" s="8"/>
+      <c r="F87" s="8"/>
+      <c r="G87" s="8"/>
+      <c t="s" r="H87" s="9">
+        <v>22</v>
+      </c>
+      <c r="I87" s="9"/>
+      <c r="J87" s="9"/>
+      <c r="K87" s="9"/>
+      <c t="s" r="L87" s="10">
+        <v>140</v>
+      </c>
+      <c r="M87" s="10"/>
+      <c t="s" r="N87" s="8">
+        <v>200</v>
+      </c>
+      <c r="O87" s="8"/>
+      <c t="s" r="P87" s="11">
+        <v>201</v>
+      </c>
+      <c t="s" r="Q87" s="12">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="88" ht="24.75" customHeight="1">
+      <c r="P88" s="13">
+        <v>4986.5349999999999</v>
+      </c>
+      <c r="Q88" s="13"/>
+    </row>
+    <row r="89" ht="16.5" customHeight="1">
+      <c t="s" r="A89" s="14">
+        <v>238</v>
+      </c>
+      <c r="B89" s="14"/>
+      <c r="C89" s="14"/>
+      <c r="D89" s="14"/>
+      <c r="E89" s="14"/>
+      <c r="F89" s="14"/>
+      <c t="s" r="G89" s="15">
+        <v>239</v>
+      </c>
+      <c r="H89" s="15"/>
+      <c r="I89" s="15"/>
+      <c r="J89" s="16"/>
+      <c t="s" r="K89" s="17">
+        <v>240</v>
+      </c>
+      <c r="L89" s="17"/>
+      <c r="M89" s="17"/>
+      <c r="N89" s="17"/>
+      <c r="O89" s="17"/>
+      <c r="P89" s="17"/>
+      <c r="Q89" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="402">
+  <mergeCells count="417">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -4343,10 +4457,25 @@
     <mergeCell ref="H84:K84"/>
     <mergeCell ref="L84:M84"/>
     <mergeCell ref="N84:O84"/>
-    <mergeCell ref="P85:Q85"/>
-    <mergeCell ref="A86:F86"/>
-    <mergeCell ref="G86:I86"/>
-    <mergeCell ref="K86:Q86"/>
+    <mergeCell ref="A85:B85"/>
+    <mergeCell ref="C85:G85"/>
+    <mergeCell ref="H85:K85"/>
+    <mergeCell ref="L85:M85"/>
+    <mergeCell ref="N85:O85"/>
+    <mergeCell ref="A86:B86"/>
+    <mergeCell ref="C86:G86"/>
+    <mergeCell ref="H86:K86"/>
+    <mergeCell ref="L86:M86"/>
+    <mergeCell ref="N86:O86"/>
+    <mergeCell ref="A87:B87"/>
+    <mergeCell ref="C87:G87"/>
+    <mergeCell ref="H87:K87"/>
+    <mergeCell ref="L87:M87"/>
+    <mergeCell ref="N87:O87"/>
+    <mergeCell ref="P88:Q88"/>
+    <mergeCell ref="A89:F89"/>
+    <mergeCell ref="G89:I89"/>
+    <mergeCell ref="K89:Q89"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-08-08_00-00.xlsx
+++ b/DaySale_2025-08-08_00-00.xlsx
@@ -725,7 +725,7 @@
     <t>مناديل بكر فاين</t>
   </si>
   <si>
-    <t>Friday, 8 August, 2025 8:43 PM</t>
+    <t>Friday, 8 August, 2025 8:48 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -3346,7 +3346,7 @@
       <c r="F67" s="8"/>
       <c r="G67" s="8"/>
       <c t="s" r="H67" s="9">
-        <v>46</v>
+        <v>39</v>
       </c>
       <c r="I67" s="9"/>
       <c r="J67" s="9"/>

--- a/DaySale_2025-08-08_00-00.xlsx
+++ b/DaySale_2025-08-08_00-00.xlsx
@@ -158,6 +158,18 @@
     <t>58.4100</t>
   </si>
   <si>
+    <t>CEFEPIME 1 GM I.M/I.V VIAL</t>
+  </si>
+  <si>
+    <t>10:0</t>
+  </si>
+  <si>
+    <t>73.00</t>
+  </si>
+  <si>
+    <t>146.0000</t>
+  </si>
+  <si>
     <t>CEFOTAX 1GM I.M./I.V. VIAL - EIPICO</t>
   </si>
   <si>
@@ -176,6 +188,15 @@
     <t>39.0000</t>
   </si>
   <si>
+    <t>CLARITINE 10MG 20 TAB.</t>
+  </si>
+  <si>
+    <t>110.00</t>
+  </si>
+  <si>
+    <t>55.0000</t>
+  </si>
+  <si>
     <t>COLOVATIL 30 F.C. TABS</t>
   </si>
   <si>
@@ -383,12 +404,6 @@
     <t>KAPRON 500 MG 20 F.C.TABS.</t>
   </si>
   <si>
-    <t>110.00</t>
-  </si>
-  <si>
-    <t>55.0000</t>
-  </si>
-  <si>
     <t>KETOPREK 75 MG 20 CAPS.</t>
   </si>
   <si>
@@ -473,6 +488,12 @@
     <t>60.3900</t>
   </si>
   <si>
+    <t>PROXIMOL 0.4MG 40 TAB</t>
+  </si>
+  <si>
+    <t>17.0000</t>
+  </si>
+  <si>
     <t>PROXIMOL COMPOUND EFF. GRANULES 60 GM</t>
   </si>
   <si>
@@ -497,6 +518,12 @@
     <t>3:1</t>
   </si>
   <si>
+    <t>SILDEN 50 MG 4 F.C. TABS.</t>
+  </si>
+  <si>
+    <t>11.0000</t>
+  </si>
+  <si>
     <t>SPASMO-DIGESTIN 30 TABS.</t>
   </si>
   <si>
@@ -638,9 +665,6 @@
     <t>ريكسونا حريمي بليه</t>
   </si>
   <si>
-    <t>10:0</t>
-  </si>
-  <si>
     <t>27.00</t>
   </si>
   <si>
@@ -650,7 +674,7 @@
     <t>4.00</t>
   </si>
   <si>
-    <t>4.0000</t>
+    <t>12.0000</t>
   </si>
   <si>
     <t>سرنجات 3 سم</t>
@@ -683,9 +707,6 @@
     <t>12.00</t>
   </si>
   <si>
-    <t>12.0000</t>
-  </si>
-  <si>
     <t>شفاط ثدي الجو</t>
   </si>
   <si>
@@ -725,7 +746,7 @@
     <t>مناديل بكر فاين</t>
   </si>
   <si>
-    <t>Friday, 8 August, 2025 8:48 PM</t>
+    <t>Friday, 8 August, 2025 9:01 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1680,7 +1701,7 @@
         <v>52</v>
       </c>
       <c t="s" r="Q16" s="12">
-        <v>18</v>
+        <v>22</v>
       </c>
     </row>
     <row r="17" ht="25.5" customHeight="1">
@@ -1696,7 +1717,7 @@
       <c r="F17" s="8"/>
       <c r="G17" s="8"/>
       <c t="s" r="H17" s="9">
-        <v>16</v>
+        <v>54</v>
       </c>
       <c r="I17" s="9"/>
       <c r="J17" s="9"/>
@@ -1706,14 +1727,14 @@
       </c>
       <c r="M17" s="10"/>
       <c t="s" r="N17" s="8">
-        <v>27</v>
+        <v>55</v>
       </c>
       <c r="O17" s="8"/>
       <c t="s" r="P17" s="11">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c t="s" r="Q17" s="12">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="18" ht="24.75" customHeight="1">
@@ -1722,14 +1743,14 @@
       </c>
       <c r="B18" s="7"/>
       <c t="s" r="C18" s="8">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="D18" s="8"/>
       <c r="E18" s="8"/>
       <c r="F18" s="8"/>
       <c r="G18" s="8"/>
       <c t="s" r="H18" s="9">
-        <v>56</v>
+        <v>16</v>
       </c>
       <c r="I18" s="9"/>
       <c r="J18" s="9"/>
@@ -1739,7 +1760,7 @@
       </c>
       <c r="M18" s="10"/>
       <c t="s" r="N18" s="8">
-        <v>57</v>
+        <v>27</v>
       </c>
       <c r="O18" s="8"/>
       <c t="s" r="P18" s="11">
@@ -1762,7 +1783,7 @@
       <c r="F19" s="8"/>
       <c r="G19" s="8"/>
       <c t="s" r="H19" s="9">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="I19" s="9"/>
       <c r="J19" s="9"/>
@@ -1795,7 +1816,7 @@
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
       <c t="s" r="H20" s="9">
-        <v>16</v>
+        <v>63</v>
       </c>
       <c r="I20" s="9"/>
       <c r="J20" s="9"/>
@@ -1805,14 +1826,14 @@
       </c>
       <c r="M20" s="10"/>
       <c t="s" r="N20" s="8">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="O20" s="8"/>
       <c t="s" r="P20" s="11">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c t="s" r="Q20" s="12">
-        <v>33</v>
+        <v>16</v>
       </c>
     </row>
     <row r="21" ht="25.5" customHeight="1">
@@ -1821,7 +1842,7 @@
       </c>
       <c r="B21" s="7"/>
       <c t="s" r="C21" s="8">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="D21" s="8"/>
       <c r="E21" s="8"/>
@@ -1838,11 +1859,11 @@
       </c>
       <c r="M21" s="10"/>
       <c t="s" r="N21" s="8">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="O21" s="8"/>
       <c t="s" r="P21" s="11">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c t="s" r="Q21" s="12">
         <v>16</v>
@@ -1854,14 +1875,14 @@
       </c>
       <c r="B22" s="7"/>
       <c t="s" r="C22" s="8">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="D22" s="8"/>
       <c r="E22" s="8"/>
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c t="s" r="H22" s="9">
-        <v>69</v>
+        <v>16</v>
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
@@ -1894,7 +1915,7 @@
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c t="s" r="H23" s="9">
-        <v>33</v>
+        <v>18</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
@@ -1911,7 +1932,7 @@
         <v>74</v>
       </c>
       <c t="s" r="Q23" s="12">
-        <v>33</v>
+        <v>16</v>
       </c>
     </row>
     <row r="24" ht="25.5" customHeight="1">
@@ -1927,7 +1948,7 @@
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>39</v>
+        <v>76</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
@@ -1937,14 +1958,14 @@
       </c>
       <c r="M24" s="10"/>
       <c t="s" r="N24" s="8">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="O24" s="8"/>
       <c t="s" r="P24" s="11">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c t="s" r="Q24" s="12">
-        <v>69</v>
+        <v>33</v>
       </c>
     </row>
     <row r="25" ht="24.75" customHeight="1">
@@ -1953,14 +1974,14 @@
       </c>
       <c r="B25" s="7"/>
       <c t="s" r="C25" s="8">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="D25" s="8"/>
       <c r="E25" s="8"/>
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>79</v>
+        <v>33</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
@@ -1974,10 +1995,10 @@
       </c>
       <c r="O25" s="8"/>
       <c t="s" r="P25" s="11">
-        <v>54</v>
+        <v>81</v>
       </c>
       <c t="s" r="Q25" s="12">
-        <v>18</v>
+        <v>33</v>
       </c>
     </row>
     <row r="26" ht="25.5" customHeight="1">
@@ -1986,14 +2007,14 @@
       </c>
       <c r="B26" s="7"/>
       <c t="s" r="C26" s="8">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="D26" s="8"/>
       <c r="E26" s="8"/>
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>18</v>
+        <v>39</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
@@ -2003,14 +2024,14 @@
       </c>
       <c r="M26" s="10"/>
       <c t="s" r="N26" s="8">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="O26" s="8"/>
       <c t="s" r="P26" s="11">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c t="s" r="Q26" s="12">
-        <v>16</v>
+        <v>76</v>
       </c>
     </row>
     <row r="27" ht="25.5" customHeight="1">
@@ -2019,14 +2040,14 @@
       </c>
       <c r="B27" s="7"/>
       <c t="s" r="C27" s="8">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="D27" s="8"/>
       <c r="E27" s="8"/>
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>18</v>
+        <v>86</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
@@ -2036,11 +2057,11 @@
       </c>
       <c r="M27" s="10"/>
       <c t="s" r="N27" s="8">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="O27" s="8"/>
       <c t="s" r="P27" s="11">
-        <v>86</v>
+        <v>58</v>
       </c>
       <c t="s" r="Q27" s="12">
         <v>18</v>
@@ -2052,14 +2073,14 @@
       </c>
       <c r="B28" s="7"/>
       <c t="s" r="C28" s="8">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="D28" s="8"/>
       <c r="E28" s="8"/>
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>33</v>
+        <v>18</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
@@ -2069,11 +2090,11 @@
       </c>
       <c r="M28" s="10"/>
       <c t="s" r="N28" s="8">
-        <v>57</v>
+        <v>89</v>
       </c>
       <c r="O28" s="8"/>
       <c t="s" r="P28" s="11">
-        <v>58</v>
+        <v>90</v>
       </c>
       <c t="s" r="Q28" s="12">
         <v>16</v>
@@ -2085,14 +2106,14 @@
       </c>
       <c r="B29" s="7"/>
       <c t="s" r="C29" s="8">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="D29" s="8"/>
       <c r="E29" s="8"/>
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>89</v>
+        <v>18</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
@@ -2102,11 +2123,11 @@
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
-        <v>40</v>
+        <v>92</v>
       </c>
       <c r="O29" s="8"/>
       <c t="s" r="P29" s="11">
-        <v>41</v>
+        <v>93</v>
       </c>
       <c t="s" r="Q29" s="12">
         <v>18</v>
@@ -2118,14 +2139,14 @@
       </c>
       <c r="B30" s="7"/>
       <c t="s" r="C30" s="8">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="D30" s="8"/>
       <c r="E30" s="8"/>
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
@@ -2135,14 +2156,14 @@
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
-        <v>91</v>
+        <v>64</v>
       </c>
       <c r="O30" s="8"/>
       <c t="s" r="P30" s="11">
-        <v>92</v>
+        <v>65</v>
       </c>
       <c t="s" r="Q30" s="12">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="31" ht="25.5" customHeight="1">
@@ -2151,14 +2172,14 @@
       </c>
       <c r="B31" s="7"/>
       <c t="s" r="C31" s="8">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="D31" s="8"/>
       <c r="E31" s="8"/>
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>35</v>
+        <v>96</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
@@ -2168,14 +2189,14 @@
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
-        <v>94</v>
+        <v>40</v>
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
-        <v>95</v>
+        <v>41</v>
       </c>
       <c t="s" r="Q31" s="12">
-        <v>79</v>
+        <v>18</v>
       </c>
     </row>
     <row r="32" ht="25.5" customHeight="1">
@@ -2184,14 +2205,14 @@
       </c>
       <c r="B32" s="7"/>
       <c t="s" r="C32" s="8">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="D32" s="8"/>
       <c r="E32" s="8"/>
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>97</v>
+        <v>39</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
@@ -2208,7 +2229,7 @@
         <v>99</v>
       </c>
       <c t="s" r="Q32" s="12">
-        <v>33</v>
+        <v>18</v>
       </c>
     </row>
     <row r="33" ht="24.75" customHeight="1">
@@ -2224,7 +2245,7 @@
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>18</v>
+        <v>35</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
@@ -2241,7 +2262,7 @@
         <v>102</v>
       </c>
       <c t="s" r="Q33" s="12">
-        <v>18</v>
+        <v>86</v>
       </c>
     </row>
     <row r="34" ht="25.5" customHeight="1">
@@ -2257,7 +2278,7 @@
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>18</v>
+        <v>104</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
@@ -2267,14 +2288,14 @@
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c t="s" r="Q34" s="12">
-        <v>18</v>
+        <v>33</v>
       </c>
     </row>
     <row r="35" ht="24.75" customHeight="1">
@@ -2283,14 +2304,14 @@
       </c>
       <c r="B35" s="7"/>
       <c t="s" r="C35" s="8">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="D35" s="8"/>
       <c r="E35" s="8"/>
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
@@ -2300,11 +2321,11 @@
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c t="s" r="Q35" s="12">
         <v>18</v>
@@ -2316,14 +2337,14 @@
       </c>
       <c r="B36" s="7"/>
       <c t="s" r="C36" s="8">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="D36" s="8"/>
       <c r="E36" s="8"/>
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
@@ -2333,11 +2354,11 @@
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>85</v>
+        <v>111</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
-        <v>86</v>
+        <v>112</v>
       </c>
       <c t="s" r="Q36" s="12">
         <v>18</v>
@@ -2349,14 +2370,14 @@
       </c>
       <c r="B37" s="7"/>
       <c t="s" r="C37" s="8">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="D37" s="8"/>
       <c r="E37" s="8"/>
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>46</v>
+        <v>22</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
@@ -2366,14 +2387,14 @@
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c t="s" r="Q37" s="12">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="38" ht="24.75" customHeight="1">
@@ -2382,14 +2403,14 @@
       </c>
       <c r="B38" s="7"/>
       <c t="s" r="C38" s="8">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="D38" s="8"/>
       <c r="E38" s="8"/>
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>39</v>
+        <v>22</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
@@ -2399,11 +2420,11 @@
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>114</v>
+        <v>92</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
-        <v>115</v>
+        <v>93</v>
       </c>
       <c t="s" r="Q38" s="12">
         <v>18</v>
@@ -2415,14 +2436,14 @@
       </c>
       <c r="B39" s="7"/>
       <c t="s" r="C39" s="8">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="D39" s="8"/>
       <c r="E39" s="8"/>
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>18</v>
+        <v>46</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
@@ -2432,11 +2453,11 @@
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c t="s" r="Q39" s="12">
         <v>16</v>
@@ -2448,14 +2469,14 @@
       </c>
       <c r="B40" s="7"/>
       <c t="s" r="C40" s="8">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="D40" s="8"/>
       <c r="E40" s="8"/>
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>120</v>
+        <v>39</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
@@ -2472,7 +2493,7 @@
         <v>122</v>
       </c>
       <c t="s" r="Q40" s="12">
-        <v>79</v>
+        <v>18</v>
       </c>
     </row>
     <row r="41" ht="25.5" customHeight="1">
@@ -2488,7 +2509,7 @@
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>46</v>
+        <v>18</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
@@ -2521,7 +2542,7 @@
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>39</v>
+        <v>127</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
@@ -2531,14 +2552,14 @@
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>70</v>
+        <v>128</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c t="s" r="Q42" s="12">
-        <v>16</v>
+        <v>86</v>
       </c>
     </row>
     <row r="43" ht="24.75" customHeight="1">
@@ -2547,14 +2568,14 @@
       </c>
       <c r="B43" s="7"/>
       <c t="s" r="C43" s="8">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="D43" s="8"/>
       <c r="E43" s="8"/>
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>79</v>
+        <v>46</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
@@ -2564,11 +2585,11 @@
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>40</v>
+        <v>60</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
-        <v>129</v>
+        <v>61</v>
       </c>
       <c t="s" r="Q43" s="12">
         <v>16</v>
@@ -2580,14 +2601,14 @@
       </c>
       <c r="B44" s="7"/>
       <c t="s" r="C44" s="8">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="D44" s="8"/>
       <c r="E44" s="8"/>
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>16</v>
+        <v>39</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
@@ -2597,7 +2618,7 @@
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>131</v>
+        <v>77</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
@@ -2620,7 +2641,7 @@
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>46</v>
+        <v>86</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
@@ -2630,11 +2651,11 @@
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>134</v>
+        <v>40</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
-        <v>71</v>
+        <v>134</v>
       </c>
       <c t="s" r="Q45" s="12">
         <v>16</v>
@@ -2653,7 +2674,7 @@
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
@@ -2686,21 +2707,21 @@
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>139</v>
+        <v>46</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
       <c r="K47" s="9"/>
       <c t="s" r="L47" s="10">
-        <v>140</v>
+        <v>13</v>
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>121</v>
+        <v>139</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
-        <v>37</v>
+        <v>78</v>
       </c>
       <c t="s" r="Q47" s="12">
         <v>16</v>
@@ -2712,14 +2733,14 @@
       </c>
       <c r="B48" s="7"/>
       <c t="s" r="C48" s="8">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="D48" s="8"/>
       <c r="E48" s="8"/>
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>35</v>
+        <v>18</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
@@ -2729,14 +2750,14 @@
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>82</v>
+        <v>141</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
         <v>142</v>
       </c>
       <c t="s" r="Q48" s="12">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="49" ht="25.5" customHeight="1">
@@ -2752,24 +2773,24 @@
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>16</v>
+        <v>144</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
       <c r="K49" s="9"/>
       <c t="s" r="L49" s="10">
-        <v>13</v>
+        <v>145</v>
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>144</v>
+        <v>128</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
-        <v>145</v>
+        <v>37</v>
       </c>
       <c t="s" r="Q49" s="12">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="50" ht="24.75" customHeight="1">
@@ -2785,7 +2806,7 @@
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>16</v>
+        <v>35</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
@@ -2795,14 +2816,14 @@
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>147</v>
+        <v>89</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
-        <v>41</v>
+        <v>147</v>
       </c>
       <c t="s" r="Q50" s="12">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="51" ht="25.5" customHeight="1">
@@ -2818,7 +2839,7 @@
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>35</v>
+        <v>16</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
@@ -2851,7 +2872,7 @@
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
@@ -2865,7 +2886,7 @@
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
-        <v>153</v>
+        <v>41</v>
       </c>
       <c t="s" r="Q52" s="12">
         <v>16</v>
@@ -2877,14 +2898,14 @@
       </c>
       <c r="B53" s="7"/>
       <c t="s" r="C53" s="8">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="D53" s="8"/>
       <c r="E53" s="8"/>
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>22</v>
+        <v>35</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
@@ -2894,7 +2915,7 @@
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
-        <v>94</v>
+        <v>154</v>
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
@@ -2917,7 +2938,7 @@
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>157</v>
+        <v>18</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
@@ -2927,14 +2948,14 @@
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c t="s" r="Q54" s="12">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="55" ht="24.75" customHeight="1">
@@ -2943,14 +2964,14 @@
       </c>
       <c r="B55" s="7"/>
       <c t="s" r="C55" s="8">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="D55" s="8"/>
       <c r="E55" s="8"/>
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>161</v>
+        <v>16</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
@@ -2960,11 +2981,11 @@
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
-        <v>134</v>
+        <v>98</v>
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
-        <v>71</v>
+        <v>160</v>
       </c>
       <c t="s" r="Q55" s="12">
         <v>16</v>
@@ -2976,14 +2997,14 @@
       </c>
       <c r="B56" s="7"/>
       <c t="s" r="C56" s="8">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="D56" s="8"/>
       <c r="E56" s="8"/>
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>35</v>
+        <v>22</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
@@ -2993,14 +3014,14 @@
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
-        <v>27</v>
+        <v>101</v>
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c t="s" r="Q56" s="12">
-        <v>164</v>
+        <v>18</v>
       </c>
     </row>
     <row r="57" ht="25.5" customHeight="1">
@@ -3009,14 +3030,14 @@
       </c>
       <c r="B57" s="7"/>
       <c t="s" r="C57" s="8">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="D57" s="8"/>
       <c r="E57" s="8"/>
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>30</v>
+        <v>164</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
@@ -3026,11 +3047,11 @@
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
-        <v>80</v>
+        <v>165</v>
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
-        <v>54</v>
+        <v>166</v>
       </c>
       <c t="s" r="Q57" s="12">
         <v>18</v>
@@ -3042,14 +3063,14 @@
       </c>
       <c r="B58" s="7"/>
       <c t="s" r="C58" s="8">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="D58" s="8"/>
       <c r="E58" s="8"/>
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c t="s" r="H58" s="9">
-        <v>46</v>
+        <v>168</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
@@ -3059,11 +3080,11 @@
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
-        <v>36</v>
+        <v>139</v>
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
-        <v>37</v>
+        <v>78</v>
       </c>
       <c t="s" r="Q58" s="12">
         <v>16</v>
@@ -3075,14 +3096,14 @@
       </c>
       <c r="B59" s="7"/>
       <c t="s" r="C59" s="8">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="D59" s="8"/>
       <c r="E59" s="8"/>
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c t="s" r="H59" s="9">
-        <v>139</v>
+        <v>30</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
@@ -3092,14 +3113,14 @@
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
-        <v>168</v>
+        <v>92</v>
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
-        <v>137</v>
+        <v>170</v>
       </c>
       <c t="s" r="Q59" s="12">
-        <v>16</v>
+        <v>33</v>
       </c>
     </row>
     <row r="60" ht="24.75" customHeight="1">
@@ -3108,14 +3129,14 @@
       </c>
       <c r="B60" s="7"/>
       <c t="s" r="C60" s="8">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="D60" s="8"/>
       <c r="E60" s="8"/>
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c t="s" r="H60" s="9">
-        <v>139</v>
+        <v>35</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
@@ -3125,14 +3146,14 @@
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
-        <v>170</v>
+        <v>27</v>
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c t="s" r="Q60" s="12">
-        <v>18</v>
+        <v>173</v>
       </c>
     </row>
     <row r="61" ht="25.5" customHeight="1">
@@ -3141,14 +3162,14 @@
       </c>
       <c r="B61" s="7"/>
       <c t="s" r="C61" s="8">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="D61" s="8"/>
       <c r="E61" s="8"/>
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
       <c t="s" r="H61" s="9">
-        <v>39</v>
+        <v>30</v>
       </c>
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
@@ -3158,11 +3179,11 @@
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
-        <v>173</v>
+        <v>87</v>
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
-        <v>174</v>
+        <v>58</v>
       </c>
       <c t="s" r="Q61" s="12">
         <v>18</v>
@@ -3191,11 +3212,11 @@
       </c>
       <c r="M62" s="10"/>
       <c t="s" r="N62" s="8">
-        <v>168</v>
+        <v>36</v>
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
-        <v>137</v>
+        <v>37</v>
       </c>
       <c t="s" r="Q62" s="12">
         <v>16</v>
@@ -3214,7 +3235,7 @@
       <c r="F63" s="8"/>
       <c r="G63" s="8"/>
       <c t="s" r="H63" s="9">
-        <v>46</v>
+        <v>144</v>
       </c>
       <c r="I63" s="9"/>
       <c r="J63" s="9"/>
@@ -3228,7 +3249,7 @@
       </c>
       <c r="O63" s="8"/>
       <c t="s" r="P63" s="11">
-        <v>178</v>
+        <v>142</v>
       </c>
       <c t="s" r="Q63" s="12">
         <v>16</v>
@@ -3240,14 +3261,14 @@
       </c>
       <c r="B64" s="7"/>
       <c t="s" r="C64" s="8">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="D64" s="8"/>
       <c r="E64" s="8"/>
       <c r="F64" s="8"/>
       <c r="G64" s="8"/>
       <c t="s" r="H64" s="9">
-        <v>22</v>
+        <v>144</v>
       </c>
       <c r="I64" s="9"/>
       <c r="J64" s="9"/>
@@ -3257,14 +3278,14 @@
       </c>
       <c r="M64" s="10"/>
       <c t="s" r="N64" s="8">
-        <v>107</v>
+        <v>179</v>
       </c>
       <c r="O64" s="8"/>
       <c t="s" r="P64" s="11">
         <v>180</v>
       </c>
       <c t="s" r="Q64" s="12">
-        <v>22</v>
+        <v>18</v>
       </c>
     </row>
     <row r="65" ht="24.75" customHeight="1">
@@ -3280,7 +3301,7 @@
       <c r="F65" s="8"/>
       <c r="G65" s="8"/>
       <c t="s" r="H65" s="9">
-        <v>18</v>
+        <v>39</v>
       </c>
       <c r="I65" s="9"/>
       <c r="J65" s="9"/>
@@ -3297,7 +3318,7 @@
         <v>183</v>
       </c>
       <c t="s" r="Q65" s="12">
-        <v>46</v>
+        <v>18</v>
       </c>
     </row>
     <row r="66" ht="25.5" customHeight="1">
@@ -3313,7 +3334,7 @@
       <c r="F66" s="8"/>
       <c r="G66" s="8"/>
       <c t="s" r="H66" s="9">
-        <v>39</v>
+        <v>46</v>
       </c>
       <c r="I66" s="9"/>
       <c r="J66" s="9"/>
@@ -3323,14 +3344,14 @@
       </c>
       <c r="M66" s="10"/>
       <c t="s" r="N66" s="8">
-        <v>107</v>
+        <v>177</v>
       </c>
       <c r="O66" s="8"/>
       <c t="s" r="P66" s="11">
-        <v>108</v>
+        <v>142</v>
       </c>
       <c t="s" r="Q66" s="12">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="67" ht="25.5" customHeight="1">
@@ -3346,7 +3367,7 @@
       <c r="F67" s="8"/>
       <c r="G67" s="8"/>
       <c t="s" r="H67" s="9">
-        <v>39</v>
+        <v>46</v>
       </c>
       <c r="I67" s="9"/>
       <c r="J67" s="9"/>
@@ -3356,11 +3377,11 @@
       </c>
       <c r="M67" s="10"/>
       <c t="s" r="N67" s="8">
-        <v>70</v>
+        <v>186</v>
       </c>
       <c r="O67" s="8"/>
       <c t="s" r="P67" s="11">
-        <v>127</v>
+        <v>187</v>
       </c>
       <c t="s" r="Q67" s="12">
         <v>16</v>
@@ -3372,14 +3393,14 @@
       </c>
       <c r="B68" s="7"/>
       <c t="s" r="C68" s="8">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="D68" s="8"/>
       <c r="E68" s="8"/>
       <c r="F68" s="8"/>
       <c r="G68" s="8"/>
       <c t="s" r="H68" s="9">
-        <v>79</v>
+        <v>22</v>
       </c>
       <c r="I68" s="9"/>
       <c r="J68" s="9"/>
@@ -3389,14 +3410,14 @@
       </c>
       <c r="M68" s="10"/>
       <c t="s" r="N68" s="8">
-        <v>187</v>
+        <v>114</v>
       </c>
       <c r="O68" s="8"/>
       <c t="s" r="P68" s="11">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c t="s" r="Q68" s="12">
-        <v>18</v>
+        <v>22</v>
       </c>
     </row>
     <row r="69" ht="25.5" customHeight="1">
@@ -3405,14 +3426,14 @@
       </c>
       <c r="B69" s="7"/>
       <c t="s" r="C69" s="8">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="D69" s="8"/>
       <c r="E69" s="8"/>
       <c r="F69" s="8"/>
       <c r="G69" s="8"/>
       <c t="s" r="H69" s="9">
-        <v>39</v>
+        <v>18</v>
       </c>
       <c r="I69" s="9"/>
       <c r="J69" s="9"/>
@@ -3422,14 +3443,14 @@
       </c>
       <c r="M69" s="10"/>
       <c t="s" r="N69" s="8">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="O69" s="8"/>
       <c t="s" r="P69" s="11">
-        <v>137</v>
+        <v>192</v>
       </c>
       <c t="s" r="Q69" s="12">
-        <v>18</v>
+        <v>46</v>
       </c>
     </row>
     <row r="70" ht="24.75" customHeight="1">
@@ -3438,14 +3459,14 @@
       </c>
       <c r="B70" s="7"/>
       <c t="s" r="C70" s="8">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="D70" s="8"/>
       <c r="E70" s="8"/>
       <c r="F70" s="8"/>
       <c r="G70" s="8"/>
       <c t="s" r="H70" s="9">
-        <v>97</v>
+        <v>39</v>
       </c>
       <c r="I70" s="9"/>
       <c r="J70" s="9"/>
@@ -3455,14 +3476,14 @@
       </c>
       <c r="M70" s="10"/>
       <c t="s" r="N70" s="8">
-        <v>192</v>
+        <v>114</v>
       </c>
       <c r="O70" s="8"/>
       <c t="s" r="P70" s="11">
-        <v>193</v>
+        <v>115</v>
       </c>
       <c t="s" r="Q70" s="12">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="71" ht="25.5" customHeight="1">
@@ -3478,7 +3499,7 @@
       <c r="F71" s="8"/>
       <c r="G71" s="8"/>
       <c t="s" r="H71" s="9">
-        <v>18</v>
+        <v>39</v>
       </c>
       <c r="I71" s="9"/>
       <c r="J71" s="9"/>
@@ -3488,11 +3509,11 @@
       </c>
       <c r="M71" s="10"/>
       <c t="s" r="N71" s="8">
-        <v>192</v>
+        <v>77</v>
       </c>
       <c r="O71" s="8"/>
       <c t="s" r="P71" s="11">
-        <v>195</v>
+        <v>132</v>
       </c>
       <c t="s" r="Q71" s="12">
         <v>16</v>
@@ -3504,14 +3525,14 @@
       </c>
       <c r="B72" s="7"/>
       <c t="s" r="C72" s="8">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="D72" s="8"/>
       <c r="E72" s="8"/>
       <c r="F72" s="8"/>
       <c r="G72" s="8"/>
       <c t="s" r="H72" s="9">
-        <v>39</v>
+        <v>86</v>
       </c>
       <c r="I72" s="9"/>
       <c r="J72" s="9"/>
@@ -3521,11 +3542,11 @@
       </c>
       <c r="M72" s="10"/>
       <c t="s" r="N72" s="8">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="O72" s="8"/>
       <c t="s" r="P72" s="11">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c t="s" r="Q72" s="12">
         <v>18</v>
@@ -3537,28 +3558,28 @@
       </c>
       <c r="B73" s="7"/>
       <c t="s" r="C73" s="8">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="D73" s="8"/>
       <c r="E73" s="8"/>
       <c r="F73" s="8"/>
       <c r="G73" s="8"/>
       <c t="s" r="H73" s="9">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="I73" s="9"/>
       <c r="J73" s="9"/>
       <c r="K73" s="9"/>
       <c t="s" r="L73" s="10">
-        <v>140</v>
+        <v>13</v>
       </c>
       <c r="M73" s="10"/>
       <c t="s" r="N73" s="8">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="O73" s="8"/>
       <c t="s" r="P73" s="11">
-        <v>201</v>
+        <v>142</v>
       </c>
       <c t="s" r="Q73" s="12">
         <v>18</v>
@@ -3570,31 +3591,31 @@
       </c>
       <c r="B74" s="7"/>
       <c t="s" r="C74" s="8">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="D74" s="8"/>
       <c r="E74" s="8"/>
       <c r="F74" s="8"/>
       <c r="G74" s="8"/>
       <c t="s" r="H74" s="9">
-        <v>39</v>
+        <v>104</v>
       </c>
       <c r="I74" s="9"/>
       <c r="J74" s="9"/>
       <c r="K74" s="9"/>
       <c t="s" r="L74" s="10">
-        <v>140</v>
+        <v>13</v>
       </c>
       <c r="M74" s="10"/>
       <c t="s" r="N74" s="8">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="O74" s="8"/>
       <c t="s" r="P74" s="11">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c t="s" r="Q74" s="12">
-        <v>22</v>
+        <v>16</v>
       </c>
     </row>
     <row r="75" ht="24.75" customHeight="1">
@@ -3603,7 +3624,7 @@
       </c>
       <c r="B75" s="7"/>
       <c t="s" r="C75" s="8">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="D75" s="8"/>
       <c r="E75" s="8"/>
@@ -3616,18 +3637,18 @@
       <c r="J75" s="9"/>
       <c r="K75" s="9"/>
       <c t="s" r="L75" s="10">
-        <v>140</v>
+        <v>13</v>
       </c>
       <c r="M75" s="10"/>
       <c t="s" r="N75" s="8">
-        <v>206</v>
+        <v>201</v>
       </c>
       <c r="O75" s="8"/>
       <c t="s" r="P75" s="11">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c t="s" r="Q75" s="12">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="76" ht="25.5" customHeight="1">
@@ -3636,28 +3657,28 @@
       </c>
       <c r="B76" s="7"/>
       <c t="s" r="C76" s="8">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="D76" s="8"/>
       <c r="E76" s="8"/>
       <c r="F76" s="8"/>
       <c r="G76" s="8"/>
       <c t="s" r="H76" s="9">
-        <v>209</v>
+        <v>39</v>
       </c>
       <c r="I76" s="9"/>
       <c r="J76" s="9"/>
       <c r="K76" s="9"/>
       <c t="s" r="L76" s="10">
-        <v>140</v>
+        <v>13</v>
       </c>
       <c r="M76" s="10"/>
       <c t="s" r="N76" s="8">
-        <v>210</v>
+        <v>206</v>
       </c>
       <c r="O76" s="8"/>
       <c t="s" r="P76" s="11">
-        <v>37</v>
+        <v>207</v>
       </c>
       <c t="s" r="Q76" s="12">
         <v>18</v>
@@ -3669,28 +3690,28 @@
       </c>
       <c r="B77" s="7"/>
       <c t="s" r="C77" s="8">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="D77" s="8"/>
       <c r="E77" s="8"/>
       <c r="F77" s="8"/>
       <c r="G77" s="8"/>
       <c t="s" r="H77" s="9">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="I77" s="9"/>
       <c r="J77" s="9"/>
       <c r="K77" s="9"/>
       <c t="s" r="L77" s="10">
-        <v>140</v>
+        <v>145</v>
       </c>
       <c r="M77" s="10"/>
       <c t="s" r="N77" s="8">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="O77" s="8"/>
       <c t="s" r="P77" s="11">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c t="s" r="Q77" s="12">
         <v>18</v>
@@ -3702,7 +3723,7 @@
       </c>
       <c r="B78" s="7"/>
       <c t="s" r="C78" s="8">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="D78" s="8"/>
       <c r="E78" s="8"/>
@@ -3715,18 +3736,18 @@
       <c r="J78" s="9"/>
       <c r="K78" s="9"/>
       <c t="s" r="L78" s="10">
-        <v>140</v>
+        <v>145</v>
       </c>
       <c r="M78" s="10"/>
       <c t="s" r="N78" s="8">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="O78" s="8"/>
       <c t="s" r="P78" s="11">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c t="s" r="Q78" s="12">
-        <v>69</v>
+        <v>22</v>
       </c>
     </row>
     <row r="79" ht="25.5" customHeight="1">
@@ -3735,31 +3756,31 @@
       </c>
       <c r="B79" s="7"/>
       <c t="s" r="C79" s="8">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="D79" s="8"/>
       <c r="E79" s="8"/>
       <c r="F79" s="8"/>
       <c r="G79" s="8"/>
       <c t="s" r="H79" s="9">
-        <v>39</v>
+        <v>18</v>
       </c>
       <c r="I79" s="9"/>
       <c r="J79" s="9"/>
       <c r="K79" s="9"/>
       <c t="s" r="L79" s="10">
-        <v>140</v>
+        <v>145</v>
       </c>
       <c r="M79" s="10"/>
       <c t="s" r="N79" s="8">
-        <v>203</v>
+        <v>215</v>
       </c>
       <c r="O79" s="8"/>
       <c t="s" r="P79" s="11">
-        <v>204</v>
+        <v>216</v>
       </c>
       <c t="s" r="Q79" s="12">
-        <v>22</v>
+        <v>18</v>
       </c>
     </row>
     <row r="80" ht="24.75" customHeight="1">
@@ -3768,28 +3789,28 @@
       </c>
       <c r="B80" s="7"/>
       <c t="s" r="C80" s="8">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="D80" s="8"/>
       <c r="E80" s="8"/>
       <c r="F80" s="8"/>
       <c r="G80" s="8"/>
       <c t="s" r="H80" s="9">
-        <v>39</v>
+        <v>50</v>
       </c>
       <c r="I80" s="9"/>
       <c r="J80" s="9"/>
       <c r="K80" s="9"/>
       <c t="s" r="L80" s="10">
-        <v>140</v>
+        <v>145</v>
       </c>
       <c r="M80" s="10"/>
       <c t="s" r="N80" s="8">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="O80" s="8"/>
       <c t="s" r="P80" s="11">
-        <v>220</v>
+        <v>37</v>
       </c>
       <c t="s" r="Q80" s="12">
         <v>18</v>
@@ -3801,31 +3822,31 @@
       </c>
       <c r="B81" s="7"/>
       <c t="s" r="C81" s="8">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="D81" s="8"/>
       <c r="E81" s="8"/>
       <c r="F81" s="8"/>
       <c r="G81" s="8"/>
       <c t="s" r="H81" s="9">
-        <v>222</v>
+        <v>39</v>
       </c>
       <c r="I81" s="9"/>
       <c r="J81" s="9"/>
       <c r="K81" s="9"/>
       <c t="s" r="L81" s="10">
-        <v>140</v>
+        <v>145</v>
       </c>
       <c r="M81" s="10"/>
       <c t="s" r="N81" s="8">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="O81" s="8"/>
       <c t="s" r="P81" s="11">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c t="s" r="Q81" s="12">
-        <v>18</v>
+        <v>35</v>
       </c>
     </row>
     <row r="82" ht="25.5" customHeight="1">
@@ -3834,31 +3855,31 @@
       </c>
       <c r="B82" s="7"/>
       <c t="s" r="C82" s="8">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="D82" s="8"/>
       <c r="E82" s="8"/>
       <c r="F82" s="8"/>
       <c r="G82" s="8"/>
       <c t="s" r="H82" s="9">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="I82" s="9"/>
       <c r="J82" s="9"/>
       <c r="K82" s="9"/>
       <c t="s" r="L82" s="10">
-        <v>140</v>
+        <v>145</v>
       </c>
       <c r="M82" s="10"/>
       <c t="s" r="N82" s="8">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="O82" s="8"/>
       <c t="s" r="P82" s="11">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c t="s" r="Q82" s="12">
-        <v>18</v>
+        <v>76</v>
       </c>
     </row>
     <row r="83" ht="24.75" customHeight="1">
@@ -3867,31 +3888,31 @@
       </c>
       <c r="B83" s="7"/>
       <c t="s" r="C83" s="8">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="D83" s="8"/>
       <c r="E83" s="8"/>
       <c r="F83" s="8"/>
       <c r="G83" s="8"/>
       <c t="s" r="H83" s="9">
-        <v>229</v>
+        <v>39</v>
       </c>
       <c r="I83" s="9"/>
       <c r="J83" s="9"/>
       <c r="K83" s="9"/>
       <c t="s" r="L83" s="10">
-        <v>140</v>
+        <v>145</v>
       </c>
       <c r="M83" s="10"/>
       <c t="s" r="N83" s="8">
-        <v>206</v>
+        <v>212</v>
       </c>
       <c r="O83" s="8"/>
       <c t="s" r="P83" s="11">
-        <v>230</v>
+        <v>213</v>
       </c>
       <c t="s" r="Q83" s="12">
-        <v>69</v>
+        <v>22</v>
       </c>
     </row>
     <row r="84" ht="25.5" customHeight="1">
@@ -3900,7 +3921,7 @@
       </c>
       <c r="B84" s="7"/>
       <c t="s" r="C84" s="8">
-        <v>231</v>
+        <v>226</v>
       </c>
       <c r="D84" s="8"/>
       <c r="E84" s="8"/>
@@ -3913,15 +3934,15 @@
       <c r="J84" s="9"/>
       <c r="K84" s="9"/>
       <c t="s" r="L84" s="10">
-        <v>140</v>
+        <v>145</v>
       </c>
       <c r="M84" s="10"/>
       <c t="s" r="N84" s="8">
-        <v>200</v>
+        <v>227</v>
       </c>
       <c r="O84" s="8"/>
       <c t="s" r="P84" s="11">
-        <v>201</v>
+        <v>228</v>
       </c>
       <c t="s" r="Q84" s="12">
         <v>18</v>
@@ -3933,28 +3954,28 @@
       </c>
       <c r="B85" s="7"/>
       <c t="s" r="C85" s="8">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="D85" s="8"/>
       <c r="E85" s="8"/>
       <c r="F85" s="8"/>
       <c r="G85" s="8"/>
       <c t="s" r="H85" s="9">
-        <v>18</v>
+        <v>230</v>
       </c>
       <c r="I85" s="9"/>
       <c r="J85" s="9"/>
       <c r="K85" s="9"/>
       <c t="s" r="L85" s="10">
-        <v>140</v>
+        <v>145</v>
       </c>
       <c r="M85" s="10"/>
       <c t="s" r="N85" s="8">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="O85" s="8"/>
       <c t="s" r="P85" s="11">
-        <v>234</v>
+        <v>221</v>
       </c>
       <c t="s" r="Q85" s="12">
         <v>18</v>
@@ -3966,28 +3987,28 @@
       </c>
       <c r="B86" s="7"/>
       <c t="s" r="C86" s="8">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="D86" s="8"/>
       <c r="E86" s="8"/>
       <c r="F86" s="8"/>
       <c r="G86" s="8"/>
       <c t="s" r="H86" s="9">
-        <v>236</v>
+        <v>35</v>
       </c>
       <c r="I86" s="9"/>
       <c r="J86" s="9"/>
       <c r="K86" s="9"/>
       <c t="s" r="L86" s="10">
-        <v>140</v>
+        <v>145</v>
       </c>
       <c r="M86" s="10"/>
       <c t="s" r="N86" s="8">
-        <v>149</v>
+        <v>233</v>
       </c>
       <c r="O86" s="8"/>
       <c t="s" r="P86" s="11">
-        <v>150</v>
+        <v>234</v>
       </c>
       <c t="s" r="Q86" s="12">
         <v>18</v>
@@ -3999,66 +4020,198 @@
       </c>
       <c r="B87" s="7"/>
       <c t="s" r="C87" s="8">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="D87" s="8"/>
       <c r="E87" s="8"/>
       <c r="F87" s="8"/>
       <c r="G87" s="8"/>
       <c t="s" r="H87" s="9">
-        <v>22</v>
+        <v>236</v>
       </c>
       <c r="I87" s="9"/>
       <c r="J87" s="9"/>
       <c r="K87" s="9"/>
       <c t="s" r="L87" s="10">
-        <v>140</v>
+        <v>145</v>
       </c>
       <c r="M87" s="10"/>
       <c t="s" r="N87" s="8">
-        <v>200</v>
+        <v>215</v>
       </c>
       <c r="O87" s="8"/>
       <c t="s" r="P87" s="11">
-        <v>201</v>
+        <v>237</v>
       </c>
       <c t="s" r="Q87" s="12">
-        <v>18</v>
+        <v>76</v>
       </c>
     </row>
     <row r="88" ht="24.75" customHeight="1">
-      <c r="P88" s="13">
-        <v>4986.5349999999999</v>
-      </c>
-      <c r="Q88" s="13"/>
-    </row>
-    <row r="89" ht="16.5" customHeight="1">
-      <c t="s" r="A89" s="14">
+      <c r="A88" s="7">
+        <v>82</v>
+      </c>
+      <c r="B88" s="7"/>
+      <c t="s" r="C88" s="8">
         <v>238</v>
       </c>
-      <c r="B89" s="14"/>
-      <c r="C89" s="14"/>
-      <c r="D89" s="14"/>
-      <c r="E89" s="14"/>
-      <c r="F89" s="14"/>
-      <c t="s" r="G89" s="15">
+      <c r="D88" s="8"/>
+      <c r="E88" s="8"/>
+      <c r="F88" s="8"/>
+      <c r="G88" s="8"/>
+      <c t="s" r="H88" s="9">
+        <v>39</v>
+      </c>
+      <c r="I88" s="9"/>
+      <c r="J88" s="9"/>
+      <c r="K88" s="9"/>
+      <c t="s" r="L88" s="10">
+        <v>145</v>
+      </c>
+      <c r="M88" s="10"/>
+      <c t="s" r="N88" s="8">
+        <v>209</v>
+      </c>
+      <c r="O88" s="8"/>
+      <c t="s" r="P88" s="11">
+        <v>228</v>
+      </c>
+      <c t="s" r="Q88" s="12">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="89" ht="25.5" customHeight="1">
+      <c r="A89" s="7">
+        <v>83</v>
+      </c>
+      <c r="B89" s="7"/>
+      <c t="s" r="C89" s="8">
         <v>239</v>
       </c>
-      <c r="H89" s="15"/>
-      <c r="I89" s="15"/>
-      <c r="J89" s="16"/>
-      <c t="s" r="K89" s="17">
+      <c r="D89" s="8"/>
+      <c r="E89" s="8"/>
+      <c r="F89" s="8"/>
+      <c r="G89" s="8"/>
+      <c t="s" r="H89" s="9">
+        <v>18</v>
+      </c>
+      <c r="I89" s="9"/>
+      <c r="J89" s="9"/>
+      <c r="K89" s="9"/>
+      <c t="s" r="L89" s="10">
+        <v>145</v>
+      </c>
+      <c r="M89" s="10"/>
+      <c t="s" r="N89" s="8">
         <v>240</v>
       </c>
-      <c r="L89" s="17"/>
-      <c r="M89" s="17"/>
-      <c r="N89" s="17"/>
-      <c r="O89" s="17"/>
-      <c r="P89" s="17"/>
-      <c r="Q89" s="17"/>
+      <c r="O89" s="8"/>
+      <c t="s" r="P89" s="11">
+        <v>241</v>
+      </c>
+      <c t="s" r="Q89" s="12">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="90" ht="24.75" customHeight="1">
+      <c r="A90" s="7">
+        <v>84</v>
+      </c>
+      <c r="B90" s="7"/>
+      <c t="s" r="C90" s="8">
+        <v>242</v>
+      </c>
+      <c r="D90" s="8"/>
+      <c r="E90" s="8"/>
+      <c r="F90" s="8"/>
+      <c r="G90" s="8"/>
+      <c t="s" r="H90" s="9">
+        <v>243</v>
+      </c>
+      <c r="I90" s="9"/>
+      <c r="J90" s="9"/>
+      <c r="K90" s="9"/>
+      <c t="s" r="L90" s="10">
+        <v>145</v>
+      </c>
+      <c r="M90" s="10"/>
+      <c t="s" r="N90" s="8">
+        <v>154</v>
+      </c>
+      <c r="O90" s="8"/>
+      <c t="s" r="P90" s="11">
+        <v>155</v>
+      </c>
+      <c t="s" r="Q90" s="12">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="91" ht="25.5" customHeight="1">
+      <c r="A91" s="7">
+        <v>85</v>
+      </c>
+      <c r="B91" s="7"/>
+      <c t="s" r="C91" s="8">
+        <v>244</v>
+      </c>
+      <c r="D91" s="8"/>
+      <c r="E91" s="8"/>
+      <c r="F91" s="8"/>
+      <c r="G91" s="8"/>
+      <c t="s" r="H91" s="9">
+        <v>22</v>
+      </c>
+      <c r="I91" s="9"/>
+      <c r="J91" s="9"/>
+      <c r="K91" s="9"/>
+      <c t="s" r="L91" s="10">
+        <v>145</v>
+      </c>
+      <c r="M91" s="10"/>
+      <c t="s" r="N91" s="8">
+        <v>209</v>
+      </c>
+      <c r="O91" s="8"/>
+      <c t="s" r="P91" s="11">
+        <v>210</v>
+      </c>
+      <c t="s" r="Q91" s="12">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="92" ht="25.5" customHeight="1">
+      <c r="P92" s="13">
+        <v>5238.5349999999999</v>
+      </c>
+      <c r="Q92" s="13"/>
+    </row>
+    <row r="93" ht="16.5" customHeight="1">
+      <c t="s" r="A93" s="14">
+        <v>245</v>
+      </c>
+      <c r="B93" s="14"/>
+      <c r="C93" s="14"/>
+      <c r="D93" s="14"/>
+      <c r="E93" s="14"/>
+      <c r="F93" s="14"/>
+      <c t="s" r="G93" s="15">
+        <v>246</v>
+      </c>
+      <c r="H93" s="15"/>
+      <c r="I93" s="15"/>
+      <c r="J93" s="16"/>
+      <c t="s" r="K93" s="17">
+        <v>247</v>
+      </c>
+      <c r="L93" s="17"/>
+      <c r="M93" s="17"/>
+      <c r="N93" s="17"/>
+      <c r="O93" s="17"/>
+      <c r="P93" s="17"/>
+      <c r="Q93" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="417">
+  <mergeCells count="437">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -4472,10 +4625,30 @@
     <mergeCell ref="H87:K87"/>
     <mergeCell ref="L87:M87"/>
     <mergeCell ref="N87:O87"/>
-    <mergeCell ref="P88:Q88"/>
-    <mergeCell ref="A89:F89"/>
-    <mergeCell ref="G89:I89"/>
-    <mergeCell ref="K89:Q89"/>
+    <mergeCell ref="A88:B88"/>
+    <mergeCell ref="C88:G88"/>
+    <mergeCell ref="H88:K88"/>
+    <mergeCell ref="L88:M88"/>
+    <mergeCell ref="N88:O88"/>
+    <mergeCell ref="A89:B89"/>
+    <mergeCell ref="C89:G89"/>
+    <mergeCell ref="H89:K89"/>
+    <mergeCell ref="L89:M89"/>
+    <mergeCell ref="N89:O89"/>
+    <mergeCell ref="A90:B90"/>
+    <mergeCell ref="C90:G90"/>
+    <mergeCell ref="H90:K90"/>
+    <mergeCell ref="L90:M90"/>
+    <mergeCell ref="N90:O90"/>
+    <mergeCell ref="A91:B91"/>
+    <mergeCell ref="C91:G91"/>
+    <mergeCell ref="H91:K91"/>
+    <mergeCell ref="L91:M91"/>
+    <mergeCell ref="N91:O91"/>
+    <mergeCell ref="P92:Q92"/>
+    <mergeCell ref="A93:F93"/>
+    <mergeCell ref="G93:I93"/>
+    <mergeCell ref="K93:Q93"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-08-08_00-00.xlsx
+++ b/DaySale_2025-08-08_00-00.xlsx
@@ -746,7 +746,7 @@
     <t>مناديل بكر فاين</t>
   </si>
   <si>
-    <t>Friday, 8 August, 2025 9:01 PM</t>
+    <t>Friday, 8 August, 2025 9:02 PM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-08-08_00-00.xlsx
+++ b/DaySale_2025-08-08_00-00.xlsx
@@ -431,6 +431,15 @@
     <t>72.00</t>
   </si>
   <si>
+    <t>NEUROVIT 30 SUGAR COATED TAB</t>
+  </si>
+  <si>
+    <t>102.00</t>
+  </si>
+  <si>
+    <t>33.6600</t>
+  </si>
+  <si>
     <t>PANADOL ADVANCE 500 MG 48 TABLETS</t>
   </si>
   <si>
@@ -458,9 +467,6 @@
     <t>PANTOLOC 40MG 14 TAB</t>
   </si>
   <si>
-    <t>102.00</t>
-  </si>
-  <si>
     <t>102.0000</t>
   </si>
   <si>
@@ -527,10 +533,7 @@
     <t>SPASMO-DIGESTIN 30 TABS.</t>
   </si>
   <si>
-    <t>77.2200</t>
-  </si>
-  <si>
-    <t>0:3</t>
+    <t>102.9600</t>
   </si>
   <si>
     <t>SPASMOFEN 3 AMP. FOR I.M. INJ.</t>
@@ -635,6 +638,15 @@
     <t>64.0000</t>
   </si>
   <si>
+    <t>VITATRON 30 CAPS</t>
+  </si>
+  <si>
+    <t>195.00</t>
+  </si>
+  <si>
+    <t>64.3500</t>
+  </si>
+  <si>
     <t xml:space="preserve">جنتيانا </t>
   </si>
   <si>
@@ -746,7 +758,7 @@
     <t>مناديل بكر فاين</t>
   </si>
   <si>
-    <t>Friday, 8 August, 2025 9:02 PM</t>
+    <t>Friday, 8 August, 2025 9:10 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -2740,7 +2752,7 @@
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>18</v>
+        <v>33</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
@@ -2773,21 +2785,21 @@
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>144</v>
+        <v>18</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
       <c r="K49" s="9"/>
       <c t="s" r="L49" s="10">
-        <v>145</v>
+        <v>13</v>
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>128</v>
+        <v>144</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
-        <v>37</v>
+        <v>145</v>
       </c>
       <c t="s" r="Q49" s="12">
         <v>16</v>
@@ -2806,24 +2818,24 @@
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>35</v>
+        <v>147</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
       <c r="K50" s="9"/>
       <c t="s" r="L50" s="10">
-        <v>13</v>
+        <v>148</v>
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>89</v>
+        <v>128</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
-        <v>147</v>
+        <v>37</v>
       </c>
       <c t="s" r="Q50" s="12">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="51" ht="25.5" customHeight="1">
@@ -2832,14 +2844,14 @@
       </c>
       <c r="B51" s="7"/>
       <c t="s" r="C51" s="8">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="D51" s="8"/>
       <c r="E51" s="8"/>
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>16</v>
+        <v>35</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
@@ -2849,7 +2861,7 @@
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>149</v>
+        <v>89</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
@@ -2882,14 +2894,14 @@
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>152</v>
+        <v>141</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
-        <v>41</v>
+        <v>152</v>
       </c>
       <c t="s" r="Q52" s="12">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="53" ht="24.75" customHeight="1">
@@ -2905,7 +2917,7 @@
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>35</v>
+        <v>16</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
@@ -2919,10 +2931,10 @@
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
-        <v>155</v>
+        <v>41</v>
       </c>
       <c t="s" r="Q53" s="12">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="54" ht="25.5" customHeight="1">
@@ -2931,14 +2943,14 @@
       </c>
       <c r="B54" s="7"/>
       <c t="s" r="C54" s="8">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="D54" s="8"/>
       <c r="E54" s="8"/>
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>18</v>
+        <v>35</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
@@ -2948,14 +2960,14 @@
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c t="s" r="Q54" s="12">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="55" ht="24.75" customHeight="1">
@@ -2964,14 +2976,14 @@
       </c>
       <c r="B55" s="7"/>
       <c t="s" r="C55" s="8">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="D55" s="8"/>
       <c r="E55" s="8"/>
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
@@ -2981,7 +2993,7 @@
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
-        <v>98</v>
+        <v>159</v>
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
@@ -3004,7 +3016,7 @@
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
@@ -3014,14 +3026,14 @@
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
         <v>162</v>
       </c>
       <c t="s" r="Q56" s="12">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="57" ht="25.5" customHeight="1">
@@ -3037,7 +3049,7 @@
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>164</v>
+        <v>22</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
@@ -3047,11 +3059,11 @@
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
-        <v>165</v>
+        <v>101</v>
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c t="s" r="Q57" s="12">
         <v>18</v>
@@ -3063,14 +3075,14 @@
       </c>
       <c r="B58" s="7"/>
       <c t="s" r="C58" s="8">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="D58" s="8"/>
       <c r="E58" s="8"/>
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c t="s" r="H58" s="9">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
@@ -3080,14 +3092,14 @@
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
-        <v>139</v>
+        <v>167</v>
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
-        <v>78</v>
+        <v>168</v>
       </c>
       <c t="s" r="Q58" s="12">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="59" ht="25.5" customHeight="1">
@@ -3103,7 +3115,7 @@
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c t="s" r="H59" s="9">
-        <v>30</v>
+        <v>170</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
@@ -3113,14 +3125,14 @@
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
-        <v>92</v>
+        <v>139</v>
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
-        <v>170</v>
+        <v>78</v>
       </c>
       <c t="s" r="Q59" s="12">
-        <v>33</v>
+        <v>16</v>
       </c>
     </row>
     <row r="60" ht="24.75" customHeight="1">
@@ -3136,7 +3148,7 @@
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c t="s" r="H60" s="9">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
@@ -3146,14 +3158,14 @@
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
-        <v>27</v>
+        <v>92</v>
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
         <v>172</v>
       </c>
       <c t="s" r="Q60" s="12">
-        <v>173</v>
+        <v>33</v>
       </c>
     </row>
     <row r="61" ht="25.5" customHeight="1">
@@ -3162,14 +3174,14 @@
       </c>
       <c r="B61" s="7"/>
       <c t="s" r="C61" s="8">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="D61" s="8"/>
       <c r="E61" s="8"/>
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
       <c t="s" r="H61" s="9">
-        <v>30</v>
+        <v>63</v>
       </c>
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
@@ -3179,14 +3191,14 @@
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
-        <v>87</v>
+        <v>27</v>
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
-        <v>58</v>
+        <v>174</v>
       </c>
       <c t="s" r="Q61" s="12">
-        <v>18</v>
+        <v>46</v>
       </c>
     </row>
     <row r="62" ht="25.5" customHeight="1">
@@ -3202,7 +3214,7 @@
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
       <c t="s" r="H62" s="9">
-        <v>46</v>
+        <v>30</v>
       </c>
       <c r="I62" s="9"/>
       <c r="J62" s="9"/>
@@ -3212,14 +3224,14 @@
       </c>
       <c r="M62" s="10"/>
       <c t="s" r="N62" s="8">
-        <v>36</v>
+        <v>87</v>
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
-        <v>37</v>
+        <v>58</v>
       </c>
       <c t="s" r="Q62" s="12">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="63" ht="24.75" customHeight="1">
@@ -3235,7 +3247,7 @@
       <c r="F63" s="8"/>
       <c r="G63" s="8"/>
       <c t="s" r="H63" s="9">
-        <v>144</v>
+        <v>46</v>
       </c>
       <c r="I63" s="9"/>
       <c r="J63" s="9"/>
@@ -3245,11 +3257,11 @@
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
-        <v>177</v>
+        <v>36</v>
       </c>
       <c r="O63" s="8"/>
       <c t="s" r="P63" s="11">
-        <v>142</v>
+        <v>37</v>
       </c>
       <c t="s" r="Q63" s="12">
         <v>16</v>
@@ -3261,14 +3273,14 @@
       </c>
       <c r="B64" s="7"/>
       <c t="s" r="C64" s="8">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="D64" s="8"/>
       <c r="E64" s="8"/>
       <c r="F64" s="8"/>
       <c r="G64" s="8"/>
       <c t="s" r="H64" s="9">
-        <v>144</v>
+        <v>147</v>
       </c>
       <c r="I64" s="9"/>
       <c r="J64" s="9"/>
@@ -3278,14 +3290,14 @@
       </c>
       <c r="M64" s="10"/>
       <c t="s" r="N64" s="8">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="O64" s="8"/>
       <c t="s" r="P64" s="11">
-        <v>180</v>
+        <v>145</v>
       </c>
       <c t="s" r="Q64" s="12">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="65" ht="24.75" customHeight="1">
@@ -3294,14 +3306,14 @@
       </c>
       <c r="B65" s="7"/>
       <c t="s" r="C65" s="8">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="D65" s="8"/>
       <c r="E65" s="8"/>
       <c r="F65" s="8"/>
       <c r="G65" s="8"/>
       <c t="s" r="H65" s="9">
-        <v>39</v>
+        <v>147</v>
       </c>
       <c r="I65" s="9"/>
       <c r="J65" s="9"/>
@@ -3311,11 +3323,11 @@
       </c>
       <c r="M65" s="10"/>
       <c t="s" r="N65" s="8">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="O65" s="8"/>
       <c t="s" r="P65" s="11">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c t="s" r="Q65" s="12">
         <v>18</v>
@@ -3327,14 +3339,14 @@
       </c>
       <c r="B66" s="7"/>
       <c t="s" r="C66" s="8">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="D66" s="8"/>
       <c r="E66" s="8"/>
       <c r="F66" s="8"/>
       <c r="G66" s="8"/>
       <c t="s" r="H66" s="9">
-        <v>46</v>
+        <v>39</v>
       </c>
       <c r="I66" s="9"/>
       <c r="J66" s="9"/>
@@ -3344,14 +3356,14 @@
       </c>
       <c r="M66" s="10"/>
       <c t="s" r="N66" s="8">
-        <v>177</v>
+        <v>183</v>
       </c>
       <c r="O66" s="8"/>
       <c t="s" r="P66" s="11">
-        <v>142</v>
+        <v>184</v>
       </c>
       <c t="s" r="Q66" s="12">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="67" ht="25.5" customHeight="1">
@@ -3377,11 +3389,11 @@
       </c>
       <c r="M67" s="10"/>
       <c t="s" r="N67" s="8">
-        <v>186</v>
+        <v>178</v>
       </c>
       <c r="O67" s="8"/>
       <c t="s" r="P67" s="11">
-        <v>187</v>
+        <v>145</v>
       </c>
       <c t="s" r="Q67" s="12">
         <v>16</v>
@@ -3393,14 +3405,14 @@
       </c>
       <c r="B68" s="7"/>
       <c t="s" r="C68" s="8">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="D68" s="8"/>
       <c r="E68" s="8"/>
       <c r="F68" s="8"/>
       <c r="G68" s="8"/>
       <c t="s" r="H68" s="9">
-        <v>22</v>
+        <v>46</v>
       </c>
       <c r="I68" s="9"/>
       <c r="J68" s="9"/>
@@ -3410,14 +3422,14 @@
       </c>
       <c r="M68" s="10"/>
       <c t="s" r="N68" s="8">
-        <v>114</v>
+        <v>187</v>
       </c>
       <c r="O68" s="8"/>
       <c t="s" r="P68" s="11">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c t="s" r="Q68" s="12">
-        <v>22</v>
+        <v>16</v>
       </c>
     </row>
     <row r="69" ht="25.5" customHeight="1">
@@ -3426,14 +3438,14 @@
       </c>
       <c r="B69" s="7"/>
       <c t="s" r="C69" s="8">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="D69" s="8"/>
       <c r="E69" s="8"/>
       <c r="F69" s="8"/>
       <c r="G69" s="8"/>
       <c t="s" r="H69" s="9">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="I69" s="9"/>
       <c r="J69" s="9"/>
@@ -3443,14 +3455,14 @@
       </c>
       <c r="M69" s="10"/>
       <c t="s" r="N69" s="8">
-        <v>191</v>
+        <v>114</v>
       </c>
       <c r="O69" s="8"/>
       <c t="s" r="P69" s="11">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c t="s" r="Q69" s="12">
-        <v>46</v>
+        <v>22</v>
       </c>
     </row>
     <row r="70" ht="24.75" customHeight="1">
@@ -3459,14 +3471,14 @@
       </c>
       <c r="B70" s="7"/>
       <c t="s" r="C70" s="8">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="D70" s="8"/>
       <c r="E70" s="8"/>
       <c r="F70" s="8"/>
       <c r="G70" s="8"/>
       <c t="s" r="H70" s="9">
-        <v>39</v>
+        <v>18</v>
       </c>
       <c r="I70" s="9"/>
       <c r="J70" s="9"/>
@@ -3476,14 +3488,14 @@
       </c>
       <c r="M70" s="10"/>
       <c t="s" r="N70" s="8">
-        <v>114</v>
+        <v>192</v>
       </c>
       <c r="O70" s="8"/>
       <c t="s" r="P70" s="11">
-        <v>115</v>
+        <v>193</v>
       </c>
       <c t="s" r="Q70" s="12">
-        <v>18</v>
+        <v>46</v>
       </c>
     </row>
     <row r="71" ht="25.5" customHeight="1">
@@ -3509,14 +3521,14 @@
       </c>
       <c r="M71" s="10"/>
       <c t="s" r="N71" s="8">
-        <v>77</v>
+        <v>114</v>
       </c>
       <c r="O71" s="8"/>
       <c t="s" r="P71" s="11">
-        <v>132</v>
+        <v>115</v>
       </c>
       <c t="s" r="Q71" s="12">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="72" ht="25.5" customHeight="1">
@@ -3532,7 +3544,7 @@
       <c r="F72" s="8"/>
       <c r="G72" s="8"/>
       <c t="s" r="H72" s="9">
-        <v>86</v>
+        <v>39</v>
       </c>
       <c r="I72" s="9"/>
       <c r="J72" s="9"/>
@@ -3542,14 +3554,14 @@
       </c>
       <c r="M72" s="10"/>
       <c t="s" r="N72" s="8">
-        <v>196</v>
+        <v>77</v>
       </c>
       <c r="O72" s="8"/>
       <c t="s" r="P72" s="11">
-        <v>197</v>
+        <v>132</v>
       </c>
       <c t="s" r="Q72" s="12">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="73" ht="24.75" customHeight="1">
@@ -3558,14 +3570,14 @@
       </c>
       <c r="B73" s="7"/>
       <c t="s" r="C73" s="8">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="D73" s="8"/>
       <c r="E73" s="8"/>
       <c r="F73" s="8"/>
       <c r="G73" s="8"/>
       <c t="s" r="H73" s="9">
-        <v>39</v>
+        <v>86</v>
       </c>
       <c r="I73" s="9"/>
       <c r="J73" s="9"/>
@@ -3575,11 +3587,11 @@
       </c>
       <c r="M73" s="10"/>
       <c t="s" r="N73" s="8">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="O73" s="8"/>
       <c t="s" r="P73" s="11">
-        <v>142</v>
+        <v>198</v>
       </c>
       <c t="s" r="Q73" s="12">
         <v>18</v>
@@ -3591,14 +3603,14 @@
       </c>
       <c r="B74" s="7"/>
       <c t="s" r="C74" s="8">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="D74" s="8"/>
       <c r="E74" s="8"/>
       <c r="F74" s="8"/>
       <c r="G74" s="8"/>
       <c t="s" r="H74" s="9">
-        <v>104</v>
+        <v>39</v>
       </c>
       <c r="I74" s="9"/>
       <c r="J74" s="9"/>
@@ -3608,14 +3620,14 @@
       </c>
       <c r="M74" s="10"/>
       <c t="s" r="N74" s="8">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="O74" s="8"/>
       <c t="s" r="P74" s="11">
-        <v>202</v>
+        <v>145</v>
       </c>
       <c t="s" r="Q74" s="12">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="75" ht="24.75" customHeight="1">
@@ -3624,14 +3636,14 @@
       </c>
       <c r="B75" s="7"/>
       <c t="s" r="C75" s="8">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="D75" s="8"/>
       <c r="E75" s="8"/>
       <c r="F75" s="8"/>
       <c r="G75" s="8"/>
       <c t="s" r="H75" s="9">
-        <v>18</v>
+        <v>104</v>
       </c>
       <c r="I75" s="9"/>
       <c r="J75" s="9"/>
@@ -3641,11 +3653,11 @@
       </c>
       <c r="M75" s="10"/>
       <c t="s" r="N75" s="8">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="O75" s="8"/>
       <c t="s" r="P75" s="11">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c t="s" r="Q75" s="12">
         <v>16</v>
@@ -3657,14 +3669,14 @@
       </c>
       <c r="B76" s="7"/>
       <c t="s" r="C76" s="8">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="D76" s="8"/>
       <c r="E76" s="8"/>
       <c r="F76" s="8"/>
       <c r="G76" s="8"/>
       <c t="s" r="H76" s="9">
-        <v>39</v>
+        <v>18</v>
       </c>
       <c r="I76" s="9"/>
       <c r="J76" s="9"/>
@@ -3674,14 +3686,14 @@
       </c>
       <c r="M76" s="10"/>
       <c t="s" r="N76" s="8">
-        <v>206</v>
+        <v>202</v>
       </c>
       <c r="O76" s="8"/>
       <c t="s" r="P76" s="11">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c t="s" r="Q76" s="12">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="77" ht="25.5" customHeight="1">
@@ -3690,28 +3702,28 @@
       </c>
       <c r="B77" s="7"/>
       <c t="s" r="C77" s="8">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="D77" s="8"/>
       <c r="E77" s="8"/>
       <c r="F77" s="8"/>
       <c r="G77" s="8"/>
       <c t="s" r="H77" s="9">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="I77" s="9"/>
       <c r="J77" s="9"/>
       <c r="K77" s="9"/>
       <c t="s" r="L77" s="10">
-        <v>145</v>
+        <v>13</v>
       </c>
       <c r="M77" s="10"/>
       <c t="s" r="N77" s="8">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="O77" s="8"/>
       <c t="s" r="P77" s="11">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c t="s" r="Q77" s="12">
         <v>18</v>
@@ -3723,31 +3735,31 @@
       </c>
       <c r="B78" s="7"/>
       <c t="s" r="C78" s="8">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="D78" s="8"/>
       <c r="E78" s="8"/>
       <c r="F78" s="8"/>
       <c r="G78" s="8"/>
       <c t="s" r="H78" s="9">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="I78" s="9"/>
       <c r="J78" s="9"/>
       <c r="K78" s="9"/>
       <c t="s" r="L78" s="10">
-        <v>145</v>
+        <v>13</v>
       </c>
       <c r="M78" s="10"/>
       <c t="s" r="N78" s="8">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="O78" s="8"/>
       <c t="s" r="P78" s="11">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c t="s" r="Q78" s="12">
-        <v>22</v>
+        <v>16</v>
       </c>
     </row>
     <row r="79" ht="25.5" customHeight="1">
@@ -3756,28 +3768,28 @@
       </c>
       <c r="B79" s="7"/>
       <c t="s" r="C79" s="8">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="D79" s="8"/>
       <c r="E79" s="8"/>
       <c r="F79" s="8"/>
       <c r="G79" s="8"/>
       <c t="s" r="H79" s="9">
-        <v>18</v>
+        <v>35</v>
       </c>
       <c r="I79" s="9"/>
       <c r="J79" s="9"/>
       <c r="K79" s="9"/>
       <c t="s" r="L79" s="10">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="M79" s="10"/>
       <c t="s" r="N79" s="8">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="O79" s="8"/>
       <c t="s" r="P79" s="11">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c t="s" r="Q79" s="12">
         <v>18</v>
@@ -3789,31 +3801,31 @@
       </c>
       <c r="B80" s="7"/>
       <c t="s" r="C80" s="8">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="D80" s="8"/>
       <c r="E80" s="8"/>
       <c r="F80" s="8"/>
       <c r="G80" s="8"/>
       <c t="s" r="H80" s="9">
-        <v>50</v>
+        <v>39</v>
       </c>
       <c r="I80" s="9"/>
       <c r="J80" s="9"/>
       <c r="K80" s="9"/>
       <c t="s" r="L80" s="10">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="M80" s="10"/>
       <c t="s" r="N80" s="8">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="O80" s="8"/>
       <c t="s" r="P80" s="11">
-        <v>37</v>
+        <v>217</v>
       </c>
       <c t="s" r="Q80" s="12">
-        <v>18</v>
+        <v>22</v>
       </c>
     </row>
     <row r="81" ht="25.5" customHeight="1">
@@ -3822,31 +3834,31 @@
       </c>
       <c r="B81" s="7"/>
       <c t="s" r="C81" s="8">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="D81" s="8"/>
       <c r="E81" s="8"/>
       <c r="F81" s="8"/>
       <c r="G81" s="8"/>
       <c t="s" r="H81" s="9">
-        <v>39</v>
+        <v>18</v>
       </c>
       <c r="I81" s="9"/>
       <c r="J81" s="9"/>
       <c r="K81" s="9"/>
       <c t="s" r="L81" s="10">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="M81" s="10"/>
       <c t="s" r="N81" s="8">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="O81" s="8"/>
       <c t="s" r="P81" s="11">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c t="s" r="Q81" s="12">
-        <v>35</v>
+        <v>18</v>
       </c>
     </row>
     <row r="82" ht="25.5" customHeight="1">
@@ -3855,31 +3867,31 @@
       </c>
       <c r="B82" s="7"/>
       <c t="s" r="C82" s="8">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="D82" s="8"/>
       <c r="E82" s="8"/>
       <c r="F82" s="8"/>
       <c r="G82" s="8"/>
       <c t="s" r="H82" s="9">
-        <v>39</v>
+        <v>50</v>
       </c>
       <c r="I82" s="9"/>
       <c r="J82" s="9"/>
       <c r="K82" s="9"/>
       <c t="s" r="L82" s="10">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="M82" s="10"/>
       <c t="s" r="N82" s="8">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="O82" s="8"/>
       <c t="s" r="P82" s="11">
-        <v>224</v>
+        <v>37</v>
       </c>
       <c t="s" r="Q82" s="12">
-        <v>76</v>
+        <v>18</v>
       </c>
     </row>
     <row r="83" ht="24.75" customHeight="1">
@@ -3888,7 +3900,7 @@
       </c>
       <c r="B83" s="7"/>
       <c t="s" r="C83" s="8">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="D83" s="8"/>
       <c r="E83" s="8"/>
@@ -3901,18 +3913,18 @@
       <c r="J83" s="9"/>
       <c r="K83" s="9"/>
       <c t="s" r="L83" s="10">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="M83" s="10"/>
       <c t="s" r="N83" s="8">
-        <v>212</v>
+        <v>224</v>
       </c>
       <c r="O83" s="8"/>
       <c t="s" r="P83" s="11">
-        <v>213</v>
+        <v>225</v>
       </c>
       <c t="s" r="Q83" s="12">
-        <v>22</v>
+        <v>35</v>
       </c>
     </row>
     <row r="84" ht="25.5" customHeight="1">
@@ -3934,7 +3946,7 @@
       <c r="J84" s="9"/>
       <c r="K84" s="9"/>
       <c t="s" r="L84" s="10">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="M84" s="10"/>
       <c t="s" r="N84" s="8">
@@ -3945,7 +3957,7 @@
         <v>228</v>
       </c>
       <c t="s" r="Q84" s="12">
-        <v>18</v>
+        <v>76</v>
       </c>
     </row>
     <row r="85" ht="24.75" customHeight="1">
@@ -3961,24 +3973,24 @@
       <c r="F85" s="8"/>
       <c r="G85" s="8"/>
       <c t="s" r="H85" s="9">
-        <v>230</v>
+        <v>39</v>
       </c>
       <c r="I85" s="9"/>
       <c r="J85" s="9"/>
       <c r="K85" s="9"/>
       <c t="s" r="L85" s="10">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="M85" s="10"/>
       <c t="s" r="N85" s="8">
-        <v>231</v>
+        <v>216</v>
       </c>
       <c r="O85" s="8"/>
       <c t="s" r="P85" s="11">
-        <v>221</v>
+        <v>217</v>
       </c>
       <c t="s" r="Q85" s="12">
-        <v>18</v>
+        <v>22</v>
       </c>
     </row>
     <row r="86" ht="25.5" customHeight="1">
@@ -3987,28 +3999,28 @@
       </c>
       <c r="B86" s="7"/>
       <c t="s" r="C86" s="8">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="D86" s="8"/>
       <c r="E86" s="8"/>
       <c r="F86" s="8"/>
       <c r="G86" s="8"/>
       <c t="s" r="H86" s="9">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="I86" s="9"/>
       <c r="J86" s="9"/>
       <c r="K86" s="9"/>
       <c t="s" r="L86" s="10">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="M86" s="10"/>
       <c t="s" r="N86" s="8">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="O86" s="8"/>
       <c t="s" r="P86" s="11">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c t="s" r="Q86" s="12">
         <v>18</v>
@@ -4020,31 +4032,31 @@
       </c>
       <c r="B87" s="7"/>
       <c t="s" r="C87" s="8">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="D87" s="8"/>
       <c r="E87" s="8"/>
       <c r="F87" s="8"/>
       <c r="G87" s="8"/>
       <c t="s" r="H87" s="9">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="I87" s="9"/>
       <c r="J87" s="9"/>
       <c r="K87" s="9"/>
       <c t="s" r="L87" s="10">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="M87" s="10"/>
       <c t="s" r="N87" s="8">
-        <v>215</v>
+        <v>235</v>
       </c>
       <c r="O87" s="8"/>
       <c t="s" r="P87" s="11">
-        <v>237</v>
+        <v>225</v>
       </c>
       <c t="s" r="Q87" s="12">
-        <v>76</v>
+        <v>18</v>
       </c>
     </row>
     <row r="88" ht="24.75" customHeight="1">
@@ -4053,31 +4065,31 @@
       </c>
       <c r="B88" s="7"/>
       <c t="s" r="C88" s="8">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="D88" s="8"/>
       <c r="E88" s="8"/>
       <c r="F88" s="8"/>
       <c r="G88" s="8"/>
       <c t="s" r="H88" s="9">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="I88" s="9"/>
       <c r="J88" s="9"/>
       <c r="K88" s="9"/>
       <c t="s" r="L88" s="10">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="M88" s="10"/>
       <c t="s" r="N88" s="8">
-        <v>209</v>
+        <v>237</v>
       </c>
       <c r="O88" s="8"/>
       <c t="s" r="P88" s="11">
-        <v>228</v>
+        <v>238</v>
       </c>
       <c t="s" r="Q88" s="12">
-        <v>22</v>
+        <v>18</v>
       </c>
     </row>
     <row r="89" ht="25.5" customHeight="1">
@@ -4093,24 +4105,24 @@
       <c r="F89" s="8"/>
       <c r="G89" s="8"/>
       <c t="s" r="H89" s="9">
-        <v>18</v>
+        <v>240</v>
       </c>
       <c r="I89" s="9"/>
       <c r="J89" s="9"/>
       <c r="K89" s="9"/>
       <c t="s" r="L89" s="10">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="M89" s="10"/>
       <c t="s" r="N89" s="8">
-        <v>240</v>
+        <v>219</v>
       </c>
       <c r="O89" s="8"/>
       <c t="s" r="P89" s="11">
         <v>241</v>
       </c>
       <c t="s" r="Q89" s="12">
-        <v>18</v>
+        <v>76</v>
       </c>
     </row>
     <row r="90" ht="24.75" customHeight="1">
@@ -4126,24 +4138,24 @@
       <c r="F90" s="8"/>
       <c r="G90" s="8"/>
       <c t="s" r="H90" s="9">
-        <v>243</v>
+        <v>39</v>
       </c>
       <c r="I90" s="9"/>
       <c r="J90" s="9"/>
       <c r="K90" s="9"/>
       <c t="s" r="L90" s="10">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="M90" s="10"/>
       <c t="s" r="N90" s="8">
-        <v>154</v>
+        <v>213</v>
       </c>
       <c r="O90" s="8"/>
       <c t="s" r="P90" s="11">
-        <v>155</v>
+        <v>232</v>
       </c>
       <c t="s" r="Q90" s="12">
-        <v>18</v>
+        <v>22</v>
       </c>
     </row>
     <row r="91" ht="25.5" customHeight="1">
@@ -4152,66 +4164,132 @@
       </c>
       <c r="B91" s="7"/>
       <c t="s" r="C91" s="8">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="D91" s="8"/>
       <c r="E91" s="8"/>
       <c r="F91" s="8"/>
       <c r="G91" s="8"/>
       <c t="s" r="H91" s="9">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="I91" s="9"/>
       <c r="J91" s="9"/>
       <c r="K91" s="9"/>
       <c t="s" r="L91" s="10">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="M91" s="10"/>
       <c t="s" r="N91" s="8">
-        <v>209</v>
+        <v>244</v>
       </c>
       <c r="O91" s="8"/>
       <c t="s" r="P91" s="11">
-        <v>210</v>
+        <v>245</v>
       </c>
       <c t="s" r="Q91" s="12">
         <v>18</v>
       </c>
     </row>
     <row r="92" ht="25.5" customHeight="1">
-      <c r="P92" s="13">
-        <v>5238.5349999999999</v>
-      </c>
-      <c r="Q92" s="13"/>
-    </row>
-    <row r="93" ht="16.5" customHeight="1">
-      <c t="s" r="A93" s="14">
-        <v>245</v>
-      </c>
-      <c r="B93" s="14"/>
-      <c r="C93" s="14"/>
-      <c r="D93" s="14"/>
-      <c r="E93" s="14"/>
-      <c r="F93" s="14"/>
-      <c t="s" r="G93" s="15">
+      <c r="A92" s="7">
+        <v>86</v>
+      </c>
+      <c r="B92" s="7"/>
+      <c t="s" r="C92" s="8">
         <v>246</v>
       </c>
-      <c r="H93" s="15"/>
-      <c r="I93" s="15"/>
-      <c r="J93" s="16"/>
-      <c t="s" r="K93" s="17">
+      <c r="D92" s="8"/>
+      <c r="E92" s="8"/>
+      <c r="F92" s="8"/>
+      <c r="G92" s="8"/>
+      <c t="s" r="H92" s="9">
         <v>247</v>
       </c>
-      <c r="L93" s="17"/>
-      <c r="M93" s="17"/>
-      <c r="N93" s="17"/>
-      <c r="O93" s="17"/>
-      <c r="P93" s="17"/>
-      <c r="Q93" s="17"/>
+      <c r="I92" s="9"/>
+      <c r="J92" s="9"/>
+      <c r="K92" s="9"/>
+      <c t="s" r="L92" s="10">
+        <v>148</v>
+      </c>
+      <c r="M92" s="10"/>
+      <c t="s" r="N92" s="8">
+        <v>156</v>
+      </c>
+      <c r="O92" s="8"/>
+      <c t="s" r="P92" s="11">
+        <v>157</v>
+      </c>
+      <c t="s" r="Q92" s="12">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="93" ht="24.75" customHeight="1">
+      <c r="A93" s="7">
+        <v>87</v>
+      </c>
+      <c r="B93" s="7"/>
+      <c t="s" r="C93" s="8">
+        <v>248</v>
+      </c>
+      <c r="D93" s="8"/>
+      <c r="E93" s="8"/>
+      <c r="F93" s="8"/>
+      <c r="G93" s="8"/>
+      <c t="s" r="H93" s="9">
+        <v>22</v>
+      </c>
+      <c r="I93" s="9"/>
+      <c r="J93" s="9"/>
+      <c r="K93" s="9"/>
+      <c t="s" r="L93" s="10">
+        <v>148</v>
+      </c>
+      <c r="M93" s="10"/>
+      <c t="s" r="N93" s="8">
+        <v>213</v>
+      </c>
+      <c r="O93" s="8"/>
+      <c t="s" r="P93" s="11">
+        <v>214</v>
+      </c>
+      <c t="s" r="Q93" s="12">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="94" ht="25.5" customHeight="1">
+      <c r="P94" s="13">
+        <v>5362.2849999999999</v>
+      </c>
+      <c r="Q94" s="13"/>
+    </row>
+    <row r="95" ht="16.5" customHeight="1">
+      <c t="s" r="A95" s="14">
+        <v>249</v>
+      </c>
+      <c r="B95" s="14"/>
+      <c r="C95" s="14"/>
+      <c r="D95" s="14"/>
+      <c r="E95" s="14"/>
+      <c r="F95" s="14"/>
+      <c t="s" r="G95" s="15">
+        <v>250</v>
+      </c>
+      <c r="H95" s="15"/>
+      <c r="I95" s="15"/>
+      <c r="J95" s="16"/>
+      <c t="s" r="K95" s="17">
+        <v>251</v>
+      </c>
+      <c r="L95" s="17"/>
+      <c r="M95" s="17"/>
+      <c r="N95" s="17"/>
+      <c r="O95" s="17"/>
+      <c r="P95" s="17"/>
+      <c r="Q95" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="437">
+  <mergeCells count="447">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -4645,10 +4723,20 @@
     <mergeCell ref="H91:K91"/>
     <mergeCell ref="L91:M91"/>
     <mergeCell ref="N91:O91"/>
-    <mergeCell ref="P92:Q92"/>
-    <mergeCell ref="A93:F93"/>
-    <mergeCell ref="G93:I93"/>
-    <mergeCell ref="K93:Q93"/>
+    <mergeCell ref="A92:B92"/>
+    <mergeCell ref="C92:G92"/>
+    <mergeCell ref="H92:K92"/>
+    <mergeCell ref="L92:M92"/>
+    <mergeCell ref="N92:O92"/>
+    <mergeCell ref="A93:B93"/>
+    <mergeCell ref="C93:G93"/>
+    <mergeCell ref="H93:K93"/>
+    <mergeCell ref="L93:M93"/>
+    <mergeCell ref="N93:O93"/>
+    <mergeCell ref="P94:Q94"/>
+    <mergeCell ref="A95:F95"/>
+    <mergeCell ref="G95:I95"/>
+    <mergeCell ref="K95:Q95"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-08-08_00-00.xlsx
+++ b/DaySale_2025-08-08_00-00.xlsx
@@ -359,6 +359,9 @@
     <t>38.0000</t>
   </si>
   <si>
+    <t>GARAMYCIN 0.1% CREAM 15 GM</t>
+  </si>
+  <si>
     <t>GARAMYCIN 0.1% OINT. 15 GM</t>
   </si>
   <si>
@@ -647,6 +650,18 @@
     <t>64.3500</t>
   </si>
   <si>
+    <t xml:space="preserve">برفان القصاص </t>
+  </si>
+  <si>
+    <t>16:0</t>
+  </si>
+  <si>
+    <t>30.00</t>
+  </si>
+  <si>
+    <t>90.0000</t>
+  </si>
+  <si>
     <t xml:space="preserve">جنتيانا </t>
   </si>
   <si>
@@ -677,9 +692,15 @@
     <t>ريكسونا حريمي بليه</t>
   </si>
   <si>
+    <t>9:0</t>
+  </si>
+  <si>
     <t>27.00</t>
   </si>
   <si>
+    <t>54.0000</t>
+  </si>
+  <si>
     <t>سرنجات 10 سم</t>
   </si>
   <si>
@@ -704,9 +725,6 @@
     <t>سويت كوكو</t>
   </si>
   <si>
-    <t>30.00</t>
-  </si>
-  <si>
     <t>30.0000</t>
   </si>
   <si>
@@ -752,13 +770,10 @@
     <t>محلول ملح</t>
   </si>
   <si>
-    <t>9:0</t>
-  </si>
-  <si>
     <t>مناديل بكر فاين</t>
   </si>
   <si>
-    <t>Friday, 8 August, 2025 9:10 PM</t>
+    <t>Friday, 8 August, 2025 9:11 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -2422,7 +2437,7 @@
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>22</v>
+        <v>35</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
@@ -2455,7 +2470,7 @@
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>46</v>
+        <v>22</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
@@ -2465,14 +2480,14 @@
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>118</v>
+        <v>92</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
-        <v>119</v>
+        <v>93</v>
       </c>
       <c t="s" r="Q39" s="12">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="40" ht="24.75" customHeight="1">
@@ -2481,14 +2496,14 @@
       </c>
       <c r="B40" s="7"/>
       <c t="s" r="C40" s="8">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="D40" s="8"/>
       <c r="E40" s="8"/>
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>39</v>
+        <v>46</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
@@ -2498,14 +2513,14 @@
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c t="s" r="Q40" s="12">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="41" ht="25.5" customHeight="1">
@@ -2514,14 +2529,14 @@
       </c>
       <c r="B41" s="7"/>
       <c t="s" r="C41" s="8">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="D41" s="8"/>
       <c r="E41" s="8"/>
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>18</v>
+        <v>39</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
@@ -2531,14 +2546,14 @@
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c t="s" r="Q41" s="12">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="42" ht="25.5" customHeight="1">
@@ -2547,14 +2562,14 @@
       </c>
       <c r="B42" s="7"/>
       <c t="s" r="C42" s="8">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="D42" s="8"/>
       <c r="E42" s="8"/>
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>127</v>
+        <v>18</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
@@ -2564,14 +2579,14 @@
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c t="s" r="Q42" s="12">
-        <v>86</v>
+        <v>16</v>
       </c>
     </row>
     <row r="43" ht="24.75" customHeight="1">
@@ -2580,14 +2595,14 @@
       </c>
       <c r="B43" s="7"/>
       <c t="s" r="C43" s="8">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="D43" s="8"/>
       <c r="E43" s="8"/>
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>46</v>
+        <v>128</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
@@ -2597,14 +2612,14 @@
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>60</v>
+        <v>129</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
-        <v>61</v>
+        <v>130</v>
       </c>
       <c t="s" r="Q43" s="12">
-        <v>16</v>
+        <v>86</v>
       </c>
     </row>
     <row r="44" ht="25.5" customHeight="1">
@@ -2620,7 +2635,7 @@
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>39</v>
+        <v>46</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
@@ -2630,11 +2645,11 @@
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>77</v>
+        <v>60</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
-        <v>132</v>
+        <v>61</v>
       </c>
       <c t="s" r="Q44" s="12">
         <v>16</v>
@@ -2646,14 +2661,14 @@
       </c>
       <c r="B45" s="7"/>
       <c t="s" r="C45" s="8">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="D45" s="8"/>
       <c r="E45" s="8"/>
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>86</v>
+        <v>39</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
@@ -2663,11 +2678,11 @@
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>40</v>
+        <v>77</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c t="s" r="Q45" s="12">
         <v>16</v>
@@ -2679,14 +2694,14 @@
       </c>
       <c r="B46" s="7"/>
       <c t="s" r="C46" s="8">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="D46" s="8"/>
       <c r="E46" s="8"/>
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>16</v>
+        <v>86</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
@@ -2696,11 +2711,11 @@
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>136</v>
+        <v>40</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c t="s" r="Q46" s="12">
         <v>16</v>
@@ -2712,14 +2727,14 @@
       </c>
       <c r="B47" s="7"/>
       <c t="s" r="C47" s="8">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="D47" s="8"/>
       <c r="E47" s="8"/>
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>46</v>
+        <v>16</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
@@ -2729,11 +2744,11 @@
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
-        <v>78</v>
+        <v>138</v>
       </c>
       <c t="s" r="Q47" s="12">
         <v>16</v>
@@ -2745,14 +2760,14 @@
       </c>
       <c r="B48" s="7"/>
       <c t="s" r="C48" s="8">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="D48" s="8"/>
       <c r="E48" s="8"/>
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>33</v>
+        <v>46</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
@@ -2762,11 +2777,11 @@
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
-        <v>142</v>
+        <v>78</v>
       </c>
       <c t="s" r="Q48" s="12">
         <v>16</v>
@@ -2778,14 +2793,14 @@
       </c>
       <c r="B49" s="7"/>
       <c t="s" r="C49" s="8">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="D49" s="8"/>
       <c r="E49" s="8"/>
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>18</v>
+        <v>33</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
@@ -2795,11 +2810,11 @@
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c t="s" r="Q49" s="12">
         <v>16</v>
@@ -2811,28 +2826,28 @@
       </c>
       <c r="B50" s="7"/>
       <c t="s" r="C50" s="8">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="D50" s="8"/>
       <c r="E50" s="8"/>
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>147</v>
+        <v>18</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
       <c r="K50" s="9"/>
       <c t="s" r="L50" s="10">
-        <v>148</v>
+        <v>13</v>
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>128</v>
+        <v>145</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
-        <v>37</v>
+        <v>146</v>
       </c>
       <c t="s" r="Q50" s="12">
         <v>16</v>
@@ -2844,31 +2859,31 @@
       </c>
       <c r="B51" s="7"/>
       <c t="s" r="C51" s="8">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="D51" s="8"/>
       <c r="E51" s="8"/>
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>35</v>
+        <v>148</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
       <c r="K51" s="9"/>
       <c t="s" r="L51" s="10">
-        <v>13</v>
+        <v>149</v>
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>89</v>
+        <v>129</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
-        <v>150</v>
+        <v>37</v>
       </c>
       <c t="s" r="Q51" s="12">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="52" ht="25.5" customHeight="1">
@@ -2877,14 +2892,14 @@
       </c>
       <c r="B52" s="7"/>
       <c t="s" r="C52" s="8">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="D52" s="8"/>
       <c r="E52" s="8"/>
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>16</v>
+        <v>35</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
@@ -2894,11 +2909,11 @@
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>141</v>
+        <v>89</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c t="s" r="Q52" s="12">
         <v>18</v>
@@ -2910,7 +2925,7 @@
       </c>
       <c r="B53" s="7"/>
       <c t="s" r="C53" s="8">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="D53" s="8"/>
       <c r="E53" s="8"/>
@@ -2927,14 +2942,14 @@
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
-        <v>154</v>
+        <v>142</v>
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
-        <v>41</v>
+        <v>153</v>
       </c>
       <c t="s" r="Q53" s="12">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="54" ht="25.5" customHeight="1">
@@ -2943,14 +2958,14 @@
       </c>
       <c r="B54" s="7"/>
       <c t="s" r="C54" s="8">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="D54" s="8"/>
       <c r="E54" s="8"/>
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>35</v>
+        <v>16</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
@@ -2960,14 +2975,14 @@
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
-        <v>157</v>
+        <v>41</v>
       </c>
       <c t="s" r="Q54" s="12">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="55" ht="24.75" customHeight="1">
@@ -2976,14 +2991,14 @@
       </c>
       <c r="B55" s="7"/>
       <c t="s" r="C55" s="8">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="D55" s="8"/>
       <c r="E55" s="8"/>
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>18</v>
+        <v>35</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
@@ -2993,14 +3008,14 @@
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c t="s" r="Q55" s="12">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="56" ht="25.5" customHeight="1">
@@ -3009,14 +3024,14 @@
       </c>
       <c r="B56" s="7"/>
       <c t="s" r="C56" s="8">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="D56" s="8"/>
       <c r="E56" s="8"/>
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
@@ -3026,11 +3041,11 @@
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
-        <v>98</v>
+        <v>160</v>
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c t="s" r="Q56" s="12">
         <v>16</v>
@@ -3042,14 +3057,14 @@
       </c>
       <c r="B57" s="7"/>
       <c t="s" r="C57" s="8">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="D57" s="8"/>
       <c r="E57" s="8"/>
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
@@ -3059,14 +3074,14 @@
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c t="s" r="Q57" s="12">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="58" ht="24.75" customHeight="1">
@@ -3075,14 +3090,14 @@
       </c>
       <c r="B58" s="7"/>
       <c t="s" r="C58" s="8">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="D58" s="8"/>
       <c r="E58" s="8"/>
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c t="s" r="H58" s="9">
-        <v>166</v>
+        <v>22</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
@@ -3092,11 +3107,11 @@
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
-        <v>167</v>
+        <v>101</v>
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c t="s" r="Q58" s="12">
         <v>18</v>
@@ -3108,14 +3123,14 @@
       </c>
       <c r="B59" s="7"/>
       <c t="s" r="C59" s="8">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="D59" s="8"/>
       <c r="E59" s="8"/>
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c t="s" r="H59" s="9">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
@@ -3125,14 +3140,14 @@
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
-        <v>139</v>
+        <v>168</v>
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
-        <v>78</v>
+        <v>169</v>
       </c>
       <c t="s" r="Q59" s="12">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="60" ht="24.75" customHeight="1">
@@ -3141,14 +3156,14 @@
       </c>
       <c r="B60" s="7"/>
       <c t="s" r="C60" s="8">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="D60" s="8"/>
       <c r="E60" s="8"/>
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c t="s" r="H60" s="9">
-        <v>30</v>
+        <v>171</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
@@ -3158,14 +3173,14 @@
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
-        <v>92</v>
+        <v>140</v>
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
-        <v>172</v>
+        <v>78</v>
       </c>
       <c t="s" r="Q60" s="12">
-        <v>33</v>
+        <v>16</v>
       </c>
     </row>
     <row r="61" ht="25.5" customHeight="1">
@@ -3174,14 +3189,14 @@
       </c>
       <c r="B61" s="7"/>
       <c t="s" r="C61" s="8">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="D61" s="8"/>
       <c r="E61" s="8"/>
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
       <c t="s" r="H61" s="9">
-        <v>63</v>
+        <v>30</v>
       </c>
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
@@ -3191,14 +3206,14 @@
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
-        <v>27</v>
+        <v>92</v>
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c t="s" r="Q61" s="12">
-        <v>46</v>
+        <v>33</v>
       </c>
     </row>
     <row r="62" ht="25.5" customHeight="1">
@@ -3207,14 +3222,14 @@
       </c>
       <c r="B62" s="7"/>
       <c t="s" r="C62" s="8">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="D62" s="8"/>
       <c r="E62" s="8"/>
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
       <c t="s" r="H62" s="9">
-        <v>30</v>
+        <v>63</v>
       </c>
       <c r="I62" s="9"/>
       <c r="J62" s="9"/>
@@ -3224,14 +3239,14 @@
       </c>
       <c r="M62" s="10"/>
       <c t="s" r="N62" s="8">
-        <v>87</v>
+        <v>27</v>
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
-        <v>58</v>
+        <v>175</v>
       </c>
       <c t="s" r="Q62" s="12">
-        <v>18</v>
+        <v>46</v>
       </c>
     </row>
     <row r="63" ht="24.75" customHeight="1">
@@ -3247,7 +3262,7 @@
       <c r="F63" s="8"/>
       <c r="G63" s="8"/>
       <c t="s" r="H63" s="9">
-        <v>46</v>
+        <v>30</v>
       </c>
       <c r="I63" s="9"/>
       <c r="J63" s="9"/>
@@ -3257,14 +3272,14 @@
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
-        <v>36</v>
+        <v>87</v>
       </c>
       <c r="O63" s="8"/>
       <c t="s" r="P63" s="11">
-        <v>37</v>
+        <v>58</v>
       </c>
       <c t="s" r="Q63" s="12">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="64" ht="25.5" customHeight="1">
@@ -3280,7 +3295,7 @@
       <c r="F64" s="8"/>
       <c r="G64" s="8"/>
       <c t="s" r="H64" s="9">
-        <v>147</v>
+        <v>46</v>
       </c>
       <c r="I64" s="9"/>
       <c r="J64" s="9"/>
@@ -3290,11 +3305,11 @@
       </c>
       <c r="M64" s="10"/>
       <c t="s" r="N64" s="8">
-        <v>178</v>
+        <v>36</v>
       </c>
       <c r="O64" s="8"/>
       <c t="s" r="P64" s="11">
-        <v>145</v>
+        <v>37</v>
       </c>
       <c t="s" r="Q64" s="12">
         <v>16</v>
@@ -3306,14 +3321,14 @@
       </c>
       <c r="B65" s="7"/>
       <c t="s" r="C65" s="8">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="D65" s="8"/>
       <c r="E65" s="8"/>
       <c r="F65" s="8"/>
       <c r="G65" s="8"/>
       <c t="s" r="H65" s="9">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="I65" s="9"/>
       <c r="J65" s="9"/>
@@ -3323,14 +3338,14 @@
       </c>
       <c r="M65" s="10"/>
       <c t="s" r="N65" s="8">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="O65" s="8"/>
       <c t="s" r="P65" s="11">
-        <v>181</v>
+        <v>146</v>
       </c>
       <c t="s" r="Q65" s="12">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="66" ht="25.5" customHeight="1">
@@ -3339,14 +3354,14 @@
       </c>
       <c r="B66" s="7"/>
       <c t="s" r="C66" s="8">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="D66" s="8"/>
       <c r="E66" s="8"/>
       <c r="F66" s="8"/>
       <c r="G66" s="8"/>
       <c t="s" r="H66" s="9">
-        <v>39</v>
+        <v>148</v>
       </c>
       <c r="I66" s="9"/>
       <c r="J66" s="9"/>
@@ -3356,11 +3371,11 @@
       </c>
       <c r="M66" s="10"/>
       <c t="s" r="N66" s="8">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="O66" s="8"/>
       <c t="s" r="P66" s="11">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c t="s" r="Q66" s="12">
         <v>18</v>
@@ -3372,14 +3387,14 @@
       </c>
       <c r="B67" s="7"/>
       <c t="s" r="C67" s="8">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="D67" s="8"/>
       <c r="E67" s="8"/>
       <c r="F67" s="8"/>
       <c r="G67" s="8"/>
       <c t="s" r="H67" s="9">
-        <v>46</v>
+        <v>39</v>
       </c>
       <c r="I67" s="9"/>
       <c r="J67" s="9"/>
@@ -3389,14 +3404,14 @@
       </c>
       <c r="M67" s="10"/>
       <c t="s" r="N67" s="8">
-        <v>178</v>
+        <v>184</v>
       </c>
       <c r="O67" s="8"/>
       <c t="s" r="P67" s="11">
-        <v>145</v>
+        <v>185</v>
       </c>
       <c t="s" r="Q67" s="12">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="68" ht="24.75" customHeight="1">
@@ -3422,11 +3437,11 @@
       </c>
       <c r="M68" s="10"/>
       <c t="s" r="N68" s="8">
-        <v>187</v>
+        <v>179</v>
       </c>
       <c r="O68" s="8"/>
       <c t="s" r="P68" s="11">
-        <v>188</v>
+        <v>146</v>
       </c>
       <c t="s" r="Q68" s="12">
         <v>16</v>
@@ -3438,14 +3453,14 @@
       </c>
       <c r="B69" s="7"/>
       <c t="s" r="C69" s="8">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="D69" s="8"/>
       <c r="E69" s="8"/>
       <c r="F69" s="8"/>
       <c r="G69" s="8"/>
       <c t="s" r="H69" s="9">
-        <v>22</v>
+        <v>46</v>
       </c>
       <c r="I69" s="9"/>
       <c r="J69" s="9"/>
@@ -3455,14 +3470,14 @@
       </c>
       <c r="M69" s="10"/>
       <c t="s" r="N69" s="8">
-        <v>114</v>
+        <v>188</v>
       </c>
       <c r="O69" s="8"/>
       <c t="s" r="P69" s="11">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c t="s" r="Q69" s="12">
-        <v>22</v>
+        <v>16</v>
       </c>
     </row>
     <row r="70" ht="24.75" customHeight="1">
@@ -3471,14 +3486,14 @@
       </c>
       <c r="B70" s="7"/>
       <c t="s" r="C70" s="8">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="D70" s="8"/>
       <c r="E70" s="8"/>
       <c r="F70" s="8"/>
       <c r="G70" s="8"/>
       <c t="s" r="H70" s="9">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="I70" s="9"/>
       <c r="J70" s="9"/>
@@ -3488,14 +3503,14 @@
       </c>
       <c r="M70" s="10"/>
       <c t="s" r="N70" s="8">
-        <v>192</v>
+        <v>114</v>
       </c>
       <c r="O70" s="8"/>
       <c t="s" r="P70" s="11">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c t="s" r="Q70" s="12">
-        <v>46</v>
+        <v>22</v>
       </c>
     </row>
     <row r="71" ht="25.5" customHeight="1">
@@ -3504,14 +3519,14 @@
       </c>
       <c r="B71" s="7"/>
       <c t="s" r="C71" s="8">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="D71" s="8"/>
       <c r="E71" s="8"/>
       <c r="F71" s="8"/>
       <c r="G71" s="8"/>
       <c t="s" r="H71" s="9">
-        <v>39</v>
+        <v>18</v>
       </c>
       <c r="I71" s="9"/>
       <c r="J71" s="9"/>
@@ -3521,14 +3536,14 @@
       </c>
       <c r="M71" s="10"/>
       <c t="s" r="N71" s="8">
-        <v>114</v>
+        <v>193</v>
       </c>
       <c r="O71" s="8"/>
       <c t="s" r="P71" s="11">
-        <v>115</v>
+        <v>194</v>
       </c>
       <c t="s" r="Q71" s="12">
-        <v>18</v>
+        <v>46</v>
       </c>
     </row>
     <row r="72" ht="25.5" customHeight="1">
@@ -3554,14 +3569,14 @@
       </c>
       <c r="M72" s="10"/>
       <c t="s" r="N72" s="8">
-        <v>77</v>
+        <v>114</v>
       </c>
       <c r="O72" s="8"/>
       <c t="s" r="P72" s="11">
-        <v>132</v>
+        <v>115</v>
       </c>
       <c t="s" r="Q72" s="12">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="73" ht="24.75" customHeight="1">
@@ -3577,7 +3592,7 @@
       <c r="F73" s="8"/>
       <c r="G73" s="8"/>
       <c t="s" r="H73" s="9">
-        <v>86</v>
+        <v>39</v>
       </c>
       <c r="I73" s="9"/>
       <c r="J73" s="9"/>
@@ -3587,14 +3602,14 @@
       </c>
       <c r="M73" s="10"/>
       <c t="s" r="N73" s="8">
-        <v>197</v>
+        <v>77</v>
       </c>
       <c r="O73" s="8"/>
       <c t="s" r="P73" s="11">
-        <v>198</v>
+        <v>133</v>
       </c>
       <c t="s" r="Q73" s="12">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="74" ht="25.5" customHeight="1">
@@ -3603,14 +3618,14 @@
       </c>
       <c r="B74" s="7"/>
       <c t="s" r="C74" s="8">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="D74" s="8"/>
       <c r="E74" s="8"/>
       <c r="F74" s="8"/>
       <c r="G74" s="8"/>
       <c t="s" r="H74" s="9">
-        <v>39</v>
+        <v>86</v>
       </c>
       <c r="I74" s="9"/>
       <c r="J74" s="9"/>
@@ -3620,11 +3635,11 @@
       </c>
       <c r="M74" s="10"/>
       <c t="s" r="N74" s="8">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="O74" s="8"/>
       <c t="s" r="P74" s="11">
-        <v>145</v>
+        <v>199</v>
       </c>
       <c t="s" r="Q74" s="12">
         <v>18</v>
@@ -3636,14 +3651,14 @@
       </c>
       <c r="B75" s="7"/>
       <c t="s" r="C75" s="8">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="D75" s="8"/>
       <c r="E75" s="8"/>
       <c r="F75" s="8"/>
       <c r="G75" s="8"/>
       <c t="s" r="H75" s="9">
-        <v>104</v>
+        <v>39</v>
       </c>
       <c r="I75" s="9"/>
       <c r="J75" s="9"/>
@@ -3653,14 +3668,14 @@
       </c>
       <c r="M75" s="10"/>
       <c t="s" r="N75" s="8">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="O75" s="8"/>
       <c t="s" r="P75" s="11">
-        <v>203</v>
+        <v>146</v>
       </c>
       <c t="s" r="Q75" s="12">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="76" ht="25.5" customHeight="1">
@@ -3669,14 +3684,14 @@
       </c>
       <c r="B76" s="7"/>
       <c t="s" r="C76" s="8">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="D76" s="8"/>
       <c r="E76" s="8"/>
       <c r="F76" s="8"/>
       <c r="G76" s="8"/>
       <c t="s" r="H76" s="9">
-        <v>18</v>
+        <v>104</v>
       </c>
       <c r="I76" s="9"/>
       <c r="J76" s="9"/>
@@ -3686,11 +3701,11 @@
       </c>
       <c r="M76" s="10"/>
       <c t="s" r="N76" s="8">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="O76" s="8"/>
       <c t="s" r="P76" s="11">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c t="s" r="Q76" s="12">
         <v>16</v>
@@ -3702,14 +3717,14 @@
       </c>
       <c r="B77" s="7"/>
       <c t="s" r="C77" s="8">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="D77" s="8"/>
       <c r="E77" s="8"/>
       <c r="F77" s="8"/>
       <c r="G77" s="8"/>
       <c t="s" r="H77" s="9">
-        <v>39</v>
+        <v>18</v>
       </c>
       <c r="I77" s="9"/>
       <c r="J77" s="9"/>
@@ -3719,14 +3734,14 @@
       </c>
       <c r="M77" s="10"/>
       <c t="s" r="N77" s="8">
-        <v>207</v>
+        <v>203</v>
       </c>
       <c r="O77" s="8"/>
       <c t="s" r="P77" s="11">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c t="s" r="Q77" s="12">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="78" ht="24.75" customHeight="1">
@@ -3735,14 +3750,14 @@
       </c>
       <c r="B78" s="7"/>
       <c t="s" r="C78" s="8">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="D78" s="8"/>
       <c r="E78" s="8"/>
       <c r="F78" s="8"/>
       <c r="G78" s="8"/>
       <c t="s" r="H78" s="9">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="I78" s="9"/>
       <c r="J78" s="9"/>
@@ -3752,14 +3767,14 @@
       </c>
       <c r="M78" s="10"/>
       <c t="s" r="N78" s="8">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="O78" s="8"/>
       <c t="s" r="P78" s="11">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c t="s" r="Q78" s="12">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="79" ht="25.5" customHeight="1">
@@ -3768,31 +3783,31 @@
       </c>
       <c r="B79" s="7"/>
       <c t="s" r="C79" s="8">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="D79" s="8"/>
       <c r="E79" s="8"/>
       <c r="F79" s="8"/>
       <c r="G79" s="8"/>
       <c t="s" r="H79" s="9">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="I79" s="9"/>
       <c r="J79" s="9"/>
       <c r="K79" s="9"/>
       <c t="s" r="L79" s="10">
-        <v>148</v>
+        <v>13</v>
       </c>
       <c r="M79" s="10"/>
       <c t="s" r="N79" s="8">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="O79" s="8"/>
       <c t="s" r="P79" s="11">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c t="s" r="Q79" s="12">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="80" ht="24.75" customHeight="1">
@@ -3801,31 +3816,31 @@
       </c>
       <c r="B80" s="7"/>
       <c t="s" r="C80" s="8">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="D80" s="8"/>
       <c r="E80" s="8"/>
       <c r="F80" s="8"/>
       <c r="G80" s="8"/>
       <c t="s" r="H80" s="9">
-        <v>39</v>
+        <v>214</v>
       </c>
       <c r="I80" s="9"/>
       <c r="J80" s="9"/>
       <c r="K80" s="9"/>
       <c t="s" r="L80" s="10">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="M80" s="10"/>
       <c t="s" r="N80" s="8">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="O80" s="8"/>
       <c t="s" r="P80" s="11">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c t="s" r="Q80" s="12">
-        <v>22</v>
+        <v>35</v>
       </c>
     </row>
     <row r="81" ht="25.5" customHeight="1">
@@ -3834,28 +3849,28 @@
       </c>
       <c r="B81" s="7"/>
       <c t="s" r="C81" s="8">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="D81" s="8"/>
       <c r="E81" s="8"/>
       <c r="F81" s="8"/>
       <c r="G81" s="8"/>
       <c t="s" r="H81" s="9">
-        <v>18</v>
+        <v>35</v>
       </c>
       <c r="I81" s="9"/>
       <c r="J81" s="9"/>
       <c r="K81" s="9"/>
       <c t="s" r="L81" s="10">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="M81" s="10"/>
       <c t="s" r="N81" s="8">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="O81" s="8"/>
       <c t="s" r="P81" s="11">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c t="s" r="Q81" s="12">
         <v>18</v>
@@ -3867,31 +3882,31 @@
       </c>
       <c r="B82" s="7"/>
       <c t="s" r="C82" s="8">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="D82" s="8"/>
       <c r="E82" s="8"/>
       <c r="F82" s="8"/>
       <c r="G82" s="8"/>
       <c t="s" r="H82" s="9">
-        <v>50</v>
+        <v>39</v>
       </c>
       <c r="I82" s="9"/>
       <c r="J82" s="9"/>
       <c r="K82" s="9"/>
       <c t="s" r="L82" s="10">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="M82" s="10"/>
       <c t="s" r="N82" s="8">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="O82" s="8"/>
       <c t="s" r="P82" s="11">
-        <v>37</v>
+        <v>222</v>
       </c>
       <c t="s" r="Q82" s="12">
-        <v>18</v>
+        <v>22</v>
       </c>
     </row>
     <row r="83" ht="24.75" customHeight="1">
@@ -3907,13 +3922,13 @@
       <c r="F83" s="8"/>
       <c r="G83" s="8"/>
       <c t="s" r="H83" s="9">
-        <v>39</v>
+        <v>18</v>
       </c>
       <c r="I83" s="9"/>
       <c r="J83" s="9"/>
       <c r="K83" s="9"/>
       <c t="s" r="L83" s="10">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="M83" s="10"/>
       <c t="s" r="N83" s="8">
@@ -3924,7 +3939,7 @@
         <v>225</v>
       </c>
       <c t="s" r="Q83" s="12">
-        <v>35</v>
+        <v>18</v>
       </c>
     </row>
     <row r="84" ht="25.5" customHeight="1">
@@ -3940,24 +3955,24 @@
       <c r="F84" s="8"/>
       <c r="G84" s="8"/>
       <c t="s" r="H84" s="9">
-        <v>39</v>
+        <v>227</v>
       </c>
       <c r="I84" s="9"/>
       <c r="J84" s="9"/>
       <c r="K84" s="9"/>
       <c t="s" r="L84" s="10">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="M84" s="10"/>
       <c t="s" r="N84" s="8">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="O84" s="8"/>
       <c t="s" r="P84" s="11">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c t="s" r="Q84" s="12">
-        <v>76</v>
+        <v>22</v>
       </c>
     </row>
     <row r="85" ht="24.75" customHeight="1">
@@ -3966,7 +3981,7 @@
       </c>
       <c r="B85" s="7"/>
       <c t="s" r="C85" s="8">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="D85" s="8"/>
       <c r="E85" s="8"/>
@@ -3979,18 +3994,18 @@
       <c r="J85" s="9"/>
       <c r="K85" s="9"/>
       <c t="s" r="L85" s="10">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="M85" s="10"/>
       <c t="s" r="N85" s="8">
-        <v>216</v>
+        <v>231</v>
       </c>
       <c r="O85" s="8"/>
       <c t="s" r="P85" s="11">
-        <v>217</v>
+        <v>232</v>
       </c>
       <c t="s" r="Q85" s="12">
-        <v>22</v>
+        <v>35</v>
       </c>
     </row>
     <row r="86" ht="25.5" customHeight="1">
@@ -3999,7 +4014,7 @@
       </c>
       <c r="B86" s="7"/>
       <c t="s" r="C86" s="8">
-        <v>230</v>
+        <v>233</v>
       </c>
       <c r="D86" s="8"/>
       <c r="E86" s="8"/>
@@ -4012,18 +4027,18 @@
       <c r="J86" s="9"/>
       <c r="K86" s="9"/>
       <c t="s" r="L86" s="10">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="M86" s="10"/>
       <c t="s" r="N86" s="8">
-        <v>231</v>
+        <v>234</v>
       </c>
       <c r="O86" s="8"/>
       <c t="s" r="P86" s="11">
-        <v>232</v>
+        <v>235</v>
       </c>
       <c t="s" r="Q86" s="12">
-        <v>18</v>
+        <v>76</v>
       </c>
     </row>
     <row r="87" ht="25.5" customHeight="1">
@@ -4032,31 +4047,31 @@
       </c>
       <c r="B87" s="7"/>
       <c t="s" r="C87" s="8">
-        <v>233</v>
+        <v>236</v>
       </c>
       <c r="D87" s="8"/>
       <c r="E87" s="8"/>
       <c r="F87" s="8"/>
       <c r="G87" s="8"/>
       <c t="s" r="H87" s="9">
-        <v>234</v>
+        <v>39</v>
       </c>
       <c r="I87" s="9"/>
       <c r="J87" s="9"/>
       <c r="K87" s="9"/>
       <c t="s" r="L87" s="10">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="M87" s="10"/>
       <c t="s" r="N87" s="8">
-        <v>235</v>
+        <v>221</v>
       </c>
       <c r="O87" s="8"/>
       <c t="s" r="P87" s="11">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c t="s" r="Q87" s="12">
-        <v>18</v>
+        <v>22</v>
       </c>
     </row>
     <row r="88" ht="24.75" customHeight="1">
@@ -4065,24 +4080,24 @@
       </c>
       <c r="B88" s="7"/>
       <c t="s" r="C88" s="8">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="D88" s="8"/>
       <c r="E88" s="8"/>
       <c r="F88" s="8"/>
       <c r="G88" s="8"/>
       <c t="s" r="H88" s="9">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="I88" s="9"/>
       <c r="J88" s="9"/>
       <c r="K88" s="9"/>
       <c t="s" r="L88" s="10">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="M88" s="10"/>
       <c t="s" r="N88" s="8">
-        <v>237</v>
+        <v>215</v>
       </c>
       <c r="O88" s="8"/>
       <c t="s" r="P88" s="11">
@@ -4111,18 +4126,18 @@
       <c r="J89" s="9"/>
       <c r="K89" s="9"/>
       <c t="s" r="L89" s="10">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="M89" s="10"/>
       <c t="s" r="N89" s="8">
-        <v>219</v>
+        <v>241</v>
       </c>
       <c r="O89" s="8"/>
       <c t="s" r="P89" s="11">
-        <v>241</v>
+        <v>232</v>
       </c>
       <c t="s" r="Q89" s="12">
-        <v>76</v>
+        <v>18</v>
       </c>
     </row>
     <row r="90" ht="24.75" customHeight="1">
@@ -4138,24 +4153,24 @@
       <c r="F90" s="8"/>
       <c r="G90" s="8"/>
       <c t="s" r="H90" s="9">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="I90" s="9"/>
       <c r="J90" s="9"/>
       <c r="K90" s="9"/>
       <c t="s" r="L90" s="10">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="M90" s="10"/>
       <c t="s" r="N90" s="8">
-        <v>213</v>
+        <v>243</v>
       </c>
       <c r="O90" s="8"/>
       <c t="s" r="P90" s="11">
-        <v>232</v>
+        <v>244</v>
       </c>
       <c t="s" r="Q90" s="12">
-        <v>22</v>
+        <v>18</v>
       </c>
     </row>
     <row r="91" ht="25.5" customHeight="1">
@@ -4164,31 +4179,31 @@
       </c>
       <c r="B91" s="7"/>
       <c t="s" r="C91" s="8">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="D91" s="8"/>
       <c r="E91" s="8"/>
       <c r="F91" s="8"/>
       <c r="G91" s="8"/>
       <c t="s" r="H91" s="9">
-        <v>18</v>
+        <v>246</v>
       </c>
       <c r="I91" s="9"/>
       <c r="J91" s="9"/>
       <c r="K91" s="9"/>
       <c t="s" r="L91" s="10">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="M91" s="10"/>
       <c t="s" r="N91" s="8">
-        <v>244</v>
+        <v>224</v>
       </c>
       <c r="O91" s="8"/>
       <c t="s" r="P91" s="11">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c t="s" r="Q91" s="12">
-        <v>18</v>
+        <v>76</v>
       </c>
     </row>
     <row r="92" ht="25.5" customHeight="1">
@@ -4197,31 +4212,31 @@
       </c>
       <c r="B92" s="7"/>
       <c t="s" r="C92" s="8">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="D92" s="8"/>
       <c r="E92" s="8"/>
       <c r="F92" s="8"/>
       <c r="G92" s="8"/>
       <c t="s" r="H92" s="9">
-        <v>247</v>
+        <v>39</v>
       </c>
       <c r="I92" s="9"/>
       <c r="J92" s="9"/>
       <c r="K92" s="9"/>
       <c t="s" r="L92" s="10">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="M92" s="10"/>
       <c t="s" r="N92" s="8">
-        <v>156</v>
+        <v>218</v>
       </c>
       <c r="O92" s="8"/>
       <c t="s" r="P92" s="11">
-        <v>157</v>
+        <v>238</v>
       </c>
       <c t="s" r="Q92" s="12">
-        <v>18</v>
+        <v>22</v>
       </c>
     </row>
     <row r="93" ht="24.75" customHeight="1">
@@ -4230,66 +4245,132 @@
       </c>
       <c r="B93" s="7"/>
       <c t="s" r="C93" s="8">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="D93" s="8"/>
       <c r="E93" s="8"/>
       <c r="F93" s="8"/>
       <c r="G93" s="8"/>
       <c t="s" r="H93" s="9">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="I93" s="9"/>
       <c r="J93" s="9"/>
       <c r="K93" s="9"/>
       <c t="s" r="L93" s="10">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="M93" s="10"/>
       <c t="s" r="N93" s="8">
-        <v>213</v>
+        <v>250</v>
       </c>
       <c r="O93" s="8"/>
       <c t="s" r="P93" s="11">
-        <v>214</v>
+        <v>251</v>
       </c>
       <c t="s" r="Q93" s="12">
         <v>18</v>
       </c>
     </row>
     <row r="94" ht="25.5" customHeight="1">
-      <c r="P94" s="13">
-        <v>5362.2849999999999</v>
-      </c>
-      <c r="Q94" s="13"/>
-    </row>
-    <row r="95" ht="16.5" customHeight="1">
-      <c t="s" r="A95" s="14">
-        <v>249</v>
-      </c>
-      <c r="B95" s="14"/>
-      <c r="C95" s="14"/>
-      <c r="D95" s="14"/>
-      <c r="E95" s="14"/>
-      <c r="F95" s="14"/>
-      <c t="s" r="G95" s="15">
-        <v>250</v>
-      </c>
-      <c r="H95" s="15"/>
-      <c r="I95" s="15"/>
-      <c r="J95" s="16"/>
-      <c t="s" r="K95" s="17">
-        <v>251</v>
-      </c>
-      <c r="L95" s="17"/>
-      <c r="M95" s="17"/>
-      <c r="N95" s="17"/>
-      <c r="O95" s="17"/>
-      <c r="P95" s="17"/>
-      <c r="Q95" s="17"/>
+      <c r="A94" s="7">
+        <v>88</v>
+      </c>
+      <c r="B94" s="7"/>
+      <c t="s" r="C94" s="8">
+        <v>252</v>
+      </c>
+      <c r="D94" s="8"/>
+      <c r="E94" s="8"/>
+      <c r="F94" s="8"/>
+      <c r="G94" s="8"/>
+      <c t="s" r="H94" s="9">
+        <v>227</v>
+      </c>
+      <c r="I94" s="9"/>
+      <c r="J94" s="9"/>
+      <c r="K94" s="9"/>
+      <c t="s" r="L94" s="10">
+        <v>149</v>
+      </c>
+      <c r="M94" s="10"/>
+      <c t="s" r="N94" s="8">
+        <v>157</v>
+      </c>
+      <c r="O94" s="8"/>
+      <c t="s" r="P94" s="11">
+        <v>158</v>
+      </c>
+      <c t="s" r="Q94" s="12">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="95" ht="24.75" customHeight="1">
+      <c r="A95" s="7">
+        <v>89</v>
+      </c>
+      <c r="B95" s="7"/>
+      <c t="s" r="C95" s="8">
+        <v>253</v>
+      </c>
+      <c r="D95" s="8"/>
+      <c r="E95" s="8"/>
+      <c r="F95" s="8"/>
+      <c r="G95" s="8"/>
+      <c t="s" r="H95" s="9">
+        <v>22</v>
+      </c>
+      <c r="I95" s="9"/>
+      <c r="J95" s="9"/>
+      <c r="K95" s="9"/>
+      <c t="s" r="L95" s="10">
+        <v>149</v>
+      </c>
+      <c r="M95" s="10"/>
+      <c t="s" r="N95" s="8">
+        <v>218</v>
+      </c>
+      <c r="O95" s="8"/>
+      <c t="s" r="P95" s="11">
+        <v>219</v>
+      </c>
+      <c t="s" r="Q95" s="12">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="96" ht="25.5" customHeight="1">
+      <c r="P96" s="13">
+        <v>5501.2849999999999</v>
+      </c>
+      <c r="Q96" s="13"/>
+    </row>
+    <row r="97" ht="16.5" customHeight="1">
+      <c t="s" r="A97" s="14">
+        <v>254</v>
+      </c>
+      <c r="B97" s="14"/>
+      <c r="C97" s="14"/>
+      <c r="D97" s="14"/>
+      <c r="E97" s="14"/>
+      <c r="F97" s="14"/>
+      <c t="s" r="G97" s="15">
+        <v>255</v>
+      </c>
+      <c r="H97" s="15"/>
+      <c r="I97" s="15"/>
+      <c r="J97" s="16"/>
+      <c t="s" r="K97" s="17">
+        <v>256</v>
+      </c>
+      <c r="L97" s="17"/>
+      <c r="M97" s="17"/>
+      <c r="N97" s="17"/>
+      <c r="O97" s="17"/>
+      <c r="P97" s="17"/>
+      <c r="Q97" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="447">
+  <mergeCells count="457">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -4733,10 +4814,20 @@
     <mergeCell ref="H93:K93"/>
     <mergeCell ref="L93:M93"/>
     <mergeCell ref="N93:O93"/>
-    <mergeCell ref="P94:Q94"/>
-    <mergeCell ref="A95:F95"/>
-    <mergeCell ref="G95:I95"/>
-    <mergeCell ref="K95:Q95"/>
+    <mergeCell ref="A94:B94"/>
+    <mergeCell ref="C94:G94"/>
+    <mergeCell ref="H94:K94"/>
+    <mergeCell ref="L94:M94"/>
+    <mergeCell ref="N94:O94"/>
+    <mergeCell ref="A95:B95"/>
+    <mergeCell ref="C95:G95"/>
+    <mergeCell ref="H95:K95"/>
+    <mergeCell ref="L95:M95"/>
+    <mergeCell ref="N95:O95"/>
+    <mergeCell ref="P96:Q96"/>
+    <mergeCell ref="A97:F97"/>
+    <mergeCell ref="G97:I97"/>
+    <mergeCell ref="K97:Q97"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-08-08_00-00.xlsx
+++ b/DaySale_2025-08-08_00-00.xlsx
@@ -113,6 +113,18 @@
     <t>0:2</t>
   </si>
   <si>
+    <t>AUGRAM 1GM 14 TABS</t>
+  </si>
+  <si>
+    <t>1:1</t>
+  </si>
+  <si>
+    <t>152.00</t>
+  </si>
+  <si>
+    <t>76.0000</t>
+  </si>
+  <si>
     <t>BI-PROFENID 150MG 20 SCORED TABS.</t>
   </si>
   <si>
@@ -149,9 +161,6 @@
     <t>CARNIVITA FORTE 30 F.C. TAB</t>
   </si>
   <si>
-    <t>1:1</t>
-  </si>
-  <si>
     <t>177.00</t>
   </si>
   <si>
@@ -455,99 +464,102 @@
     <t>PANADOL EXTRA 48 TAB</t>
   </si>
   <si>
+    <t>0</t>
+  </si>
+  <si>
+    <t>54.0000</t>
+  </si>
+  <si>
+    <t>PANTAZOL 40MG VIAL I.V.</t>
+  </si>
+  <si>
+    <t>62.0000</t>
+  </si>
+  <si>
+    <t>PANTOLOC 40MG 14 TAB</t>
+  </si>
+  <si>
+    <t>102.0000</t>
+  </si>
+  <si>
+    <t>PANTOPI 40MG 14 TAB</t>
+  </si>
+  <si>
+    <t>96.00</t>
+  </si>
+  <si>
+    <t>PICOLAX 0.75% ORAL DROPS 15 ML</t>
+  </si>
+  <si>
+    <t>24.00</t>
+  </si>
+  <si>
+    <t>24.0000</t>
+  </si>
+  <si>
+    <t>PROSTRIDE 5MG 30 CAPS.</t>
+  </si>
+  <si>
+    <t>183.00</t>
+  </si>
+  <si>
+    <t>60.3900</t>
+  </si>
+  <si>
+    <t>PROXIMOL 0.4MG 40 TAB</t>
+  </si>
+  <si>
+    <t>17.0000</t>
+  </si>
+  <si>
+    <t>PROXIMOL COMPOUND EFF. GRANULES 60 GM</t>
+  </si>
+  <si>
+    <t>52.0000</t>
+  </si>
+  <si>
+    <t>PURGATON 20MG 30 TAB.</t>
+  </si>
+  <si>
+    <t>5:2</t>
+  </si>
+  <si>
+    <t>45.00</t>
+  </si>
+  <si>
+    <t>45.0000</t>
+  </si>
+  <si>
+    <t>ROWATINEX 45 CAPSULES</t>
+  </si>
+  <si>
+    <t>3:1</t>
+  </si>
+  <si>
+    <t>SILDEN 50 MG 4 F.C. TABS.</t>
+  </si>
+  <si>
+    <t>11.0000</t>
+  </si>
+  <si>
+    <t>SPASMO-DIGESTIN 30 TABS.</t>
+  </si>
+  <si>
+    <t>102.9600</t>
+  </si>
+  <si>
+    <t>SPASMOFEN 3 AMP. FOR I.M. INJ.</t>
+  </si>
+  <si>
+    <t>SPASMOFREE 50MG 20 F.C. TABS.</t>
+  </si>
+  <si>
+    <t>STREPTOQUIN 20 TABLETS</t>
+  </si>
+  <si>
     <t>2:1</t>
   </si>
   <si>
-    <t>0</t>
-  </si>
-  <si>
-    <t>PANTAZOL 40MG VIAL I.V.</t>
-  </si>
-  <si>
-    <t>62.0000</t>
-  </si>
-  <si>
-    <t>PANTOLOC 40MG 14 TAB</t>
-  </si>
-  <si>
-    <t>102.0000</t>
-  </si>
-  <si>
-    <t>PANTOPI 40MG 14 TAB</t>
-  </si>
-  <si>
-    <t>96.00</t>
-  </si>
-  <si>
-    <t>PICOLAX 0.75% ORAL DROPS 15 ML</t>
-  </si>
-  <si>
-    <t>24.00</t>
-  </si>
-  <si>
-    <t>24.0000</t>
-  </si>
-  <si>
-    <t>PROSTRIDE 5MG 30 CAPS.</t>
-  </si>
-  <si>
-    <t>183.00</t>
-  </si>
-  <si>
-    <t>60.3900</t>
-  </si>
-  <si>
-    <t>PROXIMOL 0.4MG 40 TAB</t>
-  </si>
-  <si>
-    <t>17.0000</t>
-  </si>
-  <si>
-    <t>PROXIMOL COMPOUND EFF. GRANULES 60 GM</t>
-  </si>
-  <si>
-    <t>52.0000</t>
-  </si>
-  <si>
-    <t>PURGATON 20MG 30 TAB.</t>
-  </si>
-  <si>
-    <t>5:2</t>
-  </si>
-  <si>
-    <t>45.00</t>
-  </si>
-  <si>
-    <t>45.0000</t>
-  </si>
-  <si>
-    <t>ROWATINEX 45 CAPSULES</t>
-  </si>
-  <si>
-    <t>3:1</t>
-  </si>
-  <si>
-    <t>SILDEN 50 MG 4 F.C. TABS.</t>
-  </si>
-  <si>
-    <t>11.0000</t>
-  </si>
-  <si>
-    <t>SPASMO-DIGESTIN 30 TABS.</t>
-  </si>
-  <si>
-    <t>102.9600</t>
-  </si>
-  <si>
-    <t>SPASMOFEN 3 AMP. FOR I.M. INJ.</t>
-  </si>
-  <si>
-    <t>SPASMOFREE 50MG 20 F.C. TABS.</t>
-  </si>
-  <si>
-    <t>STREPTOQUIN 20 TABLETS</t>
-  </si>
-  <si>
     <t>46.00</t>
   </si>
   <si>
@@ -584,9 +596,6 @@
     <t>URAID-N EFF. GRANUL. 12 SACHETS</t>
   </si>
   <si>
-    <t>76.0000</t>
-  </si>
-  <si>
     <t>URINEX 24 CAPS</t>
   </si>
   <si>
@@ -599,6 +608,15 @@
     <t>UROSOLVINE EFF. GRAN. 12 SACHETS</t>
   </si>
   <si>
+    <t>VERSERC 16MG 30 TAB</t>
+  </si>
+  <si>
+    <t>87.00</t>
+  </si>
+  <si>
+    <t>28.7100</t>
+  </si>
+  <si>
     <t>VETOCETAMOL 24 TAB.</t>
   </si>
   <si>
@@ -698,9 +716,6 @@
     <t>27.00</t>
   </si>
   <si>
-    <t>54.0000</t>
-  </si>
-  <si>
     <t>سرنجات 10 سم</t>
   </si>
   <si>
@@ -773,7 +788,7 @@
     <t>مناديل بكر فاين</t>
   </si>
   <si>
-    <t>Friday, 8 August, 2025 9:11 PM</t>
+    <t>Friday, 8 August, 2025 9:13 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1629,7 +1644,7 @@
         <v>41</v>
       </c>
       <c t="s" r="Q13" s="12">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="14" ht="25.5" customHeight="1">
@@ -1645,7 +1660,7 @@
       <c r="F14" s="8"/>
       <c r="G14" s="8"/>
       <c t="s" r="H14" s="9">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="I14" s="9"/>
       <c r="J14" s="9"/>
@@ -1655,11 +1670,11 @@
       </c>
       <c r="M14" s="10"/>
       <c t="s" r="N14" s="8">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="O14" s="8"/>
       <c t="s" r="P14" s="11">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c t="s" r="Q14" s="12">
         <v>18</v>
@@ -1671,14 +1686,14 @@
       </c>
       <c r="B15" s="7"/>
       <c t="s" r="C15" s="8">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="D15" s="8"/>
       <c r="E15" s="8"/>
       <c r="F15" s="8"/>
       <c r="G15" s="8"/>
       <c t="s" r="H15" s="9">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="I15" s="9"/>
       <c r="J15" s="9"/>
@@ -1695,7 +1710,7 @@
         <v>48</v>
       </c>
       <c t="s" r="Q15" s="12">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="16" ht="25.5" customHeight="1">
@@ -1711,7 +1726,7 @@
       <c r="F16" s="8"/>
       <c r="G16" s="8"/>
       <c t="s" r="H16" s="9">
-        <v>50</v>
+        <v>35</v>
       </c>
       <c r="I16" s="9"/>
       <c r="J16" s="9"/>
@@ -1721,14 +1736,14 @@
       </c>
       <c r="M16" s="10"/>
       <c t="s" r="N16" s="8">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="O16" s="8"/>
       <c t="s" r="P16" s="11">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c t="s" r="Q16" s="12">
-        <v>22</v>
+        <v>16</v>
       </c>
     </row>
     <row r="17" ht="25.5" customHeight="1">
@@ -1737,14 +1752,14 @@
       </c>
       <c r="B17" s="7"/>
       <c t="s" r="C17" s="8">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D17" s="8"/>
       <c r="E17" s="8"/>
       <c r="F17" s="8"/>
       <c r="G17" s="8"/>
       <c t="s" r="H17" s="9">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="I17" s="9"/>
       <c r="J17" s="9"/>
@@ -1754,14 +1769,14 @@
       </c>
       <c r="M17" s="10"/>
       <c t="s" r="N17" s="8">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="O17" s="8"/>
       <c t="s" r="P17" s="11">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c t="s" r="Q17" s="12">
-        <v>18</v>
+        <v>22</v>
       </c>
     </row>
     <row r="18" ht="24.75" customHeight="1">
@@ -1770,14 +1785,14 @@
       </c>
       <c r="B18" s="7"/>
       <c t="s" r="C18" s="8">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D18" s="8"/>
       <c r="E18" s="8"/>
       <c r="F18" s="8"/>
       <c r="G18" s="8"/>
       <c t="s" r="H18" s="9">
-        <v>16</v>
+        <v>57</v>
       </c>
       <c r="I18" s="9"/>
       <c r="J18" s="9"/>
@@ -1787,14 +1802,14 @@
       </c>
       <c r="M18" s="10"/>
       <c t="s" r="N18" s="8">
-        <v>27</v>
+        <v>58</v>
       </c>
       <c r="O18" s="8"/>
       <c t="s" r="P18" s="11">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c t="s" r="Q18" s="12">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="19" ht="25.5" customHeight="1">
@@ -1803,7 +1818,7 @@
       </c>
       <c r="B19" s="7"/>
       <c t="s" r="C19" s="8">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="D19" s="8"/>
       <c r="E19" s="8"/>
@@ -1820,7 +1835,7 @@
       </c>
       <c r="M19" s="10"/>
       <c t="s" r="N19" s="8">
-        <v>60</v>
+        <v>27</v>
       </c>
       <c r="O19" s="8"/>
       <c t="s" r="P19" s="11">
@@ -1843,7 +1858,7 @@
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
       <c t="s" r="H20" s="9">
-        <v>63</v>
+        <v>16</v>
       </c>
       <c r="I20" s="9"/>
       <c r="J20" s="9"/>
@@ -1853,11 +1868,11 @@
       </c>
       <c r="M20" s="10"/>
       <c t="s" r="N20" s="8">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="O20" s="8"/>
       <c t="s" r="P20" s="11">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c t="s" r="Q20" s="12">
         <v>16</v>
@@ -1869,14 +1884,14 @@
       </c>
       <c r="B21" s="7"/>
       <c t="s" r="C21" s="8">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D21" s="8"/>
       <c r="E21" s="8"/>
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
       <c t="s" r="H21" s="9">
-        <v>18</v>
+        <v>66</v>
       </c>
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
@@ -1909,7 +1924,7 @@
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c t="s" r="H22" s="9">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
@@ -1926,7 +1941,7 @@
         <v>71</v>
       </c>
       <c t="s" r="Q22" s="12">
-        <v>33</v>
+        <v>16</v>
       </c>
     </row>
     <row r="23" ht="24.75" customHeight="1">
@@ -1942,7 +1957,7 @@
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c t="s" r="H23" s="9">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
@@ -1959,7 +1974,7 @@
         <v>74</v>
       </c>
       <c t="s" r="Q23" s="12">
-        <v>16</v>
+        <v>33</v>
       </c>
     </row>
     <row r="24" ht="25.5" customHeight="1">
@@ -1975,7 +1990,7 @@
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>76</v>
+        <v>18</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
@@ -1985,14 +2000,14 @@
       </c>
       <c r="M24" s="10"/>
       <c t="s" r="N24" s="8">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="O24" s="8"/>
       <c t="s" r="P24" s="11">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c t="s" r="Q24" s="12">
-        <v>33</v>
+        <v>16</v>
       </c>
     </row>
     <row r="25" ht="24.75" customHeight="1">
@@ -2001,14 +2016,14 @@
       </c>
       <c r="B25" s="7"/>
       <c t="s" r="C25" s="8">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D25" s="8"/>
       <c r="E25" s="8"/>
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>33</v>
+        <v>79</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
@@ -2041,7 +2056,7 @@
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
@@ -2058,7 +2073,7 @@
         <v>84</v>
       </c>
       <c t="s" r="Q26" s="12">
-        <v>76</v>
+        <v>33</v>
       </c>
     </row>
     <row r="27" ht="25.5" customHeight="1">
@@ -2074,7 +2089,7 @@
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>86</v>
+        <v>43</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
@@ -2084,14 +2099,14 @@
       </c>
       <c r="M27" s="10"/>
       <c t="s" r="N27" s="8">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="O27" s="8"/>
       <c t="s" r="P27" s="11">
-        <v>58</v>
+        <v>87</v>
       </c>
       <c t="s" r="Q27" s="12">
-        <v>18</v>
+        <v>79</v>
       </c>
     </row>
     <row r="28" ht="24.75" customHeight="1">
@@ -2107,7 +2122,7 @@
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>18</v>
+        <v>89</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
@@ -2117,14 +2132,14 @@
       </c>
       <c r="M28" s="10"/>
       <c t="s" r="N28" s="8">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="O28" s="8"/>
       <c t="s" r="P28" s="11">
-        <v>90</v>
+        <v>61</v>
       </c>
       <c t="s" r="Q28" s="12">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="29" ht="25.5" customHeight="1">
@@ -2157,7 +2172,7 @@
         <v>93</v>
       </c>
       <c t="s" r="Q29" s="12">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="30" ht="24.75" customHeight="1">
@@ -2173,7 +2188,7 @@
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>33</v>
+        <v>18</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
@@ -2183,14 +2198,14 @@
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
-        <v>64</v>
+        <v>95</v>
       </c>
       <c r="O30" s="8"/>
       <c t="s" r="P30" s="11">
-        <v>65</v>
+        <v>96</v>
       </c>
       <c t="s" r="Q30" s="12">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="31" ht="25.5" customHeight="1">
@@ -2199,14 +2214,14 @@
       </c>
       <c r="B31" s="7"/>
       <c t="s" r="C31" s="8">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="D31" s="8"/>
       <c r="E31" s="8"/>
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>96</v>
+        <v>33</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
@@ -2216,14 +2231,14 @@
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
-        <v>40</v>
+        <v>67</v>
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
-        <v>41</v>
+        <v>68</v>
       </c>
       <c t="s" r="Q31" s="12">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="32" ht="25.5" customHeight="1">
@@ -2232,14 +2247,14 @@
       </c>
       <c r="B32" s="7"/>
       <c t="s" r="C32" s="8">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="D32" s="8"/>
       <c r="E32" s="8"/>
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>39</v>
+        <v>99</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
@@ -2249,11 +2264,11 @@
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
-        <v>98</v>
+        <v>44</v>
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
-        <v>99</v>
+        <v>45</v>
       </c>
       <c t="s" r="Q32" s="12">
         <v>18</v>
@@ -2272,7 +2287,7 @@
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>35</v>
+        <v>43</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
@@ -2289,7 +2304,7 @@
         <v>102</v>
       </c>
       <c t="s" r="Q33" s="12">
-        <v>86</v>
+        <v>18</v>
       </c>
     </row>
     <row r="34" ht="25.5" customHeight="1">
@@ -2305,7 +2320,7 @@
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>104</v>
+        <v>39</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
@@ -2315,14 +2330,14 @@
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c t="s" r="Q34" s="12">
-        <v>33</v>
+        <v>89</v>
       </c>
     </row>
     <row r="35" ht="24.75" customHeight="1">
@@ -2331,14 +2346,14 @@
       </c>
       <c r="B35" s="7"/>
       <c t="s" r="C35" s="8">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="D35" s="8"/>
       <c r="E35" s="8"/>
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>18</v>
+        <v>107</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
@@ -2355,7 +2370,7 @@
         <v>109</v>
       </c>
       <c t="s" r="Q35" s="12">
-        <v>18</v>
+        <v>33</v>
       </c>
     </row>
     <row r="36" ht="25.5" customHeight="1">
@@ -2404,7 +2419,7 @@
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
@@ -2437,7 +2452,7 @@
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>35</v>
+        <v>22</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
@@ -2447,11 +2462,11 @@
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>92</v>
+        <v>117</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
-        <v>93</v>
+        <v>118</v>
       </c>
       <c t="s" r="Q38" s="12">
         <v>18</v>
@@ -2463,14 +2478,14 @@
       </c>
       <c r="B39" s="7"/>
       <c t="s" r="C39" s="8">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="D39" s="8"/>
       <c r="E39" s="8"/>
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>22</v>
+        <v>39</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
@@ -2480,11 +2495,11 @@
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c t="s" r="Q39" s="12">
         <v>18</v>
@@ -2496,14 +2511,14 @@
       </c>
       <c r="B40" s="7"/>
       <c t="s" r="C40" s="8">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="D40" s="8"/>
       <c r="E40" s="8"/>
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>46</v>
+        <v>22</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
@@ -2513,14 +2528,14 @@
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>119</v>
+        <v>95</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
-        <v>120</v>
+        <v>96</v>
       </c>
       <c t="s" r="Q40" s="12">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="41" ht="25.5" customHeight="1">
@@ -2536,7 +2551,7 @@
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
@@ -2553,7 +2568,7 @@
         <v>123</v>
       </c>
       <c t="s" r="Q41" s="12">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="42" ht="25.5" customHeight="1">
@@ -2569,7 +2584,7 @@
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>18</v>
+        <v>43</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
@@ -2586,7 +2601,7 @@
         <v>126</v>
       </c>
       <c t="s" r="Q42" s="12">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="43" ht="24.75" customHeight="1">
@@ -2602,7 +2617,7 @@
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>128</v>
+        <v>18</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
@@ -2612,14 +2627,14 @@
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c t="s" r="Q43" s="12">
-        <v>86</v>
+        <v>16</v>
       </c>
     </row>
     <row r="44" ht="25.5" customHeight="1">
@@ -2628,14 +2643,14 @@
       </c>
       <c r="B44" s="7"/>
       <c t="s" r="C44" s="8">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="D44" s="8"/>
       <c r="E44" s="8"/>
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>46</v>
+        <v>131</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
@@ -2645,14 +2660,14 @@
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>60</v>
+        <v>132</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
-        <v>61</v>
+        <v>133</v>
       </c>
       <c t="s" r="Q44" s="12">
-        <v>16</v>
+        <v>89</v>
       </c>
     </row>
     <row r="45" ht="24.75" customHeight="1">
@@ -2661,14 +2676,14 @@
       </c>
       <c r="B45" s="7"/>
       <c t="s" r="C45" s="8">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="D45" s="8"/>
       <c r="E45" s="8"/>
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
@@ -2678,11 +2693,11 @@
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>77</v>
+        <v>63</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
-        <v>133</v>
+        <v>64</v>
       </c>
       <c t="s" r="Q45" s="12">
         <v>16</v>
@@ -2694,14 +2709,14 @@
       </c>
       <c r="B46" s="7"/>
       <c t="s" r="C46" s="8">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="D46" s="8"/>
       <c r="E46" s="8"/>
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>86</v>
+        <v>43</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
@@ -2711,11 +2726,11 @@
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>40</v>
+        <v>80</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c t="s" r="Q46" s="12">
         <v>16</v>
@@ -2727,14 +2742,14 @@
       </c>
       <c r="B47" s="7"/>
       <c t="s" r="C47" s="8">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="D47" s="8"/>
       <c r="E47" s="8"/>
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>16</v>
+        <v>89</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
@@ -2744,7 +2759,7 @@
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>137</v>
+        <v>44</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
@@ -2767,7 +2782,7 @@
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>46</v>
+        <v>16</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
@@ -2781,7 +2796,7 @@
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
-        <v>78</v>
+        <v>141</v>
       </c>
       <c t="s" r="Q48" s="12">
         <v>16</v>
@@ -2793,14 +2808,14 @@
       </c>
       <c r="B49" s="7"/>
       <c t="s" r="C49" s="8">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="D49" s="8"/>
       <c r="E49" s="8"/>
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
@@ -2810,11 +2825,11 @@
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
-        <v>143</v>
+        <v>81</v>
       </c>
       <c t="s" r="Q49" s="12">
         <v>16</v>
@@ -2833,7 +2848,7 @@
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>18</v>
+        <v>33</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
@@ -2866,21 +2881,21 @@
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>148</v>
+        <v>18</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
       <c r="K51" s="9"/>
       <c t="s" r="L51" s="10">
-        <v>149</v>
+        <v>13</v>
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>129</v>
+        <v>148</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
-        <v>37</v>
+        <v>149</v>
       </c>
       <c t="s" r="Q51" s="12">
         <v>16</v>
@@ -2899,24 +2914,24 @@
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>35</v>
+        <v>22</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
       <c r="K52" s="9"/>
       <c t="s" r="L52" s="10">
-        <v>13</v>
+        <v>151</v>
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>89</v>
+        <v>132</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c t="s" r="Q52" s="12">
-        <v>18</v>
+        <v>33</v>
       </c>
     </row>
     <row r="53" ht="24.75" customHeight="1">
@@ -2925,14 +2940,14 @@
       </c>
       <c r="B53" s="7"/>
       <c t="s" r="C53" s="8">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="D53" s="8"/>
       <c r="E53" s="8"/>
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>16</v>
+        <v>39</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
@@ -2942,11 +2957,11 @@
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
-        <v>142</v>
+        <v>92</v>
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c t="s" r="Q53" s="12">
         <v>18</v>
@@ -2958,7 +2973,7 @@
       </c>
       <c r="B54" s="7"/>
       <c t="s" r="C54" s="8">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="D54" s="8"/>
       <c r="E54" s="8"/>
@@ -2975,14 +2990,14 @@
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
-        <v>155</v>
+        <v>145</v>
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
-        <v>41</v>
+        <v>156</v>
       </c>
       <c t="s" r="Q54" s="12">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="55" ht="24.75" customHeight="1">
@@ -2991,14 +3006,14 @@
       </c>
       <c r="B55" s="7"/>
       <c t="s" r="C55" s="8">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="D55" s="8"/>
       <c r="E55" s="8"/>
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>35</v>
+        <v>16</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
@@ -3008,14 +3023,14 @@
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
-        <v>158</v>
+        <v>45</v>
       </c>
       <c t="s" r="Q55" s="12">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="56" ht="25.5" customHeight="1">
@@ -3031,7 +3046,7 @@
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>18</v>
+        <v>39</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
@@ -3048,7 +3063,7 @@
         <v>161</v>
       </c>
       <c t="s" r="Q56" s="12">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="57" ht="25.5" customHeight="1">
@@ -3064,7 +3079,7 @@
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
@@ -3074,11 +3089,11 @@
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
-        <v>98</v>
+        <v>163</v>
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c t="s" r="Q57" s="12">
         <v>16</v>
@@ -3090,14 +3105,14 @@
       </c>
       <c r="B58" s="7"/>
       <c t="s" r="C58" s="8">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="D58" s="8"/>
       <c r="E58" s="8"/>
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c t="s" r="H58" s="9">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
@@ -3111,10 +3126,10 @@
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c t="s" r="Q58" s="12">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="59" ht="25.5" customHeight="1">
@@ -3123,14 +3138,14 @@
       </c>
       <c r="B59" s="7"/>
       <c t="s" r="C59" s="8">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="D59" s="8"/>
       <c r="E59" s="8"/>
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c t="s" r="H59" s="9">
-        <v>167</v>
+        <v>22</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
@@ -3140,11 +3155,11 @@
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
-        <v>168</v>
+        <v>104</v>
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c t="s" r="Q59" s="12">
         <v>18</v>
@@ -3156,14 +3171,14 @@
       </c>
       <c r="B60" s="7"/>
       <c t="s" r="C60" s="8">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="D60" s="8"/>
       <c r="E60" s="8"/>
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c t="s" r="H60" s="9">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
@@ -3173,14 +3188,14 @@
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
-        <v>140</v>
+        <v>171</v>
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
-        <v>78</v>
+        <v>172</v>
       </c>
       <c t="s" r="Q60" s="12">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="61" ht="25.5" customHeight="1">
@@ -3189,14 +3204,14 @@
       </c>
       <c r="B61" s="7"/>
       <c t="s" r="C61" s="8">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="D61" s="8"/>
       <c r="E61" s="8"/>
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
       <c t="s" r="H61" s="9">
-        <v>30</v>
+        <v>174</v>
       </c>
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
@@ -3206,14 +3221,14 @@
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
-        <v>92</v>
+        <v>143</v>
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
-        <v>173</v>
+        <v>81</v>
       </c>
       <c t="s" r="Q61" s="12">
-        <v>33</v>
+        <v>16</v>
       </c>
     </row>
     <row r="62" ht="25.5" customHeight="1">
@@ -3222,14 +3237,14 @@
       </c>
       <c r="B62" s="7"/>
       <c t="s" r="C62" s="8">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="D62" s="8"/>
       <c r="E62" s="8"/>
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
       <c t="s" r="H62" s="9">
-        <v>63</v>
+        <v>30</v>
       </c>
       <c r="I62" s="9"/>
       <c r="J62" s="9"/>
@@ -3239,14 +3254,14 @@
       </c>
       <c r="M62" s="10"/>
       <c t="s" r="N62" s="8">
-        <v>27</v>
+        <v>95</v>
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c t="s" r="Q62" s="12">
-        <v>46</v>
+        <v>33</v>
       </c>
     </row>
     <row r="63" ht="24.75" customHeight="1">
@@ -3255,14 +3270,14 @@
       </c>
       <c r="B63" s="7"/>
       <c t="s" r="C63" s="8">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="D63" s="8"/>
       <c r="E63" s="8"/>
       <c r="F63" s="8"/>
       <c r="G63" s="8"/>
       <c t="s" r="H63" s="9">
-        <v>30</v>
+        <v>66</v>
       </c>
       <c r="I63" s="9"/>
       <c r="J63" s="9"/>
@@ -3272,14 +3287,14 @@
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
-        <v>87</v>
+        <v>27</v>
       </c>
       <c r="O63" s="8"/>
       <c t="s" r="P63" s="11">
-        <v>58</v>
+        <v>178</v>
       </c>
       <c t="s" r="Q63" s="12">
-        <v>18</v>
+        <v>35</v>
       </c>
     </row>
     <row r="64" ht="25.5" customHeight="1">
@@ -3288,14 +3303,14 @@
       </c>
       <c r="B64" s="7"/>
       <c t="s" r="C64" s="8">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="D64" s="8"/>
       <c r="E64" s="8"/>
       <c r="F64" s="8"/>
       <c r="G64" s="8"/>
       <c t="s" r="H64" s="9">
-        <v>46</v>
+        <v>30</v>
       </c>
       <c r="I64" s="9"/>
       <c r="J64" s="9"/>
@@ -3305,14 +3320,14 @@
       </c>
       <c r="M64" s="10"/>
       <c t="s" r="N64" s="8">
-        <v>36</v>
+        <v>90</v>
       </c>
       <c r="O64" s="8"/>
       <c t="s" r="P64" s="11">
-        <v>37</v>
+        <v>61</v>
       </c>
       <c t="s" r="Q64" s="12">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="65" ht="24.75" customHeight="1">
@@ -3321,14 +3336,14 @@
       </c>
       <c r="B65" s="7"/>
       <c t="s" r="C65" s="8">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="D65" s="8"/>
       <c r="E65" s="8"/>
       <c r="F65" s="8"/>
       <c r="G65" s="8"/>
       <c t="s" r="H65" s="9">
-        <v>148</v>
+        <v>35</v>
       </c>
       <c r="I65" s="9"/>
       <c r="J65" s="9"/>
@@ -3338,11 +3353,11 @@
       </c>
       <c r="M65" s="10"/>
       <c t="s" r="N65" s="8">
-        <v>179</v>
+        <v>40</v>
       </c>
       <c r="O65" s="8"/>
       <c t="s" r="P65" s="11">
-        <v>146</v>
+        <v>41</v>
       </c>
       <c t="s" r="Q65" s="12">
         <v>16</v>
@@ -3354,14 +3369,14 @@
       </c>
       <c r="B66" s="7"/>
       <c t="s" r="C66" s="8">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="D66" s="8"/>
       <c r="E66" s="8"/>
       <c r="F66" s="8"/>
       <c r="G66" s="8"/>
       <c t="s" r="H66" s="9">
-        <v>148</v>
+        <v>182</v>
       </c>
       <c r="I66" s="9"/>
       <c r="J66" s="9"/>
@@ -3371,14 +3386,14 @@
       </c>
       <c r="M66" s="10"/>
       <c t="s" r="N66" s="8">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="O66" s="8"/>
       <c t="s" r="P66" s="11">
-        <v>182</v>
+        <v>149</v>
       </c>
       <c t="s" r="Q66" s="12">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="67" ht="25.5" customHeight="1">
@@ -3387,14 +3402,14 @@
       </c>
       <c r="B67" s="7"/>
       <c t="s" r="C67" s="8">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="D67" s="8"/>
       <c r="E67" s="8"/>
       <c r="F67" s="8"/>
       <c r="G67" s="8"/>
       <c t="s" r="H67" s="9">
-        <v>39</v>
+        <v>182</v>
       </c>
       <c r="I67" s="9"/>
       <c r="J67" s="9"/>
@@ -3404,11 +3419,11 @@
       </c>
       <c r="M67" s="10"/>
       <c t="s" r="N67" s="8">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="O67" s="8"/>
       <c t="s" r="P67" s="11">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c t="s" r="Q67" s="12">
         <v>18</v>
@@ -3420,14 +3435,14 @@
       </c>
       <c r="B68" s="7"/>
       <c t="s" r="C68" s="8">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="D68" s="8"/>
       <c r="E68" s="8"/>
       <c r="F68" s="8"/>
       <c r="G68" s="8"/>
       <c t="s" r="H68" s="9">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="I68" s="9"/>
       <c r="J68" s="9"/>
@@ -3437,14 +3452,14 @@
       </c>
       <c r="M68" s="10"/>
       <c t="s" r="N68" s="8">
-        <v>179</v>
+        <v>188</v>
       </c>
       <c r="O68" s="8"/>
       <c t="s" r="P68" s="11">
-        <v>146</v>
+        <v>189</v>
       </c>
       <c t="s" r="Q68" s="12">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="69" ht="25.5" customHeight="1">
@@ -3453,14 +3468,14 @@
       </c>
       <c r="B69" s="7"/>
       <c t="s" r="C69" s="8">
-        <v>187</v>
+        <v>190</v>
       </c>
       <c r="D69" s="8"/>
       <c r="E69" s="8"/>
       <c r="F69" s="8"/>
       <c r="G69" s="8"/>
       <c t="s" r="H69" s="9">
-        <v>46</v>
+        <v>35</v>
       </c>
       <c r="I69" s="9"/>
       <c r="J69" s="9"/>
@@ -3470,11 +3485,11 @@
       </c>
       <c r="M69" s="10"/>
       <c t="s" r="N69" s="8">
-        <v>188</v>
+        <v>183</v>
       </c>
       <c r="O69" s="8"/>
       <c t="s" r="P69" s="11">
-        <v>189</v>
+        <v>149</v>
       </c>
       <c t="s" r="Q69" s="12">
         <v>16</v>
@@ -3486,14 +3501,14 @@
       </c>
       <c r="B70" s="7"/>
       <c t="s" r="C70" s="8">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="D70" s="8"/>
       <c r="E70" s="8"/>
       <c r="F70" s="8"/>
       <c r="G70" s="8"/>
       <c t="s" r="H70" s="9">
-        <v>22</v>
+        <v>35</v>
       </c>
       <c r="I70" s="9"/>
       <c r="J70" s="9"/>
@@ -3503,14 +3518,14 @@
       </c>
       <c r="M70" s="10"/>
       <c t="s" r="N70" s="8">
-        <v>114</v>
+        <v>192</v>
       </c>
       <c r="O70" s="8"/>
       <c t="s" r="P70" s="11">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c t="s" r="Q70" s="12">
-        <v>22</v>
+        <v>16</v>
       </c>
     </row>
     <row r="71" ht="25.5" customHeight="1">
@@ -3519,14 +3534,14 @@
       </c>
       <c r="B71" s="7"/>
       <c t="s" r="C71" s="8">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="D71" s="8"/>
       <c r="E71" s="8"/>
       <c r="F71" s="8"/>
       <c r="G71" s="8"/>
       <c t="s" r="H71" s="9">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="I71" s="9"/>
       <c r="J71" s="9"/>
@@ -3536,14 +3551,14 @@
       </c>
       <c r="M71" s="10"/>
       <c t="s" r="N71" s="8">
-        <v>193</v>
+        <v>117</v>
       </c>
       <c r="O71" s="8"/>
       <c t="s" r="P71" s="11">
-        <v>194</v>
+        <v>37</v>
       </c>
       <c t="s" r="Q71" s="12">
-        <v>46</v>
+        <v>22</v>
       </c>
     </row>
     <row r="72" ht="25.5" customHeight="1">
@@ -3559,7 +3574,7 @@
       <c r="F72" s="8"/>
       <c r="G72" s="8"/>
       <c t="s" r="H72" s="9">
-        <v>39</v>
+        <v>18</v>
       </c>
       <c r="I72" s="9"/>
       <c r="J72" s="9"/>
@@ -3569,14 +3584,14 @@
       </c>
       <c r="M72" s="10"/>
       <c t="s" r="N72" s="8">
-        <v>114</v>
+        <v>196</v>
       </c>
       <c r="O72" s="8"/>
       <c t="s" r="P72" s="11">
-        <v>115</v>
+        <v>197</v>
       </c>
       <c t="s" r="Q72" s="12">
-        <v>18</v>
+        <v>35</v>
       </c>
     </row>
     <row r="73" ht="24.75" customHeight="1">
@@ -3585,14 +3600,14 @@
       </c>
       <c r="B73" s="7"/>
       <c t="s" r="C73" s="8">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="D73" s="8"/>
       <c r="E73" s="8"/>
       <c r="F73" s="8"/>
       <c r="G73" s="8"/>
       <c t="s" r="H73" s="9">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="I73" s="9"/>
       <c r="J73" s="9"/>
@@ -3602,14 +3617,14 @@
       </c>
       <c r="M73" s="10"/>
       <c t="s" r="N73" s="8">
-        <v>77</v>
+        <v>117</v>
       </c>
       <c r="O73" s="8"/>
       <c t="s" r="P73" s="11">
-        <v>133</v>
+        <v>118</v>
       </c>
       <c t="s" r="Q73" s="12">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="74" ht="25.5" customHeight="1">
@@ -3618,14 +3633,14 @@
       </c>
       <c r="B74" s="7"/>
       <c t="s" r="C74" s="8">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="D74" s="8"/>
       <c r="E74" s="8"/>
       <c r="F74" s="8"/>
       <c r="G74" s="8"/>
       <c t="s" r="H74" s="9">
-        <v>86</v>
+        <v>33</v>
       </c>
       <c r="I74" s="9"/>
       <c r="J74" s="9"/>
@@ -3635,14 +3650,14 @@
       </c>
       <c r="M74" s="10"/>
       <c t="s" r="N74" s="8">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="O74" s="8"/>
       <c t="s" r="P74" s="11">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c t="s" r="Q74" s="12">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="75" ht="24.75" customHeight="1">
@@ -3651,14 +3666,14 @@
       </c>
       <c r="B75" s="7"/>
       <c t="s" r="C75" s="8">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="D75" s="8"/>
       <c r="E75" s="8"/>
       <c r="F75" s="8"/>
       <c r="G75" s="8"/>
       <c t="s" r="H75" s="9">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="I75" s="9"/>
       <c r="J75" s="9"/>
@@ -3668,14 +3683,14 @@
       </c>
       <c r="M75" s="10"/>
       <c t="s" r="N75" s="8">
-        <v>201</v>
+        <v>80</v>
       </c>
       <c r="O75" s="8"/>
       <c t="s" r="P75" s="11">
-        <v>146</v>
+        <v>136</v>
       </c>
       <c t="s" r="Q75" s="12">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="76" ht="25.5" customHeight="1">
@@ -3684,14 +3699,14 @@
       </c>
       <c r="B76" s="7"/>
       <c t="s" r="C76" s="8">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="D76" s="8"/>
       <c r="E76" s="8"/>
       <c r="F76" s="8"/>
       <c r="G76" s="8"/>
       <c t="s" r="H76" s="9">
-        <v>104</v>
+        <v>89</v>
       </c>
       <c r="I76" s="9"/>
       <c r="J76" s="9"/>
@@ -3701,14 +3716,14 @@
       </c>
       <c r="M76" s="10"/>
       <c t="s" r="N76" s="8">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="O76" s="8"/>
       <c t="s" r="P76" s="11">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c t="s" r="Q76" s="12">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="77" ht="25.5" customHeight="1">
@@ -3717,14 +3732,14 @@
       </c>
       <c r="B77" s="7"/>
       <c t="s" r="C77" s="8">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="D77" s="8"/>
       <c r="E77" s="8"/>
       <c r="F77" s="8"/>
       <c r="G77" s="8"/>
       <c t="s" r="H77" s="9">
-        <v>18</v>
+        <v>43</v>
       </c>
       <c r="I77" s="9"/>
       <c r="J77" s="9"/>
@@ -3734,14 +3749,14 @@
       </c>
       <c r="M77" s="10"/>
       <c t="s" r="N77" s="8">
-        <v>203</v>
+        <v>207</v>
       </c>
       <c r="O77" s="8"/>
       <c t="s" r="P77" s="11">
-        <v>206</v>
+        <v>149</v>
       </c>
       <c t="s" r="Q77" s="12">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="78" ht="24.75" customHeight="1">
@@ -3750,14 +3765,14 @@
       </c>
       <c r="B78" s="7"/>
       <c t="s" r="C78" s="8">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="D78" s="8"/>
       <c r="E78" s="8"/>
       <c r="F78" s="8"/>
       <c r="G78" s="8"/>
       <c t="s" r="H78" s="9">
-        <v>39</v>
+        <v>107</v>
       </c>
       <c r="I78" s="9"/>
       <c r="J78" s="9"/>
@@ -3767,14 +3782,14 @@
       </c>
       <c r="M78" s="10"/>
       <c t="s" r="N78" s="8">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="O78" s="8"/>
       <c t="s" r="P78" s="11">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c t="s" r="Q78" s="12">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="79" ht="25.5" customHeight="1">
@@ -3783,14 +3798,14 @@
       </c>
       <c r="B79" s="7"/>
       <c t="s" r="C79" s="8">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="D79" s="8"/>
       <c r="E79" s="8"/>
       <c r="F79" s="8"/>
       <c r="G79" s="8"/>
       <c t="s" r="H79" s="9">
-        <v>33</v>
+        <v>18</v>
       </c>
       <c r="I79" s="9"/>
       <c r="J79" s="9"/>
@@ -3800,7 +3815,7 @@
       </c>
       <c r="M79" s="10"/>
       <c t="s" r="N79" s="8">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="O79" s="8"/>
       <c t="s" r="P79" s="11">
@@ -3823,24 +3838,24 @@
       <c r="F80" s="8"/>
       <c r="G80" s="8"/>
       <c t="s" r="H80" s="9">
-        <v>214</v>
+        <v>43</v>
       </c>
       <c r="I80" s="9"/>
       <c r="J80" s="9"/>
       <c r="K80" s="9"/>
       <c t="s" r="L80" s="10">
-        <v>149</v>
+        <v>13</v>
       </c>
       <c r="M80" s="10"/>
       <c t="s" r="N80" s="8">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="O80" s="8"/>
       <c t="s" r="P80" s="11">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c t="s" r="Q80" s="12">
-        <v>35</v>
+        <v>18</v>
       </c>
     </row>
     <row r="81" ht="25.5" customHeight="1">
@@ -3849,31 +3864,31 @@
       </c>
       <c r="B81" s="7"/>
       <c t="s" r="C81" s="8">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="D81" s="8"/>
       <c r="E81" s="8"/>
       <c r="F81" s="8"/>
       <c r="G81" s="8"/>
       <c t="s" r="H81" s="9">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="I81" s="9"/>
       <c r="J81" s="9"/>
       <c r="K81" s="9"/>
       <c t="s" r="L81" s="10">
-        <v>149</v>
+        <v>13</v>
       </c>
       <c r="M81" s="10"/>
       <c t="s" r="N81" s="8">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="O81" s="8"/>
       <c t="s" r="P81" s="11">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c t="s" r="Q81" s="12">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="82" ht="25.5" customHeight="1">
@@ -3882,20 +3897,20 @@
       </c>
       <c r="B82" s="7"/>
       <c t="s" r="C82" s="8">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="D82" s="8"/>
       <c r="E82" s="8"/>
       <c r="F82" s="8"/>
       <c r="G82" s="8"/>
       <c t="s" r="H82" s="9">
-        <v>39</v>
+        <v>220</v>
       </c>
       <c r="I82" s="9"/>
       <c r="J82" s="9"/>
       <c r="K82" s="9"/>
       <c t="s" r="L82" s="10">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="M82" s="10"/>
       <c t="s" r="N82" s="8">
@@ -3906,7 +3921,7 @@
         <v>222</v>
       </c>
       <c t="s" r="Q82" s="12">
-        <v>22</v>
+        <v>39</v>
       </c>
     </row>
     <row r="83" ht="24.75" customHeight="1">
@@ -3922,13 +3937,13 @@
       <c r="F83" s="8"/>
       <c r="G83" s="8"/>
       <c t="s" r="H83" s="9">
-        <v>18</v>
+        <v>39</v>
       </c>
       <c r="I83" s="9"/>
       <c r="J83" s="9"/>
       <c r="K83" s="9"/>
       <c t="s" r="L83" s="10">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="M83" s="10"/>
       <c t="s" r="N83" s="8">
@@ -3955,21 +3970,21 @@
       <c r="F84" s="8"/>
       <c r="G84" s="8"/>
       <c t="s" r="H84" s="9">
-        <v>227</v>
+        <v>43</v>
       </c>
       <c r="I84" s="9"/>
       <c r="J84" s="9"/>
       <c r="K84" s="9"/>
       <c t="s" r="L84" s="10">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="M84" s="10"/>
       <c t="s" r="N84" s="8">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="O84" s="8"/>
       <c t="s" r="P84" s="11">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c t="s" r="Q84" s="12">
         <v>22</v>
@@ -3981,31 +3996,31 @@
       </c>
       <c r="B85" s="7"/>
       <c t="s" r="C85" s="8">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="D85" s="8"/>
       <c r="E85" s="8"/>
       <c r="F85" s="8"/>
       <c r="G85" s="8"/>
       <c t="s" r="H85" s="9">
-        <v>39</v>
+        <v>18</v>
       </c>
       <c r="I85" s="9"/>
       <c r="J85" s="9"/>
       <c r="K85" s="9"/>
       <c t="s" r="L85" s="10">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="M85" s="10"/>
       <c t="s" r="N85" s="8">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="O85" s="8"/>
       <c t="s" r="P85" s="11">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c t="s" r="Q85" s="12">
-        <v>35</v>
+        <v>18</v>
       </c>
     </row>
     <row r="86" ht="25.5" customHeight="1">
@@ -4014,20 +4029,20 @@
       </c>
       <c r="B86" s="7"/>
       <c t="s" r="C86" s="8">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="D86" s="8"/>
       <c r="E86" s="8"/>
       <c r="F86" s="8"/>
       <c r="G86" s="8"/>
       <c t="s" r="H86" s="9">
-        <v>39</v>
+        <v>233</v>
       </c>
       <c r="I86" s="9"/>
       <c r="J86" s="9"/>
       <c r="K86" s="9"/>
       <c t="s" r="L86" s="10">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="M86" s="10"/>
       <c t="s" r="N86" s="8">
@@ -4035,10 +4050,10 @@
       </c>
       <c r="O86" s="8"/>
       <c t="s" r="P86" s="11">
-        <v>235</v>
+        <v>152</v>
       </c>
       <c t="s" r="Q86" s="12">
-        <v>76</v>
+        <v>22</v>
       </c>
     </row>
     <row r="87" ht="25.5" customHeight="1">
@@ -4047,31 +4062,31 @@
       </c>
       <c r="B87" s="7"/>
       <c t="s" r="C87" s="8">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="D87" s="8"/>
       <c r="E87" s="8"/>
       <c r="F87" s="8"/>
       <c r="G87" s="8"/>
       <c t="s" r="H87" s="9">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="I87" s="9"/>
       <c r="J87" s="9"/>
       <c r="K87" s="9"/>
       <c t="s" r="L87" s="10">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="M87" s="10"/>
       <c t="s" r="N87" s="8">
-        <v>221</v>
+        <v>236</v>
       </c>
       <c r="O87" s="8"/>
       <c t="s" r="P87" s="11">
-        <v>222</v>
+        <v>237</v>
       </c>
       <c t="s" r="Q87" s="12">
-        <v>22</v>
+        <v>39</v>
       </c>
     </row>
     <row r="88" ht="24.75" customHeight="1">
@@ -4080,31 +4095,31 @@
       </c>
       <c r="B88" s="7"/>
       <c t="s" r="C88" s="8">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="D88" s="8"/>
       <c r="E88" s="8"/>
       <c r="F88" s="8"/>
       <c r="G88" s="8"/>
       <c t="s" r="H88" s="9">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="I88" s="9"/>
       <c r="J88" s="9"/>
       <c r="K88" s="9"/>
       <c t="s" r="L88" s="10">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="M88" s="10"/>
       <c t="s" r="N88" s="8">
-        <v>215</v>
+        <v>239</v>
       </c>
       <c r="O88" s="8"/>
       <c t="s" r="P88" s="11">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c t="s" r="Q88" s="12">
-        <v>18</v>
+        <v>79</v>
       </c>
     </row>
     <row r="89" ht="25.5" customHeight="1">
@@ -4113,31 +4128,31 @@
       </c>
       <c r="B89" s="7"/>
       <c t="s" r="C89" s="8">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="D89" s="8"/>
       <c r="E89" s="8"/>
       <c r="F89" s="8"/>
       <c r="G89" s="8"/>
       <c t="s" r="H89" s="9">
-        <v>240</v>
+        <v>43</v>
       </c>
       <c r="I89" s="9"/>
       <c r="J89" s="9"/>
       <c r="K89" s="9"/>
       <c t="s" r="L89" s="10">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="M89" s="10"/>
       <c t="s" r="N89" s="8">
-        <v>241</v>
+        <v>227</v>
       </c>
       <c r="O89" s="8"/>
       <c t="s" r="P89" s="11">
-        <v>232</v>
+        <v>228</v>
       </c>
       <c t="s" r="Q89" s="12">
-        <v>18</v>
+        <v>22</v>
       </c>
     </row>
     <row r="90" ht="24.75" customHeight="1">
@@ -4153,21 +4168,21 @@
       <c r="F90" s="8"/>
       <c r="G90" s="8"/>
       <c t="s" r="H90" s="9">
-        <v>35</v>
+        <v>43</v>
       </c>
       <c r="I90" s="9"/>
       <c r="J90" s="9"/>
       <c r="K90" s="9"/>
       <c t="s" r="L90" s="10">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="M90" s="10"/>
       <c t="s" r="N90" s="8">
-        <v>243</v>
+        <v>221</v>
       </c>
       <c r="O90" s="8"/>
       <c t="s" r="P90" s="11">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c t="s" r="Q90" s="12">
         <v>18</v>
@@ -4179,31 +4194,31 @@
       </c>
       <c r="B91" s="7"/>
       <c t="s" r="C91" s="8">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="D91" s="8"/>
       <c r="E91" s="8"/>
       <c r="F91" s="8"/>
       <c r="G91" s="8"/>
       <c t="s" r="H91" s="9">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="I91" s="9"/>
       <c r="J91" s="9"/>
       <c r="K91" s="9"/>
       <c t="s" r="L91" s="10">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="M91" s="10"/>
       <c t="s" r="N91" s="8">
-        <v>224</v>
+        <v>246</v>
       </c>
       <c r="O91" s="8"/>
       <c t="s" r="P91" s="11">
-        <v>247</v>
+        <v>237</v>
       </c>
       <c t="s" r="Q91" s="12">
-        <v>76</v>
+        <v>18</v>
       </c>
     </row>
     <row r="92" ht="25.5" customHeight="1">
@@ -4212,7 +4227,7 @@
       </c>
       <c r="B92" s="7"/>
       <c t="s" r="C92" s="8">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="D92" s="8"/>
       <c r="E92" s="8"/>
@@ -4225,18 +4240,18 @@
       <c r="J92" s="9"/>
       <c r="K92" s="9"/>
       <c t="s" r="L92" s="10">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="M92" s="10"/>
       <c t="s" r="N92" s="8">
-        <v>218</v>
+        <v>248</v>
       </c>
       <c r="O92" s="8"/>
       <c t="s" r="P92" s="11">
-        <v>238</v>
+        <v>249</v>
       </c>
       <c t="s" r="Q92" s="12">
-        <v>22</v>
+        <v>18</v>
       </c>
     </row>
     <row r="93" ht="24.75" customHeight="1">
@@ -4245,31 +4260,31 @@
       </c>
       <c r="B93" s="7"/>
       <c t="s" r="C93" s="8">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="D93" s="8"/>
       <c r="E93" s="8"/>
       <c r="F93" s="8"/>
       <c r="G93" s="8"/>
       <c t="s" r="H93" s="9">
-        <v>18</v>
+        <v>251</v>
       </c>
       <c r="I93" s="9"/>
       <c r="J93" s="9"/>
       <c r="K93" s="9"/>
       <c t="s" r="L93" s="10">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="M93" s="10"/>
       <c t="s" r="N93" s="8">
-        <v>250</v>
+        <v>230</v>
       </c>
       <c r="O93" s="8"/>
       <c t="s" r="P93" s="11">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c t="s" r="Q93" s="12">
-        <v>18</v>
+        <v>79</v>
       </c>
     </row>
     <row r="94" ht="25.5" customHeight="1">
@@ -4278,31 +4293,31 @@
       </c>
       <c r="B94" s="7"/>
       <c t="s" r="C94" s="8">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="D94" s="8"/>
       <c r="E94" s="8"/>
       <c r="F94" s="8"/>
       <c r="G94" s="8"/>
       <c t="s" r="H94" s="9">
-        <v>227</v>
+        <v>43</v>
       </c>
       <c r="I94" s="9"/>
       <c r="J94" s="9"/>
       <c r="K94" s="9"/>
       <c t="s" r="L94" s="10">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="M94" s="10"/>
       <c t="s" r="N94" s="8">
-        <v>157</v>
+        <v>224</v>
       </c>
       <c r="O94" s="8"/>
       <c t="s" r="P94" s="11">
-        <v>158</v>
+        <v>243</v>
       </c>
       <c t="s" r="Q94" s="12">
-        <v>18</v>
+        <v>22</v>
       </c>
     </row>
     <row r="95" ht="24.75" customHeight="1">
@@ -4311,66 +4326,132 @@
       </c>
       <c r="B95" s="7"/>
       <c t="s" r="C95" s="8">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="D95" s="8"/>
       <c r="E95" s="8"/>
       <c r="F95" s="8"/>
       <c r="G95" s="8"/>
       <c t="s" r="H95" s="9">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="I95" s="9"/>
       <c r="J95" s="9"/>
       <c r="K95" s="9"/>
       <c t="s" r="L95" s="10">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="M95" s="10"/>
       <c t="s" r="N95" s="8">
-        <v>218</v>
+        <v>255</v>
       </c>
       <c r="O95" s="8"/>
       <c t="s" r="P95" s="11">
-        <v>219</v>
+        <v>256</v>
       </c>
       <c t="s" r="Q95" s="12">
         <v>18</v>
       </c>
     </row>
     <row r="96" ht="25.5" customHeight="1">
-      <c r="P96" s="13">
-        <v>5501.2849999999999</v>
-      </c>
-      <c r="Q96" s="13"/>
-    </row>
-    <row r="97" ht="16.5" customHeight="1">
-      <c t="s" r="A97" s="14">
-        <v>254</v>
-      </c>
-      <c r="B97" s="14"/>
-      <c r="C97" s="14"/>
-      <c r="D97" s="14"/>
-      <c r="E97" s="14"/>
-      <c r="F97" s="14"/>
-      <c t="s" r="G97" s="15">
-        <v>255</v>
-      </c>
-      <c r="H97" s="15"/>
-      <c r="I97" s="15"/>
-      <c r="J97" s="16"/>
-      <c t="s" r="K97" s="17">
-        <v>256</v>
-      </c>
-      <c r="L97" s="17"/>
-      <c r="M97" s="17"/>
-      <c r="N97" s="17"/>
-      <c r="O97" s="17"/>
-      <c r="P97" s="17"/>
-      <c r="Q97" s="17"/>
+      <c r="A96" s="7">
+        <v>90</v>
+      </c>
+      <c r="B96" s="7"/>
+      <c t="s" r="C96" s="8">
+        <v>257</v>
+      </c>
+      <c r="D96" s="8"/>
+      <c r="E96" s="8"/>
+      <c r="F96" s="8"/>
+      <c r="G96" s="8"/>
+      <c t="s" r="H96" s="9">
+        <v>233</v>
+      </c>
+      <c r="I96" s="9"/>
+      <c r="J96" s="9"/>
+      <c r="K96" s="9"/>
+      <c t="s" r="L96" s="10">
+        <v>151</v>
+      </c>
+      <c r="M96" s="10"/>
+      <c t="s" r="N96" s="8">
+        <v>160</v>
+      </c>
+      <c r="O96" s="8"/>
+      <c t="s" r="P96" s="11">
+        <v>161</v>
+      </c>
+      <c t="s" r="Q96" s="12">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="97" ht="25.5" customHeight="1">
+      <c r="A97" s="7">
+        <v>91</v>
+      </c>
+      <c r="B97" s="7"/>
+      <c t="s" r="C97" s="8">
+        <v>258</v>
+      </c>
+      <c r="D97" s="8"/>
+      <c r="E97" s="8"/>
+      <c r="F97" s="8"/>
+      <c r="G97" s="8"/>
+      <c t="s" r="H97" s="9">
+        <v>22</v>
+      </c>
+      <c r="I97" s="9"/>
+      <c r="J97" s="9"/>
+      <c r="K97" s="9"/>
+      <c t="s" r="L97" s="10">
+        <v>151</v>
+      </c>
+      <c r="M97" s="10"/>
+      <c t="s" r="N97" s="8">
+        <v>224</v>
+      </c>
+      <c r="O97" s="8"/>
+      <c t="s" r="P97" s="11">
+        <v>225</v>
+      </c>
+      <c t="s" r="Q97" s="12">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="98" ht="24.75" customHeight="1">
+      <c r="P98" s="13">
+        <v>5632.9949999999999</v>
+      </c>
+      <c r="Q98" s="13"/>
+    </row>
+    <row r="99" ht="16.5" customHeight="1">
+      <c t="s" r="A99" s="14">
+        <v>259</v>
+      </c>
+      <c r="B99" s="14"/>
+      <c r="C99" s="14"/>
+      <c r="D99" s="14"/>
+      <c r="E99" s="14"/>
+      <c r="F99" s="14"/>
+      <c t="s" r="G99" s="15">
+        <v>260</v>
+      </c>
+      <c r="H99" s="15"/>
+      <c r="I99" s="15"/>
+      <c r="J99" s="16"/>
+      <c t="s" r="K99" s="17">
+        <v>261</v>
+      </c>
+      <c r="L99" s="17"/>
+      <c r="M99" s="17"/>
+      <c r="N99" s="17"/>
+      <c r="O99" s="17"/>
+      <c r="P99" s="17"/>
+      <c r="Q99" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="457">
+  <mergeCells count="467">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -4824,10 +4905,20 @@
     <mergeCell ref="H95:K95"/>
     <mergeCell ref="L95:M95"/>
     <mergeCell ref="N95:O95"/>
-    <mergeCell ref="P96:Q96"/>
-    <mergeCell ref="A97:F97"/>
-    <mergeCell ref="G97:I97"/>
-    <mergeCell ref="K97:Q97"/>
+    <mergeCell ref="A96:B96"/>
+    <mergeCell ref="C96:G96"/>
+    <mergeCell ref="H96:K96"/>
+    <mergeCell ref="L96:M96"/>
+    <mergeCell ref="N96:O96"/>
+    <mergeCell ref="A97:B97"/>
+    <mergeCell ref="C97:G97"/>
+    <mergeCell ref="H97:K97"/>
+    <mergeCell ref="L97:M97"/>
+    <mergeCell ref="N97:O97"/>
+    <mergeCell ref="P98:Q98"/>
+    <mergeCell ref="A99:F99"/>
+    <mergeCell ref="G99:I99"/>
+    <mergeCell ref="K99:Q99"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-08-08_00-00.xlsx
+++ b/DaySale_2025-08-08_00-00.xlsx
@@ -488,7 +488,292 @@
     <t>96.00</t>
   </si>
   <si>
-    <t>PICOLAX 0.75% ORAL DROPS 15 ML</t>
+    <t>PROSTRIDE 5MG 30 CAPS.</t>
+  </si>
+  <si>
+    <t>183.00</t>
+  </si>
+  <si>
+    <t>60.3900</t>
+  </si>
+  <si>
+    <t>PROXIMOL 0.4MG 40 TAB</t>
+  </si>
+  <si>
+    <t>17.0000</t>
+  </si>
+  <si>
+    <t>PROXIMOL COMPOUND EFF. GRANULES 60 GM</t>
+  </si>
+  <si>
+    <t>52.0000</t>
+  </si>
+  <si>
+    <t>PURGATON 20MG 30 TAB.</t>
+  </si>
+  <si>
+    <t>5:2</t>
+  </si>
+  <si>
+    <t>45.00</t>
+  </si>
+  <si>
+    <t>45.0000</t>
+  </si>
+  <si>
+    <t>ROWATINEX 45 CAPSULES</t>
+  </si>
+  <si>
+    <t>3:1</t>
+  </si>
+  <si>
+    <t>SILDEN 50 MG 4 F.C. TABS.</t>
+  </si>
+  <si>
+    <t>11.0000</t>
+  </si>
+  <si>
+    <t>SPASMO-DIGESTIN 30 TABS.</t>
+  </si>
+  <si>
+    <t>102.9600</t>
+  </si>
+  <si>
+    <t>SPASMOFEN 3 AMP. FOR I.M. INJ.</t>
+  </si>
+  <si>
+    <t>SPASMOFREE 50MG 20 F.C. TABS.</t>
+  </si>
+  <si>
+    <t>STREPTOQUIN 20 TABLETS</t>
+  </si>
+  <si>
+    <t>2:1</t>
+  </si>
+  <si>
+    <t>46.00</t>
+  </si>
+  <si>
+    <t>TAMSULIN 0.4MG 28 CAPS</t>
+  </si>
+  <si>
+    <t>124.00</t>
+  </si>
+  <si>
+    <t>124.0000</t>
+  </si>
+  <si>
+    <t>TOPRO 10 SACHETS</t>
+  </si>
+  <si>
+    <t>130.00</t>
+  </si>
+  <si>
+    <t>130.0000</t>
+  </si>
+  <si>
+    <t>TRIACTIN 4MG 20 TAB</t>
+  </si>
+  <si>
+    <t>TRITONE 100MG 30 TAB</t>
+  </si>
+  <si>
+    <t>49.50</t>
+  </si>
+  <si>
+    <t>16.3350</t>
+  </si>
+  <si>
+    <t>URAID-N EFF. GRANUL. 12 SACHETS</t>
+  </si>
+  <si>
+    <t>URINEX 24 CAPS</t>
+  </si>
+  <si>
+    <t>42.00</t>
+  </si>
+  <si>
+    <t>63.0000</t>
+  </si>
+  <si>
+    <t>UROSOLVINE EFF. GRAN. 12 SACHETS</t>
+  </si>
+  <si>
+    <t>VERSERC 16MG 30 TAB</t>
+  </si>
+  <si>
+    <t>87.00</t>
+  </si>
+  <si>
+    <t>28.7100</t>
+  </si>
+  <si>
+    <t>VETOCETAMOL 24 TAB.</t>
+  </si>
+  <si>
+    <t>VIDROP 2800 I.U./ML ORAL DROPS 15 ML</t>
+  </si>
+  <si>
+    <t>26.00</t>
+  </si>
+  <si>
+    <t>26.0000</t>
+  </si>
+  <si>
+    <t>VIOTIC EAR DROPS 10 ML</t>
+  </si>
+  <si>
+    <t>23.00</t>
+  </si>
+  <si>
+    <t>VISCERALGINE 5MG/2ML IM IV 6 AMPOULES</t>
+  </si>
+  <si>
+    <t>90.00</t>
+  </si>
+  <si>
+    <t>14.4000</t>
+  </si>
+  <si>
+    <t>VITAMOUNT FOR WOMEN 15 S.G. CAPS</t>
+  </si>
+  <si>
+    <t>29.7000</t>
+  </si>
+  <si>
+    <t>VITASTRESS 20 F.C. TABS.</t>
+  </si>
+  <si>
+    <t>64.00</t>
+  </si>
+  <si>
+    <t>64.0000</t>
+  </si>
+  <si>
+    <t>VITATRON 30 CAPS</t>
+  </si>
+  <si>
+    <t>195.00</t>
+  </si>
+  <si>
+    <t>64.3500</t>
+  </si>
+  <si>
+    <t xml:space="preserve">برفان القصاص </t>
+  </si>
+  <si>
+    <t>16:0</t>
+  </si>
+  <si>
+    <t>30.00</t>
+  </si>
+  <si>
+    <t>90.0000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">جنتيانا </t>
+  </si>
+  <si>
+    <t>15.00</t>
+  </si>
+  <si>
+    <t>15.0000</t>
+  </si>
+  <si>
+    <t>حبايه</t>
+  </si>
+  <si>
+    <t>3.00</t>
+  </si>
+  <si>
+    <t>6.0000</t>
+  </si>
+  <si>
+    <t>حلاوة حرير</t>
+  </si>
+  <si>
+    <t>20.00</t>
+  </si>
+  <si>
+    <t>20.0000</t>
+  </si>
+  <si>
+    <t>ريكسونا حريمي بليه</t>
+  </si>
+  <si>
+    <t>9:0</t>
+  </si>
+  <si>
+    <t>27.00</t>
+  </si>
+  <si>
+    <t>سرنجات 10 سم</t>
+  </si>
+  <si>
+    <t>4.00</t>
+  </si>
+  <si>
+    <t>12.0000</t>
+  </si>
+  <si>
+    <t>سرنجات 3 سم</t>
+  </si>
+  <si>
+    <t>2.00</t>
+  </si>
+  <si>
+    <t>10.0000</t>
+  </si>
+  <si>
+    <t>سرنجات 5 سم</t>
+  </si>
+  <si>
+    <t>سويت كوكو</t>
+  </si>
+  <si>
+    <t>30.0000</t>
+  </si>
+  <si>
+    <t>شاش 15 سم</t>
+  </si>
+  <si>
+    <t>17:0</t>
+  </si>
+  <si>
+    <t>12.00</t>
+  </si>
+  <si>
+    <t>شفاط ثدي الجو</t>
+  </si>
+  <si>
+    <t>25.00</t>
+  </si>
+  <si>
+    <t>25.0000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">شفرات فينوس حريمي </t>
+  </si>
+  <si>
+    <t>27:0</t>
+  </si>
+  <si>
+    <t>100.0000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">كالونا </t>
+  </si>
+  <si>
+    <t xml:space="preserve">كريم شعر دابر املا </t>
+  </si>
+  <si>
+    <t>80.00</t>
+  </si>
+  <si>
+    <t>80.0000</t>
+  </si>
+  <si>
+    <t>محلول ملح</t>
   </si>
   <si>
     <t>24.00</t>
@@ -497,298 +782,10 @@
     <t>24.0000</t>
   </si>
   <si>
-    <t>PROSTRIDE 5MG 30 CAPS.</t>
-  </si>
-  <si>
-    <t>183.00</t>
-  </si>
-  <si>
-    <t>60.3900</t>
-  </si>
-  <si>
-    <t>PROXIMOL 0.4MG 40 TAB</t>
-  </si>
-  <si>
-    <t>17.0000</t>
-  </si>
-  <si>
-    <t>PROXIMOL COMPOUND EFF. GRANULES 60 GM</t>
-  </si>
-  <si>
-    <t>52.0000</t>
-  </si>
-  <si>
-    <t>PURGATON 20MG 30 TAB.</t>
-  </si>
-  <si>
-    <t>5:2</t>
-  </si>
-  <si>
-    <t>45.00</t>
-  </si>
-  <si>
-    <t>45.0000</t>
-  </si>
-  <si>
-    <t>ROWATINEX 45 CAPSULES</t>
-  </si>
-  <si>
-    <t>3:1</t>
-  </si>
-  <si>
-    <t>SILDEN 50 MG 4 F.C. TABS.</t>
-  </si>
-  <si>
-    <t>11.0000</t>
-  </si>
-  <si>
-    <t>SPASMO-DIGESTIN 30 TABS.</t>
-  </si>
-  <si>
-    <t>102.9600</t>
-  </si>
-  <si>
-    <t>SPASMOFEN 3 AMP. FOR I.M. INJ.</t>
-  </si>
-  <si>
-    <t>SPASMOFREE 50MG 20 F.C. TABS.</t>
-  </si>
-  <si>
-    <t>STREPTOQUIN 20 TABLETS</t>
-  </si>
-  <si>
-    <t>2:1</t>
-  </si>
-  <si>
-    <t>46.00</t>
-  </si>
-  <si>
-    <t>TAMSULIN 0.4MG 28 CAPS</t>
-  </si>
-  <si>
-    <t>124.00</t>
-  </si>
-  <si>
-    <t>124.0000</t>
-  </si>
-  <si>
-    <t>TOPRO 10 SACHETS</t>
-  </si>
-  <si>
-    <t>130.00</t>
-  </si>
-  <si>
-    <t>130.0000</t>
-  </si>
-  <si>
-    <t>TRIACTIN 4MG 20 TAB</t>
-  </si>
-  <si>
-    <t>TRITONE 100MG 30 TAB</t>
-  </si>
-  <si>
-    <t>49.50</t>
-  </si>
-  <si>
-    <t>16.3350</t>
-  </si>
-  <si>
-    <t>URAID-N EFF. GRANUL. 12 SACHETS</t>
-  </si>
-  <si>
-    <t>URINEX 24 CAPS</t>
-  </si>
-  <si>
-    <t>42.00</t>
-  </si>
-  <si>
-    <t>63.0000</t>
-  </si>
-  <si>
-    <t>UROSOLVINE EFF. GRAN. 12 SACHETS</t>
-  </si>
-  <si>
-    <t>VERSERC 16MG 30 TAB</t>
-  </si>
-  <si>
-    <t>87.00</t>
-  </si>
-  <si>
-    <t>28.7100</t>
-  </si>
-  <si>
-    <t>VETOCETAMOL 24 TAB.</t>
-  </si>
-  <si>
-    <t>VIDROP 2800 I.U./ML ORAL DROPS 15 ML</t>
-  </si>
-  <si>
-    <t>26.00</t>
-  </si>
-  <si>
-    <t>26.0000</t>
-  </si>
-  <si>
-    <t>VIOTIC EAR DROPS 10 ML</t>
-  </si>
-  <si>
-    <t>23.00</t>
-  </si>
-  <si>
-    <t>VISCERALGINE 5MG/2ML IM IV 6 AMPOULES</t>
-  </si>
-  <si>
-    <t>90.00</t>
-  </si>
-  <si>
-    <t>14.4000</t>
-  </si>
-  <si>
-    <t>VITAMOUNT FOR WOMEN 15 S.G. CAPS</t>
-  </si>
-  <si>
-    <t>29.7000</t>
-  </si>
-  <si>
-    <t>VITASTRESS 20 F.C. TABS.</t>
-  </si>
-  <si>
-    <t>64.00</t>
-  </si>
-  <si>
-    <t>64.0000</t>
-  </si>
-  <si>
-    <t>VITATRON 30 CAPS</t>
-  </si>
-  <si>
-    <t>195.00</t>
-  </si>
-  <si>
-    <t>64.3500</t>
-  </si>
-  <si>
-    <t xml:space="preserve">برفان القصاص </t>
-  </si>
-  <si>
-    <t>16:0</t>
-  </si>
-  <si>
-    <t>30.00</t>
-  </si>
-  <si>
-    <t>90.0000</t>
-  </si>
-  <si>
-    <t xml:space="preserve">جنتيانا </t>
-  </si>
-  <si>
-    <t>15.00</t>
-  </si>
-  <si>
-    <t>15.0000</t>
-  </si>
-  <si>
-    <t>حبايه</t>
-  </si>
-  <si>
-    <t>3.00</t>
-  </si>
-  <si>
-    <t>6.0000</t>
-  </si>
-  <si>
-    <t>حلاوة حرير</t>
-  </si>
-  <si>
-    <t>20.00</t>
-  </si>
-  <si>
-    <t>20.0000</t>
-  </si>
-  <si>
-    <t>ريكسونا حريمي بليه</t>
-  </si>
-  <si>
-    <t>9:0</t>
-  </si>
-  <si>
-    <t>27.00</t>
-  </si>
-  <si>
-    <t>سرنجات 10 سم</t>
-  </si>
-  <si>
-    <t>4.00</t>
-  </si>
-  <si>
-    <t>12.0000</t>
-  </si>
-  <si>
-    <t>سرنجات 3 سم</t>
-  </si>
-  <si>
-    <t>2.00</t>
-  </si>
-  <si>
-    <t>10.0000</t>
-  </si>
-  <si>
-    <t>سرنجات 5 سم</t>
-  </si>
-  <si>
-    <t>سويت كوكو</t>
-  </si>
-  <si>
-    <t>30.0000</t>
-  </si>
-  <si>
-    <t>شاش 15 سم</t>
-  </si>
-  <si>
-    <t>17:0</t>
-  </si>
-  <si>
-    <t>12.00</t>
-  </si>
-  <si>
-    <t>شفاط ثدي الجو</t>
-  </si>
-  <si>
-    <t>25.00</t>
-  </si>
-  <si>
-    <t>25.0000</t>
-  </si>
-  <si>
-    <t xml:space="preserve">شفرات فينوس حريمي </t>
-  </si>
-  <si>
-    <t>27:0</t>
-  </si>
-  <si>
-    <t>100.0000</t>
-  </si>
-  <si>
-    <t xml:space="preserve">كالونا </t>
-  </si>
-  <si>
-    <t xml:space="preserve">كريم شعر دابر املا </t>
-  </si>
-  <si>
-    <t>80.00</t>
-  </si>
-  <si>
-    <t>80.0000</t>
-  </si>
-  <si>
-    <t>محلول ملح</t>
-  </si>
-  <si>
     <t>مناديل بكر فاين</t>
   </si>
   <si>
-    <t>Friday, 8 August, 2025 9:13 PM</t>
+    <t>Friday, 8 August, 2025 9:16 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -3046,7 +3043,7 @@
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>39</v>
+        <v>18</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
@@ -3063,7 +3060,7 @@
         <v>161</v>
       </c>
       <c t="s" r="Q56" s="12">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="57" ht="25.5" customHeight="1">
@@ -3079,7 +3076,7 @@
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
@@ -3089,11 +3086,11 @@
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
-        <v>163</v>
+        <v>101</v>
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c t="s" r="Q57" s="12">
         <v>16</v>
@@ -3105,14 +3102,14 @@
       </c>
       <c r="B58" s="7"/>
       <c t="s" r="C58" s="8">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="D58" s="8"/>
       <c r="E58" s="8"/>
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c t="s" r="H58" s="9">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
@@ -3122,14 +3119,14 @@
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c t="s" r="Q58" s="12">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="59" ht="25.5" customHeight="1">
@@ -3138,14 +3135,14 @@
       </c>
       <c r="B59" s="7"/>
       <c t="s" r="C59" s="8">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="D59" s="8"/>
       <c r="E59" s="8"/>
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c t="s" r="H59" s="9">
-        <v>22</v>
+        <v>167</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
@@ -3155,11 +3152,11 @@
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
-        <v>104</v>
+        <v>168</v>
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c t="s" r="Q59" s="12">
         <v>18</v>
@@ -3171,14 +3168,14 @@
       </c>
       <c r="B60" s="7"/>
       <c t="s" r="C60" s="8">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="D60" s="8"/>
       <c r="E60" s="8"/>
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c t="s" r="H60" s="9">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
@@ -3188,14 +3185,14 @@
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
-        <v>171</v>
+        <v>143</v>
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
-        <v>172</v>
+        <v>81</v>
       </c>
       <c t="s" r="Q60" s="12">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="61" ht="25.5" customHeight="1">
@@ -3204,14 +3201,14 @@
       </c>
       <c r="B61" s="7"/>
       <c t="s" r="C61" s="8">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="D61" s="8"/>
       <c r="E61" s="8"/>
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
       <c t="s" r="H61" s="9">
-        <v>174</v>
+        <v>30</v>
       </c>
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
@@ -3221,14 +3218,14 @@
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
-        <v>143</v>
+        <v>95</v>
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
-        <v>81</v>
+        <v>173</v>
       </c>
       <c t="s" r="Q61" s="12">
-        <v>16</v>
+        <v>33</v>
       </c>
     </row>
     <row r="62" ht="25.5" customHeight="1">
@@ -3237,14 +3234,14 @@
       </c>
       <c r="B62" s="7"/>
       <c t="s" r="C62" s="8">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="D62" s="8"/>
       <c r="E62" s="8"/>
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
       <c t="s" r="H62" s="9">
-        <v>30</v>
+        <v>66</v>
       </c>
       <c r="I62" s="9"/>
       <c r="J62" s="9"/>
@@ -3254,14 +3251,14 @@
       </c>
       <c r="M62" s="10"/>
       <c t="s" r="N62" s="8">
-        <v>95</v>
+        <v>27</v>
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c t="s" r="Q62" s="12">
-        <v>33</v>
+        <v>35</v>
       </c>
     </row>
     <row r="63" ht="24.75" customHeight="1">
@@ -3270,14 +3267,14 @@
       </c>
       <c r="B63" s="7"/>
       <c t="s" r="C63" s="8">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="D63" s="8"/>
       <c r="E63" s="8"/>
       <c r="F63" s="8"/>
       <c r="G63" s="8"/>
       <c t="s" r="H63" s="9">
-        <v>66</v>
+        <v>30</v>
       </c>
       <c r="I63" s="9"/>
       <c r="J63" s="9"/>
@@ -3287,14 +3284,14 @@
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
-        <v>27</v>
+        <v>90</v>
       </c>
       <c r="O63" s="8"/>
       <c t="s" r="P63" s="11">
-        <v>178</v>
+        <v>61</v>
       </c>
       <c t="s" r="Q63" s="12">
-        <v>35</v>
+        <v>18</v>
       </c>
     </row>
     <row r="64" ht="25.5" customHeight="1">
@@ -3303,14 +3300,14 @@
       </c>
       <c r="B64" s="7"/>
       <c t="s" r="C64" s="8">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="D64" s="8"/>
       <c r="E64" s="8"/>
       <c r="F64" s="8"/>
       <c r="G64" s="8"/>
       <c t="s" r="H64" s="9">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="I64" s="9"/>
       <c r="J64" s="9"/>
@@ -3320,14 +3317,14 @@
       </c>
       <c r="M64" s="10"/>
       <c t="s" r="N64" s="8">
-        <v>90</v>
+        <v>40</v>
       </c>
       <c r="O64" s="8"/>
       <c t="s" r="P64" s="11">
-        <v>61</v>
+        <v>41</v>
       </c>
       <c t="s" r="Q64" s="12">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="65" ht="24.75" customHeight="1">
@@ -3336,14 +3333,14 @@
       </c>
       <c r="B65" s="7"/>
       <c t="s" r="C65" s="8">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="D65" s="8"/>
       <c r="E65" s="8"/>
       <c r="F65" s="8"/>
       <c r="G65" s="8"/>
       <c t="s" r="H65" s="9">
-        <v>35</v>
+        <v>179</v>
       </c>
       <c r="I65" s="9"/>
       <c r="J65" s="9"/>
@@ -3353,11 +3350,11 @@
       </c>
       <c r="M65" s="10"/>
       <c t="s" r="N65" s="8">
-        <v>40</v>
+        <v>180</v>
       </c>
       <c r="O65" s="8"/>
       <c t="s" r="P65" s="11">
-        <v>41</v>
+        <v>149</v>
       </c>
       <c t="s" r="Q65" s="12">
         <v>16</v>
@@ -3376,7 +3373,7 @@
       <c r="F66" s="8"/>
       <c r="G66" s="8"/>
       <c t="s" r="H66" s="9">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="I66" s="9"/>
       <c r="J66" s="9"/>
@@ -3386,14 +3383,14 @@
       </c>
       <c r="M66" s="10"/>
       <c t="s" r="N66" s="8">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="O66" s="8"/>
       <c t="s" r="P66" s="11">
-        <v>149</v>
+        <v>183</v>
       </c>
       <c t="s" r="Q66" s="12">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="67" ht="25.5" customHeight="1">
@@ -3409,7 +3406,7 @@
       <c r="F67" s="8"/>
       <c r="G67" s="8"/>
       <c t="s" r="H67" s="9">
-        <v>182</v>
+        <v>43</v>
       </c>
       <c r="I67" s="9"/>
       <c r="J67" s="9"/>
@@ -3442,7 +3439,7 @@
       <c r="F68" s="8"/>
       <c r="G68" s="8"/>
       <c t="s" r="H68" s="9">
-        <v>43</v>
+        <v>35</v>
       </c>
       <c r="I68" s="9"/>
       <c r="J68" s="9"/>
@@ -3452,14 +3449,14 @@
       </c>
       <c r="M68" s="10"/>
       <c t="s" r="N68" s="8">
-        <v>188</v>
+        <v>180</v>
       </c>
       <c r="O68" s="8"/>
       <c t="s" r="P68" s="11">
-        <v>189</v>
+        <v>149</v>
       </c>
       <c t="s" r="Q68" s="12">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="69" ht="25.5" customHeight="1">
@@ -3468,7 +3465,7 @@
       </c>
       <c r="B69" s="7"/>
       <c t="s" r="C69" s="8">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="D69" s="8"/>
       <c r="E69" s="8"/>
@@ -3485,11 +3482,11 @@
       </c>
       <c r="M69" s="10"/>
       <c t="s" r="N69" s="8">
-        <v>183</v>
+        <v>189</v>
       </c>
       <c r="O69" s="8"/>
       <c t="s" r="P69" s="11">
-        <v>149</v>
+        <v>190</v>
       </c>
       <c t="s" r="Q69" s="12">
         <v>16</v>
@@ -3508,7 +3505,7 @@
       <c r="F70" s="8"/>
       <c r="G70" s="8"/>
       <c t="s" r="H70" s="9">
-        <v>35</v>
+        <v>22</v>
       </c>
       <c r="I70" s="9"/>
       <c r="J70" s="9"/>
@@ -3518,14 +3515,14 @@
       </c>
       <c r="M70" s="10"/>
       <c t="s" r="N70" s="8">
-        <v>192</v>
+        <v>117</v>
       </c>
       <c r="O70" s="8"/>
       <c t="s" r="P70" s="11">
-        <v>193</v>
+        <v>37</v>
       </c>
       <c t="s" r="Q70" s="12">
-        <v>16</v>
+        <v>22</v>
       </c>
     </row>
     <row r="71" ht="25.5" customHeight="1">
@@ -3534,14 +3531,14 @@
       </c>
       <c r="B71" s="7"/>
       <c t="s" r="C71" s="8">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="D71" s="8"/>
       <c r="E71" s="8"/>
       <c r="F71" s="8"/>
       <c r="G71" s="8"/>
       <c t="s" r="H71" s="9">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="I71" s="9"/>
       <c r="J71" s="9"/>
@@ -3551,14 +3548,14 @@
       </c>
       <c r="M71" s="10"/>
       <c t="s" r="N71" s="8">
-        <v>117</v>
+        <v>193</v>
       </c>
       <c r="O71" s="8"/>
       <c t="s" r="P71" s="11">
-        <v>37</v>
+        <v>194</v>
       </c>
       <c t="s" r="Q71" s="12">
-        <v>22</v>
+        <v>35</v>
       </c>
     </row>
     <row r="72" ht="25.5" customHeight="1">
@@ -3574,7 +3571,7 @@
       <c r="F72" s="8"/>
       <c r="G72" s="8"/>
       <c t="s" r="H72" s="9">
-        <v>18</v>
+        <v>43</v>
       </c>
       <c r="I72" s="9"/>
       <c r="J72" s="9"/>
@@ -3584,14 +3581,14 @@
       </c>
       <c r="M72" s="10"/>
       <c t="s" r="N72" s="8">
-        <v>196</v>
+        <v>117</v>
       </c>
       <c r="O72" s="8"/>
       <c t="s" r="P72" s="11">
-        <v>197</v>
+        <v>118</v>
       </c>
       <c t="s" r="Q72" s="12">
-        <v>35</v>
+        <v>18</v>
       </c>
     </row>
     <row r="73" ht="24.75" customHeight="1">
@@ -3600,14 +3597,14 @@
       </c>
       <c r="B73" s="7"/>
       <c t="s" r="C73" s="8">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="D73" s="8"/>
       <c r="E73" s="8"/>
       <c r="F73" s="8"/>
       <c r="G73" s="8"/>
       <c t="s" r="H73" s="9">
-        <v>43</v>
+        <v>33</v>
       </c>
       <c r="I73" s="9"/>
       <c r="J73" s="9"/>
@@ -3617,14 +3614,14 @@
       </c>
       <c r="M73" s="10"/>
       <c t="s" r="N73" s="8">
-        <v>117</v>
+        <v>197</v>
       </c>
       <c r="O73" s="8"/>
       <c t="s" r="P73" s="11">
-        <v>118</v>
+        <v>198</v>
       </c>
       <c t="s" r="Q73" s="12">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="74" ht="25.5" customHeight="1">
@@ -3640,7 +3637,7 @@
       <c r="F74" s="8"/>
       <c r="G74" s="8"/>
       <c t="s" r="H74" s="9">
-        <v>33</v>
+        <v>43</v>
       </c>
       <c r="I74" s="9"/>
       <c r="J74" s="9"/>
@@ -3650,11 +3647,11 @@
       </c>
       <c r="M74" s="10"/>
       <c t="s" r="N74" s="8">
-        <v>200</v>
+        <v>80</v>
       </c>
       <c r="O74" s="8"/>
       <c t="s" r="P74" s="11">
-        <v>201</v>
+        <v>136</v>
       </c>
       <c t="s" r="Q74" s="12">
         <v>16</v>
@@ -3666,14 +3663,14 @@
       </c>
       <c r="B75" s="7"/>
       <c t="s" r="C75" s="8">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="D75" s="8"/>
       <c r="E75" s="8"/>
       <c r="F75" s="8"/>
       <c r="G75" s="8"/>
       <c t="s" r="H75" s="9">
-        <v>43</v>
+        <v>89</v>
       </c>
       <c r="I75" s="9"/>
       <c r="J75" s="9"/>
@@ -3683,14 +3680,14 @@
       </c>
       <c r="M75" s="10"/>
       <c t="s" r="N75" s="8">
-        <v>80</v>
+        <v>201</v>
       </c>
       <c r="O75" s="8"/>
       <c t="s" r="P75" s="11">
-        <v>136</v>
+        <v>202</v>
       </c>
       <c t="s" r="Q75" s="12">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="76" ht="25.5" customHeight="1">
@@ -3706,7 +3703,7 @@
       <c r="F76" s="8"/>
       <c r="G76" s="8"/>
       <c t="s" r="H76" s="9">
-        <v>89</v>
+        <v>43</v>
       </c>
       <c r="I76" s="9"/>
       <c r="J76" s="9"/>
@@ -3720,7 +3717,7 @@
       </c>
       <c r="O76" s="8"/>
       <c t="s" r="P76" s="11">
-        <v>205</v>
+        <v>149</v>
       </c>
       <c t="s" r="Q76" s="12">
         <v>18</v>
@@ -3732,14 +3729,14 @@
       </c>
       <c r="B77" s="7"/>
       <c t="s" r="C77" s="8">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="D77" s="8"/>
       <c r="E77" s="8"/>
       <c r="F77" s="8"/>
       <c r="G77" s="8"/>
       <c t="s" r="H77" s="9">
-        <v>43</v>
+        <v>107</v>
       </c>
       <c r="I77" s="9"/>
       <c r="J77" s="9"/>
@@ -3749,14 +3746,14 @@
       </c>
       <c r="M77" s="10"/>
       <c t="s" r="N77" s="8">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="O77" s="8"/>
       <c t="s" r="P77" s="11">
-        <v>149</v>
+        <v>207</v>
       </c>
       <c t="s" r="Q77" s="12">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="78" ht="24.75" customHeight="1">
@@ -3772,7 +3769,7 @@
       <c r="F78" s="8"/>
       <c r="G78" s="8"/>
       <c t="s" r="H78" s="9">
-        <v>107</v>
+        <v>18</v>
       </c>
       <c r="I78" s="9"/>
       <c r="J78" s="9"/>
@@ -3782,11 +3779,11 @@
       </c>
       <c r="M78" s="10"/>
       <c t="s" r="N78" s="8">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="O78" s="8"/>
       <c t="s" r="P78" s="11">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c t="s" r="Q78" s="12">
         <v>16</v>
@@ -3798,14 +3795,14 @@
       </c>
       <c r="B79" s="7"/>
       <c t="s" r="C79" s="8">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="D79" s="8"/>
       <c r="E79" s="8"/>
       <c r="F79" s="8"/>
       <c r="G79" s="8"/>
       <c t="s" r="H79" s="9">
-        <v>18</v>
+        <v>43</v>
       </c>
       <c r="I79" s="9"/>
       <c r="J79" s="9"/>
@@ -3815,14 +3812,14 @@
       </c>
       <c r="M79" s="10"/>
       <c t="s" r="N79" s="8">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="O79" s="8"/>
       <c t="s" r="P79" s="11">
         <v>212</v>
       </c>
       <c t="s" r="Q79" s="12">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="80" ht="24.75" customHeight="1">
@@ -3838,7 +3835,7 @@
       <c r="F80" s="8"/>
       <c r="G80" s="8"/>
       <c t="s" r="H80" s="9">
-        <v>43</v>
+        <v>33</v>
       </c>
       <c r="I80" s="9"/>
       <c r="J80" s="9"/>
@@ -3855,7 +3852,7 @@
         <v>215</v>
       </c>
       <c t="s" r="Q80" s="12">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="81" ht="25.5" customHeight="1">
@@ -3871,24 +3868,24 @@
       <c r="F81" s="8"/>
       <c r="G81" s="8"/>
       <c t="s" r="H81" s="9">
-        <v>33</v>
+        <v>217</v>
       </c>
       <c r="I81" s="9"/>
       <c r="J81" s="9"/>
       <c r="K81" s="9"/>
       <c t="s" r="L81" s="10">
-        <v>13</v>
+        <v>151</v>
       </c>
       <c r="M81" s="10"/>
       <c t="s" r="N81" s="8">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="O81" s="8"/>
       <c t="s" r="P81" s="11">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c t="s" r="Q81" s="12">
-        <v>16</v>
+        <v>39</v>
       </c>
     </row>
     <row r="82" ht="25.5" customHeight="1">
@@ -3897,14 +3894,14 @@
       </c>
       <c r="B82" s="7"/>
       <c t="s" r="C82" s="8">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="D82" s="8"/>
       <c r="E82" s="8"/>
       <c r="F82" s="8"/>
       <c r="G82" s="8"/>
       <c t="s" r="H82" s="9">
-        <v>220</v>
+        <v>39</v>
       </c>
       <c r="I82" s="9"/>
       <c r="J82" s="9"/>
@@ -3921,7 +3918,7 @@
         <v>222</v>
       </c>
       <c t="s" r="Q82" s="12">
-        <v>39</v>
+        <v>18</v>
       </c>
     </row>
     <row r="83" ht="24.75" customHeight="1">
@@ -3937,7 +3934,7 @@
       <c r="F83" s="8"/>
       <c r="G83" s="8"/>
       <c t="s" r="H83" s="9">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="I83" s="9"/>
       <c r="J83" s="9"/>
@@ -3954,7 +3951,7 @@
         <v>225</v>
       </c>
       <c t="s" r="Q83" s="12">
-        <v>18</v>
+        <v>22</v>
       </c>
     </row>
     <row r="84" ht="25.5" customHeight="1">
@@ -3970,7 +3967,7 @@
       <c r="F84" s="8"/>
       <c r="G84" s="8"/>
       <c t="s" r="H84" s="9">
-        <v>43</v>
+        <v>18</v>
       </c>
       <c r="I84" s="9"/>
       <c r="J84" s="9"/>
@@ -3987,7 +3984,7 @@
         <v>228</v>
       </c>
       <c t="s" r="Q84" s="12">
-        <v>22</v>
+        <v>18</v>
       </c>
     </row>
     <row r="85" ht="24.75" customHeight="1">
@@ -4003,7 +4000,7 @@
       <c r="F85" s="8"/>
       <c r="G85" s="8"/>
       <c t="s" r="H85" s="9">
-        <v>18</v>
+        <v>230</v>
       </c>
       <c r="I85" s="9"/>
       <c r="J85" s="9"/>
@@ -4013,14 +4010,14 @@
       </c>
       <c r="M85" s="10"/>
       <c t="s" r="N85" s="8">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="O85" s="8"/>
       <c t="s" r="P85" s="11">
-        <v>231</v>
+        <v>152</v>
       </c>
       <c t="s" r="Q85" s="12">
-        <v>18</v>
+        <v>22</v>
       </c>
     </row>
     <row r="86" ht="25.5" customHeight="1">
@@ -4036,7 +4033,7 @@
       <c r="F86" s="8"/>
       <c r="G86" s="8"/>
       <c t="s" r="H86" s="9">
-        <v>233</v>
+        <v>43</v>
       </c>
       <c r="I86" s="9"/>
       <c r="J86" s="9"/>
@@ -4046,14 +4043,14 @@
       </c>
       <c r="M86" s="10"/>
       <c t="s" r="N86" s="8">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="O86" s="8"/>
       <c t="s" r="P86" s="11">
-        <v>152</v>
+        <v>234</v>
       </c>
       <c t="s" r="Q86" s="12">
-        <v>22</v>
+        <v>39</v>
       </c>
     </row>
     <row r="87" ht="25.5" customHeight="1">
@@ -4086,7 +4083,7 @@
         <v>237</v>
       </c>
       <c t="s" r="Q87" s="12">
-        <v>39</v>
+        <v>79</v>
       </c>
     </row>
     <row r="88" ht="24.75" customHeight="1">
@@ -4112,14 +4109,14 @@
       </c>
       <c r="M88" s="10"/>
       <c t="s" r="N88" s="8">
-        <v>239</v>
+        <v>224</v>
       </c>
       <c r="O88" s="8"/>
       <c t="s" r="P88" s="11">
-        <v>240</v>
+        <v>225</v>
       </c>
       <c t="s" r="Q88" s="12">
-        <v>79</v>
+        <v>22</v>
       </c>
     </row>
     <row r="89" ht="25.5" customHeight="1">
@@ -4128,7 +4125,7 @@
       </c>
       <c r="B89" s="7"/>
       <c t="s" r="C89" s="8">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="D89" s="8"/>
       <c r="E89" s="8"/>
@@ -4145,14 +4142,14 @@
       </c>
       <c r="M89" s="10"/>
       <c t="s" r="N89" s="8">
-        <v>227</v>
+        <v>218</v>
       </c>
       <c r="O89" s="8"/>
       <c t="s" r="P89" s="11">
-        <v>228</v>
+        <v>240</v>
       </c>
       <c t="s" r="Q89" s="12">
-        <v>22</v>
+        <v>18</v>
       </c>
     </row>
     <row r="90" ht="24.75" customHeight="1">
@@ -4161,14 +4158,14 @@
       </c>
       <c r="B90" s="7"/>
       <c t="s" r="C90" s="8">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="D90" s="8"/>
       <c r="E90" s="8"/>
       <c r="F90" s="8"/>
       <c r="G90" s="8"/>
       <c t="s" r="H90" s="9">
-        <v>43</v>
+        <v>242</v>
       </c>
       <c r="I90" s="9"/>
       <c r="J90" s="9"/>
@@ -4178,11 +4175,11 @@
       </c>
       <c r="M90" s="10"/>
       <c t="s" r="N90" s="8">
-        <v>221</v>
+        <v>243</v>
       </c>
       <c r="O90" s="8"/>
       <c t="s" r="P90" s="11">
-        <v>243</v>
+        <v>234</v>
       </c>
       <c t="s" r="Q90" s="12">
         <v>18</v>
@@ -4201,7 +4198,7 @@
       <c r="F91" s="8"/>
       <c r="G91" s="8"/>
       <c t="s" r="H91" s="9">
-        <v>245</v>
+        <v>39</v>
       </c>
       <c r="I91" s="9"/>
       <c r="J91" s="9"/>
@@ -4211,11 +4208,11 @@
       </c>
       <c r="M91" s="10"/>
       <c t="s" r="N91" s="8">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="O91" s="8"/>
       <c t="s" r="P91" s="11">
-        <v>237</v>
+        <v>246</v>
       </c>
       <c t="s" r="Q91" s="12">
         <v>18</v>
@@ -4234,7 +4231,7 @@
       <c r="F92" s="8"/>
       <c r="G92" s="8"/>
       <c t="s" r="H92" s="9">
-        <v>39</v>
+        <v>248</v>
       </c>
       <c r="I92" s="9"/>
       <c r="J92" s="9"/>
@@ -4244,14 +4241,14 @@
       </c>
       <c r="M92" s="10"/>
       <c t="s" r="N92" s="8">
-        <v>248</v>
+        <v>227</v>
       </c>
       <c r="O92" s="8"/>
       <c t="s" r="P92" s="11">
         <v>249</v>
       </c>
       <c t="s" r="Q92" s="12">
-        <v>18</v>
+        <v>79</v>
       </c>
     </row>
     <row r="93" ht="24.75" customHeight="1">
@@ -4267,7 +4264,7 @@
       <c r="F93" s="8"/>
       <c r="G93" s="8"/>
       <c t="s" r="H93" s="9">
-        <v>251</v>
+        <v>43</v>
       </c>
       <c r="I93" s="9"/>
       <c r="J93" s="9"/>
@@ -4277,14 +4274,14 @@
       </c>
       <c r="M93" s="10"/>
       <c t="s" r="N93" s="8">
-        <v>230</v>
+        <v>221</v>
       </c>
       <c r="O93" s="8"/>
       <c t="s" r="P93" s="11">
-        <v>252</v>
+        <v>240</v>
       </c>
       <c t="s" r="Q93" s="12">
-        <v>79</v>
+        <v>22</v>
       </c>
     </row>
     <row r="94" ht="25.5" customHeight="1">
@@ -4293,14 +4290,14 @@
       </c>
       <c r="B94" s="7"/>
       <c t="s" r="C94" s="8">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="D94" s="8"/>
       <c r="E94" s="8"/>
       <c r="F94" s="8"/>
       <c r="G94" s="8"/>
       <c t="s" r="H94" s="9">
-        <v>43</v>
+        <v>18</v>
       </c>
       <c r="I94" s="9"/>
       <c r="J94" s="9"/>
@@ -4310,14 +4307,14 @@
       </c>
       <c r="M94" s="10"/>
       <c t="s" r="N94" s="8">
-        <v>224</v>
+        <v>252</v>
       </c>
       <c r="O94" s="8"/>
       <c t="s" r="P94" s="11">
-        <v>243</v>
+        <v>253</v>
       </c>
       <c t="s" r="Q94" s="12">
-        <v>22</v>
+        <v>18</v>
       </c>
     </row>
     <row r="95" ht="24.75" customHeight="1">
@@ -4333,7 +4330,7 @@
       <c r="F95" s="8"/>
       <c r="G95" s="8"/>
       <c t="s" r="H95" s="9">
-        <v>18</v>
+        <v>230</v>
       </c>
       <c r="I95" s="9"/>
       <c r="J95" s="9"/>
@@ -4366,7 +4363,7 @@
       <c r="F96" s="8"/>
       <c r="G96" s="8"/>
       <c t="s" r="H96" s="9">
-        <v>233</v>
+        <v>22</v>
       </c>
       <c r="I96" s="9"/>
       <c r="J96" s="9"/>
@@ -4376,82 +4373,49 @@
       </c>
       <c r="M96" s="10"/>
       <c t="s" r="N96" s="8">
-        <v>160</v>
+        <v>221</v>
       </c>
       <c r="O96" s="8"/>
       <c t="s" r="P96" s="11">
-        <v>161</v>
+        <v>222</v>
       </c>
       <c t="s" r="Q96" s="12">
         <v>18</v>
       </c>
     </row>
     <row r="97" ht="25.5" customHeight="1">
-      <c r="A97" s="7">
-        <v>91</v>
-      </c>
-      <c r="B97" s="7"/>
-      <c t="s" r="C97" s="8">
+      <c r="P97" s="13">
+        <v>5608.9949999999999</v>
+      </c>
+      <c r="Q97" s="13"/>
+    </row>
+    <row r="98" ht="16.5" customHeight="1">
+      <c t="s" r="A98" s="14">
         <v>258</v>
       </c>
-      <c r="D97" s="8"/>
-      <c r="E97" s="8"/>
-      <c r="F97" s="8"/>
-      <c r="G97" s="8"/>
-      <c t="s" r="H97" s="9">
-        <v>22</v>
-      </c>
-      <c r="I97" s="9"/>
-      <c r="J97" s="9"/>
-      <c r="K97" s="9"/>
-      <c t="s" r="L97" s="10">
-        <v>151</v>
-      </c>
-      <c r="M97" s="10"/>
-      <c t="s" r="N97" s="8">
-        <v>224</v>
-      </c>
-      <c r="O97" s="8"/>
-      <c t="s" r="P97" s="11">
-        <v>225</v>
-      </c>
-      <c t="s" r="Q97" s="12">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="98" ht="24.75" customHeight="1">
-      <c r="P98" s="13">
-        <v>5632.9949999999999</v>
-      </c>
-      <c r="Q98" s="13"/>
-    </row>
-    <row r="99" ht="16.5" customHeight="1">
-      <c t="s" r="A99" s="14">
+      <c r="B98" s="14"/>
+      <c r="C98" s="14"/>
+      <c r="D98" s="14"/>
+      <c r="E98" s="14"/>
+      <c r="F98" s="14"/>
+      <c t="s" r="G98" s="15">
         <v>259</v>
       </c>
-      <c r="B99" s="14"/>
-      <c r="C99" s="14"/>
-      <c r="D99" s="14"/>
-      <c r="E99" s="14"/>
-      <c r="F99" s="14"/>
-      <c t="s" r="G99" s="15">
+      <c r="H98" s="15"/>
+      <c r="I98" s="15"/>
+      <c r="J98" s="16"/>
+      <c t="s" r="K98" s="17">
         <v>260</v>
       </c>
-      <c r="H99" s="15"/>
-      <c r="I99" s="15"/>
-      <c r="J99" s="16"/>
-      <c t="s" r="K99" s="17">
-        <v>261</v>
-      </c>
-      <c r="L99" s="17"/>
-      <c r="M99" s="17"/>
-      <c r="N99" s="17"/>
-      <c r="O99" s="17"/>
-      <c r="P99" s="17"/>
-      <c r="Q99" s="17"/>
+      <c r="L98" s="17"/>
+      <c r="M98" s="17"/>
+      <c r="N98" s="17"/>
+      <c r="O98" s="17"/>
+      <c r="P98" s="17"/>
+      <c r="Q98" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="467">
+  <mergeCells count="462">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -4910,15 +4874,10 @@
     <mergeCell ref="H96:K96"/>
     <mergeCell ref="L96:M96"/>
     <mergeCell ref="N96:O96"/>
-    <mergeCell ref="A97:B97"/>
-    <mergeCell ref="C97:G97"/>
-    <mergeCell ref="H97:K97"/>
-    <mergeCell ref="L97:M97"/>
-    <mergeCell ref="N97:O97"/>
-    <mergeCell ref="P98:Q98"/>
-    <mergeCell ref="A99:F99"/>
-    <mergeCell ref="G99:I99"/>
-    <mergeCell ref="K99:Q99"/>
+    <mergeCell ref="P97:Q97"/>
+    <mergeCell ref="A98:F98"/>
+    <mergeCell ref="G98:I98"/>
+    <mergeCell ref="K98:Q98"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-08-08_00-00.xlsx
+++ b/DaySale_2025-08-08_00-00.xlsx
@@ -785,7 +785,7 @@
     <t>مناديل بكر فاين</t>
   </si>
   <si>
-    <t>Friday, 8 August, 2025 9:16 PM</t>
+    <t>Friday, 8 August, 2025 9:24 PM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-08-08_00-00.xlsx
+++ b/DaySale_2025-08-08_00-00.xlsx
@@ -488,6 +488,15 @@
     <t>96.00</t>
   </si>
   <si>
+    <t>PERFORMA EXTRA STRENGTH 5% TOPICAL SOLUTION 60 ML</t>
+  </si>
+  <si>
+    <t>156.00</t>
+  </si>
+  <si>
+    <t>156.0000</t>
+  </si>
+  <si>
     <t>PROSTRIDE 5MG 30 CAPS.</t>
   </si>
   <si>
@@ -728,6 +737,9 @@
     <t>سرنجات 5 سم</t>
   </si>
   <si>
+    <t>سلاكه ازن خشب كبيره</t>
+  </si>
+  <si>
     <t>سويت كوكو</t>
   </si>
   <si>
@@ -761,6 +773,18 @@
     <t>100.0000</t>
   </si>
   <si>
+    <t xml:space="preserve">فرش  فوكس عرض</t>
+  </si>
+  <si>
+    <t>7:0</t>
+  </si>
+  <si>
+    <t>40.00</t>
+  </si>
+  <si>
+    <t>40.0000</t>
+  </si>
+  <si>
     <t xml:space="preserve">كالونا </t>
   </si>
   <si>
@@ -782,10 +806,19 @@
     <t>24.0000</t>
   </si>
   <si>
+    <t>معجون سيجنال بالفحم</t>
+  </si>
+  <si>
+    <t>65.00</t>
+  </si>
+  <si>
+    <t>65.0000</t>
+  </si>
+  <si>
     <t>مناديل بكر فاين</t>
   </si>
   <si>
-    <t>Friday, 8 August, 2025 9:24 PM</t>
+    <t>Friday, 8 August, 2025 9:27 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -3043,7 +3076,7 @@
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>18</v>
+        <v>43</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
@@ -3060,7 +3093,7 @@
         <v>161</v>
       </c>
       <c t="s" r="Q56" s="12">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="57" ht="25.5" customHeight="1">
@@ -3076,7 +3109,7 @@
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
@@ -3086,11 +3119,11 @@
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
-        <v>101</v>
+        <v>163</v>
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c t="s" r="Q57" s="12">
         <v>16</v>
@@ -3102,14 +3135,14 @@
       </c>
       <c r="B58" s="7"/>
       <c t="s" r="C58" s="8">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="D58" s="8"/>
       <c r="E58" s="8"/>
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c t="s" r="H58" s="9">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
@@ -3119,14 +3152,14 @@
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c t="s" r="Q58" s="12">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="59" ht="25.5" customHeight="1">
@@ -3135,14 +3168,14 @@
       </c>
       <c r="B59" s="7"/>
       <c t="s" r="C59" s="8">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="D59" s="8"/>
       <c r="E59" s="8"/>
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c t="s" r="H59" s="9">
-        <v>167</v>
+        <v>22</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
@@ -3152,11 +3185,11 @@
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
-        <v>168</v>
+        <v>104</v>
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c t="s" r="Q59" s="12">
         <v>18</v>
@@ -3168,14 +3201,14 @@
       </c>
       <c r="B60" s="7"/>
       <c t="s" r="C60" s="8">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="D60" s="8"/>
       <c r="E60" s="8"/>
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c t="s" r="H60" s="9">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
@@ -3185,14 +3218,14 @@
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
-        <v>143</v>
+        <v>171</v>
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
-        <v>81</v>
+        <v>172</v>
       </c>
       <c t="s" r="Q60" s="12">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="61" ht="25.5" customHeight="1">
@@ -3201,14 +3234,14 @@
       </c>
       <c r="B61" s="7"/>
       <c t="s" r="C61" s="8">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="D61" s="8"/>
       <c r="E61" s="8"/>
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
       <c t="s" r="H61" s="9">
-        <v>30</v>
+        <v>174</v>
       </c>
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
@@ -3218,14 +3251,14 @@
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
-        <v>95</v>
+        <v>143</v>
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
-        <v>173</v>
+        <v>81</v>
       </c>
       <c t="s" r="Q61" s="12">
-        <v>33</v>
+        <v>16</v>
       </c>
     </row>
     <row r="62" ht="25.5" customHeight="1">
@@ -3234,14 +3267,14 @@
       </c>
       <c r="B62" s="7"/>
       <c t="s" r="C62" s="8">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="D62" s="8"/>
       <c r="E62" s="8"/>
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
       <c t="s" r="H62" s="9">
-        <v>66</v>
+        <v>30</v>
       </c>
       <c r="I62" s="9"/>
       <c r="J62" s="9"/>
@@ -3251,14 +3284,14 @@
       </c>
       <c r="M62" s="10"/>
       <c t="s" r="N62" s="8">
-        <v>27</v>
+        <v>95</v>
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c t="s" r="Q62" s="12">
-        <v>35</v>
+        <v>33</v>
       </c>
     </row>
     <row r="63" ht="24.75" customHeight="1">
@@ -3267,14 +3300,14 @@
       </c>
       <c r="B63" s="7"/>
       <c t="s" r="C63" s="8">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="D63" s="8"/>
       <c r="E63" s="8"/>
       <c r="F63" s="8"/>
       <c r="G63" s="8"/>
       <c t="s" r="H63" s="9">
-        <v>30</v>
+        <v>66</v>
       </c>
       <c r="I63" s="9"/>
       <c r="J63" s="9"/>
@@ -3284,14 +3317,14 @@
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
-        <v>90</v>
+        <v>27</v>
       </c>
       <c r="O63" s="8"/>
       <c t="s" r="P63" s="11">
-        <v>61</v>
+        <v>178</v>
       </c>
       <c t="s" r="Q63" s="12">
-        <v>18</v>
+        <v>35</v>
       </c>
     </row>
     <row r="64" ht="25.5" customHeight="1">
@@ -3300,14 +3333,14 @@
       </c>
       <c r="B64" s="7"/>
       <c t="s" r="C64" s="8">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="D64" s="8"/>
       <c r="E64" s="8"/>
       <c r="F64" s="8"/>
       <c r="G64" s="8"/>
       <c t="s" r="H64" s="9">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="I64" s="9"/>
       <c r="J64" s="9"/>
@@ -3317,14 +3350,14 @@
       </c>
       <c r="M64" s="10"/>
       <c t="s" r="N64" s="8">
-        <v>40</v>
+        <v>90</v>
       </c>
       <c r="O64" s="8"/>
       <c t="s" r="P64" s="11">
-        <v>41</v>
+        <v>61</v>
       </c>
       <c t="s" r="Q64" s="12">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="65" ht="24.75" customHeight="1">
@@ -3333,14 +3366,14 @@
       </c>
       <c r="B65" s="7"/>
       <c t="s" r="C65" s="8">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="D65" s="8"/>
       <c r="E65" s="8"/>
       <c r="F65" s="8"/>
       <c r="G65" s="8"/>
       <c t="s" r="H65" s="9">
-        <v>179</v>
+        <v>35</v>
       </c>
       <c r="I65" s="9"/>
       <c r="J65" s="9"/>
@@ -3350,11 +3383,11 @@
       </c>
       <c r="M65" s="10"/>
       <c t="s" r="N65" s="8">
-        <v>180</v>
+        <v>40</v>
       </c>
       <c r="O65" s="8"/>
       <c t="s" r="P65" s="11">
-        <v>149</v>
+        <v>41</v>
       </c>
       <c t="s" r="Q65" s="12">
         <v>16</v>
@@ -3373,7 +3406,7 @@
       <c r="F66" s="8"/>
       <c r="G66" s="8"/>
       <c t="s" r="H66" s="9">
-        <v>179</v>
+        <v>182</v>
       </c>
       <c r="I66" s="9"/>
       <c r="J66" s="9"/>
@@ -3383,14 +3416,14 @@
       </c>
       <c r="M66" s="10"/>
       <c t="s" r="N66" s="8">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="O66" s="8"/>
       <c t="s" r="P66" s="11">
-        <v>183</v>
+        <v>149</v>
       </c>
       <c t="s" r="Q66" s="12">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="67" ht="25.5" customHeight="1">
@@ -3406,7 +3439,7 @@
       <c r="F67" s="8"/>
       <c r="G67" s="8"/>
       <c t="s" r="H67" s="9">
-        <v>43</v>
+        <v>182</v>
       </c>
       <c r="I67" s="9"/>
       <c r="J67" s="9"/>
@@ -3439,7 +3472,7 @@
       <c r="F68" s="8"/>
       <c r="G68" s="8"/>
       <c t="s" r="H68" s="9">
-        <v>35</v>
+        <v>43</v>
       </c>
       <c r="I68" s="9"/>
       <c r="J68" s="9"/>
@@ -3449,14 +3482,14 @@
       </c>
       <c r="M68" s="10"/>
       <c t="s" r="N68" s="8">
-        <v>180</v>
+        <v>188</v>
       </c>
       <c r="O68" s="8"/>
       <c t="s" r="P68" s="11">
-        <v>149</v>
+        <v>189</v>
       </c>
       <c t="s" r="Q68" s="12">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="69" ht="25.5" customHeight="1">
@@ -3465,7 +3498,7 @@
       </c>
       <c r="B69" s="7"/>
       <c t="s" r="C69" s="8">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="D69" s="8"/>
       <c r="E69" s="8"/>
@@ -3482,11 +3515,11 @@
       </c>
       <c r="M69" s="10"/>
       <c t="s" r="N69" s="8">
-        <v>189</v>
+        <v>183</v>
       </c>
       <c r="O69" s="8"/>
       <c t="s" r="P69" s="11">
-        <v>190</v>
+        <v>149</v>
       </c>
       <c t="s" r="Q69" s="12">
         <v>16</v>
@@ -3505,7 +3538,7 @@
       <c r="F70" s="8"/>
       <c r="G70" s="8"/>
       <c t="s" r="H70" s="9">
-        <v>22</v>
+        <v>35</v>
       </c>
       <c r="I70" s="9"/>
       <c r="J70" s="9"/>
@@ -3515,14 +3548,14 @@
       </c>
       <c r="M70" s="10"/>
       <c t="s" r="N70" s="8">
-        <v>117</v>
+        <v>192</v>
       </c>
       <c r="O70" s="8"/>
       <c t="s" r="P70" s="11">
-        <v>37</v>
+        <v>193</v>
       </c>
       <c t="s" r="Q70" s="12">
-        <v>22</v>
+        <v>16</v>
       </c>
     </row>
     <row r="71" ht="25.5" customHeight="1">
@@ -3531,14 +3564,14 @@
       </c>
       <c r="B71" s="7"/>
       <c t="s" r="C71" s="8">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="D71" s="8"/>
       <c r="E71" s="8"/>
       <c r="F71" s="8"/>
       <c r="G71" s="8"/>
       <c t="s" r="H71" s="9">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="I71" s="9"/>
       <c r="J71" s="9"/>
@@ -3548,14 +3581,14 @@
       </c>
       <c r="M71" s="10"/>
       <c t="s" r="N71" s="8">
-        <v>193</v>
+        <v>117</v>
       </c>
       <c r="O71" s="8"/>
       <c t="s" r="P71" s="11">
-        <v>194</v>
+        <v>37</v>
       </c>
       <c t="s" r="Q71" s="12">
-        <v>35</v>
+        <v>22</v>
       </c>
     </row>
     <row r="72" ht="25.5" customHeight="1">
@@ -3571,7 +3604,7 @@
       <c r="F72" s="8"/>
       <c r="G72" s="8"/>
       <c t="s" r="H72" s="9">
-        <v>43</v>
+        <v>18</v>
       </c>
       <c r="I72" s="9"/>
       <c r="J72" s="9"/>
@@ -3581,14 +3614,14 @@
       </c>
       <c r="M72" s="10"/>
       <c t="s" r="N72" s="8">
-        <v>117</v>
+        <v>196</v>
       </c>
       <c r="O72" s="8"/>
       <c t="s" r="P72" s="11">
-        <v>118</v>
+        <v>197</v>
       </c>
       <c t="s" r="Q72" s="12">
-        <v>18</v>
+        <v>35</v>
       </c>
     </row>
     <row r="73" ht="24.75" customHeight="1">
@@ -3597,14 +3630,14 @@
       </c>
       <c r="B73" s="7"/>
       <c t="s" r="C73" s="8">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="D73" s="8"/>
       <c r="E73" s="8"/>
       <c r="F73" s="8"/>
       <c r="G73" s="8"/>
       <c t="s" r="H73" s="9">
-        <v>33</v>
+        <v>43</v>
       </c>
       <c r="I73" s="9"/>
       <c r="J73" s="9"/>
@@ -3614,14 +3647,14 @@
       </c>
       <c r="M73" s="10"/>
       <c t="s" r="N73" s="8">
-        <v>197</v>
+        <v>117</v>
       </c>
       <c r="O73" s="8"/>
       <c t="s" r="P73" s="11">
-        <v>198</v>
+        <v>118</v>
       </c>
       <c t="s" r="Q73" s="12">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="74" ht="25.5" customHeight="1">
@@ -3637,7 +3670,7 @@
       <c r="F74" s="8"/>
       <c r="G74" s="8"/>
       <c t="s" r="H74" s="9">
-        <v>43</v>
+        <v>33</v>
       </c>
       <c r="I74" s="9"/>
       <c r="J74" s="9"/>
@@ -3647,11 +3680,11 @@
       </c>
       <c r="M74" s="10"/>
       <c t="s" r="N74" s="8">
-        <v>80</v>
+        <v>200</v>
       </c>
       <c r="O74" s="8"/>
       <c t="s" r="P74" s="11">
-        <v>136</v>
+        <v>201</v>
       </c>
       <c t="s" r="Q74" s="12">
         <v>16</v>
@@ -3663,14 +3696,14 @@
       </c>
       <c r="B75" s="7"/>
       <c t="s" r="C75" s="8">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="D75" s="8"/>
       <c r="E75" s="8"/>
       <c r="F75" s="8"/>
       <c r="G75" s="8"/>
       <c t="s" r="H75" s="9">
-        <v>89</v>
+        <v>43</v>
       </c>
       <c r="I75" s="9"/>
       <c r="J75" s="9"/>
@@ -3680,14 +3713,14 @@
       </c>
       <c r="M75" s="10"/>
       <c t="s" r="N75" s="8">
-        <v>201</v>
+        <v>80</v>
       </c>
       <c r="O75" s="8"/>
       <c t="s" r="P75" s="11">
-        <v>202</v>
+        <v>136</v>
       </c>
       <c t="s" r="Q75" s="12">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="76" ht="25.5" customHeight="1">
@@ -3703,7 +3736,7 @@
       <c r="F76" s="8"/>
       <c r="G76" s="8"/>
       <c t="s" r="H76" s="9">
-        <v>43</v>
+        <v>89</v>
       </c>
       <c r="I76" s="9"/>
       <c r="J76" s="9"/>
@@ -3717,7 +3750,7 @@
       </c>
       <c r="O76" s="8"/>
       <c t="s" r="P76" s="11">
-        <v>149</v>
+        <v>205</v>
       </c>
       <c t="s" r="Q76" s="12">
         <v>18</v>
@@ -3729,14 +3762,14 @@
       </c>
       <c r="B77" s="7"/>
       <c t="s" r="C77" s="8">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="D77" s="8"/>
       <c r="E77" s="8"/>
       <c r="F77" s="8"/>
       <c r="G77" s="8"/>
       <c t="s" r="H77" s="9">
-        <v>107</v>
+        <v>43</v>
       </c>
       <c r="I77" s="9"/>
       <c r="J77" s="9"/>
@@ -3746,14 +3779,14 @@
       </c>
       <c r="M77" s="10"/>
       <c t="s" r="N77" s="8">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="O77" s="8"/>
       <c t="s" r="P77" s="11">
-        <v>207</v>
+        <v>149</v>
       </c>
       <c t="s" r="Q77" s="12">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="78" ht="24.75" customHeight="1">
@@ -3769,7 +3802,7 @@
       <c r="F78" s="8"/>
       <c r="G78" s="8"/>
       <c t="s" r="H78" s="9">
-        <v>18</v>
+        <v>107</v>
       </c>
       <c r="I78" s="9"/>
       <c r="J78" s="9"/>
@@ -3779,11 +3812,11 @@
       </c>
       <c r="M78" s="10"/>
       <c t="s" r="N78" s="8">
-        <v>206</v>
+        <v>209</v>
       </c>
       <c r="O78" s="8"/>
       <c t="s" r="P78" s="11">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c t="s" r="Q78" s="12">
         <v>16</v>
@@ -3795,14 +3828,14 @@
       </c>
       <c r="B79" s="7"/>
       <c t="s" r="C79" s="8">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="D79" s="8"/>
       <c r="E79" s="8"/>
       <c r="F79" s="8"/>
       <c r="G79" s="8"/>
       <c t="s" r="H79" s="9">
-        <v>43</v>
+        <v>18</v>
       </c>
       <c r="I79" s="9"/>
       <c r="J79" s="9"/>
@@ -3812,14 +3845,14 @@
       </c>
       <c r="M79" s="10"/>
       <c t="s" r="N79" s="8">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="O79" s="8"/>
       <c t="s" r="P79" s="11">
         <v>212</v>
       </c>
       <c t="s" r="Q79" s="12">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="80" ht="24.75" customHeight="1">
@@ -3835,7 +3868,7 @@
       <c r="F80" s="8"/>
       <c r="G80" s="8"/>
       <c t="s" r="H80" s="9">
-        <v>33</v>
+        <v>43</v>
       </c>
       <c r="I80" s="9"/>
       <c r="J80" s="9"/>
@@ -3852,7 +3885,7 @@
         <v>215</v>
       </c>
       <c t="s" r="Q80" s="12">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="81" ht="25.5" customHeight="1">
@@ -3868,24 +3901,24 @@
       <c r="F81" s="8"/>
       <c r="G81" s="8"/>
       <c t="s" r="H81" s="9">
-        <v>217</v>
+        <v>33</v>
       </c>
       <c r="I81" s="9"/>
       <c r="J81" s="9"/>
       <c r="K81" s="9"/>
       <c t="s" r="L81" s="10">
-        <v>151</v>
+        <v>13</v>
       </c>
       <c r="M81" s="10"/>
       <c t="s" r="N81" s="8">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="O81" s="8"/>
       <c t="s" r="P81" s="11">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c t="s" r="Q81" s="12">
-        <v>39</v>
+        <v>16</v>
       </c>
     </row>
     <row r="82" ht="25.5" customHeight="1">
@@ -3894,14 +3927,14 @@
       </c>
       <c r="B82" s="7"/>
       <c t="s" r="C82" s="8">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="D82" s="8"/>
       <c r="E82" s="8"/>
       <c r="F82" s="8"/>
       <c r="G82" s="8"/>
       <c t="s" r="H82" s="9">
-        <v>39</v>
+        <v>220</v>
       </c>
       <c r="I82" s="9"/>
       <c r="J82" s="9"/>
@@ -3918,7 +3951,7 @@
         <v>222</v>
       </c>
       <c t="s" r="Q82" s="12">
-        <v>18</v>
+        <v>39</v>
       </c>
     </row>
     <row r="83" ht="24.75" customHeight="1">
@@ -3934,7 +3967,7 @@
       <c r="F83" s="8"/>
       <c r="G83" s="8"/>
       <c t="s" r="H83" s="9">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="I83" s="9"/>
       <c r="J83" s="9"/>
@@ -3951,7 +3984,7 @@
         <v>225</v>
       </c>
       <c t="s" r="Q83" s="12">
-        <v>22</v>
+        <v>18</v>
       </c>
     </row>
     <row r="84" ht="25.5" customHeight="1">
@@ -3967,7 +4000,7 @@
       <c r="F84" s="8"/>
       <c r="G84" s="8"/>
       <c t="s" r="H84" s="9">
-        <v>18</v>
+        <v>43</v>
       </c>
       <c r="I84" s="9"/>
       <c r="J84" s="9"/>
@@ -3984,7 +4017,7 @@
         <v>228</v>
       </c>
       <c t="s" r="Q84" s="12">
-        <v>18</v>
+        <v>22</v>
       </c>
     </row>
     <row r="85" ht="24.75" customHeight="1">
@@ -4000,7 +4033,7 @@
       <c r="F85" s="8"/>
       <c r="G85" s="8"/>
       <c t="s" r="H85" s="9">
-        <v>230</v>
+        <v>18</v>
       </c>
       <c r="I85" s="9"/>
       <c r="J85" s="9"/>
@@ -4010,14 +4043,14 @@
       </c>
       <c r="M85" s="10"/>
       <c t="s" r="N85" s="8">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="O85" s="8"/>
       <c t="s" r="P85" s="11">
-        <v>152</v>
+        <v>231</v>
       </c>
       <c t="s" r="Q85" s="12">
-        <v>22</v>
+        <v>18</v>
       </c>
     </row>
     <row r="86" ht="25.5" customHeight="1">
@@ -4033,7 +4066,7 @@
       <c r="F86" s="8"/>
       <c r="G86" s="8"/>
       <c t="s" r="H86" s="9">
-        <v>43</v>
+        <v>233</v>
       </c>
       <c r="I86" s="9"/>
       <c r="J86" s="9"/>
@@ -4043,14 +4076,14 @@
       </c>
       <c r="M86" s="10"/>
       <c t="s" r="N86" s="8">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="O86" s="8"/>
       <c t="s" r="P86" s="11">
-        <v>234</v>
+        <v>152</v>
       </c>
       <c t="s" r="Q86" s="12">
-        <v>39</v>
+        <v>22</v>
       </c>
     </row>
     <row r="87" ht="25.5" customHeight="1">
@@ -4083,7 +4116,7 @@
         <v>237</v>
       </c>
       <c t="s" r="Q87" s="12">
-        <v>79</v>
+        <v>39</v>
       </c>
     </row>
     <row r="88" ht="24.75" customHeight="1">
@@ -4109,14 +4142,14 @@
       </c>
       <c r="M88" s="10"/>
       <c t="s" r="N88" s="8">
-        <v>224</v>
+        <v>239</v>
       </c>
       <c r="O88" s="8"/>
       <c t="s" r="P88" s="11">
-        <v>225</v>
+        <v>240</v>
       </c>
       <c t="s" r="Q88" s="12">
-        <v>22</v>
+        <v>79</v>
       </c>
     </row>
     <row r="89" ht="25.5" customHeight="1">
@@ -4125,7 +4158,7 @@
       </c>
       <c r="B89" s="7"/>
       <c t="s" r="C89" s="8">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="D89" s="8"/>
       <c r="E89" s="8"/>
@@ -4142,14 +4175,14 @@
       </c>
       <c r="M89" s="10"/>
       <c t="s" r="N89" s="8">
-        <v>218</v>
+        <v>227</v>
       </c>
       <c r="O89" s="8"/>
       <c t="s" r="P89" s="11">
-        <v>240</v>
+        <v>228</v>
       </c>
       <c t="s" r="Q89" s="12">
-        <v>18</v>
+        <v>22</v>
       </c>
     </row>
     <row r="90" ht="24.75" customHeight="1">
@@ -4158,14 +4191,14 @@
       </c>
       <c r="B90" s="7"/>
       <c t="s" r="C90" s="8">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="D90" s="8"/>
       <c r="E90" s="8"/>
       <c r="F90" s="8"/>
       <c r="G90" s="8"/>
       <c t="s" r="H90" s="9">
-        <v>242</v>
+        <v>22</v>
       </c>
       <c r="I90" s="9"/>
       <c r="J90" s="9"/>
@@ -4175,11 +4208,11 @@
       </c>
       <c r="M90" s="10"/>
       <c t="s" r="N90" s="8">
-        <v>243</v>
+        <v>230</v>
       </c>
       <c r="O90" s="8"/>
       <c t="s" r="P90" s="11">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c t="s" r="Q90" s="12">
         <v>18</v>
@@ -4191,14 +4224,14 @@
       </c>
       <c r="B91" s="7"/>
       <c t="s" r="C91" s="8">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="D91" s="8"/>
       <c r="E91" s="8"/>
       <c r="F91" s="8"/>
       <c r="G91" s="8"/>
       <c t="s" r="H91" s="9">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="I91" s="9"/>
       <c r="J91" s="9"/>
@@ -4208,11 +4241,11 @@
       </c>
       <c r="M91" s="10"/>
       <c t="s" r="N91" s="8">
-        <v>245</v>
+        <v>221</v>
       </c>
       <c r="O91" s="8"/>
       <c t="s" r="P91" s="11">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c t="s" r="Q91" s="12">
         <v>18</v>
@@ -4224,14 +4257,14 @@
       </c>
       <c r="B92" s="7"/>
       <c t="s" r="C92" s="8">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="D92" s="8"/>
       <c r="E92" s="8"/>
       <c r="F92" s="8"/>
       <c r="G92" s="8"/>
       <c t="s" r="H92" s="9">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="I92" s="9"/>
       <c r="J92" s="9"/>
@@ -4241,14 +4274,14 @@
       </c>
       <c r="M92" s="10"/>
       <c t="s" r="N92" s="8">
-        <v>227</v>
+        <v>247</v>
       </c>
       <c r="O92" s="8"/>
       <c t="s" r="P92" s="11">
-        <v>249</v>
+        <v>237</v>
       </c>
       <c t="s" r="Q92" s="12">
-        <v>79</v>
+        <v>18</v>
       </c>
     </row>
     <row r="93" ht="24.75" customHeight="1">
@@ -4257,14 +4290,14 @@
       </c>
       <c r="B93" s="7"/>
       <c t="s" r="C93" s="8">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="D93" s="8"/>
       <c r="E93" s="8"/>
       <c r="F93" s="8"/>
       <c r="G93" s="8"/>
       <c t="s" r="H93" s="9">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="I93" s="9"/>
       <c r="J93" s="9"/>
@@ -4274,14 +4307,14 @@
       </c>
       <c r="M93" s="10"/>
       <c t="s" r="N93" s="8">
-        <v>221</v>
+        <v>249</v>
       </c>
       <c r="O93" s="8"/>
       <c t="s" r="P93" s="11">
-        <v>240</v>
+        <v>250</v>
       </c>
       <c t="s" r="Q93" s="12">
-        <v>22</v>
+        <v>18</v>
       </c>
     </row>
     <row r="94" ht="25.5" customHeight="1">
@@ -4297,7 +4330,7 @@
       <c r="F94" s="8"/>
       <c r="G94" s="8"/>
       <c t="s" r="H94" s="9">
-        <v>18</v>
+        <v>252</v>
       </c>
       <c r="I94" s="9"/>
       <c r="J94" s="9"/>
@@ -4307,14 +4340,14 @@
       </c>
       <c r="M94" s="10"/>
       <c t="s" r="N94" s="8">
-        <v>252</v>
+        <v>230</v>
       </c>
       <c r="O94" s="8"/>
       <c t="s" r="P94" s="11">
         <v>253</v>
       </c>
       <c t="s" r="Q94" s="12">
-        <v>18</v>
+        <v>79</v>
       </c>
     </row>
     <row r="95" ht="24.75" customHeight="1">
@@ -4330,7 +4363,7 @@
       <c r="F95" s="8"/>
       <c r="G95" s="8"/>
       <c t="s" r="H95" s="9">
-        <v>230</v>
+        <v>255</v>
       </c>
       <c r="I95" s="9"/>
       <c r="J95" s="9"/>
@@ -4340,11 +4373,11 @@
       </c>
       <c r="M95" s="10"/>
       <c t="s" r="N95" s="8">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="O95" s="8"/>
       <c t="s" r="P95" s="11">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c t="s" r="Q95" s="12">
         <v>18</v>
@@ -4356,14 +4389,14 @@
       </c>
       <c r="B96" s="7"/>
       <c t="s" r="C96" s="8">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="D96" s="8"/>
       <c r="E96" s="8"/>
       <c r="F96" s="8"/>
       <c r="G96" s="8"/>
       <c t="s" r="H96" s="9">
-        <v>22</v>
+        <v>43</v>
       </c>
       <c r="I96" s="9"/>
       <c r="J96" s="9"/>
@@ -4373,49 +4406,181 @@
       </c>
       <c r="M96" s="10"/>
       <c t="s" r="N96" s="8">
-        <v>221</v>
+        <v>224</v>
       </c>
       <c r="O96" s="8"/>
       <c t="s" r="P96" s="11">
-        <v>222</v>
+        <v>244</v>
       </c>
       <c t="s" r="Q96" s="12">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="97" ht="25.5" customHeight="1">
+      <c r="A97" s="7">
+        <v>91</v>
+      </c>
+      <c r="B97" s="7"/>
+      <c t="s" r="C97" s="8">
+        <v>259</v>
+      </c>
+      <c r="D97" s="8"/>
+      <c r="E97" s="8"/>
+      <c r="F97" s="8"/>
+      <c r="G97" s="8"/>
+      <c t="s" r="H97" s="9">
         <v>18</v>
       </c>
-    </row>
-    <row r="97" ht="25.5" customHeight="1">
-      <c r="P97" s="13">
-        <v>5608.9949999999999</v>
-      </c>
-      <c r="Q97" s="13"/>
-    </row>
-    <row r="98" ht="16.5" customHeight="1">
-      <c t="s" r="A98" s="14">
-        <v>258</v>
-      </c>
-      <c r="B98" s="14"/>
-      <c r="C98" s="14"/>
-      <c r="D98" s="14"/>
-      <c r="E98" s="14"/>
-      <c r="F98" s="14"/>
-      <c t="s" r="G98" s="15">
-        <v>259</v>
-      </c>
-      <c r="H98" s="15"/>
-      <c r="I98" s="15"/>
-      <c r="J98" s="16"/>
-      <c t="s" r="K98" s="17">
+      <c r="I97" s="9"/>
+      <c r="J97" s="9"/>
+      <c r="K97" s="9"/>
+      <c t="s" r="L97" s="10">
+        <v>151</v>
+      </c>
+      <c r="M97" s="10"/>
+      <c t="s" r="N97" s="8">
         <v>260</v>
       </c>
-      <c r="L98" s="17"/>
-      <c r="M98" s="17"/>
-      <c r="N98" s="17"/>
-      <c r="O98" s="17"/>
-      <c r="P98" s="17"/>
-      <c r="Q98" s="17"/>
+      <c r="O97" s="8"/>
+      <c t="s" r="P97" s="11">
+        <v>261</v>
+      </c>
+      <c t="s" r="Q97" s="12">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="98" ht="24.75" customHeight="1">
+      <c r="A98" s="7">
+        <v>92</v>
+      </c>
+      <c r="B98" s="7"/>
+      <c t="s" r="C98" s="8">
+        <v>262</v>
+      </c>
+      <c r="D98" s="8"/>
+      <c r="E98" s="8"/>
+      <c r="F98" s="8"/>
+      <c r="G98" s="8"/>
+      <c t="s" r="H98" s="9">
+        <v>233</v>
+      </c>
+      <c r="I98" s="9"/>
+      <c r="J98" s="9"/>
+      <c r="K98" s="9"/>
+      <c t="s" r="L98" s="10">
+        <v>151</v>
+      </c>
+      <c r="M98" s="10"/>
+      <c t="s" r="N98" s="8">
+        <v>263</v>
+      </c>
+      <c r="O98" s="8"/>
+      <c t="s" r="P98" s="11">
+        <v>264</v>
+      </c>
+      <c t="s" r="Q98" s="12">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="99" ht="25.5" customHeight="1">
+      <c r="A99" s="7">
+        <v>93</v>
+      </c>
+      <c r="B99" s="7"/>
+      <c t="s" r="C99" s="8">
+        <v>265</v>
+      </c>
+      <c r="D99" s="8"/>
+      <c r="E99" s="8"/>
+      <c r="F99" s="8"/>
+      <c r="G99" s="8"/>
+      <c t="s" r="H99" s="9">
+        <v>43</v>
+      </c>
+      <c r="I99" s="9"/>
+      <c r="J99" s="9"/>
+      <c r="K99" s="9"/>
+      <c t="s" r="L99" s="10">
+        <v>151</v>
+      </c>
+      <c r="M99" s="10"/>
+      <c t="s" r="N99" s="8">
+        <v>266</v>
+      </c>
+      <c r="O99" s="8"/>
+      <c t="s" r="P99" s="11">
+        <v>267</v>
+      </c>
+      <c t="s" r="Q99" s="12">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="100" ht="24.75" customHeight="1">
+      <c r="A100" s="7">
+        <v>94</v>
+      </c>
+      <c r="B100" s="7"/>
+      <c t="s" r="C100" s="8">
+        <v>268</v>
+      </c>
+      <c r="D100" s="8"/>
+      <c r="E100" s="8"/>
+      <c r="F100" s="8"/>
+      <c r="G100" s="8"/>
+      <c t="s" r="H100" s="9">
+        <v>22</v>
+      </c>
+      <c r="I100" s="9"/>
+      <c r="J100" s="9"/>
+      <c r="K100" s="9"/>
+      <c t="s" r="L100" s="10">
+        <v>151</v>
+      </c>
+      <c r="M100" s="10"/>
+      <c t="s" r="N100" s="8">
+        <v>224</v>
+      </c>
+      <c r="O100" s="8"/>
+      <c t="s" r="P100" s="11">
+        <v>225</v>
+      </c>
+      <c t="s" r="Q100" s="12">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="101" ht="25.5" customHeight="1">
+      <c r="P101" s="13">
+        <v>5889.9949999999999</v>
+      </c>
+      <c r="Q101" s="13"/>
+    </row>
+    <row r="102" ht="16.5" customHeight="1">
+      <c t="s" r="A102" s="14">
+        <v>269</v>
+      </c>
+      <c r="B102" s="14"/>
+      <c r="C102" s="14"/>
+      <c r="D102" s="14"/>
+      <c r="E102" s="14"/>
+      <c r="F102" s="14"/>
+      <c t="s" r="G102" s="15">
+        <v>270</v>
+      </c>
+      <c r="H102" s="15"/>
+      <c r="I102" s="15"/>
+      <c r="J102" s="16"/>
+      <c t="s" r="K102" s="17">
+        <v>271</v>
+      </c>
+      <c r="L102" s="17"/>
+      <c r="M102" s="17"/>
+      <c r="N102" s="17"/>
+      <c r="O102" s="17"/>
+      <c r="P102" s="17"/>
+      <c r="Q102" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="462">
+  <mergeCells count="482">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -4874,10 +5039,30 @@
     <mergeCell ref="H96:K96"/>
     <mergeCell ref="L96:M96"/>
     <mergeCell ref="N96:O96"/>
-    <mergeCell ref="P97:Q97"/>
-    <mergeCell ref="A98:F98"/>
-    <mergeCell ref="G98:I98"/>
-    <mergeCell ref="K98:Q98"/>
+    <mergeCell ref="A97:B97"/>
+    <mergeCell ref="C97:G97"/>
+    <mergeCell ref="H97:K97"/>
+    <mergeCell ref="L97:M97"/>
+    <mergeCell ref="N97:O97"/>
+    <mergeCell ref="A98:B98"/>
+    <mergeCell ref="C98:G98"/>
+    <mergeCell ref="H98:K98"/>
+    <mergeCell ref="L98:M98"/>
+    <mergeCell ref="N98:O98"/>
+    <mergeCell ref="A99:B99"/>
+    <mergeCell ref="C99:G99"/>
+    <mergeCell ref="H99:K99"/>
+    <mergeCell ref="L99:M99"/>
+    <mergeCell ref="N99:O99"/>
+    <mergeCell ref="A100:B100"/>
+    <mergeCell ref="C100:G100"/>
+    <mergeCell ref="H100:K100"/>
+    <mergeCell ref="L100:M100"/>
+    <mergeCell ref="N100:O100"/>
+    <mergeCell ref="P101:Q101"/>
+    <mergeCell ref="A102:F102"/>
+    <mergeCell ref="G102:I102"/>
+    <mergeCell ref="K102:Q102"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-08-08_00-00.xlsx
+++ b/DaySale_2025-08-08_00-00.xlsx
@@ -137,6 +137,12 @@
     <t>27.0000</t>
   </si>
   <si>
+    <t>BRUFEN 400MG 30 TAB</t>
+  </si>
+  <si>
+    <t>25.7400</t>
+  </si>
+  <si>
     <t>CANDALKAN 8MG 14 TAB</t>
   </si>
   <si>
@@ -530,6 +536,15 @@
     <t>45.0000</t>
   </si>
   <si>
+    <t>REPARIL-GEL N 40 GM</t>
+  </si>
+  <si>
+    <t>58.00</t>
+  </si>
+  <si>
+    <t>58.0000</t>
+  </si>
+  <si>
     <t>ROWATINEX 45 CAPSULES</t>
   </si>
   <si>
@@ -818,7 +833,7 @@
     <t>مناديل بكر فاين</t>
   </si>
   <si>
-    <t>Friday, 8 August, 2025 9:27 PM</t>
+    <t>Friday, 8 August, 2025 9:35 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1690,7 +1705,7 @@
       <c r="F14" s="8"/>
       <c r="G14" s="8"/>
       <c t="s" r="H14" s="9">
-        <v>43</v>
+        <v>30</v>
       </c>
       <c r="I14" s="9"/>
       <c r="J14" s="9"/>
@@ -1700,14 +1715,14 @@
       </c>
       <c r="M14" s="10"/>
       <c t="s" r="N14" s="8">
-        <v>44</v>
+        <v>27</v>
       </c>
       <c r="O14" s="8"/>
       <c t="s" r="P14" s="11">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c t="s" r="Q14" s="12">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="15" ht="24.75" customHeight="1">
@@ -1716,14 +1731,14 @@
       </c>
       <c r="B15" s="7"/>
       <c t="s" r="C15" s="8">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="D15" s="8"/>
       <c r="E15" s="8"/>
       <c r="F15" s="8"/>
       <c r="G15" s="8"/>
       <c t="s" r="H15" s="9">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="I15" s="9"/>
       <c r="J15" s="9"/>
@@ -1733,11 +1748,11 @@
       </c>
       <c r="M15" s="10"/>
       <c t="s" r="N15" s="8">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="O15" s="8"/>
       <c t="s" r="P15" s="11">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c t="s" r="Q15" s="12">
         <v>18</v>
@@ -1749,14 +1764,14 @@
       </c>
       <c r="B16" s="7"/>
       <c t="s" r="C16" s="8">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D16" s="8"/>
       <c r="E16" s="8"/>
       <c r="F16" s="8"/>
       <c r="G16" s="8"/>
       <c t="s" r="H16" s="9">
-        <v>35</v>
+        <v>45</v>
       </c>
       <c r="I16" s="9"/>
       <c r="J16" s="9"/>
@@ -1766,14 +1781,14 @@
       </c>
       <c r="M16" s="10"/>
       <c t="s" r="N16" s="8">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="O16" s="8"/>
       <c t="s" r="P16" s="11">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c t="s" r="Q16" s="12">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="17" ht="25.5" customHeight="1">
@@ -1782,14 +1797,14 @@
       </c>
       <c r="B17" s="7"/>
       <c t="s" r="C17" s="8">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D17" s="8"/>
       <c r="E17" s="8"/>
       <c r="F17" s="8"/>
       <c r="G17" s="8"/>
       <c t="s" r="H17" s="9">
-        <v>53</v>
+        <v>35</v>
       </c>
       <c r="I17" s="9"/>
       <c r="J17" s="9"/>
@@ -1799,14 +1814,14 @@
       </c>
       <c r="M17" s="10"/>
       <c t="s" r="N17" s="8">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="O17" s="8"/>
       <c t="s" r="P17" s="11">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c t="s" r="Q17" s="12">
-        <v>22</v>
+        <v>16</v>
       </c>
     </row>
     <row r="18" ht="24.75" customHeight="1">
@@ -1815,14 +1830,14 @@
       </c>
       <c r="B18" s="7"/>
       <c t="s" r="C18" s="8">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="D18" s="8"/>
       <c r="E18" s="8"/>
       <c r="F18" s="8"/>
       <c r="G18" s="8"/>
       <c t="s" r="H18" s="9">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="I18" s="9"/>
       <c r="J18" s="9"/>
@@ -1832,14 +1847,14 @@
       </c>
       <c r="M18" s="10"/>
       <c t="s" r="N18" s="8">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="O18" s="8"/>
       <c t="s" r="P18" s="11">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c t="s" r="Q18" s="12">
-        <v>18</v>
+        <v>22</v>
       </c>
     </row>
     <row r="19" ht="25.5" customHeight="1">
@@ -1848,14 +1863,14 @@
       </c>
       <c r="B19" s="7"/>
       <c t="s" r="C19" s="8">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="D19" s="8"/>
       <c r="E19" s="8"/>
       <c r="F19" s="8"/>
       <c r="G19" s="8"/>
       <c t="s" r="H19" s="9">
-        <v>16</v>
+        <v>59</v>
       </c>
       <c r="I19" s="9"/>
       <c r="J19" s="9"/>
@@ -1865,14 +1880,14 @@
       </c>
       <c r="M19" s="10"/>
       <c t="s" r="N19" s="8">
-        <v>27</v>
+        <v>60</v>
       </c>
       <c r="O19" s="8"/>
       <c t="s" r="P19" s="11">
         <v>61</v>
       </c>
       <c t="s" r="Q19" s="12">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="20" ht="24.75" customHeight="1">
@@ -1898,11 +1913,11 @@
       </c>
       <c r="M20" s="10"/>
       <c t="s" r="N20" s="8">
-        <v>63</v>
+        <v>27</v>
       </c>
       <c r="O20" s="8"/>
       <c t="s" r="P20" s="11">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c t="s" r="Q20" s="12">
         <v>16</v>
@@ -1914,14 +1929,14 @@
       </c>
       <c r="B21" s="7"/>
       <c t="s" r="C21" s="8">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D21" s="8"/>
       <c r="E21" s="8"/>
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
       <c t="s" r="H21" s="9">
-        <v>66</v>
+        <v>16</v>
       </c>
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
@@ -1931,11 +1946,11 @@
       </c>
       <c r="M21" s="10"/>
       <c t="s" r="N21" s="8">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="O21" s="8"/>
       <c t="s" r="P21" s="11">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c t="s" r="Q21" s="12">
         <v>16</v>
@@ -1947,14 +1962,14 @@
       </c>
       <c r="B22" s="7"/>
       <c t="s" r="C22" s="8">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="D22" s="8"/>
       <c r="E22" s="8"/>
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c t="s" r="H22" s="9">
-        <v>18</v>
+        <v>68</v>
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
@@ -1964,11 +1979,11 @@
       </c>
       <c r="M22" s="10"/>
       <c t="s" r="N22" s="8">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="O22" s="8"/>
       <c t="s" r="P22" s="11">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c t="s" r="Q22" s="12">
         <v>16</v>
@@ -1980,14 +1995,14 @@
       </c>
       <c r="B23" s="7"/>
       <c t="s" r="C23" s="8">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D23" s="8"/>
       <c r="E23" s="8"/>
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c t="s" r="H23" s="9">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
@@ -1997,14 +2012,14 @@
       </c>
       <c r="M23" s="10"/>
       <c t="s" r="N23" s="8">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="O23" s="8"/>
       <c t="s" r="P23" s="11">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c t="s" r="Q23" s="12">
-        <v>33</v>
+        <v>16</v>
       </c>
     </row>
     <row r="24" ht="25.5" customHeight="1">
@@ -2013,14 +2028,14 @@
       </c>
       <c r="B24" s="7"/>
       <c t="s" r="C24" s="8">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D24" s="8"/>
       <c r="E24" s="8"/>
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
@@ -2030,14 +2045,14 @@
       </c>
       <c r="M24" s="10"/>
       <c t="s" r="N24" s="8">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="O24" s="8"/>
       <c t="s" r="P24" s="11">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c t="s" r="Q24" s="12">
-        <v>16</v>
+        <v>33</v>
       </c>
     </row>
     <row r="25" ht="24.75" customHeight="1">
@@ -2046,14 +2061,14 @@
       </c>
       <c r="B25" s="7"/>
       <c t="s" r="C25" s="8">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D25" s="8"/>
       <c r="E25" s="8"/>
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>79</v>
+        <v>18</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
@@ -2063,14 +2078,14 @@
       </c>
       <c r="M25" s="10"/>
       <c t="s" r="N25" s="8">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="O25" s="8"/>
       <c t="s" r="P25" s="11">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c t="s" r="Q25" s="12">
-        <v>33</v>
+        <v>16</v>
       </c>
     </row>
     <row r="26" ht="25.5" customHeight="1">
@@ -2079,14 +2094,14 @@
       </c>
       <c r="B26" s="7"/>
       <c t="s" r="C26" s="8">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="D26" s="8"/>
       <c r="E26" s="8"/>
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>33</v>
+        <v>81</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
@@ -2096,11 +2111,11 @@
       </c>
       <c r="M26" s="10"/>
       <c t="s" r="N26" s="8">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="O26" s="8"/>
       <c t="s" r="P26" s="11">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c t="s" r="Q26" s="12">
         <v>33</v>
@@ -2112,14 +2127,14 @@
       </c>
       <c r="B27" s="7"/>
       <c t="s" r="C27" s="8">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D27" s="8"/>
       <c r="E27" s="8"/>
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>43</v>
+        <v>33</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
@@ -2129,14 +2144,14 @@
       </c>
       <c r="M27" s="10"/>
       <c t="s" r="N27" s="8">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="O27" s="8"/>
       <c t="s" r="P27" s="11">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c t="s" r="Q27" s="12">
-        <v>79</v>
+        <v>33</v>
       </c>
     </row>
     <row r="28" ht="24.75" customHeight="1">
@@ -2145,14 +2160,14 @@
       </c>
       <c r="B28" s="7"/>
       <c t="s" r="C28" s="8">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D28" s="8"/>
       <c r="E28" s="8"/>
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>89</v>
+        <v>45</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
@@ -2162,14 +2177,14 @@
       </c>
       <c r="M28" s="10"/>
       <c t="s" r="N28" s="8">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="O28" s="8"/>
       <c t="s" r="P28" s="11">
-        <v>61</v>
+        <v>89</v>
       </c>
       <c t="s" r="Q28" s="12">
-        <v>18</v>
+        <v>81</v>
       </c>
     </row>
     <row r="29" ht="25.5" customHeight="1">
@@ -2178,14 +2193,14 @@
       </c>
       <c r="B29" s="7"/>
       <c t="s" r="C29" s="8">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D29" s="8"/>
       <c r="E29" s="8"/>
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>18</v>
+        <v>91</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
@@ -2199,10 +2214,10 @@
       </c>
       <c r="O29" s="8"/>
       <c t="s" r="P29" s="11">
-        <v>93</v>
+        <v>63</v>
       </c>
       <c t="s" r="Q29" s="12">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="30" ht="24.75" customHeight="1">
@@ -2211,7 +2226,7 @@
       </c>
       <c r="B30" s="7"/>
       <c t="s" r="C30" s="8">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D30" s="8"/>
       <c r="E30" s="8"/>
@@ -2228,14 +2243,14 @@
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="O30" s="8"/>
       <c t="s" r="P30" s="11">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c t="s" r="Q30" s="12">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="31" ht="25.5" customHeight="1">
@@ -2244,14 +2259,14 @@
       </c>
       <c r="B31" s="7"/>
       <c t="s" r="C31" s="8">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D31" s="8"/>
       <c r="E31" s="8"/>
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>33</v>
+        <v>18</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
@@ -2261,14 +2276,14 @@
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
-        <v>67</v>
+        <v>97</v>
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
-        <v>68</v>
+        <v>98</v>
       </c>
       <c t="s" r="Q31" s="12">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="32" ht="25.5" customHeight="1">
@@ -2277,14 +2292,14 @@
       </c>
       <c r="B32" s="7"/>
       <c t="s" r="C32" s="8">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="D32" s="8"/>
       <c r="E32" s="8"/>
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>99</v>
+        <v>33</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
@@ -2294,14 +2309,14 @@
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
-        <v>44</v>
+        <v>69</v>
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
-        <v>45</v>
+        <v>70</v>
       </c>
       <c t="s" r="Q32" s="12">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="33" ht="24.75" customHeight="1">
@@ -2317,7 +2332,7 @@
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>43</v>
+        <v>101</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
@@ -2327,11 +2342,11 @@
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
-        <v>101</v>
+        <v>46</v>
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
-        <v>102</v>
+        <v>47</v>
       </c>
       <c t="s" r="Q33" s="12">
         <v>18</v>
@@ -2343,14 +2358,14 @@
       </c>
       <c r="B34" s="7"/>
       <c t="s" r="C34" s="8">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="D34" s="8"/>
       <c r="E34" s="8"/>
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
@@ -2360,14 +2375,14 @@
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c t="s" r="Q34" s="12">
-        <v>89</v>
+        <v>18</v>
       </c>
     </row>
     <row r="35" ht="24.75" customHeight="1">
@@ -2376,14 +2391,14 @@
       </c>
       <c r="B35" s="7"/>
       <c t="s" r="C35" s="8">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D35" s="8"/>
       <c r="E35" s="8"/>
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>107</v>
+        <v>39</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
@@ -2393,14 +2408,14 @@
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c t="s" r="Q35" s="12">
-        <v>33</v>
+        <v>91</v>
       </c>
     </row>
     <row r="36" ht="25.5" customHeight="1">
@@ -2409,14 +2424,14 @@
       </c>
       <c r="B36" s="7"/>
       <c t="s" r="C36" s="8">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="D36" s="8"/>
       <c r="E36" s="8"/>
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>18</v>
+        <v>109</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
@@ -2426,14 +2441,14 @@
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c t="s" r="Q36" s="12">
-        <v>18</v>
+        <v>33</v>
       </c>
     </row>
     <row r="37" ht="25.5" customHeight="1">
@@ -2442,7 +2457,7 @@
       </c>
       <c r="B37" s="7"/>
       <c t="s" r="C37" s="8">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="D37" s="8"/>
       <c r="E37" s="8"/>
@@ -2459,11 +2474,11 @@
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c t="s" r="Q37" s="12">
         <v>18</v>
@@ -2475,14 +2490,14 @@
       </c>
       <c r="B38" s="7"/>
       <c t="s" r="C38" s="8">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="D38" s="8"/>
       <c r="E38" s="8"/>
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
@@ -2492,11 +2507,11 @@
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c t="s" r="Q38" s="12">
         <v>18</v>
@@ -2508,14 +2523,14 @@
       </c>
       <c r="B39" s="7"/>
       <c t="s" r="C39" s="8">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="D39" s="8"/>
       <c r="E39" s="8"/>
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>39</v>
+        <v>22</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
@@ -2525,11 +2540,11 @@
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>95</v>
+        <v>119</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
-        <v>96</v>
+        <v>120</v>
       </c>
       <c t="s" r="Q39" s="12">
         <v>18</v>
@@ -2541,14 +2556,14 @@
       </c>
       <c r="B40" s="7"/>
       <c t="s" r="C40" s="8">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="D40" s="8"/>
       <c r="E40" s="8"/>
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>22</v>
+        <v>39</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
@@ -2558,11 +2573,11 @@
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c t="s" r="Q40" s="12">
         <v>18</v>
@@ -2574,14 +2589,14 @@
       </c>
       <c r="B41" s="7"/>
       <c t="s" r="C41" s="8">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="D41" s="8"/>
       <c r="E41" s="8"/>
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>35</v>
+        <v>22</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
@@ -2591,14 +2606,14 @@
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>122</v>
+        <v>97</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
-        <v>123</v>
+        <v>98</v>
       </c>
       <c t="s" r="Q41" s="12">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="42" ht="25.5" customHeight="1">
@@ -2607,14 +2622,14 @@
       </c>
       <c r="B42" s="7"/>
       <c t="s" r="C42" s="8">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="D42" s="8"/>
       <c r="E42" s="8"/>
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>43</v>
+        <v>35</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
@@ -2624,14 +2639,14 @@
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c t="s" r="Q42" s="12">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="43" ht="24.75" customHeight="1">
@@ -2640,14 +2655,14 @@
       </c>
       <c r="B43" s="7"/>
       <c t="s" r="C43" s="8">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="D43" s="8"/>
       <c r="E43" s="8"/>
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>18</v>
+        <v>45</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
@@ -2657,14 +2672,14 @@
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c t="s" r="Q43" s="12">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="44" ht="25.5" customHeight="1">
@@ -2673,14 +2688,14 @@
       </c>
       <c r="B44" s="7"/>
       <c t="s" r="C44" s="8">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="D44" s="8"/>
       <c r="E44" s="8"/>
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>131</v>
+        <v>18</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
@@ -2690,14 +2705,14 @@
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c t="s" r="Q44" s="12">
-        <v>89</v>
+        <v>16</v>
       </c>
     </row>
     <row r="45" ht="24.75" customHeight="1">
@@ -2706,14 +2721,14 @@
       </c>
       <c r="B45" s="7"/>
       <c t="s" r="C45" s="8">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="D45" s="8"/>
       <c r="E45" s="8"/>
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>35</v>
+        <v>133</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
@@ -2723,14 +2738,14 @@
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>63</v>
+        <v>134</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
-        <v>64</v>
+        <v>135</v>
       </c>
       <c t="s" r="Q45" s="12">
-        <v>16</v>
+        <v>91</v>
       </c>
     </row>
     <row r="46" ht="25.5" customHeight="1">
@@ -2739,14 +2754,14 @@
       </c>
       <c r="B46" s="7"/>
       <c t="s" r="C46" s="8">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="D46" s="8"/>
       <c r="E46" s="8"/>
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>43</v>
+        <v>35</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
@@ -2756,11 +2771,11 @@
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>80</v>
+        <v>65</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
-        <v>136</v>
+        <v>66</v>
       </c>
       <c t="s" r="Q46" s="12">
         <v>16</v>
@@ -2779,7 +2794,7 @@
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>89</v>
+        <v>45</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
@@ -2789,7 +2804,7 @@
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>44</v>
+        <v>82</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
@@ -2812,7 +2827,7 @@
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>16</v>
+        <v>91</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
@@ -2822,11 +2837,11 @@
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>140</v>
+        <v>46</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c t="s" r="Q48" s="12">
         <v>16</v>
@@ -2838,14 +2853,14 @@
       </c>
       <c r="B49" s="7"/>
       <c t="s" r="C49" s="8">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="D49" s="8"/>
       <c r="E49" s="8"/>
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>35</v>
+        <v>16</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
@@ -2855,11 +2870,11 @@
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
-        <v>81</v>
+        <v>143</v>
       </c>
       <c t="s" r="Q49" s="12">
         <v>16</v>
@@ -2878,7 +2893,7 @@
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
@@ -2892,7 +2907,7 @@
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
-        <v>146</v>
+        <v>83</v>
       </c>
       <c t="s" r="Q50" s="12">
         <v>16</v>
@@ -2904,14 +2919,14 @@
       </c>
       <c r="B51" s="7"/>
       <c t="s" r="C51" s="8">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="D51" s="8"/>
       <c r="E51" s="8"/>
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>18</v>
+        <v>33</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
@@ -2921,11 +2936,11 @@
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c t="s" r="Q51" s="12">
         <v>16</v>
@@ -2937,31 +2952,31 @@
       </c>
       <c r="B52" s="7"/>
       <c t="s" r="C52" s="8">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="D52" s="8"/>
       <c r="E52" s="8"/>
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
       <c r="K52" s="9"/>
       <c t="s" r="L52" s="10">
-        <v>151</v>
+        <v>13</v>
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>132</v>
+        <v>150</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c t="s" r="Q52" s="12">
-        <v>33</v>
+        <v>16</v>
       </c>
     </row>
     <row r="53" ht="24.75" customHeight="1">
@@ -2970,31 +2985,31 @@
       </c>
       <c r="B53" s="7"/>
       <c t="s" r="C53" s="8">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="D53" s="8"/>
       <c r="E53" s="8"/>
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>39</v>
+        <v>22</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
       <c r="K53" s="9"/>
       <c t="s" r="L53" s="10">
-        <v>13</v>
+        <v>153</v>
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
-        <v>92</v>
+        <v>134</v>
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
         <v>154</v>
       </c>
       <c t="s" r="Q53" s="12">
-        <v>18</v>
+        <v>33</v>
       </c>
     </row>
     <row r="54" ht="25.5" customHeight="1">
@@ -3010,7 +3025,7 @@
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>16</v>
+        <v>39</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
@@ -3020,7 +3035,7 @@
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
-        <v>145</v>
+        <v>94</v>
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
@@ -3053,14 +3068,14 @@
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
-        <v>158</v>
+        <v>147</v>
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
-        <v>45</v>
+        <v>158</v>
       </c>
       <c t="s" r="Q55" s="12">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="56" ht="25.5" customHeight="1">
@@ -3076,7 +3091,7 @@
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>43</v>
+        <v>16</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
@@ -3090,10 +3105,10 @@
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
-        <v>161</v>
+        <v>47</v>
       </c>
       <c t="s" r="Q56" s="12">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="57" ht="25.5" customHeight="1">
@@ -3102,14 +3117,14 @@
       </c>
       <c r="B57" s="7"/>
       <c t="s" r="C57" s="8">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="D57" s="8"/>
       <c r="E57" s="8"/>
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>18</v>
+        <v>45</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
@@ -3119,14 +3134,14 @@
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c t="s" r="Q57" s="12">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="58" ht="24.75" customHeight="1">
@@ -3135,14 +3150,14 @@
       </c>
       <c r="B58" s="7"/>
       <c t="s" r="C58" s="8">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="D58" s="8"/>
       <c r="E58" s="8"/>
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c t="s" r="H58" s="9">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
@@ -3152,7 +3167,7 @@
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
-        <v>101</v>
+        <v>165</v>
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
@@ -3175,7 +3190,7 @@
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c t="s" r="H59" s="9">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
@@ -3185,14 +3200,14 @@
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
         <v>168</v>
       </c>
       <c t="s" r="Q59" s="12">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="60" ht="24.75" customHeight="1">
@@ -3208,7 +3223,7 @@
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c t="s" r="H60" s="9">
-        <v>170</v>
+        <v>22</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
@@ -3218,11 +3233,11 @@
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
-        <v>171</v>
+        <v>106</v>
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c t="s" r="Q60" s="12">
         <v>18</v>
@@ -3234,14 +3249,14 @@
       </c>
       <c r="B61" s="7"/>
       <c t="s" r="C61" s="8">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="D61" s="8"/>
       <c r="E61" s="8"/>
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
       <c t="s" r="H61" s="9">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
@@ -3251,14 +3266,14 @@
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
-        <v>143</v>
+        <v>173</v>
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
-        <v>81</v>
+        <v>174</v>
       </c>
       <c t="s" r="Q61" s="12">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="62" ht="25.5" customHeight="1">
@@ -3274,7 +3289,7 @@
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
       <c t="s" r="H62" s="9">
-        <v>30</v>
+        <v>18</v>
       </c>
       <c r="I62" s="9"/>
       <c r="J62" s="9"/>
@@ -3284,14 +3299,14 @@
       </c>
       <c r="M62" s="10"/>
       <c t="s" r="N62" s="8">
-        <v>95</v>
+        <v>176</v>
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c t="s" r="Q62" s="12">
-        <v>33</v>
+        <v>18</v>
       </c>
     </row>
     <row r="63" ht="24.75" customHeight="1">
@@ -3300,14 +3315,14 @@
       </c>
       <c r="B63" s="7"/>
       <c t="s" r="C63" s="8">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="D63" s="8"/>
       <c r="E63" s="8"/>
       <c r="F63" s="8"/>
       <c r="G63" s="8"/>
       <c t="s" r="H63" s="9">
-        <v>66</v>
+        <v>179</v>
       </c>
       <c r="I63" s="9"/>
       <c r="J63" s="9"/>
@@ -3317,14 +3332,14 @@
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
-        <v>27</v>
+        <v>145</v>
       </c>
       <c r="O63" s="8"/>
       <c t="s" r="P63" s="11">
-        <v>178</v>
+        <v>83</v>
       </c>
       <c t="s" r="Q63" s="12">
-        <v>35</v>
+        <v>16</v>
       </c>
     </row>
     <row r="64" ht="25.5" customHeight="1">
@@ -3333,7 +3348,7 @@
       </c>
       <c r="B64" s="7"/>
       <c t="s" r="C64" s="8">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="D64" s="8"/>
       <c r="E64" s="8"/>
@@ -3350,14 +3365,14 @@
       </c>
       <c r="M64" s="10"/>
       <c t="s" r="N64" s="8">
-        <v>90</v>
+        <v>97</v>
       </c>
       <c r="O64" s="8"/>
       <c t="s" r="P64" s="11">
-        <v>61</v>
+        <v>181</v>
       </c>
       <c t="s" r="Q64" s="12">
-        <v>18</v>
+        <v>33</v>
       </c>
     </row>
     <row r="65" ht="24.75" customHeight="1">
@@ -3366,14 +3381,14 @@
       </c>
       <c r="B65" s="7"/>
       <c t="s" r="C65" s="8">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="D65" s="8"/>
       <c r="E65" s="8"/>
       <c r="F65" s="8"/>
       <c r="G65" s="8"/>
       <c t="s" r="H65" s="9">
-        <v>35</v>
+        <v>68</v>
       </c>
       <c r="I65" s="9"/>
       <c r="J65" s="9"/>
@@ -3383,14 +3398,14 @@
       </c>
       <c r="M65" s="10"/>
       <c t="s" r="N65" s="8">
-        <v>40</v>
+        <v>27</v>
       </c>
       <c r="O65" s="8"/>
       <c t="s" r="P65" s="11">
-        <v>41</v>
+        <v>183</v>
       </c>
       <c t="s" r="Q65" s="12">
-        <v>16</v>
+        <v>35</v>
       </c>
     </row>
     <row r="66" ht="25.5" customHeight="1">
@@ -3399,14 +3414,14 @@
       </c>
       <c r="B66" s="7"/>
       <c t="s" r="C66" s="8">
-        <v>181</v>
+        <v>184</v>
       </c>
       <c r="D66" s="8"/>
       <c r="E66" s="8"/>
       <c r="F66" s="8"/>
       <c r="G66" s="8"/>
       <c t="s" r="H66" s="9">
-        <v>182</v>
+        <v>30</v>
       </c>
       <c r="I66" s="9"/>
       <c r="J66" s="9"/>
@@ -3416,14 +3431,14 @@
       </c>
       <c r="M66" s="10"/>
       <c t="s" r="N66" s="8">
-        <v>183</v>
+        <v>92</v>
       </c>
       <c r="O66" s="8"/>
       <c t="s" r="P66" s="11">
-        <v>149</v>
+        <v>63</v>
       </c>
       <c t="s" r="Q66" s="12">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="67" ht="25.5" customHeight="1">
@@ -3432,14 +3447,14 @@
       </c>
       <c r="B67" s="7"/>
       <c t="s" r="C67" s="8">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="D67" s="8"/>
       <c r="E67" s="8"/>
       <c r="F67" s="8"/>
       <c r="G67" s="8"/>
       <c t="s" r="H67" s="9">
-        <v>182</v>
+        <v>35</v>
       </c>
       <c r="I67" s="9"/>
       <c r="J67" s="9"/>
@@ -3449,14 +3464,14 @@
       </c>
       <c r="M67" s="10"/>
       <c t="s" r="N67" s="8">
-        <v>185</v>
+        <v>40</v>
       </c>
       <c r="O67" s="8"/>
       <c t="s" r="P67" s="11">
-        <v>186</v>
+        <v>41</v>
       </c>
       <c t="s" r="Q67" s="12">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="68" ht="24.75" customHeight="1">
@@ -3465,14 +3480,14 @@
       </c>
       <c r="B68" s="7"/>
       <c t="s" r="C68" s="8">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="D68" s="8"/>
       <c r="E68" s="8"/>
       <c r="F68" s="8"/>
       <c r="G68" s="8"/>
       <c t="s" r="H68" s="9">
-        <v>43</v>
+        <v>187</v>
       </c>
       <c r="I68" s="9"/>
       <c r="J68" s="9"/>
@@ -3486,10 +3501,10 @@
       </c>
       <c r="O68" s="8"/>
       <c t="s" r="P68" s="11">
-        <v>189</v>
+        <v>151</v>
       </c>
       <c t="s" r="Q68" s="12">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="69" ht="25.5" customHeight="1">
@@ -3498,14 +3513,14 @@
       </c>
       <c r="B69" s="7"/>
       <c t="s" r="C69" s="8">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="D69" s="8"/>
       <c r="E69" s="8"/>
       <c r="F69" s="8"/>
       <c r="G69" s="8"/>
       <c t="s" r="H69" s="9">
-        <v>35</v>
+        <v>187</v>
       </c>
       <c r="I69" s="9"/>
       <c r="J69" s="9"/>
@@ -3515,14 +3530,14 @@
       </c>
       <c r="M69" s="10"/>
       <c t="s" r="N69" s="8">
-        <v>183</v>
+        <v>190</v>
       </c>
       <c r="O69" s="8"/>
       <c t="s" r="P69" s="11">
-        <v>149</v>
+        <v>191</v>
       </c>
       <c t="s" r="Q69" s="12">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="70" ht="24.75" customHeight="1">
@@ -3531,14 +3546,14 @@
       </c>
       <c r="B70" s="7"/>
       <c t="s" r="C70" s="8">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="D70" s="8"/>
       <c r="E70" s="8"/>
       <c r="F70" s="8"/>
       <c r="G70" s="8"/>
       <c t="s" r="H70" s="9">
-        <v>35</v>
+        <v>45</v>
       </c>
       <c r="I70" s="9"/>
       <c r="J70" s="9"/>
@@ -3548,14 +3563,14 @@
       </c>
       <c r="M70" s="10"/>
       <c t="s" r="N70" s="8">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="O70" s="8"/>
       <c t="s" r="P70" s="11">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c t="s" r="Q70" s="12">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="71" ht="25.5" customHeight="1">
@@ -3564,14 +3579,14 @@
       </c>
       <c r="B71" s="7"/>
       <c t="s" r="C71" s="8">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="D71" s="8"/>
       <c r="E71" s="8"/>
       <c r="F71" s="8"/>
       <c r="G71" s="8"/>
       <c t="s" r="H71" s="9">
-        <v>22</v>
+        <v>35</v>
       </c>
       <c r="I71" s="9"/>
       <c r="J71" s="9"/>
@@ -3581,14 +3596,14 @@
       </c>
       <c r="M71" s="10"/>
       <c t="s" r="N71" s="8">
-        <v>117</v>
+        <v>188</v>
       </c>
       <c r="O71" s="8"/>
       <c t="s" r="P71" s="11">
-        <v>37</v>
+        <v>151</v>
       </c>
       <c t="s" r="Q71" s="12">
-        <v>22</v>
+        <v>16</v>
       </c>
     </row>
     <row r="72" ht="25.5" customHeight="1">
@@ -3597,14 +3612,14 @@
       </c>
       <c r="B72" s="7"/>
       <c t="s" r="C72" s="8">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="D72" s="8"/>
       <c r="E72" s="8"/>
       <c r="F72" s="8"/>
       <c r="G72" s="8"/>
       <c t="s" r="H72" s="9">
-        <v>18</v>
+        <v>35</v>
       </c>
       <c r="I72" s="9"/>
       <c r="J72" s="9"/>
@@ -3614,14 +3629,14 @@
       </c>
       <c r="M72" s="10"/>
       <c t="s" r="N72" s="8">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="O72" s="8"/>
       <c t="s" r="P72" s="11">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c t="s" r="Q72" s="12">
-        <v>35</v>
+        <v>16</v>
       </c>
     </row>
     <row r="73" ht="24.75" customHeight="1">
@@ -3630,14 +3645,14 @@
       </c>
       <c r="B73" s="7"/>
       <c t="s" r="C73" s="8">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="D73" s="8"/>
       <c r="E73" s="8"/>
       <c r="F73" s="8"/>
       <c r="G73" s="8"/>
       <c t="s" r="H73" s="9">
-        <v>43</v>
+        <v>22</v>
       </c>
       <c r="I73" s="9"/>
       <c r="J73" s="9"/>
@@ -3647,14 +3662,14 @@
       </c>
       <c r="M73" s="10"/>
       <c t="s" r="N73" s="8">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="O73" s="8"/>
       <c t="s" r="P73" s="11">
-        <v>118</v>
+        <v>37</v>
       </c>
       <c t="s" r="Q73" s="12">
-        <v>18</v>
+        <v>22</v>
       </c>
     </row>
     <row r="74" ht="25.5" customHeight="1">
@@ -3663,14 +3678,14 @@
       </c>
       <c r="B74" s="7"/>
       <c t="s" r="C74" s="8">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="D74" s="8"/>
       <c r="E74" s="8"/>
       <c r="F74" s="8"/>
       <c r="G74" s="8"/>
       <c t="s" r="H74" s="9">
-        <v>33</v>
+        <v>18</v>
       </c>
       <c r="I74" s="9"/>
       <c r="J74" s="9"/>
@@ -3680,14 +3695,14 @@
       </c>
       <c r="M74" s="10"/>
       <c t="s" r="N74" s="8">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="O74" s="8"/>
       <c t="s" r="P74" s="11">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c t="s" r="Q74" s="12">
-        <v>16</v>
+        <v>35</v>
       </c>
     </row>
     <row r="75" ht="24.75" customHeight="1">
@@ -3696,14 +3711,14 @@
       </c>
       <c r="B75" s="7"/>
       <c t="s" r="C75" s="8">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="D75" s="8"/>
       <c r="E75" s="8"/>
       <c r="F75" s="8"/>
       <c r="G75" s="8"/>
       <c t="s" r="H75" s="9">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="I75" s="9"/>
       <c r="J75" s="9"/>
@@ -3713,14 +3728,14 @@
       </c>
       <c r="M75" s="10"/>
       <c t="s" r="N75" s="8">
-        <v>80</v>
+        <v>119</v>
       </c>
       <c r="O75" s="8"/>
       <c t="s" r="P75" s="11">
-        <v>136</v>
+        <v>120</v>
       </c>
       <c t="s" r="Q75" s="12">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="76" ht="25.5" customHeight="1">
@@ -3729,14 +3744,14 @@
       </c>
       <c r="B76" s="7"/>
       <c t="s" r="C76" s="8">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="D76" s="8"/>
       <c r="E76" s="8"/>
       <c r="F76" s="8"/>
       <c r="G76" s="8"/>
       <c t="s" r="H76" s="9">
-        <v>89</v>
+        <v>33</v>
       </c>
       <c r="I76" s="9"/>
       <c r="J76" s="9"/>
@@ -3746,14 +3761,14 @@
       </c>
       <c r="M76" s="10"/>
       <c t="s" r="N76" s="8">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="O76" s="8"/>
       <c t="s" r="P76" s="11">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c t="s" r="Q76" s="12">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="77" ht="25.5" customHeight="1">
@@ -3762,14 +3777,14 @@
       </c>
       <c r="B77" s="7"/>
       <c t="s" r="C77" s="8">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="D77" s="8"/>
       <c r="E77" s="8"/>
       <c r="F77" s="8"/>
       <c r="G77" s="8"/>
       <c t="s" r="H77" s="9">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="I77" s="9"/>
       <c r="J77" s="9"/>
@@ -3779,14 +3794,14 @@
       </c>
       <c r="M77" s="10"/>
       <c t="s" r="N77" s="8">
-        <v>207</v>
+        <v>82</v>
       </c>
       <c r="O77" s="8"/>
       <c t="s" r="P77" s="11">
-        <v>149</v>
+        <v>138</v>
       </c>
       <c t="s" r="Q77" s="12">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="78" ht="24.75" customHeight="1">
@@ -3802,7 +3817,7 @@
       <c r="F78" s="8"/>
       <c r="G78" s="8"/>
       <c t="s" r="H78" s="9">
-        <v>107</v>
+        <v>91</v>
       </c>
       <c r="I78" s="9"/>
       <c r="J78" s="9"/>
@@ -3819,7 +3834,7 @@
         <v>210</v>
       </c>
       <c t="s" r="Q78" s="12">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="79" ht="25.5" customHeight="1">
@@ -3835,7 +3850,7 @@
       <c r="F79" s="8"/>
       <c r="G79" s="8"/>
       <c t="s" r="H79" s="9">
-        <v>18</v>
+        <v>45</v>
       </c>
       <c r="I79" s="9"/>
       <c r="J79" s="9"/>
@@ -3845,14 +3860,14 @@
       </c>
       <c r="M79" s="10"/>
       <c t="s" r="N79" s="8">
-        <v>209</v>
+        <v>212</v>
       </c>
       <c r="O79" s="8"/>
       <c t="s" r="P79" s="11">
-        <v>212</v>
+        <v>151</v>
       </c>
       <c t="s" r="Q79" s="12">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="80" ht="24.75" customHeight="1">
@@ -3868,7 +3883,7 @@
       <c r="F80" s="8"/>
       <c r="G80" s="8"/>
       <c t="s" r="H80" s="9">
-        <v>43</v>
+        <v>109</v>
       </c>
       <c r="I80" s="9"/>
       <c r="J80" s="9"/>
@@ -3885,7 +3900,7 @@
         <v>215</v>
       </c>
       <c t="s" r="Q80" s="12">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="81" ht="25.5" customHeight="1">
@@ -3901,7 +3916,7 @@
       <c r="F81" s="8"/>
       <c r="G81" s="8"/>
       <c t="s" r="H81" s="9">
-        <v>33</v>
+        <v>18</v>
       </c>
       <c r="I81" s="9"/>
       <c r="J81" s="9"/>
@@ -3911,11 +3926,11 @@
       </c>
       <c r="M81" s="10"/>
       <c t="s" r="N81" s="8">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="O81" s="8"/>
       <c t="s" r="P81" s="11">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c t="s" r="Q81" s="12">
         <v>16</v>
@@ -3927,31 +3942,31 @@
       </c>
       <c r="B82" s="7"/>
       <c t="s" r="C82" s="8">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="D82" s="8"/>
       <c r="E82" s="8"/>
       <c r="F82" s="8"/>
       <c r="G82" s="8"/>
       <c t="s" r="H82" s="9">
-        <v>220</v>
+        <v>45</v>
       </c>
       <c r="I82" s="9"/>
       <c r="J82" s="9"/>
       <c r="K82" s="9"/>
       <c t="s" r="L82" s="10">
-        <v>151</v>
+        <v>13</v>
       </c>
       <c r="M82" s="10"/>
       <c t="s" r="N82" s="8">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="O82" s="8"/>
       <c t="s" r="P82" s="11">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c t="s" r="Q82" s="12">
-        <v>39</v>
+        <v>18</v>
       </c>
     </row>
     <row r="83" ht="24.75" customHeight="1">
@@ -3960,31 +3975,31 @@
       </c>
       <c r="B83" s="7"/>
       <c t="s" r="C83" s="8">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="D83" s="8"/>
       <c r="E83" s="8"/>
       <c r="F83" s="8"/>
       <c r="G83" s="8"/>
       <c t="s" r="H83" s="9">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="I83" s="9"/>
       <c r="J83" s="9"/>
       <c r="K83" s="9"/>
       <c t="s" r="L83" s="10">
-        <v>151</v>
+        <v>13</v>
       </c>
       <c r="M83" s="10"/>
       <c t="s" r="N83" s="8">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="O83" s="8"/>
       <c t="s" r="P83" s="11">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c t="s" r="Q83" s="12">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="84" ht="25.5" customHeight="1">
@@ -3993,31 +4008,31 @@
       </c>
       <c r="B84" s="7"/>
       <c t="s" r="C84" s="8">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="D84" s="8"/>
       <c r="E84" s="8"/>
       <c r="F84" s="8"/>
       <c r="G84" s="8"/>
       <c t="s" r="H84" s="9">
-        <v>43</v>
+        <v>225</v>
       </c>
       <c r="I84" s="9"/>
       <c r="J84" s="9"/>
       <c r="K84" s="9"/>
       <c t="s" r="L84" s="10">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="M84" s="10"/>
       <c t="s" r="N84" s="8">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="O84" s="8"/>
       <c t="s" r="P84" s="11">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c t="s" r="Q84" s="12">
-        <v>22</v>
+        <v>39</v>
       </c>
     </row>
     <row r="85" ht="24.75" customHeight="1">
@@ -4026,28 +4041,28 @@
       </c>
       <c r="B85" s="7"/>
       <c t="s" r="C85" s="8">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="D85" s="8"/>
       <c r="E85" s="8"/>
       <c r="F85" s="8"/>
       <c r="G85" s="8"/>
       <c t="s" r="H85" s="9">
-        <v>18</v>
+        <v>39</v>
       </c>
       <c r="I85" s="9"/>
       <c r="J85" s="9"/>
       <c r="K85" s="9"/>
       <c t="s" r="L85" s="10">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="M85" s="10"/>
       <c t="s" r="N85" s="8">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="O85" s="8"/>
       <c t="s" r="P85" s="11">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c t="s" r="Q85" s="12">
         <v>18</v>
@@ -4059,28 +4074,28 @@
       </c>
       <c r="B86" s="7"/>
       <c t="s" r="C86" s="8">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="D86" s="8"/>
       <c r="E86" s="8"/>
       <c r="F86" s="8"/>
       <c r="G86" s="8"/>
       <c t="s" r="H86" s="9">
-        <v>233</v>
+        <v>45</v>
       </c>
       <c r="I86" s="9"/>
       <c r="J86" s="9"/>
       <c r="K86" s="9"/>
       <c t="s" r="L86" s="10">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="M86" s="10"/>
       <c t="s" r="N86" s="8">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="O86" s="8"/>
       <c t="s" r="P86" s="11">
-        <v>152</v>
+        <v>233</v>
       </c>
       <c t="s" r="Q86" s="12">
         <v>22</v>
@@ -4092,31 +4107,31 @@
       </c>
       <c r="B87" s="7"/>
       <c t="s" r="C87" s="8">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="D87" s="8"/>
       <c r="E87" s="8"/>
       <c r="F87" s="8"/>
       <c r="G87" s="8"/>
       <c t="s" r="H87" s="9">
-        <v>43</v>
+        <v>18</v>
       </c>
       <c r="I87" s="9"/>
       <c r="J87" s="9"/>
       <c r="K87" s="9"/>
       <c t="s" r="L87" s="10">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="M87" s="10"/>
       <c t="s" r="N87" s="8">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="O87" s="8"/>
       <c t="s" r="P87" s="11">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c t="s" r="Q87" s="12">
-        <v>39</v>
+        <v>18</v>
       </c>
     </row>
     <row r="88" ht="24.75" customHeight="1">
@@ -4125,20 +4140,20 @@
       </c>
       <c r="B88" s="7"/>
       <c t="s" r="C88" s="8">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="D88" s="8"/>
       <c r="E88" s="8"/>
       <c r="F88" s="8"/>
       <c r="G88" s="8"/>
       <c t="s" r="H88" s="9">
-        <v>43</v>
+        <v>238</v>
       </c>
       <c r="I88" s="9"/>
       <c r="J88" s="9"/>
       <c r="K88" s="9"/>
       <c t="s" r="L88" s="10">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="M88" s="10"/>
       <c t="s" r="N88" s="8">
@@ -4146,10 +4161,10 @@
       </c>
       <c r="O88" s="8"/>
       <c t="s" r="P88" s="11">
-        <v>240</v>
+        <v>154</v>
       </c>
       <c t="s" r="Q88" s="12">
-        <v>79</v>
+        <v>22</v>
       </c>
     </row>
     <row r="89" ht="25.5" customHeight="1">
@@ -4158,31 +4173,31 @@
       </c>
       <c r="B89" s="7"/>
       <c t="s" r="C89" s="8">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="D89" s="8"/>
       <c r="E89" s="8"/>
       <c r="F89" s="8"/>
       <c r="G89" s="8"/>
       <c t="s" r="H89" s="9">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="I89" s="9"/>
       <c r="J89" s="9"/>
       <c r="K89" s="9"/>
       <c t="s" r="L89" s="10">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="M89" s="10"/>
       <c t="s" r="N89" s="8">
-        <v>227</v>
+        <v>241</v>
       </c>
       <c r="O89" s="8"/>
       <c t="s" r="P89" s="11">
-        <v>228</v>
+        <v>242</v>
       </c>
       <c t="s" r="Q89" s="12">
-        <v>22</v>
+        <v>39</v>
       </c>
     </row>
     <row r="90" ht="24.75" customHeight="1">
@@ -4191,31 +4206,31 @@
       </c>
       <c r="B90" s="7"/>
       <c t="s" r="C90" s="8">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="D90" s="8"/>
       <c r="E90" s="8"/>
       <c r="F90" s="8"/>
       <c r="G90" s="8"/>
       <c t="s" r="H90" s="9">
-        <v>22</v>
+        <v>45</v>
       </c>
       <c r="I90" s="9"/>
       <c r="J90" s="9"/>
       <c r="K90" s="9"/>
       <c t="s" r="L90" s="10">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="M90" s="10"/>
       <c t="s" r="N90" s="8">
-        <v>230</v>
+        <v>244</v>
       </c>
       <c r="O90" s="8"/>
       <c t="s" r="P90" s="11">
-        <v>231</v>
+        <v>245</v>
       </c>
       <c t="s" r="Q90" s="12">
-        <v>18</v>
+        <v>81</v>
       </c>
     </row>
     <row r="91" ht="25.5" customHeight="1">
@@ -4224,31 +4239,31 @@
       </c>
       <c r="B91" s="7"/>
       <c t="s" r="C91" s="8">
-        <v>243</v>
+        <v>246</v>
       </c>
       <c r="D91" s="8"/>
       <c r="E91" s="8"/>
       <c r="F91" s="8"/>
       <c r="G91" s="8"/>
       <c t="s" r="H91" s="9">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="I91" s="9"/>
       <c r="J91" s="9"/>
       <c r="K91" s="9"/>
       <c t="s" r="L91" s="10">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="M91" s="10"/>
       <c t="s" r="N91" s="8">
-        <v>221</v>
+        <v>232</v>
       </c>
       <c r="O91" s="8"/>
       <c t="s" r="P91" s="11">
-        <v>244</v>
+        <v>233</v>
       </c>
       <c t="s" r="Q91" s="12">
-        <v>18</v>
+        <v>22</v>
       </c>
     </row>
     <row r="92" ht="25.5" customHeight="1">
@@ -4257,28 +4272,28 @@
       </c>
       <c r="B92" s="7"/>
       <c t="s" r="C92" s="8">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="D92" s="8"/>
       <c r="E92" s="8"/>
       <c r="F92" s="8"/>
       <c r="G92" s="8"/>
       <c t="s" r="H92" s="9">
-        <v>246</v>
+        <v>22</v>
       </c>
       <c r="I92" s="9"/>
       <c r="J92" s="9"/>
       <c r="K92" s="9"/>
       <c t="s" r="L92" s="10">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="M92" s="10"/>
       <c t="s" r="N92" s="8">
-        <v>247</v>
+        <v>235</v>
       </c>
       <c r="O92" s="8"/>
       <c t="s" r="P92" s="11">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c t="s" r="Q92" s="12">
         <v>18</v>
@@ -4297,21 +4312,21 @@
       <c r="F93" s="8"/>
       <c r="G93" s="8"/>
       <c t="s" r="H93" s="9">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="I93" s="9"/>
       <c r="J93" s="9"/>
       <c r="K93" s="9"/>
       <c t="s" r="L93" s="10">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="M93" s="10"/>
       <c t="s" r="N93" s="8">
-        <v>249</v>
+        <v>226</v>
       </c>
       <c r="O93" s="8"/>
       <c t="s" r="P93" s="11">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c t="s" r="Q93" s="12">
         <v>18</v>
@@ -4323,31 +4338,31 @@
       </c>
       <c r="B94" s="7"/>
       <c t="s" r="C94" s="8">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="D94" s="8"/>
       <c r="E94" s="8"/>
       <c r="F94" s="8"/>
       <c r="G94" s="8"/>
       <c t="s" r="H94" s="9">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="I94" s="9"/>
       <c r="J94" s="9"/>
       <c r="K94" s="9"/>
       <c t="s" r="L94" s="10">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="M94" s="10"/>
       <c t="s" r="N94" s="8">
-        <v>230</v>
+        <v>252</v>
       </c>
       <c r="O94" s="8"/>
       <c t="s" r="P94" s="11">
-        <v>253</v>
+        <v>242</v>
       </c>
       <c t="s" r="Q94" s="12">
-        <v>79</v>
+        <v>18</v>
       </c>
     </row>
     <row r="95" ht="24.75" customHeight="1">
@@ -4356,28 +4371,28 @@
       </c>
       <c r="B95" s="7"/>
       <c t="s" r="C95" s="8">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="D95" s="8"/>
       <c r="E95" s="8"/>
       <c r="F95" s="8"/>
       <c r="G95" s="8"/>
       <c t="s" r="H95" s="9">
-        <v>255</v>
+        <v>39</v>
       </c>
       <c r="I95" s="9"/>
       <c r="J95" s="9"/>
       <c r="K95" s="9"/>
       <c t="s" r="L95" s="10">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="M95" s="10"/>
       <c t="s" r="N95" s="8">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="O95" s="8"/>
       <c t="s" r="P95" s="11">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c t="s" r="Q95" s="12">
         <v>18</v>
@@ -4389,31 +4404,31 @@
       </c>
       <c r="B96" s="7"/>
       <c t="s" r="C96" s="8">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="D96" s="8"/>
       <c r="E96" s="8"/>
       <c r="F96" s="8"/>
       <c r="G96" s="8"/>
       <c t="s" r="H96" s="9">
-        <v>43</v>
+        <v>257</v>
       </c>
       <c r="I96" s="9"/>
       <c r="J96" s="9"/>
       <c r="K96" s="9"/>
       <c t="s" r="L96" s="10">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="M96" s="10"/>
       <c t="s" r="N96" s="8">
-        <v>224</v>
+        <v>235</v>
       </c>
       <c r="O96" s="8"/>
       <c t="s" r="P96" s="11">
-        <v>244</v>
+        <v>258</v>
       </c>
       <c t="s" r="Q96" s="12">
-        <v>22</v>
+        <v>81</v>
       </c>
     </row>
     <row r="97" ht="25.5" customHeight="1">
@@ -4429,21 +4444,21 @@
       <c r="F97" s="8"/>
       <c r="G97" s="8"/>
       <c t="s" r="H97" s="9">
-        <v>18</v>
+        <v>260</v>
       </c>
       <c r="I97" s="9"/>
       <c r="J97" s="9"/>
       <c r="K97" s="9"/>
       <c t="s" r="L97" s="10">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="M97" s="10"/>
       <c t="s" r="N97" s="8">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="O97" s="8"/>
       <c t="s" r="P97" s="11">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c t="s" r="Q97" s="12">
         <v>18</v>
@@ -4455,31 +4470,31 @@
       </c>
       <c r="B98" s="7"/>
       <c t="s" r="C98" s="8">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="D98" s="8"/>
       <c r="E98" s="8"/>
       <c r="F98" s="8"/>
       <c r="G98" s="8"/>
       <c t="s" r="H98" s="9">
-        <v>233</v>
+        <v>45</v>
       </c>
       <c r="I98" s="9"/>
       <c r="J98" s="9"/>
       <c r="K98" s="9"/>
       <c t="s" r="L98" s="10">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="M98" s="10"/>
       <c t="s" r="N98" s="8">
-        <v>263</v>
+        <v>229</v>
       </c>
       <c r="O98" s="8"/>
       <c t="s" r="P98" s="11">
-        <v>264</v>
+        <v>249</v>
       </c>
       <c t="s" r="Q98" s="12">
-        <v>18</v>
+        <v>22</v>
       </c>
     </row>
     <row r="99" ht="25.5" customHeight="1">
@@ -4488,28 +4503,28 @@
       </c>
       <c r="B99" s="7"/>
       <c t="s" r="C99" s="8">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="D99" s="8"/>
       <c r="E99" s="8"/>
       <c r="F99" s="8"/>
       <c r="G99" s="8"/>
       <c t="s" r="H99" s="9">
-        <v>43</v>
+        <v>18</v>
       </c>
       <c r="I99" s="9"/>
       <c r="J99" s="9"/>
       <c r="K99" s="9"/>
       <c t="s" r="L99" s="10">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="M99" s="10"/>
       <c t="s" r="N99" s="8">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="O99" s="8"/>
       <c t="s" r="P99" s="11">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c t="s" r="Q99" s="12">
         <v>18</v>
@@ -4521,66 +4536,132 @@
       </c>
       <c r="B100" s="7"/>
       <c t="s" r="C100" s="8">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="D100" s="8"/>
       <c r="E100" s="8"/>
       <c r="F100" s="8"/>
       <c r="G100" s="8"/>
       <c t="s" r="H100" s="9">
-        <v>22</v>
+        <v>238</v>
       </c>
       <c r="I100" s="9"/>
       <c r="J100" s="9"/>
       <c r="K100" s="9"/>
       <c t="s" r="L100" s="10">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="M100" s="10"/>
       <c t="s" r="N100" s="8">
-        <v>224</v>
+        <v>268</v>
       </c>
       <c r="O100" s="8"/>
       <c t="s" r="P100" s="11">
-        <v>225</v>
+        <v>269</v>
       </c>
       <c t="s" r="Q100" s="12">
         <v>18</v>
       </c>
     </row>
     <row r="101" ht="25.5" customHeight="1">
-      <c r="P101" s="13">
-        <v>5889.9949999999999</v>
-      </c>
-      <c r="Q101" s="13"/>
-    </row>
-    <row r="102" ht="16.5" customHeight="1">
-      <c t="s" r="A102" s="14">
-        <v>269</v>
-      </c>
-      <c r="B102" s="14"/>
-      <c r="C102" s="14"/>
-      <c r="D102" s="14"/>
-      <c r="E102" s="14"/>
-      <c r="F102" s="14"/>
-      <c t="s" r="G102" s="15">
+      <c r="A101" s="7">
+        <v>95</v>
+      </c>
+      <c r="B101" s="7"/>
+      <c t="s" r="C101" s="8">
         <v>270</v>
       </c>
-      <c r="H102" s="15"/>
-      <c r="I102" s="15"/>
-      <c r="J102" s="16"/>
-      <c t="s" r="K102" s="17">
+      <c r="D101" s="8"/>
+      <c r="E101" s="8"/>
+      <c r="F101" s="8"/>
+      <c r="G101" s="8"/>
+      <c t="s" r="H101" s="9">
+        <v>45</v>
+      </c>
+      <c r="I101" s="9"/>
+      <c r="J101" s="9"/>
+      <c r="K101" s="9"/>
+      <c t="s" r="L101" s="10">
+        <v>153</v>
+      </c>
+      <c r="M101" s="10"/>
+      <c t="s" r="N101" s="8">
         <v>271</v>
       </c>
-      <c r="L102" s="17"/>
-      <c r="M102" s="17"/>
-      <c r="N102" s="17"/>
-      <c r="O102" s="17"/>
-      <c r="P102" s="17"/>
-      <c r="Q102" s="17"/>
+      <c r="O101" s="8"/>
+      <c t="s" r="P101" s="11">
+        <v>272</v>
+      </c>
+      <c t="s" r="Q101" s="12">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="102" ht="25.5" customHeight="1">
+      <c r="A102" s="7">
+        <v>96</v>
+      </c>
+      <c r="B102" s="7"/>
+      <c t="s" r="C102" s="8">
+        <v>273</v>
+      </c>
+      <c r="D102" s="8"/>
+      <c r="E102" s="8"/>
+      <c r="F102" s="8"/>
+      <c r="G102" s="8"/>
+      <c t="s" r="H102" s="9">
+        <v>22</v>
+      </c>
+      <c r="I102" s="9"/>
+      <c r="J102" s="9"/>
+      <c r="K102" s="9"/>
+      <c t="s" r="L102" s="10">
+        <v>153</v>
+      </c>
+      <c r="M102" s="10"/>
+      <c t="s" r="N102" s="8">
+        <v>229</v>
+      </c>
+      <c r="O102" s="8"/>
+      <c t="s" r="P102" s="11">
+        <v>230</v>
+      </c>
+      <c t="s" r="Q102" s="12">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="103" ht="24.75" customHeight="1">
+      <c r="P103" s="13">
+        <v>5973.7349999999997</v>
+      </c>
+      <c r="Q103" s="13"/>
+    </row>
+    <row r="104" ht="16.5" customHeight="1">
+      <c t="s" r="A104" s="14">
+        <v>274</v>
+      </c>
+      <c r="B104" s="14"/>
+      <c r="C104" s="14"/>
+      <c r="D104" s="14"/>
+      <c r="E104" s="14"/>
+      <c r="F104" s="14"/>
+      <c t="s" r="G104" s="15">
+        <v>275</v>
+      </c>
+      <c r="H104" s="15"/>
+      <c r="I104" s="15"/>
+      <c r="J104" s="16"/>
+      <c t="s" r="K104" s="17">
+        <v>276</v>
+      </c>
+      <c r="L104" s="17"/>
+      <c r="M104" s="17"/>
+      <c r="N104" s="17"/>
+      <c r="O104" s="17"/>
+      <c r="P104" s="17"/>
+      <c r="Q104" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="482">
+  <mergeCells count="492">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -5059,10 +5140,20 @@
     <mergeCell ref="H100:K100"/>
     <mergeCell ref="L100:M100"/>
     <mergeCell ref="N100:O100"/>
-    <mergeCell ref="P101:Q101"/>
-    <mergeCell ref="A102:F102"/>
-    <mergeCell ref="G102:I102"/>
-    <mergeCell ref="K102:Q102"/>
+    <mergeCell ref="A101:B101"/>
+    <mergeCell ref="C101:G101"/>
+    <mergeCell ref="H101:K101"/>
+    <mergeCell ref="L101:M101"/>
+    <mergeCell ref="N101:O101"/>
+    <mergeCell ref="A102:B102"/>
+    <mergeCell ref="C102:G102"/>
+    <mergeCell ref="H102:K102"/>
+    <mergeCell ref="L102:M102"/>
+    <mergeCell ref="N102:O102"/>
+    <mergeCell ref="P103:Q103"/>
+    <mergeCell ref="A104:F104"/>
+    <mergeCell ref="G104:I104"/>
+    <mergeCell ref="K104:Q104"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-08-08_00-00.xlsx
+++ b/DaySale_2025-08-08_00-00.xlsx
@@ -203,6 +203,15 @@
     <t>39.0000</t>
   </si>
   <si>
+    <t>CIPROFLOXACIN-ORGANO 750 MG 10 TAB</t>
+  </si>
+  <si>
+    <t>89.00</t>
+  </si>
+  <si>
+    <t>89.0000</t>
+  </si>
+  <si>
     <t>CLARITINE 10MG 20 TAB.</t>
   </si>
   <si>
@@ -494,6 +503,15 @@
     <t>96.00</t>
   </si>
   <si>
+    <t>PANTOPRAZOLE 40MG 14 TAB.</t>
+  </si>
+  <si>
+    <t>90.00</t>
+  </si>
+  <si>
+    <t>90.0000</t>
+  </si>
+  <si>
     <t>PERFORMA EXTRA STRENGTH 5% TOPICAL SOLUTION 60 ML</t>
   </si>
   <si>
@@ -653,9 +671,6 @@
     <t>VISCERALGINE 5MG/2ML IM IV 6 AMPOULES</t>
   </si>
   <si>
-    <t>90.00</t>
-  </si>
-  <si>
     <t>14.4000</t>
   </si>
   <si>
@@ -692,9 +707,6 @@
     <t>30.00</t>
   </si>
   <si>
-    <t>90.0000</t>
-  </si>
-  <si>
     <t xml:space="preserve">جنتيانا </t>
   </si>
   <si>
@@ -833,7 +845,7 @@
     <t>مناديل بكر فاين</t>
   </si>
   <si>
-    <t>Friday, 8 August, 2025 9:35 PM</t>
+    <t>Friday, 8 August, 2025 9:37 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1936,7 +1948,7 @@
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
       <c t="s" r="H21" s="9">
-        <v>16</v>
+        <v>45</v>
       </c>
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
@@ -1953,7 +1965,7 @@
         <v>66</v>
       </c>
       <c t="s" r="Q21" s="12">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="22" ht="25.5" customHeight="1">
@@ -1969,7 +1981,7 @@
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c t="s" r="H22" s="9">
-        <v>68</v>
+        <v>16</v>
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
@@ -1979,11 +1991,11 @@
       </c>
       <c r="M22" s="10"/>
       <c t="s" r="N22" s="8">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="O22" s="8"/>
       <c t="s" r="P22" s="11">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c t="s" r="Q22" s="12">
         <v>16</v>
@@ -1995,14 +2007,14 @@
       </c>
       <c r="B23" s="7"/>
       <c t="s" r="C23" s="8">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D23" s="8"/>
       <c r="E23" s="8"/>
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c t="s" r="H23" s="9">
-        <v>18</v>
+        <v>71</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
@@ -2035,7 +2047,7 @@
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
@@ -2052,7 +2064,7 @@
         <v>76</v>
       </c>
       <c t="s" r="Q24" s="12">
-        <v>33</v>
+        <v>16</v>
       </c>
     </row>
     <row r="25" ht="24.75" customHeight="1">
@@ -2068,7 +2080,7 @@
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
@@ -2085,7 +2097,7 @@
         <v>79</v>
       </c>
       <c t="s" r="Q25" s="12">
-        <v>16</v>
+        <v>33</v>
       </c>
     </row>
     <row r="26" ht="25.5" customHeight="1">
@@ -2101,7 +2113,7 @@
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>81</v>
+        <v>18</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
@@ -2111,14 +2123,14 @@
       </c>
       <c r="M26" s="10"/>
       <c t="s" r="N26" s="8">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="O26" s="8"/>
       <c t="s" r="P26" s="11">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c t="s" r="Q26" s="12">
-        <v>33</v>
+        <v>16</v>
       </c>
     </row>
     <row r="27" ht="25.5" customHeight="1">
@@ -2127,14 +2139,14 @@
       </c>
       <c r="B27" s="7"/>
       <c t="s" r="C27" s="8">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D27" s="8"/>
       <c r="E27" s="8"/>
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>33</v>
+        <v>84</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
@@ -2167,7 +2179,7 @@
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>45</v>
+        <v>33</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
@@ -2184,7 +2196,7 @@
         <v>89</v>
       </c>
       <c t="s" r="Q28" s="12">
-        <v>81</v>
+        <v>33</v>
       </c>
     </row>
     <row r="29" ht="25.5" customHeight="1">
@@ -2200,7 +2212,7 @@
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>91</v>
+        <v>45</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
@@ -2210,14 +2222,14 @@
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="O29" s="8"/>
       <c t="s" r="P29" s="11">
-        <v>63</v>
+        <v>92</v>
       </c>
       <c t="s" r="Q29" s="12">
-        <v>18</v>
+        <v>84</v>
       </c>
     </row>
     <row r="30" ht="24.75" customHeight="1">
@@ -2233,7 +2245,7 @@
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>18</v>
+        <v>94</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
@@ -2243,14 +2255,14 @@
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="O30" s="8"/>
       <c t="s" r="P30" s="11">
-        <v>95</v>
+        <v>63</v>
       </c>
       <c t="s" r="Q30" s="12">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="31" ht="25.5" customHeight="1">
@@ -2283,7 +2295,7 @@
         <v>98</v>
       </c>
       <c t="s" r="Q31" s="12">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="32" ht="25.5" customHeight="1">
@@ -2299,7 +2311,7 @@
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>33</v>
+        <v>18</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
@@ -2309,14 +2321,14 @@
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
-        <v>69</v>
+        <v>100</v>
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
-        <v>70</v>
+        <v>101</v>
       </c>
       <c t="s" r="Q32" s="12">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="33" ht="24.75" customHeight="1">
@@ -2325,14 +2337,14 @@
       </c>
       <c r="B33" s="7"/>
       <c t="s" r="C33" s="8">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="D33" s="8"/>
       <c r="E33" s="8"/>
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>101</v>
+        <v>33</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
@@ -2342,14 +2354,14 @@
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
-        <v>46</v>
+        <v>72</v>
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
-        <v>47</v>
+        <v>73</v>
       </c>
       <c t="s" r="Q33" s="12">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="34" ht="25.5" customHeight="1">
@@ -2358,14 +2370,14 @@
       </c>
       <c r="B34" s="7"/>
       <c t="s" r="C34" s="8">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="D34" s="8"/>
       <c r="E34" s="8"/>
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>45</v>
+        <v>104</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
@@ -2375,11 +2387,11 @@
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
-        <v>103</v>
+        <v>46</v>
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
-        <v>104</v>
+        <v>47</v>
       </c>
       <c t="s" r="Q34" s="12">
         <v>18</v>
@@ -2398,7 +2410,7 @@
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
@@ -2415,7 +2427,7 @@
         <v>107</v>
       </c>
       <c t="s" r="Q35" s="12">
-        <v>91</v>
+        <v>18</v>
       </c>
     </row>
     <row r="36" ht="25.5" customHeight="1">
@@ -2431,7 +2443,7 @@
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>109</v>
+        <v>39</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
@@ -2441,14 +2453,14 @@
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c t="s" r="Q36" s="12">
-        <v>33</v>
+        <v>94</v>
       </c>
     </row>
     <row r="37" ht="25.5" customHeight="1">
@@ -2457,14 +2469,14 @@
       </c>
       <c r="B37" s="7"/>
       <c t="s" r="C37" s="8">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="D37" s="8"/>
       <c r="E37" s="8"/>
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>18</v>
+        <v>112</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
@@ -2481,7 +2493,7 @@
         <v>114</v>
       </c>
       <c t="s" r="Q37" s="12">
-        <v>18</v>
+        <v>33</v>
       </c>
     </row>
     <row r="38" ht="24.75" customHeight="1">
@@ -2530,7 +2542,7 @@
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
@@ -2563,7 +2575,7 @@
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>39</v>
+        <v>22</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
@@ -2573,11 +2585,11 @@
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>97</v>
+        <v>122</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
-        <v>98</v>
+        <v>123</v>
       </c>
       <c t="s" r="Q40" s="12">
         <v>18</v>
@@ -2589,14 +2601,14 @@
       </c>
       <c r="B41" s="7"/>
       <c t="s" r="C41" s="8">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="D41" s="8"/>
       <c r="E41" s="8"/>
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>22</v>
+        <v>39</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
@@ -2606,11 +2618,11 @@
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c t="s" r="Q41" s="12">
         <v>18</v>
@@ -2622,14 +2634,14 @@
       </c>
       <c r="B42" s="7"/>
       <c t="s" r="C42" s="8">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="D42" s="8"/>
       <c r="E42" s="8"/>
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>35</v>
+        <v>22</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
@@ -2639,14 +2651,14 @@
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>124</v>
+        <v>100</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
-        <v>125</v>
+        <v>101</v>
       </c>
       <c t="s" r="Q42" s="12">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="43" ht="24.75" customHeight="1">
@@ -2662,7 +2674,7 @@
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>45</v>
+        <v>35</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
@@ -2679,7 +2691,7 @@
         <v>128</v>
       </c>
       <c t="s" r="Q43" s="12">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="44" ht="25.5" customHeight="1">
@@ -2695,7 +2707,7 @@
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>18</v>
+        <v>45</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
@@ -2712,7 +2724,7 @@
         <v>131</v>
       </c>
       <c t="s" r="Q44" s="12">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="45" ht="24.75" customHeight="1">
@@ -2728,7 +2740,7 @@
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>133</v>
+        <v>18</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
@@ -2738,14 +2750,14 @@
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c t="s" r="Q45" s="12">
-        <v>91</v>
+        <v>16</v>
       </c>
     </row>
     <row r="46" ht="25.5" customHeight="1">
@@ -2754,14 +2766,14 @@
       </c>
       <c r="B46" s="7"/>
       <c t="s" r="C46" s="8">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="D46" s="8"/>
       <c r="E46" s="8"/>
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>35</v>
+        <v>136</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
@@ -2771,14 +2783,14 @@
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>65</v>
+        <v>137</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
-        <v>66</v>
+        <v>138</v>
       </c>
       <c t="s" r="Q46" s="12">
-        <v>16</v>
+        <v>94</v>
       </c>
     </row>
     <row r="47" ht="25.5" customHeight="1">
@@ -2787,14 +2799,14 @@
       </c>
       <c r="B47" s="7"/>
       <c t="s" r="C47" s="8">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="D47" s="8"/>
       <c r="E47" s="8"/>
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>45</v>
+        <v>35</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
@@ -2804,11 +2816,11 @@
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>82</v>
+        <v>68</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
-        <v>138</v>
+        <v>69</v>
       </c>
       <c t="s" r="Q47" s="12">
         <v>16</v>
@@ -2820,14 +2832,14 @@
       </c>
       <c r="B48" s="7"/>
       <c t="s" r="C48" s="8">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="D48" s="8"/>
       <c r="E48" s="8"/>
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>91</v>
+        <v>45</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
@@ -2837,11 +2849,11 @@
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>46</v>
+        <v>85</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c t="s" r="Q48" s="12">
         <v>16</v>
@@ -2853,14 +2865,14 @@
       </c>
       <c r="B49" s="7"/>
       <c t="s" r="C49" s="8">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="D49" s="8"/>
       <c r="E49" s="8"/>
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>16</v>
+        <v>94</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
@@ -2870,7 +2882,7 @@
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>142</v>
+        <v>46</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
@@ -2893,7 +2905,7 @@
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>35</v>
+        <v>16</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
@@ -2907,7 +2919,7 @@
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
-        <v>83</v>
+        <v>146</v>
       </c>
       <c t="s" r="Q50" s="12">
         <v>16</v>
@@ -2919,14 +2931,14 @@
       </c>
       <c r="B51" s="7"/>
       <c t="s" r="C51" s="8">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="D51" s="8"/>
       <c r="E51" s="8"/>
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
@@ -2936,11 +2948,11 @@
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
-        <v>148</v>
+        <v>86</v>
       </c>
       <c t="s" r="Q51" s="12">
         <v>16</v>
@@ -2959,7 +2971,7 @@
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>18</v>
+        <v>33</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
@@ -2992,24 +3004,24 @@
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
       <c r="K53" s="9"/>
       <c t="s" r="L53" s="10">
-        <v>153</v>
+        <v>13</v>
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
-        <v>134</v>
+        <v>153</v>
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
         <v>154</v>
       </c>
       <c t="s" r="Q53" s="12">
-        <v>33</v>
+        <v>16</v>
       </c>
     </row>
     <row r="54" ht="25.5" customHeight="1">
@@ -3025,24 +3037,24 @@
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>39</v>
+        <v>22</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
       <c r="K54" s="9"/>
       <c t="s" r="L54" s="10">
-        <v>13</v>
+        <v>156</v>
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
-        <v>94</v>
+        <v>137</v>
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c t="s" r="Q54" s="12">
-        <v>18</v>
+        <v>33</v>
       </c>
     </row>
     <row r="55" ht="24.75" customHeight="1">
@@ -3051,14 +3063,14 @@
       </c>
       <c r="B55" s="7"/>
       <c t="s" r="C55" s="8">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="D55" s="8"/>
       <c r="E55" s="8"/>
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>16</v>
+        <v>39</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
@@ -3068,11 +3080,11 @@
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
-        <v>147</v>
+        <v>97</v>
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c t="s" r="Q55" s="12">
         <v>18</v>
@@ -3084,7 +3096,7 @@
       </c>
       <c r="B56" s="7"/>
       <c t="s" r="C56" s="8">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="D56" s="8"/>
       <c r="E56" s="8"/>
@@ -3101,14 +3113,14 @@
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
-        <v>160</v>
+        <v>150</v>
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
-        <v>47</v>
+        <v>161</v>
       </c>
       <c t="s" r="Q56" s="12">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="57" ht="25.5" customHeight="1">
@@ -3117,14 +3129,14 @@
       </c>
       <c r="B57" s="7"/>
       <c t="s" r="C57" s="8">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="D57" s="8"/>
       <c r="E57" s="8"/>
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>45</v>
+        <v>16</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
@@ -3134,14 +3146,14 @@
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
-        <v>163</v>
+        <v>47</v>
       </c>
       <c t="s" r="Q57" s="12">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="58" ht="24.75" customHeight="1">
@@ -3157,7 +3169,7 @@
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c t="s" r="H58" s="9">
-        <v>18</v>
+        <v>45</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
@@ -3174,7 +3186,7 @@
         <v>166</v>
       </c>
       <c t="s" r="Q58" s="12">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="59" ht="25.5" customHeight="1">
@@ -3190,7 +3202,7 @@
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c t="s" r="H59" s="9">
-        <v>16</v>
+        <v>45</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
@@ -3200,14 +3212,14 @@
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
-        <v>103</v>
+        <v>168</v>
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c t="s" r="Q59" s="12">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="60" ht="24.75" customHeight="1">
@@ -3216,14 +3228,14 @@
       </c>
       <c r="B60" s="7"/>
       <c t="s" r="C60" s="8">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="D60" s="8"/>
       <c r="E60" s="8"/>
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c t="s" r="H60" s="9">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
@@ -3233,14 +3245,14 @@
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
-        <v>106</v>
+        <v>171</v>
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c t="s" r="Q60" s="12">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="61" ht="25.5" customHeight="1">
@@ -3249,14 +3261,14 @@
       </c>
       <c r="B61" s="7"/>
       <c t="s" r="C61" s="8">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="D61" s="8"/>
       <c r="E61" s="8"/>
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
       <c t="s" r="H61" s="9">
-        <v>172</v>
+        <v>16</v>
       </c>
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
@@ -3266,14 +3278,14 @@
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
-        <v>173</v>
+        <v>106</v>
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
         <v>174</v>
       </c>
       <c t="s" r="Q61" s="12">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="62" ht="25.5" customHeight="1">
@@ -3289,7 +3301,7 @@
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
       <c t="s" r="H62" s="9">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="I62" s="9"/>
       <c r="J62" s="9"/>
@@ -3299,11 +3311,11 @@
       </c>
       <c r="M62" s="10"/>
       <c t="s" r="N62" s="8">
-        <v>176</v>
+        <v>109</v>
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c t="s" r="Q62" s="12">
         <v>18</v>
@@ -3315,14 +3327,14 @@
       </c>
       <c r="B63" s="7"/>
       <c t="s" r="C63" s="8">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="D63" s="8"/>
       <c r="E63" s="8"/>
       <c r="F63" s="8"/>
       <c r="G63" s="8"/>
       <c t="s" r="H63" s="9">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="I63" s="9"/>
       <c r="J63" s="9"/>
@@ -3332,14 +3344,14 @@
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
-        <v>145</v>
+        <v>179</v>
       </c>
       <c r="O63" s="8"/>
       <c t="s" r="P63" s="11">
-        <v>83</v>
+        <v>180</v>
       </c>
       <c t="s" r="Q63" s="12">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="64" ht="25.5" customHeight="1">
@@ -3348,14 +3360,14 @@
       </c>
       <c r="B64" s="7"/>
       <c t="s" r="C64" s="8">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="D64" s="8"/>
       <c r="E64" s="8"/>
       <c r="F64" s="8"/>
       <c r="G64" s="8"/>
       <c t="s" r="H64" s="9">
-        <v>30</v>
+        <v>18</v>
       </c>
       <c r="I64" s="9"/>
       <c r="J64" s="9"/>
@@ -3365,14 +3377,14 @@
       </c>
       <c r="M64" s="10"/>
       <c t="s" r="N64" s="8">
-        <v>97</v>
+        <v>182</v>
       </c>
       <c r="O64" s="8"/>
       <c t="s" r="P64" s="11">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c t="s" r="Q64" s="12">
-        <v>33</v>
+        <v>18</v>
       </c>
     </row>
     <row r="65" ht="24.75" customHeight="1">
@@ -3381,14 +3393,14 @@
       </c>
       <c r="B65" s="7"/>
       <c t="s" r="C65" s="8">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="D65" s="8"/>
       <c r="E65" s="8"/>
       <c r="F65" s="8"/>
       <c r="G65" s="8"/>
       <c t="s" r="H65" s="9">
-        <v>68</v>
+        <v>185</v>
       </c>
       <c r="I65" s="9"/>
       <c r="J65" s="9"/>
@@ -3398,14 +3410,14 @@
       </c>
       <c r="M65" s="10"/>
       <c t="s" r="N65" s="8">
-        <v>27</v>
+        <v>148</v>
       </c>
       <c r="O65" s="8"/>
       <c t="s" r="P65" s="11">
-        <v>183</v>
+        <v>86</v>
       </c>
       <c t="s" r="Q65" s="12">
-        <v>35</v>
+        <v>16</v>
       </c>
     </row>
     <row r="66" ht="25.5" customHeight="1">
@@ -3414,7 +3426,7 @@
       </c>
       <c r="B66" s="7"/>
       <c t="s" r="C66" s="8">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="D66" s="8"/>
       <c r="E66" s="8"/>
@@ -3431,14 +3443,14 @@
       </c>
       <c r="M66" s="10"/>
       <c t="s" r="N66" s="8">
-        <v>92</v>
+        <v>100</v>
       </c>
       <c r="O66" s="8"/>
       <c t="s" r="P66" s="11">
-        <v>63</v>
+        <v>187</v>
       </c>
       <c t="s" r="Q66" s="12">
-        <v>18</v>
+        <v>33</v>
       </c>
     </row>
     <row r="67" ht="25.5" customHeight="1">
@@ -3447,14 +3459,14 @@
       </c>
       <c r="B67" s="7"/>
       <c t="s" r="C67" s="8">
-        <v>185</v>
+        <v>188</v>
       </c>
       <c r="D67" s="8"/>
       <c r="E67" s="8"/>
       <c r="F67" s="8"/>
       <c r="G67" s="8"/>
       <c t="s" r="H67" s="9">
-        <v>35</v>
+        <v>71</v>
       </c>
       <c r="I67" s="9"/>
       <c r="J67" s="9"/>
@@ -3464,14 +3476,14 @@
       </c>
       <c r="M67" s="10"/>
       <c t="s" r="N67" s="8">
-        <v>40</v>
+        <v>27</v>
       </c>
       <c r="O67" s="8"/>
       <c t="s" r="P67" s="11">
-        <v>41</v>
+        <v>189</v>
       </c>
       <c t="s" r="Q67" s="12">
-        <v>16</v>
+        <v>35</v>
       </c>
     </row>
     <row r="68" ht="24.75" customHeight="1">
@@ -3480,14 +3492,14 @@
       </c>
       <c r="B68" s="7"/>
       <c t="s" r="C68" s="8">
-        <v>186</v>
+        <v>190</v>
       </c>
       <c r="D68" s="8"/>
       <c r="E68" s="8"/>
       <c r="F68" s="8"/>
       <c r="G68" s="8"/>
       <c t="s" r="H68" s="9">
-        <v>187</v>
+        <v>30</v>
       </c>
       <c r="I68" s="9"/>
       <c r="J68" s="9"/>
@@ -3497,14 +3509,14 @@
       </c>
       <c r="M68" s="10"/>
       <c t="s" r="N68" s="8">
-        <v>188</v>
+        <v>95</v>
       </c>
       <c r="O68" s="8"/>
       <c t="s" r="P68" s="11">
-        <v>151</v>
+        <v>63</v>
       </c>
       <c t="s" r="Q68" s="12">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="69" ht="25.5" customHeight="1">
@@ -3513,14 +3525,14 @@
       </c>
       <c r="B69" s="7"/>
       <c t="s" r="C69" s="8">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="D69" s="8"/>
       <c r="E69" s="8"/>
       <c r="F69" s="8"/>
       <c r="G69" s="8"/>
       <c t="s" r="H69" s="9">
-        <v>187</v>
+        <v>35</v>
       </c>
       <c r="I69" s="9"/>
       <c r="J69" s="9"/>
@@ -3530,14 +3542,14 @@
       </c>
       <c r="M69" s="10"/>
       <c t="s" r="N69" s="8">
-        <v>190</v>
+        <v>40</v>
       </c>
       <c r="O69" s="8"/>
       <c t="s" r="P69" s="11">
-        <v>191</v>
+        <v>41</v>
       </c>
       <c t="s" r="Q69" s="12">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="70" ht="24.75" customHeight="1">
@@ -3553,7 +3565,7 @@
       <c r="F70" s="8"/>
       <c r="G70" s="8"/>
       <c t="s" r="H70" s="9">
-        <v>45</v>
+        <v>193</v>
       </c>
       <c r="I70" s="9"/>
       <c r="J70" s="9"/>
@@ -3563,14 +3575,14 @@
       </c>
       <c r="M70" s="10"/>
       <c t="s" r="N70" s="8">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="O70" s="8"/>
       <c t="s" r="P70" s="11">
-        <v>194</v>
+        <v>154</v>
       </c>
       <c t="s" r="Q70" s="12">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="71" ht="25.5" customHeight="1">
@@ -3586,7 +3598,7 @@
       <c r="F71" s="8"/>
       <c r="G71" s="8"/>
       <c t="s" r="H71" s="9">
-        <v>35</v>
+        <v>193</v>
       </c>
       <c r="I71" s="9"/>
       <c r="J71" s="9"/>
@@ -3596,14 +3608,14 @@
       </c>
       <c r="M71" s="10"/>
       <c t="s" r="N71" s="8">
-        <v>188</v>
+        <v>196</v>
       </c>
       <c r="O71" s="8"/>
       <c t="s" r="P71" s="11">
-        <v>151</v>
+        <v>197</v>
       </c>
       <c t="s" r="Q71" s="12">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="72" ht="25.5" customHeight="1">
@@ -3612,14 +3624,14 @@
       </c>
       <c r="B72" s="7"/>
       <c t="s" r="C72" s="8">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="D72" s="8"/>
       <c r="E72" s="8"/>
       <c r="F72" s="8"/>
       <c r="G72" s="8"/>
       <c t="s" r="H72" s="9">
-        <v>35</v>
+        <v>45</v>
       </c>
       <c r="I72" s="9"/>
       <c r="J72" s="9"/>
@@ -3629,14 +3641,14 @@
       </c>
       <c r="M72" s="10"/>
       <c t="s" r="N72" s="8">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="O72" s="8"/>
       <c t="s" r="P72" s="11">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c t="s" r="Q72" s="12">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="73" ht="24.75" customHeight="1">
@@ -3645,14 +3657,14 @@
       </c>
       <c r="B73" s="7"/>
       <c t="s" r="C73" s="8">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="D73" s="8"/>
       <c r="E73" s="8"/>
       <c r="F73" s="8"/>
       <c r="G73" s="8"/>
       <c t="s" r="H73" s="9">
-        <v>22</v>
+        <v>35</v>
       </c>
       <c r="I73" s="9"/>
       <c r="J73" s="9"/>
@@ -3662,14 +3674,14 @@
       </c>
       <c r="M73" s="10"/>
       <c t="s" r="N73" s="8">
-        <v>119</v>
+        <v>194</v>
       </c>
       <c r="O73" s="8"/>
       <c t="s" r="P73" s="11">
-        <v>37</v>
+        <v>154</v>
       </c>
       <c t="s" r="Q73" s="12">
-        <v>22</v>
+        <v>16</v>
       </c>
     </row>
     <row r="74" ht="25.5" customHeight="1">
@@ -3678,14 +3690,14 @@
       </c>
       <c r="B74" s="7"/>
       <c t="s" r="C74" s="8">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="D74" s="8"/>
       <c r="E74" s="8"/>
       <c r="F74" s="8"/>
       <c r="G74" s="8"/>
       <c t="s" r="H74" s="9">
-        <v>18</v>
+        <v>35</v>
       </c>
       <c r="I74" s="9"/>
       <c r="J74" s="9"/>
@@ -3695,14 +3707,14 @@
       </c>
       <c r="M74" s="10"/>
       <c t="s" r="N74" s="8">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="O74" s="8"/>
       <c t="s" r="P74" s="11">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c t="s" r="Q74" s="12">
-        <v>35</v>
+        <v>16</v>
       </c>
     </row>
     <row r="75" ht="24.75" customHeight="1">
@@ -3711,14 +3723,14 @@
       </c>
       <c r="B75" s="7"/>
       <c t="s" r="C75" s="8">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="D75" s="8"/>
       <c r="E75" s="8"/>
       <c r="F75" s="8"/>
       <c r="G75" s="8"/>
       <c t="s" r="H75" s="9">
-        <v>45</v>
+        <v>22</v>
       </c>
       <c r="I75" s="9"/>
       <c r="J75" s="9"/>
@@ -3728,14 +3740,14 @@
       </c>
       <c r="M75" s="10"/>
       <c t="s" r="N75" s="8">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="O75" s="8"/>
       <c t="s" r="P75" s="11">
-        <v>120</v>
+        <v>37</v>
       </c>
       <c t="s" r="Q75" s="12">
-        <v>18</v>
+        <v>22</v>
       </c>
     </row>
     <row r="76" ht="25.5" customHeight="1">
@@ -3744,14 +3756,14 @@
       </c>
       <c r="B76" s="7"/>
       <c t="s" r="C76" s="8">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="D76" s="8"/>
       <c r="E76" s="8"/>
       <c r="F76" s="8"/>
       <c r="G76" s="8"/>
       <c t="s" r="H76" s="9">
-        <v>33</v>
+        <v>18</v>
       </c>
       <c r="I76" s="9"/>
       <c r="J76" s="9"/>
@@ -3761,14 +3773,14 @@
       </c>
       <c r="M76" s="10"/>
       <c t="s" r="N76" s="8">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="O76" s="8"/>
       <c t="s" r="P76" s="11">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c t="s" r="Q76" s="12">
-        <v>16</v>
+        <v>35</v>
       </c>
     </row>
     <row r="77" ht="25.5" customHeight="1">
@@ -3777,7 +3789,7 @@
       </c>
       <c r="B77" s="7"/>
       <c t="s" r="C77" s="8">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="D77" s="8"/>
       <c r="E77" s="8"/>
@@ -3794,14 +3806,14 @@
       </c>
       <c r="M77" s="10"/>
       <c t="s" r="N77" s="8">
-        <v>82</v>
+        <v>122</v>
       </c>
       <c r="O77" s="8"/>
       <c t="s" r="P77" s="11">
-        <v>138</v>
+        <v>123</v>
       </c>
       <c t="s" r="Q77" s="12">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="78" ht="24.75" customHeight="1">
@@ -3810,14 +3822,14 @@
       </c>
       <c r="B78" s="7"/>
       <c t="s" r="C78" s="8">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="D78" s="8"/>
       <c r="E78" s="8"/>
       <c r="F78" s="8"/>
       <c r="G78" s="8"/>
       <c t="s" r="H78" s="9">
-        <v>91</v>
+        <v>33</v>
       </c>
       <c r="I78" s="9"/>
       <c r="J78" s="9"/>
@@ -3827,14 +3839,14 @@
       </c>
       <c r="M78" s="10"/>
       <c t="s" r="N78" s="8">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="O78" s="8"/>
       <c t="s" r="P78" s="11">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c t="s" r="Q78" s="12">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="79" ht="25.5" customHeight="1">
@@ -3843,7 +3855,7 @@
       </c>
       <c r="B79" s="7"/>
       <c t="s" r="C79" s="8">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="D79" s="8"/>
       <c r="E79" s="8"/>
@@ -3860,14 +3872,14 @@
       </c>
       <c r="M79" s="10"/>
       <c t="s" r="N79" s="8">
-        <v>212</v>
+        <v>85</v>
       </c>
       <c r="O79" s="8"/>
       <c t="s" r="P79" s="11">
-        <v>151</v>
+        <v>141</v>
       </c>
       <c t="s" r="Q79" s="12">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="80" ht="24.75" customHeight="1">
@@ -3876,14 +3888,14 @@
       </c>
       <c r="B80" s="7"/>
       <c t="s" r="C80" s="8">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="D80" s="8"/>
       <c r="E80" s="8"/>
       <c r="F80" s="8"/>
       <c r="G80" s="8"/>
       <c t="s" r="H80" s="9">
-        <v>109</v>
+        <v>94</v>
       </c>
       <c r="I80" s="9"/>
       <c r="J80" s="9"/>
@@ -3893,14 +3905,14 @@
       </c>
       <c r="M80" s="10"/>
       <c t="s" r="N80" s="8">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="O80" s="8"/>
       <c t="s" r="P80" s="11">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c t="s" r="Q80" s="12">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="81" ht="25.5" customHeight="1">
@@ -3909,14 +3921,14 @@
       </c>
       <c r="B81" s="7"/>
       <c t="s" r="C81" s="8">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="D81" s="8"/>
       <c r="E81" s="8"/>
       <c r="F81" s="8"/>
       <c r="G81" s="8"/>
       <c t="s" r="H81" s="9">
-        <v>18</v>
+        <v>45</v>
       </c>
       <c r="I81" s="9"/>
       <c r="J81" s="9"/>
@@ -3926,14 +3938,14 @@
       </c>
       <c r="M81" s="10"/>
       <c t="s" r="N81" s="8">
-        <v>214</v>
+        <v>218</v>
       </c>
       <c r="O81" s="8"/>
       <c t="s" r="P81" s="11">
-        <v>217</v>
+        <v>154</v>
       </c>
       <c t="s" r="Q81" s="12">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="82" ht="25.5" customHeight="1">
@@ -3942,14 +3954,14 @@
       </c>
       <c r="B82" s="7"/>
       <c t="s" r="C82" s="8">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="D82" s="8"/>
       <c r="E82" s="8"/>
       <c r="F82" s="8"/>
       <c r="G82" s="8"/>
       <c t="s" r="H82" s="9">
-        <v>45</v>
+        <v>112</v>
       </c>
       <c r="I82" s="9"/>
       <c r="J82" s="9"/>
@@ -3959,14 +3971,14 @@
       </c>
       <c r="M82" s="10"/>
       <c t="s" r="N82" s="8">
-        <v>219</v>
+        <v>165</v>
       </c>
       <c r="O82" s="8"/>
       <c t="s" r="P82" s="11">
         <v>220</v>
       </c>
       <c t="s" r="Q82" s="12">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="83" ht="24.75" customHeight="1">
@@ -3982,7 +3994,7 @@
       <c r="F83" s="8"/>
       <c r="G83" s="8"/>
       <c t="s" r="H83" s="9">
-        <v>33</v>
+        <v>18</v>
       </c>
       <c r="I83" s="9"/>
       <c r="J83" s="9"/>
@@ -3992,11 +4004,11 @@
       </c>
       <c r="M83" s="10"/>
       <c t="s" r="N83" s="8">
-        <v>222</v>
+        <v>165</v>
       </c>
       <c r="O83" s="8"/>
       <c t="s" r="P83" s="11">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c t="s" r="Q83" s="12">
         <v>16</v>
@@ -4008,31 +4020,31 @@
       </c>
       <c r="B84" s="7"/>
       <c t="s" r="C84" s="8">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="D84" s="8"/>
       <c r="E84" s="8"/>
       <c r="F84" s="8"/>
       <c r="G84" s="8"/>
       <c t="s" r="H84" s="9">
-        <v>225</v>
+        <v>45</v>
       </c>
       <c r="I84" s="9"/>
       <c r="J84" s="9"/>
       <c r="K84" s="9"/>
       <c t="s" r="L84" s="10">
-        <v>153</v>
+        <v>13</v>
       </c>
       <c r="M84" s="10"/>
       <c t="s" r="N84" s="8">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="O84" s="8"/>
       <c t="s" r="P84" s="11">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c t="s" r="Q84" s="12">
-        <v>39</v>
+        <v>18</v>
       </c>
     </row>
     <row r="85" ht="24.75" customHeight="1">
@@ -4041,31 +4053,31 @@
       </c>
       <c r="B85" s="7"/>
       <c t="s" r="C85" s="8">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="D85" s="8"/>
       <c r="E85" s="8"/>
       <c r="F85" s="8"/>
       <c r="G85" s="8"/>
       <c t="s" r="H85" s="9">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="I85" s="9"/>
       <c r="J85" s="9"/>
       <c r="K85" s="9"/>
       <c t="s" r="L85" s="10">
-        <v>153</v>
+        <v>13</v>
       </c>
       <c r="M85" s="10"/>
       <c t="s" r="N85" s="8">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="O85" s="8"/>
       <c t="s" r="P85" s="11">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c t="s" r="Q85" s="12">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="86" ht="25.5" customHeight="1">
@@ -4074,31 +4086,31 @@
       </c>
       <c r="B86" s="7"/>
       <c t="s" r="C86" s="8">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="D86" s="8"/>
       <c r="E86" s="8"/>
       <c r="F86" s="8"/>
       <c r="G86" s="8"/>
       <c t="s" r="H86" s="9">
-        <v>45</v>
+        <v>230</v>
       </c>
       <c r="I86" s="9"/>
       <c r="J86" s="9"/>
       <c r="K86" s="9"/>
       <c t="s" r="L86" s="10">
-        <v>153</v>
+        <v>156</v>
       </c>
       <c r="M86" s="10"/>
       <c t="s" r="N86" s="8">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="O86" s="8"/>
       <c t="s" r="P86" s="11">
-        <v>233</v>
+        <v>166</v>
       </c>
       <c t="s" r="Q86" s="12">
-        <v>22</v>
+        <v>39</v>
       </c>
     </row>
     <row r="87" ht="25.5" customHeight="1">
@@ -4107,28 +4119,28 @@
       </c>
       <c r="B87" s="7"/>
       <c t="s" r="C87" s="8">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="D87" s="8"/>
       <c r="E87" s="8"/>
       <c r="F87" s="8"/>
       <c r="G87" s="8"/>
       <c t="s" r="H87" s="9">
-        <v>18</v>
+        <v>39</v>
       </c>
       <c r="I87" s="9"/>
       <c r="J87" s="9"/>
       <c r="K87" s="9"/>
       <c t="s" r="L87" s="10">
-        <v>153</v>
+        <v>156</v>
       </c>
       <c r="M87" s="10"/>
       <c t="s" r="N87" s="8">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="O87" s="8"/>
       <c t="s" r="P87" s="11">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c t="s" r="Q87" s="12">
         <v>18</v>
@@ -4140,28 +4152,28 @@
       </c>
       <c r="B88" s="7"/>
       <c t="s" r="C88" s="8">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="D88" s="8"/>
       <c r="E88" s="8"/>
       <c r="F88" s="8"/>
       <c r="G88" s="8"/>
       <c t="s" r="H88" s="9">
-        <v>238</v>
+        <v>45</v>
       </c>
       <c r="I88" s="9"/>
       <c r="J88" s="9"/>
       <c r="K88" s="9"/>
       <c t="s" r="L88" s="10">
-        <v>153</v>
+        <v>156</v>
       </c>
       <c r="M88" s="10"/>
       <c t="s" r="N88" s="8">
-        <v>239</v>
+        <v>236</v>
       </c>
       <c r="O88" s="8"/>
       <c t="s" r="P88" s="11">
-        <v>154</v>
+        <v>237</v>
       </c>
       <c t="s" r="Q88" s="12">
         <v>22</v>
@@ -4173,31 +4185,31 @@
       </c>
       <c r="B89" s="7"/>
       <c t="s" r="C89" s="8">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="D89" s="8"/>
       <c r="E89" s="8"/>
       <c r="F89" s="8"/>
       <c r="G89" s="8"/>
       <c t="s" r="H89" s="9">
-        <v>45</v>
+        <v>18</v>
       </c>
       <c r="I89" s="9"/>
       <c r="J89" s="9"/>
       <c r="K89" s="9"/>
       <c t="s" r="L89" s="10">
-        <v>153</v>
+        <v>156</v>
       </c>
       <c r="M89" s="10"/>
       <c t="s" r="N89" s="8">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="O89" s="8"/>
       <c t="s" r="P89" s="11">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c t="s" r="Q89" s="12">
-        <v>39</v>
+        <v>18</v>
       </c>
     </row>
     <row r="90" ht="24.75" customHeight="1">
@@ -4206,31 +4218,31 @@
       </c>
       <c r="B90" s="7"/>
       <c t="s" r="C90" s="8">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="D90" s="8"/>
       <c r="E90" s="8"/>
       <c r="F90" s="8"/>
       <c r="G90" s="8"/>
       <c t="s" r="H90" s="9">
-        <v>45</v>
+        <v>242</v>
       </c>
       <c r="I90" s="9"/>
       <c r="J90" s="9"/>
       <c r="K90" s="9"/>
       <c t="s" r="L90" s="10">
-        <v>153</v>
+        <v>156</v>
       </c>
       <c r="M90" s="10"/>
       <c t="s" r="N90" s="8">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="O90" s="8"/>
       <c t="s" r="P90" s="11">
-        <v>245</v>
+        <v>157</v>
       </c>
       <c t="s" r="Q90" s="12">
-        <v>81</v>
+        <v>22</v>
       </c>
     </row>
     <row r="91" ht="25.5" customHeight="1">
@@ -4239,7 +4251,7 @@
       </c>
       <c r="B91" s="7"/>
       <c t="s" r="C91" s="8">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="D91" s="8"/>
       <c r="E91" s="8"/>
@@ -4252,18 +4264,18 @@
       <c r="J91" s="9"/>
       <c r="K91" s="9"/>
       <c t="s" r="L91" s="10">
-        <v>153</v>
+        <v>156</v>
       </c>
       <c r="M91" s="10"/>
       <c t="s" r="N91" s="8">
-        <v>232</v>
+        <v>245</v>
       </c>
       <c r="O91" s="8"/>
       <c t="s" r="P91" s="11">
-        <v>233</v>
+        <v>246</v>
       </c>
       <c t="s" r="Q91" s="12">
-        <v>22</v>
+        <v>39</v>
       </c>
     </row>
     <row r="92" ht="25.5" customHeight="1">
@@ -4279,24 +4291,24 @@
       <c r="F92" s="8"/>
       <c r="G92" s="8"/>
       <c t="s" r="H92" s="9">
-        <v>22</v>
+        <v>45</v>
       </c>
       <c r="I92" s="9"/>
       <c r="J92" s="9"/>
       <c r="K92" s="9"/>
       <c t="s" r="L92" s="10">
-        <v>153</v>
+        <v>156</v>
       </c>
       <c r="M92" s="10"/>
       <c t="s" r="N92" s="8">
-        <v>235</v>
+        <v>248</v>
       </c>
       <c r="O92" s="8"/>
       <c t="s" r="P92" s="11">
-        <v>236</v>
+        <v>249</v>
       </c>
       <c t="s" r="Q92" s="12">
-        <v>18</v>
+        <v>84</v>
       </c>
     </row>
     <row r="93" ht="24.75" customHeight="1">
@@ -4305,7 +4317,7 @@
       </c>
       <c r="B93" s="7"/>
       <c t="s" r="C93" s="8">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="D93" s="8"/>
       <c r="E93" s="8"/>
@@ -4318,18 +4330,18 @@
       <c r="J93" s="9"/>
       <c r="K93" s="9"/>
       <c t="s" r="L93" s="10">
-        <v>153</v>
+        <v>156</v>
       </c>
       <c r="M93" s="10"/>
       <c t="s" r="N93" s="8">
-        <v>226</v>
+        <v>236</v>
       </c>
       <c r="O93" s="8"/>
       <c t="s" r="P93" s="11">
-        <v>249</v>
+        <v>237</v>
       </c>
       <c t="s" r="Q93" s="12">
-        <v>18</v>
+        <v>22</v>
       </c>
     </row>
     <row r="94" ht="25.5" customHeight="1">
@@ -4338,28 +4350,28 @@
       </c>
       <c r="B94" s="7"/>
       <c t="s" r="C94" s="8">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="D94" s="8"/>
       <c r="E94" s="8"/>
       <c r="F94" s="8"/>
       <c r="G94" s="8"/>
       <c t="s" r="H94" s="9">
-        <v>251</v>
+        <v>22</v>
       </c>
       <c r="I94" s="9"/>
       <c r="J94" s="9"/>
       <c r="K94" s="9"/>
       <c t="s" r="L94" s="10">
-        <v>153</v>
+        <v>156</v>
       </c>
       <c r="M94" s="10"/>
       <c t="s" r="N94" s="8">
-        <v>252</v>
+        <v>239</v>
       </c>
       <c r="O94" s="8"/>
       <c t="s" r="P94" s="11">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c t="s" r="Q94" s="12">
         <v>18</v>
@@ -4371,28 +4383,28 @@
       </c>
       <c r="B95" s="7"/>
       <c t="s" r="C95" s="8">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="D95" s="8"/>
       <c r="E95" s="8"/>
       <c r="F95" s="8"/>
       <c r="G95" s="8"/>
       <c t="s" r="H95" s="9">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="I95" s="9"/>
       <c r="J95" s="9"/>
       <c r="K95" s="9"/>
       <c t="s" r="L95" s="10">
-        <v>153</v>
+        <v>156</v>
       </c>
       <c r="M95" s="10"/>
       <c t="s" r="N95" s="8">
-        <v>254</v>
+        <v>231</v>
       </c>
       <c r="O95" s="8"/>
       <c t="s" r="P95" s="11">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c t="s" r="Q95" s="12">
         <v>18</v>
@@ -4404,31 +4416,31 @@
       </c>
       <c r="B96" s="7"/>
       <c t="s" r="C96" s="8">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="D96" s="8"/>
       <c r="E96" s="8"/>
       <c r="F96" s="8"/>
       <c r="G96" s="8"/>
       <c t="s" r="H96" s="9">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="I96" s="9"/>
       <c r="J96" s="9"/>
       <c r="K96" s="9"/>
       <c t="s" r="L96" s="10">
-        <v>153</v>
+        <v>156</v>
       </c>
       <c r="M96" s="10"/>
       <c t="s" r="N96" s="8">
-        <v>235</v>
+        <v>256</v>
       </c>
       <c r="O96" s="8"/>
       <c t="s" r="P96" s="11">
-        <v>258</v>
+        <v>246</v>
       </c>
       <c t="s" r="Q96" s="12">
-        <v>81</v>
+        <v>18</v>
       </c>
     </row>
     <row r="97" ht="25.5" customHeight="1">
@@ -4437,28 +4449,28 @@
       </c>
       <c r="B97" s="7"/>
       <c t="s" r="C97" s="8">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="D97" s="8"/>
       <c r="E97" s="8"/>
       <c r="F97" s="8"/>
       <c r="G97" s="8"/>
       <c t="s" r="H97" s="9">
-        <v>260</v>
+        <v>39</v>
       </c>
       <c r="I97" s="9"/>
       <c r="J97" s="9"/>
       <c r="K97" s="9"/>
       <c t="s" r="L97" s="10">
-        <v>153</v>
+        <v>156</v>
       </c>
       <c r="M97" s="10"/>
       <c t="s" r="N97" s="8">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="O97" s="8"/>
       <c t="s" r="P97" s="11">
-        <v>262</v>
+        <v>259</v>
       </c>
       <c t="s" r="Q97" s="12">
         <v>18</v>
@@ -4470,31 +4482,31 @@
       </c>
       <c r="B98" s="7"/>
       <c t="s" r="C98" s="8">
-        <v>263</v>
+        <v>260</v>
       </c>
       <c r="D98" s="8"/>
       <c r="E98" s="8"/>
       <c r="F98" s="8"/>
       <c r="G98" s="8"/>
       <c t="s" r="H98" s="9">
-        <v>45</v>
+        <v>261</v>
       </c>
       <c r="I98" s="9"/>
       <c r="J98" s="9"/>
       <c r="K98" s="9"/>
       <c t="s" r="L98" s="10">
-        <v>153</v>
+        <v>156</v>
       </c>
       <c r="M98" s="10"/>
       <c t="s" r="N98" s="8">
-        <v>229</v>
+        <v>239</v>
       </c>
       <c r="O98" s="8"/>
       <c t="s" r="P98" s="11">
-        <v>249</v>
+        <v>262</v>
       </c>
       <c t="s" r="Q98" s="12">
-        <v>22</v>
+        <v>84</v>
       </c>
     </row>
     <row r="99" ht="25.5" customHeight="1">
@@ -4503,20 +4515,20 @@
       </c>
       <c r="B99" s="7"/>
       <c t="s" r="C99" s="8">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="D99" s="8"/>
       <c r="E99" s="8"/>
       <c r="F99" s="8"/>
       <c r="G99" s="8"/>
       <c t="s" r="H99" s="9">
-        <v>18</v>
+        <v>264</v>
       </c>
       <c r="I99" s="9"/>
       <c r="J99" s="9"/>
       <c r="K99" s="9"/>
       <c t="s" r="L99" s="10">
-        <v>153</v>
+        <v>156</v>
       </c>
       <c r="M99" s="10"/>
       <c t="s" r="N99" s="8">
@@ -4543,24 +4555,24 @@
       <c r="F100" s="8"/>
       <c r="G100" s="8"/>
       <c t="s" r="H100" s="9">
-        <v>238</v>
+        <v>45</v>
       </c>
       <c r="I100" s="9"/>
       <c r="J100" s="9"/>
       <c r="K100" s="9"/>
       <c t="s" r="L100" s="10">
-        <v>153</v>
+        <v>156</v>
       </c>
       <c r="M100" s="10"/>
       <c t="s" r="N100" s="8">
-        <v>268</v>
+        <v>233</v>
       </c>
       <c r="O100" s="8"/>
       <c t="s" r="P100" s="11">
-        <v>269</v>
+        <v>253</v>
       </c>
       <c t="s" r="Q100" s="12">
-        <v>18</v>
+        <v>22</v>
       </c>
     </row>
     <row r="101" ht="25.5" customHeight="1">
@@ -4569,28 +4581,28 @@
       </c>
       <c r="B101" s="7"/>
       <c t="s" r="C101" s="8">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="D101" s="8"/>
       <c r="E101" s="8"/>
       <c r="F101" s="8"/>
       <c r="G101" s="8"/>
       <c t="s" r="H101" s="9">
-        <v>45</v>
+        <v>18</v>
       </c>
       <c r="I101" s="9"/>
       <c r="J101" s="9"/>
       <c r="K101" s="9"/>
       <c t="s" r="L101" s="10">
-        <v>153</v>
+        <v>156</v>
       </c>
       <c r="M101" s="10"/>
       <c t="s" r="N101" s="8">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="O101" s="8"/>
       <c t="s" r="P101" s="11">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c t="s" r="Q101" s="12">
         <v>18</v>
@@ -4602,66 +4614,132 @@
       </c>
       <c r="B102" s="7"/>
       <c t="s" r="C102" s="8">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="D102" s="8"/>
       <c r="E102" s="8"/>
       <c r="F102" s="8"/>
       <c r="G102" s="8"/>
       <c t="s" r="H102" s="9">
-        <v>22</v>
+        <v>242</v>
       </c>
       <c r="I102" s="9"/>
       <c r="J102" s="9"/>
       <c r="K102" s="9"/>
       <c t="s" r="L102" s="10">
-        <v>153</v>
+        <v>156</v>
       </c>
       <c r="M102" s="10"/>
       <c t="s" r="N102" s="8">
-        <v>229</v>
+        <v>272</v>
       </c>
       <c r="O102" s="8"/>
       <c t="s" r="P102" s="11">
-        <v>230</v>
+        <v>273</v>
       </c>
       <c t="s" r="Q102" s="12">
         <v>18</v>
       </c>
     </row>
     <row r="103" ht="24.75" customHeight="1">
-      <c r="P103" s="13">
-        <v>5973.7349999999997</v>
-      </c>
-      <c r="Q103" s="13"/>
-    </row>
-    <row r="104" ht="16.5" customHeight="1">
-      <c t="s" r="A104" s="14">
+      <c r="A103" s="7">
+        <v>97</v>
+      </c>
+      <c r="B103" s="7"/>
+      <c t="s" r="C103" s="8">
         <v>274</v>
       </c>
-      <c r="B104" s="14"/>
-      <c r="C104" s="14"/>
-      <c r="D104" s="14"/>
-      <c r="E104" s="14"/>
-      <c r="F104" s="14"/>
-      <c t="s" r="G104" s="15">
+      <c r="D103" s="8"/>
+      <c r="E103" s="8"/>
+      <c r="F103" s="8"/>
+      <c r="G103" s="8"/>
+      <c t="s" r="H103" s="9">
+        <v>45</v>
+      </c>
+      <c r="I103" s="9"/>
+      <c r="J103" s="9"/>
+      <c r="K103" s="9"/>
+      <c t="s" r="L103" s="10">
+        <v>156</v>
+      </c>
+      <c r="M103" s="10"/>
+      <c t="s" r="N103" s="8">
         <v>275</v>
       </c>
-      <c r="H104" s="15"/>
-      <c r="I104" s="15"/>
-      <c r="J104" s="16"/>
-      <c t="s" r="K104" s="17">
+      <c r="O103" s="8"/>
+      <c t="s" r="P103" s="11">
         <v>276</v>
       </c>
-      <c r="L104" s="17"/>
-      <c r="M104" s="17"/>
-      <c r="N104" s="17"/>
-      <c r="O104" s="17"/>
-      <c r="P104" s="17"/>
-      <c r="Q104" s="17"/>
+      <c t="s" r="Q103" s="12">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="104" ht="25.5" customHeight="1">
+      <c r="A104" s="7">
+        <v>98</v>
+      </c>
+      <c r="B104" s="7"/>
+      <c t="s" r="C104" s="8">
+        <v>277</v>
+      </c>
+      <c r="D104" s="8"/>
+      <c r="E104" s="8"/>
+      <c r="F104" s="8"/>
+      <c r="G104" s="8"/>
+      <c t="s" r="H104" s="9">
+        <v>22</v>
+      </c>
+      <c r="I104" s="9"/>
+      <c r="J104" s="9"/>
+      <c r="K104" s="9"/>
+      <c t="s" r="L104" s="10">
+        <v>156</v>
+      </c>
+      <c r="M104" s="10"/>
+      <c t="s" r="N104" s="8">
+        <v>233</v>
+      </c>
+      <c r="O104" s="8"/>
+      <c t="s" r="P104" s="11">
+        <v>234</v>
+      </c>
+      <c t="s" r="Q104" s="12">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="105" ht="24.75" customHeight="1">
+      <c r="P105" s="13">
+        <v>6152.7349999999997</v>
+      </c>
+      <c r="Q105" s="13"/>
+    </row>
+    <row r="106" ht="16.5" customHeight="1">
+      <c t="s" r="A106" s="14">
+        <v>278</v>
+      </c>
+      <c r="B106" s="14"/>
+      <c r="C106" s="14"/>
+      <c r="D106" s="14"/>
+      <c r="E106" s="14"/>
+      <c r="F106" s="14"/>
+      <c t="s" r="G106" s="15">
+        <v>279</v>
+      </c>
+      <c r="H106" s="15"/>
+      <c r="I106" s="15"/>
+      <c r="J106" s="16"/>
+      <c t="s" r="K106" s="17">
+        <v>280</v>
+      </c>
+      <c r="L106" s="17"/>
+      <c r="M106" s="17"/>
+      <c r="N106" s="17"/>
+      <c r="O106" s="17"/>
+      <c r="P106" s="17"/>
+      <c r="Q106" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="492">
+  <mergeCells count="502">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -5150,10 +5228,20 @@
     <mergeCell ref="H102:K102"/>
     <mergeCell ref="L102:M102"/>
     <mergeCell ref="N102:O102"/>
-    <mergeCell ref="P103:Q103"/>
-    <mergeCell ref="A104:F104"/>
-    <mergeCell ref="G104:I104"/>
-    <mergeCell ref="K104:Q104"/>
+    <mergeCell ref="A103:B103"/>
+    <mergeCell ref="C103:G103"/>
+    <mergeCell ref="H103:K103"/>
+    <mergeCell ref="L103:M103"/>
+    <mergeCell ref="N103:O103"/>
+    <mergeCell ref="A104:B104"/>
+    <mergeCell ref="C104:G104"/>
+    <mergeCell ref="H104:K104"/>
+    <mergeCell ref="L104:M104"/>
+    <mergeCell ref="N104:O104"/>
+    <mergeCell ref="P105:Q105"/>
+    <mergeCell ref="A106:F106"/>
+    <mergeCell ref="G106:I106"/>
+    <mergeCell ref="K106:Q106"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-08-08_00-00.xlsx
+++ b/DaySale_2025-08-08_00-00.xlsx
@@ -554,6 +554,21 @@
     <t>45.0000</t>
   </si>
   <si>
+    <t>QUIBRON T/SR 300MG 100 TAB</t>
+  </si>
+  <si>
+    <t>1:56</t>
+  </si>
+  <si>
+    <t>132.00</t>
+  </si>
+  <si>
+    <t>11.8800</t>
+  </si>
+  <si>
+    <t>0:9</t>
+  </si>
+  <si>
     <t>REPARIL-GEL N 40 GM</t>
   </si>
   <si>
@@ -845,7 +860,7 @@
     <t>مناديل بكر فاين</t>
   </si>
   <si>
-    <t>Friday, 8 August, 2025 9:37 PM</t>
+    <t>Friday, 8 August, 2025 9:46 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -3367,7 +3382,7 @@
       <c r="F64" s="8"/>
       <c r="G64" s="8"/>
       <c t="s" r="H64" s="9">
-        <v>18</v>
+        <v>182</v>
       </c>
       <c r="I64" s="9"/>
       <c r="J64" s="9"/>
@@ -3377,14 +3392,14 @@
       </c>
       <c r="M64" s="10"/>
       <c t="s" r="N64" s="8">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="O64" s="8"/>
       <c t="s" r="P64" s="11">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c t="s" r="Q64" s="12">
-        <v>18</v>
+        <v>185</v>
       </c>
     </row>
     <row r="65" ht="24.75" customHeight="1">
@@ -3393,14 +3408,14 @@
       </c>
       <c r="B65" s="7"/>
       <c t="s" r="C65" s="8">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="D65" s="8"/>
       <c r="E65" s="8"/>
       <c r="F65" s="8"/>
       <c r="G65" s="8"/>
       <c t="s" r="H65" s="9">
-        <v>185</v>
+        <v>18</v>
       </c>
       <c r="I65" s="9"/>
       <c r="J65" s="9"/>
@@ -3410,14 +3425,14 @@
       </c>
       <c r="M65" s="10"/>
       <c t="s" r="N65" s="8">
-        <v>148</v>
+        <v>187</v>
       </c>
       <c r="O65" s="8"/>
       <c t="s" r="P65" s="11">
-        <v>86</v>
+        <v>188</v>
       </c>
       <c t="s" r="Q65" s="12">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="66" ht="25.5" customHeight="1">
@@ -3426,14 +3441,14 @@
       </c>
       <c r="B66" s="7"/>
       <c t="s" r="C66" s="8">
-        <v>186</v>
+        <v>189</v>
       </c>
       <c r="D66" s="8"/>
       <c r="E66" s="8"/>
       <c r="F66" s="8"/>
       <c r="G66" s="8"/>
       <c t="s" r="H66" s="9">
-        <v>30</v>
+        <v>190</v>
       </c>
       <c r="I66" s="9"/>
       <c r="J66" s="9"/>
@@ -3443,14 +3458,14 @@
       </c>
       <c r="M66" s="10"/>
       <c t="s" r="N66" s="8">
-        <v>100</v>
+        <v>148</v>
       </c>
       <c r="O66" s="8"/>
       <c t="s" r="P66" s="11">
-        <v>187</v>
+        <v>86</v>
       </c>
       <c t="s" r="Q66" s="12">
-        <v>33</v>
+        <v>16</v>
       </c>
     </row>
     <row r="67" ht="25.5" customHeight="1">
@@ -3459,14 +3474,14 @@
       </c>
       <c r="B67" s="7"/>
       <c t="s" r="C67" s="8">
-        <v>188</v>
+        <v>191</v>
       </c>
       <c r="D67" s="8"/>
       <c r="E67" s="8"/>
       <c r="F67" s="8"/>
       <c r="G67" s="8"/>
       <c t="s" r="H67" s="9">
-        <v>71</v>
+        <v>30</v>
       </c>
       <c r="I67" s="9"/>
       <c r="J67" s="9"/>
@@ -3476,14 +3491,14 @@
       </c>
       <c r="M67" s="10"/>
       <c t="s" r="N67" s="8">
-        <v>27</v>
+        <v>100</v>
       </c>
       <c r="O67" s="8"/>
       <c t="s" r="P67" s="11">
-        <v>189</v>
+        <v>192</v>
       </c>
       <c t="s" r="Q67" s="12">
-        <v>35</v>
+        <v>33</v>
       </c>
     </row>
     <row r="68" ht="24.75" customHeight="1">
@@ -3492,14 +3507,14 @@
       </c>
       <c r="B68" s="7"/>
       <c t="s" r="C68" s="8">
-        <v>190</v>
+        <v>193</v>
       </c>
       <c r="D68" s="8"/>
       <c r="E68" s="8"/>
       <c r="F68" s="8"/>
       <c r="G68" s="8"/>
       <c t="s" r="H68" s="9">
-        <v>30</v>
+        <v>71</v>
       </c>
       <c r="I68" s="9"/>
       <c r="J68" s="9"/>
@@ -3509,14 +3524,14 @@
       </c>
       <c r="M68" s="10"/>
       <c t="s" r="N68" s="8">
-        <v>95</v>
+        <v>27</v>
       </c>
       <c r="O68" s="8"/>
       <c t="s" r="P68" s="11">
-        <v>63</v>
+        <v>194</v>
       </c>
       <c t="s" r="Q68" s="12">
-        <v>18</v>
+        <v>35</v>
       </c>
     </row>
     <row r="69" ht="25.5" customHeight="1">
@@ -3525,14 +3540,14 @@
       </c>
       <c r="B69" s="7"/>
       <c t="s" r="C69" s="8">
-        <v>191</v>
+        <v>195</v>
       </c>
       <c r="D69" s="8"/>
       <c r="E69" s="8"/>
       <c r="F69" s="8"/>
       <c r="G69" s="8"/>
       <c t="s" r="H69" s="9">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="I69" s="9"/>
       <c r="J69" s="9"/>
@@ -3542,14 +3557,14 @@
       </c>
       <c r="M69" s="10"/>
       <c t="s" r="N69" s="8">
-        <v>40</v>
+        <v>95</v>
       </c>
       <c r="O69" s="8"/>
       <c t="s" r="P69" s="11">
-        <v>41</v>
+        <v>63</v>
       </c>
       <c t="s" r="Q69" s="12">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="70" ht="24.75" customHeight="1">
@@ -3558,14 +3573,14 @@
       </c>
       <c r="B70" s="7"/>
       <c t="s" r="C70" s="8">
-        <v>192</v>
+        <v>196</v>
       </c>
       <c r="D70" s="8"/>
       <c r="E70" s="8"/>
       <c r="F70" s="8"/>
       <c r="G70" s="8"/>
       <c t="s" r="H70" s="9">
-        <v>193</v>
+        <v>35</v>
       </c>
       <c r="I70" s="9"/>
       <c r="J70" s="9"/>
@@ -3575,11 +3590,11 @@
       </c>
       <c r="M70" s="10"/>
       <c t="s" r="N70" s="8">
-        <v>194</v>
+        <v>40</v>
       </c>
       <c r="O70" s="8"/>
       <c t="s" r="P70" s="11">
-        <v>154</v>
+        <v>41</v>
       </c>
       <c t="s" r="Q70" s="12">
         <v>16</v>
@@ -3591,14 +3606,14 @@
       </c>
       <c r="B71" s="7"/>
       <c t="s" r="C71" s="8">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="D71" s="8"/>
       <c r="E71" s="8"/>
       <c r="F71" s="8"/>
       <c r="G71" s="8"/>
       <c t="s" r="H71" s="9">
-        <v>193</v>
+        <v>198</v>
       </c>
       <c r="I71" s="9"/>
       <c r="J71" s="9"/>
@@ -3608,14 +3623,14 @@
       </c>
       <c r="M71" s="10"/>
       <c t="s" r="N71" s="8">
-        <v>196</v>
+        <v>199</v>
       </c>
       <c r="O71" s="8"/>
       <c t="s" r="P71" s="11">
-        <v>197</v>
+        <v>154</v>
       </c>
       <c t="s" r="Q71" s="12">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="72" ht="25.5" customHeight="1">
@@ -3624,14 +3639,14 @@
       </c>
       <c r="B72" s="7"/>
       <c t="s" r="C72" s="8">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="D72" s="8"/>
       <c r="E72" s="8"/>
       <c r="F72" s="8"/>
       <c r="G72" s="8"/>
       <c t="s" r="H72" s="9">
-        <v>45</v>
+        <v>198</v>
       </c>
       <c r="I72" s="9"/>
       <c r="J72" s="9"/>
@@ -3641,11 +3656,11 @@
       </c>
       <c r="M72" s="10"/>
       <c t="s" r="N72" s="8">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="O72" s="8"/>
       <c t="s" r="P72" s="11">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c t="s" r="Q72" s="12">
         <v>18</v>
@@ -3657,14 +3672,14 @@
       </c>
       <c r="B73" s="7"/>
       <c t="s" r="C73" s="8">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="D73" s="8"/>
       <c r="E73" s="8"/>
       <c r="F73" s="8"/>
       <c r="G73" s="8"/>
       <c t="s" r="H73" s="9">
-        <v>35</v>
+        <v>45</v>
       </c>
       <c r="I73" s="9"/>
       <c r="J73" s="9"/>
@@ -3674,14 +3689,14 @@
       </c>
       <c r="M73" s="10"/>
       <c t="s" r="N73" s="8">
-        <v>194</v>
+        <v>204</v>
       </c>
       <c r="O73" s="8"/>
       <c t="s" r="P73" s="11">
-        <v>154</v>
+        <v>205</v>
       </c>
       <c t="s" r="Q73" s="12">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="74" ht="25.5" customHeight="1">
@@ -3690,7 +3705,7 @@
       </c>
       <c r="B74" s="7"/>
       <c t="s" r="C74" s="8">
-        <v>202</v>
+        <v>206</v>
       </c>
       <c r="D74" s="8"/>
       <c r="E74" s="8"/>
@@ -3707,11 +3722,11 @@
       </c>
       <c r="M74" s="10"/>
       <c t="s" r="N74" s="8">
-        <v>203</v>
+        <v>199</v>
       </c>
       <c r="O74" s="8"/>
       <c t="s" r="P74" s="11">
-        <v>204</v>
+        <v>154</v>
       </c>
       <c t="s" r="Q74" s="12">
         <v>16</v>
@@ -3723,14 +3738,14 @@
       </c>
       <c r="B75" s="7"/>
       <c t="s" r="C75" s="8">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="D75" s="8"/>
       <c r="E75" s="8"/>
       <c r="F75" s="8"/>
       <c r="G75" s="8"/>
       <c t="s" r="H75" s="9">
-        <v>22</v>
+        <v>35</v>
       </c>
       <c r="I75" s="9"/>
       <c r="J75" s="9"/>
@@ -3740,14 +3755,14 @@
       </c>
       <c r="M75" s="10"/>
       <c t="s" r="N75" s="8">
-        <v>122</v>
+        <v>208</v>
       </c>
       <c r="O75" s="8"/>
       <c t="s" r="P75" s="11">
-        <v>37</v>
+        <v>209</v>
       </c>
       <c t="s" r="Q75" s="12">
-        <v>22</v>
+        <v>16</v>
       </c>
     </row>
     <row r="76" ht="25.5" customHeight="1">
@@ -3756,14 +3771,14 @@
       </c>
       <c r="B76" s="7"/>
       <c t="s" r="C76" s="8">
-        <v>206</v>
+        <v>210</v>
       </c>
       <c r="D76" s="8"/>
       <c r="E76" s="8"/>
       <c r="F76" s="8"/>
       <c r="G76" s="8"/>
       <c t="s" r="H76" s="9">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="I76" s="9"/>
       <c r="J76" s="9"/>
@@ -3773,14 +3788,14 @@
       </c>
       <c r="M76" s="10"/>
       <c t="s" r="N76" s="8">
-        <v>207</v>
+        <v>122</v>
       </c>
       <c r="O76" s="8"/>
       <c t="s" r="P76" s="11">
-        <v>208</v>
+        <v>37</v>
       </c>
       <c t="s" r="Q76" s="12">
-        <v>35</v>
+        <v>22</v>
       </c>
     </row>
     <row r="77" ht="25.5" customHeight="1">
@@ -3789,14 +3804,14 @@
       </c>
       <c r="B77" s="7"/>
       <c t="s" r="C77" s="8">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="D77" s="8"/>
       <c r="E77" s="8"/>
       <c r="F77" s="8"/>
       <c r="G77" s="8"/>
       <c t="s" r="H77" s="9">
-        <v>45</v>
+        <v>18</v>
       </c>
       <c r="I77" s="9"/>
       <c r="J77" s="9"/>
@@ -3806,14 +3821,14 @@
       </c>
       <c r="M77" s="10"/>
       <c t="s" r="N77" s="8">
-        <v>122</v>
+        <v>212</v>
       </c>
       <c r="O77" s="8"/>
       <c t="s" r="P77" s="11">
-        <v>123</v>
+        <v>213</v>
       </c>
       <c t="s" r="Q77" s="12">
-        <v>18</v>
+        <v>35</v>
       </c>
     </row>
     <row r="78" ht="24.75" customHeight="1">
@@ -3822,14 +3837,14 @@
       </c>
       <c r="B78" s="7"/>
       <c t="s" r="C78" s="8">
-        <v>210</v>
+        <v>214</v>
       </c>
       <c r="D78" s="8"/>
       <c r="E78" s="8"/>
       <c r="F78" s="8"/>
       <c r="G78" s="8"/>
       <c t="s" r="H78" s="9">
-        <v>33</v>
+        <v>45</v>
       </c>
       <c r="I78" s="9"/>
       <c r="J78" s="9"/>
@@ -3839,14 +3854,14 @@
       </c>
       <c r="M78" s="10"/>
       <c t="s" r="N78" s="8">
-        <v>211</v>
+        <v>122</v>
       </c>
       <c r="O78" s="8"/>
       <c t="s" r="P78" s="11">
-        <v>212</v>
+        <v>123</v>
       </c>
       <c t="s" r="Q78" s="12">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="79" ht="25.5" customHeight="1">
@@ -3855,14 +3870,14 @@
       </c>
       <c r="B79" s="7"/>
       <c t="s" r="C79" s="8">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="D79" s="8"/>
       <c r="E79" s="8"/>
       <c r="F79" s="8"/>
       <c r="G79" s="8"/>
       <c t="s" r="H79" s="9">
-        <v>45</v>
+        <v>33</v>
       </c>
       <c r="I79" s="9"/>
       <c r="J79" s="9"/>
@@ -3872,11 +3887,11 @@
       </c>
       <c r="M79" s="10"/>
       <c t="s" r="N79" s="8">
-        <v>85</v>
+        <v>216</v>
       </c>
       <c r="O79" s="8"/>
       <c t="s" r="P79" s="11">
-        <v>141</v>
+        <v>217</v>
       </c>
       <c t="s" r="Q79" s="12">
         <v>16</v>
@@ -3888,14 +3903,14 @@
       </c>
       <c r="B80" s="7"/>
       <c t="s" r="C80" s="8">
-        <v>214</v>
+        <v>218</v>
       </c>
       <c r="D80" s="8"/>
       <c r="E80" s="8"/>
       <c r="F80" s="8"/>
       <c r="G80" s="8"/>
       <c t="s" r="H80" s="9">
-        <v>94</v>
+        <v>45</v>
       </c>
       <c r="I80" s="9"/>
       <c r="J80" s="9"/>
@@ -3905,14 +3920,14 @@
       </c>
       <c r="M80" s="10"/>
       <c t="s" r="N80" s="8">
-        <v>215</v>
+        <v>85</v>
       </c>
       <c r="O80" s="8"/>
       <c t="s" r="P80" s="11">
-        <v>216</v>
+        <v>141</v>
       </c>
       <c t="s" r="Q80" s="12">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="81" ht="25.5" customHeight="1">
@@ -3921,14 +3936,14 @@
       </c>
       <c r="B81" s="7"/>
       <c t="s" r="C81" s="8">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="D81" s="8"/>
       <c r="E81" s="8"/>
       <c r="F81" s="8"/>
       <c r="G81" s="8"/>
       <c t="s" r="H81" s="9">
-        <v>45</v>
+        <v>94</v>
       </c>
       <c r="I81" s="9"/>
       <c r="J81" s="9"/>
@@ -3938,11 +3953,11 @@
       </c>
       <c r="M81" s="10"/>
       <c t="s" r="N81" s="8">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="O81" s="8"/>
       <c t="s" r="P81" s="11">
-        <v>154</v>
+        <v>221</v>
       </c>
       <c t="s" r="Q81" s="12">
         <v>18</v>
@@ -3954,14 +3969,14 @@
       </c>
       <c r="B82" s="7"/>
       <c t="s" r="C82" s="8">
-        <v>219</v>
+        <v>222</v>
       </c>
       <c r="D82" s="8"/>
       <c r="E82" s="8"/>
       <c r="F82" s="8"/>
       <c r="G82" s="8"/>
       <c t="s" r="H82" s="9">
-        <v>112</v>
+        <v>45</v>
       </c>
       <c r="I82" s="9"/>
       <c r="J82" s="9"/>
@@ -3971,14 +3986,14 @@
       </c>
       <c r="M82" s="10"/>
       <c t="s" r="N82" s="8">
-        <v>165</v>
+        <v>223</v>
       </c>
       <c r="O82" s="8"/>
       <c t="s" r="P82" s="11">
-        <v>220</v>
+        <v>154</v>
       </c>
       <c t="s" r="Q82" s="12">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="83" ht="24.75" customHeight="1">
@@ -3987,14 +4002,14 @@
       </c>
       <c r="B83" s="7"/>
       <c t="s" r="C83" s="8">
-        <v>221</v>
+        <v>224</v>
       </c>
       <c r="D83" s="8"/>
       <c r="E83" s="8"/>
       <c r="F83" s="8"/>
       <c r="G83" s="8"/>
       <c t="s" r="H83" s="9">
-        <v>18</v>
+        <v>112</v>
       </c>
       <c r="I83" s="9"/>
       <c r="J83" s="9"/>
@@ -4008,7 +4023,7 @@
       </c>
       <c r="O83" s="8"/>
       <c t="s" r="P83" s="11">
-        <v>222</v>
+        <v>225</v>
       </c>
       <c t="s" r="Q83" s="12">
         <v>16</v>
@@ -4020,14 +4035,14 @@
       </c>
       <c r="B84" s="7"/>
       <c t="s" r="C84" s="8">
-        <v>223</v>
+        <v>226</v>
       </c>
       <c r="D84" s="8"/>
       <c r="E84" s="8"/>
       <c r="F84" s="8"/>
       <c r="G84" s="8"/>
       <c t="s" r="H84" s="9">
-        <v>45</v>
+        <v>18</v>
       </c>
       <c r="I84" s="9"/>
       <c r="J84" s="9"/>
@@ -4037,14 +4052,14 @@
       </c>
       <c r="M84" s="10"/>
       <c t="s" r="N84" s="8">
-        <v>224</v>
+        <v>165</v>
       </c>
       <c r="O84" s="8"/>
       <c t="s" r="P84" s="11">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c t="s" r="Q84" s="12">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="85" ht="24.75" customHeight="1">
@@ -4053,14 +4068,14 @@
       </c>
       <c r="B85" s="7"/>
       <c t="s" r="C85" s="8">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="D85" s="8"/>
       <c r="E85" s="8"/>
       <c r="F85" s="8"/>
       <c r="G85" s="8"/>
       <c t="s" r="H85" s="9">
-        <v>33</v>
+        <v>45</v>
       </c>
       <c r="I85" s="9"/>
       <c r="J85" s="9"/>
@@ -4070,14 +4085,14 @@
       </c>
       <c r="M85" s="10"/>
       <c t="s" r="N85" s="8">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="O85" s="8"/>
       <c t="s" r="P85" s="11">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c t="s" r="Q85" s="12">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="86" ht="25.5" customHeight="1">
@@ -4086,31 +4101,31 @@
       </c>
       <c r="B86" s="7"/>
       <c t="s" r="C86" s="8">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="D86" s="8"/>
       <c r="E86" s="8"/>
       <c r="F86" s="8"/>
       <c r="G86" s="8"/>
       <c t="s" r="H86" s="9">
-        <v>230</v>
+        <v>33</v>
       </c>
       <c r="I86" s="9"/>
       <c r="J86" s="9"/>
       <c r="K86" s="9"/>
       <c t="s" r="L86" s="10">
-        <v>156</v>
+        <v>13</v>
       </c>
       <c r="M86" s="10"/>
       <c t="s" r="N86" s="8">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="O86" s="8"/>
       <c t="s" r="P86" s="11">
-        <v>166</v>
+        <v>233</v>
       </c>
       <c t="s" r="Q86" s="12">
-        <v>39</v>
+        <v>16</v>
       </c>
     </row>
     <row r="87" ht="25.5" customHeight="1">
@@ -4119,14 +4134,14 @@
       </c>
       <c r="B87" s="7"/>
       <c t="s" r="C87" s="8">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="D87" s="8"/>
       <c r="E87" s="8"/>
       <c r="F87" s="8"/>
       <c r="G87" s="8"/>
       <c t="s" r="H87" s="9">
-        <v>39</v>
+        <v>235</v>
       </c>
       <c r="I87" s="9"/>
       <c r="J87" s="9"/>
@@ -4136,14 +4151,14 @@
       </c>
       <c r="M87" s="10"/>
       <c t="s" r="N87" s="8">
-        <v>233</v>
+        <v>236</v>
       </c>
       <c r="O87" s="8"/>
       <c t="s" r="P87" s="11">
-        <v>234</v>
+        <v>166</v>
       </c>
       <c t="s" r="Q87" s="12">
-        <v>18</v>
+        <v>39</v>
       </c>
     </row>
     <row r="88" ht="24.75" customHeight="1">
@@ -4152,14 +4167,14 @@
       </c>
       <c r="B88" s="7"/>
       <c t="s" r="C88" s="8">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="D88" s="8"/>
       <c r="E88" s="8"/>
       <c r="F88" s="8"/>
       <c r="G88" s="8"/>
       <c t="s" r="H88" s="9">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="I88" s="9"/>
       <c r="J88" s="9"/>
@@ -4169,14 +4184,14 @@
       </c>
       <c r="M88" s="10"/>
       <c t="s" r="N88" s="8">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="O88" s="8"/>
       <c t="s" r="P88" s="11">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c t="s" r="Q88" s="12">
-        <v>22</v>
+        <v>18</v>
       </c>
     </row>
     <row r="89" ht="25.5" customHeight="1">
@@ -4185,14 +4200,14 @@
       </c>
       <c r="B89" s="7"/>
       <c t="s" r="C89" s="8">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="D89" s="8"/>
       <c r="E89" s="8"/>
       <c r="F89" s="8"/>
       <c r="G89" s="8"/>
       <c t="s" r="H89" s="9">
-        <v>18</v>
+        <v>45</v>
       </c>
       <c r="I89" s="9"/>
       <c r="J89" s="9"/>
@@ -4202,14 +4217,14 @@
       </c>
       <c r="M89" s="10"/>
       <c t="s" r="N89" s="8">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="O89" s="8"/>
       <c t="s" r="P89" s="11">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c t="s" r="Q89" s="12">
-        <v>18</v>
+        <v>22</v>
       </c>
     </row>
     <row r="90" ht="24.75" customHeight="1">
@@ -4218,14 +4233,14 @@
       </c>
       <c r="B90" s="7"/>
       <c t="s" r="C90" s="8">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="D90" s="8"/>
       <c r="E90" s="8"/>
       <c r="F90" s="8"/>
       <c r="G90" s="8"/>
       <c t="s" r="H90" s="9">
-        <v>242</v>
+        <v>18</v>
       </c>
       <c r="I90" s="9"/>
       <c r="J90" s="9"/>
@@ -4235,14 +4250,14 @@
       </c>
       <c r="M90" s="10"/>
       <c t="s" r="N90" s="8">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="O90" s="8"/>
       <c t="s" r="P90" s="11">
-        <v>157</v>
+        <v>245</v>
       </c>
       <c t="s" r="Q90" s="12">
-        <v>22</v>
+        <v>18</v>
       </c>
     </row>
     <row r="91" ht="25.5" customHeight="1">
@@ -4251,14 +4266,14 @@
       </c>
       <c r="B91" s="7"/>
       <c t="s" r="C91" s="8">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="D91" s="8"/>
       <c r="E91" s="8"/>
       <c r="F91" s="8"/>
       <c r="G91" s="8"/>
       <c t="s" r="H91" s="9">
-        <v>45</v>
+        <v>247</v>
       </c>
       <c r="I91" s="9"/>
       <c r="J91" s="9"/>
@@ -4268,14 +4283,14 @@
       </c>
       <c r="M91" s="10"/>
       <c t="s" r="N91" s="8">
-        <v>245</v>
+        <v>248</v>
       </c>
       <c r="O91" s="8"/>
       <c t="s" r="P91" s="11">
-        <v>246</v>
+        <v>157</v>
       </c>
       <c t="s" r="Q91" s="12">
-        <v>39</v>
+        <v>22</v>
       </c>
     </row>
     <row r="92" ht="25.5" customHeight="1">
@@ -4284,7 +4299,7 @@
       </c>
       <c r="B92" s="7"/>
       <c t="s" r="C92" s="8">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="D92" s="8"/>
       <c r="E92" s="8"/>
@@ -4301,14 +4316,14 @@
       </c>
       <c r="M92" s="10"/>
       <c t="s" r="N92" s="8">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="O92" s="8"/>
       <c t="s" r="P92" s="11">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c t="s" r="Q92" s="12">
-        <v>84</v>
+        <v>39</v>
       </c>
     </row>
     <row r="93" ht="24.75" customHeight="1">
@@ -4317,7 +4332,7 @@
       </c>
       <c r="B93" s="7"/>
       <c t="s" r="C93" s="8">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="D93" s="8"/>
       <c r="E93" s="8"/>
@@ -4334,14 +4349,14 @@
       </c>
       <c r="M93" s="10"/>
       <c t="s" r="N93" s="8">
-        <v>236</v>
+        <v>253</v>
       </c>
       <c r="O93" s="8"/>
       <c t="s" r="P93" s="11">
-        <v>237</v>
+        <v>254</v>
       </c>
       <c t="s" r="Q93" s="12">
-        <v>22</v>
+        <v>84</v>
       </c>
     </row>
     <row r="94" ht="25.5" customHeight="1">
@@ -4350,14 +4365,14 @@
       </c>
       <c r="B94" s="7"/>
       <c t="s" r="C94" s="8">
-        <v>251</v>
+        <v>255</v>
       </c>
       <c r="D94" s="8"/>
       <c r="E94" s="8"/>
       <c r="F94" s="8"/>
       <c r="G94" s="8"/>
       <c t="s" r="H94" s="9">
-        <v>22</v>
+        <v>45</v>
       </c>
       <c r="I94" s="9"/>
       <c r="J94" s="9"/>
@@ -4367,14 +4382,14 @@
       </c>
       <c r="M94" s="10"/>
       <c t="s" r="N94" s="8">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="O94" s="8"/>
       <c t="s" r="P94" s="11">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c t="s" r="Q94" s="12">
-        <v>18</v>
+        <v>22</v>
       </c>
     </row>
     <row r="95" ht="24.75" customHeight="1">
@@ -4383,14 +4398,14 @@
       </c>
       <c r="B95" s="7"/>
       <c t="s" r="C95" s="8">
-        <v>252</v>
+        <v>256</v>
       </c>
       <c r="D95" s="8"/>
       <c r="E95" s="8"/>
       <c r="F95" s="8"/>
       <c r="G95" s="8"/>
       <c t="s" r="H95" s="9">
-        <v>45</v>
+        <v>22</v>
       </c>
       <c r="I95" s="9"/>
       <c r="J95" s="9"/>
@@ -4400,11 +4415,11 @@
       </c>
       <c r="M95" s="10"/>
       <c t="s" r="N95" s="8">
-        <v>231</v>
+        <v>244</v>
       </c>
       <c r="O95" s="8"/>
       <c t="s" r="P95" s="11">
-        <v>253</v>
+        <v>245</v>
       </c>
       <c t="s" r="Q95" s="12">
         <v>18</v>
@@ -4416,14 +4431,14 @@
       </c>
       <c r="B96" s="7"/>
       <c t="s" r="C96" s="8">
-        <v>254</v>
+        <v>257</v>
       </c>
       <c r="D96" s="8"/>
       <c r="E96" s="8"/>
       <c r="F96" s="8"/>
       <c r="G96" s="8"/>
       <c t="s" r="H96" s="9">
-        <v>255</v>
+        <v>45</v>
       </c>
       <c r="I96" s="9"/>
       <c r="J96" s="9"/>
@@ -4433,11 +4448,11 @@
       </c>
       <c r="M96" s="10"/>
       <c t="s" r="N96" s="8">
-        <v>256</v>
+        <v>236</v>
       </c>
       <c r="O96" s="8"/>
       <c t="s" r="P96" s="11">
-        <v>246</v>
+        <v>258</v>
       </c>
       <c t="s" r="Q96" s="12">
         <v>18</v>
@@ -4449,14 +4464,14 @@
       </c>
       <c r="B97" s="7"/>
       <c t="s" r="C97" s="8">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="D97" s="8"/>
       <c r="E97" s="8"/>
       <c r="F97" s="8"/>
       <c r="G97" s="8"/>
       <c t="s" r="H97" s="9">
-        <v>39</v>
+        <v>260</v>
       </c>
       <c r="I97" s="9"/>
       <c r="J97" s="9"/>
@@ -4466,11 +4481,11 @@
       </c>
       <c r="M97" s="10"/>
       <c t="s" r="N97" s="8">
-        <v>258</v>
+        <v>261</v>
       </c>
       <c r="O97" s="8"/>
       <c t="s" r="P97" s="11">
-        <v>259</v>
+        <v>251</v>
       </c>
       <c t="s" r="Q97" s="12">
         <v>18</v>
@@ -4482,14 +4497,14 @@
       </c>
       <c r="B98" s="7"/>
       <c t="s" r="C98" s="8">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="D98" s="8"/>
       <c r="E98" s="8"/>
       <c r="F98" s="8"/>
       <c r="G98" s="8"/>
       <c t="s" r="H98" s="9">
-        <v>261</v>
+        <v>39</v>
       </c>
       <c r="I98" s="9"/>
       <c r="J98" s="9"/>
@@ -4499,14 +4514,14 @@
       </c>
       <c r="M98" s="10"/>
       <c t="s" r="N98" s="8">
-        <v>239</v>
+        <v>263</v>
       </c>
       <c r="O98" s="8"/>
       <c t="s" r="P98" s="11">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c t="s" r="Q98" s="12">
-        <v>84</v>
+        <v>18</v>
       </c>
     </row>
     <row r="99" ht="25.5" customHeight="1">
@@ -4515,14 +4530,14 @@
       </c>
       <c r="B99" s="7"/>
       <c t="s" r="C99" s="8">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="D99" s="8"/>
       <c r="E99" s="8"/>
       <c r="F99" s="8"/>
       <c r="G99" s="8"/>
       <c t="s" r="H99" s="9">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="I99" s="9"/>
       <c r="J99" s="9"/>
@@ -4532,14 +4547,14 @@
       </c>
       <c r="M99" s="10"/>
       <c t="s" r="N99" s="8">
-        <v>265</v>
+        <v>244</v>
       </c>
       <c r="O99" s="8"/>
       <c t="s" r="P99" s="11">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c t="s" r="Q99" s="12">
-        <v>18</v>
+        <v>84</v>
       </c>
     </row>
     <row r="100" ht="24.75" customHeight="1">
@@ -4548,14 +4563,14 @@
       </c>
       <c r="B100" s="7"/>
       <c t="s" r="C100" s="8">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="D100" s="8"/>
       <c r="E100" s="8"/>
       <c r="F100" s="8"/>
       <c r="G100" s="8"/>
       <c t="s" r="H100" s="9">
-        <v>45</v>
+        <v>269</v>
       </c>
       <c r="I100" s="9"/>
       <c r="J100" s="9"/>
@@ -4565,14 +4580,14 @@
       </c>
       <c r="M100" s="10"/>
       <c t="s" r="N100" s="8">
-        <v>233</v>
+        <v>270</v>
       </c>
       <c r="O100" s="8"/>
       <c t="s" r="P100" s="11">
-        <v>253</v>
+        <v>271</v>
       </c>
       <c t="s" r="Q100" s="12">
-        <v>22</v>
+        <v>18</v>
       </c>
     </row>
     <row r="101" ht="25.5" customHeight="1">
@@ -4581,14 +4596,14 @@
       </c>
       <c r="B101" s="7"/>
       <c t="s" r="C101" s="8">
-        <v>268</v>
+        <v>272</v>
       </c>
       <c r="D101" s="8"/>
       <c r="E101" s="8"/>
       <c r="F101" s="8"/>
       <c r="G101" s="8"/>
       <c t="s" r="H101" s="9">
-        <v>18</v>
+        <v>45</v>
       </c>
       <c r="I101" s="9"/>
       <c r="J101" s="9"/>
@@ -4598,14 +4613,14 @@
       </c>
       <c r="M101" s="10"/>
       <c t="s" r="N101" s="8">
-        <v>269</v>
+        <v>238</v>
       </c>
       <c r="O101" s="8"/>
       <c t="s" r="P101" s="11">
-        <v>270</v>
+        <v>258</v>
       </c>
       <c t="s" r="Q101" s="12">
-        <v>18</v>
+        <v>22</v>
       </c>
     </row>
     <row r="102" ht="25.5" customHeight="1">
@@ -4614,14 +4629,14 @@
       </c>
       <c r="B102" s="7"/>
       <c t="s" r="C102" s="8">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="D102" s="8"/>
       <c r="E102" s="8"/>
       <c r="F102" s="8"/>
       <c r="G102" s="8"/>
       <c t="s" r="H102" s="9">
-        <v>242</v>
+        <v>18</v>
       </c>
       <c r="I102" s="9"/>
       <c r="J102" s="9"/>
@@ -4631,11 +4646,11 @@
       </c>
       <c r="M102" s="10"/>
       <c t="s" r="N102" s="8">
-        <v>272</v>
+        <v>274</v>
       </c>
       <c r="O102" s="8"/>
       <c t="s" r="P102" s="11">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c t="s" r="Q102" s="12">
         <v>18</v>
@@ -4647,14 +4662,14 @@
       </c>
       <c r="B103" s="7"/>
       <c t="s" r="C103" s="8">
-        <v>274</v>
+        <v>276</v>
       </c>
       <c r="D103" s="8"/>
       <c r="E103" s="8"/>
       <c r="F103" s="8"/>
       <c r="G103" s="8"/>
       <c t="s" r="H103" s="9">
-        <v>45</v>
+        <v>247</v>
       </c>
       <c r="I103" s="9"/>
       <c r="J103" s="9"/>
@@ -4664,11 +4679,11 @@
       </c>
       <c r="M103" s="10"/>
       <c t="s" r="N103" s="8">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="O103" s="8"/>
       <c t="s" r="P103" s="11">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c t="s" r="Q103" s="12">
         <v>18</v>
@@ -4680,14 +4695,14 @@
       </c>
       <c r="B104" s="7"/>
       <c t="s" r="C104" s="8">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="D104" s="8"/>
       <c r="E104" s="8"/>
       <c r="F104" s="8"/>
       <c r="G104" s="8"/>
       <c t="s" r="H104" s="9">
-        <v>22</v>
+        <v>45</v>
       </c>
       <c r="I104" s="9"/>
       <c r="J104" s="9"/>
@@ -4697,49 +4712,82 @@
       </c>
       <c r="M104" s="10"/>
       <c t="s" r="N104" s="8">
-        <v>233</v>
+        <v>280</v>
       </c>
       <c r="O104" s="8"/>
       <c t="s" r="P104" s="11">
-        <v>234</v>
+        <v>281</v>
       </c>
       <c t="s" r="Q104" s="12">
         <v>18</v>
       </c>
     </row>
     <row r="105" ht="24.75" customHeight="1">
-      <c r="P105" s="13">
-        <v>6152.7349999999997</v>
-      </c>
-      <c r="Q105" s="13"/>
-    </row>
-    <row r="106" ht="16.5" customHeight="1">
-      <c t="s" r="A106" s="14">
-        <v>278</v>
-      </c>
-      <c r="B106" s="14"/>
-      <c r="C106" s="14"/>
-      <c r="D106" s="14"/>
-      <c r="E106" s="14"/>
-      <c r="F106" s="14"/>
-      <c t="s" r="G106" s="15">
-        <v>279</v>
-      </c>
-      <c r="H106" s="15"/>
-      <c r="I106" s="15"/>
-      <c r="J106" s="16"/>
-      <c t="s" r="K106" s="17">
-        <v>280</v>
-      </c>
-      <c r="L106" s="17"/>
-      <c r="M106" s="17"/>
-      <c r="N106" s="17"/>
-      <c r="O106" s="17"/>
-      <c r="P106" s="17"/>
-      <c r="Q106" s="17"/>
+      <c r="A105" s="7">
+        <v>99</v>
+      </c>
+      <c r="B105" s="7"/>
+      <c t="s" r="C105" s="8">
+        <v>282</v>
+      </c>
+      <c r="D105" s="8"/>
+      <c r="E105" s="8"/>
+      <c r="F105" s="8"/>
+      <c r="G105" s="8"/>
+      <c t="s" r="H105" s="9">
+        <v>22</v>
+      </c>
+      <c r="I105" s="9"/>
+      <c r="J105" s="9"/>
+      <c r="K105" s="9"/>
+      <c t="s" r="L105" s="10">
+        <v>156</v>
+      </c>
+      <c r="M105" s="10"/>
+      <c t="s" r="N105" s="8">
+        <v>238</v>
+      </c>
+      <c r="O105" s="8"/>
+      <c t="s" r="P105" s="11">
+        <v>239</v>
+      </c>
+      <c t="s" r="Q105" s="12">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="106" ht="25.5" customHeight="1">
+      <c r="P106" s="13">
+        <v>6164.6149999999998</v>
+      </c>
+      <c r="Q106" s="13"/>
+    </row>
+    <row r="107" ht="16.5" customHeight="1">
+      <c t="s" r="A107" s="14">
+        <v>283</v>
+      </c>
+      <c r="B107" s="14"/>
+      <c r="C107" s="14"/>
+      <c r="D107" s="14"/>
+      <c r="E107" s="14"/>
+      <c r="F107" s="14"/>
+      <c t="s" r="G107" s="15">
+        <v>284</v>
+      </c>
+      <c r="H107" s="15"/>
+      <c r="I107" s="15"/>
+      <c r="J107" s="16"/>
+      <c t="s" r="K107" s="17">
+        <v>285</v>
+      </c>
+      <c r="L107" s="17"/>
+      <c r="M107" s="17"/>
+      <c r="N107" s="17"/>
+      <c r="O107" s="17"/>
+      <c r="P107" s="17"/>
+      <c r="Q107" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="502">
+  <mergeCells count="507">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -5238,10 +5286,15 @@
     <mergeCell ref="H104:K104"/>
     <mergeCell ref="L104:M104"/>
     <mergeCell ref="N104:O104"/>
-    <mergeCell ref="P105:Q105"/>
-    <mergeCell ref="A106:F106"/>
-    <mergeCell ref="G106:I106"/>
-    <mergeCell ref="K106:Q106"/>
+    <mergeCell ref="A105:B105"/>
+    <mergeCell ref="C105:G105"/>
+    <mergeCell ref="H105:K105"/>
+    <mergeCell ref="L105:M105"/>
+    <mergeCell ref="N105:O105"/>
+    <mergeCell ref="P106:Q106"/>
+    <mergeCell ref="A107:F107"/>
+    <mergeCell ref="G107:I107"/>
+    <mergeCell ref="K107:Q107"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-08-08_00-00.xlsx
+++ b/DaySale_2025-08-08_00-00.xlsx
@@ -383,6 +383,15 @@
     <t>38.0000</t>
   </si>
   <si>
+    <t>GANATON 50 MG 30 F.C.TABS.</t>
+  </si>
+  <si>
+    <t>90.00</t>
+  </si>
+  <si>
+    <t>29.7000</t>
+  </si>
+  <si>
     <t>GARAMYCIN 0.1% CREAM 15 GM</t>
   </si>
   <si>
@@ -467,6 +476,15 @@
     <t>33.6600</t>
   </si>
   <si>
+    <t>NEUROVIT 6 I.M. AMPS</t>
+  </si>
+  <si>
+    <t>66.00</t>
+  </si>
+  <si>
+    <t>66.0000</t>
+  </si>
+  <si>
     <t>PANADOL ADVANCE 500 MG 48 TABLETS</t>
   </si>
   <si>
@@ -506,9 +524,6 @@
     <t>PANTOPRAZOLE 40MG 14 TAB.</t>
   </si>
   <si>
-    <t>90.00</t>
-  </si>
-  <si>
     <t>90.0000</t>
   </si>
   <si>
@@ -620,6 +635,9 @@
     <t>124.0000</t>
   </si>
   <si>
+    <t>TOPIRAMATE 25MG 30 F.C. TAB</t>
+  </si>
+  <si>
     <t>TOPRO 10 SACHETS</t>
   </si>
   <si>
@@ -692,9 +710,6 @@
     <t>VITAMOUNT FOR WOMEN 15 S.G. CAPS</t>
   </si>
   <si>
-    <t>29.7000</t>
-  </si>
-  <si>
     <t>VITASTRESS 20 F.C. TABS.</t>
   </si>
   <si>
@@ -713,6 +728,12 @@
     <t>64.3500</t>
   </si>
   <si>
+    <t>VONASPIRE 20MG 14 F.C. TAB</t>
+  </si>
+  <si>
+    <t>104.00</t>
+  </si>
+  <si>
     <t xml:space="preserve">برفان القصاص </t>
   </si>
   <si>
@@ -773,7 +794,7 @@
     <t>2.00</t>
   </si>
   <si>
-    <t>10.0000</t>
+    <t>11:0</t>
   </si>
   <si>
     <t>سرنجات 5 سم</t>
@@ -860,7 +881,7 @@
     <t>مناديل بكر فاين</t>
   </si>
   <si>
-    <t>Friday, 8 August, 2025 9:46 PM</t>
+    <t>Friday, 8 August, 2025 9:51 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -2623,7 +2644,7 @@
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
@@ -2633,14 +2654,14 @@
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>100</v>
+        <v>125</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
-        <v>101</v>
+        <v>126</v>
       </c>
       <c t="s" r="Q41" s="12">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="42" ht="25.5" customHeight="1">
@@ -2649,14 +2670,14 @@
       </c>
       <c r="B42" s="7"/>
       <c t="s" r="C42" s="8">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="D42" s="8"/>
       <c r="E42" s="8"/>
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>22</v>
+        <v>39</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
@@ -2682,14 +2703,14 @@
       </c>
       <c r="B43" s="7"/>
       <c t="s" r="C43" s="8">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="D43" s="8"/>
       <c r="E43" s="8"/>
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>35</v>
+        <v>22</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
@@ -2699,14 +2720,14 @@
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>127</v>
+        <v>100</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
-        <v>128</v>
+        <v>101</v>
       </c>
       <c t="s" r="Q43" s="12">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="44" ht="25.5" customHeight="1">
@@ -2722,7 +2743,7 @@
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>45</v>
+        <v>35</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
@@ -2739,7 +2760,7 @@
         <v>131</v>
       </c>
       <c t="s" r="Q44" s="12">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="45" ht="24.75" customHeight="1">
@@ -2755,7 +2776,7 @@
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>18</v>
+        <v>45</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
@@ -2772,7 +2793,7 @@
         <v>134</v>
       </c>
       <c t="s" r="Q45" s="12">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="46" ht="25.5" customHeight="1">
@@ -2788,7 +2809,7 @@
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>136</v>
+        <v>18</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
@@ -2798,14 +2819,14 @@
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c t="s" r="Q46" s="12">
-        <v>94</v>
+        <v>16</v>
       </c>
     </row>
     <row r="47" ht="25.5" customHeight="1">
@@ -2814,14 +2835,14 @@
       </c>
       <c r="B47" s="7"/>
       <c t="s" r="C47" s="8">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="D47" s="8"/>
       <c r="E47" s="8"/>
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>35</v>
+        <v>139</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
@@ -2831,14 +2852,14 @@
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>68</v>
+        <v>140</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
-        <v>69</v>
+        <v>141</v>
       </c>
       <c t="s" r="Q47" s="12">
-        <v>16</v>
+        <v>94</v>
       </c>
     </row>
     <row r="48" ht="24.75" customHeight="1">
@@ -2847,14 +2868,14 @@
       </c>
       <c r="B48" s="7"/>
       <c t="s" r="C48" s="8">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="D48" s="8"/>
       <c r="E48" s="8"/>
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>45</v>
+        <v>35</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
@@ -2864,11 +2885,11 @@
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>85</v>
+        <v>68</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
-        <v>141</v>
+        <v>69</v>
       </c>
       <c t="s" r="Q48" s="12">
         <v>16</v>
@@ -2880,14 +2901,14 @@
       </c>
       <c r="B49" s="7"/>
       <c t="s" r="C49" s="8">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="D49" s="8"/>
       <c r="E49" s="8"/>
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>94</v>
+        <v>45</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
@@ -2897,11 +2918,11 @@
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>46</v>
+        <v>85</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c t="s" r="Q49" s="12">
         <v>16</v>
@@ -2913,14 +2934,14 @@
       </c>
       <c r="B50" s="7"/>
       <c t="s" r="C50" s="8">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="D50" s="8"/>
       <c r="E50" s="8"/>
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>16</v>
+        <v>94</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
@@ -2930,7 +2951,7 @@
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>145</v>
+        <v>46</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
@@ -2953,7 +2974,7 @@
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>35</v>
+        <v>16</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
@@ -2967,7 +2988,7 @@
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
-        <v>86</v>
+        <v>149</v>
       </c>
       <c t="s" r="Q51" s="12">
         <v>16</v>
@@ -2979,14 +3000,14 @@
       </c>
       <c r="B52" s="7"/>
       <c t="s" r="C52" s="8">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="D52" s="8"/>
       <c r="E52" s="8"/>
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
@@ -2996,11 +3017,11 @@
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
-        <v>151</v>
+        <v>86</v>
       </c>
       <c t="s" r="Q52" s="12">
         <v>16</v>
@@ -3019,7 +3040,7 @@
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>18</v>
+        <v>33</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
@@ -3058,18 +3079,18 @@
       <c r="J54" s="9"/>
       <c r="K54" s="9"/>
       <c t="s" r="L54" s="10">
-        <v>156</v>
+        <v>13</v>
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
-        <v>137</v>
+        <v>156</v>
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
         <v>157</v>
       </c>
       <c t="s" r="Q54" s="12">
-        <v>33</v>
+        <v>18</v>
       </c>
     </row>
     <row r="55" ht="24.75" customHeight="1">
@@ -3085,7 +3106,7 @@
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>39</v>
+        <v>18</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
@@ -3095,14 +3116,14 @@
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
-        <v>97</v>
+        <v>159</v>
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c t="s" r="Q55" s="12">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="56" ht="25.5" customHeight="1">
@@ -3111,31 +3132,31 @@
       </c>
       <c r="B56" s="7"/>
       <c t="s" r="C56" s="8">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="D56" s="8"/>
       <c r="E56" s="8"/>
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
       <c r="K56" s="9"/>
       <c t="s" r="L56" s="10">
-        <v>13</v>
+        <v>162</v>
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
-        <v>150</v>
+        <v>140</v>
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c t="s" r="Q56" s="12">
-        <v>18</v>
+        <v>33</v>
       </c>
     </row>
     <row r="57" ht="25.5" customHeight="1">
@@ -3144,14 +3165,14 @@
       </c>
       <c r="B57" s="7"/>
       <c t="s" r="C57" s="8">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="D57" s="8"/>
       <c r="E57" s="8"/>
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>16</v>
+        <v>39</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
@@ -3161,14 +3182,14 @@
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
-        <v>163</v>
+        <v>97</v>
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
-        <v>47</v>
+        <v>165</v>
       </c>
       <c t="s" r="Q57" s="12">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="58" ht="24.75" customHeight="1">
@@ -3177,14 +3198,14 @@
       </c>
       <c r="B58" s="7"/>
       <c t="s" r="C58" s="8">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="D58" s="8"/>
       <c r="E58" s="8"/>
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c t="s" r="H58" s="9">
-        <v>45</v>
+        <v>16</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
@@ -3194,11 +3215,11 @@
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
-        <v>165</v>
+        <v>153</v>
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c t="s" r="Q58" s="12">
         <v>18</v>
@@ -3210,14 +3231,14 @@
       </c>
       <c r="B59" s="7"/>
       <c t="s" r="C59" s="8">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="D59" s="8"/>
       <c r="E59" s="8"/>
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c t="s" r="H59" s="9">
-        <v>45</v>
+        <v>16</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
@@ -3227,14 +3248,14 @@
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
-        <v>169</v>
+        <v>47</v>
       </c>
       <c t="s" r="Q59" s="12">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="60" ht="24.75" customHeight="1">
@@ -3250,7 +3271,7 @@
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c t="s" r="H60" s="9">
-        <v>18</v>
+        <v>45</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
@@ -3260,14 +3281,14 @@
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
-        <v>171</v>
+        <v>125</v>
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c t="s" r="Q60" s="12">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="61" ht="25.5" customHeight="1">
@@ -3276,14 +3297,14 @@
       </c>
       <c r="B61" s="7"/>
       <c t="s" r="C61" s="8">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="D61" s="8"/>
       <c r="E61" s="8"/>
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
       <c t="s" r="H61" s="9">
-        <v>16</v>
+        <v>45</v>
       </c>
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
@@ -3293,14 +3314,14 @@
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
-        <v>106</v>
+        <v>173</v>
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
         <v>174</v>
       </c>
       <c t="s" r="Q61" s="12">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="62" ht="25.5" customHeight="1">
@@ -3316,7 +3337,7 @@
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
       <c t="s" r="H62" s="9">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="I62" s="9"/>
       <c r="J62" s="9"/>
@@ -3326,14 +3347,14 @@
       </c>
       <c r="M62" s="10"/>
       <c t="s" r="N62" s="8">
-        <v>109</v>
+        <v>176</v>
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c t="s" r="Q62" s="12">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="63" ht="24.75" customHeight="1">
@@ -3342,14 +3363,14 @@
       </c>
       <c r="B63" s="7"/>
       <c t="s" r="C63" s="8">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="D63" s="8"/>
       <c r="E63" s="8"/>
       <c r="F63" s="8"/>
       <c r="G63" s="8"/>
       <c t="s" r="H63" s="9">
-        <v>178</v>
+        <v>16</v>
       </c>
       <c r="I63" s="9"/>
       <c r="J63" s="9"/>
@@ -3359,14 +3380,14 @@
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
-        <v>179</v>
+        <v>106</v>
       </c>
       <c r="O63" s="8"/>
       <c t="s" r="P63" s="11">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c t="s" r="Q63" s="12">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="64" ht="25.5" customHeight="1">
@@ -3375,14 +3396,14 @@
       </c>
       <c r="B64" s="7"/>
       <c t="s" r="C64" s="8">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="D64" s="8"/>
       <c r="E64" s="8"/>
       <c r="F64" s="8"/>
       <c r="G64" s="8"/>
       <c t="s" r="H64" s="9">
-        <v>182</v>
+        <v>22</v>
       </c>
       <c r="I64" s="9"/>
       <c r="J64" s="9"/>
@@ -3392,14 +3413,14 @@
       </c>
       <c r="M64" s="10"/>
       <c t="s" r="N64" s="8">
-        <v>183</v>
+        <v>109</v>
       </c>
       <c r="O64" s="8"/>
       <c t="s" r="P64" s="11">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c t="s" r="Q64" s="12">
-        <v>185</v>
+        <v>18</v>
       </c>
     </row>
     <row r="65" ht="24.75" customHeight="1">
@@ -3408,14 +3429,14 @@
       </c>
       <c r="B65" s="7"/>
       <c t="s" r="C65" s="8">
-        <v>186</v>
+        <v>182</v>
       </c>
       <c r="D65" s="8"/>
       <c r="E65" s="8"/>
       <c r="F65" s="8"/>
       <c r="G65" s="8"/>
       <c t="s" r="H65" s="9">
-        <v>18</v>
+        <v>183</v>
       </c>
       <c r="I65" s="9"/>
       <c r="J65" s="9"/>
@@ -3425,11 +3446,11 @@
       </c>
       <c r="M65" s="10"/>
       <c t="s" r="N65" s="8">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="O65" s="8"/>
       <c t="s" r="P65" s="11">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c t="s" r="Q65" s="12">
         <v>18</v>
@@ -3441,14 +3462,14 @@
       </c>
       <c r="B66" s="7"/>
       <c t="s" r="C66" s="8">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="D66" s="8"/>
       <c r="E66" s="8"/>
       <c r="F66" s="8"/>
       <c r="G66" s="8"/>
       <c t="s" r="H66" s="9">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="I66" s="9"/>
       <c r="J66" s="9"/>
@@ -3458,14 +3479,14 @@
       </c>
       <c r="M66" s="10"/>
       <c t="s" r="N66" s="8">
-        <v>148</v>
+        <v>188</v>
       </c>
       <c r="O66" s="8"/>
       <c t="s" r="P66" s="11">
-        <v>86</v>
+        <v>189</v>
       </c>
       <c t="s" r="Q66" s="12">
-        <v>16</v>
+        <v>190</v>
       </c>
     </row>
     <row r="67" ht="25.5" customHeight="1">
@@ -3481,7 +3502,7 @@
       <c r="F67" s="8"/>
       <c r="G67" s="8"/>
       <c t="s" r="H67" s="9">
-        <v>30</v>
+        <v>18</v>
       </c>
       <c r="I67" s="9"/>
       <c r="J67" s="9"/>
@@ -3491,14 +3512,14 @@
       </c>
       <c r="M67" s="10"/>
       <c t="s" r="N67" s="8">
-        <v>100</v>
+        <v>192</v>
       </c>
       <c r="O67" s="8"/>
       <c t="s" r="P67" s="11">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c t="s" r="Q67" s="12">
-        <v>33</v>
+        <v>18</v>
       </c>
     </row>
     <row r="68" ht="24.75" customHeight="1">
@@ -3507,14 +3528,14 @@
       </c>
       <c r="B68" s="7"/>
       <c t="s" r="C68" s="8">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="D68" s="8"/>
       <c r="E68" s="8"/>
       <c r="F68" s="8"/>
       <c r="G68" s="8"/>
       <c t="s" r="H68" s="9">
-        <v>71</v>
+        <v>195</v>
       </c>
       <c r="I68" s="9"/>
       <c r="J68" s="9"/>
@@ -3524,14 +3545,14 @@
       </c>
       <c r="M68" s="10"/>
       <c t="s" r="N68" s="8">
-        <v>27</v>
+        <v>151</v>
       </c>
       <c r="O68" s="8"/>
       <c t="s" r="P68" s="11">
-        <v>194</v>
+        <v>86</v>
       </c>
       <c t="s" r="Q68" s="12">
-        <v>35</v>
+        <v>16</v>
       </c>
     </row>
     <row r="69" ht="25.5" customHeight="1">
@@ -3540,7 +3561,7 @@
       </c>
       <c r="B69" s="7"/>
       <c t="s" r="C69" s="8">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="D69" s="8"/>
       <c r="E69" s="8"/>
@@ -3557,14 +3578,14 @@
       </c>
       <c r="M69" s="10"/>
       <c t="s" r="N69" s="8">
-        <v>95</v>
+        <v>100</v>
       </c>
       <c r="O69" s="8"/>
       <c t="s" r="P69" s="11">
-        <v>63</v>
+        <v>197</v>
       </c>
       <c t="s" r="Q69" s="12">
-        <v>18</v>
+        <v>33</v>
       </c>
     </row>
     <row r="70" ht="24.75" customHeight="1">
@@ -3573,14 +3594,14 @@
       </c>
       <c r="B70" s="7"/>
       <c t="s" r="C70" s="8">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="D70" s="8"/>
       <c r="E70" s="8"/>
       <c r="F70" s="8"/>
       <c r="G70" s="8"/>
       <c t="s" r="H70" s="9">
-        <v>35</v>
+        <v>71</v>
       </c>
       <c r="I70" s="9"/>
       <c r="J70" s="9"/>
@@ -3590,14 +3611,14 @@
       </c>
       <c r="M70" s="10"/>
       <c t="s" r="N70" s="8">
-        <v>40</v>
+        <v>27</v>
       </c>
       <c r="O70" s="8"/>
       <c t="s" r="P70" s="11">
-        <v>41</v>
+        <v>199</v>
       </c>
       <c t="s" r="Q70" s="12">
-        <v>16</v>
+        <v>35</v>
       </c>
     </row>
     <row r="71" ht="25.5" customHeight="1">
@@ -3606,14 +3627,14 @@
       </c>
       <c r="B71" s="7"/>
       <c t="s" r="C71" s="8">
-        <v>197</v>
+        <v>200</v>
       </c>
       <c r="D71" s="8"/>
       <c r="E71" s="8"/>
       <c r="F71" s="8"/>
       <c r="G71" s="8"/>
       <c t="s" r="H71" s="9">
-        <v>198</v>
+        <v>30</v>
       </c>
       <c r="I71" s="9"/>
       <c r="J71" s="9"/>
@@ -3623,14 +3644,14 @@
       </c>
       <c r="M71" s="10"/>
       <c t="s" r="N71" s="8">
-        <v>199</v>
+        <v>95</v>
       </c>
       <c r="O71" s="8"/>
       <c t="s" r="P71" s="11">
-        <v>154</v>
+        <v>63</v>
       </c>
       <c t="s" r="Q71" s="12">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="72" ht="25.5" customHeight="1">
@@ -3639,14 +3660,14 @@
       </c>
       <c r="B72" s="7"/>
       <c t="s" r="C72" s="8">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="D72" s="8"/>
       <c r="E72" s="8"/>
       <c r="F72" s="8"/>
       <c r="G72" s="8"/>
       <c t="s" r="H72" s="9">
-        <v>198</v>
+        <v>35</v>
       </c>
       <c r="I72" s="9"/>
       <c r="J72" s="9"/>
@@ -3656,14 +3677,14 @@
       </c>
       <c r="M72" s="10"/>
       <c t="s" r="N72" s="8">
-        <v>201</v>
+        <v>40</v>
       </c>
       <c r="O72" s="8"/>
       <c t="s" r="P72" s="11">
-        <v>202</v>
+        <v>41</v>
       </c>
       <c t="s" r="Q72" s="12">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="73" ht="24.75" customHeight="1">
@@ -3672,14 +3693,14 @@
       </c>
       <c r="B73" s="7"/>
       <c t="s" r="C73" s="8">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="D73" s="8"/>
       <c r="E73" s="8"/>
       <c r="F73" s="8"/>
       <c r="G73" s="8"/>
       <c t="s" r="H73" s="9">
-        <v>45</v>
+        <v>203</v>
       </c>
       <c r="I73" s="9"/>
       <c r="J73" s="9"/>
@@ -3693,10 +3714,10 @@
       </c>
       <c r="O73" s="8"/>
       <c t="s" r="P73" s="11">
-        <v>205</v>
+        <v>160</v>
       </c>
       <c t="s" r="Q73" s="12">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="74" ht="25.5" customHeight="1">
@@ -3705,14 +3726,14 @@
       </c>
       <c r="B74" s="7"/>
       <c t="s" r="C74" s="8">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="D74" s="8"/>
       <c r="E74" s="8"/>
       <c r="F74" s="8"/>
       <c r="G74" s="8"/>
       <c t="s" r="H74" s="9">
-        <v>35</v>
+        <v>203</v>
       </c>
       <c r="I74" s="9"/>
       <c r="J74" s="9"/>
@@ -3722,14 +3743,14 @@
       </c>
       <c r="M74" s="10"/>
       <c t="s" r="N74" s="8">
-        <v>199</v>
+        <v>206</v>
       </c>
       <c r="O74" s="8"/>
       <c t="s" r="P74" s="11">
-        <v>154</v>
+        <v>207</v>
       </c>
       <c t="s" r="Q74" s="12">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="75" ht="24.75" customHeight="1">
@@ -3738,14 +3759,14 @@
       </c>
       <c r="B75" s="7"/>
       <c t="s" r="C75" s="8">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="D75" s="8"/>
       <c r="E75" s="8"/>
       <c r="F75" s="8"/>
       <c r="G75" s="8"/>
       <c t="s" r="H75" s="9">
-        <v>35</v>
+        <v>16</v>
       </c>
       <c r="I75" s="9"/>
       <c r="J75" s="9"/>
@@ -3755,11 +3776,11 @@
       </c>
       <c r="M75" s="10"/>
       <c t="s" r="N75" s="8">
-        <v>208</v>
+        <v>125</v>
       </c>
       <c r="O75" s="8"/>
       <c t="s" r="P75" s="11">
-        <v>209</v>
+        <v>126</v>
       </c>
       <c t="s" r="Q75" s="12">
         <v>16</v>
@@ -3771,14 +3792,14 @@
       </c>
       <c r="B76" s="7"/>
       <c t="s" r="C76" s="8">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="D76" s="8"/>
       <c r="E76" s="8"/>
       <c r="F76" s="8"/>
       <c r="G76" s="8"/>
       <c t="s" r="H76" s="9">
-        <v>22</v>
+        <v>45</v>
       </c>
       <c r="I76" s="9"/>
       <c r="J76" s="9"/>
@@ -3788,14 +3809,14 @@
       </c>
       <c r="M76" s="10"/>
       <c t="s" r="N76" s="8">
-        <v>122</v>
+        <v>210</v>
       </c>
       <c r="O76" s="8"/>
       <c t="s" r="P76" s="11">
-        <v>37</v>
+        <v>211</v>
       </c>
       <c t="s" r="Q76" s="12">
-        <v>22</v>
+        <v>18</v>
       </c>
     </row>
     <row r="77" ht="25.5" customHeight="1">
@@ -3804,14 +3825,14 @@
       </c>
       <c r="B77" s="7"/>
       <c t="s" r="C77" s="8">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="D77" s="8"/>
       <c r="E77" s="8"/>
       <c r="F77" s="8"/>
       <c r="G77" s="8"/>
       <c t="s" r="H77" s="9">
-        <v>18</v>
+        <v>35</v>
       </c>
       <c r="I77" s="9"/>
       <c r="J77" s="9"/>
@@ -3821,14 +3842,14 @@
       </c>
       <c r="M77" s="10"/>
       <c t="s" r="N77" s="8">
-        <v>212</v>
+        <v>204</v>
       </c>
       <c r="O77" s="8"/>
       <c t="s" r="P77" s="11">
-        <v>213</v>
+        <v>160</v>
       </c>
       <c t="s" r="Q77" s="12">
-        <v>35</v>
+        <v>16</v>
       </c>
     </row>
     <row r="78" ht="24.75" customHeight="1">
@@ -3837,14 +3858,14 @@
       </c>
       <c r="B78" s="7"/>
       <c t="s" r="C78" s="8">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="D78" s="8"/>
       <c r="E78" s="8"/>
       <c r="F78" s="8"/>
       <c r="G78" s="8"/>
       <c t="s" r="H78" s="9">
-        <v>45</v>
+        <v>35</v>
       </c>
       <c r="I78" s="9"/>
       <c r="J78" s="9"/>
@@ -3854,14 +3875,14 @@
       </c>
       <c r="M78" s="10"/>
       <c t="s" r="N78" s="8">
-        <v>122</v>
+        <v>214</v>
       </c>
       <c r="O78" s="8"/>
       <c t="s" r="P78" s="11">
-        <v>123</v>
+        <v>215</v>
       </c>
       <c t="s" r="Q78" s="12">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="79" ht="25.5" customHeight="1">
@@ -3870,14 +3891,14 @@
       </c>
       <c r="B79" s="7"/>
       <c t="s" r="C79" s="8">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="D79" s="8"/>
       <c r="E79" s="8"/>
       <c r="F79" s="8"/>
       <c r="G79" s="8"/>
       <c t="s" r="H79" s="9">
-        <v>33</v>
+        <v>22</v>
       </c>
       <c r="I79" s="9"/>
       <c r="J79" s="9"/>
@@ -3887,14 +3908,14 @@
       </c>
       <c r="M79" s="10"/>
       <c t="s" r="N79" s="8">
-        <v>216</v>
+        <v>122</v>
       </c>
       <c r="O79" s="8"/>
       <c t="s" r="P79" s="11">
-        <v>217</v>
+        <v>37</v>
       </c>
       <c t="s" r="Q79" s="12">
-        <v>16</v>
+        <v>22</v>
       </c>
     </row>
     <row r="80" ht="24.75" customHeight="1">
@@ -3903,14 +3924,14 @@
       </c>
       <c r="B80" s="7"/>
       <c t="s" r="C80" s="8">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="D80" s="8"/>
       <c r="E80" s="8"/>
       <c r="F80" s="8"/>
       <c r="G80" s="8"/>
       <c t="s" r="H80" s="9">
-        <v>45</v>
+        <v>18</v>
       </c>
       <c r="I80" s="9"/>
       <c r="J80" s="9"/>
@@ -3920,14 +3941,14 @@
       </c>
       <c r="M80" s="10"/>
       <c t="s" r="N80" s="8">
-        <v>85</v>
+        <v>218</v>
       </c>
       <c r="O80" s="8"/>
       <c t="s" r="P80" s="11">
-        <v>141</v>
+        <v>219</v>
       </c>
       <c t="s" r="Q80" s="12">
-        <v>16</v>
+        <v>35</v>
       </c>
     </row>
     <row r="81" ht="25.5" customHeight="1">
@@ -3936,14 +3957,14 @@
       </c>
       <c r="B81" s="7"/>
       <c t="s" r="C81" s="8">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="D81" s="8"/>
       <c r="E81" s="8"/>
       <c r="F81" s="8"/>
       <c r="G81" s="8"/>
       <c t="s" r="H81" s="9">
-        <v>94</v>
+        <v>45</v>
       </c>
       <c r="I81" s="9"/>
       <c r="J81" s="9"/>
@@ -3953,11 +3974,11 @@
       </c>
       <c r="M81" s="10"/>
       <c t="s" r="N81" s="8">
-        <v>220</v>
+        <v>122</v>
       </c>
       <c r="O81" s="8"/>
       <c t="s" r="P81" s="11">
-        <v>221</v>
+        <v>123</v>
       </c>
       <c t="s" r="Q81" s="12">
         <v>18</v>
@@ -3969,14 +3990,14 @@
       </c>
       <c r="B82" s="7"/>
       <c t="s" r="C82" s="8">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="D82" s="8"/>
       <c r="E82" s="8"/>
       <c r="F82" s="8"/>
       <c r="G82" s="8"/>
       <c t="s" r="H82" s="9">
-        <v>45</v>
+        <v>33</v>
       </c>
       <c r="I82" s="9"/>
       <c r="J82" s="9"/>
@@ -3986,14 +4007,14 @@
       </c>
       <c r="M82" s="10"/>
       <c t="s" r="N82" s="8">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="O82" s="8"/>
       <c t="s" r="P82" s="11">
-        <v>154</v>
+        <v>223</v>
       </c>
       <c t="s" r="Q82" s="12">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="83" ht="24.75" customHeight="1">
@@ -4009,7 +4030,7 @@
       <c r="F83" s="8"/>
       <c r="G83" s="8"/>
       <c t="s" r="H83" s="9">
-        <v>112</v>
+        <v>45</v>
       </c>
       <c r="I83" s="9"/>
       <c r="J83" s="9"/>
@@ -4019,11 +4040,11 @@
       </c>
       <c r="M83" s="10"/>
       <c t="s" r="N83" s="8">
-        <v>165</v>
+        <v>85</v>
       </c>
       <c r="O83" s="8"/>
       <c t="s" r="P83" s="11">
-        <v>225</v>
+        <v>144</v>
       </c>
       <c t="s" r="Q83" s="12">
         <v>16</v>
@@ -4035,14 +4056,14 @@
       </c>
       <c r="B84" s="7"/>
       <c t="s" r="C84" s="8">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="D84" s="8"/>
       <c r="E84" s="8"/>
       <c r="F84" s="8"/>
       <c r="G84" s="8"/>
       <c t="s" r="H84" s="9">
-        <v>18</v>
+        <v>94</v>
       </c>
       <c r="I84" s="9"/>
       <c r="J84" s="9"/>
@@ -4052,14 +4073,14 @@
       </c>
       <c r="M84" s="10"/>
       <c t="s" r="N84" s="8">
-        <v>165</v>
+        <v>226</v>
       </c>
       <c r="O84" s="8"/>
       <c t="s" r="P84" s="11">
         <v>227</v>
       </c>
       <c t="s" r="Q84" s="12">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="85" ht="24.75" customHeight="1">
@@ -4089,7 +4110,7 @@
       </c>
       <c r="O85" s="8"/>
       <c t="s" r="P85" s="11">
-        <v>230</v>
+        <v>160</v>
       </c>
       <c t="s" r="Q85" s="12">
         <v>18</v>
@@ -4101,14 +4122,14 @@
       </c>
       <c r="B86" s="7"/>
       <c t="s" r="C86" s="8">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="D86" s="8"/>
       <c r="E86" s="8"/>
       <c r="F86" s="8"/>
       <c r="G86" s="8"/>
       <c t="s" r="H86" s="9">
-        <v>33</v>
+        <v>112</v>
       </c>
       <c r="I86" s="9"/>
       <c r="J86" s="9"/>
@@ -4118,11 +4139,11 @@
       </c>
       <c r="M86" s="10"/>
       <c t="s" r="N86" s="8">
-        <v>232</v>
+        <v>125</v>
       </c>
       <c r="O86" s="8"/>
       <c t="s" r="P86" s="11">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c t="s" r="Q86" s="12">
         <v>16</v>
@@ -4134,31 +4155,31 @@
       </c>
       <c r="B87" s="7"/>
       <c t="s" r="C87" s="8">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="D87" s="8"/>
       <c r="E87" s="8"/>
       <c r="F87" s="8"/>
       <c r="G87" s="8"/>
       <c t="s" r="H87" s="9">
-        <v>235</v>
+        <v>18</v>
       </c>
       <c r="I87" s="9"/>
       <c r="J87" s="9"/>
       <c r="K87" s="9"/>
       <c t="s" r="L87" s="10">
-        <v>156</v>
+        <v>13</v>
       </c>
       <c r="M87" s="10"/>
       <c t="s" r="N87" s="8">
-        <v>236</v>
+        <v>125</v>
       </c>
       <c r="O87" s="8"/>
       <c t="s" r="P87" s="11">
-        <v>166</v>
+        <v>126</v>
       </c>
       <c t="s" r="Q87" s="12">
-        <v>39</v>
+        <v>16</v>
       </c>
     </row>
     <row r="88" ht="24.75" customHeight="1">
@@ -4167,28 +4188,28 @@
       </c>
       <c r="B88" s="7"/>
       <c t="s" r="C88" s="8">
-        <v>237</v>
+        <v>233</v>
       </c>
       <c r="D88" s="8"/>
       <c r="E88" s="8"/>
       <c r="F88" s="8"/>
       <c r="G88" s="8"/>
       <c t="s" r="H88" s="9">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="I88" s="9"/>
       <c r="J88" s="9"/>
       <c r="K88" s="9"/>
       <c t="s" r="L88" s="10">
-        <v>156</v>
+        <v>13</v>
       </c>
       <c r="M88" s="10"/>
       <c t="s" r="N88" s="8">
-        <v>238</v>
+        <v>234</v>
       </c>
       <c r="O88" s="8"/>
       <c t="s" r="P88" s="11">
-        <v>239</v>
+        <v>235</v>
       </c>
       <c t="s" r="Q88" s="12">
         <v>18</v>
@@ -4200,31 +4221,31 @@
       </c>
       <c r="B89" s="7"/>
       <c t="s" r="C89" s="8">
-        <v>240</v>
+        <v>236</v>
       </c>
       <c r="D89" s="8"/>
       <c r="E89" s="8"/>
       <c r="F89" s="8"/>
       <c r="G89" s="8"/>
       <c t="s" r="H89" s="9">
-        <v>45</v>
+        <v>33</v>
       </c>
       <c r="I89" s="9"/>
       <c r="J89" s="9"/>
       <c r="K89" s="9"/>
       <c t="s" r="L89" s="10">
-        <v>156</v>
+        <v>13</v>
       </c>
       <c r="M89" s="10"/>
       <c t="s" r="N89" s="8">
-        <v>241</v>
+        <v>237</v>
       </c>
       <c r="O89" s="8"/>
       <c t="s" r="P89" s="11">
-        <v>242</v>
+        <v>238</v>
       </c>
       <c t="s" r="Q89" s="12">
-        <v>22</v>
+        <v>16</v>
       </c>
     </row>
     <row r="90" ht="24.75" customHeight="1">
@@ -4233,31 +4254,31 @@
       </c>
       <c r="B90" s="7"/>
       <c t="s" r="C90" s="8">
-        <v>243</v>
+        <v>239</v>
       </c>
       <c r="D90" s="8"/>
       <c r="E90" s="8"/>
       <c r="F90" s="8"/>
       <c r="G90" s="8"/>
       <c t="s" r="H90" s="9">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="I90" s="9"/>
       <c r="J90" s="9"/>
       <c r="K90" s="9"/>
       <c t="s" r="L90" s="10">
-        <v>156</v>
+        <v>13</v>
       </c>
       <c r="M90" s="10"/>
       <c t="s" r="N90" s="8">
-        <v>244</v>
+        <v>240</v>
       </c>
       <c r="O90" s="8"/>
       <c t="s" r="P90" s="11">
-        <v>245</v>
+        <v>181</v>
       </c>
       <c t="s" r="Q90" s="12">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="91" ht="25.5" customHeight="1">
@@ -4266,31 +4287,31 @@
       </c>
       <c r="B91" s="7"/>
       <c t="s" r="C91" s="8">
-        <v>246</v>
+        <v>241</v>
       </c>
       <c r="D91" s="8"/>
       <c r="E91" s="8"/>
       <c r="F91" s="8"/>
       <c r="G91" s="8"/>
       <c t="s" r="H91" s="9">
-        <v>247</v>
+        <v>242</v>
       </c>
       <c r="I91" s="9"/>
       <c r="J91" s="9"/>
       <c r="K91" s="9"/>
       <c t="s" r="L91" s="10">
-        <v>156</v>
+        <v>162</v>
       </c>
       <c r="M91" s="10"/>
       <c t="s" r="N91" s="8">
-        <v>248</v>
+        <v>243</v>
       </c>
       <c r="O91" s="8"/>
       <c t="s" r="P91" s="11">
-        <v>157</v>
+        <v>171</v>
       </c>
       <c t="s" r="Q91" s="12">
-        <v>22</v>
+        <v>39</v>
       </c>
     </row>
     <row r="92" ht="25.5" customHeight="1">
@@ -4299,31 +4320,31 @@
       </c>
       <c r="B92" s="7"/>
       <c t="s" r="C92" s="8">
-        <v>249</v>
+        <v>244</v>
       </c>
       <c r="D92" s="8"/>
       <c r="E92" s="8"/>
       <c r="F92" s="8"/>
       <c r="G92" s="8"/>
       <c t="s" r="H92" s="9">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="I92" s="9"/>
       <c r="J92" s="9"/>
       <c r="K92" s="9"/>
       <c t="s" r="L92" s="10">
-        <v>156</v>
+        <v>162</v>
       </c>
       <c r="M92" s="10"/>
       <c t="s" r="N92" s="8">
-        <v>250</v>
+        <v>245</v>
       </c>
       <c r="O92" s="8"/>
       <c t="s" r="P92" s="11">
-        <v>251</v>
+        <v>246</v>
       </c>
       <c t="s" r="Q92" s="12">
-        <v>39</v>
+        <v>18</v>
       </c>
     </row>
     <row r="93" ht="24.75" customHeight="1">
@@ -4332,7 +4353,7 @@
       </c>
       <c r="B93" s="7"/>
       <c t="s" r="C93" s="8">
-        <v>252</v>
+        <v>247</v>
       </c>
       <c r="D93" s="8"/>
       <c r="E93" s="8"/>
@@ -4345,18 +4366,18 @@
       <c r="J93" s="9"/>
       <c r="K93" s="9"/>
       <c t="s" r="L93" s="10">
-        <v>156</v>
+        <v>162</v>
       </c>
       <c r="M93" s="10"/>
       <c t="s" r="N93" s="8">
-        <v>253</v>
+        <v>248</v>
       </c>
       <c r="O93" s="8"/>
       <c t="s" r="P93" s="11">
-        <v>254</v>
+        <v>249</v>
       </c>
       <c t="s" r="Q93" s="12">
-        <v>84</v>
+        <v>22</v>
       </c>
     </row>
     <row r="94" ht="25.5" customHeight="1">
@@ -4365,31 +4386,31 @@
       </c>
       <c r="B94" s="7"/>
       <c t="s" r="C94" s="8">
-        <v>255</v>
+        <v>250</v>
       </c>
       <c r="D94" s="8"/>
       <c r="E94" s="8"/>
       <c r="F94" s="8"/>
       <c r="G94" s="8"/>
       <c t="s" r="H94" s="9">
-        <v>45</v>
+        <v>18</v>
       </c>
       <c r="I94" s="9"/>
       <c r="J94" s="9"/>
       <c r="K94" s="9"/>
       <c t="s" r="L94" s="10">
-        <v>156</v>
+        <v>162</v>
       </c>
       <c r="M94" s="10"/>
       <c t="s" r="N94" s="8">
-        <v>241</v>
+        <v>251</v>
       </c>
       <c r="O94" s="8"/>
       <c t="s" r="P94" s="11">
-        <v>242</v>
+        <v>252</v>
       </c>
       <c t="s" r="Q94" s="12">
-        <v>22</v>
+        <v>18</v>
       </c>
     </row>
     <row r="95" ht="24.75" customHeight="1">
@@ -4398,31 +4419,31 @@
       </c>
       <c r="B95" s="7"/>
       <c t="s" r="C95" s="8">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="D95" s="8"/>
       <c r="E95" s="8"/>
       <c r="F95" s="8"/>
       <c r="G95" s="8"/>
       <c t="s" r="H95" s="9">
-        <v>22</v>
+        <v>254</v>
       </c>
       <c r="I95" s="9"/>
       <c r="J95" s="9"/>
       <c r="K95" s="9"/>
       <c t="s" r="L95" s="10">
-        <v>156</v>
+        <v>162</v>
       </c>
       <c r="M95" s="10"/>
       <c t="s" r="N95" s="8">
-        <v>244</v>
+        <v>255</v>
       </c>
       <c r="O95" s="8"/>
       <c t="s" r="P95" s="11">
-        <v>245</v>
+        <v>163</v>
       </c>
       <c t="s" r="Q95" s="12">
-        <v>18</v>
+        <v>22</v>
       </c>
     </row>
     <row r="96" ht="25.5" customHeight="1">
@@ -4431,7 +4452,7 @@
       </c>
       <c r="B96" s="7"/>
       <c t="s" r="C96" s="8">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="D96" s="8"/>
       <c r="E96" s="8"/>
@@ -4444,18 +4465,18 @@
       <c r="J96" s="9"/>
       <c r="K96" s="9"/>
       <c t="s" r="L96" s="10">
-        <v>156</v>
+        <v>162</v>
       </c>
       <c r="M96" s="10"/>
       <c t="s" r="N96" s="8">
-        <v>236</v>
+        <v>257</v>
       </c>
       <c r="O96" s="8"/>
       <c t="s" r="P96" s="11">
         <v>258</v>
       </c>
       <c t="s" r="Q96" s="12">
-        <v>18</v>
+        <v>39</v>
       </c>
     </row>
     <row r="97" ht="25.5" customHeight="1">
@@ -4471,24 +4492,24 @@
       <c r="F97" s="8"/>
       <c r="G97" s="8"/>
       <c t="s" r="H97" s="9">
-        <v>260</v>
+        <v>45</v>
       </c>
       <c r="I97" s="9"/>
       <c r="J97" s="9"/>
       <c r="K97" s="9"/>
       <c t="s" r="L97" s="10">
-        <v>156</v>
+        <v>162</v>
       </c>
       <c r="M97" s="10"/>
       <c t="s" r="N97" s="8">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="O97" s="8"/>
       <c t="s" r="P97" s="11">
-        <v>251</v>
+        <v>101</v>
       </c>
       <c t="s" r="Q97" s="12">
-        <v>18</v>
+        <v>261</v>
       </c>
     </row>
     <row r="98" ht="24.75" customHeight="1">
@@ -4504,24 +4525,24 @@
       <c r="F98" s="8"/>
       <c r="G98" s="8"/>
       <c t="s" r="H98" s="9">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="I98" s="9"/>
       <c r="J98" s="9"/>
       <c r="K98" s="9"/>
       <c t="s" r="L98" s="10">
-        <v>156</v>
+        <v>162</v>
       </c>
       <c r="M98" s="10"/>
       <c t="s" r="N98" s="8">
-        <v>263</v>
+        <v>248</v>
       </c>
       <c r="O98" s="8"/>
       <c t="s" r="P98" s="11">
-        <v>264</v>
+        <v>249</v>
       </c>
       <c t="s" r="Q98" s="12">
-        <v>18</v>
+        <v>22</v>
       </c>
     </row>
     <row r="99" ht="25.5" customHeight="1">
@@ -4530,31 +4551,31 @@
       </c>
       <c r="B99" s="7"/>
       <c t="s" r="C99" s="8">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="D99" s="8"/>
       <c r="E99" s="8"/>
       <c r="F99" s="8"/>
       <c r="G99" s="8"/>
       <c t="s" r="H99" s="9">
-        <v>266</v>
+        <v>22</v>
       </c>
       <c r="I99" s="9"/>
       <c r="J99" s="9"/>
       <c r="K99" s="9"/>
       <c t="s" r="L99" s="10">
-        <v>156</v>
+        <v>162</v>
       </c>
       <c r="M99" s="10"/>
       <c t="s" r="N99" s="8">
-        <v>244</v>
+        <v>251</v>
       </c>
       <c r="O99" s="8"/>
       <c t="s" r="P99" s="11">
-        <v>267</v>
+        <v>252</v>
       </c>
       <c t="s" r="Q99" s="12">
-        <v>84</v>
+        <v>18</v>
       </c>
     </row>
     <row r="100" ht="24.75" customHeight="1">
@@ -4563,28 +4584,28 @@
       </c>
       <c r="B100" s="7"/>
       <c t="s" r="C100" s="8">
-        <v>268</v>
+        <v>264</v>
       </c>
       <c r="D100" s="8"/>
       <c r="E100" s="8"/>
       <c r="F100" s="8"/>
       <c r="G100" s="8"/>
       <c t="s" r="H100" s="9">
-        <v>269</v>
+        <v>45</v>
       </c>
       <c r="I100" s="9"/>
       <c r="J100" s="9"/>
       <c r="K100" s="9"/>
       <c t="s" r="L100" s="10">
-        <v>156</v>
+        <v>162</v>
       </c>
       <c r="M100" s="10"/>
       <c t="s" r="N100" s="8">
-        <v>270</v>
+        <v>243</v>
       </c>
       <c r="O100" s="8"/>
       <c t="s" r="P100" s="11">
-        <v>271</v>
+        <v>265</v>
       </c>
       <c t="s" r="Q100" s="12">
         <v>18</v>
@@ -4596,31 +4617,31 @@
       </c>
       <c r="B101" s="7"/>
       <c t="s" r="C101" s="8">
-        <v>272</v>
+        <v>266</v>
       </c>
       <c r="D101" s="8"/>
       <c r="E101" s="8"/>
       <c r="F101" s="8"/>
       <c r="G101" s="8"/>
       <c t="s" r="H101" s="9">
-        <v>45</v>
+        <v>267</v>
       </c>
       <c r="I101" s="9"/>
       <c r="J101" s="9"/>
       <c r="K101" s="9"/>
       <c t="s" r="L101" s="10">
-        <v>156</v>
+        <v>162</v>
       </c>
       <c r="M101" s="10"/>
       <c t="s" r="N101" s="8">
-        <v>238</v>
+        <v>268</v>
       </c>
       <c r="O101" s="8"/>
       <c t="s" r="P101" s="11">
         <v>258</v>
       </c>
       <c t="s" r="Q101" s="12">
-        <v>22</v>
+        <v>18</v>
       </c>
     </row>
     <row r="102" ht="25.5" customHeight="1">
@@ -4629,28 +4650,28 @@
       </c>
       <c r="B102" s="7"/>
       <c t="s" r="C102" s="8">
-        <v>273</v>
+        <v>269</v>
       </c>
       <c r="D102" s="8"/>
       <c r="E102" s="8"/>
       <c r="F102" s="8"/>
       <c r="G102" s="8"/>
       <c t="s" r="H102" s="9">
-        <v>18</v>
+        <v>39</v>
       </c>
       <c r="I102" s="9"/>
       <c r="J102" s="9"/>
       <c r="K102" s="9"/>
       <c t="s" r="L102" s="10">
-        <v>156</v>
+        <v>162</v>
       </c>
       <c r="M102" s="10"/>
       <c t="s" r="N102" s="8">
-        <v>274</v>
+        <v>270</v>
       </c>
       <c r="O102" s="8"/>
       <c t="s" r="P102" s="11">
-        <v>275</v>
+        <v>271</v>
       </c>
       <c t="s" r="Q102" s="12">
         <v>18</v>
@@ -4662,31 +4683,31 @@
       </c>
       <c r="B103" s="7"/>
       <c t="s" r="C103" s="8">
-        <v>276</v>
+        <v>272</v>
       </c>
       <c r="D103" s="8"/>
       <c r="E103" s="8"/>
       <c r="F103" s="8"/>
       <c r="G103" s="8"/>
       <c t="s" r="H103" s="9">
-        <v>247</v>
+        <v>273</v>
       </c>
       <c r="I103" s="9"/>
       <c r="J103" s="9"/>
       <c r="K103" s="9"/>
       <c t="s" r="L103" s="10">
-        <v>156</v>
+        <v>162</v>
       </c>
       <c r="M103" s="10"/>
       <c t="s" r="N103" s="8">
-        <v>277</v>
+        <v>251</v>
       </c>
       <c r="O103" s="8"/>
       <c t="s" r="P103" s="11">
-        <v>278</v>
+        <v>274</v>
       </c>
       <c t="s" r="Q103" s="12">
-        <v>18</v>
+        <v>84</v>
       </c>
     </row>
     <row r="104" ht="25.5" customHeight="1">
@@ -4695,28 +4716,28 @@
       </c>
       <c r="B104" s="7"/>
       <c t="s" r="C104" s="8">
-        <v>279</v>
+        <v>275</v>
       </c>
       <c r="D104" s="8"/>
       <c r="E104" s="8"/>
       <c r="F104" s="8"/>
       <c r="G104" s="8"/>
       <c t="s" r="H104" s="9">
-        <v>45</v>
+        <v>276</v>
       </c>
       <c r="I104" s="9"/>
       <c r="J104" s="9"/>
       <c r="K104" s="9"/>
       <c t="s" r="L104" s="10">
-        <v>156</v>
+        <v>162</v>
       </c>
       <c r="M104" s="10"/>
       <c t="s" r="N104" s="8">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="O104" s="8"/>
       <c t="s" r="P104" s="11">
-        <v>281</v>
+        <v>278</v>
       </c>
       <c t="s" r="Q104" s="12">
         <v>18</v>
@@ -4728,66 +4749,198 @@
       </c>
       <c r="B105" s="7"/>
       <c t="s" r="C105" s="8">
-        <v>282</v>
+        <v>279</v>
       </c>
       <c r="D105" s="8"/>
       <c r="E105" s="8"/>
       <c r="F105" s="8"/>
       <c r="G105" s="8"/>
       <c t="s" r="H105" s="9">
-        <v>22</v>
+        <v>45</v>
       </c>
       <c r="I105" s="9"/>
       <c r="J105" s="9"/>
       <c r="K105" s="9"/>
       <c t="s" r="L105" s="10">
-        <v>156</v>
+        <v>162</v>
       </c>
       <c r="M105" s="10"/>
       <c t="s" r="N105" s="8">
-        <v>238</v>
+        <v>245</v>
       </c>
       <c r="O105" s="8"/>
       <c t="s" r="P105" s="11">
-        <v>239</v>
+        <v>265</v>
       </c>
       <c t="s" r="Q105" s="12">
-        <v>18</v>
+        <v>22</v>
       </c>
     </row>
     <row r="106" ht="25.5" customHeight="1">
-      <c r="P106" s="13">
-        <v>6164.6149999999998</v>
-      </c>
-      <c r="Q106" s="13"/>
-    </row>
-    <row r="107" ht="16.5" customHeight="1">
-      <c t="s" r="A107" s="14">
+      <c r="A106" s="7">
+        <v>100</v>
+      </c>
+      <c r="B106" s="7"/>
+      <c t="s" r="C106" s="8">
+        <v>280</v>
+      </c>
+      <c r="D106" s="8"/>
+      <c r="E106" s="8"/>
+      <c r="F106" s="8"/>
+      <c r="G106" s="8"/>
+      <c t="s" r="H106" s="9">
+        <v>18</v>
+      </c>
+      <c r="I106" s="9"/>
+      <c r="J106" s="9"/>
+      <c r="K106" s="9"/>
+      <c t="s" r="L106" s="10">
+        <v>162</v>
+      </c>
+      <c r="M106" s="10"/>
+      <c t="s" r="N106" s="8">
+        <v>281</v>
+      </c>
+      <c r="O106" s="8"/>
+      <c t="s" r="P106" s="11">
+        <v>282</v>
+      </c>
+      <c t="s" r="Q106" s="12">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="107" ht="25.5" customHeight="1">
+      <c r="A107" s="7">
+        <v>101</v>
+      </c>
+      <c r="B107" s="7"/>
+      <c t="s" r="C107" s="8">
         <v>283</v>
       </c>
-      <c r="B107" s="14"/>
-      <c r="C107" s="14"/>
-      <c r="D107" s="14"/>
-      <c r="E107" s="14"/>
-      <c r="F107" s="14"/>
-      <c t="s" r="G107" s="15">
+      <c r="D107" s="8"/>
+      <c r="E107" s="8"/>
+      <c r="F107" s="8"/>
+      <c r="G107" s="8"/>
+      <c t="s" r="H107" s="9">
+        <v>254</v>
+      </c>
+      <c r="I107" s="9"/>
+      <c r="J107" s="9"/>
+      <c r="K107" s="9"/>
+      <c t="s" r="L107" s="10">
+        <v>162</v>
+      </c>
+      <c r="M107" s="10"/>
+      <c t="s" r="N107" s="8">
         <v>284</v>
       </c>
-      <c r="H107" s="15"/>
-      <c r="I107" s="15"/>
-      <c r="J107" s="16"/>
-      <c t="s" r="K107" s="17">
+      <c r="O107" s="8"/>
+      <c t="s" r="P107" s="11">
         <v>285</v>
       </c>
-      <c r="L107" s="17"/>
-      <c r="M107" s="17"/>
-      <c r="N107" s="17"/>
-      <c r="O107" s="17"/>
-      <c r="P107" s="17"/>
-      <c r="Q107" s="17"/>
+      <c t="s" r="Q107" s="12">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="108" ht="24.75" customHeight="1">
+      <c r="A108" s="7">
+        <v>102</v>
+      </c>
+      <c r="B108" s="7"/>
+      <c t="s" r="C108" s="8">
+        <v>286</v>
+      </c>
+      <c r="D108" s="8"/>
+      <c r="E108" s="8"/>
+      <c r="F108" s="8"/>
+      <c r="G108" s="8"/>
+      <c t="s" r="H108" s="9">
+        <v>45</v>
+      </c>
+      <c r="I108" s="9"/>
+      <c r="J108" s="9"/>
+      <c r="K108" s="9"/>
+      <c t="s" r="L108" s="10">
+        <v>162</v>
+      </c>
+      <c r="M108" s="10"/>
+      <c t="s" r="N108" s="8">
+        <v>287</v>
+      </c>
+      <c r="O108" s="8"/>
+      <c t="s" r="P108" s="11">
+        <v>288</v>
+      </c>
+      <c t="s" r="Q108" s="12">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="109" ht="25.5" customHeight="1">
+      <c r="A109" s="7">
+        <v>103</v>
+      </c>
+      <c r="B109" s="7"/>
+      <c t="s" r="C109" s="8">
+        <v>289</v>
+      </c>
+      <c r="D109" s="8"/>
+      <c r="E109" s="8"/>
+      <c r="F109" s="8"/>
+      <c r="G109" s="8"/>
+      <c t="s" r="H109" s="9">
+        <v>22</v>
+      </c>
+      <c r="I109" s="9"/>
+      <c r="J109" s="9"/>
+      <c r="K109" s="9"/>
+      <c t="s" r="L109" s="10">
+        <v>162</v>
+      </c>
+      <c r="M109" s="10"/>
+      <c t="s" r="N109" s="8">
+        <v>245</v>
+      </c>
+      <c r="O109" s="8"/>
+      <c t="s" r="P109" s="11">
+        <v>246</v>
+      </c>
+      <c t="s" r="Q109" s="12">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="110" ht="24.75" customHeight="1">
+      <c r="P110" s="13">
+        <v>6354.0150000000003</v>
+      </c>
+      <c r="Q110" s="13"/>
+    </row>
+    <row r="111" ht="16.5" customHeight="1">
+      <c t="s" r="A111" s="14">
+        <v>290</v>
+      </c>
+      <c r="B111" s="14"/>
+      <c r="C111" s="14"/>
+      <c r="D111" s="14"/>
+      <c r="E111" s="14"/>
+      <c r="F111" s="14"/>
+      <c t="s" r="G111" s="15">
+        <v>291</v>
+      </c>
+      <c r="H111" s="15"/>
+      <c r="I111" s="15"/>
+      <c r="J111" s="16"/>
+      <c t="s" r="K111" s="17">
+        <v>292</v>
+      </c>
+      <c r="L111" s="17"/>
+      <c r="M111" s="17"/>
+      <c r="N111" s="17"/>
+      <c r="O111" s="17"/>
+      <c r="P111" s="17"/>
+      <c r="Q111" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="507">
+  <mergeCells count="527">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -5291,10 +5444,30 @@
     <mergeCell ref="H105:K105"/>
     <mergeCell ref="L105:M105"/>
     <mergeCell ref="N105:O105"/>
-    <mergeCell ref="P106:Q106"/>
-    <mergeCell ref="A107:F107"/>
-    <mergeCell ref="G107:I107"/>
-    <mergeCell ref="K107:Q107"/>
+    <mergeCell ref="A106:B106"/>
+    <mergeCell ref="C106:G106"/>
+    <mergeCell ref="H106:K106"/>
+    <mergeCell ref="L106:M106"/>
+    <mergeCell ref="N106:O106"/>
+    <mergeCell ref="A107:B107"/>
+    <mergeCell ref="C107:G107"/>
+    <mergeCell ref="H107:K107"/>
+    <mergeCell ref="L107:M107"/>
+    <mergeCell ref="N107:O107"/>
+    <mergeCell ref="A108:B108"/>
+    <mergeCell ref="C108:G108"/>
+    <mergeCell ref="H108:K108"/>
+    <mergeCell ref="L108:M108"/>
+    <mergeCell ref="N108:O108"/>
+    <mergeCell ref="A109:B109"/>
+    <mergeCell ref="C109:G109"/>
+    <mergeCell ref="H109:K109"/>
+    <mergeCell ref="L109:M109"/>
+    <mergeCell ref="N109:O109"/>
+    <mergeCell ref="P110:Q110"/>
+    <mergeCell ref="A111:F111"/>
+    <mergeCell ref="G111:I111"/>
+    <mergeCell ref="K111:Q111"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-08-08_00-00.xlsx
+++ b/DaySale_2025-08-08_00-00.xlsx
@@ -437,6 +437,15 @@
     <t>432.0000</t>
   </si>
   <si>
+    <t>IVYPRONT 0.84GM SYRUP 120 ML</t>
+  </si>
+  <si>
+    <t>45.00</t>
+  </si>
+  <si>
+    <t>45.0000</t>
+  </si>
+  <si>
     <t>KAPRON 500 MG 20 F.C.TABS.</t>
   </si>
   <si>
@@ -536,6 +545,15 @@
     <t>156.0000</t>
   </si>
   <si>
+    <t>PRONTO PLUS 20 TAB.</t>
+  </si>
+  <si>
+    <t>40.00</t>
+  </si>
+  <si>
+    <t>40.0000</t>
+  </si>
+  <si>
     <t>PROSTRIDE 5MG 30 CAPS.</t>
   </si>
   <si>
@@ -563,12 +581,6 @@
     <t>5:2</t>
   </si>
   <si>
-    <t>45.00</t>
-  </si>
-  <si>
-    <t>45.0000</t>
-  </si>
-  <si>
     <t>QUIBRON T/SR 300MG 100 TAB</t>
   </si>
   <si>
@@ -842,12 +854,6 @@
     <t>7:0</t>
   </si>
   <si>
-    <t>40.00</t>
-  </si>
-  <si>
-    <t>40.0000</t>
-  </si>
-  <si>
     <t xml:space="preserve">كالونا </t>
   </si>
   <si>
@@ -881,7 +887,7 @@
     <t>مناديل بكر فاين</t>
   </si>
   <si>
-    <t>Friday, 8 August, 2025 9:51 PM</t>
+    <t>Friday, 8 August, 2025 9:53 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -2875,7 +2881,7 @@
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
@@ -2885,14 +2891,14 @@
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>68</v>
+        <v>143</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
-        <v>69</v>
+        <v>144</v>
       </c>
       <c t="s" r="Q48" s="12">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="49" ht="25.5" customHeight="1">
@@ -2901,14 +2907,14 @@
       </c>
       <c r="B49" s="7"/>
       <c t="s" r="C49" s="8">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="D49" s="8"/>
       <c r="E49" s="8"/>
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>45</v>
+        <v>35</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
@@ -2918,11 +2924,11 @@
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>85</v>
+        <v>68</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
-        <v>144</v>
+        <v>69</v>
       </c>
       <c t="s" r="Q49" s="12">
         <v>16</v>
@@ -2934,14 +2940,14 @@
       </c>
       <c r="B50" s="7"/>
       <c t="s" r="C50" s="8">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="D50" s="8"/>
       <c r="E50" s="8"/>
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>94</v>
+        <v>45</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
@@ -2951,11 +2957,11 @@
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>46</v>
+        <v>85</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c t="s" r="Q50" s="12">
         <v>16</v>
@@ -2967,14 +2973,14 @@
       </c>
       <c r="B51" s="7"/>
       <c t="s" r="C51" s="8">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="D51" s="8"/>
       <c r="E51" s="8"/>
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>16</v>
+        <v>94</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
@@ -2984,7 +2990,7 @@
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>148</v>
+        <v>46</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
@@ -3007,7 +3013,7 @@
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>35</v>
+        <v>16</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
@@ -3021,7 +3027,7 @@
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
-        <v>86</v>
+        <v>152</v>
       </c>
       <c t="s" r="Q52" s="12">
         <v>16</v>
@@ -3033,14 +3039,14 @@
       </c>
       <c r="B53" s="7"/>
       <c t="s" r="C53" s="8">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="D53" s="8"/>
       <c r="E53" s="8"/>
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
@@ -3050,11 +3056,11 @@
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
-        <v>154</v>
+        <v>86</v>
       </c>
       <c t="s" r="Q53" s="12">
         <v>16</v>
@@ -3073,7 +3079,7 @@
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>22</v>
+        <v>33</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
@@ -3090,7 +3096,7 @@
         <v>157</v>
       </c>
       <c t="s" r="Q54" s="12">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="55" ht="24.75" customHeight="1">
@@ -3106,7 +3112,7 @@
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
@@ -3123,7 +3129,7 @@
         <v>160</v>
       </c>
       <c t="s" r="Q55" s="12">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="56" ht="25.5" customHeight="1">
@@ -3139,24 +3145,24 @@
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
       <c r="K56" s="9"/>
       <c t="s" r="L56" s="10">
-        <v>162</v>
+        <v>13</v>
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
-        <v>140</v>
+        <v>162</v>
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
         <v>163</v>
       </c>
       <c t="s" r="Q56" s="12">
-        <v>33</v>
+        <v>16</v>
       </c>
     </row>
     <row r="57" ht="25.5" customHeight="1">
@@ -3172,24 +3178,24 @@
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>39</v>
+        <v>22</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
       <c r="K57" s="9"/>
       <c t="s" r="L57" s="10">
-        <v>13</v>
+        <v>165</v>
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
-        <v>97</v>
+        <v>140</v>
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c t="s" r="Q57" s="12">
-        <v>18</v>
+        <v>33</v>
       </c>
     </row>
     <row r="58" ht="24.75" customHeight="1">
@@ -3198,14 +3204,14 @@
       </c>
       <c r="B58" s="7"/>
       <c t="s" r="C58" s="8">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="D58" s="8"/>
       <c r="E58" s="8"/>
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c t="s" r="H58" s="9">
-        <v>16</v>
+        <v>39</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
@@ -3215,11 +3221,11 @@
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
-        <v>153</v>
+        <v>97</v>
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c t="s" r="Q58" s="12">
         <v>18</v>
@@ -3231,7 +3237,7 @@
       </c>
       <c r="B59" s="7"/>
       <c t="s" r="C59" s="8">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="D59" s="8"/>
       <c r="E59" s="8"/>
@@ -3248,14 +3254,14 @@
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
-        <v>169</v>
+        <v>156</v>
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
-        <v>47</v>
+        <v>170</v>
       </c>
       <c t="s" r="Q59" s="12">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="60" ht="24.75" customHeight="1">
@@ -3264,14 +3270,14 @@
       </c>
       <c r="B60" s="7"/>
       <c t="s" r="C60" s="8">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="D60" s="8"/>
       <c r="E60" s="8"/>
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c t="s" r="H60" s="9">
-        <v>45</v>
+        <v>16</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
@@ -3281,14 +3287,14 @@
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
-        <v>125</v>
+        <v>172</v>
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
-        <v>171</v>
+        <v>47</v>
       </c>
       <c t="s" r="Q60" s="12">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="61" ht="25.5" customHeight="1">
@@ -3297,7 +3303,7 @@
       </c>
       <c r="B61" s="7"/>
       <c t="s" r="C61" s="8">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="D61" s="8"/>
       <c r="E61" s="8"/>
@@ -3314,7 +3320,7 @@
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
-        <v>173</v>
+        <v>125</v>
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
@@ -3337,7 +3343,7 @@
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
       <c t="s" r="H62" s="9">
-        <v>18</v>
+        <v>45</v>
       </c>
       <c r="I62" s="9"/>
       <c r="J62" s="9"/>
@@ -3354,7 +3360,7 @@
         <v>177</v>
       </c>
       <c t="s" r="Q62" s="12">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="63" ht="24.75" customHeight="1">
@@ -3370,7 +3376,7 @@
       <c r="F63" s="8"/>
       <c r="G63" s="8"/>
       <c t="s" r="H63" s="9">
-        <v>16</v>
+        <v>45</v>
       </c>
       <c r="I63" s="9"/>
       <c r="J63" s="9"/>
@@ -3380,14 +3386,14 @@
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
-        <v>106</v>
+        <v>179</v>
       </c>
       <c r="O63" s="8"/>
       <c t="s" r="P63" s="11">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c t="s" r="Q63" s="12">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="64" ht="25.5" customHeight="1">
@@ -3396,14 +3402,14 @@
       </c>
       <c r="B64" s="7"/>
       <c t="s" r="C64" s="8">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="D64" s="8"/>
       <c r="E64" s="8"/>
       <c r="F64" s="8"/>
       <c r="G64" s="8"/>
       <c t="s" r="H64" s="9">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="I64" s="9"/>
       <c r="J64" s="9"/>
@@ -3413,14 +3419,14 @@
       </c>
       <c r="M64" s="10"/>
       <c t="s" r="N64" s="8">
-        <v>109</v>
+        <v>182</v>
       </c>
       <c r="O64" s="8"/>
       <c t="s" r="P64" s="11">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c t="s" r="Q64" s="12">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="65" ht="24.75" customHeight="1">
@@ -3429,14 +3435,14 @@
       </c>
       <c r="B65" s="7"/>
       <c t="s" r="C65" s="8">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="D65" s="8"/>
       <c r="E65" s="8"/>
       <c r="F65" s="8"/>
       <c r="G65" s="8"/>
       <c t="s" r="H65" s="9">
-        <v>183</v>
+        <v>16</v>
       </c>
       <c r="I65" s="9"/>
       <c r="J65" s="9"/>
@@ -3446,14 +3452,14 @@
       </c>
       <c r="M65" s="10"/>
       <c t="s" r="N65" s="8">
-        <v>184</v>
+        <v>106</v>
       </c>
       <c r="O65" s="8"/>
       <c t="s" r="P65" s="11">
         <v>185</v>
       </c>
       <c t="s" r="Q65" s="12">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="66" ht="25.5" customHeight="1">
@@ -3469,7 +3475,7 @@
       <c r="F66" s="8"/>
       <c r="G66" s="8"/>
       <c t="s" r="H66" s="9">
-        <v>187</v>
+        <v>22</v>
       </c>
       <c r="I66" s="9"/>
       <c r="J66" s="9"/>
@@ -3479,14 +3485,14 @@
       </c>
       <c r="M66" s="10"/>
       <c t="s" r="N66" s="8">
-        <v>188</v>
+        <v>109</v>
       </c>
       <c r="O66" s="8"/>
       <c t="s" r="P66" s="11">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c t="s" r="Q66" s="12">
-        <v>190</v>
+        <v>18</v>
       </c>
     </row>
     <row r="67" ht="25.5" customHeight="1">
@@ -3495,14 +3501,14 @@
       </c>
       <c r="B67" s="7"/>
       <c t="s" r="C67" s="8">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="D67" s="8"/>
       <c r="E67" s="8"/>
       <c r="F67" s="8"/>
       <c r="G67" s="8"/>
       <c t="s" r="H67" s="9">
-        <v>18</v>
+        <v>189</v>
       </c>
       <c r="I67" s="9"/>
       <c r="J67" s="9"/>
@@ -3512,11 +3518,11 @@
       </c>
       <c r="M67" s="10"/>
       <c t="s" r="N67" s="8">
-        <v>192</v>
+        <v>143</v>
       </c>
       <c r="O67" s="8"/>
       <c t="s" r="P67" s="11">
-        <v>193</v>
+        <v>144</v>
       </c>
       <c t="s" r="Q67" s="12">
         <v>18</v>
@@ -3528,14 +3534,14 @@
       </c>
       <c r="B68" s="7"/>
       <c t="s" r="C68" s="8">
-        <v>194</v>
+        <v>190</v>
       </c>
       <c r="D68" s="8"/>
       <c r="E68" s="8"/>
       <c r="F68" s="8"/>
       <c r="G68" s="8"/>
       <c t="s" r="H68" s="9">
-        <v>195</v>
+        <v>191</v>
       </c>
       <c r="I68" s="9"/>
       <c r="J68" s="9"/>
@@ -3545,14 +3551,14 @@
       </c>
       <c r="M68" s="10"/>
       <c t="s" r="N68" s="8">
-        <v>151</v>
+        <v>192</v>
       </c>
       <c r="O68" s="8"/>
       <c t="s" r="P68" s="11">
-        <v>86</v>
+        <v>193</v>
       </c>
       <c t="s" r="Q68" s="12">
-        <v>16</v>
+        <v>194</v>
       </c>
     </row>
     <row r="69" ht="25.5" customHeight="1">
@@ -3561,14 +3567,14 @@
       </c>
       <c r="B69" s="7"/>
       <c t="s" r="C69" s="8">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="D69" s="8"/>
       <c r="E69" s="8"/>
       <c r="F69" s="8"/>
       <c r="G69" s="8"/>
       <c t="s" r="H69" s="9">
-        <v>30</v>
+        <v>18</v>
       </c>
       <c r="I69" s="9"/>
       <c r="J69" s="9"/>
@@ -3578,14 +3584,14 @@
       </c>
       <c r="M69" s="10"/>
       <c t="s" r="N69" s="8">
-        <v>100</v>
+        <v>196</v>
       </c>
       <c r="O69" s="8"/>
       <c t="s" r="P69" s="11">
         <v>197</v>
       </c>
       <c t="s" r="Q69" s="12">
-        <v>33</v>
+        <v>18</v>
       </c>
     </row>
     <row r="70" ht="24.75" customHeight="1">
@@ -3601,7 +3607,7 @@
       <c r="F70" s="8"/>
       <c r="G70" s="8"/>
       <c t="s" r="H70" s="9">
-        <v>71</v>
+        <v>199</v>
       </c>
       <c r="I70" s="9"/>
       <c r="J70" s="9"/>
@@ -3611,14 +3617,14 @@
       </c>
       <c r="M70" s="10"/>
       <c t="s" r="N70" s="8">
-        <v>27</v>
+        <v>154</v>
       </c>
       <c r="O70" s="8"/>
       <c t="s" r="P70" s="11">
-        <v>199</v>
+        <v>86</v>
       </c>
       <c t="s" r="Q70" s="12">
-        <v>35</v>
+        <v>16</v>
       </c>
     </row>
     <row r="71" ht="25.5" customHeight="1">
@@ -3644,14 +3650,14 @@
       </c>
       <c r="M71" s="10"/>
       <c t="s" r="N71" s="8">
-        <v>95</v>
+        <v>100</v>
       </c>
       <c r="O71" s="8"/>
       <c t="s" r="P71" s="11">
-        <v>63</v>
+        <v>201</v>
       </c>
       <c t="s" r="Q71" s="12">
-        <v>18</v>
+        <v>33</v>
       </c>
     </row>
     <row r="72" ht="25.5" customHeight="1">
@@ -3660,14 +3666,14 @@
       </c>
       <c r="B72" s="7"/>
       <c t="s" r="C72" s="8">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="D72" s="8"/>
       <c r="E72" s="8"/>
       <c r="F72" s="8"/>
       <c r="G72" s="8"/>
       <c t="s" r="H72" s="9">
-        <v>35</v>
+        <v>71</v>
       </c>
       <c r="I72" s="9"/>
       <c r="J72" s="9"/>
@@ -3677,14 +3683,14 @@
       </c>
       <c r="M72" s="10"/>
       <c t="s" r="N72" s="8">
-        <v>40</v>
+        <v>27</v>
       </c>
       <c r="O72" s="8"/>
       <c t="s" r="P72" s="11">
-        <v>41</v>
+        <v>203</v>
       </c>
       <c t="s" r="Q72" s="12">
-        <v>16</v>
+        <v>35</v>
       </c>
     </row>
     <row r="73" ht="24.75" customHeight="1">
@@ -3693,14 +3699,14 @@
       </c>
       <c r="B73" s="7"/>
       <c t="s" r="C73" s="8">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="D73" s="8"/>
       <c r="E73" s="8"/>
       <c r="F73" s="8"/>
       <c r="G73" s="8"/>
       <c t="s" r="H73" s="9">
-        <v>203</v>
+        <v>30</v>
       </c>
       <c r="I73" s="9"/>
       <c r="J73" s="9"/>
@@ -3710,14 +3716,14 @@
       </c>
       <c r="M73" s="10"/>
       <c t="s" r="N73" s="8">
-        <v>204</v>
+        <v>95</v>
       </c>
       <c r="O73" s="8"/>
       <c t="s" r="P73" s="11">
-        <v>160</v>
+        <v>63</v>
       </c>
       <c t="s" r="Q73" s="12">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="74" ht="25.5" customHeight="1">
@@ -3733,7 +3739,7 @@
       <c r="F74" s="8"/>
       <c r="G74" s="8"/>
       <c t="s" r="H74" s="9">
-        <v>203</v>
+        <v>35</v>
       </c>
       <c r="I74" s="9"/>
       <c r="J74" s="9"/>
@@ -3743,14 +3749,14 @@
       </c>
       <c r="M74" s="10"/>
       <c t="s" r="N74" s="8">
-        <v>206</v>
+        <v>40</v>
       </c>
       <c r="O74" s="8"/>
       <c t="s" r="P74" s="11">
-        <v>207</v>
+        <v>41</v>
       </c>
       <c t="s" r="Q74" s="12">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="75" ht="24.75" customHeight="1">
@@ -3759,14 +3765,14 @@
       </c>
       <c r="B75" s="7"/>
       <c t="s" r="C75" s="8">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="D75" s="8"/>
       <c r="E75" s="8"/>
       <c r="F75" s="8"/>
       <c r="G75" s="8"/>
       <c t="s" r="H75" s="9">
-        <v>16</v>
+        <v>207</v>
       </c>
       <c r="I75" s="9"/>
       <c r="J75" s="9"/>
@@ -3776,11 +3782,11 @@
       </c>
       <c r="M75" s="10"/>
       <c t="s" r="N75" s="8">
-        <v>125</v>
+        <v>208</v>
       </c>
       <c r="O75" s="8"/>
       <c t="s" r="P75" s="11">
-        <v>126</v>
+        <v>163</v>
       </c>
       <c t="s" r="Q75" s="12">
         <v>16</v>
@@ -3799,7 +3805,7 @@
       <c r="F76" s="8"/>
       <c r="G76" s="8"/>
       <c t="s" r="H76" s="9">
-        <v>45</v>
+        <v>207</v>
       </c>
       <c r="I76" s="9"/>
       <c r="J76" s="9"/>
@@ -3832,7 +3838,7 @@
       <c r="F77" s="8"/>
       <c r="G77" s="8"/>
       <c t="s" r="H77" s="9">
-        <v>35</v>
+        <v>16</v>
       </c>
       <c r="I77" s="9"/>
       <c r="J77" s="9"/>
@@ -3842,11 +3848,11 @@
       </c>
       <c r="M77" s="10"/>
       <c t="s" r="N77" s="8">
-        <v>204</v>
+        <v>125</v>
       </c>
       <c r="O77" s="8"/>
       <c t="s" r="P77" s="11">
-        <v>160</v>
+        <v>126</v>
       </c>
       <c t="s" r="Q77" s="12">
         <v>16</v>
@@ -3865,7 +3871,7 @@
       <c r="F78" s="8"/>
       <c r="G78" s="8"/>
       <c t="s" r="H78" s="9">
-        <v>35</v>
+        <v>45</v>
       </c>
       <c r="I78" s="9"/>
       <c r="J78" s="9"/>
@@ -3882,7 +3888,7 @@
         <v>215</v>
       </c>
       <c t="s" r="Q78" s="12">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="79" ht="25.5" customHeight="1">
@@ -3898,7 +3904,7 @@
       <c r="F79" s="8"/>
       <c r="G79" s="8"/>
       <c t="s" r="H79" s="9">
-        <v>22</v>
+        <v>35</v>
       </c>
       <c r="I79" s="9"/>
       <c r="J79" s="9"/>
@@ -3908,14 +3914,14 @@
       </c>
       <c r="M79" s="10"/>
       <c t="s" r="N79" s="8">
-        <v>122</v>
+        <v>208</v>
       </c>
       <c r="O79" s="8"/>
       <c t="s" r="P79" s="11">
-        <v>37</v>
+        <v>163</v>
       </c>
       <c t="s" r="Q79" s="12">
-        <v>22</v>
+        <v>16</v>
       </c>
     </row>
     <row r="80" ht="24.75" customHeight="1">
@@ -3931,7 +3937,7 @@
       <c r="F80" s="8"/>
       <c r="G80" s="8"/>
       <c t="s" r="H80" s="9">
-        <v>18</v>
+        <v>35</v>
       </c>
       <c r="I80" s="9"/>
       <c r="J80" s="9"/>
@@ -3948,7 +3954,7 @@
         <v>219</v>
       </c>
       <c t="s" r="Q80" s="12">
-        <v>35</v>
+        <v>16</v>
       </c>
     </row>
     <row r="81" ht="25.5" customHeight="1">
@@ -3964,7 +3970,7 @@
       <c r="F81" s="8"/>
       <c r="G81" s="8"/>
       <c t="s" r="H81" s="9">
-        <v>45</v>
+        <v>22</v>
       </c>
       <c r="I81" s="9"/>
       <c r="J81" s="9"/>
@@ -3978,10 +3984,10 @@
       </c>
       <c r="O81" s="8"/>
       <c t="s" r="P81" s="11">
-        <v>123</v>
+        <v>37</v>
       </c>
       <c t="s" r="Q81" s="12">
-        <v>18</v>
+        <v>22</v>
       </c>
     </row>
     <row r="82" ht="25.5" customHeight="1">
@@ -3997,7 +4003,7 @@
       <c r="F82" s="8"/>
       <c r="G82" s="8"/>
       <c t="s" r="H82" s="9">
-        <v>33</v>
+        <v>18</v>
       </c>
       <c r="I82" s="9"/>
       <c r="J82" s="9"/>
@@ -4014,7 +4020,7 @@
         <v>223</v>
       </c>
       <c t="s" r="Q82" s="12">
-        <v>16</v>
+        <v>35</v>
       </c>
     </row>
     <row r="83" ht="24.75" customHeight="1">
@@ -4040,14 +4046,14 @@
       </c>
       <c r="M83" s="10"/>
       <c t="s" r="N83" s="8">
-        <v>85</v>
+        <v>122</v>
       </c>
       <c r="O83" s="8"/>
       <c t="s" r="P83" s="11">
-        <v>144</v>
+        <v>123</v>
       </c>
       <c t="s" r="Q83" s="12">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="84" ht="25.5" customHeight="1">
@@ -4063,7 +4069,7 @@
       <c r="F84" s="8"/>
       <c r="G84" s="8"/>
       <c t="s" r="H84" s="9">
-        <v>94</v>
+        <v>33</v>
       </c>
       <c r="I84" s="9"/>
       <c r="J84" s="9"/>
@@ -4080,7 +4086,7 @@
         <v>227</v>
       </c>
       <c t="s" r="Q84" s="12">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="85" ht="24.75" customHeight="1">
@@ -4106,14 +4112,14 @@
       </c>
       <c r="M85" s="10"/>
       <c t="s" r="N85" s="8">
-        <v>229</v>
+        <v>85</v>
       </c>
       <c r="O85" s="8"/>
       <c t="s" r="P85" s="11">
-        <v>160</v>
+        <v>147</v>
       </c>
       <c t="s" r="Q85" s="12">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="86" ht="25.5" customHeight="1">
@@ -4122,14 +4128,14 @@
       </c>
       <c r="B86" s="7"/>
       <c t="s" r="C86" s="8">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="D86" s="8"/>
       <c r="E86" s="8"/>
       <c r="F86" s="8"/>
       <c r="G86" s="8"/>
       <c t="s" r="H86" s="9">
-        <v>112</v>
+        <v>94</v>
       </c>
       <c r="I86" s="9"/>
       <c r="J86" s="9"/>
@@ -4139,14 +4145,14 @@
       </c>
       <c r="M86" s="10"/>
       <c t="s" r="N86" s="8">
-        <v>125</v>
+        <v>230</v>
       </c>
       <c r="O86" s="8"/>
       <c t="s" r="P86" s="11">
         <v>231</v>
       </c>
       <c t="s" r="Q86" s="12">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="87" ht="25.5" customHeight="1">
@@ -4162,7 +4168,7 @@
       <c r="F87" s="8"/>
       <c r="G87" s="8"/>
       <c t="s" r="H87" s="9">
-        <v>18</v>
+        <v>45</v>
       </c>
       <c r="I87" s="9"/>
       <c r="J87" s="9"/>
@@ -4172,14 +4178,14 @@
       </c>
       <c r="M87" s="10"/>
       <c t="s" r="N87" s="8">
-        <v>125</v>
+        <v>233</v>
       </c>
       <c r="O87" s="8"/>
       <c t="s" r="P87" s="11">
-        <v>126</v>
+        <v>163</v>
       </c>
       <c t="s" r="Q87" s="12">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="88" ht="24.75" customHeight="1">
@@ -4188,14 +4194,14 @@
       </c>
       <c r="B88" s="7"/>
       <c t="s" r="C88" s="8">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="D88" s="8"/>
       <c r="E88" s="8"/>
       <c r="F88" s="8"/>
       <c r="G88" s="8"/>
       <c t="s" r="H88" s="9">
-        <v>45</v>
+        <v>112</v>
       </c>
       <c r="I88" s="9"/>
       <c r="J88" s="9"/>
@@ -4205,14 +4211,14 @@
       </c>
       <c r="M88" s="10"/>
       <c t="s" r="N88" s="8">
-        <v>234</v>
+        <v>125</v>
       </c>
       <c r="O88" s="8"/>
       <c t="s" r="P88" s="11">
         <v>235</v>
       </c>
       <c t="s" r="Q88" s="12">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="89" ht="25.5" customHeight="1">
@@ -4228,7 +4234,7 @@
       <c r="F89" s="8"/>
       <c r="G89" s="8"/>
       <c t="s" r="H89" s="9">
-        <v>33</v>
+        <v>18</v>
       </c>
       <c r="I89" s="9"/>
       <c r="J89" s="9"/>
@@ -4238,11 +4244,11 @@
       </c>
       <c r="M89" s="10"/>
       <c t="s" r="N89" s="8">
-        <v>237</v>
+        <v>125</v>
       </c>
       <c r="O89" s="8"/>
       <c t="s" r="P89" s="11">
-        <v>238</v>
+        <v>126</v>
       </c>
       <c t="s" r="Q89" s="12">
         <v>16</v>
@@ -4254,14 +4260,14 @@
       </c>
       <c r="B90" s="7"/>
       <c t="s" r="C90" s="8">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="D90" s="8"/>
       <c r="E90" s="8"/>
       <c r="F90" s="8"/>
       <c r="G90" s="8"/>
       <c t="s" r="H90" s="9">
-        <v>16</v>
+        <v>45</v>
       </c>
       <c r="I90" s="9"/>
       <c r="J90" s="9"/>
@@ -4271,14 +4277,14 @@
       </c>
       <c r="M90" s="10"/>
       <c t="s" r="N90" s="8">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="O90" s="8"/>
       <c t="s" r="P90" s="11">
-        <v>181</v>
+        <v>239</v>
       </c>
       <c t="s" r="Q90" s="12">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="91" ht="25.5" customHeight="1">
@@ -4287,31 +4293,31 @@
       </c>
       <c r="B91" s="7"/>
       <c t="s" r="C91" s="8">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="D91" s="8"/>
       <c r="E91" s="8"/>
       <c r="F91" s="8"/>
       <c r="G91" s="8"/>
       <c t="s" r="H91" s="9">
-        <v>242</v>
+        <v>33</v>
       </c>
       <c r="I91" s="9"/>
       <c r="J91" s="9"/>
       <c r="K91" s="9"/>
       <c t="s" r="L91" s="10">
-        <v>162</v>
+        <v>13</v>
       </c>
       <c r="M91" s="10"/>
       <c t="s" r="N91" s="8">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="O91" s="8"/>
       <c t="s" r="P91" s="11">
-        <v>171</v>
+        <v>242</v>
       </c>
       <c t="s" r="Q91" s="12">
-        <v>39</v>
+        <v>16</v>
       </c>
     </row>
     <row r="92" ht="25.5" customHeight="1">
@@ -4320,31 +4326,31 @@
       </c>
       <c r="B92" s="7"/>
       <c t="s" r="C92" s="8">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="D92" s="8"/>
       <c r="E92" s="8"/>
       <c r="F92" s="8"/>
       <c r="G92" s="8"/>
       <c t="s" r="H92" s="9">
-        <v>39</v>
+        <v>16</v>
       </c>
       <c r="I92" s="9"/>
       <c r="J92" s="9"/>
       <c r="K92" s="9"/>
       <c t="s" r="L92" s="10">
-        <v>162</v>
+        <v>13</v>
       </c>
       <c r="M92" s="10"/>
       <c t="s" r="N92" s="8">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="O92" s="8"/>
       <c t="s" r="P92" s="11">
-        <v>246</v>
+        <v>187</v>
       </c>
       <c t="s" r="Q92" s="12">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="93" ht="24.75" customHeight="1">
@@ -4353,31 +4359,31 @@
       </c>
       <c r="B93" s="7"/>
       <c t="s" r="C93" s="8">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="D93" s="8"/>
       <c r="E93" s="8"/>
       <c r="F93" s="8"/>
       <c r="G93" s="8"/>
       <c t="s" r="H93" s="9">
-        <v>45</v>
+        <v>246</v>
       </c>
       <c r="I93" s="9"/>
       <c r="J93" s="9"/>
       <c r="K93" s="9"/>
       <c t="s" r="L93" s="10">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="M93" s="10"/>
       <c t="s" r="N93" s="8">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="O93" s="8"/>
       <c t="s" r="P93" s="11">
-        <v>249</v>
+        <v>174</v>
       </c>
       <c t="s" r="Q93" s="12">
-        <v>22</v>
+        <v>39</v>
       </c>
     </row>
     <row r="94" ht="25.5" customHeight="1">
@@ -4386,28 +4392,28 @@
       </c>
       <c r="B94" s="7"/>
       <c t="s" r="C94" s="8">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="D94" s="8"/>
       <c r="E94" s="8"/>
       <c r="F94" s="8"/>
       <c r="G94" s="8"/>
       <c t="s" r="H94" s="9">
-        <v>18</v>
+        <v>39</v>
       </c>
       <c r="I94" s="9"/>
       <c r="J94" s="9"/>
       <c r="K94" s="9"/>
       <c t="s" r="L94" s="10">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="M94" s="10"/>
       <c t="s" r="N94" s="8">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="O94" s="8"/>
       <c t="s" r="P94" s="11">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c t="s" r="Q94" s="12">
         <v>18</v>
@@ -4419,28 +4425,28 @@
       </c>
       <c r="B95" s="7"/>
       <c t="s" r="C95" s="8">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="D95" s="8"/>
       <c r="E95" s="8"/>
       <c r="F95" s="8"/>
       <c r="G95" s="8"/>
       <c t="s" r="H95" s="9">
-        <v>254</v>
+        <v>45</v>
       </c>
       <c r="I95" s="9"/>
       <c r="J95" s="9"/>
       <c r="K95" s="9"/>
       <c t="s" r="L95" s="10">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="M95" s="10"/>
       <c t="s" r="N95" s="8">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="O95" s="8"/>
       <c t="s" r="P95" s="11">
-        <v>163</v>
+        <v>253</v>
       </c>
       <c t="s" r="Q95" s="12">
         <v>22</v>
@@ -4452,31 +4458,31 @@
       </c>
       <c r="B96" s="7"/>
       <c t="s" r="C96" s="8">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="D96" s="8"/>
       <c r="E96" s="8"/>
       <c r="F96" s="8"/>
       <c r="G96" s="8"/>
       <c t="s" r="H96" s="9">
-        <v>45</v>
+        <v>18</v>
       </c>
       <c r="I96" s="9"/>
       <c r="J96" s="9"/>
       <c r="K96" s="9"/>
       <c t="s" r="L96" s="10">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="M96" s="10"/>
       <c t="s" r="N96" s="8">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="O96" s="8"/>
       <c t="s" r="P96" s="11">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c t="s" r="Q96" s="12">
-        <v>39</v>
+        <v>18</v>
       </c>
     </row>
     <row r="97" ht="25.5" customHeight="1">
@@ -4485,31 +4491,31 @@
       </c>
       <c r="B97" s="7"/>
       <c t="s" r="C97" s="8">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="D97" s="8"/>
       <c r="E97" s="8"/>
       <c r="F97" s="8"/>
       <c r="G97" s="8"/>
       <c t="s" r="H97" s="9">
-        <v>45</v>
+        <v>258</v>
       </c>
       <c r="I97" s="9"/>
       <c r="J97" s="9"/>
       <c r="K97" s="9"/>
       <c t="s" r="L97" s="10">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="M97" s="10"/>
       <c t="s" r="N97" s="8">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="O97" s="8"/>
       <c t="s" r="P97" s="11">
-        <v>101</v>
+        <v>166</v>
       </c>
       <c t="s" r="Q97" s="12">
-        <v>261</v>
+        <v>22</v>
       </c>
     </row>
     <row r="98" ht="24.75" customHeight="1">
@@ -4518,7 +4524,7 @@
       </c>
       <c r="B98" s="7"/>
       <c t="s" r="C98" s="8">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="D98" s="8"/>
       <c r="E98" s="8"/>
@@ -4531,18 +4537,18 @@
       <c r="J98" s="9"/>
       <c r="K98" s="9"/>
       <c t="s" r="L98" s="10">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="M98" s="10"/>
       <c t="s" r="N98" s="8">
-        <v>248</v>
+        <v>261</v>
       </c>
       <c r="O98" s="8"/>
       <c t="s" r="P98" s="11">
-        <v>249</v>
+        <v>262</v>
       </c>
       <c t="s" r="Q98" s="12">
-        <v>22</v>
+        <v>39</v>
       </c>
     </row>
     <row r="99" ht="25.5" customHeight="1">
@@ -4558,24 +4564,24 @@
       <c r="F99" s="8"/>
       <c r="G99" s="8"/>
       <c t="s" r="H99" s="9">
-        <v>22</v>
+        <v>45</v>
       </c>
       <c r="I99" s="9"/>
       <c r="J99" s="9"/>
       <c r="K99" s="9"/>
       <c t="s" r="L99" s="10">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="M99" s="10"/>
       <c t="s" r="N99" s="8">
-        <v>251</v>
+        <v>264</v>
       </c>
       <c r="O99" s="8"/>
       <c t="s" r="P99" s="11">
-        <v>252</v>
+        <v>101</v>
       </c>
       <c t="s" r="Q99" s="12">
-        <v>18</v>
+        <v>265</v>
       </c>
     </row>
     <row r="100" ht="24.75" customHeight="1">
@@ -4584,7 +4590,7 @@
       </c>
       <c r="B100" s="7"/>
       <c t="s" r="C100" s="8">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="D100" s="8"/>
       <c r="E100" s="8"/>
@@ -4597,18 +4603,18 @@
       <c r="J100" s="9"/>
       <c r="K100" s="9"/>
       <c t="s" r="L100" s="10">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="M100" s="10"/>
       <c t="s" r="N100" s="8">
-        <v>243</v>
+        <v>252</v>
       </c>
       <c r="O100" s="8"/>
       <c t="s" r="P100" s="11">
-        <v>265</v>
+        <v>253</v>
       </c>
       <c t="s" r="Q100" s="12">
-        <v>18</v>
+        <v>22</v>
       </c>
     </row>
     <row r="101" ht="25.5" customHeight="1">
@@ -4617,28 +4623,28 @@
       </c>
       <c r="B101" s="7"/>
       <c t="s" r="C101" s="8">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="D101" s="8"/>
       <c r="E101" s="8"/>
       <c r="F101" s="8"/>
       <c r="G101" s="8"/>
       <c t="s" r="H101" s="9">
-        <v>267</v>
+        <v>22</v>
       </c>
       <c r="I101" s="9"/>
       <c r="J101" s="9"/>
       <c r="K101" s="9"/>
       <c t="s" r="L101" s="10">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="M101" s="10"/>
       <c t="s" r="N101" s="8">
-        <v>268</v>
+        <v>255</v>
       </c>
       <c r="O101" s="8"/>
       <c t="s" r="P101" s="11">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c t="s" r="Q101" s="12">
         <v>18</v>
@@ -4650,28 +4656,28 @@
       </c>
       <c r="B102" s="7"/>
       <c t="s" r="C102" s="8">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="D102" s="8"/>
       <c r="E102" s="8"/>
       <c r="F102" s="8"/>
       <c r="G102" s="8"/>
       <c t="s" r="H102" s="9">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="I102" s="9"/>
       <c r="J102" s="9"/>
       <c r="K102" s="9"/>
       <c t="s" r="L102" s="10">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="M102" s="10"/>
       <c t="s" r="N102" s="8">
-        <v>270</v>
+        <v>247</v>
       </c>
       <c r="O102" s="8"/>
       <c t="s" r="P102" s="11">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c t="s" r="Q102" s="12">
         <v>18</v>
@@ -4683,31 +4689,31 @@
       </c>
       <c r="B103" s="7"/>
       <c t="s" r="C103" s="8">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="D103" s="8"/>
       <c r="E103" s="8"/>
       <c r="F103" s="8"/>
       <c r="G103" s="8"/>
       <c t="s" r="H103" s="9">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="I103" s="9"/>
       <c r="J103" s="9"/>
       <c r="K103" s="9"/>
       <c t="s" r="L103" s="10">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="M103" s="10"/>
       <c t="s" r="N103" s="8">
-        <v>251</v>
+        <v>272</v>
       </c>
       <c r="O103" s="8"/>
       <c t="s" r="P103" s="11">
-        <v>274</v>
+        <v>262</v>
       </c>
       <c t="s" r="Q103" s="12">
-        <v>84</v>
+        <v>18</v>
       </c>
     </row>
     <row r="104" ht="25.5" customHeight="1">
@@ -4716,28 +4722,28 @@
       </c>
       <c r="B104" s="7"/>
       <c t="s" r="C104" s="8">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="D104" s="8"/>
       <c r="E104" s="8"/>
       <c r="F104" s="8"/>
       <c r="G104" s="8"/>
       <c t="s" r="H104" s="9">
-        <v>276</v>
+        <v>39</v>
       </c>
       <c r="I104" s="9"/>
       <c r="J104" s="9"/>
       <c r="K104" s="9"/>
       <c t="s" r="L104" s="10">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="M104" s="10"/>
       <c t="s" r="N104" s="8">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="O104" s="8"/>
       <c t="s" r="P104" s="11">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c t="s" r="Q104" s="12">
         <v>18</v>
@@ -4749,31 +4755,31 @@
       </c>
       <c r="B105" s="7"/>
       <c t="s" r="C105" s="8">
-        <v>279</v>
+        <v>276</v>
       </c>
       <c r="D105" s="8"/>
       <c r="E105" s="8"/>
       <c r="F105" s="8"/>
       <c r="G105" s="8"/>
       <c t="s" r="H105" s="9">
-        <v>45</v>
+        <v>277</v>
       </c>
       <c r="I105" s="9"/>
       <c r="J105" s="9"/>
       <c r="K105" s="9"/>
       <c t="s" r="L105" s="10">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="M105" s="10"/>
       <c t="s" r="N105" s="8">
-        <v>245</v>
+        <v>255</v>
       </c>
       <c r="O105" s="8"/>
       <c t="s" r="P105" s="11">
-        <v>265</v>
+        <v>278</v>
       </c>
       <c t="s" r="Q105" s="12">
-        <v>22</v>
+        <v>84</v>
       </c>
     </row>
     <row r="106" ht="25.5" customHeight="1">
@@ -4782,28 +4788,28 @@
       </c>
       <c r="B106" s="7"/>
       <c t="s" r="C106" s="8">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="D106" s="8"/>
       <c r="E106" s="8"/>
       <c r="F106" s="8"/>
       <c r="G106" s="8"/>
       <c t="s" r="H106" s="9">
-        <v>18</v>
+        <v>280</v>
       </c>
       <c r="I106" s="9"/>
       <c r="J106" s="9"/>
       <c r="K106" s="9"/>
       <c t="s" r="L106" s="10">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="M106" s="10"/>
       <c t="s" r="N106" s="8">
-        <v>281</v>
+        <v>179</v>
       </c>
       <c r="O106" s="8"/>
       <c t="s" r="P106" s="11">
-        <v>282</v>
+        <v>180</v>
       </c>
       <c t="s" r="Q106" s="12">
         <v>18</v>
@@ -4815,31 +4821,31 @@
       </c>
       <c r="B107" s="7"/>
       <c t="s" r="C107" s="8">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="D107" s="8"/>
       <c r="E107" s="8"/>
       <c r="F107" s="8"/>
       <c r="G107" s="8"/>
       <c t="s" r="H107" s="9">
-        <v>254</v>
+        <v>45</v>
       </c>
       <c r="I107" s="9"/>
       <c r="J107" s="9"/>
       <c r="K107" s="9"/>
       <c t="s" r="L107" s="10">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="M107" s="10"/>
       <c t="s" r="N107" s="8">
-        <v>284</v>
+        <v>249</v>
       </c>
       <c r="O107" s="8"/>
       <c t="s" r="P107" s="11">
-        <v>285</v>
+        <v>269</v>
       </c>
       <c t="s" r="Q107" s="12">
-        <v>18</v>
+        <v>22</v>
       </c>
     </row>
     <row r="108" ht="24.75" customHeight="1">
@@ -4848,28 +4854,28 @@
       </c>
       <c r="B108" s="7"/>
       <c t="s" r="C108" s="8">
-        <v>286</v>
+        <v>282</v>
       </c>
       <c r="D108" s="8"/>
       <c r="E108" s="8"/>
       <c r="F108" s="8"/>
       <c r="G108" s="8"/>
       <c t="s" r="H108" s="9">
-        <v>45</v>
+        <v>18</v>
       </c>
       <c r="I108" s="9"/>
       <c r="J108" s="9"/>
       <c r="K108" s="9"/>
       <c t="s" r="L108" s="10">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="M108" s="10"/>
       <c t="s" r="N108" s="8">
-        <v>287</v>
+        <v>283</v>
       </c>
       <c r="O108" s="8"/>
       <c t="s" r="P108" s="11">
-        <v>288</v>
+        <v>284</v>
       </c>
       <c t="s" r="Q108" s="12">
         <v>18</v>
@@ -4881,66 +4887,132 @@
       </c>
       <c r="B109" s="7"/>
       <c t="s" r="C109" s="8">
-        <v>289</v>
+        <v>285</v>
       </c>
       <c r="D109" s="8"/>
       <c r="E109" s="8"/>
       <c r="F109" s="8"/>
       <c r="G109" s="8"/>
       <c t="s" r="H109" s="9">
-        <v>22</v>
+        <v>258</v>
       </c>
       <c r="I109" s="9"/>
       <c r="J109" s="9"/>
       <c r="K109" s="9"/>
       <c t="s" r="L109" s="10">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="M109" s="10"/>
       <c t="s" r="N109" s="8">
-        <v>245</v>
+        <v>286</v>
       </c>
       <c r="O109" s="8"/>
       <c t="s" r="P109" s="11">
-        <v>246</v>
+        <v>287</v>
       </c>
       <c t="s" r="Q109" s="12">
         <v>18</v>
       </c>
     </row>
     <row r="110" ht="24.75" customHeight="1">
-      <c r="P110" s="13">
-        <v>6354.0150000000003</v>
-      </c>
-      <c r="Q110" s="13"/>
-    </row>
-    <row r="111" ht="16.5" customHeight="1">
-      <c t="s" r="A111" s="14">
+      <c r="A110" s="7">
+        <v>104</v>
+      </c>
+      <c r="B110" s="7"/>
+      <c t="s" r="C110" s="8">
+        <v>288</v>
+      </c>
+      <c r="D110" s="8"/>
+      <c r="E110" s="8"/>
+      <c r="F110" s="8"/>
+      <c r="G110" s="8"/>
+      <c t="s" r="H110" s="9">
+        <v>45</v>
+      </c>
+      <c r="I110" s="9"/>
+      <c r="J110" s="9"/>
+      <c r="K110" s="9"/>
+      <c t="s" r="L110" s="10">
+        <v>165</v>
+      </c>
+      <c r="M110" s="10"/>
+      <c t="s" r="N110" s="8">
+        <v>289</v>
+      </c>
+      <c r="O110" s="8"/>
+      <c t="s" r="P110" s="11">
         <v>290</v>
       </c>
-      <c r="B111" s="14"/>
-      <c r="C111" s="14"/>
-      <c r="D111" s="14"/>
-      <c r="E111" s="14"/>
-      <c r="F111" s="14"/>
-      <c t="s" r="G111" s="15">
+      <c t="s" r="Q110" s="12">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="111" ht="25.5" customHeight="1">
+      <c r="A111" s="7">
+        <v>105</v>
+      </c>
+      <c r="B111" s="7"/>
+      <c t="s" r="C111" s="8">
         <v>291</v>
       </c>
-      <c r="H111" s="15"/>
-      <c r="I111" s="15"/>
-      <c r="J111" s="16"/>
-      <c t="s" r="K111" s="17">
+      <c r="D111" s="8"/>
+      <c r="E111" s="8"/>
+      <c r="F111" s="8"/>
+      <c r="G111" s="8"/>
+      <c t="s" r="H111" s="9">
+        <v>22</v>
+      </c>
+      <c r="I111" s="9"/>
+      <c r="J111" s="9"/>
+      <c r="K111" s="9"/>
+      <c t="s" r="L111" s="10">
+        <v>165</v>
+      </c>
+      <c r="M111" s="10"/>
+      <c t="s" r="N111" s="8">
+        <v>249</v>
+      </c>
+      <c r="O111" s="8"/>
+      <c t="s" r="P111" s="11">
+        <v>250</v>
+      </c>
+      <c t="s" r="Q111" s="12">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="112" ht="25.5" customHeight="1">
+      <c r="P112" s="13">
+        <v>6439.0150000000003</v>
+      </c>
+      <c r="Q112" s="13"/>
+    </row>
+    <row r="113" ht="16.5" customHeight="1">
+      <c t="s" r="A113" s="14">
         <v>292</v>
       </c>
-      <c r="L111" s="17"/>
-      <c r="M111" s="17"/>
-      <c r="N111" s="17"/>
-      <c r="O111" s="17"/>
-      <c r="P111" s="17"/>
-      <c r="Q111" s="17"/>
+      <c r="B113" s="14"/>
+      <c r="C113" s="14"/>
+      <c r="D113" s="14"/>
+      <c r="E113" s="14"/>
+      <c r="F113" s="14"/>
+      <c t="s" r="G113" s="15">
+        <v>293</v>
+      </c>
+      <c r="H113" s="15"/>
+      <c r="I113" s="15"/>
+      <c r="J113" s="16"/>
+      <c t="s" r="K113" s="17">
+        <v>294</v>
+      </c>
+      <c r="L113" s="17"/>
+      <c r="M113" s="17"/>
+      <c r="N113" s="17"/>
+      <c r="O113" s="17"/>
+      <c r="P113" s="17"/>
+      <c r="Q113" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="527">
+  <mergeCells count="537">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -5464,10 +5536,20 @@
     <mergeCell ref="H109:K109"/>
     <mergeCell ref="L109:M109"/>
     <mergeCell ref="N109:O109"/>
-    <mergeCell ref="P110:Q110"/>
-    <mergeCell ref="A111:F111"/>
-    <mergeCell ref="G111:I111"/>
-    <mergeCell ref="K111:Q111"/>
+    <mergeCell ref="A110:B110"/>
+    <mergeCell ref="C110:G110"/>
+    <mergeCell ref="H110:K110"/>
+    <mergeCell ref="L110:M110"/>
+    <mergeCell ref="N110:O110"/>
+    <mergeCell ref="A111:B111"/>
+    <mergeCell ref="C111:G111"/>
+    <mergeCell ref="H111:K111"/>
+    <mergeCell ref="L111:M111"/>
+    <mergeCell ref="N111:O111"/>
+    <mergeCell ref="P112:Q112"/>
+    <mergeCell ref="A113:F113"/>
+    <mergeCell ref="G113:I113"/>
+    <mergeCell ref="K113:Q113"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-08-08_00-00.xlsx
+++ b/DaySale_2025-08-08_00-00.xlsx
@@ -176,21 +176,18 @@
     <t>CEFEPIME 1 GM I.M/I.V VIAL</t>
   </si>
   <si>
-    <t>10:0</t>
+    <t>6:0</t>
   </si>
   <si>
     <t>73.00</t>
   </si>
   <si>
-    <t>146.0000</t>
+    <t>438.0000</t>
   </si>
   <si>
     <t>CEFOTAX 1GM I.M./I.V. VIAL - EIPICO</t>
   </si>
   <si>
-    <t>6:0</t>
-  </si>
-  <si>
     <t>43.00</t>
   </si>
   <si>
@@ -797,39 +794,45 @@
     <t>4.00</t>
   </si>
   <si>
+    <t>28.0000</t>
+  </si>
+  <si>
+    <t>7:0</t>
+  </si>
+  <si>
+    <t>سرنجات 3 سم</t>
+  </si>
+  <si>
+    <t>2.00</t>
+  </si>
+  <si>
+    <t>11:0</t>
+  </si>
+  <si>
+    <t>سرنجات 5 سم</t>
+  </si>
+  <si>
+    <t>سلاكه ازن خشب كبيره</t>
+  </si>
+  <si>
+    <t>سويت كوكو</t>
+  </si>
+  <si>
+    <t>30.0000</t>
+  </si>
+  <si>
+    <t>شاش 15 سم</t>
+  </si>
+  <si>
+    <t>17:0</t>
+  </si>
+  <si>
+    <t>12.00</t>
+  </si>
+  <si>
     <t>12.0000</t>
   </si>
   <si>
-    <t>سرنجات 3 سم</t>
-  </si>
-  <si>
-    <t>2.00</t>
-  </si>
-  <si>
-    <t>11:0</t>
-  </si>
-  <si>
-    <t>سرنجات 5 سم</t>
-  </si>
-  <si>
-    <t>سلاكه ازن خشب كبيره</t>
-  </si>
-  <si>
-    <t>سويت كوكو</t>
-  </si>
-  <si>
-    <t>30.0000</t>
-  </si>
-  <si>
-    <t>شاش 15 سم</t>
-  </si>
-  <si>
-    <t>17:0</t>
-  </si>
-  <si>
-    <t>12.00</t>
-  </si>
-  <si>
     <t>شفاط ثدي الجو</t>
   </si>
   <si>
@@ -851,9 +854,6 @@
     <t xml:space="preserve">فرش  فوكس عرض</t>
   </si>
   <si>
-    <t>7:0</t>
-  </si>
-  <si>
     <t xml:space="preserve">كالونا </t>
   </si>
   <si>
@@ -887,7 +887,7 @@
     <t>مناديل بكر فاين</t>
   </si>
   <si>
-    <t>Friday, 8 August, 2025 9:53 PM</t>
+    <t>Friday, 8 August, 2025 9:57 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1908,7 +1908,7 @@
         <v>57</v>
       </c>
       <c t="s" r="Q18" s="12">
-        <v>22</v>
+        <v>55</v>
       </c>
     </row>
     <row r="19" ht="25.5" customHeight="1">
@@ -1924,7 +1924,7 @@
       <c r="F19" s="8"/>
       <c r="G19" s="8"/>
       <c t="s" r="H19" s="9">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="I19" s="9"/>
       <c r="J19" s="9"/>
@@ -1934,11 +1934,11 @@
       </c>
       <c r="M19" s="10"/>
       <c t="s" r="N19" s="8">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="O19" s="8"/>
       <c t="s" r="P19" s="11">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c t="s" r="Q19" s="12">
         <v>18</v>
@@ -1950,7 +1950,7 @@
       </c>
       <c r="B20" s="7"/>
       <c t="s" r="C20" s="8">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D20" s="8"/>
       <c r="E20" s="8"/>
@@ -1971,7 +1971,7 @@
       </c>
       <c r="O20" s="8"/>
       <c t="s" r="P20" s="11">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c t="s" r="Q20" s="12">
         <v>16</v>
@@ -1983,7 +1983,7 @@
       </c>
       <c r="B21" s="7"/>
       <c t="s" r="C21" s="8">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D21" s="8"/>
       <c r="E21" s="8"/>
@@ -2000,11 +2000,11 @@
       </c>
       <c r="M21" s="10"/>
       <c t="s" r="N21" s="8">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="O21" s="8"/>
       <c t="s" r="P21" s="11">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c t="s" r="Q21" s="12">
         <v>18</v>
@@ -2016,7 +2016,7 @@
       </c>
       <c r="B22" s="7"/>
       <c t="s" r="C22" s="8">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D22" s="8"/>
       <c r="E22" s="8"/>
@@ -2033,11 +2033,11 @@
       </c>
       <c r="M22" s="10"/>
       <c t="s" r="N22" s="8">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="O22" s="8"/>
       <c t="s" r="P22" s="11">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c t="s" r="Q22" s="12">
         <v>16</v>
@@ -2049,14 +2049,14 @@
       </c>
       <c r="B23" s="7"/>
       <c t="s" r="C23" s="8">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D23" s="8"/>
       <c r="E23" s="8"/>
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c t="s" r="H23" s="9">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
@@ -2066,11 +2066,11 @@
       </c>
       <c r="M23" s="10"/>
       <c t="s" r="N23" s="8">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="O23" s="8"/>
       <c t="s" r="P23" s="11">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c t="s" r="Q23" s="12">
         <v>16</v>
@@ -2082,7 +2082,7 @@
       </c>
       <c r="B24" s="7"/>
       <c t="s" r="C24" s="8">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D24" s="8"/>
       <c r="E24" s="8"/>
@@ -2099,11 +2099,11 @@
       </c>
       <c r="M24" s="10"/>
       <c t="s" r="N24" s="8">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="O24" s="8"/>
       <c t="s" r="P24" s="11">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c t="s" r="Q24" s="12">
         <v>16</v>
@@ -2115,7 +2115,7 @@
       </c>
       <c r="B25" s="7"/>
       <c t="s" r="C25" s="8">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D25" s="8"/>
       <c r="E25" s="8"/>
@@ -2132,11 +2132,11 @@
       </c>
       <c r="M25" s="10"/>
       <c t="s" r="N25" s="8">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="O25" s="8"/>
       <c t="s" r="P25" s="11">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c t="s" r="Q25" s="12">
         <v>33</v>
@@ -2148,7 +2148,7 @@
       </c>
       <c r="B26" s="7"/>
       <c t="s" r="C26" s="8">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D26" s="8"/>
       <c r="E26" s="8"/>
@@ -2165,11 +2165,11 @@
       </c>
       <c r="M26" s="10"/>
       <c t="s" r="N26" s="8">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="O26" s="8"/>
       <c t="s" r="P26" s="11">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c t="s" r="Q26" s="12">
         <v>16</v>
@@ -2181,14 +2181,14 @@
       </c>
       <c r="B27" s="7"/>
       <c t="s" r="C27" s="8">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D27" s="8"/>
       <c r="E27" s="8"/>
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
@@ -2198,11 +2198,11 @@
       </c>
       <c r="M27" s="10"/>
       <c t="s" r="N27" s="8">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="O27" s="8"/>
       <c t="s" r="P27" s="11">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c t="s" r="Q27" s="12">
         <v>33</v>
@@ -2214,7 +2214,7 @@
       </c>
       <c r="B28" s="7"/>
       <c t="s" r="C28" s="8">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="D28" s="8"/>
       <c r="E28" s="8"/>
@@ -2231,11 +2231,11 @@
       </c>
       <c r="M28" s="10"/>
       <c t="s" r="N28" s="8">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="O28" s="8"/>
       <c t="s" r="P28" s="11">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c t="s" r="Q28" s="12">
         <v>33</v>
@@ -2247,7 +2247,7 @@
       </c>
       <c r="B29" s="7"/>
       <c t="s" r="C29" s="8">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D29" s="8"/>
       <c r="E29" s="8"/>
@@ -2264,14 +2264,14 @@
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="O29" s="8"/>
       <c t="s" r="P29" s="11">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c t="s" r="Q29" s="12">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="30" ht="24.75" customHeight="1">
@@ -2280,14 +2280,14 @@
       </c>
       <c r="B30" s="7"/>
       <c t="s" r="C30" s="8">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D30" s="8"/>
       <c r="E30" s="8"/>
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
@@ -2297,11 +2297,11 @@
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="O30" s="8"/>
       <c t="s" r="P30" s="11">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c t="s" r="Q30" s="12">
         <v>18</v>
@@ -2313,7 +2313,7 @@
       </c>
       <c r="B31" s="7"/>
       <c t="s" r="C31" s="8">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D31" s="8"/>
       <c r="E31" s="8"/>
@@ -2330,11 +2330,11 @@
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c t="s" r="Q31" s="12">
         <v>16</v>
@@ -2346,7 +2346,7 @@
       </c>
       <c r="B32" s="7"/>
       <c t="s" r="C32" s="8">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="D32" s="8"/>
       <c r="E32" s="8"/>
@@ -2363,11 +2363,11 @@
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c t="s" r="Q32" s="12">
         <v>18</v>
@@ -2379,7 +2379,7 @@
       </c>
       <c r="B33" s="7"/>
       <c t="s" r="C33" s="8">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D33" s="8"/>
       <c r="E33" s="8"/>
@@ -2396,11 +2396,11 @@
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c t="s" r="Q33" s="12">
         <v>16</v>
@@ -2412,14 +2412,14 @@
       </c>
       <c r="B34" s="7"/>
       <c t="s" r="C34" s="8">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="D34" s="8"/>
       <c r="E34" s="8"/>
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
@@ -2445,7 +2445,7 @@
       </c>
       <c r="B35" s="7"/>
       <c t="s" r="C35" s="8">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D35" s="8"/>
       <c r="E35" s="8"/>
@@ -2462,11 +2462,11 @@
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c t="s" r="Q35" s="12">
         <v>18</v>
@@ -2478,7 +2478,7 @@
       </c>
       <c r="B36" s="7"/>
       <c t="s" r="C36" s="8">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="D36" s="8"/>
       <c r="E36" s="8"/>
@@ -2495,14 +2495,14 @@
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c t="s" r="Q36" s="12">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="37" ht="25.5" customHeight="1">
@@ -2511,14 +2511,14 @@
       </c>
       <c r="B37" s="7"/>
       <c t="s" r="C37" s="8">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="D37" s="8"/>
       <c r="E37" s="8"/>
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
@@ -2528,11 +2528,11 @@
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c t="s" r="Q37" s="12">
         <v>33</v>
@@ -2544,7 +2544,7 @@
       </c>
       <c r="B38" s="7"/>
       <c t="s" r="C38" s="8">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="D38" s="8"/>
       <c r="E38" s="8"/>
@@ -2561,11 +2561,11 @@
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c t="s" r="Q38" s="12">
         <v>18</v>
@@ -2577,7 +2577,7 @@
       </c>
       <c r="B39" s="7"/>
       <c t="s" r="C39" s="8">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="D39" s="8"/>
       <c r="E39" s="8"/>
@@ -2594,11 +2594,11 @@
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c t="s" r="Q39" s="12">
         <v>18</v>
@@ -2610,7 +2610,7 @@
       </c>
       <c r="B40" s="7"/>
       <c t="s" r="C40" s="8">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="D40" s="8"/>
       <c r="E40" s="8"/>
@@ -2627,11 +2627,11 @@
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c t="s" r="Q40" s="12">
         <v>18</v>
@@ -2643,7 +2643,7 @@
       </c>
       <c r="B41" s="7"/>
       <c t="s" r="C41" s="8">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="D41" s="8"/>
       <c r="E41" s="8"/>
@@ -2660,11 +2660,11 @@
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c t="s" r="Q41" s="12">
         <v>16</v>
@@ -2676,7 +2676,7 @@
       </c>
       <c r="B42" s="7"/>
       <c t="s" r="C42" s="8">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="D42" s="8"/>
       <c r="E42" s="8"/>
@@ -2693,11 +2693,11 @@
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c t="s" r="Q42" s="12">
         <v>18</v>
@@ -2709,7 +2709,7 @@
       </c>
       <c r="B43" s="7"/>
       <c t="s" r="C43" s="8">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="D43" s="8"/>
       <c r="E43" s="8"/>
@@ -2726,11 +2726,11 @@
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c t="s" r="Q43" s="12">
         <v>18</v>
@@ -2742,7 +2742,7 @@
       </c>
       <c r="B44" s="7"/>
       <c t="s" r="C44" s="8">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="D44" s="8"/>
       <c r="E44" s="8"/>
@@ -2759,11 +2759,11 @@
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c t="s" r="Q44" s="12">
         <v>16</v>
@@ -2775,7 +2775,7 @@
       </c>
       <c r="B45" s="7"/>
       <c t="s" r="C45" s="8">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="D45" s="8"/>
       <c r="E45" s="8"/>
@@ -2792,11 +2792,11 @@
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c t="s" r="Q45" s="12">
         <v>18</v>
@@ -2808,7 +2808,7 @@
       </c>
       <c r="B46" s="7"/>
       <c t="s" r="C46" s="8">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="D46" s="8"/>
       <c r="E46" s="8"/>
@@ -2825,11 +2825,11 @@
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c t="s" r="Q46" s="12">
         <v>16</v>
@@ -2841,14 +2841,14 @@
       </c>
       <c r="B47" s="7"/>
       <c t="s" r="C47" s="8">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="D47" s="8"/>
       <c r="E47" s="8"/>
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
@@ -2858,14 +2858,14 @@
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c t="s" r="Q47" s="12">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="48" ht="24.75" customHeight="1">
@@ -2874,7 +2874,7 @@
       </c>
       <c r="B48" s="7"/>
       <c t="s" r="C48" s="8">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="D48" s="8"/>
       <c r="E48" s="8"/>
@@ -2891,11 +2891,11 @@
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c t="s" r="Q48" s="12">
         <v>18</v>
@@ -2907,7 +2907,7 @@
       </c>
       <c r="B49" s="7"/>
       <c t="s" r="C49" s="8">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="D49" s="8"/>
       <c r="E49" s="8"/>
@@ -2924,11 +2924,11 @@
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c t="s" r="Q49" s="12">
         <v>16</v>
@@ -2940,7 +2940,7 @@
       </c>
       <c r="B50" s="7"/>
       <c t="s" r="C50" s="8">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="D50" s="8"/>
       <c r="E50" s="8"/>
@@ -2957,11 +2957,11 @@
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c t="s" r="Q50" s="12">
         <v>16</v>
@@ -2973,14 +2973,14 @@
       </c>
       <c r="B51" s="7"/>
       <c t="s" r="C51" s="8">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="D51" s="8"/>
       <c r="E51" s="8"/>
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
@@ -2994,7 +2994,7 @@
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c t="s" r="Q51" s="12">
         <v>16</v>
@@ -3006,7 +3006,7 @@
       </c>
       <c r="B52" s="7"/>
       <c t="s" r="C52" s="8">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="D52" s="8"/>
       <c r="E52" s="8"/>
@@ -3023,11 +3023,11 @@
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c t="s" r="Q52" s="12">
         <v>16</v>
@@ -3039,7 +3039,7 @@
       </c>
       <c r="B53" s="7"/>
       <c t="s" r="C53" s="8">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="D53" s="8"/>
       <c r="E53" s="8"/>
@@ -3056,11 +3056,11 @@
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c t="s" r="Q53" s="12">
         <v>16</v>
@@ -3072,7 +3072,7 @@
       </c>
       <c r="B54" s="7"/>
       <c t="s" r="C54" s="8">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="D54" s="8"/>
       <c r="E54" s="8"/>
@@ -3089,11 +3089,11 @@
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c t="s" r="Q54" s="12">
         <v>16</v>
@@ -3105,7 +3105,7 @@
       </c>
       <c r="B55" s="7"/>
       <c t="s" r="C55" s="8">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="D55" s="8"/>
       <c r="E55" s="8"/>
@@ -3122,11 +3122,11 @@
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c t="s" r="Q55" s="12">
         <v>18</v>
@@ -3138,7 +3138,7 @@
       </c>
       <c r="B56" s="7"/>
       <c t="s" r="C56" s="8">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="D56" s="8"/>
       <c r="E56" s="8"/>
@@ -3155,11 +3155,11 @@
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c t="s" r="Q56" s="12">
         <v>16</v>
@@ -3171,7 +3171,7 @@
       </c>
       <c r="B57" s="7"/>
       <c t="s" r="C57" s="8">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="D57" s="8"/>
       <c r="E57" s="8"/>
@@ -3184,15 +3184,15 @@
       <c r="J57" s="9"/>
       <c r="K57" s="9"/>
       <c t="s" r="L57" s="10">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c t="s" r="Q57" s="12">
         <v>33</v>
@@ -3204,7 +3204,7 @@
       </c>
       <c r="B58" s="7"/>
       <c t="s" r="C58" s="8">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="D58" s="8"/>
       <c r="E58" s="8"/>
@@ -3221,11 +3221,11 @@
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c t="s" r="Q58" s="12">
         <v>18</v>
@@ -3237,7 +3237,7 @@
       </c>
       <c r="B59" s="7"/>
       <c t="s" r="C59" s="8">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="D59" s="8"/>
       <c r="E59" s="8"/>
@@ -3254,11 +3254,11 @@
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c t="s" r="Q59" s="12">
         <v>18</v>
@@ -3270,7 +3270,7 @@
       </c>
       <c r="B60" s="7"/>
       <c t="s" r="C60" s="8">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="D60" s="8"/>
       <c r="E60" s="8"/>
@@ -3287,7 +3287,7 @@
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
@@ -3303,7 +3303,7 @@
       </c>
       <c r="B61" s="7"/>
       <c t="s" r="C61" s="8">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="D61" s="8"/>
       <c r="E61" s="8"/>
@@ -3320,11 +3320,11 @@
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c t="s" r="Q61" s="12">
         <v>18</v>
@@ -3336,7 +3336,7 @@
       </c>
       <c r="B62" s="7"/>
       <c t="s" r="C62" s="8">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="D62" s="8"/>
       <c r="E62" s="8"/>
@@ -3353,11 +3353,11 @@
       </c>
       <c r="M62" s="10"/>
       <c t="s" r="N62" s="8">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c t="s" r="Q62" s="12">
         <v>18</v>
@@ -3369,7 +3369,7 @@
       </c>
       <c r="B63" s="7"/>
       <c t="s" r="C63" s="8">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="D63" s="8"/>
       <c r="E63" s="8"/>
@@ -3386,11 +3386,11 @@
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="O63" s="8"/>
       <c t="s" r="P63" s="11">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c t="s" r="Q63" s="12">
         <v>18</v>
@@ -3402,7 +3402,7 @@
       </c>
       <c r="B64" s="7"/>
       <c t="s" r="C64" s="8">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="D64" s="8"/>
       <c r="E64" s="8"/>
@@ -3419,11 +3419,11 @@
       </c>
       <c r="M64" s="10"/>
       <c t="s" r="N64" s="8">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="O64" s="8"/>
       <c t="s" r="P64" s="11">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c t="s" r="Q64" s="12">
         <v>16</v>
@@ -3435,7 +3435,7 @@
       </c>
       <c r="B65" s="7"/>
       <c t="s" r="C65" s="8">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="D65" s="8"/>
       <c r="E65" s="8"/>
@@ -3452,11 +3452,11 @@
       </c>
       <c r="M65" s="10"/>
       <c t="s" r="N65" s="8">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="O65" s="8"/>
       <c t="s" r="P65" s="11">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c t="s" r="Q65" s="12">
         <v>16</v>
@@ -3468,7 +3468,7 @@
       </c>
       <c r="B66" s="7"/>
       <c t="s" r="C66" s="8">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="D66" s="8"/>
       <c r="E66" s="8"/>
@@ -3485,11 +3485,11 @@
       </c>
       <c r="M66" s="10"/>
       <c t="s" r="N66" s="8">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="O66" s="8"/>
       <c t="s" r="P66" s="11">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c t="s" r="Q66" s="12">
         <v>18</v>
@@ -3501,14 +3501,14 @@
       </c>
       <c r="B67" s="7"/>
       <c t="s" r="C67" s="8">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="D67" s="8"/>
       <c r="E67" s="8"/>
       <c r="F67" s="8"/>
       <c r="G67" s="8"/>
       <c t="s" r="H67" s="9">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="I67" s="9"/>
       <c r="J67" s="9"/>
@@ -3518,11 +3518,11 @@
       </c>
       <c r="M67" s="10"/>
       <c t="s" r="N67" s="8">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="O67" s="8"/>
       <c t="s" r="P67" s="11">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c t="s" r="Q67" s="12">
         <v>18</v>
@@ -3534,14 +3534,14 @@
       </c>
       <c r="B68" s="7"/>
       <c t="s" r="C68" s="8">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="D68" s="8"/>
       <c r="E68" s="8"/>
       <c r="F68" s="8"/>
       <c r="G68" s="8"/>
       <c t="s" r="H68" s="9">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="I68" s="9"/>
       <c r="J68" s="9"/>
@@ -3551,14 +3551,14 @@
       </c>
       <c r="M68" s="10"/>
       <c t="s" r="N68" s="8">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="O68" s="8"/>
       <c t="s" r="P68" s="11">
+        <v>192</v>
+      </c>
+      <c t="s" r="Q68" s="12">
         <v>193</v>
-      </c>
-      <c t="s" r="Q68" s="12">
-        <v>194</v>
       </c>
     </row>
     <row r="69" ht="25.5" customHeight="1">
@@ -3567,7 +3567,7 @@
       </c>
       <c r="B69" s="7"/>
       <c t="s" r="C69" s="8">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="D69" s="8"/>
       <c r="E69" s="8"/>
@@ -3584,11 +3584,11 @@
       </c>
       <c r="M69" s="10"/>
       <c t="s" r="N69" s="8">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="O69" s="8"/>
       <c t="s" r="P69" s="11">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c t="s" r="Q69" s="12">
         <v>18</v>
@@ -3600,14 +3600,14 @@
       </c>
       <c r="B70" s="7"/>
       <c t="s" r="C70" s="8">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="D70" s="8"/>
       <c r="E70" s="8"/>
       <c r="F70" s="8"/>
       <c r="G70" s="8"/>
       <c t="s" r="H70" s="9">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="I70" s="9"/>
       <c r="J70" s="9"/>
@@ -3617,11 +3617,11 @@
       </c>
       <c r="M70" s="10"/>
       <c t="s" r="N70" s="8">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="O70" s="8"/>
       <c t="s" r="P70" s="11">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c t="s" r="Q70" s="12">
         <v>16</v>
@@ -3633,7 +3633,7 @@
       </c>
       <c r="B71" s="7"/>
       <c t="s" r="C71" s="8">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="D71" s="8"/>
       <c r="E71" s="8"/>
@@ -3650,11 +3650,11 @@
       </c>
       <c r="M71" s="10"/>
       <c t="s" r="N71" s="8">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="O71" s="8"/>
       <c t="s" r="P71" s="11">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c t="s" r="Q71" s="12">
         <v>33</v>
@@ -3666,14 +3666,14 @@
       </c>
       <c r="B72" s="7"/>
       <c t="s" r="C72" s="8">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="D72" s="8"/>
       <c r="E72" s="8"/>
       <c r="F72" s="8"/>
       <c r="G72" s="8"/>
       <c t="s" r="H72" s="9">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="I72" s="9"/>
       <c r="J72" s="9"/>
@@ -3687,7 +3687,7 @@
       </c>
       <c r="O72" s="8"/>
       <c t="s" r="P72" s="11">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c t="s" r="Q72" s="12">
         <v>35</v>
@@ -3699,7 +3699,7 @@
       </c>
       <c r="B73" s="7"/>
       <c t="s" r="C73" s="8">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="D73" s="8"/>
       <c r="E73" s="8"/>
@@ -3716,11 +3716,11 @@
       </c>
       <c r="M73" s="10"/>
       <c t="s" r="N73" s="8">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="O73" s="8"/>
       <c t="s" r="P73" s="11">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c t="s" r="Q73" s="12">
         <v>18</v>
@@ -3732,7 +3732,7 @@
       </c>
       <c r="B74" s="7"/>
       <c t="s" r="C74" s="8">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="D74" s="8"/>
       <c r="E74" s="8"/>
@@ -3765,14 +3765,14 @@
       </c>
       <c r="B75" s="7"/>
       <c t="s" r="C75" s="8">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="D75" s="8"/>
       <c r="E75" s="8"/>
       <c r="F75" s="8"/>
       <c r="G75" s="8"/>
       <c t="s" r="H75" s="9">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="I75" s="9"/>
       <c r="J75" s="9"/>
@@ -3782,11 +3782,11 @@
       </c>
       <c r="M75" s="10"/>
       <c t="s" r="N75" s="8">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="O75" s="8"/>
       <c t="s" r="P75" s="11">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c t="s" r="Q75" s="12">
         <v>16</v>
@@ -3798,14 +3798,14 @@
       </c>
       <c r="B76" s="7"/>
       <c t="s" r="C76" s="8">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="D76" s="8"/>
       <c r="E76" s="8"/>
       <c r="F76" s="8"/>
       <c r="G76" s="8"/>
       <c t="s" r="H76" s="9">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="I76" s="9"/>
       <c r="J76" s="9"/>
@@ -3815,11 +3815,11 @@
       </c>
       <c r="M76" s="10"/>
       <c t="s" r="N76" s="8">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="O76" s="8"/>
       <c t="s" r="P76" s="11">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c t="s" r="Q76" s="12">
         <v>18</v>
@@ -3831,7 +3831,7 @@
       </c>
       <c r="B77" s="7"/>
       <c t="s" r="C77" s="8">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="D77" s="8"/>
       <c r="E77" s="8"/>
@@ -3848,11 +3848,11 @@
       </c>
       <c r="M77" s="10"/>
       <c t="s" r="N77" s="8">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="O77" s="8"/>
       <c t="s" r="P77" s="11">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c t="s" r="Q77" s="12">
         <v>16</v>
@@ -3864,7 +3864,7 @@
       </c>
       <c r="B78" s="7"/>
       <c t="s" r="C78" s="8">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="D78" s="8"/>
       <c r="E78" s="8"/>
@@ -3881,11 +3881,11 @@
       </c>
       <c r="M78" s="10"/>
       <c t="s" r="N78" s="8">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="O78" s="8"/>
       <c t="s" r="P78" s="11">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c t="s" r="Q78" s="12">
         <v>18</v>
@@ -3897,7 +3897,7 @@
       </c>
       <c r="B79" s="7"/>
       <c t="s" r="C79" s="8">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="D79" s="8"/>
       <c r="E79" s="8"/>
@@ -3914,11 +3914,11 @@
       </c>
       <c r="M79" s="10"/>
       <c t="s" r="N79" s="8">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="O79" s="8"/>
       <c t="s" r="P79" s="11">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c t="s" r="Q79" s="12">
         <v>16</v>
@@ -3930,7 +3930,7 @@
       </c>
       <c r="B80" s="7"/>
       <c t="s" r="C80" s="8">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="D80" s="8"/>
       <c r="E80" s="8"/>
@@ -3947,11 +3947,11 @@
       </c>
       <c r="M80" s="10"/>
       <c t="s" r="N80" s="8">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="O80" s="8"/>
       <c t="s" r="P80" s="11">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c t="s" r="Q80" s="12">
         <v>16</v>
@@ -3963,7 +3963,7 @@
       </c>
       <c r="B81" s="7"/>
       <c t="s" r="C81" s="8">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="D81" s="8"/>
       <c r="E81" s="8"/>
@@ -3980,7 +3980,7 @@
       </c>
       <c r="M81" s="10"/>
       <c t="s" r="N81" s="8">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="O81" s="8"/>
       <c t="s" r="P81" s="11">
@@ -3996,7 +3996,7 @@
       </c>
       <c r="B82" s="7"/>
       <c t="s" r="C82" s="8">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="D82" s="8"/>
       <c r="E82" s="8"/>
@@ -4013,11 +4013,11 @@
       </c>
       <c r="M82" s="10"/>
       <c t="s" r="N82" s="8">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="O82" s="8"/>
       <c t="s" r="P82" s="11">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c t="s" r="Q82" s="12">
         <v>35</v>
@@ -4029,7 +4029,7 @@
       </c>
       <c r="B83" s="7"/>
       <c t="s" r="C83" s="8">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="D83" s="8"/>
       <c r="E83" s="8"/>
@@ -4046,11 +4046,11 @@
       </c>
       <c r="M83" s="10"/>
       <c t="s" r="N83" s="8">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="O83" s="8"/>
       <c t="s" r="P83" s="11">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c t="s" r="Q83" s="12">
         <v>18</v>
@@ -4062,7 +4062,7 @@
       </c>
       <c r="B84" s="7"/>
       <c t="s" r="C84" s="8">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="D84" s="8"/>
       <c r="E84" s="8"/>
@@ -4079,11 +4079,11 @@
       </c>
       <c r="M84" s="10"/>
       <c t="s" r="N84" s="8">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="O84" s="8"/>
       <c t="s" r="P84" s="11">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c t="s" r="Q84" s="12">
         <v>16</v>
@@ -4095,7 +4095,7 @@
       </c>
       <c r="B85" s="7"/>
       <c t="s" r="C85" s="8">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="D85" s="8"/>
       <c r="E85" s="8"/>
@@ -4112,11 +4112,11 @@
       </c>
       <c r="M85" s="10"/>
       <c t="s" r="N85" s="8">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="O85" s="8"/>
       <c t="s" r="P85" s="11">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c t="s" r="Q85" s="12">
         <v>16</v>
@@ -4128,14 +4128,14 @@
       </c>
       <c r="B86" s="7"/>
       <c t="s" r="C86" s="8">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="D86" s="8"/>
       <c r="E86" s="8"/>
       <c r="F86" s="8"/>
       <c r="G86" s="8"/>
       <c t="s" r="H86" s="9">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="I86" s="9"/>
       <c r="J86" s="9"/>
@@ -4145,11 +4145,11 @@
       </c>
       <c r="M86" s="10"/>
       <c t="s" r="N86" s="8">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="O86" s="8"/>
       <c t="s" r="P86" s="11">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c t="s" r="Q86" s="12">
         <v>18</v>
@@ -4161,7 +4161,7 @@
       </c>
       <c r="B87" s="7"/>
       <c t="s" r="C87" s="8">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="D87" s="8"/>
       <c r="E87" s="8"/>
@@ -4178,11 +4178,11 @@
       </c>
       <c r="M87" s="10"/>
       <c t="s" r="N87" s="8">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="O87" s="8"/>
       <c t="s" r="P87" s="11">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c t="s" r="Q87" s="12">
         <v>18</v>
@@ -4194,14 +4194,14 @@
       </c>
       <c r="B88" s="7"/>
       <c t="s" r="C88" s="8">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="D88" s="8"/>
       <c r="E88" s="8"/>
       <c r="F88" s="8"/>
       <c r="G88" s="8"/>
       <c t="s" r="H88" s="9">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="I88" s="9"/>
       <c r="J88" s="9"/>
@@ -4211,11 +4211,11 @@
       </c>
       <c r="M88" s="10"/>
       <c t="s" r="N88" s="8">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="O88" s="8"/>
       <c t="s" r="P88" s="11">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c t="s" r="Q88" s="12">
         <v>16</v>
@@ -4227,7 +4227,7 @@
       </c>
       <c r="B89" s="7"/>
       <c t="s" r="C89" s="8">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="D89" s="8"/>
       <c r="E89" s="8"/>
@@ -4244,11 +4244,11 @@
       </c>
       <c r="M89" s="10"/>
       <c t="s" r="N89" s="8">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="O89" s="8"/>
       <c t="s" r="P89" s="11">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c t="s" r="Q89" s="12">
         <v>16</v>
@@ -4260,7 +4260,7 @@
       </c>
       <c r="B90" s="7"/>
       <c t="s" r="C90" s="8">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="D90" s="8"/>
       <c r="E90" s="8"/>
@@ -4277,11 +4277,11 @@
       </c>
       <c r="M90" s="10"/>
       <c t="s" r="N90" s="8">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="O90" s="8"/>
       <c t="s" r="P90" s="11">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c t="s" r="Q90" s="12">
         <v>18</v>
@@ -4293,7 +4293,7 @@
       </c>
       <c r="B91" s="7"/>
       <c t="s" r="C91" s="8">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="D91" s="8"/>
       <c r="E91" s="8"/>
@@ -4310,11 +4310,11 @@
       </c>
       <c r="M91" s="10"/>
       <c t="s" r="N91" s="8">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="O91" s="8"/>
       <c t="s" r="P91" s="11">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c t="s" r="Q91" s="12">
         <v>16</v>
@@ -4326,7 +4326,7 @@
       </c>
       <c r="B92" s="7"/>
       <c t="s" r="C92" s="8">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="D92" s="8"/>
       <c r="E92" s="8"/>
@@ -4343,11 +4343,11 @@
       </c>
       <c r="M92" s="10"/>
       <c t="s" r="N92" s="8">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="O92" s="8"/>
       <c t="s" r="P92" s="11">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c t="s" r="Q92" s="12">
         <v>16</v>
@@ -4359,28 +4359,28 @@
       </c>
       <c r="B93" s="7"/>
       <c t="s" r="C93" s="8">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="D93" s="8"/>
       <c r="E93" s="8"/>
       <c r="F93" s="8"/>
       <c r="G93" s="8"/>
       <c t="s" r="H93" s="9">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="I93" s="9"/>
       <c r="J93" s="9"/>
       <c r="K93" s="9"/>
       <c t="s" r="L93" s="10">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="M93" s="10"/>
       <c t="s" r="N93" s="8">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="O93" s="8"/>
       <c t="s" r="P93" s="11">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c t="s" r="Q93" s="12">
         <v>39</v>
@@ -4392,7 +4392,7 @@
       </c>
       <c r="B94" s="7"/>
       <c t="s" r="C94" s="8">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="D94" s="8"/>
       <c r="E94" s="8"/>
@@ -4405,15 +4405,15 @@
       <c r="J94" s="9"/>
       <c r="K94" s="9"/>
       <c t="s" r="L94" s="10">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="M94" s="10"/>
       <c t="s" r="N94" s="8">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="O94" s="8"/>
       <c t="s" r="P94" s="11">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c t="s" r="Q94" s="12">
         <v>18</v>
@@ -4425,7 +4425,7 @@
       </c>
       <c r="B95" s="7"/>
       <c t="s" r="C95" s="8">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="D95" s="8"/>
       <c r="E95" s="8"/>
@@ -4438,15 +4438,15 @@
       <c r="J95" s="9"/>
       <c r="K95" s="9"/>
       <c t="s" r="L95" s="10">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="M95" s="10"/>
       <c t="s" r="N95" s="8">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="O95" s="8"/>
       <c t="s" r="P95" s="11">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c t="s" r="Q95" s="12">
         <v>22</v>
@@ -4458,7 +4458,7 @@
       </c>
       <c r="B96" s="7"/>
       <c t="s" r="C96" s="8">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="D96" s="8"/>
       <c r="E96" s="8"/>
@@ -4471,15 +4471,15 @@
       <c r="J96" s="9"/>
       <c r="K96" s="9"/>
       <c t="s" r="L96" s="10">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="M96" s="10"/>
       <c t="s" r="N96" s="8">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="O96" s="8"/>
       <c t="s" r="P96" s="11">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c t="s" r="Q96" s="12">
         <v>18</v>
@@ -4491,28 +4491,28 @@
       </c>
       <c r="B97" s="7"/>
       <c t="s" r="C97" s="8">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="D97" s="8"/>
       <c r="E97" s="8"/>
       <c r="F97" s="8"/>
       <c r="G97" s="8"/>
       <c t="s" r="H97" s="9">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="I97" s="9"/>
       <c r="J97" s="9"/>
       <c r="K97" s="9"/>
       <c t="s" r="L97" s="10">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="M97" s="10"/>
       <c t="s" r="N97" s="8">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="O97" s="8"/>
       <c t="s" r="P97" s="11">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c t="s" r="Q97" s="12">
         <v>22</v>
@@ -4524,7 +4524,7 @@
       </c>
       <c r="B98" s="7"/>
       <c t="s" r="C98" s="8">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="D98" s="8"/>
       <c r="E98" s="8"/>
@@ -4537,18 +4537,18 @@
       <c r="J98" s="9"/>
       <c r="K98" s="9"/>
       <c t="s" r="L98" s="10">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="M98" s="10"/>
       <c t="s" r="N98" s="8">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="O98" s="8"/>
       <c t="s" r="P98" s="11">
+        <v>261</v>
+      </c>
+      <c t="s" r="Q98" s="12">
         <v>262</v>
-      </c>
-      <c t="s" r="Q98" s="12">
-        <v>39</v>
       </c>
     </row>
     <row r="99" ht="25.5" customHeight="1">
@@ -4570,7 +4570,7 @@
       <c r="J99" s="9"/>
       <c r="K99" s="9"/>
       <c t="s" r="L99" s="10">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="M99" s="10"/>
       <c t="s" r="N99" s="8">
@@ -4578,7 +4578,7 @@
       </c>
       <c r="O99" s="8"/>
       <c t="s" r="P99" s="11">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c t="s" r="Q99" s="12">
         <v>265</v>
@@ -4603,15 +4603,15 @@
       <c r="J100" s="9"/>
       <c r="K100" s="9"/>
       <c t="s" r="L100" s="10">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="M100" s="10"/>
       <c t="s" r="N100" s="8">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="O100" s="8"/>
       <c t="s" r="P100" s="11">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c t="s" r="Q100" s="12">
         <v>22</v>
@@ -4636,15 +4636,15 @@
       <c r="J101" s="9"/>
       <c r="K101" s="9"/>
       <c t="s" r="L101" s="10">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="M101" s="10"/>
       <c t="s" r="N101" s="8">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="O101" s="8"/>
       <c t="s" r="P101" s="11">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c t="s" r="Q101" s="12">
         <v>18</v>
@@ -4669,11 +4669,11 @@
       <c r="J102" s="9"/>
       <c r="K102" s="9"/>
       <c t="s" r="L102" s="10">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="M102" s="10"/>
       <c t="s" r="N102" s="8">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="O102" s="8"/>
       <c t="s" r="P102" s="11">
@@ -4702,7 +4702,7 @@
       <c r="J103" s="9"/>
       <c r="K103" s="9"/>
       <c t="s" r="L103" s="10">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="M103" s="10"/>
       <c t="s" r="N103" s="8">
@@ -4710,7 +4710,7 @@
       </c>
       <c r="O103" s="8"/>
       <c t="s" r="P103" s="11">
-        <v>262</v>
+        <v>273</v>
       </c>
       <c t="s" r="Q103" s="12">
         <v>18</v>
@@ -4722,7 +4722,7 @@
       </c>
       <c r="B104" s="7"/>
       <c t="s" r="C104" s="8">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="D104" s="8"/>
       <c r="E104" s="8"/>
@@ -4735,15 +4735,15 @@
       <c r="J104" s="9"/>
       <c r="K104" s="9"/>
       <c t="s" r="L104" s="10">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="M104" s="10"/>
       <c t="s" r="N104" s="8">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="O104" s="8"/>
       <c t="s" r="P104" s="11">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c t="s" r="Q104" s="12">
         <v>18</v>
@@ -4755,31 +4755,31 @@
       </c>
       <c r="B105" s="7"/>
       <c t="s" r="C105" s="8">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="D105" s="8"/>
       <c r="E105" s="8"/>
       <c r="F105" s="8"/>
       <c r="G105" s="8"/>
       <c t="s" r="H105" s="9">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="I105" s="9"/>
       <c r="J105" s="9"/>
       <c r="K105" s="9"/>
       <c t="s" r="L105" s="10">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="M105" s="10"/>
       <c t="s" r="N105" s="8">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="O105" s="8"/>
       <c t="s" r="P105" s="11">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c t="s" r="Q105" s="12">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="106" ht="25.5" customHeight="1">
@@ -4788,28 +4788,28 @@
       </c>
       <c r="B106" s="7"/>
       <c t="s" r="C106" s="8">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="D106" s="8"/>
       <c r="E106" s="8"/>
       <c r="F106" s="8"/>
       <c r="G106" s="8"/>
       <c t="s" r="H106" s="9">
-        <v>280</v>
+        <v>262</v>
       </c>
       <c r="I106" s="9"/>
       <c r="J106" s="9"/>
       <c r="K106" s="9"/>
       <c t="s" r="L106" s="10">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="M106" s="10"/>
       <c t="s" r="N106" s="8">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="O106" s="8"/>
       <c t="s" r="P106" s="11">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c t="s" r="Q106" s="12">
         <v>18</v>
@@ -4834,11 +4834,11 @@
       <c r="J107" s="9"/>
       <c r="K107" s="9"/>
       <c t="s" r="L107" s="10">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="M107" s="10"/>
       <c t="s" r="N107" s="8">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="O107" s="8"/>
       <c t="s" r="P107" s="11">
@@ -4867,7 +4867,7 @@
       <c r="J108" s="9"/>
       <c r="K108" s="9"/>
       <c t="s" r="L108" s="10">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="M108" s="10"/>
       <c t="s" r="N108" s="8">
@@ -4894,13 +4894,13 @@
       <c r="F109" s="8"/>
       <c r="G109" s="8"/>
       <c t="s" r="H109" s="9">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="I109" s="9"/>
       <c r="J109" s="9"/>
       <c r="K109" s="9"/>
       <c t="s" r="L109" s="10">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="M109" s="10"/>
       <c t="s" r="N109" s="8">
@@ -4933,7 +4933,7 @@
       <c r="J110" s="9"/>
       <c r="K110" s="9"/>
       <c t="s" r="L110" s="10">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="M110" s="10"/>
       <c t="s" r="N110" s="8">
@@ -4966,15 +4966,15 @@
       <c r="J111" s="9"/>
       <c r="K111" s="9"/>
       <c t="s" r="L111" s="10">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="M111" s="10"/>
       <c t="s" r="N111" s="8">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="O111" s="8"/>
       <c t="s" r="P111" s="11">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c t="s" r="Q111" s="12">
         <v>18</v>
@@ -4982,7 +4982,7 @@
     </row>
     <row r="112" ht="25.5" customHeight="1">
       <c r="P112" s="13">
-        <v>6439.0150000000003</v>
+        <v>6747.0150000000003</v>
       </c>
       <c r="Q112" s="13"/>
     </row>

--- a/DaySale_2025-08-08_00-00.xlsx
+++ b/DaySale_2025-08-08_00-00.xlsx
@@ -602,6 +602,9 @@
     <t>58.0000</t>
   </si>
   <si>
+    <t>REVI 2 CREAM 50 GM</t>
+  </si>
+  <si>
     <t>ROWATINEX 45 CAPSULES</t>
   </si>
   <si>
@@ -887,7 +890,7 @@
     <t>مناديل بكر فاين</t>
   </si>
   <si>
-    <t>Friday, 8 August, 2025 9:57 PM</t>
+    <t>Friday, 8 August, 2025 9:58 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -3607,7 +3610,7 @@
       <c r="F70" s="8"/>
       <c r="G70" s="8"/>
       <c t="s" r="H70" s="9">
-        <v>198</v>
+        <v>45</v>
       </c>
       <c r="I70" s="9"/>
       <c r="J70" s="9"/>
@@ -3617,14 +3620,14 @@
       </c>
       <c r="M70" s="10"/>
       <c t="s" r="N70" s="8">
-        <v>153</v>
+        <v>132</v>
       </c>
       <c r="O70" s="8"/>
       <c t="s" r="P70" s="11">
-        <v>85</v>
+        <v>133</v>
       </c>
       <c t="s" r="Q70" s="12">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="71" ht="25.5" customHeight="1">
@@ -3633,14 +3636,14 @@
       </c>
       <c r="B71" s="7"/>
       <c t="s" r="C71" s="8">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="D71" s="8"/>
       <c r="E71" s="8"/>
       <c r="F71" s="8"/>
       <c r="G71" s="8"/>
       <c t="s" r="H71" s="9">
-        <v>30</v>
+        <v>199</v>
       </c>
       <c r="I71" s="9"/>
       <c r="J71" s="9"/>
@@ -3650,14 +3653,14 @@
       </c>
       <c r="M71" s="10"/>
       <c t="s" r="N71" s="8">
-        <v>99</v>
+        <v>153</v>
       </c>
       <c r="O71" s="8"/>
       <c t="s" r="P71" s="11">
-        <v>200</v>
+        <v>85</v>
       </c>
       <c t="s" r="Q71" s="12">
-        <v>33</v>
+        <v>16</v>
       </c>
     </row>
     <row r="72" ht="25.5" customHeight="1">
@@ -3666,14 +3669,14 @@
       </c>
       <c r="B72" s="7"/>
       <c t="s" r="C72" s="8">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="D72" s="8"/>
       <c r="E72" s="8"/>
       <c r="F72" s="8"/>
       <c r="G72" s="8"/>
       <c t="s" r="H72" s="9">
-        <v>70</v>
+        <v>30</v>
       </c>
       <c r="I72" s="9"/>
       <c r="J72" s="9"/>
@@ -3683,14 +3686,14 @@
       </c>
       <c r="M72" s="10"/>
       <c t="s" r="N72" s="8">
-        <v>27</v>
+        <v>99</v>
       </c>
       <c r="O72" s="8"/>
       <c t="s" r="P72" s="11">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c t="s" r="Q72" s="12">
-        <v>35</v>
+        <v>33</v>
       </c>
     </row>
     <row r="73" ht="24.75" customHeight="1">
@@ -3699,14 +3702,14 @@
       </c>
       <c r="B73" s="7"/>
       <c t="s" r="C73" s="8">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="D73" s="8"/>
       <c r="E73" s="8"/>
       <c r="F73" s="8"/>
       <c r="G73" s="8"/>
       <c t="s" r="H73" s="9">
-        <v>30</v>
+        <v>70</v>
       </c>
       <c r="I73" s="9"/>
       <c r="J73" s="9"/>
@@ -3716,14 +3719,14 @@
       </c>
       <c r="M73" s="10"/>
       <c t="s" r="N73" s="8">
-        <v>94</v>
+        <v>27</v>
       </c>
       <c r="O73" s="8"/>
       <c t="s" r="P73" s="11">
-        <v>62</v>
+        <v>203</v>
       </c>
       <c t="s" r="Q73" s="12">
-        <v>18</v>
+        <v>35</v>
       </c>
     </row>
     <row r="74" ht="25.5" customHeight="1">
@@ -3739,7 +3742,7 @@
       <c r="F74" s="8"/>
       <c r="G74" s="8"/>
       <c t="s" r="H74" s="9">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="I74" s="9"/>
       <c r="J74" s="9"/>
@@ -3749,14 +3752,14 @@
       </c>
       <c r="M74" s="10"/>
       <c t="s" r="N74" s="8">
-        <v>40</v>
+        <v>94</v>
       </c>
       <c r="O74" s="8"/>
       <c t="s" r="P74" s="11">
-        <v>41</v>
+        <v>62</v>
       </c>
       <c t="s" r="Q74" s="12">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="75" ht="24.75" customHeight="1">
@@ -3772,7 +3775,7 @@
       <c r="F75" s="8"/>
       <c r="G75" s="8"/>
       <c t="s" r="H75" s="9">
-        <v>206</v>
+        <v>35</v>
       </c>
       <c r="I75" s="9"/>
       <c r="J75" s="9"/>
@@ -3782,11 +3785,11 @@
       </c>
       <c r="M75" s="10"/>
       <c t="s" r="N75" s="8">
-        <v>207</v>
+        <v>40</v>
       </c>
       <c r="O75" s="8"/>
       <c t="s" r="P75" s="11">
-        <v>162</v>
+        <v>41</v>
       </c>
       <c t="s" r="Q75" s="12">
         <v>16</v>
@@ -3798,14 +3801,14 @@
       </c>
       <c r="B76" s="7"/>
       <c t="s" r="C76" s="8">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="D76" s="8"/>
       <c r="E76" s="8"/>
       <c r="F76" s="8"/>
       <c r="G76" s="8"/>
       <c t="s" r="H76" s="9">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="I76" s="9"/>
       <c r="J76" s="9"/>
@@ -3815,14 +3818,14 @@
       </c>
       <c r="M76" s="10"/>
       <c t="s" r="N76" s="8">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="O76" s="8"/>
       <c t="s" r="P76" s="11">
-        <v>210</v>
+        <v>162</v>
       </c>
       <c t="s" r="Q76" s="12">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="77" ht="25.5" customHeight="1">
@@ -3831,14 +3834,14 @@
       </c>
       <c r="B77" s="7"/>
       <c t="s" r="C77" s="8">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="D77" s="8"/>
       <c r="E77" s="8"/>
       <c r="F77" s="8"/>
       <c r="G77" s="8"/>
       <c t="s" r="H77" s="9">
-        <v>16</v>
+        <v>207</v>
       </c>
       <c r="I77" s="9"/>
       <c r="J77" s="9"/>
@@ -3848,14 +3851,14 @@
       </c>
       <c r="M77" s="10"/>
       <c t="s" r="N77" s="8">
-        <v>124</v>
+        <v>210</v>
       </c>
       <c r="O77" s="8"/>
       <c t="s" r="P77" s="11">
-        <v>125</v>
+        <v>211</v>
       </c>
       <c t="s" r="Q77" s="12">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="78" ht="24.75" customHeight="1">
@@ -3871,7 +3874,7 @@
       <c r="F78" s="8"/>
       <c r="G78" s="8"/>
       <c t="s" r="H78" s="9">
-        <v>45</v>
+        <v>16</v>
       </c>
       <c r="I78" s="9"/>
       <c r="J78" s="9"/>
@@ -3881,14 +3884,14 @@
       </c>
       <c r="M78" s="10"/>
       <c t="s" r="N78" s="8">
-        <v>213</v>
+        <v>124</v>
       </c>
       <c r="O78" s="8"/>
       <c t="s" r="P78" s="11">
-        <v>214</v>
+        <v>125</v>
       </c>
       <c t="s" r="Q78" s="12">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="79" ht="25.5" customHeight="1">
@@ -3897,14 +3900,14 @@
       </c>
       <c r="B79" s="7"/>
       <c t="s" r="C79" s="8">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="D79" s="8"/>
       <c r="E79" s="8"/>
       <c r="F79" s="8"/>
       <c r="G79" s="8"/>
       <c t="s" r="H79" s="9">
-        <v>35</v>
+        <v>45</v>
       </c>
       <c r="I79" s="9"/>
       <c r="J79" s="9"/>
@@ -3914,14 +3917,14 @@
       </c>
       <c r="M79" s="10"/>
       <c t="s" r="N79" s="8">
-        <v>207</v>
+        <v>214</v>
       </c>
       <c r="O79" s="8"/>
       <c t="s" r="P79" s="11">
-        <v>162</v>
+        <v>215</v>
       </c>
       <c t="s" r="Q79" s="12">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="80" ht="24.75" customHeight="1">
@@ -3947,11 +3950,11 @@
       </c>
       <c r="M80" s="10"/>
       <c t="s" r="N80" s="8">
-        <v>217</v>
+        <v>208</v>
       </c>
       <c r="O80" s="8"/>
       <c t="s" r="P80" s="11">
-        <v>218</v>
+        <v>162</v>
       </c>
       <c t="s" r="Q80" s="12">
         <v>16</v>
@@ -3963,14 +3966,14 @@
       </c>
       <c r="B81" s="7"/>
       <c t="s" r="C81" s="8">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="D81" s="8"/>
       <c r="E81" s="8"/>
       <c r="F81" s="8"/>
       <c r="G81" s="8"/>
       <c t="s" r="H81" s="9">
-        <v>22</v>
+        <v>35</v>
       </c>
       <c r="I81" s="9"/>
       <c r="J81" s="9"/>
@@ -3980,14 +3983,14 @@
       </c>
       <c r="M81" s="10"/>
       <c t="s" r="N81" s="8">
-        <v>121</v>
+        <v>218</v>
       </c>
       <c r="O81" s="8"/>
       <c t="s" r="P81" s="11">
-        <v>37</v>
+        <v>219</v>
       </c>
       <c t="s" r="Q81" s="12">
-        <v>22</v>
+        <v>16</v>
       </c>
     </row>
     <row r="82" ht="25.5" customHeight="1">
@@ -4003,7 +4006,7 @@
       <c r="F82" s="8"/>
       <c r="G82" s="8"/>
       <c t="s" r="H82" s="9">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="I82" s="9"/>
       <c r="J82" s="9"/>
@@ -4013,14 +4016,14 @@
       </c>
       <c r="M82" s="10"/>
       <c t="s" r="N82" s="8">
-        <v>221</v>
+        <v>121</v>
       </c>
       <c r="O82" s="8"/>
       <c t="s" r="P82" s="11">
-        <v>222</v>
+        <v>37</v>
       </c>
       <c t="s" r="Q82" s="12">
-        <v>35</v>
+        <v>22</v>
       </c>
     </row>
     <row r="83" ht="24.75" customHeight="1">
@@ -4029,14 +4032,14 @@
       </c>
       <c r="B83" s="7"/>
       <c t="s" r="C83" s="8">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="D83" s="8"/>
       <c r="E83" s="8"/>
       <c r="F83" s="8"/>
       <c r="G83" s="8"/>
       <c t="s" r="H83" s="9">
-        <v>45</v>
+        <v>18</v>
       </c>
       <c r="I83" s="9"/>
       <c r="J83" s="9"/>
@@ -4046,14 +4049,14 @@
       </c>
       <c r="M83" s="10"/>
       <c t="s" r="N83" s="8">
-        <v>121</v>
+        <v>222</v>
       </c>
       <c r="O83" s="8"/>
       <c t="s" r="P83" s="11">
-        <v>122</v>
+        <v>223</v>
       </c>
       <c t="s" r="Q83" s="12">
-        <v>18</v>
+        <v>35</v>
       </c>
     </row>
     <row r="84" ht="25.5" customHeight="1">
@@ -4069,7 +4072,7 @@
       <c r="F84" s="8"/>
       <c r="G84" s="8"/>
       <c t="s" r="H84" s="9">
-        <v>33</v>
+        <v>45</v>
       </c>
       <c r="I84" s="9"/>
       <c r="J84" s="9"/>
@@ -4079,14 +4082,14 @@
       </c>
       <c r="M84" s="10"/>
       <c t="s" r="N84" s="8">
-        <v>225</v>
+        <v>121</v>
       </c>
       <c r="O84" s="8"/>
       <c t="s" r="P84" s="11">
-        <v>226</v>
+        <v>122</v>
       </c>
       <c t="s" r="Q84" s="12">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="85" ht="24.75" customHeight="1">
@@ -4095,14 +4098,14 @@
       </c>
       <c r="B85" s="7"/>
       <c t="s" r="C85" s="8">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="D85" s="8"/>
       <c r="E85" s="8"/>
       <c r="F85" s="8"/>
       <c r="G85" s="8"/>
       <c t="s" r="H85" s="9">
-        <v>45</v>
+        <v>33</v>
       </c>
       <c r="I85" s="9"/>
       <c r="J85" s="9"/>
@@ -4112,11 +4115,11 @@
       </c>
       <c r="M85" s="10"/>
       <c t="s" r="N85" s="8">
-        <v>84</v>
+        <v>226</v>
       </c>
       <c r="O85" s="8"/>
       <c t="s" r="P85" s="11">
-        <v>146</v>
+        <v>227</v>
       </c>
       <c t="s" r="Q85" s="12">
         <v>16</v>
@@ -4135,7 +4138,7 @@
       <c r="F86" s="8"/>
       <c r="G86" s="8"/>
       <c t="s" r="H86" s="9">
-        <v>93</v>
+        <v>45</v>
       </c>
       <c r="I86" s="9"/>
       <c r="J86" s="9"/>
@@ -4145,14 +4148,14 @@
       </c>
       <c r="M86" s="10"/>
       <c t="s" r="N86" s="8">
-        <v>229</v>
+        <v>84</v>
       </c>
       <c r="O86" s="8"/>
       <c t="s" r="P86" s="11">
-        <v>230</v>
+        <v>146</v>
       </c>
       <c t="s" r="Q86" s="12">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="87" ht="25.5" customHeight="1">
@@ -4161,14 +4164,14 @@
       </c>
       <c r="B87" s="7"/>
       <c t="s" r="C87" s="8">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="D87" s="8"/>
       <c r="E87" s="8"/>
       <c r="F87" s="8"/>
       <c r="G87" s="8"/>
       <c t="s" r="H87" s="9">
-        <v>45</v>
+        <v>93</v>
       </c>
       <c r="I87" s="9"/>
       <c r="J87" s="9"/>
@@ -4178,11 +4181,11 @@
       </c>
       <c r="M87" s="10"/>
       <c t="s" r="N87" s="8">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="O87" s="8"/>
       <c t="s" r="P87" s="11">
-        <v>162</v>
+        <v>231</v>
       </c>
       <c t="s" r="Q87" s="12">
         <v>18</v>
@@ -4194,14 +4197,14 @@
       </c>
       <c r="B88" s="7"/>
       <c t="s" r="C88" s="8">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="D88" s="8"/>
       <c r="E88" s="8"/>
       <c r="F88" s="8"/>
       <c r="G88" s="8"/>
       <c t="s" r="H88" s="9">
-        <v>111</v>
+        <v>45</v>
       </c>
       <c r="I88" s="9"/>
       <c r="J88" s="9"/>
@@ -4211,14 +4214,14 @@
       </c>
       <c r="M88" s="10"/>
       <c t="s" r="N88" s="8">
-        <v>124</v>
+        <v>233</v>
       </c>
       <c r="O88" s="8"/>
       <c t="s" r="P88" s="11">
-        <v>234</v>
+        <v>162</v>
       </c>
       <c t="s" r="Q88" s="12">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="89" ht="25.5" customHeight="1">
@@ -4227,14 +4230,14 @@
       </c>
       <c r="B89" s="7"/>
       <c t="s" r="C89" s="8">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="D89" s="8"/>
       <c r="E89" s="8"/>
       <c r="F89" s="8"/>
       <c r="G89" s="8"/>
       <c t="s" r="H89" s="9">
-        <v>18</v>
+        <v>111</v>
       </c>
       <c r="I89" s="9"/>
       <c r="J89" s="9"/>
@@ -4248,7 +4251,7 @@
       </c>
       <c r="O89" s="8"/>
       <c t="s" r="P89" s="11">
-        <v>125</v>
+        <v>235</v>
       </c>
       <c t="s" r="Q89" s="12">
         <v>16</v>
@@ -4267,7 +4270,7 @@
       <c r="F90" s="8"/>
       <c r="G90" s="8"/>
       <c t="s" r="H90" s="9">
-        <v>45</v>
+        <v>18</v>
       </c>
       <c r="I90" s="9"/>
       <c r="J90" s="9"/>
@@ -4277,14 +4280,14 @@
       </c>
       <c r="M90" s="10"/>
       <c t="s" r="N90" s="8">
-        <v>237</v>
+        <v>124</v>
       </c>
       <c r="O90" s="8"/>
       <c t="s" r="P90" s="11">
-        <v>238</v>
+        <v>125</v>
       </c>
       <c t="s" r="Q90" s="12">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="91" ht="25.5" customHeight="1">
@@ -4293,14 +4296,14 @@
       </c>
       <c r="B91" s="7"/>
       <c t="s" r="C91" s="8">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="D91" s="8"/>
       <c r="E91" s="8"/>
       <c r="F91" s="8"/>
       <c r="G91" s="8"/>
       <c t="s" r="H91" s="9">
-        <v>33</v>
+        <v>45</v>
       </c>
       <c r="I91" s="9"/>
       <c r="J91" s="9"/>
@@ -4310,14 +4313,14 @@
       </c>
       <c r="M91" s="10"/>
       <c t="s" r="N91" s="8">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="O91" s="8"/>
       <c t="s" r="P91" s="11">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c t="s" r="Q91" s="12">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="92" ht="25.5" customHeight="1">
@@ -4326,14 +4329,14 @@
       </c>
       <c r="B92" s="7"/>
       <c t="s" r="C92" s="8">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="D92" s="8"/>
       <c r="E92" s="8"/>
       <c r="F92" s="8"/>
       <c r="G92" s="8"/>
       <c t="s" r="H92" s="9">
-        <v>16</v>
+        <v>33</v>
       </c>
       <c r="I92" s="9"/>
       <c r="J92" s="9"/>
@@ -4343,11 +4346,11 @@
       </c>
       <c r="M92" s="10"/>
       <c t="s" r="N92" s="8">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="O92" s="8"/>
       <c t="s" r="P92" s="11">
-        <v>186</v>
+        <v>242</v>
       </c>
       <c t="s" r="Q92" s="12">
         <v>16</v>
@@ -4359,31 +4362,31 @@
       </c>
       <c r="B93" s="7"/>
       <c t="s" r="C93" s="8">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="D93" s="8"/>
       <c r="E93" s="8"/>
       <c r="F93" s="8"/>
       <c r="G93" s="8"/>
       <c t="s" r="H93" s="9">
-        <v>245</v>
+        <v>16</v>
       </c>
       <c r="I93" s="9"/>
       <c r="J93" s="9"/>
       <c r="K93" s="9"/>
       <c t="s" r="L93" s="10">
-        <v>164</v>
+        <v>13</v>
       </c>
       <c r="M93" s="10"/>
       <c t="s" r="N93" s="8">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="O93" s="8"/>
       <c t="s" r="P93" s="11">
-        <v>173</v>
+        <v>186</v>
       </c>
       <c t="s" r="Q93" s="12">
-        <v>39</v>
+        <v>16</v>
       </c>
     </row>
     <row r="94" ht="25.5" customHeight="1">
@@ -4392,14 +4395,14 @@
       </c>
       <c r="B94" s="7"/>
       <c t="s" r="C94" s="8">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="D94" s="8"/>
       <c r="E94" s="8"/>
       <c r="F94" s="8"/>
       <c r="G94" s="8"/>
       <c t="s" r="H94" s="9">
-        <v>39</v>
+        <v>246</v>
       </c>
       <c r="I94" s="9"/>
       <c r="J94" s="9"/>
@@ -4409,14 +4412,14 @@
       </c>
       <c r="M94" s="10"/>
       <c t="s" r="N94" s="8">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="O94" s="8"/>
       <c t="s" r="P94" s="11">
-        <v>249</v>
+        <v>173</v>
       </c>
       <c t="s" r="Q94" s="12">
-        <v>18</v>
+        <v>39</v>
       </c>
     </row>
     <row r="95" ht="24.75" customHeight="1">
@@ -4425,14 +4428,14 @@
       </c>
       <c r="B95" s="7"/>
       <c t="s" r="C95" s="8">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="D95" s="8"/>
       <c r="E95" s="8"/>
       <c r="F95" s="8"/>
       <c r="G95" s="8"/>
       <c t="s" r="H95" s="9">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="I95" s="9"/>
       <c r="J95" s="9"/>
@@ -4442,14 +4445,14 @@
       </c>
       <c r="M95" s="10"/>
       <c t="s" r="N95" s="8">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="O95" s="8"/>
       <c t="s" r="P95" s="11">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c t="s" r="Q95" s="12">
-        <v>22</v>
+        <v>18</v>
       </c>
     </row>
     <row r="96" ht="25.5" customHeight="1">
@@ -4458,14 +4461,14 @@
       </c>
       <c r="B96" s="7"/>
       <c t="s" r="C96" s="8">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="D96" s="8"/>
       <c r="E96" s="8"/>
       <c r="F96" s="8"/>
       <c r="G96" s="8"/>
       <c t="s" r="H96" s="9">
-        <v>18</v>
+        <v>45</v>
       </c>
       <c r="I96" s="9"/>
       <c r="J96" s="9"/>
@@ -4475,14 +4478,14 @@
       </c>
       <c r="M96" s="10"/>
       <c t="s" r="N96" s="8">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="O96" s="8"/>
       <c t="s" r="P96" s="11">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c t="s" r="Q96" s="12">
-        <v>18</v>
+        <v>22</v>
       </c>
     </row>
     <row r="97" ht="25.5" customHeight="1">
@@ -4491,14 +4494,14 @@
       </c>
       <c r="B97" s="7"/>
       <c t="s" r="C97" s="8">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="D97" s="8"/>
       <c r="E97" s="8"/>
       <c r="F97" s="8"/>
       <c r="G97" s="8"/>
       <c t="s" r="H97" s="9">
-        <v>257</v>
+        <v>18</v>
       </c>
       <c r="I97" s="9"/>
       <c r="J97" s="9"/>
@@ -4508,14 +4511,14 @@
       </c>
       <c r="M97" s="10"/>
       <c t="s" r="N97" s="8">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="O97" s="8"/>
       <c t="s" r="P97" s="11">
-        <v>165</v>
+        <v>256</v>
       </c>
       <c t="s" r="Q97" s="12">
-        <v>22</v>
+        <v>18</v>
       </c>
     </row>
     <row r="98" ht="24.75" customHeight="1">
@@ -4524,14 +4527,14 @@
       </c>
       <c r="B98" s="7"/>
       <c t="s" r="C98" s="8">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="D98" s="8"/>
       <c r="E98" s="8"/>
       <c r="F98" s="8"/>
       <c r="G98" s="8"/>
       <c t="s" r="H98" s="9">
-        <v>45</v>
+        <v>258</v>
       </c>
       <c r="I98" s="9"/>
       <c r="J98" s="9"/>
@@ -4541,14 +4544,14 @@
       </c>
       <c r="M98" s="10"/>
       <c t="s" r="N98" s="8">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="O98" s="8"/>
       <c t="s" r="P98" s="11">
-        <v>261</v>
+        <v>165</v>
       </c>
       <c t="s" r="Q98" s="12">
-        <v>262</v>
+        <v>22</v>
       </c>
     </row>
     <row r="99" ht="25.5" customHeight="1">
@@ -4557,7 +4560,7 @@
       </c>
       <c r="B99" s="7"/>
       <c t="s" r="C99" s="8">
-        <v>263</v>
+        <v>260</v>
       </c>
       <c r="D99" s="8"/>
       <c r="E99" s="8"/>
@@ -4574,14 +4577,14 @@
       </c>
       <c r="M99" s="10"/>
       <c t="s" r="N99" s="8">
-        <v>264</v>
+        <v>261</v>
       </c>
       <c r="O99" s="8"/>
       <c t="s" r="P99" s="11">
-        <v>100</v>
+        <v>262</v>
       </c>
       <c t="s" r="Q99" s="12">
-        <v>265</v>
+        <v>263</v>
       </c>
     </row>
     <row r="100" ht="24.75" customHeight="1">
@@ -4590,7 +4593,7 @@
       </c>
       <c r="B100" s="7"/>
       <c t="s" r="C100" s="8">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="D100" s="8"/>
       <c r="E100" s="8"/>
@@ -4607,14 +4610,14 @@
       </c>
       <c r="M100" s="10"/>
       <c t="s" r="N100" s="8">
-        <v>251</v>
+        <v>265</v>
       </c>
       <c r="O100" s="8"/>
       <c t="s" r="P100" s="11">
-        <v>252</v>
+        <v>100</v>
       </c>
       <c t="s" r="Q100" s="12">
-        <v>22</v>
+        <v>266</v>
       </c>
     </row>
     <row r="101" ht="25.5" customHeight="1">
@@ -4630,7 +4633,7 @@
       <c r="F101" s="8"/>
       <c r="G101" s="8"/>
       <c t="s" r="H101" s="9">
-        <v>22</v>
+        <v>45</v>
       </c>
       <c r="I101" s="9"/>
       <c r="J101" s="9"/>
@@ -4640,14 +4643,14 @@
       </c>
       <c r="M101" s="10"/>
       <c t="s" r="N101" s="8">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="O101" s="8"/>
       <c t="s" r="P101" s="11">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c t="s" r="Q101" s="12">
-        <v>18</v>
+        <v>22</v>
       </c>
     </row>
     <row r="102" ht="25.5" customHeight="1">
@@ -4663,7 +4666,7 @@
       <c r="F102" s="8"/>
       <c r="G102" s="8"/>
       <c t="s" r="H102" s="9">
-        <v>45</v>
+        <v>22</v>
       </c>
       <c r="I102" s="9"/>
       <c r="J102" s="9"/>
@@ -4673,11 +4676,11 @@
       </c>
       <c r="M102" s="10"/>
       <c t="s" r="N102" s="8">
-        <v>246</v>
+        <v>255</v>
       </c>
       <c r="O102" s="8"/>
       <c t="s" r="P102" s="11">
-        <v>269</v>
+        <v>256</v>
       </c>
       <c t="s" r="Q102" s="12">
         <v>18</v>
@@ -4689,14 +4692,14 @@
       </c>
       <c r="B103" s="7"/>
       <c t="s" r="C103" s="8">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="D103" s="8"/>
       <c r="E103" s="8"/>
       <c r="F103" s="8"/>
       <c r="G103" s="8"/>
       <c t="s" r="H103" s="9">
-        <v>271</v>
+        <v>45</v>
       </c>
       <c r="I103" s="9"/>
       <c r="J103" s="9"/>
@@ -4706,11 +4709,11 @@
       </c>
       <c r="M103" s="10"/>
       <c t="s" r="N103" s="8">
-        <v>272</v>
+        <v>247</v>
       </c>
       <c r="O103" s="8"/>
       <c t="s" r="P103" s="11">
-        <v>273</v>
+        <v>270</v>
       </c>
       <c t="s" r="Q103" s="12">
         <v>18</v>
@@ -4722,14 +4725,14 @@
       </c>
       <c r="B104" s="7"/>
       <c t="s" r="C104" s="8">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="D104" s="8"/>
       <c r="E104" s="8"/>
       <c r="F104" s="8"/>
       <c r="G104" s="8"/>
       <c t="s" r="H104" s="9">
-        <v>39</v>
+        <v>272</v>
       </c>
       <c r="I104" s="9"/>
       <c r="J104" s="9"/>
@@ -4739,11 +4742,11 @@
       </c>
       <c r="M104" s="10"/>
       <c t="s" r="N104" s="8">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="O104" s="8"/>
       <c t="s" r="P104" s="11">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c t="s" r="Q104" s="12">
         <v>18</v>
@@ -4755,14 +4758,14 @@
       </c>
       <c r="B105" s="7"/>
       <c t="s" r="C105" s="8">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="D105" s="8"/>
       <c r="E105" s="8"/>
       <c r="F105" s="8"/>
       <c r="G105" s="8"/>
       <c t="s" r="H105" s="9">
-        <v>278</v>
+        <v>39</v>
       </c>
       <c r="I105" s="9"/>
       <c r="J105" s="9"/>
@@ -4772,14 +4775,14 @@
       </c>
       <c r="M105" s="10"/>
       <c t="s" r="N105" s="8">
-        <v>254</v>
+        <v>276</v>
       </c>
       <c r="O105" s="8"/>
       <c t="s" r="P105" s="11">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c t="s" r="Q105" s="12">
-        <v>83</v>
+        <v>18</v>
       </c>
     </row>
     <row r="106" ht="25.5" customHeight="1">
@@ -4788,14 +4791,14 @@
       </c>
       <c r="B106" s="7"/>
       <c t="s" r="C106" s="8">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="D106" s="8"/>
       <c r="E106" s="8"/>
       <c r="F106" s="8"/>
       <c r="G106" s="8"/>
       <c t="s" r="H106" s="9">
-        <v>262</v>
+        <v>279</v>
       </c>
       <c r="I106" s="9"/>
       <c r="J106" s="9"/>
@@ -4805,14 +4808,14 @@
       </c>
       <c r="M106" s="10"/>
       <c t="s" r="N106" s="8">
-        <v>178</v>
+        <v>255</v>
       </c>
       <c r="O106" s="8"/>
       <c t="s" r="P106" s="11">
-        <v>179</v>
+        <v>280</v>
       </c>
       <c t="s" r="Q106" s="12">
-        <v>18</v>
+        <v>83</v>
       </c>
     </row>
     <row r="107" ht="25.5" customHeight="1">
@@ -4828,7 +4831,7 @@
       <c r="F107" s="8"/>
       <c r="G107" s="8"/>
       <c t="s" r="H107" s="9">
-        <v>45</v>
+        <v>263</v>
       </c>
       <c r="I107" s="9"/>
       <c r="J107" s="9"/>
@@ -4838,14 +4841,14 @@
       </c>
       <c r="M107" s="10"/>
       <c t="s" r="N107" s="8">
-        <v>248</v>
+        <v>178</v>
       </c>
       <c r="O107" s="8"/>
       <c t="s" r="P107" s="11">
-        <v>269</v>
+        <v>179</v>
       </c>
       <c t="s" r="Q107" s="12">
-        <v>22</v>
+        <v>18</v>
       </c>
     </row>
     <row r="108" ht="24.75" customHeight="1">
@@ -4861,7 +4864,7 @@
       <c r="F108" s="8"/>
       <c r="G108" s="8"/>
       <c t="s" r="H108" s="9">
-        <v>18</v>
+        <v>45</v>
       </c>
       <c r="I108" s="9"/>
       <c r="J108" s="9"/>
@@ -4871,14 +4874,14 @@
       </c>
       <c r="M108" s="10"/>
       <c t="s" r="N108" s="8">
-        <v>283</v>
+        <v>249</v>
       </c>
       <c r="O108" s="8"/>
       <c t="s" r="P108" s="11">
-        <v>284</v>
+        <v>270</v>
       </c>
       <c t="s" r="Q108" s="12">
-        <v>18</v>
+        <v>22</v>
       </c>
     </row>
     <row r="109" ht="25.5" customHeight="1">
@@ -4887,14 +4890,14 @@
       </c>
       <c r="B109" s="7"/>
       <c t="s" r="C109" s="8">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="D109" s="8"/>
       <c r="E109" s="8"/>
       <c r="F109" s="8"/>
       <c r="G109" s="8"/>
       <c t="s" r="H109" s="9">
-        <v>257</v>
+        <v>18</v>
       </c>
       <c r="I109" s="9"/>
       <c r="J109" s="9"/>
@@ -4904,11 +4907,11 @@
       </c>
       <c r="M109" s="10"/>
       <c t="s" r="N109" s="8">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="O109" s="8"/>
       <c t="s" r="P109" s="11">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c t="s" r="Q109" s="12">
         <v>18</v>
@@ -4920,14 +4923,14 @@
       </c>
       <c r="B110" s="7"/>
       <c t="s" r="C110" s="8">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="D110" s="8"/>
       <c r="E110" s="8"/>
       <c r="F110" s="8"/>
       <c r="G110" s="8"/>
       <c t="s" r="H110" s="9">
-        <v>45</v>
+        <v>258</v>
       </c>
       <c r="I110" s="9"/>
       <c r="J110" s="9"/>
@@ -4937,11 +4940,11 @@
       </c>
       <c r="M110" s="10"/>
       <c t="s" r="N110" s="8">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="O110" s="8"/>
       <c t="s" r="P110" s="11">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c t="s" r="Q110" s="12">
         <v>18</v>
@@ -4953,14 +4956,14 @@
       </c>
       <c r="B111" s="7"/>
       <c t="s" r="C111" s="8">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="D111" s="8"/>
       <c r="E111" s="8"/>
       <c r="F111" s="8"/>
       <c r="G111" s="8"/>
       <c t="s" r="H111" s="9">
-        <v>22</v>
+        <v>45</v>
       </c>
       <c r="I111" s="9"/>
       <c r="J111" s="9"/>
@@ -4970,49 +4973,82 @@
       </c>
       <c r="M111" s="10"/>
       <c t="s" r="N111" s="8">
-        <v>248</v>
+        <v>290</v>
       </c>
       <c r="O111" s="8"/>
       <c t="s" r="P111" s="11">
+        <v>291</v>
+      </c>
+      <c t="s" r="Q111" s="12">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="112" ht="25.5" customHeight="1">
+      <c r="A112" s="7">
+        <v>106</v>
+      </c>
+      <c r="B112" s="7"/>
+      <c t="s" r="C112" s="8">
+        <v>292</v>
+      </c>
+      <c r="D112" s="8"/>
+      <c r="E112" s="8"/>
+      <c r="F112" s="8"/>
+      <c r="G112" s="8"/>
+      <c t="s" r="H112" s="9">
+        <v>22</v>
+      </c>
+      <c r="I112" s="9"/>
+      <c r="J112" s="9"/>
+      <c r="K112" s="9"/>
+      <c t="s" r="L112" s="10">
+        <v>164</v>
+      </c>
+      <c r="M112" s="10"/>
+      <c t="s" r="N112" s="8">
         <v>249</v>
       </c>
-      <c t="s" r="Q111" s="12">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="112" ht="25.5" customHeight="1">
-      <c r="P112" s="13">
-        <v>6747.0150000000003</v>
-      </c>
-      <c r="Q112" s="13"/>
-    </row>
-    <row r="113" ht="16.5" customHeight="1">
-      <c t="s" r="A113" s="14">
-        <v>292</v>
-      </c>
-      <c r="B113" s="14"/>
-      <c r="C113" s="14"/>
-      <c r="D113" s="14"/>
-      <c r="E113" s="14"/>
-      <c r="F113" s="14"/>
-      <c t="s" r="G113" s="15">
+      <c r="O112" s="8"/>
+      <c t="s" r="P112" s="11">
+        <v>250</v>
+      </c>
+      <c t="s" r="Q112" s="12">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="113" ht="24.75" customHeight="1">
+      <c r="P113" s="13">
+        <v>6822.0150000000003</v>
+      </c>
+      <c r="Q113" s="13"/>
+    </row>
+    <row r="114" ht="16.5" customHeight="1">
+      <c t="s" r="A114" s="14">
         <v>293</v>
       </c>
-      <c r="H113" s="15"/>
-      <c r="I113" s="15"/>
-      <c r="J113" s="16"/>
-      <c t="s" r="K113" s="17">
+      <c r="B114" s="14"/>
+      <c r="C114" s="14"/>
+      <c r="D114" s="14"/>
+      <c r="E114" s="14"/>
+      <c r="F114" s="14"/>
+      <c t="s" r="G114" s="15">
         <v>294</v>
       </c>
-      <c r="L113" s="17"/>
-      <c r="M113" s="17"/>
-      <c r="N113" s="17"/>
-      <c r="O113" s="17"/>
-      <c r="P113" s="17"/>
-      <c r="Q113" s="17"/>
+      <c r="H114" s="15"/>
+      <c r="I114" s="15"/>
+      <c r="J114" s="16"/>
+      <c t="s" r="K114" s="17">
+        <v>295</v>
+      </c>
+      <c r="L114" s="17"/>
+      <c r="M114" s="17"/>
+      <c r="N114" s="17"/>
+      <c r="O114" s="17"/>
+      <c r="P114" s="17"/>
+      <c r="Q114" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="537">
+  <mergeCells count="542">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -5546,10 +5582,15 @@
     <mergeCell ref="H111:K111"/>
     <mergeCell ref="L111:M111"/>
     <mergeCell ref="N111:O111"/>
-    <mergeCell ref="P112:Q112"/>
-    <mergeCell ref="A113:F113"/>
-    <mergeCell ref="G113:I113"/>
-    <mergeCell ref="K113:Q113"/>
+    <mergeCell ref="A112:B112"/>
+    <mergeCell ref="C112:G112"/>
+    <mergeCell ref="H112:K112"/>
+    <mergeCell ref="L112:M112"/>
+    <mergeCell ref="N112:O112"/>
+    <mergeCell ref="P113:Q113"/>
+    <mergeCell ref="A114:F114"/>
+    <mergeCell ref="G114:I114"/>
+    <mergeCell ref="K114:Q114"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-08-08_00-00.xlsx
+++ b/DaySale_2025-08-08_00-00.xlsx
@@ -890,7 +890,7 @@
     <t>مناديل بكر فاين</t>
   </si>
   <si>
-    <t>Friday, 8 August, 2025 9:58 PM</t>
+    <t>Friday, 8 August, 2025 10:01 PM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-08-08_00-00.xlsx
+++ b/DaySale_2025-08-08_00-00.xlsx
@@ -65,15 +65,15 @@
     <t>ALVERINSPASM 24 S.G.CAPS.</t>
   </si>
   <si>
+    <t>74.00</t>
+  </si>
+  <si>
+    <t>74.0000</t>
+  </si>
+  <si>
     <t>1:0</t>
   </si>
   <si>
-    <t>74.00</t>
-  </si>
-  <si>
-    <t>37.0000</t>
-  </si>
-  <si>
     <t>ALZENTAL 20MG/ML SUSP. 20ML</t>
   </si>
   <si>
@@ -101,153 +101,159 @@
     <t>ANTODINE 40MG 30 F.C. TABLETS</t>
   </si>
   <si>
+    <t>1:1</t>
+  </si>
+  <si>
+    <t>93.00</t>
+  </si>
+  <si>
+    <t>92.0700</t>
+  </si>
+  <si>
+    <t>0:3</t>
+  </si>
+  <si>
+    <t>AUGRAM 1GM 14 TABS</t>
+  </si>
+  <si>
+    <t>152.00</t>
+  </si>
+  <si>
+    <t>76.0000</t>
+  </si>
+  <si>
+    <t>BI-PROFENID 150MG 20 SCORED TABS.</t>
+  </si>
+  <si>
+    <t>3:0</t>
+  </si>
+  <si>
+    <t>54.00</t>
+  </si>
+  <si>
+    <t>27.0000</t>
+  </si>
+  <si>
+    <t>BRUFEN 400MG 30 TAB</t>
+  </si>
+  <si>
     <t>1:2</t>
   </si>
   <si>
-    <t>93.00</t>
-  </si>
-  <si>
-    <t>61.3800</t>
+    <t>25.7400</t>
+  </si>
+  <si>
+    <t>CANDALKAN 8MG 14 TAB</t>
+  </si>
+  <si>
+    <t>0:0</t>
+  </si>
+  <si>
+    <t>48.00</t>
+  </si>
+  <si>
+    <t>48.0000</t>
+  </si>
+  <si>
+    <t>CARELYTE 2.4/2.5GM GRANULES 280 MG</t>
+  </si>
+  <si>
+    <t>239.00</t>
+  </si>
+  <si>
+    <t>239.0000</t>
+  </si>
+  <si>
+    <t>CARNIVITA FORTE 30 F.C. TAB</t>
+  </si>
+  <si>
+    <t>177.00</t>
+  </si>
+  <si>
+    <t>58.4100</t>
+  </si>
+  <si>
+    <t>CEFEPIME 1 GM I.M/I.V VIAL</t>
+  </si>
+  <si>
+    <t>6:0</t>
+  </si>
+  <si>
+    <t>73.00</t>
+  </si>
+  <si>
+    <t>438.0000</t>
+  </si>
+  <si>
+    <t>CEFOTAX 1GM I.M./I.V. VIAL - EIPICO</t>
+  </si>
+  <si>
+    <t>43.00</t>
+  </si>
+  <si>
+    <t>43.0000</t>
+  </si>
+  <si>
+    <t>CEPOREX 1GM 8 TABLETS</t>
+  </si>
+  <si>
+    <t>39.0000</t>
+  </si>
+  <si>
+    <t>CIPROFLOXACIN-ORGANO 750 MG 10 TAB</t>
+  </si>
+  <si>
+    <t>89.00</t>
+  </si>
+  <si>
+    <t>89.0000</t>
+  </si>
+  <si>
+    <t>CLARITINE 10MG 20 TAB.</t>
+  </si>
+  <si>
+    <t>110.00</t>
+  </si>
+  <si>
+    <t>55.0000</t>
+  </si>
+  <si>
+    <t>CLAVIMOX 642.9MG/5ML PD. FOR ORAL SUSP. 70ML</t>
+  </si>
+  <si>
+    <t>COLOVATIL 30 F.C. TABS</t>
+  </si>
+  <si>
+    <t>2:2</t>
+  </si>
+  <si>
+    <t>63.00</t>
+  </si>
+  <si>
+    <t>20.7900</t>
+  </si>
+  <si>
+    <t>COLOVERIN D 135MG 30 TAB</t>
+  </si>
+  <si>
+    <t>105.00</t>
+  </si>
+  <si>
+    <t>34.6500</t>
+  </si>
+  <si>
+    <t>CONVENTIN XR 600MG 30 TABS.</t>
+  </si>
+  <si>
+    <t>198.00</t>
+  </si>
+  <si>
+    <t>130.6800</t>
   </si>
   <si>
     <t>0:2</t>
   </si>
   <si>
-    <t>AUGRAM 1GM 14 TABS</t>
-  </si>
-  <si>
-    <t>1:1</t>
-  </si>
-  <si>
-    <t>152.00</t>
-  </si>
-  <si>
-    <t>76.0000</t>
-  </si>
-  <si>
-    <t>BI-PROFENID 150MG 20 SCORED TABS.</t>
-  </si>
-  <si>
-    <t>3:0</t>
-  </si>
-  <si>
-    <t>54.00</t>
-  </si>
-  <si>
-    <t>27.0000</t>
-  </si>
-  <si>
-    <t>BRUFEN 400MG 30 TAB</t>
-  </si>
-  <si>
-    <t>25.7400</t>
-  </si>
-  <si>
-    <t>CANDALKAN 8MG 14 TAB</t>
-  </si>
-  <si>
-    <t>0:0</t>
-  </si>
-  <si>
-    <t>48.00</t>
-  </si>
-  <si>
-    <t>48.0000</t>
-  </si>
-  <si>
-    <t>CARELYTE 2.4/2.5GM GRANULES 280 MG</t>
-  </si>
-  <si>
-    <t>239.00</t>
-  </si>
-  <si>
-    <t>239.0000</t>
-  </si>
-  <si>
-    <t>CARNIVITA FORTE 30 F.C. TAB</t>
-  </si>
-  <si>
-    <t>177.00</t>
-  </si>
-  <si>
-    <t>58.4100</t>
-  </si>
-  <si>
-    <t>CEFEPIME 1 GM I.M/I.V VIAL</t>
-  </si>
-  <si>
-    <t>6:0</t>
-  </si>
-  <si>
-    <t>73.00</t>
-  </si>
-  <si>
-    <t>438.0000</t>
-  </si>
-  <si>
-    <t>CEFOTAX 1GM I.M./I.V. VIAL - EIPICO</t>
-  </si>
-  <si>
-    <t>43.00</t>
-  </si>
-  <si>
-    <t>43.0000</t>
-  </si>
-  <si>
-    <t>CEPOREX 1GM 8 TABLETS</t>
-  </si>
-  <si>
-    <t>39.0000</t>
-  </si>
-  <si>
-    <t>CIPROFLOXACIN-ORGANO 750 MG 10 TAB</t>
-  </si>
-  <si>
-    <t>89.00</t>
-  </si>
-  <si>
-    <t>89.0000</t>
-  </si>
-  <si>
-    <t>CLARITINE 10MG 20 TAB.</t>
-  </si>
-  <si>
-    <t>110.00</t>
-  </si>
-  <si>
-    <t>55.0000</t>
-  </si>
-  <si>
-    <t>COLOVATIL 30 F.C. TABS</t>
-  </si>
-  <si>
-    <t>2:2</t>
-  </si>
-  <si>
-    <t>63.00</t>
-  </si>
-  <si>
-    <t>20.7900</t>
-  </si>
-  <si>
-    <t>COLOVERIN D 135MG 30 TAB</t>
-  </si>
-  <si>
-    <t>105.00</t>
-  </si>
-  <si>
-    <t>34.6500</t>
-  </si>
-  <si>
-    <t>CONVENTIN XR 600MG 30 TABS.</t>
-  </si>
-  <si>
-    <t>198.00</t>
-  </si>
-  <si>
-    <t>130.6800</t>
-  </si>
-  <si>
     <t>DANSET 8MG/4ML 3 AMP.</t>
   </si>
   <si>
@@ -671,6 +677,15 @@
     <t>16.3350</t>
   </si>
   <si>
+    <t>TUSSKAN SYRUP 100 ML</t>
+  </si>
+  <si>
+    <t>24.00</t>
+  </si>
+  <si>
+    <t>24.0000</t>
+  </si>
+  <si>
     <t>URAID-N EFF. GRANUL. 12 SACHETS</t>
   </si>
   <si>
@@ -746,6 +761,18 @@
     <t>104.00</t>
   </si>
   <si>
+    <t>WATER FOR INJECTION AMP. 5 ML</t>
+  </si>
+  <si>
+    <t>8424:0</t>
+  </si>
+  <si>
+    <t>2.00</t>
+  </si>
+  <si>
+    <t>4.0000</t>
+  </si>
+  <si>
     <t xml:space="preserve">برفان القصاص </t>
   </si>
   <si>
@@ -806,9 +833,6 @@
     <t>سرنجات 3 سم</t>
   </si>
   <si>
-    <t>2.00</t>
-  </si>
-  <si>
     <t>11:0</t>
   </si>
   <si>
@@ -872,12 +896,6 @@
     <t>محلول ملح</t>
   </si>
   <si>
-    <t>24.00</t>
-  </si>
-  <si>
-    <t>24.0000</t>
-  </si>
-  <si>
     <t>معجون سيجنال بالفحم</t>
   </si>
   <si>
@@ -890,7 +908,7 @@
     <t>مناديل بكر فاين</t>
   </si>
   <si>
-    <t>Friday, 8 August, 2025 10:01 PM</t>
+    <t>Friday, 8 August, 2025 10:03 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1564,7 +1582,7 @@
       <c r="F8" s="8"/>
       <c r="G8" s="8"/>
       <c t="s" r="H8" s="9">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="I8" s="9"/>
       <c r="J8" s="9"/>
@@ -1574,14 +1592,14 @@
       </c>
       <c r="M8" s="10"/>
       <c t="s" r="N8" s="8">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="O8" s="8"/>
       <c t="s" r="P8" s="11">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c t="s" r="Q8" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="9" ht="25.5" customHeight="1">
@@ -1696,7 +1714,7 @@
       <c r="F12" s="8"/>
       <c r="G12" s="8"/>
       <c t="s" r="H12" s="9">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="I12" s="9"/>
       <c r="J12" s="9"/>
@@ -1706,11 +1724,11 @@
       </c>
       <c r="M12" s="10"/>
       <c t="s" r="N12" s="8">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="O12" s="8"/>
       <c t="s" r="P12" s="11">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c t="s" r="Q12" s="12">
         <v>16</v>
@@ -1722,14 +1740,14 @@
       </c>
       <c r="B13" s="7"/>
       <c t="s" r="C13" s="8">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D13" s="8"/>
       <c r="E13" s="8"/>
       <c r="F13" s="8"/>
       <c r="G13" s="8"/>
       <c t="s" r="H13" s="9">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="I13" s="9"/>
       <c r="J13" s="9"/>
@@ -1739,11 +1757,11 @@
       </c>
       <c r="M13" s="10"/>
       <c t="s" r="N13" s="8">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="O13" s="8"/>
       <c t="s" r="P13" s="11">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c t="s" r="Q13" s="12">
         <v>16</v>
@@ -1755,14 +1773,14 @@
       </c>
       <c r="B14" s="7"/>
       <c t="s" r="C14" s="8">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D14" s="8"/>
       <c r="E14" s="8"/>
       <c r="F14" s="8"/>
       <c r="G14" s="8"/>
       <c t="s" r="H14" s="9">
-        <v>30</v>
+        <v>42</v>
       </c>
       <c r="I14" s="9"/>
       <c r="J14" s="9"/>
@@ -1812,7 +1830,7 @@
         <v>47</v>
       </c>
       <c t="s" r="Q15" s="12">
-        <v>18</v>
+        <v>20</v>
       </c>
     </row>
     <row r="16" ht="25.5" customHeight="1">
@@ -1845,7 +1863,7 @@
         <v>50</v>
       </c>
       <c t="s" r="Q16" s="12">
-        <v>18</v>
+        <v>20</v>
       </c>
     </row>
     <row r="17" ht="25.5" customHeight="1">
@@ -1861,7 +1879,7 @@
       <c r="F17" s="8"/>
       <c r="G17" s="8"/>
       <c t="s" r="H17" s="9">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="I17" s="9"/>
       <c r="J17" s="9"/>
@@ -1944,7 +1962,7 @@
         <v>60</v>
       </c>
       <c t="s" r="Q19" s="12">
-        <v>18</v>
+        <v>20</v>
       </c>
     </row>
     <row r="20" ht="24.75" customHeight="1">
@@ -2010,7 +2028,7 @@
         <v>65</v>
       </c>
       <c t="s" r="Q21" s="12">
-        <v>18</v>
+        <v>20</v>
       </c>
     </row>
     <row r="22" ht="25.5" customHeight="1">
@@ -2059,7 +2077,7 @@
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c t="s" r="H23" s="9">
-        <v>70</v>
+        <v>20</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
@@ -2069,14 +2087,14 @@
       </c>
       <c r="M23" s="10"/>
       <c t="s" r="N23" s="8">
-        <v>71</v>
+        <v>64</v>
       </c>
       <c r="O23" s="8"/>
       <c t="s" r="P23" s="11">
-        <v>72</v>
+        <v>65</v>
       </c>
       <c t="s" r="Q23" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="24" ht="25.5" customHeight="1">
@@ -2085,14 +2103,14 @@
       </c>
       <c r="B24" s="7"/>
       <c t="s" r="C24" s="8">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="D24" s="8"/>
       <c r="E24" s="8"/>
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>18</v>
+        <v>71</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
@@ -2102,11 +2120,11 @@
       </c>
       <c r="M24" s="10"/>
       <c t="s" r="N24" s="8">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="O24" s="8"/>
       <c t="s" r="P24" s="11">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c t="s" r="Q24" s="12">
         <v>16</v>
@@ -2118,14 +2136,14 @@
       </c>
       <c r="B25" s="7"/>
       <c t="s" r="C25" s="8">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="D25" s="8"/>
       <c r="E25" s="8"/>
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
@@ -2135,14 +2153,14 @@
       </c>
       <c r="M25" s="10"/>
       <c t="s" r="N25" s="8">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="O25" s="8"/>
       <c t="s" r="P25" s="11">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c t="s" r="Q25" s="12">
-        <v>33</v>
+        <v>16</v>
       </c>
     </row>
     <row r="26" ht="25.5" customHeight="1">
@@ -2151,14 +2169,14 @@
       </c>
       <c r="B26" s="7"/>
       <c t="s" r="C26" s="8">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="D26" s="8"/>
       <c r="E26" s="8"/>
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
@@ -2168,14 +2186,14 @@
       </c>
       <c r="M26" s="10"/>
       <c t="s" r="N26" s="8">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="O26" s="8"/>
       <c t="s" r="P26" s="11">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c t="s" r="Q26" s="12">
-        <v>16</v>
+        <v>80</v>
       </c>
     </row>
     <row r="27" ht="25.5" customHeight="1">
@@ -2184,14 +2202,14 @@
       </c>
       <c r="B27" s="7"/>
       <c t="s" r="C27" s="8">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D27" s="8"/>
       <c r="E27" s="8"/>
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>83</v>
+        <v>20</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
@@ -2201,14 +2219,14 @@
       </c>
       <c r="M27" s="10"/>
       <c t="s" r="N27" s="8">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="O27" s="8"/>
       <c t="s" r="P27" s="11">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c t="s" r="Q27" s="12">
-        <v>33</v>
+        <v>16</v>
       </c>
     </row>
     <row r="28" ht="24.75" customHeight="1">
@@ -2217,14 +2235,14 @@
       </c>
       <c r="B28" s="7"/>
       <c t="s" r="C28" s="8">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="D28" s="8"/>
       <c r="E28" s="8"/>
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>33</v>
+        <v>85</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
@@ -2234,14 +2252,14 @@
       </c>
       <c r="M28" s="10"/>
       <c t="s" r="N28" s="8">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="O28" s="8"/>
       <c t="s" r="P28" s="11">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c t="s" r="Q28" s="12">
-        <v>33</v>
+        <v>80</v>
       </c>
     </row>
     <row r="29" ht="25.5" customHeight="1">
@@ -2250,14 +2268,14 @@
       </c>
       <c r="B29" s="7"/>
       <c t="s" r="C29" s="8">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D29" s="8"/>
       <c r="E29" s="8"/>
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>45</v>
+        <v>80</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
@@ -2267,14 +2285,14 @@
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="O29" s="8"/>
       <c t="s" r="P29" s="11">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c t="s" r="Q29" s="12">
-        <v>83</v>
+        <v>80</v>
       </c>
     </row>
     <row r="30" ht="24.75" customHeight="1">
@@ -2283,14 +2301,14 @@
       </c>
       <c r="B30" s="7"/>
       <c t="s" r="C30" s="8">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D30" s="8"/>
       <c r="E30" s="8"/>
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>93</v>
+        <v>45</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
@@ -2300,14 +2318,14 @@
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="O30" s="8"/>
       <c t="s" r="P30" s="11">
-        <v>62</v>
+        <v>93</v>
       </c>
       <c t="s" r="Q30" s="12">
-        <v>18</v>
+        <v>85</v>
       </c>
     </row>
     <row r="31" ht="25.5" customHeight="1">
@@ -2316,14 +2334,14 @@
       </c>
       <c r="B31" s="7"/>
       <c t="s" r="C31" s="8">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D31" s="8"/>
       <c r="E31" s="8"/>
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>18</v>
+        <v>95</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
@@ -2337,10 +2355,10 @@
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
-        <v>97</v>
+        <v>62</v>
       </c>
       <c t="s" r="Q31" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="32" ht="25.5" customHeight="1">
@@ -2349,14 +2367,14 @@
       </c>
       <c r="B32" s="7"/>
       <c t="s" r="C32" s="8">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D32" s="8"/>
       <c r="E32" s="8"/>
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
@@ -2366,14 +2384,14 @@
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c t="s" r="Q32" s="12">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="33" ht="24.75" customHeight="1">
@@ -2382,14 +2400,14 @@
       </c>
       <c r="B33" s="7"/>
       <c t="s" r="C33" s="8">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="D33" s="8"/>
       <c r="E33" s="8"/>
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>33</v>
+        <v>20</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
@@ -2399,14 +2417,14 @@
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
-        <v>71</v>
+        <v>101</v>
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
-        <v>72</v>
+        <v>102</v>
       </c>
       <c t="s" r="Q33" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="34" ht="25.5" customHeight="1">
@@ -2415,14 +2433,14 @@
       </c>
       <c r="B34" s="7"/>
       <c t="s" r="C34" s="8">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="D34" s="8"/>
       <c r="E34" s="8"/>
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>103</v>
+        <v>80</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
@@ -2432,14 +2450,14 @@
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
-        <v>46</v>
+        <v>72</v>
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
-        <v>47</v>
+        <v>73</v>
       </c>
       <c t="s" r="Q34" s="12">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="35" ht="24.75" customHeight="1">
@@ -2455,7 +2473,7 @@
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>45</v>
+        <v>105</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
@@ -2465,14 +2483,14 @@
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
-        <v>105</v>
+        <v>46</v>
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
-        <v>106</v>
+        <v>47</v>
       </c>
       <c t="s" r="Q35" s="12">
-        <v>18</v>
+        <v>20</v>
       </c>
     </row>
     <row r="36" ht="25.5" customHeight="1">
@@ -2481,14 +2499,14 @@
       </c>
       <c r="B36" s="7"/>
       <c t="s" r="C36" s="8">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="D36" s="8"/>
       <c r="E36" s="8"/>
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
@@ -2498,14 +2516,14 @@
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c t="s" r="Q36" s="12">
-        <v>93</v>
+        <v>20</v>
       </c>
     </row>
     <row r="37" ht="25.5" customHeight="1">
@@ -2514,14 +2532,14 @@
       </c>
       <c r="B37" s="7"/>
       <c t="s" r="C37" s="8">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="D37" s="8"/>
       <c r="E37" s="8"/>
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>111</v>
+        <v>38</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
@@ -2531,14 +2549,14 @@
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c t="s" r="Q37" s="12">
-        <v>33</v>
+        <v>95</v>
       </c>
     </row>
     <row r="38" ht="24.75" customHeight="1">
@@ -2547,14 +2565,14 @@
       </c>
       <c r="B38" s="7"/>
       <c t="s" r="C38" s="8">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="D38" s="8"/>
       <c r="E38" s="8"/>
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>18</v>
+        <v>113</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
@@ -2564,14 +2582,14 @@
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c t="s" r="Q38" s="12">
-        <v>18</v>
+        <v>80</v>
       </c>
     </row>
     <row r="39" ht="25.5" customHeight="1">
@@ -2580,14 +2598,14 @@
       </c>
       <c r="B39" s="7"/>
       <c t="s" r="C39" s="8">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D39" s="8"/>
       <c r="E39" s="8"/>
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
@@ -2597,14 +2615,14 @@
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c t="s" r="Q39" s="12">
-        <v>18</v>
+        <v>20</v>
       </c>
     </row>
     <row r="40" ht="24.75" customHeight="1">
@@ -2613,14 +2631,14 @@
       </c>
       <c r="B40" s="7"/>
       <c t="s" r="C40" s="8">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="D40" s="8"/>
       <c r="E40" s="8"/>
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
@@ -2630,14 +2648,14 @@
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c t="s" r="Q40" s="12">
-        <v>18</v>
+        <v>20</v>
       </c>
     </row>
     <row r="41" ht="25.5" customHeight="1">
@@ -2646,14 +2664,14 @@
       </c>
       <c r="B41" s="7"/>
       <c t="s" r="C41" s="8">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="D41" s="8"/>
       <c r="E41" s="8"/>
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>35</v>
+        <v>22</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
@@ -2663,14 +2681,14 @@
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c t="s" r="Q41" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="42" ht="25.5" customHeight="1">
@@ -2679,14 +2697,14 @@
       </c>
       <c r="B42" s="7"/>
       <c t="s" r="C42" s="8">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="D42" s="8"/>
       <c r="E42" s="8"/>
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>39</v>
+        <v>30</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
@@ -2696,14 +2714,14 @@
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>99</v>
+        <v>126</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
-        <v>100</v>
+        <v>127</v>
       </c>
       <c t="s" r="Q42" s="12">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="43" ht="24.75" customHeight="1">
@@ -2712,14 +2730,14 @@
       </c>
       <c r="B43" s="7"/>
       <c t="s" r="C43" s="8">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="D43" s="8"/>
       <c r="E43" s="8"/>
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>22</v>
+        <v>38</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
@@ -2729,14 +2747,14 @@
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c t="s" r="Q43" s="12">
-        <v>18</v>
+        <v>20</v>
       </c>
     </row>
     <row r="44" ht="25.5" customHeight="1">
@@ -2745,14 +2763,14 @@
       </c>
       <c r="B44" s="7"/>
       <c t="s" r="C44" s="8">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="D44" s="8"/>
       <c r="E44" s="8"/>
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>35</v>
+        <v>22</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
@@ -2762,14 +2780,14 @@
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>129</v>
+        <v>101</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
-        <v>130</v>
+        <v>102</v>
       </c>
       <c t="s" r="Q44" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="45" ht="24.75" customHeight="1">
@@ -2778,14 +2796,14 @@
       </c>
       <c r="B45" s="7"/>
       <c t="s" r="C45" s="8">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="D45" s="8"/>
       <c r="E45" s="8"/>
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>45</v>
+        <v>30</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
@@ -2795,14 +2813,14 @@
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c t="s" r="Q45" s="12">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="46" ht="25.5" customHeight="1">
@@ -2811,14 +2829,14 @@
       </c>
       <c r="B46" s="7"/>
       <c t="s" r="C46" s="8">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="D46" s="8"/>
       <c r="E46" s="8"/>
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>18</v>
+        <v>45</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
@@ -2828,14 +2846,14 @@
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c t="s" r="Q46" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="47" ht="25.5" customHeight="1">
@@ -2844,14 +2862,14 @@
       </c>
       <c r="B47" s="7"/>
       <c t="s" r="C47" s="8">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="D47" s="8"/>
       <c r="E47" s="8"/>
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>138</v>
+        <v>20</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
@@ -2861,14 +2879,14 @@
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c t="s" r="Q47" s="12">
-        <v>93</v>
+        <v>16</v>
       </c>
     </row>
     <row r="48" ht="24.75" customHeight="1">
@@ -2877,14 +2895,14 @@
       </c>
       <c r="B48" s="7"/>
       <c t="s" r="C48" s="8">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="D48" s="8"/>
       <c r="E48" s="8"/>
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>39</v>
+        <v>140</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
@@ -2894,14 +2912,14 @@
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c t="s" r="Q48" s="12">
-        <v>18</v>
+        <v>95</v>
       </c>
     </row>
     <row r="49" ht="25.5" customHeight="1">
@@ -2910,14 +2928,14 @@
       </c>
       <c r="B49" s="7"/>
       <c t="s" r="C49" s="8">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="D49" s="8"/>
       <c r="E49" s="8"/>
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
@@ -2927,14 +2945,14 @@
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>67</v>
+        <v>144</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
-        <v>68</v>
+        <v>145</v>
       </c>
       <c t="s" r="Q49" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="50" ht="24.75" customHeight="1">
@@ -2943,14 +2961,14 @@
       </c>
       <c r="B50" s="7"/>
       <c t="s" r="C50" s="8">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="D50" s="8"/>
       <c r="E50" s="8"/>
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>45</v>
+        <v>30</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
@@ -2960,11 +2978,11 @@
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>84</v>
+        <v>67</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
-        <v>146</v>
+        <v>68</v>
       </c>
       <c t="s" r="Q50" s="12">
         <v>16</v>
@@ -2983,7 +3001,7 @@
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>93</v>
+        <v>45</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
@@ -2993,7 +3011,7 @@
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>46</v>
+        <v>86</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
@@ -3016,7 +3034,7 @@
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>16</v>
+        <v>95</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
@@ -3026,11 +3044,11 @@
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>150</v>
+        <v>46</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c t="s" r="Q52" s="12">
         <v>16</v>
@@ -3042,14 +3060,14 @@
       </c>
       <c r="B53" s="7"/>
       <c t="s" r="C53" s="8">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="D53" s="8"/>
       <c r="E53" s="8"/>
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>35</v>
+        <v>16</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
@@ -3059,11 +3077,11 @@
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
-        <v>85</v>
+        <v>153</v>
       </c>
       <c t="s" r="Q53" s="12">
         <v>16</v>
@@ -3082,7 +3100,7 @@
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
@@ -3096,7 +3114,7 @@
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
-        <v>156</v>
+        <v>87</v>
       </c>
       <c t="s" r="Q54" s="12">
         <v>16</v>
@@ -3108,14 +3126,14 @@
       </c>
       <c r="B55" s="7"/>
       <c t="s" r="C55" s="8">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="D55" s="8"/>
       <c r="E55" s="8"/>
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>22</v>
+        <v>80</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
@@ -3125,14 +3143,14 @@
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c t="s" r="Q55" s="12">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="56" ht="25.5" customHeight="1">
@@ -3141,14 +3159,14 @@
       </c>
       <c r="B56" s="7"/>
       <c t="s" r="C56" s="8">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="D56" s="8"/>
       <c r="E56" s="8"/>
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
@@ -3158,14 +3176,14 @@
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c t="s" r="Q56" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="57" ht="25.5" customHeight="1">
@@ -3174,31 +3192,31 @@
       </c>
       <c r="B57" s="7"/>
       <c t="s" r="C57" s="8">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="D57" s="8"/>
       <c r="E57" s="8"/>
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
       <c r="K57" s="9"/>
       <c t="s" r="L57" s="10">
-        <v>164</v>
+        <v>13</v>
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
-        <v>139</v>
+        <v>163</v>
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c t="s" r="Q57" s="12">
-        <v>33</v>
+        <v>16</v>
       </c>
     </row>
     <row r="58" ht="24.75" customHeight="1">
@@ -3207,31 +3225,31 @@
       </c>
       <c r="B58" s="7"/>
       <c t="s" r="C58" s="8">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="D58" s="8"/>
       <c r="E58" s="8"/>
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c t="s" r="H58" s="9">
-        <v>39</v>
+        <v>22</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
       <c r="K58" s="9"/>
       <c t="s" r="L58" s="10">
-        <v>13</v>
+        <v>166</v>
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
-        <v>96</v>
+        <v>141</v>
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
         <v>167</v>
       </c>
       <c t="s" r="Q58" s="12">
-        <v>18</v>
+        <v>80</v>
       </c>
     </row>
     <row r="59" ht="25.5" customHeight="1">
@@ -3247,7 +3265,7 @@
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c t="s" r="H59" s="9">
-        <v>16</v>
+        <v>38</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
@@ -3257,14 +3275,14 @@
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
-        <v>155</v>
+        <v>98</v>
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
         <v>169</v>
       </c>
       <c t="s" r="Q59" s="12">
-        <v>18</v>
+        <v>20</v>
       </c>
     </row>
     <row r="60" ht="24.75" customHeight="1">
@@ -3290,14 +3308,14 @@
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
-        <v>171</v>
+        <v>157</v>
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
-        <v>47</v>
+        <v>171</v>
       </c>
       <c t="s" r="Q60" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="61" ht="25.5" customHeight="1">
@@ -3313,7 +3331,7 @@
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
       <c t="s" r="H61" s="9">
-        <v>45</v>
+        <v>16</v>
       </c>
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
@@ -3323,14 +3341,14 @@
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
-        <v>124</v>
+        <v>173</v>
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
-        <v>173</v>
+        <v>47</v>
       </c>
       <c t="s" r="Q61" s="12">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="62" ht="25.5" customHeight="1">
@@ -3356,14 +3374,14 @@
       </c>
       <c r="M62" s="10"/>
       <c t="s" r="N62" s="8">
-        <v>175</v>
+        <v>126</v>
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c t="s" r="Q62" s="12">
-        <v>18</v>
+        <v>20</v>
       </c>
     </row>
     <row r="63" ht="24.75" customHeight="1">
@@ -3372,7 +3390,7 @@
       </c>
       <c r="B63" s="7"/>
       <c t="s" r="C63" s="8">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="D63" s="8"/>
       <c r="E63" s="8"/>
@@ -3389,14 +3407,14 @@
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="O63" s="8"/>
       <c t="s" r="P63" s="11">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c t="s" r="Q63" s="12">
-        <v>18</v>
+        <v>20</v>
       </c>
     </row>
     <row r="64" ht="25.5" customHeight="1">
@@ -3405,14 +3423,14 @@
       </c>
       <c r="B64" s="7"/>
       <c t="s" r="C64" s="8">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="D64" s="8"/>
       <c r="E64" s="8"/>
       <c r="F64" s="8"/>
       <c r="G64" s="8"/>
       <c t="s" r="H64" s="9">
-        <v>18</v>
+        <v>45</v>
       </c>
       <c r="I64" s="9"/>
       <c r="J64" s="9"/>
@@ -3422,14 +3440,14 @@
       </c>
       <c r="M64" s="10"/>
       <c t="s" r="N64" s="8">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="O64" s="8"/>
       <c t="s" r="P64" s="11">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c t="s" r="Q64" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="65" ht="24.75" customHeight="1">
@@ -3438,14 +3456,14 @@
       </c>
       <c r="B65" s="7"/>
       <c t="s" r="C65" s="8">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="D65" s="8"/>
       <c r="E65" s="8"/>
       <c r="F65" s="8"/>
       <c r="G65" s="8"/>
       <c t="s" r="H65" s="9">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="I65" s="9"/>
       <c r="J65" s="9"/>
@@ -3455,7 +3473,7 @@
       </c>
       <c r="M65" s="10"/>
       <c t="s" r="N65" s="8">
-        <v>105</v>
+        <v>183</v>
       </c>
       <c r="O65" s="8"/>
       <c t="s" r="P65" s="11">
@@ -3478,7 +3496,7 @@
       <c r="F66" s="8"/>
       <c r="G66" s="8"/>
       <c t="s" r="H66" s="9">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="I66" s="9"/>
       <c r="J66" s="9"/>
@@ -3488,14 +3506,14 @@
       </c>
       <c r="M66" s="10"/>
       <c t="s" r="N66" s="8">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="O66" s="8"/>
       <c t="s" r="P66" s="11">
         <v>186</v>
       </c>
       <c t="s" r="Q66" s="12">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="67" ht="25.5" customHeight="1">
@@ -3511,7 +3529,7 @@
       <c r="F67" s="8"/>
       <c r="G67" s="8"/>
       <c t="s" r="H67" s="9">
-        <v>188</v>
+        <v>22</v>
       </c>
       <c r="I67" s="9"/>
       <c r="J67" s="9"/>
@@ -3521,14 +3539,14 @@
       </c>
       <c r="M67" s="10"/>
       <c t="s" r="N67" s="8">
-        <v>142</v>
+        <v>110</v>
       </c>
       <c r="O67" s="8"/>
       <c t="s" r="P67" s="11">
-        <v>143</v>
+        <v>188</v>
       </c>
       <c t="s" r="Q67" s="12">
-        <v>18</v>
+        <v>20</v>
       </c>
     </row>
     <row r="68" ht="24.75" customHeight="1">
@@ -3554,14 +3572,14 @@
       </c>
       <c r="M68" s="10"/>
       <c t="s" r="N68" s="8">
-        <v>191</v>
+        <v>144</v>
       </c>
       <c r="O68" s="8"/>
       <c t="s" r="P68" s="11">
-        <v>192</v>
+        <v>145</v>
       </c>
       <c t="s" r="Q68" s="12">
-        <v>193</v>
+        <v>20</v>
       </c>
     </row>
     <row r="69" ht="25.5" customHeight="1">
@@ -3570,14 +3588,14 @@
       </c>
       <c r="B69" s="7"/>
       <c t="s" r="C69" s="8">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="D69" s="8"/>
       <c r="E69" s="8"/>
       <c r="F69" s="8"/>
       <c r="G69" s="8"/>
       <c t="s" r="H69" s="9">
-        <v>18</v>
+        <v>192</v>
       </c>
       <c r="I69" s="9"/>
       <c r="J69" s="9"/>
@@ -3587,14 +3605,14 @@
       </c>
       <c r="M69" s="10"/>
       <c t="s" r="N69" s="8">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="O69" s="8"/>
       <c t="s" r="P69" s="11">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c t="s" r="Q69" s="12">
-        <v>18</v>
+        <v>195</v>
       </c>
     </row>
     <row r="70" ht="24.75" customHeight="1">
@@ -3603,14 +3621,14 @@
       </c>
       <c r="B70" s="7"/>
       <c t="s" r="C70" s="8">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="D70" s="8"/>
       <c r="E70" s="8"/>
       <c r="F70" s="8"/>
       <c r="G70" s="8"/>
       <c t="s" r="H70" s="9">
-        <v>45</v>
+        <v>20</v>
       </c>
       <c r="I70" s="9"/>
       <c r="J70" s="9"/>
@@ -3620,14 +3638,14 @@
       </c>
       <c r="M70" s="10"/>
       <c t="s" r="N70" s="8">
-        <v>132</v>
+        <v>197</v>
       </c>
       <c r="O70" s="8"/>
       <c t="s" r="P70" s="11">
-        <v>133</v>
+        <v>198</v>
       </c>
       <c t="s" r="Q70" s="12">
-        <v>18</v>
+        <v>20</v>
       </c>
     </row>
     <row r="71" ht="25.5" customHeight="1">
@@ -3636,14 +3654,14 @@
       </c>
       <c r="B71" s="7"/>
       <c t="s" r="C71" s="8">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="D71" s="8"/>
       <c r="E71" s="8"/>
       <c r="F71" s="8"/>
       <c r="G71" s="8"/>
       <c t="s" r="H71" s="9">
-        <v>199</v>
+        <v>45</v>
       </c>
       <c r="I71" s="9"/>
       <c r="J71" s="9"/>
@@ -3653,14 +3671,14 @@
       </c>
       <c r="M71" s="10"/>
       <c t="s" r="N71" s="8">
-        <v>153</v>
+        <v>134</v>
       </c>
       <c r="O71" s="8"/>
       <c t="s" r="P71" s="11">
-        <v>85</v>
+        <v>135</v>
       </c>
       <c t="s" r="Q71" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="72" ht="25.5" customHeight="1">
@@ -3676,7 +3694,7 @@
       <c r="F72" s="8"/>
       <c r="G72" s="8"/>
       <c t="s" r="H72" s="9">
-        <v>30</v>
+        <v>201</v>
       </c>
       <c r="I72" s="9"/>
       <c r="J72" s="9"/>
@@ -3686,14 +3704,14 @@
       </c>
       <c r="M72" s="10"/>
       <c t="s" r="N72" s="8">
-        <v>99</v>
+        <v>155</v>
       </c>
       <c r="O72" s="8"/>
       <c t="s" r="P72" s="11">
-        <v>201</v>
+        <v>87</v>
       </c>
       <c t="s" r="Q72" s="12">
-        <v>33</v>
+        <v>16</v>
       </c>
     </row>
     <row r="73" ht="24.75" customHeight="1">
@@ -3709,7 +3727,7 @@
       <c r="F73" s="8"/>
       <c r="G73" s="8"/>
       <c t="s" r="H73" s="9">
-        <v>70</v>
+        <v>42</v>
       </c>
       <c r="I73" s="9"/>
       <c r="J73" s="9"/>
@@ -3719,14 +3737,14 @@
       </c>
       <c r="M73" s="10"/>
       <c t="s" r="N73" s="8">
-        <v>27</v>
+        <v>101</v>
       </c>
       <c r="O73" s="8"/>
       <c t="s" r="P73" s="11">
         <v>203</v>
       </c>
       <c t="s" r="Q73" s="12">
-        <v>35</v>
+        <v>80</v>
       </c>
     </row>
     <row r="74" ht="25.5" customHeight="1">
@@ -3742,7 +3760,7 @@
       <c r="F74" s="8"/>
       <c r="G74" s="8"/>
       <c t="s" r="H74" s="9">
-        <v>30</v>
+        <v>71</v>
       </c>
       <c r="I74" s="9"/>
       <c r="J74" s="9"/>
@@ -3752,14 +3770,14 @@
       </c>
       <c r="M74" s="10"/>
       <c t="s" r="N74" s="8">
-        <v>94</v>
+        <v>27</v>
       </c>
       <c r="O74" s="8"/>
       <c t="s" r="P74" s="11">
-        <v>62</v>
+        <v>205</v>
       </c>
       <c t="s" r="Q74" s="12">
-        <v>18</v>
+        <v>30</v>
       </c>
     </row>
     <row r="75" ht="24.75" customHeight="1">
@@ -3768,14 +3786,14 @@
       </c>
       <c r="B75" s="7"/>
       <c t="s" r="C75" s="8">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="D75" s="8"/>
       <c r="E75" s="8"/>
       <c r="F75" s="8"/>
       <c r="G75" s="8"/>
       <c t="s" r="H75" s="9">
-        <v>35</v>
+        <v>42</v>
       </c>
       <c r="I75" s="9"/>
       <c r="J75" s="9"/>
@@ -3785,14 +3803,14 @@
       </c>
       <c r="M75" s="10"/>
       <c t="s" r="N75" s="8">
-        <v>40</v>
+        <v>96</v>
       </c>
       <c r="O75" s="8"/>
       <c t="s" r="P75" s="11">
-        <v>41</v>
+        <v>62</v>
       </c>
       <c t="s" r="Q75" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="76" ht="25.5" customHeight="1">
@@ -3801,14 +3819,14 @@
       </c>
       <c r="B76" s="7"/>
       <c t="s" r="C76" s="8">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="D76" s="8"/>
       <c r="E76" s="8"/>
       <c r="F76" s="8"/>
       <c r="G76" s="8"/>
       <c t="s" r="H76" s="9">
-        <v>207</v>
+        <v>30</v>
       </c>
       <c r="I76" s="9"/>
       <c r="J76" s="9"/>
@@ -3818,11 +3836,11 @@
       </c>
       <c r="M76" s="10"/>
       <c t="s" r="N76" s="8">
-        <v>208</v>
+        <v>39</v>
       </c>
       <c r="O76" s="8"/>
       <c t="s" r="P76" s="11">
-        <v>162</v>
+        <v>40</v>
       </c>
       <c t="s" r="Q76" s="12">
         <v>16</v>
@@ -3834,14 +3852,14 @@
       </c>
       <c r="B77" s="7"/>
       <c t="s" r="C77" s="8">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="D77" s="8"/>
       <c r="E77" s="8"/>
       <c r="F77" s="8"/>
       <c r="G77" s="8"/>
       <c t="s" r="H77" s="9">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="I77" s="9"/>
       <c r="J77" s="9"/>
@@ -3855,10 +3873,10 @@
       </c>
       <c r="O77" s="8"/>
       <c t="s" r="P77" s="11">
-        <v>211</v>
+        <v>164</v>
       </c>
       <c t="s" r="Q77" s="12">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="78" ht="24.75" customHeight="1">
@@ -3867,14 +3885,14 @@
       </c>
       <c r="B78" s="7"/>
       <c t="s" r="C78" s="8">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="D78" s="8"/>
       <c r="E78" s="8"/>
       <c r="F78" s="8"/>
       <c r="G78" s="8"/>
       <c t="s" r="H78" s="9">
-        <v>16</v>
+        <v>209</v>
       </c>
       <c r="I78" s="9"/>
       <c r="J78" s="9"/>
@@ -3884,14 +3902,14 @@
       </c>
       <c r="M78" s="10"/>
       <c t="s" r="N78" s="8">
-        <v>124</v>
+        <v>212</v>
       </c>
       <c r="O78" s="8"/>
       <c t="s" r="P78" s="11">
-        <v>125</v>
+        <v>213</v>
       </c>
       <c t="s" r="Q78" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="79" ht="25.5" customHeight="1">
@@ -3900,14 +3918,14 @@
       </c>
       <c r="B79" s="7"/>
       <c t="s" r="C79" s="8">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="D79" s="8"/>
       <c r="E79" s="8"/>
       <c r="F79" s="8"/>
       <c r="G79" s="8"/>
       <c t="s" r="H79" s="9">
-        <v>45</v>
+        <v>16</v>
       </c>
       <c r="I79" s="9"/>
       <c r="J79" s="9"/>
@@ -3917,14 +3935,14 @@
       </c>
       <c r="M79" s="10"/>
       <c t="s" r="N79" s="8">
-        <v>214</v>
+        <v>126</v>
       </c>
       <c r="O79" s="8"/>
       <c t="s" r="P79" s="11">
-        <v>215</v>
+        <v>127</v>
       </c>
       <c t="s" r="Q79" s="12">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="80" ht="24.75" customHeight="1">
@@ -3933,14 +3951,14 @@
       </c>
       <c r="B80" s="7"/>
       <c t="s" r="C80" s="8">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="D80" s="8"/>
       <c r="E80" s="8"/>
       <c r="F80" s="8"/>
       <c r="G80" s="8"/>
       <c t="s" r="H80" s="9">
-        <v>35</v>
+        <v>45</v>
       </c>
       <c r="I80" s="9"/>
       <c r="J80" s="9"/>
@@ -3950,14 +3968,14 @@
       </c>
       <c r="M80" s="10"/>
       <c t="s" r="N80" s="8">
-        <v>208</v>
+        <v>216</v>
       </c>
       <c r="O80" s="8"/>
       <c t="s" r="P80" s="11">
-        <v>162</v>
+        <v>217</v>
       </c>
       <c t="s" r="Q80" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="81" ht="25.5" customHeight="1">
@@ -3966,14 +3984,14 @@
       </c>
       <c r="B81" s="7"/>
       <c t="s" r="C81" s="8">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="D81" s="8"/>
       <c r="E81" s="8"/>
       <c r="F81" s="8"/>
       <c r="G81" s="8"/>
       <c t="s" r="H81" s="9">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="I81" s="9"/>
       <c r="J81" s="9"/>
@@ -3983,11 +4001,11 @@
       </c>
       <c r="M81" s="10"/>
       <c t="s" r="N81" s="8">
-        <v>218</v>
+        <v>210</v>
       </c>
       <c r="O81" s="8"/>
       <c t="s" r="P81" s="11">
-        <v>219</v>
+        <v>164</v>
       </c>
       <c t="s" r="Q81" s="12">
         <v>16</v>
@@ -3999,14 +4017,14 @@
       </c>
       <c r="B82" s="7"/>
       <c t="s" r="C82" s="8">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="D82" s="8"/>
       <c r="E82" s="8"/>
       <c r="F82" s="8"/>
       <c r="G82" s="8"/>
       <c t="s" r="H82" s="9">
-        <v>22</v>
+        <v>30</v>
       </c>
       <c r="I82" s="9"/>
       <c r="J82" s="9"/>
@@ -4016,14 +4034,14 @@
       </c>
       <c r="M82" s="10"/>
       <c t="s" r="N82" s="8">
-        <v>121</v>
+        <v>220</v>
       </c>
       <c r="O82" s="8"/>
       <c t="s" r="P82" s="11">
-        <v>37</v>
+        <v>221</v>
       </c>
       <c t="s" r="Q82" s="12">
-        <v>22</v>
+        <v>16</v>
       </c>
     </row>
     <row r="83" ht="24.75" customHeight="1">
@@ -4032,14 +4050,14 @@
       </c>
       <c r="B83" s="7"/>
       <c t="s" r="C83" s="8">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="D83" s="8"/>
       <c r="E83" s="8"/>
       <c r="F83" s="8"/>
       <c r="G83" s="8"/>
       <c t="s" r="H83" s="9">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="I83" s="9"/>
       <c r="J83" s="9"/>
@@ -4049,14 +4067,14 @@
       </c>
       <c r="M83" s="10"/>
       <c t="s" r="N83" s="8">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="O83" s="8"/>
       <c t="s" r="P83" s="11">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c t="s" r="Q83" s="12">
-        <v>35</v>
+        <v>20</v>
       </c>
     </row>
     <row r="84" ht="25.5" customHeight="1">
@@ -4065,14 +4083,14 @@
       </c>
       <c r="B84" s="7"/>
       <c t="s" r="C84" s="8">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="D84" s="8"/>
       <c r="E84" s="8"/>
       <c r="F84" s="8"/>
       <c r="G84" s="8"/>
       <c t="s" r="H84" s="9">
-        <v>45</v>
+        <v>22</v>
       </c>
       <c r="I84" s="9"/>
       <c r="J84" s="9"/>
@@ -4082,14 +4100,14 @@
       </c>
       <c r="M84" s="10"/>
       <c t="s" r="N84" s="8">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="O84" s="8"/>
       <c t="s" r="P84" s="11">
-        <v>122</v>
+        <v>36</v>
       </c>
       <c t="s" r="Q84" s="12">
-        <v>18</v>
+        <v>22</v>
       </c>
     </row>
     <row r="85" ht="24.75" customHeight="1">
@@ -4098,14 +4116,14 @@
       </c>
       <c r="B85" s="7"/>
       <c t="s" r="C85" s="8">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="D85" s="8"/>
       <c r="E85" s="8"/>
       <c r="F85" s="8"/>
       <c r="G85" s="8"/>
       <c t="s" r="H85" s="9">
-        <v>33</v>
+        <v>20</v>
       </c>
       <c r="I85" s="9"/>
       <c r="J85" s="9"/>
@@ -4115,14 +4133,14 @@
       </c>
       <c r="M85" s="10"/>
       <c t="s" r="N85" s="8">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="O85" s="8"/>
       <c t="s" r="P85" s="11">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c t="s" r="Q85" s="12">
-        <v>16</v>
+        <v>30</v>
       </c>
     </row>
     <row r="86" ht="25.5" customHeight="1">
@@ -4131,7 +4149,7 @@
       </c>
       <c r="B86" s="7"/>
       <c t="s" r="C86" s="8">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="D86" s="8"/>
       <c r="E86" s="8"/>
@@ -4148,14 +4166,14 @@
       </c>
       <c r="M86" s="10"/>
       <c t="s" r="N86" s="8">
-        <v>84</v>
+        <v>123</v>
       </c>
       <c r="O86" s="8"/>
       <c t="s" r="P86" s="11">
-        <v>146</v>
+        <v>124</v>
       </c>
       <c t="s" r="Q86" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="87" ht="25.5" customHeight="1">
@@ -4164,14 +4182,14 @@
       </c>
       <c r="B87" s="7"/>
       <c t="s" r="C87" s="8">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="D87" s="8"/>
       <c r="E87" s="8"/>
       <c r="F87" s="8"/>
       <c r="G87" s="8"/>
       <c t="s" r="H87" s="9">
-        <v>93</v>
+        <v>80</v>
       </c>
       <c r="I87" s="9"/>
       <c r="J87" s="9"/>
@@ -4181,14 +4199,14 @@
       </c>
       <c r="M87" s="10"/>
       <c t="s" r="N87" s="8">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="O87" s="8"/>
       <c t="s" r="P87" s="11">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c t="s" r="Q87" s="12">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="88" ht="24.75" customHeight="1">
@@ -4197,7 +4215,7 @@
       </c>
       <c r="B88" s="7"/>
       <c t="s" r="C88" s="8">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="D88" s="8"/>
       <c r="E88" s="8"/>
@@ -4214,14 +4232,14 @@
       </c>
       <c r="M88" s="10"/>
       <c t="s" r="N88" s="8">
-        <v>233</v>
+        <v>86</v>
       </c>
       <c r="O88" s="8"/>
       <c t="s" r="P88" s="11">
-        <v>162</v>
+        <v>148</v>
       </c>
       <c t="s" r="Q88" s="12">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="89" ht="25.5" customHeight="1">
@@ -4237,7 +4255,7 @@
       <c r="F89" s="8"/>
       <c r="G89" s="8"/>
       <c t="s" r="H89" s="9">
-        <v>111</v>
+        <v>95</v>
       </c>
       <c r="I89" s="9"/>
       <c r="J89" s="9"/>
@@ -4247,14 +4265,14 @@
       </c>
       <c r="M89" s="10"/>
       <c t="s" r="N89" s="8">
-        <v>124</v>
+        <v>235</v>
       </c>
       <c r="O89" s="8"/>
       <c t="s" r="P89" s="11">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c t="s" r="Q89" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="90" ht="24.75" customHeight="1">
@@ -4263,14 +4281,14 @@
       </c>
       <c r="B90" s="7"/>
       <c t="s" r="C90" s="8">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="D90" s="8"/>
       <c r="E90" s="8"/>
       <c r="F90" s="8"/>
       <c r="G90" s="8"/>
       <c t="s" r="H90" s="9">
-        <v>18</v>
+        <v>45</v>
       </c>
       <c r="I90" s="9"/>
       <c r="J90" s="9"/>
@@ -4280,14 +4298,14 @@
       </c>
       <c r="M90" s="10"/>
       <c t="s" r="N90" s="8">
-        <v>124</v>
+        <v>238</v>
       </c>
       <c r="O90" s="8"/>
       <c t="s" r="P90" s="11">
-        <v>125</v>
+        <v>164</v>
       </c>
       <c t="s" r="Q90" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="91" ht="25.5" customHeight="1">
@@ -4296,14 +4314,14 @@
       </c>
       <c r="B91" s="7"/>
       <c t="s" r="C91" s="8">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="D91" s="8"/>
       <c r="E91" s="8"/>
       <c r="F91" s="8"/>
       <c r="G91" s="8"/>
       <c t="s" r="H91" s="9">
-        <v>45</v>
+        <v>113</v>
       </c>
       <c r="I91" s="9"/>
       <c r="J91" s="9"/>
@@ -4313,14 +4331,14 @@
       </c>
       <c r="M91" s="10"/>
       <c t="s" r="N91" s="8">
-        <v>238</v>
+        <v>126</v>
       </c>
       <c r="O91" s="8"/>
       <c t="s" r="P91" s="11">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c t="s" r="Q91" s="12">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="92" ht="25.5" customHeight="1">
@@ -4329,14 +4347,14 @@
       </c>
       <c r="B92" s="7"/>
       <c t="s" r="C92" s="8">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="D92" s="8"/>
       <c r="E92" s="8"/>
       <c r="F92" s="8"/>
       <c r="G92" s="8"/>
       <c t="s" r="H92" s="9">
-        <v>33</v>
+        <v>20</v>
       </c>
       <c r="I92" s="9"/>
       <c r="J92" s="9"/>
@@ -4346,11 +4364,11 @@
       </c>
       <c r="M92" s="10"/>
       <c t="s" r="N92" s="8">
-        <v>241</v>
+        <v>126</v>
       </c>
       <c r="O92" s="8"/>
       <c t="s" r="P92" s="11">
-        <v>242</v>
+        <v>127</v>
       </c>
       <c t="s" r="Q92" s="12">
         <v>16</v>
@@ -4362,14 +4380,14 @@
       </c>
       <c r="B93" s="7"/>
       <c t="s" r="C93" s="8">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="D93" s="8"/>
       <c r="E93" s="8"/>
       <c r="F93" s="8"/>
       <c r="G93" s="8"/>
       <c t="s" r="H93" s="9">
-        <v>16</v>
+        <v>45</v>
       </c>
       <c r="I93" s="9"/>
       <c r="J93" s="9"/>
@@ -4379,14 +4397,14 @@
       </c>
       <c r="M93" s="10"/>
       <c t="s" r="N93" s="8">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="O93" s="8"/>
       <c t="s" r="P93" s="11">
-        <v>186</v>
+        <v>244</v>
       </c>
       <c t="s" r="Q93" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="94" ht="25.5" customHeight="1">
@@ -4402,24 +4420,24 @@
       <c r="F94" s="8"/>
       <c r="G94" s="8"/>
       <c t="s" r="H94" s="9">
-        <v>246</v>
+        <v>80</v>
       </c>
       <c r="I94" s="9"/>
       <c r="J94" s="9"/>
       <c r="K94" s="9"/>
       <c t="s" r="L94" s="10">
-        <v>164</v>
+        <v>13</v>
       </c>
       <c r="M94" s="10"/>
       <c t="s" r="N94" s="8">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="O94" s="8"/>
       <c t="s" r="P94" s="11">
-        <v>173</v>
+        <v>247</v>
       </c>
       <c t="s" r="Q94" s="12">
-        <v>39</v>
+        <v>16</v>
       </c>
     </row>
     <row r="95" ht="24.75" customHeight="1">
@@ -4435,13 +4453,13 @@
       <c r="F95" s="8"/>
       <c r="G95" s="8"/>
       <c t="s" r="H95" s="9">
-        <v>39</v>
+        <v>16</v>
       </c>
       <c r="I95" s="9"/>
       <c r="J95" s="9"/>
       <c r="K95" s="9"/>
       <c t="s" r="L95" s="10">
-        <v>164</v>
+        <v>13</v>
       </c>
       <c r="M95" s="10"/>
       <c t="s" r="N95" s="8">
@@ -4449,10 +4467,10 @@
       </c>
       <c r="O95" s="8"/>
       <c t="s" r="P95" s="11">
-        <v>250</v>
+        <v>188</v>
       </c>
       <c t="s" r="Q95" s="12">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="96" ht="25.5" customHeight="1">
@@ -4461,20 +4479,20 @@
       </c>
       <c r="B96" s="7"/>
       <c t="s" r="C96" s="8">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="D96" s="8"/>
       <c r="E96" s="8"/>
       <c r="F96" s="8"/>
       <c r="G96" s="8"/>
       <c t="s" r="H96" s="9">
-        <v>45</v>
+        <v>251</v>
       </c>
       <c r="I96" s="9"/>
       <c r="J96" s="9"/>
       <c r="K96" s="9"/>
       <c t="s" r="L96" s="10">
-        <v>164</v>
+        <v>13</v>
       </c>
       <c r="M96" s="10"/>
       <c t="s" r="N96" s="8">
@@ -4501,24 +4519,24 @@
       <c r="F97" s="8"/>
       <c r="G97" s="8"/>
       <c t="s" r="H97" s="9">
-        <v>18</v>
+        <v>255</v>
       </c>
       <c r="I97" s="9"/>
       <c r="J97" s="9"/>
       <c r="K97" s="9"/>
       <c t="s" r="L97" s="10">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="M97" s="10"/>
       <c t="s" r="N97" s="8">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="O97" s="8"/>
       <c t="s" r="P97" s="11">
-        <v>256</v>
+        <v>175</v>
       </c>
       <c t="s" r="Q97" s="12">
-        <v>18</v>
+        <v>38</v>
       </c>
     </row>
     <row r="98" ht="24.75" customHeight="1">
@@ -4534,24 +4552,24 @@
       <c r="F98" s="8"/>
       <c r="G98" s="8"/>
       <c t="s" r="H98" s="9">
-        <v>258</v>
+        <v>38</v>
       </c>
       <c r="I98" s="9"/>
       <c r="J98" s="9"/>
       <c r="K98" s="9"/>
       <c t="s" r="L98" s="10">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="M98" s="10"/>
       <c t="s" r="N98" s="8">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="O98" s="8"/>
       <c t="s" r="P98" s="11">
-        <v>165</v>
+        <v>259</v>
       </c>
       <c t="s" r="Q98" s="12">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="99" ht="25.5" customHeight="1">
@@ -4573,7 +4591,7 @@
       <c r="J99" s="9"/>
       <c r="K99" s="9"/>
       <c t="s" r="L99" s="10">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="M99" s="10"/>
       <c t="s" r="N99" s="8">
@@ -4584,7 +4602,7 @@
         <v>262</v>
       </c>
       <c t="s" r="Q99" s="12">
-        <v>263</v>
+        <v>22</v>
       </c>
     </row>
     <row r="100" ht="24.75" customHeight="1">
@@ -4593,31 +4611,31 @@
       </c>
       <c r="B100" s="7"/>
       <c t="s" r="C100" s="8">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="D100" s="8"/>
       <c r="E100" s="8"/>
       <c r="F100" s="8"/>
       <c r="G100" s="8"/>
       <c t="s" r="H100" s="9">
-        <v>45</v>
+        <v>20</v>
       </c>
       <c r="I100" s="9"/>
       <c r="J100" s="9"/>
       <c r="K100" s="9"/>
       <c t="s" r="L100" s="10">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="M100" s="10"/>
       <c t="s" r="N100" s="8">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="O100" s="8"/>
       <c t="s" r="P100" s="11">
-        <v>100</v>
+        <v>265</v>
       </c>
       <c t="s" r="Q100" s="12">
-        <v>266</v>
+        <v>20</v>
       </c>
     </row>
     <row r="101" ht="25.5" customHeight="1">
@@ -4626,28 +4644,28 @@
       </c>
       <c r="B101" s="7"/>
       <c t="s" r="C101" s="8">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="D101" s="8"/>
       <c r="E101" s="8"/>
       <c r="F101" s="8"/>
       <c r="G101" s="8"/>
       <c t="s" r="H101" s="9">
-        <v>45</v>
+        <v>267</v>
       </c>
       <c r="I101" s="9"/>
       <c r="J101" s="9"/>
       <c r="K101" s="9"/>
       <c t="s" r="L101" s="10">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="M101" s="10"/>
       <c t="s" r="N101" s="8">
-        <v>252</v>
+        <v>268</v>
       </c>
       <c r="O101" s="8"/>
       <c t="s" r="P101" s="11">
-        <v>253</v>
+        <v>167</v>
       </c>
       <c t="s" r="Q101" s="12">
         <v>22</v>
@@ -4659,31 +4677,31 @@
       </c>
       <c r="B102" s="7"/>
       <c t="s" r="C102" s="8">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="D102" s="8"/>
       <c r="E102" s="8"/>
       <c r="F102" s="8"/>
       <c r="G102" s="8"/>
       <c t="s" r="H102" s="9">
-        <v>22</v>
+        <v>45</v>
       </c>
       <c r="I102" s="9"/>
       <c r="J102" s="9"/>
       <c r="K102" s="9"/>
       <c t="s" r="L102" s="10">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="M102" s="10"/>
       <c t="s" r="N102" s="8">
-        <v>255</v>
+        <v>270</v>
       </c>
       <c r="O102" s="8"/>
       <c t="s" r="P102" s="11">
-        <v>256</v>
+        <v>271</v>
       </c>
       <c t="s" r="Q102" s="12">
-        <v>18</v>
+        <v>272</v>
       </c>
     </row>
     <row r="103" ht="24.75" customHeight="1">
@@ -4692,7 +4710,7 @@
       </c>
       <c r="B103" s="7"/>
       <c t="s" r="C103" s="8">
-        <v>269</v>
+        <v>273</v>
       </c>
       <c r="D103" s="8"/>
       <c r="E103" s="8"/>
@@ -4705,18 +4723,18 @@
       <c r="J103" s="9"/>
       <c r="K103" s="9"/>
       <c t="s" r="L103" s="10">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="M103" s="10"/>
       <c t="s" r="N103" s="8">
-        <v>247</v>
+        <v>252</v>
       </c>
       <c r="O103" s="8"/>
       <c t="s" r="P103" s="11">
-        <v>270</v>
+        <v>102</v>
       </c>
       <c t="s" r="Q103" s="12">
-        <v>18</v>
+        <v>274</v>
       </c>
     </row>
     <row r="104" ht="25.5" customHeight="1">
@@ -4725,31 +4743,31 @@
       </c>
       <c r="B104" s="7"/>
       <c t="s" r="C104" s="8">
-        <v>271</v>
+        <v>275</v>
       </c>
       <c r="D104" s="8"/>
       <c r="E104" s="8"/>
       <c r="F104" s="8"/>
       <c r="G104" s="8"/>
       <c t="s" r="H104" s="9">
-        <v>272</v>
+        <v>45</v>
       </c>
       <c r="I104" s="9"/>
       <c r="J104" s="9"/>
       <c r="K104" s="9"/>
       <c t="s" r="L104" s="10">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="M104" s="10"/>
       <c t="s" r="N104" s="8">
-        <v>273</v>
+        <v>261</v>
       </c>
       <c r="O104" s="8"/>
       <c t="s" r="P104" s="11">
-        <v>274</v>
+        <v>262</v>
       </c>
       <c t="s" r="Q104" s="12">
-        <v>18</v>
+        <v>22</v>
       </c>
     </row>
     <row r="105" ht="24.75" customHeight="1">
@@ -4758,31 +4776,31 @@
       </c>
       <c r="B105" s="7"/>
       <c t="s" r="C105" s="8">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="D105" s="8"/>
       <c r="E105" s="8"/>
       <c r="F105" s="8"/>
       <c r="G105" s="8"/>
       <c t="s" r="H105" s="9">
-        <v>39</v>
+        <v>22</v>
       </c>
       <c r="I105" s="9"/>
       <c r="J105" s="9"/>
       <c r="K105" s="9"/>
       <c t="s" r="L105" s="10">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="M105" s="10"/>
       <c t="s" r="N105" s="8">
-        <v>276</v>
+        <v>264</v>
       </c>
       <c r="O105" s="8"/>
       <c t="s" r="P105" s="11">
-        <v>277</v>
+        <v>265</v>
       </c>
       <c t="s" r="Q105" s="12">
-        <v>18</v>
+        <v>20</v>
       </c>
     </row>
     <row r="106" ht="25.5" customHeight="1">
@@ -4791,31 +4809,31 @@
       </c>
       <c r="B106" s="7"/>
       <c t="s" r="C106" s="8">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="D106" s="8"/>
       <c r="E106" s="8"/>
       <c r="F106" s="8"/>
       <c r="G106" s="8"/>
       <c t="s" r="H106" s="9">
-        <v>279</v>
+        <v>45</v>
       </c>
       <c r="I106" s="9"/>
       <c r="J106" s="9"/>
       <c r="K106" s="9"/>
       <c t="s" r="L106" s="10">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="M106" s="10"/>
       <c t="s" r="N106" s="8">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="O106" s="8"/>
       <c t="s" r="P106" s="11">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c t="s" r="Q106" s="12">
-        <v>83</v>
+        <v>20</v>
       </c>
     </row>
     <row r="107" ht="25.5" customHeight="1">
@@ -4824,31 +4842,31 @@
       </c>
       <c r="B107" s="7"/>
       <c t="s" r="C107" s="8">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="D107" s="8"/>
       <c r="E107" s="8"/>
       <c r="F107" s="8"/>
       <c r="G107" s="8"/>
       <c t="s" r="H107" s="9">
-        <v>263</v>
+        <v>280</v>
       </c>
       <c r="I107" s="9"/>
       <c r="J107" s="9"/>
       <c r="K107" s="9"/>
       <c t="s" r="L107" s="10">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="M107" s="10"/>
       <c t="s" r="N107" s="8">
-        <v>178</v>
+        <v>281</v>
       </c>
       <c r="O107" s="8"/>
       <c t="s" r="P107" s="11">
-        <v>179</v>
+        <v>282</v>
       </c>
       <c t="s" r="Q107" s="12">
-        <v>18</v>
+        <v>20</v>
       </c>
     </row>
     <row r="108" ht="24.75" customHeight="1">
@@ -4857,31 +4875,31 @@
       </c>
       <c r="B108" s="7"/>
       <c t="s" r="C108" s="8">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="D108" s="8"/>
       <c r="E108" s="8"/>
       <c r="F108" s="8"/>
       <c r="G108" s="8"/>
       <c t="s" r="H108" s="9">
-        <v>45</v>
+        <v>38</v>
       </c>
       <c r="I108" s="9"/>
       <c r="J108" s="9"/>
       <c r="K108" s="9"/>
       <c t="s" r="L108" s="10">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="M108" s="10"/>
       <c t="s" r="N108" s="8">
-        <v>249</v>
+        <v>284</v>
       </c>
       <c r="O108" s="8"/>
       <c t="s" r="P108" s="11">
-        <v>270</v>
+        <v>285</v>
       </c>
       <c t="s" r="Q108" s="12">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="109" ht="25.5" customHeight="1">
@@ -4890,31 +4908,31 @@
       </c>
       <c r="B109" s="7"/>
       <c t="s" r="C109" s="8">
-        <v>283</v>
+        <v>286</v>
       </c>
       <c r="D109" s="8"/>
       <c r="E109" s="8"/>
       <c r="F109" s="8"/>
       <c r="G109" s="8"/>
       <c t="s" r="H109" s="9">
-        <v>18</v>
+        <v>287</v>
       </c>
       <c r="I109" s="9"/>
       <c r="J109" s="9"/>
       <c r="K109" s="9"/>
       <c t="s" r="L109" s="10">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="M109" s="10"/>
       <c t="s" r="N109" s="8">
-        <v>284</v>
+        <v>264</v>
       </c>
       <c r="O109" s="8"/>
       <c t="s" r="P109" s="11">
-        <v>285</v>
+        <v>288</v>
       </c>
       <c t="s" r="Q109" s="12">
-        <v>18</v>
+        <v>85</v>
       </c>
     </row>
     <row r="110" ht="24.75" customHeight="1">
@@ -4923,31 +4941,31 @@
       </c>
       <c r="B110" s="7"/>
       <c t="s" r="C110" s="8">
-        <v>286</v>
+        <v>289</v>
       </c>
       <c r="D110" s="8"/>
       <c r="E110" s="8"/>
       <c r="F110" s="8"/>
       <c r="G110" s="8"/>
       <c t="s" r="H110" s="9">
-        <v>258</v>
+        <v>272</v>
       </c>
       <c r="I110" s="9"/>
       <c r="J110" s="9"/>
       <c r="K110" s="9"/>
       <c t="s" r="L110" s="10">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="M110" s="10"/>
       <c t="s" r="N110" s="8">
-        <v>287</v>
+        <v>180</v>
       </c>
       <c r="O110" s="8"/>
       <c t="s" r="P110" s="11">
-        <v>288</v>
+        <v>181</v>
       </c>
       <c t="s" r="Q110" s="12">
-        <v>18</v>
+        <v>20</v>
       </c>
     </row>
     <row r="111" ht="25.5" customHeight="1">
@@ -4956,7 +4974,7 @@
       </c>
       <c r="B111" s="7"/>
       <c t="s" r="C111" s="8">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="D111" s="8"/>
       <c r="E111" s="8"/>
@@ -4969,18 +4987,18 @@
       <c r="J111" s="9"/>
       <c r="K111" s="9"/>
       <c t="s" r="L111" s="10">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="M111" s="10"/>
       <c t="s" r="N111" s="8">
-        <v>290</v>
+        <v>258</v>
       </c>
       <c r="O111" s="8"/>
       <c t="s" r="P111" s="11">
-        <v>291</v>
+        <v>278</v>
       </c>
       <c t="s" r="Q111" s="12">
-        <v>18</v>
+        <v>22</v>
       </c>
     </row>
     <row r="112" ht="25.5" customHeight="1">
@@ -4989,66 +5007,165 @@
       </c>
       <c r="B112" s="7"/>
       <c t="s" r="C112" s="8">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="D112" s="8"/>
       <c r="E112" s="8"/>
       <c r="F112" s="8"/>
       <c r="G112" s="8"/>
       <c t="s" r="H112" s="9">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="I112" s="9"/>
       <c r="J112" s="9"/>
       <c r="K112" s="9"/>
       <c t="s" r="L112" s="10">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="M112" s="10"/>
       <c t="s" r="N112" s="8">
-        <v>249</v>
+        <v>292</v>
       </c>
       <c r="O112" s="8"/>
       <c t="s" r="P112" s="11">
-        <v>250</v>
+        <v>293</v>
       </c>
       <c t="s" r="Q112" s="12">
-        <v>18</v>
+        <v>20</v>
       </c>
     </row>
     <row r="113" ht="24.75" customHeight="1">
-      <c r="P113" s="13">
-        <v>6822.0150000000003</v>
-      </c>
-      <c r="Q113" s="13"/>
-    </row>
-    <row r="114" ht="16.5" customHeight="1">
-      <c t="s" r="A114" s="14">
-        <v>293</v>
-      </c>
-      <c r="B114" s="14"/>
-      <c r="C114" s="14"/>
-      <c r="D114" s="14"/>
-      <c r="E114" s="14"/>
-      <c r="F114" s="14"/>
-      <c t="s" r="G114" s="15">
+      <c r="A113" s="7">
+        <v>107</v>
+      </c>
+      <c r="B113" s="7"/>
+      <c t="s" r="C113" s="8">
         <v>294</v>
       </c>
-      <c r="H114" s="15"/>
-      <c r="I114" s="15"/>
-      <c r="J114" s="16"/>
-      <c t="s" r="K114" s="17">
+      <c r="D113" s="8"/>
+      <c r="E113" s="8"/>
+      <c r="F113" s="8"/>
+      <c r="G113" s="8"/>
+      <c t="s" r="H113" s="9">
+        <v>267</v>
+      </c>
+      <c r="I113" s="9"/>
+      <c r="J113" s="9"/>
+      <c r="K113" s="9"/>
+      <c t="s" r="L113" s="10">
+        <v>166</v>
+      </c>
+      <c r="M113" s="10"/>
+      <c t="s" r="N113" s="8">
+        <v>223</v>
+      </c>
+      <c r="O113" s="8"/>
+      <c t="s" r="P113" s="11">
+        <v>224</v>
+      </c>
+      <c t="s" r="Q113" s="12">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="114" ht="25.5" customHeight="1">
+      <c r="A114" s="7">
+        <v>108</v>
+      </c>
+      <c r="B114" s="7"/>
+      <c t="s" r="C114" s="8">
         <v>295</v>
       </c>
-      <c r="L114" s="17"/>
-      <c r="M114" s="17"/>
-      <c r="N114" s="17"/>
-      <c r="O114" s="17"/>
-      <c r="P114" s="17"/>
-      <c r="Q114" s="17"/>
+      <c r="D114" s="8"/>
+      <c r="E114" s="8"/>
+      <c r="F114" s="8"/>
+      <c r="G114" s="8"/>
+      <c t="s" r="H114" s="9">
+        <v>45</v>
+      </c>
+      <c r="I114" s="9"/>
+      <c r="J114" s="9"/>
+      <c r="K114" s="9"/>
+      <c t="s" r="L114" s="10">
+        <v>166</v>
+      </c>
+      <c r="M114" s="10"/>
+      <c t="s" r="N114" s="8">
+        <v>296</v>
+      </c>
+      <c r="O114" s="8"/>
+      <c t="s" r="P114" s="11">
+        <v>297</v>
+      </c>
+      <c t="s" r="Q114" s="12">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="115" ht="24.75" customHeight="1">
+      <c r="A115" s="7">
+        <v>109</v>
+      </c>
+      <c r="B115" s="7"/>
+      <c t="s" r="C115" s="8">
+        <v>298</v>
+      </c>
+      <c r="D115" s="8"/>
+      <c r="E115" s="8"/>
+      <c r="F115" s="8"/>
+      <c r="G115" s="8"/>
+      <c t="s" r="H115" s="9">
+        <v>22</v>
+      </c>
+      <c r="I115" s="9"/>
+      <c r="J115" s="9"/>
+      <c r="K115" s="9"/>
+      <c t="s" r="L115" s="10">
+        <v>166</v>
+      </c>
+      <c r="M115" s="10"/>
+      <c t="s" r="N115" s="8">
+        <v>258</v>
+      </c>
+      <c r="O115" s="8"/>
+      <c t="s" r="P115" s="11">
+        <v>259</v>
+      </c>
+      <c t="s" r="Q115" s="12">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="116" ht="25.5" customHeight="1">
+      <c r="P116" s="13">
+        <v>7006.7049999999999</v>
+      </c>
+      <c r="Q116" s="13"/>
+    </row>
+    <row r="117" ht="16.5" customHeight="1">
+      <c t="s" r="A117" s="14">
+        <v>299</v>
+      </c>
+      <c r="B117" s="14"/>
+      <c r="C117" s="14"/>
+      <c r="D117" s="14"/>
+      <c r="E117" s="14"/>
+      <c r="F117" s="14"/>
+      <c t="s" r="G117" s="15">
+        <v>300</v>
+      </c>
+      <c r="H117" s="15"/>
+      <c r="I117" s="15"/>
+      <c r="J117" s="16"/>
+      <c t="s" r="K117" s="17">
+        <v>301</v>
+      </c>
+      <c r="L117" s="17"/>
+      <c r="M117" s="17"/>
+      <c r="N117" s="17"/>
+      <c r="O117" s="17"/>
+      <c r="P117" s="17"/>
+      <c r="Q117" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="542">
+  <mergeCells count="557">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -5587,10 +5704,25 @@
     <mergeCell ref="H112:K112"/>
     <mergeCell ref="L112:M112"/>
     <mergeCell ref="N112:O112"/>
-    <mergeCell ref="P113:Q113"/>
-    <mergeCell ref="A114:F114"/>
-    <mergeCell ref="G114:I114"/>
-    <mergeCell ref="K114:Q114"/>
+    <mergeCell ref="A113:B113"/>
+    <mergeCell ref="C113:G113"/>
+    <mergeCell ref="H113:K113"/>
+    <mergeCell ref="L113:M113"/>
+    <mergeCell ref="N113:O113"/>
+    <mergeCell ref="A114:B114"/>
+    <mergeCell ref="C114:G114"/>
+    <mergeCell ref="H114:K114"/>
+    <mergeCell ref="L114:M114"/>
+    <mergeCell ref="N114:O114"/>
+    <mergeCell ref="A115:B115"/>
+    <mergeCell ref="C115:G115"/>
+    <mergeCell ref="H115:K115"/>
+    <mergeCell ref="L115:M115"/>
+    <mergeCell ref="N115:O115"/>
+    <mergeCell ref="P116:Q116"/>
+    <mergeCell ref="A117:F117"/>
+    <mergeCell ref="G117:I117"/>
+    <mergeCell ref="K117:Q117"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-08-08_00-00.xlsx
+++ b/DaySale_2025-08-08_00-00.xlsx
@@ -359,6 +359,18 @@
     <t>36.0000</t>
   </si>
   <si>
+    <t>EREC 100MG 12 F.C. TABLETS</t>
+  </si>
+  <si>
+    <t>6:6</t>
+  </si>
+  <si>
+    <t>144.00</t>
+  </si>
+  <si>
+    <t>23.0400</t>
+  </si>
+  <si>
     <t>ETHOXA 250MG/5ML SYRUP 120ML</t>
   </si>
   <si>
@@ -377,6 +389,15 @@
     <t>41.0000</t>
   </si>
   <si>
+    <t>FAWAR FRUIT 6 SACHETS</t>
+  </si>
+  <si>
+    <t>24.00</t>
+  </si>
+  <si>
+    <t>3.8400</t>
+  </si>
+  <si>
     <t>FEBURIC 40 MG 10 F.C. TABLETS</t>
   </si>
   <si>
@@ -678,9 +699,6 @@
   </si>
   <si>
     <t>TUSSKAN SYRUP 100 ML</t>
-  </si>
-  <si>
-    <t>24.00</t>
   </si>
   <si>
     <t>24.0000</t>
@@ -2605,7 +2623,7 @@
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>20</v>
+        <v>117</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
@@ -2615,14 +2633,14 @@
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c t="s" r="Q39" s="12">
-        <v>20</v>
+        <v>80</v>
       </c>
     </row>
     <row r="40" ht="24.75" customHeight="1">
@@ -2631,7 +2649,7 @@
       </c>
       <c r="B40" s="7"/>
       <c t="s" r="C40" s="8">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="D40" s="8"/>
       <c r="E40" s="8"/>
@@ -2648,11 +2666,11 @@
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c t="s" r="Q40" s="12">
         <v>20</v>
@@ -2664,14 +2682,14 @@
       </c>
       <c r="B41" s="7"/>
       <c t="s" r="C41" s="8">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="D41" s="8"/>
       <c r="E41" s="8"/>
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
@@ -2681,11 +2699,11 @@
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c t="s" r="Q41" s="12">
         <v>20</v>
@@ -2697,14 +2715,14 @@
       </c>
       <c r="B42" s="7"/>
       <c t="s" r="C42" s="8">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="D42" s="8"/>
       <c r="E42" s="8"/>
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>30</v>
+        <v>12</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
@@ -2714,11 +2732,11 @@
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c t="s" r="Q42" s="12">
         <v>16</v>
@@ -2730,14 +2748,14 @@
       </c>
       <c r="B43" s="7"/>
       <c t="s" r="C43" s="8">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="D43" s="8"/>
       <c r="E43" s="8"/>
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>38</v>
+        <v>22</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
@@ -2747,11 +2765,11 @@
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>101</v>
+        <v>130</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
-        <v>102</v>
+        <v>131</v>
       </c>
       <c t="s" r="Q43" s="12">
         <v>20</v>
@@ -2763,14 +2781,14 @@
       </c>
       <c r="B44" s="7"/>
       <c t="s" r="C44" s="8">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="D44" s="8"/>
       <c r="E44" s="8"/>
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>22</v>
+        <v>30</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
@@ -2780,14 +2798,14 @@
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>101</v>
+        <v>133</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
-        <v>102</v>
+        <v>134</v>
       </c>
       <c t="s" r="Q44" s="12">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="45" ht="24.75" customHeight="1">
@@ -2796,14 +2814,14 @@
       </c>
       <c r="B45" s="7"/>
       <c t="s" r="C45" s="8">
-        <v>130</v>
+        <v>135</v>
       </c>
       <c r="D45" s="8"/>
       <c r="E45" s="8"/>
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>30</v>
+        <v>38</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
@@ -2813,14 +2831,14 @@
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>131</v>
+        <v>101</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
-        <v>132</v>
+        <v>102</v>
       </c>
       <c t="s" r="Q45" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="46" ht="25.5" customHeight="1">
@@ -2829,14 +2847,14 @@
       </c>
       <c r="B46" s="7"/>
       <c t="s" r="C46" s="8">
-        <v>133</v>
+        <v>136</v>
       </c>
       <c r="D46" s="8"/>
       <c r="E46" s="8"/>
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>45</v>
+        <v>22</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
@@ -2846,11 +2864,11 @@
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>134</v>
+        <v>101</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
-        <v>135</v>
+        <v>102</v>
       </c>
       <c t="s" r="Q46" s="12">
         <v>20</v>
@@ -2862,14 +2880,14 @@
       </c>
       <c r="B47" s="7"/>
       <c t="s" r="C47" s="8">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="D47" s="8"/>
       <c r="E47" s="8"/>
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
@@ -2879,11 +2897,11 @@
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c t="s" r="Q47" s="12">
         <v>16</v>
@@ -2895,14 +2913,14 @@
       </c>
       <c r="B48" s="7"/>
       <c t="s" r="C48" s="8">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="D48" s="8"/>
       <c r="E48" s="8"/>
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>140</v>
+        <v>45</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
@@ -2919,7 +2937,7 @@
         <v>142</v>
       </c>
       <c t="s" r="Q48" s="12">
-        <v>95</v>
+        <v>20</v>
       </c>
     </row>
     <row r="49" ht="25.5" customHeight="1">
@@ -2935,7 +2953,7 @@
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>38</v>
+        <v>20</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
@@ -2952,7 +2970,7 @@
         <v>145</v>
       </c>
       <c t="s" r="Q49" s="12">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="50" ht="24.75" customHeight="1">
@@ -2968,7 +2986,7 @@
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>30</v>
+        <v>147</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
@@ -2978,14 +2996,14 @@
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>67</v>
+        <v>148</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
-        <v>68</v>
+        <v>149</v>
       </c>
       <c t="s" r="Q50" s="12">
-        <v>16</v>
+        <v>95</v>
       </c>
     </row>
     <row r="51" ht="25.5" customHeight="1">
@@ -2994,14 +3012,14 @@
       </c>
       <c r="B51" s="7"/>
       <c t="s" r="C51" s="8">
-        <v>147</v>
+        <v>150</v>
       </c>
       <c r="D51" s="8"/>
       <c r="E51" s="8"/>
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>45</v>
+        <v>38</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
@@ -3011,14 +3029,14 @@
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>86</v>
+        <v>151</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
-        <v>148</v>
+        <v>152</v>
       </c>
       <c t="s" r="Q51" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="52" ht="25.5" customHeight="1">
@@ -3027,14 +3045,14 @@
       </c>
       <c r="B52" s="7"/>
       <c t="s" r="C52" s="8">
-        <v>149</v>
+        <v>153</v>
       </c>
       <c r="D52" s="8"/>
       <c r="E52" s="8"/>
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>95</v>
+        <v>30</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
@@ -3044,11 +3062,11 @@
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>46</v>
+        <v>67</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
-        <v>150</v>
+        <v>68</v>
       </c>
       <c t="s" r="Q52" s="12">
         <v>16</v>
@@ -3060,14 +3078,14 @@
       </c>
       <c r="B53" s="7"/>
       <c t="s" r="C53" s="8">
-        <v>151</v>
+        <v>154</v>
       </c>
       <c r="D53" s="8"/>
       <c r="E53" s="8"/>
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>16</v>
+        <v>45</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
@@ -3077,11 +3095,11 @@
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
-        <v>152</v>
+        <v>86</v>
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c t="s" r="Q53" s="12">
         <v>16</v>
@@ -3093,14 +3111,14 @@
       </c>
       <c r="B54" s="7"/>
       <c t="s" r="C54" s="8">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="D54" s="8"/>
       <c r="E54" s="8"/>
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>30</v>
+        <v>95</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
@@ -3110,11 +3128,11 @@
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
-        <v>155</v>
+        <v>46</v>
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
-        <v>87</v>
+        <v>157</v>
       </c>
       <c t="s" r="Q54" s="12">
         <v>16</v>
@@ -3126,14 +3144,14 @@
       </c>
       <c r="B55" s="7"/>
       <c t="s" r="C55" s="8">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="D55" s="8"/>
       <c r="E55" s="8"/>
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>80</v>
+        <v>16</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
@@ -3143,11 +3161,11 @@
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c t="s" r="Q55" s="12">
         <v>16</v>
@@ -3159,14 +3177,14 @@
       </c>
       <c r="B56" s="7"/>
       <c t="s" r="C56" s="8">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="D56" s="8"/>
       <c r="E56" s="8"/>
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>22</v>
+        <v>30</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
@@ -3176,14 +3194,14 @@
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
-        <v>161</v>
+        <v>87</v>
       </c>
       <c t="s" r="Q56" s="12">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="57" ht="25.5" customHeight="1">
@@ -3192,14 +3210,14 @@
       </c>
       <c r="B57" s="7"/>
       <c t="s" r="C57" s="8">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="D57" s="8"/>
       <c r="E57" s="8"/>
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>20</v>
+        <v>80</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
@@ -3209,11 +3227,11 @@
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c t="s" r="Q57" s="12">
         <v>16</v>
@@ -3225,7 +3243,7 @@
       </c>
       <c r="B58" s="7"/>
       <c t="s" r="C58" s="8">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="D58" s="8"/>
       <c r="E58" s="8"/>
@@ -3238,18 +3256,18 @@
       <c r="J58" s="9"/>
       <c r="K58" s="9"/>
       <c t="s" r="L58" s="10">
-        <v>166</v>
+        <v>13</v>
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
-        <v>141</v>
+        <v>167</v>
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c t="s" r="Q58" s="12">
-        <v>80</v>
+        <v>20</v>
       </c>
     </row>
     <row r="59" ht="25.5" customHeight="1">
@@ -3258,14 +3276,14 @@
       </c>
       <c r="B59" s="7"/>
       <c t="s" r="C59" s="8">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="D59" s="8"/>
       <c r="E59" s="8"/>
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c t="s" r="H59" s="9">
-        <v>38</v>
+        <v>20</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
@@ -3275,14 +3293,14 @@
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
-        <v>98</v>
+        <v>170</v>
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c t="s" r="Q59" s="12">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="60" ht="24.75" customHeight="1">
@@ -3291,31 +3309,31 @@
       </c>
       <c r="B60" s="7"/>
       <c t="s" r="C60" s="8">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="D60" s="8"/>
       <c r="E60" s="8"/>
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c t="s" r="H60" s="9">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
       <c r="K60" s="9"/>
       <c t="s" r="L60" s="10">
-        <v>13</v>
+        <v>173</v>
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
-        <v>157</v>
+        <v>148</v>
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
-        <v>171</v>
+        <v>174</v>
       </c>
       <c t="s" r="Q60" s="12">
-        <v>20</v>
+        <v>80</v>
       </c>
     </row>
     <row r="61" ht="25.5" customHeight="1">
@@ -3324,14 +3342,14 @@
       </c>
       <c r="B61" s="7"/>
       <c t="s" r="C61" s="8">
-        <v>172</v>
+        <v>175</v>
       </c>
       <c r="D61" s="8"/>
       <c r="E61" s="8"/>
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
       <c t="s" r="H61" s="9">
-        <v>16</v>
+        <v>38</v>
       </c>
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
@@ -3341,14 +3359,14 @@
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
-        <v>173</v>
+        <v>98</v>
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
-        <v>47</v>
+        <v>176</v>
       </c>
       <c t="s" r="Q61" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="62" ht="25.5" customHeight="1">
@@ -3357,14 +3375,14 @@
       </c>
       <c r="B62" s="7"/>
       <c t="s" r="C62" s="8">
-        <v>174</v>
+        <v>177</v>
       </c>
       <c r="D62" s="8"/>
       <c r="E62" s="8"/>
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
       <c t="s" r="H62" s="9">
-        <v>45</v>
+        <v>16</v>
       </c>
       <c r="I62" s="9"/>
       <c r="J62" s="9"/>
@@ -3374,11 +3392,11 @@
       </c>
       <c r="M62" s="10"/>
       <c t="s" r="N62" s="8">
-        <v>126</v>
+        <v>164</v>
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
-        <v>175</v>
+        <v>178</v>
       </c>
       <c t="s" r="Q62" s="12">
         <v>20</v>
@@ -3390,14 +3408,14 @@
       </c>
       <c r="B63" s="7"/>
       <c t="s" r="C63" s="8">
-        <v>176</v>
+        <v>179</v>
       </c>
       <c r="D63" s="8"/>
       <c r="E63" s="8"/>
       <c r="F63" s="8"/>
       <c r="G63" s="8"/>
       <c t="s" r="H63" s="9">
-        <v>45</v>
+        <v>16</v>
       </c>
       <c r="I63" s="9"/>
       <c r="J63" s="9"/>
@@ -3407,14 +3425,14 @@
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
-        <v>177</v>
+        <v>180</v>
       </c>
       <c r="O63" s="8"/>
       <c t="s" r="P63" s="11">
-        <v>178</v>
+        <v>47</v>
       </c>
       <c t="s" r="Q63" s="12">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="64" ht="25.5" customHeight="1">
@@ -3423,7 +3441,7 @@
       </c>
       <c r="B64" s="7"/>
       <c t="s" r="C64" s="8">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="D64" s="8"/>
       <c r="E64" s="8"/>
@@ -3440,11 +3458,11 @@
       </c>
       <c r="M64" s="10"/>
       <c t="s" r="N64" s="8">
-        <v>180</v>
+        <v>133</v>
       </c>
       <c r="O64" s="8"/>
       <c t="s" r="P64" s="11">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c t="s" r="Q64" s="12">
         <v>20</v>
@@ -3456,14 +3474,14 @@
       </c>
       <c r="B65" s="7"/>
       <c t="s" r="C65" s="8">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="D65" s="8"/>
       <c r="E65" s="8"/>
       <c r="F65" s="8"/>
       <c r="G65" s="8"/>
       <c t="s" r="H65" s="9">
-        <v>20</v>
+        <v>45</v>
       </c>
       <c r="I65" s="9"/>
       <c r="J65" s="9"/>
@@ -3473,14 +3491,14 @@
       </c>
       <c r="M65" s="10"/>
       <c t="s" r="N65" s="8">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="O65" s="8"/>
       <c t="s" r="P65" s="11">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c t="s" r="Q65" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="66" ht="25.5" customHeight="1">
@@ -3489,14 +3507,14 @@
       </c>
       <c r="B66" s="7"/>
       <c t="s" r="C66" s="8">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="D66" s="8"/>
       <c r="E66" s="8"/>
       <c r="F66" s="8"/>
       <c r="G66" s="8"/>
       <c t="s" r="H66" s="9">
-        <v>16</v>
+        <v>45</v>
       </c>
       <c r="I66" s="9"/>
       <c r="J66" s="9"/>
@@ -3506,14 +3524,14 @@
       </c>
       <c r="M66" s="10"/>
       <c t="s" r="N66" s="8">
-        <v>107</v>
+        <v>187</v>
       </c>
       <c r="O66" s="8"/>
       <c t="s" r="P66" s="11">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c t="s" r="Q66" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="67" ht="25.5" customHeight="1">
@@ -3522,14 +3540,14 @@
       </c>
       <c r="B67" s="7"/>
       <c t="s" r="C67" s="8">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="D67" s="8"/>
       <c r="E67" s="8"/>
       <c r="F67" s="8"/>
       <c r="G67" s="8"/>
       <c t="s" r="H67" s="9">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="I67" s="9"/>
       <c r="J67" s="9"/>
@@ -3539,14 +3557,14 @@
       </c>
       <c r="M67" s="10"/>
       <c t="s" r="N67" s="8">
-        <v>110</v>
+        <v>190</v>
       </c>
       <c r="O67" s="8"/>
       <c t="s" r="P67" s="11">
-        <v>188</v>
+        <v>191</v>
       </c>
       <c t="s" r="Q67" s="12">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="68" ht="24.75" customHeight="1">
@@ -3555,14 +3573,14 @@
       </c>
       <c r="B68" s="7"/>
       <c t="s" r="C68" s="8">
-        <v>189</v>
+        <v>192</v>
       </c>
       <c r="D68" s="8"/>
       <c r="E68" s="8"/>
       <c r="F68" s="8"/>
       <c r="G68" s="8"/>
       <c t="s" r="H68" s="9">
-        <v>190</v>
+        <v>16</v>
       </c>
       <c r="I68" s="9"/>
       <c r="J68" s="9"/>
@@ -3572,14 +3590,14 @@
       </c>
       <c r="M68" s="10"/>
       <c t="s" r="N68" s="8">
-        <v>144</v>
+        <v>107</v>
       </c>
       <c r="O68" s="8"/>
       <c t="s" r="P68" s="11">
-        <v>145</v>
+        <v>193</v>
       </c>
       <c t="s" r="Q68" s="12">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="69" ht="25.5" customHeight="1">
@@ -3588,14 +3606,14 @@
       </c>
       <c r="B69" s="7"/>
       <c t="s" r="C69" s="8">
-        <v>191</v>
+        <v>194</v>
       </c>
       <c r="D69" s="8"/>
       <c r="E69" s="8"/>
       <c r="F69" s="8"/>
       <c r="G69" s="8"/>
       <c t="s" r="H69" s="9">
-        <v>192</v>
+        <v>22</v>
       </c>
       <c r="I69" s="9"/>
       <c r="J69" s="9"/>
@@ -3605,14 +3623,14 @@
       </c>
       <c r="M69" s="10"/>
       <c t="s" r="N69" s="8">
-        <v>193</v>
+        <v>110</v>
       </c>
       <c r="O69" s="8"/>
       <c t="s" r="P69" s="11">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c t="s" r="Q69" s="12">
-        <v>195</v>
+        <v>20</v>
       </c>
     </row>
     <row r="70" ht="24.75" customHeight="1">
@@ -3628,7 +3646,7 @@
       <c r="F70" s="8"/>
       <c r="G70" s="8"/>
       <c t="s" r="H70" s="9">
-        <v>20</v>
+        <v>197</v>
       </c>
       <c r="I70" s="9"/>
       <c r="J70" s="9"/>
@@ -3638,11 +3656,11 @@
       </c>
       <c r="M70" s="10"/>
       <c t="s" r="N70" s="8">
-        <v>197</v>
+        <v>151</v>
       </c>
       <c r="O70" s="8"/>
       <c t="s" r="P70" s="11">
-        <v>198</v>
+        <v>152</v>
       </c>
       <c t="s" r="Q70" s="12">
         <v>20</v>
@@ -3654,14 +3672,14 @@
       </c>
       <c r="B71" s="7"/>
       <c t="s" r="C71" s="8">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="D71" s="8"/>
       <c r="E71" s="8"/>
       <c r="F71" s="8"/>
       <c r="G71" s="8"/>
       <c t="s" r="H71" s="9">
-        <v>45</v>
+        <v>199</v>
       </c>
       <c r="I71" s="9"/>
       <c r="J71" s="9"/>
@@ -3671,14 +3689,14 @@
       </c>
       <c r="M71" s="10"/>
       <c t="s" r="N71" s="8">
-        <v>134</v>
+        <v>200</v>
       </c>
       <c r="O71" s="8"/>
       <c t="s" r="P71" s="11">
-        <v>135</v>
+        <v>201</v>
       </c>
       <c t="s" r="Q71" s="12">
-        <v>20</v>
+        <v>202</v>
       </c>
     </row>
     <row r="72" ht="25.5" customHeight="1">
@@ -3687,14 +3705,14 @@
       </c>
       <c r="B72" s="7"/>
       <c t="s" r="C72" s="8">
-        <v>200</v>
+        <v>203</v>
       </c>
       <c r="D72" s="8"/>
       <c r="E72" s="8"/>
       <c r="F72" s="8"/>
       <c r="G72" s="8"/>
       <c t="s" r="H72" s="9">
-        <v>201</v>
+        <v>20</v>
       </c>
       <c r="I72" s="9"/>
       <c r="J72" s="9"/>
@@ -3704,14 +3722,14 @@
       </c>
       <c r="M72" s="10"/>
       <c t="s" r="N72" s="8">
-        <v>155</v>
+        <v>204</v>
       </c>
       <c r="O72" s="8"/>
       <c t="s" r="P72" s="11">
-        <v>87</v>
+        <v>205</v>
       </c>
       <c t="s" r="Q72" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="73" ht="24.75" customHeight="1">
@@ -3720,14 +3738,14 @@
       </c>
       <c r="B73" s="7"/>
       <c t="s" r="C73" s="8">
-        <v>202</v>
+        <v>206</v>
       </c>
       <c r="D73" s="8"/>
       <c r="E73" s="8"/>
       <c r="F73" s="8"/>
       <c r="G73" s="8"/>
       <c t="s" r="H73" s="9">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="I73" s="9"/>
       <c r="J73" s="9"/>
@@ -3737,14 +3755,14 @@
       </c>
       <c r="M73" s="10"/>
       <c t="s" r="N73" s="8">
-        <v>101</v>
+        <v>141</v>
       </c>
       <c r="O73" s="8"/>
       <c t="s" r="P73" s="11">
-        <v>203</v>
+        <v>142</v>
       </c>
       <c t="s" r="Q73" s="12">
-        <v>80</v>
+        <v>20</v>
       </c>
     </row>
     <row r="74" ht="25.5" customHeight="1">
@@ -3753,14 +3771,14 @@
       </c>
       <c r="B74" s="7"/>
       <c t="s" r="C74" s="8">
-        <v>204</v>
+        <v>207</v>
       </c>
       <c r="D74" s="8"/>
       <c r="E74" s="8"/>
       <c r="F74" s="8"/>
       <c r="G74" s="8"/>
       <c t="s" r="H74" s="9">
-        <v>71</v>
+        <v>208</v>
       </c>
       <c r="I74" s="9"/>
       <c r="J74" s="9"/>
@@ -3770,14 +3788,14 @@
       </c>
       <c r="M74" s="10"/>
       <c t="s" r="N74" s="8">
-        <v>27</v>
+        <v>162</v>
       </c>
       <c r="O74" s="8"/>
       <c t="s" r="P74" s="11">
-        <v>205</v>
+        <v>87</v>
       </c>
       <c t="s" r="Q74" s="12">
-        <v>30</v>
+        <v>16</v>
       </c>
     </row>
     <row r="75" ht="24.75" customHeight="1">
@@ -3786,7 +3804,7 @@
       </c>
       <c r="B75" s="7"/>
       <c t="s" r="C75" s="8">
-        <v>206</v>
+        <v>209</v>
       </c>
       <c r="D75" s="8"/>
       <c r="E75" s="8"/>
@@ -3803,14 +3821,14 @@
       </c>
       <c r="M75" s="10"/>
       <c t="s" r="N75" s="8">
-        <v>96</v>
+        <v>101</v>
       </c>
       <c r="O75" s="8"/>
       <c t="s" r="P75" s="11">
-        <v>62</v>
+        <v>210</v>
       </c>
       <c t="s" r="Q75" s="12">
-        <v>20</v>
+        <v>80</v>
       </c>
     </row>
     <row r="76" ht="25.5" customHeight="1">
@@ -3819,14 +3837,14 @@
       </c>
       <c r="B76" s="7"/>
       <c t="s" r="C76" s="8">
-        <v>207</v>
+        <v>211</v>
       </c>
       <c r="D76" s="8"/>
       <c r="E76" s="8"/>
       <c r="F76" s="8"/>
       <c r="G76" s="8"/>
       <c t="s" r="H76" s="9">
-        <v>30</v>
+        <v>71</v>
       </c>
       <c r="I76" s="9"/>
       <c r="J76" s="9"/>
@@ -3836,14 +3854,14 @@
       </c>
       <c r="M76" s="10"/>
       <c t="s" r="N76" s="8">
-        <v>39</v>
+        <v>27</v>
       </c>
       <c r="O76" s="8"/>
       <c t="s" r="P76" s="11">
-        <v>40</v>
+        <v>212</v>
       </c>
       <c t="s" r="Q76" s="12">
-        <v>16</v>
+        <v>30</v>
       </c>
     </row>
     <row r="77" ht="25.5" customHeight="1">
@@ -3852,14 +3870,14 @@
       </c>
       <c r="B77" s="7"/>
       <c t="s" r="C77" s="8">
-        <v>208</v>
+        <v>213</v>
       </c>
       <c r="D77" s="8"/>
       <c r="E77" s="8"/>
       <c r="F77" s="8"/>
       <c r="G77" s="8"/>
       <c t="s" r="H77" s="9">
-        <v>209</v>
+        <v>42</v>
       </c>
       <c r="I77" s="9"/>
       <c r="J77" s="9"/>
@@ -3869,14 +3887,14 @@
       </c>
       <c r="M77" s="10"/>
       <c t="s" r="N77" s="8">
-        <v>210</v>
+        <v>96</v>
       </c>
       <c r="O77" s="8"/>
       <c t="s" r="P77" s="11">
-        <v>164</v>
+        <v>62</v>
       </c>
       <c t="s" r="Q77" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="78" ht="24.75" customHeight="1">
@@ -3885,14 +3903,14 @@
       </c>
       <c r="B78" s="7"/>
       <c t="s" r="C78" s="8">
-        <v>211</v>
+        <v>214</v>
       </c>
       <c r="D78" s="8"/>
       <c r="E78" s="8"/>
       <c r="F78" s="8"/>
       <c r="G78" s="8"/>
       <c t="s" r="H78" s="9">
-        <v>209</v>
+        <v>30</v>
       </c>
       <c r="I78" s="9"/>
       <c r="J78" s="9"/>
@@ -3902,14 +3920,14 @@
       </c>
       <c r="M78" s="10"/>
       <c t="s" r="N78" s="8">
-        <v>212</v>
+        <v>39</v>
       </c>
       <c r="O78" s="8"/>
       <c t="s" r="P78" s="11">
-        <v>213</v>
+        <v>40</v>
       </c>
       <c t="s" r="Q78" s="12">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="79" ht="25.5" customHeight="1">
@@ -3918,14 +3936,14 @@
       </c>
       <c r="B79" s="7"/>
       <c t="s" r="C79" s="8">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="D79" s="8"/>
       <c r="E79" s="8"/>
       <c r="F79" s="8"/>
       <c r="G79" s="8"/>
       <c t="s" r="H79" s="9">
-        <v>16</v>
+        <v>216</v>
       </c>
       <c r="I79" s="9"/>
       <c r="J79" s="9"/>
@@ -3935,11 +3953,11 @@
       </c>
       <c r="M79" s="10"/>
       <c t="s" r="N79" s="8">
-        <v>126</v>
+        <v>217</v>
       </c>
       <c r="O79" s="8"/>
       <c t="s" r="P79" s="11">
-        <v>127</v>
+        <v>171</v>
       </c>
       <c t="s" r="Q79" s="12">
         <v>16</v>
@@ -3951,14 +3969,14 @@
       </c>
       <c r="B80" s="7"/>
       <c t="s" r="C80" s="8">
-        <v>215</v>
+        <v>218</v>
       </c>
       <c r="D80" s="8"/>
       <c r="E80" s="8"/>
       <c r="F80" s="8"/>
       <c r="G80" s="8"/>
       <c t="s" r="H80" s="9">
-        <v>45</v>
+        <v>216</v>
       </c>
       <c r="I80" s="9"/>
       <c r="J80" s="9"/>
@@ -3968,11 +3986,11 @@
       </c>
       <c r="M80" s="10"/>
       <c t="s" r="N80" s="8">
-        <v>216</v>
+        <v>219</v>
       </c>
       <c r="O80" s="8"/>
       <c t="s" r="P80" s="11">
-        <v>217</v>
+        <v>220</v>
       </c>
       <c t="s" r="Q80" s="12">
         <v>20</v>
@@ -3984,14 +4002,14 @@
       </c>
       <c r="B81" s="7"/>
       <c t="s" r="C81" s="8">
-        <v>218</v>
+        <v>221</v>
       </c>
       <c r="D81" s="8"/>
       <c r="E81" s="8"/>
       <c r="F81" s="8"/>
       <c r="G81" s="8"/>
       <c t="s" r="H81" s="9">
-        <v>30</v>
+        <v>16</v>
       </c>
       <c r="I81" s="9"/>
       <c r="J81" s="9"/>
@@ -4001,11 +4019,11 @@
       </c>
       <c r="M81" s="10"/>
       <c t="s" r="N81" s="8">
-        <v>210</v>
+        <v>133</v>
       </c>
       <c r="O81" s="8"/>
       <c t="s" r="P81" s="11">
-        <v>164</v>
+        <v>134</v>
       </c>
       <c t="s" r="Q81" s="12">
         <v>16</v>
@@ -4017,14 +4035,14 @@
       </c>
       <c r="B82" s="7"/>
       <c t="s" r="C82" s="8">
-        <v>219</v>
+        <v>222</v>
       </c>
       <c r="D82" s="8"/>
       <c r="E82" s="8"/>
       <c r="F82" s="8"/>
       <c r="G82" s="8"/>
       <c t="s" r="H82" s="9">
-        <v>30</v>
+        <v>45</v>
       </c>
       <c r="I82" s="9"/>
       <c r="J82" s="9"/>
@@ -4034,14 +4052,14 @@
       </c>
       <c r="M82" s="10"/>
       <c t="s" r="N82" s="8">
-        <v>220</v>
+        <v>223</v>
       </c>
       <c r="O82" s="8"/>
       <c t="s" r="P82" s="11">
-        <v>221</v>
+        <v>224</v>
       </c>
       <c t="s" r="Q82" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="83" ht="24.75" customHeight="1">
@@ -4050,14 +4068,14 @@
       </c>
       <c r="B83" s="7"/>
       <c t="s" r="C83" s="8">
-        <v>222</v>
+        <v>225</v>
       </c>
       <c r="D83" s="8"/>
       <c r="E83" s="8"/>
       <c r="F83" s="8"/>
       <c r="G83" s="8"/>
       <c t="s" r="H83" s="9">
-        <v>22</v>
+        <v>30</v>
       </c>
       <c r="I83" s="9"/>
       <c r="J83" s="9"/>
@@ -4067,14 +4085,14 @@
       </c>
       <c r="M83" s="10"/>
       <c t="s" r="N83" s="8">
-        <v>223</v>
+        <v>217</v>
       </c>
       <c r="O83" s="8"/>
       <c t="s" r="P83" s="11">
-        <v>224</v>
+        <v>171</v>
       </c>
       <c t="s" r="Q83" s="12">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="84" ht="25.5" customHeight="1">
@@ -4083,14 +4101,14 @@
       </c>
       <c r="B84" s="7"/>
       <c t="s" r="C84" s="8">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="D84" s="8"/>
       <c r="E84" s="8"/>
       <c r="F84" s="8"/>
       <c r="G84" s="8"/>
       <c t="s" r="H84" s="9">
-        <v>22</v>
+        <v>30</v>
       </c>
       <c r="I84" s="9"/>
       <c r="J84" s="9"/>
@@ -4100,14 +4118,14 @@
       </c>
       <c r="M84" s="10"/>
       <c t="s" r="N84" s="8">
-        <v>123</v>
+        <v>227</v>
       </c>
       <c r="O84" s="8"/>
       <c t="s" r="P84" s="11">
-        <v>36</v>
+        <v>228</v>
       </c>
       <c t="s" r="Q84" s="12">
-        <v>22</v>
+        <v>16</v>
       </c>
     </row>
     <row r="85" ht="24.75" customHeight="1">
@@ -4116,14 +4134,14 @@
       </c>
       <c r="B85" s="7"/>
       <c t="s" r="C85" s="8">
-        <v>226</v>
+        <v>229</v>
       </c>
       <c r="D85" s="8"/>
       <c r="E85" s="8"/>
       <c r="F85" s="8"/>
       <c r="G85" s="8"/>
       <c t="s" r="H85" s="9">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="I85" s="9"/>
       <c r="J85" s="9"/>
@@ -4133,14 +4151,14 @@
       </c>
       <c r="M85" s="10"/>
       <c t="s" r="N85" s="8">
-        <v>227</v>
+        <v>127</v>
       </c>
       <c r="O85" s="8"/>
       <c t="s" r="P85" s="11">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c t="s" r="Q85" s="12">
-        <v>30</v>
+        <v>20</v>
       </c>
     </row>
     <row r="86" ht="25.5" customHeight="1">
@@ -4149,14 +4167,14 @@
       </c>
       <c r="B86" s="7"/>
       <c t="s" r="C86" s="8">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="D86" s="8"/>
       <c r="E86" s="8"/>
       <c r="F86" s="8"/>
       <c r="G86" s="8"/>
       <c t="s" r="H86" s="9">
-        <v>45</v>
+        <v>22</v>
       </c>
       <c r="I86" s="9"/>
       <c r="J86" s="9"/>
@@ -4166,14 +4184,14 @@
       </c>
       <c r="M86" s="10"/>
       <c t="s" r="N86" s="8">
-        <v>123</v>
+        <v>130</v>
       </c>
       <c r="O86" s="8"/>
       <c t="s" r="P86" s="11">
-        <v>124</v>
+        <v>36</v>
       </c>
       <c t="s" r="Q86" s="12">
-        <v>20</v>
+        <v>22</v>
       </c>
     </row>
     <row r="87" ht="25.5" customHeight="1">
@@ -4182,14 +4200,14 @@
       </c>
       <c r="B87" s="7"/>
       <c t="s" r="C87" s="8">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="D87" s="8"/>
       <c r="E87" s="8"/>
       <c r="F87" s="8"/>
       <c r="G87" s="8"/>
       <c t="s" r="H87" s="9">
-        <v>80</v>
+        <v>20</v>
       </c>
       <c r="I87" s="9"/>
       <c r="J87" s="9"/>
@@ -4199,14 +4217,14 @@
       </c>
       <c r="M87" s="10"/>
       <c t="s" r="N87" s="8">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="O87" s="8"/>
       <c t="s" r="P87" s="11">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c t="s" r="Q87" s="12">
-        <v>16</v>
+        <v>30</v>
       </c>
     </row>
     <row r="88" ht="24.75" customHeight="1">
@@ -4215,7 +4233,7 @@
       </c>
       <c r="B88" s="7"/>
       <c t="s" r="C88" s="8">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="D88" s="8"/>
       <c r="E88" s="8"/>
@@ -4232,14 +4250,14 @@
       </c>
       <c r="M88" s="10"/>
       <c t="s" r="N88" s="8">
-        <v>86</v>
+        <v>130</v>
       </c>
       <c r="O88" s="8"/>
       <c t="s" r="P88" s="11">
-        <v>148</v>
+        <v>131</v>
       </c>
       <c t="s" r="Q88" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="89" ht="25.5" customHeight="1">
@@ -4248,14 +4266,14 @@
       </c>
       <c r="B89" s="7"/>
       <c t="s" r="C89" s="8">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="D89" s="8"/>
       <c r="E89" s="8"/>
       <c r="F89" s="8"/>
       <c r="G89" s="8"/>
       <c t="s" r="H89" s="9">
-        <v>95</v>
+        <v>80</v>
       </c>
       <c r="I89" s="9"/>
       <c r="J89" s="9"/>
@@ -4265,14 +4283,14 @@
       </c>
       <c r="M89" s="10"/>
       <c t="s" r="N89" s="8">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="O89" s="8"/>
       <c t="s" r="P89" s="11">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c t="s" r="Q89" s="12">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="90" ht="24.75" customHeight="1">
@@ -4281,7 +4299,7 @@
       </c>
       <c r="B90" s="7"/>
       <c t="s" r="C90" s="8">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="D90" s="8"/>
       <c r="E90" s="8"/>
@@ -4298,14 +4316,14 @@
       </c>
       <c r="M90" s="10"/>
       <c t="s" r="N90" s="8">
-        <v>238</v>
+        <v>86</v>
       </c>
       <c r="O90" s="8"/>
       <c t="s" r="P90" s="11">
-        <v>164</v>
+        <v>155</v>
       </c>
       <c t="s" r="Q90" s="12">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="91" ht="25.5" customHeight="1">
@@ -4314,14 +4332,14 @@
       </c>
       <c r="B91" s="7"/>
       <c t="s" r="C91" s="8">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="D91" s="8"/>
       <c r="E91" s="8"/>
       <c r="F91" s="8"/>
       <c r="G91" s="8"/>
       <c t="s" r="H91" s="9">
-        <v>113</v>
+        <v>95</v>
       </c>
       <c r="I91" s="9"/>
       <c r="J91" s="9"/>
@@ -4331,14 +4349,14 @@
       </c>
       <c r="M91" s="10"/>
       <c t="s" r="N91" s="8">
-        <v>126</v>
+        <v>241</v>
       </c>
       <c r="O91" s="8"/>
       <c t="s" r="P91" s="11">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c t="s" r="Q91" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="92" ht="25.5" customHeight="1">
@@ -4347,14 +4365,14 @@
       </c>
       <c r="B92" s="7"/>
       <c t="s" r="C92" s="8">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="D92" s="8"/>
       <c r="E92" s="8"/>
       <c r="F92" s="8"/>
       <c r="G92" s="8"/>
       <c t="s" r="H92" s="9">
-        <v>20</v>
+        <v>45</v>
       </c>
       <c r="I92" s="9"/>
       <c r="J92" s="9"/>
@@ -4364,14 +4382,14 @@
       </c>
       <c r="M92" s="10"/>
       <c t="s" r="N92" s="8">
-        <v>126</v>
+        <v>244</v>
       </c>
       <c r="O92" s="8"/>
       <c t="s" r="P92" s="11">
-        <v>127</v>
+        <v>171</v>
       </c>
       <c t="s" r="Q92" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="93" ht="24.75" customHeight="1">
@@ -4380,14 +4398,14 @@
       </c>
       <c r="B93" s="7"/>
       <c t="s" r="C93" s="8">
-        <v>242</v>
+        <v>245</v>
       </c>
       <c r="D93" s="8"/>
       <c r="E93" s="8"/>
       <c r="F93" s="8"/>
       <c r="G93" s="8"/>
       <c t="s" r="H93" s="9">
-        <v>45</v>
+        <v>113</v>
       </c>
       <c r="I93" s="9"/>
       <c r="J93" s="9"/>
@@ -4397,14 +4415,14 @@
       </c>
       <c r="M93" s="10"/>
       <c t="s" r="N93" s="8">
-        <v>243</v>
+        <v>133</v>
       </c>
       <c r="O93" s="8"/>
       <c t="s" r="P93" s="11">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c t="s" r="Q93" s="12">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="94" ht="25.5" customHeight="1">
@@ -4413,14 +4431,14 @@
       </c>
       <c r="B94" s="7"/>
       <c t="s" r="C94" s="8">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="D94" s="8"/>
       <c r="E94" s="8"/>
       <c r="F94" s="8"/>
       <c r="G94" s="8"/>
       <c t="s" r="H94" s="9">
-        <v>80</v>
+        <v>20</v>
       </c>
       <c r="I94" s="9"/>
       <c r="J94" s="9"/>
@@ -4430,11 +4448,11 @@
       </c>
       <c r="M94" s="10"/>
       <c t="s" r="N94" s="8">
-        <v>246</v>
+        <v>133</v>
       </c>
       <c r="O94" s="8"/>
       <c t="s" r="P94" s="11">
-        <v>247</v>
+        <v>134</v>
       </c>
       <c t="s" r="Q94" s="12">
         <v>16</v>
@@ -4453,7 +4471,7 @@
       <c r="F95" s="8"/>
       <c r="G95" s="8"/>
       <c t="s" r="H95" s="9">
-        <v>16</v>
+        <v>45</v>
       </c>
       <c r="I95" s="9"/>
       <c r="J95" s="9"/>
@@ -4467,10 +4485,10 @@
       </c>
       <c r="O95" s="8"/>
       <c t="s" r="P95" s="11">
-        <v>188</v>
+        <v>250</v>
       </c>
       <c t="s" r="Q95" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="96" ht="25.5" customHeight="1">
@@ -4479,14 +4497,14 @@
       </c>
       <c r="B96" s="7"/>
       <c t="s" r="C96" s="8">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="D96" s="8"/>
       <c r="E96" s="8"/>
       <c r="F96" s="8"/>
       <c r="G96" s="8"/>
       <c t="s" r="H96" s="9">
-        <v>251</v>
+        <v>80</v>
       </c>
       <c r="I96" s="9"/>
       <c r="J96" s="9"/>
@@ -4503,7 +4521,7 @@
         <v>253</v>
       </c>
       <c t="s" r="Q96" s="12">
-        <v>22</v>
+        <v>16</v>
       </c>
     </row>
     <row r="97" ht="25.5" customHeight="1">
@@ -4519,24 +4537,24 @@
       <c r="F97" s="8"/>
       <c r="G97" s="8"/>
       <c t="s" r="H97" s="9">
-        <v>255</v>
+        <v>16</v>
       </c>
       <c r="I97" s="9"/>
       <c r="J97" s="9"/>
       <c r="K97" s="9"/>
       <c t="s" r="L97" s="10">
-        <v>166</v>
+        <v>13</v>
       </c>
       <c r="M97" s="10"/>
       <c t="s" r="N97" s="8">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="O97" s="8"/>
       <c t="s" r="P97" s="11">
-        <v>175</v>
+        <v>195</v>
       </c>
       <c t="s" r="Q97" s="12">
-        <v>38</v>
+        <v>16</v>
       </c>
     </row>
     <row r="98" ht="24.75" customHeight="1">
@@ -4545,20 +4563,20 @@
       </c>
       <c r="B98" s="7"/>
       <c t="s" r="C98" s="8">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="D98" s="8"/>
       <c r="E98" s="8"/>
       <c r="F98" s="8"/>
       <c r="G98" s="8"/>
       <c t="s" r="H98" s="9">
-        <v>38</v>
+        <v>257</v>
       </c>
       <c r="I98" s="9"/>
       <c r="J98" s="9"/>
       <c r="K98" s="9"/>
       <c t="s" r="L98" s="10">
-        <v>166</v>
+        <v>13</v>
       </c>
       <c r="M98" s="10"/>
       <c t="s" r="N98" s="8">
@@ -4569,7 +4587,7 @@
         <v>259</v>
       </c>
       <c t="s" r="Q98" s="12">
-        <v>20</v>
+        <v>22</v>
       </c>
     </row>
     <row r="99" ht="25.5" customHeight="1">
@@ -4585,24 +4603,24 @@
       <c r="F99" s="8"/>
       <c r="G99" s="8"/>
       <c t="s" r="H99" s="9">
-        <v>45</v>
+        <v>261</v>
       </c>
       <c r="I99" s="9"/>
       <c r="J99" s="9"/>
       <c r="K99" s="9"/>
       <c t="s" r="L99" s="10">
-        <v>166</v>
+        <v>173</v>
       </c>
       <c r="M99" s="10"/>
       <c t="s" r="N99" s="8">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="O99" s="8"/>
       <c t="s" r="P99" s="11">
-        <v>262</v>
+        <v>182</v>
       </c>
       <c t="s" r="Q99" s="12">
-        <v>22</v>
+        <v>38</v>
       </c>
     </row>
     <row r="100" ht="24.75" customHeight="1">
@@ -4618,13 +4636,13 @@
       <c r="F100" s="8"/>
       <c r="G100" s="8"/>
       <c t="s" r="H100" s="9">
-        <v>20</v>
+        <v>38</v>
       </c>
       <c r="I100" s="9"/>
       <c r="J100" s="9"/>
       <c r="K100" s="9"/>
       <c t="s" r="L100" s="10">
-        <v>166</v>
+        <v>173</v>
       </c>
       <c r="M100" s="10"/>
       <c t="s" r="N100" s="8">
@@ -4651,21 +4669,21 @@
       <c r="F101" s="8"/>
       <c r="G101" s="8"/>
       <c t="s" r="H101" s="9">
-        <v>267</v>
+        <v>45</v>
       </c>
       <c r="I101" s="9"/>
       <c r="J101" s="9"/>
       <c r="K101" s="9"/>
       <c t="s" r="L101" s="10">
-        <v>166</v>
+        <v>173</v>
       </c>
       <c r="M101" s="10"/>
       <c t="s" r="N101" s="8">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="O101" s="8"/>
       <c t="s" r="P101" s="11">
-        <v>167</v>
+        <v>268</v>
       </c>
       <c t="s" r="Q101" s="12">
         <v>22</v>
@@ -4684,13 +4702,13 @@
       <c r="F102" s="8"/>
       <c r="G102" s="8"/>
       <c t="s" r="H102" s="9">
-        <v>45</v>
+        <v>20</v>
       </c>
       <c r="I102" s="9"/>
       <c r="J102" s="9"/>
       <c r="K102" s="9"/>
       <c t="s" r="L102" s="10">
-        <v>166</v>
+        <v>173</v>
       </c>
       <c r="M102" s="10"/>
       <c t="s" r="N102" s="8">
@@ -4701,7 +4719,7 @@
         <v>271</v>
       </c>
       <c t="s" r="Q102" s="12">
-        <v>272</v>
+        <v>20</v>
       </c>
     </row>
     <row r="103" ht="24.75" customHeight="1">
@@ -4710,31 +4728,31 @@
       </c>
       <c r="B103" s="7"/>
       <c t="s" r="C103" s="8">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="D103" s="8"/>
       <c r="E103" s="8"/>
       <c r="F103" s="8"/>
       <c r="G103" s="8"/>
       <c t="s" r="H103" s="9">
-        <v>45</v>
+        <v>273</v>
       </c>
       <c r="I103" s="9"/>
       <c r="J103" s="9"/>
       <c r="K103" s="9"/>
       <c t="s" r="L103" s="10">
-        <v>166</v>
+        <v>173</v>
       </c>
       <c r="M103" s="10"/>
       <c t="s" r="N103" s="8">
-        <v>252</v>
+        <v>274</v>
       </c>
       <c r="O103" s="8"/>
       <c t="s" r="P103" s="11">
-        <v>102</v>
+        <v>174</v>
       </c>
       <c t="s" r="Q103" s="12">
-        <v>274</v>
+        <v>22</v>
       </c>
     </row>
     <row r="104" ht="25.5" customHeight="1">
@@ -4756,18 +4774,18 @@
       <c r="J104" s="9"/>
       <c r="K104" s="9"/>
       <c t="s" r="L104" s="10">
-        <v>166</v>
+        <v>173</v>
       </c>
       <c r="M104" s="10"/>
       <c t="s" r="N104" s="8">
-        <v>261</v>
+        <v>276</v>
       </c>
       <c r="O104" s="8"/>
       <c t="s" r="P104" s="11">
-        <v>262</v>
+        <v>277</v>
       </c>
       <c t="s" r="Q104" s="12">
-        <v>22</v>
+        <v>278</v>
       </c>
     </row>
     <row r="105" ht="24.75" customHeight="1">
@@ -4776,31 +4794,31 @@
       </c>
       <c r="B105" s="7"/>
       <c t="s" r="C105" s="8">
-        <v>276</v>
+        <v>279</v>
       </c>
       <c r="D105" s="8"/>
       <c r="E105" s="8"/>
       <c r="F105" s="8"/>
       <c r="G105" s="8"/>
       <c t="s" r="H105" s="9">
-        <v>22</v>
+        <v>45</v>
       </c>
       <c r="I105" s="9"/>
       <c r="J105" s="9"/>
       <c r="K105" s="9"/>
       <c t="s" r="L105" s="10">
-        <v>166</v>
+        <v>173</v>
       </c>
       <c r="M105" s="10"/>
       <c t="s" r="N105" s="8">
-        <v>264</v>
+        <v>258</v>
       </c>
       <c r="O105" s="8"/>
       <c t="s" r="P105" s="11">
-        <v>265</v>
+        <v>102</v>
       </c>
       <c t="s" r="Q105" s="12">
-        <v>20</v>
+        <v>280</v>
       </c>
     </row>
     <row r="106" ht="25.5" customHeight="1">
@@ -4809,7 +4827,7 @@
       </c>
       <c r="B106" s="7"/>
       <c t="s" r="C106" s="8">
-        <v>277</v>
+        <v>281</v>
       </c>
       <c r="D106" s="8"/>
       <c r="E106" s="8"/>
@@ -4822,18 +4840,18 @@
       <c r="J106" s="9"/>
       <c r="K106" s="9"/>
       <c t="s" r="L106" s="10">
-        <v>166</v>
+        <v>173</v>
       </c>
       <c r="M106" s="10"/>
       <c t="s" r="N106" s="8">
-        <v>256</v>
+        <v>267</v>
       </c>
       <c r="O106" s="8"/>
       <c t="s" r="P106" s="11">
-        <v>278</v>
+        <v>268</v>
       </c>
       <c t="s" r="Q106" s="12">
-        <v>20</v>
+        <v>22</v>
       </c>
     </row>
     <row r="107" ht="25.5" customHeight="1">
@@ -4842,28 +4860,28 @@
       </c>
       <c r="B107" s="7"/>
       <c t="s" r="C107" s="8">
-        <v>279</v>
+        <v>282</v>
       </c>
       <c r="D107" s="8"/>
       <c r="E107" s="8"/>
       <c r="F107" s="8"/>
       <c r="G107" s="8"/>
       <c t="s" r="H107" s="9">
-        <v>280</v>
+        <v>22</v>
       </c>
       <c r="I107" s="9"/>
       <c r="J107" s="9"/>
       <c r="K107" s="9"/>
       <c t="s" r="L107" s="10">
-        <v>166</v>
+        <v>173</v>
       </c>
       <c r="M107" s="10"/>
       <c t="s" r="N107" s="8">
-        <v>281</v>
+        <v>270</v>
       </c>
       <c r="O107" s="8"/>
       <c t="s" r="P107" s="11">
-        <v>282</v>
+        <v>271</v>
       </c>
       <c t="s" r="Q107" s="12">
         <v>20</v>
@@ -4882,21 +4900,21 @@
       <c r="F108" s="8"/>
       <c r="G108" s="8"/>
       <c t="s" r="H108" s="9">
-        <v>38</v>
+        <v>45</v>
       </c>
       <c r="I108" s="9"/>
       <c r="J108" s="9"/>
       <c r="K108" s="9"/>
       <c t="s" r="L108" s="10">
-        <v>166</v>
+        <v>173</v>
       </c>
       <c r="M108" s="10"/>
       <c t="s" r="N108" s="8">
-        <v>284</v>
+        <v>262</v>
       </c>
       <c r="O108" s="8"/>
       <c t="s" r="P108" s="11">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c t="s" r="Q108" s="12">
         <v>20</v>
@@ -4908,31 +4926,31 @@
       </c>
       <c r="B109" s="7"/>
       <c t="s" r="C109" s="8">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="D109" s="8"/>
       <c r="E109" s="8"/>
       <c r="F109" s="8"/>
       <c r="G109" s="8"/>
       <c t="s" r="H109" s="9">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="I109" s="9"/>
       <c r="J109" s="9"/>
       <c r="K109" s="9"/>
       <c t="s" r="L109" s="10">
-        <v>166</v>
+        <v>173</v>
       </c>
       <c r="M109" s="10"/>
       <c t="s" r="N109" s="8">
-        <v>264</v>
+        <v>287</v>
       </c>
       <c r="O109" s="8"/>
       <c t="s" r="P109" s="11">
         <v>288</v>
       </c>
       <c t="s" r="Q109" s="12">
-        <v>85</v>
+        <v>20</v>
       </c>
     </row>
     <row r="110" ht="24.75" customHeight="1">
@@ -4948,21 +4966,21 @@
       <c r="F110" s="8"/>
       <c r="G110" s="8"/>
       <c t="s" r="H110" s="9">
-        <v>272</v>
+        <v>38</v>
       </c>
       <c r="I110" s="9"/>
       <c r="J110" s="9"/>
       <c r="K110" s="9"/>
       <c t="s" r="L110" s="10">
-        <v>166</v>
+        <v>173</v>
       </c>
       <c r="M110" s="10"/>
       <c t="s" r="N110" s="8">
-        <v>180</v>
+        <v>290</v>
       </c>
       <c r="O110" s="8"/>
       <c t="s" r="P110" s="11">
-        <v>181</v>
+        <v>291</v>
       </c>
       <c t="s" r="Q110" s="12">
         <v>20</v>
@@ -4974,31 +4992,31 @@
       </c>
       <c r="B111" s="7"/>
       <c t="s" r="C111" s="8">
-        <v>290</v>
+        <v>292</v>
       </c>
       <c r="D111" s="8"/>
       <c r="E111" s="8"/>
       <c r="F111" s="8"/>
       <c r="G111" s="8"/>
       <c t="s" r="H111" s="9">
-        <v>45</v>
+        <v>293</v>
       </c>
       <c r="I111" s="9"/>
       <c r="J111" s="9"/>
       <c r="K111" s="9"/>
       <c t="s" r="L111" s="10">
-        <v>166</v>
+        <v>173</v>
       </c>
       <c r="M111" s="10"/>
       <c t="s" r="N111" s="8">
-        <v>258</v>
+        <v>270</v>
       </c>
       <c r="O111" s="8"/>
       <c t="s" r="P111" s="11">
-        <v>278</v>
+        <v>294</v>
       </c>
       <c t="s" r="Q111" s="12">
-        <v>22</v>
+        <v>85</v>
       </c>
     </row>
     <row r="112" ht="25.5" customHeight="1">
@@ -5007,28 +5025,28 @@
       </c>
       <c r="B112" s="7"/>
       <c t="s" r="C112" s="8">
-        <v>291</v>
+        <v>295</v>
       </c>
       <c r="D112" s="8"/>
       <c r="E112" s="8"/>
       <c r="F112" s="8"/>
       <c r="G112" s="8"/>
       <c t="s" r="H112" s="9">
-        <v>20</v>
+        <v>278</v>
       </c>
       <c r="I112" s="9"/>
       <c r="J112" s="9"/>
       <c r="K112" s="9"/>
       <c t="s" r="L112" s="10">
-        <v>166</v>
+        <v>173</v>
       </c>
       <c r="M112" s="10"/>
       <c t="s" r="N112" s="8">
-        <v>292</v>
+        <v>187</v>
       </c>
       <c r="O112" s="8"/>
       <c t="s" r="P112" s="11">
-        <v>293</v>
+        <v>188</v>
       </c>
       <c t="s" r="Q112" s="12">
         <v>20</v>
@@ -5040,31 +5058,31 @@
       </c>
       <c r="B113" s="7"/>
       <c t="s" r="C113" s="8">
-        <v>294</v>
+        <v>296</v>
       </c>
       <c r="D113" s="8"/>
       <c r="E113" s="8"/>
       <c r="F113" s="8"/>
       <c r="G113" s="8"/>
       <c t="s" r="H113" s="9">
-        <v>267</v>
+        <v>45</v>
       </c>
       <c r="I113" s="9"/>
       <c r="J113" s="9"/>
       <c r="K113" s="9"/>
       <c t="s" r="L113" s="10">
-        <v>166</v>
+        <v>173</v>
       </c>
       <c r="M113" s="10"/>
       <c t="s" r="N113" s="8">
-        <v>223</v>
+        <v>264</v>
       </c>
       <c r="O113" s="8"/>
       <c t="s" r="P113" s="11">
-        <v>224</v>
+        <v>284</v>
       </c>
       <c t="s" r="Q113" s="12">
-        <v>20</v>
+        <v>22</v>
       </c>
     </row>
     <row r="114" ht="25.5" customHeight="1">
@@ -5073,28 +5091,28 @@
       </c>
       <c r="B114" s="7"/>
       <c t="s" r="C114" s="8">
-        <v>295</v>
+        <v>297</v>
       </c>
       <c r="D114" s="8"/>
       <c r="E114" s="8"/>
       <c r="F114" s="8"/>
       <c r="G114" s="8"/>
       <c t="s" r="H114" s="9">
-        <v>45</v>
+        <v>20</v>
       </c>
       <c r="I114" s="9"/>
       <c r="J114" s="9"/>
       <c r="K114" s="9"/>
       <c t="s" r="L114" s="10">
-        <v>166</v>
+        <v>173</v>
       </c>
       <c r="M114" s="10"/>
       <c t="s" r="N114" s="8">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="O114" s="8"/>
       <c t="s" r="P114" s="11">
-        <v>297</v>
+        <v>299</v>
       </c>
       <c t="s" r="Q114" s="12">
         <v>20</v>
@@ -5106,66 +5124,132 @@
       </c>
       <c r="B115" s="7"/>
       <c t="s" r="C115" s="8">
-        <v>298</v>
+        <v>300</v>
       </c>
       <c r="D115" s="8"/>
       <c r="E115" s="8"/>
       <c r="F115" s="8"/>
       <c r="G115" s="8"/>
       <c t="s" r="H115" s="9">
-        <v>22</v>
+        <v>273</v>
       </c>
       <c r="I115" s="9"/>
       <c r="J115" s="9"/>
       <c r="K115" s="9"/>
       <c t="s" r="L115" s="10">
-        <v>166</v>
+        <v>173</v>
       </c>
       <c r="M115" s="10"/>
       <c t="s" r="N115" s="8">
-        <v>258</v>
+        <v>127</v>
       </c>
       <c r="O115" s="8"/>
       <c t="s" r="P115" s="11">
-        <v>259</v>
+        <v>230</v>
       </c>
       <c t="s" r="Q115" s="12">
         <v>20</v>
       </c>
     </row>
     <row r="116" ht="25.5" customHeight="1">
-      <c r="P116" s="13">
-        <v>7006.7049999999999</v>
-      </c>
-      <c r="Q116" s="13"/>
-    </row>
-    <row r="117" ht="16.5" customHeight="1">
-      <c t="s" r="A117" s="14">
-        <v>299</v>
-      </c>
-      <c r="B117" s="14"/>
-      <c r="C117" s="14"/>
-      <c r="D117" s="14"/>
-      <c r="E117" s="14"/>
-      <c r="F117" s="14"/>
-      <c t="s" r="G117" s="15">
-        <v>300</v>
-      </c>
-      <c r="H117" s="15"/>
-      <c r="I117" s="15"/>
-      <c r="J117" s="16"/>
-      <c t="s" r="K117" s="17">
+      <c r="A116" s="7">
+        <v>110</v>
+      </c>
+      <c r="B116" s="7"/>
+      <c t="s" r="C116" s="8">
         <v>301</v>
       </c>
-      <c r="L117" s="17"/>
-      <c r="M117" s="17"/>
-      <c r="N117" s="17"/>
-      <c r="O117" s="17"/>
-      <c r="P117" s="17"/>
-      <c r="Q117" s="17"/>
+      <c r="D116" s="8"/>
+      <c r="E116" s="8"/>
+      <c r="F116" s="8"/>
+      <c r="G116" s="8"/>
+      <c t="s" r="H116" s="9">
+        <v>45</v>
+      </c>
+      <c r="I116" s="9"/>
+      <c r="J116" s="9"/>
+      <c r="K116" s="9"/>
+      <c t="s" r="L116" s="10">
+        <v>173</v>
+      </c>
+      <c r="M116" s="10"/>
+      <c t="s" r="N116" s="8">
+        <v>302</v>
+      </c>
+      <c r="O116" s="8"/>
+      <c t="s" r="P116" s="11">
+        <v>303</v>
+      </c>
+      <c t="s" r="Q116" s="12">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="117" ht="25.5" customHeight="1">
+      <c r="A117" s="7">
+        <v>111</v>
+      </c>
+      <c r="B117" s="7"/>
+      <c t="s" r="C117" s="8">
+        <v>304</v>
+      </c>
+      <c r="D117" s="8"/>
+      <c r="E117" s="8"/>
+      <c r="F117" s="8"/>
+      <c r="G117" s="8"/>
+      <c t="s" r="H117" s="9">
+        <v>22</v>
+      </c>
+      <c r="I117" s="9"/>
+      <c r="J117" s="9"/>
+      <c r="K117" s="9"/>
+      <c t="s" r="L117" s="10">
+        <v>173</v>
+      </c>
+      <c r="M117" s="10"/>
+      <c t="s" r="N117" s="8">
+        <v>264</v>
+      </c>
+      <c r="O117" s="8"/>
+      <c t="s" r="P117" s="11">
+        <v>265</v>
+      </c>
+      <c t="s" r="Q117" s="12">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="118" ht="24.75" customHeight="1">
+      <c r="P118" s="13">
+        <v>7033.585</v>
+      </c>
+      <c r="Q118" s="13"/>
+    </row>
+    <row r="119" ht="16.5" customHeight="1">
+      <c t="s" r="A119" s="14">
+        <v>305</v>
+      </c>
+      <c r="B119" s="14"/>
+      <c r="C119" s="14"/>
+      <c r="D119" s="14"/>
+      <c r="E119" s="14"/>
+      <c r="F119" s="14"/>
+      <c t="s" r="G119" s="15">
+        <v>306</v>
+      </c>
+      <c r="H119" s="15"/>
+      <c r="I119" s="15"/>
+      <c r="J119" s="16"/>
+      <c t="s" r="K119" s="17">
+        <v>307</v>
+      </c>
+      <c r="L119" s="17"/>
+      <c r="M119" s="17"/>
+      <c r="N119" s="17"/>
+      <c r="O119" s="17"/>
+      <c r="P119" s="17"/>
+      <c r="Q119" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="557">
+  <mergeCells count="567">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -5719,10 +5803,20 @@
     <mergeCell ref="H115:K115"/>
     <mergeCell ref="L115:M115"/>
     <mergeCell ref="N115:O115"/>
-    <mergeCell ref="P116:Q116"/>
-    <mergeCell ref="A117:F117"/>
-    <mergeCell ref="G117:I117"/>
-    <mergeCell ref="K117:Q117"/>
+    <mergeCell ref="A116:B116"/>
+    <mergeCell ref="C116:G116"/>
+    <mergeCell ref="H116:K116"/>
+    <mergeCell ref="L116:M116"/>
+    <mergeCell ref="N116:O116"/>
+    <mergeCell ref="A117:B117"/>
+    <mergeCell ref="C117:G117"/>
+    <mergeCell ref="H117:K117"/>
+    <mergeCell ref="L117:M117"/>
+    <mergeCell ref="N117:O117"/>
+    <mergeCell ref="P118:Q118"/>
+    <mergeCell ref="A119:F119"/>
+    <mergeCell ref="G119:I119"/>
+    <mergeCell ref="K119:Q119"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-08-08_00-00.xlsx
+++ b/DaySale_2025-08-08_00-00.xlsx
@@ -791,6 +791,15 @@
     <t>4.0000</t>
   </si>
   <si>
+    <t>الفيف شامبو400</t>
+  </si>
+  <si>
+    <t>135.00</t>
+  </si>
+  <si>
+    <t>135.0000</t>
+  </si>
+  <si>
     <t xml:space="preserve">برفان القصاص </t>
   </si>
   <si>
@@ -926,7 +935,7 @@
     <t>مناديل بكر فاين</t>
   </si>
   <si>
-    <t>Friday, 8 August, 2025 10:03 PM</t>
+    <t>Friday, 8 August, 2025 10:06 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -4603,7 +4612,7 @@
       <c r="F99" s="8"/>
       <c r="G99" s="8"/>
       <c t="s" r="H99" s="9">
-        <v>261</v>
+        <v>20</v>
       </c>
       <c r="I99" s="9"/>
       <c r="J99" s="9"/>
@@ -4613,14 +4622,14 @@
       </c>
       <c r="M99" s="10"/>
       <c t="s" r="N99" s="8">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="O99" s="8"/>
       <c t="s" r="P99" s="11">
-        <v>182</v>
+        <v>262</v>
       </c>
       <c t="s" r="Q99" s="12">
-        <v>38</v>
+        <v>20</v>
       </c>
     </row>
     <row r="100" ht="24.75" customHeight="1">
@@ -4636,7 +4645,7 @@
       <c r="F100" s="8"/>
       <c r="G100" s="8"/>
       <c t="s" r="H100" s="9">
-        <v>38</v>
+        <v>264</v>
       </c>
       <c r="I100" s="9"/>
       <c r="J100" s="9"/>
@@ -4646,14 +4655,14 @@
       </c>
       <c r="M100" s="10"/>
       <c t="s" r="N100" s="8">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="O100" s="8"/>
       <c t="s" r="P100" s="11">
-        <v>265</v>
+        <v>182</v>
       </c>
       <c t="s" r="Q100" s="12">
-        <v>20</v>
+        <v>38</v>
       </c>
     </row>
     <row r="101" ht="25.5" customHeight="1">
@@ -4669,7 +4678,7 @@
       <c r="F101" s="8"/>
       <c r="G101" s="8"/>
       <c t="s" r="H101" s="9">
-        <v>45</v>
+        <v>38</v>
       </c>
       <c r="I101" s="9"/>
       <c r="J101" s="9"/>
@@ -4686,7 +4695,7 @@
         <v>268</v>
       </c>
       <c t="s" r="Q101" s="12">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="102" ht="25.5" customHeight="1">
@@ -4702,7 +4711,7 @@
       <c r="F102" s="8"/>
       <c r="G102" s="8"/>
       <c t="s" r="H102" s="9">
-        <v>20</v>
+        <v>45</v>
       </c>
       <c r="I102" s="9"/>
       <c r="J102" s="9"/>
@@ -4719,7 +4728,7 @@
         <v>271</v>
       </c>
       <c t="s" r="Q102" s="12">
-        <v>20</v>
+        <v>22</v>
       </c>
     </row>
     <row r="103" ht="24.75" customHeight="1">
@@ -4735,7 +4744,7 @@
       <c r="F103" s="8"/>
       <c r="G103" s="8"/>
       <c t="s" r="H103" s="9">
-        <v>273</v>
+        <v>20</v>
       </c>
       <c r="I103" s="9"/>
       <c r="J103" s="9"/>
@@ -4745,14 +4754,14 @@
       </c>
       <c r="M103" s="10"/>
       <c t="s" r="N103" s="8">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="O103" s="8"/>
       <c t="s" r="P103" s="11">
-        <v>174</v>
+        <v>274</v>
       </c>
       <c t="s" r="Q103" s="12">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="104" ht="25.5" customHeight="1">
@@ -4768,7 +4777,7 @@
       <c r="F104" s="8"/>
       <c r="G104" s="8"/>
       <c t="s" r="H104" s="9">
-        <v>45</v>
+        <v>276</v>
       </c>
       <c r="I104" s="9"/>
       <c r="J104" s="9"/>
@@ -4778,14 +4787,14 @@
       </c>
       <c r="M104" s="10"/>
       <c t="s" r="N104" s="8">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="O104" s="8"/>
       <c t="s" r="P104" s="11">
-        <v>277</v>
+        <v>174</v>
       </c>
       <c t="s" r="Q104" s="12">
-        <v>278</v>
+        <v>22</v>
       </c>
     </row>
     <row r="105" ht="24.75" customHeight="1">
@@ -4794,7 +4803,7 @@
       </c>
       <c r="B105" s="7"/>
       <c t="s" r="C105" s="8">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="D105" s="8"/>
       <c r="E105" s="8"/>
@@ -4811,14 +4820,14 @@
       </c>
       <c r="M105" s="10"/>
       <c t="s" r="N105" s="8">
-        <v>258</v>
+        <v>279</v>
       </c>
       <c r="O105" s="8"/>
       <c t="s" r="P105" s="11">
-        <v>102</v>
+        <v>280</v>
       </c>
       <c t="s" r="Q105" s="12">
-        <v>280</v>
+        <v>281</v>
       </c>
     </row>
     <row r="106" ht="25.5" customHeight="1">
@@ -4827,7 +4836,7 @@
       </c>
       <c r="B106" s="7"/>
       <c t="s" r="C106" s="8">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="D106" s="8"/>
       <c r="E106" s="8"/>
@@ -4844,14 +4853,14 @@
       </c>
       <c r="M106" s="10"/>
       <c t="s" r="N106" s="8">
-        <v>267</v>
+        <v>258</v>
       </c>
       <c r="O106" s="8"/>
       <c t="s" r="P106" s="11">
-        <v>268</v>
+        <v>102</v>
       </c>
       <c t="s" r="Q106" s="12">
-        <v>22</v>
+        <v>283</v>
       </c>
     </row>
     <row r="107" ht="25.5" customHeight="1">
@@ -4860,14 +4869,14 @@
       </c>
       <c r="B107" s="7"/>
       <c t="s" r="C107" s="8">
-        <v>282</v>
+        <v>284</v>
       </c>
       <c r="D107" s="8"/>
       <c r="E107" s="8"/>
       <c r="F107" s="8"/>
       <c r="G107" s="8"/>
       <c t="s" r="H107" s="9">
-        <v>22</v>
+        <v>45</v>
       </c>
       <c r="I107" s="9"/>
       <c r="J107" s="9"/>
@@ -4884,7 +4893,7 @@
         <v>271</v>
       </c>
       <c t="s" r="Q107" s="12">
-        <v>20</v>
+        <v>22</v>
       </c>
     </row>
     <row r="108" ht="24.75" customHeight="1">
@@ -4893,14 +4902,14 @@
       </c>
       <c r="B108" s="7"/>
       <c t="s" r="C108" s="8">
-        <v>283</v>
+        <v>285</v>
       </c>
       <c r="D108" s="8"/>
       <c r="E108" s="8"/>
       <c r="F108" s="8"/>
       <c r="G108" s="8"/>
       <c t="s" r="H108" s="9">
-        <v>45</v>
+        <v>22</v>
       </c>
       <c r="I108" s="9"/>
       <c r="J108" s="9"/>
@@ -4910,11 +4919,11 @@
       </c>
       <c r="M108" s="10"/>
       <c t="s" r="N108" s="8">
-        <v>262</v>
+        <v>273</v>
       </c>
       <c r="O108" s="8"/>
       <c t="s" r="P108" s="11">
-        <v>284</v>
+        <v>274</v>
       </c>
       <c t="s" r="Q108" s="12">
         <v>20</v>
@@ -4926,14 +4935,14 @@
       </c>
       <c r="B109" s="7"/>
       <c t="s" r="C109" s="8">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="D109" s="8"/>
       <c r="E109" s="8"/>
       <c r="F109" s="8"/>
       <c r="G109" s="8"/>
       <c t="s" r="H109" s="9">
-        <v>286</v>
+        <v>45</v>
       </c>
       <c r="I109" s="9"/>
       <c r="J109" s="9"/>
@@ -4943,11 +4952,11 @@
       </c>
       <c r="M109" s="10"/>
       <c t="s" r="N109" s="8">
-        <v>287</v>
+        <v>265</v>
       </c>
       <c r="O109" s="8"/>
       <c t="s" r="P109" s="11">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c t="s" r="Q109" s="12">
         <v>20</v>
@@ -4959,14 +4968,14 @@
       </c>
       <c r="B110" s="7"/>
       <c t="s" r="C110" s="8">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="D110" s="8"/>
       <c r="E110" s="8"/>
       <c r="F110" s="8"/>
       <c r="G110" s="8"/>
       <c t="s" r="H110" s="9">
-        <v>38</v>
+        <v>289</v>
       </c>
       <c r="I110" s="9"/>
       <c r="J110" s="9"/>
@@ -4999,7 +5008,7 @@
       <c r="F111" s="8"/>
       <c r="G111" s="8"/>
       <c t="s" r="H111" s="9">
-        <v>293</v>
+        <v>38</v>
       </c>
       <c r="I111" s="9"/>
       <c r="J111" s="9"/>
@@ -5009,14 +5018,14 @@
       </c>
       <c r="M111" s="10"/>
       <c t="s" r="N111" s="8">
-        <v>270</v>
+        <v>293</v>
       </c>
       <c r="O111" s="8"/>
       <c t="s" r="P111" s="11">
         <v>294</v>
       </c>
       <c t="s" r="Q111" s="12">
-        <v>85</v>
+        <v>20</v>
       </c>
     </row>
     <row r="112" ht="25.5" customHeight="1">
@@ -5032,7 +5041,7 @@
       <c r="F112" s="8"/>
       <c r="G112" s="8"/>
       <c t="s" r="H112" s="9">
-        <v>278</v>
+        <v>296</v>
       </c>
       <c r="I112" s="9"/>
       <c r="J112" s="9"/>
@@ -5042,14 +5051,14 @@
       </c>
       <c r="M112" s="10"/>
       <c t="s" r="N112" s="8">
-        <v>187</v>
+        <v>273</v>
       </c>
       <c r="O112" s="8"/>
       <c t="s" r="P112" s="11">
-        <v>188</v>
+        <v>297</v>
       </c>
       <c t="s" r="Q112" s="12">
-        <v>20</v>
+        <v>85</v>
       </c>
     </row>
     <row r="113" ht="24.75" customHeight="1">
@@ -5058,14 +5067,14 @@
       </c>
       <c r="B113" s="7"/>
       <c t="s" r="C113" s="8">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="D113" s="8"/>
       <c r="E113" s="8"/>
       <c r="F113" s="8"/>
       <c r="G113" s="8"/>
       <c t="s" r="H113" s="9">
-        <v>45</v>
+        <v>281</v>
       </c>
       <c r="I113" s="9"/>
       <c r="J113" s="9"/>
@@ -5075,14 +5084,14 @@
       </c>
       <c r="M113" s="10"/>
       <c t="s" r="N113" s="8">
-        <v>264</v>
+        <v>187</v>
       </c>
       <c r="O113" s="8"/>
       <c t="s" r="P113" s="11">
-        <v>284</v>
+        <v>188</v>
       </c>
       <c t="s" r="Q113" s="12">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="114" ht="25.5" customHeight="1">
@@ -5091,14 +5100,14 @@
       </c>
       <c r="B114" s="7"/>
       <c t="s" r="C114" s="8">
-        <v>297</v>
+        <v>299</v>
       </c>
       <c r="D114" s="8"/>
       <c r="E114" s="8"/>
       <c r="F114" s="8"/>
       <c r="G114" s="8"/>
       <c t="s" r="H114" s="9">
-        <v>20</v>
+        <v>45</v>
       </c>
       <c r="I114" s="9"/>
       <c r="J114" s="9"/>
@@ -5108,14 +5117,14 @@
       </c>
       <c r="M114" s="10"/>
       <c t="s" r="N114" s="8">
-        <v>298</v>
+        <v>267</v>
       </c>
       <c r="O114" s="8"/>
       <c t="s" r="P114" s="11">
-        <v>299</v>
+        <v>287</v>
       </c>
       <c t="s" r="Q114" s="12">
-        <v>20</v>
+        <v>22</v>
       </c>
     </row>
     <row r="115" ht="24.75" customHeight="1">
@@ -5131,7 +5140,7 @@
       <c r="F115" s="8"/>
       <c r="G115" s="8"/>
       <c t="s" r="H115" s="9">
-        <v>273</v>
+        <v>20</v>
       </c>
       <c r="I115" s="9"/>
       <c r="J115" s="9"/>
@@ -5141,11 +5150,11 @@
       </c>
       <c r="M115" s="10"/>
       <c t="s" r="N115" s="8">
-        <v>127</v>
+        <v>301</v>
       </c>
       <c r="O115" s="8"/>
       <c t="s" r="P115" s="11">
-        <v>230</v>
+        <v>302</v>
       </c>
       <c t="s" r="Q115" s="12">
         <v>20</v>
@@ -5157,14 +5166,14 @@
       </c>
       <c r="B116" s="7"/>
       <c t="s" r="C116" s="8">
-        <v>301</v>
+        <v>303</v>
       </c>
       <c r="D116" s="8"/>
       <c r="E116" s="8"/>
       <c r="F116" s="8"/>
       <c r="G116" s="8"/>
       <c t="s" r="H116" s="9">
-        <v>45</v>
+        <v>276</v>
       </c>
       <c r="I116" s="9"/>
       <c r="J116" s="9"/>
@@ -5174,11 +5183,11 @@
       </c>
       <c r="M116" s="10"/>
       <c t="s" r="N116" s="8">
-        <v>302</v>
+        <v>127</v>
       </c>
       <c r="O116" s="8"/>
       <c t="s" r="P116" s="11">
-        <v>303</v>
+        <v>230</v>
       </c>
       <c t="s" r="Q116" s="12">
         <v>20</v>
@@ -5197,7 +5206,7 @@
       <c r="F117" s="8"/>
       <c r="G117" s="8"/>
       <c t="s" r="H117" s="9">
-        <v>22</v>
+        <v>45</v>
       </c>
       <c r="I117" s="9"/>
       <c r="J117" s="9"/>
@@ -5207,49 +5216,82 @@
       </c>
       <c r="M117" s="10"/>
       <c t="s" r="N117" s="8">
-        <v>264</v>
+        <v>305</v>
       </c>
       <c r="O117" s="8"/>
       <c t="s" r="P117" s="11">
-        <v>265</v>
+        <v>306</v>
       </c>
       <c t="s" r="Q117" s="12">
         <v>20</v>
       </c>
     </row>
     <row r="118" ht="24.75" customHeight="1">
-      <c r="P118" s="13">
-        <v>7033.585</v>
-      </c>
-      <c r="Q118" s="13"/>
-    </row>
-    <row r="119" ht="16.5" customHeight="1">
-      <c t="s" r="A119" s="14">
-        <v>305</v>
-      </c>
-      <c r="B119" s="14"/>
-      <c r="C119" s="14"/>
-      <c r="D119" s="14"/>
-      <c r="E119" s="14"/>
-      <c r="F119" s="14"/>
-      <c t="s" r="G119" s="15">
-        <v>306</v>
-      </c>
-      <c r="H119" s="15"/>
-      <c r="I119" s="15"/>
-      <c r="J119" s="16"/>
-      <c t="s" r="K119" s="17">
+      <c r="A118" s="7">
+        <v>112</v>
+      </c>
+      <c r="B118" s="7"/>
+      <c t="s" r="C118" s="8">
         <v>307</v>
       </c>
-      <c r="L119" s="17"/>
-      <c r="M119" s="17"/>
-      <c r="N119" s="17"/>
-      <c r="O119" s="17"/>
-      <c r="P119" s="17"/>
-      <c r="Q119" s="17"/>
+      <c r="D118" s="8"/>
+      <c r="E118" s="8"/>
+      <c r="F118" s="8"/>
+      <c r="G118" s="8"/>
+      <c t="s" r="H118" s="9">
+        <v>22</v>
+      </c>
+      <c r="I118" s="9"/>
+      <c r="J118" s="9"/>
+      <c r="K118" s="9"/>
+      <c t="s" r="L118" s="10">
+        <v>173</v>
+      </c>
+      <c r="M118" s="10"/>
+      <c t="s" r="N118" s="8">
+        <v>267</v>
+      </c>
+      <c r="O118" s="8"/>
+      <c t="s" r="P118" s="11">
+        <v>268</v>
+      </c>
+      <c t="s" r="Q118" s="12">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="119" ht="25.5" customHeight="1">
+      <c r="P119" s="13">
+        <v>7168.585</v>
+      </c>
+      <c r="Q119" s="13"/>
+    </row>
+    <row r="120" ht="16.5" customHeight="1">
+      <c t="s" r="A120" s="14">
+        <v>308</v>
+      </c>
+      <c r="B120" s="14"/>
+      <c r="C120" s="14"/>
+      <c r="D120" s="14"/>
+      <c r="E120" s="14"/>
+      <c r="F120" s="14"/>
+      <c t="s" r="G120" s="15">
+        <v>309</v>
+      </c>
+      <c r="H120" s="15"/>
+      <c r="I120" s="15"/>
+      <c r="J120" s="16"/>
+      <c t="s" r="K120" s="17">
+        <v>310</v>
+      </c>
+      <c r="L120" s="17"/>
+      <c r="M120" s="17"/>
+      <c r="N120" s="17"/>
+      <c r="O120" s="17"/>
+      <c r="P120" s="17"/>
+      <c r="Q120" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="567">
+  <mergeCells count="572">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -5813,10 +5855,15 @@
     <mergeCell ref="H117:K117"/>
     <mergeCell ref="L117:M117"/>
     <mergeCell ref="N117:O117"/>
-    <mergeCell ref="P118:Q118"/>
-    <mergeCell ref="A119:F119"/>
-    <mergeCell ref="G119:I119"/>
-    <mergeCell ref="K119:Q119"/>
+    <mergeCell ref="A118:B118"/>
+    <mergeCell ref="C118:G118"/>
+    <mergeCell ref="H118:K118"/>
+    <mergeCell ref="L118:M118"/>
+    <mergeCell ref="N118:O118"/>
+    <mergeCell ref="P119:Q119"/>
+    <mergeCell ref="A120:F120"/>
+    <mergeCell ref="G120:I120"/>
+    <mergeCell ref="K120:Q120"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-08-08_00-00.xlsx
+++ b/DaySale_2025-08-08_00-00.xlsx
@@ -935,7 +935,7 @@
     <t>مناديل بكر فاين</t>
   </si>
   <si>
-    <t>Friday, 8 August, 2025 10:06 PM</t>
+    <t>Friday, 8 August, 2025 10:10 PM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-08-08_00-00.xlsx
+++ b/DaySale_2025-08-08_00-00.xlsx
@@ -89,13 +89,16 @@
     <t>ANTI-COX II 15MG/3ML 6 AMP</t>
   </si>
   <si>
-    <t>1:6</t>
+    <t>1:5</t>
   </si>
   <si>
     <t>78.00</t>
   </si>
   <si>
-    <t>12.4800</t>
+    <t>24.9600</t>
+  </si>
+  <si>
+    <t>0:2</t>
   </si>
   <si>
     <t>ANTODINE 40MG 30 F.C. TABLETS</t>
@@ -251,9 +254,6 @@
     <t>130.6800</t>
   </si>
   <si>
-    <t>0:2</t>
-  </si>
-  <si>
     <t>DANSET 8MG/4ML 3 AMP.</t>
   </si>
   <si>
@@ -275,6 +275,15 @@
     <t>23.7600</t>
   </si>
   <si>
+    <t>DELTAVIT B12 1MG 30 SUBLINGUAL TAB</t>
+  </si>
+  <si>
+    <t>75.00</t>
+  </si>
+  <si>
+    <t>75.0000</t>
+  </si>
+  <si>
     <t>DIAMONRECTA 5 MG 30 F.C. TAB.</t>
   </si>
   <si>
@@ -434,12 +443,6 @@
     <t>HEPAMARIN 140MG 30 CAPSULE</t>
   </si>
   <si>
-    <t>75.00</t>
-  </si>
-  <si>
-    <t>75.0000</t>
-  </si>
-  <si>
     <t>IROSPECT 20 PIECES</t>
   </si>
   <si>
@@ -500,6 +503,15 @@
     <t>72.00</t>
   </si>
   <si>
+    <t>MELATEX LIGHTENING ROLL-ON 40 ML</t>
+  </si>
+  <si>
+    <t>225.00</t>
+  </si>
+  <si>
+    <t>225.0000</t>
+  </si>
+  <si>
     <t>NEUROVIT 30 SUGAR COATED TAB</t>
   </si>
   <si>
@@ -647,7 +659,10 @@
     <t>SPASMO-DIGESTIN 30 TABS.</t>
   </si>
   <si>
-    <t>102.9600</t>
+    <t>2:1</t>
+  </si>
+  <si>
+    <t>128.7000</t>
   </si>
   <si>
     <t>SPASMOFEN 3 AMP. FOR I.M. INJ.</t>
@@ -659,9 +674,6 @@
     <t>STREPTOQUIN 20 TABLETS</t>
   </si>
   <si>
-    <t>2:1</t>
-  </si>
-  <si>
     <t>46.00</t>
   </si>
   <si>
@@ -860,7 +872,7 @@
     <t>سرنجات 3 سم</t>
   </si>
   <si>
-    <t>11:0</t>
+    <t>12:0</t>
   </si>
   <si>
     <t>سرنجات 5 سم</t>
@@ -935,7 +947,7 @@
     <t>مناديل بكر فاين</t>
   </si>
   <si>
-    <t>Friday, 8 August, 2025 10:10 PM</t>
+    <t>Friday, 8 August, 2025 10:15 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1692,7 +1704,7 @@
         <v>28</v>
       </c>
       <c t="s" r="Q10" s="12">
-        <v>16</v>
+        <v>29</v>
       </c>
     </row>
     <row r="11" ht="25.5" customHeight="1">
@@ -1701,14 +1713,14 @@
       </c>
       <c r="B11" s="7"/>
       <c t="s" r="C11" s="8">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D11" s="8"/>
       <c r="E11" s="8"/>
       <c r="F11" s="8"/>
       <c r="G11" s="8"/>
       <c t="s" r="H11" s="9">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="I11" s="9"/>
       <c r="J11" s="9"/>
@@ -1718,14 +1730,14 @@
       </c>
       <c r="M11" s="10"/>
       <c t="s" r="N11" s="8">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="O11" s="8"/>
       <c t="s" r="P11" s="11">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c t="s" r="Q11" s="12">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="12" ht="25.5" customHeight="1">
@@ -1734,14 +1746,14 @@
       </c>
       <c r="B12" s="7"/>
       <c t="s" r="C12" s="8">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D12" s="8"/>
       <c r="E12" s="8"/>
       <c r="F12" s="8"/>
       <c r="G12" s="8"/>
       <c t="s" r="H12" s="9">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="I12" s="9"/>
       <c r="J12" s="9"/>
@@ -1751,11 +1763,11 @@
       </c>
       <c r="M12" s="10"/>
       <c t="s" r="N12" s="8">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="O12" s="8"/>
       <c t="s" r="P12" s="11">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c t="s" r="Q12" s="12">
         <v>16</v>
@@ -1767,14 +1779,14 @@
       </c>
       <c r="B13" s="7"/>
       <c t="s" r="C13" s="8">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D13" s="8"/>
       <c r="E13" s="8"/>
       <c r="F13" s="8"/>
       <c r="G13" s="8"/>
       <c t="s" r="H13" s="9">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="I13" s="9"/>
       <c r="J13" s="9"/>
@@ -1784,11 +1796,11 @@
       </c>
       <c r="M13" s="10"/>
       <c t="s" r="N13" s="8">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="O13" s="8"/>
       <c t="s" r="P13" s="11">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c t="s" r="Q13" s="12">
         <v>16</v>
@@ -1800,14 +1812,14 @@
       </c>
       <c r="B14" s="7"/>
       <c t="s" r="C14" s="8">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="D14" s="8"/>
       <c r="E14" s="8"/>
       <c r="F14" s="8"/>
       <c r="G14" s="8"/>
       <c t="s" r="H14" s="9">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="I14" s="9"/>
       <c r="J14" s="9"/>
@@ -1821,7 +1833,7 @@
       </c>
       <c r="O14" s="8"/>
       <c t="s" r="P14" s="11">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c t="s" r="Q14" s="12">
         <v>16</v>
@@ -1833,14 +1845,14 @@
       </c>
       <c r="B15" s="7"/>
       <c t="s" r="C15" s="8">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D15" s="8"/>
       <c r="E15" s="8"/>
       <c r="F15" s="8"/>
       <c r="G15" s="8"/>
       <c t="s" r="H15" s="9">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="I15" s="9"/>
       <c r="J15" s="9"/>
@@ -1850,11 +1862,11 @@
       </c>
       <c r="M15" s="10"/>
       <c t="s" r="N15" s="8">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="O15" s="8"/>
       <c t="s" r="P15" s="11">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c t="s" r="Q15" s="12">
         <v>20</v>
@@ -1866,14 +1878,14 @@
       </c>
       <c r="B16" s="7"/>
       <c t="s" r="C16" s="8">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="D16" s="8"/>
       <c r="E16" s="8"/>
       <c r="F16" s="8"/>
       <c r="G16" s="8"/>
       <c t="s" r="H16" s="9">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="I16" s="9"/>
       <c r="J16" s="9"/>
@@ -1883,11 +1895,11 @@
       </c>
       <c r="M16" s="10"/>
       <c t="s" r="N16" s="8">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="O16" s="8"/>
       <c t="s" r="P16" s="11">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c t="s" r="Q16" s="12">
         <v>20</v>
@@ -1899,14 +1911,14 @@
       </c>
       <c r="B17" s="7"/>
       <c t="s" r="C17" s="8">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="D17" s="8"/>
       <c r="E17" s="8"/>
       <c r="F17" s="8"/>
       <c r="G17" s="8"/>
       <c t="s" r="H17" s="9">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="I17" s="9"/>
       <c r="J17" s="9"/>
@@ -1916,11 +1928,11 @@
       </c>
       <c r="M17" s="10"/>
       <c t="s" r="N17" s="8">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="O17" s="8"/>
       <c t="s" r="P17" s="11">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c t="s" r="Q17" s="12">
         <v>16</v>
@@ -1932,14 +1944,14 @@
       </c>
       <c r="B18" s="7"/>
       <c t="s" r="C18" s="8">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="D18" s="8"/>
       <c r="E18" s="8"/>
       <c r="F18" s="8"/>
       <c r="G18" s="8"/>
       <c t="s" r="H18" s="9">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="I18" s="9"/>
       <c r="J18" s="9"/>
@@ -1949,14 +1961,14 @@
       </c>
       <c r="M18" s="10"/>
       <c t="s" r="N18" s="8">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="O18" s="8"/>
       <c t="s" r="P18" s="11">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c t="s" r="Q18" s="12">
-        <v>55</v>
+        <v>56</v>
       </c>
     </row>
     <row r="19" ht="25.5" customHeight="1">
@@ -1965,14 +1977,14 @@
       </c>
       <c r="B19" s="7"/>
       <c t="s" r="C19" s="8">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="D19" s="8"/>
       <c r="E19" s="8"/>
       <c r="F19" s="8"/>
       <c r="G19" s="8"/>
       <c t="s" r="H19" s="9">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="I19" s="9"/>
       <c r="J19" s="9"/>
@@ -1982,11 +1994,11 @@
       </c>
       <c r="M19" s="10"/>
       <c t="s" r="N19" s="8">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="O19" s="8"/>
       <c t="s" r="P19" s="11">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c t="s" r="Q19" s="12">
         <v>20</v>
@@ -1998,7 +2010,7 @@
       </c>
       <c r="B20" s="7"/>
       <c t="s" r="C20" s="8">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="D20" s="8"/>
       <c r="E20" s="8"/>
@@ -2019,7 +2031,7 @@
       </c>
       <c r="O20" s="8"/>
       <c t="s" r="P20" s="11">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c t="s" r="Q20" s="12">
         <v>16</v>
@@ -2031,14 +2043,14 @@
       </c>
       <c r="B21" s="7"/>
       <c t="s" r="C21" s="8">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="D21" s="8"/>
       <c r="E21" s="8"/>
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
       <c t="s" r="H21" s="9">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
@@ -2048,11 +2060,11 @@
       </c>
       <c r="M21" s="10"/>
       <c t="s" r="N21" s="8">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="O21" s="8"/>
       <c t="s" r="P21" s="11">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c t="s" r="Q21" s="12">
         <v>20</v>
@@ -2064,7 +2076,7 @@
       </c>
       <c r="B22" s="7"/>
       <c t="s" r="C22" s="8">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="D22" s="8"/>
       <c r="E22" s="8"/>
@@ -2081,11 +2093,11 @@
       </c>
       <c r="M22" s="10"/>
       <c t="s" r="N22" s="8">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="O22" s="8"/>
       <c t="s" r="P22" s="11">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c t="s" r="Q22" s="12">
         <v>16</v>
@@ -2097,7 +2109,7 @@
       </c>
       <c r="B23" s="7"/>
       <c t="s" r="C23" s="8">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="D23" s="8"/>
       <c r="E23" s="8"/>
@@ -2114,11 +2126,11 @@
       </c>
       <c r="M23" s="10"/>
       <c t="s" r="N23" s="8">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="O23" s="8"/>
       <c t="s" r="P23" s="11">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c t="s" r="Q23" s="12">
         <v>20</v>
@@ -2130,14 +2142,14 @@
       </c>
       <c r="B24" s="7"/>
       <c t="s" r="C24" s="8">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="D24" s="8"/>
       <c r="E24" s="8"/>
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
@@ -2147,11 +2159,11 @@
       </c>
       <c r="M24" s="10"/>
       <c t="s" r="N24" s="8">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="O24" s="8"/>
       <c t="s" r="P24" s="11">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c t="s" r="Q24" s="12">
         <v>16</v>
@@ -2163,7 +2175,7 @@
       </c>
       <c r="B25" s="7"/>
       <c t="s" r="C25" s="8">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="D25" s="8"/>
       <c r="E25" s="8"/>
@@ -2180,11 +2192,11 @@
       </c>
       <c r="M25" s="10"/>
       <c t="s" r="N25" s="8">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="O25" s="8"/>
       <c t="s" r="P25" s="11">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c t="s" r="Q25" s="12">
         <v>16</v>
@@ -2196,7 +2208,7 @@
       </c>
       <c r="B26" s="7"/>
       <c t="s" r="C26" s="8">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="D26" s="8"/>
       <c r="E26" s="8"/>
@@ -2213,14 +2225,14 @@
       </c>
       <c r="M26" s="10"/>
       <c t="s" r="N26" s="8">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="O26" s="8"/>
       <c t="s" r="P26" s="11">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c t="s" r="Q26" s="12">
-        <v>80</v>
+        <v>29</v>
       </c>
     </row>
     <row r="27" ht="25.5" customHeight="1">
@@ -2286,7 +2298,7 @@
         <v>87</v>
       </c>
       <c t="s" r="Q28" s="12">
-        <v>80</v>
+        <v>29</v>
       </c>
     </row>
     <row r="29" ht="25.5" customHeight="1">
@@ -2302,7 +2314,7 @@
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>80</v>
+        <v>46</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
@@ -2319,7 +2331,7 @@
         <v>90</v>
       </c>
       <c t="s" r="Q29" s="12">
-        <v>80</v>
+        <v>20</v>
       </c>
     </row>
     <row r="30" ht="24.75" customHeight="1">
@@ -2335,7 +2347,7 @@
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>45</v>
+        <v>29</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
@@ -2352,7 +2364,7 @@
         <v>93</v>
       </c>
       <c t="s" r="Q30" s="12">
-        <v>85</v>
+        <v>29</v>
       </c>
     </row>
     <row r="31" ht="25.5" customHeight="1">
@@ -2368,7 +2380,7 @@
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>95</v>
+        <v>46</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
@@ -2378,14 +2390,14 @@
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
-        <v>62</v>
+        <v>96</v>
       </c>
       <c t="s" r="Q31" s="12">
-        <v>20</v>
+        <v>85</v>
       </c>
     </row>
     <row r="32" ht="25.5" customHeight="1">
@@ -2401,7 +2413,7 @@
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>20</v>
+        <v>98</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
@@ -2411,14 +2423,14 @@
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
-        <v>99</v>
+        <v>63</v>
       </c>
       <c t="s" r="Q32" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="33" ht="24.75" customHeight="1">
@@ -2451,7 +2463,7 @@
         <v>102</v>
       </c>
       <c t="s" r="Q33" s="12">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="34" ht="25.5" customHeight="1">
@@ -2467,7 +2479,7 @@
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>80</v>
+        <v>20</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
@@ -2477,14 +2489,14 @@
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
-        <v>72</v>
+        <v>104</v>
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
-        <v>73</v>
+        <v>105</v>
       </c>
       <c t="s" r="Q34" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="35" ht="24.75" customHeight="1">
@@ -2493,14 +2505,14 @@
       </c>
       <c r="B35" s="7"/>
       <c t="s" r="C35" s="8">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="D35" s="8"/>
       <c r="E35" s="8"/>
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>105</v>
+        <v>29</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
@@ -2510,14 +2522,14 @@
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
-        <v>46</v>
+        <v>73</v>
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
-        <v>47</v>
+        <v>74</v>
       </c>
       <c t="s" r="Q35" s="12">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="36" ht="25.5" customHeight="1">
@@ -2526,14 +2538,14 @@
       </c>
       <c r="B36" s="7"/>
       <c t="s" r="C36" s="8">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="D36" s="8"/>
       <c r="E36" s="8"/>
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>45</v>
+        <v>108</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
@@ -2543,11 +2555,11 @@
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>107</v>
+        <v>47</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
-        <v>108</v>
+        <v>48</v>
       </c>
       <c t="s" r="Q36" s="12">
         <v>20</v>
@@ -2566,7 +2578,7 @@
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>38</v>
+        <v>46</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
@@ -2583,7 +2595,7 @@
         <v>111</v>
       </c>
       <c t="s" r="Q37" s="12">
-        <v>95</v>
+        <v>20</v>
       </c>
     </row>
     <row r="38" ht="24.75" customHeight="1">
@@ -2599,7 +2611,7 @@
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>113</v>
+        <v>39</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
@@ -2609,14 +2621,14 @@
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c t="s" r="Q38" s="12">
-        <v>80</v>
+        <v>98</v>
       </c>
     </row>
     <row r="39" ht="25.5" customHeight="1">
@@ -2625,14 +2637,14 @@
       </c>
       <c r="B39" s="7"/>
       <c t="s" r="C39" s="8">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="D39" s="8"/>
       <c r="E39" s="8"/>
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
@@ -2642,14 +2654,14 @@
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c t="s" r="Q39" s="12">
-        <v>80</v>
+        <v>29</v>
       </c>
     </row>
     <row r="40" ht="24.75" customHeight="1">
@@ -2658,14 +2670,14 @@
       </c>
       <c r="B40" s="7"/>
       <c t="s" r="C40" s="8">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="D40" s="8"/>
       <c r="E40" s="8"/>
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>20</v>
+        <v>120</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
@@ -2682,7 +2694,7 @@
         <v>122</v>
       </c>
       <c t="s" r="Q40" s="12">
-        <v>20</v>
+        <v>29</v>
       </c>
     </row>
     <row r="41" ht="25.5" customHeight="1">
@@ -2731,7 +2743,7 @@
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
@@ -2748,7 +2760,7 @@
         <v>128</v>
       </c>
       <c t="s" r="Q42" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="43" ht="24.75" customHeight="1">
@@ -2764,7 +2776,7 @@
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>22</v>
+        <v>12</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
@@ -2781,7 +2793,7 @@
         <v>131</v>
       </c>
       <c t="s" r="Q43" s="12">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="44" ht="25.5" customHeight="1">
@@ -2797,7 +2809,7 @@
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
@@ -2814,7 +2826,7 @@
         <v>134</v>
       </c>
       <c t="s" r="Q44" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="45" ht="24.75" customHeight="1">
@@ -2830,7 +2842,7 @@
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
@@ -2840,14 +2852,14 @@
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>101</v>
+        <v>136</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
-        <v>102</v>
+        <v>137</v>
       </c>
       <c t="s" r="Q45" s="12">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="46" ht="25.5" customHeight="1">
@@ -2856,14 +2868,14 @@
       </c>
       <c r="B46" s="7"/>
       <c t="s" r="C46" s="8">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="D46" s="8"/>
       <c r="E46" s="8"/>
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>22</v>
+        <v>39</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
@@ -2873,11 +2885,11 @@
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c t="s" r="Q46" s="12">
         <v>20</v>
@@ -2889,14 +2901,14 @@
       </c>
       <c r="B47" s="7"/>
       <c t="s" r="C47" s="8">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="D47" s="8"/>
       <c r="E47" s="8"/>
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
@@ -2906,14 +2918,14 @@
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>138</v>
+        <v>104</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
-        <v>139</v>
+        <v>105</v>
       </c>
       <c t="s" r="Q47" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="48" ht="24.75" customHeight="1">
@@ -2929,7 +2941,7 @@
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>45</v>
+        <v>31</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
@@ -2946,7 +2958,7 @@
         <v>142</v>
       </c>
       <c t="s" r="Q48" s="12">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="49" ht="25.5" customHeight="1">
@@ -2962,7 +2974,7 @@
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>20</v>
+        <v>46</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
@@ -2972,14 +2984,14 @@
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>144</v>
+        <v>89</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
-        <v>145</v>
+        <v>90</v>
       </c>
       <c t="s" r="Q49" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="50" ht="24.75" customHeight="1">
@@ -2988,14 +3000,14 @@
       </c>
       <c r="B50" s="7"/>
       <c t="s" r="C50" s="8">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="D50" s="8"/>
       <c r="E50" s="8"/>
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>147</v>
+        <v>20</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
@@ -3005,14 +3017,14 @@
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c t="s" r="Q50" s="12">
-        <v>95</v>
+        <v>16</v>
       </c>
     </row>
     <row r="51" ht="25.5" customHeight="1">
@@ -3021,14 +3033,14 @@
       </c>
       <c r="B51" s="7"/>
       <c t="s" r="C51" s="8">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="D51" s="8"/>
       <c r="E51" s="8"/>
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>38</v>
+        <v>148</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
@@ -3038,14 +3050,14 @@
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c t="s" r="Q51" s="12">
-        <v>20</v>
+        <v>98</v>
       </c>
     </row>
     <row r="52" ht="25.5" customHeight="1">
@@ -3054,14 +3066,14 @@
       </c>
       <c r="B52" s="7"/>
       <c t="s" r="C52" s="8">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="D52" s="8"/>
       <c r="E52" s="8"/>
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>30</v>
+        <v>39</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
@@ -3071,14 +3083,14 @@
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>67</v>
+        <v>152</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
-        <v>68</v>
+        <v>153</v>
       </c>
       <c t="s" r="Q52" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="53" ht="24.75" customHeight="1">
@@ -3094,7 +3106,7 @@
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>45</v>
+        <v>31</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
@@ -3104,11 +3116,11 @@
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
-        <v>86</v>
+        <v>68</v>
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
-        <v>155</v>
+        <v>69</v>
       </c>
       <c t="s" r="Q53" s="12">
         <v>16</v>
@@ -3120,14 +3132,14 @@
       </c>
       <c r="B54" s="7"/>
       <c t="s" r="C54" s="8">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="D54" s="8"/>
       <c r="E54" s="8"/>
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>95</v>
+        <v>46</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
@@ -3137,11 +3149,11 @@
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
-        <v>46</v>
+        <v>86</v>
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c t="s" r="Q54" s="12">
         <v>16</v>
@@ -3153,14 +3165,14 @@
       </c>
       <c r="B55" s="7"/>
       <c t="s" r="C55" s="8">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="D55" s="8"/>
       <c r="E55" s="8"/>
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>16</v>
+        <v>98</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
@@ -3170,11 +3182,11 @@
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
-        <v>159</v>
+        <v>47</v>
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c t="s" r="Q55" s="12">
         <v>16</v>
@@ -3186,14 +3198,14 @@
       </c>
       <c r="B56" s="7"/>
       <c t="s" r="C56" s="8">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="D56" s="8"/>
       <c r="E56" s="8"/>
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>30</v>
+        <v>16</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
@@ -3203,11 +3215,11 @@
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
-        <v>87</v>
+        <v>161</v>
       </c>
       <c t="s" r="Q56" s="12">
         <v>16</v>
@@ -3219,14 +3231,14 @@
       </c>
       <c r="B57" s="7"/>
       <c t="s" r="C57" s="8">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="D57" s="8"/>
       <c r="E57" s="8"/>
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>80</v>
+        <v>31</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
@@ -3236,11 +3248,11 @@
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
-        <v>165</v>
+        <v>87</v>
       </c>
       <c t="s" r="Q57" s="12">
         <v>16</v>
@@ -3252,14 +3264,14 @@
       </c>
       <c r="B58" s="7"/>
       <c t="s" r="C58" s="8">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="D58" s="8"/>
       <c r="E58" s="8"/>
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c t="s" r="H58" s="9">
-        <v>22</v>
+        <v>46</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
@@ -3269,11 +3281,11 @@
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c t="s" r="Q58" s="12">
         <v>20</v>
@@ -3285,14 +3297,14 @@
       </c>
       <c r="B59" s="7"/>
       <c t="s" r="C59" s="8">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="D59" s="8"/>
       <c r="E59" s="8"/>
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c t="s" r="H59" s="9">
-        <v>20</v>
+        <v>29</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
@@ -3302,11 +3314,11 @@
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c t="s" r="Q59" s="12">
         <v>16</v>
@@ -3318,7 +3330,7 @@
       </c>
       <c r="B60" s="7"/>
       <c t="s" r="C60" s="8">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="D60" s="8"/>
       <c r="E60" s="8"/>
@@ -3331,18 +3343,18 @@
       <c r="J60" s="9"/>
       <c r="K60" s="9"/>
       <c t="s" r="L60" s="10">
-        <v>173</v>
+        <v>13</v>
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
-        <v>148</v>
+        <v>171</v>
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c t="s" r="Q60" s="12">
-        <v>80</v>
+        <v>20</v>
       </c>
     </row>
     <row r="61" ht="25.5" customHeight="1">
@@ -3351,14 +3363,14 @@
       </c>
       <c r="B61" s="7"/>
       <c t="s" r="C61" s="8">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="D61" s="8"/>
       <c r="E61" s="8"/>
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
       <c t="s" r="H61" s="9">
-        <v>38</v>
+        <v>20</v>
       </c>
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
@@ -3368,14 +3380,14 @@
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
-        <v>98</v>
+        <v>174</v>
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c t="s" r="Q61" s="12">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="62" ht="25.5" customHeight="1">
@@ -3384,31 +3396,31 @@
       </c>
       <c r="B62" s="7"/>
       <c t="s" r="C62" s="8">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="D62" s="8"/>
       <c r="E62" s="8"/>
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
       <c t="s" r="H62" s="9">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="I62" s="9"/>
       <c r="J62" s="9"/>
       <c r="K62" s="9"/>
       <c t="s" r="L62" s="10">
-        <v>13</v>
+        <v>177</v>
       </c>
       <c r="M62" s="10"/>
       <c t="s" r="N62" s="8">
-        <v>164</v>
+        <v>149</v>
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
         <v>178</v>
       </c>
       <c t="s" r="Q62" s="12">
-        <v>20</v>
+        <v>29</v>
       </c>
     </row>
     <row r="63" ht="24.75" customHeight="1">
@@ -3424,7 +3436,7 @@
       <c r="F63" s="8"/>
       <c r="G63" s="8"/>
       <c t="s" r="H63" s="9">
-        <v>16</v>
+        <v>39</v>
       </c>
       <c r="I63" s="9"/>
       <c r="J63" s="9"/>
@@ -3434,14 +3446,14 @@
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
-        <v>180</v>
+        <v>101</v>
       </c>
       <c r="O63" s="8"/>
       <c t="s" r="P63" s="11">
-        <v>47</v>
+        <v>180</v>
       </c>
       <c t="s" r="Q63" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="64" ht="25.5" customHeight="1">
@@ -3457,7 +3469,7 @@
       <c r="F64" s="8"/>
       <c r="G64" s="8"/>
       <c t="s" r="H64" s="9">
-        <v>45</v>
+        <v>16</v>
       </c>
       <c r="I64" s="9"/>
       <c r="J64" s="9"/>
@@ -3467,7 +3479,7 @@
       </c>
       <c r="M64" s="10"/>
       <c t="s" r="N64" s="8">
-        <v>133</v>
+        <v>168</v>
       </c>
       <c r="O64" s="8"/>
       <c t="s" r="P64" s="11">
@@ -3490,7 +3502,7 @@
       <c r="F65" s="8"/>
       <c r="G65" s="8"/>
       <c t="s" r="H65" s="9">
-        <v>45</v>
+        <v>16</v>
       </c>
       <c r="I65" s="9"/>
       <c r="J65" s="9"/>
@@ -3504,10 +3516,10 @@
       </c>
       <c r="O65" s="8"/>
       <c t="s" r="P65" s="11">
-        <v>185</v>
+        <v>48</v>
       </c>
       <c t="s" r="Q65" s="12">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="66" ht="25.5" customHeight="1">
@@ -3516,14 +3528,14 @@
       </c>
       <c r="B66" s="7"/>
       <c t="s" r="C66" s="8">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="D66" s="8"/>
       <c r="E66" s="8"/>
       <c r="F66" s="8"/>
       <c r="G66" s="8"/>
       <c t="s" r="H66" s="9">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="I66" s="9"/>
       <c r="J66" s="9"/>
@@ -3533,11 +3545,11 @@
       </c>
       <c r="M66" s="10"/>
       <c t="s" r="N66" s="8">
-        <v>187</v>
+        <v>136</v>
       </c>
       <c r="O66" s="8"/>
       <c t="s" r="P66" s="11">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c t="s" r="Q66" s="12">
         <v>20</v>
@@ -3549,14 +3561,14 @@
       </c>
       <c r="B67" s="7"/>
       <c t="s" r="C67" s="8">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="D67" s="8"/>
       <c r="E67" s="8"/>
       <c r="F67" s="8"/>
       <c r="G67" s="8"/>
       <c t="s" r="H67" s="9">
-        <v>20</v>
+        <v>46</v>
       </c>
       <c r="I67" s="9"/>
       <c r="J67" s="9"/>
@@ -3566,14 +3578,14 @@
       </c>
       <c r="M67" s="10"/>
       <c t="s" r="N67" s="8">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="O67" s="8"/>
       <c t="s" r="P67" s="11">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c t="s" r="Q67" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="68" ht="24.75" customHeight="1">
@@ -3582,14 +3594,14 @@
       </c>
       <c r="B68" s="7"/>
       <c t="s" r="C68" s="8">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="D68" s="8"/>
       <c r="E68" s="8"/>
       <c r="F68" s="8"/>
       <c r="G68" s="8"/>
       <c t="s" r="H68" s="9">
-        <v>16</v>
+        <v>46</v>
       </c>
       <c r="I68" s="9"/>
       <c r="J68" s="9"/>
@@ -3599,14 +3611,14 @@
       </c>
       <c r="M68" s="10"/>
       <c t="s" r="N68" s="8">
-        <v>107</v>
+        <v>191</v>
       </c>
       <c r="O68" s="8"/>
       <c t="s" r="P68" s="11">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c t="s" r="Q68" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="69" ht="25.5" customHeight="1">
@@ -3615,14 +3627,14 @@
       </c>
       <c r="B69" s="7"/>
       <c t="s" r="C69" s="8">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="D69" s="8"/>
       <c r="E69" s="8"/>
       <c r="F69" s="8"/>
       <c r="G69" s="8"/>
       <c t="s" r="H69" s="9">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="I69" s="9"/>
       <c r="J69" s="9"/>
@@ -3632,14 +3644,14 @@
       </c>
       <c r="M69" s="10"/>
       <c t="s" r="N69" s="8">
-        <v>110</v>
+        <v>194</v>
       </c>
       <c r="O69" s="8"/>
       <c t="s" r="P69" s="11">
         <v>195</v>
       </c>
       <c t="s" r="Q69" s="12">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="70" ht="24.75" customHeight="1">
@@ -3655,7 +3667,7 @@
       <c r="F70" s="8"/>
       <c r="G70" s="8"/>
       <c t="s" r="H70" s="9">
-        <v>197</v>
+        <v>16</v>
       </c>
       <c r="I70" s="9"/>
       <c r="J70" s="9"/>
@@ -3665,14 +3677,14 @@
       </c>
       <c r="M70" s="10"/>
       <c t="s" r="N70" s="8">
-        <v>151</v>
+        <v>110</v>
       </c>
       <c r="O70" s="8"/>
       <c t="s" r="P70" s="11">
-        <v>152</v>
+        <v>197</v>
       </c>
       <c t="s" r="Q70" s="12">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="71" ht="25.5" customHeight="1">
@@ -3688,7 +3700,7 @@
       <c r="F71" s="8"/>
       <c r="G71" s="8"/>
       <c t="s" r="H71" s="9">
-        <v>199</v>
+        <v>22</v>
       </c>
       <c r="I71" s="9"/>
       <c r="J71" s="9"/>
@@ -3698,14 +3710,14 @@
       </c>
       <c r="M71" s="10"/>
       <c t="s" r="N71" s="8">
-        <v>200</v>
+        <v>113</v>
       </c>
       <c r="O71" s="8"/>
       <c t="s" r="P71" s="11">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c t="s" r="Q71" s="12">
-        <v>202</v>
+        <v>20</v>
       </c>
     </row>
     <row r="72" ht="25.5" customHeight="1">
@@ -3714,14 +3726,14 @@
       </c>
       <c r="B72" s="7"/>
       <c t="s" r="C72" s="8">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="D72" s="8"/>
       <c r="E72" s="8"/>
       <c r="F72" s="8"/>
       <c r="G72" s="8"/>
       <c t="s" r="H72" s="9">
-        <v>20</v>
+        <v>201</v>
       </c>
       <c r="I72" s="9"/>
       <c r="J72" s="9"/>
@@ -3731,11 +3743,11 @@
       </c>
       <c r="M72" s="10"/>
       <c t="s" r="N72" s="8">
-        <v>204</v>
+        <v>152</v>
       </c>
       <c r="O72" s="8"/>
       <c t="s" r="P72" s="11">
-        <v>205</v>
+        <v>153</v>
       </c>
       <c t="s" r="Q72" s="12">
         <v>20</v>
@@ -3747,14 +3759,14 @@
       </c>
       <c r="B73" s="7"/>
       <c t="s" r="C73" s="8">
-        <v>206</v>
+        <v>202</v>
       </c>
       <c r="D73" s="8"/>
       <c r="E73" s="8"/>
       <c r="F73" s="8"/>
       <c r="G73" s="8"/>
       <c t="s" r="H73" s="9">
-        <v>45</v>
+        <v>203</v>
       </c>
       <c r="I73" s="9"/>
       <c r="J73" s="9"/>
@@ -3764,14 +3776,14 @@
       </c>
       <c r="M73" s="10"/>
       <c t="s" r="N73" s="8">
-        <v>141</v>
+        <v>204</v>
       </c>
       <c r="O73" s="8"/>
       <c t="s" r="P73" s="11">
-        <v>142</v>
+        <v>205</v>
       </c>
       <c t="s" r="Q73" s="12">
-        <v>20</v>
+        <v>206</v>
       </c>
     </row>
     <row r="74" ht="25.5" customHeight="1">
@@ -3787,7 +3799,7 @@
       <c r="F74" s="8"/>
       <c r="G74" s="8"/>
       <c t="s" r="H74" s="9">
-        <v>208</v>
+        <v>20</v>
       </c>
       <c r="I74" s="9"/>
       <c r="J74" s="9"/>
@@ -3797,14 +3809,14 @@
       </c>
       <c r="M74" s="10"/>
       <c t="s" r="N74" s="8">
-        <v>162</v>
+        <v>208</v>
       </c>
       <c r="O74" s="8"/>
       <c t="s" r="P74" s="11">
-        <v>87</v>
+        <v>209</v>
       </c>
       <c t="s" r="Q74" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="75" ht="24.75" customHeight="1">
@@ -3813,14 +3825,14 @@
       </c>
       <c r="B75" s="7"/>
       <c t="s" r="C75" s="8">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="D75" s="8"/>
       <c r="E75" s="8"/>
       <c r="F75" s="8"/>
       <c r="G75" s="8"/>
       <c t="s" r="H75" s="9">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="I75" s="9"/>
       <c r="J75" s="9"/>
@@ -3830,14 +3842,14 @@
       </c>
       <c r="M75" s="10"/>
       <c t="s" r="N75" s="8">
-        <v>101</v>
+        <v>89</v>
       </c>
       <c r="O75" s="8"/>
       <c t="s" r="P75" s="11">
-        <v>210</v>
+        <v>90</v>
       </c>
       <c t="s" r="Q75" s="12">
-        <v>80</v>
+        <v>20</v>
       </c>
     </row>
     <row r="76" ht="25.5" customHeight="1">
@@ -3853,7 +3865,7 @@
       <c r="F76" s="8"/>
       <c r="G76" s="8"/>
       <c t="s" r="H76" s="9">
-        <v>71</v>
+        <v>212</v>
       </c>
       <c r="I76" s="9"/>
       <c r="J76" s="9"/>
@@ -3863,14 +3875,14 @@
       </c>
       <c r="M76" s="10"/>
       <c t="s" r="N76" s="8">
-        <v>27</v>
+        <v>163</v>
       </c>
       <c r="O76" s="8"/>
       <c t="s" r="P76" s="11">
-        <v>212</v>
+        <v>87</v>
       </c>
       <c t="s" r="Q76" s="12">
-        <v>30</v>
+        <v>16</v>
       </c>
     </row>
     <row r="77" ht="25.5" customHeight="1">
@@ -3886,7 +3898,7 @@
       <c r="F77" s="8"/>
       <c r="G77" s="8"/>
       <c t="s" r="H77" s="9">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="I77" s="9"/>
       <c r="J77" s="9"/>
@@ -3896,14 +3908,14 @@
       </c>
       <c r="M77" s="10"/>
       <c t="s" r="N77" s="8">
-        <v>96</v>
+        <v>104</v>
       </c>
       <c r="O77" s="8"/>
       <c t="s" r="P77" s="11">
-        <v>62</v>
+        <v>214</v>
       </c>
       <c t="s" r="Q77" s="12">
-        <v>20</v>
+        <v>29</v>
       </c>
     </row>
     <row r="78" ht="24.75" customHeight="1">
@@ -3912,14 +3924,14 @@
       </c>
       <c r="B78" s="7"/>
       <c t="s" r="C78" s="8">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="D78" s="8"/>
       <c r="E78" s="8"/>
       <c r="F78" s="8"/>
       <c r="G78" s="8"/>
       <c t="s" r="H78" s="9">
-        <v>30</v>
+        <v>216</v>
       </c>
       <c r="I78" s="9"/>
       <c r="J78" s="9"/>
@@ -3929,14 +3941,14 @@
       </c>
       <c r="M78" s="10"/>
       <c t="s" r="N78" s="8">
-        <v>39</v>
+        <v>27</v>
       </c>
       <c r="O78" s="8"/>
       <c t="s" r="P78" s="11">
-        <v>40</v>
+        <v>217</v>
       </c>
       <c t="s" r="Q78" s="12">
-        <v>16</v>
+        <v>43</v>
       </c>
     </row>
     <row r="79" ht="25.5" customHeight="1">
@@ -3945,14 +3957,14 @@
       </c>
       <c r="B79" s="7"/>
       <c t="s" r="C79" s="8">
-        <v>215</v>
+        <v>218</v>
       </c>
       <c r="D79" s="8"/>
       <c r="E79" s="8"/>
       <c r="F79" s="8"/>
       <c r="G79" s="8"/>
       <c t="s" r="H79" s="9">
-        <v>216</v>
+        <v>43</v>
       </c>
       <c r="I79" s="9"/>
       <c r="J79" s="9"/>
@@ -3962,14 +3974,14 @@
       </c>
       <c r="M79" s="10"/>
       <c t="s" r="N79" s="8">
-        <v>217</v>
+        <v>99</v>
       </c>
       <c r="O79" s="8"/>
       <c t="s" r="P79" s="11">
-        <v>171</v>
+        <v>63</v>
       </c>
       <c t="s" r="Q79" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="80" ht="24.75" customHeight="1">
@@ -3978,14 +3990,14 @@
       </c>
       <c r="B80" s="7"/>
       <c t="s" r="C80" s="8">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="D80" s="8"/>
       <c r="E80" s="8"/>
       <c r="F80" s="8"/>
       <c r="G80" s="8"/>
       <c t="s" r="H80" s="9">
-        <v>216</v>
+        <v>31</v>
       </c>
       <c r="I80" s="9"/>
       <c r="J80" s="9"/>
@@ -3995,14 +4007,14 @@
       </c>
       <c r="M80" s="10"/>
       <c t="s" r="N80" s="8">
-        <v>219</v>
+        <v>40</v>
       </c>
       <c r="O80" s="8"/>
       <c t="s" r="P80" s="11">
-        <v>220</v>
+        <v>41</v>
       </c>
       <c t="s" r="Q80" s="12">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="81" ht="25.5" customHeight="1">
@@ -4011,14 +4023,14 @@
       </c>
       <c r="B81" s="7"/>
       <c t="s" r="C81" s="8">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="D81" s="8"/>
       <c r="E81" s="8"/>
       <c r="F81" s="8"/>
       <c r="G81" s="8"/>
       <c t="s" r="H81" s="9">
-        <v>16</v>
+        <v>216</v>
       </c>
       <c r="I81" s="9"/>
       <c r="J81" s="9"/>
@@ -4028,11 +4040,11 @@
       </c>
       <c r="M81" s="10"/>
       <c t="s" r="N81" s="8">
-        <v>133</v>
+        <v>221</v>
       </c>
       <c r="O81" s="8"/>
       <c t="s" r="P81" s="11">
-        <v>134</v>
+        <v>175</v>
       </c>
       <c t="s" r="Q81" s="12">
         <v>16</v>
@@ -4051,7 +4063,7 @@
       <c r="F82" s="8"/>
       <c r="G82" s="8"/>
       <c t="s" r="H82" s="9">
-        <v>45</v>
+        <v>216</v>
       </c>
       <c r="I82" s="9"/>
       <c r="J82" s="9"/>
@@ -4084,7 +4096,7 @@
       <c r="F83" s="8"/>
       <c r="G83" s="8"/>
       <c t="s" r="H83" s="9">
-        <v>30</v>
+        <v>16</v>
       </c>
       <c r="I83" s="9"/>
       <c r="J83" s="9"/>
@@ -4094,11 +4106,11 @@
       </c>
       <c r="M83" s="10"/>
       <c t="s" r="N83" s="8">
-        <v>217</v>
+        <v>136</v>
       </c>
       <c r="O83" s="8"/>
       <c t="s" r="P83" s="11">
-        <v>171</v>
+        <v>137</v>
       </c>
       <c t="s" r="Q83" s="12">
         <v>16</v>
@@ -4117,7 +4129,7 @@
       <c r="F84" s="8"/>
       <c r="G84" s="8"/>
       <c t="s" r="H84" s="9">
-        <v>30</v>
+        <v>46</v>
       </c>
       <c r="I84" s="9"/>
       <c r="J84" s="9"/>
@@ -4134,7 +4146,7 @@
         <v>228</v>
       </c>
       <c t="s" r="Q84" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="85" ht="24.75" customHeight="1">
@@ -4150,7 +4162,7 @@
       <c r="F85" s="8"/>
       <c r="G85" s="8"/>
       <c t="s" r="H85" s="9">
-        <v>22</v>
+        <v>31</v>
       </c>
       <c r="I85" s="9"/>
       <c r="J85" s="9"/>
@@ -4160,14 +4172,14 @@
       </c>
       <c r="M85" s="10"/>
       <c t="s" r="N85" s="8">
-        <v>127</v>
+        <v>221</v>
       </c>
       <c r="O85" s="8"/>
       <c t="s" r="P85" s="11">
-        <v>230</v>
+        <v>175</v>
       </c>
       <c t="s" r="Q85" s="12">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="86" ht="25.5" customHeight="1">
@@ -4176,14 +4188,14 @@
       </c>
       <c r="B86" s="7"/>
       <c t="s" r="C86" s="8">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="D86" s="8"/>
       <c r="E86" s="8"/>
       <c r="F86" s="8"/>
       <c r="G86" s="8"/>
       <c t="s" r="H86" s="9">
-        <v>22</v>
+        <v>31</v>
       </c>
       <c r="I86" s="9"/>
       <c r="J86" s="9"/>
@@ -4193,14 +4205,14 @@
       </c>
       <c r="M86" s="10"/>
       <c t="s" r="N86" s="8">
-        <v>130</v>
+        <v>231</v>
       </c>
       <c r="O86" s="8"/>
       <c t="s" r="P86" s="11">
-        <v>36</v>
+        <v>232</v>
       </c>
       <c t="s" r="Q86" s="12">
-        <v>22</v>
+        <v>16</v>
       </c>
     </row>
     <row r="87" ht="25.5" customHeight="1">
@@ -4209,14 +4221,14 @@
       </c>
       <c r="B87" s="7"/>
       <c t="s" r="C87" s="8">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="D87" s="8"/>
       <c r="E87" s="8"/>
       <c r="F87" s="8"/>
       <c r="G87" s="8"/>
       <c t="s" r="H87" s="9">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="I87" s="9"/>
       <c r="J87" s="9"/>
@@ -4226,14 +4238,14 @@
       </c>
       <c r="M87" s="10"/>
       <c t="s" r="N87" s="8">
-        <v>233</v>
+        <v>130</v>
       </c>
       <c r="O87" s="8"/>
       <c t="s" r="P87" s="11">
         <v>234</v>
       </c>
       <c t="s" r="Q87" s="12">
-        <v>30</v>
+        <v>20</v>
       </c>
     </row>
     <row r="88" ht="24.75" customHeight="1">
@@ -4249,7 +4261,7 @@
       <c r="F88" s="8"/>
       <c r="G88" s="8"/>
       <c t="s" r="H88" s="9">
-        <v>45</v>
+        <v>22</v>
       </c>
       <c r="I88" s="9"/>
       <c r="J88" s="9"/>
@@ -4259,14 +4271,14 @@
       </c>
       <c r="M88" s="10"/>
       <c t="s" r="N88" s="8">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="O88" s="8"/>
       <c t="s" r="P88" s="11">
-        <v>131</v>
+        <v>37</v>
       </c>
       <c t="s" r="Q88" s="12">
-        <v>20</v>
+        <v>22</v>
       </c>
     </row>
     <row r="89" ht="25.5" customHeight="1">
@@ -4282,7 +4294,7 @@
       <c r="F89" s="8"/>
       <c r="G89" s="8"/>
       <c t="s" r="H89" s="9">
-        <v>80</v>
+        <v>20</v>
       </c>
       <c r="I89" s="9"/>
       <c r="J89" s="9"/>
@@ -4299,7 +4311,7 @@
         <v>238</v>
       </c>
       <c t="s" r="Q89" s="12">
-        <v>16</v>
+        <v>31</v>
       </c>
     </row>
     <row r="90" ht="24.75" customHeight="1">
@@ -4315,7 +4327,7 @@
       <c r="F90" s="8"/>
       <c r="G90" s="8"/>
       <c t="s" r="H90" s="9">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="I90" s="9"/>
       <c r="J90" s="9"/>
@@ -4325,14 +4337,14 @@
       </c>
       <c r="M90" s="10"/>
       <c t="s" r="N90" s="8">
-        <v>86</v>
+        <v>133</v>
       </c>
       <c r="O90" s="8"/>
       <c t="s" r="P90" s="11">
-        <v>155</v>
+        <v>134</v>
       </c>
       <c t="s" r="Q90" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="91" ht="25.5" customHeight="1">
@@ -4348,7 +4360,7 @@
       <c r="F91" s="8"/>
       <c r="G91" s="8"/>
       <c t="s" r="H91" s="9">
-        <v>95</v>
+        <v>29</v>
       </c>
       <c r="I91" s="9"/>
       <c r="J91" s="9"/>
@@ -4365,7 +4377,7 @@
         <v>242</v>
       </c>
       <c t="s" r="Q91" s="12">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="92" ht="25.5" customHeight="1">
@@ -4381,7 +4393,7 @@
       <c r="F92" s="8"/>
       <c r="G92" s="8"/>
       <c t="s" r="H92" s="9">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="I92" s="9"/>
       <c r="J92" s="9"/>
@@ -4391,14 +4403,14 @@
       </c>
       <c r="M92" s="10"/>
       <c t="s" r="N92" s="8">
-        <v>244</v>
+        <v>86</v>
       </c>
       <c r="O92" s="8"/>
       <c t="s" r="P92" s="11">
-        <v>171</v>
+        <v>156</v>
       </c>
       <c t="s" r="Q92" s="12">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="93" ht="24.75" customHeight="1">
@@ -4407,14 +4419,14 @@
       </c>
       <c r="B93" s="7"/>
       <c t="s" r="C93" s="8">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="D93" s="8"/>
       <c r="E93" s="8"/>
       <c r="F93" s="8"/>
       <c r="G93" s="8"/>
       <c t="s" r="H93" s="9">
-        <v>113</v>
+        <v>98</v>
       </c>
       <c r="I93" s="9"/>
       <c r="J93" s="9"/>
@@ -4424,14 +4436,14 @@
       </c>
       <c r="M93" s="10"/>
       <c t="s" r="N93" s="8">
-        <v>133</v>
+        <v>245</v>
       </c>
       <c r="O93" s="8"/>
       <c t="s" r="P93" s="11">
         <v>246</v>
       </c>
       <c t="s" r="Q93" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="94" ht="25.5" customHeight="1">
@@ -4447,7 +4459,7 @@
       <c r="F94" s="8"/>
       <c r="G94" s="8"/>
       <c t="s" r="H94" s="9">
-        <v>20</v>
+        <v>46</v>
       </c>
       <c r="I94" s="9"/>
       <c r="J94" s="9"/>
@@ -4457,14 +4469,14 @@
       </c>
       <c r="M94" s="10"/>
       <c t="s" r="N94" s="8">
-        <v>133</v>
+        <v>248</v>
       </c>
       <c r="O94" s="8"/>
       <c t="s" r="P94" s="11">
-        <v>134</v>
+        <v>175</v>
       </c>
       <c t="s" r="Q94" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="95" ht="24.75" customHeight="1">
@@ -4473,14 +4485,14 @@
       </c>
       <c r="B95" s="7"/>
       <c t="s" r="C95" s="8">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="D95" s="8"/>
       <c r="E95" s="8"/>
       <c r="F95" s="8"/>
       <c r="G95" s="8"/>
       <c t="s" r="H95" s="9">
-        <v>45</v>
+        <v>116</v>
       </c>
       <c r="I95" s="9"/>
       <c r="J95" s="9"/>
@@ -4490,14 +4502,14 @@
       </c>
       <c r="M95" s="10"/>
       <c t="s" r="N95" s="8">
-        <v>249</v>
+        <v>136</v>
       </c>
       <c r="O95" s="8"/>
       <c t="s" r="P95" s="11">
         <v>250</v>
       </c>
       <c t="s" r="Q95" s="12">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="96" ht="25.5" customHeight="1">
@@ -4513,7 +4525,7 @@
       <c r="F96" s="8"/>
       <c r="G96" s="8"/>
       <c t="s" r="H96" s="9">
-        <v>80</v>
+        <v>20</v>
       </c>
       <c r="I96" s="9"/>
       <c r="J96" s="9"/>
@@ -4523,11 +4535,11 @@
       </c>
       <c r="M96" s="10"/>
       <c t="s" r="N96" s="8">
-        <v>252</v>
+        <v>136</v>
       </c>
       <c r="O96" s="8"/>
       <c t="s" r="P96" s="11">
-        <v>253</v>
+        <v>137</v>
       </c>
       <c t="s" r="Q96" s="12">
         <v>16</v>
@@ -4539,14 +4551,14 @@
       </c>
       <c r="B97" s="7"/>
       <c t="s" r="C97" s="8">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="D97" s="8"/>
       <c r="E97" s="8"/>
       <c r="F97" s="8"/>
       <c r="G97" s="8"/>
       <c t="s" r="H97" s="9">
-        <v>16</v>
+        <v>46</v>
       </c>
       <c r="I97" s="9"/>
       <c r="J97" s="9"/>
@@ -4556,14 +4568,14 @@
       </c>
       <c r="M97" s="10"/>
       <c t="s" r="N97" s="8">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="O97" s="8"/>
       <c t="s" r="P97" s="11">
-        <v>195</v>
+        <v>254</v>
       </c>
       <c t="s" r="Q97" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="98" ht="24.75" customHeight="1">
@@ -4572,14 +4584,14 @@
       </c>
       <c r="B98" s="7"/>
       <c t="s" r="C98" s="8">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="D98" s="8"/>
       <c r="E98" s="8"/>
       <c r="F98" s="8"/>
       <c r="G98" s="8"/>
       <c t="s" r="H98" s="9">
-        <v>257</v>
+        <v>29</v>
       </c>
       <c r="I98" s="9"/>
       <c r="J98" s="9"/>
@@ -4589,14 +4601,14 @@
       </c>
       <c r="M98" s="10"/>
       <c t="s" r="N98" s="8">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="O98" s="8"/>
       <c t="s" r="P98" s="11">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c t="s" r="Q98" s="12">
-        <v>22</v>
+        <v>16</v>
       </c>
     </row>
     <row r="99" ht="25.5" customHeight="1">
@@ -4605,31 +4617,31 @@
       </c>
       <c r="B99" s="7"/>
       <c t="s" r="C99" s="8">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="D99" s="8"/>
       <c r="E99" s="8"/>
       <c r="F99" s="8"/>
       <c r="G99" s="8"/>
       <c t="s" r="H99" s="9">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="I99" s="9"/>
       <c r="J99" s="9"/>
       <c r="K99" s="9"/>
       <c t="s" r="L99" s="10">
-        <v>173</v>
+        <v>13</v>
       </c>
       <c r="M99" s="10"/>
       <c t="s" r="N99" s="8">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="O99" s="8"/>
       <c t="s" r="P99" s="11">
-        <v>262</v>
+        <v>199</v>
       </c>
       <c t="s" r="Q99" s="12">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="100" ht="24.75" customHeight="1">
@@ -4638,31 +4650,31 @@
       </c>
       <c r="B100" s="7"/>
       <c t="s" r="C100" s="8">
-        <v>263</v>
+        <v>260</v>
       </c>
       <c r="D100" s="8"/>
       <c r="E100" s="8"/>
       <c r="F100" s="8"/>
       <c r="G100" s="8"/>
       <c t="s" r="H100" s="9">
-        <v>264</v>
+        <v>261</v>
       </c>
       <c r="I100" s="9"/>
       <c r="J100" s="9"/>
       <c r="K100" s="9"/>
       <c t="s" r="L100" s="10">
-        <v>173</v>
+        <v>13</v>
       </c>
       <c r="M100" s="10"/>
       <c t="s" r="N100" s="8">
-        <v>265</v>
+        <v>262</v>
       </c>
       <c r="O100" s="8"/>
       <c t="s" r="P100" s="11">
-        <v>182</v>
+        <v>263</v>
       </c>
       <c t="s" r="Q100" s="12">
-        <v>38</v>
+        <v>22</v>
       </c>
     </row>
     <row r="101" ht="25.5" customHeight="1">
@@ -4671,28 +4683,28 @@
       </c>
       <c r="B101" s="7"/>
       <c t="s" r="C101" s="8">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="D101" s="8"/>
       <c r="E101" s="8"/>
       <c r="F101" s="8"/>
       <c r="G101" s="8"/>
       <c t="s" r="H101" s="9">
-        <v>38</v>
+        <v>20</v>
       </c>
       <c r="I101" s="9"/>
       <c r="J101" s="9"/>
       <c r="K101" s="9"/>
       <c t="s" r="L101" s="10">
-        <v>173</v>
+        <v>177</v>
       </c>
       <c r="M101" s="10"/>
       <c t="s" r="N101" s="8">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="O101" s="8"/>
       <c t="s" r="P101" s="11">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c t="s" r="Q101" s="12">
         <v>20</v>
@@ -4704,31 +4716,31 @@
       </c>
       <c r="B102" s="7"/>
       <c t="s" r="C102" s="8">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="D102" s="8"/>
       <c r="E102" s="8"/>
       <c r="F102" s="8"/>
       <c r="G102" s="8"/>
       <c t="s" r="H102" s="9">
-        <v>45</v>
+        <v>268</v>
       </c>
       <c r="I102" s="9"/>
       <c r="J102" s="9"/>
       <c r="K102" s="9"/>
       <c t="s" r="L102" s="10">
-        <v>173</v>
+        <v>177</v>
       </c>
       <c r="M102" s="10"/>
       <c t="s" r="N102" s="8">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="O102" s="8"/>
       <c t="s" r="P102" s="11">
-        <v>271</v>
+        <v>186</v>
       </c>
       <c t="s" r="Q102" s="12">
-        <v>22</v>
+        <v>39</v>
       </c>
     </row>
     <row r="103" ht="24.75" customHeight="1">
@@ -4737,28 +4749,28 @@
       </c>
       <c r="B103" s="7"/>
       <c t="s" r="C103" s="8">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="D103" s="8"/>
       <c r="E103" s="8"/>
       <c r="F103" s="8"/>
       <c r="G103" s="8"/>
       <c t="s" r="H103" s="9">
-        <v>20</v>
+        <v>39</v>
       </c>
       <c r="I103" s="9"/>
       <c r="J103" s="9"/>
       <c r="K103" s="9"/>
       <c t="s" r="L103" s="10">
-        <v>173</v>
+        <v>177</v>
       </c>
       <c r="M103" s="10"/>
       <c t="s" r="N103" s="8">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="O103" s="8"/>
       <c t="s" r="P103" s="11">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c t="s" r="Q103" s="12">
         <v>20</v>
@@ -4770,28 +4782,28 @@
       </c>
       <c r="B104" s="7"/>
       <c t="s" r="C104" s="8">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="D104" s="8"/>
       <c r="E104" s="8"/>
       <c r="F104" s="8"/>
       <c r="G104" s="8"/>
       <c t="s" r="H104" s="9">
-        <v>276</v>
+        <v>46</v>
       </c>
       <c r="I104" s="9"/>
       <c r="J104" s="9"/>
       <c r="K104" s="9"/>
       <c t="s" r="L104" s="10">
-        <v>173</v>
+        <v>177</v>
       </c>
       <c r="M104" s="10"/>
       <c t="s" r="N104" s="8">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="O104" s="8"/>
       <c t="s" r="P104" s="11">
-        <v>174</v>
+        <v>275</v>
       </c>
       <c t="s" r="Q104" s="12">
         <v>22</v>
@@ -4803,31 +4815,31 @@
       </c>
       <c r="B105" s="7"/>
       <c t="s" r="C105" s="8">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="D105" s="8"/>
       <c r="E105" s="8"/>
       <c r="F105" s="8"/>
       <c r="G105" s="8"/>
       <c t="s" r="H105" s="9">
-        <v>45</v>
+        <v>20</v>
       </c>
       <c r="I105" s="9"/>
       <c r="J105" s="9"/>
       <c r="K105" s="9"/>
       <c t="s" r="L105" s="10">
-        <v>173</v>
+        <v>177</v>
       </c>
       <c r="M105" s="10"/>
       <c t="s" r="N105" s="8">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="O105" s="8"/>
       <c t="s" r="P105" s="11">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c t="s" r="Q105" s="12">
-        <v>281</v>
+        <v>20</v>
       </c>
     </row>
     <row r="106" ht="25.5" customHeight="1">
@@ -4836,31 +4848,31 @@
       </c>
       <c r="B106" s="7"/>
       <c t="s" r="C106" s="8">
-        <v>282</v>
+        <v>279</v>
       </c>
       <c r="D106" s="8"/>
       <c r="E106" s="8"/>
       <c r="F106" s="8"/>
       <c r="G106" s="8"/>
       <c t="s" r="H106" s="9">
-        <v>45</v>
+        <v>280</v>
       </c>
       <c r="I106" s="9"/>
       <c r="J106" s="9"/>
       <c r="K106" s="9"/>
       <c t="s" r="L106" s="10">
-        <v>173</v>
+        <v>177</v>
       </c>
       <c r="M106" s="10"/>
       <c t="s" r="N106" s="8">
-        <v>258</v>
+        <v>281</v>
       </c>
       <c r="O106" s="8"/>
       <c t="s" r="P106" s="11">
-        <v>102</v>
+        <v>178</v>
       </c>
       <c t="s" r="Q106" s="12">
-        <v>283</v>
+        <v>22</v>
       </c>
     </row>
     <row r="107" ht="25.5" customHeight="1">
@@ -4869,31 +4881,31 @@
       </c>
       <c r="B107" s="7"/>
       <c t="s" r="C107" s="8">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="D107" s="8"/>
       <c r="E107" s="8"/>
       <c r="F107" s="8"/>
       <c r="G107" s="8"/>
       <c t="s" r="H107" s="9">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="I107" s="9"/>
       <c r="J107" s="9"/>
       <c r="K107" s="9"/>
       <c t="s" r="L107" s="10">
-        <v>173</v>
+        <v>177</v>
       </c>
       <c r="M107" s="10"/>
       <c t="s" r="N107" s="8">
-        <v>270</v>
+        <v>283</v>
       </c>
       <c r="O107" s="8"/>
       <c t="s" r="P107" s="11">
-        <v>271</v>
+        <v>284</v>
       </c>
       <c t="s" r="Q107" s="12">
-        <v>22</v>
+        <v>285</v>
       </c>
     </row>
     <row r="108" ht="24.75" customHeight="1">
@@ -4902,31 +4914,31 @@
       </c>
       <c r="B108" s="7"/>
       <c t="s" r="C108" s="8">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="D108" s="8"/>
       <c r="E108" s="8"/>
       <c r="F108" s="8"/>
       <c r="G108" s="8"/>
       <c t="s" r="H108" s="9">
-        <v>22</v>
+        <v>46</v>
       </c>
       <c r="I108" s="9"/>
       <c r="J108" s="9"/>
       <c r="K108" s="9"/>
       <c t="s" r="L108" s="10">
-        <v>173</v>
+        <v>177</v>
       </c>
       <c r="M108" s="10"/>
       <c t="s" r="N108" s="8">
-        <v>273</v>
+        <v>262</v>
       </c>
       <c r="O108" s="8"/>
       <c t="s" r="P108" s="11">
-        <v>274</v>
+        <v>234</v>
       </c>
       <c t="s" r="Q108" s="12">
-        <v>20</v>
+        <v>287</v>
       </c>
     </row>
     <row r="109" ht="25.5" customHeight="1">
@@ -4935,31 +4947,31 @@
       </c>
       <c r="B109" s="7"/>
       <c t="s" r="C109" s="8">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="D109" s="8"/>
       <c r="E109" s="8"/>
       <c r="F109" s="8"/>
       <c r="G109" s="8"/>
       <c t="s" r="H109" s="9">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="I109" s="9"/>
       <c r="J109" s="9"/>
       <c r="K109" s="9"/>
       <c t="s" r="L109" s="10">
-        <v>173</v>
+        <v>177</v>
       </c>
       <c r="M109" s="10"/>
       <c t="s" r="N109" s="8">
-        <v>265</v>
+        <v>274</v>
       </c>
       <c r="O109" s="8"/>
       <c t="s" r="P109" s="11">
-        <v>287</v>
+        <v>275</v>
       </c>
       <c t="s" r="Q109" s="12">
-        <v>20</v>
+        <v>22</v>
       </c>
     </row>
     <row r="110" ht="24.75" customHeight="1">
@@ -4968,28 +4980,28 @@
       </c>
       <c r="B110" s="7"/>
       <c t="s" r="C110" s="8">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="D110" s="8"/>
       <c r="E110" s="8"/>
       <c r="F110" s="8"/>
       <c r="G110" s="8"/>
       <c t="s" r="H110" s="9">
-        <v>289</v>
+        <v>22</v>
       </c>
       <c r="I110" s="9"/>
       <c r="J110" s="9"/>
       <c r="K110" s="9"/>
       <c t="s" r="L110" s="10">
-        <v>173</v>
+        <v>177</v>
       </c>
       <c r="M110" s="10"/>
       <c t="s" r="N110" s="8">
-        <v>290</v>
+        <v>277</v>
       </c>
       <c r="O110" s="8"/>
       <c t="s" r="P110" s="11">
-        <v>291</v>
+        <v>278</v>
       </c>
       <c t="s" r="Q110" s="12">
         <v>20</v>
@@ -5001,28 +5013,28 @@
       </c>
       <c r="B111" s="7"/>
       <c t="s" r="C111" s="8">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="D111" s="8"/>
       <c r="E111" s="8"/>
       <c r="F111" s="8"/>
       <c r="G111" s="8"/>
       <c t="s" r="H111" s="9">
-        <v>38</v>
+        <v>46</v>
       </c>
       <c r="I111" s="9"/>
       <c r="J111" s="9"/>
       <c r="K111" s="9"/>
       <c t="s" r="L111" s="10">
-        <v>173</v>
+        <v>177</v>
       </c>
       <c r="M111" s="10"/>
       <c t="s" r="N111" s="8">
-        <v>293</v>
+        <v>269</v>
       </c>
       <c r="O111" s="8"/>
       <c t="s" r="P111" s="11">
-        <v>294</v>
+        <v>291</v>
       </c>
       <c t="s" r="Q111" s="12">
         <v>20</v>
@@ -5034,31 +5046,31 @@
       </c>
       <c r="B112" s="7"/>
       <c t="s" r="C112" s="8">
-        <v>295</v>
+        <v>292</v>
       </c>
       <c r="D112" s="8"/>
       <c r="E112" s="8"/>
       <c r="F112" s="8"/>
       <c r="G112" s="8"/>
       <c t="s" r="H112" s="9">
-        <v>296</v>
+        <v>293</v>
       </c>
       <c r="I112" s="9"/>
       <c r="J112" s="9"/>
       <c r="K112" s="9"/>
       <c t="s" r="L112" s="10">
-        <v>173</v>
+        <v>177</v>
       </c>
       <c r="M112" s="10"/>
       <c t="s" r="N112" s="8">
-        <v>273</v>
+        <v>294</v>
       </c>
       <c r="O112" s="8"/>
       <c t="s" r="P112" s="11">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c t="s" r="Q112" s="12">
-        <v>85</v>
+        <v>20</v>
       </c>
     </row>
     <row r="113" ht="24.75" customHeight="1">
@@ -5067,28 +5079,28 @@
       </c>
       <c r="B113" s="7"/>
       <c t="s" r="C113" s="8">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="D113" s="8"/>
       <c r="E113" s="8"/>
       <c r="F113" s="8"/>
       <c r="G113" s="8"/>
       <c t="s" r="H113" s="9">
-        <v>281</v>
+        <v>39</v>
       </c>
       <c r="I113" s="9"/>
       <c r="J113" s="9"/>
       <c r="K113" s="9"/>
       <c t="s" r="L113" s="10">
-        <v>173</v>
+        <v>177</v>
       </c>
       <c r="M113" s="10"/>
       <c t="s" r="N113" s="8">
-        <v>187</v>
+        <v>297</v>
       </c>
       <c r="O113" s="8"/>
       <c t="s" r="P113" s="11">
-        <v>188</v>
+        <v>298</v>
       </c>
       <c t="s" r="Q113" s="12">
         <v>20</v>
@@ -5107,24 +5119,24 @@
       <c r="F114" s="8"/>
       <c r="G114" s="8"/>
       <c t="s" r="H114" s="9">
-        <v>45</v>
+        <v>300</v>
       </c>
       <c r="I114" s="9"/>
       <c r="J114" s="9"/>
       <c r="K114" s="9"/>
       <c t="s" r="L114" s="10">
-        <v>173</v>
+        <v>177</v>
       </c>
       <c r="M114" s="10"/>
       <c t="s" r="N114" s="8">
-        <v>267</v>
+        <v>277</v>
       </c>
       <c r="O114" s="8"/>
       <c t="s" r="P114" s="11">
-        <v>287</v>
+        <v>301</v>
       </c>
       <c t="s" r="Q114" s="12">
-        <v>22</v>
+        <v>85</v>
       </c>
     </row>
     <row r="115" ht="24.75" customHeight="1">
@@ -5133,28 +5145,28 @@
       </c>
       <c r="B115" s="7"/>
       <c t="s" r="C115" s="8">
-        <v>300</v>
+        <v>302</v>
       </c>
       <c r="D115" s="8"/>
       <c r="E115" s="8"/>
       <c r="F115" s="8"/>
       <c r="G115" s="8"/>
       <c t="s" r="H115" s="9">
-        <v>20</v>
+        <v>285</v>
       </c>
       <c r="I115" s="9"/>
       <c r="J115" s="9"/>
       <c r="K115" s="9"/>
       <c t="s" r="L115" s="10">
-        <v>173</v>
+        <v>177</v>
       </c>
       <c r="M115" s="10"/>
       <c t="s" r="N115" s="8">
-        <v>301</v>
+        <v>191</v>
       </c>
       <c r="O115" s="8"/>
       <c t="s" r="P115" s="11">
-        <v>302</v>
+        <v>192</v>
       </c>
       <c t="s" r="Q115" s="12">
         <v>20</v>
@@ -5173,24 +5185,24 @@
       <c r="F116" s="8"/>
       <c r="G116" s="8"/>
       <c t="s" r="H116" s="9">
-        <v>276</v>
+        <v>46</v>
       </c>
       <c r="I116" s="9"/>
       <c r="J116" s="9"/>
       <c r="K116" s="9"/>
       <c t="s" r="L116" s="10">
-        <v>173</v>
+        <v>177</v>
       </c>
       <c r="M116" s="10"/>
       <c t="s" r="N116" s="8">
-        <v>127</v>
+        <v>271</v>
       </c>
       <c r="O116" s="8"/>
       <c t="s" r="P116" s="11">
-        <v>230</v>
+        <v>291</v>
       </c>
       <c t="s" r="Q116" s="12">
-        <v>20</v>
+        <v>22</v>
       </c>
     </row>
     <row r="117" ht="25.5" customHeight="1">
@@ -5206,13 +5218,13 @@
       <c r="F117" s="8"/>
       <c r="G117" s="8"/>
       <c t="s" r="H117" s="9">
-        <v>45</v>
+        <v>20</v>
       </c>
       <c r="I117" s="9"/>
       <c r="J117" s="9"/>
       <c r="K117" s="9"/>
       <c t="s" r="L117" s="10">
-        <v>173</v>
+        <v>177</v>
       </c>
       <c r="M117" s="10"/>
       <c t="s" r="N117" s="8">
@@ -5239,59 +5251,125 @@
       <c r="F118" s="8"/>
       <c r="G118" s="8"/>
       <c t="s" r="H118" s="9">
-        <v>22</v>
+        <v>280</v>
       </c>
       <c r="I118" s="9"/>
       <c r="J118" s="9"/>
       <c r="K118" s="9"/>
       <c t="s" r="L118" s="10">
-        <v>173</v>
+        <v>177</v>
       </c>
       <c r="M118" s="10"/>
       <c t="s" r="N118" s="8">
-        <v>267</v>
+        <v>130</v>
       </c>
       <c r="O118" s="8"/>
       <c t="s" r="P118" s="11">
-        <v>268</v>
+        <v>234</v>
       </c>
       <c t="s" r="Q118" s="12">
         <v>20</v>
       </c>
     </row>
     <row r="119" ht="25.5" customHeight="1">
-      <c r="P119" s="13">
-        <v>7168.585</v>
-      </c>
-      <c r="Q119" s="13"/>
-    </row>
-    <row r="120" ht="16.5" customHeight="1">
-      <c t="s" r="A120" s="14">
+      <c r="A119" s="7">
+        <v>113</v>
+      </c>
+      <c r="B119" s="7"/>
+      <c t="s" r="C119" s="8">
         <v>308</v>
       </c>
-      <c r="B120" s="14"/>
-      <c r="C120" s="14"/>
-      <c r="D120" s="14"/>
-      <c r="E120" s="14"/>
-      <c r="F120" s="14"/>
-      <c t="s" r="G120" s="15">
+      <c r="D119" s="8"/>
+      <c r="E119" s="8"/>
+      <c r="F119" s="8"/>
+      <c r="G119" s="8"/>
+      <c t="s" r="H119" s="9">
+        <v>46</v>
+      </c>
+      <c r="I119" s="9"/>
+      <c r="J119" s="9"/>
+      <c r="K119" s="9"/>
+      <c t="s" r="L119" s="10">
+        <v>177</v>
+      </c>
+      <c r="M119" s="10"/>
+      <c t="s" r="N119" s="8">
         <v>309</v>
       </c>
-      <c r="H120" s="15"/>
-      <c r="I120" s="15"/>
-      <c r="J120" s="16"/>
-      <c t="s" r="K120" s="17">
+      <c r="O119" s="8"/>
+      <c t="s" r="P119" s="11">
         <v>310</v>
       </c>
-      <c r="L120" s="17"/>
-      <c r="M120" s="17"/>
-      <c r="N120" s="17"/>
-      <c r="O120" s="17"/>
-      <c r="P120" s="17"/>
-      <c r="Q120" s="17"/>
+      <c t="s" r="Q119" s="12">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="120" ht="24.75" customHeight="1">
+      <c r="A120" s="7">
+        <v>114</v>
+      </c>
+      <c r="B120" s="7"/>
+      <c t="s" r="C120" s="8">
+        <v>311</v>
+      </c>
+      <c r="D120" s="8"/>
+      <c r="E120" s="8"/>
+      <c r="F120" s="8"/>
+      <c r="G120" s="8"/>
+      <c t="s" r="H120" s="9">
+        <v>22</v>
+      </c>
+      <c r="I120" s="9"/>
+      <c r="J120" s="9"/>
+      <c r="K120" s="9"/>
+      <c t="s" r="L120" s="10">
+        <v>177</v>
+      </c>
+      <c r="M120" s="10"/>
+      <c t="s" r="N120" s="8">
+        <v>271</v>
+      </c>
+      <c r="O120" s="8"/>
+      <c t="s" r="P120" s="11">
+        <v>272</v>
+      </c>
+      <c t="s" r="Q120" s="12">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="121" ht="25.5" customHeight="1">
+      <c r="P121" s="13">
+        <v>7508.8050000000003</v>
+      </c>
+      <c r="Q121" s="13"/>
+    </row>
+    <row r="122" ht="16.5" customHeight="1">
+      <c t="s" r="A122" s="14">
+        <v>312</v>
+      </c>
+      <c r="B122" s="14"/>
+      <c r="C122" s="14"/>
+      <c r="D122" s="14"/>
+      <c r="E122" s="14"/>
+      <c r="F122" s="14"/>
+      <c t="s" r="G122" s="15">
+        <v>313</v>
+      </c>
+      <c r="H122" s="15"/>
+      <c r="I122" s="15"/>
+      <c r="J122" s="16"/>
+      <c t="s" r="K122" s="17">
+        <v>314</v>
+      </c>
+      <c r="L122" s="17"/>
+      <c r="M122" s="17"/>
+      <c r="N122" s="17"/>
+      <c r="O122" s="17"/>
+      <c r="P122" s="17"/>
+      <c r="Q122" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="572">
+  <mergeCells count="582">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -5860,10 +5938,20 @@
     <mergeCell ref="H118:K118"/>
     <mergeCell ref="L118:M118"/>
     <mergeCell ref="N118:O118"/>
-    <mergeCell ref="P119:Q119"/>
-    <mergeCell ref="A120:F120"/>
-    <mergeCell ref="G120:I120"/>
-    <mergeCell ref="K120:Q120"/>
+    <mergeCell ref="A119:B119"/>
+    <mergeCell ref="C119:G119"/>
+    <mergeCell ref="H119:K119"/>
+    <mergeCell ref="L119:M119"/>
+    <mergeCell ref="N119:O119"/>
+    <mergeCell ref="A120:B120"/>
+    <mergeCell ref="C120:G120"/>
+    <mergeCell ref="H120:K120"/>
+    <mergeCell ref="L120:M120"/>
+    <mergeCell ref="N120:O120"/>
+    <mergeCell ref="P121:Q121"/>
+    <mergeCell ref="A122:F122"/>
+    <mergeCell ref="G122:I122"/>
+    <mergeCell ref="K122:Q122"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-08-08_00-00.xlsx
+++ b/DaySale_2025-08-08_00-00.xlsx
@@ -245,6 +245,15 @@
     <t>34.6500</t>
   </si>
   <si>
+    <t>CONGESTAL SYRUP 120 ML</t>
+  </si>
+  <si>
+    <t>44.00</t>
+  </si>
+  <si>
+    <t>44.0000</t>
+  </si>
+  <si>
     <t>CONVENTIN XR 600MG 30 TABS.</t>
   </si>
   <si>
@@ -473,6 +482,15 @@
     <t>45.0000</t>
   </si>
   <si>
+    <t>JOYPOX 60MG 3 TAB</t>
+  </si>
+  <si>
+    <t>106.00</t>
+  </si>
+  <si>
+    <t>16.9600</t>
+  </si>
+  <si>
     <t>KAPRON 500 MG 20 F.C.TABS.</t>
   </si>
   <si>
@@ -542,321 +560,327 @@
     <t>PANADOL EXTRA 48 TAB</t>
   </si>
   <si>
+    <t>1:3</t>
+  </si>
+  <si>
     <t>0</t>
   </si>
   <si>
+    <t>81.0000</t>
+  </si>
+  <si>
+    <t>PANTAZOL 40MG VIAL I.V.</t>
+  </si>
+  <si>
+    <t>62.0000</t>
+  </si>
+  <si>
+    <t>PANTOLOC 40MG 14 TAB</t>
+  </si>
+  <si>
+    <t>102.0000</t>
+  </si>
+  <si>
+    <t>PANTOPI 40MG 14 TAB</t>
+  </si>
+  <si>
+    <t>96.00</t>
+  </si>
+  <si>
+    <t>PANTOPRAZOLE 40MG 14 TAB.</t>
+  </si>
+  <si>
+    <t>90.0000</t>
+  </si>
+  <si>
+    <t>PERFORMA EXTRA STRENGTH 5% TOPICAL SOLUTION 60 ML</t>
+  </si>
+  <si>
+    <t>156.00</t>
+  </si>
+  <si>
+    <t>156.0000</t>
+  </si>
+  <si>
+    <t>PRONTO PLUS 20 TAB.</t>
+  </si>
+  <si>
+    <t>40.00</t>
+  </si>
+  <si>
+    <t>40.0000</t>
+  </si>
+  <si>
+    <t>PROSTRIDE 5MG 30 CAPS.</t>
+  </si>
+  <si>
+    <t>183.00</t>
+  </si>
+  <si>
+    <t>60.3900</t>
+  </si>
+  <si>
+    <t>PROXIMOL 0.4MG 40 TAB</t>
+  </si>
+  <si>
+    <t>17.0000</t>
+  </si>
+  <si>
+    <t>PROXIMOL COMPOUND EFF. GRANULES 60 GM</t>
+  </si>
+  <si>
+    <t>52.0000</t>
+  </si>
+  <si>
+    <t>PURGATON 20MG 30 TAB.</t>
+  </si>
+  <si>
+    <t>5:2</t>
+  </si>
+  <si>
+    <t>QUIBRON T/SR 300MG 100 TAB</t>
+  </si>
+  <si>
+    <t>1:56</t>
+  </si>
+  <si>
+    <t>132.00</t>
+  </si>
+  <si>
+    <t>11.8800</t>
+  </si>
+  <si>
+    <t>0:9</t>
+  </si>
+  <si>
+    <t>REPARIL-GEL N 40 GM</t>
+  </si>
+  <si>
+    <t>58.00</t>
+  </si>
+  <si>
+    <t>58.0000</t>
+  </si>
+  <si>
+    <t>REVI 2 CREAM 50 GM</t>
+  </si>
+  <si>
+    <t>ROWATINEX 45 CAPSULES</t>
+  </si>
+  <si>
+    <t>3:1</t>
+  </si>
+  <si>
+    <t>SILDEN 50 MG 4 F.C. TABS.</t>
+  </si>
+  <si>
+    <t>11.0000</t>
+  </si>
+  <si>
+    <t>SPASMO-DIGESTIN 30 TABS.</t>
+  </si>
+  <si>
+    <t>2:1</t>
+  </si>
+  <si>
+    <t>128.7000</t>
+  </si>
+  <si>
+    <t>SPASMOFEN 3 AMP. FOR I.M. INJ.</t>
+  </si>
+  <si>
+    <t>SPASMOFREE 50MG 20 F.C. TABS.</t>
+  </si>
+  <si>
+    <t>STREPTOQUIN 20 TABLETS</t>
+  </si>
+  <si>
+    <t>46.00</t>
+  </si>
+  <si>
+    <t>TAMSULIN 0.4MG 28 CAPS</t>
+  </si>
+  <si>
+    <t>124.00</t>
+  </si>
+  <si>
+    <t>124.0000</t>
+  </si>
+  <si>
+    <t>TOPIRAMATE 25MG 30 F.C. TAB</t>
+  </si>
+  <si>
+    <t>TOPRO 10 SACHETS</t>
+  </si>
+  <si>
+    <t>130.00</t>
+  </si>
+  <si>
+    <t>130.0000</t>
+  </si>
+  <si>
+    <t>TRIACTIN 4MG 20 TAB</t>
+  </si>
+  <si>
+    <t>TRITONE 100MG 30 TAB</t>
+  </si>
+  <si>
+    <t>49.50</t>
+  </si>
+  <si>
+    <t>16.3350</t>
+  </si>
+  <si>
+    <t>TUSSKAN SYRUP 100 ML</t>
+  </si>
+  <si>
+    <t>24.0000</t>
+  </si>
+  <si>
+    <t>URAID-N EFF. GRANUL. 12 SACHETS</t>
+  </si>
+  <si>
+    <t>URINEX 24 CAPS</t>
+  </si>
+  <si>
+    <t>42.00</t>
+  </si>
+  <si>
+    <t>63.0000</t>
+  </si>
+  <si>
+    <t>UROSOLVINE EFF. GRAN. 12 SACHETS</t>
+  </si>
+  <si>
+    <t>VERSERC 16MG 30 TAB</t>
+  </si>
+  <si>
+    <t>87.00</t>
+  </si>
+  <si>
+    <t>28.7100</t>
+  </si>
+  <si>
+    <t>VETOCETAMOL 24 TAB.</t>
+  </si>
+  <si>
+    <t>VIDROP 2800 I.U./ML ORAL DROPS 15 ML</t>
+  </si>
+  <si>
+    <t>26.00</t>
+  </si>
+  <si>
+    <t>26.0000</t>
+  </si>
+  <si>
+    <t>VIOTIC EAR DROPS 10 ML</t>
+  </si>
+  <si>
+    <t>23.00</t>
+  </si>
+  <si>
+    <t>VISCERALGINE 5MG/2ML IM IV 6 AMPOULES</t>
+  </si>
+  <si>
+    <t>14.4000</t>
+  </si>
+  <si>
+    <t>VITAMOUNT FOR WOMEN 15 S.G. CAPS</t>
+  </si>
+  <si>
+    <t>VITASTRESS 20 F.C. TABS.</t>
+  </si>
+  <si>
+    <t>64.00</t>
+  </si>
+  <si>
+    <t>64.0000</t>
+  </si>
+  <si>
+    <t>VITATRON 30 CAPS</t>
+  </si>
+  <si>
+    <t>195.00</t>
+  </si>
+  <si>
+    <t>64.3500</t>
+  </si>
+  <si>
+    <t>VONASPIRE 20MG 14 F.C. TAB</t>
+  </si>
+  <si>
+    <t>104.00</t>
+  </si>
+  <si>
+    <t>WATER FOR INJECTION AMP. 5 ML</t>
+  </si>
+  <si>
+    <t>8424:0</t>
+  </si>
+  <si>
+    <t>2.00</t>
+  </si>
+  <si>
+    <t>4.0000</t>
+  </si>
+  <si>
+    <t>الفيف شامبو400</t>
+  </si>
+  <si>
+    <t>135.00</t>
+  </si>
+  <si>
+    <t>135.0000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">برفان القصاص </t>
+  </si>
+  <si>
+    <t>16:0</t>
+  </si>
+  <si>
+    <t>30.00</t>
+  </si>
+  <si>
+    <t xml:space="preserve">جنتيانا </t>
+  </si>
+  <si>
+    <t>15.00</t>
+  </si>
+  <si>
+    <t>15.0000</t>
+  </si>
+  <si>
+    <t>حبايه</t>
+  </si>
+  <si>
+    <t>3.00</t>
+  </si>
+  <si>
+    <t>6.0000</t>
+  </si>
+  <si>
+    <t>حلاوة حرير</t>
+  </si>
+  <si>
+    <t>20.00</t>
+  </si>
+  <si>
+    <t>20.0000</t>
+  </si>
+  <si>
+    <t>ريكسونا حريمي بليه</t>
+  </si>
+  <si>
+    <t>9:0</t>
+  </si>
+  <si>
+    <t>27.00</t>
+  </si>
+  <si>
     <t>54.0000</t>
   </si>
   <si>
-    <t>PANTAZOL 40MG VIAL I.V.</t>
-  </si>
-  <si>
-    <t>62.0000</t>
-  </si>
-  <si>
-    <t>PANTOLOC 40MG 14 TAB</t>
-  </si>
-  <si>
-    <t>102.0000</t>
-  </si>
-  <si>
-    <t>PANTOPI 40MG 14 TAB</t>
-  </si>
-  <si>
-    <t>96.00</t>
-  </si>
-  <si>
-    <t>PANTOPRAZOLE 40MG 14 TAB.</t>
-  </si>
-  <si>
-    <t>90.0000</t>
-  </si>
-  <si>
-    <t>PERFORMA EXTRA STRENGTH 5% TOPICAL SOLUTION 60 ML</t>
-  </si>
-  <si>
-    <t>156.00</t>
-  </si>
-  <si>
-    <t>156.0000</t>
-  </si>
-  <si>
-    <t>PRONTO PLUS 20 TAB.</t>
-  </si>
-  <si>
-    <t>40.00</t>
-  </si>
-  <si>
-    <t>40.0000</t>
-  </si>
-  <si>
-    <t>PROSTRIDE 5MG 30 CAPS.</t>
-  </si>
-  <si>
-    <t>183.00</t>
-  </si>
-  <si>
-    <t>60.3900</t>
-  </si>
-  <si>
-    <t>PROXIMOL 0.4MG 40 TAB</t>
-  </si>
-  <si>
-    <t>17.0000</t>
-  </si>
-  <si>
-    <t>PROXIMOL COMPOUND EFF. GRANULES 60 GM</t>
-  </si>
-  <si>
-    <t>52.0000</t>
-  </si>
-  <si>
-    <t>PURGATON 20MG 30 TAB.</t>
-  </si>
-  <si>
-    <t>5:2</t>
-  </si>
-  <si>
-    <t>QUIBRON T/SR 300MG 100 TAB</t>
-  </si>
-  <si>
-    <t>1:56</t>
-  </si>
-  <si>
-    <t>132.00</t>
-  </si>
-  <si>
-    <t>11.8800</t>
-  </si>
-  <si>
-    <t>0:9</t>
-  </si>
-  <si>
-    <t>REPARIL-GEL N 40 GM</t>
-  </si>
-  <si>
-    <t>58.00</t>
-  </si>
-  <si>
-    <t>58.0000</t>
-  </si>
-  <si>
-    <t>REVI 2 CREAM 50 GM</t>
-  </si>
-  <si>
-    <t>ROWATINEX 45 CAPSULES</t>
-  </si>
-  <si>
-    <t>3:1</t>
-  </si>
-  <si>
-    <t>SILDEN 50 MG 4 F.C. TABS.</t>
-  </si>
-  <si>
-    <t>11.0000</t>
-  </si>
-  <si>
-    <t>SPASMO-DIGESTIN 30 TABS.</t>
-  </si>
-  <si>
-    <t>2:1</t>
-  </si>
-  <si>
-    <t>128.7000</t>
-  </si>
-  <si>
-    <t>SPASMOFEN 3 AMP. FOR I.M. INJ.</t>
-  </si>
-  <si>
-    <t>SPASMOFREE 50MG 20 F.C. TABS.</t>
-  </si>
-  <si>
-    <t>STREPTOQUIN 20 TABLETS</t>
-  </si>
-  <si>
-    <t>46.00</t>
-  </si>
-  <si>
-    <t>TAMSULIN 0.4MG 28 CAPS</t>
-  </si>
-  <si>
-    <t>124.00</t>
-  </si>
-  <si>
-    <t>124.0000</t>
-  </si>
-  <si>
-    <t>TOPIRAMATE 25MG 30 F.C. TAB</t>
-  </si>
-  <si>
-    <t>TOPRO 10 SACHETS</t>
-  </si>
-  <si>
-    <t>130.00</t>
-  </si>
-  <si>
-    <t>130.0000</t>
-  </si>
-  <si>
-    <t>TRIACTIN 4MG 20 TAB</t>
-  </si>
-  <si>
-    <t>TRITONE 100MG 30 TAB</t>
-  </si>
-  <si>
-    <t>49.50</t>
-  </si>
-  <si>
-    <t>16.3350</t>
-  </si>
-  <si>
-    <t>TUSSKAN SYRUP 100 ML</t>
-  </si>
-  <si>
-    <t>24.0000</t>
-  </si>
-  <si>
-    <t>URAID-N EFF. GRANUL. 12 SACHETS</t>
-  </si>
-  <si>
-    <t>URINEX 24 CAPS</t>
-  </si>
-  <si>
-    <t>42.00</t>
-  </si>
-  <si>
-    <t>63.0000</t>
-  </si>
-  <si>
-    <t>UROSOLVINE EFF. GRAN. 12 SACHETS</t>
-  </si>
-  <si>
-    <t>VERSERC 16MG 30 TAB</t>
-  </si>
-  <si>
-    <t>87.00</t>
-  </si>
-  <si>
-    <t>28.7100</t>
-  </si>
-  <si>
-    <t>VETOCETAMOL 24 TAB.</t>
-  </si>
-  <si>
-    <t>VIDROP 2800 I.U./ML ORAL DROPS 15 ML</t>
-  </si>
-  <si>
-    <t>26.00</t>
-  </si>
-  <si>
-    <t>26.0000</t>
-  </si>
-  <si>
-    <t>VIOTIC EAR DROPS 10 ML</t>
-  </si>
-  <si>
-    <t>23.00</t>
-  </si>
-  <si>
-    <t>VISCERALGINE 5MG/2ML IM IV 6 AMPOULES</t>
-  </si>
-  <si>
-    <t>14.4000</t>
-  </si>
-  <si>
-    <t>VITAMOUNT FOR WOMEN 15 S.G. CAPS</t>
-  </si>
-  <si>
-    <t>VITASTRESS 20 F.C. TABS.</t>
-  </si>
-  <si>
-    <t>64.00</t>
-  </si>
-  <si>
-    <t>64.0000</t>
-  </si>
-  <si>
-    <t>VITATRON 30 CAPS</t>
-  </si>
-  <si>
-    <t>195.00</t>
-  </si>
-  <si>
-    <t>64.3500</t>
-  </si>
-  <si>
-    <t>VONASPIRE 20MG 14 F.C. TAB</t>
-  </si>
-  <si>
-    <t>104.00</t>
-  </si>
-  <si>
-    <t>WATER FOR INJECTION AMP. 5 ML</t>
-  </si>
-  <si>
-    <t>8424:0</t>
-  </si>
-  <si>
-    <t>2.00</t>
-  </si>
-  <si>
-    <t>4.0000</t>
-  </si>
-  <si>
-    <t>الفيف شامبو400</t>
-  </si>
-  <si>
-    <t>135.00</t>
-  </si>
-  <si>
-    <t>135.0000</t>
-  </si>
-  <si>
-    <t xml:space="preserve">برفان القصاص </t>
-  </si>
-  <si>
-    <t>16:0</t>
-  </si>
-  <si>
-    <t>30.00</t>
-  </si>
-  <si>
-    <t xml:space="preserve">جنتيانا </t>
-  </si>
-  <si>
-    <t>15.00</t>
-  </si>
-  <si>
-    <t>15.0000</t>
-  </si>
-  <si>
-    <t>حبايه</t>
-  </si>
-  <si>
-    <t>3.00</t>
-  </si>
-  <si>
-    <t>6.0000</t>
-  </si>
-  <si>
-    <t>حلاوة حرير</t>
-  </si>
-  <si>
-    <t>20.00</t>
-  </si>
-  <si>
-    <t>20.0000</t>
-  </si>
-  <si>
-    <t>ريكسونا حريمي بليه</t>
-  </si>
-  <si>
-    <t>9:0</t>
-  </si>
-  <si>
-    <t>27.00</t>
-  </si>
-  <si>
     <t>سرنجات 10 سم</t>
   </si>
   <si>
@@ -947,7 +971,7 @@
     <t>مناديل بكر فاين</t>
   </si>
   <si>
-    <t>Friday, 8 August, 2025 10:15 PM</t>
+    <t>Friday, 8 August, 2025 10:18 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -2215,7 +2239,7 @@
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
@@ -2232,7 +2256,7 @@
         <v>80</v>
       </c>
       <c t="s" r="Q26" s="12">
-        <v>29</v>
+        <v>20</v>
       </c>
     </row>
     <row r="27" ht="25.5" customHeight="1">
@@ -2248,7 +2272,7 @@
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
@@ -2265,7 +2289,7 @@
         <v>83</v>
       </c>
       <c t="s" r="Q27" s="12">
-        <v>16</v>
+        <v>29</v>
       </c>
     </row>
     <row r="28" ht="24.75" customHeight="1">
@@ -2281,7 +2305,7 @@
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>85</v>
+        <v>20</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
@@ -2291,14 +2315,14 @@
       </c>
       <c r="M28" s="10"/>
       <c t="s" r="N28" s="8">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="O28" s="8"/>
       <c t="s" r="P28" s="11">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c t="s" r="Q28" s="12">
-        <v>29</v>
+        <v>16</v>
       </c>
     </row>
     <row r="29" ht="25.5" customHeight="1">
@@ -2307,14 +2331,14 @@
       </c>
       <c r="B29" s="7"/>
       <c t="s" r="C29" s="8">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D29" s="8"/>
       <c r="E29" s="8"/>
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>46</v>
+        <v>88</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
@@ -2331,7 +2355,7 @@
         <v>90</v>
       </c>
       <c t="s" r="Q29" s="12">
-        <v>20</v>
+        <v>29</v>
       </c>
     </row>
     <row r="30" ht="24.75" customHeight="1">
@@ -2347,7 +2371,7 @@
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>29</v>
+        <v>46</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
@@ -2364,7 +2388,7 @@
         <v>93</v>
       </c>
       <c t="s" r="Q30" s="12">
-        <v>29</v>
+        <v>20</v>
       </c>
     </row>
     <row r="31" ht="25.5" customHeight="1">
@@ -2380,7 +2404,7 @@
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>46</v>
+        <v>29</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
@@ -2397,7 +2421,7 @@
         <v>96</v>
       </c>
       <c t="s" r="Q31" s="12">
-        <v>85</v>
+        <v>29</v>
       </c>
     </row>
     <row r="32" ht="25.5" customHeight="1">
@@ -2413,7 +2437,7 @@
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>98</v>
+        <v>46</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
@@ -2423,14 +2447,14 @@
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
-        <v>63</v>
+        <v>99</v>
       </c>
       <c t="s" r="Q32" s="12">
-        <v>20</v>
+        <v>88</v>
       </c>
     </row>
     <row r="33" ht="24.75" customHeight="1">
@@ -2446,7 +2470,7 @@
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>20</v>
+        <v>101</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
@@ -2456,14 +2480,14 @@
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
-        <v>102</v>
+        <v>63</v>
       </c>
       <c t="s" r="Q33" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="34" ht="25.5" customHeight="1">
@@ -2496,7 +2520,7 @@
         <v>105</v>
       </c>
       <c t="s" r="Q34" s="12">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="35" ht="24.75" customHeight="1">
@@ -2512,7 +2536,7 @@
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>29</v>
+        <v>20</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
@@ -2522,14 +2546,14 @@
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
-        <v>73</v>
+        <v>107</v>
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
-        <v>74</v>
+        <v>108</v>
       </c>
       <c t="s" r="Q35" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="36" ht="25.5" customHeight="1">
@@ -2538,14 +2562,14 @@
       </c>
       <c r="B36" s="7"/>
       <c t="s" r="C36" s="8">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="D36" s="8"/>
       <c r="E36" s="8"/>
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>108</v>
+        <v>29</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
@@ -2555,14 +2579,14 @@
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>47</v>
+        <v>73</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
-        <v>48</v>
+        <v>74</v>
       </c>
       <c t="s" r="Q36" s="12">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="37" ht="25.5" customHeight="1">
@@ -2571,14 +2595,14 @@
       </c>
       <c r="B37" s="7"/>
       <c t="s" r="C37" s="8">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="D37" s="8"/>
       <c r="E37" s="8"/>
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>46</v>
+        <v>111</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
@@ -2588,11 +2612,11 @@
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>110</v>
+        <v>47</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
-        <v>111</v>
+        <v>48</v>
       </c>
       <c t="s" r="Q37" s="12">
         <v>20</v>
@@ -2611,7 +2635,7 @@
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>39</v>
+        <v>46</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
@@ -2628,7 +2652,7 @@
         <v>114</v>
       </c>
       <c t="s" r="Q38" s="12">
-        <v>98</v>
+        <v>20</v>
       </c>
     </row>
     <row r="39" ht="25.5" customHeight="1">
@@ -2644,7 +2668,7 @@
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>116</v>
+        <v>39</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
@@ -2654,14 +2678,14 @@
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c t="s" r="Q39" s="12">
-        <v>29</v>
+        <v>101</v>
       </c>
     </row>
     <row r="40" ht="24.75" customHeight="1">
@@ -2670,14 +2694,14 @@
       </c>
       <c r="B40" s="7"/>
       <c t="s" r="C40" s="8">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="D40" s="8"/>
       <c r="E40" s="8"/>
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
@@ -2687,11 +2711,11 @@
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c t="s" r="Q40" s="12">
         <v>29</v>
@@ -2703,14 +2727,14 @@
       </c>
       <c r="B41" s="7"/>
       <c t="s" r="C41" s="8">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="D41" s="8"/>
       <c r="E41" s="8"/>
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>20</v>
+        <v>123</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
@@ -2727,7 +2751,7 @@
         <v>125</v>
       </c>
       <c t="s" r="Q41" s="12">
-        <v>20</v>
+        <v>29</v>
       </c>
     </row>
     <row r="42" ht="25.5" customHeight="1">
@@ -2776,7 +2800,7 @@
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
@@ -2793,7 +2817,7 @@
         <v>131</v>
       </c>
       <c t="s" r="Q43" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="44" ht="25.5" customHeight="1">
@@ -2809,7 +2833,7 @@
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>22</v>
+        <v>12</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
@@ -2826,7 +2850,7 @@
         <v>134</v>
       </c>
       <c t="s" r="Q44" s="12">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="45" ht="24.75" customHeight="1">
@@ -2842,7 +2866,7 @@
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>31</v>
+        <v>22</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
@@ -2859,7 +2883,7 @@
         <v>137</v>
       </c>
       <c t="s" r="Q45" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="46" ht="25.5" customHeight="1">
@@ -2875,7 +2899,7 @@
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>39</v>
+        <v>31</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
@@ -2885,14 +2909,14 @@
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>104</v>
+        <v>139</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
-        <v>105</v>
+        <v>140</v>
       </c>
       <c t="s" r="Q46" s="12">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="47" ht="25.5" customHeight="1">
@@ -2901,14 +2925,14 @@
       </c>
       <c r="B47" s="7"/>
       <c t="s" r="C47" s="8">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="D47" s="8"/>
       <c r="E47" s="8"/>
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>22</v>
+        <v>39</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
@@ -2918,11 +2942,11 @@
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c t="s" r="Q47" s="12">
         <v>20</v>
@@ -2934,14 +2958,14 @@
       </c>
       <c r="B48" s="7"/>
       <c t="s" r="C48" s="8">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="D48" s="8"/>
       <c r="E48" s="8"/>
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>31</v>
+        <v>22</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
@@ -2951,14 +2975,14 @@
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>141</v>
+        <v>107</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
-        <v>142</v>
+        <v>108</v>
       </c>
       <c t="s" r="Q48" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="49" ht="25.5" customHeight="1">
@@ -2974,7 +2998,7 @@
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>46</v>
+        <v>31</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
@@ -2984,14 +3008,14 @@
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>89</v>
+        <v>144</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
-        <v>90</v>
+        <v>145</v>
       </c>
       <c t="s" r="Q49" s="12">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="50" ht="24.75" customHeight="1">
@@ -3000,14 +3024,14 @@
       </c>
       <c r="B50" s="7"/>
       <c t="s" r="C50" s="8">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="D50" s="8"/>
       <c r="E50" s="8"/>
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>20</v>
+        <v>46</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
@@ -3017,14 +3041,14 @@
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>145</v>
+        <v>92</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
-        <v>146</v>
+        <v>93</v>
       </c>
       <c t="s" r="Q50" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="51" ht="25.5" customHeight="1">
@@ -3040,7 +3064,7 @@
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>148</v>
+        <v>20</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
@@ -3050,14 +3074,14 @@
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c t="s" r="Q51" s="12">
-        <v>98</v>
+        <v>16</v>
       </c>
     </row>
     <row r="52" ht="25.5" customHeight="1">
@@ -3066,14 +3090,14 @@
       </c>
       <c r="B52" s="7"/>
       <c t="s" r="C52" s="8">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="D52" s="8"/>
       <c r="E52" s="8"/>
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>39</v>
+        <v>151</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
@@ -3090,7 +3114,7 @@
         <v>153</v>
       </c>
       <c t="s" r="Q52" s="12">
-        <v>20</v>
+        <v>101</v>
       </c>
     </row>
     <row r="53" ht="24.75" customHeight="1">
@@ -3106,7 +3130,7 @@
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>31</v>
+        <v>39</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
@@ -3116,14 +3140,14 @@
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
-        <v>68</v>
+        <v>155</v>
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
-        <v>69</v>
+        <v>156</v>
       </c>
       <c t="s" r="Q53" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="54" ht="25.5" customHeight="1">
@@ -3132,14 +3156,14 @@
       </c>
       <c r="B54" s="7"/>
       <c t="s" r="C54" s="8">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="D54" s="8"/>
       <c r="E54" s="8"/>
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>46</v>
+        <v>31</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
@@ -3149,11 +3173,11 @@
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
-        <v>86</v>
+        <v>158</v>
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
-        <v>156</v>
+        <v>159</v>
       </c>
       <c t="s" r="Q54" s="12">
         <v>16</v>
@@ -3165,14 +3189,14 @@
       </c>
       <c r="B55" s="7"/>
       <c t="s" r="C55" s="8">
-        <v>157</v>
+        <v>160</v>
       </c>
       <c r="D55" s="8"/>
       <c r="E55" s="8"/>
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>98</v>
+        <v>31</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
@@ -3182,11 +3206,11 @@
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
-        <v>47</v>
+        <v>68</v>
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
-        <v>158</v>
+        <v>69</v>
       </c>
       <c t="s" r="Q55" s="12">
         <v>16</v>
@@ -3198,14 +3222,14 @@
       </c>
       <c r="B56" s="7"/>
       <c t="s" r="C56" s="8">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="D56" s="8"/>
       <c r="E56" s="8"/>
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>16</v>
+        <v>46</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
@@ -3215,11 +3239,11 @@
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
-        <v>160</v>
+        <v>89</v>
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c t="s" r="Q56" s="12">
         <v>16</v>
@@ -3231,14 +3255,14 @@
       </c>
       <c r="B57" s="7"/>
       <c t="s" r="C57" s="8">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="D57" s="8"/>
       <c r="E57" s="8"/>
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>31</v>
+        <v>101</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
@@ -3248,11 +3272,11 @@
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
-        <v>163</v>
+        <v>47</v>
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
-        <v>87</v>
+        <v>164</v>
       </c>
       <c t="s" r="Q57" s="12">
         <v>16</v>
@@ -3264,14 +3288,14 @@
       </c>
       <c r="B58" s="7"/>
       <c t="s" r="C58" s="8">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="D58" s="8"/>
       <c r="E58" s="8"/>
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c t="s" r="H58" s="9">
-        <v>46</v>
+        <v>16</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
@@ -3281,14 +3305,14 @@
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c t="s" r="Q58" s="12">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="59" ht="25.5" customHeight="1">
@@ -3297,14 +3321,14 @@
       </c>
       <c r="B59" s="7"/>
       <c t="s" r="C59" s="8">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="D59" s="8"/>
       <c r="E59" s="8"/>
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c t="s" r="H59" s="9">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
@@ -3314,11 +3338,11 @@
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
-        <v>169</v>
+        <v>90</v>
       </c>
       <c t="s" r="Q59" s="12">
         <v>16</v>
@@ -3337,7 +3361,7 @@
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c t="s" r="H60" s="9">
-        <v>22</v>
+        <v>46</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
@@ -3370,7 +3394,7 @@
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
       <c t="s" r="H61" s="9">
-        <v>20</v>
+        <v>29</v>
       </c>
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
@@ -3409,18 +3433,18 @@
       <c r="J62" s="9"/>
       <c r="K62" s="9"/>
       <c t="s" r="L62" s="10">
-        <v>177</v>
+        <v>13</v>
       </c>
       <c r="M62" s="10"/>
       <c t="s" r="N62" s="8">
-        <v>149</v>
+        <v>177</v>
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
         <v>178</v>
       </c>
       <c t="s" r="Q62" s="12">
-        <v>29</v>
+        <v>20</v>
       </c>
     </row>
     <row r="63" ht="24.75" customHeight="1">
@@ -3436,7 +3460,7 @@
       <c r="F63" s="8"/>
       <c r="G63" s="8"/>
       <c t="s" r="H63" s="9">
-        <v>39</v>
+        <v>20</v>
       </c>
       <c r="I63" s="9"/>
       <c r="J63" s="9"/>
@@ -3446,14 +3470,14 @@
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
-        <v>101</v>
+        <v>180</v>
       </c>
       <c r="O63" s="8"/>
       <c t="s" r="P63" s="11">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c t="s" r="Q63" s="12">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="64" ht="25.5" customHeight="1">
@@ -3462,31 +3486,31 @@
       </c>
       <c r="B64" s="7"/>
       <c t="s" r="C64" s="8">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="D64" s="8"/>
       <c r="E64" s="8"/>
       <c r="F64" s="8"/>
       <c r="G64" s="8"/>
       <c t="s" r="H64" s="9">
-        <v>16</v>
+        <v>183</v>
       </c>
       <c r="I64" s="9"/>
       <c r="J64" s="9"/>
       <c r="K64" s="9"/>
       <c t="s" r="L64" s="10">
-        <v>13</v>
+        <v>184</v>
       </c>
       <c r="M64" s="10"/>
       <c t="s" r="N64" s="8">
-        <v>168</v>
+        <v>152</v>
       </c>
       <c r="O64" s="8"/>
       <c t="s" r="P64" s="11">
-        <v>182</v>
+        <v>185</v>
       </c>
       <c t="s" r="Q64" s="12">
-        <v>20</v>
+        <v>34</v>
       </c>
     </row>
     <row r="65" ht="24.75" customHeight="1">
@@ -3495,14 +3519,14 @@
       </c>
       <c r="B65" s="7"/>
       <c t="s" r="C65" s="8">
-        <v>183</v>
+        <v>186</v>
       </c>
       <c r="D65" s="8"/>
       <c r="E65" s="8"/>
       <c r="F65" s="8"/>
       <c r="G65" s="8"/>
       <c t="s" r="H65" s="9">
-        <v>16</v>
+        <v>39</v>
       </c>
       <c r="I65" s="9"/>
       <c r="J65" s="9"/>
@@ -3512,14 +3536,14 @@
       </c>
       <c r="M65" s="10"/>
       <c t="s" r="N65" s="8">
-        <v>184</v>
+        <v>104</v>
       </c>
       <c r="O65" s="8"/>
       <c t="s" r="P65" s="11">
-        <v>48</v>
+        <v>187</v>
       </c>
       <c t="s" r="Q65" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="66" ht="25.5" customHeight="1">
@@ -3528,14 +3552,14 @@
       </c>
       <c r="B66" s="7"/>
       <c t="s" r="C66" s="8">
-        <v>185</v>
+        <v>188</v>
       </c>
       <c r="D66" s="8"/>
       <c r="E66" s="8"/>
       <c r="F66" s="8"/>
       <c r="G66" s="8"/>
       <c t="s" r="H66" s="9">
-        <v>46</v>
+        <v>16</v>
       </c>
       <c r="I66" s="9"/>
       <c r="J66" s="9"/>
@@ -3545,11 +3569,11 @@
       </c>
       <c r="M66" s="10"/>
       <c t="s" r="N66" s="8">
-        <v>136</v>
+        <v>174</v>
       </c>
       <c r="O66" s="8"/>
       <c t="s" r="P66" s="11">
-        <v>186</v>
+        <v>189</v>
       </c>
       <c t="s" r="Q66" s="12">
         <v>20</v>
@@ -3561,14 +3585,14 @@
       </c>
       <c r="B67" s="7"/>
       <c t="s" r="C67" s="8">
-        <v>187</v>
+        <v>190</v>
       </c>
       <c r="D67" s="8"/>
       <c r="E67" s="8"/>
       <c r="F67" s="8"/>
       <c r="G67" s="8"/>
       <c t="s" r="H67" s="9">
-        <v>46</v>
+        <v>16</v>
       </c>
       <c r="I67" s="9"/>
       <c r="J67" s="9"/>
@@ -3578,14 +3602,14 @@
       </c>
       <c r="M67" s="10"/>
       <c t="s" r="N67" s="8">
-        <v>188</v>
+        <v>191</v>
       </c>
       <c r="O67" s="8"/>
       <c t="s" r="P67" s="11">
-        <v>189</v>
+        <v>48</v>
       </c>
       <c t="s" r="Q67" s="12">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="68" ht="24.75" customHeight="1">
@@ -3594,7 +3618,7 @@
       </c>
       <c r="B68" s="7"/>
       <c t="s" r="C68" s="8">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="D68" s="8"/>
       <c r="E68" s="8"/>
@@ -3611,11 +3635,11 @@
       </c>
       <c r="M68" s="10"/>
       <c t="s" r="N68" s="8">
-        <v>191</v>
+        <v>139</v>
       </c>
       <c r="O68" s="8"/>
       <c t="s" r="P68" s="11">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c t="s" r="Q68" s="12">
         <v>20</v>
@@ -3627,14 +3651,14 @@
       </c>
       <c r="B69" s="7"/>
       <c t="s" r="C69" s="8">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="D69" s="8"/>
       <c r="E69" s="8"/>
       <c r="F69" s="8"/>
       <c r="G69" s="8"/>
       <c t="s" r="H69" s="9">
-        <v>20</v>
+        <v>46</v>
       </c>
       <c r="I69" s="9"/>
       <c r="J69" s="9"/>
@@ -3644,14 +3668,14 @@
       </c>
       <c r="M69" s="10"/>
       <c t="s" r="N69" s="8">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="O69" s="8"/>
       <c t="s" r="P69" s="11">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c t="s" r="Q69" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="70" ht="24.75" customHeight="1">
@@ -3660,14 +3684,14 @@
       </c>
       <c r="B70" s="7"/>
       <c t="s" r="C70" s="8">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="D70" s="8"/>
       <c r="E70" s="8"/>
       <c r="F70" s="8"/>
       <c r="G70" s="8"/>
       <c t="s" r="H70" s="9">
-        <v>16</v>
+        <v>46</v>
       </c>
       <c r="I70" s="9"/>
       <c r="J70" s="9"/>
@@ -3677,14 +3701,14 @@
       </c>
       <c r="M70" s="10"/>
       <c t="s" r="N70" s="8">
-        <v>110</v>
+        <v>198</v>
       </c>
       <c r="O70" s="8"/>
       <c t="s" r="P70" s="11">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c t="s" r="Q70" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="71" ht="25.5" customHeight="1">
@@ -3693,14 +3717,14 @@
       </c>
       <c r="B71" s="7"/>
       <c t="s" r="C71" s="8">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="D71" s="8"/>
       <c r="E71" s="8"/>
       <c r="F71" s="8"/>
       <c r="G71" s="8"/>
       <c t="s" r="H71" s="9">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="I71" s="9"/>
       <c r="J71" s="9"/>
@@ -3710,14 +3734,14 @@
       </c>
       <c r="M71" s="10"/>
       <c t="s" r="N71" s="8">
-        <v>113</v>
+        <v>201</v>
       </c>
       <c r="O71" s="8"/>
       <c t="s" r="P71" s="11">
-        <v>199</v>
+        <v>202</v>
       </c>
       <c t="s" r="Q71" s="12">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="72" ht="25.5" customHeight="1">
@@ -3726,14 +3750,14 @@
       </c>
       <c r="B72" s="7"/>
       <c t="s" r="C72" s="8">
-        <v>200</v>
+        <v>203</v>
       </c>
       <c r="D72" s="8"/>
       <c r="E72" s="8"/>
       <c r="F72" s="8"/>
       <c r="G72" s="8"/>
       <c t="s" r="H72" s="9">
-        <v>201</v>
+        <v>16</v>
       </c>
       <c r="I72" s="9"/>
       <c r="J72" s="9"/>
@@ -3743,14 +3767,14 @@
       </c>
       <c r="M72" s="10"/>
       <c t="s" r="N72" s="8">
-        <v>152</v>
+        <v>113</v>
       </c>
       <c r="O72" s="8"/>
       <c t="s" r="P72" s="11">
-        <v>153</v>
+        <v>204</v>
       </c>
       <c t="s" r="Q72" s="12">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="73" ht="24.75" customHeight="1">
@@ -3759,14 +3783,14 @@
       </c>
       <c r="B73" s="7"/>
       <c t="s" r="C73" s="8">
-        <v>202</v>
+        <v>205</v>
       </c>
       <c r="D73" s="8"/>
       <c r="E73" s="8"/>
       <c r="F73" s="8"/>
       <c r="G73" s="8"/>
       <c t="s" r="H73" s="9">
-        <v>203</v>
+        <v>22</v>
       </c>
       <c r="I73" s="9"/>
       <c r="J73" s="9"/>
@@ -3776,14 +3800,14 @@
       </c>
       <c r="M73" s="10"/>
       <c t="s" r="N73" s="8">
-        <v>204</v>
+        <v>116</v>
       </c>
       <c r="O73" s="8"/>
       <c t="s" r="P73" s="11">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c t="s" r="Q73" s="12">
-        <v>206</v>
+        <v>20</v>
       </c>
     </row>
     <row r="74" ht="25.5" customHeight="1">
@@ -3799,7 +3823,7 @@
       <c r="F74" s="8"/>
       <c r="G74" s="8"/>
       <c t="s" r="H74" s="9">
-        <v>20</v>
+        <v>208</v>
       </c>
       <c r="I74" s="9"/>
       <c r="J74" s="9"/>
@@ -3809,11 +3833,11 @@
       </c>
       <c r="M74" s="10"/>
       <c t="s" r="N74" s="8">
-        <v>208</v>
+        <v>155</v>
       </c>
       <c r="O74" s="8"/>
       <c t="s" r="P74" s="11">
-        <v>209</v>
+        <v>156</v>
       </c>
       <c t="s" r="Q74" s="12">
         <v>20</v>
@@ -3825,14 +3849,14 @@
       </c>
       <c r="B75" s="7"/>
       <c t="s" r="C75" s="8">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="D75" s="8"/>
       <c r="E75" s="8"/>
       <c r="F75" s="8"/>
       <c r="G75" s="8"/>
       <c t="s" r="H75" s="9">
-        <v>46</v>
+        <v>210</v>
       </c>
       <c r="I75" s="9"/>
       <c r="J75" s="9"/>
@@ -3842,14 +3866,14 @@
       </c>
       <c r="M75" s="10"/>
       <c t="s" r="N75" s="8">
-        <v>89</v>
+        <v>211</v>
       </c>
       <c r="O75" s="8"/>
       <c t="s" r="P75" s="11">
-        <v>90</v>
+        <v>212</v>
       </c>
       <c t="s" r="Q75" s="12">
-        <v>20</v>
+        <v>213</v>
       </c>
     </row>
     <row r="76" ht="25.5" customHeight="1">
@@ -3858,14 +3882,14 @@
       </c>
       <c r="B76" s="7"/>
       <c t="s" r="C76" s="8">
-        <v>211</v>
+        <v>214</v>
       </c>
       <c r="D76" s="8"/>
       <c r="E76" s="8"/>
       <c r="F76" s="8"/>
       <c r="G76" s="8"/>
       <c t="s" r="H76" s="9">
-        <v>212</v>
+        <v>20</v>
       </c>
       <c r="I76" s="9"/>
       <c r="J76" s="9"/>
@@ -3875,14 +3899,14 @@
       </c>
       <c r="M76" s="10"/>
       <c t="s" r="N76" s="8">
-        <v>163</v>
+        <v>215</v>
       </c>
       <c r="O76" s="8"/>
       <c t="s" r="P76" s="11">
-        <v>87</v>
+        <v>216</v>
       </c>
       <c t="s" r="Q76" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="77" ht="25.5" customHeight="1">
@@ -3891,14 +3915,14 @@
       </c>
       <c r="B77" s="7"/>
       <c t="s" r="C77" s="8">
-        <v>213</v>
+        <v>217</v>
       </c>
       <c r="D77" s="8"/>
       <c r="E77" s="8"/>
       <c r="F77" s="8"/>
       <c r="G77" s="8"/>
       <c t="s" r="H77" s="9">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="I77" s="9"/>
       <c r="J77" s="9"/>
@@ -3908,14 +3932,14 @@
       </c>
       <c r="M77" s="10"/>
       <c t="s" r="N77" s="8">
-        <v>104</v>
+        <v>92</v>
       </c>
       <c r="O77" s="8"/>
       <c t="s" r="P77" s="11">
-        <v>214</v>
+        <v>93</v>
       </c>
       <c t="s" r="Q77" s="12">
-        <v>29</v>
+        <v>20</v>
       </c>
     </row>
     <row r="78" ht="24.75" customHeight="1">
@@ -3924,14 +3948,14 @@
       </c>
       <c r="B78" s="7"/>
       <c t="s" r="C78" s="8">
-        <v>215</v>
+        <v>218</v>
       </c>
       <c r="D78" s="8"/>
       <c r="E78" s="8"/>
       <c r="F78" s="8"/>
       <c r="G78" s="8"/>
       <c t="s" r="H78" s="9">
-        <v>216</v>
+        <v>219</v>
       </c>
       <c r="I78" s="9"/>
       <c r="J78" s="9"/>
@@ -3941,14 +3965,14 @@
       </c>
       <c r="M78" s="10"/>
       <c t="s" r="N78" s="8">
-        <v>27</v>
+        <v>169</v>
       </c>
       <c r="O78" s="8"/>
       <c t="s" r="P78" s="11">
-        <v>217</v>
+        <v>90</v>
       </c>
       <c t="s" r="Q78" s="12">
-        <v>43</v>
+        <v>16</v>
       </c>
     </row>
     <row r="79" ht="25.5" customHeight="1">
@@ -3957,7 +3981,7 @@
       </c>
       <c r="B79" s="7"/>
       <c t="s" r="C79" s="8">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="D79" s="8"/>
       <c r="E79" s="8"/>
@@ -3974,14 +3998,14 @@
       </c>
       <c r="M79" s="10"/>
       <c t="s" r="N79" s="8">
-        <v>99</v>
+        <v>107</v>
       </c>
       <c r="O79" s="8"/>
       <c t="s" r="P79" s="11">
-        <v>63</v>
+        <v>221</v>
       </c>
       <c t="s" r="Q79" s="12">
-        <v>20</v>
+        <v>29</v>
       </c>
     </row>
     <row r="80" ht="24.75" customHeight="1">
@@ -3990,14 +4014,14 @@
       </c>
       <c r="B80" s="7"/>
       <c t="s" r="C80" s="8">
-        <v>219</v>
+        <v>222</v>
       </c>
       <c r="D80" s="8"/>
       <c r="E80" s="8"/>
       <c r="F80" s="8"/>
       <c r="G80" s="8"/>
       <c t="s" r="H80" s="9">
-        <v>31</v>
+        <v>223</v>
       </c>
       <c r="I80" s="9"/>
       <c r="J80" s="9"/>
@@ -4007,14 +4031,14 @@
       </c>
       <c r="M80" s="10"/>
       <c t="s" r="N80" s="8">
-        <v>40</v>
+        <v>27</v>
       </c>
       <c r="O80" s="8"/>
       <c t="s" r="P80" s="11">
-        <v>41</v>
+        <v>224</v>
       </c>
       <c t="s" r="Q80" s="12">
-        <v>16</v>
+        <v>43</v>
       </c>
     </row>
     <row r="81" ht="25.5" customHeight="1">
@@ -4023,14 +4047,14 @@
       </c>
       <c r="B81" s="7"/>
       <c t="s" r="C81" s="8">
-        <v>220</v>
+        <v>225</v>
       </c>
       <c r="D81" s="8"/>
       <c r="E81" s="8"/>
       <c r="F81" s="8"/>
       <c r="G81" s="8"/>
       <c t="s" r="H81" s="9">
-        <v>216</v>
+        <v>43</v>
       </c>
       <c r="I81" s="9"/>
       <c r="J81" s="9"/>
@@ -4040,14 +4064,14 @@
       </c>
       <c r="M81" s="10"/>
       <c t="s" r="N81" s="8">
-        <v>221</v>
+        <v>102</v>
       </c>
       <c r="O81" s="8"/>
       <c t="s" r="P81" s="11">
-        <v>175</v>
+        <v>63</v>
       </c>
       <c t="s" r="Q81" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="82" ht="25.5" customHeight="1">
@@ -4056,14 +4080,14 @@
       </c>
       <c r="B82" s="7"/>
       <c t="s" r="C82" s="8">
-        <v>222</v>
+        <v>226</v>
       </c>
       <c r="D82" s="8"/>
       <c r="E82" s="8"/>
       <c r="F82" s="8"/>
       <c r="G82" s="8"/>
       <c t="s" r="H82" s="9">
-        <v>216</v>
+        <v>31</v>
       </c>
       <c r="I82" s="9"/>
       <c r="J82" s="9"/>
@@ -4073,14 +4097,14 @@
       </c>
       <c r="M82" s="10"/>
       <c t="s" r="N82" s="8">
-        <v>223</v>
+        <v>40</v>
       </c>
       <c r="O82" s="8"/>
       <c t="s" r="P82" s="11">
-        <v>224</v>
+        <v>41</v>
       </c>
       <c t="s" r="Q82" s="12">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="83" ht="24.75" customHeight="1">
@@ -4089,14 +4113,14 @@
       </c>
       <c r="B83" s="7"/>
       <c t="s" r="C83" s="8">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="D83" s="8"/>
       <c r="E83" s="8"/>
       <c r="F83" s="8"/>
       <c r="G83" s="8"/>
       <c t="s" r="H83" s="9">
-        <v>16</v>
+        <v>223</v>
       </c>
       <c r="I83" s="9"/>
       <c r="J83" s="9"/>
@@ -4106,11 +4130,11 @@
       </c>
       <c r="M83" s="10"/>
       <c t="s" r="N83" s="8">
-        <v>136</v>
+        <v>228</v>
       </c>
       <c r="O83" s="8"/>
       <c t="s" r="P83" s="11">
-        <v>137</v>
+        <v>181</v>
       </c>
       <c t="s" r="Q83" s="12">
         <v>16</v>
@@ -4122,14 +4146,14 @@
       </c>
       <c r="B84" s="7"/>
       <c t="s" r="C84" s="8">
-        <v>226</v>
+        <v>229</v>
       </c>
       <c r="D84" s="8"/>
       <c r="E84" s="8"/>
       <c r="F84" s="8"/>
       <c r="G84" s="8"/>
       <c t="s" r="H84" s="9">
-        <v>46</v>
+        <v>223</v>
       </c>
       <c r="I84" s="9"/>
       <c r="J84" s="9"/>
@@ -4139,11 +4163,11 @@
       </c>
       <c r="M84" s="10"/>
       <c t="s" r="N84" s="8">
-        <v>227</v>
+        <v>230</v>
       </c>
       <c r="O84" s="8"/>
       <c t="s" r="P84" s="11">
-        <v>228</v>
+        <v>231</v>
       </c>
       <c t="s" r="Q84" s="12">
         <v>20</v>
@@ -4155,14 +4179,14 @@
       </c>
       <c r="B85" s="7"/>
       <c t="s" r="C85" s="8">
-        <v>229</v>
+        <v>232</v>
       </c>
       <c r="D85" s="8"/>
       <c r="E85" s="8"/>
       <c r="F85" s="8"/>
       <c r="G85" s="8"/>
       <c t="s" r="H85" s="9">
-        <v>31</v>
+        <v>16</v>
       </c>
       <c r="I85" s="9"/>
       <c r="J85" s="9"/>
@@ -4172,11 +4196,11 @@
       </c>
       <c r="M85" s="10"/>
       <c t="s" r="N85" s="8">
-        <v>221</v>
+        <v>139</v>
       </c>
       <c r="O85" s="8"/>
       <c t="s" r="P85" s="11">
-        <v>175</v>
+        <v>140</v>
       </c>
       <c t="s" r="Q85" s="12">
         <v>16</v>
@@ -4188,14 +4212,14 @@
       </c>
       <c r="B86" s="7"/>
       <c t="s" r="C86" s="8">
-        <v>230</v>
+        <v>233</v>
       </c>
       <c r="D86" s="8"/>
       <c r="E86" s="8"/>
       <c r="F86" s="8"/>
       <c r="G86" s="8"/>
       <c t="s" r="H86" s="9">
-        <v>31</v>
+        <v>46</v>
       </c>
       <c r="I86" s="9"/>
       <c r="J86" s="9"/>
@@ -4205,14 +4229,14 @@
       </c>
       <c r="M86" s="10"/>
       <c t="s" r="N86" s="8">
-        <v>231</v>
+        <v>234</v>
       </c>
       <c r="O86" s="8"/>
       <c t="s" r="P86" s="11">
-        <v>232</v>
+        <v>235</v>
       </c>
       <c t="s" r="Q86" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="87" ht="25.5" customHeight="1">
@@ -4221,14 +4245,14 @@
       </c>
       <c r="B87" s="7"/>
       <c t="s" r="C87" s="8">
-        <v>233</v>
+        <v>236</v>
       </c>
       <c r="D87" s="8"/>
       <c r="E87" s="8"/>
       <c r="F87" s="8"/>
       <c r="G87" s="8"/>
       <c t="s" r="H87" s="9">
-        <v>22</v>
+        <v>31</v>
       </c>
       <c r="I87" s="9"/>
       <c r="J87" s="9"/>
@@ -4238,14 +4262,14 @@
       </c>
       <c r="M87" s="10"/>
       <c t="s" r="N87" s="8">
-        <v>130</v>
+        <v>228</v>
       </c>
       <c r="O87" s="8"/>
       <c t="s" r="P87" s="11">
-        <v>234</v>
+        <v>181</v>
       </c>
       <c t="s" r="Q87" s="12">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="88" ht="24.75" customHeight="1">
@@ -4254,14 +4278,14 @@
       </c>
       <c r="B88" s="7"/>
       <c t="s" r="C88" s="8">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="D88" s="8"/>
       <c r="E88" s="8"/>
       <c r="F88" s="8"/>
       <c r="G88" s="8"/>
       <c t="s" r="H88" s="9">
-        <v>22</v>
+        <v>31</v>
       </c>
       <c r="I88" s="9"/>
       <c r="J88" s="9"/>
@@ -4271,14 +4295,14 @@
       </c>
       <c r="M88" s="10"/>
       <c t="s" r="N88" s="8">
-        <v>133</v>
+        <v>238</v>
       </c>
       <c r="O88" s="8"/>
       <c t="s" r="P88" s="11">
-        <v>37</v>
+        <v>239</v>
       </c>
       <c t="s" r="Q88" s="12">
-        <v>22</v>
+        <v>16</v>
       </c>
     </row>
     <row r="89" ht="25.5" customHeight="1">
@@ -4287,14 +4311,14 @@
       </c>
       <c r="B89" s="7"/>
       <c t="s" r="C89" s="8">
-        <v>236</v>
+        <v>240</v>
       </c>
       <c r="D89" s="8"/>
       <c r="E89" s="8"/>
       <c r="F89" s="8"/>
       <c r="G89" s="8"/>
       <c t="s" r="H89" s="9">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="I89" s="9"/>
       <c r="J89" s="9"/>
@@ -4304,14 +4328,14 @@
       </c>
       <c r="M89" s="10"/>
       <c t="s" r="N89" s="8">
-        <v>237</v>
+        <v>133</v>
       </c>
       <c r="O89" s="8"/>
       <c t="s" r="P89" s="11">
-        <v>238</v>
+        <v>241</v>
       </c>
       <c t="s" r="Q89" s="12">
-        <v>31</v>
+        <v>20</v>
       </c>
     </row>
     <row r="90" ht="24.75" customHeight="1">
@@ -4320,14 +4344,14 @@
       </c>
       <c r="B90" s="7"/>
       <c t="s" r="C90" s="8">
-        <v>239</v>
+        <v>242</v>
       </c>
       <c r="D90" s="8"/>
       <c r="E90" s="8"/>
       <c r="F90" s="8"/>
       <c r="G90" s="8"/>
       <c t="s" r="H90" s="9">
-        <v>46</v>
+        <v>22</v>
       </c>
       <c r="I90" s="9"/>
       <c r="J90" s="9"/>
@@ -4337,14 +4361,14 @@
       </c>
       <c r="M90" s="10"/>
       <c t="s" r="N90" s="8">
-        <v>133</v>
+        <v>136</v>
       </c>
       <c r="O90" s="8"/>
       <c t="s" r="P90" s="11">
-        <v>134</v>
+        <v>37</v>
       </c>
       <c t="s" r="Q90" s="12">
-        <v>20</v>
+        <v>22</v>
       </c>
     </row>
     <row r="91" ht="25.5" customHeight="1">
@@ -4353,14 +4377,14 @@
       </c>
       <c r="B91" s="7"/>
       <c t="s" r="C91" s="8">
-        <v>240</v>
+        <v>243</v>
       </c>
       <c r="D91" s="8"/>
       <c r="E91" s="8"/>
       <c r="F91" s="8"/>
       <c r="G91" s="8"/>
       <c t="s" r="H91" s="9">
-        <v>29</v>
+        <v>20</v>
       </c>
       <c r="I91" s="9"/>
       <c r="J91" s="9"/>
@@ -4370,14 +4394,14 @@
       </c>
       <c r="M91" s="10"/>
       <c t="s" r="N91" s="8">
-        <v>241</v>
+        <v>244</v>
       </c>
       <c r="O91" s="8"/>
       <c t="s" r="P91" s="11">
-        <v>242</v>
+        <v>245</v>
       </c>
       <c t="s" r="Q91" s="12">
-        <v>16</v>
+        <v>31</v>
       </c>
     </row>
     <row r="92" ht="25.5" customHeight="1">
@@ -4386,7 +4410,7 @@
       </c>
       <c r="B92" s="7"/>
       <c t="s" r="C92" s="8">
-        <v>243</v>
+        <v>246</v>
       </c>
       <c r="D92" s="8"/>
       <c r="E92" s="8"/>
@@ -4403,14 +4427,14 @@
       </c>
       <c r="M92" s="10"/>
       <c t="s" r="N92" s="8">
-        <v>86</v>
+        <v>136</v>
       </c>
       <c r="O92" s="8"/>
       <c t="s" r="P92" s="11">
-        <v>156</v>
+        <v>137</v>
       </c>
       <c t="s" r="Q92" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="93" ht="24.75" customHeight="1">
@@ -4419,14 +4443,14 @@
       </c>
       <c r="B93" s="7"/>
       <c t="s" r="C93" s="8">
-        <v>244</v>
+        <v>247</v>
       </c>
       <c r="D93" s="8"/>
       <c r="E93" s="8"/>
       <c r="F93" s="8"/>
       <c r="G93" s="8"/>
       <c t="s" r="H93" s="9">
-        <v>98</v>
+        <v>29</v>
       </c>
       <c r="I93" s="9"/>
       <c r="J93" s="9"/>
@@ -4436,14 +4460,14 @@
       </c>
       <c r="M93" s="10"/>
       <c t="s" r="N93" s="8">
-        <v>245</v>
+        <v>248</v>
       </c>
       <c r="O93" s="8"/>
       <c t="s" r="P93" s="11">
-        <v>246</v>
+        <v>249</v>
       </c>
       <c t="s" r="Q93" s="12">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="94" ht="25.5" customHeight="1">
@@ -4452,7 +4476,7 @@
       </c>
       <c r="B94" s="7"/>
       <c t="s" r="C94" s="8">
-        <v>247</v>
+        <v>250</v>
       </c>
       <c r="D94" s="8"/>
       <c r="E94" s="8"/>
@@ -4469,14 +4493,14 @@
       </c>
       <c r="M94" s="10"/>
       <c t="s" r="N94" s="8">
-        <v>248</v>
+        <v>89</v>
       </c>
       <c r="O94" s="8"/>
       <c t="s" r="P94" s="11">
-        <v>175</v>
+        <v>162</v>
       </c>
       <c t="s" r="Q94" s="12">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="95" ht="24.75" customHeight="1">
@@ -4485,14 +4509,14 @@
       </c>
       <c r="B95" s="7"/>
       <c t="s" r="C95" s="8">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="D95" s="8"/>
       <c r="E95" s="8"/>
       <c r="F95" s="8"/>
       <c r="G95" s="8"/>
       <c t="s" r="H95" s="9">
-        <v>116</v>
+        <v>101</v>
       </c>
       <c r="I95" s="9"/>
       <c r="J95" s="9"/>
@@ -4502,14 +4526,14 @@
       </c>
       <c r="M95" s="10"/>
       <c t="s" r="N95" s="8">
-        <v>136</v>
+        <v>252</v>
       </c>
       <c r="O95" s="8"/>
       <c t="s" r="P95" s="11">
-        <v>250</v>
+        <v>253</v>
       </c>
       <c t="s" r="Q95" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="96" ht="25.5" customHeight="1">
@@ -4518,14 +4542,14 @@
       </c>
       <c r="B96" s="7"/>
       <c t="s" r="C96" s="8">
-        <v>251</v>
+        <v>254</v>
       </c>
       <c r="D96" s="8"/>
       <c r="E96" s="8"/>
       <c r="F96" s="8"/>
       <c r="G96" s="8"/>
       <c t="s" r="H96" s="9">
-        <v>20</v>
+        <v>46</v>
       </c>
       <c r="I96" s="9"/>
       <c r="J96" s="9"/>
@@ -4535,14 +4559,14 @@
       </c>
       <c r="M96" s="10"/>
       <c t="s" r="N96" s="8">
-        <v>136</v>
+        <v>255</v>
       </c>
       <c r="O96" s="8"/>
       <c t="s" r="P96" s="11">
-        <v>137</v>
+        <v>181</v>
       </c>
       <c t="s" r="Q96" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="97" ht="25.5" customHeight="1">
@@ -4551,14 +4575,14 @@
       </c>
       <c r="B97" s="7"/>
       <c t="s" r="C97" s="8">
-        <v>252</v>
+        <v>256</v>
       </c>
       <c r="D97" s="8"/>
       <c r="E97" s="8"/>
       <c r="F97" s="8"/>
       <c r="G97" s="8"/>
       <c t="s" r="H97" s="9">
-        <v>46</v>
+        <v>119</v>
       </c>
       <c r="I97" s="9"/>
       <c r="J97" s="9"/>
@@ -4568,14 +4592,14 @@
       </c>
       <c r="M97" s="10"/>
       <c t="s" r="N97" s="8">
-        <v>253</v>
+        <v>139</v>
       </c>
       <c r="O97" s="8"/>
       <c t="s" r="P97" s="11">
-        <v>254</v>
+        <v>257</v>
       </c>
       <c t="s" r="Q97" s="12">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="98" ht="24.75" customHeight="1">
@@ -4584,14 +4608,14 @@
       </c>
       <c r="B98" s="7"/>
       <c t="s" r="C98" s="8">
-        <v>255</v>
+        <v>258</v>
       </c>
       <c r="D98" s="8"/>
       <c r="E98" s="8"/>
       <c r="F98" s="8"/>
       <c r="G98" s="8"/>
       <c t="s" r="H98" s="9">
-        <v>29</v>
+        <v>20</v>
       </c>
       <c r="I98" s="9"/>
       <c r="J98" s="9"/>
@@ -4601,11 +4625,11 @@
       </c>
       <c r="M98" s="10"/>
       <c t="s" r="N98" s="8">
-        <v>256</v>
+        <v>139</v>
       </c>
       <c r="O98" s="8"/>
       <c t="s" r="P98" s="11">
-        <v>257</v>
+        <v>140</v>
       </c>
       <c t="s" r="Q98" s="12">
         <v>16</v>
@@ -4617,14 +4641,14 @@
       </c>
       <c r="B99" s="7"/>
       <c t="s" r="C99" s="8">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="D99" s="8"/>
       <c r="E99" s="8"/>
       <c r="F99" s="8"/>
       <c r="G99" s="8"/>
       <c t="s" r="H99" s="9">
-        <v>16</v>
+        <v>46</v>
       </c>
       <c r="I99" s="9"/>
       <c r="J99" s="9"/>
@@ -4634,14 +4658,14 @@
       </c>
       <c r="M99" s="10"/>
       <c t="s" r="N99" s="8">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="O99" s="8"/>
       <c t="s" r="P99" s="11">
-        <v>199</v>
+        <v>261</v>
       </c>
       <c t="s" r="Q99" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="100" ht="24.75" customHeight="1">
@@ -4650,14 +4674,14 @@
       </c>
       <c r="B100" s="7"/>
       <c t="s" r="C100" s="8">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="D100" s="8"/>
       <c r="E100" s="8"/>
       <c r="F100" s="8"/>
       <c r="G100" s="8"/>
       <c t="s" r="H100" s="9">
-        <v>261</v>
+        <v>29</v>
       </c>
       <c r="I100" s="9"/>
       <c r="J100" s="9"/>
@@ -4667,14 +4691,14 @@
       </c>
       <c r="M100" s="10"/>
       <c t="s" r="N100" s="8">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="O100" s="8"/>
       <c t="s" r="P100" s="11">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c t="s" r="Q100" s="12">
-        <v>22</v>
+        <v>16</v>
       </c>
     </row>
     <row r="101" ht="25.5" customHeight="1">
@@ -4683,31 +4707,31 @@
       </c>
       <c r="B101" s="7"/>
       <c t="s" r="C101" s="8">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="D101" s="8"/>
       <c r="E101" s="8"/>
       <c r="F101" s="8"/>
       <c r="G101" s="8"/>
       <c t="s" r="H101" s="9">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="I101" s="9"/>
       <c r="J101" s="9"/>
       <c r="K101" s="9"/>
       <c t="s" r="L101" s="10">
-        <v>177</v>
+        <v>13</v>
       </c>
       <c r="M101" s="10"/>
       <c t="s" r="N101" s="8">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="O101" s="8"/>
       <c t="s" r="P101" s="11">
-        <v>266</v>
+        <v>206</v>
       </c>
       <c t="s" r="Q101" s="12">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="102" ht="25.5" customHeight="1">
@@ -4729,7 +4753,7 @@
       <c r="J102" s="9"/>
       <c r="K102" s="9"/>
       <c t="s" r="L102" s="10">
-        <v>177</v>
+        <v>13</v>
       </c>
       <c r="M102" s="10"/>
       <c t="s" r="N102" s="8">
@@ -4737,10 +4761,10 @@
       </c>
       <c r="O102" s="8"/>
       <c t="s" r="P102" s="11">
-        <v>186</v>
+        <v>270</v>
       </c>
       <c t="s" r="Q102" s="12">
-        <v>39</v>
+        <v>22</v>
       </c>
     </row>
     <row r="103" ht="24.75" customHeight="1">
@@ -4749,28 +4773,28 @@
       </c>
       <c r="B103" s="7"/>
       <c t="s" r="C103" s="8">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="D103" s="8"/>
       <c r="E103" s="8"/>
       <c r="F103" s="8"/>
       <c r="G103" s="8"/>
       <c t="s" r="H103" s="9">
-        <v>39</v>
+        <v>20</v>
       </c>
       <c r="I103" s="9"/>
       <c r="J103" s="9"/>
       <c r="K103" s="9"/>
       <c t="s" r="L103" s="10">
-        <v>177</v>
+        <v>184</v>
       </c>
       <c r="M103" s="10"/>
       <c t="s" r="N103" s="8">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="O103" s="8"/>
       <c t="s" r="P103" s="11">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c t="s" r="Q103" s="12">
         <v>20</v>
@@ -4782,31 +4806,31 @@
       </c>
       <c r="B104" s="7"/>
       <c t="s" r="C104" s="8">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="D104" s="8"/>
       <c r="E104" s="8"/>
       <c r="F104" s="8"/>
       <c r="G104" s="8"/>
       <c t="s" r="H104" s="9">
-        <v>46</v>
+        <v>275</v>
       </c>
       <c r="I104" s="9"/>
       <c r="J104" s="9"/>
       <c r="K104" s="9"/>
       <c t="s" r="L104" s="10">
-        <v>177</v>
+        <v>184</v>
       </c>
       <c r="M104" s="10"/>
       <c t="s" r="N104" s="8">
-        <v>274</v>
+        <v>276</v>
       </c>
       <c r="O104" s="8"/>
       <c t="s" r="P104" s="11">
-        <v>275</v>
+        <v>193</v>
       </c>
       <c t="s" r="Q104" s="12">
-        <v>22</v>
+        <v>39</v>
       </c>
     </row>
     <row r="105" ht="24.75" customHeight="1">
@@ -4815,28 +4839,28 @@
       </c>
       <c r="B105" s="7"/>
       <c t="s" r="C105" s="8">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="D105" s="8"/>
       <c r="E105" s="8"/>
       <c r="F105" s="8"/>
       <c r="G105" s="8"/>
       <c t="s" r="H105" s="9">
-        <v>20</v>
+        <v>39</v>
       </c>
       <c r="I105" s="9"/>
       <c r="J105" s="9"/>
       <c r="K105" s="9"/>
       <c t="s" r="L105" s="10">
-        <v>177</v>
+        <v>184</v>
       </c>
       <c r="M105" s="10"/>
       <c t="s" r="N105" s="8">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="O105" s="8"/>
       <c t="s" r="P105" s="11">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c t="s" r="Q105" s="12">
         <v>20</v>
@@ -4848,20 +4872,20 @@
       </c>
       <c r="B106" s="7"/>
       <c t="s" r="C106" s="8">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="D106" s="8"/>
       <c r="E106" s="8"/>
       <c r="F106" s="8"/>
       <c r="G106" s="8"/>
       <c t="s" r="H106" s="9">
-        <v>280</v>
+        <v>46</v>
       </c>
       <c r="I106" s="9"/>
       <c r="J106" s="9"/>
       <c r="K106" s="9"/>
       <c t="s" r="L106" s="10">
-        <v>177</v>
+        <v>184</v>
       </c>
       <c r="M106" s="10"/>
       <c t="s" r="N106" s="8">
@@ -4869,7 +4893,7 @@
       </c>
       <c r="O106" s="8"/>
       <c t="s" r="P106" s="11">
-        <v>178</v>
+        <v>282</v>
       </c>
       <c t="s" r="Q106" s="12">
         <v>22</v>
@@ -4881,31 +4905,31 @@
       </c>
       <c r="B107" s="7"/>
       <c t="s" r="C107" s="8">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="D107" s="8"/>
       <c r="E107" s="8"/>
       <c r="F107" s="8"/>
       <c r="G107" s="8"/>
       <c t="s" r="H107" s="9">
-        <v>46</v>
+        <v>20</v>
       </c>
       <c r="I107" s="9"/>
       <c r="J107" s="9"/>
       <c r="K107" s="9"/>
       <c t="s" r="L107" s="10">
-        <v>177</v>
+        <v>184</v>
       </c>
       <c r="M107" s="10"/>
       <c t="s" r="N107" s="8">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="O107" s="8"/>
       <c t="s" r="P107" s="11">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c t="s" r="Q107" s="12">
-        <v>285</v>
+        <v>20</v>
       </c>
     </row>
     <row r="108" ht="24.75" customHeight="1">
@@ -4921,24 +4945,24 @@
       <c r="F108" s="8"/>
       <c r="G108" s="8"/>
       <c t="s" r="H108" s="9">
-        <v>46</v>
+        <v>287</v>
       </c>
       <c r="I108" s="9"/>
       <c r="J108" s="9"/>
       <c r="K108" s="9"/>
       <c t="s" r="L108" s="10">
-        <v>177</v>
+        <v>184</v>
       </c>
       <c r="M108" s="10"/>
       <c t="s" r="N108" s="8">
-        <v>262</v>
+        <v>288</v>
       </c>
       <c r="O108" s="8"/>
       <c t="s" r="P108" s="11">
-        <v>234</v>
+        <v>289</v>
       </c>
       <c t="s" r="Q108" s="12">
-        <v>287</v>
+        <v>22</v>
       </c>
     </row>
     <row r="109" ht="25.5" customHeight="1">
@@ -4947,7 +4971,7 @@
       </c>
       <c r="B109" s="7"/>
       <c t="s" r="C109" s="8">
-        <v>288</v>
+        <v>290</v>
       </c>
       <c r="D109" s="8"/>
       <c r="E109" s="8"/>
@@ -4960,18 +4984,18 @@
       <c r="J109" s="9"/>
       <c r="K109" s="9"/>
       <c t="s" r="L109" s="10">
-        <v>177</v>
+        <v>184</v>
       </c>
       <c r="M109" s="10"/>
       <c t="s" r="N109" s="8">
-        <v>274</v>
+        <v>291</v>
       </c>
       <c r="O109" s="8"/>
       <c t="s" r="P109" s="11">
-        <v>275</v>
+        <v>292</v>
       </c>
       <c t="s" r="Q109" s="12">
-        <v>22</v>
+        <v>293</v>
       </c>
     </row>
     <row r="110" ht="24.75" customHeight="1">
@@ -4980,31 +5004,31 @@
       </c>
       <c r="B110" s="7"/>
       <c t="s" r="C110" s="8">
-        <v>289</v>
+        <v>294</v>
       </c>
       <c r="D110" s="8"/>
       <c r="E110" s="8"/>
       <c r="F110" s="8"/>
       <c r="G110" s="8"/>
       <c t="s" r="H110" s="9">
-        <v>22</v>
+        <v>46</v>
       </c>
       <c r="I110" s="9"/>
       <c r="J110" s="9"/>
       <c r="K110" s="9"/>
       <c t="s" r="L110" s="10">
-        <v>177</v>
+        <v>184</v>
       </c>
       <c r="M110" s="10"/>
       <c t="s" r="N110" s="8">
-        <v>277</v>
+        <v>269</v>
       </c>
       <c r="O110" s="8"/>
       <c t="s" r="P110" s="11">
-        <v>278</v>
+        <v>241</v>
       </c>
       <c t="s" r="Q110" s="12">
-        <v>20</v>
+        <v>295</v>
       </c>
     </row>
     <row r="111" ht="25.5" customHeight="1">
@@ -5013,7 +5037,7 @@
       </c>
       <c r="B111" s="7"/>
       <c t="s" r="C111" s="8">
-        <v>290</v>
+        <v>296</v>
       </c>
       <c r="D111" s="8"/>
       <c r="E111" s="8"/>
@@ -5026,18 +5050,18 @@
       <c r="J111" s="9"/>
       <c r="K111" s="9"/>
       <c t="s" r="L111" s="10">
-        <v>177</v>
+        <v>184</v>
       </c>
       <c r="M111" s="10"/>
       <c t="s" r="N111" s="8">
-        <v>269</v>
+        <v>281</v>
       </c>
       <c r="O111" s="8"/>
       <c t="s" r="P111" s="11">
-        <v>291</v>
+        <v>282</v>
       </c>
       <c t="s" r="Q111" s="12">
-        <v>20</v>
+        <v>22</v>
       </c>
     </row>
     <row r="112" ht="25.5" customHeight="1">
@@ -5046,28 +5070,28 @@
       </c>
       <c r="B112" s="7"/>
       <c t="s" r="C112" s="8">
-        <v>292</v>
+        <v>297</v>
       </c>
       <c r="D112" s="8"/>
       <c r="E112" s="8"/>
       <c r="F112" s="8"/>
       <c r="G112" s="8"/>
       <c t="s" r="H112" s="9">
-        <v>293</v>
+        <v>22</v>
       </c>
       <c r="I112" s="9"/>
       <c r="J112" s="9"/>
       <c r="K112" s="9"/>
       <c t="s" r="L112" s="10">
-        <v>177</v>
+        <v>184</v>
       </c>
       <c r="M112" s="10"/>
       <c t="s" r="N112" s="8">
-        <v>294</v>
+        <v>284</v>
       </c>
       <c r="O112" s="8"/>
       <c t="s" r="P112" s="11">
-        <v>295</v>
+        <v>285</v>
       </c>
       <c t="s" r="Q112" s="12">
         <v>20</v>
@@ -5079,28 +5103,28 @@
       </c>
       <c r="B113" s="7"/>
       <c t="s" r="C113" s="8">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="D113" s="8"/>
       <c r="E113" s="8"/>
       <c r="F113" s="8"/>
       <c r="G113" s="8"/>
       <c t="s" r="H113" s="9">
-        <v>39</v>
+        <v>46</v>
       </c>
       <c r="I113" s="9"/>
       <c r="J113" s="9"/>
       <c r="K113" s="9"/>
       <c t="s" r="L113" s="10">
-        <v>177</v>
+        <v>184</v>
       </c>
       <c r="M113" s="10"/>
       <c t="s" r="N113" s="8">
-        <v>297</v>
+        <v>276</v>
       </c>
       <c r="O113" s="8"/>
       <c t="s" r="P113" s="11">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c t="s" r="Q113" s="12">
         <v>20</v>
@@ -5112,31 +5136,31 @@
       </c>
       <c r="B114" s="7"/>
       <c t="s" r="C114" s="8">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="D114" s="8"/>
       <c r="E114" s="8"/>
       <c r="F114" s="8"/>
       <c r="G114" s="8"/>
       <c t="s" r="H114" s="9">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="I114" s="9"/>
       <c r="J114" s="9"/>
       <c r="K114" s="9"/>
       <c t="s" r="L114" s="10">
-        <v>177</v>
+        <v>184</v>
       </c>
       <c r="M114" s="10"/>
       <c t="s" r="N114" s="8">
-        <v>277</v>
+        <v>302</v>
       </c>
       <c r="O114" s="8"/>
       <c t="s" r="P114" s="11">
-        <v>301</v>
+        <v>303</v>
       </c>
       <c t="s" r="Q114" s="12">
-        <v>85</v>
+        <v>20</v>
       </c>
     </row>
     <row r="115" ht="24.75" customHeight="1">
@@ -5145,28 +5169,28 @@
       </c>
       <c r="B115" s="7"/>
       <c t="s" r="C115" s="8">
-        <v>302</v>
+        <v>304</v>
       </c>
       <c r="D115" s="8"/>
       <c r="E115" s="8"/>
       <c r="F115" s="8"/>
       <c r="G115" s="8"/>
       <c t="s" r="H115" s="9">
-        <v>285</v>
+        <v>39</v>
       </c>
       <c r="I115" s="9"/>
       <c r="J115" s="9"/>
       <c r="K115" s="9"/>
       <c t="s" r="L115" s="10">
-        <v>177</v>
+        <v>184</v>
       </c>
       <c r="M115" s="10"/>
       <c t="s" r="N115" s="8">
-        <v>191</v>
+        <v>305</v>
       </c>
       <c r="O115" s="8"/>
       <c t="s" r="P115" s="11">
-        <v>192</v>
+        <v>306</v>
       </c>
       <c t="s" r="Q115" s="12">
         <v>20</v>
@@ -5178,31 +5202,31 @@
       </c>
       <c r="B116" s="7"/>
       <c t="s" r="C116" s="8">
-        <v>303</v>
+        <v>307</v>
       </c>
       <c r="D116" s="8"/>
       <c r="E116" s="8"/>
       <c r="F116" s="8"/>
       <c r="G116" s="8"/>
       <c t="s" r="H116" s="9">
-        <v>46</v>
+        <v>308</v>
       </c>
       <c r="I116" s="9"/>
       <c r="J116" s="9"/>
       <c r="K116" s="9"/>
       <c t="s" r="L116" s="10">
-        <v>177</v>
+        <v>184</v>
       </c>
       <c r="M116" s="10"/>
       <c t="s" r="N116" s="8">
-        <v>271</v>
+        <v>284</v>
       </c>
       <c r="O116" s="8"/>
       <c t="s" r="P116" s="11">
-        <v>291</v>
+        <v>309</v>
       </c>
       <c t="s" r="Q116" s="12">
-        <v>22</v>
+        <v>88</v>
       </c>
     </row>
     <row r="117" ht="25.5" customHeight="1">
@@ -5211,28 +5235,28 @@
       </c>
       <c r="B117" s="7"/>
       <c t="s" r="C117" s="8">
-        <v>304</v>
+        <v>310</v>
       </c>
       <c r="D117" s="8"/>
       <c r="E117" s="8"/>
       <c r="F117" s="8"/>
       <c r="G117" s="8"/>
       <c t="s" r="H117" s="9">
-        <v>20</v>
+        <v>293</v>
       </c>
       <c r="I117" s="9"/>
       <c r="J117" s="9"/>
       <c r="K117" s="9"/>
       <c t="s" r="L117" s="10">
-        <v>177</v>
+        <v>184</v>
       </c>
       <c r="M117" s="10"/>
       <c t="s" r="N117" s="8">
-        <v>305</v>
+        <v>198</v>
       </c>
       <c r="O117" s="8"/>
       <c t="s" r="P117" s="11">
-        <v>306</v>
+        <v>199</v>
       </c>
       <c t="s" r="Q117" s="12">
         <v>20</v>
@@ -5244,31 +5268,31 @@
       </c>
       <c r="B118" s="7"/>
       <c t="s" r="C118" s="8">
-        <v>307</v>
+        <v>311</v>
       </c>
       <c r="D118" s="8"/>
       <c r="E118" s="8"/>
       <c r="F118" s="8"/>
       <c r="G118" s="8"/>
       <c t="s" r="H118" s="9">
-        <v>280</v>
+        <v>46</v>
       </c>
       <c r="I118" s="9"/>
       <c r="J118" s="9"/>
       <c r="K118" s="9"/>
       <c t="s" r="L118" s="10">
-        <v>177</v>
+        <v>184</v>
       </c>
       <c r="M118" s="10"/>
       <c t="s" r="N118" s="8">
-        <v>130</v>
+        <v>278</v>
       </c>
       <c r="O118" s="8"/>
       <c t="s" r="P118" s="11">
-        <v>234</v>
+        <v>299</v>
       </c>
       <c t="s" r="Q118" s="12">
-        <v>20</v>
+        <v>22</v>
       </c>
     </row>
     <row r="119" ht="25.5" customHeight="1">
@@ -5277,28 +5301,28 @@
       </c>
       <c r="B119" s="7"/>
       <c t="s" r="C119" s="8">
-        <v>308</v>
+        <v>312</v>
       </c>
       <c r="D119" s="8"/>
       <c r="E119" s="8"/>
       <c r="F119" s="8"/>
       <c r="G119" s="8"/>
       <c t="s" r="H119" s="9">
-        <v>46</v>
+        <v>20</v>
       </c>
       <c r="I119" s="9"/>
       <c r="J119" s="9"/>
       <c r="K119" s="9"/>
       <c t="s" r="L119" s="10">
-        <v>177</v>
+        <v>184</v>
       </c>
       <c r="M119" s="10"/>
       <c t="s" r="N119" s="8">
-        <v>309</v>
+        <v>313</v>
       </c>
       <c r="O119" s="8"/>
       <c t="s" r="P119" s="11">
-        <v>310</v>
+        <v>314</v>
       </c>
       <c t="s" r="Q119" s="12">
         <v>20</v>
@@ -5310,66 +5334,132 @@
       </c>
       <c r="B120" s="7"/>
       <c t="s" r="C120" s="8">
-        <v>311</v>
+        <v>315</v>
       </c>
       <c r="D120" s="8"/>
       <c r="E120" s="8"/>
       <c r="F120" s="8"/>
       <c r="G120" s="8"/>
       <c t="s" r="H120" s="9">
-        <v>22</v>
+        <v>287</v>
       </c>
       <c r="I120" s="9"/>
       <c r="J120" s="9"/>
       <c r="K120" s="9"/>
       <c t="s" r="L120" s="10">
-        <v>177</v>
+        <v>184</v>
       </c>
       <c r="M120" s="10"/>
       <c t="s" r="N120" s="8">
-        <v>271</v>
+        <v>133</v>
       </c>
       <c r="O120" s="8"/>
       <c t="s" r="P120" s="11">
-        <v>272</v>
+        <v>241</v>
       </c>
       <c t="s" r="Q120" s="12">
         <v>20</v>
       </c>
     </row>
     <row r="121" ht="25.5" customHeight="1">
-      <c r="P121" s="13">
-        <v>7508.8050000000003</v>
-      </c>
-      <c r="Q121" s="13"/>
-    </row>
-    <row r="122" ht="16.5" customHeight="1">
-      <c t="s" r="A122" s="14">
-        <v>312</v>
-      </c>
-      <c r="B122" s="14"/>
-      <c r="C122" s="14"/>
-      <c r="D122" s="14"/>
-      <c r="E122" s="14"/>
-      <c r="F122" s="14"/>
-      <c t="s" r="G122" s="15">
-        <v>313</v>
-      </c>
-      <c r="H122" s="15"/>
-      <c r="I122" s="15"/>
-      <c r="J122" s="16"/>
-      <c t="s" r="K122" s="17">
-        <v>314</v>
-      </c>
-      <c r="L122" s="17"/>
-      <c r="M122" s="17"/>
-      <c r="N122" s="17"/>
-      <c r="O122" s="17"/>
-      <c r="P122" s="17"/>
-      <c r="Q122" s="17"/>
+      <c r="A121" s="7">
+        <v>115</v>
+      </c>
+      <c r="B121" s="7"/>
+      <c t="s" r="C121" s="8">
+        <v>316</v>
+      </c>
+      <c r="D121" s="8"/>
+      <c r="E121" s="8"/>
+      <c r="F121" s="8"/>
+      <c r="G121" s="8"/>
+      <c t="s" r="H121" s="9">
+        <v>46</v>
+      </c>
+      <c r="I121" s="9"/>
+      <c r="J121" s="9"/>
+      <c r="K121" s="9"/>
+      <c t="s" r="L121" s="10">
+        <v>184</v>
+      </c>
+      <c r="M121" s="10"/>
+      <c t="s" r="N121" s="8">
+        <v>317</v>
+      </c>
+      <c r="O121" s="8"/>
+      <c t="s" r="P121" s="11">
+        <v>318</v>
+      </c>
+      <c t="s" r="Q121" s="12">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="122" ht="25.5" customHeight="1">
+      <c r="A122" s="7">
+        <v>116</v>
+      </c>
+      <c r="B122" s="7"/>
+      <c t="s" r="C122" s="8">
+        <v>319</v>
+      </c>
+      <c r="D122" s="8"/>
+      <c r="E122" s="8"/>
+      <c r="F122" s="8"/>
+      <c r="G122" s="8"/>
+      <c t="s" r="H122" s="9">
+        <v>22</v>
+      </c>
+      <c r="I122" s="9"/>
+      <c r="J122" s="9"/>
+      <c r="K122" s="9"/>
+      <c t="s" r="L122" s="10">
+        <v>184</v>
+      </c>
+      <c r="M122" s="10"/>
+      <c t="s" r="N122" s="8">
+        <v>278</v>
+      </c>
+      <c r="O122" s="8"/>
+      <c t="s" r="P122" s="11">
+        <v>279</v>
+      </c>
+      <c t="s" r="Q122" s="12">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="123" ht="24.75" customHeight="1">
+      <c r="P123" s="13">
+        <v>7596.7650000000003</v>
+      </c>
+      <c r="Q123" s="13"/>
+    </row>
+    <row r="124" ht="16.5" customHeight="1">
+      <c t="s" r="A124" s="14">
+        <v>320</v>
+      </c>
+      <c r="B124" s="14"/>
+      <c r="C124" s="14"/>
+      <c r="D124" s="14"/>
+      <c r="E124" s="14"/>
+      <c r="F124" s="14"/>
+      <c t="s" r="G124" s="15">
+        <v>321</v>
+      </c>
+      <c r="H124" s="15"/>
+      <c r="I124" s="15"/>
+      <c r="J124" s="16"/>
+      <c t="s" r="K124" s="17">
+        <v>322</v>
+      </c>
+      <c r="L124" s="17"/>
+      <c r="M124" s="17"/>
+      <c r="N124" s="17"/>
+      <c r="O124" s="17"/>
+      <c r="P124" s="17"/>
+      <c r="Q124" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="582">
+  <mergeCells count="592">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -5948,10 +6038,20 @@
     <mergeCell ref="H120:K120"/>
     <mergeCell ref="L120:M120"/>
     <mergeCell ref="N120:O120"/>
-    <mergeCell ref="P121:Q121"/>
-    <mergeCell ref="A122:F122"/>
-    <mergeCell ref="G122:I122"/>
-    <mergeCell ref="K122:Q122"/>
+    <mergeCell ref="A121:B121"/>
+    <mergeCell ref="C121:G121"/>
+    <mergeCell ref="H121:K121"/>
+    <mergeCell ref="L121:M121"/>
+    <mergeCell ref="N121:O121"/>
+    <mergeCell ref="A122:B122"/>
+    <mergeCell ref="C122:G122"/>
+    <mergeCell ref="H122:K122"/>
+    <mergeCell ref="L122:M122"/>
+    <mergeCell ref="N122:O122"/>
+    <mergeCell ref="P123:Q123"/>
+    <mergeCell ref="A124:F124"/>
+    <mergeCell ref="G124:I124"/>
+    <mergeCell ref="K124:Q124"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-08-08_00-00.xlsx
+++ b/DaySale_2025-08-08_00-00.xlsx
@@ -86,6 +86,15 @@
     <t>42.0000</t>
   </si>
   <si>
+    <t>ANTI-COX II 15MG 30 TAB.</t>
+  </si>
+  <si>
+    <t>111.00</t>
+  </si>
+  <si>
+    <t>36.6300</t>
+  </si>
+  <si>
     <t>ANTI-COX II 15MG/3ML 6 AMP</t>
   </si>
   <si>
@@ -824,6 +833,12 @@
     <t>4.0000</t>
   </si>
   <si>
+    <t>XERODOX 30 SUBLINGUAL TABLETS</t>
+  </si>
+  <si>
+    <t>105.0000</t>
+  </si>
+  <si>
     <t>الفيف شامبو400</t>
   </si>
   <si>
@@ -971,7 +986,7 @@
     <t>مناديل بكر فاين</t>
   </si>
   <si>
-    <t>Friday, 8 August, 2025 10:18 PM</t>
+    <t>Friday, 8 August, 2025 10:28 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1711,7 +1726,7 @@
       <c r="F10" s="8"/>
       <c r="G10" s="8"/>
       <c t="s" r="H10" s="9">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="I10" s="9"/>
       <c r="J10" s="9"/>
@@ -1721,14 +1736,14 @@
       </c>
       <c r="M10" s="10"/>
       <c t="s" r="N10" s="8">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="O10" s="8"/>
       <c t="s" r="P10" s="11">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c t="s" r="Q10" s="12">
-        <v>29</v>
+        <v>16</v>
       </c>
     </row>
     <row r="11" ht="25.5" customHeight="1">
@@ -1737,14 +1752,14 @@
       </c>
       <c r="B11" s="7"/>
       <c t="s" r="C11" s="8">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="D11" s="8"/>
       <c r="E11" s="8"/>
       <c r="F11" s="8"/>
       <c r="G11" s="8"/>
       <c t="s" r="H11" s="9">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="I11" s="9"/>
       <c r="J11" s="9"/>
@@ -1754,14 +1769,14 @@
       </c>
       <c r="M11" s="10"/>
       <c t="s" r="N11" s="8">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="O11" s="8"/>
       <c t="s" r="P11" s="11">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c t="s" r="Q11" s="12">
-        <v>34</v>
+        <v>32</v>
       </c>
     </row>
     <row r="12" ht="25.5" customHeight="1">
@@ -1770,14 +1785,14 @@
       </c>
       <c r="B12" s="7"/>
       <c t="s" r="C12" s="8">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="D12" s="8"/>
       <c r="E12" s="8"/>
       <c r="F12" s="8"/>
       <c r="G12" s="8"/>
       <c t="s" r="H12" s="9">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="I12" s="9"/>
       <c r="J12" s="9"/>
@@ -1787,14 +1802,14 @@
       </c>
       <c r="M12" s="10"/>
       <c t="s" r="N12" s="8">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="O12" s="8"/>
       <c t="s" r="P12" s="11">
+        <v>36</v>
+      </c>
+      <c t="s" r="Q12" s="12">
         <v>37</v>
-      </c>
-      <c t="s" r="Q12" s="12">
-        <v>16</v>
       </c>
     </row>
     <row r="13" ht="24.75" customHeight="1">
@@ -1810,7 +1825,7 @@
       <c r="F13" s="8"/>
       <c r="G13" s="8"/>
       <c t="s" r="H13" s="9">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="I13" s="9"/>
       <c r="J13" s="9"/>
@@ -1820,11 +1835,11 @@
       </c>
       <c r="M13" s="10"/>
       <c t="s" r="N13" s="8">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="O13" s="8"/>
       <c t="s" r="P13" s="11">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c t="s" r="Q13" s="12">
         <v>16</v>
@@ -1836,14 +1851,14 @@
       </c>
       <c r="B14" s="7"/>
       <c t="s" r="C14" s="8">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D14" s="8"/>
       <c r="E14" s="8"/>
       <c r="F14" s="8"/>
       <c r="G14" s="8"/>
       <c t="s" r="H14" s="9">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="I14" s="9"/>
       <c r="J14" s="9"/>
@@ -1853,7 +1868,7 @@
       </c>
       <c r="M14" s="10"/>
       <c t="s" r="N14" s="8">
-        <v>27</v>
+        <v>43</v>
       </c>
       <c r="O14" s="8"/>
       <c t="s" r="P14" s="11">
@@ -1886,14 +1901,14 @@
       </c>
       <c r="M15" s="10"/>
       <c t="s" r="N15" s="8">
-        <v>47</v>
+        <v>30</v>
       </c>
       <c r="O15" s="8"/>
       <c t="s" r="P15" s="11">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c t="s" r="Q15" s="12">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="16" ht="25.5" customHeight="1">
@@ -1902,14 +1917,14 @@
       </c>
       <c r="B16" s="7"/>
       <c t="s" r="C16" s="8">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D16" s="8"/>
       <c r="E16" s="8"/>
       <c r="F16" s="8"/>
       <c r="G16" s="8"/>
       <c t="s" r="H16" s="9">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="I16" s="9"/>
       <c r="J16" s="9"/>
@@ -1942,7 +1957,7 @@
       <c r="F17" s="8"/>
       <c r="G17" s="8"/>
       <c t="s" r="H17" s="9">
-        <v>31</v>
+        <v>49</v>
       </c>
       <c r="I17" s="9"/>
       <c r="J17" s="9"/>
@@ -1959,7 +1974,7 @@
         <v>54</v>
       </c>
       <c t="s" r="Q17" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="18" ht="24.75" customHeight="1">
@@ -1975,7 +1990,7 @@
       <c r="F18" s="8"/>
       <c r="G18" s="8"/>
       <c t="s" r="H18" s="9">
-        <v>56</v>
+        <v>34</v>
       </c>
       <c r="I18" s="9"/>
       <c r="J18" s="9"/>
@@ -1985,14 +2000,14 @@
       </c>
       <c r="M18" s="10"/>
       <c t="s" r="N18" s="8">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="O18" s="8"/>
       <c t="s" r="P18" s="11">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c t="s" r="Q18" s="12">
-        <v>56</v>
+        <v>16</v>
       </c>
     </row>
     <row r="19" ht="25.5" customHeight="1">
@@ -2001,14 +2016,14 @@
       </c>
       <c r="B19" s="7"/>
       <c t="s" r="C19" s="8">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D19" s="8"/>
       <c r="E19" s="8"/>
       <c r="F19" s="8"/>
       <c r="G19" s="8"/>
       <c t="s" r="H19" s="9">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="I19" s="9"/>
       <c r="J19" s="9"/>
@@ -2025,7 +2040,7 @@
         <v>61</v>
       </c>
       <c t="s" r="Q19" s="12">
-        <v>20</v>
+        <v>59</v>
       </c>
     </row>
     <row r="20" ht="24.75" customHeight="1">
@@ -2041,7 +2056,7 @@
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
       <c t="s" r="H20" s="9">
-        <v>16</v>
+        <v>59</v>
       </c>
       <c r="I20" s="9"/>
       <c r="J20" s="9"/>
@@ -2051,14 +2066,14 @@
       </c>
       <c r="M20" s="10"/>
       <c t="s" r="N20" s="8">
-        <v>27</v>
+        <v>63</v>
       </c>
       <c r="O20" s="8"/>
       <c t="s" r="P20" s="11">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c t="s" r="Q20" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="21" ht="25.5" customHeight="1">
@@ -2067,14 +2082,14 @@
       </c>
       <c r="B21" s="7"/>
       <c t="s" r="C21" s="8">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="D21" s="8"/>
       <c r="E21" s="8"/>
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
       <c t="s" r="H21" s="9">
-        <v>46</v>
+        <v>16</v>
       </c>
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
@@ -2084,14 +2099,14 @@
       </c>
       <c r="M21" s="10"/>
       <c t="s" r="N21" s="8">
-        <v>65</v>
+        <v>30</v>
       </c>
       <c r="O21" s="8"/>
       <c t="s" r="P21" s="11">
         <v>66</v>
       </c>
       <c t="s" r="Q21" s="12">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="22" ht="25.5" customHeight="1">
@@ -2107,7 +2122,7 @@
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c t="s" r="H22" s="9">
-        <v>16</v>
+        <v>49</v>
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
@@ -2124,7 +2139,7 @@
         <v>69</v>
       </c>
       <c t="s" r="Q22" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="23" ht="24.75" customHeight="1">
@@ -2140,7 +2155,7 @@
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c t="s" r="H23" s="9">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
@@ -2150,14 +2165,14 @@
       </c>
       <c r="M23" s="10"/>
       <c t="s" r="N23" s="8">
-        <v>65</v>
+        <v>71</v>
       </c>
       <c r="O23" s="8"/>
       <c t="s" r="P23" s="11">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c t="s" r="Q23" s="12">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="24" ht="25.5" customHeight="1">
@@ -2166,14 +2181,14 @@
       </c>
       <c r="B24" s="7"/>
       <c t="s" r="C24" s="8">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="D24" s="8"/>
       <c r="E24" s="8"/>
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>72</v>
+        <v>20</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
@@ -2183,14 +2198,14 @@
       </c>
       <c r="M24" s="10"/>
       <c t="s" r="N24" s="8">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="O24" s="8"/>
       <c t="s" r="P24" s="11">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c t="s" r="Q24" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="25" ht="24.75" customHeight="1">
@@ -2199,14 +2214,14 @@
       </c>
       <c r="B25" s="7"/>
       <c t="s" r="C25" s="8">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D25" s="8"/>
       <c r="E25" s="8"/>
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>20</v>
+        <v>75</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
@@ -2256,7 +2271,7 @@
         <v>80</v>
       </c>
       <c t="s" r="Q26" s="12">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="27" ht="25.5" customHeight="1">
@@ -2272,7 +2287,7 @@
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
@@ -2289,7 +2304,7 @@
         <v>83</v>
       </c>
       <c t="s" r="Q27" s="12">
-        <v>29</v>
+        <v>20</v>
       </c>
     </row>
     <row r="28" ht="24.75" customHeight="1">
@@ -2305,7 +2320,7 @@
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
@@ -2322,7 +2337,7 @@
         <v>86</v>
       </c>
       <c t="s" r="Q28" s="12">
-        <v>16</v>
+        <v>32</v>
       </c>
     </row>
     <row r="29" ht="25.5" customHeight="1">
@@ -2338,7 +2353,7 @@
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>88</v>
+        <v>20</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
@@ -2348,14 +2363,14 @@
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="O29" s="8"/>
       <c t="s" r="P29" s="11">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c t="s" r="Q29" s="12">
-        <v>29</v>
+        <v>16</v>
       </c>
     </row>
     <row r="30" ht="24.75" customHeight="1">
@@ -2364,14 +2379,14 @@
       </c>
       <c r="B30" s="7"/>
       <c t="s" r="C30" s="8">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D30" s="8"/>
       <c r="E30" s="8"/>
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>46</v>
+        <v>91</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
@@ -2388,7 +2403,7 @@
         <v>93</v>
       </c>
       <c t="s" r="Q30" s="12">
-        <v>20</v>
+        <v>32</v>
       </c>
     </row>
     <row r="31" ht="25.5" customHeight="1">
@@ -2404,7 +2419,7 @@
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>29</v>
+        <v>49</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
@@ -2421,7 +2436,7 @@
         <v>96</v>
       </c>
       <c t="s" r="Q31" s="12">
-        <v>29</v>
+        <v>20</v>
       </c>
     </row>
     <row r="32" ht="25.5" customHeight="1">
@@ -2437,7 +2452,7 @@
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>46</v>
+        <v>32</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
@@ -2454,7 +2469,7 @@
         <v>99</v>
       </c>
       <c t="s" r="Q32" s="12">
-        <v>88</v>
+        <v>32</v>
       </c>
     </row>
     <row r="33" ht="24.75" customHeight="1">
@@ -2470,7 +2485,7 @@
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>101</v>
+        <v>49</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
@@ -2480,14 +2495,14 @@
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
-        <v>63</v>
+        <v>102</v>
       </c>
       <c t="s" r="Q33" s="12">
-        <v>20</v>
+        <v>91</v>
       </c>
     </row>
     <row r="34" ht="25.5" customHeight="1">
@@ -2503,7 +2518,7 @@
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>20</v>
+        <v>104</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
@@ -2513,14 +2528,14 @@
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
-        <v>105</v>
+        <v>66</v>
       </c>
       <c t="s" r="Q34" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="35" ht="24.75" customHeight="1">
@@ -2553,7 +2568,7 @@
         <v>108</v>
       </c>
       <c t="s" r="Q35" s="12">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="36" ht="25.5" customHeight="1">
@@ -2569,7 +2584,7 @@
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>29</v>
+        <v>20</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
@@ -2579,14 +2594,14 @@
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>73</v>
+        <v>110</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
-        <v>74</v>
+        <v>111</v>
       </c>
       <c t="s" r="Q36" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="37" ht="25.5" customHeight="1">
@@ -2595,14 +2610,14 @@
       </c>
       <c r="B37" s="7"/>
       <c t="s" r="C37" s="8">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="D37" s="8"/>
       <c r="E37" s="8"/>
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>111</v>
+        <v>32</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
@@ -2612,14 +2627,14 @@
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>47</v>
+        <v>76</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
-        <v>48</v>
+        <v>77</v>
       </c>
       <c t="s" r="Q37" s="12">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="38" ht="24.75" customHeight="1">
@@ -2628,14 +2643,14 @@
       </c>
       <c r="B38" s="7"/>
       <c t="s" r="C38" s="8">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="D38" s="8"/>
       <c r="E38" s="8"/>
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>46</v>
+        <v>114</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
@@ -2645,11 +2660,11 @@
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>113</v>
+        <v>50</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
-        <v>114</v>
+        <v>51</v>
       </c>
       <c t="s" r="Q38" s="12">
         <v>20</v>
@@ -2668,7 +2683,7 @@
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>39</v>
+        <v>49</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
@@ -2685,7 +2700,7 @@
         <v>117</v>
       </c>
       <c t="s" r="Q39" s="12">
-        <v>101</v>
+        <v>20</v>
       </c>
     </row>
     <row r="40" ht="24.75" customHeight="1">
@@ -2701,7 +2716,7 @@
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>119</v>
+        <v>42</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
@@ -2711,14 +2726,14 @@
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c t="s" r="Q40" s="12">
-        <v>29</v>
+        <v>104</v>
       </c>
     </row>
     <row r="41" ht="25.5" customHeight="1">
@@ -2727,14 +2742,14 @@
       </c>
       <c r="B41" s="7"/>
       <c t="s" r="C41" s="8">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="D41" s="8"/>
       <c r="E41" s="8"/>
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
@@ -2744,14 +2759,14 @@
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c t="s" r="Q41" s="12">
-        <v>29</v>
+        <v>32</v>
       </c>
     </row>
     <row r="42" ht="25.5" customHeight="1">
@@ -2760,14 +2775,14 @@
       </c>
       <c r="B42" s="7"/>
       <c t="s" r="C42" s="8">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="D42" s="8"/>
       <c r="E42" s="8"/>
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>20</v>
+        <v>126</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
@@ -2784,7 +2799,7 @@
         <v>128</v>
       </c>
       <c t="s" r="Q42" s="12">
-        <v>20</v>
+        <v>32</v>
       </c>
     </row>
     <row r="43" ht="24.75" customHeight="1">
@@ -2833,7 +2848,7 @@
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
@@ -2850,7 +2865,7 @@
         <v>134</v>
       </c>
       <c t="s" r="Q44" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="45" ht="24.75" customHeight="1">
@@ -2866,7 +2881,7 @@
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>22</v>
+        <v>12</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
@@ -2883,7 +2898,7 @@
         <v>137</v>
       </c>
       <c t="s" r="Q45" s="12">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="46" ht="25.5" customHeight="1">
@@ -2899,7 +2914,7 @@
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>31</v>
+        <v>22</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
@@ -2916,7 +2931,7 @@
         <v>140</v>
       </c>
       <c t="s" r="Q46" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="47" ht="25.5" customHeight="1">
@@ -2932,7 +2947,7 @@
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
@@ -2942,14 +2957,14 @@
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>107</v>
+        <v>142</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
-        <v>108</v>
+        <v>143</v>
       </c>
       <c t="s" r="Q47" s="12">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="48" ht="24.75" customHeight="1">
@@ -2958,14 +2973,14 @@
       </c>
       <c r="B48" s="7"/>
       <c t="s" r="C48" s="8">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="D48" s="8"/>
       <c r="E48" s="8"/>
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>22</v>
+        <v>42</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
@@ -2975,11 +2990,11 @@
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c t="s" r="Q48" s="12">
         <v>20</v>
@@ -2991,14 +3006,14 @@
       </c>
       <c r="B49" s="7"/>
       <c t="s" r="C49" s="8">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="D49" s="8"/>
       <c r="E49" s="8"/>
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>31</v>
+        <v>22</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
@@ -3008,14 +3023,14 @@
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>144</v>
+        <v>110</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
-        <v>145</v>
+        <v>111</v>
       </c>
       <c t="s" r="Q49" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="50" ht="24.75" customHeight="1">
@@ -3031,7 +3046,7 @@
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>46</v>
+        <v>34</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
@@ -3041,14 +3056,14 @@
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>92</v>
+        <v>147</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
-        <v>93</v>
+        <v>148</v>
       </c>
       <c t="s" r="Q50" s="12">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="51" ht="25.5" customHeight="1">
@@ -3057,14 +3072,14 @@
       </c>
       <c r="B51" s="7"/>
       <c t="s" r="C51" s="8">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="D51" s="8"/>
       <c r="E51" s="8"/>
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>20</v>
+        <v>49</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
@@ -3074,14 +3089,14 @@
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>148</v>
+        <v>95</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
-        <v>149</v>
+        <v>96</v>
       </c>
       <c t="s" r="Q51" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="52" ht="25.5" customHeight="1">
@@ -3097,7 +3112,7 @@
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>151</v>
+        <v>20</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
@@ -3107,14 +3122,14 @@
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c t="s" r="Q52" s="12">
-        <v>101</v>
+        <v>16</v>
       </c>
     </row>
     <row r="53" ht="24.75" customHeight="1">
@@ -3123,14 +3138,14 @@
       </c>
       <c r="B53" s="7"/>
       <c t="s" r="C53" s="8">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="D53" s="8"/>
       <c r="E53" s="8"/>
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>39</v>
+        <v>154</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
@@ -3147,7 +3162,7 @@
         <v>156</v>
       </c>
       <c t="s" r="Q53" s="12">
-        <v>20</v>
+        <v>104</v>
       </c>
     </row>
     <row r="54" ht="25.5" customHeight="1">
@@ -3163,7 +3178,7 @@
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>31</v>
+        <v>42</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
@@ -3180,7 +3195,7 @@
         <v>159</v>
       </c>
       <c t="s" r="Q54" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="55" ht="24.75" customHeight="1">
@@ -3196,7 +3211,7 @@
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
@@ -3206,11 +3221,11 @@
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
-        <v>68</v>
+        <v>161</v>
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
-        <v>69</v>
+        <v>162</v>
       </c>
       <c t="s" r="Q55" s="12">
         <v>16</v>
@@ -3222,14 +3237,14 @@
       </c>
       <c r="B56" s="7"/>
       <c t="s" r="C56" s="8">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="D56" s="8"/>
       <c r="E56" s="8"/>
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>46</v>
+        <v>34</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
@@ -3239,11 +3254,11 @@
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
-        <v>89</v>
+        <v>71</v>
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
-        <v>162</v>
+        <v>72</v>
       </c>
       <c t="s" r="Q56" s="12">
         <v>16</v>
@@ -3255,14 +3270,14 @@
       </c>
       <c r="B57" s="7"/>
       <c t="s" r="C57" s="8">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="D57" s="8"/>
       <c r="E57" s="8"/>
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>101</v>
+        <v>49</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
@@ -3272,11 +3287,11 @@
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
-        <v>47</v>
+        <v>92</v>
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c t="s" r="Q57" s="12">
         <v>16</v>
@@ -3288,14 +3303,14 @@
       </c>
       <c r="B58" s="7"/>
       <c t="s" r="C58" s="8">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="D58" s="8"/>
       <c r="E58" s="8"/>
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c t="s" r="H58" s="9">
-        <v>16</v>
+        <v>104</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
@@ -3305,7 +3320,7 @@
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
-        <v>166</v>
+        <v>50</v>
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
@@ -3328,7 +3343,7 @@
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c t="s" r="H59" s="9">
-        <v>31</v>
+        <v>16</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
@@ -3342,7 +3357,7 @@
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
-        <v>90</v>
+        <v>170</v>
       </c>
       <c t="s" r="Q59" s="12">
         <v>16</v>
@@ -3354,14 +3369,14 @@
       </c>
       <c r="B60" s="7"/>
       <c t="s" r="C60" s="8">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="D60" s="8"/>
       <c r="E60" s="8"/>
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c t="s" r="H60" s="9">
-        <v>46</v>
+        <v>34</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
@@ -3371,14 +3386,14 @@
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
-        <v>172</v>
+        <v>93</v>
       </c>
       <c t="s" r="Q60" s="12">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="61" ht="25.5" customHeight="1">
@@ -3394,7 +3409,7 @@
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
       <c t="s" r="H61" s="9">
-        <v>29</v>
+        <v>49</v>
       </c>
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
@@ -3411,7 +3426,7 @@
         <v>175</v>
       </c>
       <c t="s" r="Q61" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="62" ht="25.5" customHeight="1">
@@ -3427,7 +3442,7 @@
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
       <c t="s" r="H62" s="9">
-        <v>22</v>
+        <v>32</v>
       </c>
       <c r="I62" s="9"/>
       <c r="J62" s="9"/>
@@ -3444,7 +3459,7 @@
         <v>178</v>
       </c>
       <c t="s" r="Q62" s="12">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="63" ht="24.75" customHeight="1">
@@ -3460,7 +3475,7 @@
       <c r="F63" s="8"/>
       <c r="G63" s="8"/>
       <c t="s" r="H63" s="9">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="I63" s="9"/>
       <c r="J63" s="9"/>
@@ -3477,7 +3492,7 @@
         <v>181</v>
       </c>
       <c t="s" r="Q63" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="64" ht="25.5" customHeight="1">
@@ -3493,24 +3508,24 @@
       <c r="F64" s="8"/>
       <c r="G64" s="8"/>
       <c t="s" r="H64" s="9">
-        <v>183</v>
+        <v>20</v>
       </c>
       <c r="I64" s="9"/>
       <c r="J64" s="9"/>
       <c r="K64" s="9"/>
       <c t="s" r="L64" s="10">
-        <v>184</v>
+        <v>13</v>
       </c>
       <c r="M64" s="10"/>
       <c t="s" r="N64" s="8">
-        <v>152</v>
+        <v>183</v>
       </c>
       <c r="O64" s="8"/>
       <c t="s" r="P64" s="11">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c t="s" r="Q64" s="12">
-        <v>34</v>
+        <v>16</v>
       </c>
     </row>
     <row r="65" ht="24.75" customHeight="1">
@@ -3519,31 +3534,31 @@
       </c>
       <c r="B65" s="7"/>
       <c t="s" r="C65" s="8">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="D65" s="8"/>
       <c r="E65" s="8"/>
       <c r="F65" s="8"/>
       <c r="G65" s="8"/>
       <c t="s" r="H65" s="9">
-        <v>39</v>
+        <v>186</v>
       </c>
       <c r="I65" s="9"/>
       <c r="J65" s="9"/>
       <c r="K65" s="9"/>
       <c t="s" r="L65" s="10">
-        <v>13</v>
+        <v>187</v>
       </c>
       <c r="M65" s="10"/>
       <c t="s" r="N65" s="8">
-        <v>104</v>
+        <v>155</v>
       </c>
       <c r="O65" s="8"/>
       <c t="s" r="P65" s="11">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c t="s" r="Q65" s="12">
-        <v>20</v>
+        <v>37</v>
       </c>
     </row>
     <row r="66" ht="25.5" customHeight="1">
@@ -3552,14 +3567,14 @@
       </c>
       <c r="B66" s="7"/>
       <c t="s" r="C66" s="8">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="D66" s="8"/>
       <c r="E66" s="8"/>
       <c r="F66" s="8"/>
       <c r="G66" s="8"/>
       <c t="s" r="H66" s="9">
-        <v>16</v>
+        <v>42</v>
       </c>
       <c r="I66" s="9"/>
       <c r="J66" s="9"/>
@@ -3569,11 +3584,11 @@
       </c>
       <c r="M66" s="10"/>
       <c t="s" r="N66" s="8">
-        <v>174</v>
+        <v>107</v>
       </c>
       <c r="O66" s="8"/>
       <c t="s" r="P66" s="11">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c t="s" r="Q66" s="12">
         <v>20</v>
@@ -3585,7 +3600,7 @@
       </c>
       <c r="B67" s="7"/>
       <c t="s" r="C67" s="8">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="D67" s="8"/>
       <c r="E67" s="8"/>
@@ -3602,14 +3617,14 @@
       </c>
       <c r="M67" s="10"/>
       <c t="s" r="N67" s="8">
-        <v>191</v>
+        <v>177</v>
       </c>
       <c r="O67" s="8"/>
       <c t="s" r="P67" s="11">
-        <v>48</v>
+        <v>192</v>
       </c>
       <c t="s" r="Q67" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="68" ht="24.75" customHeight="1">
@@ -3618,14 +3633,14 @@
       </c>
       <c r="B68" s="7"/>
       <c t="s" r="C68" s="8">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="D68" s="8"/>
       <c r="E68" s="8"/>
       <c r="F68" s="8"/>
       <c r="G68" s="8"/>
       <c t="s" r="H68" s="9">
-        <v>46</v>
+        <v>16</v>
       </c>
       <c r="I68" s="9"/>
       <c r="J68" s="9"/>
@@ -3635,14 +3650,14 @@
       </c>
       <c r="M68" s="10"/>
       <c t="s" r="N68" s="8">
-        <v>139</v>
+        <v>194</v>
       </c>
       <c r="O68" s="8"/>
       <c t="s" r="P68" s="11">
-        <v>193</v>
+        <v>51</v>
       </c>
       <c t="s" r="Q68" s="12">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="69" ht="25.5" customHeight="1">
@@ -3651,14 +3666,14 @@
       </c>
       <c r="B69" s="7"/>
       <c t="s" r="C69" s="8">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="D69" s="8"/>
       <c r="E69" s="8"/>
       <c r="F69" s="8"/>
       <c r="G69" s="8"/>
       <c t="s" r="H69" s="9">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="I69" s="9"/>
       <c r="J69" s="9"/>
@@ -3668,7 +3683,7 @@
       </c>
       <c r="M69" s="10"/>
       <c t="s" r="N69" s="8">
-        <v>195</v>
+        <v>142</v>
       </c>
       <c r="O69" s="8"/>
       <c t="s" r="P69" s="11">
@@ -3691,7 +3706,7 @@
       <c r="F70" s="8"/>
       <c r="G70" s="8"/>
       <c t="s" r="H70" s="9">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="I70" s="9"/>
       <c r="J70" s="9"/>
@@ -3724,7 +3739,7 @@
       <c r="F71" s="8"/>
       <c r="G71" s="8"/>
       <c t="s" r="H71" s="9">
-        <v>20</v>
+        <v>49</v>
       </c>
       <c r="I71" s="9"/>
       <c r="J71" s="9"/>
@@ -3741,7 +3756,7 @@
         <v>202</v>
       </c>
       <c t="s" r="Q71" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="72" ht="25.5" customHeight="1">
@@ -3757,7 +3772,7 @@
       <c r="F72" s="8"/>
       <c r="G72" s="8"/>
       <c t="s" r="H72" s="9">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="I72" s="9"/>
       <c r="J72" s="9"/>
@@ -3767,11 +3782,11 @@
       </c>
       <c r="M72" s="10"/>
       <c t="s" r="N72" s="8">
-        <v>113</v>
+        <v>204</v>
       </c>
       <c r="O72" s="8"/>
       <c t="s" r="P72" s="11">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c t="s" r="Q72" s="12">
         <v>16</v>
@@ -3783,14 +3798,14 @@
       </c>
       <c r="B73" s="7"/>
       <c t="s" r="C73" s="8">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="D73" s="8"/>
       <c r="E73" s="8"/>
       <c r="F73" s="8"/>
       <c r="G73" s="8"/>
       <c t="s" r="H73" s="9">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="I73" s="9"/>
       <c r="J73" s="9"/>
@@ -3804,10 +3819,10 @@
       </c>
       <c r="O73" s="8"/>
       <c t="s" r="P73" s="11">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c t="s" r="Q73" s="12">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="74" ht="25.5" customHeight="1">
@@ -3816,14 +3831,14 @@
       </c>
       <c r="B74" s="7"/>
       <c t="s" r="C74" s="8">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="D74" s="8"/>
       <c r="E74" s="8"/>
       <c r="F74" s="8"/>
       <c r="G74" s="8"/>
       <c t="s" r="H74" s="9">
-        <v>208</v>
+        <v>22</v>
       </c>
       <c r="I74" s="9"/>
       <c r="J74" s="9"/>
@@ -3833,11 +3848,11 @@
       </c>
       <c r="M74" s="10"/>
       <c t="s" r="N74" s="8">
-        <v>155</v>
+        <v>119</v>
       </c>
       <c r="O74" s="8"/>
       <c t="s" r="P74" s="11">
-        <v>156</v>
+        <v>209</v>
       </c>
       <c t="s" r="Q74" s="12">
         <v>20</v>
@@ -3849,14 +3864,14 @@
       </c>
       <c r="B75" s="7"/>
       <c t="s" r="C75" s="8">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="D75" s="8"/>
       <c r="E75" s="8"/>
       <c r="F75" s="8"/>
       <c r="G75" s="8"/>
       <c t="s" r="H75" s="9">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="I75" s="9"/>
       <c r="J75" s="9"/>
@@ -3866,14 +3881,14 @@
       </c>
       <c r="M75" s="10"/>
       <c t="s" r="N75" s="8">
-        <v>211</v>
+        <v>158</v>
       </c>
       <c r="O75" s="8"/>
       <c t="s" r="P75" s="11">
-        <v>212</v>
+        <v>159</v>
       </c>
       <c t="s" r="Q75" s="12">
-        <v>213</v>
+        <v>20</v>
       </c>
     </row>
     <row r="76" ht="25.5" customHeight="1">
@@ -3882,14 +3897,14 @@
       </c>
       <c r="B76" s="7"/>
       <c t="s" r="C76" s="8">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="D76" s="8"/>
       <c r="E76" s="8"/>
       <c r="F76" s="8"/>
       <c r="G76" s="8"/>
       <c t="s" r="H76" s="9">
-        <v>20</v>
+        <v>213</v>
       </c>
       <c r="I76" s="9"/>
       <c r="J76" s="9"/>
@@ -3899,14 +3914,14 @@
       </c>
       <c r="M76" s="10"/>
       <c t="s" r="N76" s="8">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="O76" s="8"/>
       <c t="s" r="P76" s="11">
+        <v>215</v>
+      </c>
+      <c t="s" r="Q76" s="12">
         <v>216</v>
-      </c>
-      <c t="s" r="Q76" s="12">
-        <v>20</v>
       </c>
     </row>
     <row r="77" ht="25.5" customHeight="1">
@@ -3922,7 +3937,7 @@
       <c r="F77" s="8"/>
       <c r="G77" s="8"/>
       <c t="s" r="H77" s="9">
-        <v>46</v>
+        <v>20</v>
       </c>
       <c r="I77" s="9"/>
       <c r="J77" s="9"/>
@@ -3932,11 +3947,11 @@
       </c>
       <c r="M77" s="10"/>
       <c t="s" r="N77" s="8">
-        <v>92</v>
+        <v>218</v>
       </c>
       <c r="O77" s="8"/>
       <c t="s" r="P77" s="11">
-        <v>93</v>
+        <v>219</v>
       </c>
       <c t="s" r="Q77" s="12">
         <v>20</v>
@@ -3948,14 +3963,14 @@
       </c>
       <c r="B78" s="7"/>
       <c t="s" r="C78" s="8">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="D78" s="8"/>
       <c r="E78" s="8"/>
       <c r="F78" s="8"/>
       <c r="G78" s="8"/>
       <c t="s" r="H78" s="9">
-        <v>219</v>
+        <v>49</v>
       </c>
       <c r="I78" s="9"/>
       <c r="J78" s="9"/>
@@ -3965,14 +3980,14 @@
       </c>
       <c r="M78" s="10"/>
       <c t="s" r="N78" s="8">
-        <v>169</v>
+        <v>95</v>
       </c>
       <c r="O78" s="8"/>
       <c t="s" r="P78" s="11">
-        <v>90</v>
+        <v>96</v>
       </c>
       <c t="s" r="Q78" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="79" ht="25.5" customHeight="1">
@@ -3981,14 +3996,14 @@
       </c>
       <c r="B79" s="7"/>
       <c t="s" r="C79" s="8">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="D79" s="8"/>
       <c r="E79" s="8"/>
       <c r="F79" s="8"/>
       <c r="G79" s="8"/>
       <c t="s" r="H79" s="9">
-        <v>43</v>
+        <v>222</v>
       </c>
       <c r="I79" s="9"/>
       <c r="J79" s="9"/>
@@ -3998,14 +4013,14 @@
       </c>
       <c r="M79" s="10"/>
       <c t="s" r="N79" s="8">
-        <v>107</v>
+        <v>172</v>
       </c>
       <c r="O79" s="8"/>
       <c t="s" r="P79" s="11">
-        <v>221</v>
+        <v>93</v>
       </c>
       <c t="s" r="Q79" s="12">
-        <v>29</v>
+        <v>16</v>
       </c>
     </row>
     <row r="80" ht="24.75" customHeight="1">
@@ -4014,14 +4029,14 @@
       </c>
       <c r="B80" s="7"/>
       <c t="s" r="C80" s="8">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="D80" s="8"/>
       <c r="E80" s="8"/>
       <c r="F80" s="8"/>
       <c r="G80" s="8"/>
       <c t="s" r="H80" s="9">
-        <v>223</v>
+        <v>46</v>
       </c>
       <c r="I80" s="9"/>
       <c r="J80" s="9"/>
@@ -4031,14 +4046,14 @@
       </c>
       <c r="M80" s="10"/>
       <c t="s" r="N80" s="8">
-        <v>27</v>
+        <v>110</v>
       </c>
       <c r="O80" s="8"/>
       <c t="s" r="P80" s="11">
         <v>224</v>
       </c>
       <c t="s" r="Q80" s="12">
-        <v>43</v>
+        <v>32</v>
       </c>
     </row>
     <row r="81" ht="25.5" customHeight="1">
@@ -4054,7 +4069,7 @@
       <c r="F81" s="8"/>
       <c r="G81" s="8"/>
       <c t="s" r="H81" s="9">
-        <v>43</v>
+        <v>226</v>
       </c>
       <c r="I81" s="9"/>
       <c r="J81" s="9"/>
@@ -4064,14 +4079,14 @@
       </c>
       <c r="M81" s="10"/>
       <c t="s" r="N81" s="8">
-        <v>102</v>
+        <v>30</v>
       </c>
       <c r="O81" s="8"/>
       <c t="s" r="P81" s="11">
-        <v>63</v>
+        <v>227</v>
       </c>
       <c t="s" r="Q81" s="12">
-        <v>20</v>
+        <v>46</v>
       </c>
     </row>
     <row r="82" ht="25.5" customHeight="1">
@@ -4080,14 +4095,14 @@
       </c>
       <c r="B82" s="7"/>
       <c t="s" r="C82" s="8">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="D82" s="8"/>
       <c r="E82" s="8"/>
       <c r="F82" s="8"/>
       <c r="G82" s="8"/>
       <c t="s" r="H82" s="9">
-        <v>31</v>
+        <v>46</v>
       </c>
       <c r="I82" s="9"/>
       <c r="J82" s="9"/>
@@ -4097,14 +4112,14 @@
       </c>
       <c r="M82" s="10"/>
       <c t="s" r="N82" s="8">
-        <v>40</v>
+        <v>105</v>
       </c>
       <c r="O82" s="8"/>
       <c t="s" r="P82" s="11">
-        <v>41</v>
+        <v>66</v>
       </c>
       <c t="s" r="Q82" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="83" ht="24.75" customHeight="1">
@@ -4113,14 +4128,14 @@
       </c>
       <c r="B83" s="7"/>
       <c t="s" r="C83" s="8">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="D83" s="8"/>
       <c r="E83" s="8"/>
       <c r="F83" s="8"/>
       <c r="G83" s="8"/>
       <c t="s" r="H83" s="9">
-        <v>223</v>
+        <v>34</v>
       </c>
       <c r="I83" s="9"/>
       <c r="J83" s="9"/>
@@ -4130,11 +4145,11 @@
       </c>
       <c r="M83" s="10"/>
       <c t="s" r="N83" s="8">
-        <v>228</v>
+        <v>43</v>
       </c>
       <c r="O83" s="8"/>
       <c t="s" r="P83" s="11">
-        <v>181</v>
+        <v>44</v>
       </c>
       <c t="s" r="Q83" s="12">
         <v>16</v>
@@ -4146,14 +4161,14 @@
       </c>
       <c r="B84" s="7"/>
       <c t="s" r="C84" s="8">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="D84" s="8"/>
       <c r="E84" s="8"/>
       <c r="F84" s="8"/>
       <c r="G84" s="8"/>
       <c t="s" r="H84" s="9">
-        <v>223</v>
+        <v>226</v>
       </c>
       <c r="I84" s="9"/>
       <c r="J84" s="9"/>
@@ -4163,14 +4178,14 @@
       </c>
       <c r="M84" s="10"/>
       <c t="s" r="N84" s="8">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="O84" s="8"/>
       <c t="s" r="P84" s="11">
-        <v>231</v>
+        <v>184</v>
       </c>
       <c t="s" r="Q84" s="12">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="85" ht="24.75" customHeight="1">
@@ -4186,7 +4201,7 @@
       <c r="F85" s="8"/>
       <c r="G85" s="8"/>
       <c t="s" r="H85" s="9">
-        <v>16</v>
+        <v>226</v>
       </c>
       <c r="I85" s="9"/>
       <c r="J85" s="9"/>
@@ -4196,14 +4211,14 @@
       </c>
       <c r="M85" s="10"/>
       <c t="s" r="N85" s="8">
-        <v>139</v>
+        <v>233</v>
       </c>
       <c r="O85" s="8"/>
       <c t="s" r="P85" s="11">
-        <v>140</v>
+        <v>234</v>
       </c>
       <c t="s" r="Q85" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="86" ht="25.5" customHeight="1">
@@ -4212,14 +4227,14 @@
       </c>
       <c r="B86" s="7"/>
       <c t="s" r="C86" s="8">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="D86" s="8"/>
       <c r="E86" s="8"/>
       <c r="F86" s="8"/>
       <c r="G86" s="8"/>
       <c t="s" r="H86" s="9">
-        <v>46</v>
+        <v>16</v>
       </c>
       <c r="I86" s="9"/>
       <c r="J86" s="9"/>
@@ -4229,14 +4244,14 @@
       </c>
       <c r="M86" s="10"/>
       <c t="s" r="N86" s="8">
-        <v>234</v>
+        <v>142</v>
       </c>
       <c r="O86" s="8"/>
       <c t="s" r="P86" s="11">
-        <v>235</v>
+        <v>143</v>
       </c>
       <c t="s" r="Q86" s="12">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="87" ht="25.5" customHeight="1">
@@ -4252,7 +4267,7 @@
       <c r="F87" s="8"/>
       <c r="G87" s="8"/>
       <c t="s" r="H87" s="9">
-        <v>31</v>
+        <v>49</v>
       </c>
       <c r="I87" s="9"/>
       <c r="J87" s="9"/>
@@ -4262,14 +4277,14 @@
       </c>
       <c r="M87" s="10"/>
       <c t="s" r="N87" s="8">
-        <v>228</v>
+        <v>237</v>
       </c>
       <c r="O87" s="8"/>
       <c t="s" r="P87" s="11">
-        <v>181</v>
+        <v>238</v>
       </c>
       <c t="s" r="Q87" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="88" ht="24.75" customHeight="1">
@@ -4278,14 +4293,14 @@
       </c>
       <c r="B88" s="7"/>
       <c t="s" r="C88" s="8">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="D88" s="8"/>
       <c r="E88" s="8"/>
       <c r="F88" s="8"/>
       <c r="G88" s="8"/>
       <c t="s" r="H88" s="9">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="I88" s="9"/>
       <c r="J88" s="9"/>
@@ -4295,11 +4310,11 @@
       </c>
       <c r="M88" s="10"/>
       <c t="s" r="N88" s="8">
-        <v>238</v>
+        <v>231</v>
       </c>
       <c r="O88" s="8"/>
       <c t="s" r="P88" s="11">
-        <v>239</v>
+        <v>184</v>
       </c>
       <c t="s" r="Q88" s="12">
         <v>16</v>
@@ -4318,7 +4333,7 @@
       <c r="F89" s="8"/>
       <c r="G89" s="8"/>
       <c t="s" r="H89" s="9">
-        <v>22</v>
+        <v>34</v>
       </c>
       <c r="I89" s="9"/>
       <c r="J89" s="9"/>
@@ -4328,14 +4343,14 @@
       </c>
       <c r="M89" s="10"/>
       <c t="s" r="N89" s="8">
-        <v>133</v>
+        <v>241</v>
       </c>
       <c r="O89" s="8"/>
       <c t="s" r="P89" s="11">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c t="s" r="Q89" s="12">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="90" ht="24.75" customHeight="1">
@@ -4344,7 +4359,7 @@
       </c>
       <c r="B90" s="7"/>
       <c t="s" r="C90" s="8">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="D90" s="8"/>
       <c r="E90" s="8"/>
@@ -4365,10 +4380,10 @@
       </c>
       <c r="O90" s="8"/>
       <c t="s" r="P90" s="11">
-        <v>37</v>
+        <v>244</v>
       </c>
       <c t="s" r="Q90" s="12">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="91" ht="25.5" customHeight="1">
@@ -4377,14 +4392,14 @@
       </c>
       <c r="B91" s="7"/>
       <c t="s" r="C91" s="8">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="D91" s="8"/>
       <c r="E91" s="8"/>
       <c r="F91" s="8"/>
       <c r="G91" s="8"/>
       <c t="s" r="H91" s="9">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="I91" s="9"/>
       <c r="J91" s="9"/>
@@ -4394,14 +4409,14 @@
       </c>
       <c r="M91" s="10"/>
       <c t="s" r="N91" s="8">
-        <v>244</v>
+        <v>139</v>
       </c>
       <c r="O91" s="8"/>
       <c t="s" r="P91" s="11">
-        <v>245</v>
+        <v>40</v>
       </c>
       <c t="s" r="Q91" s="12">
-        <v>31</v>
+        <v>22</v>
       </c>
     </row>
     <row r="92" ht="25.5" customHeight="1">
@@ -4417,7 +4432,7 @@
       <c r="F92" s="8"/>
       <c r="G92" s="8"/>
       <c t="s" r="H92" s="9">
-        <v>46</v>
+        <v>20</v>
       </c>
       <c r="I92" s="9"/>
       <c r="J92" s="9"/>
@@ -4427,14 +4442,14 @@
       </c>
       <c r="M92" s="10"/>
       <c t="s" r="N92" s="8">
-        <v>136</v>
+        <v>247</v>
       </c>
       <c r="O92" s="8"/>
       <c t="s" r="P92" s="11">
-        <v>137</v>
+        <v>248</v>
       </c>
       <c t="s" r="Q92" s="12">
-        <v>20</v>
+        <v>34</v>
       </c>
     </row>
     <row r="93" ht="24.75" customHeight="1">
@@ -4443,14 +4458,14 @@
       </c>
       <c r="B93" s="7"/>
       <c t="s" r="C93" s="8">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="D93" s="8"/>
       <c r="E93" s="8"/>
       <c r="F93" s="8"/>
       <c r="G93" s="8"/>
       <c t="s" r="H93" s="9">
-        <v>29</v>
+        <v>49</v>
       </c>
       <c r="I93" s="9"/>
       <c r="J93" s="9"/>
@@ -4460,14 +4475,14 @@
       </c>
       <c r="M93" s="10"/>
       <c t="s" r="N93" s="8">
-        <v>248</v>
+        <v>139</v>
       </c>
       <c r="O93" s="8"/>
       <c t="s" r="P93" s="11">
-        <v>249</v>
+        <v>140</v>
       </c>
       <c t="s" r="Q93" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="94" ht="25.5" customHeight="1">
@@ -4483,7 +4498,7 @@
       <c r="F94" s="8"/>
       <c r="G94" s="8"/>
       <c t="s" r="H94" s="9">
-        <v>46</v>
+        <v>32</v>
       </c>
       <c r="I94" s="9"/>
       <c r="J94" s="9"/>
@@ -4493,11 +4508,11 @@
       </c>
       <c r="M94" s="10"/>
       <c t="s" r="N94" s="8">
-        <v>89</v>
+        <v>251</v>
       </c>
       <c r="O94" s="8"/>
       <c t="s" r="P94" s="11">
-        <v>162</v>
+        <v>252</v>
       </c>
       <c t="s" r="Q94" s="12">
         <v>16</v>
@@ -4509,14 +4524,14 @@
       </c>
       <c r="B95" s="7"/>
       <c t="s" r="C95" s="8">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="D95" s="8"/>
       <c r="E95" s="8"/>
       <c r="F95" s="8"/>
       <c r="G95" s="8"/>
       <c t="s" r="H95" s="9">
-        <v>101</v>
+        <v>49</v>
       </c>
       <c r="I95" s="9"/>
       <c r="J95" s="9"/>
@@ -4526,14 +4541,14 @@
       </c>
       <c r="M95" s="10"/>
       <c t="s" r="N95" s="8">
-        <v>252</v>
+        <v>92</v>
       </c>
       <c r="O95" s="8"/>
       <c t="s" r="P95" s="11">
-        <v>253</v>
+        <v>165</v>
       </c>
       <c t="s" r="Q95" s="12">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="96" ht="25.5" customHeight="1">
@@ -4549,7 +4564,7 @@
       <c r="F96" s="8"/>
       <c r="G96" s="8"/>
       <c t="s" r="H96" s="9">
-        <v>46</v>
+        <v>104</v>
       </c>
       <c r="I96" s="9"/>
       <c r="J96" s="9"/>
@@ -4563,7 +4578,7 @@
       </c>
       <c r="O96" s="8"/>
       <c t="s" r="P96" s="11">
-        <v>181</v>
+        <v>256</v>
       </c>
       <c t="s" r="Q96" s="12">
         <v>20</v>
@@ -4575,14 +4590,14 @@
       </c>
       <c r="B97" s="7"/>
       <c t="s" r="C97" s="8">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="D97" s="8"/>
       <c r="E97" s="8"/>
       <c r="F97" s="8"/>
       <c r="G97" s="8"/>
       <c t="s" r="H97" s="9">
-        <v>119</v>
+        <v>49</v>
       </c>
       <c r="I97" s="9"/>
       <c r="J97" s="9"/>
@@ -4592,14 +4607,14 @@
       </c>
       <c r="M97" s="10"/>
       <c t="s" r="N97" s="8">
-        <v>139</v>
+        <v>258</v>
       </c>
       <c r="O97" s="8"/>
       <c t="s" r="P97" s="11">
-        <v>257</v>
+        <v>184</v>
       </c>
       <c t="s" r="Q97" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="98" ht="24.75" customHeight="1">
@@ -4608,14 +4623,14 @@
       </c>
       <c r="B98" s="7"/>
       <c t="s" r="C98" s="8">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="D98" s="8"/>
       <c r="E98" s="8"/>
       <c r="F98" s="8"/>
       <c r="G98" s="8"/>
       <c t="s" r="H98" s="9">
-        <v>20</v>
+        <v>122</v>
       </c>
       <c r="I98" s="9"/>
       <c r="J98" s="9"/>
@@ -4625,11 +4640,11 @@
       </c>
       <c r="M98" s="10"/>
       <c t="s" r="N98" s="8">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="O98" s="8"/>
       <c t="s" r="P98" s="11">
-        <v>140</v>
+        <v>260</v>
       </c>
       <c t="s" r="Q98" s="12">
         <v>16</v>
@@ -4641,14 +4656,14 @@
       </c>
       <c r="B99" s="7"/>
       <c t="s" r="C99" s="8">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c r="D99" s="8"/>
       <c r="E99" s="8"/>
       <c r="F99" s="8"/>
       <c r="G99" s="8"/>
       <c t="s" r="H99" s="9">
-        <v>46</v>
+        <v>20</v>
       </c>
       <c r="I99" s="9"/>
       <c r="J99" s="9"/>
@@ -4658,14 +4673,14 @@
       </c>
       <c r="M99" s="10"/>
       <c t="s" r="N99" s="8">
-        <v>260</v>
+        <v>142</v>
       </c>
       <c r="O99" s="8"/>
       <c t="s" r="P99" s="11">
-        <v>261</v>
+        <v>143</v>
       </c>
       <c t="s" r="Q99" s="12">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="100" ht="24.75" customHeight="1">
@@ -4681,7 +4696,7 @@
       <c r="F100" s="8"/>
       <c r="G100" s="8"/>
       <c t="s" r="H100" s="9">
-        <v>29</v>
+        <v>49</v>
       </c>
       <c r="I100" s="9"/>
       <c r="J100" s="9"/>
@@ -4698,7 +4713,7 @@
         <v>264</v>
       </c>
       <c t="s" r="Q100" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="101" ht="25.5" customHeight="1">
@@ -4714,7 +4729,7 @@
       <c r="F101" s="8"/>
       <c r="G101" s="8"/>
       <c t="s" r="H101" s="9">
-        <v>16</v>
+        <v>32</v>
       </c>
       <c r="I101" s="9"/>
       <c r="J101" s="9"/>
@@ -4728,7 +4743,7 @@
       </c>
       <c r="O101" s="8"/>
       <c t="s" r="P101" s="11">
-        <v>206</v>
+        <v>267</v>
       </c>
       <c t="s" r="Q101" s="12">
         <v>16</v>
@@ -4740,14 +4755,14 @@
       </c>
       <c r="B102" s="7"/>
       <c t="s" r="C102" s="8">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="D102" s="8"/>
       <c r="E102" s="8"/>
       <c r="F102" s="8"/>
       <c r="G102" s="8"/>
       <c t="s" r="H102" s="9">
-        <v>268</v>
+        <v>16</v>
       </c>
       <c r="I102" s="9"/>
       <c r="J102" s="9"/>
@@ -4761,10 +4776,10 @@
       </c>
       <c r="O102" s="8"/>
       <c t="s" r="P102" s="11">
-        <v>270</v>
+        <v>209</v>
       </c>
       <c t="s" r="Q102" s="12">
-        <v>22</v>
+        <v>16</v>
       </c>
     </row>
     <row r="103" ht="24.75" customHeight="1">
@@ -4773,20 +4788,20 @@
       </c>
       <c r="B103" s="7"/>
       <c t="s" r="C103" s="8">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="D103" s="8"/>
       <c r="E103" s="8"/>
       <c r="F103" s="8"/>
       <c r="G103" s="8"/>
       <c t="s" r="H103" s="9">
-        <v>20</v>
+        <v>271</v>
       </c>
       <c r="I103" s="9"/>
       <c r="J103" s="9"/>
       <c r="K103" s="9"/>
       <c t="s" r="L103" s="10">
-        <v>184</v>
+        <v>13</v>
       </c>
       <c r="M103" s="10"/>
       <c t="s" r="N103" s="8">
@@ -4797,7 +4812,7 @@
         <v>273</v>
       </c>
       <c t="s" r="Q103" s="12">
-        <v>20</v>
+        <v>22</v>
       </c>
     </row>
     <row r="104" ht="25.5" customHeight="1">
@@ -4813,24 +4828,24 @@
       <c r="F104" s="8"/>
       <c r="G104" s="8"/>
       <c t="s" r="H104" s="9">
-        <v>275</v>
+        <v>49</v>
       </c>
       <c r="I104" s="9"/>
       <c r="J104" s="9"/>
       <c r="K104" s="9"/>
       <c t="s" r="L104" s="10">
-        <v>184</v>
+        <v>13</v>
       </c>
       <c r="M104" s="10"/>
       <c t="s" r="N104" s="8">
-        <v>276</v>
+        <v>79</v>
       </c>
       <c r="O104" s="8"/>
       <c t="s" r="P104" s="11">
-        <v>193</v>
+        <v>275</v>
       </c>
       <c t="s" r="Q104" s="12">
-        <v>39</v>
+        <v>20</v>
       </c>
     </row>
     <row r="105" ht="24.75" customHeight="1">
@@ -4839,28 +4854,28 @@
       </c>
       <c r="B105" s="7"/>
       <c t="s" r="C105" s="8">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="D105" s="8"/>
       <c r="E105" s="8"/>
       <c r="F105" s="8"/>
       <c r="G105" s="8"/>
       <c t="s" r="H105" s="9">
-        <v>39</v>
+        <v>20</v>
       </c>
       <c r="I105" s="9"/>
       <c r="J105" s="9"/>
       <c r="K105" s="9"/>
       <c t="s" r="L105" s="10">
-        <v>184</v>
+        <v>187</v>
       </c>
       <c r="M105" s="10"/>
       <c t="s" r="N105" s="8">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="O105" s="8"/>
       <c t="s" r="P105" s="11">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c t="s" r="Q105" s="12">
         <v>20</v>
@@ -4872,20 +4887,20 @@
       </c>
       <c r="B106" s="7"/>
       <c t="s" r="C106" s="8">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="D106" s="8"/>
       <c r="E106" s="8"/>
       <c r="F106" s="8"/>
       <c r="G106" s="8"/>
       <c t="s" r="H106" s="9">
-        <v>46</v>
+        <v>280</v>
       </c>
       <c r="I106" s="9"/>
       <c r="J106" s="9"/>
       <c r="K106" s="9"/>
       <c t="s" r="L106" s="10">
-        <v>184</v>
+        <v>187</v>
       </c>
       <c r="M106" s="10"/>
       <c t="s" r="N106" s="8">
@@ -4893,10 +4908,10 @@
       </c>
       <c r="O106" s="8"/>
       <c t="s" r="P106" s="11">
-        <v>282</v>
+        <v>196</v>
       </c>
       <c t="s" r="Q106" s="12">
-        <v>22</v>
+        <v>42</v>
       </c>
     </row>
     <row r="107" ht="25.5" customHeight="1">
@@ -4905,28 +4920,28 @@
       </c>
       <c r="B107" s="7"/>
       <c t="s" r="C107" s="8">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="D107" s="8"/>
       <c r="E107" s="8"/>
       <c r="F107" s="8"/>
       <c r="G107" s="8"/>
       <c t="s" r="H107" s="9">
-        <v>20</v>
+        <v>42</v>
       </c>
       <c r="I107" s="9"/>
       <c r="J107" s="9"/>
       <c r="K107" s="9"/>
       <c t="s" r="L107" s="10">
-        <v>184</v>
+        <v>187</v>
       </c>
       <c r="M107" s="10"/>
       <c t="s" r="N107" s="8">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="O107" s="8"/>
       <c t="s" r="P107" s="11">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c t="s" r="Q107" s="12">
         <v>20</v>
@@ -4938,28 +4953,28 @@
       </c>
       <c r="B108" s="7"/>
       <c t="s" r="C108" s="8">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="D108" s="8"/>
       <c r="E108" s="8"/>
       <c r="F108" s="8"/>
       <c r="G108" s="8"/>
       <c t="s" r="H108" s="9">
-        <v>287</v>
+        <v>49</v>
       </c>
       <c r="I108" s="9"/>
       <c r="J108" s="9"/>
       <c r="K108" s="9"/>
       <c t="s" r="L108" s="10">
-        <v>184</v>
+        <v>187</v>
       </c>
       <c r="M108" s="10"/>
       <c t="s" r="N108" s="8">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="O108" s="8"/>
       <c t="s" r="P108" s="11">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c t="s" r="Q108" s="12">
         <v>22</v>
@@ -4971,31 +4986,31 @@
       </c>
       <c r="B109" s="7"/>
       <c t="s" r="C109" s="8">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="D109" s="8"/>
       <c r="E109" s="8"/>
       <c r="F109" s="8"/>
       <c r="G109" s="8"/>
       <c t="s" r="H109" s="9">
-        <v>46</v>
+        <v>20</v>
       </c>
       <c r="I109" s="9"/>
       <c r="J109" s="9"/>
       <c r="K109" s="9"/>
       <c t="s" r="L109" s="10">
-        <v>184</v>
+        <v>187</v>
       </c>
       <c r="M109" s="10"/>
       <c t="s" r="N109" s="8">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="O109" s="8"/>
       <c t="s" r="P109" s="11">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c t="s" r="Q109" s="12">
-        <v>293</v>
+        <v>20</v>
       </c>
     </row>
     <row r="110" ht="24.75" customHeight="1">
@@ -5004,31 +5019,31 @@
       </c>
       <c r="B110" s="7"/>
       <c t="s" r="C110" s="8">
-        <v>294</v>
+        <v>291</v>
       </c>
       <c r="D110" s="8"/>
       <c r="E110" s="8"/>
       <c r="F110" s="8"/>
       <c r="G110" s="8"/>
       <c t="s" r="H110" s="9">
-        <v>46</v>
+        <v>292</v>
       </c>
       <c r="I110" s="9"/>
       <c r="J110" s="9"/>
       <c r="K110" s="9"/>
       <c t="s" r="L110" s="10">
-        <v>184</v>
+        <v>187</v>
       </c>
       <c r="M110" s="10"/>
       <c t="s" r="N110" s="8">
-        <v>269</v>
+        <v>293</v>
       </c>
       <c r="O110" s="8"/>
       <c t="s" r="P110" s="11">
-        <v>241</v>
+        <v>294</v>
       </c>
       <c t="s" r="Q110" s="12">
-        <v>295</v>
+        <v>22</v>
       </c>
     </row>
     <row r="111" ht="25.5" customHeight="1">
@@ -5037,31 +5052,31 @@
       </c>
       <c r="B111" s="7"/>
       <c t="s" r="C111" s="8">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="D111" s="8"/>
       <c r="E111" s="8"/>
       <c r="F111" s="8"/>
       <c r="G111" s="8"/>
       <c t="s" r="H111" s="9">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="I111" s="9"/>
       <c r="J111" s="9"/>
       <c r="K111" s="9"/>
       <c t="s" r="L111" s="10">
-        <v>184</v>
+        <v>187</v>
       </c>
       <c r="M111" s="10"/>
       <c t="s" r="N111" s="8">
-        <v>281</v>
+        <v>296</v>
       </c>
       <c r="O111" s="8"/>
       <c t="s" r="P111" s="11">
-        <v>282</v>
+        <v>297</v>
       </c>
       <c t="s" r="Q111" s="12">
-        <v>22</v>
+        <v>298</v>
       </c>
     </row>
     <row r="112" ht="25.5" customHeight="1">
@@ -5070,31 +5085,31 @@
       </c>
       <c r="B112" s="7"/>
       <c t="s" r="C112" s="8">
-        <v>297</v>
+        <v>299</v>
       </c>
       <c r="D112" s="8"/>
       <c r="E112" s="8"/>
       <c r="F112" s="8"/>
       <c r="G112" s="8"/>
       <c t="s" r="H112" s="9">
-        <v>22</v>
+        <v>49</v>
       </c>
       <c r="I112" s="9"/>
       <c r="J112" s="9"/>
       <c r="K112" s="9"/>
       <c t="s" r="L112" s="10">
-        <v>184</v>
+        <v>187</v>
       </c>
       <c r="M112" s="10"/>
       <c t="s" r="N112" s="8">
-        <v>284</v>
+        <v>272</v>
       </c>
       <c r="O112" s="8"/>
       <c t="s" r="P112" s="11">
-        <v>285</v>
+        <v>244</v>
       </c>
       <c t="s" r="Q112" s="12">
-        <v>20</v>
+        <v>300</v>
       </c>
     </row>
     <row r="113" ht="24.75" customHeight="1">
@@ -5103,31 +5118,31 @@
       </c>
       <c r="B113" s="7"/>
       <c t="s" r="C113" s="8">
-        <v>298</v>
+        <v>301</v>
       </c>
       <c r="D113" s="8"/>
       <c r="E113" s="8"/>
       <c r="F113" s="8"/>
       <c r="G113" s="8"/>
       <c t="s" r="H113" s="9">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="I113" s="9"/>
       <c r="J113" s="9"/>
       <c r="K113" s="9"/>
       <c t="s" r="L113" s="10">
-        <v>184</v>
+        <v>187</v>
       </c>
       <c r="M113" s="10"/>
       <c t="s" r="N113" s="8">
-        <v>276</v>
+        <v>286</v>
       </c>
       <c r="O113" s="8"/>
       <c t="s" r="P113" s="11">
-        <v>299</v>
+        <v>287</v>
       </c>
       <c t="s" r="Q113" s="12">
-        <v>20</v>
+        <v>22</v>
       </c>
     </row>
     <row r="114" ht="25.5" customHeight="1">
@@ -5136,28 +5151,28 @@
       </c>
       <c r="B114" s="7"/>
       <c t="s" r="C114" s="8">
-        <v>300</v>
+        <v>302</v>
       </c>
       <c r="D114" s="8"/>
       <c r="E114" s="8"/>
       <c r="F114" s="8"/>
       <c r="G114" s="8"/>
       <c t="s" r="H114" s="9">
-        <v>301</v>
+        <v>22</v>
       </c>
       <c r="I114" s="9"/>
       <c r="J114" s="9"/>
       <c r="K114" s="9"/>
       <c t="s" r="L114" s="10">
-        <v>184</v>
+        <v>187</v>
       </c>
       <c r="M114" s="10"/>
       <c t="s" r="N114" s="8">
-        <v>302</v>
+        <v>289</v>
       </c>
       <c r="O114" s="8"/>
       <c t="s" r="P114" s="11">
-        <v>303</v>
+        <v>290</v>
       </c>
       <c t="s" r="Q114" s="12">
         <v>20</v>
@@ -5169,28 +5184,28 @@
       </c>
       <c r="B115" s="7"/>
       <c t="s" r="C115" s="8">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="D115" s="8"/>
       <c r="E115" s="8"/>
       <c r="F115" s="8"/>
       <c r="G115" s="8"/>
       <c t="s" r="H115" s="9">
-        <v>39</v>
+        <v>49</v>
       </c>
       <c r="I115" s="9"/>
       <c r="J115" s="9"/>
       <c r="K115" s="9"/>
       <c t="s" r="L115" s="10">
-        <v>184</v>
+        <v>187</v>
       </c>
       <c r="M115" s="10"/>
       <c t="s" r="N115" s="8">
-        <v>305</v>
+        <v>281</v>
       </c>
       <c r="O115" s="8"/>
       <c t="s" r="P115" s="11">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c t="s" r="Q115" s="12">
         <v>20</v>
@@ -5202,31 +5217,31 @@
       </c>
       <c r="B116" s="7"/>
       <c t="s" r="C116" s="8">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="D116" s="8"/>
       <c r="E116" s="8"/>
       <c r="F116" s="8"/>
       <c r="G116" s="8"/>
       <c t="s" r="H116" s="9">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="I116" s="9"/>
       <c r="J116" s="9"/>
       <c r="K116" s="9"/>
       <c t="s" r="L116" s="10">
-        <v>184</v>
+        <v>187</v>
       </c>
       <c r="M116" s="10"/>
       <c t="s" r="N116" s="8">
-        <v>284</v>
+        <v>307</v>
       </c>
       <c r="O116" s="8"/>
       <c t="s" r="P116" s="11">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c t="s" r="Q116" s="12">
-        <v>88</v>
+        <v>20</v>
       </c>
     </row>
     <row r="117" ht="25.5" customHeight="1">
@@ -5235,28 +5250,28 @@
       </c>
       <c r="B117" s="7"/>
       <c t="s" r="C117" s="8">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="D117" s="8"/>
       <c r="E117" s="8"/>
       <c r="F117" s="8"/>
       <c r="G117" s="8"/>
       <c t="s" r="H117" s="9">
-        <v>293</v>
+        <v>42</v>
       </c>
       <c r="I117" s="9"/>
       <c r="J117" s="9"/>
       <c r="K117" s="9"/>
       <c t="s" r="L117" s="10">
-        <v>184</v>
+        <v>187</v>
       </c>
       <c r="M117" s="10"/>
       <c t="s" r="N117" s="8">
-        <v>198</v>
+        <v>310</v>
       </c>
       <c r="O117" s="8"/>
       <c t="s" r="P117" s="11">
-        <v>199</v>
+        <v>311</v>
       </c>
       <c t="s" r="Q117" s="12">
         <v>20</v>
@@ -5268,31 +5283,31 @@
       </c>
       <c r="B118" s="7"/>
       <c t="s" r="C118" s="8">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="D118" s="8"/>
       <c r="E118" s="8"/>
       <c r="F118" s="8"/>
       <c r="G118" s="8"/>
       <c t="s" r="H118" s="9">
-        <v>46</v>
+        <v>313</v>
       </c>
       <c r="I118" s="9"/>
       <c r="J118" s="9"/>
       <c r="K118" s="9"/>
       <c t="s" r="L118" s="10">
-        <v>184</v>
+        <v>187</v>
       </c>
       <c r="M118" s="10"/>
       <c t="s" r="N118" s="8">
-        <v>278</v>
+        <v>289</v>
       </c>
       <c r="O118" s="8"/>
       <c t="s" r="P118" s="11">
-        <v>299</v>
+        <v>314</v>
       </c>
       <c t="s" r="Q118" s="12">
-        <v>22</v>
+        <v>91</v>
       </c>
     </row>
     <row r="119" ht="25.5" customHeight="1">
@@ -5301,28 +5316,28 @@
       </c>
       <c r="B119" s="7"/>
       <c t="s" r="C119" s="8">
-        <v>312</v>
+        <v>315</v>
       </c>
       <c r="D119" s="8"/>
       <c r="E119" s="8"/>
       <c r="F119" s="8"/>
       <c r="G119" s="8"/>
       <c t="s" r="H119" s="9">
-        <v>20</v>
+        <v>298</v>
       </c>
       <c r="I119" s="9"/>
       <c r="J119" s="9"/>
       <c r="K119" s="9"/>
       <c t="s" r="L119" s="10">
-        <v>184</v>
+        <v>187</v>
       </c>
       <c r="M119" s="10"/>
       <c t="s" r="N119" s="8">
-        <v>313</v>
+        <v>201</v>
       </c>
       <c r="O119" s="8"/>
       <c t="s" r="P119" s="11">
-        <v>314</v>
+        <v>202</v>
       </c>
       <c t="s" r="Q119" s="12">
         <v>20</v>
@@ -5334,31 +5349,31 @@
       </c>
       <c r="B120" s="7"/>
       <c t="s" r="C120" s="8">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="D120" s="8"/>
       <c r="E120" s="8"/>
       <c r="F120" s="8"/>
       <c r="G120" s="8"/>
       <c t="s" r="H120" s="9">
-        <v>287</v>
+        <v>49</v>
       </c>
       <c r="I120" s="9"/>
       <c r="J120" s="9"/>
       <c r="K120" s="9"/>
       <c t="s" r="L120" s="10">
-        <v>184</v>
+        <v>187</v>
       </c>
       <c r="M120" s="10"/>
       <c t="s" r="N120" s="8">
-        <v>133</v>
+        <v>283</v>
       </c>
       <c r="O120" s="8"/>
       <c t="s" r="P120" s="11">
-        <v>241</v>
+        <v>304</v>
       </c>
       <c t="s" r="Q120" s="12">
-        <v>20</v>
+        <v>22</v>
       </c>
     </row>
     <row r="121" ht="25.5" customHeight="1">
@@ -5367,28 +5382,28 @@
       </c>
       <c r="B121" s="7"/>
       <c t="s" r="C121" s="8">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="D121" s="8"/>
       <c r="E121" s="8"/>
       <c r="F121" s="8"/>
       <c r="G121" s="8"/>
       <c t="s" r="H121" s="9">
-        <v>46</v>
+        <v>20</v>
       </c>
       <c r="I121" s="9"/>
       <c r="J121" s="9"/>
       <c r="K121" s="9"/>
       <c t="s" r="L121" s="10">
-        <v>184</v>
+        <v>187</v>
       </c>
       <c r="M121" s="10"/>
       <c t="s" r="N121" s="8">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="O121" s="8"/>
       <c t="s" r="P121" s="11">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c t="s" r="Q121" s="12">
         <v>20</v>
@@ -5400,66 +5415,132 @@
       </c>
       <c r="B122" s="7"/>
       <c t="s" r="C122" s="8">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="D122" s="8"/>
       <c r="E122" s="8"/>
       <c r="F122" s="8"/>
       <c r="G122" s="8"/>
       <c t="s" r="H122" s="9">
-        <v>22</v>
+        <v>292</v>
       </c>
       <c r="I122" s="9"/>
       <c r="J122" s="9"/>
       <c r="K122" s="9"/>
       <c t="s" r="L122" s="10">
-        <v>184</v>
+        <v>187</v>
       </c>
       <c r="M122" s="10"/>
       <c t="s" r="N122" s="8">
-        <v>278</v>
+        <v>136</v>
       </c>
       <c r="O122" s="8"/>
       <c t="s" r="P122" s="11">
-        <v>279</v>
+        <v>244</v>
       </c>
       <c t="s" r="Q122" s="12">
         <v>20</v>
       </c>
     </row>
     <row r="123" ht="24.75" customHeight="1">
-      <c r="P123" s="13">
-        <v>7596.7650000000003</v>
-      </c>
-      <c r="Q123" s="13"/>
-    </row>
-    <row r="124" ht="16.5" customHeight="1">
-      <c t="s" r="A124" s="14">
-        <v>320</v>
-      </c>
-      <c r="B124" s="14"/>
-      <c r="C124" s="14"/>
-      <c r="D124" s="14"/>
-      <c r="E124" s="14"/>
-      <c r="F124" s="14"/>
-      <c t="s" r="G124" s="15">
+      <c r="A123" s="7">
+        <v>117</v>
+      </c>
+      <c r="B123" s="7"/>
+      <c t="s" r="C123" s="8">
         <v>321</v>
       </c>
-      <c r="H124" s="15"/>
-      <c r="I124" s="15"/>
-      <c r="J124" s="16"/>
-      <c t="s" r="K124" s="17">
+      <c r="D123" s="8"/>
+      <c r="E123" s="8"/>
+      <c r="F123" s="8"/>
+      <c r="G123" s="8"/>
+      <c t="s" r="H123" s="9">
+        <v>49</v>
+      </c>
+      <c r="I123" s="9"/>
+      <c r="J123" s="9"/>
+      <c r="K123" s="9"/>
+      <c t="s" r="L123" s="10">
+        <v>187</v>
+      </c>
+      <c r="M123" s="10"/>
+      <c t="s" r="N123" s="8">
         <v>322</v>
       </c>
-      <c r="L124" s="17"/>
-      <c r="M124" s="17"/>
-      <c r="N124" s="17"/>
-      <c r="O124" s="17"/>
-      <c r="P124" s="17"/>
-      <c r="Q124" s="17"/>
+      <c r="O123" s="8"/>
+      <c t="s" r="P123" s="11">
+        <v>323</v>
+      </c>
+      <c t="s" r="Q123" s="12">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="124" ht="25.5" customHeight="1">
+      <c r="A124" s="7">
+        <v>118</v>
+      </c>
+      <c r="B124" s="7"/>
+      <c t="s" r="C124" s="8">
+        <v>324</v>
+      </c>
+      <c r="D124" s="8"/>
+      <c r="E124" s="8"/>
+      <c r="F124" s="8"/>
+      <c r="G124" s="8"/>
+      <c t="s" r="H124" s="9">
+        <v>22</v>
+      </c>
+      <c r="I124" s="9"/>
+      <c r="J124" s="9"/>
+      <c r="K124" s="9"/>
+      <c t="s" r="L124" s="10">
+        <v>187</v>
+      </c>
+      <c r="M124" s="10"/>
+      <c t="s" r="N124" s="8">
+        <v>283</v>
+      </c>
+      <c r="O124" s="8"/>
+      <c t="s" r="P124" s="11">
+        <v>284</v>
+      </c>
+      <c t="s" r="Q124" s="12">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="125" ht="24.75" customHeight="1">
+      <c r="P125" s="13">
+        <v>7738.3950000000004</v>
+      </c>
+      <c r="Q125" s="13"/>
+    </row>
+    <row r="126" ht="16.5" customHeight="1">
+      <c t="s" r="A126" s="14">
+        <v>325</v>
+      </c>
+      <c r="B126" s="14"/>
+      <c r="C126" s="14"/>
+      <c r="D126" s="14"/>
+      <c r="E126" s="14"/>
+      <c r="F126" s="14"/>
+      <c t="s" r="G126" s="15">
+        <v>326</v>
+      </c>
+      <c r="H126" s="15"/>
+      <c r="I126" s="15"/>
+      <c r="J126" s="16"/>
+      <c t="s" r="K126" s="17">
+        <v>327</v>
+      </c>
+      <c r="L126" s="17"/>
+      <c r="M126" s="17"/>
+      <c r="N126" s="17"/>
+      <c r="O126" s="17"/>
+      <c r="P126" s="17"/>
+      <c r="Q126" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="592">
+  <mergeCells count="602">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -6048,10 +6129,20 @@
     <mergeCell ref="H122:K122"/>
     <mergeCell ref="L122:M122"/>
     <mergeCell ref="N122:O122"/>
-    <mergeCell ref="P123:Q123"/>
-    <mergeCell ref="A124:F124"/>
-    <mergeCell ref="G124:I124"/>
-    <mergeCell ref="K124:Q124"/>
+    <mergeCell ref="A123:B123"/>
+    <mergeCell ref="C123:G123"/>
+    <mergeCell ref="H123:K123"/>
+    <mergeCell ref="L123:M123"/>
+    <mergeCell ref="N123:O123"/>
+    <mergeCell ref="A124:B124"/>
+    <mergeCell ref="C124:G124"/>
+    <mergeCell ref="H124:K124"/>
+    <mergeCell ref="L124:M124"/>
+    <mergeCell ref="N124:O124"/>
+    <mergeCell ref="P125:Q125"/>
+    <mergeCell ref="A126:F126"/>
+    <mergeCell ref="G126:I126"/>
+    <mergeCell ref="K126:Q126"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-08-08_00-00.xlsx
+++ b/DaySale_2025-08-08_00-00.xlsx
@@ -986,7 +986,7 @@
     <t>مناديل بكر فاين</t>
   </si>
   <si>
-    <t>Friday, 8 August, 2025 10:28 PM</t>
+    <t>Friday, 8 August, 2025 10:44 PM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-08-08_00-00.xlsx
+++ b/DaySale_2025-08-08_00-00.xlsx
@@ -972,6 +972,9 @@
   </si>
   <si>
     <t>محلول ملح</t>
+  </si>
+  <si>
+    <t>72.0000</t>
   </si>
   <si>
     <t>معجون سيجنال بالفحم</t>
@@ -5422,7 +5425,7 @@
       <c r="F122" s="8"/>
       <c r="G122" s="8"/>
       <c t="s" r="H122" s="9">
-        <v>292</v>
+        <v>298</v>
       </c>
       <c r="I122" s="9"/>
       <c r="J122" s="9"/>
@@ -5436,10 +5439,10 @@
       </c>
       <c r="O122" s="8"/>
       <c t="s" r="P122" s="11">
-        <v>244</v>
+        <v>321</v>
       </c>
       <c t="s" r="Q122" s="12">
-        <v>20</v>
+        <v>42</v>
       </c>
     </row>
     <row r="123" ht="24.75" customHeight="1">
@@ -5448,7 +5451,7 @@
       </c>
       <c r="B123" s="7"/>
       <c t="s" r="C123" s="8">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="D123" s="8"/>
       <c r="E123" s="8"/>
@@ -5465,11 +5468,11 @@
       </c>
       <c r="M123" s="10"/>
       <c t="s" r="N123" s="8">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="O123" s="8"/>
       <c t="s" r="P123" s="11">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c t="s" r="Q123" s="12">
         <v>20</v>
@@ -5481,7 +5484,7 @@
       </c>
       <c r="B124" s="7"/>
       <c t="s" r="C124" s="8">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="D124" s="8"/>
       <c r="E124" s="8"/>
@@ -5510,13 +5513,13 @@
     </row>
     <row r="125" ht="24.75" customHeight="1">
       <c r="P125" s="13">
-        <v>7738.3950000000004</v>
+        <v>7786.3950000000004</v>
       </c>
       <c r="Q125" s="13"/>
     </row>
     <row r="126" ht="16.5" customHeight="1">
       <c t="s" r="A126" s="14">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="B126" s="14"/>
       <c r="C126" s="14"/>
@@ -5524,13 +5527,13 @@
       <c r="E126" s="14"/>
       <c r="F126" s="14"/>
       <c t="s" r="G126" s="15">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="H126" s="15"/>
       <c r="I126" s="15"/>
       <c r="J126" s="16"/>
       <c t="s" r="K126" s="17">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="L126" s="17"/>
       <c r="M126" s="17"/>

--- a/DaySale_2025-08-08_00-00.xlsx
+++ b/DaySale_2025-08-08_00-00.xlsx
@@ -989,7 +989,7 @@
     <t>مناديل بكر فاين</t>
   </si>
   <si>
-    <t>Friday, 8 August, 2025 10:44 PM</t>
+    <t>Friday, 8 August, 2025 11:01 PM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-08-08_00-00.xlsx
+++ b/DaySale_2025-08-08_00-00.xlsx
@@ -989,7 +989,7 @@
     <t>مناديل بكر فاين</t>
   </si>
   <si>
-    <t>Friday, 8 August, 2025 11:01 PM</t>
+    <t>Friday, 8 August, 2025 11:02 PM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-08-08_00-00.xlsx
+++ b/DaySale_2025-08-08_00-00.xlsx
@@ -731,6 +731,9 @@
     <t>TRIACTIN 4MG 20 TAB</t>
   </si>
   <si>
+    <t>69.0000</t>
+  </si>
+  <si>
     <t>TRITONE 100MG 30 TAB</t>
   </si>
   <si>
@@ -989,7 +992,7 @@
     <t>مناديل بكر فاين</t>
   </si>
   <si>
-    <t>Friday, 8 August, 2025 11:02 PM</t>
+    <t>Friday, 8 August, 2025 11:06 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -4303,7 +4306,7 @@
       <c r="F88" s="8"/>
       <c r="G88" s="8"/>
       <c t="s" r="H88" s="9">
-        <v>34</v>
+        <v>16</v>
       </c>
       <c r="I88" s="9"/>
       <c r="J88" s="9"/>
@@ -4317,10 +4320,10 @@
       </c>
       <c r="O88" s="8"/>
       <c t="s" r="P88" s="11">
-        <v>184</v>
+        <v>240</v>
       </c>
       <c t="s" r="Q88" s="12">
-        <v>16</v>
+        <v>34</v>
       </c>
     </row>
     <row r="89" ht="25.5" customHeight="1">
@@ -4329,7 +4332,7 @@
       </c>
       <c r="B89" s="7"/>
       <c t="s" r="C89" s="8">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="D89" s="8"/>
       <c r="E89" s="8"/>
@@ -4346,11 +4349,11 @@
       </c>
       <c r="M89" s="10"/>
       <c t="s" r="N89" s="8">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="O89" s="8"/>
       <c t="s" r="P89" s="11">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c t="s" r="Q89" s="12">
         <v>16</v>
@@ -4362,7 +4365,7 @@
       </c>
       <c r="B90" s="7"/>
       <c t="s" r="C90" s="8">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="D90" s="8"/>
       <c r="E90" s="8"/>
@@ -4383,7 +4386,7 @@
       </c>
       <c r="O90" s="8"/>
       <c t="s" r="P90" s="11">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c t="s" r="Q90" s="12">
         <v>20</v>
@@ -4395,7 +4398,7 @@
       </c>
       <c r="B91" s="7"/>
       <c t="s" r="C91" s="8">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="D91" s="8"/>
       <c r="E91" s="8"/>
@@ -4428,7 +4431,7 @@
       </c>
       <c r="B92" s="7"/>
       <c t="s" r="C92" s="8">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="D92" s="8"/>
       <c r="E92" s="8"/>
@@ -4445,11 +4448,11 @@
       </c>
       <c r="M92" s="10"/>
       <c t="s" r="N92" s="8">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="O92" s="8"/>
       <c t="s" r="P92" s="11">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c t="s" r="Q92" s="12">
         <v>34</v>
@@ -4461,7 +4464,7 @@
       </c>
       <c r="B93" s="7"/>
       <c t="s" r="C93" s="8">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="D93" s="8"/>
       <c r="E93" s="8"/>
@@ -4494,7 +4497,7 @@
       </c>
       <c r="B94" s="7"/>
       <c t="s" r="C94" s="8">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="D94" s="8"/>
       <c r="E94" s="8"/>
@@ -4511,11 +4514,11 @@
       </c>
       <c r="M94" s="10"/>
       <c t="s" r="N94" s="8">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="O94" s="8"/>
       <c t="s" r="P94" s="11">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c t="s" r="Q94" s="12">
         <v>16</v>
@@ -4527,7 +4530,7 @@
       </c>
       <c r="B95" s="7"/>
       <c t="s" r="C95" s="8">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="D95" s="8"/>
       <c r="E95" s="8"/>
@@ -4560,7 +4563,7 @@
       </c>
       <c r="B96" s="7"/>
       <c t="s" r="C96" s="8">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="D96" s="8"/>
       <c r="E96" s="8"/>
@@ -4577,11 +4580,11 @@
       </c>
       <c r="M96" s="10"/>
       <c t="s" r="N96" s="8">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="O96" s="8"/>
       <c t="s" r="P96" s="11">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c t="s" r="Q96" s="12">
         <v>20</v>
@@ -4593,7 +4596,7 @@
       </c>
       <c r="B97" s="7"/>
       <c t="s" r="C97" s="8">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="D97" s="8"/>
       <c r="E97" s="8"/>
@@ -4610,7 +4613,7 @@
       </c>
       <c r="M97" s="10"/>
       <c t="s" r="N97" s="8">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="O97" s="8"/>
       <c t="s" r="P97" s="11">
@@ -4626,7 +4629,7 @@
       </c>
       <c r="B98" s="7"/>
       <c t="s" r="C98" s="8">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="D98" s="8"/>
       <c r="E98" s="8"/>
@@ -4647,7 +4650,7 @@
       </c>
       <c r="O98" s="8"/>
       <c t="s" r="P98" s="11">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c t="s" r="Q98" s="12">
         <v>16</v>
@@ -4659,7 +4662,7 @@
       </c>
       <c r="B99" s="7"/>
       <c t="s" r="C99" s="8">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="D99" s="8"/>
       <c r="E99" s="8"/>
@@ -4692,7 +4695,7 @@
       </c>
       <c r="B100" s="7"/>
       <c t="s" r="C100" s="8">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="D100" s="8"/>
       <c r="E100" s="8"/>
@@ -4709,11 +4712,11 @@
       </c>
       <c r="M100" s="10"/>
       <c t="s" r="N100" s="8">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="O100" s="8"/>
       <c t="s" r="P100" s="11">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c t="s" r="Q100" s="12">
         <v>20</v>
@@ -4725,7 +4728,7 @@
       </c>
       <c r="B101" s="7"/>
       <c t="s" r="C101" s="8">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="D101" s="8"/>
       <c r="E101" s="8"/>
@@ -4742,11 +4745,11 @@
       </c>
       <c r="M101" s="10"/>
       <c t="s" r="N101" s="8">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="O101" s="8"/>
       <c t="s" r="P101" s="11">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c t="s" r="Q101" s="12">
         <v>16</v>
@@ -4758,7 +4761,7 @@
       </c>
       <c r="B102" s="7"/>
       <c t="s" r="C102" s="8">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="D102" s="8"/>
       <c r="E102" s="8"/>
@@ -4775,7 +4778,7 @@
       </c>
       <c r="M102" s="10"/>
       <c t="s" r="N102" s="8">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="O102" s="8"/>
       <c t="s" r="P102" s="11">
@@ -4791,14 +4794,14 @@
       </c>
       <c r="B103" s="7"/>
       <c t="s" r="C103" s="8">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="D103" s="8"/>
       <c r="E103" s="8"/>
       <c r="F103" s="8"/>
       <c r="G103" s="8"/>
       <c t="s" r="H103" s="9">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="I103" s="9"/>
       <c r="J103" s="9"/>
@@ -4808,11 +4811,11 @@
       </c>
       <c r="M103" s="10"/>
       <c t="s" r="N103" s="8">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="O103" s="8"/>
       <c t="s" r="P103" s="11">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c t="s" r="Q103" s="12">
         <v>22</v>
@@ -4824,7 +4827,7 @@
       </c>
       <c r="B104" s="7"/>
       <c t="s" r="C104" s="8">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="D104" s="8"/>
       <c r="E104" s="8"/>
@@ -4845,7 +4848,7 @@
       </c>
       <c r="O104" s="8"/>
       <c t="s" r="P104" s="11">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c t="s" r="Q104" s="12">
         <v>20</v>
@@ -4857,7 +4860,7 @@
       </c>
       <c r="B105" s="7"/>
       <c t="s" r="C105" s="8">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="D105" s="8"/>
       <c r="E105" s="8"/>
@@ -4874,11 +4877,11 @@
       </c>
       <c r="M105" s="10"/>
       <c t="s" r="N105" s="8">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="O105" s="8"/>
       <c t="s" r="P105" s="11">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c t="s" r="Q105" s="12">
         <v>20</v>
@@ -4890,14 +4893,14 @@
       </c>
       <c r="B106" s="7"/>
       <c t="s" r="C106" s="8">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="D106" s="8"/>
       <c r="E106" s="8"/>
       <c r="F106" s="8"/>
       <c r="G106" s="8"/>
       <c t="s" r="H106" s="9">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="I106" s="9"/>
       <c r="J106" s="9"/>
@@ -4907,7 +4910,7 @@
       </c>
       <c r="M106" s="10"/>
       <c t="s" r="N106" s="8">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="O106" s="8"/>
       <c t="s" r="P106" s="11">
@@ -4923,7 +4926,7 @@
       </c>
       <c r="B107" s="7"/>
       <c t="s" r="C107" s="8">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="D107" s="8"/>
       <c r="E107" s="8"/>
@@ -4940,11 +4943,11 @@
       </c>
       <c r="M107" s="10"/>
       <c t="s" r="N107" s="8">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="O107" s="8"/>
       <c t="s" r="P107" s="11">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c t="s" r="Q107" s="12">
         <v>20</v>
@@ -4956,7 +4959,7 @@
       </c>
       <c r="B108" s="7"/>
       <c t="s" r="C108" s="8">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="D108" s="8"/>
       <c r="E108" s="8"/>
@@ -4973,11 +4976,11 @@
       </c>
       <c r="M108" s="10"/>
       <c t="s" r="N108" s="8">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="O108" s="8"/>
       <c t="s" r="P108" s="11">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c t="s" r="Q108" s="12">
         <v>22</v>
@@ -4989,7 +4992,7 @@
       </c>
       <c r="B109" s="7"/>
       <c t="s" r="C109" s="8">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="D109" s="8"/>
       <c r="E109" s="8"/>
@@ -5006,11 +5009,11 @@
       </c>
       <c r="M109" s="10"/>
       <c t="s" r="N109" s="8">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="O109" s="8"/>
       <c t="s" r="P109" s="11">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c t="s" r="Q109" s="12">
         <v>20</v>
@@ -5022,14 +5025,14 @@
       </c>
       <c r="B110" s="7"/>
       <c t="s" r="C110" s="8">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="D110" s="8"/>
       <c r="E110" s="8"/>
       <c r="F110" s="8"/>
       <c r="G110" s="8"/>
       <c t="s" r="H110" s="9">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="I110" s="9"/>
       <c r="J110" s="9"/>
@@ -5039,11 +5042,11 @@
       </c>
       <c r="M110" s="10"/>
       <c t="s" r="N110" s="8">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="O110" s="8"/>
       <c t="s" r="P110" s="11">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c t="s" r="Q110" s="12">
         <v>22</v>
@@ -5055,7 +5058,7 @@
       </c>
       <c r="B111" s="7"/>
       <c t="s" r="C111" s="8">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="D111" s="8"/>
       <c r="E111" s="8"/>
@@ -5072,14 +5075,14 @@
       </c>
       <c r="M111" s="10"/>
       <c t="s" r="N111" s="8">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="O111" s="8"/>
       <c t="s" r="P111" s="11">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c t="s" r="Q111" s="12">
-        <v>298</v>
+        <v>299</v>
       </c>
     </row>
     <row r="112" ht="25.5" customHeight="1">
@@ -5088,7 +5091,7 @@
       </c>
       <c r="B112" s="7"/>
       <c t="s" r="C112" s="8">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="D112" s="8"/>
       <c r="E112" s="8"/>
@@ -5105,14 +5108,14 @@
       </c>
       <c r="M112" s="10"/>
       <c t="s" r="N112" s="8">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="O112" s="8"/>
       <c t="s" r="P112" s="11">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c t="s" r="Q112" s="12">
-        <v>300</v>
+        <v>301</v>
       </c>
     </row>
     <row r="113" ht="24.75" customHeight="1">
@@ -5121,7 +5124,7 @@
       </c>
       <c r="B113" s="7"/>
       <c t="s" r="C113" s="8">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="D113" s="8"/>
       <c r="E113" s="8"/>
@@ -5138,11 +5141,11 @@
       </c>
       <c r="M113" s="10"/>
       <c t="s" r="N113" s="8">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="O113" s="8"/>
       <c t="s" r="P113" s="11">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c t="s" r="Q113" s="12">
         <v>22</v>
@@ -5154,7 +5157,7 @@
       </c>
       <c r="B114" s="7"/>
       <c t="s" r="C114" s="8">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="D114" s="8"/>
       <c r="E114" s="8"/>
@@ -5171,11 +5174,11 @@
       </c>
       <c r="M114" s="10"/>
       <c t="s" r="N114" s="8">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="O114" s="8"/>
       <c t="s" r="P114" s="11">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c t="s" r="Q114" s="12">
         <v>20</v>
@@ -5187,7 +5190,7 @@
       </c>
       <c r="B115" s="7"/>
       <c t="s" r="C115" s="8">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="D115" s="8"/>
       <c r="E115" s="8"/>
@@ -5204,11 +5207,11 @@
       </c>
       <c r="M115" s="10"/>
       <c t="s" r="N115" s="8">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="O115" s="8"/>
       <c t="s" r="P115" s="11">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c t="s" r="Q115" s="12">
         <v>20</v>
@@ -5220,14 +5223,14 @@
       </c>
       <c r="B116" s="7"/>
       <c t="s" r="C116" s="8">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="D116" s="8"/>
       <c r="E116" s="8"/>
       <c r="F116" s="8"/>
       <c r="G116" s="8"/>
       <c t="s" r="H116" s="9">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="I116" s="9"/>
       <c r="J116" s="9"/>
@@ -5237,11 +5240,11 @@
       </c>
       <c r="M116" s="10"/>
       <c t="s" r="N116" s="8">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="O116" s="8"/>
       <c t="s" r="P116" s="11">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c t="s" r="Q116" s="12">
         <v>20</v>
@@ -5253,7 +5256,7 @@
       </c>
       <c r="B117" s="7"/>
       <c t="s" r="C117" s="8">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="D117" s="8"/>
       <c r="E117" s="8"/>
@@ -5270,11 +5273,11 @@
       </c>
       <c r="M117" s="10"/>
       <c t="s" r="N117" s="8">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="O117" s="8"/>
       <c t="s" r="P117" s="11">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c t="s" r="Q117" s="12">
         <v>20</v>
@@ -5286,14 +5289,14 @@
       </c>
       <c r="B118" s="7"/>
       <c t="s" r="C118" s="8">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="D118" s="8"/>
       <c r="E118" s="8"/>
       <c r="F118" s="8"/>
       <c r="G118" s="8"/>
       <c t="s" r="H118" s="9">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="I118" s="9"/>
       <c r="J118" s="9"/>
@@ -5303,11 +5306,11 @@
       </c>
       <c r="M118" s="10"/>
       <c t="s" r="N118" s="8">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="O118" s="8"/>
       <c t="s" r="P118" s="11">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c t="s" r="Q118" s="12">
         <v>91</v>
@@ -5319,14 +5322,14 @@
       </c>
       <c r="B119" s="7"/>
       <c t="s" r="C119" s="8">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="D119" s="8"/>
       <c r="E119" s="8"/>
       <c r="F119" s="8"/>
       <c r="G119" s="8"/>
       <c t="s" r="H119" s="9">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="I119" s="9"/>
       <c r="J119" s="9"/>
@@ -5352,7 +5355,7 @@
       </c>
       <c r="B120" s="7"/>
       <c t="s" r="C120" s="8">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="D120" s="8"/>
       <c r="E120" s="8"/>
@@ -5369,11 +5372,11 @@
       </c>
       <c r="M120" s="10"/>
       <c t="s" r="N120" s="8">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="O120" s="8"/>
       <c t="s" r="P120" s="11">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c t="s" r="Q120" s="12">
         <v>22</v>
@@ -5385,7 +5388,7 @@
       </c>
       <c r="B121" s="7"/>
       <c t="s" r="C121" s="8">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="D121" s="8"/>
       <c r="E121" s="8"/>
@@ -5402,11 +5405,11 @@
       </c>
       <c r="M121" s="10"/>
       <c t="s" r="N121" s="8">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="O121" s="8"/>
       <c t="s" r="P121" s="11">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c t="s" r="Q121" s="12">
         <v>20</v>
@@ -5418,14 +5421,14 @@
       </c>
       <c r="B122" s="7"/>
       <c t="s" r="C122" s="8">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="D122" s="8"/>
       <c r="E122" s="8"/>
       <c r="F122" s="8"/>
       <c r="G122" s="8"/>
       <c t="s" r="H122" s="9">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="I122" s="9"/>
       <c r="J122" s="9"/>
@@ -5439,7 +5442,7 @@
       </c>
       <c r="O122" s="8"/>
       <c t="s" r="P122" s="11">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c t="s" r="Q122" s="12">
         <v>42</v>
@@ -5451,7 +5454,7 @@
       </c>
       <c r="B123" s="7"/>
       <c t="s" r="C123" s="8">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="D123" s="8"/>
       <c r="E123" s="8"/>
@@ -5468,11 +5471,11 @@
       </c>
       <c r="M123" s="10"/>
       <c t="s" r="N123" s="8">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="O123" s="8"/>
       <c t="s" r="P123" s="11">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c t="s" r="Q123" s="12">
         <v>20</v>
@@ -5484,7 +5487,7 @@
       </c>
       <c r="B124" s="7"/>
       <c t="s" r="C124" s="8">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="D124" s="8"/>
       <c r="E124" s="8"/>
@@ -5501,11 +5504,11 @@
       </c>
       <c r="M124" s="10"/>
       <c t="s" r="N124" s="8">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="O124" s="8"/>
       <c t="s" r="P124" s="11">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c t="s" r="Q124" s="12">
         <v>20</v>
@@ -5513,13 +5516,13 @@
     </row>
     <row r="125" ht="24.75" customHeight="1">
       <c r="P125" s="13">
-        <v>7786.3950000000004</v>
+        <v>7832.3950000000004</v>
       </c>
       <c r="Q125" s="13"/>
     </row>
     <row r="126" ht="16.5" customHeight="1">
       <c t="s" r="A126" s="14">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="B126" s="14"/>
       <c r="C126" s="14"/>
@@ -5527,13 +5530,13 @@
       <c r="E126" s="14"/>
       <c r="F126" s="14"/>
       <c t="s" r="G126" s="15">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="H126" s="15"/>
       <c r="I126" s="15"/>
       <c r="J126" s="16"/>
       <c t="s" r="K126" s="17">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="L126" s="17"/>
       <c r="M126" s="17"/>

--- a/DaySale_2025-08-08_00-00.xlsx
+++ b/DaySale_2025-08-08_00-00.xlsx
@@ -323,57 +323,60 @@
     <t>DIGENORM SYRUP 120 ML</t>
   </si>
   <si>
+    <t>39.00</t>
+  </si>
+  <si>
+    <t>78.0000</t>
+  </si>
+  <si>
+    <t>DIGESTOZYME 20 ENTERIC COATED TABLETS (DIGENORM)</t>
+  </si>
+  <si>
+    <t>62.00</t>
+  </si>
+  <si>
+    <t>31.0000</t>
+  </si>
+  <si>
+    <t>DIOMACTE 1000MG/5ML SUSP. 60 ML</t>
+  </si>
+  <si>
+    <t>22.00</t>
+  </si>
+  <si>
+    <t>22.0000</t>
+  </si>
+  <si>
+    <t>DOGMATIL 50MG 30 CAPS.</t>
+  </si>
+  <si>
+    <t>DOLIPRANE 1 GM 15 TABS.</t>
+  </si>
+  <si>
+    <t>6:2</t>
+  </si>
+  <si>
+    <t>DOLPHIN 3% TOPICAL GEL 30 GM</t>
+  </si>
+  <si>
+    <t>34.00</t>
+  </si>
+  <si>
+    <t>34.0000</t>
+  </si>
+  <si>
+    <t>ELICA-M CREAM 30 GRAM</t>
+  </si>
+  <si>
+    <t>52.00</t>
+  </si>
+  <si>
+    <t>208.0000</t>
+  </si>
+  <si>
     <t>4:0</t>
   </si>
   <si>
-    <t>39.00</t>
-  </si>
-  <si>
-    <t>DIGESTOZYME 20 ENTERIC COATED TABLETS (DIGENORM)</t>
-  </si>
-  <si>
-    <t>62.00</t>
-  </si>
-  <si>
-    <t>31.0000</t>
-  </si>
-  <si>
-    <t>DIOMACTE 1000MG/5ML SUSP. 60 ML</t>
-  </si>
-  <si>
-    <t>22.00</t>
-  </si>
-  <si>
-    <t>22.0000</t>
-  </si>
-  <si>
-    <t>DOGMATIL 50MG 30 CAPS.</t>
-  </si>
-  <si>
-    <t>DOLIPRANE 1 GM 15 TABS.</t>
-  </si>
-  <si>
-    <t>6:2</t>
-  </si>
-  <si>
-    <t>DOLPHIN 3% TOPICAL GEL 30 GM</t>
-  </si>
-  <si>
-    <t>34.00</t>
-  </si>
-  <si>
-    <t>34.0000</t>
-  </si>
-  <si>
-    <t>ELICA-M CREAM 30 GRAM</t>
-  </si>
-  <si>
-    <t>52.00</t>
-  </si>
-  <si>
-    <t>208.0000</t>
-  </si>
-  <si>
     <t>ENTEROGERMINA 2 BILLION/5ML ORAL SUSP. 10 MINI BOTTLES</t>
   </si>
   <si>
@@ -434,6 +437,15 @@
     <t>38.0000</t>
   </si>
   <si>
+    <t>FLUB 20MG/ML SUSPENSION 30 ML</t>
+  </si>
+  <si>
+    <t>72.0000</t>
+  </si>
+  <si>
+    <t>FUSI-ZON CREAM 15 GM</t>
+  </si>
+  <si>
     <t>GANATON 50 MG 30 F.C.TABS.</t>
   </si>
   <si>
@@ -977,9 +989,6 @@
     <t>محلول ملح</t>
   </si>
   <si>
-    <t>72.0000</t>
-  </si>
-  <si>
     <t>معجون سيجنال بالفحم</t>
   </si>
   <si>
@@ -992,7 +1001,7 @@
     <t>مناديل بكر فاين</t>
   </si>
   <si>
-    <t>Friday, 8 August, 2025 11:06 PM</t>
+    <t>Friday, 8 August, 2025 11:15 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -2524,7 +2533,7 @@
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>104</v>
+        <v>42</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
@@ -2534,14 +2543,14 @@
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
-        <v>66</v>
+        <v>105</v>
       </c>
       <c t="s" r="Q34" s="12">
-        <v>20</v>
+        <v>22</v>
       </c>
     </row>
     <row r="35" ht="24.75" customHeight="1">
@@ -2739,7 +2748,7 @@
         <v>120</v>
       </c>
       <c t="s" r="Q40" s="12">
-        <v>104</v>
+        <v>121</v>
       </c>
     </row>
     <row r="41" ht="25.5" customHeight="1">
@@ -2748,14 +2757,14 @@
       </c>
       <c r="B41" s="7"/>
       <c t="s" r="C41" s="8">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="D41" s="8"/>
       <c r="E41" s="8"/>
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
@@ -2765,11 +2774,11 @@
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c t="s" r="Q41" s="12">
         <v>32</v>
@@ -2781,14 +2790,14 @@
       </c>
       <c r="B42" s="7"/>
       <c t="s" r="C42" s="8">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="D42" s="8"/>
       <c r="E42" s="8"/>
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
@@ -2798,11 +2807,11 @@
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c t="s" r="Q42" s="12">
         <v>32</v>
@@ -2814,7 +2823,7 @@
       </c>
       <c r="B43" s="7"/>
       <c t="s" r="C43" s="8">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="D43" s="8"/>
       <c r="E43" s="8"/>
@@ -2831,11 +2840,11 @@
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c t="s" r="Q43" s="12">
         <v>20</v>
@@ -2847,7 +2856,7 @@
       </c>
       <c r="B44" s="7"/>
       <c t="s" r="C44" s="8">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="D44" s="8"/>
       <c r="E44" s="8"/>
@@ -2864,11 +2873,11 @@
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c t="s" r="Q44" s="12">
         <v>20</v>
@@ -2880,7 +2889,7 @@
       </c>
       <c r="B45" s="7"/>
       <c t="s" r="C45" s="8">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="D45" s="8"/>
       <c r="E45" s="8"/>
@@ -2897,11 +2906,11 @@
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c t="s" r="Q45" s="12">
         <v>16</v>
@@ -2913,7 +2922,7 @@
       </c>
       <c r="B46" s="7"/>
       <c t="s" r="C46" s="8">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="D46" s="8"/>
       <c r="E46" s="8"/>
@@ -2930,11 +2939,11 @@
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c t="s" r="Q46" s="12">
         <v>20</v>
@@ -2946,14 +2955,14 @@
       </c>
       <c r="B47" s="7"/>
       <c t="s" r="C47" s="8">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="D47" s="8"/>
       <c r="E47" s="8"/>
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>34</v>
+        <v>59</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
@@ -2963,14 +2972,14 @@
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>142</v>
+        <v>92</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
         <v>143</v>
       </c>
       <c t="s" r="Q47" s="12">
-        <v>16</v>
+        <v>22</v>
       </c>
     </row>
     <row r="48" ht="24.75" customHeight="1">
@@ -2986,7 +2995,7 @@
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>42</v>
+        <v>49</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
@@ -2996,11 +3005,11 @@
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>110</v>
+        <v>50</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
-        <v>111</v>
+        <v>51</v>
       </c>
       <c t="s" r="Q48" s="12">
         <v>20</v>
@@ -3019,7 +3028,7 @@
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>22</v>
+        <v>34</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
@@ -3029,14 +3038,14 @@
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>110</v>
+        <v>146</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
-        <v>111</v>
+        <v>147</v>
       </c>
       <c t="s" r="Q49" s="12">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="50" ht="24.75" customHeight="1">
@@ -3045,14 +3054,14 @@
       </c>
       <c r="B50" s="7"/>
       <c t="s" r="C50" s="8">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="D50" s="8"/>
       <c r="E50" s="8"/>
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>34</v>
+        <v>42</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
@@ -3062,14 +3071,14 @@
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>147</v>
+        <v>110</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
-        <v>148</v>
+        <v>111</v>
       </c>
       <c t="s" r="Q50" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="51" ht="25.5" customHeight="1">
@@ -3085,7 +3094,7 @@
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>49</v>
+        <v>22</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
@@ -3095,11 +3104,11 @@
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>95</v>
+        <v>110</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
-        <v>96</v>
+        <v>111</v>
       </c>
       <c t="s" r="Q51" s="12">
         <v>20</v>
@@ -3118,7 +3127,7 @@
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>20</v>
+        <v>34</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
@@ -3151,7 +3160,7 @@
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>154</v>
+        <v>49</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
@@ -3161,14 +3170,14 @@
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
-        <v>155</v>
+        <v>95</v>
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
-        <v>156</v>
+        <v>96</v>
       </c>
       <c t="s" r="Q53" s="12">
-        <v>104</v>
+        <v>20</v>
       </c>
     </row>
     <row r="54" ht="25.5" customHeight="1">
@@ -3177,14 +3186,14 @@
       </c>
       <c r="B54" s="7"/>
       <c t="s" r="C54" s="8">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="D54" s="8"/>
       <c r="E54" s="8"/>
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>42</v>
+        <v>20</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
@@ -3194,14 +3203,14 @@
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c t="s" r="Q54" s="12">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="55" ht="24.75" customHeight="1">
@@ -3210,14 +3219,14 @@
       </c>
       <c r="B55" s="7"/>
       <c t="s" r="C55" s="8">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="D55" s="8"/>
       <c r="E55" s="8"/>
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>34</v>
+        <v>158</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
@@ -3227,14 +3236,14 @@
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c t="s" r="Q55" s="12">
-        <v>16</v>
+        <v>121</v>
       </c>
     </row>
     <row r="56" ht="25.5" customHeight="1">
@@ -3243,14 +3252,14 @@
       </c>
       <c r="B56" s="7"/>
       <c t="s" r="C56" s="8">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="D56" s="8"/>
       <c r="E56" s="8"/>
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>34</v>
+        <v>42</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
@@ -3260,14 +3269,14 @@
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
-        <v>71</v>
+        <v>162</v>
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
-        <v>72</v>
+        <v>163</v>
       </c>
       <c t="s" r="Q56" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="57" ht="25.5" customHeight="1">
@@ -3283,7 +3292,7 @@
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>49</v>
+        <v>34</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
@@ -3293,11 +3302,11 @@
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
-        <v>92</v>
+        <v>165</v>
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c t="s" r="Q57" s="12">
         <v>16</v>
@@ -3309,14 +3318,14 @@
       </c>
       <c r="B58" s="7"/>
       <c t="s" r="C58" s="8">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="D58" s="8"/>
       <c r="E58" s="8"/>
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c t="s" r="H58" s="9">
-        <v>104</v>
+        <v>34</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
@@ -3326,11 +3335,11 @@
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
-        <v>50</v>
+        <v>71</v>
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
-        <v>167</v>
+        <v>72</v>
       </c>
       <c t="s" r="Q58" s="12">
         <v>16</v>
@@ -3349,7 +3358,7 @@
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c t="s" r="H59" s="9">
-        <v>16</v>
+        <v>49</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
@@ -3359,11 +3368,11 @@
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
-        <v>169</v>
+        <v>92</v>
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c t="s" r="Q59" s="12">
         <v>16</v>
@@ -3375,14 +3384,14 @@
       </c>
       <c r="B60" s="7"/>
       <c t="s" r="C60" s="8">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="D60" s="8"/>
       <c r="E60" s="8"/>
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c t="s" r="H60" s="9">
-        <v>34</v>
+        <v>121</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
@@ -3392,11 +3401,11 @@
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
-        <v>172</v>
+        <v>50</v>
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
-        <v>93</v>
+        <v>171</v>
       </c>
       <c t="s" r="Q60" s="12">
         <v>16</v>
@@ -3408,14 +3417,14 @@
       </c>
       <c r="B61" s="7"/>
       <c t="s" r="C61" s="8">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="D61" s="8"/>
       <c r="E61" s="8"/>
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
       <c t="s" r="H61" s="9">
-        <v>49</v>
+        <v>16</v>
       </c>
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
@@ -3425,14 +3434,14 @@
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c t="s" r="Q61" s="12">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="62" ht="25.5" customHeight="1">
@@ -3441,14 +3450,14 @@
       </c>
       <c r="B62" s="7"/>
       <c t="s" r="C62" s="8">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="D62" s="8"/>
       <c r="E62" s="8"/>
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
       <c t="s" r="H62" s="9">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="I62" s="9"/>
       <c r="J62" s="9"/>
@@ -3458,11 +3467,11 @@
       </c>
       <c r="M62" s="10"/>
       <c t="s" r="N62" s="8">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
-        <v>178</v>
+        <v>93</v>
       </c>
       <c t="s" r="Q62" s="12">
         <v>16</v>
@@ -3474,14 +3483,14 @@
       </c>
       <c r="B63" s="7"/>
       <c t="s" r="C63" s="8">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="D63" s="8"/>
       <c r="E63" s="8"/>
       <c r="F63" s="8"/>
       <c r="G63" s="8"/>
       <c t="s" r="H63" s="9">
-        <v>22</v>
+        <v>49</v>
       </c>
       <c r="I63" s="9"/>
       <c r="J63" s="9"/>
@@ -3491,11 +3500,11 @@
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="O63" s="8"/>
       <c t="s" r="P63" s="11">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c t="s" r="Q63" s="12">
         <v>20</v>
@@ -3507,14 +3516,14 @@
       </c>
       <c r="B64" s="7"/>
       <c t="s" r="C64" s="8">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="D64" s="8"/>
       <c r="E64" s="8"/>
       <c r="F64" s="8"/>
       <c r="G64" s="8"/>
       <c t="s" r="H64" s="9">
-        <v>20</v>
+        <v>32</v>
       </c>
       <c r="I64" s="9"/>
       <c r="J64" s="9"/>
@@ -3524,11 +3533,11 @@
       </c>
       <c r="M64" s="10"/>
       <c t="s" r="N64" s="8">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="O64" s="8"/>
       <c t="s" r="P64" s="11">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c t="s" r="Q64" s="12">
         <v>16</v>
@@ -3540,31 +3549,31 @@
       </c>
       <c r="B65" s="7"/>
       <c t="s" r="C65" s="8">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="D65" s="8"/>
       <c r="E65" s="8"/>
       <c r="F65" s="8"/>
       <c r="G65" s="8"/>
       <c t="s" r="H65" s="9">
-        <v>186</v>
+        <v>22</v>
       </c>
       <c r="I65" s="9"/>
       <c r="J65" s="9"/>
       <c r="K65" s="9"/>
       <c t="s" r="L65" s="10">
-        <v>187</v>
+        <v>13</v>
       </c>
       <c r="M65" s="10"/>
       <c t="s" r="N65" s="8">
-        <v>155</v>
+        <v>184</v>
       </c>
       <c r="O65" s="8"/>
       <c t="s" r="P65" s="11">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c t="s" r="Q65" s="12">
-        <v>37</v>
+        <v>20</v>
       </c>
     </row>
     <row r="66" ht="25.5" customHeight="1">
@@ -3573,14 +3582,14 @@
       </c>
       <c r="B66" s="7"/>
       <c t="s" r="C66" s="8">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="D66" s="8"/>
       <c r="E66" s="8"/>
       <c r="F66" s="8"/>
       <c r="G66" s="8"/>
       <c t="s" r="H66" s="9">
-        <v>42</v>
+        <v>20</v>
       </c>
       <c r="I66" s="9"/>
       <c r="J66" s="9"/>
@@ -3590,14 +3599,14 @@
       </c>
       <c r="M66" s="10"/>
       <c t="s" r="N66" s="8">
-        <v>107</v>
+        <v>187</v>
       </c>
       <c r="O66" s="8"/>
       <c t="s" r="P66" s="11">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c t="s" r="Q66" s="12">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="67" ht="25.5" customHeight="1">
@@ -3606,31 +3615,31 @@
       </c>
       <c r="B67" s="7"/>
       <c t="s" r="C67" s="8">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="D67" s="8"/>
       <c r="E67" s="8"/>
       <c r="F67" s="8"/>
       <c r="G67" s="8"/>
       <c t="s" r="H67" s="9">
-        <v>16</v>
+        <v>190</v>
       </c>
       <c r="I67" s="9"/>
       <c r="J67" s="9"/>
       <c r="K67" s="9"/>
       <c t="s" r="L67" s="10">
-        <v>13</v>
+        <v>191</v>
       </c>
       <c r="M67" s="10"/>
       <c t="s" r="N67" s="8">
-        <v>177</v>
+        <v>159</v>
       </c>
       <c r="O67" s="8"/>
       <c t="s" r="P67" s="11">
         <v>192</v>
       </c>
       <c t="s" r="Q67" s="12">
-        <v>20</v>
+        <v>37</v>
       </c>
     </row>
     <row r="68" ht="24.75" customHeight="1">
@@ -3646,7 +3655,7 @@
       <c r="F68" s="8"/>
       <c r="G68" s="8"/>
       <c t="s" r="H68" s="9">
-        <v>16</v>
+        <v>42</v>
       </c>
       <c r="I68" s="9"/>
       <c r="J68" s="9"/>
@@ -3656,14 +3665,14 @@
       </c>
       <c r="M68" s="10"/>
       <c t="s" r="N68" s="8">
-        <v>194</v>
+        <v>107</v>
       </c>
       <c r="O68" s="8"/>
       <c t="s" r="P68" s="11">
-        <v>51</v>
+        <v>194</v>
       </c>
       <c t="s" r="Q68" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="69" ht="25.5" customHeight="1">
@@ -3679,7 +3688,7 @@
       <c r="F69" s="8"/>
       <c r="G69" s="8"/>
       <c t="s" r="H69" s="9">
-        <v>49</v>
+        <v>16</v>
       </c>
       <c r="I69" s="9"/>
       <c r="J69" s="9"/>
@@ -3689,7 +3698,7 @@
       </c>
       <c r="M69" s="10"/>
       <c t="s" r="N69" s="8">
-        <v>142</v>
+        <v>181</v>
       </c>
       <c r="O69" s="8"/>
       <c t="s" r="P69" s="11">
@@ -3712,7 +3721,7 @@
       <c r="F70" s="8"/>
       <c r="G70" s="8"/>
       <c t="s" r="H70" s="9">
-        <v>49</v>
+        <v>16</v>
       </c>
       <c r="I70" s="9"/>
       <c r="J70" s="9"/>
@@ -3726,10 +3735,10 @@
       </c>
       <c r="O70" s="8"/>
       <c t="s" r="P70" s="11">
-        <v>199</v>
+        <v>51</v>
       </c>
       <c t="s" r="Q70" s="12">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="71" ht="25.5" customHeight="1">
@@ -3738,7 +3747,7 @@
       </c>
       <c r="B71" s="7"/>
       <c t="s" r="C71" s="8">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="D71" s="8"/>
       <c r="E71" s="8"/>
@@ -3755,11 +3764,11 @@
       </c>
       <c r="M71" s="10"/>
       <c t="s" r="N71" s="8">
-        <v>201</v>
+        <v>146</v>
       </c>
       <c r="O71" s="8"/>
       <c t="s" r="P71" s="11">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c t="s" r="Q71" s="12">
         <v>20</v>
@@ -3771,14 +3780,14 @@
       </c>
       <c r="B72" s="7"/>
       <c t="s" r="C72" s="8">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="D72" s="8"/>
       <c r="E72" s="8"/>
       <c r="F72" s="8"/>
       <c r="G72" s="8"/>
       <c t="s" r="H72" s="9">
-        <v>20</v>
+        <v>49</v>
       </c>
       <c r="I72" s="9"/>
       <c r="J72" s="9"/>
@@ -3788,14 +3797,14 @@
       </c>
       <c r="M72" s="10"/>
       <c t="s" r="N72" s="8">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="O72" s="8"/>
       <c t="s" r="P72" s="11">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c t="s" r="Q72" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="73" ht="24.75" customHeight="1">
@@ -3804,14 +3813,14 @@
       </c>
       <c r="B73" s="7"/>
       <c t="s" r="C73" s="8">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="D73" s="8"/>
       <c r="E73" s="8"/>
       <c r="F73" s="8"/>
       <c r="G73" s="8"/>
       <c t="s" r="H73" s="9">
-        <v>16</v>
+        <v>49</v>
       </c>
       <c r="I73" s="9"/>
       <c r="J73" s="9"/>
@@ -3821,14 +3830,14 @@
       </c>
       <c r="M73" s="10"/>
       <c t="s" r="N73" s="8">
-        <v>116</v>
+        <v>205</v>
       </c>
       <c r="O73" s="8"/>
       <c t="s" r="P73" s="11">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c t="s" r="Q73" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="74" ht="25.5" customHeight="1">
@@ -3837,14 +3846,14 @@
       </c>
       <c r="B74" s="7"/>
       <c t="s" r="C74" s="8">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="D74" s="8"/>
       <c r="E74" s="8"/>
       <c r="F74" s="8"/>
       <c r="G74" s="8"/>
       <c t="s" r="H74" s="9">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="I74" s="9"/>
       <c r="J74" s="9"/>
@@ -3854,14 +3863,14 @@
       </c>
       <c r="M74" s="10"/>
       <c t="s" r="N74" s="8">
-        <v>119</v>
+        <v>208</v>
       </c>
       <c r="O74" s="8"/>
       <c t="s" r="P74" s="11">
         <v>209</v>
       </c>
       <c t="s" r="Q74" s="12">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="75" ht="24.75" customHeight="1">
@@ -3877,7 +3886,7 @@
       <c r="F75" s="8"/>
       <c r="G75" s="8"/>
       <c t="s" r="H75" s="9">
-        <v>211</v>
+        <v>16</v>
       </c>
       <c r="I75" s="9"/>
       <c r="J75" s="9"/>
@@ -3887,14 +3896,14 @@
       </c>
       <c r="M75" s="10"/>
       <c t="s" r="N75" s="8">
-        <v>158</v>
+        <v>116</v>
       </c>
       <c r="O75" s="8"/>
       <c t="s" r="P75" s="11">
-        <v>159</v>
+        <v>211</v>
       </c>
       <c t="s" r="Q75" s="12">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="76" ht="25.5" customHeight="1">
@@ -3910,7 +3919,7 @@
       <c r="F76" s="8"/>
       <c r="G76" s="8"/>
       <c t="s" r="H76" s="9">
-        <v>213</v>
+        <v>22</v>
       </c>
       <c r="I76" s="9"/>
       <c r="J76" s="9"/>
@@ -3920,14 +3929,14 @@
       </c>
       <c r="M76" s="10"/>
       <c t="s" r="N76" s="8">
-        <v>214</v>
+        <v>119</v>
       </c>
       <c r="O76" s="8"/>
       <c t="s" r="P76" s="11">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c t="s" r="Q76" s="12">
-        <v>216</v>
+        <v>20</v>
       </c>
     </row>
     <row r="77" ht="25.5" customHeight="1">
@@ -3936,14 +3945,14 @@
       </c>
       <c r="B77" s="7"/>
       <c t="s" r="C77" s="8">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="D77" s="8"/>
       <c r="E77" s="8"/>
       <c r="F77" s="8"/>
       <c r="G77" s="8"/>
       <c t="s" r="H77" s="9">
-        <v>20</v>
+        <v>215</v>
       </c>
       <c r="I77" s="9"/>
       <c r="J77" s="9"/>
@@ -3953,11 +3962,11 @@
       </c>
       <c r="M77" s="10"/>
       <c t="s" r="N77" s="8">
-        <v>218</v>
+        <v>162</v>
       </c>
       <c r="O77" s="8"/>
       <c t="s" r="P77" s="11">
-        <v>219</v>
+        <v>163</v>
       </c>
       <c t="s" r="Q77" s="12">
         <v>20</v>
@@ -3969,14 +3978,14 @@
       </c>
       <c r="B78" s="7"/>
       <c t="s" r="C78" s="8">
-        <v>220</v>
+        <v>216</v>
       </c>
       <c r="D78" s="8"/>
       <c r="E78" s="8"/>
       <c r="F78" s="8"/>
       <c r="G78" s="8"/>
       <c t="s" r="H78" s="9">
-        <v>49</v>
+        <v>217</v>
       </c>
       <c r="I78" s="9"/>
       <c r="J78" s="9"/>
@@ -3986,14 +3995,14 @@
       </c>
       <c r="M78" s="10"/>
       <c t="s" r="N78" s="8">
-        <v>95</v>
+        <v>218</v>
       </c>
       <c r="O78" s="8"/>
       <c t="s" r="P78" s="11">
-        <v>96</v>
+        <v>219</v>
       </c>
       <c t="s" r="Q78" s="12">
-        <v>20</v>
+        <v>220</v>
       </c>
     </row>
     <row r="79" ht="25.5" customHeight="1">
@@ -4009,7 +4018,7 @@
       <c r="F79" s="8"/>
       <c r="G79" s="8"/>
       <c t="s" r="H79" s="9">
-        <v>222</v>
+        <v>20</v>
       </c>
       <c r="I79" s="9"/>
       <c r="J79" s="9"/>
@@ -4019,14 +4028,14 @@
       </c>
       <c r="M79" s="10"/>
       <c t="s" r="N79" s="8">
-        <v>172</v>
+        <v>222</v>
       </c>
       <c r="O79" s="8"/>
       <c t="s" r="P79" s="11">
-        <v>93</v>
+        <v>223</v>
       </c>
       <c t="s" r="Q79" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="80" ht="24.75" customHeight="1">
@@ -4035,14 +4044,14 @@
       </c>
       <c r="B80" s="7"/>
       <c t="s" r="C80" s="8">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="D80" s="8"/>
       <c r="E80" s="8"/>
       <c r="F80" s="8"/>
       <c r="G80" s="8"/>
       <c t="s" r="H80" s="9">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="I80" s="9"/>
       <c r="J80" s="9"/>
@@ -4052,14 +4061,14 @@
       </c>
       <c r="M80" s="10"/>
       <c t="s" r="N80" s="8">
-        <v>110</v>
+        <v>95</v>
       </c>
       <c r="O80" s="8"/>
       <c t="s" r="P80" s="11">
-        <v>224</v>
+        <v>96</v>
       </c>
       <c t="s" r="Q80" s="12">
-        <v>32</v>
+        <v>20</v>
       </c>
     </row>
     <row r="81" ht="25.5" customHeight="1">
@@ -4085,14 +4094,14 @@
       </c>
       <c r="M81" s="10"/>
       <c t="s" r="N81" s="8">
-        <v>30</v>
+        <v>176</v>
       </c>
       <c r="O81" s="8"/>
       <c t="s" r="P81" s="11">
-        <v>227</v>
+        <v>93</v>
       </c>
       <c t="s" r="Q81" s="12">
-        <v>46</v>
+        <v>16</v>
       </c>
     </row>
     <row r="82" ht="25.5" customHeight="1">
@@ -4101,7 +4110,7 @@
       </c>
       <c r="B82" s="7"/>
       <c t="s" r="C82" s="8">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="D82" s="8"/>
       <c r="E82" s="8"/>
@@ -4118,14 +4127,14 @@
       </c>
       <c r="M82" s="10"/>
       <c t="s" r="N82" s="8">
-        <v>105</v>
+        <v>110</v>
       </c>
       <c r="O82" s="8"/>
       <c t="s" r="P82" s="11">
-        <v>66</v>
+        <v>228</v>
       </c>
       <c t="s" r="Q82" s="12">
-        <v>20</v>
+        <v>32</v>
       </c>
     </row>
     <row r="83" ht="24.75" customHeight="1">
@@ -4141,7 +4150,7 @@
       <c r="F83" s="8"/>
       <c r="G83" s="8"/>
       <c t="s" r="H83" s="9">
-        <v>34</v>
+        <v>230</v>
       </c>
       <c r="I83" s="9"/>
       <c r="J83" s="9"/>
@@ -4151,14 +4160,14 @@
       </c>
       <c r="M83" s="10"/>
       <c t="s" r="N83" s="8">
-        <v>43</v>
+        <v>30</v>
       </c>
       <c r="O83" s="8"/>
       <c t="s" r="P83" s="11">
-        <v>44</v>
+        <v>231</v>
       </c>
       <c t="s" r="Q83" s="12">
-        <v>16</v>
+        <v>46</v>
       </c>
     </row>
     <row r="84" ht="25.5" customHeight="1">
@@ -4167,14 +4176,14 @@
       </c>
       <c r="B84" s="7"/>
       <c t="s" r="C84" s="8">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="D84" s="8"/>
       <c r="E84" s="8"/>
       <c r="F84" s="8"/>
       <c r="G84" s="8"/>
       <c t="s" r="H84" s="9">
-        <v>226</v>
+        <v>46</v>
       </c>
       <c r="I84" s="9"/>
       <c r="J84" s="9"/>
@@ -4184,14 +4193,14 @@
       </c>
       <c r="M84" s="10"/>
       <c t="s" r="N84" s="8">
-        <v>231</v>
+        <v>104</v>
       </c>
       <c r="O84" s="8"/>
       <c t="s" r="P84" s="11">
-        <v>184</v>
+        <v>66</v>
       </c>
       <c t="s" r="Q84" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="85" ht="24.75" customHeight="1">
@@ -4200,14 +4209,14 @@
       </c>
       <c r="B85" s="7"/>
       <c t="s" r="C85" s="8">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="D85" s="8"/>
       <c r="E85" s="8"/>
       <c r="F85" s="8"/>
       <c r="G85" s="8"/>
       <c t="s" r="H85" s="9">
-        <v>226</v>
+        <v>34</v>
       </c>
       <c r="I85" s="9"/>
       <c r="J85" s="9"/>
@@ -4217,14 +4226,14 @@
       </c>
       <c r="M85" s="10"/>
       <c t="s" r="N85" s="8">
-        <v>233</v>
+        <v>43</v>
       </c>
       <c r="O85" s="8"/>
       <c t="s" r="P85" s="11">
-        <v>234</v>
+        <v>44</v>
       </c>
       <c t="s" r="Q85" s="12">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="86" ht="25.5" customHeight="1">
@@ -4233,14 +4242,14 @@
       </c>
       <c r="B86" s="7"/>
       <c t="s" r="C86" s="8">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="D86" s="8"/>
       <c r="E86" s="8"/>
       <c r="F86" s="8"/>
       <c r="G86" s="8"/>
       <c t="s" r="H86" s="9">
-        <v>16</v>
+        <v>230</v>
       </c>
       <c r="I86" s="9"/>
       <c r="J86" s="9"/>
@@ -4250,11 +4259,11 @@
       </c>
       <c r="M86" s="10"/>
       <c t="s" r="N86" s="8">
-        <v>142</v>
+        <v>235</v>
       </c>
       <c r="O86" s="8"/>
       <c t="s" r="P86" s="11">
-        <v>143</v>
+        <v>188</v>
       </c>
       <c t="s" r="Q86" s="12">
         <v>16</v>
@@ -4273,7 +4282,7 @@
       <c r="F87" s="8"/>
       <c r="G87" s="8"/>
       <c t="s" r="H87" s="9">
-        <v>49</v>
+        <v>230</v>
       </c>
       <c r="I87" s="9"/>
       <c r="J87" s="9"/>
@@ -4316,14 +4325,14 @@
       </c>
       <c r="M88" s="10"/>
       <c t="s" r="N88" s="8">
-        <v>231</v>
+        <v>146</v>
       </c>
       <c r="O88" s="8"/>
       <c t="s" r="P88" s="11">
-        <v>240</v>
+        <v>147</v>
       </c>
       <c t="s" r="Q88" s="12">
-        <v>34</v>
+        <v>16</v>
       </c>
     </row>
     <row r="89" ht="25.5" customHeight="1">
@@ -4332,14 +4341,14 @@
       </c>
       <c r="B89" s="7"/>
       <c t="s" r="C89" s="8">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="D89" s="8"/>
       <c r="E89" s="8"/>
       <c r="F89" s="8"/>
       <c r="G89" s="8"/>
       <c t="s" r="H89" s="9">
-        <v>34</v>
+        <v>49</v>
       </c>
       <c r="I89" s="9"/>
       <c r="J89" s="9"/>
@@ -4349,14 +4358,14 @@
       </c>
       <c r="M89" s="10"/>
       <c t="s" r="N89" s="8">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="O89" s="8"/>
       <c t="s" r="P89" s="11">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c t="s" r="Q89" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="90" ht="24.75" customHeight="1">
@@ -4365,14 +4374,14 @@
       </c>
       <c r="B90" s="7"/>
       <c t="s" r="C90" s="8">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="D90" s="8"/>
       <c r="E90" s="8"/>
       <c r="F90" s="8"/>
       <c r="G90" s="8"/>
       <c t="s" r="H90" s="9">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="I90" s="9"/>
       <c r="J90" s="9"/>
@@ -4382,14 +4391,14 @@
       </c>
       <c r="M90" s="10"/>
       <c t="s" r="N90" s="8">
-        <v>136</v>
+        <v>235</v>
       </c>
       <c r="O90" s="8"/>
       <c t="s" r="P90" s="11">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c t="s" r="Q90" s="12">
-        <v>20</v>
+        <v>34</v>
       </c>
     </row>
     <row r="91" ht="25.5" customHeight="1">
@@ -4398,14 +4407,14 @@
       </c>
       <c r="B91" s="7"/>
       <c t="s" r="C91" s="8">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="D91" s="8"/>
       <c r="E91" s="8"/>
       <c r="F91" s="8"/>
       <c r="G91" s="8"/>
       <c t="s" r="H91" s="9">
-        <v>22</v>
+        <v>34</v>
       </c>
       <c r="I91" s="9"/>
       <c r="J91" s="9"/>
@@ -4415,14 +4424,14 @@
       </c>
       <c r="M91" s="10"/>
       <c t="s" r="N91" s="8">
-        <v>139</v>
+        <v>246</v>
       </c>
       <c r="O91" s="8"/>
       <c t="s" r="P91" s="11">
-        <v>40</v>
+        <v>247</v>
       </c>
       <c t="s" r="Q91" s="12">
-        <v>22</v>
+        <v>16</v>
       </c>
     </row>
     <row r="92" ht="25.5" customHeight="1">
@@ -4431,14 +4440,14 @@
       </c>
       <c r="B92" s="7"/>
       <c t="s" r="C92" s="8">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="D92" s="8"/>
       <c r="E92" s="8"/>
       <c r="F92" s="8"/>
       <c r="G92" s="8"/>
       <c t="s" r="H92" s="9">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="I92" s="9"/>
       <c r="J92" s="9"/>
@@ -4448,14 +4457,14 @@
       </c>
       <c r="M92" s="10"/>
       <c t="s" r="N92" s="8">
-        <v>248</v>
+        <v>137</v>
       </c>
       <c r="O92" s="8"/>
       <c t="s" r="P92" s="11">
         <v>249</v>
       </c>
       <c t="s" r="Q92" s="12">
-        <v>34</v>
+        <v>20</v>
       </c>
     </row>
     <row r="93" ht="24.75" customHeight="1">
@@ -4471,7 +4480,7 @@
       <c r="F93" s="8"/>
       <c r="G93" s="8"/>
       <c t="s" r="H93" s="9">
-        <v>49</v>
+        <v>22</v>
       </c>
       <c r="I93" s="9"/>
       <c r="J93" s="9"/>
@@ -4481,14 +4490,14 @@
       </c>
       <c r="M93" s="10"/>
       <c t="s" r="N93" s="8">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="O93" s="8"/>
       <c t="s" r="P93" s="11">
-        <v>140</v>
+        <v>40</v>
       </c>
       <c t="s" r="Q93" s="12">
-        <v>20</v>
+        <v>22</v>
       </c>
     </row>
     <row r="94" ht="25.5" customHeight="1">
@@ -4504,7 +4513,7 @@
       <c r="F94" s="8"/>
       <c r="G94" s="8"/>
       <c t="s" r="H94" s="9">
-        <v>32</v>
+        <v>20</v>
       </c>
       <c r="I94" s="9"/>
       <c r="J94" s="9"/>
@@ -4521,7 +4530,7 @@
         <v>253</v>
       </c>
       <c t="s" r="Q94" s="12">
-        <v>16</v>
+        <v>34</v>
       </c>
     </row>
     <row r="95" ht="24.75" customHeight="1">
@@ -4547,14 +4556,14 @@
       </c>
       <c r="M95" s="10"/>
       <c t="s" r="N95" s="8">
-        <v>92</v>
+        <v>140</v>
       </c>
       <c r="O95" s="8"/>
       <c t="s" r="P95" s="11">
-        <v>165</v>
+        <v>141</v>
       </c>
       <c t="s" r="Q95" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="96" ht="25.5" customHeight="1">
@@ -4570,7 +4579,7 @@
       <c r="F96" s="8"/>
       <c r="G96" s="8"/>
       <c t="s" r="H96" s="9">
-        <v>104</v>
+        <v>32</v>
       </c>
       <c r="I96" s="9"/>
       <c r="J96" s="9"/>
@@ -4587,7 +4596,7 @@
         <v>257</v>
       </c>
       <c t="s" r="Q96" s="12">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="97" ht="25.5" customHeight="1">
@@ -4613,14 +4622,14 @@
       </c>
       <c r="M97" s="10"/>
       <c t="s" r="N97" s="8">
-        <v>259</v>
+        <v>92</v>
       </c>
       <c r="O97" s="8"/>
       <c t="s" r="P97" s="11">
-        <v>184</v>
+        <v>169</v>
       </c>
       <c t="s" r="Q97" s="12">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="98" ht="24.75" customHeight="1">
@@ -4629,14 +4638,14 @@
       </c>
       <c r="B98" s="7"/>
       <c t="s" r="C98" s="8">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="D98" s="8"/>
       <c r="E98" s="8"/>
       <c r="F98" s="8"/>
       <c r="G98" s="8"/>
       <c t="s" r="H98" s="9">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="I98" s="9"/>
       <c r="J98" s="9"/>
@@ -4646,14 +4655,14 @@
       </c>
       <c r="M98" s="10"/>
       <c t="s" r="N98" s="8">
-        <v>142</v>
+        <v>260</v>
       </c>
       <c r="O98" s="8"/>
       <c t="s" r="P98" s="11">
         <v>261</v>
       </c>
       <c t="s" r="Q98" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="99" ht="25.5" customHeight="1">
@@ -4669,7 +4678,7 @@
       <c r="F99" s="8"/>
       <c r="G99" s="8"/>
       <c t="s" r="H99" s="9">
-        <v>20</v>
+        <v>49</v>
       </c>
       <c r="I99" s="9"/>
       <c r="J99" s="9"/>
@@ -4679,14 +4688,14 @@
       </c>
       <c r="M99" s="10"/>
       <c t="s" r="N99" s="8">
-        <v>142</v>
+        <v>263</v>
       </c>
       <c r="O99" s="8"/>
       <c t="s" r="P99" s="11">
-        <v>143</v>
+        <v>188</v>
       </c>
       <c t="s" r="Q99" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="100" ht="24.75" customHeight="1">
@@ -4695,14 +4704,14 @@
       </c>
       <c r="B100" s="7"/>
       <c t="s" r="C100" s="8">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="D100" s="8"/>
       <c r="E100" s="8"/>
       <c r="F100" s="8"/>
       <c r="G100" s="8"/>
       <c t="s" r="H100" s="9">
-        <v>49</v>
+        <v>123</v>
       </c>
       <c r="I100" s="9"/>
       <c r="J100" s="9"/>
@@ -4712,14 +4721,14 @@
       </c>
       <c r="M100" s="10"/>
       <c t="s" r="N100" s="8">
-        <v>264</v>
+        <v>146</v>
       </c>
       <c r="O100" s="8"/>
       <c t="s" r="P100" s="11">
         <v>265</v>
       </c>
       <c t="s" r="Q100" s="12">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="101" ht="25.5" customHeight="1">
@@ -4735,7 +4744,7 @@
       <c r="F101" s="8"/>
       <c r="G101" s="8"/>
       <c t="s" r="H101" s="9">
-        <v>32</v>
+        <v>20</v>
       </c>
       <c r="I101" s="9"/>
       <c r="J101" s="9"/>
@@ -4745,11 +4754,11 @@
       </c>
       <c r="M101" s="10"/>
       <c t="s" r="N101" s="8">
-        <v>267</v>
+        <v>146</v>
       </c>
       <c r="O101" s="8"/>
       <c t="s" r="P101" s="11">
-        <v>268</v>
+        <v>147</v>
       </c>
       <c t="s" r="Q101" s="12">
         <v>16</v>
@@ -4761,14 +4770,14 @@
       </c>
       <c r="B102" s="7"/>
       <c t="s" r="C102" s="8">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="D102" s="8"/>
       <c r="E102" s="8"/>
       <c r="F102" s="8"/>
       <c r="G102" s="8"/>
       <c t="s" r="H102" s="9">
-        <v>16</v>
+        <v>49</v>
       </c>
       <c r="I102" s="9"/>
       <c r="J102" s="9"/>
@@ -4778,14 +4787,14 @@
       </c>
       <c r="M102" s="10"/>
       <c t="s" r="N102" s="8">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="O102" s="8"/>
       <c t="s" r="P102" s="11">
-        <v>209</v>
+        <v>269</v>
       </c>
       <c t="s" r="Q102" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="103" ht="24.75" customHeight="1">
@@ -4794,14 +4803,14 @@
       </c>
       <c r="B103" s="7"/>
       <c t="s" r="C103" s="8">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="D103" s="8"/>
       <c r="E103" s="8"/>
       <c r="F103" s="8"/>
       <c r="G103" s="8"/>
       <c t="s" r="H103" s="9">
-        <v>272</v>
+        <v>32</v>
       </c>
       <c r="I103" s="9"/>
       <c r="J103" s="9"/>
@@ -4811,14 +4820,14 @@
       </c>
       <c r="M103" s="10"/>
       <c t="s" r="N103" s="8">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="O103" s="8"/>
       <c t="s" r="P103" s="11">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c t="s" r="Q103" s="12">
-        <v>22</v>
+        <v>16</v>
       </c>
     </row>
     <row r="104" ht="25.5" customHeight="1">
@@ -4827,14 +4836,14 @@
       </c>
       <c r="B104" s="7"/>
       <c t="s" r="C104" s="8">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="D104" s="8"/>
       <c r="E104" s="8"/>
       <c r="F104" s="8"/>
       <c r="G104" s="8"/>
       <c t="s" r="H104" s="9">
-        <v>49</v>
+        <v>16</v>
       </c>
       <c r="I104" s="9"/>
       <c r="J104" s="9"/>
@@ -4844,14 +4853,14 @@
       </c>
       <c r="M104" s="10"/>
       <c t="s" r="N104" s="8">
-        <v>79</v>
+        <v>274</v>
       </c>
       <c r="O104" s="8"/>
       <c t="s" r="P104" s="11">
-        <v>276</v>
+        <v>213</v>
       </c>
       <c t="s" r="Q104" s="12">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="105" ht="24.75" customHeight="1">
@@ -4860,31 +4869,31 @@
       </c>
       <c r="B105" s="7"/>
       <c t="s" r="C105" s="8">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="D105" s="8"/>
       <c r="E105" s="8"/>
       <c r="F105" s="8"/>
       <c r="G105" s="8"/>
       <c t="s" r="H105" s="9">
-        <v>20</v>
+        <v>276</v>
       </c>
       <c r="I105" s="9"/>
       <c r="J105" s="9"/>
       <c r="K105" s="9"/>
       <c t="s" r="L105" s="10">
-        <v>187</v>
+        <v>13</v>
       </c>
       <c r="M105" s="10"/>
       <c t="s" r="N105" s="8">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="O105" s="8"/>
       <c t="s" r="P105" s="11">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c t="s" r="Q105" s="12">
-        <v>20</v>
+        <v>22</v>
       </c>
     </row>
     <row r="106" ht="25.5" customHeight="1">
@@ -4893,31 +4902,31 @@
       </c>
       <c r="B106" s="7"/>
       <c t="s" r="C106" s="8">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="D106" s="8"/>
       <c r="E106" s="8"/>
       <c r="F106" s="8"/>
       <c r="G106" s="8"/>
       <c t="s" r="H106" s="9">
-        <v>281</v>
+        <v>49</v>
       </c>
       <c r="I106" s="9"/>
       <c r="J106" s="9"/>
       <c r="K106" s="9"/>
       <c t="s" r="L106" s="10">
-        <v>187</v>
+        <v>13</v>
       </c>
       <c r="M106" s="10"/>
       <c t="s" r="N106" s="8">
-        <v>282</v>
+        <v>79</v>
       </c>
       <c r="O106" s="8"/>
       <c t="s" r="P106" s="11">
-        <v>196</v>
+        <v>280</v>
       </c>
       <c t="s" r="Q106" s="12">
-        <v>42</v>
+        <v>20</v>
       </c>
     </row>
     <row r="107" ht="25.5" customHeight="1">
@@ -4926,28 +4935,28 @@
       </c>
       <c r="B107" s="7"/>
       <c t="s" r="C107" s="8">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="D107" s="8"/>
       <c r="E107" s="8"/>
       <c r="F107" s="8"/>
       <c r="G107" s="8"/>
       <c t="s" r="H107" s="9">
-        <v>42</v>
+        <v>20</v>
       </c>
       <c r="I107" s="9"/>
       <c r="J107" s="9"/>
       <c r="K107" s="9"/>
       <c t="s" r="L107" s="10">
-        <v>187</v>
+        <v>191</v>
       </c>
       <c r="M107" s="10"/>
       <c t="s" r="N107" s="8">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="O107" s="8"/>
       <c t="s" r="P107" s="11">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c t="s" r="Q107" s="12">
         <v>20</v>
@@ -4959,31 +4968,31 @@
       </c>
       <c r="B108" s="7"/>
       <c t="s" r="C108" s="8">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="D108" s="8"/>
       <c r="E108" s="8"/>
       <c r="F108" s="8"/>
       <c r="G108" s="8"/>
       <c t="s" r="H108" s="9">
-        <v>49</v>
+        <v>285</v>
       </c>
       <c r="I108" s="9"/>
       <c r="J108" s="9"/>
       <c r="K108" s="9"/>
       <c t="s" r="L108" s="10">
-        <v>187</v>
+        <v>191</v>
       </c>
       <c r="M108" s="10"/>
       <c t="s" r="N108" s="8">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="O108" s="8"/>
       <c t="s" r="P108" s="11">
-        <v>288</v>
+        <v>200</v>
       </c>
       <c t="s" r="Q108" s="12">
-        <v>22</v>
+        <v>42</v>
       </c>
     </row>
     <row r="109" ht="25.5" customHeight="1">
@@ -4992,28 +5001,28 @@
       </c>
       <c r="B109" s="7"/>
       <c t="s" r="C109" s="8">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="D109" s="8"/>
       <c r="E109" s="8"/>
       <c r="F109" s="8"/>
       <c r="G109" s="8"/>
       <c t="s" r="H109" s="9">
-        <v>20</v>
+        <v>42</v>
       </c>
       <c r="I109" s="9"/>
       <c r="J109" s="9"/>
       <c r="K109" s="9"/>
       <c t="s" r="L109" s="10">
-        <v>187</v>
+        <v>191</v>
       </c>
       <c r="M109" s="10"/>
       <c t="s" r="N109" s="8">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="O109" s="8"/>
       <c t="s" r="P109" s="11">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c t="s" r="Q109" s="12">
         <v>20</v>
@@ -5025,28 +5034,28 @@
       </c>
       <c r="B110" s="7"/>
       <c t="s" r="C110" s="8">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="D110" s="8"/>
       <c r="E110" s="8"/>
       <c r="F110" s="8"/>
       <c r="G110" s="8"/>
       <c t="s" r="H110" s="9">
-        <v>293</v>
+        <v>49</v>
       </c>
       <c r="I110" s="9"/>
       <c r="J110" s="9"/>
       <c r="K110" s="9"/>
       <c t="s" r="L110" s="10">
-        <v>187</v>
+        <v>191</v>
       </c>
       <c r="M110" s="10"/>
       <c t="s" r="N110" s="8">
-        <v>294</v>
+        <v>291</v>
       </c>
       <c r="O110" s="8"/>
       <c t="s" r="P110" s="11">
-        <v>295</v>
+        <v>292</v>
       </c>
       <c t="s" r="Q110" s="12">
         <v>22</v>
@@ -5058,31 +5067,31 @@
       </c>
       <c r="B111" s="7"/>
       <c t="s" r="C111" s="8">
-        <v>296</v>
+        <v>293</v>
       </c>
       <c r="D111" s="8"/>
       <c r="E111" s="8"/>
       <c r="F111" s="8"/>
       <c r="G111" s="8"/>
       <c t="s" r="H111" s="9">
-        <v>49</v>
+        <v>20</v>
       </c>
       <c r="I111" s="9"/>
       <c r="J111" s="9"/>
       <c r="K111" s="9"/>
       <c t="s" r="L111" s="10">
-        <v>187</v>
+        <v>191</v>
       </c>
       <c r="M111" s="10"/>
       <c t="s" r="N111" s="8">
-        <v>297</v>
+        <v>294</v>
       </c>
       <c r="O111" s="8"/>
       <c t="s" r="P111" s="11">
-        <v>298</v>
+        <v>295</v>
       </c>
       <c t="s" r="Q111" s="12">
-        <v>299</v>
+        <v>20</v>
       </c>
     </row>
     <row r="112" ht="25.5" customHeight="1">
@@ -5091,31 +5100,31 @@
       </c>
       <c r="B112" s="7"/>
       <c t="s" r="C112" s="8">
-        <v>300</v>
+        <v>296</v>
       </c>
       <c r="D112" s="8"/>
       <c r="E112" s="8"/>
       <c r="F112" s="8"/>
       <c r="G112" s="8"/>
       <c t="s" r="H112" s="9">
-        <v>49</v>
+        <v>297</v>
       </c>
       <c r="I112" s="9"/>
       <c r="J112" s="9"/>
       <c r="K112" s="9"/>
       <c t="s" r="L112" s="10">
-        <v>187</v>
+        <v>191</v>
       </c>
       <c r="M112" s="10"/>
       <c t="s" r="N112" s="8">
-        <v>273</v>
+        <v>298</v>
       </c>
       <c r="O112" s="8"/>
       <c t="s" r="P112" s="11">
-        <v>245</v>
+        <v>299</v>
       </c>
       <c t="s" r="Q112" s="12">
-        <v>301</v>
+        <v>22</v>
       </c>
     </row>
     <row r="113" ht="24.75" customHeight="1">
@@ -5124,7 +5133,7 @@
       </c>
       <c r="B113" s="7"/>
       <c t="s" r="C113" s="8">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="D113" s="8"/>
       <c r="E113" s="8"/>
@@ -5137,18 +5146,18 @@
       <c r="J113" s="9"/>
       <c r="K113" s="9"/>
       <c t="s" r="L113" s="10">
-        <v>187</v>
+        <v>191</v>
       </c>
       <c r="M113" s="10"/>
       <c t="s" r="N113" s="8">
-        <v>287</v>
+        <v>301</v>
       </c>
       <c r="O113" s="8"/>
       <c t="s" r="P113" s="11">
-        <v>288</v>
+        <v>302</v>
       </c>
       <c t="s" r="Q113" s="12">
-        <v>22</v>
+        <v>303</v>
       </c>
     </row>
     <row r="114" ht="25.5" customHeight="1">
@@ -5157,31 +5166,31 @@
       </c>
       <c r="B114" s="7"/>
       <c t="s" r="C114" s="8">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="D114" s="8"/>
       <c r="E114" s="8"/>
       <c r="F114" s="8"/>
       <c r="G114" s="8"/>
       <c t="s" r="H114" s="9">
-        <v>22</v>
+        <v>49</v>
       </c>
       <c r="I114" s="9"/>
       <c r="J114" s="9"/>
       <c r="K114" s="9"/>
       <c t="s" r="L114" s="10">
-        <v>187</v>
+        <v>191</v>
       </c>
       <c r="M114" s="10"/>
       <c t="s" r="N114" s="8">
-        <v>290</v>
+        <v>277</v>
       </c>
       <c r="O114" s="8"/>
       <c t="s" r="P114" s="11">
-        <v>291</v>
+        <v>249</v>
       </c>
       <c t="s" r="Q114" s="12">
-        <v>20</v>
+        <v>305</v>
       </c>
     </row>
     <row r="115" ht="24.75" customHeight="1">
@@ -5190,7 +5199,7 @@
       </c>
       <c r="B115" s="7"/>
       <c t="s" r="C115" s="8">
-        <v>304</v>
+        <v>306</v>
       </c>
       <c r="D115" s="8"/>
       <c r="E115" s="8"/>
@@ -5203,18 +5212,18 @@
       <c r="J115" s="9"/>
       <c r="K115" s="9"/>
       <c t="s" r="L115" s="10">
-        <v>187</v>
+        <v>191</v>
       </c>
       <c r="M115" s="10"/>
       <c t="s" r="N115" s="8">
-        <v>282</v>
+        <v>291</v>
       </c>
       <c r="O115" s="8"/>
       <c t="s" r="P115" s="11">
-        <v>305</v>
+        <v>292</v>
       </c>
       <c t="s" r="Q115" s="12">
-        <v>20</v>
+        <v>22</v>
       </c>
     </row>
     <row r="116" ht="25.5" customHeight="1">
@@ -5223,28 +5232,28 @@
       </c>
       <c r="B116" s="7"/>
       <c t="s" r="C116" s="8">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="D116" s="8"/>
       <c r="E116" s="8"/>
       <c r="F116" s="8"/>
       <c r="G116" s="8"/>
       <c t="s" r="H116" s="9">
-        <v>307</v>
+        <v>22</v>
       </c>
       <c r="I116" s="9"/>
       <c r="J116" s="9"/>
       <c r="K116" s="9"/>
       <c t="s" r="L116" s="10">
-        <v>187</v>
+        <v>191</v>
       </c>
       <c r="M116" s="10"/>
       <c t="s" r="N116" s="8">
-        <v>308</v>
+        <v>294</v>
       </c>
       <c r="O116" s="8"/>
       <c t="s" r="P116" s="11">
-        <v>309</v>
+        <v>295</v>
       </c>
       <c t="s" r="Q116" s="12">
         <v>20</v>
@@ -5256,28 +5265,28 @@
       </c>
       <c r="B117" s="7"/>
       <c t="s" r="C117" s="8">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="D117" s="8"/>
       <c r="E117" s="8"/>
       <c r="F117" s="8"/>
       <c r="G117" s="8"/>
       <c t="s" r="H117" s="9">
-        <v>42</v>
+        <v>49</v>
       </c>
       <c r="I117" s="9"/>
       <c r="J117" s="9"/>
       <c r="K117" s="9"/>
       <c t="s" r="L117" s="10">
-        <v>187</v>
+        <v>191</v>
       </c>
       <c r="M117" s="10"/>
       <c t="s" r="N117" s="8">
-        <v>311</v>
+        <v>286</v>
       </c>
       <c r="O117" s="8"/>
       <c t="s" r="P117" s="11">
-        <v>312</v>
+        <v>309</v>
       </c>
       <c t="s" r="Q117" s="12">
         <v>20</v>
@@ -5289,31 +5298,31 @@
       </c>
       <c r="B118" s="7"/>
       <c t="s" r="C118" s="8">
-        <v>313</v>
+        <v>310</v>
       </c>
       <c r="D118" s="8"/>
       <c r="E118" s="8"/>
       <c r="F118" s="8"/>
       <c r="G118" s="8"/>
       <c t="s" r="H118" s="9">
-        <v>314</v>
+        <v>311</v>
       </c>
       <c r="I118" s="9"/>
       <c r="J118" s="9"/>
       <c r="K118" s="9"/>
       <c t="s" r="L118" s="10">
-        <v>187</v>
+        <v>191</v>
       </c>
       <c r="M118" s="10"/>
       <c t="s" r="N118" s="8">
-        <v>290</v>
+        <v>312</v>
       </c>
       <c r="O118" s="8"/>
       <c t="s" r="P118" s="11">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c t="s" r="Q118" s="12">
-        <v>91</v>
+        <v>20</v>
       </c>
     </row>
     <row r="119" ht="25.5" customHeight="1">
@@ -5322,28 +5331,28 @@
       </c>
       <c r="B119" s="7"/>
       <c t="s" r="C119" s="8">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="D119" s="8"/>
       <c r="E119" s="8"/>
       <c r="F119" s="8"/>
       <c r="G119" s="8"/>
       <c t="s" r="H119" s="9">
-        <v>299</v>
+        <v>42</v>
       </c>
       <c r="I119" s="9"/>
       <c r="J119" s="9"/>
       <c r="K119" s="9"/>
       <c t="s" r="L119" s="10">
-        <v>187</v>
+        <v>191</v>
       </c>
       <c r="M119" s="10"/>
       <c t="s" r="N119" s="8">
-        <v>201</v>
+        <v>315</v>
       </c>
       <c r="O119" s="8"/>
       <c t="s" r="P119" s="11">
-        <v>202</v>
+        <v>316</v>
       </c>
       <c t="s" r="Q119" s="12">
         <v>20</v>
@@ -5362,24 +5371,24 @@
       <c r="F120" s="8"/>
       <c r="G120" s="8"/>
       <c t="s" r="H120" s="9">
-        <v>49</v>
+        <v>318</v>
       </c>
       <c r="I120" s="9"/>
       <c r="J120" s="9"/>
       <c r="K120" s="9"/>
       <c t="s" r="L120" s="10">
-        <v>187</v>
+        <v>191</v>
       </c>
       <c r="M120" s="10"/>
       <c t="s" r="N120" s="8">
-        <v>284</v>
+        <v>294</v>
       </c>
       <c r="O120" s="8"/>
       <c t="s" r="P120" s="11">
-        <v>305</v>
+        <v>319</v>
       </c>
       <c t="s" r="Q120" s="12">
-        <v>22</v>
+        <v>91</v>
       </c>
     </row>
     <row r="121" ht="25.5" customHeight="1">
@@ -5388,28 +5397,28 @@
       </c>
       <c r="B121" s="7"/>
       <c t="s" r="C121" s="8">
-        <v>318</v>
+        <v>320</v>
       </c>
       <c r="D121" s="8"/>
       <c r="E121" s="8"/>
       <c r="F121" s="8"/>
       <c r="G121" s="8"/>
       <c t="s" r="H121" s="9">
-        <v>20</v>
+        <v>303</v>
       </c>
       <c r="I121" s="9"/>
       <c r="J121" s="9"/>
       <c r="K121" s="9"/>
       <c t="s" r="L121" s="10">
-        <v>187</v>
+        <v>191</v>
       </c>
       <c r="M121" s="10"/>
       <c t="s" r="N121" s="8">
-        <v>319</v>
+        <v>205</v>
       </c>
       <c r="O121" s="8"/>
       <c t="s" r="P121" s="11">
-        <v>320</v>
+        <v>206</v>
       </c>
       <c t="s" r="Q121" s="12">
         <v>20</v>
@@ -5428,24 +5437,24 @@
       <c r="F122" s="8"/>
       <c r="G122" s="8"/>
       <c t="s" r="H122" s="9">
-        <v>299</v>
+        <v>49</v>
       </c>
       <c r="I122" s="9"/>
       <c r="J122" s="9"/>
       <c r="K122" s="9"/>
       <c t="s" r="L122" s="10">
-        <v>187</v>
+        <v>191</v>
       </c>
       <c r="M122" s="10"/>
       <c t="s" r="N122" s="8">
-        <v>136</v>
+        <v>288</v>
       </c>
       <c r="O122" s="8"/>
       <c t="s" r="P122" s="11">
-        <v>322</v>
+        <v>309</v>
       </c>
       <c t="s" r="Q122" s="12">
-        <v>42</v>
+        <v>22</v>
       </c>
     </row>
     <row r="123" ht="24.75" customHeight="1">
@@ -5454,28 +5463,28 @@
       </c>
       <c r="B123" s="7"/>
       <c t="s" r="C123" s="8">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="D123" s="8"/>
       <c r="E123" s="8"/>
       <c r="F123" s="8"/>
       <c r="G123" s="8"/>
       <c t="s" r="H123" s="9">
-        <v>49</v>
+        <v>20</v>
       </c>
       <c r="I123" s="9"/>
       <c r="J123" s="9"/>
       <c r="K123" s="9"/>
       <c t="s" r="L123" s="10">
-        <v>187</v>
+        <v>191</v>
       </c>
       <c r="M123" s="10"/>
       <c t="s" r="N123" s="8">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="O123" s="8"/>
       <c t="s" r="P123" s="11">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c t="s" r="Q123" s="12">
         <v>20</v>
@@ -5487,66 +5496,132 @@
       </c>
       <c r="B124" s="7"/>
       <c t="s" r="C124" s="8">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="D124" s="8"/>
       <c r="E124" s="8"/>
       <c r="F124" s="8"/>
       <c r="G124" s="8"/>
       <c t="s" r="H124" s="9">
-        <v>22</v>
+        <v>303</v>
       </c>
       <c r="I124" s="9"/>
       <c r="J124" s="9"/>
       <c r="K124" s="9"/>
       <c t="s" r="L124" s="10">
-        <v>187</v>
+        <v>191</v>
       </c>
       <c r="M124" s="10"/>
       <c t="s" r="N124" s="8">
-        <v>284</v>
+        <v>137</v>
       </c>
       <c r="O124" s="8"/>
       <c t="s" r="P124" s="11">
-        <v>285</v>
+        <v>143</v>
       </c>
       <c t="s" r="Q124" s="12">
-        <v>20</v>
+        <v>42</v>
       </c>
     </row>
     <row r="125" ht="24.75" customHeight="1">
-      <c r="P125" s="13">
-        <v>7832.3950000000004</v>
-      </c>
-      <c r="Q125" s="13"/>
-    </row>
-    <row r="126" ht="16.5" customHeight="1">
-      <c t="s" r="A126" s="14">
+      <c r="A125" s="7">
+        <v>119</v>
+      </c>
+      <c r="B125" s="7"/>
+      <c t="s" r="C125" s="8">
+        <v>326</v>
+      </c>
+      <c r="D125" s="8"/>
+      <c r="E125" s="8"/>
+      <c r="F125" s="8"/>
+      <c r="G125" s="8"/>
+      <c t="s" r="H125" s="9">
+        <v>49</v>
+      </c>
+      <c r="I125" s="9"/>
+      <c r="J125" s="9"/>
+      <c r="K125" s="9"/>
+      <c t="s" r="L125" s="10">
+        <v>191</v>
+      </c>
+      <c r="M125" s="10"/>
+      <c t="s" r="N125" s="8">
         <v>327</v>
       </c>
-      <c r="B126" s="14"/>
-      <c r="C126" s="14"/>
-      <c r="D126" s="14"/>
-      <c r="E126" s="14"/>
-      <c r="F126" s="14"/>
-      <c t="s" r="G126" s="15">
+      <c r="O125" s="8"/>
+      <c t="s" r="P125" s="11">
         <v>328</v>
       </c>
-      <c r="H126" s="15"/>
-      <c r="I126" s="15"/>
-      <c r="J126" s="16"/>
-      <c t="s" r="K126" s="17">
+      <c t="s" r="Q125" s="12">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="126" ht="25.5" customHeight="1">
+      <c r="A126" s="7">
+        <v>120</v>
+      </c>
+      <c r="B126" s="7"/>
+      <c t="s" r="C126" s="8">
         <v>329</v>
       </c>
-      <c r="L126" s="17"/>
-      <c r="M126" s="17"/>
-      <c r="N126" s="17"/>
-      <c r="O126" s="17"/>
-      <c r="P126" s="17"/>
-      <c r="Q126" s="17"/>
+      <c r="D126" s="8"/>
+      <c r="E126" s="8"/>
+      <c r="F126" s="8"/>
+      <c r="G126" s="8"/>
+      <c t="s" r="H126" s="9">
+        <v>22</v>
+      </c>
+      <c r="I126" s="9"/>
+      <c r="J126" s="9"/>
+      <c r="K126" s="9"/>
+      <c t="s" r="L126" s="10">
+        <v>191</v>
+      </c>
+      <c r="M126" s="10"/>
+      <c t="s" r="N126" s="8">
+        <v>288</v>
+      </c>
+      <c r="O126" s="8"/>
+      <c t="s" r="P126" s="11">
+        <v>289</v>
+      </c>
+      <c t="s" r="Q126" s="12">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="127" ht="25.5" customHeight="1">
+      <c r="P127" s="13">
+        <v>7991.3950000000004</v>
+      </c>
+      <c r="Q127" s="13"/>
+    </row>
+    <row r="128" ht="16.5" customHeight="1">
+      <c t="s" r="A128" s="14">
+        <v>330</v>
+      </c>
+      <c r="B128" s="14"/>
+      <c r="C128" s="14"/>
+      <c r="D128" s="14"/>
+      <c r="E128" s="14"/>
+      <c r="F128" s="14"/>
+      <c t="s" r="G128" s="15">
+        <v>331</v>
+      </c>
+      <c r="H128" s="15"/>
+      <c r="I128" s="15"/>
+      <c r="J128" s="16"/>
+      <c t="s" r="K128" s="17">
+        <v>332</v>
+      </c>
+      <c r="L128" s="17"/>
+      <c r="M128" s="17"/>
+      <c r="N128" s="17"/>
+      <c r="O128" s="17"/>
+      <c r="P128" s="17"/>
+      <c r="Q128" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="602">
+  <mergeCells count="612">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -6145,10 +6220,20 @@
     <mergeCell ref="H124:K124"/>
     <mergeCell ref="L124:M124"/>
     <mergeCell ref="N124:O124"/>
-    <mergeCell ref="P125:Q125"/>
-    <mergeCell ref="A126:F126"/>
-    <mergeCell ref="G126:I126"/>
-    <mergeCell ref="K126:Q126"/>
+    <mergeCell ref="A125:B125"/>
+    <mergeCell ref="C125:G125"/>
+    <mergeCell ref="H125:K125"/>
+    <mergeCell ref="L125:M125"/>
+    <mergeCell ref="N125:O125"/>
+    <mergeCell ref="A126:B126"/>
+    <mergeCell ref="C126:G126"/>
+    <mergeCell ref="H126:K126"/>
+    <mergeCell ref="L126:M126"/>
+    <mergeCell ref="N126:O126"/>
+    <mergeCell ref="P127:Q127"/>
+    <mergeCell ref="A128:F128"/>
+    <mergeCell ref="G128:I128"/>
+    <mergeCell ref="K128:Q128"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-08-08_00-00.xlsx
+++ b/DaySale_2025-08-08_00-00.xlsx
@@ -302,6 +302,15 @@
     <t>75.0000</t>
   </si>
   <si>
+    <t>DEXAMETHASONE-AMRIYA 8MG/2ML 3 AMP.</t>
+  </si>
+  <si>
+    <t>3:1</t>
+  </si>
+  <si>
+    <t>11.8800</t>
+  </si>
+  <si>
     <t>DIAMONRECTA 5 MG 30 F.C. TAB.</t>
   </si>
   <si>
@@ -668,9 +677,6 @@
     <t>132.00</t>
   </si>
   <si>
-    <t>11.8800</t>
-  </si>
-  <si>
     <t>0:9</t>
   </si>
   <si>
@@ -689,9 +695,6 @@
     <t>ROWATINEX 45 CAPSULES</t>
   </si>
   <si>
-    <t>3:1</t>
-  </si>
-  <si>
     <t>SILDEN 50 MG 4 F.C. TABS.</t>
   </si>
   <si>
@@ -830,6 +833,15 @@
     <t>64.3500</t>
   </si>
   <si>
+    <t>VOLTAREN 75MG/3ML 3 AMP.</t>
+  </si>
+  <si>
+    <t>51.00</t>
+  </si>
+  <si>
+    <t>16.8300</t>
+  </si>
+  <si>
     <t>VONASPIRE 20MG 14 F.C. TAB</t>
   </si>
   <si>
@@ -932,6 +944,9 @@
     <t>سرنجات 5 سم</t>
   </si>
   <si>
+    <t>9.0000</t>
+  </si>
+  <si>
     <t>سلاكه ازن خشب كبيره</t>
   </si>
   <si>
@@ -1001,7 +1016,7 @@
     <t>مناديل بكر فاين</t>
   </si>
   <si>
-    <t>Friday, 8 August, 2025 11:15 PM</t>
+    <t>Friday, 8 August, 2025 11:16 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -2467,7 +2482,7 @@
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>32</v>
+        <v>98</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
@@ -2477,14 +2492,14 @@
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
-        <v>98</v>
+        <v>92</v>
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
         <v>99</v>
       </c>
       <c t="s" r="Q32" s="12">
-        <v>32</v>
+        <v>16</v>
       </c>
     </row>
     <row r="33" ht="24.75" customHeight="1">
@@ -2500,7 +2515,7 @@
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>49</v>
+        <v>32</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
@@ -2517,7 +2532,7 @@
         <v>102</v>
       </c>
       <c t="s" r="Q33" s="12">
-        <v>91</v>
+        <v>32</v>
       </c>
     </row>
     <row r="34" ht="25.5" customHeight="1">
@@ -2533,7 +2548,7 @@
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>42</v>
+        <v>49</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
@@ -2550,7 +2565,7 @@
         <v>105</v>
       </c>
       <c t="s" r="Q34" s="12">
-        <v>22</v>
+        <v>91</v>
       </c>
     </row>
     <row r="35" ht="24.75" customHeight="1">
@@ -2566,7 +2581,7 @@
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>20</v>
+        <v>42</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
@@ -2583,7 +2598,7 @@
         <v>108</v>
       </c>
       <c t="s" r="Q35" s="12">
-        <v>16</v>
+        <v>22</v>
       </c>
     </row>
     <row r="36" ht="25.5" customHeight="1">
@@ -2616,7 +2631,7 @@
         <v>111</v>
       </c>
       <c t="s" r="Q36" s="12">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="37" ht="25.5" customHeight="1">
@@ -2632,7 +2647,7 @@
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>32</v>
+        <v>20</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
@@ -2642,14 +2657,14 @@
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>76</v>
+        <v>113</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
-        <v>77</v>
+        <v>114</v>
       </c>
       <c t="s" r="Q37" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="38" ht="24.75" customHeight="1">
@@ -2658,14 +2673,14 @@
       </c>
       <c r="B38" s="7"/>
       <c t="s" r="C38" s="8">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="D38" s="8"/>
       <c r="E38" s="8"/>
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>114</v>
+        <v>32</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
@@ -2675,14 +2690,14 @@
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>50</v>
+        <v>76</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
-        <v>51</v>
+        <v>77</v>
       </c>
       <c t="s" r="Q38" s="12">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="39" ht="25.5" customHeight="1">
@@ -2691,14 +2706,14 @@
       </c>
       <c r="B39" s="7"/>
       <c t="s" r="C39" s="8">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="D39" s="8"/>
       <c r="E39" s="8"/>
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>49</v>
+        <v>117</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
@@ -2708,11 +2723,11 @@
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>116</v>
+        <v>50</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
-        <v>117</v>
+        <v>51</v>
       </c>
       <c t="s" r="Q39" s="12">
         <v>20</v>
@@ -2731,7 +2746,7 @@
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>42</v>
+        <v>49</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
@@ -2748,7 +2763,7 @@
         <v>120</v>
       </c>
       <c t="s" r="Q40" s="12">
-        <v>121</v>
+        <v>20</v>
       </c>
     </row>
     <row r="41" ht="25.5" customHeight="1">
@@ -2757,14 +2772,14 @@
       </c>
       <c r="B41" s="7"/>
       <c t="s" r="C41" s="8">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="D41" s="8"/>
       <c r="E41" s="8"/>
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>123</v>
+        <v>42</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
@@ -2774,14 +2789,14 @@
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c t="s" r="Q41" s="12">
-        <v>32</v>
+        <v>124</v>
       </c>
     </row>
     <row r="42" ht="25.5" customHeight="1">
@@ -2790,14 +2805,14 @@
       </c>
       <c r="B42" s="7"/>
       <c t="s" r="C42" s="8">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="D42" s="8"/>
       <c r="E42" s="8"/>
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
@@ -2807,11 +2822,11 @@
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c t="s" r="Q42" s="12">
         <v>32</v>
@@ -2823,14 +2838,14 @@
       </c>
       <c r="B43" s="7"/>
       <c t="s" r="C43" s="8">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="D43" s="8"/>
       <c r="E43" s="8"/>
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>20</v>
+        <v>130</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
@@ -2847,7 +2862,7 @@
         <v>132</v>
       </c>
       <c t="s" r="Q43" s="12">
-        <v>20</v>
+        <v>32</v>
       </c>
     </row>
     <row r="44" ht="25.5" customHeight="1">
@@ -2896,7 +2911,7 @@
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
@@ -2913,7 +2928,7 @@
         <v>138</v>
       </c>
       <c t="s" r="Q45" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="46" ht="25.5" customHeight="1">
@@ -2929,7 +2944,7 @@
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>22</v>
+        <v>12</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
@@ -2946,7 +2961,7 @@
         <v>141</v>
       </c>
       <c t="s" r="Q46" s="12">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="47" ht="25.5" customHeight="1">
@@ -2962,7 +2977,7 @@
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>59</v>
+        <v>22</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
@@ -2972,14 +2987,14 @@
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>92</v>
+        <v>143</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c t="s" r="Q47" s="12">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="48" ht="24.75" customHeight="1">
@@ -2988,14 +3003,14 @@
       </c>
       <c r="B48" s="7"/>
       <c t="s" r="C48" s="8">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="D48" s="8"/>
       <c r="E48" s="8"/>
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>49</v>
+        <v>59</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
@@ -3005,14 +3020,14 @@
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>50</v>
+        <v>92</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
-        <v>51</v>
+        <v>146</v>
       </c>
       <c t="s" r="Q48" s="12">
-        <v>20</v>
+        <v>22</v>
       </c>
     </row>
     <row r="49" ht="25.5" customHeight="1">
@@ -3021,14 +3036,14 @@
       </c>
       <c r="B49" s="7"/>
       <c t="s" r="C49" s="8">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="D49" s="8"/>
       <c r="E49" s="8"/>
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>34</v>
+        <v>49</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
@@ -3038,14 +3053,14 @@
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>146</v>
+        <v>50</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
-        <v>147</v>
+        <v>51</v>
       </c>
       <c t="s" r="Q49" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="50" ht="24.75" customHeight="1">
@@ -3061,7 +3076,7 @@
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>42</v>
+        <v>34</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
@@ -3071,14 +3086,14 @@
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>110</v>
+        <v>149</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
-        <v>111</v>
+        <v>150</v>
       </c>
       <c t="s" r="Q50" s="12">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="51" ht="25.5" customHeight="1">
@@ -3087,14 +3102,14 @@
       </c>
       <c r="B51" s="7"/>
       <c t="s" r="C51" s="8">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="D51" s="8"/>
       <c r="E51" s="8"/>
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>22</v>
+        <v>42</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
@@ -3104,11 +3119,11 @@
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c t="s" r="Q51" s="12">
         <v>20</v>
@@ -3120,14 +3135,14 @@
       </c>
       <c r="B52" s="7"/>
       <c t="s" r="C52" s="8">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="D52" s="8"/>
       <c r="E52" s="8"/>
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>34</v>
+        <v>22</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
@@ -3137,14 +3152,14 @@
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>151</v>
+        <v>113</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
-        <v>152</v>
+        <v>114</v>
       </c>
       <c t="s" r="Q52" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="53" ht="24.75" customHeight="1">
@@ -3160,7 +3175,7 @@
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>49</v>
+        <v>34</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
@@ -3170,14 +3185,14 @@
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
-        <v>95</v>
+        <v>154</v>
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
-        <v>96</v>
+        <v>155</v>
       </c>
       <c t="s" r="Q53" s="12">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="54" ht="25.5" customHeight="1">
@@ -3186,14 +3201,14 @@
       </c>
       <c r="B54" s="7"/>
       <c t="s" r="C54" s="8">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="D54" s="8"/>
       <c r="E54" s="8"/>
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>20</v>
+        <v>49</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
@@ -3203,14 +3218,14 @@
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
-        <v>155</v>
+        <v>95</v>
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
-        <v>156</v>
+        <v>96</v>
       </c>
       <c t="s" r="Q54" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="55" ht="24.75" customHeight="1">
@@ -3226,7 +3241,7 @@
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>158</v>
+        <v>20</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
@@ -3236,14 +3251,14 @@
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c t="s" r="Q55" s="12">
-        <v>121</v>
+        <v>16</v>
       </c>
     </row>
     <row r="56" ht="25.5" customHeight="1">
@@ -3252,14 +3267,14 @@
       </c>
       <c r="B56" s="7"/>
       <c t="s" r="C56" s="8">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="D56" s="8"/>
       <c r="E56" s="8"/>
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>42</v>
+        <v>161</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
@@ -3276,7 +3291,7 @@
         <v>163</v>
       </c>
       <c t="s" r="Q56" s="12">
-        <v>20</v>
+        <v>124</v>
       </c>
     </row>
     <row r="57" ht="25.5" customHeight="1">
@@ -3292,7 +3307,7 @@
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>34</v>
+        <v>42</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
@@ -3309,7 +3324,7 @@
         <v>166</v>
       </c>
       <c t="s" r="Q57" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="58" ht="24.75" customHeight="1">
@@ -3335,11 +3350,11 @@
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
-        <v>71</v>
+        <v>168</v>
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
-        <v>72</v>
+        <v>169</v>
       </c>
       <c t="s" r="Q58" s="12">
         <v>16</v>
@@ -3351,14 +3366,14 @@
       </c>
       <c r="B59" s="7"/>
       <c t="s" r="C59" s="8">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="D59" s="8"/>
       <c r="E59" s="8"/>
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c t="s" r="H59" s="9">
-        <v>49</v>
+        <v>34</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
@@ -3368,11 +3383,11 @@
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
-        <v>92</v>
+        <v>71</v>
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
-        <v>169</v>
+        <v>72</v>
       </c>
       <c t="s" r="Q59" s="12">
         <v>16</v>
@@ -3384,14 +3399,14 @@
       </c>
       <c r="B60" s="7"/>
       <c t="s" r="C60" s="8">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="D60" s="8"/>
       <c r="E60" s="8"/>
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c t="s" r="H60" s="9">
-        <v>121</v>
+        <v>49</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
@@ -3401,11 +3416,11 @@
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
-        <v>50</v>
+        <v>92</v>
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c t="s" r="Q60" s="12">
         <v>16</v>
@@ -3417,14 +3432,14 @@
       </c>
       <c r="B61" s="7"/>
       <c t="s" r="C61" s="8">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="D61" s="8"/>
       <c r="E61" s="8"/>
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
       <c t="s" r="H61" s="9">
-        <v>16</v>
+        <v>124</v>
       </c>
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
@@ -3434,7 +3449,7 @@
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
-        <v>173</v>
+        <v>50</v>
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
@@ -3457,7 +3472,7 @@
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
       <c t="s" r="H62" s="9">
-        <v>34</v>
+        <v>16</v>
       </c>
       <c r="I62" s="9"/>
       <c r="J62" s="9"/>
@@ -3471,7 +3486,7 @@
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
-        <v>93</v>
+        <v>177</v>
       </c>
       <c t="s" r="Q62" s="12">
         <v>16</v>
@@ -3483,14 +3498,14 @@
       </c>
       <c r="B63" s="7"/>
       <c t="s" r="C63" s="8">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="D63" s="8"/>
       <c r="E63" s="8"/>
       <c r="F63" s="8"/>
       <c r="G63" s="8"/>
       <c t="s" r="H63" s="9">
-        <v>49</v>
+        <v>34</v>
       </c>
       <c r="I63" s="9"/>
       <c r="J63" s="9"/>
@@ -3500,14 +3515,14 @@
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="O63" s="8"/>
       <c t="s" r="P63" s="11">
-        <v>179</v>
+        <v>93</v>
       </c>
       <c t="s" r="Q63" s="12">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="64" ht="25.5" customHeight="1">
@@ -3523,7 +3538,7 @@
       <c r="F64" s="8"/>
       <c r="G64" s="8"/>
       <c t="s" r="H64" s="9">
-        <v>32</v>
+        <v>49</v>
       </c>
       <c r="I64" s="9"/>
       <c r="J64" s="9"/>
@@ -3540,7 +3555,7 @@
         <v>182</v>
       </c>
       <c t="s" r="Q64" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="65" ht="24.75" customHeight="1">
@@ -3556,7 +3571,7 @@
       <c r="F65" s="8"/>
       <c r="G65" s="8"/>
       <c t="s" r="H65" s="9">
-        <v>22</v>
+        <v>32</v>
       </c>
       <c r="I65" s="9"/>
       <c r="J65" s="9"/>
@@ -3573,7 +3588,7 @@
         <v>185</v>
       </c>
       <c t="s" r="Q65" s="12">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="66" ht="25.5" customHeight="1">
@@ -3589,7 +3604,7 @@
       <c r="F66" s="8"/>
       <c r="G66" s="8"/>
       <c t="s" r="H66" s="9">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="I66" s="9"/>
       <c r="J66" s="9"/>
@@ -3606,7 +3621,7 @@
         <v>188</v>
       </c>
       <c t="s" r="Q66" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="67" ht="25.5" customHeight="1">
@@ -3622,24 +3637,24 @@
       <c r="F67" s="8"/>
       <c r="G67" s="8"/>
       <c t="s" r="H67" s="9">
-        <v>190</v>
+        <v>20</v>
       </c>
       <c r="I67" s="9"/>
       <c r="J67" s="9"/>
       <c r="K67" s="9"/>
       <c t="s" r="L67" s="10">
-        <v>191</v>
+        <v>13</v>
       </c>
       <c r="M67" s="10"/>
       <c t="s" r="N67" s="8">
-        <v>159</v>
+        <v>190</v>
       </c>
       <c r="O67" s="8"/>
       <c t="s" r="P67" s="11">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c t="s" r="Q67" s="12">
-        <v>37</v>
+        <v>16</v>
       </c>
     </row>
     <row r="68" ht="24.75" customHeight="1">
@@ -3648,31 +3663,31 @@
       </c>
       <c r="B68" s="7"/>
       <c t="s" r="C68" s="8">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="D68" s="8"/>
       <c r="E68" s="8"/>
       <c r="F68" s="8"/>
       <c r="G68" s="8"/>
       <c t="s" r="H68" s="9">
-        <v>42</v>
+        <v>193</v>
       </c>
       <c r="I68" s="9"/>
       <c r="J68" s="9"/>
       <c r="K68" s="9"/>
       <c t="s" r="L68" s="10">
-        <v>13</v>
+        <v>194</v>
       </c>
       <c r="M68" s="10"/>
       <c t="s" r="N68" s="8">
-        <v>107</v>
+        <v>162</v>
       </c>
       <c r="O68" s="8"/>
       <c t="s" r="P68" s="11">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c t="s" r="Q68" s="12">
-        <v>20</v>
+        <v>37</v>
       </c>
     </row>
     <row r="69" ht="25.5" customHeight="1">
@@ -3681,14 +3696,14 @@
       </c>
       <c r="B69" s="7"/>
       <c t="s" r="C69" s="8">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="D69" s="8"/>
       <c r="E69" s="8"/>
       <c r="F69" s="8"/>
       <c r="G69" s="8"/>
       <c t="s" r="H69" s="9">
-        <v>16</v>
+        <v>42</v>
       </c>
       <c r="I69" s="9"/>
       <c r="J69" s="9"/>
@@ -3698,11 +3713,11 @@
       </c>
       <c r="M69" s="10"/>
       <c t="s" r="N69" s="8">
-        <v>181</v>
+        <v>110</v>
       </c>
       <c r="O69" s="8"/>
       <c t="s" r="P69" s="11">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c t="s" r="Q69" s="12">
         <v>20</v>
@@ -3714,7 +3729,7 @@
       </c>
       <c r="B70" s="7"/>
       <c t="s" r="C70" s="8">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="D70" s="8"/>
       <c r="E70" s="8"/>
@@ -3731,14 +3746,14 @@
       </c>
       <c r="M70" s="10"/>
       <c t="s" r="N70" s="8">
-        <v>198</v>
+        <v>184</v>
       </c>
       <c r="O70" s="8"/>
       <c t="s" r="P70" s="11">
-        <v>51</v>
+        <v>199</v>
       </c>
       <c t="s" r="Q70" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="71" ht="25.5" customHeight="1">
@@ -3747,14 +3762,14 @@
       </c>
       <c r="B71" s="7"/>
       <c t="s" r="C71" s="8">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="D71" s="8"/>
       <c r="E71" s="8"/>
       <c r="F71" s="8"/>
       <c r="G71" s="8"/>
       <c t="s" r="H71" s="9">
-        <v>49</v>
+        <v>16</v>
       </c>
       <c r="I71" s="9"/>
       <c r="J71" s="9"/>
@@ -3764,14 +3779,14 @@
       </c>
       <c r="M71" s="10"/>
       <c t="s" r="N71" s="8">
-        <v>146</v>
+        <v>201</v>
       </c>
       <c r="O71" s="8"/>
       <c t="s" r="P71" s="11">
-        <v>200</v>
+        <v>51</v>
       </c>
       <c t="s" r="Q71" s="12">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="72" ht="25.5" customHeight="1">
@@ -3780,7 +3795,7 @@
       </c>
       <c r="B72" s="7"/>
       <c t="s" r="C72" s="8">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="D72" s="8"/>
       <c r="E72" s="8"/>
@@ -3797,7 +3812,7 @@
       </c>
       <c r="M72" s="10"/>
       <c t="s" r="N72" s="8">
-        <v>202</v>
+        <v>149</v>
       </c>
       <c r="O72" s="8"/>
       <c t="s" r="P72" s="11">
@@ -3853,7 +3868,7 @@
       <c r="F74" s="8"/>
       <c r="G74" s="8"/>
       <c t="s" r="H74" s="9">
-        <v>20</v>
+        <v>49</v>
       </c>
       <c r="I74" s="9"/>
       <c r="J74" s="9"/>
@@ -3870,7 +3885,7 @@
         <v>209</v>
       </c>
       <c t="s" r="Q74" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="75" ht="24.75" customHeight="1">
@@ -3886,7 +3901,7 @@
       <c r="F75" s="8"/>
       <c r="G75" s="8"/>
       <c t="s" r="H75" s="9">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="I75" s="9"/>
       <c r="J75" s="9"/>
@@ -3896,11 +3911,11 @@
       </c>
       <c r="M75" s="10"/>
       <c t="s" r="N75" s="8">
-        <v>116</v>
+        <v>211</v>
       </c>
       <c r="O75" s="8"/>
       <c t="s" r="P75" s="11">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c t="s" r="Q75" s="12">
         <v>16</v>
@@ -3912,14 +3927,14 @@
       </c>
       <c r="B76" s="7"/>
       <c t="s" r="C76" s="8">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="D76" s="8"/>
       <c r="E76" s="8"/>
       <c r="F76" s="8"/>
       <c r="G76" s="8"/>
       <c t="s" r="H76" s="9">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="I76" s="9"/>
       <c r="J76" s="9"/>
@@ -3933,10 +3948,10 @@
       </c>
       <c r="O76" s="8"/>
       <c t="s" r="P76" s="11">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c t="s" r="Q76" s="12">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="77" ht="25.5" customHeight="1">
@@ -3945,14 +3960,14 @@
       </c>
       <c r="B77" s="7"/>
       <c t="s" r="C77" s="8">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="D77" s="8"/>
       <c r="E77" s="8"/>
       <c r="F77" s="8"/>
       <c r="G77" s="8"/>
       <c t="s" r="H77" s="9">
-        <v>215</v>
+        <v>22</v>
       </c>
       <c r="I77" s="9"/>
       <c r="J77" s="9"/>
@@ -3962,11 +3977,11 @@
       </c>
       <c r="M77" s="10"/>
       <c t="s" r="N77" s="8">
-        <v>162</v>
+        <v>122</v>
       </c>
       <c r="O77" s="8"/>
       <c t="s" r="P77" s="11">
-        <v>163</v>
+        <v>216</v>
       </c>
       <c t="s" r="Q77" s="12">
         <v>20</v>
@@ -3978,14 +3993,14 @@
       </c>
       <c r="B78" s="7"/>
       <c t="s" r="C78" s="8">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="D78" s="8"/>
       <c r="E78" s="8"/>
       <c r="F78" s="8"/>
       <c r="G78" s="8"/>
       <c t="s" r="H78" s="9">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="I78" s="9"/>
       <c r="J78" s="9"/>
@@ -3995,14 +4010,14 @@
       </c>
       <c r="M78" s="10"/>
       <c t="s" r="N78" s="8">
-        <v>218</v>
+        <v>165</v>
       </c>
       <c r="O78" s="8"/>
       <c t="s" r="P78" s="11">
-        <v>219</v>
+        <v>166</v>
       </c>
       <c t="s" r="Q78" s="12">
-        <v>220</v>
+        <v>20</v>
       </c>
     </row>
     <row r="79" ht="25.5" customHeight="1">
@@ -4011,14 +4026,14 @@
       </c>
       <c r="B79" s="7"/>
       <c t="s" r="C79" s="8">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="D79" s="8"/>
       <c r="E79" s="8"/>
       <c r="F79" s="8"/>
       <c r="G79" s="8"/>
       <c t="s" r="H79" s="9">
-        <v>20</v>
+        <v>220</v>
       </c>
       <c r="I79" s="9"/>
       <c r="J79" s="9"/>
@@ -4028,14 +4043,14 @@
       </c>
       <c r="M79" s="10"/>
       <c t="s" r="N79" s="8">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="O79" s="8"/>
       <c t="s" r="P79" s="11">
-        <v>223</v>
+        <v>99</v>
       </c>
       <c t="s" r="Q79" s="12">
-        <v>20</v>
+        <v>222</v>
       </c>
     </row>
     <row r="80" ht="24.75" customHeight="1">
@@ -4044,14 +4059,14 @@
       </c>
       <c r="B80" s="7"/>
       <c t="s" r="C80" s="8">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="D80" s="8"/>
       <c r="E80" s="8"/>
       <c r="F80" s="8"/>
       <c r="G80" s="8"/>
       <c t="s" r="H80" s="9">
-        <v>49</v>
+        <v>20</v>
       </c>
       <c r="I80" s="9"/>
       <c r="J80" s="9"/>
@@ -4061,11 +4076,11 @@
       </c>
       <c r="M80" s="10"/>
       <c t="s" r="N80" s="8">
-        <v>95</v>
+        <v>224</v>
       </c>
       <c r="O80" s="8"/>
       <c t="s" r="P80" s="11">
-        <v>96</v>
+        <v>225</v>
       </c>
       <c t="s" r="Q80" s="12">
         <v>20</v>
@@ -4077,14 +4092,14 @@
       </c>
       <c r="B81" s="7"/>
       <c t="s" r="C81" s="8">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="D81" s="8"/>
       <c r="E81" s="8"/>
       <c r="F81" s="8"/>
       <c r="G81" s="8"/>
       <c t="s" r="H81" s="9">
-        <v>226</v>
+        <v>49</v>
       </c>
       <c r="I81" s="9"/>
       <c r="J81" s="9"/>
@@ -4094,14 +4109,14 @@
       </c>
       <c r="M81" s="10"/>
       <c t="s" r="N81" s="8">
-        <v>176</v>
+        <v>95</v>
       </c>
       <c r="O81" s="8"/>
       <c t="s" r="P81" s="11">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c t="s" r="Q81" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="82" ht="25.5" customHeight="1">
@@ -4117,7 +4132,7 @@
       <c r="F82" s="8"/>
       <c r="G82" s="8"/>
       <c t="s" r="H82" s="9">
-        <v>46</v>
+        <v>98</v>
       </c>
       <c r="I82" s="9"/>
       <c r="J82" s="9"/>
@@ -4127,14 +4142,14 @@
       </c>
       <c r="M82" s="10"/>
       <c t="s" r="N82" s="8">
-        <v>110</v>
+        <v>179</v>
       </c>
       <c r="O82" s="8"/>
       <c t="s" r="P82" s="11">
-        <v>228</v>
+        <v>93</v>
       </c>
       <c t="s" r="Q82" s="12">
-        <v>32</v>
+        <v>16</v>
       </c>
     </row>
     <row r="83" ht="24.75" customHeight="1">
@@ -4143,14 +4158,14 @@
       </c>
       <c r="B83" s="7"/>
       <c t="s" r="C83" s="8">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="D83" s="8"/>
       <c r="E83" s="8"/>
       <c r="F83" s="8"/>
       <c r="G83" s="8"/>
       <c t="s" r="H83" s="9">
-        <v>230</v>
+        <v>46</v>
       </c>
       <c r="I83" s="9"/>
       <c r="J83" s="9"/>
@@ -4160,14 +4175,14 @@
       </c>
       <c r="M83" s="10"/>
       <c t="s" r="N83" s="8">
-        <v>30</v>
+        <v>113</v>
       </c>
       <c r="O83" s="8"/>
       <c t="s" r="P83" s="11">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c t="s" r="Q83" s="12">
-        <v>46</v>
+        <v>32</v>
       </c>
     </row>
     <row r="84" ht="25.5" customHeight="1">
@@ -4176,14 +4191,14 @@
       </c>
       <c r="B84" s="7"/>
       <c t="s" r="C84" s="8">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="D84" s="8"/>
       <c r="E84" s="8"/>
       <c r="F84" s="8"/>
       <c r="G84" s="8"/>
       <c t="s" r="H84" s="9">
-        <v>46</v>
+        <v>231</v>
       </c>
       <c r="I84" s="9"/>
       <c r="J84" s="9"/>
@@ -4193,14 +4208,14 @@
       </c>
       <c r="M84" s="10"/>
       <c t="s" r="N84" s="8">
-        <v>104</v>
+        <v>30</v>
       </c>
       <c r="O84" s="8"/>
       <c t="s" r="P84" s="11">
-        <v>66</v>
+        <v>232</v>
       </c>
       <c t="s" r="Q84" s="12">
-        <v>20</v>
+        <v>46</v>
       </c>
     </row>
     <row r="85" ht="24.75" customHeight="1">
@@ -4216,7 +4231,7 @@
       <c r="F85" s="8"/>
       <c r="G85" s="8"/>
       <c t="s" r="H85" s="9">
-        <v>34</v>
+        <v>46</v>
       </c>
       <c r="I85" s="9"/>
       <c r="J85" s="9"/>
@@ -4226,14 +4241,14 @@
       </c>
       <c r="M85" s="10"/>
       <c t="s" r="N85" s="8">
-        <v>43</v>
+        <v>107</v>
       </c>
       <c r="O85" s="8"/>
       <c t="s" r="P85" s="11">
-        <v>44</v>
+        <v>66</v>
       </c>
       <c t="s" r="Q85" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="86" ht="25.5" customHeight="1">
@@ -4249,7 +4264,7 @@
       <c r="F86" s="8"/>
       <c r="G86" s="8"/>
       <c t="s" r="H86" s="9">
-        <v>230</v>
+        <v>34</v>
       </c>
       <c r="I86" s="9"/>
       <c r="J86" s="9"/>
@@ -4259,11 +4274,11 @@
       </c>
       <c r="M86" s="10"/>
       <c t="s" r="N86" s="8">
-        <v>235</v>
+        <v>43</v>
       </c>
       <c r="O86" s="8"/>
       <c t="s" r="P86" s="11">
-        <v>188</v>
+        <v>44</v>
       </c>
       <c t="s" r="Q86" s="12">
         <v>16</v>
@@ -4275,14 +4290,14 @@
       </c>
       <c r="B87" s="7"/>
       <c t="s" r="C87" s="8">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="D87" s="8"/>
       <c r="E87" s="8"/>
       <c r="F87" s="8"/>
       <c r="G87" s="8"/>
       <c t="s" r="H87" s="9">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="I87" s="9"/>
       <c r="J87" s="9"/>
@@ -4292,14 +4307,14 @@
       </c>
       <c r="M87" s="10"/>
       <c t="s" r="N87" s="8">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="O87" s="8"/>
       <c t="s" r="P87" s="11">
-        <v>238</v>
+        <v>191</v>
       </c>
       <c t="s" r="Q87" s="12">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="88" ht="24.75" customHeight="1">
@@ -4308,14 +4323,14 @@
       </c>
       <c r="B88" s="7"/>
       <c t="s" r="C88" s="8">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="D88" s="8"/>
       <c r="E88" s="8"/>
       <c r="F88" s="8"/>
       <c r="G88" s="8"/>
       <c t="s" r="H88" s="9">
-        <v>16</v>
+        <v>231</v>
       </c>
       <c r="I88" s="9"/>
       <c r="J88" s="9"/>
@@ -4325,14 +4340,14 @@
       </c>
       <c r="M88" s="10"/>
       <c t="s" r="N88" s="8">
-        <v>146</v>
+        <v>238</v>
       </c>
       <c r="O88" s="8"/>
       <c t="s" r="P88" s="11">
-        <v>147</v>
+        <v>239</v>
       </c>
       <c t="s" r="Q88" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="89" ht="25.5" customHeight="1">
@@ -4348,7 +4363,7 @@
       <c r="F89" s="8"/>
       <c r="G89" s="8"/>
       <c t="s" r="H89" s="9">
-        <v>49</v>
+        <v>16</v>
       </c>
       <c r="I89" s="9"/>
       <c r="J89" s="9"/>
@@ -4358,14 +4373,14 @@
       </c>
       <c r="M89" s="10"/>
       <c t="s" r="N89" s="8">
-        <v>241</v>
+        <v>149</v>
       </c>
       <c r="O89" s="8"/>
       <c t="s" r="P89" s="11">
-        <v>242</v>
+        <v>150</v>
       </c>
       <c t="s" r="Q89" s="12">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="90" ht="24.75" customHeight="1">
@@ -4374,14 +4389,14 @@
       </c>
       <c r="B90" s="7"/>
       <c t="s" r="C90" s="8">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="D90" s="8"/>
       <c r="E90" s="8"/>
       <c r="F90" s="8"/>
       <c r="G90" s="8"/>
       <c t="s" r="H90" s="9">
-        <v>16</v>
+        <v>49</v>
       </c>
       <c r="I90" s="9"/>
       <c r="J90" s="9"/>
@@ -4391,14 +4406,14 @@
       </c>
       <c r="M90" s="10"/>
       <c t="s" r="N90" s="8">
-        <v>235</v>
+        <v>242</v>
       </c>
       <c r="O90" s="8"/>
       <c t="s" r="P90" s="11">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c t="s" r="Q90" s="12">
-        <v>34</v>
+        <v>20</v>
       </c>
     </row>
     <row r="91" ht="25.5" customHeight="1">
@@ -4407,14 +4422,14 @@
       </c>
       <c r="B91" s="7"/>
       <c t="s" r="C91" s="8">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="D91" s="8"/>
       <c r="E91" s="8"/>
       <c r="F91" s="8"/>
       <c r="G91" s="8"/>
       <c t="s" r="H91" s="9">
-        <v>34</v>
+        <v>16</v>
       </c>
       <c r="I91" s="9"/>
       <c r="J91" s="9"/>
@@ -4424,14 +4439,14 @@
       </c>
       <c r="M91" s="10"/>
       <c t="s" r="N91" s="8">
-        <v>246</v>
+        <v>236</v>
       </c>
       <c r="O91" s="8"/>
       <c t="s" r="P91" s="11">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c t="s" r="Q91" s="12">
-        <v>16</v>
+        <v>34</v>
       </c>
     </row>
     <row r="92" ht="25.5" customHeight="1">
@@ -4440,14 +4455,14 @@
       </c>
       <c r="B92" s="7"/>
       <c t="s" r="C92" s="8">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="D92" s="8"/>
       <c r="E92" s="8"/>
       <c r="F92" s="8"/>
       <c r="G92" s="8"/>
       <c t="s" r="H92" s="9">
-        <v>22</v>
+        <v>34</v>
       </c>
       <c r="I92" s="9"/>
       <c r="J92" s="9"/>
@@ -4457,14 +4472,14 @@
       </c>
       <c r="M92" s="10"/>
       <c t="s" r="N92" s="8">
-        <v>137</v>
+        <v>247</v>
       </c>
       <c r="O92" s="8"/>
       <c t="s" r="P92" s="11">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c t="s" r="Q92" s="12">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="93" ht="24.75" customHeight="1">
@@ -4473,7 +4488,7 @@
       </c>
       <c r="B93" s="7"/>
       <c t="s" r="C93" s="8">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="D93" s="8"/>
       <c r="E93" s="8"/>
@@ -4494,10 +4509,10 @@
       </c>
       <c r="O93" s="8"/>
       <c t="s" r="P93" s="11">
-        <v>40</v>
+        <v>250</v>
       </c>
       <c t="s" r="Q93" s="12">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="94" ht="25.5" customHeight="1">
@@ -4513,7 +4528,7 @@
       <c r="F94" s="8"/>
       <c r="G94" s="8"/>
       <c t="s" r="H94" s="9">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="I94" s="9"/>
       <c r="J94" s="9"/>
@@ -4523,14 +4538,14 @@
       </c>
       <c r="M94" s="10"/>
       <c t="s" r="N94" s="8">
-        <v>252</v>
+        <v>143</v>
       </c>
       <c r="O94" s="8"/>
       <c t="s" r="P94" s="11">
-        <v>253</v>
+        <v>40</v>
       </c>
       <c t="s" r="Q94" s="12">
-        <v>34</v>
+        <v>22</v>
       </c>
     </row>
     <row r="95" ht="24.75" customHeight="1">
@@ -4539,14 +4554,14 @@
       </c>
       <c r="B95" s="7"/>
       <c t="s" r="C95" s="8">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="D95" s="8"/>
       <c r="E95" s="8"/>
       <c r="F95" s="8"/>
       <c r="G95" s="8"/>
       <c t="s" r="H95" s="9">
-        <v>49</v>
+        <v>20</v>
       </c>
       <c r="I95" s="9"/>
       <c r="J95" s="9"/>
@@ -4556,14 +4571,14 @@
       </c>
       <c r="M95" s="10"/>
       <c t="s" r="N95" s="8">
-        <v>140</v>
+        <v>253</v>
       </c>
       <c r="O95" s="8"/>
       <c t="s" r="P95" s="11">
-        <v>141</v>
+        <v>254</v>
       </c>
       <c t="s" r="Q95" s="12">
-        <v>20</v>
+        <v>34</v>
       </c>
     </row>
     <row r="96" ht="25.5" customHeight="1">
@@ -4579,7 +4594,7 @@
       <c r="F96" s="8"/>
       <c r="G96" s="8"/>
       <c t="s" r="H96" s="9">
-        <v>32</v>
+        <v>49</v>
       </c>
       <c r="I96" s="9"/>
       <c r="J96" s="9"/>
@@ -4589,14 +4604,14 @@
       </c>
       <c r="M96" s="10"/>
       <c t="s" r="N96" s="8">
-        <v>256</v>
+        <v>143</v>
       </c>
       <c r="O96" s="8"/>
       <c t="s" r="P96" s="11">
-        <v>257</v>
+        <v>144</v>
       </c>
       <c t="s" r="Q96" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="97" ht="25.5" customHeight="1">
@@ -4605,14 +4620,14 @@
       </c>
       <c r="B97" s="7"/>
       <c t="s" r="C97" s="8">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="D97" s="8"/>
       <c r="E97" s="8"/>
       <c r="F97" s="8"/>
       <c r="G97" s="8"/>
       <c t="s" r="H97" s="9">
-        <v>49</v>
+        <v>32</v>
       </c>
       <c r="I97" s="9"/>
       <c r="J97" s="9"/>
@@ -4622,11 +4637,11 @@
       </c>
       <c r="M97" s="10"/>
       <c t="s" r="N97" s="8">
-        <v>92</v>
+        <v>257</v>
       </c>
       <c r="O97" s="8"/>
       <c t="s" r="P97" s="11">
-        <v>169</v>
+        <v>258</v>
       </c>
       <c t="s" r="Q97" s="12">
         <v>16</v>
@@ -4645,7 +4660,7 @@
       <c r="F98" s="8"/>
       <c r="G98" s="8"/>
       <c t="s" r="H98" s="9">
-        <v>121</v>
+        <v>49</v>
       </c>
       <c r="I98" s="9"/>
       <c r="J98" s="9"/>
@@ -4655,14 +4670,14 @@
       </c>
       <c r="M98" s="10"/>
       <c t="s" r="N98" s="8">
-        <v>260</v>
+        <v>92</v>
       </c>
       <c r="O98" s="8"/>
       <c t="s" r="P98" s="11">
-        <v>261</v>
+        <v>172</v>
       </c>
       <c t="s" r="Q98" s="12">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="99" ht="25.5" customHeight="1">
@@ -4671,14 +4686,14 @@
       </c>
       <c r="B99" s="7"/>
       <c t="s" r="C99" s="8">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="D99" s="8"/>
       <c r="E99" s="8"/>
       <c r="F99" s="8"/>
       <c r="G99" s="8"/>
       <c t="s" r="H99" s="9">
-        <v>49</v>
+        <v>124</v>
       </c>
       <c r="I99" s="9"/>
       <c r="J99" s="9"/>
@@ -4688,11 +4703,11 @@
       </c>
       <c r="M99" s="10"/>
       <c t="s" r="N99" s="8">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="O99" s="8"/>
       <c t="s" r="P99" s="11">
-        <v>188</v>
+        <v>262</v>
       </c>
       <c t="s" r="Q99" s="12">
         <v>20</v>
@@ -4704,14 +4719,14 @@
       </c>
       <c r="B100" s="7"/>
       <c t="s" r="C100" s="8">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="D100" s="8"/>
       <c r="E100" s="8"/>
       <c r="F100" s="8"/>
       <c r="G100" s="8"/>
       <c t="s" r="H100" s="9">
-        <v>123</v>
+        <v>49</v>
       </c>
       <c r="I100" s="9"/>
       <c r="J100" s="9"/>
@@ -4721,14 +4736,14 @@
       </c>
       <c r="M100" s="10"/>
       <c t="s" r="N100" s="8">
-        <v>146</v>
+        <v>264</v>
       </c>
       <c r="O100" s="8"/>
       <c t="s" r="P100" s="11">
-        <v>265</v>
+        <v>191</v>
       </c>
       <c t="s" r="Q100" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="101" ht="25.5" customHeight="1">
@@ -4737,14 +4752,14 @@
       </c>
       <c r="B101" s="7"/>
       <c t="s" r="C101" s="8">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="D101" s="8"/>
       <c r="E101" s="8"/>
       <c r="F101" s="8"/>
       <c r="G101" s="8"/>
       <c t="s" r="H101" s="9">
-        <v>20</v>
+        <v>126</v>
       </c>
       <c r="I101" s="9"/>
       <c r="J101" s="9"/>
@@ -4754,11 +4769,11 @@
       </c>
       <c r="M101" s="10"/>
       <c t="s" r="N101" s="8">
-        <v>146</v>
+        <v>149</v>
       </c>
       <c r="O101" s="8"/>
       <c t="s" r="P101" s="11">
-        <v>147</v>
+        <v>266</v>
       </c>
       <c t="s" r="Q101" s="12">
         <v>16</v>
@@ -4777,7 +4792,7 @@
       <c r="F102" s="8"/>
       <c r="G102" s="8"/>
       <c t="s" r="H102" s="9">
-        <v>49</v>
+        <v>20</v>
       </c>
       <c r="I102" s="9"/>
       <c r="J102" s="9"/>
@@ -4787,14 +4802,14 @@
       </c>
       <c r="M102" s="10"/>
       <c t="s" r="N102" s="8">
-        <v>268</v>
+        <v>149</v>
       </c>
       <c r="O102" s="8"/>
       <c t="s" r="P102" s="11">
-        <v>269</v>
+        <v>150</v>
       </c>
       <c t="s" r="Q102" s="12">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="103" ht="24.75" customHeight="1">
@@ -4803,14 +4818,14 @@
       </c>
       <c r="B103" s="7"/>
       <c t="s" r="C103" s="8">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="D103" s="8"/>
       <c r="E103" s="8"/>
       <c r="F103" s="8"/>
       <c r="G103" s="8"/>
       <c t="s" r="H103" s="9">
-        <v>32</v>
+        <v>49</v>
       </c>
       <c r="I103" s="9"/>
       <c r="J103" s="9"/>
@@ -4820,14 +4835,14 @@
       </c>
       <c r="M103" s="10"/>
       <c t="s" r="N103" s="8">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="O103" s="8"/>
       <c t="s" r="P103" s="11">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c t="s" r="Q103" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="104" ht="25.5" customHeight="1">
@@ -4836,14 +4851,14 @@
       </c>
       <c r="B104" s="7"/>
       <c t="s" r="C104" s="8">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="D104" s="8"/>
       <c r="E104" s="8"/>
       <c r="F104" s="8"/>
       <c r="G104" s="8"/>
       <c t="s" r="H104" s="9">
-        <v>16</v>
+        <v>32</v>
       </c>
       <c r="I104" s="9"/>
       <c r="J104" s="9"/>
@@ -4853,11 +4868,11 @@
       </c>
       <c r="M104" s="10"/>
       <c t="s" r="N104" s="8">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="O104" s="8"/>
       <c t="s" r="P104" s="11">
-        <v>213</v>
+        <v>273</v>
       </c>
       <c t="s" r="Q104" s="12">
         <v>16</v>
@@ -4869,14 +4884,14 @@
       </c>
       <c r="B105" s="7"/>
       <c t="s" r="C105" s="8">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="D105" s="8"/>
       <c r="E105" s="8"/>
       <c r="F105" s="8"/>
       <c r="G105" s="8"/>
       <c t="s" r="H105" s="9">
-        <v>276</v>
+        <v>98</v>
       </c>
       <c r="I105" s="9"/>
       <c r="J105" s="9"/>
@@ -4886,14 +4901,14 @@
       </c>
       <c r="M105" s="10"/>
       <c t="s" r="N105" s="8">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="O105" s="8"/>
       <c t="s" r="P105" s="11">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c t="s" r="Q105" s="12">
-        <v>22</v>
+        <v>16</v>
       </c>
     </row>
     <row r="106" ht="25.5" customHeight="1">
@@ -4902,14 +4917,14 @@
       </c>
       <c r="B106" s="7"/>
       <c t="s" r="C106" s="8">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="D106" s="8"/>
       <c r="E106" s="8"/>
       <c r="F106" s="8"/>
       <c r="G106" s="8"/>
       <c t="s" r="H106" s="9">
-        <v>49</v>
+        <v>16</v>
       </c>
       <c r="I106" s="9"/>
       <c r="J106" s="9"/>
@@ -4919,14 +4934,14 @@
       </c>
       <c r="M106" s="10"/>
       <c t="s" r="N106" s="8">
-        <v>79</v>
+        <v>278</v>
       </c>
       <c r="O106" s="8"/>
       <c t="s" r="P106" s="11">
-        <v>280</v>
+        <v>216</v>
       </c>
       <c t="s" r="Q106" s="12">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="107" ht="25.5" customHeight="1">
@@ -4935,31 +4950,31 @@
       </c>
       <c r="B107" s="7"/>
       <c t="s" r="C107" s="8">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="D107" s="8"/>
       <c r="E107" s="8"/>
       <c r="F107" s="8"/>
       <c r="G107" s="8"/>
       <c t="s" r="H107" s="9">
-        <v>20</v>
+        <v>280</v>
       </c>
       <c r="I107" s="9"/>
       <c r="J107" s="9"/>
       <c r="K107" s="9"/>
       <c t="s" r="L107" s="10">
-        <v>191</v>
+        <v>13</v>
       </c>
       <c r="M107" s="10"/>
       <c t="s" r="N107" s="8">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="O107" s="8"/>
       <c t="s" r="P107" s="11">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c t="s" r="Q107" s="12">
-        <v>20</v>
+        <v>22</v>
       </c>
     </row>
     <row r="108" ht="24.75" customHeight="1">
@@ -4968,31 +4983,31 @@
       </c>
       <c r="B108" s="7"/>
       <c t="s" r="C108" s="8">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="D108" s="8"/>
       <c r="E108" s="8"/>
       <c r="F108" s="8"/>
       <c r="G108" s="8"/>
       <c t="s" r="H108" s="9">
-        <v>285</v>
+        <v>49</v>
       </c>
       <c r="I108" s="9"/>
       <c r="J108" s="9"/>
       <c r="K108" s="9"/>
       <c t="s" r="L108" s="10">
-        <v>191</v>
+        <v>13</v>
       </c>
       <c r="M108" s="10"/>
       <c t="s" r="N108" s="8">
-        <v>286</v>
+        <v>79</v>
       </c>
       <c r="O108" s="8"/>
       <c t="s" r="P108" s="11">
-        <v>200</v>
+        <v>284</v>
       </c>
       <c t="s" r="Q108" s="12">
-        <v>42</v>
+        <v>20</v>
       </c>
     </row>
     <row r="109" ht="25.5" customHeight="1">
@@ -5001,28 +5016,28 @@
       </c>
       <c r="B109" s="7"/>
       <c t="s" r="C109" s="8">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="D109" s="8"/>
       <c r="E109" s="8"/>
       <c r="F109" s="8"/>
       <c r="G109" s="8"/>
       <c t="s" r="H109" s="9">
-        <v>42</v>
+        <v>20</v>
       </c>
       <c r="I109" s="9"/>
       <c r="J109" s="9"/>
       <c r="K109" s="9"/>
       <c t="s" r="L109" s="10">
-        <v>191</v>
+        <v>194</v>
       </c>
       <c r="M109" s="10"/>
       <c t="s" r="N109" s="8">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="O109" s="8"/>
       <c t="s" r="P109" s="11">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c t="s" r="Q109" s="12">
         <v>20</v>
@@ -5034,31 +5049,31 @@
       </c>
       <c r="B110" s="7"/>
       <c t="s" r="C110" s="8">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="D110" s="8"/>
       <c r="E110" s="8"/>
       <c r="F110" s="8"/>
       <c r="G110" s="8"/>
       <c t="s" r="H110" s="9">
-        <v>49</v>
+        <v>289</v>
       </c>
       <c r="I110" s="9"/>
       <c r="J110" s="9"/>
       <c r="K110" s="9"/>
       <c t="s" r="L110" s="10">
-        <v>191</v>
+        <v>194</v>
       </c>
       <c r="M110" s="10"/>
       <c t="s" r="N110" s="8">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="O110" s="8"/>
       <c t="s" r="P110" s="11">
-        <v>292</v>
+        <v>203</v>
       </c>
       <c t="s" r="Q110" s="12">
-        <v>22</v>
+        <v>42</v>
       </c>
     </row>
     <row r="111" ht="25.5" customHeight="1">
@@ -5067,28 +5082,28 @@
       </c>
       <c r="B111" s="7"/>
       <c t="s" r="C111" s="8">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="D111" s="8"/>
       <c r="E111" s="8"/>
       <c r="F111" s="8"/>
       <c r="G111" s="8"/>
       <c t="s" r="H111" s="9">
-        <v>20</v>
+        <v>42</v>
       </c>
       <c r="I111" s="9"/>
       <c r="J111" s="9"/>
       <c r="K111" s="9"/>
       <c t="s" r="L111" s="10">
-        <v>191</v>
+        <v>194</v>
       </c>
       <c r="M111" s="10"/>
       <c t="s" r="N111" s="8">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="O111" s="8"/>
       <c t="s" r="P111" s="11">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c t="s" r="Q111" s="12">
         <v>20</v>
@@ -5100,28 +5115,28 @@
       </c>
       <c r="B112" s="7"/>
       <c t="s" r="C112" s="8">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="D112" s="8"/>
       <c r="E112" s="8"/>
       <c r="F112" s="8"/>
       <c r="G112" s="8"/>
       <c t="s" r="H112" s="9">
-        <v>297</v>
+        <v>49</v>
       </c>
       <c r="I112" s="9"/>
       <c r="J112" s="9"/>
       <c r="K112" s="9"/>
       <c t="s" r="L112" s="10">
-        <v>191</v>
+        <v>194</v>
       </c>
       <c r="M112" s="10"/>
       <c t="s" r="N112" s="8">
-        <v>298</v>
+        <v>295</v>
       </c>
       <c r="O112" s="8"/>
       <c t="s" r="P112" s="11">
-        <v>299</v>
+        <v>296</v>
       </c>
       <c t="s" r="Q112" s="12">
         <v>22</v>
@@ -5133,31 +5148,31 @@
       </c>
       <c r="B113" s="7"/>
       <c t="s" r="C113" s="8">
-        <v>300</v>
+        <v>297</v>
       </c>
       <c r="D113" s="8"/>
       <c r="E113" s="8"/>
       <c r="F113" s="8"/>
       <c r="G113" s="8"/>
       <c t="s" r="H113" s="9">
-        <v>49</v>
+        <v>20</v>
       </c>
       <c r="I113" s="9"/>
       <c r="J113" s="9"/>
       <c r="K113" s="9"/>
       <c t="s" r="L113" s="10">
-        <v>191</v>
+        <v>194</v>
       </c>
       <c r="M113" s="10"/>
       <c t="s" r="N113" s="8">
-        <v>301</v>
+        <v>298</v>
       </c>
       <c r="O113" s="8"/>
       <c t="s" r="P113" s="11">
-        <v>302</v>
+        <v>299</v>
       </c>
       <c t="s" r="Q113" s="12">
-        <v>303</v>
+        <v>20</v>
       </c>
     </row>
     <row r="114" ht="25.5" customHeight="1">
@@ -5166,31 +5181,31 @@
       </c>
       <c r="B114" s="7"/>
       <c t="s" r="C114" s="8">
-        <v>304</v>
+        <v>300</v>
       </c>
       <c r="D114" s="8"/>
       <c r="E114" s="8"/>
       <c r="F114" s="8"/>
       <c r="G114" s="8"/>
       <c t="s" r="H114" s="9">
-        <v>49</v>
+        <v>301</v>
       </c>
       <c r="I114" s="9"/>
       <c r="J114" s="9"/>
       <c r="K114" s="9"/>
       <c t="s" r="L114" s="10">
-        <v>191</v>
+        <v>194</v>
       </c>
       <c r="M114" s="10"/>
       <c t="s" r="N114" s="8">
-        <v>277</v>
+        <v>302</v>
       </c>
       <c r="O114" s="8"/>
       <c t="s" r="P114" s="11">
-        <v>249</v>
+        <v>303</v>
       </c>
       <c t="s" r="Q114" s="12">
-        <v>305</v>
+        <v>22</v>
       </c>
     </row>
     <row r="115" ht="24.75" customHeight="1">
@@ -5199,7 +5214,7 @@
       </c>
       <c r="B115" s="7"/>
       <c t="s" r="C115" s="8">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="D115" s="8"/>
       <c r="E115" s="8"/>
@@ -5212,18 +5227,18 @@
       <c r="J115" s="9"/>
       <c r="K115" s="9"/>
       <c t="s" r="L115" s="10">
-        <v>191</v>
+        <v>194</v>
       </c>
       <c r="M115" s="10"/>
       <c t="s" r="N115" s="8">
-        <v>291</v>
+        <v>305</v>
       </c>
       <c r="O115" s="8"/>
       <c t="s" r="P115" s="11">
-        <v>292</v>
+        <v>306</v>
       </c>
       <c t="s" r="Q115" s="12">
-        <v>22</v>
+        <v>307</v>
       </c>
     </row>
     <row r="116" ht="25.5" customHeight="1">
@@ -5232,31 +5247,31 @@
       </c>
       <c r="B116" s="7"/>
       <c t="s" r="C116" s="8">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="D116" s="8"/>
       <c r="E116" s="8"/>
       <c r="F116" s="8"/>
       <c r="G116" s="8"/>
       <c t="s" r="H116" s="9">
-        <v>22</v>
+        <v>49</v>
       </c>
       <c r="I116" s="9"/>
       <c r="J116" s="9"/>
       <c r="K116" s="9"/>
       <c t="s" r="L116" s="10">
-        <v>191</v>
+        <v>194</v>
       </c>
       <c r="M116" s="10"/>
       <c t="s" r="N116" s="8">
-        <v>294</v>
+        <v>281</v>
       </c>
       <c r="O116" s="8"/>
       <c t="s" r="P116" s="11">
-        <v>295</v>
+        <v>250</v>
       </c>
       <c t="s" r="Q116" s="12">
-        <v>20</v>
+        <v>309</v>
       </c>
     </row>
     <row r="117" ht="25.5" customHeight="1">
@@ -5265,7 +5280,7 @@
       </c>
       <c r="B117" s="7"/>
       <c t="s" r="C117" s="8">
-        <v>308</v>
+        <v>310</v>
       </c>
       <c r="D117" s="8"/>
       <c r="E117" s="8"/>
@@ -5278,18 +5293,18 @@
       <c r="J117" s="9"/>
       <c r="K117" s="9"/>
       <c t="s" r="L117" s="10">
-        <v>191</v>
+        <v>194</v>
       </c>
       <c r="M117" s="10"/>
       <c t="s" r="N117" s="8">
-        <v>286</v>
+        <v>295</v>
       </c>
       <c r="O117" s="8"/>
       <c t="s" r="P117" s="11">
-        <v>309</v>
+        <v>311</v>
       </c>
       <c t="s" r="Q117" s="12">
-        <v>20</v>
+        <v>42</v>
       </c>
     </row>
     <row r="118" ht="24.75" customHeight="1">
@@ -5298,28 +5313,28 @@
       </c>
       <c r="B118" s="7"/>
       <c t="s" r="C118" s="8">
-        <v>310</v>
+        <v>312</v>
       </c>
       <c r="D118" s="8"/>
       <c r="E118" s="8"/>
       <c r="F118" s="8"/>
       <c r="G118" s="8"/>
       <c t="s" r="H118" s="9">
-        <v>311</v>
+        <v>22</v>
       </c>
       <c r="I118" s="9"/>
       <c r="J118" s="9"/>
       <c r="K118" s="9"/>
       <c t="s" r="L118" s="10">
-        <v>191</v>
+        <v>194</v>
       </c>
       <c r="M118" s="10"/>
       <c t="s" r="N118" s="8">
-        <v>312</v>
+        <v>298</v>
       </c>
       <c r="O118" s="8"/>
       <c t="s" r="P118" s="11">
-        <v>313</v>
+        <v>299</v>
       </c>
       <c t="s" r="Q118" s="12">
         <v>20</v>
@@ -5331,28 +5346,28 @@
       </c>
       <c r="B119" s="7"/>
       <c t="s" r="C119" s="8">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="D119" s="8"/>
       <c r="E119" s="8"/>
       <c r="F119" s="8"/>
       <c r="G119" s="8"/>
       <c t="s" r="H119" s="9">
-        <v>42</v>
+        <v>49</v>
       </c>
       <c r="I119" s="9"/>
       <c r="J119" s="9"/>
       <c r="K119" s="9"/>
       <c t="s" r="L119" s="10">
-        <v>191</v>
+        <v>194</v>
       </c>
       <c r="M119" s="10"/>
       <c t="s" r="N119" s="8">
-        <v>315</v>
+        <v>290</v>
       </c>
       <c r="O119" s="8"/>
       <c t="s" r="P119" s="11">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c t="s" r="Q119" s="12">
         <v>20</v>
@@ -5364,31 +5379,31 @@
       </c>
       <c r="B120" s="7"/>
       <c t="s" r="C120" s="8">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="D120" s="8"/>
       <c r="E120" s="8"/>
       <c r="F120" s="8"/>
       <c r="G120" s="8"/>
       <c t="s" r="H120" s="9">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="I120" s="9"/>
       <c r="J120" s="9"/>
       <c r="K120" s="9"/>
       <c t="s" r="L120" s="10">
-        <v>191</v>
+        <v>194</v>
       </c>
       <c r="M120" s="10"/>
       <c t="s" r="N120" s="8">
-        <v>294</v>
+        <v>317</v>
       </c>
       <c r="O120" s="8"/>
       <c t="s" r="P120" s="11">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c t="s" r="Q120" s="12">
-        <v>91</v>
+        <v>20</v>
       </c>
     </row>
     <row r="121" ht="25.5" customHeight="1">
@@ -5397,28 +5412,28 @@
       </c>
       <c r="B121" s="7"/>
       <c t="s" r="C121" s="8">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="D121" s="8"/>
       <c r="E121" s="8"/>
       <c r="F121" s="8"/>
       <c r="G121" s="8"/>
       <c t="s" r="H121" s="9">
-        <v>303</v>
+        <v>42</v>
       </c>
       <c r="I121" s="9"/>
       <c r="J121" s="9"/>
       <c r="K121" s="9"/>
       <c t="s" r="L121" s="10">
-        <v>191</v>
+        <v>194</v>
       </c>
       <c r="M121" s="10"/>
       <c t="s" r="N121" s="8">
-        <v>205</v>
+        <v>320</v>
       </c>
       <c r="O121" s="8"/>
       <c t="s" r="P121" s="11">
-        <v>206</v>
+        <v>321</v>
       </c>
       <c t="s" r="Q121" s="12">
         <v>20</v>
@@ -5430,31 +5445,31 @@
       </c>
       <c r="B122" s="7"/>
       <c t="s" r="C122" s="8">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="D122" s="8"/>
       <c r="E122" s="8"/>
       <c r="F122" s="8"/>
       <c r="G122" s="8"/>
       <c t="s" r="H122" s="9">
-        <v>49</v>
+        <v>323</v>
       </c>
       <c r="I122" s="9"/>
       <c r="J122" s="9"/>
       <c r="K122" s="9"/>
       <c t="s" r="L122" s="10">
-        <v>191</v>
+        <v>194</v>
       </c>
       <c r="M122" s="10"/>
       <c t="s" r="N122" s="8">
-        <v>288</v>
+        <v>298</v>
       </c>
       <c r="O122" s="8"/>
       <c t="s" r="P122" s="11">
-        <v>309</v>
+        <v>324</v>
       </c>
       <c t="s" r="Q122" s="12">
-        <v>22</v>
+        <v>91</v>
       </c>
     </row>
     <row r="123" ht="24.75" customHeight="1">
@@ -5463,28 +5478,28 @@
       </c>
       <c r="B123" s="7"/>
       <c t="s" r="C123" s="8">
-        <v>322</v>
+        <v>325</v>
       </c>
       <c r="D123" s="8"/>
       <c r="E123" s="8"/>
       <c r="F123" s="8"/>
       <c r="G123" s="8"/>
       <c t="s" r="H123" s="9">
-        <v>20</v>
+        <v>307</v>
       </c>
       <c r="I123" s="9"/>
       <c r="J123" s="9"/>
       <c r="K123" s="9"/>
       <c t="s" r="L123" s="10">
-        <v>191</v>
+        <v>194</v>
       </c>
       <c r="M123" s="10"/>
       <c t="s" r="N123" s="8">
-        <v>323</v>
+        <v>208</v>
       </c>
       <c r="O123" s="8"/>
       <c t="s" r="P123" s="11">
-        <v>324</v>
+        <v>209</v>
       </c>
       <c t="s" r="Q123" s="12">
         <v>20</v>
@@ -5496,31 +5511,31 @@
       </c>
       <c r="B124" s="7"/>
       <c t="s" r="C124" s="8">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="D124" s="8"/>
       <c r="E124" s="8"/>
       <c r="F124" s="8"/>
       <c r="G124" s="8"/>
       <c t="s" r="H124" s="9">
-        <v>303</v>
+        <v>49</v>
       </c>
       <c r="I124" s="9"/>
       <c r="J124" s="9"/>
       <c r="K124" s="9"/>
       <c t="s" r="L124" s="10">
-        <v>191</v>
+        <v>194</v>
       </c>
       <c r="M124" s="10"/>
       <c t="s" r="N124" s="8">
-        <v>137</v>
+        <v>292</v>
       </c>
       <c r="O124" s="8"/>
       <c t="s" r="P124" s="11">
-        <v>143</v>
+        <v>314</v>
       </c>
       <c t="s" r="Q124" s="12">
-        <v>42</v>
+        <v>22</v>
       </c>
     </row>
     <row r="125" ht="24.75" customHeight="1">
@@ -5529,28 +5544,28 @@
       </c>
       <c r="B125" s="7"/>
       <c t="s" r="C125" s="8">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="D125" s="8"/>
       <c r="E125" s="8"/>
       <c r="F125" s="8"/>
       <c r="G125" s="8"/>
       <c t="s" r="H125" s="9">
-        <v>49</v>
+        <v>20</v>
       </c>
       <c r="I125" s="9"/>
       <c r="J125" s="9"/>
       <c r="K125" s="9"/>
       <c t="s" r="L125" s="10">
-        <v>191</v>
+        <v>194</v>
       </c>
       <c r="M125" s="10"/>
       <c t="s" r="N125" s="8">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="O125" s="8"/>
       <c t="s" r="P125" s="11">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c t="s" r="Q125" s="12">
         <v>20</v>
@@ -5562,66 +5577,132 @@
       </c>
       <c r="B126" s="7"/>
       <c t="s" r="C126" s="8">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="D126" s="8"/>
       <c r="E126" s="8"/>
       <c r="F126" s="8"/>
       <c r="G126" s="8"/>
       <c t="s" r="H126" s="9">
-        <v>22</v>
+        <v>307</v>
       </c>
       <c r="I126" s="9"/>
       <c r="J126" s="9"/>
       <c r="K126" s="9"/>
       <c t="s" r="L126" s="10">
-        <v>191</v>
+        <v>194</v>
       </c>
       <c r="M126" s="10"/>
       <c t="s" r="N126" s="8">
-        <v>288</v>
+        <v>140</v>
       </c>
       <c r="O126" s="8"/>
       <c t="s" r="P126" s="11">
-        <v>289</v>
+        <v>146</v>
       </c>
       <c t="s" r="Q126" s="12">
-        <v>20</v>
+        <v>42</v>
       </c>
     </row>
     <row r="127" ht="25.5" customHeight="1">
-      <c r="P127" s="13">
-        <v>7991.3950000000004</v>
-      </c>
-      <c r="Q127" s="13"/>
-    </row>
-    <row r="128" ht="16.5" customHeight="1">
-      <c t="s" r="A128" s="14">
-        <v>330</v>
-      </c>
-      <c r="B128" s="14"/>
-      <c r="C128" s="14"/>
-      <c r="D128" s="14"/>
-      <c r="E128" s="14"/>
-      <c r="F128" s="14"/>
-      <c t="s" r="G128" s="15">
+      <c r="A127" s="7">
+        <v>121</v>
+      </c>
+      <c r="B127" s="7"/>
+      <c t="s" r="C127" s="8">
         <v>331</v>
       </c>
-      <c r="H128" s="15"/>
-      <c r="I128" s="15"/>
-      <c r="J128" s="16"/>
-      <c t="s" r="K128" s="17">
+      <c r="D127" s="8"/>
+      <c r="E127" s="8"/>
+      <c r="F127" s="8"/>
+      <c r="G127" s="8"/>
+      <c t="s" r="H127" s="9">
+        <v>49</v>
+      </c>
+      <c r="I127" s="9"/>
+      <c r="J127" s="9"/>
+      <c r="K127" s="9"/>
+      <c t="s" r="L127" s="10">
+        <v>194</v>
+      </c>
+      <c r="M127" s="10"/>
+      <c t="s" r="N127" s="8">
         <v>332</v>
       </c>
-      <c r="L128" s="17"/>
-      <c r="M128" s="17"/>
-      <c r="N128" s="17"/>
-      <c r="O128" s="17"/>
-      <c r="P128" s="17"/>
-      <c r="Q128" s="17"/>
+      <c r="O127" s="8"/>
+      <c t="s" r="P127" s="11">
+        <v>333</v>
+      </c>
+      <c t="s" r="Q127" s="12">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="128" ht="24.75" customHeight="1">
+      <c r="A128" s="7">
+        <v>122</v>
+      </c>
+      <c r="B128" s="7"/>
+      <c t="s" r="C128" s="8">
+        <v>334</v>
+      </c>
+      <c r="D128" s="8"/>
+      <c r="E128" s="8"/>
+      <c r="F128" s="8"/>
+      <c r="G128" s="8"/>
+      <c t="s" r="H128" s="9">
+        <v>22</v>
+      </c>
+      <c r="I128" s="9"/>
+      <c r="J128" s="9"/>
+      <c r="K128" s="9"/>
+      <c t="s" r="L128" s="10">
+        <v>194</v>
+      </c>
+      <c r="M128" s="10"/>
+      <c t="s" r="N128" s="8">
+        <v>292</v>
+      </c>
+      <c r="O128" s="8"/>
+      <c t="s" r="P128" s="11">
+        <v>293</v>
+      </c>
+      <c t="s" r="Q128" s="12">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="129" ht="25.5" customHeight="1">
+      <c r="P129" s="13">
+        <v>8023.1049999999996</v>
+      </c>
+      <c r="Q129" s="13"/>
+    </row>
+    <row r="130" ht="16.5" customHeight="1">
+      <c t="s" r="A130" s="14">
+        <v>335</v>
+      </c>
+      <c r="B130" s="14"/>
+      <c r="C130" s="14"/>
+      <c r="D130" s="14"/>
+      <c r="E130" s="14"/>
+      <c r="F130" s="14"/>
+      <c t="s" r="G130" s="15">
+        <v>336</v>
+      </c>
+      <c r="H130" s="15"/>
+      <c r="I130" s="15"/>
+      <c r="J130" s="16"/>
+      <c t="s" r="K130" s="17">
+        <v>337</v>
+      </c>
+      <c r="L130" s="17"/>
+      <c r="M130" s="17"/>
+      <c r="N130" s="17"/>
+      <c r="O130" s="17"/>
+      <c r="P130" s="17"/>
+      <c r="Q130" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="612">
+  <mergeCells count="622">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -6230,10 +6311,20 @@
     <mergeCell ref="H126:K126"/>
     <mergeCell ref="L126:M126"/>
     <mergeCell ref="N126:O126"/>
-    <mergeCell ref="P127:Q127"/>
-    <mergeCell ref="A128:F128"/>
-    <mergeCell ref="G128:I128"/>
-    <mergeCell ref="K128:Q128"/>
+    <mergeCell ref="A127:B127"/>
+    <mergeCell ref="C127:G127"/>
+    <mergeCell ref="H127:K127"/>
+    <mergeCell ref="L127:M127"/>
+    <mergeCell ref="N127:O127"/>
+    <mergeCell ref="A128:B128"/>
+    <mergeCell ref="C128:G128"/>
+    <mergeCell ref="H128:K128"/>
+    <mergeCell ref="L128:M128"/>
+    <mergeCell ref="N128:O128"/>
+    <mergeCell ref="P129:Q129"/>
+    <mergeCell ref="A130:F130"/>
+    <mergeCell ref="G130:I130"/>
+    <mergeCell ref="K130:Q130"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-08-08_00-00.xlsx
+++ b/DaySale_2025-08-08_00-00.xlsx
@@ -254,6 +254,15 @@
     <t>34.6500</t>
   </si>
   <si>
+    <t>CONCOR COR 2.5MG 30 TABLETS</t>
+  </si>
+  <si>
+    <t>60.00</t>
+  </si>
+  <si>
+    <t>19.8000</t>
+  </si>
+  <si>
     <t>CONGESTAL SYRUP 120 ML</t>
   </si>
   <si>
@@ -578,6 +587,9 @@
     <t>66.0000</t>
   </si>
   <si>
+    <t>NEXICURE 40 MG 20 F.C. TABLETS</t>
+  </si>
+  <si>
     <t>PANADOL ADVANCE 500 MG 48 TABLETS</t>
   </si>
   <si>
@@ -1016,7 +1028,7 @@
     <t>مناديل بكر فاين</t>
   </si>
   <si>
-    <t>Friday, 8 August, 2025 11:16 PM</t>
+    <t>Friday, 8 August, 2025 11:17 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -2317,7 +2329,7 @@
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>20</v>
+        <v>46</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
@@ -2334,7 +2346,7 @@
         <v>83</v>
       </c>
       <c t="s" r="Q27" s="12">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="28" ht="24.75" customHeight="1">
@@ -2350,7 +2362,7 @@
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
@@ -2367,7 +2379,7 @@
         <v>86</v>
       </c>
       <c t="s" r="Q28" s="12">
-        <v>32</v>
+        <v>20</v>
       </c>
     </row>
     <row r="29" ht="25.5" customHeight="1">
@@ -2383,7 +2395,7 @@
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
@@ -2400,7 +2412,7 @@
         <v>89</v>
       </c>
       <c t="s" r="Q29" s="12">
-        <v>16</v>
+        <v>32</v>
       </c>
     </row>
     <row r="30" ht="24.75" customHeight="1">
@@ -2416,7 +2428,7 @@
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>91</v>
+        <v>20</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
@@ -2426,14 +2438,14 @@
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="O30" s="8"/>
       <c t="s" r="P30" s="11">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c t="s" r="Q30" s="12">
-        <v>32</v>
+        <v>16</v>
       </c>
     </row>
     <row r="31" ht="25.5" customHeight="1">
@@ -2442,14 +2454,14 @@
       </c>
       <c r="B31" s="7"/>
       <c t="s" r="C31" s="8">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D31" s="8"/>
       <c r="E31" s="8"/>
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>49</v>
+        <v>94</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
@@ -2466,7 +2478,7 @@
         <v>96</v>
       </c>
       <c t="s" r="Q31" s="12">
-        <v>20</v>
+        <v>32</v>
       </c>
     </row>
     <row r="32" ht="25.5" customHeight="1">
@@ -2482,7 +2494,7 @@
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>98</v>
+        <v>49</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
@@ -2492,14 +2504,14 @@
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
-        <v>92</v>
+        <v>98</v>
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
         <v>99</v>
       </c>
       <c t="s" r="Q32" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="33" ht="24.75" customHeight="1">
@@ -2515,7 +2527,7 @@
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>32</v>
+        <v>101</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
@@ -2525,14 +2537,14 @@
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
-        <v>101</v>
+        <v>95</v>
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
         <v>102</v>
       </c>
       <c t="s" r="Q33" s="12">
-        <v>32</v>
+        <v>16</v>
       </c>
     </row>
     <row r="34" ht="25.5" customHeight="1">
@@ -2548,7 +2560,7 @@
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>49</v>
+        <v>32</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
@@ -2565,7 +2577,7 @@
         <v>105</v>
       </c>
       <c t="s" r="Q34" s="12">
-        <v>91</v>
+        <v>32</v>
       </c>
     </row>
     <row r="35" ht="24.75" customHeight="1">
@@ -2581,7 +2593,7 @@
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>42</v>
+        <v>49</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
@@ -2598,7 +2610,7 @@
         <v>108</v>
       </c>
       <c t="s" r="Q35" s="12">
-        <v>22</v>
+        <v>94</v>
       </c>
     </row>
     <row r="36" ht="25.5" customHeight="1">
@@ -2614,7 +2626,7 @@
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>20</v>
+        <v>42</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
@@ -2631,7 +2643,7 @@
         <v>111</v>
       </c>
       <c t="s" r="Q36" s="12">
-        <v>16</v>
+        <v>22</v>
       </c>
     </row>
     <row r="37" ht="25.5" customHeight="1">
@@ -2664,7 +2676,7 @@
         <v>114</v>
       </c>
       <c t="s" r="Q37" s="12">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="38" ht="24.75" customHeight="1">
@@ -2680,7 +2692,7 @@
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>32</v>
+        <v>20</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
@@ -2690,14 +2702,14 @@
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>76</v>
+        <v>116</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
-        <v>77</v>
+        <v>117</v>
       </c>
       <c t="s" r="Q38" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="39" ht="25.5" customHeight="1">
@@ -2706,14 +2718,14 @@
       </c>
       <c r="B39" s="7"/>
       <c t="s" r="C39" s="8">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="D39" s="8"/>
       <c r="E39" s="8"/>
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>117</v>
+        <v>32</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
@@ -2723,14 +2735,14 @@
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>50</v>
+        <v>76</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
-        <v>51</v>
+        <v>77</v>
       </c>
       <c t="s" r="Q39" s="12">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="40" ht="24.75" customHeight="1">
@@ -2739,14 +2751,14 @@
       </c>
       <c r="B40" s="7"/>
       <c t="s" r="C40" s="8">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="D40" s="8"/>
       <c r="E40" s="8"/>
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>49</v>
+        <v>120</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
@@ -2756,11 +2768,11 @@
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>119</v>
+        <v>50</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
-        <v>120</v>
+        <v>51</v>
       </c>
       <c t="s" r="Q40" s="12">
         <v>20</v>
@@ -2779,7 +2791,7 @@
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>42</v>
+        <v>49</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
@@ -2796,7 +2808,7 @@
         <v>123</v>
       </c>
       <c t="s" r="Q41" s="12">
-        <v>124</v>
+        <v>20</v>
       </c>
     </row>
     <row r="42" ht="25.5" customHeight="1">
@@ -2805,14 +2817,14 @@
       </c>
       <c r="B42" s="7"/>
       <c t="s" r="C42" s="8">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="D42" s="8"/>
       <c r="E42" s="8"/>
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>126</v>
+        <v>42</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
@@ -2822,14 +2834,14 @@
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c t="s" r="Q42" s="12">
-        <v>32</v>
+        <v>127</v>
       </c>
     </row>
     <row r="43" ht="24.75" customHeight="1">
@@ -2838,14 +2850,14 @@
       </c>
       <c r="B43" s="7"/>
       <c t="s" r="C43" s="8">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="D43" s="8"/>
       <c r="E43" s="8"/>
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
@@ -2855,11 +2867,11 @@
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c t="s" r="Q43" s="12">
         <v>32</v>
@@ -2871,14 +2883,14 @@
       </c>
       <c r="B44" s="7"/>
       <c t="s" r="C44" s="8">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="D44" s="8"/>
       <c r="E44" s="8"/>
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>20</v>
+        <v>133</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
@@ -2895,7 +2907,7 @@
         <v>135</v>
       </c>
       <c t="s" r="Q44" s="12">
-        <v>20</v>
+        <v>32</v>
       </c>
     </row>
     <row r="45" ht="24.75" customHeight="1">
@@ -2944,7 +2956,7 @@
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
@@ -2961,7 +2973,7 @@
         <v>141</v>
       </c>
       <c t="s" r="Q46" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="47" ht="25.5" customHeight="1">
@@ -2977,7 +2989,7 @@
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>22</v>
+        <v>12</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
@@ -2994,7 +3006,7 @@
         <v>144</v>
       </c>
       <c t="s" r="Q47" s="12">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="48" ht="24.75" customHeight="1">
@@ -3010,7 +3022,7 @@
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>59</v>
+        <v>22</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
@@ -3020,14 +3032,14 @@
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>92</v>
+        <v>146</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c t="s" r="Q48" s="12">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="49" ht="25.5" customHeight="1">
@@ -3036,14 +3048,14 @@
       </c>
       <c r="B49" s="7"/>
       <c t="s" r="C49" s="8">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="D49" s="8"/>
       <c r="E49" s="8"/>
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>49</v>
+        <v>59</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
@@ -3053,14 +3065,14 @@
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>50</v>
+        <v>95</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
-        <v>51</v>
+        <v>149</v>
       </c>
       <c t="s" r="Q49" s="12">
-        <v>20</v>
+        <v>22</v>
       </c>
     </row>
     <row r="50" ht="24.75" customHeight="1">
@@ -3069,14 +3081,14 @@
       </c>
       <c r="B50" s="7"/>
       <c t="s" r="C50" s="8">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="D50" s="8"/>
       <c r="E50" s="8"/>
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>34</v>
+        <v>49</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
@@ -3086,14 +3098,14 @@
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>149</v>
+        <v>50</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
-        <v>150</v>
+        <v>51</v>
       </c>
       <c t="s" r="Q50" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="51" ht="25.5" customHeight="1">
@@ -3109,7 +3121,7 @@
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>42</v>
+        <v>34</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
@@ -3119,14 +3131,14 @@
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>113</v>
+        <v>152</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
-        <v>114</v>
+        <v>153</v>
       </c>
       <c t="s" r="Q51" s="12">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="52" ht="25.5" customHeight="1">
@@ -3135,14 +3147,14 @@
       </c>
       <c r="B52" s="7"/>
       <c t="s" r="C52" s="8">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="D52" s="8"/>
       <c r="E52" s="8"/>
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>22</v>
+        <v>42</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
@@ -3152,11 +3164,11 @@
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c t="s" r="Q52" s="12">
         <v>20</v>
@@ -3168,14 +3180,14 @@
       </c>
       <c r="B53" s="7"/>
       <c t="s" r="C53" s="8">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="D53" s="8"/>
       <c r="E53" s="8"/>
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>34</v>
+        <v>22</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
@@ -3185,14 +3197,14 @@
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
-        <v>154</v>
+        <v>116</v>
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
-        <v>155</v>
+        <v>117</v>
       </c>
       <c t="s" r="Q53" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="54" ht="25.5" customHeight="1">
@@ -3208,7 +3220,7 @@
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>49</v>
+        <v>34</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
@@ -3218,14 +3230,14 @@
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
-        <v>95</v>
+        <v>157</v>
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
-        <v>96</v>
+        <v>158</v>
       </c>
       <c t="s" r="Q54" s="12">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="55" ht="24.75" customHeight="1">
@@ -3234,14 +3246,14 @@
       </c>
       <c r="B55" s="7"/>
       <c t="s" r="C55" s="8">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="D55" s="8"/>
       <c r="E55" s="8"/>
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>20</v>
+        <v>49</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
@@ -3251,14 +3263,14 @@
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
-        <v>158</v>
+        <v>98</v>
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
-        <v>159</v>
+        <v>99</v>
       </c>
       <c t="s" r="Q55" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="56" ht="25.5" customHeight="1">
@@ -3274,7 +3286,7 @@
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>161</v>
+        <v>20</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
@@ -3284,14 +3296,14 @@
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c t="s" r="Q56" s="12">
-        <v>124</v>
+        <v>16</v>
       </c>
     </row>
     <row r="57" ht="25.5" customHeight="1">
@@ -3300,14 +3312,14 @@
       </c>
       <c r="B57" s="7"/>
       <c t="s" r="C57" s="8">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="D57" s="8"/>
       <c r="E57" s="8"/>
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>42</v>
+        <v>164</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
@@ -3324,7 +3336,7 @@
         <v>166</v>
       </c>
       <c t="s" r="Q57" s="12">
-        <v>20</v>
+        <v>127</v>
       </c>
     </row>
     <row r="58" ht="24.75" customHeight="1">
@@ -3340,7 +3352,7 @@
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c t="s" r="H58" s="9">
-        <v>34</v>
+        <v>42</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
@@ -3357,7 +3369,7 @@
         <v>169</v>
       </c>
       <c t="s" r="Q58" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="59" ht="25.5" customHeight="1">
@@ -3383,11 +3395,11 @@
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
-        <v>71</v>
+        <v>171</v>
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
-        <v>72</v>
+        <v>172</v>
       </c>
       <c t="s" r="Q59" s="12">
         <v>16</v>
@@ -3399,14 +3411,14 @@
       </c>
       <c r="B60" s="7"/>
       <c t="s" r="C60" s="8">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="D60" s="8"/>
       <c r="E60" s="8"/>
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c t="s" r="H60" s="9">
-        <v>49</v>
+        <v>34</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
@@ -3416,11 +3428,11 @@
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
-        <v>92</v>
+        <v>71</v>
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
-        <v>172</v>
+        <v>72</v>
       </c>
       <c t="s" r="Q60" s="12">
         <v>16</v>
@@ -3432,14 +3444,14 @@
       </c>
       <c r="B61" s="7"/>
       <c t="s" r="C61" s="8">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="D61" s="8"/>
       <c r="E61" s="8"/>
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
       <c t="s" r="H61" s="9">
-        <v>124</v>
+        <v>49</v>
       </c>
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
@@ -3449,11 +3461,11 @@
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
-        <v>50</v>
+        <v>95</v>
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c t="s" r="Q61" s="12">
         <v>16</v>
@@ -3465,14 +3477,14 @@
       </c>
       <c r="B62" s="7"/>
       <c t="s" r="C62" s="8">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="D62" s="8"/>
       <c r="E62" s="8"/>
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
       <c t="s" r="H62" s="9">
-        <v>16</v>
+        <v>127</v>
       </c>
       <c r="I62" s="9"/>
       <c r="J62" s="9"/>
@@ -3482,7 +3494,7 @@
       </c>
       <c r="M62" s="10"/>
       <c t="s" r="N62" s="8">
-        <v>176</v>
+        <v>50</v>
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
@@ -3505,7 +3517,7 @@
       <c r="F63" s="8"/>
       <c r="G63" s="8"/>
       <c t="s" r="H63" s="9">
-        <v>34</v>
+        <v>16</v>
       </c>
       <c r="I63" s="9"/>
       <c r="J63" s="9"/>
@@ -3519,7 +3531,7 @@
       </c>
       <c r="O63" s="8"/>
       <c t="s" r="P63" s="11">
-        <v>93</v>
+        <v>180</v>
       </c>
       <c t="s" r="Q63" s="12">
         <v>16</v>
@@ -3531,14 +3543,14 @@
       </c>
       <c r="B64" s="7"/>
       <c t="s" r="C64" s="8">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="D64" s="8"/>
       <c r="E64" s="8"/>
       <c r="F64" s="8"/>
       <c r="G64" s="8"/>
       <c t="s" r="H64" s="9">
-        <v>49</v>
+        <v>34</v>
       </c>
       <c r="I64" s="9"/>
       <c r="J64" s="9"/>
@@ -3548,14 +3560,14 @@
       </c>
       <c r="M64" s="10"/>
       <c t="s" r="N64" s="8">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="O64" s="8"/>
       <c t="s" r="P64" s="11">
-        <v>182</v>
+        <v>96</v>
       </c>
       <c t="s" r="Q64" s="12">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="65" ht="24.75" customHeight="1">
@@ -3571,7 +3583,7 @@
       <c r="F65" s="8"/>
       <c r="G65" s="8"/>
       <c t="s" r="H65" s="9">
-        <v>32</v>
+        <v>49</v>
       </c>
       <c r="I65" s="9"/>
       <c r="J65" s="9"/>
@@ -3588,7 +3600,7 @@
         <v>185</v>
       </c>
       <c t="s" r="Q65" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="66" ht="25.5" customHeight="1">
@@ -3604,7 +3616,7 @@
       <c r="F66" s="8"/>
       <c r="G66" s="8"/>
       <c t="s" r="H66" s="9">
-        <v>22</v>
+        <v>32</v>
       </c>
       <c r="I66" s="9"/>
       <c r="J66" s="9"/>
@@ -3621,7 +3633,7 @@
         <v>188</v>
       </c>
       <c t="s" r="Q66" s="12">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="67" ht="25.5" customHeight="1">
@@ -3637,7 +3649,7 @@
       <c r="F67" s="8"/>
       <c r="G67" s="8"/>
       <c t="s" r="H67" s="9">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="I67" s="9"/>
       <c r="J67" s="9"/>
@@ -3654,7 +3666,7 @@
         <v>191</v>
       </c>
       <c t="s" r="Q67" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="68" ht="24.75" customHeight="1">
@@ -3670,24 +3682,24 @@
       <c r="F68" s="8"/>
       <c r="G68" s="8"/>
       <c t="s" r="H68" s="9">
-        <v>193</v>
+        <v>20</v>
       </c>
       <c r="I68" s="9"/>
       <c r="J68" s="9"/>
       <c r="K68" s="9"/>
       <c t="s" r="L68" s="10">
-        <v>194</v>
+        <v>13</v>
       </c>
       <c r="M68" s="10"/>
       <c t="s" r="N68" s="8">
-        <v>162</v>
+        <v>39</v>
       </c>
       <c r="O68" s="8"/>
       <c t="s" r="P68" s="11">
-        <v>195</v>
+        <v>40</v>
       </c>
       <c t="s" r="Q68" s="12">
-        <v>37</v>
+        <v>16</v>
       </c>
     </row>
     <row r="69" ht="25.5" customHeight="1">
@@ -3696,14 +3708,14 @@
       </c>
       <c r="B69" s="7"/>
       <c t="s" r="C69" s="8">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="D69" s="8"/>
       <c r="E69" s="8"/>
       <c r="F69" s="8"/>
       <c r="G69" s="8"/>
       <c t="s" r="H69" s="9">
-        <v>42</v>
+        <v>20</v>
       </c>
       <c r="I69" s="9"/>
       <c r="J69" s="9"/>
@@ -3713,14 +3725,14 @@
       </c>
       <c r="M69" s="10"/>
       <c t="s" r="N69" s="8">
-        <v>110</v>
+        <v>194</v>
       </c>
       <c r="O69" s="8"/>
       <c t="s" r="P69" s="11">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c t="s" r="Q69" s="12">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="70" ht="24.75" customHeight="1">
@@ -3729,31 +3741,31 @@
       </c>
       <c r="B70" s="7"/>
       <c t="s" r="C70" s="8">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="D70" s="8"/>
       <c r="E70" s="8"/>
       <c r="F70" s="8"/>
       <c r="G70" s="8"/>
       <c t="s" r="H70" s="9">
-        <v>16</v>
+        <v>197</v>
       </c>
       <c r="I70" s="9"/>
       <c r="J70" s="9"/>
       <c r="K70" s="9"/>
       <c t="s" r="L70" s="10">
-        <v>13</v>
+        <v>198</v>
       </c>
       <c r="M70" s="10"/>
       <c t="s" r="N70" s="8">
-        <v>184</v>
+        <v>165</v>
       </c>
       <c r="O70" s="8"/>
       <c t="s" r="P70" s="11">
         <v>199</v>
       </c>
       <c t="s" r="Q70" s="12">
-        <v>20</v>
+        <v>37</v>
       </c>
     </row>
     <row r="71" ht="25.5" customHeight="1">
@@ -3769,7 +3781,7 @@
       <c r="F71" s="8"/>
       <c r="G71" s="8"/>
       <c t="s" r="H71" s="9">
-        <v>16</v>
+        <v>42</v>
       </c>
       <c r="I71" s="9"/>
       <c r="J71" s="9"/>
@@ -3779,14 +3791,14 @@
       </c>
       <c r="M71" s="10"/>
       <c t="s" r="N71" s="8">
-        <v>201</v>
+        <v>113</v>
       </c>
       <c r="O71" s="8"/>
       <c t="s" r="P71" s="11">
-        <v>51</v>
+        <v>201</v>
       </c>
       <c t="s" r="Q71" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="72" ht="25.5" customHeight="1">
@@ -3802,7 +3814,7 @@
       <c r="F72" s="8"/>
       <c r="G72" s="8"/>
       <c t="s" r="H72" s="9">
-        <v>49</v>
+        <v>16</v>
       </c>
       <c r="I72" s="9"/>
       <c r="J72" s="9"/>
@@ -3812,7 +3824,7 @@
       </c>
       <c r="M72" s="10"/>
       <c t="s" r="N72" s="8">
-        <v>149</v>
+        <v>187</v>
       </c>
       <c r="O72" s="8"/>
       <c t="s" r="P72" s="11">
@@ -3835,7 +3847,7 @@
       <c r="F73" s="8"/>
       <c r="G73" s="8"/>
       <c t="s" r="H73" s="9">
-        <v>49</v>
+        <v>16</v>
       </c>
       <c r="I73" s="9"/>
       <c r="J73" s="9"/>
@@ -3849,10 +3861,10 @@
       </c>
       <c r="O73" s="8"/>
       <c t="s" r="P73" s="11">
-        <v>206</v>
+        <v>51</v>
       </c>
       <c t="s" r="Q73" s="12">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="74" ht="25.5" customHeight="1">
@@ -3861,7 +3873,7 @@
       </c>
       <c r="B74" s="7"/>
       <c t="s" r="C74" s="8">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="D74" s="8"/>
       <c r="E74" s="8"/>
@@ -3878,11 +3890,11 @@
       </c>
       <c r="M74" s="10"/>
       <c t="s" r="N74" s="8">
-        <v>208</v>
+        <v>152</v>
       </c>
       <c r="O74" s="8"/>
       <c t="s" r="P74" s="11">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c t="s" r="Q74" s="12">
         <v>20</v>
@@ -3894,14 +3906,14 @@
       </c>
       <c r="B75" s="7"/>
       <c t="s" r="C75" s="8">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="D75" s="8"/>
       <c r="E75" s="8"/>
       <c r="F75" s="8"/>
       <c r="G75" s="8"/>
       <c t="s" r="H75" s="9">
-        <v>20</v>
+        <v>49</v>
       </c>
       <c r="I75" s="9"/>
       <c r="J75" s="9"/>
@@ -3911,14 +3923,14 @@
       </c>
       <c r="M75" s="10"/>
       <c t="s" r="N75" s="8">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="O75" s="8"/>
       <c t="s" r="P75" s="11">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c t="s" r="Q75" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="76" ht="25.5" customHeight="1">
@@ -3927,14 +3939,14 @@
       </c>
       <c r="B76" s="7"/>
       <c t="s" r="C76" s="8">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="D76" s="8"/>
       <c r="E76" s="8"/>
       <c r="F76" s="8"/>
       <c r="G76" s="8"/>
       <c t="s" r="H76" s="9">
-        <v>16</v>
+        <v>49</v>
       </c>
       <c r="I76" s="9"/>
       <c r="J76" s="9"/>
@@ -3944,14 +3956,14 @@
       </c>
       <c r="M76" s="10"/>
       <c t="s" r="N76" s="8">
-        <v>119</v>
+        <v>212</v>
       </c>
       <c r="O76" s="8"/>
       <c t="s" r="P76" s="11">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c t="s" r="Q76" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="77" ht="25.5" customHeight="1">
@@ -3960,14 +3972,14 @@
       </c>
       <c r="B77" s="7"/>
       <c t="s" r="C77" s="8">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="D77" s="8"/>
       <c r="E77" s="8"/>
       <c r="F77" s="8"/>
       <c r="G77" s="8"/>
       <c t="s" r="H77" s="9">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="I77" s="9"/>
       <c r="J77" s="9"/>
@@ -3977,14 +3989,14 @@
       </c>
       <c r="M77" s="10"/>
       <c t="s" r="N77" s="8">
-        <v>122</v>
+        <v>215</v>
       </c>
       <c r="O77" s="8"/>
       <c t="s" r="P77" s="11">
         <v>216</v>
       </c>
       <c t="s" r="Q77" s="12">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="78" ht="24.75" customHeight="1">
@@ -4000,7 +4012,7 @@
       <c r="F78" s="8"/>
       <c r="G78" s="8"/>
       <c t="s" r="H78" s="9">
-        <v>218</v>
+        <v>16</v>
       </c>
       <c r="I78" s="9"/>
       <c r="J78" s="9"/>
@@ -4010,14 +4022,14 @@
       </c>
       <c r="M78" s="10"/>
       <c t="s" r="N78" s="8">
-        <v>165</v>
+        <v>122</v>
       </c>
       <c r="O78" s="8"/>
       <c t="s" r="P78" s="11">
-        <v>166</v>
+        <v>218</v>
       </c>
       <c t="s" r="Q78" s="12">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="79" ht="25.5" customHeight="1">
@@ -4033,7 +4045,7 @@
       <c r="F79" s="8"/>
       <c r="G79" s="8"/>
       <c t="s" r="H79" s="9">
-        <v>220</v>
+        <v>22</v>
       </c>
       <c r="I79" s="9"/>
       <c r="J79" s="9"/>
@@ -4043,14 +4055,14 @@
       </c>
       <c r="M79" s="10"/>
       <c t="s" r="N79" s="8">
-        <v>221</v>
+        <v>125</v>
       </c>
       <c r="O79" s="8"/>
       <c t="s" r="P79" s="11">
-        <v>99</v>
+        <v>220</v>
       </c>
       <c t="s" r="Q79" s="12">
-        <v>222</v>
+        <v>20</v>
       </c>
     </row>
     <row r="80" ht="24.75" customHeight="1">
@@ -4059,14 +4071,14 @@
       </c>
       <c r="B80" s="7"/>
       <c t="s" r="C80" s="8">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="D80" s="8"/>
       <c r="E80" s="8"/>
       <c r="F80" s="8"/>
       <c r="G80" s="8"/>
       <c t="s" r="H80" s="9">
-        <v>20</v>
+        <v>222</v>
       </c>
       <c r="I80" s="9"/>
       <c r="J80" s="9"/>
@@ -4076,11 +4088,11 @@
       </c>
       <c r="M80" s="10"/>
       <c t="s" r="N80" s="8">
-        <v>224</v>
+        <v>168</v>
       </c>
       <c r="O80" s="8"/>
       <c t="s" r="P80" s="11">
-        <v>225</v>
+        <v>169</v>
       </c>
       <c t="s" r="Q80" s="12">
         <v>20</v>
@@ -4092,14 +4104,14 @@
       </c>
       <c r="B81" s="7"/>
       <c t="s" r="C81" s="8">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="D81" s="8"/>
       <c r="E81" s="8"/>
       <c r="F81" s="8"/>
       <c r="G81" s="8"/>
       <c t="s" r="H81" s="9">
-        <v>49</v>
+        <v>224</v>
       </c>
       <c r="I81" s="9"/>
       <c r="J81" s="9"/>
@@ -4109,14 +4121,14 @@
       </c>
       <c r="M81" s="10"/>
       <c t="s" r="N81" s="8">
-        <v>95</v>
+        <v>225</v>
       </c>
       <c r="O81" s="8"/>
       <c t="s" r="P81" s="11">
-        <v>96</v>
+        <v>102</v>
       </c>
       <c t="s" r="Q81" s="12">
-        <v>20</v>
+        <v>226</v>
       </c>
     </row>
     <row r="82" ht="25.5" customHeight="1">
@@ -4132,7 +4144,7 @@
       <c r="F82" s="8"/>
       <c r="G82" s="8"/>
       <c t="s" r="H82" s="9">
-        <v>98</v>
+        <v>20</v>
       </c>
       <c r="I82" s="9"/>
       <c r="J82" s="9"/>
@@ -4142,14 +4154,14 @@
       </c>
       <c r="M82" s="10"/>
       <c t="s" r="N82" s="8">
-        <v>179</v>
+        <v>228</v>
       </c>
       <c r="O82" s="8"/>
       <c t="s" r="P82" s="11">
-        <v>93</v>
+        <v>229</v>
       </c>
       <c t="s" r="Q82" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="83" ht="24.75" customHeight="1">
@@ -4158,14 +4170,14 @@
       </c>
       <c r="B83" s="7"/>
       <c t="s" r="C83" s="8">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="D83" s="8"/>
       <c r="E83" s="8"/>
       <c r="F83" s="8"/>
       <c r="G83" s="8"/>
       <c t="s" r="H83" s="9">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="I83" s="9"/>
       <c r="J83" s="9"/>
@@ -4175,14 +4187,14 @@
       </c>
       <c r="M83" s="10"/>
       <c t="s" r="N83" s="8">
-        <v>113</v>
+        <v>98</v>
       </c>
       <c r="O83" s="8"/>
       <c t="s" r="P83" s="11">
-        <v>229</v>
+        <v>99</v>
       </c>
       <c t="s" r="Q83" s="12">
-        <v>32</v>
+        <v>20</v>
       </c>
     </row>
     <row r="84" ht="25.5" customHeight="1">
@@ -4191,14 +4203,14 @@
       </c>
       <c r="B84" s="7"/>
       <c t="s" r="C84" s="8">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="D84" s="8"/>
       <c r="E84" s="8"/>
       <c r="F84" s="8"/>
       <c r="G84" s="8"/>
       <c t="s" r="H84" s="9">
-        <v>231</v>
+        <v>101</v>
       </c>
       <c r="I84" s="9"/>
       <c r="J84" s="9"/>
@@ -4208,14 +4220,14 @@
       </c>
       <c r="M84" s="10"/>
       <c t="s" r="N84" s="8">
-        <v>30</v>
+        <v>182</v>
       </c>
       <c r="O84" s="8"/>
       <c t="s" r="P84" s="11">
-        <v>232</v>
+        <v>96</v>
       </c>
       <c t="s" r="Q84" s="12">
-        <v>46</v>
+        <v>16</v>
       </c>
     </row>
     <row r="85" ht="24.75" customHeight="1">
@@ -4224,7 +4236,7 @@
       </c>
       <c r="B85" s="7"/>
       <c t="s" r="C85" s="8">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="D85" s="8"/>
       <c r="E85" s="8"/>
@@ -4241,14 +4253,14 @@
       </c>
       <c r="M85" s="10"/>
       <c t="s" r="N85" s="8">
-        <v>107</v>
+        <v>116</v>
       </c>
       <c r="O85" s="8"/>
       <c t="s" r="P85" s="11">
-        <v>66</v>
+        <v>233</v>
       </c>
       <c t="s" r="Q85" s="12">
-        <v>20</v>
+        <v>32</v>
       </c>
     </row>
     <row r="86" ht="25.5" customHeight="1">
@@ -4264,7 +4276,7 @@
       <c r="F86" s="8"/>
       <c r="G86" s="8"/>
       <c t="s" r="H86" s="9">
-        <v>34</v>
+        <v>235</v>
       </c>
       <c r="I86" s="9"/>
       <c r="J86" s="9"/>
@@ -4274,14 +4286,14 @@
       </c>
       <c r="M86" s="10"/>
       <c t="s" r="N86" s="8">
-        <v>43</v>
+        <v>30</v>
       </c>
       <c r="O86" s="8"/>
       <c t="s" r="P86" s="11">
-        <v>44</v>
+        <v>236</v>
       </c>
       <c t="s" r="Q86" s="12">
-        <v>16</v>
+        <v>46</v>
       </c>
     </row>
     <row r="87" ht="25.5" customHeight="1">
@@ -4290,14 +4302,14 @@
       </c>
       <c r="B87" s="7"/>
       <c t="s" r="C87" s="8">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="D87" s="8"/>
       <c r="E87" s="8"/>
       <c r="F87" s="8"/>
       <c r="G87" s="8"/>
       <c t="s" r="H87" s="9">
-        <v>231</v>
+        <v>46</v>
       </c>
       <c r="I87" s="9"/>
       <c r="J87" s="9"/>
@@ -4307,14 +4319,14 @@
       </c>
       <c r="M87" s="10"/>
       <c t="s" r="N87" s="8">
-        <v>236</v>
+        <v>110</v>
       </c>
       <c r="O87" s="8"/>
       <c t="s" r="P87" s="11">
-        <v>191</v>
+        <v>66</v>
       </c>
       <c t="s" r="Q87" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="88" ht="24.75" customHeight="1">
@@ -4323,14 +4335,14 @@
       </c>
       <c r="B88" s="7"/>
       <c t="s" r="C88" s="8">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="D88" s="8"/>
       <c r="E88" s="8"/>
       <c r="F88" s="8"/>
       <c r="G88" s="8"/>
       <c t="s" r="H88" s="9">
-        <v>231</v>
+        <v>34</v>
       </c>
       <c r="I88" s="9"/>
       <c r="J88" s="9"/>
@@ -4340,14 +4352,14 @@
       </c>
       <c r="M88" s="10"/>
       <c t="s" r="N88" s="8">
-        <v>238</v>
+        <v>43</v>
       </c>
       <c r="O88" s="8"/>
       <c t="s" r="P88" s="11">
-        <v>239</v>
+        <v>44</v>
       </c>
       <c t="s" r="Q88" s="12">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="89" ht="25.5" customHeight="1">
@@ -4356,14 +4368,14 @@
       </c>
       <c r="B89" s="7"/>
       <c t="s" r="C89" s="8">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="D89" s="8"/>
       <c r="E89" s="8"/>
       <c r="F89" s="8"/>
       <c r="G89" s="8"/>
       <c t="s" r="H89" s="9">
-        <v>16</v>
+        <v>235</v>
       </c>
       <c r="I89" s="9"/>
       <c r="J89" s="9"/>
@@ -4373,11 +4385,11 @@
       </c>
       <c r="M89" s="10"/>
       <c t="s" r="N89" s="8">
-        <v>149</v>
+        <v>240</v>
       </c>
       <c r="O89" s="8"/>
       <c t="s" r="P89" s="11">
-        <v>150</v>
+        <v>195</v>
       </c>
       <c t="s" r="Q89" s="12">
         <v>16</v>
@@ -4396,7 +4408,7 @@
       <c r="F90" s="8"/>
       <c r="G90" s="8"/>
       <c t="s" r="H90" s="9">
-        <v>49</v>
+        <v>235</v>
       </c>
       <c r="I90" s="9"/>
       <c r="J90" s="9"/>
@@ -4439,14 +4451,14 @@
       </c>
       <c r="M91" s="10"/>
       <c t="s" r="N91" s="8">
-        <v>236</v>
+        <v>152</v>
       </c>
       <c r="O91" s="8"/>
       <c t="s" r="P91" s="11">
-        <v>245</v>
+        <v>153</v>
       </c>
       <c t="s" r="Q91" s="12">
-        <v>34</v>
+        <v>16</v>
       </c>
     </row>
     <row r="92" ht="25.5" customHeight="1">
@@ -4455,14 +4467,14 @@
       </c>
       <c r="B92" s="7"/>
       <c t="s" r="C92" s="8">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="D92" s="8"/>
       <c r="E92" s="8"/>
       <c r="F92" s="8"/>
       <c r="G92" s="8"/>
       <c t="s" r="H92" s="9">
-        <v>34</v>
+        <v>49</v>
       </c>
       <c r="I92" s="9"/>
       <c r="J92" s="9"/>
@@ -4472,14 +4484,14 @@
       </c>
       <c r="M92" s="10"/>
       <c t="s" r="N92" s="8">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="O92" s="8"/>
       <c t="s" r="P92" s="11">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c t="s" r="Q92" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="93" ht="24.75" customHeight="1">
@@ -4488,14 +4500,14 @@
       </c>
       <c r="B93" s="7"/>
       <c t="s" r="C93" s="8">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="D93" s="8"/>
       <c r="E93" s="8"/>
       <c r="F93" s="8"/>
       <c r="G93" s="8"/>
       <c t="s" r="H93" s="9">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="I93" s="9"/>
       <c r="J93" s="9"/>
@@ -4505,14 +4517,14 @@
       </c>
       <c r="M93" s="10"/>
       <c t="s" r="N93" s="8">
-        <v>140</v>
+        <v>240</v>
       </c>
       <c r="O93" s="8"/>
       <c t="s" r="P93" s="11">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c t="s" r="Q93" s="12">
-        <v>20</v>
+        <v>34</v>
       </c>
     </row>
     <row r="94" ht="25.5" customHeight="1">
@@ -4521,14 +4533,14 @@
       </c>
       <c r="B94" s="7"/>
       <c t="s" r="C94" s="8">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="D94" s="8"/>
       <c r="E94" s="8"/>
       <c r="F94" s="8"/>
       <c r="G94" s="8"/>
       <c t="s" r="H94" s="9">
-        <v>22</v>
+        <v>34</v>
       </c>
       <c r="I94" s="9"/>
       <c r="J94" s="9"/>
@@ -4538,14 +4550,14 @@
       </c>
       <c r="M94" s="10"/>
       <c t="s" r="N94" s="8">
-        <v>143</v>
+        <v>251</v>
       </c>
       <c r="O94" s="8"/>
       <c t="s" r="P94" s="11">
-        <v>40</v>
+        <v>252</v>
       </c>
       <c t="s" r="Q94" s="12">
-        <v>22</v>
+        <v>16</v>
       </c>
     </row>
     <row r="95" ht="24.75" customHeight="1">
@@ -4554,14 +4566,14 @@
       </c>
       <c r="B95" s="7"/>
       <c t="s" r="C95" s="8">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="D95" s="8"/>
       <c r="E95" s="8"/>
       <c r="F95" s="8"/>
       <c r="G95" s="8"/>
       <c t="s" r="H95" s="9">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="I95" s="9"/>
       <c r="J95" s="9"/>
@@ -4571,14 +4583,14 @@
       </c>
       <c r="M95" s="10"/>
       <c t="s" r="N95" s="8">
-        <v>253</v>
+        <v>143</v>
       </c>
       <c r="O95" s="8"/>
       <c t="s" r="P95" s="11">
         <v>254</v>
       </c>
       <c t="s" r="Q95" s="12">
-        <v>34</v>
+        <v>20</v>
       </c>
     </row>
     <row r="96" ht="25.5" customHeight="1">
@@ -4594,7 +4606,7 @@
       <c r="F96" s="8"/>
       <c r="G96" s="8"/>
       <c t="s" r="H96" s="9">
-        <v>49</v>
+        <v>22</v>
       </c>
       <c r="I96" s="9"/>
       <c r="J96" s="9"/>
@@ -4604,14 +4616,14 @@
       </c>
       <c r="M96" s="10"/>
       <c t="s" r="N96" s="8">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="O96" s="8"/>
       <c t="s" r="P96" s="11">
-        <v>144</v>
+        <v>40</v>
       </c>
       <c t="s" r="Q96" s="12">
-        <v>20</v>
+        <v>22</v>
       </c>
     </row>
     <row r="97" ht="25.5" customHeight="1">
@@ -4627,7 +4639,7 @@
       <c r="F97" s="8"/>
       <c r="G97" s="8"/>
       <c t="s" r="H97" s="9">
-        <v>32</v>
+        <v>20</v>
       </c>
       <c r="I97" s="9"/>
       <c r="J97" s="9"/>
@@ -4644,7 +4656,7 @@
         <v>258</v>
       </c>
       <c t="s" r="Q97" s="12">
-        <v>16</v>
+        <v>34</v>
       </c>
     </row>
     <row r="98" ht="24.75" customHeight="1">
@@ -4670,14 +4682,14 @@
       </c>
       <c r="M98" s="10"/>
       <c t="s" r="N98" s="8">
-        <v>92</v>
+        <v>146</v>
       </c>
       <c r="O98" s="8"/>
       <c t="s" r="P98" s="11">
-        <v>172</v>
+        <v>147</v>
       </c>
       <c t="s" r="Q98" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="99" ht="25.5" customHeight="1">
@@ -4693,7 +4705,7 @@
       <c r="F99" s="8"/>
       <c r="G99" s="8"/>
       <c t="s" r="H99" s="9">
-        <v>124</v>
+        <v>32</v>
       </c>
       <c r="I99" s="9"/>
       <c r="J99" s="9"/>
@@ -4710,7 +4722,7 @@
         <v>262</v>
       </c>
       <c t="s" r="Q99" s="12">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="100" ht="24.75" customHeight="1">
@@ -4736,14 +4748,14 @@
       </c>
       <c r="M100" s="10"/>
       <c t="s" r="N100" s="8">
-        <v>264</v>
+        <v>95</v>
       </c>
       <c r="O100" s="8"/>
       <c t="s" r="P100" s="11">
-        <v>191</v>
+        <v>175</v>
       </c>
       <c t="s" r="Q100" s="12">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="101" ht="25.5" customHeight="1">
@@ -4752,14 +4764,14 @@
       </c>
       <c r="B101" s="7"/>
       <c t="s" r="C101" s="8">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="D101" s="8"/>
       <c r="E101" s="8"/>
       <c r="F101" s="8"/>
       <c r="G101" s="8"/>
       <c t="s" r="H101" s="9">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="I101" s="9"/>
       <c r="J101" s="9"/>
@@ -4769,14 +4781,14 @@
       </c>
       <c r="M101" s="10"/>
       <c t="s" r="N101" s="8">
-        <v>149</v>
+        <v>265</v>
       </c>
       <c r="O101" s="8"/>
       <c t="s" r="P101" s="11">
         <v>266</v>
       </c>
       <c t="s" r="Q101" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="102" ht="25.5" customHeight="1">
@@ -4792,7 +4804,7 @@
       <c r="F102" s="8"/>
       <c r="G102" s="8"/>
       <c t="s" r="H102" s="9">
-        <v>20</v>
+        <v>49</v>
       </c>
       <c r="I102" s="9"/>
       <c r="J102" s="9"/>
@@ -4802,14 +4814,14 @@
       </c>
       <c r="M102" s="10"/>
       <c t="s" r="N102" s="8">
-        <v>149</v>
+        <v>268</v>
       </c>
       <c r="O102" s="8"/>
       <c t="s" r="P102" s="11">
-        <v>150</v>
+        <v>195</v>
       </c>
       <c t="s" r="Q102" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="103" ht="24.75" customHeight="1">
@@ -4818,14 +4830,14 @@
       </c>
       <c r="B103" s="7"/>
       <c t="s" r="C103" s="8">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="D103" s="8"/>
       <c r="E103" s="8"/>
       <c r="F103" s="8"/>
       <c r="G103" s="8"/>
       <c t="s" r="H103" s="9">
-        <v>49</v>
+        <v>129</v>
       </c>
       <c r="I103" s="9"/>
       <c r="J103" s="9"/>
@@ -4835,14 +4847,14 @@
       </c>
       <c r="M103" s="10"/>
       <c t="s" r="N103" s="8">
-        <v>269</v>
+        <v>152</v>
       </c>
       <c r="O103" s="8"/>
       <c t="s" r="P103" s="11">
         <v>270</v>
       </c>
       <c t="s" r="Q103" s="12">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="104" ht="25.5" customHeight="1">
@@ -4858,7 +4870,7 @@
       <c r="F104" s="8"/>
       <c r="G104" s="8"/>
       <c t="s" r="H104" s="9">
-        <v>32</v>
+        <v>20</v>
       </c>
       <c r="I104" s="9"/>
       <c r="J104" s="9"/>
@@ -4868,11 +4880,11 @@
       </c>
       <c r="M104" s="10"/>
       <c t="s" r="N104" s="8">
-        <v>272</v>
+        <v>152</v>
       </c>
       <c r="O104" s="8"/>
       <c t="s" r="P104" s="11">
-        <v>273</v>
+        <v>153</v>
       </c>
       <c t="s" r="Q104" s="12">
         <v>16</v>
@@ -4884,14 +4896,14 @@
       </c>
       <c r="B105" s="7"/>
       <c t="s" r="C105" s="8">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="D105" s="8"/>
       <c r="E105" s="8"/>
       <c r="F105" s="8"/>
       <c r="G105" s="8"/>
       <c t="s" r="H105" s="9">
-        <v>98</v>
+        <v>49</v>
       </c>
       <c r="I105" s="9"/>
       <c r="J105" s="9"/>
@@ -4901,14 +4913,14 @@
       </c>
       <c r="M105" s="10"/>
       <c t="s" r="N105" s="8">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="O105" s="8"/>
       <c t="s" r="P105" s="11">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c t="s" r="Q105" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="106" ht="25.5" customHeight="1">
@@ -4917,14 +4929,14 @@
       </c>
       <c r="B106" s="7"/>
       <c t="s" r="C106" s="8">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="D106" s="8"/>
       <c r="E106" s="8"/>
       <c r="F106" s="8"/>
       <c r="G106" s="8"/>
       <c t="s" r="H106" s="9">
-        <v>16</v>
+        <v>32</v>
       </c>
       <c r="I106" s="9"/>
       <c r="J106" s="9"/>
@@ -4934,11 +4946,11 @@
       </c>
       <c r="M106" s="10"/>
       <c t="s" r="N106" s="8">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="O106" s="8"/>
       <c t="s" r="P106" s="11">
-        <v>216</v>
+        <v>277</v>
       </c>
       <c t="s" r="Q106" s="12">
         <v>16</v>
@@ -4950,14 +4962,14 @@
       </c>
       <c r="B107" s="7"/>
       <c t="s" r="C107" s="8">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="D107" s="8"/>
       <c r="E107" s="8"/>
       <c r="F107" s="8"/>
       <c r="G107" s="8"/>
       <c t="s" r="H107" s="9">
-        <v>280</v>
+        <v>101</v>
       </c>
       <c r="I107" s="9"/>
       <c r="J107" s="9"/>
@@ -4967,14 +4979,14 @@
       </c>
       <c r="M107" s="10"/>
       <c t="s" r="N107" s="8">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="O107" s="8"/>
       <c t="s" r="P107" s="11">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c t="s" r="Q107" s="12">
-        <v>22</v>
+        <v>16</v>
       </c>
     </row>
     <row r="108" ht="24.75" customHeight="1">
@@ -4983,14 +4995,14 @@
       </c>
       <c r="B108" s="7"/>
       <c t="s" r="C108" s="8">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="D108" s="8"/>
       <c r="E108" s="8"/>
       <c r="F108" s="8"/>
       <c r="G108" s="8"/>
       <c t="s" r="H108" s="9">
-        <v>49</v>
+        <v>16</v>
       </c>
       <c r="I108" s="9"/>
       <c r="J108" s="9"/>
@@ -5000,14 +5012,14 @@
       </c>
       <c r="M108" s="10"/>
       <c t="s" r="N108" s="8">
-        <v>79</v>
+        <v>282</v>
       </c>
       <c r="O108" s="8"/>
       <c t="s" r="P108" s="11">
-        <v>284</v>
+        <v>220</v>
       </c>
       <c t="s" r="Q108" s="12">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="109" ht="25.5" customHeight="1">
@@ -5016,31 +5028,31 @@
       </c>
       <c r="B109" s="7"/>
       <c t="s" r="C109" s="8">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="D109" s="8"/>
       <c r="E109" s="8"/>
       <c r="F109" s="8"/>
       <c r="G109" s="8"/>
       <c t="s" r="H109" s="9">
-        <v>20</v>
+        <v>284</v>
       </c>
       <c r="I109" s="9"/>
       <c r="J109" s="9"/>
       <c r="K109" s="9"/>
       <c t="s" r="L109" s="10">
-        <v>194</v>
+        <v>13</v>
       </c>
       <c r="M109" s="10"/>
       <c t="s" r="N109" s="8">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="O109" s="8"/>
       <c t="s" r="P109" s="11">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c t="s" r="Q109" s="12">
-        <v>20</v>
+        <v>22</v>
       </c>
     </row>
     <row r="110" ht="24.75" customHeight="1">
@@ -5049,31 +5061,31 @@
       </c>
       <c r="B110" s="7"/>
       <c t="s" r="C110" s="8">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="D110" s="8"/>
       <c r="E110" s="8"/>
       <c r="F110" s="8"/>
       <c r="G110" s="8"/>
       <c t="s" r="H110" s="9">
-        <v>289</v>
+        <v>49</v>
       </c>
       <c r="I110" s="9"/>
       <c r="J110" s="9"/>
       <c r="K110" s="9"/>
       <c t="s" r="L110" s="10">
-        <v>194</v>
+        <v>13</v>
       </c>
       <c r="M110" s="10"/>
       <c t="s" r="N110" s="8">
-        <v>290</v>
+        <v>79</v>
       </c>
       <c r="O110" s="8"/>
       <c t="s" r="P110" s="11">
-        <v>203</v>
+        <v>288</v>
       </c>
       <c t="s" r="Q110" s="12">
-        <v>42</v>
+        <v>20</v>
       </c>
     </row>
     <row r="111" ht="25.5" customHeight="1">
@@ -5082,28 +5094,28 @@
       </c>
       <c r="B111" s="7"/>
       <c t="s" r="C111" s="8">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="D111" s="8"/>
       <c r="E111" s="8"/>
       <c r="F111" s="8"/>
       <c r="G111" s="8"/>
       <c t="s" r="H111" s="9">
-        <v>42</v>
+        <v>20</v>
       </c>
       <c r="I111" s="9"/>
       <c r="J111" s="9"/>
       <c r="K111" s="9"/>
       <c t="s" r="L111" s="10">
-        <v>194</v>
+        <v>198</v>
       </c>
       <c r="M111" s="10"/>
       <c t="s" r="N111" s="8">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="O111" s="8"/>
       <c t="s" r="P111" s="11">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c t="s" r="Q111" s="12">
         <v>20</v>
@@ -5115,31 +5127,31 @@
       </c>
       <c r="B112" s="7"/>
       <c t="s" r="C112" s="8">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="D112" s="8"/>
       <c r="E112" s="8"/>
       <c r="F112" s="8"/>
       <c r="G112" s="8"/>
       <c t="s" r="H112" s="9">
-        <v>49</v>
+        <v>293</v>
       </c>
       <c r="I112" s="9"/>
       <c r="J112" s="9"/>
       <c r="K112" s="9"/>
       <c t="s" r="L112" s="10">
-        <v>194</v>
+        <v>198</v>
       </c>
       <c r="M112" s="10"/>
       <c t="s" r="N112" s="8">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="O112" s="8"/>
       <c t="s" r="P112" s="11">
-        <v>296</v>
+        <v>207</v>
       </c>
       <c t="s" r="Q112" s="12">
-        <v>22</v>
+        <v>42</v>
       </c>
     </row>
     <row r="113" ht="24.75" customHeight="1">
@@ -5148,28 +5160,28 @@
       </c>
       <c r="B113" s="7"/>
       <c t="s" r="C113" s="8">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="D113" s="8"/>
       <c r="E113" s="8"/>
       <c r="F113" s="8"/>
       <c r="G113" s="8"/>
       <c t="s" r="H113" s="9">
-        <v>20</v>
+        <v>42</v>
       </c>
       <c r="I113" s="9"/>
       <c r="J113" s="9"/>
       <c r="K113" s="9"/>
       <c t="s" r="L113" s="10">
-        <v>194</v>
+        <v>198</v>
       </c>
       <c r="M113" s="10"/>
       <c t="s" r="N113" s="8">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="O113" s="8"/>
       <c t="s" r="P113" s="11">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c t="s" r="Q113" s="12">
         <v>20</v>
@@ -5181,28 +5193,28 @@
       </c>
       <c r="B114" s="7"/>
       <c t="s" r="C114" s="8">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="D114" s="8"/>
       <c r="E114" s="8"/>
       <c r="F114" s="8"/>
       <c r="G114" s="8"/>
       <c t="s" r="H114" s="9">
-        <v>301</v>
+        <v>49</v>
       </c>
       <c r="I114" s="9"/>
       <c r="J114" s="9"/>
       <c r="K114" s="9"/>
       <c t="s" r="L114" s="10">
-        <v>194</v>
+        <v>198</v>
       </c>
       <c r="M114" s="10"/>
       <c t="s" r="N114" s="8">
-        <v>302</v>
+        <v>299</v>
       </c>
       <c r="O114" s="8"/>
       <c t="s" r="P114" s="11">
-        <v>303</v>
+        <v>300</v>
       </c>
       <c t="s" r="Q114" s="12">
         <v>22</v>
@@ -5214,31 +5226,31 @@
       </c>
       <c r="B115" s="7"/>
       <c t="s" r="C115" s="8">
-        <v>304</v>
+        <v>301</v>
       </c>
       <c r="D115" s="8"/>
       <c r="E115" s="8"/>
       <c r="F115" s="8"/>
       <c r="G115" s="8"/>
       <c t="s" r="H115" s="9">
-        <v>49</v>
+        <v>20</v>
       </c>
       <c r="I115" s="9"/>
       <c r="J115" s="9"/>
       <c r="K115" s="9"/>
       <c t="s" r="L115" s="10">
-        <v>194</v>
+        <v>198</v>
       </c>
       <c r="M115" s="10"/>
       <c t="s" r="N115" s="8">
-        <v>305</v>
+        <v>302</v>
       </c>
       <c r="O115" s="8"/>
       <c t="s" r="P115" s="11">
-        <v>306</v>
+        <v>303</v>
       </c>
       <c t="s" r="Q115" s="12">
-        <v>307</v>
+        <v>20</v>
       </c>
     </row>
     <row r="116" ht="25.5" customHeight="1">
@@ -5247,31 +5259,31 @@
       </c>
       <c r="B116" s="7"/>
       <c t="s" r="C116" s="8">
-        <v>308</v>
+        <v>304</v>
       </c>
       <c r="D116" s="8"/>
       <c r="E116" s="8"/>
       <c r="F116" s="8"/>
       <c r="G116" s="8"/>
       <c t="s" r="H116" s="9">
-        <v>49</v>
+        <v>305</v>
       </c>
       <c r="I116" s="9"/>
       <c r="J116" s="9"/>
       <c r="K116" s="9"/>
       <c t="s" r="L116" s="10">
-        <v>194</v>
+        <v>198</v>
       </c>
       <c r="M116" s="10"/>
       <c t="s" r="N116" s="8">
-        <v>281</v>
+        <v>306</v>
       </c>
       <c r="O116" s="8"/>
       <c t="s" r="P116" s="11">
-        <v>250</v>
+        <v>307</v>
       </c>
       <c t="s" r="Q116" s="12">
-        <v>309</v>
+        <v>22</v>
       </c>
     </row>
     <row r="117" ht="25.5" customHeight="1">
@@ -5280,7 +5292,7 @@
       </c>
       <c r="B117" s="7"/>
       <c t="s" r="C117" s="8">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="D117" s="8"/>
       <c r="E117" s="8"/>
@@ -5293,18 +5305,18 @@
       <c r="J117" s="9"/>
       <c r="K117" s="9"/>
       <c t="s" r="L117" s="10">
-        <v>194</v>
+        <v>198</v>
       </c>
       <c r="M117" s="10"/>
       <c t="s" r="N117" s="8">
-        <v>295</v>
+        <v>309</v>
       </c>
       <c r="O117" s="8"/>
       <c t="s" r="P117" s="11">
+        <v>310</v>
+      </c>
+      <c t="s" r="Q117" s="12">
         <v>311</v>
-      </c>
-      <c t="s" r="Q117" s="12">
-        <v>42</v>
       </c>
     </row>
     <row r="118" ht="24.75" customHeight="1">
@@ -5320,24 +5332,24 @@
       <c r="F118" s="8"/>
       <c r="G118" s="8"/>
       <c t="s" r="H118" s="9">
-        <v>22</v>
+        <v>49</v>
       </c>
       <c r="I118" s="9"/>
       <c r="J118" s="9"/>
       <c r="K118" s="9"/>
       <c t="s" r="L118" s="10">
-        <v>194</v>
+        <v>198</v>
       </c>
       <c r="M118" s="10"/>
       <c t="s" r="N118" s="8">
-        <v>298</v>
+        <v>285</v>
       </c>
       <c r="O118" s="8"/>
       <c t="s" r="P118" s="11">
-        <v>299</v>
+        <v>254</v>
       </c>
       <c t="s" r="Q118" s="12">
-        <v>20</v>
+        <v>313</v>
       </c>
     </row>
     <row r="119" ht="25.5" customHeight="1">
@@ -5346,7 +5358,7 @@
       </c>
       <c r="B119" s="7"/>
       <c t="s" r="C119" s="8">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="D119" s="8"/>
       <c r="E119" s="8"/>
@@ -5359,18 +5371,18 @@
       <c r="J119" s="9"/>
       <c r="K119" s="9"/>
       <c t="s" r="L119" s="10">
-        <v>194</v>
+        <v>198</v>
       </c>
       <c r="M119" s="10"/>
       <c t="s" r="N119" s="8">
-        <v>290</v>
+        <v>299</v>
       </c>
       <c r="O119" s="8"/>
       <c t="s" r="P119" s="11">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c t="s" r="Q119" s="12">
-        <v>20</v>
+        <v>42</v>
       </c>
     </row>
     <row r="120" ht="24.75" customHeight="1">
@@ -5379,28 +5391,28 @@
       </c>
       <c r="B120" s="7"/>
       <c t="s" r="C120" s="8">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="D120" s="8"/>
       <c r="E120" s="8"/>
       <c r="F120" s="8"/>
       <c r="G120" s="8"/>
       <c t="s" r="H120" s="9">
-        <v>316</v>
+        <v>22</v>
       </c>
       <c r="I120" s="9"/>
       <c r="J120" s="9"/>
       <c r="K120" s="9"/>
       <c t="s" r="L120" s="10">
-        <v>194</v>
+        <v>198</v>
       </c>
       <c r="M120" s="10"/>
       <c t="s" r="N120" s="8">
-        <v>317</v>
+        <v>302</v>
       </c>
       <c r="O120" s="8"/>
       <c t="s" r="P120" s="11">
-        <v>318</v>
+        <v>303</v>
       </c>
       <c t="s" r="Q120" s="12">
         <v>20</v>
@@ -5412,28 +5424,28 @@
       </c>
       <c r="B121" s="7"/>
       <c t="s" r="C121" s="8">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="D121" s="8"/>
       <c r="E121" s="8"/>
       <c r="F121" s="8"/>
       <c r="G121" s="8"/>
       <c t="s" r="H121" s="9">
-        <v>42</v>
+        <v>49</v>
       </c>
       <c r="I121" s="9"/>
       <c r="J121" s="9"/>
       <c r="K121" s="9"/>
       <c t="s" r="L121" s="10">
-        <v>194</v>
+        <v>198</v>
       </c>
       <c r="M121" s="10"/>
       <c t="s" r="N121" s="8">
-        <v>320</v>
+        <v>294</v>
       </c>
       <c r="O121" s="8"/>
       <c t="s" r="P121" s="11">
-        <v>321</v>
+        <v>318</v>
       </c>
       <c t="s" r="Q121" s="12">
         <v>20</v>
@@ -5445,31 +5457,31 @@
       </c>
       <c r="B122" s="7"/>
       <c t="s" r="C122" s="8">
-        <v>322</v>
+        <v>319</v>
       </c>
       <c r="D122" s="8"/>
       <c r="E122" s="8"/>
       <c r="F122" s="8"/>
       <c r="G122" s="8"/>
       <c t="s" r="H122" s="9">
-        <v>323</v>
+        <v>320</v>
       </c>
       <c r="I122" s="9"/>
       <c r="J122" s="9"/>
       <c r="K122" s="9"/>
       <c t="s" r="L122" s="10">
-        <v>194</v>
+        <v>198</v>
       </c>
       <c r="M122" s="10"/>
       <c t="s" r="N122" s="8">
-        <v>298</v>
+        <v>321</v>
       </c>
       <c r="O122" s="8"/>
       <c t="s" r="P122" s="11">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c t="s" r="Q122" s="12">
-        <v>91</v>
+        <v>20</v>
       </c>
     </row>
     <row r="123" ht="24.75" customHeight="1">
@@ -5478,28 +5490,28 @@
       </c>
       <c r="B123" s="7"/>
       <c t="s" r="C123" s="8">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="D123" s="8"/>
       <c r="E123" s="8"/>
       <c r="F123" s="8"/>
       <c r="G123" s="8"/>
       <c t="s" r="H123" s="9">
-        <v>307</v>
+        <v>42</v>
       </c>
       <c r="I123" s="9"/>
       <c r="J123" s="9"/>
       <c r="K123" s="9"/>
       <c t="s" r="L123" s="10">
-        <v>194</v>
+        <v>198</v>
       </c>
       <c r="M123" s="10"/>
       <c t="s" r="N123" s="8">
-        <v>208</v>
+        <v>324</v>
       </c>
       <c r="O123" s="8"/>
       <c t="s" r="P123" s="11">
-        <v>209</v>
+        <v>325</v>
       </c>
       <c t="s" r="Q123" s="12">
         <v>20</v>
@@ -5518,24 +5530,24 @@
       <c r="F124" s="8"/>
       <c r="G124" s="8"/>
       <c t="s" r="H124" s="9">
-        <v>49</v>
+        <v>327</v>
       </c>
       <c r="I124" s="9"/>
       <c r="J124" s="9"/>
       <c r="K124" s="9"/>
       <c t="s" r="L124" s="10">
-        <v>194</v>
+        <v>198</v>
       </c>
       <c r="M124" s="10"/>
       <c t="s" r="N124" s="8">
-        <v>292</v>
+        <v>302</v>
       </c>
       <c r="O124" s="8"/>
       <c t="s" r="P124" s="11">
-        <v>314</v>
+        <v>328</v>
       </c>
       <c t="s" r="Q124" s="12">
-        <v>22</v>
+        <v>94</v>
       </c>
     </row>
     <row r="125" ht="24.75" customHeight="1">
@@ -5544,28 +5556,28 @@
       </c>
       <c r="B125" s="7"/>
       <c t="s" r="C125" s="8">
-        <v>327</v>
+        <v>329</v>
       </c>
       <c r="D125" s="8"/>
       <c r="E125" s="8"/>
       <c r="F125" s="8"/>
       <c r="G125" s="8"/>
       <c t="s" r="H125" s="9">
-        <v>20</v>
+        <v>311</v>
       </c>
       <c r="I125" s="9"/>
       <c r="J125" s="9"/>
       <c r="K125" s="9"/>
       <c t="s" r="L125" s="10">
-        <v>194</v>
+        <v>198</v>
       </c>
       <c r="M125" s="10"/>
       <c t="s" r="N125" s="8">
-        <v>328</v>
+        <v>212</v>
       </c>
       <c r="O125" s="8"/>
       <c t="s" r="P125" s="11">
-        <v>329</v>
+        <v>213</v>
       </c>
       <c t="s" r="Q125" s="12">
         <v>20</v>
@@ -5584,24 +5596,24 @@
       <c r="F126" s="8"/>
       <c r="G126" s="8"/>
       <c t="s" r="H126" s="9">
-        <v>307</v>
+        <v>49</v>
       </c>
       <c r="I126" s="9"/>
       <c r="J126" s="9"/>
       <c r="K126" s="9"/>
       <c t="s" r="L126" s="10">
-        <v>194</v>
+        <v>198</v>
       </c>
       <c r="M126" s="10"/>
       <c t="s" r="N126" s="8">
-        <v>140</v>
+        <v>296</v>
       </c>
       <c r="O126" s="8"/>
       <c t="s" r="P126" s="11">
-        <v>146</v>
+        <v>318</v>
       </c>
       <c t="s" r="Q126" s="12">
-        <v>42</v>
+        <v>22</v>
       </c>
     </row>
     <row r="127" ht="25.5" customHeight="1">
@@ -5617,13 +5629,13 @@
       <c r="F127" s="8"/>
       <c r="G127" s="8"/>
       <c t="s" r="H127" s="9">
-        <v>49</v>
+        <v>20</v>
       </c>
       <c r="I127" s="9"/>
       <c r="J127" s="9"/>
       <c r="K127" s="9"/>
       <c t="s" r="L127" s="10">
-        <v>194</v>
+        <v>198</v>
       </c>
       <c r="M127" s="10"/>
       <c t="s" r="N127" s="8">
@@ -5650,59 +5662,125 @@
       <c r="F128" s="8"/>
       <c r="G128" s="8"/>
       <c t="s" r="H128" s="9">
-        <v>22</v>
+        <v>311</v>
       </c>
       <c r="I128" s="9"/>
       <c r="J128" s="9"/>
       <c r="K128" s="9"/>
       <c t="s" r="L128" s="10">
-        <v>194</v>
+        <v>198</v>
       </c>
       <c r="M128" s="10"/>
       <c t="s" r="N128" s="8">
-        <v>292</v>
+        <v>143</v>
       </c>
       <c r="O128" s="8"/>
       <c t="s" r="P128" s="11">
-        <v>293</v>
+        <v>149</v>
       </c>
       <c t="s" r="Q128" s="12">
-        <v>20</v>
+        <v>42</v>
       </c>
     </row>
     <row r="129" ht="25.5" customHeight="1">
-      <c r="P129" s="13">
-        <v>8023.1049999999996</v>
-      </c>
-      <c r="Q129" s="13"/>
-    </row>
-    <row r="130" ht="16.5" customHeight="1">
-      <c t="s" r="A130" s="14">
+      <c r="A129" s="7">
+        <v>123</v>
+      </c>
+      <c r="B129" s="7"/>
+      <c t="s" r="C129" s="8">
         <v>335</v>
       </c>
-      <c r="B130" s="14"/>
-      <c r="C130" s="14"/>
-      <c r="D130" s="14"/>
-      <c r="E130" s="14"/>
-      <c r="F130" s="14"/>
-      <c t="s" r="G130" s="15">
+      <c r="D129" s="8"/>
+      <c r="E129" s="8"/>
+      <c r="F129" s="8"/>
+      <c r="G129" s="8"/>
+      <c t="s" r="H129" s="9">
+        <v>49</v>
+      </c>
+      <c r="I129" s="9"/>
+      <c r="J129" s="9"/>
+      <c r="K129" s="9"/>
+      <c t="s" r="L129" s="10">
+        <v>198</v>
+      </c>
+      <c r="M129" s="10"/>
+      <c t="s" r="N129" s="8">
         <v>336</v>
       </c>
-      <c r="H130" s="15"/>
-      <c r="I130" s="15"/>
-      <c r="J130" s="16"/>
-      <c t="s" r="K130" s="17">
+      <c r="O129" s="8"/>
+      <c t="s" r="P129" s="11">
         <v>337</v>
       </c>
-      <c r="L130" s="17"/>
-      <c r="M130" s="17"/>
-      <c r="N130" s="17"/>
-      <c r="O130" s="17"/>
-      <c r="P130" s="17"/>
-      <c r="Q130" s="17"/>
+      <c t="s" r="Q129" s="12">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="130" ht="24.75" customHeight="1">
+      <c r="A130" s="7">
+        <v>124</v>
+      </c>
+      <c r="B130" s="7"/>
+      <c t="s" r="C130" s="8">
+        <v>338</v>
+      </c>
+      <c r="D130" s="8"/>
+      <c r="E130" s="8"/>
+      <c r="F130" s="8"/>
+      <c r="G130" s="8"/>
+      <c t="s" r="H130" s="9">
+        <v>22</v>
+      </c>
+      <c r="I130" s="9"/>
+      <c r="J130" s="9"/>
+      <c r="K130" s="9"/>
+      <c t="s" r="L130" s="10">
+        <v>198</v>
+      </c>
+      <c r="M130" s="10"/>
+      <c t="s" r="N130" s="8">
+        <v>296</v>
+      </c>
+      <c r="O130" s="8"/>
+      <c t="s" r="P130" s="11">
+        <v>297</v>
+      </c>
+      <c t="s" r="Q130" s="12">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="131" ht="25.5" customHeight="1">
+      <c r="P131" s="13">
+        <v>8118.9049999999997</v>
+      </c>
+      <c r="Q131" s="13"/>
+    </row>
+    <row r="132" ht="16.5" customHeight="1">
+      <c t="s" r="A132" s="14">
+        <v>339</v>
+      </c>
+      <c r="B132" s="14"/>
+      <c r="C132" s="14"/>
+      <c r="D132" s="14"/>
+      <c r="E132" s="14"/>
+      <c r="F132" s="14"/>
+      <c t="s" r="G132" s="15">
+        <v>340</v>
+      </c>
+      <c r="H132" s="15"/>
+      <c r="I132" s="15"/>
+      <c r="J132" s="16"/>
+      <c t="s" r="K132" s="17">
+        <v>341</v>
+      </c>
+      <c r="L132" s="17"/>
+      <c r="M132" s="17"/>
+      <c r="N132" s="17"/>
+      <c r="O132" s="17"/>
+      <c r="P132" s="17"/>
+      <c r="Q132" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="622">
+  <mergeCells count="632">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -6321,10 +6399,20 @@
     <mergeCell ref="H128:K128"/>
     <mergeCell ref="L128:M128"/>
     <mergeCell ref="N128:O128"/>
-    <mergeCell ref="P129:Q129"/>
-    <mergeCell ref="A130:F130"/>
-    <mergeCell ref="G130:I130"/>
-    <mergeCell ref="K130:Q130"/>
+    <mergeCell ref="A129:B129"/>
+    <mergeCell ref="C129:G129"/>
+    <mergeCell ref="H129:K129"/>
+    <mergeCell ref="L129:M129"/>
+    <mergeCell ref="N129:O129"/>
+    <mergeCell ref="A130:B130"/>
+    <mergeCell ref="C130:G130"/>
+    <mergeCell ref="H130:K130"/>
+    <mergeCell ref="L130:M130"/>
+    <mergeCell ref="N130:O130"/>
+    <mergeCell ref="P131:Q131"/>
+    <mergeCell ref="A132:F132"/>
+    <mergeCell ref="G132:I132"/>
+    <mergeCell ref="K132:Q132"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-08-08_00-00.xlsx
+++ b/DaySale_2025-08-08_00-00.xlsx
@@ -590,6 +590,12 @@
     <t>NEXICURE 40 MG 20 F.C. TABLETS</t>
   </si>
   <si>
+    <t>NORHINOSE 50MCG/DOSE NASAL SPRAY 120 DOSES</t>
+  </si>
+  <si>
+    <t>90.0000</t>
+  </si>
+  <si>
     <t>PANADOL ADVANCE 500 MG 48 TABLETS</t>
   </si>
   <si>
@@ -630,9 +636,6 @@
   </si>
   <si>
     <t>PANTOPRAZOLE 40MG 14 TAB.</t>
-  </si>
-  <si>
-    <t>90.0000</t>
   </si>
   <si>
     <t>PERFORMA EXTRA STRENGTH 5% TOPICAL SOLUTION 60 ML</t>
@@ -3715,7 +3718,7 @@
       <c r="F69" s="8"/>
       <c r="G69" s="8"/>
       <c t="s" r="H69" s="9">
-        <v>20</v>
+        <v>127</v>
       </c>
       <c r="I69" s="9"/>
       <c r="J69" s="9"/>
@@ -3725,14 +3728,14 @@
       </c>
       <c r="M69" s="10"/>
       <c t="s" r="N69" s="8">
-        <v>194</v>
+        <v>152</v>
       </c>
       <c r="O69" s="8"/>
       <c t="s" r="P69" s="11">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c t="s" r="Q69" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="70" ht="24.75" customHeight="1">
@@ -3741,31 +3744,31 @@
       </c>
       <c r="B70" s="7"/>
       <c t="s" r="C70" s="8">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="D70" s="8"/>
       <c r="E70" s="8"/>
       <c r="F70" s="8"/>
       <c r="G70" s="8"/>
       <c t="s" r="H70" s="9">
-        <v>197</v>
+        <v>20</v>
       </c>
       <c r="I70" s="9"/>
       <c r="J70" s="9"/>
       <c r="K70" s="9"/>
       <c t="s" r="L70" s="10">
-        <v>198</v>
+        <v>13</v>
       </c>
       <c r="M70" s="10"/>
       <c t="s" r="N70" s="8">
-        <v>165</v>
+        <v>196</v>
       </c>
       <c r="O70" s="8"/>
       <c t="s" r="P70" s="11">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c t="s" r="Q70" s="12">
-        <v>37</v>
+        <v>16</v>
       </c>
     </row>
     <row r="71" ht="25.5" customHeight="1">
@@ -3774,31 +3777,31 @@
       </c>
       <c r="B71" s="7"/>
       <c t="s" r="C71" s="8">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="D71" s="8"/>
       <c r="E71" s="8"/>
       <c r="F71" s="8"/>
       <c r="G71" s="8"/>
       <c t="s" r="H71" s="9">
-        <v>42</v>
+        <v>199</v>
       </c>
       <c r="I71" s="9"/>
       <c r="J71" s="9"/>
       <c r="K71" s="9"/>
       <c t="s" r="L71" s="10">
-        <v>13</v>
+        <v>200</v>
       </c>
       <c r="M71" s="10"/>
       <c t="s" r="N71" s="8">
-        <v>113</v>
+        <v>165</v>
       </c>
       <c r="O71" s="8"/>
       <c t="s" r="P71" s="11">
         <v>201</v>
       </c>
       <c t="s" r="Q71" s="12">
-        <v>20</v>
+        <v>37</v>
       </c>
     </row>
     <row r="72" ht="25.5" customHeight="1">
@@ -3814,7 +3817,7 @@
       <c r="F72" s="8"/>
       <c r="G72" s="8"/>
       <c t="s" r="H72" s="9">
-        <v>16</v>
+        <v>42</v>
       </c>
       <c r="I72" s="9"/>
       <c r="J72" s="9"/>
@@ -3824,7 +3827,7 @@
       </c>
       <c r="M72" s="10"/>
       <c t="s" r="N72" s="8">
-        <v>187</v>
+        <v>113</v>
       </c>
       <c r="O72" s="8"/>
       <c t="s" r="P72" s="11">
@@ -3857,14 +3860,14 @@
       </c>
       <c r="M73" s="10"/>
       <c t="s" r="N73" s="8">
-        <v>205</v>
+        <v>187</v>
       </c>
       <c r="O73" s="8"/>
       <c t="s" r="P73" s="11">
-        <v>51</v>
+        <v>205</v>
       </c>
       <c t="s" r="Q73" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="74" ht="25.5" customHeight="1">
@@ -3880,7 +3883,7 @@
       <c r="F74" s="8"/>
       <c r="G74" s="8"/>
       <c t="s" r="H74" s="9">
-        <v>49</v>
+        <v>16</v>
       </c>
       <c r="I74" s="9"/>
       <c r="J74" s="9"/>
@@ -3890,14 +3893,14 @@
       </c>
       <c r="M74" s="10"/>
       <c t="s" r="N74" s="8">
-        <v>152</v>
+        <v>207</v>
       </c>
       <c r="O74" s="8"/>
       <c t="s" r="P74" s="11">
-        <v>207</v>
+        <v>51</v>
       </c>
       <c t="s" r="Q74" s="12">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="75" ht="24.75" customHeight="1">
@@ -3923,11 +3926,11 @@
       </c>
       <c r="M75" s="10"/>
       <c t="s" r="N75" s="8">
-        <v>209</v>
+        <v>152</v>
       </c>
       <c r="O75" s="8"/>
       <c t="s" r="P75" s="11">
-        <v>210</v>
+        <v>194</v>
       </c>
       <c t="s" r="Q75" s="12">
         <v>20</v>
@@ -3939,7 +3942,7 @@
       </c>
       <c r="B76" s="7"/>
       <c t="s" r="C76" s="8">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="D76" s="8"/>
       <c r="E76" s="8"/>
@@ -3956,11 +3959,11 @@
       </c>
       <c r="M76" s="10"/>
       <c t="s" r="N76" s="8">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="O76" s="8"/>
       <c t="s" r="P76" s="11">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c t="s" r="Q76" s="12">
         <v>20</v>
@@ -3972,14 +3975,14 @@
       </c>
       <c r="B77" s="7"/>
       <c t="s" r="C77" s="8">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="D77" s="8"/>
       <c r="E77" s="8"/>
       <c r="F77" s="8"/>
       <c r="G77" s="8"/>
       <c t="s" r="H77" s="9">
-        <v>20</v>
+        <v>49</v>
       </c>
       <c r="I77" s="9"/>
       <c r="J77" s="9"/>
@@ -3989,14 +3992,14 @@
       </c>
       <c r="M77" s="10"/>
       <c t="s" r="N77" s="8">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="O77" s="8"/>
       <c t="s" r="P77" s="11">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c t="s" r="Q77" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="78" ht="24.75" customHeight="1">
@@ -4005,14 +4008,14 @@
       </c>
       <c r="B78" s="7"/>
       <c t="s" r="C78" s="8">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="D78" s="8"/>
       <c r="E78" s="8"/>
       <c r="F78" s="8"/>
       <c r="G78" s="8"/>
       <c t="s" r="H78" s="9">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="I78" s="9"/>
       <c r="J78" s="9"/>
@@ -4022,11 +4025,11 @@
       </c>
       <c r="M78" s="10"/>
       <c t="s" r="N78" s="8">
-        <v>122</v>
+        <v>216</v>
       </c>
       <c r="O78" s="8"/>
       <c t="s" r="P78" s="11">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c t="s" r="Q78" s="12">
         <v>16</v>
@@ -4038,14 +4041,14 @@
       </c>
       <c r="B79" s="7"/>
       <c t="s" r="C79" s="8">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="D79" s="8"/>
       <c r="E79" s="8"/>
       <c r="F79" s="8"/>
       <c r="G79" s="8"/>
       <c t="s" r="H79" s="9">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="I79" s="9"/>
       <c r="J79" s="9"/>
@@ -4055,14 +4058,14 @@
       </c>
       <c r="M79" s="10"/>
       <c t="s" r="N79" s="8">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="O79" s="8"/>
       <c t="s" r="P79" s="11">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c t="s" r="Q79" s="12">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="80" ht="24.75" customHeight="1">
@@ -4071,14 +4074,14 @@
       </c>
       <c r="B80" s="7"/>
       <c t="s" r="C80" s="8">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="D80" s="8"/>
       <c r="E80" s="8"/>
       <c r="F80" s="8"/>
       <c r="G80" s="8"/>
       <c t="s" r="H80" s="9">
-        <v>222</v>
+        <v>22</v>
       </c>
       <c r="I80" s="9"/>
       <c r="J80" s="9"/>
@@ -4088,11 +4091,11 @@
       </c>
       <c r="M80" s="10"/>
       <c t="s" r="N80" s="8">
-        <v>168</v>
+        <v>125</v>
       </c>
       <c r="O80" s="8"/>
       <c t="s" r="P80" s="11">
-        <v>169</v>
+        <v>221</v>
       </c>
       <c t="s" r="Q80" s="12">
         <v>20</v>
@@ -4104,14 +4107,14 @@
       </c>
       <c r="B81" s="7"/>
       <c t="s" r="C81" s="8">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="D81" s="8"/>
       <c r="E81" s="8"/>
       <c r="F81" s="8"/>
       <c r="G81" s="8"/>
       <c t="s" r="H81" s="9">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="I81" s="9"/>
       <c r="J81" s="9"/>
@@ -4121,14 +4124,14 @@
       </c>
       <c r="M81" s="10"/>
       <c t="s" r="N81" s="8">
-        <v>225</v>
+        <v>168</v>
       </c>
       <c r="O81" s="8"/>
       <c t="s" r="P81" s="11">
-        <v>102</v>
+        <v>169</v>
       </c>
       <c t="s" r="Q81" s="12">
-        <v>226</v>
+        <v>20</v>
       </c>
     </row>
     <row r="82" ht="25.5" customHeight="1">
@@ -4137,14 +4140,14 @@
       </c>
       <c r="B82" s="7"/>
       <c t="s" r="C82" s="8">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="D82" s="8"/>
       <c r="E82" s="8"/>
       <c r="F82" s="8"/>
       <c r="G82" s="8"/>
       <c t="s" r="H82" s="9">
-        <v>20</v>
+        <v>225</v>
       </c>
       <c r="I82" s="9"/>
       <c r="J82" s="9"/>
@@ -4154,14 +4157,14 @@
       </c>
       <c r="M82" s="10"/>
       <c t="s" r="N82" s="8">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="O82" s="8"/>
       <c t="s" r="P82" s="11">
-        <v>229</v>
+        <v>102</v>
       </c>
       <c t="s" r="Q82" s="12">
-        <v>20</v>
+        <v>227</v>
       </c>
     </row>
     <row r="83" ht="24.75" customHeight="1">
@@ -4170,14 +4173,14 @@
       </c>
       <c r="B83" s="7"/>
       <c t="s" r="C83" s="8">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="D83" s="8"/>
       <c r="E83" s="8"/>
       <c r="F83" s="8"/>
       <c r="G83" s="8"/>
       <c t="s" r="H83" s="9">
-        <v>49</v>
+        <v>20</v>
       </c>
       <c r="I83" s="9"/>
       <c r="J83" s="9"/>
@@ -4187,11 +4190,11 @@
       </c>
       <c r="M83" s="10"/>
       <c t="s" r="N83" s="8">
-        <v>98</v>
+        <v>229</v>
       </c>
       <c r="O83" s="8"/>
       <c t="s" r="P83" s="11">
-        <v>99</v>
+        <v>230</v>
       </c>
       <c t="s" r="Q83" s="12">
         <v>20</v>
@@ -4210,7 +4213,7 @@
       <c r="F84" s="8"/>
       <c r="G84" s="8"/>
       <c t="s" r="H84" s="9">
-        <v>101</v>
+        <v>49</v>
       </c>
       <c r="I84" s="9"/>
       <c r="J84" s="9"/>
@@ -4220,14 +4223,14 @@
       </c>
       <c r="M84" s="10"/>
       <c t="s" r="N84" s="8">
-        <v>182</v>
+        <v>98</v>
       </c>
       <c r="O84" s="8"/>
       <c t="s" r="P84" s="11">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c t="s" r="Q84" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="85" ht="24.75" customHeight="1">
@@ -4243,7 +4246,7 @@
       <c r="F85" s="8"/>
       <c r="G85" s="8"/>
       <c t="s" r="H85" s="9">
-        <v>46</v>
+        <v>101</v>
       </c>
       <c r="I85" s="9"/>
       <c r="J85" s="9"/>
@@ -4253,14 +4256,14 @@
       </c>
       <c r="M85" s="10"/>
       <c t="s" r="N85" s="8">
-        <v>116</v>
+        <v>182</v>
       </c>
       <c r="O85" s="8"/>
       <c t="s" r="P85" s="11">
-        <v>233</v>
+        <v>96</v>
       </c>
       <c t="s" r="Q85" s="12">
-        <v>32</v>
+        <v>16</v>
       </c>
     </row>
     <row r="86" ht="25.5" customHeight="1">
@@ -4269,14 +4272,14 @@
       </c>
       <c r="B86" s="7"/>
       <c t="s" r="C86" s="8">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="D86" s="8"/>
       <c r="E86" s="8"/>
       <c r="F86" s="8"/>
       <c r="G86" s="8"/>
       <c t="s" r="H86" s="9">
-        <v>235</v>
+        <v>46</v>
       </c>
       <c r="I86" s="9"/>
       <c r="J86" s="9"/>
@@ -4286,14 +4289,14 @@
       </c>
       <c r="M86" s="10"/>
       <c t="s" r="N86" s="8">
-        <v>30</v>
+        <v>116</v>
       </c>
       <c r="O86" s="8"/>
       <c t="s" r="P86" s="11">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c t="s" r="Q86" s="12">
-        <v>46</v>
+        <v>32</v>
       </c>
     </row>
     <row r="87" ht="25.5" customHeight="1">
@@ -4302,14 +4305,14 @@
       </c>
       <c r="B87" s="7"/>
       <c t="s" r="C87" s="8">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="D87" s="8"/>
       <c r="E87" s="8"/>
       <c r="F87" s="8"/>
       <c r="G87" s="8"/>
       <c t="s" r="H87" s="9">
-        <v>46</v>
+        <v>236</v>
       </c>
       <c r="I87" s="9"/>
       <c r="J87" s="9"/>
@@ -4319,14 +4322,14 @@
       </c>
       <c r="M87" s="10"/>
       <c t="s" r="N87" s="8">
-        <v>110</v>
+        <v>30</v>
       </c>
       <c r="O87" s="8"/>
       <c t="s" r="P87" s="11">
-        <v>66</v>
+        <v>237</v>
       </c>
       <c t="s" r="Q87" s="12">
-        <v>20</v>
+        <v>46</v>
       </c>
     </row>
     <row r="88" ht="24.75" customHeight="1">
@@ -4342,7 +4345,7 @@
       <c r="F88" s="8"/>
       <c r="G88" s="8"/>
       <c t="s" r="H88" s="9">
-        <v>34</v>
+        <v>46</v>
       </c>
       <c r="I88" s="9"/>
       <c r="J88" s="9"/>
@@ -4352,14 +4355,14 @@
       </c>
       <c r="M88" s="10"/>
       <c t="s" r="N88" s="8">
-        <v>43</v>
+        <v>110</v>
       </c>
       <c r="O88" s="8"/>
       <c t="s" r="P88" s="11">
-        <v>44</v>
+        <v>66</v>
       </c>
       <c t="s" r="Q88" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="89" ht="25.5" customHeight="1">
@@ -4375,7 +4378,7 @@
       <c r="F89" s="8"/>
       <c r="G89" s="8"/>
       <c t="s" r="H89" s="9">
-        <v>235</v>
+        <v>34</v>
       </c>
       <c r="I89" s="9"/>
       <c r="J89" s="9"/>
@@ -4385,11 +4388,11 @@
       </c>
       <c r="M89" s="10"/>
       <c t="s" r="N89" s="8">
-        <v>240</v>
+        <v>43</v>
       </c>
       <c r="O89" s="8"/>
       <c t="s" r="P89" s="11">
-        <v>195</v>
+        <v>44</v>
       </c>
       <c t="s" r="Q89" s="12">
         <v>16</v>
@@ -4401,14 +4404,14 @@
       </c>
       <c r="B90" s="7"/>
       <c t="s" r="C90" s="8">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="D90" s="8"/>
       <c r="E90" s="8"/>
       <c r="F90" s="8"/>
       <c r="G90" s="8"/>
       <c t="s" r="H90" s="9">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="I90" s="9"/>
       <c r="J90" s="9"/>
@@ -4418,14 +4421,14 @@
       </c>
       <c r="M90" s="10"/>
       <c t="s" r="N90" s="8">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="O90" s="8"/>
       <c t="s" r="P90" s="11">
-        <v>243</v>
+        <v>197</v>
       </c>
       <c t="s" r="Q90" s="12">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="91" ht="25.5" customHeight="1">
@@ -4434,14 +4437,14 @@
       </c>
       <c r="B91" s="7"/>
       <c t="s" r="C91" s="8">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="D91" s="8"/>
       <c r="E91" s="8"/>
       <c r="F91" s="8"/>
       <c r="G91" s="8"/>
       <c t="s" r="H91" s="9">
-        <v>16</v>
+        <v>236</v>
       </c>
       <c r="I91" s="9"/>
       <c r="J91" s="9"/>
@@ -4451,14 +4454,14 @@
       </c>
       <c r="M91" s="10"/>
       <c t="s" r="N91" s="8">
-        <v>152</v>
+        <v>243</v>
       </c>
       <c r="O91" s="8"/>
       <c t="s" r="P91" s="11">
-        <v>153</v>
+        <v>244</v>
       </c>
       <c t="s" r="Q91" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="92" ht="25.5" customHeight="1">
@@ -4474,7 +4477,7 @@
       <c r="F92" s="8"/>
       <c r="G92" s="8"/>
       <c t="s" r="H92" s="9">
-        <v>49</v>
+        <v>16</v>
       </c>
       <c r="I92" s="9"/>
       <c r="J92" s="9"/>
@@ -4484,14 +4487,14 @@
       </c>
       <c r="M92" s="10"/>
       <c t="s" r="N92" s="8">
-        <v>246</v>
+        <v>152</v>
       </c>
       <c r="O92" s="8"/>
       <c t="s" r="P92" s="11">
-        <v>247</v>
+        <v>153</v>
       </c>
       <c t="s" r="Q92" s="12">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="93" ht="24.75" customHeight="1">
@@ -4500,14 +4503,14 @@
       </c>
       <c r="B93" s="7"/>
       <c t="s" r="C93" s="8">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="D93" s="8"/>
       <c r="E93" s="8"/>
       <c r="F93" s="8"/>
       <c r="G93" s="8"/>
       <c t="s" r="H93" s="9">
-        <v>16</v>
+        <v>49</v>
       </c>
       <c r="I93" s="9"/>
       <c r="J93" s="9"/>
@@ -4517,14 +4520,14 @@
       </c>
       <c r="M93" s="10"/>
       <c t="s" r="N93" s="8">
-        <v>240</v>
+        <v>247</v>
       </c>
       <c r="O93" s="8"/>
       <c t="s" r="P93" s="11">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c t="s" r="Q93" s="12">
-        <v>34</v>
+        <v>20</v>
       </c>
     </row>
     <row r="94" ht="25.5" customHeight="1">
@@ -4533,14 +4536,14 @@
       </c>
       <c r="B94" s="7"/>
       <c t="s" r="C94" s="8">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="D94" s="8"/>
       <c r="E94" s="8"/>
       <c r="F94" s="8"/>
       <c r="G94" s="8"/>
       <c t="s" r="H94" s="9">
-        <v>34</v>
+        <v>16</v>
       </c>
       <c r="I94" s="9"/>
       <c r="J94" s="9"/>
@@ -4550,14 +4553,14 @@
       </c>
       <c r="M94" s="10"/>
       <c t="s" r="N94" s="8">
-        <v>251</v>
+        <v>241</v>
       </c>
       <c r="O94" s="8"/>
       <c t="s" r="P94" s="11">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c t="s" r="Q94" s="12">
-        <v>16</v>
+        <v>34</v>
       </c>
     </row>
     <row r="95" ht="24.75" customHeight="1">
@@ -4566,14 +4569,14 @@
       </c>
       <c r="B95" s="7"/>
       <c t="s" r="C95" s="8">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="D95" s="8"/>
       <c r="E95" s="8"/>
       <c r="F95" s="8"/>
       <c r="G95" s="8"/>
       <c t="s" r="H95" s="9">
-        <v>22</v>
+        <v>34</v>
       </c>
       <c r="I95" s="9"/>
       <c r="J95" s="9"/>
@@ -4583,14 +4586,14 @@
       </c>
       <c r="M95" s="10"/>
       <c t="s" r="N95" s="8">
-        <v>143</v>
+        <v>252</v>
       </c>
       <c r="O95" s="8"/>
       <c t="s" r="P95" s="11">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c t="s" r="Q95" s="12">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="96" ht="25.5" customHeight="1">
@@ -4599,7 +4602,7 @@
       </c>
       <c r="B96" s="7"/>
       <c t="s" r="C96" s="8">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="D96" s="8"/>
       <c r="E96" s="8"/>
@@ -4616,14 +4619,14 @@
       </c>
       <c r="M96" s="10"/>
       <c t="s" r="N96" s="8">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="O96" s="8"/>
       <c t="s" r="P96" s="11">
-        <v>40</v>
+        <v>255</v>
       </c>
       <c t="s" r="Q96" s="12">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="97" ht="25.5" customHeight="1">
@@ -4639,7 +4642,7 @@
       <c r="F97" s="8"/>
       <c r="G97" s="8"/>
       <c t="s" r="H97" s="9">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="I97" s="9"/>
       <c r="J97" s="9"/>
@@ -4649,14 +4652,14 @@
       </c>
       <c r="M97" s="10"/>
       <c t="s" r="N97" s="8">
-        <v>257</v>
+        <v>146</v>
       </c>
       <c r="O97" s="8"/>
       <c t="s" r="P97" s="11">
-        <v>258</v>
+        <v>40</v>
       </c>
       <c t="s" r="Q97" s="12">
-        <v>34</v>
+        <v>22</v>
       </c>
     </row>
     <row r="98" ht="24.75" customHeight="1">
@@ -4665,14 +4668,14 @@
       </c>
       <c r="B98" s="7"/>
       <c t="s" r="C98" s="8">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="D98" s="8"/>
       <c r="E98" s="8"/>
       <c r="F98" s="8"/>
       <c r="G98" s="8"/>
       <c t="s" r="H98" s="9">
-        <v>49</v>
+        <v>20</v>
       </c>
       <c r="I98" s="9"/>
       <c r="J98" s="9"/>
@@ -4682,14 +4685,14 @@
       </c>
       <c r="M98" s="10"/>
       <c t="s" r="N98" s="8">
-        <v>146</v>
+        <v>258</v>
       </c>
       <c r="O98" s="8"/>
       <c t="s" r="P98" s="11">
-        <v>147</v>
+        <v>259</v>
       </c>
       <c t="s" r="Q98" s="12">
-        <v>20</v>
+        <v>34</v>
       </c>
     </row>
     <row r="99" ht="25.5" customHeight="1">
@@ -4705,7 +4708,7 @@
       <c r="F99" s="8"/>
       <c r="G99" s="8"/>
       <c t="s" r="H99" s="9">
-        <v>32</v>
+        <v>49</v>
       </c>
       <c r="I99" s="9"/>
       <c r="J99" s="9"/>
@@ -4715,14 +4718,14 @@
       </c>
       <c r="M99" s="10"/>
       <c t="s" r="N99" s="8">
-        <v>261</v>
+        <v>146</v>
       </c>
       <c r="O99" s="8"/>
       <c t="s" r="P99" s="11">
-        <v>262</v>
+        <v>147</v>
       </c>
       <c t="s" r="Q99" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="100" ht="24.75" customHeight="1">
@@ -4731,14 +4734,14 @@
       </c>
       <c r="B100" s="7"/>
       <c t="s" r="C100" s="8">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="D100" s="8"/>
       <c r="E100" s="8"/>
       <c r="F100" s="8"/>
       <c r="G100" s="8"/>
       <c t="s" r="H100" s="9">
-        <v>49</v>
+        <v>32</v>
       </c>
       <c r="I100" s="9"/>
       <c r="J100" s="9"/>
@@ -4748,11 +4751,11 @@
       </c>
       <c r="M100" s="10"/>
       <c t="s" r="N100" s="8">
-        <v>95</v>
+        <v>262</v>
       </c>
       <c r="O100" s="8"/>
       <c t="s" r="P100" s="11">
-        <v>175</v>
+        <v>263</v>
       </c>
       <c t="s" r="Q100" s="12">
         <v>16</v>
@@ -4771,7 +4774,7 @@
       <c r="F101" s="8"/>
       <c r="G101" s="8"/>
       <c t="s" r="H101" s="9">
-        <v>127</v>
+        <v>49</v>
       </c>
       <c r="I101" s="9"/>
       <c r="J101" s="9"/>
@@ -4781,14 +4784,14 @@
       </c>
       <c r="M101" s="10"/>
       <c t="s" r="N101" s="8">
-        <v>265</v>
+        <v>95</v>
       </c>
       <c r="O101" s="8"/>
       <c t="s" r="P101" s="11">
-        <v>266</v>
+        <v>175</v>
       </c>
       <c t="s" r="Q101" s="12">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="102" ht="25.5" customHeight="1">
@@ -4797,14 +4800,14 @@
       </c>
       <c r="B102" s="7"/>
       <c t="s" r="C102" s="8">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="D102" s="8"/>
       <c r="E102" s="8"/>
       <c r="F102" s="8"/>
       <c r="G102" s="8"/>
       <c t="s" r="H102" s="9">
-        <v>49</v>
+        <v>127</v>
       </c>
       <c r="I102" s="9"/>
       <c r="J102" s="9"/>
@@ -4814,11 +4817,11 @@
       </c>
       <c r="M102" s="10"/>
       <c t="s" r="N102" s="8">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="O102" s="8"/>
       <c t="s" r="P102" s="11">
-        <v>195</v>
+        <v>267</v>
       </c>
       <c t="s" r="Q102" s="12">
         <v>20</v>
@@ -4830,14 +4833,14 @@
       </c>
       <c r="B103" s="7"/>
       <c t="s" r="C103" s="8">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="D103" s="8"/>
       <c r="E103" s="8"/>
       <c r="F103" s="8"/>
       <c r="G103" s="8"/>
       <c t="s" r="H103" s="9">
-        <v>129</v>
+        <v>49</v>
       </c>
       <c r="I103" s="9"/>
       <c r="J103" s="9"/>
@@ -4847,14 +4850,14 @@
       </c>
       <c r="M103" s="10"/>
       <c t="s" r="N103" s="8">
-        <v>152</v>
+        <v>269</v>
       </c>
       <c r="O103" s="8"/>
       <c t="s" r="P103" s="11">
-        <v>270</v>
+        <v>197</v>
       </c>
       <c t="s" r="Q103" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="104" ht="25.5" customHeight="1">
@@ -4863,14 +4866,14 @@
       </c>
       <c r="B104" s="7"/>
       <c t="s" r="C104" s="8">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="D104" s="8"/>
       <c r="E104" s="8"/>
       <c r="F104" s="8"/>
       <c r="G104" s="8"/>
       <c t="s" r="H104" s="9">
-        <v>20</v>
+        <v>129</v>
       </c>
       <c r="I104" s="9"/>
       <c r="J104" s="9"/>
@@ -4884,7 +4887,7 @@
       </c>
       <c r="O104" s="8"/>
       <c t="s" r="P104" s="11">
-        <v>153</v>
+        <v>271</v>
       </c>
       <c t="s" r="Q104" s="12">
         <v>16</v>
@@ -4903,7 +4906,7 @@
       <c r="F105" s="8"/>
       <c r="G105" s="8"/>
       <c t="s" r="H105" s="9">
-        <v>49</v>
+        <v>20</v>
       </c>
       <c r="I105" s="9"/>
       <c r="J105" s="9"/>
@@ -4913,14 +4916,14 @@
       </c>
       <c r="M105" s="10"/>
       <c t="s" r="N105" s="8">
-        <v>273</v>
+        <v>152</v>
       </c>
       <c r="O105" s="8"/>
       <c t="s" r="P105" s="11">
-        <v>274</v>
+        <v>153</v>
       </c>
       <c t="s" r="Q105" s="12">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="106" ht="25.5" customHeight="1">
@@ -4929,14 +4932,14 @@
       </c>
       <c r="B106" s="7"/>
       <c t="s" r="C106" s="8">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="D106" s="8"/>
       <c r="E106" s="8"/>
       <c r="F106" s="8"/>
       <c r="G106" s="8"/>
       <c t="s" r="H106" s="9">
-        <v>32</v>
+        <v>49</v>
       </c>
       <c r="I106" s="9"/>
       <c r="J106" s="9"/>
@@ -4946,14 +4949,14 @@
       </c>
       <c r="M106" s="10"/>
       <c t="s" r="N106" s="8">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="O106" s="8"/>
       <c t="s" r="P106" s="11">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c t="s" r="Q106" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="107" ht="25.5" customHeight="1">
@@ -4962,14 +4965,14 @@
       </c>
       <c r="B107" s="7"/>
       <c t="s" r="C107" s="8">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="D107" s="8"/>
       <c r="E107" s="8"/>
       <c r="F107" s="8"/>
       <c r="G107" s="8"/>
       <c t="s" r="H107" s="9">
-        <v>101</v>
+        <v>32</v>
       </c>
       <c r="I107" s="9"/>
       <c r="J107" s="9"/>
@@ -4979,11 +4982,11 @@
       </c>
       <c r="M107" s="10"/>
       <c t="s" r="N107" s="8">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="O107" s="8"/>
       <c t="s" r="P107" s="11">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c t="s" r="Q107" s="12">
         <v>16</v>
@@ -4995,14 +4998,14 @@
       </c>
       <c r="B108" s="7"/>
       <c t="s" r="C108" s="8">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="D108" s="8"/>
       <c r="E108" s="8"/>
       <c r="F108" s="8"/>
       <c r="G108" s="8"/>
       <c t="s" r="H108" s="9">
-        <v>16</v>
+        <v>101</v>
       </c>
       <c r="I108" s="9"/>
       <c r="J108" s="9"/>
@@ -5012,11 +5015,11 @@
       </c>
       <c r="M108" s="10"/>
       <c t="s" r="N108" s="8">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="O108" s="8"/>
       <c t="s" r="P108" s="11">
-        <v>220</v>
+        <v>281</v>
       </c>
       <c t="s" r="Q108" s="12">
         <v>16</v>
@@ -5028,14 +5031,14 @@
       </c>
       <c r="B109" s="7"/>
       <c t="s" r="C109" s="8">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="D109" s="8"/>
       <c r="E109" s="8"/>
       <c r="F109" s="8"/>
       <c r="G109" s="8"/>
       <c t="s" r="H109" s="9">
-        <v>284</v>
+        <v>16</v>
       </c>
       <c r="I109" s="9"/>
       <c r="J109" s="9"/>
@@ -5045,14 +5048,14 @@
       </c>
       <c r="M109" s="10"/>
       <c t="s" r="N109" s="8">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="O109" s="8"/>
       <c t="s" r="P109" s="11">
-        <v>286</v>
+        <v>221</v>
       </c>
       <c t="s" r="Q109" s="12">
-        <v>22</v>
+        <v>16</v>
       </c>
     </row>
     <row r="110" ht="24.75" customHeight="1">
@@ -5061,14 +5064,14 @@
       </c>
       <c r="B110" s="7"/>
       <c t="s" r="C110" s="8">
-        <v>287</v>
+        <v>284</v>
       </c>
       <c r="D110" s="8"/>
       <c r="E110" s="8"/>
       <c r="F110" s="8"/>
       <c r="G110" s="8"/>
       <c t="s" r="H110" s="9">
-        <v>49</v>
+        <v>285</v>
       </c>
       <c r="I110" s="9"/>
       <c r="J110" s="9"/>
@@ -5078,14 +5081,14 @@
       </c>
       <c r="M110" s="10"/>
       <c t="s" r="N110" s="8">
-        <v>79</v>
+        <v>286</v>
       </c>
       <c r="O110" s="8"/>
       <c t="s" r="P110" s="11">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c t="s" r="Q110" s="12">
-        <v>20</v>
+        <v>22</v>
       </c>
     </row>
     <row r="111" ht="25.5" customHeight="1">
@@ -5094,28 +5097,28 @@
       </c>
       <c r="B111" s="7"/>
       <c t="s" r="C111" s="8">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="D111" s="8"/>
       <c r="E111" s="8"/>
       <c r="F111" s="8"/>
       <c r="G111" s="8"/>
       <c t="s" r="H111" s="9">
-        <v>20</v>
+        <v>49</v>
       </c>
       <c r="I111" s="9"/>
       <c r="J111" s="9"/>
       <c r="K111" s="9"/>
       <c t="s" r="L111" s="10">
-        <v>198</v>
+        <v>13</v>
       </c>
       <c r="M111" s="10"/>
       <c t="s" r="N111" s="8">
-        <v>290</v>
+        <v>79</v>
       </c>
       <c r="O111" s="8"/>
       <c t="s" r="P111" s="11">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c t="s" r="Q111" s="12">
         <v>20</v>
@@ -5127,31 +5130,31 @@
       </c>
       <c r="B112" s="7"/>
       <c t="s" r="C112" s="8">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="D112" s="8"/>
       <c r="E112" s="8"/>
       <c r="F112" s="8"/>
       <c r="G112" s="8"/>
       <c t="s" r="H112" s="9">
-        <v>293</v>
+        <v>20</v>
       </c>
       <c r="I112" s="9"/>
       <c r="J112" s="9"/>
       <c r="K112" s="9"/>
       <c t="s" r="L112" s="10">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="M112" s="10"/>
       <c t="s" r="N112" s="8">
-        <v>294</v>
+        <v>291</v>
       </c>
       <c r="O112" s="8"/>
       <c t="s" r="P112" s="11">
-        <v>207</v>
+        <v>292</v>
       </c>
       <c t="s" r="Q112" s="12">
-        <v>42</v>
+        <v>20</v>
       </c>
     </row>
     <row r="113" ht="24.75" customHeight="1">
@@ -5160,31 +5163,31 @@
       </c>
       <c r="B113" s="7"/>
       <c t="s" r="C113" s="8">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="D113" s="8"/>
       <c r="E113" s="8"/>
       <c r="F113" s="8"/>
       <c r="G113" s="8"/>
       <c t="s" r="H113" s="9">
-        <v>42</v>
+        <v>294</v>
       </c>
       <c r="I113" s="9"/>
       <c r="J113" s="9"/>
       <c r="K113" s="9"/>
       <c t="s" r="L113" s="10">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="M113" s="10"/>
       <c t="s" r="N113" s="8">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="O113" s="8"/>
       <c t="s" r="P113" s="11">
-        <v>297</v>
+        <v>194</v>
       </c>
       <c t="s" r="Q113" s="12">
-        <v>20</v>
+        <v>42</v>
       </c>
     </row>
     <row r="114" ht="25.5" customHeight="1">
@@ -5193,31 +5196,31 @@
       </c>
       <c r="B114" s="7"/>
       <c t="s" r="C114" s="8">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="D114" s="8"/>
       <c r="E114" s="8"/>
       <c r="F114" s="8"/>
       <c r="G114" s="8"/>
       <c t="s" r="H114" s="9">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="I114" s="9"/>
       <c r="J114" s="9"/>
       <c r="K114" s="9"/>
       <c t="s" r="L114" s="10">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="M114" s="10"/>
       <c t="s" r="N114" s="8">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="O114" s="8"/>
       <c t="s" r="P114" s="11">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c t="s" r="Q114" s="12">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="115" ht="24.75" customHeight="1">
@@ -5226,31 +5229,31 @@
       </c>
       <c r="B115" s="7"/>
       <c t="s" r="C115" s="8">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="D115" s="8"/>
       <c r="E115" s="8"/>
       <c r="F115" s="8"/>
       <c r="G115" s="8"/>
       <c t="s" r="H115" s="9">
-        <v>20</v>
+        <v>49</v>
       </c>
       <c r="I115" s="9"/>
       <c r="J115" s="9"/>
       <c r="K115" s="9"/>
       <c t="s" r="L115" s="10">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="M115" s="10"/>
       <c t="s" r="N115" s="8">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="O115" s="8"/>
       <c t="s" r="P115" s="11">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c t="s" r="Q115" s="12">
-        <v>20</v>
+        <v>22</v>
       </c>
     </row>
     <row r="116" ht="25.5" customHeight="1">
@@ -5259,31 +5262,31 @@
       </c>
       <c r="B116" s="7"/>
       <c t="s" r="C116" s="8">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="D116" s="8"/>
       <c r="E116" s="8"/>
       <c r="F116" s="8"/>
       <c r="G116" s="8"/>
       <c t="s" r="H116" s="9">
-        <v>305</v>
+        <v>20</v>
       </c>
       <c r="I116" s="9"/>
       <c r="J116" s="9"/>
       <c r="K116" s="9"/>
       <c t="s" r="L116" s="10">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="M116" s="10"/>
       <c t="s" r="N116" s="8">
-        <v>306</v>
+        <v>303</v>
       </c>
       <c r="O116" s="8"/>
       <c t="s" r="P116" s="11">
-        <v>307</v>
+        <v>304</v>
       </c>
       <c t="s" r="Q116" s="12">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="117" ht="25.5" customHeight="1">
@@ -5292,31 +5295,31 @@
       </c>
       <c r="B117" s="7"/>
       <c t="s" r="C117" s="8">
-        <v>308</v>
+        <v>305</v>
       </c>
       <c r="D117" s="8"/>
       <c r="E117" s="8"/>
       <c r="F117" s="8"/>
       <c r="G117" s="8"/>
       <c t="s" r="H117" s="9">
-        <v>49</v>
+        <v>306</v>
       </c>
       <c r="I117" s="9"/>
       <c r="J117" s="9"/>
       <c r="K117" s="9"/>
       <c t="s" r="L117" s="10">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="M117" s="10"/>
       <c t="s" r="N117" s="8">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="O117" s="8"/>
       <c t="s" r="P117" s="11">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c t="s" r="Q117" s="12">
-        <v>311</v>
+        <v>22</v>
       </c>
     </row>
     <row r="118" ht="24.75" customHeight="1">
@@ -5325,7 +5328,7 @@
       </c>
       <c r="B118" s="7"/>
       <c t="s" r="C118" s="8">
-        <v>312</v>
+        <v>309</v>
       </c>
       <c r="D118" s="8"/>
       <c r="E118" s="8"/>
@@ -5338,18 +5341,18 @@
       <c r="J118" s="9"/>
       <c r="K118" s="9"/>
       <c t="s" r="L118" s="10">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="M118" s="10"/>
       <c t="s" r="N118" s="8">
-        <v>285</v>
+        <v>310</v>
       </c>
       <c r="O118" s="8"/>
       <c t="s" r="P118" s="11">
-        <v>254</v>
+        <v>311</v>
       </c>
       <c t="s" r="Q118" s="12">
-        <v>313</v>
+        <v>312</v>
       </c>
     </row>
     <row r="119" ht="25.5" customHeight="1">
@@ -5358,7 +5361,7 @@
       </c>
       <c r="B119" s="7"/>
       <c t="s" r="C119" s="8">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="D119" s="8"/>
       <c r="E119" s="8"/>
@@ -5371,18 +5374,18 @@
       <c r="J119" s="9"/>
       <c r="K119" s="9"/>
       <c t="s" r="L119" s="10">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="M119" s="10"/>
       <c t="s" r="N119" s="8">
-        <v>299</v>
+        <v>286</v>
       </c>
       <c r="O119" s="8"/>
       <c t="s" r="P119" s="11">
-        <v>315</v>
+        <v>255</v>
       </c>
       <c t="s" r="Q119" s="12">
-        <v>42</v>
+        <v>314</v>
       </c>
     </row>
     <row r="120" ht="24.75" customHeight="1">
@@ -5391,31 +5394,31 @@
       </c>
       <c r="B120" s="7"/>
       <c t="s" r="C120" s="8">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="D120" s="8"/>
       <c r="E120" s="8"/>
       <c r="F120" s="8"/>
       <c r="G120" s="8"/>
       <c t="s" r="H120" s="9">
-        <v>22</v>
+        <v>49</v>
       </c>
       <c r="I120" s="9"/>
       <c r="J120" s="9"/>
       <c r="K120" s="9"/>
       <c t="s" r="L120" s="10">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="M120" s="10"/>
       <c t="s" r="N120" s="8">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="O120" s="8"/>
       <c t="s" r="P120" s="11">
-        <v>303</v>
+        <v>316</v>
       </c>
       <c t="s" r="Q120" s="12">
-        <v>20</v>
+        <v>42</v>
       </c>
     </row>
     <row r="121" ht="25.5" customHeight="1">
@@ -5431,21 +5434,21 @@
       <c r="F121" s="8"/>
       <c r="G121" s="8"/>
       <c t="s" r="H121" s="9">
-        <v>49</v>
+        <v>22</v>
       </c>
       <c r="I121" s="9"/>
       <c r="J121" s="9"/>
       <c r="K121" s="9"/>
       <c t="s" r="L121" s="10">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="M121" s="10"/>
       <c t="s" r="N121" s="8">
-        <v>294</v>
+        <v>303</v>
       </c>
       <c r="O121" s="8"/>
       <c t="s" r="P121" s="11">
-        <v>318</v>
+        <v>304</v>
       </c>
       <c t="s" r="Q121" s="12">
         <v>20</v>
@@ -5457,28 +5460,28 @@
       </c>
       <c r="B122" s="7"/>
       <c t="s" r="C122" s="8">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="D122" s="8"/>
       <c r="E122" s="8"/>
       <c r="F122" s="8"/>
       <c r="G122" s="8"/>
       <c t="s" r="H122" s="9">
-        <v>320</v>
+        <v>49</v>
       </c>
       <c r="I122" s="9"/>
       <c r="J122" s="9"/>
       <c r="K122" s="9"/>
       <c t="s" r="L122" s="10">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="M122" s="10"/>
       <c t="s" r="N122" s="8">
-        <v>321</v>
+        <v>295</v>
       </c>
       <c r="O122" s="8"/>
       <c t="s" r="P122" s="11">
-        <v>322</v>
+        <v>319</v>
       </c>
       <c t="s" r="Q122" s="12">
         <v>20</v>
@@ -5490,28 +5493,28 @@
       </c>
       <c r="B123" s="7"/>
       <c t="s" r="C123" s="8">
-        <v>323</v>
+        <v>320</v>
       </c>
       <c r="D123" s="8"/>
       <c r="E123" s="8"/>
       <c r="F123" s="8"/>
       <c r="G123" s="8"/>
       <c t="s" r="H123" s="9">
-        <v>42</v>
+        <v>321</v>
       </c>
       <c r="I123" s="9"/>
       <c r="J123" s="9"/>
       <c r="K123" s="9"/>
       <c t="s" r="L123" s="10">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="M123" s="10"/>
       <c t="s" r="N123" s="8">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="O123" s="8"/>
       <c t="s" r="P123" s="11">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c t="s" r="Q123" s="12">
         <v>20</v>
@@ -5523,31 +5526,31 @@
       </c>
       <c r="B124" s="7"/>
       <c t="s" r="C124" s="8">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="D124" s="8"/>
       <c r="E124" s="8"/>
       <c r="F124" s="8"/>
       <c r="G124" s="8"/>
       <c t="s" r="H124" s="9">
-        <v>327</v>
+        <v>42</v>
       </c>
       <c r="I124" s="9"/>
       <c r="J124" s="9"/>
       <c r="K124" s="9"/>
       <c t="s" r="L124" s="10">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="M124" s="10"/>
       <c t="s" r="N124" s="8">
-        <v>302</v>
+        <v>325</v>
       </c>
       <c r="O124" s="8"/>
       <c t="s" r="P124" s="11">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c t="s" r="Q124" s="12">
-        <v>94</v>
+        <v>20</v>
       </c>
     </row>
     <row r="125" ht="24.75" customHeight="1">
@@ -5556,31 +5559,31 @@
       </c>
       <c r="B125" s="7"/>
       <c t="s" r="C125" s="8">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="D125" s="8"/>
       <c r="E125" s="8"/>
       <c r="F125" s="8"/>
       <c r="G125" s="8"/>
       <c t="s" r="H125" s="9">
-        <v>311</v>
+        <v>328</v>
       </c>
       <c r="I125" s="9"/>
       <c r="J125" s="9"/>
       <c r="K125" s="9"/>
       <c t="s" r="L125" s="10">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="M125" s="10"/>
       <c t="s" r="N125" s="8">
-        <v>212</v>
+        <v>303</v>
       </c>
       <c r="O125" s="8"/>
       <c t="s" r="P125" s="11">
-        <v>213</v>
+        <v>329</v>
       </c>
       <c t="s" r="Q125" s="12">
-        <v>20</v>
+        <v>94</v>
       </c>
     </row>
     <row r="126" ht="25.5" customHeight="1">
@@ -5596,24 +5599,24 @@
       <c r="F126" s="8"/>
       <c r="G126" s="8"/>
       <c t="s" r="H126" s="9">
-        <v>49</v>
+        <v>312</v>
       </c>
       <c r="I126" s="9"/>
       <c r="J126" s="9"/>
       <c r="K126" s="9"/>
       <c t="s" r="L126" s="10">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="M126" s="10"/>
       <c t="s" r="N126" s="8">
-        <v>296</v>
+        <v>213</v>
       </c>
       <c r="O126" s="8"/>
       <c t="s" r="P126" s="11">
-        <v>318</v>
+        <v>214</v>
       </c>
       <c t="s" r="Q126" s="12">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="127" ht="25.5" customHeight="1">
@@ -5629,24 +5632,24 @@
       <c r="F127" s="8"/>
       <c r="G127" s="8"/>
       <c t="s" r="H127" s="9">
-        <v>20</v>
+        <v>49</v>
       </c>
       <c r="I127" s="9"/>
       <c r="J127" s="9"/>
       <c r="K127" s="9"/>
       <c t="s" r="L127" s="10">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="M127" s="10"/>
       <c t="s" r="N127" s="8">
-        <v>332</v>
+        <v>297</v>
       </c>
       <c r="O127" s="8"/>
       <c t="s" r="P127" s="11">
-        <v>333</v>
+        <v>319</v>
       </c>
       <c t="s" r="Q127" s="12">
-        <v>20</v>
+        <v>22</v>
       </c>
     </row>
     <row r="128" ht="24.75" customHeight="1">
@@ -5655,31 +5658,31 @@
       </c>
       <c r="B128" s="7"/>
       <c t="s" r="C128" s="8">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="D128" s="8"/>
       <c r="E128" s="8"/>
       <c r="F128" s="8"/>
       <c r="G128" s="8"/>
       <c t="s" r="H128" s="9">
-        <v>311</v>
+        <v>20</v>
       </c>
       <c r="I128" s="9"/>
       <c r="J128" s="9"/>
       <c r="K128" s="9"/>
       <c t="s" r="L128" s="10">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="M128" s="10"/>
       <c t="s" r="N128" s="8">
-        <v>143</v>
+        <v>333</v>
       </c>
       <c r="O128" s="8"/>
       <c t="s" r="P128" s="11">
-        <v>149</v>
+        <v>334</v>
       </c>
       <c t="s" r="Q128" s="12">
-        <v>42</v>
+        <v>20</v>
       </c>
     </row>
     <row r="129" ht="25.5" customHeight="1">
@@ -5695,24 +5698,24 @@
       <c r="F129" s="8"/>
       <c r="G129" s="8"/>
       <c t="s" r="H129" s="9">
-        <v>49</v>
+        <v>312</v>
       </c>
       <c r="I129" s="9"/>
       <c r="J129" s="9"/>
       <c r="K129" s="9"/>
       <c t="s" r="L129" s="10">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="M129" s="10"/>
       <c t="s" r="N129" s="8">
-        <v>336</v>
+        <v>143</v>
       </c>
       <c r="O129" s="8"/>
       <c t="s" r="P129" s="11">
-        <v>337</v>
+        <v>149</v>
       </c>
       <c t="s" r="Q129" s="12">
-        <v>20</v>
+        <v>42</v>
       </c>
     </row>
     <row r="130" ht="24.75" customHeight="1">
@@ -5721,66 +5724,99 @@
       </c>
       <c r="B130" s="7"/>
       <c t="s" r="C130" s="8">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="D130" s="8"/>
       <c r="E130" s="8"/>
       <c r="F130" s="8"/>
       <c r="G130" s="8"/>
       <c t="s" r="H130" s="9">
-        <v>22</v>
+        <v>49</v>
       </c>
       <c r="I130" s="9"/>
       <c r="J130" s="9"/>
       <c r="K130" s="9"/>
       <c t="s" r="L130" s="10">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="M130" s="10"/>
       <c t="s" r="N130" s="8">
-        <v>296</v>
+        <v>337</v>
       </c>
       <c r="O130" s="8"/>
       <c t="s" r="P130" s="11">
+        <v>338</v>
+      </c>
+      <c t="s" r="Q130" s="12">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="131" ht="25.5" customHeight="1">
+      <c r="A131" s="7">
+        <v>125</v>
+      </c>
+      <c r="B131" s="7"/>
+      <c t="s" r="C131" s="8">
+        <v>339</v>
+      </c>
+      <c r="D131" s="8"/>
+      <c r="E131" s="8"/>
+      <c r="F131" s="8"/>
+      <c r="G131" s="8"/>
+      <c t="s" r="H131" s="9">
+        <v>22</v>
+      </c>
+      <c r="I131" s="9"/>
+      <c r="J131" s="9"/>
+      <c r="K131" s="9"/>
+      <c t="s" r="L131" s="10">
+        <v>200</v>
+      </c>
+      <c r="M131" s="10"/>
+      <c t="s" r="N131" s="8">
         <v>297</v>
       </c>
-      <c t="s" r="Q130" s="12">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="131" ht="25.5" customHeight="1">
-      <c r="P131" s="13">
-        <v>8118.9049999999997</v>
-      </c>
-      <c r="Q131" s="13"/>
-    </row>
-    <row r="132" ht="16.5" customHeight="1">
-      <c t="s" r="A132" s="14">
-        <v>339</v>
-      </c>
-      <c r="B132" s="14"/>
-      <c r="C132" s="14"/>
-      <c r="D132" s="14"/>
-      <c r="E132" s="14"/>
-      <c r="F132" s="14"/>
-      <c t="s" r="G132" s="15">
+      <c r="O131" s="8"/>
+      <c t="s" r="P131" s="11">
+        <v>298</v>
+      </c>
+      <c t="s" r="Q131" s="12">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="132" ht="25.5" customHeight="1">
+      <c r="P132" s="13">
+        <v>8208.9050000000007</v>
+      </c>
+      <c r="Q132" s="13"/>
+    </row>
+    <row r="133" ht="16.5" customHeight="1">
+      <c t="s" r="A133" s="14">
         <v>340</v>
       </c>
-      <c r="H132" s="15"/>
-      <c r="I132" s="15"/>
-      <c r="J132" s="16"/>
-      <c t="s" r="K132" s="17">
+      <c r="B133" s="14"/>
+      <c r="C133" s="14"/>
+      <c r="D133" s="14"/>
+      <c r="E133" s="14"/>
+      <c r="F133" s="14"/>
+      <c t="s" r="G133" s="15">
         <v>341</v>
       </c>
-      <c r="L132" s="17"/>
-      <c r="M132" s="17"/>
-      <c r="N132" s="17"/>
-      <c r="O132" s="17"/>
-      <c r="P132" s="17"/>
-      <c r="Q132" s="17"/>
+      <c r="H133" s="15"/>
+      <c r="I133" s="15"/>
+      <c r="J133" s="16"/>
+      <c t="s" r="K133" s="17">
+        <v>342</v>
+      </c>
+      <c r="L133" s="17"/>
+      <c r="M133" s="17"/>
+      <c r="N133" s="17"/>
+      <c r="O133" s="17"/>
+      <c r="P133" s="17"/>
+      <c r="Q133" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="632">
+  <mergeCells count="637">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -6409,10 +6445,15 @@
     <mergeCell ref="H130:K130"/>
     <mergeCell ref="L130:M130"/>
     <mergeCell ref="N130:O130"/>
-    <mergeCell ref="P131:Q131"/>
-    <mergeCell ref="A132:F132"/>
-    <mergeCell ref="G132:I132"/>
-    <mergeCell ref="K132:Q132"/>
+    <mergeCell ref="A131:B131"/>
+    <mergeCell ref="C131:G131"/>
+    <mergeCell ref="H131:K131"/>
+    <mergeCell ref="L131:M131"/>
+    <mergeCell ref="N131:O131"/>
+    <mergeCell ref="P132:Q132"/>
+    <mergeCell ref="A133:F133"/>
+    <mergeCell ref="G133:I133"/>
+    <mergeCell ref="K133:Q133"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-08-08_00-00.xlsx
+++ b/DaySale_2025-08-08_00-00.xlsx
@@ -1031,7 +1031,7 @@
     <t>مناديل بكر فاين</t>
   </si>
   <si>
-    <t>Friday, 8 August, 2025 11:17 PM</t>
+    <t>Friday, 8 August, 2025 11:21 PM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-08-08_00-00.xlsx
+++ b/DaySale_2025-08-08_00-00.xlsx
@@ -476,6 +476,9 @@
     <t>GARAMYCIN 0.1% CREAM 15 GM</t>
   </si>
   <si>
+    <t>66.0000</t>
+  </si>
+  <si>
     <t>GARAMYCIN 0.1% OINT. 15 GM</t>
   </si>
   <si>
@@ -584,9 +587,6 @@
     <t>66.00</t>
   </si>
   <si>
-    <t>66.0000</t>
-  </si>
-  <si>
     <t>NEXICURE 40 MG 20 F.C. TABLETS</t>
   </si>
   <si>
@@ -710,6 +710,15 @@
     <t>ROWATINEX 45 CAPSULES</t>
   </si>
   <si>
+    <t>SELGON 10MG 6 INFANT SUPP.</t>
+  </si>
+  <si>
+    <t>15.00</t>
+  </si>
+  <si>
+    <t>15.0000</t>
+  </si>
+  <si>
     <t>SILDEN 50 MG 4 F.C. TABS.</t>
   </si>
   <si>
@@ -902,12 +911,6 @@
     <t xml:space="preserve">جنتيانا </t>
   </si>
   <si>
-    <t>15.00</t>
-  </si>
-  <si>
-    <t>15.0000</t>
-  </si>
-  <si>
     <t>حبايه</t>
   </si>
   <si>
@@ -1031,7 +1034,7 @@
     <t>مناديل بكر فاين</t>
   </si>
   <si>
-    <t>Friday, 8 August, 2025 11:21 PM</t>
+    <t>Friday, 8 August, 2025 11:28 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -3157,7 +3160,7 @@
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>42</v>
+        <v>20</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
@@ -3171,10 +3174,10 @@
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
-        <v>117</v>
+        <v>155</v>
       </c>
       <c t="s" r="Q52" s="12">
-        <v>20</v>
+        <v>42</v>
       </c>
     </row>
     <row r="53" ht="24.75" customHeight="1">
@@ -3183,7 +3186,7 @@
       </c>
       <c r="B53" s="7"/>
       <c t="s" r="C53" s="8">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="D53" s="8"/>
       <c r="E53" s="8"/>
@@ -3216,7 +3219,7 @@
       </c>
       <c r="B54" s="7"/>
       <c t="s" r="C54" s="8">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="D54" s="8"/>
       <c r="E54" s="8"/>
@@ -3233,11 +3236,11 @@
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c t="s" r="Q54" s="12">
         <v>16</v>
@@ -3249,7 +3252,7 @@
       </c>
       <c r="B55" s="7"/>
       <c t="s" r="C55" s="8">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="D55" s="8"/>
       <c r="E55" s="8"/>
@@ -3282,7 +3285,7 @@
       </c>
       <c r="B56" s="7"/>
       <c t="s" r="C56" s="8">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="D56" s="8"/>
       <c r="E56" s="8"/>
@@ -3299,11 +3302,11 @@
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c t="s" r="Q56" s="12">
         <v>16</v>
@@ -3315,14 +3318,14 @@
       </c>
       <c r="B57" s="7"/>
       <c t="s" r="C57" s="8">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="D57" s="8"/>
       <c r="E57" s="8"/>
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
@@ -3332,11 +3335,11 @@
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c t="s" r="Q57" s="12">
         <v>127</v>
@@ -3348,7 +3351,7 @@
       </c>
       <c r="B58" s="7"/>
       <c t="s" r="C58" s="8">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="D58" s="8"/>
       <c r="E58" s="8"/>
@@ -3365,11 +3368,11 @@
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c t="s" r="Q58" s="12">
         <v>20</v>
@@ -3381,7 +3384,7 @@
       </c>
       <c r="B59" s="7"/>
       <c t="s" r="C59" s="8">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="D59" s="8"/>
       <c r="E59" s="8"/>
@@ -3398,11 +3401,11 @@
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c t="s" r="Q59" s="12">
         <v>16</v>
@@ -3414,7 +3417,7 @@
       </c>
       <c r="B60" s="7"/>
       <c t="s" r="C60" s="8">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="D60" s="8"/>
       <c r="E60" s="8"/>
@@ -3447,7 +3450,7 @@
       </c>
       <c r="B61" s="7"/>
       <c t="s" r="C61" s="8">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="D61" s="8"/>
       <c r="E61" s="8"/>
@@ -3468,7 +3471,7 @@
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c t="s" r="Q61" s="12">
         <v>16</v>
@@ -3480,7 +3483,7 @@
       </c>
       <c r="B62" s="7"/>
       <c t="s" r="C62" s="8">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="D62" s="8"/>
       <c r="E62" s="8"/>
@@ -3501,7 +3504,7 @@
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c t="s" r="Q62" s="12">
         <v>16</v>
@@ -3513,7 +3516,7 @@
       </c>
       <c r="B63" s="7"/>
       <c t="s" r="C63" s="8">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="D63" s="8"/>
       <c r="E63" s="8"/>
@@ -3530,11 +3533,11 @@
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="O63" s="8"/>
       <c t="s" r="P63" s="11">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c t="s" r="Q63" s="12">
         <v>16</v>
@@ -3546,7 +3549,7 @@
       </c>
       <c r="B64" s="7"/>
       <c t="s" r="C64" s="8">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="D64" s="8"/>
       <c r="E64" s="8"/>
@@ -3563,7 +3566,7 @@
       </c>
       <c r="M64" s="10"/>
       <c t="s" r="N64" s="8">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="O64" s="8"/>
       <c t="s" r="P64" s="11">
@@ -3579,7 +3582,7 @@
       </c>
       <c r="B65" s="7"/>
       <c t="s" r="C65" s="8">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="D65" s="8"/>
       <c r="E65" s="8"/>
@@ -3596,11 +3599,11 @@
       </c>
       <c r="M65" s="10"/>
       <c t="s" r="N65" s="8">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="O65" s="8"/>
       <c t="s" r="P65" s="11">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c t="s" r="Q65" s="12">
         <v>20</v>
@@ -3612,7 +3615,7 @@
       </c>
       <c r="B66" s="7"/>
       <c t="s" r="C66" s="8">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="D66" s="8"/>
       <c r="E66" s="8"/>
@@ -3629,11 +3632,11 @@
       </c>
       <c r="M66" s="10"/>
       <c t="s" r="N66" s="8">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="O66" s="8"/>
       <c t="s" r="P66" s="11">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c t="s" r="Q66" s="12">
         <v>16</v>
@@ -3645,7 +3648,7 @@
       </c>
       <c r="B67" s="7"/>
       <c t="s" r="C67" s="8">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="D67" s="8"/>
       <c r="E67" s="8"/>
@@ -3662,11 +3665,11 @@
       </c>
       <c r="M67" s="10"/>
       <c t="s" r="N67" s="8">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="O67" s="8"/>
       <c t="s" r="P67" s="11">
-        <v>191</v>
+        <v>155</v>
       </c>
       <c t="s" r="Q67" s="12">
         <v>20</v>
@@ -3794,7 +3797,7 @@
       </c>
       <c r="M71" s="10"/>
       <c t="s" r="N71" s="8">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="O71" s="8"/>
       <c t="s" r="P71" s="11">
@@ -3860,7 +3863,7 @@
       </c>
       <c r="M73" s="10"/>
       <c t="s" r="N73" s="8">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="O73" s="8"/>
       <c t="s" r="P73" s="11">
@@ -4124,11 +4127,11 @@
       </c>
       <c r="M81" s="10"/>
       <c t="s" r="N81" s="8">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="O81" s="8"/>
       <c t="s" r="P81" s="11">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c t="s" r="Q81" s="12">
         <v>20</v>
@@ -4256,7 +4259,7 @@
       </c>
       <c r="M85" s="10"/>
       <c t="s" r="N85" s="8">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="O85" s="8"/>
       <c t="s" r="P85" s="11">
@@ -4279,7 +4282,7 @@
       <c r="F86" s="8"/>
       <c r="G86" s="8"/>
       <c t="s" r="H86" s="9">
-        <v>46</v>
+        <v>22</v>
       </c>
       <c r="I86" s="9"/>
       <c r="J86" s="9"/>
@@ -4289,14 +4292,14 @@
       </c>
       <c r="M86" s="10"/>
       <c t="s" r="N86" s="8">
-        <v>116</v>
+        <v>234</v>
       </c>
       <c r="O86" s="8"/>
       <c t="s" r="P86" s="11">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c t="s" r="Q86" s="12">
-        <v>32</v>
+        <v>20</v>
       </c>
     </row>
     <row r="87" ht="25.5" customHeight="1">
@@ -4305,14 +4308,14 @@
       </c>
       <c r="B87" s="7"/>
       <c t="s" r="C87" s="8">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="D87" s="8"/>
       <c r="E87" s="8"/>
       <c r="F87" s="8"/>
       <c r="G87" s="8"/>
       <c t="s" r="H87" s="9">
-        <v>236</v>
+        <v>46</v>
       </c>
       <c r="I87" s="9"/>
       <c r="J87" s="9"/>
@@ -4322,14 +4325,14 @@
       </c>
       <c r="M87" s="10"/>
       <c t="s" r="N87" s="8">
-        <v>30</v>
+        <v>116</v>
       </c>
       <c r="O87" s="8"/>
       <c t="s" r="P87" s="11">
         <v>237</v>
       </c>
       <c t="s" r="Q87" s="12">
-        <v>46</v>
+        <v>32</v>
       </c>
     </row>
     <row r="88" ht="24.75" customHeight="1">
@@ -4345,7 +4348,7 @@
       <c r="F88" s="8"/>
       <c r="G88" s="8"/>
       <c t="s" r="H88" s="9">
-        <v>46</v>
+        <v>239</v>
       </c>
       <c r="I88" s="9"/>
       <c r="J88" s="9"/>
@@ -4355,14 +4358,14 @@
       </c>
       <c r="M88" s="10"/>
       <c t="s" r="N88" s="8">
-        <v>110</v>
+        <v>30</v>
       </c>
       <c r="O88" s="8"/>
       <c t="s" r="P88" s="11">
-        <v>66</v>
+        <v>240</v>
       </c>
       <c t="s" r="Q88" s="12">
-        <v>20</v>
+        <v>46</v>
       </c>
     </row>
     <row r="89" ht="25.5" customHeight="1">
@@ -4371,14 +4374,14 @@
       </c>
       <c r="B89" s="7"/>
       <c t="s" r="C89" s="8">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="D89" s="8"/>
       <c r="E89" s="8"/>
       <c r="F89" s="8"/>
       <c r="G89" s="8"/>
       <c t="s" r="H89" s="9">
-        <v>34</v>
+        <v>46</v>
       </c>
       <c r="I89" s="9"/>
       <c r="J89" s="9"/>
@@ -4388,14 +4391,14 @@
       </c>
       <c r="M89" s="10"/>
       <c t="s" r="N89" s="8">
-        <v>43</v>
+        <v>110</v>
       </c>
       <c r="O89" s="8"/>
       <c t="s" r="P89" s="11">
-        <v>44</v>
+        <v>66</v>
       </c>
       <c t="s" r="Q89" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="90" ht="24.75" customHeight="1">
@@ -4404,14 +4407,14 @@
       </c>
       <c r="B90" s="7"/>
       <c t="s" r="C90" s="8">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="D90" s="8"/>
       <c r="E90" s="8"/>
       <c r="F90" s="8"/>
       <c r="G90" s="8"/>
       <c t="s" r="H90" s="9">
-        <v>236</v>
+        <v>34</v>
       </c>
       <c r="I90" s="9"/>
       <c r="J90" s="9"/>
@@ -4421,11 +4424,11 @@
       </c>
       <c r="M90" s="10"/>
       <c t="s" r="N90" s="8">
-        <v>241</v>
+        <v>43</v>
       </c>
       <c r="O90" s="8"/>
       <c t="s" r="P90" s="11">
-        <v>197</v>
+        <v>44</v>
       </c>
       <c t="s" r="Q90" s="12">
         <v>16</v>
@@ -4437,14 +4440,14 @@
       </c>
       <c r="B91" s="7"/>
       <c t="s" r="C91" s="8">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="D91" s="8"/>
       <c r="E91" s="8"/>
       <c r="F91" s="8"/>
       <c r="G91" s="8"/>
       <c t="s" r="H91" s="9">
-        <v>236</v>
+        <v>239</v>
       </c>
       <c r="I91" s="9"/>
       <c r="J91" s="9"/>
@@ -4454,14 +4457,14 @@
       </c>
       <c r="M91" s="10"/>
       <c t="s" r="N91" s="8">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="O91" s="8"/>
       <c t="s" r="P91" s="11">
-        <v>244</v>
+        <v>197</v>
       </c>
       <c t="s" r="Q91" s="12">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="92" ht="25.5" customHeight="1">
@@ -4477,7 +4480,7 @@
       <c r="F92" s="8"/>
       <c r="G92" s="8"/>
       <c t="s" r="H92" s="9">
-        <v>16</v>
+        <v>239</v>
       </c>
       <c r="I92" s="9"/>
       <c r="J92" s="9"/>
@@ -4487,14 +4490,14 @@
       </c>
       <c r="M92" s="10"/>
       <c t="s" r="N92" s="8">
-        <v>152</v>
+        <v>246</v>
       </c>
       <c r="O92" s="8"/>
       <c t="s" r="P92" s="11">
-        <v>153</v>
+        <v>247</v>
       </c>
       <c t="s" r="Q92" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="93" ht="24.75" customHeight="1">
@@ -4503,14 +4506,14 @@
       </c>
       <c r="B93" s="7"/>
       <c t="s" r="C93" s="8">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="D93" s="8"/>
       <c r="E93" s="8"/>
       <c r="F93" s="8"/>
       <c r="G93" s="8"/>
       <c t="s" r="H93" s="9">
-        <v>49</v>
+        <v>16</v>
       </c>
       <c r="I93" s="9"/>
       <c r="J93" s="9"/>
@@ -4520,14 +4523,14 @@
       </c>
       <c r="M93" s="10"/>
       <c t="s" r="N93" s="8">
-        <v>247</v>
+        <v>152</v>
       </c>
       <c r="O93" s="8"/>
       <c t="s" r="P93" s="11">
-        <v>248</v>
+        <v>153</v>
       </c>
       <c t="s" r="Q93" s="12">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="94" ht="25.5" customHeight="1">
@@ -4543,7 +4546,7 @@
       <c r="F94" s="8"/>
       <c r="G94" s="8"/>
       <c t="s" r="H94" s="9">
-        <v>16</v>
+        <v>49</v>
       </c>
       <c r="I94" s="9"/>
       <c r="J94" s="9"/>
@@ -4553,14 +4556,14 @@
       </c>
       <c r="M94" s="10"/>
       <c t="s" r="N94" s="8">
-        <v>241</v>
+        <v>250</v>
       </c>
       <c r="O94" s="8"/>
       <c t="s" r="P94" s="11">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c t="s" r="Q94" s="12">
-        <v>34</v>
+        <v>20</v>
       </c>
     </row>
     <row r="95" ht="24.75" customHeight="1">
@@ -4569,14 +4572,14 @@
       </c>
       <c r="B95" s="7"/>
       <c t="s" r="C95" s="8">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="D95" s="8"/>
       <c r="E95" s="8"/>
       <c r="F95" s="8"/>
       <c r="G95" s="8"/>
       <c t="s" r="H95" s="9">
-        <v>34</v>
+        <v>16</v>
       </c>
       <c r="I95" s="9"/>
       <c r="J95" s="9"/>
@@ -4586,14 +4589,14 @@
       </c>
       <c r="M95" s="10"/>
       <c t="s" r="N95" s="8">
-        <v>252</v>
+        <v>244</v>
       </c>
       <c r="O95" s="8"/>
       <c t="s" r="P95" s="11">
         <v>253</v>
       </c>
       <c t="s" r="Q95" s="12">
-        <v>16</v>
+        <v>34</v>
       </c>
     </row>
     <row r="96" ht="25.5" customHeight="1">
@@ -4609,7 +4612,7 @@
       <c r="F96" s="8"/>
       <c r="G96" s="8"/>
       <c t="s" r="H96" s="9">
-        <v>22</v>
+        <v>34</v>
       </c>
       <c r="I96" s="9"/>
       <c r="J96" s="9"/>
@@ -4619,14 +4622,14 @@
       </c>
       <c r="M96" s="10"/>
       <c t="s" r="N96" s="8">
-        <v>143</v>
+        <v>255</v>
       </c>
       <c r="O96" s="8"/>
       <c t="s" r="P96" s="11">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c t="s" r="Q96" s="12">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="97" ht="25.5" customHeight="1">
@@ -4635,7 +4638,7 @@
       </c>
       <c r="B97" s="7"/>
       <c t="s" r="C97" s="8">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="D97" s="8"/>
       <c r="E97" s="8"/>
@@ -4652,14 +4655,14 @@
       </c>
       <c r="M97" s="10"/>
       <c t="s" r="N97" s="8">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="O97" s="8"/>
       <c t="s" r="P97" s="11">
-        <v>40</v>
+        <v>258</v>
       </c>
       <c t="s" r="Q97" s="12">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="98" ht="24.75" customHeight="1">
@@ -4668,14 +4671,14 @@
       </c>
       <c r="B98" s="7"/>
       <c t="s" r="C98" s="8">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="D98" s="8"/>
       <c r="E98" s="8"/>
       <c r="F98" s="8"/>
       <c r="G98" s="8"/>
       <c t="s" r="H98" s="9">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="I98" s="9"/>
       <c r="J98" s="9"/>
@@ -4685,14 +4688,14 @@
       </c>
       <c r="M98" s="10"/>
       <c t="s" r="N98" s="8">
-        <v>258</v>
+        <v>146</v>
       </c>
       <c r="O98" s="8"/>
       <c t="s" r="P98" s="11">
-        <v>259</v>
+        <v>40</v>
       </c>
       <c t="s" r="Q98" s="12">
-        <v>34</v>
+        <v>22</v>
       </c>
     </row>
     <row r="99" ht="25.5" customHeight="1">
@@ -4708,7 +4711,7 @@
       <c r="F99" s="8"/>
       <c r="G99" s="8"/>
       <c t="s" r="H99" s="9">
-        <v>49</v>
+        <v>20</v>
       </c>
       <c r="I99" s="9"/>
       <c r="J99" s="9"/>
@@ -4718,14 +4721,14 @@
       </c>
       <c r="M99" s="10"/>
       <c t="s" r="N99" s="8">
-        <v>146</v>
+        <v>261</v>
       </c>
       <c r="O99" s="8"/>
       <c t="s" r="P99" s="11">
-        <v>147</v>
+        <v>262</v>
       </c>
       <c t="s" r="Q99" s="12">
-        <v>20</v>
+        <v>34</v>
       </c>
     </row>
     <row r="100" ht="24.75" customHeight="1">
@@ -4734,14 +4737,14 @@
       </c>
       <c r="B100" s="7"/>
       <c t="s" r="C100" s="8">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="D100" s="8"/>
       <c r="E100" s="8"/>
       <c r="F100" s="8"/>
       <c r="G100" s="8"/>
       <c t="s" r="H100" s="9">
-        <v>32</v>
+        <v>49</v>
       </c>
       <c r="I100" s="9"/>
       <c r="J100" s="9"/>
@@ -4751,14 +4754,14 @@
       </c>
       <c r="M100" s="10"/>
       <c t="s" r="N100" s="8">
-        <v>262</v>
+        <v>146</v>
       </c>
       <c r="O100" s="8"/>
       <c t="s" r="P100" s="11">
-        <v>263</v>
+        <v>147</v>
       </c>
       <c t="s" r="Q100" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="101" ht="25.5" customHeight="1">
@@ -4774,7 +4777,7 @@
       <c r="F101" s="8"/>
       <c r="G101" s="8"/>
       <c t="s" r="H101" s="9">
-        <v>49</v>
+        <v>32</v>
       </c>
       <c r="I101" s="9"/>
       <c r="J101" s="9"/>
@@ -4784,11 +4787,11 @@
       </c>
       <c r="M101" s="10"/>
       <c t="s" r="N101" s="8">
-        <v>95</v>
+        <v>265</v>
       </c>
       <c r="O101" s="8"/>
       <c t="s" r="P101" s="11">
-        <v>175</v>
+        <v>266</v>
       </c>
       <c t="s" r="Q101" s="12">
         <v>16</v>
@@ -4800,14 +4803,14 @@
       </c>
       <c r="B102" s="7"/>
       <c t="s" r="C102" s="8">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="D102" s="8"/>
       <c r="E102" s="8"/>
       <c r="F102" s="8"/>
       <c r="G102" s="8"/>
       <c t="s" r="H102" s="9">
-        <v>127</v>
+        <v>49</v>
       </c>
       <c r="I102" s="9"/>
       <c r="J102" s="9"/>
@@ -4817,14 +4820,14 @@
       </c>
       <c r="M102" s="10"/>
       <c t="s" r="N102" s="8">
-        <v>266</v>
+        <v>95</v>
       </c>
       <c r="O102" s="8"/>
       <c t="s" r="P102" s="11">
-        <v>267</v>
+        <v>176</v>
       </c>
       <c t="s" r="Q102" s="12">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="103" ht="24.75" customHeight="1">
@@ -4840,7 +4843,7 @@
       <c r="F103" s="8"/>
       <c r="G103" s="8"/>
       <c t="s" r="H103" s="9">
-        <v>49</v>
+        <v>127</v>
       </c>
       <c r="I103" s="9"/>
       <c r="J103" s="9"/>
@@ -4854,7 +4857,7 @@
       </c>
       <c r="O103" s="8"/>
       <c t="s" r="P103" s="11">
-        <v>197</v>
+        <v>270</v>
       </c>
       <c t="s" r="Q103" s="12">
         <v>20</v>
@@ -4866,14 +4869,14 @@
       </c>
       <c r="B104" s="7"/>
       <c t="s" r="C104" s="8">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="D104" s="8"/>
       <c r="E104" s="8"/>
       <c r="F104" s="8"/>
       <c r="G104" s="8"/>
       <c t="s" r="H104" s="9">
-        <v>129</v>
+        <v>49</v>
       </c>
       <c r="I104" s="9"/>
       <c r="J104" s="9"/>
@@ -4883,14 +4886,14 @@
       </c>
       <c r="M104" s="10"/>
       <c t="s" r="N104" s="8">
-        <v>152</v>
+        <v>272</v>
       </c>
       <c r="O104" s="8"/>
       <c t="s" r="P104" s="11">
-        <v>271</v>
+        <v>197</v>
       </c>
       <c t="s" r="Q104" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="105" ht="24.75" customHeight="1">
@@ -4899,14 +4902,14 @@
       </c>
       <c r="B105" s="7"/>
       <c t="s" r="C105" s="8">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="D105" s="8"/>
       <c r="E105" s="8"/>
       <c r="F105" s="8"/>
       <c r="G105" s="8"/>
       <c t="s" r="H105" s="9">
-        <v>20</v>
+        <v>129</v>
       </c>
       <c r="I105" s="9"/>
       <c r="J105" s="9"/>
@@ -4920,7 +4923,7 @@
       </c>
       <c r="O105" s="8"/>
       <c t="s" r="P105" s="11">
-        <v>153</v>
+        <v>274</v>
       </c>
       <c t="s" r="Q105" s="12">
         <v>16</v>
@@ -4932,14 +4935,14 @@
       </c>
       <c r="B106" s="7"/>
       <c t="s" r="C106" s="8">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="D106" s="8"/>
       <c r="E106" s="8"/>
       <c r="F106" s="8"/>
       <c r="G106" s="8"/>
       <c t="s" r="H106" s="9">
-        <v>49</v>
+        <v>20</v>
       </c>
       <c r="I106" s="9"/>
       <c r="J106" s="9"/>
@@ -4949,14 +4952,14 @@
       </c>
       <c r="M106" s="10"/>
       <c t="s" r="N106" s="8">
-        <v>274</v>
+        <v>152</v>
       </c>
       <c r="O106" s="8"/>
       <c t="s" r="P106" s="11">
-        <v>275</v>
+        <v>153</v>
       </c>
       <c t="s" r="Q106" s="12">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="107" ht="25.5" customHeight="1">
@@ -4972,7 +4975,7 @@
       <c r="F107" s="8"/>
       <c r="G107" s="8"/>
       <c t="s" r="H107" s="9">
-        <v>32</v>
+        <v>49</v>
       </c>
       <c r="I107" s="9"/>
       <c r="J107" s="9"/>
@@ -4989,7 +4992,7 @@
         <v>278</v>
       </c>
       <c t="s" r="Q107" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="108" ht="24.75" customHeight="1">
@@ -5005,7 +5008,7 @@
       <c r="F108" s="8"/>
       <c r="G108" s="8"/>
       <c t="s" r="H108" s="9">
-        <v>101</v>
+        <v>32</v>
       </c>
       <c r="I108" s="9"/>
       <c r="J108" s="9"/>
@@ -5038,7 +5041,7 @@
       <c r="F109" s="8"/>
       <c r="G109" s="8"/>
       <c t="s" r="H109" s="9">
-        <v>16</v>
+        <v>101</v>
       </c>
       <c r="I109" s="9"/>
       <c r="J109" s="9"/>
@@ -5052,7 +5055,7 @@
       </c>
       <c r="O109" s="8"/>
       <c t="s" r="P109" s="11">
-        <v>221</v>
+        <v>284</v>
       </c>
       <c t="s" r="Q109" s="12">
         <v>16</v>
@@ -5064,14 +5067,14 @@
       </c>
       <c r="B110" s="7"/>
       <c t="s" r="C110" s="8">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="D110" s="8"/>
       <c r="E110" s="8"/>
       <c r="F110" s="8"/>
       <c r="G110" s="8"/>
       <c t="s" r="H110" s="9">
-        <v>285</v>
+        <v>16</v>
       </c>
       <c r="I110" s="9"/>
       <c r="J110" s="9"/>
@@ -5085,10 +5088,10 @@
       </c>
       <c r="O110" s="8"/>
       <c t="s" r="P110" s="11">
-        <v>287</v>
+        <v>221</v>
       </c>
       <c t="s" r="Q110" s="12">
-        <v>22</v>
+        <v>16</v>
       </c>
     </row>
     <row r="111" ht="25.5" customHeight="1">
@@ -5097,14 +5100,14 @@
       </c>
       <c r="B111" s="7"/>
       <c t="s" r="C111" s="8">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="D111" s="8"/>
       <c r="E111" s="8"/>
       <c r="F111" s="8"/>
       <c r="G111" s="8"/>
       <c t="s" r="H111" s="9">
-        <v>49</v>
+        <v>288</v>
       </c>
       <c r="I111" s="9"/>
       <c r="J111" s="9"/>
@@ -5114,14 +5117,14 @@
       </c>
       <c r="M111" s="10"/>
       <c t="s" r="N111" s="8">
-        <v>79</v>
+        <v>289</v>
       </c>
       <c r="O111" s="8"/>
       <c t="s" r="P111" s="11">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c t="s" r="Q111" s="12">
-        <v>20</v>
+        <v>22</v>
       </c>
     </row>
     <row r="112" ht="25.5" customHeight="1">
@@ -5130,24 +5133,24 @@
       </c>
       <c r="B112" s="7"/>
       <c t="s" r="C112" s="8">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="D112" s="8"/>
       <c r="E112" s="8"/>
       <c r="F112" s="8"/>
       <c r="G112" s="8"/>
       <c t="s" r="H112" s="9">
-        <v>20</v>
+        <v>49</v>
       </c>
       <c r="I112" s="9"/>
       <c r="J112" s="9"/>
       <c r="K112" s="9"/>
       <c t="s" r="L112" s="10">
-        <v>200</v>
+        <v>13</v>
       </c>
       <c r="M112" s="10"/>
       <c t="s" r="N112" s="8">
-        <v>291</v>
+        <v>79</v>
       </c>
       <c r="O112" s="8"/>
       <c t="s" r="P112" s="11">
@@ -5170,7 +5173,7 @@
       <c r="F113" s="8"/>
       <c r="G113" s="8"/>
       <c t="s" r="H113" s="9">
-        <v>294</v>
+        <v>20</v>
       </c>
       <c r="I113" s="9"/>
       <c r="J113" s="9"/>
@@ -5180,14 +5183,14 @@
       </c>
       <c r="M113" s="10"/>
       <c t="s" r="N113" s="8">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="O113" s="8"/>
       <c t="s" r="P113" s="11">
-        <v>194</v>
+        <v>295</v>
       </c>
       <c t="s" r="Q113" s="12">
-        <v>42</v>
+        <v>20</v>
       </c>
     </row>
     <row r="114" ht="25.5" customHeight="1">
@@ -5203,7 +5206,7 @@
       <c r="F114" s="8"/>
       <c r="G114" s="8"/>
       <c t="s" r="H114" s="9">
-        <v>42</v>
+        <v>297</v>
       </c>
       <c r="I114" s="9"/>
       <c r="J114" s="9"/>
@@ -5213,14 +5216,14 @@
       </c>
       <c r="M114" s="10"/>
       <c t="s" r="N114" s="8">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="O114" s="8"/>
       <c t="s" r="P114" s="11">
-        <v>298</v>
+        <v>194</v>
       </c>
       <c t="s" r="Q114" s="12">
-        <v>20</v>
+        <v>42</v>
       </c>
     </row>
     <row r="115" ht="24.75" customHeight="1">
@@ -5236,7 +5239,7 @@
       <c r="F115" s="8"/>
       <c r="G115" s="8"/>
       <c t="s" r="H115" s="9">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="I115" s="9"/>
       <c r="J115" s="9"/>
@@ -5246,14 +5249,14 @@
       </c>
       <c r="M115" s="10"/>
       <c t="s" r="N115" s="8">
-        <v>300</v>
+        <v>234</v>
       </c>
       <c r="O115" s="8"/>
       <c t="s" r="P115" s="11">
-        <v>301</v>
+        <v>235</v>
       </c>
       <c t="s" r="Q115" s="12">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="116" ht="25.5" customHeight="1">
@@ -5262,14 +5265,14 @@
       </c>
       <c r="B116" s="7"/>
       <c t="s" r="C116" s="8">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="D116" s="8"/>
       <c r="E116" s="8"/>
       <c r="F116" s="8"/>
       <c r="G116" s="8"/>
       <c t="s" r="H116" s="9">
-        <v>20</v>
+        <v>49</v>
       </c>
       <c r="I116" s="9"/>
       <c r="J116" s="9"/>
@@ -5279,14 +5282,14 @@
       </c>
       <c r="M116" s="10"/>
       <c t="s" r="N116" s="8">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="O116" s="8"/>
       <c t="s" r="P116" s="11">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c t="s" r="Q116" s="12">
-        <v>20</v>
+        <v>22</v>
       </c>
     </row>
     <row r="117" ht="25.5" customHeight="1">
@@ -5295,14 +5298,14 @@
       </c>
       <c r="B117" s="7"/>
       <c t="s" r="C117" s="8">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="D117" s="8"/>
       <c r="E117" s="8"/>
       <c r="F117" s="8"/>
       <c r="G117" s="8"/>
       <c t="s" r="H117" s="9">
-        <v>306</v>
+        <v>20</v>
       </c>
       <c r="I117" s="9"/>
       <c r="J117" s="9"/>
@@ -5312,14 +5315,14 @@
       </c>
       <c r="M117" s="10"/>
       <c t="s" r="N117" s="8">
-        <v>307</v>
+        <v>304</v>
       </c>
       <c r="O117" s="8"/>
       <c t="s" r="P117" s="11">
-        <v>308</v>
+        <v>305</v>
       </c>
       <c t="s" r="Q117" s="12">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="118" ht="24.75" customHeight="1">
@@ -5328,14 +5331,14 @@
       </c>
       <c r="B118" s="7"/>
       <c t="s" r="C118" s="8">
-        <v>309</v>
+        <v>306</v>
       </c>
       <c r="D118" s="8"/>
       <c r="E118" s="8"/>
       <c r="F118" s="8"/>
       <c r="G118" s="8"/>
       <c t="s" r="H118" s="9">
-        <v>49</v>
+        <v>307</v>
       </c>
       <c r="I118" s="9"/>
       <c r="J118" s="9"/>
@@ -5345,14 +5348,14 @@
       </c>
       <c r="M118" s="10"/>
       <c t="s" r="N118" s="8">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="O118" s="8"/>
       <c t="s" r="P118" s="11">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c t="s" r="Q118" s="12">
-        <v>312</v>
+        <v>22</v>
       </c>
     </row>
     <row r="119" ht="25.5" customHeight="1">
@@ -5361,7 +5364,7 @@
       </c>
       <c r="B119" s="7"/>
       <c t="s" r="C119" s="8">
-        <v>313</v>
+        <v>310</v>
       </c>
       <c r="D119" s="8"/>
       <c r="E119" s="8"/>
@@ -5378,14 +5381,14 @@
       </c>
       <c r="M119" s="10"/>
       <c t="s" r="N119" s="8">
-        <v>286</v>
+        <v>311</v>
       </c>
       <c r="O119" s="8"/>
       <c t="s" r="P119" s="11">
-        <v>255</v>
+        <v>312</v>
       </c>
       <c t="s" r="Q119" s="12">
-        <v>314</v>
+        <v>313</v>
       </c>
     </row>
     <row r="120" ht="24.75" customHeight="1">
@@ -5394,7 +5397,7 @@
       </c>
       <c r="B120" s="7"/>
       <c t="s" r="C120" s="8">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="D120" s="8"/>
       <c r="E120" s="8"/>
@@ -5411,14 +5414,14 @@
       </c>
       <c r="M120" s="10"/>
       <c t="s" r="N120" s="8">
-        <v>300</v>
+        <v>289</v>
       </c>
       <c r="O120" s="8"/>
       <c t="s" r="P120" s="11">
-        <v>316</v>
+        <v>258</v>
       </c>
       <c t="s" r="Q120" s="12">
-        <v>42</v>
+        <v>315</v>
       </c>
     </row>
     <row r="121" ht="25.5" customHeight="1">
@@ -5427,14 +5430,14 @@
       </c>
       <c r="B121" s="7"/>
       <c t="s" r="C121" s="8">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="D121" s="8"/>
       <c r="E121" s="8"/>
       <c r="F121" s="8"/>
       <c r="G121" s="8"/>
       <c t="s" r="H121" s="9">
-        <v>22</v>
+        <v>49</v>
       </c>
       <c r="I121" s="9"/>
       <c r="J121" s="9"/>
@@ -5444,14 +5447,14 @@
       </c>
       <c r="M121" s="10"/>
       <c t="s" r="N121" s="8">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="O121" s="8"/>
       <c t="s" r="P121" s="11">
-        <v>304</v>
+        <v>317</v>
       </c>
       <c t="s" r="Q121" s="12">
-        <v>20</v>
+        <v>42</v>
       </c>
     </row>
     <row r="122" ht="25.5" customHeight="1">
@@ -5467,7 +5470,7 @@
       <c r="F122" s="8"/>
       <c r="G122" s="8"/>
       <c t="s" r="H122" s="9">
-        <v>49</v>
+        <v>22</v>
       </c>
       <c r="I122" s="9"/>
       <c r="J122" s="9"/>
@@ -5477,11 +5480,11 @@
       </c>
       <c r="M122" s="10"/>
       <c t="s" r="N122" s="8">
-        <v>295</v>
+        <v>304</v>
       </c>
       <c r="O122" s="8"/>
       <c t="s" r="P122" s="11">
-        <v>319</v>
+        <v>305</v>
       </c>
       <c t="s" r="Q122" s="12">
         <v>20</v>
@@ -5493,14 +5496,14 @@
       </c>
       <c r="B123" s="7"/>
       <c t="s" r="C123" s="8">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="D123" s="8"/>
       <c r="E123" s="8"/>
       <c r="F123" s="8"/>
       <c r="G123" s="8"/>
       <c t="s" r="H123" s="9">
-        <v>321</v>
+        <v>49</v>
       </c>
       <c r="I123" s="9"/>
       <c r="J123" s="9"/>
@@ -5510,11 +5513,11 @@
       </c>
       <c r="M123" s="10"/>
       <c t="s" r="N123" s="8">
-        <v>322</v>
+        <v>298</v>
       </c>
       <c r="O123" s="8"/>
       <c t="s" r="P123" s="11">
-        <v>323</v>
+        <v>320</v>
       </c>
       <c t="s" r="Q123" s="12">
         <v>20</v>
@@ -5526,14 +5529,14 @@
       </c>
       <c r="B124" s="7"/>
       <c t="s" r="C124" s="8">
-        <v>324</v>
+        <v>321</v>
       </c>
       <c r="D124" s="8"/>
       <c r="E124" s="8"/>
       <c r="F124" s="8"/>
       <c r="G124" s="8"/>
       <c t="s" r="H124" s="9">
-        <v>42</v>
+        <v>322</v>
       </c>
       <c r="I124" s="9"/>
       <c r="J124" s="9"/>
@@ -5543,11 +5546,11 @@
       </c>
       <c r="M124" s="10"/>
       <c t="s" r="N124" s="8">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="O124" s="8"/>
       <c t="s" r="P124" s="11">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c t="s" r="Q124" s="12">
         <v>20</v>
@@ -5559,14 +5562,14 @@
       </c>
       <c r="B125" s="7"/>
       <c t="s" r="C125" s="8">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="D125" s="8"/>
       <c r="E125" s="8"/>
       <c r="F125" s="8"/>
       <c r="G125" s="8"/>
       <c t="s" r="H125" s="9">
-        <v>328</v>
+        <v>42</v>
       </c>
       <c r="I125" s="9"/>
       <c r="J125" s="9"/>
@@ -5576,14 +5579,14 @@
       </c>
       <c r="M125" s="10"/>
       <c t="s" r="N125" s="8">
-        <v>303</v>
+        <v>326</v>
       </c>
       <c r="O125" s="8"/>
       <c t="s" r="P125" s="11">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c t="s" r="Q125" s="12">
-        <v>94</v>
+        <v>20</v>
       </c>
     </row>
     <row r="126" ht="25.5" customHeight="1">
@@ -5592,14 +5595,14 @@
       </c>
       <c r="B126" s="7"/>
       <c t="s" r="C126" s="8">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="D126" s="8"/>
       <c r="E126" s="8"/>
       <c r="F126" s="8"/>
       <c r="G126" s="8"/>
       <c t="s" r="H126" s="9">
-        <v>312</v>
+        <v>329</v>
       </c>
       <c r="I126" s="9"/>
       <c r="J126" s="9"/>
@@ -5609,14 +5612,14 @@
       </c>
       <c r="M126" s="10"/>
       <c t="s" r="N126" s="8">
-        <v>213</v>
+        <v>304</v>
       </c>
       <c r="O126" s="8"/>
       <c t="s" r="P126" s="11">
-        <v>214</v>
+        <v>330</v>
       </c>
       <c t="s" r="Q126" s="12">
-        <v>20</v>
+        <v>94</v>
       </c>
     </row>
     <row r="127" ht="25.5" customHeight="1">
@@ -5632,7 +5635,7 @@
       <c r="F127" s="8"/>
       <c r="G127" s="8"/>
       <c t="s" r="H127" s="9">
-        <v>49</v>
+        <v>313</v>
       </c>
       <c r="I127" s="9"/>
       <c r="J127" s="9"/>
@@ -5642,14 +5645,14 @@
       </c>
       <c r="M127" s="10"/>
       <c t="s" r="N127" s="8">
-        <v>297</v>
+        <v>213</v>
       </c>
       <c r="O127" s="8"/>
       <c t="s" r="P127" s="11">
-        <v>319</v>
+        <v>214</v>
       </c>
       <c t="s" r="Q127" s="12">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="128" ht="24.75" customHeight="1">
@@ -5665,7 +5668,7 @@
       <c r="F128" s="8"/>
       <c r="G128" s="8"/>
       <c t="s" r="H128" s="9">
-        <v>20</v>
+        <v>49</v>
       </c>
       <c r="I128" s="9"/>
       <c r="J128" s="9"/>
@@ -5675,14 +5678,14 @@
       </c>
       <c r="M128" s="10"/>
       <c t="s" r="N128" s="8">
-        <v>333</v>
+        <v>234</v>
       </c>
       <c r="O128" s="8"/>
       <c t="s" r="P128" s="11">
-        <v>334</v>
+        <v>320</v>
       </c>
       <c t="s" r="Q128" s="12">
-        <v>20</v>
+        <v>22</v>
       </c>
     </row>
     <row r="129" ht="25.5" customHeight="1">
@@ -5691,14 +5694,14 @@
       </c>
       <c r="B129" s="7"/>
       <c t="s" r="C129" s="8">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="D129" s="8"/>
       <c r="E129" s="8"/>
       <c r="F129" s="8"/>
       <c r="G129" s="8"/>
       <c t="s" r="H129" s="9">
-        <v>312</v>
+        <v>20</v>
       </c>
       <c r="I129" s="9"/>
       <c r="J129" s="9"/>
@@ -5708,14 +5711,14 @@
       </c>
       <c r="M129" s="10"/>
       <c t="s" r="N129" s="8">
-        <v>143</v>
+        <v>334</v>
       </c>
       <c r="O129" s="8"/>
       <c t="s" r="P129" s="11">
-        <v>149</v>
+        <v>335</v>
       </c>
       <c t="s" r="Q129" s="12">
-        <v>42</v>
+        <v>20</v>
       </c>
     </row>
     <row r="130" ht="24.75" customHeight="1">
@@ -5731,7 +5734,7 @@
       <c r="F130" s="8"/>
       <c r="G130" s="8"/>
       <c t="s" r="H130" s="9">
-        <v>49</v>
+        <v>313</v>
       </c>
       <c r="I130" s="9"/>
       <c r="J130" s="9"/>
@@ -5741,14 +5744,14 @@
       </c>
       <c r="M130" s="10"/>
       <c t="s" r="N130" s="8">
-        <v>337</v>
+        <v>143</v>
       </c>
       <c r="O130" s="8"/>
       <c t="s" r="P130" s="11">
-        <v>338</v>
+        <v>149</v>
       </c>
       <c t="s" r="Q130" s="12">
-        <v>20</v>
+        <v>42</v>
       </c>
     </row>
     <row r="131" ht="25.5" customHeight="1">
@@ -5757,14 +5760,14 @@
       </c>
       <c r="B131" s="7"/>
       <c t="s" r="C131" s="8">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="D131" s="8"/>
       <c r="E131" s="8"/>
       <c r="F131" s="8"/>
       <c r="G131" s="8"/>
       <c t="s" r="H131" s="9">
-        <v>22</v>
+        <v>49</v>
       </c>
       <c r="I131" s="9"/>
       <c r="J131" s="9"/>
@@ -5774,49 +5777,82 @@
       </c>
       <c r="M131" s="10"/>
       <c t="s" r="N131" s="8">
-        <v>297</v>
+        <v>338</v>
       </c>
       <c r="O131" s="8"/>
       <c t="s" r="P131" s="11">
-        <v>298</v>
+        <v>339</v>
       </c>
       <c t="s" r="Q131" s="12">
         <v>20</v>
       </c>
     </row>
     <row r="132" ht="25.5" customHeight="1">
-      <c r="P132" s="13">
-        <v>8208.9050000000007</v>
-      </c>
-      <c r="Q132" s="13"/>
-    </row>
-    <row r="133" ht="16.5" customHeight="1">
-      <c t="s" r="A133" s="14">
+      <c r="A132" s="7">
+        <v>126</v>
+      </c>
+      <c r="B132" s="7"/>
+      <c t="s" r="C132" s="8">
         <v>340</v>
       </c>
-      <c r="B133" s="14"/>
-      <c r="C133" s="14"/>
-      <c r="D133" s="14"/>
-      <c r="E133" s="14"/>
-      <c r="F133" s="14"/>
-      <c t="s" r="G133" s="15">
+      <c r="D132" s="8"/>
+      <c r="E132" s="8"/>
+      <c r="F132" s="8"/>
+      <c r="G132" s="8"/>
+      <c t="s" r="H132" s="9">
+        <v>22</v>
+      </c>
+      <c r="I132" s="9"/>
+      <c r="J132" s="9"/>
+      <c r="K132" s="9"/>
+      <c t="s" r="L132" s="10">
+        <v>200</v>
+      </c>
+      <c r="M132" s="10"/>
+      <c t="s" r="N132" s="8">
+        <v>234</v>
+      </c>
+      <c r="O132" s="8"/>
+      <c t="s" r="P132" s="11">
+        <v>235</v>
+      </c>
+      <c t="s" r="Q132" s="12">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="133" ht="24.75" customHeight="1">
+      <c r="P133" s="13">
+        <v>8267.9050000000007</v>
+      </c>
+      <c r="Q133" s="13"/>
+    </row>
+    <row r="134" ht="16.5" customHeight="1">
+      <c t="s" r="A134" s="14">
         <v>341</v>
       </c>
-      <c r="H133" s="15"/>
-      <c r="I133" s="15"/>
-      <c r="J133" s="16"/>
-      <c t="s" r="K133" s="17">
+      <c r="B134" s="14"/>
+      <c r="C134" s="14"/>
+      <c r="D134" s="14"/>
+      <c r="E134" s="14"/>
+      <c r="F134" s="14"/>
+      <c t="s" r="G134" s="15">
         <v>342</v>
       </c>
-      <c r="L133" s="17"/>
-      <c r="M133" s="17"/>
-      <c r="N133" s="17"/>
-      <c r="O133" s="17"/>
-      <c r="P133" s="17"/>
-      <c r="Q133" s="17"/>
+      <c r="H134" s="15"/>
+      <c r="I134" s="15"/>
+      <c r="J134" s="16"/>
+      <c t="s" r="K134" s="17">
+        <v>343</v>
+      </c>
+      <c r="L134" s="17"/>
+      <c r="M134" s="17"/>
+      <c r="N134" s="17"/>
+      <c r="O134" s="17"/>
+      <c r="P134" s="17"/>
+      <c r="Q134" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="637">
+  <mergeCells count="642">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -6450,10 +6486,15 @@
     <mergeCell ref="H131:K131"/>
     <mergeCell ref="L131:M131"/>
     <mergeCell ref="N131:O131"/>
-    <mergeCell ref="P132:Q132"/>
-    <mergeCell ref="A133:F133"/>
-    <mergeCell ref="G133:I133"/>
-    <mergeCell ref="K133:Q133"/>
+    <mergeCell ref="A132:B132"/>
+    <mergeCell ref="C132:G132"/>
+    <mergeCell ref="H132:K132"/>
+    <mergeCell ref="L132:M132"/>
+    <mergeCell ref="N132:O132"/>
+    <mergeCell ref="P133:Q133"/>
+    <mergeCell ref="A134:F134"/>
+    <mergeCell ref="G134:I134"/>
+    <mergeCell ref="K134:Q134"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-08-08_00-00.xlsx
+++ b/DaySale_2025-08-08_00-00.xlsx
@@ -110,6 +110,18 @@
     <t>0:2</t>
   </si>
   <si>
+    <t>ANTINAL 200MG 24 CAPSULES</t>
+  </si>
+  <si>
+    <t>3:1</t>
+  </si>
+  <si>
+    <t>52.00</t>
+  </si>
+  <si>
+    <t>52.0000</t>
+  </si>
+  <si>
     <t>ANTODINE 40MG 30 F.C. TABLETS</t>
   </si>
   <si>
@@ -125,6 +137,15 @@
     <t>0:3</t>
   </si>
   <si>
+    <t>AQUA PLUS SYRUP 100 ML</t>
+  </si>
+  <si>
+    <t>45.00</t>
+  </si>
+  <si>
+    <t>45.0000</t>
+  </si>
+  <si>
     <t>AUGRAM 1GM 14 TABS</t>
   </si>
   <si>
@@ -314,9 +335,6 @@
     <t>DEXAMETHASONE-AMRIYA 8MG/2ML 3 AMP.</t>
   </si>
   <si>
-    <t>3:1</t>
-  </si>
-  <si>
     <t>11.8800</t>
   </si>
   <si>
@@ -386,9 +404,6 @@
     <t>ELICA-M CREAM 30 GRAM</t>
   </si>
   <si>
-    <t>52.00</t>
-  </si>
-  <si>
     <t>208.0000</t>
   </si>
   <si>
@@ -470,294 +485,300 @@
     <t>90.00</t>
   </si>
   <si>
+    <t>119.7000</t>
+  </si>
+  <si>
+    <t>GARAMYCIN 0.1% CREAM 15 GM</t>
+  </si>
+  <si>
+    <t>66.0000</t>
+  </si>
+  <si>
+    <t>GARAMYCIN 0.1% OINT. 15 GM</t>
+  </si>
+  <si>
+    <t>GLIPTUS PLUS 50/1000MG 30 TABLETS</t>
+  </si>
+  <si>
+    <t>192.00</t>
+  </si>
+  <si>
+    <t>63.3600</t>
+  </si>
+  <si>
+    <t>HEPAMARIN 140MG 30 CAPSULE</t>
+  </si>
+  <si>
+    <t>IROSPECT 20 PIECES</t>
+  </si>
+  <si>
+    <t>140.00</t>
+  </si>
+  <si>
+    <t>70.0000</t>
+  </si>
+  <si>
+    <t>ITRANOX 100MG 15 CAPS.</t>
+  </si>
+  <si>
+    <t>-3:0</t>
+  </si>
+  <si>
+    <t>108.00</t>
+  </si>
+  <si>
+    <t>432.0000</t>
+  </si>
+  <si>
+    <t>IVYPRONT 0.84GM SYRUP 120 ML</t>
+  </si>
+  <si>
+    <t>JOYPOX 60MG 3 TAB</t>
+  </si>
+  <si>
+    <t>106.00</t>
+  </si>
+  <si>
+    <t>16.9600</t>
+  </si>
+  <si>
+    <t>KAPRON 500 MG 20 F.C.TABS.</t>
+  </si>
+  <si>
+    <t>KETOPREK 75 MG 20 CAPS.</t>
+  </si>
+  <si>
+    <t>18.0000</t>
+  </si>
+  <si>
+    <t>LIBRAX 30 SUGAR COATED TAB</t>
+  </si>
+  <si>
+    <t>15.8400</t>
+  </si>
+  <si>
+    <t>LOADLESS 5/20MG 30 CAP</t>
+  </si>
+  <si>
+    <t>114.00</t>
+  </si>
+  <si>
+    <t>37.6200</t>
+  </si>
+  <si>
+    <t>MAXOPHAGE XR 1000MG 30 EXT. REL. TABS.</t>
+  </si>
+  <si>
+    <t>72.00</t>
+  </si>
+  <si>
+    <t>MELATEX LIGHTENING ROLL-ON 40 ML</t>
+  </si>
+  <si>
+    <t>225.00</t>
+  </si>
+  <si>
+    <t>225.0000</t>
+  </si>
+  <si>
+    <t>MOOV MASSAGE CREAM 40 GM</t>
+  </si>
+  <si>
+    <t>23.00</t>
+  </si>
+  <si>
+    <t>23.0000</t>
+  </si>
+  <si>
+    <t>NEUROVIT 30 SUGAR COATED TAB</t>
+  </si>
+  <si>
+    <t>102.00</t>
+  </si>
+  <si>
+    <t>33.6600</t>
+  </si>
+  <si>
+    <t>NEUROVIT 6 I.M. AMPS</t>
+  </si>
+  <si>
+    <t>66.00</t>
+  </si>
+  <si>
+    <t>NEXICURE 40 MG 20 F.C. TABLETS</t>
+  </si>
+  <si>
+    <t>NORHINOSE 50MCG/DOSE NASAL SPRAY 120 DOSES</t>
+  </si>
+  <si>
+    <t>90.0000</t>
+  </si>
+  <si>
+    <t>PANADOL ADVANCE 500 MG 48 TABLETS</t>
+  </si>
+  <si>
+    <t>92.00</t>
+  </si>
+  <si>
+    <t>PANADOL EXTRA 48 TAB</t>
+  </si>
+  <si>
+    <t>1:3</t>
+  </si>
+  <si>
+    <t>0</t>
+  </si>
+  <si>
+    <t>81.0000</t>
+  </si>
+  <si>
+    <t>PANTAZOL 40MG VIAL I.V.</t>
+  </si>
+  <si>
+    <t>62.0000</t>
+  </si>
+  <si>
+    <t>PANTOLOC 40MG 14 TAB</t>
+  </si>
+  <si>
+    <t>102.0000</t>
+  </si>
+  <si>
+    <t>PANTOPI 40MG 14 TAB</t>
+  </si>
+  <si>
+    <t>96.00</t>
+  </si>
+  <si>
+    <t>PANTOPRAZOLE 40MG 14 TAB.</t>
+  </si>
+  <si>
+    <t>PERFORMA EXTRA STRENGTH 5% TOPICAL SOLUTION 60 ML</t>
+  </si>
+  <si>
+    <t>156.00</t>
+  </si>
+  <si>
+    <t>156.0000</t>
+  </si>
+  <si>
+    <t>PRONTO PLUS 20 TAB.</t>
+  </si>
+  <si>
+    <t>40.00</t>
+  </si>
+  <si>
+    <t>40.0000</t>
+  </si>
+  <si>
+    <t>PROSTRIDE 5MG 30 CAPS.</t>
+  </si>
+  <si>
+    <t>183.00</t>
+  </si>
+  <si>
+    <t>60.3900</t>
+  </si>
+  <si>
+    <t>PROXIMOL 0.4MG 40 TAB</t>
+  </si>
+  <si>
+    <t>17.0000</t>
+  </si>
+  <si>
+    <t>PROXIMOL COMPOUND EFF. GRANULES 60 GM</t>
+  </si>
+  <si>
+    <t>PURGATON 20MG 30 TAB.</t>
+  </si>
+  <si>
+    <t>5:2</t>
+  </si>
+  <si>
+    <t>QUIBRON T/SR 300MG 100 TAB</t>
+  </si>
+  <si>
+    <t>1:56</t>
+  </si>
+  <si>
+    <t>132.00</t>
+  </si>
+  <si>
+    <t>0:9</t>
+  </si>
+  <si>
+    <t>REPARIL-GEL N 40 GM</t>
+  </si>
+  <si>
+    <t>58.00</t>
+  </si>
+  <si>
+    <t>58.0000</t>
+  </si>
+  <si>
+    <t>REVI 2 CREAM 50 GM</t>
+  </si>
+  <si>
+    <t>ROWATINEX 45 CAPSULES</t>
+  </si>
+  <si>
+    <t>RUMAXIMAP 90MG 30 F.C. TAB</t>
+  </si>
+  <si>
+    <t>102.9600</t>
+  </si>
+  <si>
+    <t>SELGON 10MG 6 INFANT SUPP.</t>
+  </si>
+  <si>
+    <t>15.00</t>
+  </si>
+  <si>
+    <t>15.0000</t>
+  </si>
+  <si>
+    <t>SILDEN 50 MG 4 F.C. TABS.</t>
+  </si>
+  <si>
+    <t>11.0000</t>
+  </si>
+  <si>
+    <t>SPASMO-DIGESTIN 30 TABS.</t>
+  </si>
+  <si>
+    <t>2:1</t>
+  </si>
+  <si>
+    <t>128.7000</t>
+  </si>
+  <si>
+    <t>SPASMOFEN 3 AMP. FOR I.M. INJ.</t>
+  </si>
+  <si>
+    <t>SPASMOFREE 50MG 20 F.C. TABS.</t>
+  </si>
+  <si>
+    <t>STREPTOQUIN 20 TABLETS</t>
+  </si>
+  <si>
+    <t>46.00</t>
+  </si>
+  <si>
+    <t>TAMSULIN 0.4MG 28 CAPS</t>
+  </si>
+  <si>
+    <t>124.00</t>
+  </si>
+  <si>
+    <t>124.0000</t>
+  </si>
+  <si>
+    <t>TOPIRAMATE 25MG 30 F.C. TAB</t>
+  </si>
+  <si>
     <t>29.7000</t>
   </si>
   <si>
-    <t>GARAMYCIN 0.1% CREAM 15 GM</t>
-  </si>
-  <si>
-    <t>66.0000</t>
-  </si>
-  <si>
-    <t>GARAMYCIN 0.1% OINT. 15 GM</t>
-  </si>
-  <si>
-    <t>GLIPTUS PLUS 50/1000MG 30 TABLETS</t>
-  </si>
-  <si>
-    <t>192.00</t>
-  </si>
-  <si>
-    <t>63.3600</t>
-  </si>
-  <si>
-    <t>HEPAMARIN 140MG 30 CAPSULE</t>
-  </si>
-  <si>
-    <t>IROSPECT 20 PIECES</t>
-  </si>
-  <si>
-    <t>140.00</t>
-  </si>
-  <si>
-    <t>70.0000</t>
-  </si>
-  <si>
-    <t>ITRANOX 100MG 15 CAPS.</t>
-  </si>
-  <si>
-    <t>-3:0</t>
-  </si>
-  <si>
-    <t>108.00</t>
-  </si>
-  <si>
-    <t>432.0000</t>
-  </si>
-  <si>
-    <t>IVYPRONT 0.84GM SYRUP 120 ML</t>
-  </si>
-  <si>
-    <t>45.00</t>
-  </si>
-  <si>
-    <t>45.0000</t>
-  </si>
-  <si>
-    <t>JOYPOX 60MG 3 TAB</t>
-  </si>
-  <si>
-    <t>106.00</t>
-  </si>
-  <si>
-    <t>16.9600</t>
-  </si>
-  <si>
-    <t>KAPRON 500 MG 20 F.C.TABS.</t>
-  </si>
-  <si>
-    <t>KETOPREK 75 MG 20 CAPS.</t>
-  </si>
-  <si>
-    <t>18.0000</t>
-  </si>
-  <si>
-    <t>LIBRAX 30 SUGAR COATED TAB</t>
-  </si>
-  <si>
-    <t>15.8400</t>
-  </si>
-  <si>
-    <t>LOADLESS 5/20MG 30 CAP</t>
-  </si>
-  <si>
-    <t>114.00</t>
-  </si>
-  <si>
-    <t>37.6200</t>
-  </si>
-  <si>
-    <t>MAXOPHAGE XR 1000MG 30 EXT. REL. TABS.</t>
-  </si>
-  <si>
-    <t>72.00</t>
-  </si>
-  <si>
-    <t>MELATEX LIGHTENING ROLL-ON 40 ML</t>
-  </si>
-  <si>
-    <t>225.00</t>
-  </si>
-  <si>
-    <t>225.0000</t>
-  </si>
-  <si>
-    <t>NEUROVIT 30 SUGAR COATED TAB</t>
-  </si>
-  <si>
-    <t>102.00</t>
-  </si>
-  <si>
-    <t>33.6600</t>
-  </si>
-  <si>
-    <t>NEUROVIT 6 I.M. AMPS</t>
-  </si>
-  <si>
-    <t>66.00</t>
-  </si>
-  <si>
-    <t>NEXICURE 40 MG 20 F.C. TABLETS</t>
-  </si>
-  <si>
-    <t>NORHINOSE 50MCG/DOSE NASAL SPRAY 120 DOSES</t>
-  </si>
-  <si>
-    <t>90.0000</t>
-  </si>
-  <si>
-    <t>PANADOL ADVANCE 500 MG 48 TABLETS</t>
-  </si>
-  <si>
-    <t>92.00</t>
-  </si>
-  <si>
-    <t>23.0000</t>
-  </si>
-  <si>
-    <t>PANADOL EXTRA 48 TAB</t>
-  </si>
-  <si>
-    <t>1:3</t>
-  </si>
-  <si>
-    <t>0</t>
-  </si>
-  <si>
-    <t>81.0000</t>
-  </si>
-  <si>
-    <t>PANTAZOL 40MG VIAL I.V.</t>
-  </si>
-  <si>
-    <t>62.0000</t>
-  </si>
-  <si>
-    <t>PANTOLOC 40MG 14 TAB</t>
-  </si>
-  <si>
-    <t>102.0000</t>
-  </si>
-  <si>
-    <t>PANTOPI 40MG 14 TAB</t>
-  </si>
-  <si>
-    <t>96.00</t>
-  </si>
-  <si>
-    <t>PANTOPRAZOLE 40MG 14 TAB.</t>
-  </si>
-  <si>
-    <t>PERFORMA EXTRA STRENGTH 5% TOPICAL SOLUTION 60 ML</t>
-  </si>
-  <si>
-    <t>156.00</t>
-  </si>
-  <si>
-    <t>156.0000</t>
-  </si>
-  <si>
-    <t>PRONTO PLUS 20 TAB.</t>
-  </si>
-  <si>
-    <t>40.00</t>
-  </si>
-  <si>
-    <t>40.0000</t>
-  </si>
-  <si>
-    <t>PROSTRIDE 5MG 30 CAPS.</t>
-  </si>
-  <si>
-    <t>183.00</t>
-  </si>
-  <si>
-    <t>60.3900</t>
-  </si>
-  <si>
-    <t>PROXIMOL 0.4MG 40 TAB</t>
-  </si>
-  <si>
-    <t>17.0000</t>
-  </si>
-  <si>
-    <t>PROXIMOL COMPOUND EFF. GRANULES 60 GM</t>
-  </si>
-  <si>
-    <t>52.0000</t>
-  </si>
-  <si>
-    <t>PURGATON 20MG 30 TAB.</t>
-  </si>
-  <si>
-    <t>5:2</t>
-  </si>
-  <si>
-    <t>QUIBRON T/SR 300MG 100 TAB</t>
-  </si>
-  <si>
-    <t>1:56</t>
-  </si>
-  <si>
-    <t>132.00</t>
-  </si>
-  <si>
-    <t>0:9</t>
-  </si>
-  <si>
-    <t>REPARIL-GEL N 40 GM</t>
-  </si>
-  <si>
-    <t>58.00</t>
-  </si>
-  <si>
-    <t>58.0000</t>
-  </si>
-  <si>
-    <t>REVI 2 CREAM 50 GM</t>
-  </si>
-  <si>
-    <t>ROWATINEX 45 CAPSULES</t>
-  </si>
-  <si>
-    <t>SELGON 10MG 6 INFANT SUPP.</t>
-  </si>
-  <si>
-    <t>15.00</t>
-  </si>
-  <si>
-    <t>15.0000</t>
-  </si>
-  <si>
-    <t>SILDEN 50 MG 4 F.C. TABS.</t>
-  </si>
-  <si>
-    <t>11.0000</t>
-  </si>
-  <si>
-    <t>SPASMO-DIGESTIN 30 TABS.</t>
-  </si>
-  <si>
-    <t>2:1</t>
-  </si>
-  <si>
-    <t>128.7000</t>
-  </si>
-  <si>
-    <t>SPASMOFEN 3 AMP. FOR I.M. INJ.</t>
-  </si>
-  <si>
-    <t>SPASMOFREE 50MG 20 F.C. TABS.</t>
-  </si>
-  <si>
-    <t>STREPTOQUIN 20 TABLETS</t>
-  </si>
-  <si>
-    <t>46.00</t>
-  </si>
-  <si>
-    <t>TAMSULIN 0.4MG 28 CAPS</t>
-  </si>
-  <si>
-    <t>124.00</t>
-  </si>
-  <si>
-    <t>124.0000</t>
-  </si>
-  <si>
-    <t>TOPIRAMATE 25MG 30 F.C. TAB</t>
-  </si>
-  <si>
     <t>TOPRO 10 SACHETS</t>
   </si>
   <si>
@@ -812,6 +833,15 @@
     <t>28.7100</t>
   </si>
   <si>
+    <t>VERSERC 24MG 30 TAB</t>
+  </si>
+  <si>
+    <t>120.00</t>
+  </si>
+  <si>
+    <t>120.0000</t>
+  </si>
+  <si>
     <t>VETOCETAMOL 24 TAB.</t>
   </si>
   <si>
@@ -827,9 +857,6 @@
     <t>VIOTIC EAR DROPS 10 ML</t>
   </si>
   <si>
-    <t>23.00</t>
-  </si>
-  <si>
     <t>VISCERALGINE 5MG/2ML IM IV 6 AMPOULES</t>
   </si>
   <si>
@@ -986,6 +1013,9 @@
     <t>12.0000</t>
   </si>
   <si>
+    <t>شامبو دوف 200مل</t>
+  </si>
+  <si>
     <t>شفاط ثدي الجو</t>
   </si>
   <si>
@@ -1034,7 +1064,7 @@
     <t>مناديل بكر فاين</t>
   </si>
   <si>
-    <t>Friday, 8 August, 2025 11:28 PM</t>
+    <t>Friday, 8 August, 2025 11:39 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1857,7 +1887,7 @@
         <v>36</v>
       </c>
       <c t="s" r="Q12" s="12">
-        <v>37</v>
+        <v>20</v>
       </c>
     </row>
     <row r="13" ht="24.75" customHeight="1">
@@ -1866,14 +1896,14 @@
       </c>
       <c r="B13" s="7"/>
       <c t="s" r="C13" s="8">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D13" s="8"/>
       <c r="E13" s="8"/>
       <c r="F13" s="8"/>
       <c r="G13" s="8"/>
       <c t="s" r="H13" s="9">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="I13" s="9"/>
       <c r="J13" s="9"/>
@@ -1890,7 +1920,7 @@
         <v>40</v>
       </c>
       <c t="s" r="Q13" s="12">
-        <v>16</v>
+        <v>41</v>
       </c>
     </row>
     <row r="14" ht="25.5" customHeight="1">
@@ -1899,14 +1929,14 @@
       </c>
       <c r="B14" s="7"/>
       <c t="s" r="C14" s="8">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="D14" s="8"/>
       <c r="E14" s="8"/>
       <c r="F14" s="8"/>
       <c r="G14" s="8"/>
       <c t="s" r="H14" s="9">
-        <v>42</v>
+        <v>20</v>
       </c>
       <c r="I14" s="9"/>
       <c r="J14" s="9"/>
@@ -1923,7 +1953,7 @@
         <v>44</v>
       </c>
       <c t="s" r="Q14" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="15" ht="24.75" customHeight="1">
@@ -1939,7 +1969,7 @@
       <c r="F15" s="8"/>
       <c r="G15" s="8"/>
       <c t="s" r="H15" s="9">
-        <v>46</v>
+        <v>38</v>
       </c>
       <c r="I15" s="9"/>
       <c r="J15" s="9"/>
@@ -1949,7 +1979,7 @@
       </c>
       <c r="M15" s="10"/>
       <c t="s" r="N15" s="8">
-        <v>30</v>
+        <v>46</v>
       </c>
       <c r="O15" s="8"/>
       <c t="s" r="P15" s="11">
@@ -1989,7 +2019,7 @@
         <v>51</v>
       </c>
       <c t="s" r="Q16" s="12">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="17" ht="25.5" customHeight="1">
@@ -2005,7 +2035,7 @@
       <c r="F17" s="8"/>
       <c r="G17" s="8"/>
       <c t="s" r="H17" s="9">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="I17" s="9"/>
       <c r="J17" s="9"/>
@@ -2015,14 +2045,14 @@
       </c>
       <c r="M17" s="10"/>
       <c t="s" r="N17" s="8">
-        <v>53</v>
+        <v>30</v>
       </c>
       <c r="O17" s="8"/>
       <c t="s" r="P17" s="11">
         <v>54</v>
       </c>
       <c t="s" r="Q17" s="12">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="18" ht="24.75" customHeight="1">
@@ -2038,7 +2068,7 @@
       <c r="F18" s="8"/>
       <c r="G18" s="8"/>
       <c t="s" r="H18" s="9">
-        <v>34</v>
+        <v>56</v>
       </c>
       <c r="I18" s="9"/>
       <c r="J18" s="9"/>
@@ -2048,14 +2078,14 @@
       </c>
       <c r="M18" s="10"/>
       <c t="s" r="N18" s="8">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="O18" s="8"/>
       <c t="s" r="P18" s="11">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c t="s" r="Q18" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="19" ht="25.5" customHeight="1">
@@ -2064,14 +2094,14 @@
       </c>
       <c r="B19" s="7"/>
       <c t="s" r="C19" s="8">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="D19" s="8"/>
       <c r="E19" s="8"/>
       <c r="F19" s="8"/>
       <c r="G19" s="8"/>
       <c t="s" r="H19" s="9">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="I19" s="9"/>
       <c r="J19" s="9"/>
@@ -2088,7 +2118,7 @@
         <v>61</v>
       </c>
       <c t="s" r="Q19" s="12">
-        <v>59</v>
+        <v>20</v>
       </c>
     </row>
     <row r="20" ht="24.75" customHeight="1">
@@ -2104,7 +2134,7 @@
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
       <c t="s" r="H20" s="9">
-        <v>59</v>
+        <v>38</v>
       </c>
       <c r="I20" s="9"/>
       <c r="J20" s="9"/>
@@ -2121,7 +2151,7 @@
         <v>64</v>
       </c>
       <c t="s" r="Q20" s="12">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="21" ht="25.5" customHeight="1">
@@ -2137,7 +2167,7 @@
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
       <c t="s" r="H21" s="9">
-        <v>16</v>
+        <v>66</v>
       </c>
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
@@ -2147,14 +2177,14 @@
       </c>
       <c r="M21" s="10"/>
       <c t="s" r="N21" s="8">
-        <v>30</v>
+        <v>67</v>
       </c>
       <c r="O21" s="8"/>
       <c t="s" r="P21" s="11">
+        <v>68</v>
+      </c>
+      <c t="s" r="Q21" s="12">
         <v>66</v>
-      </c>
-      <c t="s" r="Q21" s="12">
-        <v>16</v>
       </c>
     </row>
     <row r="22" ht="25.5" customHeight="1">
@@ -2163,14 +2193,14 @@
       </c>
       <c r="B22" s="7"/>
       <c t="s" r="C22" s="8">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="D22" s="8"/>
       <c r="E22" s="8"/>
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c t="s" r="H22" s="9">
-        <v>49</v>
+        <v>66</v>
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
@@ -2180,11 +2210,11 @@
       </c>
       <c r="M22" s="10"/>
       <c t="s" r="N22" s="8">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="O22" s="8"/>
       <c t="s" r="P22" s="11">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c t="s" r="Q22" s="12">
         <v>20</v>
@@ -2196,7 +2226,7 @@
       </c>
       <c r="B23" s="7"/>
       <c t="s" r="C23" s="8">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="D23" s="8"/>
       <c r="E23" s="8"/>
@@ -2213,11 +2243,11 @@
       </c>
       <c r="M23" s="10"/>
       <c t="s" r="N23" s="8">
-        <v>71</v>
+        <v>30</v>
       </c>
       <c r="O23" s="8"/>
       <c t="s" r="P23" s="11">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c t="s" r="Q23" s="12">
         <v>16</v>
@@ -2229,14 +2259,14 @@
       </c>
       <c r="B24" s="7"/>
       <c t="s" r="C24" s="8">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="D24" s="8"/>
       <c r="E24" s="8"/>
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>20</v>
+        <v>56</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
@@ -2246,11 +2276,11 @@
       </c>
       <c r="M24" s="10"/>
       <c t="s" r="N24" s="8">
-        <v>68</v>
+        <v>75</v>
       </c>
       <c r="O24" s="8"/>
       <c t="s" r="P24" s="11">
-        <v>69</v>
+        <v>76</v>
       </c>
       <c t="s" r="Q24" s="12">
         <v>20</v>
@@ -2262,14 +2292,14 @@
       </c>
       <c r="B25" s="7"/>
       <c t="s" r="C25" s="8">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="D25" s="8"/>
       <c r="E25" s="8"/>
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>75</v>
+        <v>16</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
@@ -2279,11 +2309,11 @@
       </c>
       <c r="M25" s="10"/>
       <c t="s" r="N25" s="8">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="O25" s="8"/>
       <c t="s" r="P25" s="11">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c t="s" r="Q25" s="12">
         <v>16</v>
@@ -2295,7 +2325,7 @@
       </c>
       <c r="B26" s="7"/>
       <c t="s" r="C26" s="8">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="D26" s="8"/>
       <c r="E26" s="8"/>
@@ -2312,14 +2342,14 @@
       </c>
       <c r="M26" s="10"/>
       <c t="s" r="N26" s="8">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="O26" s="8"/>
       <c t="s" r="P26" s="11">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c t="s" r="Q26" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="27" ht="25.5" customHeight="1">
@@ -2335,7 +2365,7 @@
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>46</v>
+        <v>82</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
@@ -2345,11 +2375,11 @@
       </c>
       <c r="M27" s="10"/>
       <c t="s" r="N27" s="8">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="O27" s="8"/>
       <c t="s" r="P27" s="11">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c t="s" r="Q27" s="12">
         <v>16</v>
@@ -2361,7 +2391,7 @@
       </c>
       <c r="B28" s="7"/>
       <c t="s" r="C28" s="8">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="D28" s="8"/>
       <c r="E28" s="8"/>
@@ -2378,14 +2408,14 @@
       </c>
       <c r="M28" s="10"/>
       <c t="s" r="N28" s="8">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="O28" s="8"/>
       <c t="s" r="P28" s="11">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c t="s" r="Q28" s="12">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="29" ht="25.5" customHeight="1">
@@ -2394,14 +2424,14 @@
       </c>
       <c r="B29" s="7"/>
       <c t="s" r="C29" s="8">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="D29" s="8"/>
       <c r="E29" s="8"/>
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>16</v>
+        <v>53</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
@@ -2411,14 +2441,14 @@
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="O29" s="8"/>
       <c t="s" r="P29" s="11">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c t="s" r="Q29" s="12">
-        <v>32</v>
+        <v>16</v>
       </c>
     </row>
     <row r="30" ht="24.75" customHeight="1">
@@ -2427,7 +2457,7 @@
       </c>
       <c r="B30" s="7"/>
       <c t="s" r="C30" s="8">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="D30" s="8"/>
       <c r="E30" s="8"/>
@@ -2444,14 +2474,14 @@
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="O30" s="8"/>
       <c t="s" r="P30" s="11">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c t="s" r="Q30" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="31" ht="25.5" customHeight="1">
@@ -2460,14 +2490,14 @@
       </c>
       <c r="B31" s="7"/>
       <c t="s" r="C31" s="8">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="D31" s="8"/>
       <c r="E31" s="8"/>
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>94</v>
+        <v>16</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
@@ -2500,7 +2530,7 @@
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>49</v>
+        <v>20</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
@@ -2517,7 +2547,7 @@
         <v>99</v>
       </c>
       <c t="s" r="Q32" s="12">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="33" ht="24.75" customHeight="1">
@@ -2543,14 +2573,14 @@
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
-        <v>95</v>
+        <v>102</v>
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c t="s" r="Q33" s="12">
-        <v>16</v>
+        <v>32</v>
       </c>
     </row>
     <row r="34" ht="25.5" customHeight="1">
@@ -2559,14 +2589,14 @@
       </c>
       <c r="B34" s="7"/>
       <c t="s" r="C34" s="8">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="D34" s="8"/>
       <c r="E34" s="8"/>
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>32</v>
+        <v>56</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
@@ -2576,14 +2606,14 @@
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c t="s" r="Q34" s="12">
-        <v>32</v>
+        <v>20</v>
       </c>
     </row>
     <row r="35" ht="24.75" customHeight="1">
@@ -2592,14 +2622,14 @@
       </c>
       <c r="B35" s="7"/>
       <c t="s" r="C35" s="8">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="D35" s="8"/>
       <c r="E35" s="8"/>
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>49</v>
+        <v>34</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
@@ -2609,14 +2639,14 @@
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
-        <v>107</v>
+        <v>102</v>
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
         <v>108</v>
       </c>
       <c t="s" r="Q35" s="12">
-        <v>94</v>
+        <v>16</v>
       </c>
     </row>
     <row r="36" ht="25.5" customHeight="1">
@@ -2632,7 +2662,7 @@
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>42</v>
+        <v>32</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
@@ -2649,7 +2679,7 @@
         <v>111</v>
       </c>
       <c t="s" r="Q36" s="12">
-        <v>22</v>
+        <v>32</v>
       </c>
     </row>
     <row r="37" ht="25.5" customHeight="1">
@@ -2665,7 +2695,7 @@
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>20</v>
+        <v>56</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
@@ -2682,7 +2712,7 @@
         <v>114</v>
       </c>
       <c t="s" r="Q37" s="12">
-        <v>16</v>
+        <v>101</v>
       </c>
     </row>
     <row r="38" ht="24.75" customHeight="1">
@@ -2698,7 +2728,7 @@
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>20</v>
+        <v>49</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
@@ -2715,7 +2745,7 @@
         <v>117</v>
       </c>
       <c t="s" r="Q38" s="12">
-        <v>20</v>
+        <v>22</v>
       </c>
     </row>
     <row r="39" ht="25.5" customHeight="1">
@@ -2731,7 +2761,7 @@
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>32</v>
+        <v>20</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
@@ -2741,11 +2771,11 @@
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>76</v>
+        <v>119</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
-        <v>77</v>
+        <v>120</v>
       </c>
       <c t="s" r="Q39" s="12">
         <v>16</v>
@@ -2757,14 +2787,14 @@
       </c>
       <c r="B40" s="7"/>
       <c t="s" r="C40" s="8">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="D40" s="8"/>
       <c r="E40" s="8"/>
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>120</v>
+        <v>20</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
@@ -2774,11 +2804,11 @@
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>50</v>
+        <v>122</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
-        <v>51</v>
+        <v>123</v>
       </c>
       <c t="s" r="Q40" s="12">
         <v>20</v>
@@ -2790,14 +2820,14 @@
       </c>
       <c r="B41" s="7"/>
       <c t="s" r="C41" s="8">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="D41" s="8"/>
       <c r="E41" s="8"/>
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>49</v>
+        <v>32</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
@@ -2807,14 +2837,14 @@
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>122</v>
+        <v>83</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
-        <v>123</v>
+        <v>84</v>
       </c>
       <c t="s" r="Q41" s="12">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="42" ht="25.5" customHeight="1">
@@ -2823,14 +2853,14 @@
       </c>
       <c r="B42" s="7"/>
       <c t="s" r="C42" s="8">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="D42" s="8"/>
       <c r="E42" s="8"/>
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>42</v>
+        <v>126</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
@@ -2840,14 +2870,14 @@
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>125</v>
+        <v>57</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
-        <v>126</v>
+        <v>58</v>
       </c>
       <c t="s" r="Q42" s="12">
-        <v>127</v>
+        <v>20</v>
       </c>
     </row>
     <row r="43" ht="24.75" customHeight="1">
@@ -2856,14 +2886,14 @@
       </c>
       <c r="B43" s="7"/>
       <c t="s" r="C43" s="8">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="D43" s="8"/>
       <c r="E43" s="8"/>
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>129</v>
+        <v>56</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
@@ -2873,14 +2903,14 @@
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c t="s" r="Q43" s="12">
-        <v>32</v>
+        <v>20</v>
       </c>
     </row>
     <row r="44" ht="25.5" customHeight="1">
@@ -2889,14 +2919,14 @@
       </c>
       <c r="B44" s="7"/>
       <c t="s" r="C44" s="8">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="D44" s="8"/>
       <c r="E44" s="8"/>
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>133</v>
+        <v>49</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
@@ -2906,14 +2936,14 @@
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>134</v>
+        <v>35</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c t="s" r="Q44" s="12">
-        <v>32</v>
+        <v>132</v>
       </c>
     </row>
     <row r="45" ht="24.75" customHeight="1">
@@ -2922,14 +2952,14 @@
       </c>
       <c r="B45" s="7"/>
       <c t="s" r="C45" s="8">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="D45" s="8"/>
       <c r="E45" s="8"/>
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>20</v>
+        <v>134</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
@@ -2939,14 +2969,14 @@
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c t="s" r="Q45" s="12">
-        <v>20</v>
+        <v>32</v>
       </c>
     </row>
     <row r="46" ht="25.5" customHeight="1">
@@ -2955,14 +2985,14 @@
       </c>
       <c r="B46" s="7"/>
       <c t="s" r="C46" s="8">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="D46" s="8"/>
       <c r="E46" s="8"/>
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>20</v>
+        <v>138</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
@@ -2972,14 +3002,14 @@
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c t="s" r="Q46" s="12">
-        <v>20</v>
+        <v>32</v>
       </c>
     </row>
     <row r="47" ht="25.5" customHeight="1">
@@ -2988,14 +3018,14 @@
       </c>
       <c r="B47" s="7"/>
       <c t="s" r="C47" s="8">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="D47" s="8"/>
       <c r="E47" s="8"/>
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
@@ -3005,14 +3035,14 @@
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c t="s" r="Q47" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="48" ht="24.75" customHeight="1">
@@ -3021,14 +3051,14 @@
       </c>
       <c r="B48" s="7"/>
       <c t="s" r="C48" s="8">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="D48" s="8"/>
       <c r="E48" s="8"/>
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
@@ -3038,11 +3068,11 @@
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c t="s" r="Q48" s="12">
         <v>20</v>
@@ -3054,14 +3084,14 @@
       </c>
       <c r="B49" s="7"/>
       <c t="s" r="C49" s="8">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="D49" s="8"/>
       <c r="E49" s="8"/>
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>59</v>
+        <v>12</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
@@ -3071,14 +3101,14 @@
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>95</v>
+        <v>148</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
         <v>149</v>
       </c>
       <c t="s" r="Q49" s="12">
-        <v>22</v>
+        <v>16</v>
       </c>
     </row>
     <row r="50" ht="24.75" customHeight="1">
@@ -3094,7 +3124,7 @@
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>49</v>
+        <v>22</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
@@ -3104,11 +3134,11 @@
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>50</v>
+        <v>151</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
-        <v>51</v>
+        <v>152</v>
       </c>
       <c t="s" r="Q50" s="12">
         <v>20</v>
@@ -3120,14 +3150,14 @@
       </c>
       <c r="B51" s="7"/>
       <c t="s" r="C51" s="8">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="D51" s="8"/>
       <c r="E51" s="8"/>
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>34</v>
+        <v>66</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
@@ -3137,14 +3167,14 @@
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>152</v>
+        <v>102</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c t="s" r="Q51" s="12">
-        <v>16</v>
+        <v>22</v>
       </c>
     </row>
     <row r="52" ht="25.5" customHeight="1">
@@ -3153,14 +3183,14 @@
       </c>
       <c r="B52" s="7"/>
       <c t="s" r="C52" s="8">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="D52" s="8"/>
       <c r="E52" s="8"/>
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>20</v>
+        <v>56</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
@@ -3170,14 +3200,14 @@
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>116</v>
+        <v>57</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
-        <v>155</v>
+        <v>58</v>
       </c>
       <c t="s" r="Q52" s="12">
-        <v>42</v>
+        <v>20</v>
       </c>
     </row>
     <row r="53" ht="24.75" customHeight="1">
@@ -3193,7 +3223,7 @@
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
@@ -3203,14 +3233,14 @@
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
-        <v>116</v>
+        <v>157</v>
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
-        <v>117</v>
+        <v>158</v>
       </c>
       <c t="s" r="Q53" s="12">
-        <v>20</v>
+        <v>38</v>
       </c>
     </row>
     <row r="54" ht="25.5" customHeight="1">
@@ -3219,14 +3249,14 @@
       </c>
       <c r="B54" s="7"/>
       <c t="s" r="C54" s="8">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="D54" s="8"/>
       <c r="E54" s="8"/>
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>34</v>
+        <v>20</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
@@ -3236,14 +3266,14 @@
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
-        <v>158</v>
+        <v>122</v>
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c t="s" r="Q54" s="12">
-        <v>16</v>
+        <v>49</v>
       </c>
     </row>
     <row r="55" ht="24.75" customHeight="1">
@@ -3252,14 +3282,14 @@
       </c>
       <c r="B55" s="7"/>
       <c t="s" r="C55" s="8">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="D55" s="8"/>
       <c r="E55" s="8"/>
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>49</v>
+        <v>22</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
@@ -3269,11 +3299,11 @@
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
-        <v>98</v>
+        <v>122</v>
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
-        <v>99</v>
+        <v>123</v>
       </c>
       <c t="s" r="Q55" s="12">
         <v>20</v>
@@ -3285,14 +3315,14 @@
       </c>
       <c r="B56" s="7"/>
       <c t="s" r="C56" s="8">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="D56" s="8"/>
       <c r="E56" s="8"/>
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>20</v>
+        <v>38</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
@@ -3302,11 +3332,11 @@
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c t="s" r="Q56" s="12">
         <v>16</v>
@@ -3318,14 +3348,14 @@
       </c>
       <c r="B57" s="7"/>
       <c t="s" r="C57" s="8">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="D57" s="8"/>
       <c r="E57" s="8"/>
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>165</v>
+        <v>56</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
@@ -3335,14 +3365,14 @@
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
-        <v>166</v>
+        <v>105</v>
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
-        <v>167</v>
+        <v>106</v>
       </c>
       <c t="s" r="Q57" s="12">
-        <v>127</v>
+        <v>20</v>
       </c>
     </row>
     <row r="58" ht="24.75" customHeight="1">
@@ -3351,14 +3381,14 @@
       </c>
       <c r="B58" s="7"/>
       <c t="s" r="C58" s="8">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="D58" s="8"/>
       <c r="E58" s="8"/>
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c t="s" r="H58" s="9">
-        <v>42</v>
+        <v>20</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
@@ -3368,14 +3398,14 @@
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c t="s" r="Q58" s="12">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="59" ht="25.5" customHeight="1">
@@ -3384,14 +3414,14 @@
       </c>
       <c r="B59" s="7"/>
       <c t="s" r="C59" s="8">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="D59" s="8"/>
       <c r="E59" s="8"/>
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c t="s" r="H59" s="9">
-        <v>34</v>
+        <v>170</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
@@ -3401,14 +3431,14 @@
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c t="s" r="Q59" s="12">
-        <v>16</v>
+        <v>132</v>
       </c>
     </row>
     <row r="60" ht="24.75" customHeight="1">
@@ -3417,14 +3447,14 @@
       </c>
       <c r="B60" s="7"/>
       <c t="s" r="C60" s="8">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="D60" s="8"/>
       <c r="E60" s="8"/>
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c t="s" r="H60" s="9">
-        <v>34</v>
+        <v>49</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
@@ -3434,14 +3464,14 @@
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
-        <v>71</v>
+        <v>43</v>
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
-        <v>72</v>
+        <v>44</v>
       </c>
       <c t="s" r="Q60" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="61" ht="25.5" customHeight="1">
@@ -3450,14 +3480,14 @@
       </c>
       <c r="B61" s="7"/>
       <c t="s" r="C61" s="8">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="D61" s="8"/>
       <c r="E61" s="8"/>
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
       <c t="s" r="H61" s="9">
-        <v>49</v>
+        <v>38</v>
       </c>
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
@@ -3467,7 +3497,7 @@
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
-        <v>95</v>
+        <v>175</v>
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
@@ -3490,7 +3520,7 @@
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
       <c t="s" r="H62" s="9">
-        <v>127</v>
+        <v>38</v>
       </c>
       <c r="I62" s="9"/>
       <c r="J62" s="9"/>
@@ -3500,11 +3530,11 @@
       </c>
       <c r="M62" s="10"/>
       <c t="s" r="N62" s="8">
-        <v>50</v>
+        <v>78</v>
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
-        <v>178</v>
+        <v>79</v>
       </c>
       <c t="s" r="Q62" s="12">
         <v>16</v>
@@ -3516,14 +3546,14 @@
       </c>
       <c r="B63" s="7"/>
       <c t="s" r="C63" s="8">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="D63" s="8"/>
       <c r="E63" s="8"/>
       <c r="F63" s="8"/>
       <c r="G63" s="8"/>
       <c t="s" r="H63" s="9">
-        <v>16</v>
+        <v>56</v>
       </c>
       <c r="I63" s="9"/>
       <c r="J63" s="9"/>
@@ -3533,11 +3563,11 @@
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
-        <v>180</v>
+        <v>102</v>
       </c>
       <c r="O63" s="8"/>
       <c t="s" r="P63" s="11">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c t="s" r="Q63" s="12">
         <v>16</v>
@@ -3549,14 +3579,14 @@
       </c>
       <c r="B64" s="7"/>
       <c t="s" r="C64" s="8">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="D64" s="8"/>
       <c r="E64" s="8"/>
       <c r="F64" s="8"/>
       <c r="G64" s="8"/>
       <c t="s" r="H64" s="9">
-        <v>34</v>
+        <v>132</v>
       </c>
       <c r="I64" s="9"/>
       <c r="J64" s="9"/>
@@ -3566,11 +3596,11 @@
       </c>
       <c r="M64" s="10"/>
       <c t="s" r="N64" s="8">
-        <v>183</v>
+        <v>57</v>
       </c>
       <c r="O64" s="8"/>
       <c t="s" r="P64" s="11">
-        <v>96</v>
+        <v>181</v>
       </c>
       <c t="s" r="Q64" s="12">
         <v>16</v>
@@ -3582,14 +3612,14 @@
       </c>
       <c r="B65" s="7"/>
       <c t="s" r="C65" s="8">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="D65" s="8"/>
       <c r="E65" s="8"/>
       <c r="F65" s="8"/>
       <c r="G65" s="8"/>
       <c t="s" r="H65" s="9">
-        <v>49</v>
+        <v>16</v>
       </c>
       <c r="I65" s="9"/>
       <c r="J65" s="9"/>
@@ -3599,14 +3629,14 @@
       </c>
       <c r="M65" s="10"/>
       <c t="s" r="N65" s="8">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="O65" s="8"/>
       <c t="s" r="P65" s="11">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c t="s" r="Q65" s="12">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="66" ht="25.5" customHeight="1">
@@ -3615,14 +3645,14 @@
       </c>
       <c r="B66" s="7"/>
       <c t="s" r="C66" s="8">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="D66" s="8"/>
       <c r="E66" s="8"/>
       <c r="F66" s="8"/>
       <c r="G66" s="8"/>
       <c t="s" r="H66" s="9">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="I66" s="9"/>
       <c r="J66" s="9"/>
@@ -3632,11 +3662,11 @@
       </c>
       <c r="M66" s="10"/>
       <c t="s" r="N66" s="8">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="O66" s="8"/>
       <c t="s" r="P66" s="11">
-        <v>189</v>
+        <v>103</v>
       </c>
       <c t="s" r="Q66" s="12">
         <v>16</v>
@@ -3648,14 +3678,14 @@
       </c>
       <c r="B67" s="7"/>
       <c t="s" r="C67" s="8">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="D67" s="8"/>
       <c r="E67" s="8"/>
       <c r="F67" s="8"/>
       <c r="G67" s="8"/>
       <c t="s" r="H67" s="9">
-        <v>22</v>
+        <v>56</v>
       </c>
       <c r="I67" s="9"/>
       <c r="J67" s="9"/>
@@ -3665,11 +3695,11 @@
       </c>
       <c r="M67" s="10"/>
       <c t="s" r="N67" s="8">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="O67" s="8"/>
       <c t="s" r="P67" s="11">
-        <v>155</v>
+        <v>189</v>
       </c>
       <c t="s" r="Q67" s="12">
         <v>20</v>
@@ -3681,14 +3711,14 @@
       </c>
       <c r="B68" s="7"/>
       <c t="s" r="C68" s="8">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="D68" s="8"/>
       <c r="E68" s="8"/>
       <c r="F68" s="8"/>
       <c r="G68" s="8"/>
       <c t="s" r="H68" s="9">
-        <v>20</v>
+        <v>56</v>
       </c>
       <c r="I68" s="9"/>
       <c r="J68" s="9"/>
@@ -3698,14 +3728,14 @@
       </c>
       <c r="M68" s="10"/>
       <c t="s" r="N68" s="8">
-        <v>39</v>
+        <v>191</v>
       </c>
       <c r="O68" s="8"/>
       <c t="s" r="P68" s="11">
-        <v>40</v>
+        <v>192</v>
       </c>
       <c t="s" r="Q68" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="69" ht="25.5" customHeight="1">
@@ -3721,7 +3751,7 @@
       <c r="F69" s="8"/>
       <c r="G69" s="8"/>
       <c t="s" r="H69" s="9">
-        <v>127</v>
+        <v>32</v>
       </c>
       <c r="I69" s="9"/>
       <c r="J69" s="9"/>
@@ -3731,14 +3761,14 @@
       </c>
       <c r="M69" s="10"/>
       <c t="s" r="N69" s="8">
-        <v>152</v>
+        <v>194</v>
       </c>
       <c r="O69" s="8"/>
       <c t="s" r="P69" s="11">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c t="s" r="Q69" s="12">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="70" ht="24.75" customHeight="1">
@@ -3747,14 +3777,14 @@
       </c>
       <c r="B70" s="7"/>
       <c t="s" r="C70" s="8">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="D70" s="8"/>
       <c r="E70" s="8"/>
       <c r="F70" s="8"/>
       <c r="G70" s="8"/>
       <c t="s" r="H70" s="9">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="I70" s="9"/>
       <c r="J70" s="9"/>
@@ -3764,14 +3794,14 @@
       </c>
       <c r="M70" s="10"/>
       <c t="s" r="N70" s="8">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="O70" s="8"/>
       <c t